--- a/Arbeitsplan/Iteration_Arbeitsplan.xlsx
+++ b/Arbeitsplan/Iteration_Arbeitsplan.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolicfilip/Documents/GitHub/PSE_DELIVERABLES/Arbeitsplan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kevin\Documents\PSE_DELIVERABLES\Arbeitsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BE09DB-2C12-F349-B463-479803966370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B52FCA7-7B93-435B-B0C3-406F50C3954A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
+    <workbookView xWindow="18135" yWindow="1065" windowWidth="27945" windowHeight="17850" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="56">
   <si>
     <t>Zeitplan PSE eonum AG</t>
   </si>
@@ -182,12 +192,24 @@
   <si>
     <t>Analyse 1.Iteration</t>
   </si>
+  <si>
+    <t>23.03.</t>
+  </si>
+  <si>
+    <t>Breadcrumbs</t>
+  </si>
+  <si>
+    <t>Toutorials Routing/Breadcrumbs</t>
+  </si>
+  <si>
+    <t>Kategorien Body</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,13 +856,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -843,23 +874,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -882,11 +907,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,13 +939,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1027,13 +1055,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1085,13 +1113,13 @@
     <xdr:from>
       <xdr:col>75</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1143,13 +1171,13 @@
     <xdr:from>
       <xdr:col>89</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1201,13 +1229,13 @@
     <xdr:from>
       <xdr:col>101</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>101</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1555,31 +1583,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD384E66-6977-4A33-945E-14F730629694}">
-  <dimension ref="A1:CY127"/>
+  <dimension ref="A1:CY133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP43" sqref="AP43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="6" max="102" width="5.6640625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="6" max="102" width="5.7109375" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="80" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="81"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="30">
         <v>44615</v>
       </c>
@@ -1873,7 +1901,7 @@
       </c>
       <c r="CY1" s="17"/>
     </row>
-    <row r="2" spans="1:103">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1978,7 +2006,7 @@
       <c r="CX2" s="33"/>
       <c r="CY2" s="21"/>
     </row>
-    <row r="3" spans="1:103" ht="16" thickBot="1">
+    <row r="3" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2089,7 +2117,7 @@
       <c r="CX3" s="36"/>
       <c r="CY3" s="21"/>
     </row>
-    <row r="4" spans="1:103">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2204,7 +2232,7 @@
       <c r="CX4" s="39"/>
       <c r="CY4" s="21"/>
     </row>
-    <row r="5" spans="1:103">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2319,8 +2347,8 @@
       <c r="CX5" s="42"/>
       <c r="CY5" s="21"/>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1">
-      <c r="A6" s="68" t="s">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2329,10 +2357,10 @@
       <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="71">
         <v>23.02</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="74">
         <v>16.03</v>
       </c>
       <c r="F6" s="60"/>
@@ -2440,16 +2468,16 @@
       <c r="CX6" s="62"/>
       <c r="CY6" s="21"/>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1">
-      <c r="A7" s="69"/>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="74"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="60"/>
       <c r="G7" s="61"/>
       <c r="H7" s="61"/>
@@ -2555,8 +2583,8 @@
       <c r="CX7" s="62"/>
       <c r="CY7" s="21"/>
     </row>
-    <row r="8" spans="1:103">
-      <c r="A8" s="68" t="s">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2565,10 +2593,10 @@
       <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="71">
         <v>23.02</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="74">
         <v>16.03</v>
       </c>
       <c r="F8" s="31"/>
@@ -2672,16 +2700,16 @@
       <c r="CX8" s="33"/>
       <c r="CY8" s="21"/>
     </row>
-    <row r="9" spans="1:103">
-      <c r="A9" s="69"/>
+    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A9" s="68"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="31"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -2783,7 +2811,7 @@
       <c r="CX9" s="33"/>
       <c r="CY9" s="21"/>
     </row>
-    <row r="10" spans="1:103">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -2898,8 +2926,8 @@
       <c r="CX10" s="42"/>
       <c r="CY10" s="21"/>
     </row>
-    <row r="11" spans="1:103">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2909,10 +2937,10 @@
         <f>SUM(F11:CX11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="71">
         <v>23.02</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="74">
         <v>16.03</v>
       </c>
       <c r="F11" s="31"/>
@@ -3016,8 +3044,8 @@
       <c r="CX11" s="33"/>
       <c r="CY11" s="21"/>
     </row>
-    <row r="12" spans="1:103">
-      <c r="A12" s="69"/>
+    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A12" s="68"/>
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
@@ -3025,8 +3053,8 @@
         <f>SUM(F12:CX12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="74"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -3128,8 +3156,8 @@
       <c r="CX12" s="33"/>
       <c r="CY12" s="21"/>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1">
-      <c r="A13" s="68" t="s">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="57" t="s">
@@ -3139,10 +3167,10 @@
         <f>SUM(F13:CX13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="71">
         <v>23.02</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="74">
         <v>16.03</v>
       </c>
       <c r="F13" s="31"/>
@@ -3248,8 +3276,8 @@
       <c r="CX13" s="33"/>
       <c r="CY13" s="21"/>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1">
-      <c r="A14" s="85"/>
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
       <c r="B14" s="57" t="s">
         <v>8</v>
       </c>
@@ -3257,8 +3285,8 @@
         <f>SUM(F14:CX14)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="74"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -3365,7 +3393,7 @@
       <c r="CX14" s="33"/>
       <c r="CY14" s="21"/>
     </row>
-    <row r="15" spans="1:103">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>22</v>
       </c>
@@ -3480,8 +3508,8 @@
       <c r="CX15" s="42"/>
       <c r="CY15" s="21"/>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1">
-      <c r="A16" s="68" t="s">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -3490,10 +3518,10 @@
       <c r="C16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="71">
         <v>23.02</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="74">
         <v>16.03</v>
       </c>
       <c r="F16" s="31"/>
@@ -3597,16 +3625,16 @@
       <c r="CX16" s="33"/>
       <c r="CY16" s="21"/>
     </row>
-    <row r="17" spans="1:103" s="66" customFormat="1">
-      <c r="A17" s="85"/>
+    <row r="17" spans="1:103" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
       <c r="B17" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="64">
         <v>3</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="86"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="31"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -3708,8 +3736,8 @@
       <c r="CX17" s="33"/>
       <c r="CY17" s="65"/>
     </row>
-    <row r="18" spans="1:103" s="1" customFormat="1">
-      <c r="A18" s="85" t="s">
+    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -3718,10 +3746,10 @@
       <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="69">
         <v>23.02</v>
       </c>
-      <c r="E18" s="86">
+      <c r="E18" s="75">
         <v>16.03</v>
       </c>
       <c r="F18" s="31"/>
@@ -3827,16 +3855,16 @@
       <c r="CX18" s="33"/>
       <c r="CY18" s="21"/>
     </row>
-    <row r="19" spans="1:103" s="1" customFormat="1">
-      <c r="A19" s="69"/>
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="68"/>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -3940,7 +3968,7 @@
       <c r="CX19" s="33"/>
       <c r="CY19" s="21"/>
     </row>
-    <row r="20" spans="1:103">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -4055,8 +4083,8 @@
       <c r="CX20" s="42"/>
       <c r="CY20" s="21"/>
     </row>
-    <row r="21" spans="1:103" s="1" customFormat="1">
-      <c r="A21" s="68" t="s">
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4065,10 +4093,10 @@
       <c r="C21" s="54">
         <v>1</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="71">
         <v>23.02</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="74">
         <v>16.03</v>
       </c>
       <c r="F21" s="31"/>
@@ -4172,16 +4200,16 @@
       <c r="CX21" s="33"/>
       <c r="CY21" s="21"/>
     </row>
-    <row r="22" spans="1:103" s="1" customFormat="1">
-      <c r="A22" s="69"/>
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="54">
         <v>1</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -4283,8 +4311,8 @@
       <c r="CX22" s="33"/>
       <c r="CY22" s="21"/>
     </row>
-    <row r="23" spans="1:103" s="1" customFormat="1">
-      <c r="A23" s="68" t="s">
+    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4294,10 +4322,10 @@
         <f>SUM(F23:CX23)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="71">
         <v>23.02</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="74">
         <v>16.03</v>
       </c>
       <c r="F23" s="31"/>
@@ -4407,8 +4435,8 @@
       <c r="CX23" s="33"/>
       <c r="CY23" s="21"/>
     </row>
-    <row r="24" spans="1:103" s="1" customFormat="1">
-      <c r="A24" s="69"/>
+    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="68"/>
       <c r="B24" s="7" t="s">
         <v>8</v>
       </c>
@@ -4416,8 +4444,8 @@
         <f>SUM(F24:CX24)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="74"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -4517,7 +4545,7 @@
       <c r="CX24" s="33"/>
       <c r="CY24" s="21"/>
     </row>
-    <row r="25" spans="1:103">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -4632,8 +4660,8 @@
       <c r="CX25" s="42"/>
       <c r="CY25" s="21"/>
     </row>
-    <row r="26" spans="1:103">
-      <c r="A26" s="68" t="s">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A26" s="67" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4642,10 +4670,10 @@
       <c r="C26" s="9">
         <v>4.5</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="71">
         <v>23.02</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="74">
         <v>16.03</v>
       </c>
       <c r="F26" s="31"/>
@@ -4755,16 +4783,16 @@
       <c r="CX26" s="33"/>
       <c r="CY26" s="21"/>
     </row>
-    <row r="27" spans="1:103">
-      <c r="A27" s="69"/>
+    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="9">
         <v>4.5</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="74"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="76"/>
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -4872,8 +4900,8 @@
       <c r="CX27" s="33"/>
       <c r="CY27" s="21"/>
     </row>
-    <row r="28" spans="1:103" s="1" customFormat="1">
-      <c r="A28" s="68" t="s">
+    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="67" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4882,10 +4910,10 @@
       <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="71">
         <v>23.02</v>
       </c>
-      <c r="E28" s="73">
+      <c r="E28" s="74">
         <v>16.03</v>
       </c>
       <c r="F28" s="31"/>
@@ -4991,16 +5019,16 @@
       <c r="CX28" s="33"/>
       <c r="CY28" s="21"/>
     </row>
-    <row r="29" spans="1:103" s="1" customFormat="1">
-      <c r="A29" s="69"/>
+    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="68"/>
       <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="74"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="31"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -5104,8 +5132,8 @@
       <c r="CX29" s="33"/>
       <c r="CY29" s="21"/>
     </row>
-    <row r="30" spans="1:103" s="1" customFormat="1">
-      <c r="A30" s="68" t="s">
+    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="67" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -5114,10 +5142,10 @@
       <c r="C30" s="9">
         <v>4</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="71">
         <v>23.02</v>
       </c>
-      <c r="E30" s="73">
+      <c r="E30" s="74">
         <v>16.03</v>
       </c>
       <c r="F30" s="31"/>
@@ -5225,16 +5253,16 @@
       <c r="CX30" s="33"/>
       <c r="CY30" s="21"/>
     </row>
-    <row r="31" spans="1:103" s="1" customFormat="1">
-      <c r="A31" s="69"/>
+    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="68"/>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="9">
         <v>3</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="74"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="31"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -5340,16 +5368,16 @@
       <c r="CX31" s="33"/>
       <c r="CY31" s="21"/>
     </row>
-    <row r="32" spans="1:103">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="78">
+      <c r="D32" s="77">
         <v>44636</v>
       </c>
-      <c r="E32" s="79"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="31"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -5449,7 +5477,7 @@
       <c r="CX32" s="33"/>
       <c r="CY32" s="21"/>
     </row>
-    <row r="33" spans="1:103">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>13</v>
       </c>
@@ -5564,7 +5592,7 @@
       <c r="CX33" s="46"/>
       <c r="CY33" s="21"/>
     </row>
-    <row r="34" spans="1:103">
+    <row r="34" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
@@ -5679,8 +5707,8 @@
       <c r="CX34" s="42"/>
       <c r="CY34" s="21"/>
     </row>
-    <row r="35" spans="1:103">
-      <c r="A35" s="68" t="s">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A35" s="67" t="s">
         <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -5689,10 +5717,10 @@
       <c r="C35" s="9">
         <v>3</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="69">
         <v>23.03</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="70">
         <v>6.04</v>
       </c>
       <c r="F35" s="31"/>
@@ -5800,16 +5828,16 @@
       <c r="CX35" s="33"/>
       <c r="CY35" s="21"/>
     </row>
-    <row r="36" spans="1:103">
-      <c r="A36" s="69"/>
+    <row r="36" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A36" s="68"/>
       <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="9">
         <v>6</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="72"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -5915,8 +5943,8 @@
       <c r="CX36" s="33"/>
       <c r="CY36" s="21"/>
     </row>
-    <row r="37" spans="1:103">
-      <c r="A37" s="68" t="s">
+    <row r="37" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A37" s="67" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5925,10 +5953,10 @@
       <c r="C37" s="9">
         <v>2</v>
       </c>
-      <c r="D37" s="75">
+      <c r="D37" s="69">
         <v>23.03</v>
       </c>
-      <c r="E37" s="72">
+      <c r="E37" s="70">
         <v>6.04</v>
       </c>
       <c r="F37" s="31"/>
@@ -6032,16 +6060,16 @@
       <c r="CX37" s="33"/>
       <c r="CY37" s="21"/>
     </row>
-    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A38" s="69"/>
+    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="68"/>
       <c r="B38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="9">
         <v>3</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="72"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -6143,8 +6171,8 @@
       <c r="CX38" s="33"/>
       <c r="CY38" s="21"/>
     </row>
-    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A39" s="68" t="s">
+    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="67" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -6153,10 +6181,10 @@
       <c r="C39" s="9">
         <v>2</v>
       </c>
-      <c r="D39" s="75">
+      <c r="D39" s="69">
         <v>23.03</v>
       </c>
-      <c r="E39" s="72">
+      <c r="E39" s="70">
         <v>6.04</v>
       </c>
       <c r="F39" s="31"/>
@@ -6262,16 +6290,16 @@
       <c r="CX39" s="33"/>
       <c r="CY39" s="21"/>
     </row>
-    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A40" s="69"/>
+    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="68"/>
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="9">
         <v>2</v>
       </c>
-      <c r="D40" s="75"/>
-      <c r="E40" s="72"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -6375,21 +6403,23 @@
       <c r="CX40" s="33"/>
       <c r="CY40" s="21"/>
     </row>
-    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>10</v>
+      <c r="C41" s="5">
+        <f>SUM(C42,C44,C46,C48)</f>
+        <v>23.5</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>10</v>
+      <c r="E41" s="23">
+        <f>SUM(C43,C45,C47,C49)</f>
+        <v>29</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="41"/>
@@ -6490,21 +6520,21 @@
       <c r="CX41" s="42"/>
       <c r="CY41" s="21"/>
     </row>
-    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A42" s="68" t="s">
+    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="67" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" ref="C42:C45" si="0">SUM(F42:CX42)</f>
-        <v>6</v>
-      </c>
-      <c r="D42" s="70" t="s">
+        <f>SUM(F42:CX42)</f>
+        <v>11</v>
+      </c>
+      <c r="D42" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="73">
+      <c r="E42" s="74">
         <v>6.04</v>
       </c>
       <c r="F42" s="31"/>
@@ -6535,7 +6565,7 @@
       </c>
       <c r="AD42" s="32"/>
       <c r="AE42" s="32"/>
-      <c r="AF42" s="67"/>
+      <c r="AF42" s="32"/>
       <c r="AG42" s="55">
         <v>1</v>
       </c>
@@ -6546,14 +6576,26 @@
         <v>3</v>
       </c>
       <c r="AL42" s="32"/>
-      <c r="AM42" s="32"/>
-      <c r="AN42" s="32"/>
-      <c r="AO42" s="32"/>
-      <c r="AP42" s="32"/>
-      <c r="AQ42" s="32"/>
+      <c r="AM42" s="55">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="55">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="55">
+        <v>2</v>
+      </c>
+      <c r="AP42" s="55">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="55">
+        <v>0</v>
+      </c>
       <c r="AR42" s="32"/>
-      <c r="AS42" s="32"/>
-      <c r="AT42" s="32"/>
+      <c r="AS42" s="55">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="8"/>
       <c r="AU42" s="32"/>
       <c r="AV42" s="32"/>
       <c r="AW42" s="32"/>
@@ -6610,19 +6652,19 @@
       <c r="CV42" s="32"/>
       <c r="CW42" s="32"/>
       <c r="CX42" s="33"/>
-      <c r="CY42" s="21"/>
+      <c r="CY42" s="11"/>
     </row>
-    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="69"/>
+    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="68"/>
       <c r="B43" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="74"/>
+        <f>SUM(F43:CX43)</f>
+        <v>13.5</v>
+      </c>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
       <c r="F43" s="31"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -6651,7 +6693,7 @@
       </c>
       <c r="AD43" s="32"/>
       <c r="AE43" s="32"/>
-      <c r="AF43" s="67"/>
+      <c r="AF43" s="32"/>
       <c r="AG43" s="53">
         <v>1</v>
       </c>
@@ -6662,14 +6704,25 @@
         <v>3</v>
       </c>
       <c r="AL43" s="32"/>
-      <c r="AM43" s="32"/>
-      <c r="AN43" s="32"/>
-      <c r="AO43" s="32"/>
-      <c r="AP43" s="32"/>
-      <c r="AQ43" s="32"/>
+      <c r="AM43" s="53">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="53">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="53">
+        <v>3</v>
+      </c>
+      <c r="AP43" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AQ43" s="53">
+        <v>1</v>
+      </c>
       <c r="AR43" s="32"/>
-      <c r="AS43" s="32"/>
-      <c r="AT43" s="32"/>
+      <c r="AS43" s="53">
+        <v>1</v>
+      </c>
       <c r="AU43" s="32"/>
       <c r="AV43" s="32"/>
       <c r="AW43" s="32"/>
@@ -6726,23 +6779,23 @@
       <c r="CV43" s="32"/>
       <c r="CW43" s="32"/>
       <c r="CX43" s="33"/>
-      <c r="CY43" s="21"/>
+      <c r="CY43" s="11"/>
     </row>
-    <row r="44" spans="1:103">
-      <c r="A44" s="68" t="s">
+    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="67" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="D44" s="70" t="s">
+        <f>SUM(F44:CX44)</f>
+        <v>5.5</v>
+      </c>
+      <c r="D44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="73">
+      <c r="E44" s="74">
         <v>6.04</v>
       </c>
       <c r="F44" s="31"/>
@@ -6768,7 +6821,7 @@
       <c r="Z44" s="32"/>
       <c r="AA44" s="32"/>
       <c r="AB44" s="32"/>
-      <c r="AC44" s="67"/>
+      <c r="AC44" s="32"/>
       <c r="AD44" s="55">
         <v>1</v>
       </c>
@@ -6784,7 +6837,7 @@
       </c>
       <c r="AI44" s="32"/>
       <c r="AJ44" s="32"/>
-      <c r="AK44" s="67"/>
+      <c r="AK44" s="32"/>
       <c r="AL44" s="55">
         <v>1</v>
       </c>
@@ -6795,7 +6848,9 @@
       <c r="AQ44" s="32"/>
       <c r="AR44" s="32"/>
       <c r="AS44" s="32"/>
-      <c r="AT44" s="32"/>
+      <c r="AT44" s="55">
+        <v>1</v>
+      </c>
       <c r="AU44" s="32"/>
       <c r="AV44" s="32"/>
       <c r="AW44" s="32"/>
@@ -6852,19 +6907,19 @@
       <c r="CV44" s="32"/>
       <c r="CW44" s="32"/>
       <c r="CX44" s="33"/>
-      <c r="CY44" s="21"/>
+      <c r="CY44" s="11"/>
     </row>
-    <row r="45" spans="1:103">
-      <c r="A45" s="69"/>
+    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="68"/>
       <c r="B45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="74"/>
+        <f>SUM(F45:CX45)</f>
+        <v>6.5</v>
+      </c>
+      <c r="D45" s="72"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="31"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -6888,7 +6943,7 @@
       <c r="Z45" s="32"/>
       <c r="AA45" s="32"/>
       <c r="AB45" s="32"/>
-      <c r="AC45" s="67"/>
+      <c r="AC45" s="32"/>
       <c r="AD45" s="53">
         <v>1</v>
       </c>
@@ -6904,7 +6959,7 @@
       </c>
       <c r="AI45" s="32"/>
       <c r="AJ45" s="32"/>
-      <c r="AK45" s="67"/>
+      <c r="AK45" s="32"/>
       <c r="AL45" s="53">
         <v>1</v>
       </c>
@@ -6915,7 +6970,9 @@
       <c r="AQ45" s="32"/>
       <c r="AR45" s="32"/>
       <c r="AS45" s="32"/>
-      <c r="AT45" s="32"/>
+      <c r="AT45" s="53">
+        <v>1</v>
+      </c>
       <c r="AU45" s="32"/>
       <c r="AV45" s="32"/>
       <c r="AW45" s="32"/>
@@ -6972,23 +7029,23 @@
       <c r="CV45" s="32"/>
       <c r="CW45" s="32"/>
       <c r="CX45" s="33"/>
-      <c r="CY45" s="21"/>
+      <c r="CY45" s="11"/>
     </row>
-    <row r="46" spans="1:103">
-      <c r="A46" s="68" t="s">
+    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="67" t="s">
         <v>41</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="9">
-        <f t="shared" ref="C46:C47" si="1">SUM(F46:CX46)</f>
+        <f>SUM(F46:CX46)</f>
         <v>1</v>
       </c>
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="74">
         <v>6.04</v>
       </c>
       <c r="F46" s="31"/>
@@ -7014,18 +7071,18 @@
       <c r="Z46" s="32"/>
       <c r="AA46" s="32"/>
       <c r="AB46" s="32"/>
-      <c r="AC46" s="67"/>
-      <c r="AD46" s="67"/>
-      <c r="AE46" s="67"/>
-      <c r="AF46" s="67"/>
-      <c r="AG46" s="67"/>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="32"/>
+      <c r="AF46" s="32"/>
+      <c r="AG46" s="32"/>
       <c r="AH46" s="55">
         <v>1</v>
       </c>
-      <c r="AI46" s="67"/>
-      <c r="AJ46" s="67"/>
-      <c r="AK46" s="67"/>
-      <c r="AL46" s="67"/>
+      <c r="AI46" s="32"/>
+      <c r="AJ46" s="32"/>
+      <c r="AK46" s="32"/>
+      <c r="AL46" s="32"/>
       <c r="AM46" s="32"/>
       <c r="AN46" s="32"/>
       <c r="AO46" s="32"/>
@@ -7090,19 +7147,19 @@
       <c r="CV46" s="32"/>
       <c r="CW46" s="32"/>
       <c r="CX46" s="33"/>
-      <c r="CY46" s="21"/>
+      <c r="CY46" s="11"/>
     </row>
-    <row r="47" spans="1:103">
-      <c r="A47" s="69"/>
+    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="68"/>
       <c r="B47" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="9">
-        <f t="shared" si="1"/>
+        <f>SUM(F47:CX47)</f>
         <v>1</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="74"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="76"/>
       <c r="F47" s="31"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -7126,18 +7183,18 @@
       <c r="Z47" s="32"/>
       <c r="AA47" s="32"/>
       <c r="AB47" s="32"/>
-      <c r="AC47" s="67"/>
-      <c r="AD47" s="67"/>
-      <c r="AE47" s="67"/>
-      <c r="AF47" s="67"/>
-      <c r="AG47" s="67"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
       <c r="AH47" s="53">
         <v>1</v>
       </c>
-      <c r="AI47" s="67"/>
-      <c r="AJ47" s="67"/>
-      <c r="AK47" s="67"/>
-      <c r="AL47" s="67"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
       <c r="AM47" s="32"/>
       <c r="AN47" s="32"/>
       <c r="AO47" s="32"/>
@@ -7202,137 +7259,141 @@
       <c r="CV47" s="32"/>
       <c r="CW47" s="32"/>
       <c r="CX47" s="33"/>
-      <c r="CY47" s="21"/>
+      <c r="CY47" s="11"/>
     </row>
-    <row r="48" spans="1:103">
-      <c r="A48" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="41"/>
-      <c r="AF48" s="41"/>
-      <c r="AG48" s="41"/>
-      <c r="AH48" s="41"/>
-      <c r="AI48" s="41"/>
-      <c r="AJ48" s="41"/>
-      <c r="AK48" s="41"/>
-      <c r="AL48" s="41"/>
-      <c r="AM48" s="41"/>
-      <c r="AN48" s="41"/>
-      <c r="AO48" s="41"/>
-      <c r="AP48" s="41"/>
-      <c r="AQ48" s="41"/>
-      <c r="AR48" s="41"/>
-      <c r="AS48" s="41"/>
-      <c r="AT48" s="41"/>
-      <c r="AU48" s="41"/>
-      <c r="AV48" s="41"/>
-      <c r="AW48" s="41"/>
-      <c r="AX48" s="41"/>
-      <c r="AY48" s="41"/>
-      <c r="AZ48" s="41"/>
-      <c r="BA48" s="41"/>
-      <c r="BB48" s="41"/>
-      <c r="BC48" s="41"/>
-      <c r="BD48" s="41"/>
-      <c r="BE48" s="41"/>
-      <c r="BF48" s="41"/>
-      <c r="BG48" s="41"/>
-      <c r="BH48" s="41"/>
-      <c r="BI48" s="41"/>
-      <c r="BJ48" s="41"/>
-      <c r="BK48" s="41"/>
-      <c r="BL48" s="41"/>
-      <c r="BM48" s="41"/>
-      <c r="BN48" s="41"/>
-      <c r="BO48" s="41"/>
-      <c r="BP48" s="41"/>
-      <c r="BQ48" s="41"/>
-      <c r="BR48" s="41"/>
-      <c r="BS48" s="41"/>
-      <c r="BT48" s="41"/>
-      <c r="BU48" s="41"/>
-      <c r="BV48" s="41"/>
-      <c r="BW48" s="41"/>
-      <c r="BX48" s="41"/>
-      <c r="BY48" s="41"/>
-      <c r="BZ48" s="41"/>
-      <c r="CA48" s="41"/>
-      <c r="CB48" s="41"/>
-      <c r="CC48" s="41"/>
-      <c r="CD48" s="41"/>
-      <c r="CE48" s="41"/>
-      <c r="CF48" s="41"/>
-      <c r="CG48" s="41"/>
-      <c r="CH48" s="41"/>
-      <c r="CI48" s="41"/>
-      <c r="CJ48" s="41"/>
-      <c r="CK48" s="41"/>
-      <c r="CL48" s="41"/>
-      <c r="CM48" s="41"/>
-      <c r="CN48" s="41"/>
-      <c r="CO48" s="41"/>
-      <c r="CP48" s="41"/>
-      <c r="CQ48" s="41"/>
-      <c r="CR48" s="41"/>
-      <c r="CS48" s="41"/>
-      <c r="CT48" s="41"/>
-      <c r="CU48" s="41"/>
-      <c r="CV48" s="41"/>
-      <c r="CW48" s="41"/>
-      <c r="CX48" s="42"/>
-      <c r="CY48" s="21"/>
+    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="9">
+        <f>SUM(F48:CX48)</f>
+        <v>6</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="74">
+        <v>6.04</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="32"/>
+      <c r="AJ48" s="32"/>
+      <c r="AK48" s="32"/>
+      <c r="AL48" s="32"/>
+      <c r="AM48" s="32"/>
+      <c r="AN48" s="32"/>
+      <c r="AO48" s="32"/>
+      <c r="AP48" s="32"/>
+      <c r="AQ48" s="32"/>
+      <c r="AR48" s="32"/>
+      <c r="AS48" s="32"/>
+      <c r="AT48" s="55">
+        <v>2</v>
+      </c>
+      <c r="AU48" s="32"/>
+      <c r="AV48" s="32"/>
+      <c r="AW48" s="32"/>
+      <c r="AX48" s="55">
+        <v>2</v>
+      </c>
+      <c r="AY48" s="55">
+        <v>2</v>
+      </c>
+      <c r="AZ48" s="32"/>
+      <c r="BA48" s="32"/>
+      <c r="BB48" s="32"/>
+      <c r="BC48" s="32"/>
+      <c r="BD48" s="32"/>
+      <c r="BE48" s="32"/>
+      <c r="BF48" s="32"/>
+      <c r="BG48" s="32"/>
+      <c r="BH48" s="32"/>
+      <c r="BI48" s="32"/>
+      <c r="BJ48" s="32"/>
+      <c r="BK48" s="32"/>
+      <c r="BL48" s="32"/>
+      <c r="BM48" s="32"/>
+      <c r="BN48" s="32"/>
+      <c r="BO48" s="32"/>
+      <c r="BP48" s="32"/>
+      <c r="BQ48" s="32"/>
+      <c r="BR48" s="32"/>
+      <c r="BS48" s="32"/>
+      <c r="BT48" s="32"/>
+      <c r="BU48" s="32"/>
+      <c r="BV48" s="32"/>
+      <c r="BW48" s="32"/>
+      <c r="BX48" s="32"/>
+      <c r="BY48" s="32"/>
+      <c r="BZ48" s="32"/>
+      <c r="CA48" s="32"/>
+      <c r="CB48" s="32"/>
+      <c r="CC48" s="32"/>
+      <c r="CD48" s="32"/>
+      <c r="CE48" s="32"/>
+      <c r="CF48" s="32"/>
+      <c r="CG48" s="32"/>
+      <c r="CH48" s="32"/>
+      <c r="CI48" s="32"/>
+      <c r="CJ48" s="32"/>
+      <c r="CK48" s="32"/>
+      <c r="CL48" s="32"/>
+      <c r="CM48" s="32"/>
+      <c r="CN48" s="32"/>
+      <c r="CO48" s="32"/>
+      <c r="CP48" s="32"/>
+      <c r="CQ48" s="32"/>
+      <c r="CR48" s="32"/>
+      <c r="CS48" s="32"/>
+      <c r="CT48" s="32"/>
+      <c r="CU48" s="32"/>
+      <c r="CV48" s="32"/>
+      <c r="CW48" s="32"/>
+      <c r="CX48" s="33"/>
+      <c r="CY48" s="11"/>
     </row>
-    <row r="49" spans="1:103">
+    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="68"/>
       <c r="B49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="75">
-        <v>23.03</v>
-      </c>
-      <c r="E49" s="72">
-        <v>6.04</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C49" s="9">
+        <f>SUM(F49:CX49)</f>
+        <v>8</v>
+      </c>
+      <c r="D49" s="72"/>
+      <c r="E49" s="76"/>
       <c r="F49" s="31"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -7373,12 +7434,18 @@
       <c r="AQ49" s="32"/>
       <c r="AR49" s="32"/>
       <c r="AS49" s="32"/>
-      <c r="AT49" s="32"/>
+      <c r="AT49" s="53">
+        <v>4</v>
+      </c>
       <c r="AU49" s="32"/>
       <c r="AV49" s="32"/>
       <c r="AW49" s="32"/>
-      <c r="AX49" s="32"/>
-      <c r="AY49" s="32"/>
+      <c r="AX49" s="53">
+        <v>2</v>
+      </c>
+      <c r="AY49" s="53">
+        <v>2</v>
+      </c>
       <c r="AZ49" s="32"/>
       <c r="BA49" s="32"/>
       <c r="BB49" s="32"/>
@@ -7430,248 +7497,254 @@
       <c r="CV49" s="32"/>
       <c r="CW49" s="32"/>
       <c r="CX49" s="33"/>
-      <c r="CY49" s="21"/>
+      <c r="CY49" s="11"/>
     </row>
-    <row r="50" spans="1:103" s="1" customFormat="1">
-      <c r="A50" s="69"/>
-      <c r="B50" s="7" t="s">
+    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5">
+        <f>SUM(C51,C53,C55)</f>
+        <v>10</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="E50" s="23">
+        <f>SUM(C52,C54,C56)</f>
         <v>11</v>
       </c>
-      <c r="D50" s="75"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="32"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="32"/>
-      <c r="AJ50" s="32"/>
-      <c r="AK50" s="32"/>
-      <c r="AL50" s="32"/>
-      <c r="AM50" s="32"/>
-      <c r="AN50" s="32"/>
-      <c r="AO50" s="32"/>
-      <c r="AP50" s="32"/>
-      <c r="AQ50" s="32"/>
-      <c r="AR50" s="32"/>
-      <c r="AS50" s="32"/>
-      <c r="AT50" s="32"/>
-      <c r="AU50" s="32"/>
-      <c r="AV50" s="32"/>
-      <c r="AW50" s="32"/>
-      <c r="AX50" s="32"/>
-      <c r="AY50" s="32"/>
-      <c r="AZ50" s="32"/>
-      <c r="BA50" s="32"/>
-      <c r="BB50" s="32"/>
-      <c r="BC50" s="32"/>
-      <c r="BD50" s="32"/>
-      <c r="BE50" s="32"/>
-      <c r="BF50" s="32"/>
-      <c r="BG50" s="32"/>
-      <c r="BH50" s="32"/>
-      <c r="BI50" s="32"/>
-      <c r="BJ50" s="32"/>
-      <c r="BK50" s="32"/>
-      <c r="BL50" s="32"/>
-      <c r="BM50" s="32"/>
-      <c r="BN50" s="32"/>
-      <c r="BO50" s="32"/>
-      <c r="BP50" s="32"/>
-      <c r="BQ50" s="32"/>
-      <c r="BR50" s="32"/>
-      <c r="BS50" s="32"/>
-      <c r="BT50" s="32"/>
-      <c r="BU50" s="32"/>
-      <c r="BV50" s="32"/>
-      <c r="BW50" s="32"/>
-      <c r="BX50" s="32"/>
-      <c r="BY50" s="32"/>
-      <c r="BZ50" s="32"/>
-      <c r="CA50" s="32"/>
-      <c r="CB50" s="32"/>
-      <c r="CC50" s="32"/>
-      <c r="CD50" s="32"/>
-      <c r="CE50" s="32"/>
-      <c r="CF50" s="32"/>
-      <c r="CG50" s="32"/>
-      <c r="CH50" s="32"/>
-      <c r="CI50" s="32"/>
-      <c r="CJ50" s="32"/>
-      <c r="CK50" s="32"/>
-      <c r="CL50" s="32"/>
-      <c r="CM50" s="32"/>
-      <c r="CN50" s="32"/>
-      <c r="CO50" s="32"/>
-      <c r="CP50" s="32"/>
-      <c r="CQ50" s="32"/>
-      <c r="CR50" s="32"/>
-      <c r="CS50" s="32"/>
-      <c r="CT50" s="32"/>
-      <c r="CU50" s="32"/>
-      <c r="CV50" s="32"/>
-      <c r="CW50" s="32"/>
-      <c r="CX50" s="33"/>
-      <c r="CY50" s="21"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="41"/>
+      <c r="AB50" s="41"/>
+      <c r="AC50" s="41"/>
+      <c r="AD50" s="41"/>
+      <c r="AE50" s="41"/>
+      <c r="AF50" s="41"/>
+      <c r="AG50" s="41"/>
+      <c r="AH50" s="41"/>
+      <c r="AI50" s="41"/>
+      <c r="AJ50" s="41"/>
+      <c r="AK50" s="41"/>
+      <c r="AL50" s="41"/>
+      <c r="AM50" s="41"/>
+      <c r="AN50" s="41"/>
+      <c r="AO50" s="41"/>
+      <c r="AP50" s="41"/>
+      <c r="AQ50" s="41"/>
+      <c r="AR50" s="41"/>
+      <c r="AS50" s="41"/>
+      <c r="AT50" s="41"/>
+      <c r="AU50" s="41"/>
+      <c r="AV50" s="41"/>
+      <c r="AW50" s="41"/>
+      <c r="AX50" s="41"/>
+      <c r="AY50" s="41"/>
+      <c r="AZ50" s="41"/>
+      <c r="BA50" s="41"/>
+      <c r="BB50" s="41"/>
+      <c r="BC50" s="41"/>
+      <c r="BD50" s="41"/>
+      <c r="BE50" s="41"/>
+      <c r="BF50" s="41"/>
+      <c r="BG50" s="41"/>
+      <c r="BH50" s="41"/>
+      <c r="BI50" s="41"/>
+      <c r="BJ50" s="41"/>
+      <c r="BK50" s="41"/>
+      <c r="BL50" s="41"/>
+      <c r="BM50" s="41"/>
+      <c r="BN50" s="41"/>
+      <c r="BO50" s="41"/>
+      <c r="BP50" s="41"/>
+      <c r="BQ50" s="41"/>
+      <c r="BR50" s="41"/>
+      <c r="BS50" s="41"/>
+      <c r="BT50" s="41"/>
+      <c r="BU50" s="41"/>
+      <c r="BV50" s="41"/>
+      <c r="BW50" s="41"/>
+      <c r="BX50" s="41"/>
+      <c r="BY50" s="41"/>
+      <c r="BZ50" s="41"/>
+      <c r="CA50" s="41"/>
+      <c r="CB50" s="41"/>
+      <c r="CC50" s="41"/>
+      <c r="CD50" s="41"/>
+      <c r="CE50" s="41"/>
+      <c r="CF50" s="41"/>
+      <c r="CG50" s="41"/>
+      <c r="CH50" s="41"/>
+      <c r="CI50" s="41"/>
+      <c r="CJ50" s="41"/>
+      <c r="CK50" s="41"/>
+      <c r="CL50" s="41"/>
+      <c r="CM50" s="41"/>
+      <c r="CN50" s="41"/>
+      <c r="CO50" s="41"/>
+      <c r="CP50" s="41"/>
+      <c r="CQ50" s="41"/>
+      <c r="CR50" s="41"/>
+      <c r="CS50" s="41"/>
+      <c r="CT50" s="41"/>
+      <c r="CU50" s="41"/>
+      <c r="CV50" s="41"/>
+      <c r="CW50" s="41"/>
+      <c r="CX50" s="42"/>
+      <c r="CY50" s="11"/>
     </row>
-    <row r="51" spans="1:103" s="1" customFormat="1">
-      <c r="A51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="19" t="s">
+    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="9">
+        <v>3</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="74">
+        <v>6.04</v>
+      </c>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
+      <c r="AJ51" s="32"/>
+      <c r="AK51" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="32"/>
+      <c r="AM51" s="32"/>
+      <c r="AN51" s="32"/>
+      <c r="AO51" s="32"/>
+      <c r="AP51" s="32"/>
+      <c r="AQ51" s="32"/>
+      <c r="AR51" s="32"/>
+      <c r="AS51" s="55">
+        <v>2</v>
+      </c>
+      <c r="AT51" s="32"/>
+      <c r="AU51" s="32"/>
+      <c r="AV51" s="32"/>
+      <c r="AW51" s="32"/>
+      <c r="AX51" s="32"/>
+      <c r="AY51" s="32"/>
+      <c r="AZ51" s="32"/>
+      <c r="BA51" s="32"/>
+      <c r="BB51" s="32"/>
+      <c r="BC51" s="32"/>
+      <c r="BD51" s="32"/>
+      <c r="BE51" s="32"/>
+      <c r="BF51" s="32"/>
+      <c r="BG51" s="32"/>
+      <c r="BH51" s="32"/>
+      <c r="BI51" s="32"/>
+      <c r="BJ51" s="32"/>
+      <c r="BK51" s="32"/>
+      <c r="BL51" s="32"/>
+      <c r="BM51" s="32"/>
+      <c r="BN51" s="32"/>
+      <c r="BO51" s="32"/>
+      <c r="BP51" s="32"/>
+      <c r="BQ51" s="32"/>
+      <c r="BR51" s="32"/>
+      <c r="BS51" s="32"/>
+      <c r="BT51" s="32"/>
+      <c r="BU51" s="32"/>
+      <c r="BV51" s="32"/>
+      <c r="BW51" s="32"/>
+      <c r="BX51" s="32"/>
+      <c r="BY51" s="32"/>
+      <c r="BZ51" s="32"/>
+      <c r="CA51" s="32"/>
+      <c r="CB51" s="32"/>
+      <c r="CC51" s="32"/>
+      <c r="CD51" s="32"/>
+      <c r="CE51" s="32"/>
+      <c r="CF51" s="32"/>
+      <c r="CG51" s="32"/>
+      <c r="CH51" s="32"/>
+      <c r="CI51" s="32"/>
+      <c r="CJ51" s="32"/>
+      <c r="CK51" s="32"/>
+      <c r="CL51" s="32"/>
+      <c r="CM51" s="32"/>
+      <c r="CN51" s="32"/>
+      <c r="CO51" s="32"/>
+      <c r="CP51" s="32"/>
+      <c r="CQ51" s="32"/>
+      <c r="CR51" s="32"/>
+      <c r="CS51" s="32"/>
+      <c r="CT51" s="32"/>
+      <c r="CU51" s="32"/>
+      <c r="CV51" s="32"/>
+      <c r="CW51" s="32"/>
+      <c r="CX51" s="33"/>
+      <c r="CY51" s="11"/>
+    </row>
+    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="68"/>
+      <c r="B52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41"/>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41"/>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="41"/>
-      <c r="AG51" s="41"/>
-      <c r="AH51" s="41"/>
-      <c r="AI51" s="41"/>
-      <c r="AJ51" s="41"/>
-      <c r="AK51" s="41"/>
-      <c r="AL51" s="41"/>
-      <c r="AM51" s="41"/>
-      <c r="AN51" s="41"/>
-      <c r="AO51" s="41"/>
-      <c r="AP51" s="41"/>
-      <c r="AQ51" s="41"/>
-      <c r="AR51" s="41"/>
-      <c r="AS51" s="41"/>
-      <c r="AT51" s="41"/>
-      <c r="AU51" s="41"/>
-      <c r="AV51" s="41"/>
-      <c r="AW51" s="41"/>
-      <c r="AX51" s="41"/>
-      <c r="AY51" s="41"/>
-      <c r="AZ51" s="41"/>
-      <c r="BA51" s="41"/>
-      <c r="BB51" s="41"/>
-      <c r="BC51" s="41"/>
-      <c r="BD51" s="41"/>
-      <c r="BE51" s="41"/>
-      <c r="BF51" s="41"/>
-      <c r="BG51" s="41"/>
-      <c r="BH51" s="41"/>
-      <c r="BI51" s="41"/>
-      <c r="BJ51" s="41"/>
-      <c r="BK51" s="41"/>
-      <c r="BL51" s="41"/>
-      <c r="BM51" s="41"/>
-      <c r="BN51" s="41"/>
-      <c r="BO51" s="41"/>
-      <c r="BP51" s="41"/>
-      <c r="BQ51" s="41"/>
-      <c r="BR51" s="41"/>
-      <c r="BS51" s="41"/>
-      <c r="BT51" s="41"/>
-      <c r="BU51" s="41"/>
-      <c r="BV51" s="41"/>
-      <c r="BW51" s="41"/>
-      <c r="BX51" s="41"/>
-      <c r="BY51" s="41"/>
-      <c r="BZ51" s="41"/>
-      <c r="CA51" s="41"/>
-      <c r="CB51" s="41"/>
-      <c r="CC51" s="41"/>
-      <c r="CD51" s="41"/>
-      <c r="CE51" s="41"/>
-      <c r="CF51" s="41"/>
-      <c r="CG51" s="41"/>
-      <c r="CH51" s="41"/>
-      <c r="CI51" s="41"/>
-      <c r="CJ51" s="41"/>
-      <c r="CK51" s="41"/>
-      <c r="CL51" s="41"/>
-      <c r="CM51" s="41"/>
-      <c r="CN51" s="41"/>
-      <c r="CO51" s="41"/>
-      <c r="CP51" s="41"/>
-      <c r="CQ51" s="41"/>
-      <c r="CR51" s="41"/>
-      <c r="CS51" s="41"/>
-      <c r="CT51" s="41"/>
-      <c r="CU51" s="41"/>
-      <c r="CV51" s="41"/>
-      <c r="CW51" s="41"/>
-      <c r="CX51" s="42"/>
-      <c r="CY51" s="21"/>
-    </row>
-    <row r="52" spans="1:103" s="1" customFormat="1">
-      <c r="A52" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="C52" s="9">
-        <v>4</v>
-      </c>
-      <c r="D52" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="72">
-        <v>6.04</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D52" s="72"/>
+      <c r="E52" s="76"/>
       <c r="F52" s="31"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -7695,23 +7768,17 @@
       <c r="Z52" s="32"/>
       <c r="AA52" s="32"/>
       <c r="AB52" s="32"/>
-      <c r="AC52" s="55">
-        <v>2</v>
-      </c>
-      <c r="AD52" s="55">
-        <v>2</v>
-      </c>
+      <c r="AC52" s="32"/>
+      <c r="AD52" s="32"/>
       <c r="AE52" s="32"/>
-      <c r="AF52" s="55">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="55">
-        <v>0</v>
-      </c>
+      <c r="AF52" s="32"/>
+      <c r="AG52" s="32"/>
       <c r="AH52" s="32"/>
       <c r="AI52" s="32"/>
       <c r="AJ52" s="32"/>
-      <c r="AK52" s="32"/>
+      <c r="AK52" s="53">
+        <v>1</v>
+      </c>
       <c r="AL52" s="32"/>
       <c r="AM52" s="32"/>
       <c r="AN52" s="32"/>
@@ -7719,7 +7786,9 @@
       <c r="AP52" s="32"/>
       <c r="AQ52" s="32"/>
       <c r="AR52" s="32"/>
-      <c r="AS52" s="32"/>
+      <c r="AS52" s="53">
+        <v>2</v>
+      </c>
       <c r="AT52" s="32"/>
       <c r="AU52" s="32"/>
       <c r="AV52" s="32"/>
@@ -7777,18 +7846,24 @@
       <c r="CV52" s="32"/>
       <c r="CW52" s="32"/>
       <c r="CX52" s="33"/>
-      <c r="CY52" s="21"/>
+      <c r="CY52" s="11"/>
     </row>
-    <row r="53" spans="1:103" s="1" customFormat="1">
-      <c r="A53" s="77"/>
+    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="67" t="s">
+        <v>53</v>
+      </c>
       <c r="B53" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" s="9">
-        <v>10</v>
-      </c>
-      <c r="D53" s="71"/>
-      <c r="E53" s="72"/>
+        <v>6</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="74">
+        <v>6.04</v>
+      </c>
       <c r="F53" s="31"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
@@ -7812,32 +7887,34 @@
       <c r="Z53" s="32"/>
       <c r="AA53" s="32"/>
       <c r="AB53" s="32"/>
-      <c r="AC53" s="53">
-        <v>2</v>
-      </c>
-      <c r="AD53" s="53">
-        <v>2</v>
-      </c>
+      <c r="AC53" s="32"/>
+      <c r="AD53" s="32"/>
       <c r="AE53" s="32"/>
-      <c r="AF53" s="53">
-        <v>4</v>
-      </c>
-      <c r="AG53" s="53">
-        <v>2</v>
-      </c>
+      <c r="AF53" s="32"/>
+      <c r="AG53" s="32"/>
       <c r="AH53" s="32"/>
       <c r="AI53" s="32"/>
       <c r="AJ53" s="32"/>
       <c r="AK53" s="32"/>
-      <c r="AL53" s="32"/>
+      <c r="AL53" s="55">
+        <v>0.5</v>
+      </c>
       <c r="AM53" s="32"/>
       <c r="AN53" s="32"/>
       <c r="AO53" s="32"/>
       <c r="AP53" s="32"/>
-      <c r="AQ53" s="32"/>
-      <c r="AR53" s="32"/>
-      <c r="AS53" s="32"/>
-      <c r="AT53" s="32"/>
+      <c r="AQ53" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR53" s="55">
+        <v>2</v>
+      </c>
+      <c r="AS53" s="55">
+        <v>1</v>
+      </c>
+      <c r="AT53" s="55">
+        <v>0.5</v>
+      </c>
       <c r="AU53" s="32"/>
       <c r="AV53" s="32"/>
       <c r="AW53" s="32"/>
@@ -7894,24 +7971,17 @@
       <c r="CV53" s="32"/>
       <c r="CW53" s="32"/>
       <c r="CX53" s="33"/>
-      <c r="CY53" s="21"/>
     </row>
-    <row r="54" spans="1:103">
-      <c r="A54" s="76" t="s">
-        <v>48</v>
-      </c>
+    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="68"/>
       <c r="B54" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" s="9">
-        <v>2</v>
-      </c>
-      <c r="D54" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="72">
-        <v>6.04</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D54" s="72"/>
+      <c r="E54" s="76"/>
       <c r="F54" s="31"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -7940,23 +8010,29 @@
       <c r="AE54" s="32"/>
       <c r="AF54" s="32"/>
       <c r="AG54" s="32"/>
-      <c r="AH54" s="55">
-        <v>1</v>
-      </c>
-      <c r="AI54" s="55">
-        <v>1</v>
-      </c>
+      <c r="AH54" s="32"/>
+      <c r="AI54" s="32"/>
       <c r="AJ54" s="32"/>
       <c r="AK54" s="32"/>
-      <c r="AL54" s="32"/>
+      <c r="AL54" s="53">
+        <v>0.5</v>
+      </c>
       <c r="AM54" s="32"/>
       <c r="AN54" s="32"/>
       <c r="AO54" s="32"/>
       <c r="AP54" s="32"/>
-      <c r="AQ54" s="32"/>
-      <c r="AR54" s="32"/>
-      <c r="AS54" s="32"/>
-      <c r="AT54" s="32"/>
+      <c r="AQ54" s="53">
+        <v>2</v>
+      </c>
+      <c r="AR54" s="53">
+        <v>2</v>
+      </c>
+      <c r="AS54" s="53">
+        <v>2</v>
+      </c>
+      <c r="AT54" s="53">
+        <v>0.5</v>
+      </c>
       <c r="AU54" s="32"/>
       <c r="AV54" s="32"/>
       <c r="AW54" s="32"/>
@@ -8013,18 +8089,24 @@
       <c r="CV54" s="32"/>
       <c r="CW54" s="32"/>
       <c r="CX54" s="33"/>
-      <c r="CY54" s="21"/>
+      <c r="CY54" s="11"/>
     </row>
-    <row r="55" spans="1:103">
-      <c r="A55" s="77"/>
+    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="67" t="s">
+        <v>41</v>
+      </c>
       <c r="B55" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" s="9">
-        <v>2</v>
-      </c>
-      <c r="D55" s="71"/>
-      <c r="E55" s="72"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="74">
+        <v>6.04</v>
+      </c>
       <c r="F55" s="31"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
@@ -8053,18 +8135,16 @@
       <c r="AE55" s="32"/>
       <c r="AF55" s="32"/>
       <c r="AG55" s="32"/>
-      <c r="AH55" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI55" s="53">
-        <v>1</v>
-      </c>
+      <c r="AH55" s="32"/>
+      <c r="AI55" s="32"/>
       <c r="AJ55" s="32"/>
       <c r="AK55" s="32"/>
       <c r="AL55" s="32"/>
       <c r="AM55" s="32"/>
       <c r="AN55" s="32"/>
-      <c r="AO55" s="32"/>
+      <c r="AO55" s="86">
+        <v>1</v>
+      </c>
       <c r="AP55" s="32"/>
       <c r="AQ55" s="32"/>
       <c r="AR55" s="32"/>
@@ -8126,24 +8206,18 @@
       <c r="CV55" s="32"/>
       <c r="CW55" s="32"/>
       <c r="CX55" s="33"/>
-      <c r="CY55" s="21"/>
+      <c r="CY55" s="11"/>
     </row>
-    <row r="56" spans="1:103">
-      <c r="A56" s="68" t="s">
-        <v>49</v>
-      </c>
+    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="68"/>
       <c r="B56" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" s="9">
-        <v>4</v>
-      </c>
-      <c r="D56" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="72">
-        <v>6.04</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D56" s="72"/>
+      <c r="E56" s="76"/>
       <c r="F56" s="31"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -8175,13 +8249,11 @@
       <c r="AH56" s="32"/>
       <c r="AI56" s="32"/>
       <c r="AJ56" s="32"/>
-      <c r="AK56" s="55">
-        <v>1</v>
-      </c>
+      <c r="AK56" s="32"/>
       <c r="AL56" s="32"/>
       <c r="AM56" s="32"/>
       <c r="AN56" s="32"/>
-      <c r="AO56" s="55">
+      <c r="AO56" s="53">
         <v>1</v>
       </c>
       <c r="AP56" s="32"/>
@@ -8245,250 +8317,257 @@
       <c r="CV56" s="32"/>
       <c r="CW56" s="32"/>
       <c r="CX56" s="33"/>
-      <c r="CY56" s="21"/>
     </row>
-    <row r="57" spans="1:103" s="1" customFormat="1">
-      <c r="A57" s="69"/>
-      <c r="B57" s="7" t="s">
+    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="5">
+        <f>SUM(C58,C60,C62)</f>
         <v>8</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="32"/>
-      <c r="W57" s="32"/>
-      <c r="X57" s="32"/>
-      <c r="Y57" s="32"/>
-      <c r="Z57" s="32"/>
-      <c r="AA57" s="32"/>
-      <c r="AB57" s="32"/>
-      <c r="AC57" s="32"/>
-      <c r="AD57" s="32"/>
-      <c r="AE57" s="32"/>
-      <c r="AF57" s="32"/>
-      <c r="AG57" s="32"/>
-      <c r="AH57" s="32"/>
-      <c r="AI57" s="32"/>
-      <c r="AJ57" s="32"/>
-      <c r="AK57" s="53">
-        <v>1</v>
-      </c>
-      <c r="AL57" s="32"/>
-      <c r="AM57" s="32"/>
-      <c r="AN57" s="32"/>
-      <c r="AO57" s="53">
-        <v>1</v>
-      </c>
-      <c r="AP57" s="32"/>
-      <c r="AQ57" s="32"/>
-      <c r="AR57" s="32"/>
-      <c r="AS57" s="32"/>
-      <c r="AT57" s="32"/>
-      <c r="AU57" s="32"/>
-      <c r="AV57" s="32"/>
-      <c r="AW57" s="32"/>
-      <c r="AX57" s="32"/>
-      <c r="AY57" s="32"/>
-      <c r="AZ57" s="32"/>
-      <c r="BA57" s="32"/>
-      <c r="BB57" s="32"/>
-      <c r="BC57" s="32"/>
-      <c r="BD57" s="32"/>
-      <c r="BE57" s="32"/>
-      <c r="BF57" s="32"/>
-      <c r="BG57" s="32"/>
-      <c r="BH57" s="32"/>
-      <c r="BI57" s="32"/>
-      <c r="BJ57" s="32"/>
-      <c r="BK57" s="32"/>
-      <c r="BL57" s="32"/>
-      <c r="BM57" s="32"/>
-      <c r="BN57" s="32"/>
-      <c r="BO57" s="32"/>
-      <c r="BP57" s="32"/>
-      <c r="BQ57" s="32"/>
-      <c r="BR57" s="32"/>
-      <c r="BS57" s="32"/>
-      <c r="BT57" s="32"/>
-      <c r="BU57" s="32"/>
-      <c r="BV57" s="32"/>
-      <c r="BW57" s="32"/>
-      <c r="BX57" s="32"/>
-      <c r="BY57" s="32"/>
-      <c r="BZ57" s="32"/>
-      <c r="CA57" s="32"/>
-      <c r="CB57" s="32"/>
-      <c r="CC57" s="32"/>
-      <c r="CD57" s="32"/>
-      <c r="CE57" s="32"/>
-      <c r="CF57" s="32"/>
-      <c r="CG57" s="32"/>
-      <c r="CH57" s="32"/>
-      <c r="CI57" s="32"/>
-      <c r="CJ57" s="32"/>
-      <c r="CK57" s="32"/>
-      <c r="CL57" s="32"/>
-      <c r="CM57" s="32"/>
-      <c r="CN57" s="32"/>
-      <c r="CO57" s="32"/>
-      <c r="CP57" s="32"/>
-      <c r="CQ57" s="32"/>
-      <c r="CR57" s="32"/>
-      <c r="CS57" s="32"/>
-      <c r="CT57" s="32"/>
-      <c r="CU57" s="32"/>
-      <c r="CV57" s="32"/>
-      <c r="CW57" s="32"/>
-      <c r="CX57" s="33"/>
+      <c r="D57" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="23">
+        <f>SUM(C59,C61,C63)</f>
+        <v>14</v>
+      </c>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="41"/>
+      <c r="W57" s="41"/>
+      <c r="X57" s="41"/>
+      <c r="Y57" s="41"/>
+      <c r="Z57" s="41"/>
+      <c r="AA57" s="41"/>
+      <c r="AB57" s="41"/>
+      <c r="AC57" s="41"/>
+      <c r="AD57" s="41"/>
+      <c r="AE57" s="41"/>
+      <c r="AF57" s="41"/>
+      <c r="AG57" s="41"/>
+      <c r="AH57" s="41"/>
+      <c r="AI57" s="41"/>
+      <c r="AJ57" s="41"/>
+      <c r="AK57" s="41"/>
+      <c r="AL57" s="41"/>
+      <c r="AM57" s="41"/>
+      <c r="AN57" s="41"/>
+      <c r="AO57" s="41"/>
+      <c r="AP57" s="41"/>
+      <c r="AQ57" s="41"/>
+      <c r="AR57" s="41"/>
+      <c r="AS57" s="41"/>
+      <c r="AT57" s="41"/>
+      <c r="AU57" s="41"/>
+      <c r="AV57" s="41"/>
+      <c r="AW57" s="41"/>
+      <c r="AX57" s="41"/>
+      <c r="AY57" s="41"/>
+      <c r="AZ57" s="41"/>
+      <c r="BA57" s="41"/>
+      <c r="BB57" s="41"/>
+      <c r="BC57" s="41"/>
+      <c r="BD57" s="41"/>
+      <c r="BE57" s="41"/>
+      <c r="BF57" s="41"/>
+      <c r="BG57" s="41"/>
+      <c r="BH57" s="41"/>
+      <c r="BI57" s="41"/>
+      <c r="BJ57" s="41"/>
+      <c r="BK57" s="41"/>
+      <c r="BL57" s="41"/>
+      <c r="BM57" s="41"/>
+      <c r="BN57" s="41"/>
+      <c r="BO57" s="41"/>
+      <c r="BP57" s="41"/>
+      <c r="BQ57" s="41"/>
+      <c r="BR57" s="41"/>
+      <c r="BS57" s="41"/>
+      <c r="BT57" s="41"/>
+      <c r="BU57" s="41"/>
+      <c r="BV57" s="41"/>
+      <c r="BW57" s="41"/>
+      <c r="BX57" s="41"/>
+      <c r="BY57" s="41"/>
+      <c r="BZ57" s="41"/>
+      <c r="CA57" s="41"/>
+      <c r="CB57" s="41"/>
+      <c r="CC57" s="41"/>
+      <c r="CD57" s="41"/>
+      <c r="CE57" s="41"/>
+      <c r="CF57" s="41"/>
+      <c r="CG57" s="41"/>
+      <c r="CH57" s="41"/>
+      <c r="CI57" s="41"/>
+      <c r="CJ57" s="41"/>
+      <c r="CK57" s="41"/>
+      <c r="CL57" s="41"/>
+      <c r="CM57" s="41"/>
+      <c r="CN57" s="41"/>
+      <c r="CO57" s="41"/>
+      <c r="CP57" s="41"/>
+      <c r="CQ57" s="41"/>
+      <c r="CR57" s="41"/>
+      <c r="CS57" s="41"/>
+      <c r="CT57" s="41"/>
+      <c r="CU57" s="41"/>
+      <c r="CV57" s="41"/>
+      <c r="CW57" s="41"/>
+      <c r="CX57" s="42"/>
       <c r="CY57" s="21"/>
     </row>
-    <row r="58" spans="1:103" s="1" customFormat="1">
-      <c r="A58" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="41"/>
-      <c r="V58" s="41"/>
-      <c r="W58" s="41"/>
-      <c r="X58" s="41"/>
-      <c r="Y58" s="41"/>
-      <c r="Z58" s="41"/>
-      <c r="AA58" s="41"/>
-      <c r="AB58" s="41"/>
-      <c r="AC58" s="41"/>
-      <c r="AD58" s="41"/>
-      <c r="AE58" s="41"/>
-      <c r="AF58" s="41"/>
-      <c r="AG58" s="41"/>
-      <c r="AH58" s="41"/>
-      <c r="AI58" s="41"/>
-      <c r="AJ58" s="41"/>
-      <c r="AK58" s="41"/>
-      <c r="AL58" s="41"/>
-      <c r="AM58" s="41"/>
-      <c r="AN58" s="41"/>
-      <c r="AO58" s="41"/>
-      <c r="AP58" s="41"/>
-      <c r="AQ58" s="41"/>
-      <c r="AR58" s="41"/>
-      <c r="AS58" s="41"/>
-      <c r="AT58" s="41"/>
-      <c r="AU58" s="41"/>
-      <c r="AV58" s="41"/>
-      <c r="AW58" s="41"/>
-      <c r="AX58" s="41"/>
-      <c r="AY58" s="41"/>
-      <c r="AZ58" s="41"/>
-      <c r="BA58" s="41"/>
-      <c r="BB58" s="41"/>
-      <c r="BC58" s="41"/>
-      <c r="BD58" s="41"/>
-      <c r="BE58" s="41"/>
-      <c r="BF58" s="41"/>
-      <c r="BG58" s="41"/>
-      <c r="BH58" s="41"/>
-      <c r="BI58" s="41"/>
-      <c r="BJ58" s="41"/>
-      <c r="BK58" s="41"/>
-      <c r="BL58" s="41"/>
-      <c r="BM58" s="41"/>
-      <c r="BN58" s="41"/>
-      <c r="BO58" s="41"/>
-      <c r="BP58" s="41"/>
-      <c r="BQ58" s="41"/>
-      <c r="BR58" s="41"/>
-      <c r="BS58" s="41"/>
-      <c r="BT58" s="41"/>
-      <c r="BU58" s="41"/>
-      <c r="BV58" s="41"/>
-      <c r="BW58" s="41"/>
-      <c r="BX58" s="41"/>
-      <c r="BY58" s="41"/>
-      <c r="BZ58" s="41"/>
-      <c r="CA58" s="41"/>
-      <c r="CB58" s="41"/>
-      <c r="CC58" s="41"/>
-      <c r="CD58" s="41"/>
-      <c r="CE58" s="41"/>
-      <c r="CF58" s="41"/>
-      <c r="CG58" s="41"/>
-      <c r="CH58" s="41"/>
-      <c r="CI58" s="41"/>
-      <c r="CJ58" s="41"/>
-      <c r="CK58" s="41"/>
-      <c r="CL58" s="41"/>
-      <c r="CM58" s="41"/>
-      <c r="CN58" s="41"/>
-      <c r="CO58" s="41"/>
-      <c r="CP58" s="41"/>
-      <c r="CQ58" s="41"/>
-      <c r="CR58" s="41"/>
-      <c r="CS58" s="41"/>
-      <c r="CT58" s="41"/>
-      <c r="CU58" s="41"/>
-      <c r="CV58" s="41"/>
-      <c r="CW58" s="41"/>
-      <c r="CX58" s="42"/>
+    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="9">
+        <v>4</v>
+      </c>
+      <c r="D58" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="70">
+        <v>6.04</v>
+      </c>
+      <c r="F58" s="31"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="32"/>
+      <c r="Z58" s="32"/>
+      <c r="AA58" s="32"/>
+      <c r="AB58" s="32"/>
+      <c r="AC58" s="55">
+        <v>2</v>
+      </c>
+      <c r="AD58" s="55">
+        <v>2</v>
+      </c>
+      <c r="AE58" s="32"/>
+      <c r="AF58" s="55">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="55">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="32"/>
+      <c r="AI58" s="32"/>
+      <c r="AJ58" s="32"/>
+      <c r="AK58" s="32"/>
+      <c r="AL58" s="32"/>
+      <c r="AM58" s="32"/>
+      <c r="AN58" s="32"/>
+      <c r="AO58" s="32"/>
+      <c r="AP58" s="32"/>
+      <c r="AQ58" s="32"/>
+      <c r="AR58" s="32"/>
+      <c r="AS58" s="32"/>
+      <c r="AT58" s="32"/>
+      <c r="AU58" s="32"/>
+      <c r="AV58" s="32"/>
+      <c r="AW58" s="32"/>
+      <c r="AX58" s="32"/>
+      <c r="AY58" s="32"/>
+      <c r="AZ58" s="32"/>
+      <c r="BA58" s="32"/>
+      <c r="BB58" s="32"/>
+      <c r="BC58" s="32"/>
+      <c r="BD58" s="32"/>
+      <c r="BE58" s="32"/>
+      <c r="BF58" s="32"/>
+      <c r="BG58" s="32"/>
+      <c r="BH58" s="32"/>
+      <c r="BI58" s="32"/>
+      <c r="BJ58" s="32"/>
+      <c r="BK58" s="32"/>
+      <c r="BL58" s="32"/>
+      <c r="BM58" s="32"/>
+      <c r="BN58" s="32"/>
+      <c r="BO58" s="32"/>
+      <c r="BP58" s="32"/>
+      <c r="BQ58" s="32"/>
+      <c r="BR58" s="32"/>
+      <c r="BS58" s="32"/>
+      <c r="BT58" s="32"/>
+      <c r="BU58" s="32"/>
+      <c r="BV58" s="32"/>
+      <c r="BW58" s="32"/>
+      <c r="BX58" s="32"/>
+      <c r="BY58" s="32"/>
+      <c r="BZ58" s="32"/>
+      <c r="CA58" s="32"/>
+      <c r="CB58" s="32"/>
+      <c r="CC58" s="32"/>
+      <c r="CD58" s="32"/>
+      <c r="CE58" s="32"/>
+      <c r="CF58" s="32"/>
+      <c r="CG58" s="32"/>
+      <c r="CH58" s="32"/>
+      <c r="CI58" s="32"/>
+      <c r="CJ58" s="32"/>
+      <c r="CK58" s="32"/>
+      <c r="CL58" s="32"/>
+      <c r="CM58" s="32"/>
+      <c r="CN58" s="32"/>
+      <c r="CO58" s="32"/>
+      <c r="CP58" s="32"/>
+      <c r="CQ58" s="32"/>
+      <c r="CR58" s="32"/>
+      <c r="CS58" s="32"/>
+      <c r="CT58" s="32"/>
+      <c r="CU58" s="32"/>
+      <c r="CV58" s="32"/>
+      <c r="CW58" s="32"/>
+      <c r="CX58" s="33"/>
       <c r="CY58" s="21"/>
     </row>
-    <row r="59" spans="1:103" s="1" customFormat="1">
-      <c r="A59" s="68" t="s">
-        <v>42</v>
-      </c>
+    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="85"/>
       <c r="B59" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" s="9">
-        <v>4</v>
-      </c>
-      <c r="D59" s="75">
-        <v>23.03</v>
-      </c>
-      <c r="E59" s="72">
-        <v>6.04</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D59" s="72"/>
+      <c r="E59" s="70"/>
       <c r="F59" s="31"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -8512,17 +8591,19 @@
       <c r="Z59" s="32"/>
       <c r="AA59" s="32"/>
       <c r="AB59" s="32"/>
-      <c r="AC59" s="55">
-        <v>1</v>
-      </c>
-      <c r="AD59" s="55">
-        <v>1</v>
+      <c r="AC59" s="53">
+        <v>2</v>
+      </c>
+      <c r="AD59" s="53">
+        <v>2</v>
       </c>
       <c r="AE59" s="32"/>
-      <c r="AF59" s="55">
+      <c r="AF59" s="53">
+        <v>4</v>
+      </c>
+      <c r="AG59" s="53">
         <v>2</v>
       </c>
-      <c r="AG59" s="32"/>
       <c r="AH59" s="32"/>
       <c r="AI59" s="32"/>
       <c r="AJ59" s="32"/>
@@ -8594,16 +8675,22 @@
       <c r="CX59" s="33"/>
       <c r="CY59" s="21"/>
     </row>
-    <row r="60" spans="1:103" s="1" customFormat="1">
-      <c r="A60" s="69"/>
+    <row r="60" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A60" s="84" t="s">
+        <v>48</v>
+      </c>
       <c r="B60" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" s="9">
-        <v>5</v>
-      </c>
-      <c r="D60" s="75"/>
-      <c r="E60" s="72"/>
+        <v>2</v>
+      </c>
+      <c r="D60" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="70">
+        <v>6.04</v>
+      </c>
       <c r="F60" s="31"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
@@ -8627,19 +8714,17 @@
       <c r="Z60" s="32"/>
       <c r="AA60" s="32"/>
       <c r="AB60" s="32"/>
-      <c r="AC60" s="53">
-        <v>2</v>
-      </c>
-      <c r="AD60" s="53">
+      <c r="AC60" s="32"/>
+      <c r="AD60" s="32"/>
+      <c r="AE60" s="32"/>
+      <c r="AF60" s="32"/>
+      <c r="AG60" s="32"/>
+      <c r="AH60" s="55">
         <v>1</v>
       </c>
-      <c r="AE60" s="32"/>
-      <c r="AF60" s="53">
-        <v>2</v>
-      </c>
-      <c r="AG60" s="32"/>
-      <c r="AH60" s="32"/>
-      <c r="AI60" s="32"/>
+      <c r="AI60" s="55">
+        <v>1</v>
+      </c>
       <c r="AJ60" s="32"/>
       <c r="AK60" s="32"/>
       <c r="AL60" s="32"/>
@@ -8709,22 +8794,16 @@
       <c r="CX60" s="33"/>
       <c r="CY60" s="21"/>
     </row>
-    <row r="61" spans="1:103" s="1" customFormat="1">
-      <c r="A61" s="68" t="s">
-        <v>43</v>
-      </c>
+    <row r="61" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A61" s="85"/>
       <c r="B61" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" s="9">
         <v>2</v>
       </c>
-      <c r="D61" s="75">
-        <v>23.03</v>
-      </c>
-      <c r="E61" s="72">
-        <v>6.04</v>
-      </c>
+      <c r="D61" s="72"/>
+      <c r="E61" s="70"/>
       <c r="F61" s="31"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
@@ -8753,9 +8832,11 @@
       <c r="AE61" s="32"/>
       <c r="AF61" s="32"/>
       <c r="AG61" s="32"/>
-      <c r="AH61" s="32"/>
-      <c r="AI61" s="55">
-        <v>2</v>
+      <c r="AH61" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="53">
+        <v>1</v>
       </c>
       <c r="AJ61" s="32"/>
       <c r="AK61" s="32"/>
@@ -8826,16 +8907,22 @@
       <c r="CX61" s="33"/>
       <c r="CY61" s="21"/>
     </row>
-    <row r="62" spans="1:103" s="1" customFormat="1">
-      <c r="A62" s="69"/>
+    <row r="62" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A62" s="67" t="s">
+        <v>49</v>
+      </c>
       <c r="B62" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" s="9">
-        <v>1</v>
-      </c>
-      <c r="D62" s="75"/>
-      <c r="E62" s="72"/>
+        <v>2</v>
+      </c>
+      <c r="D62" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="70">
+        <v>6.04</v>
+      </c>
       <c r="F62" s="31"/>
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
@@ -8865,15 +8952,17 @@
       <c r="AF62" s="32"/>
       <c r="AG62" s="32"/>
       <c r="AH62" s="32"/>
-      <c r="AI62" s="53">
+      <c r="AI62" s="32"/>
+      <c r="AJ62" s="32"/>
+      <c r="AK62" s="55">
         <v>1</v>
       </c>
-      <c r="AJ62" s="32"/>
-      <c r="AK62" s="32"/>
       <c r="AL62" s="32"/>
       <c r="AM62" s="32"/>
       <c r="AN62" s="32"/>
-      <c r="AO62" s="32"/>
+      <c r="AO62" s="55">
+        <v>1</v>
+      </c>
       <c r="AP62" s="32"/>
       <c r="AQ62" s="32"/>
       <c r="AR62" s="32"/>
@@ -8937,22 +9026,16 @@
       <c r="CX62" s="33"/>
       <c r="CY62" s="21"/>
     </row>
-    <row r="63" spans="1:103" s="1" customFormat="1">
-      <c r="A63" s="68" t="s">
-        <v>44</v>
-      </c>
+    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="68"/>
       <c r="B63" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" s="9">
         <v>2</v>
       </c>
-      <c r="D63" s="75">
-        <v>23.03</v>
-      </c>
-      <c r="E63" s="72">
-        <v>6.04</v>
-      </c>
+      <c r="D63" s="72"/>
+      <c r="E63" s="70"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
@@ -8984,13 +9067,15 @@
       <c r="AH63" s="32"/>
       <c r="AI63" s="32"/>
       <c r="AJ63" s="32"/>
-      <c r="AK63" s="32"/>
-      <c r="AL63" s="55">
-        <v>2</v>
-      </c>
+      <c r="AK63" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL63" s="32"/>
       <c r="AM63" s="32"/>
       <c r="AN63" s="32"/>
-      <c r="AO63" s="32"/>
+      <c r="AO63" s="53">
+        <v>1</v>
+      </c>
       <c r="AP63" s="32"/>
       <c r="AQ63" s="32"/>
       <c r="AR63" s="32"/>
@@ -9054,131 +9139,137 @@
       <c r="CX63" s="33"/>
       <c r="CY63" s="21"/>
     </row>
-    <row r="64" spans="1:103" s="1" customFormat="1">
-      <c r="A64" s="69"/>
-      <c r="B64" s="7" t="s">
+    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="5">
+        <f>SUM(C65,C67,C69,C71,C73)</f>
+        <v>12</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="9">
-        <v>2</v>
-      </c>
-      <c r="D64" s="75"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="32"/>
-      <c r="X64" s="32"/>
-      <c r="Y64" s="32"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
-      <c r="AD64" s="32"/>
-      <c r="AE64" s="32"/>
-      <c r="AF64" s="32"/>
-      <c r="AG64" s="32"/>
-      <c r="AH64" s="32"/>
-      <c r="AI64" s="32"/>
-      <c r="AJ64" s="32"/>
-      <c r="AK64" s="32"/>
-      <c r="AL64" s="53">
-        <v>2</v>
-      </c>
-      <c r="AM64" s="32"/>
-      <c r="AN64" s="32"/>
-      <c r="AO64" s="32"/>
-      <c r="AP64" s="32"/>
-      <c r="AQ64" s="32"/>
-      <c r="AR64" s="32"/>
-      <c r="AS64" s="32"/>
-      <c r="AT64" s="32"/>
-      <c r="AU64" s="32"/>
-      <c r="AV64" s="32"/>
-      <c r="AW64" s="32"/>
-      <c r="AX64" s="32"/>
-      <c r="AY64" s="32"/>
-      <c r="AZ64" s="32"/>
-      <c r="BA64" s="32"/>
-      <c r="BB64" s="32"/>
-      <c r="BC64" s="32"/>
-      <c r="BD64" s="32"/>
-      <c r="BE64" s="32"/>
-      <c r="BF64" s="32"/>
-      <c r="BG64" s="32"/>
-      <c r="BH64" s="32"/>
-      <c r="BI64" s="32"/>
-      <c r="BJ64" s="32"/>
-      <c r="BK64" s="32"/>
-      <c r="BL64" s="32"/>
-      <c r="BM64" s="32"/>
-      <c r="BN64" s="32"/>
-      <c r="BO64" s="32"/>
-      <c r="BP64" s="32"/>
-      <c r="BQ64" s="32"/>
-      <c r="BR64" s="32"/>
-      <c r="BS64" s="32"/>
-      <c r="BT64" s="32"/>
-      <c r="BU64" s="32"/>
-      <c r="BV64" s="32"/>
-      <c r="BW64" s="32"/>
-      <c r="BX64" s="32"/>
-      <c r="BY64" s="32"/>
-      <c r="BZ64" s="32"/>
-      <c r="CA64" s="32"/>
-      <c r="CB64" s="32"/>
-      <c r="CC64" s="32"/>
-      <c r="CD64" s="32"/>
-      <c r="CE64" s="32"/>
-      <c r="CF64" s="32"/>
-      <c r="CG64" s="32"/>
-      <c r="CH64" s="32"/>
-      <c r="CI64" s="32"/>
-      <c r="CJ64" s="32"/>
-      <c r="CK64" s="32"/>
-      <c r="CL64" s="32"/>
-      <c r="CM64" s="32"/>
-      <c r="CN64" s="32"/>
-      <c r="CO64" s="32"/>
-      <c r="CP64" s="32"/>
-      <c r="CQ64" s="32"/>
-      <c r="CR64" s="32"/>
-      <c r="CS64" s="32"/>
-      <c r="CT64" s="32"/>
-      <c r="CU64" s="32"/>
-      <c r="CV64" s="32"/>
-      <c r="CW64" s="32"/>
-      <c r="CX64" s="33"/>
+      <c r="E64" s="23">
+        <f>SUM(C66,C68,C70,C72,C74)</f>
+        <v>14</v>
+      </c>
+      <c r="F64" s="40"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="41"/>
+      <c r="U64" s="41"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="41"/>
+      <c r="X64" s="41"/>
+      <c r="Y64" s="41"/>
+      <c r="Z64" s="41"/>
+      <c r="AA64" s="41"/>
+      <c r="AB64" s="41"/>
+      <c r="AC64" s="41"/>
+      <c r="AD64" s="41"/>
+      <c r="AE64" s="41"/>
+      <c r="AF64" s="41"/>
+      <c r="AG64" s="41"/>
+      <c r="AH64" s="41"/>
+      <c r="AI64" s="41"/>
+      <c r="AJ64" s="41"/>
+      <c r="AK64" s="41"/>
+      <c r="AL64" s="41"/>
+      <c r="AM64" s="41"/>
+      <c r="AN64" s="41"/>
+      <c r="AO64" s="41"/>
+      <c r="AP64" s="41"/>
+      <c r="AQ64" s="41"/>
+      <c r="AR64" s="41"/>
+      <c r="AS64" s="41"/>
+      <c r="AT64" s="41"/>
+      <c r="AU64" s="41"/>
+      <c r="AV64" s="41"/>
+      <c r="AW64" s="41"/>
+      <c r="AX64" s="41"/>
+      <c r="AY64" s="41"/>
+      <c r="AZ64" s="41"/>
+      <c r="BA64" s="41"/>
+      <c r="BB64" s="41"/>
+      <c r="BC64" s="41"/>
+      <c r="BD64" s="41"/>
+      <c r="BE64" s="41"/>
+      <c r="BF64" s="41"/>
+      <c r="BG64" s="41"/>
+      <c r="BH64" s="41"/>
+      <c r="BI64" s="41"/>
+      <c r="BJ64" s="41"/>
+      <c r="BK64" s="41"/>
+      <c r="BL64" s="41"/>
+      <c r="BM64" s="41"/>
+      <c r="BN64" s="41"/>
+      <c r="BO64" s="41"/>
+      <c r="BP64" s="41"/>
+      <c r="BQ64" s="41"/>
+      <c r="BR64" s="41"/>
+      <c r="BS64" s="41"/>
+      <c r="BT64" s="41"/>
+      <c r="BU64" s="41"/>
+      <c r="BV64" s="41"/>
+      <c r="BW64" s="41"/>
+      <c r="BX64" s="41"/>
+      <c r="BY64" s="41"/>
+      <c r="BZ64" s="41"/>
+      <c r="CA64" s="41"/>
+      <c r="CB64" s="41"/>
+      <c r="CC64" s="41"/>
+      <c r="CD64" s="41"/>
+      <c r="CE64" s="41"/>
+      <c r="CF64" s="41"/>
+      <c r="CG64" s="41"/>
+      <c r="CH64" s="41"/>
+      <c r="CI64" s="41"/>
+      <c r="CJ64" s="41"/>
+      <c r="CK64" s="41"/>
+      <c r="CL64" s="41"/>
+      <c r="CM64" s="41"/>
+      <c r="CN64" s="41"/>
+      <c r="CO64" s="41"/>
+      <c r="CP64" s="41"/>
+      <c r="CQ64" s="41"/>
+      <c r="CR64" s="41"/>
+      <c r="CS64" s="41"/>
+      <c r="CT64" s="41"/>
+      <c r="CU64" s="41"/>
+      <c r="CV64" s="41"/>
+      <c r="CW64" s="41"/>
+      <c r="CX64" s="42"/>
       <c r="CY64" s="21"/>
     </row>
-    <row r="65" spans="1:103">
-      <c r="A65" s="68" t="s">
-        <v>45</v>
+    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="67" t="s">
+        <v>42</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="9">
-        <v>3</v>
-      </c>
-      <c r="D65" s="75">
+        <v>4</v>
+      </c>
+      <c r="D65" s="69">
         <v>23.03</v>
       </c>
-      <c r="E65" s="72">
+      <c r="E65" s="70">
         <v>6.04</v>
       </c>
       <c r="F65" s="31"/>
@@ -9204,10 +9295,16 @@
       <c r="Z65" s="32"/>
       <c r="AA65" s="32"/>
       <c r="AB65" s="32"/>
-      <c r="AC65" s="32"/>
-      <c r="AD65" s="32"/>
+      <c r="AC65" s="55">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="55">
+        <v>1</v>
+      </c>
       <c r="AE65" s="32"/>
-      <c r="AF65" s="32"/>
+      <c r="AF65" s="55">
+        <v>2</v>
+      </c>
       <c r="AG65" s="32"/>
       <c r="AH65" s="32"/>
       <c r="AI65" s="32"/>
@@ -9215,9 +9312,7 @@
       <c r="AK65" s="32"/>
       <c r="AL65" s="32"/>
       <c r="AM65" s="32"/>
-      <c r="AN65" s="55">
-        <v>3</v>
-      </c>
+      <c r="AN65" s="32"/>
       <c r="AO65" s="32"/>
       <c r="AP65" s="32"/>
       <c r="AQ65" s="32"/>
@@ -9282,16 +9377,16 @@
       <c r="CX65" s="33"/>
       <c r="CY65" s="21"/>
     </row>
-    <row r="66" spans="1:103">
-      <c r="A66" s="69"/>
+    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="68"/>
       <c r="B66" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="9">
-        <v>3</v>
-      </c>
-      <c r="D66" s="75"/>
-      <c r="E66" s="72"/>
+        <v>5</v>
+      </c>
+      <c r="D66" s="69"/>
+      <c r="E66" s="70"/>
       <c r="F66" s="31"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
@@ -9315,10 +9410,16 @@
       <c r="Z66" s="32"/>
       <c r="AA66" s="32"/>
       <c r="AB66" s="32"/>
-      <c r="AC66" s="32"/>
-      <c r="AD66" s="32"/>
+      <c r="AC66" s="53">
+        <v>2</v>
+      </c>
+      <c r="AD66" s="53">
+        <v>1</v>
+      </c>
       <c r="AE66" s="32"/>
-      <c r="AF66" s="32"/>
+      <c r="AF66" s="53">
+        <v>2</v>
+      </c>
       <c r="AG66" s="32"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
@@ -9326,9 +9427,7 @@
       <c r="AK66" s="32"/>
       <c r="AL66" s="32"/>
       <c r="AM66" s="32"/>
-      <c r="AN66" s="53">
-        <v>3</v>
-      </c>
+      <c r="AN66" s="32"/>
       <c r="AO66" s="32"/>
       <c r="AP66" s="32"/>
       <c r="AQ66" s="32"/>
@@ -9393,20 +9492,20 @@
       <c r="CX66" s="33"/>
       <c r="CY66" s="21"/>
     </row>
-    <row r="67" spans="1:103">
-      <c r="A67" s="68" t="s">
-        <v>46</v>
+    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="67" t="s">
+        <v>43</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="9">
-        <v>1</v>
-      </c>
-      <c r="D67" s="75">
+        <v>2</v>
+      </c>
+      <c r="D67" s="69">
         <v>23.03</v>
       </c>
-      <c r="E67" s="72">
+      <c r="E67" s="70">
         <v>6.04</v>
       </c>
       <c r="F67" s="31"/>
@@ -9438,7 +9537,9 @@
       <c r="AF67" s="32"/>
       <c r="AG67" s="32"/>
       <c r="AH67" s="32"/>
-      <c r="AI67" s="32"/>
+      <c r="AI67" s="55">
+        <v>2</v>
+      </c>
       <c r="AJ67" s="32"/>
       <c r="AK67" s="32"/>
       <c r="AL67" s="32"/>
@@ -9508,16 +9609,16 @@
       <c r="CX67" s="33"/>
       <c r="CY67" s="21"/>
     </row>
-    <row r="68" spans="1:103">
-      <c r="A68" s="69"/>
+    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="68"/>
       <c r="B68" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="9">
-        <v>3</v>
-      </c>
-      <c r="D68" s="75"/>
-      <c r="E68" s="72"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="69"/>
+      <c r="E68" s="70"/>
       <c r="F68" s="31"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
@@ -9547,10 +9648,10 @@
       <c r="AF68" s="32"/>
       <c r="AG68" s="32"/>
       <c r="AH68" s="32"/>
-      <c r="AI68" s="32"/>
-      <c r="AJ68" s="55">
+      <c r="AI68" s="53">
         <v>1</v>
       </c>
+      <c r="AJ68" s="32"/>
       <c r="AK68" s="32"/>
       <c r="AL68" s="32"/>
       <c r="AM68" s="32"/>
@@ -9619,16 +9720,22 @@
       <c r="CX68" s="33"/>
       <c r="CY68" s="21"/>
     </row>
-    <row r="69" spans="1:103">
-      <c r="A69" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="78">
-        <v>44292</v>
-      </c>
-      <c r="E69" s="79"/>
+    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="9">
+        <v>2</v>
+      </c>
+      <c r="D69" s="69">
+        <v>23.03</v>
+      </c>
+      <c r="E69" s="70">
+        <v>6.04</v>
+      </c>
       <c r="F69" s="31"/>
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
@@ -9659,11 +9766,11 @@
       <c r="AG69" s="32"/>
       <c r="AH69" s="32"/>
       <c r="AI69" s="32"/>
-      <c r="AJ69" s="53">
-        <v>3</v>
-      </c>
+      <c r="AJ69" s="32"/>
       <c r="AK69" s="32"/>
-      <c r="AL69" s="32"/>
+      <c r="AL69" s="55">
+        <v>2</v>
+      </c>
       <c r="AM69" s="32"/>
       <c r="AN69" s="32"/>
       <c r="AO69" s="32"/>
@@ -9730,250 +9837,244 @@
       <c r="CX69" s="33"/>
       <c r="CY69" s="21"/>
     </row>
-    <row r="70" spans="1:103">
-      <c r="A70" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="18" t="s">
+    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="68"/>
+      <c r="B70" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="44"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="45"/>
-      <c r="R70" s="45"/>
-      <c r="S70" s="45"/>
-      <c r="T70" s="45"/>
-      <c r="U70" s="45"/>
-      <c r="V70" s="45"/>
-      <c r="W70" s="45"/>
-      <c r="X70" s="45"/>
-      <c r="Y70" s="45"/>
-      <c r="Z70" s="45"/>
-      <c r="AA70" s="45"/>
-      <c r="AB70" s="45"/>
-      <c r="AC70" s="45"/>
-      <c r="AD70" s="45"/>
-      <c r="AE70" s="45"/>
-      <c r="AF70" s="45"/>
-      <c r="AG70" s="45"/>
-      <c r="AH70" s="45"/>
-      <c r="AI70" s="45"/>
-      <c r="AJ70" s="45"/>
-      <c r="AK70" s="45"/>
-      <c r="AL70" s="45"/>
-      <c r="AM70" s="45"/>
-      <c r="AN70" s="45"/>
-      <c r="AO70" s="45"/>
-      <c r="AP70" s="45"/>
-      <c r="AQ70" s="45"/>
-      <c r="AR70" s="45"/>
-      <c r="AS70" s="45"/>
-      <c r="AT70" s="45"/>
-      <c r="AU70" s="45"/>
-      <c r="AV70" s="45"/>
-      <c r="AW70" s="45"/>
-      <c r="AX70" s="45"/>
-      <c r="AY70" s="45"/>
-      <c r="AZ70" s="45"/>
-      <c r="BA70" s="45"/>
-      <c r="BB70" s="45"/>
-      <c r="BC70" s="45"/>
-      <c r="BD70" s="45"/>
-      <c r="BE70" s="45"/>
-      <c r="BF70" s="45"/>
-      <c r="BG70" s="45"/>
-      <c r="BH70" s="45"/>
-      <c r="BI70" s="45"/>
-      <c r="BJ70" s="45"/>
-      <c r="BK70" s="45"/>
-      <c r="BL70" s="45"/>
-      <c r="BM70" s="45"/>
-      <c r="BN70" s="45"/>
-      <c r="BO70" s="45"/>
-      <c r="BP70" s="45"/>
-      <c r="BQ70" s="45"/>
-      <c r="BR70" s="45"/>
-      <c r="BS70" s="45"/>
-      <c r="BT70" s="45"/>
-      <c r="BU70" s="45"/>
-      <c r="BV70" s="45"/>
-      <c r="BW70" s="45"/>
-      <c r="BX70" s="45"/>
-      <c r="BY70" s="45"/>
-      <c r="BZ70" s="45"/>
-      <c r="CA70" s="45"/>
-      <c r="CB70" s="45"/>
-      <c r="CC70" s="45"/>
-      <c r="CD70" s="45"/>
-      <c r="CE70" s="45"/>
-      <c r="CF70" s="45"/>
-      <c r="CG70" s="45"/>
-      <c r="CH70" s="45"/>
-      <c r="CI70" s="45"/>
-      <c r="CJ70" s="45"/>
-      <c r="CK70" s="45"/>
-      <c r="CL70" s="45"/>
-      <c r="CM70" s="45"/>
-      <c r="CN70" s="45"/>
-      <c r="CO70" s="45"/>
-      <c r="CP70" s="45"/>
-      <c r="CQ70" s="45"/>
-      <c r="CR70" s="45"/>
-      <c r="CS70" s="45"/>
-      <c r="CT70" s="45"/>
-      <c r="CU70" s="45"/>
-      <c r="CV70" s="45"/>
-      <c r="CW70" s="45"/>
-      <c r="CX70" s="46"/>
+      <c r="C70" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" s="69"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="32"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+      <c r="X70" s="32"/>
+      <c r="Y70" s="32"/>
+      <c r="Z70" s="32"/>
+      <c r="AA70" s="32"/>
+      <c r="AB70" s="32"/>
+      <c r="AC70" s="32"/>
+      <c r="AD70" s="32"/>
+      <c r="AE70" s="32"/>
+      <c r="AF70" s="32"/>
+      <c r="AG70" s="32"/>
+      <c r="AH70" s="32"/>
+      <c r="AI70" s="32"/>
+      <c r="AJ70" s="32"/>
+      <c r="AK70" s="32"/>
+      <c r="AL70" s="53">
+        <v>2</v>
+      </c>
+      <c r="AM70" s="32"/>
+      <c r="AN70" s="32"/>
+      <c r="AO70" s="32"/>
+      <c r="AP70" s="32"/>
+      <c r="AQ70" s="32"/>
+      <c r="AR70" s="32"/>
+      <c r="AS70" s="32"/>
+      <c r="AT70" s="32"/>
+      <c r="AU70" s="32"/>
+      <c r="AV70" s="32"/>
+      <c r="AW70" s="32"/>
+      <c r="AX70" s="32"/>
+      <c r="AY70" s="32"/>
+      <c r="AZ70" s="32"/>
+      <c r="BA70" s="32"/>
+      <c r="BB70" s="32"/>
+      <c r="BC70" s="32"/>
+      <c r="BD70" s="32"/>
+      <c r="BE70" s="32"/>
+      <c r="BF70" s="32"/>
+      <c r="BG70" s="32"/>
+      <c r="BH70" s="32"/>
+      <c r="BI70" s="32"/>
+      <c r="BJ70" s="32"/>
+      <c r="BK70" s="32"/>
+      <c r="BL70" s="32"/>
+      <c r="BM70" s="32"/>
+      <c r="BN70" s="32"/>
+      <c r="BO70" s="32"/>
+      <c r="BP70" s="32"/>
+      <c r="BQ70" s="32"/>
+      <c r="BR70" s="32"/>
+      <c r="BS70" s="32"/>
+      <c r="BT70" s="32"/>
+      <c r="BU70" s="32"/>
+      <c r="BV70" s="32"/>
+      <c r="BW70" s="32"/>
+      <c r="BX70" s="32"/>
+      <c r="BY70" s="32"/>
+      <c r="BZ70" s="32"/>
+      <c r="CA70" s="32"/>
+      <c r="CB70" s="32"/>
+      <c r="CC70" s="32"/>
+      <c r="CD70" s="32"/>
+      <c r="CE70" s="32"/>
+      <c r="CF70" s="32"/>
+      <c r="CG70" s="32"/>
+      <c r="CH70" s="32"/>
+      <c r="CI70" s="32"/>
+      <c r="CJ70" s="32"/>
+      <c r="CK70" s="32"/>
+      <c r="CL70" s="32"/>
+      <c r="CM70" s="32"/>
+      <c r="CN70" s="32"/>
+      <c r="CO70" s="32"/>
+      <c r="CP70" s="32"/>
+      <c r="CQ70" s="32"/>
+      <c r="CR70" s="32"/>
+      <c r="CS70" s="32"/>
+      <c r="CT70" s="32"/>
+      <c r="CU70" s="32"/>
+      <c r="CV70" s="32"/>
+      <c r="CW70" s="32"/>
+      <c r="CX70" s="33"/>
       <c r="CY70" s="21"/>
     </row>
-    <row r="71" spans="1:103">
-      <c r="A71" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="40"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="41"/>
-      <c r="T71" s="41"/>
-      <c r="U71" s="41"/>
-      <c r="V71" s="41"/>
-      <c r="W71" s="41"/>
-      <c r="X71" s="41"/>
-      <c r="Y71" s="41"/>
-      <c r="Z71" s="41"/>
-      <c r="AA71" s="41"/>
-      <c r="AB71" s="41"/>
-      <c r="AC71" s="41"/>
-      <c r="AD71" s="41"/>
-      <c r="AE71" s="41"/>
-      <c r="AF71" s="41"/>
-      <c r="AG71" s="41"/>
-      <c r="AH71" s="41"/>
-      <c r="AI71" s="41"/>
-      <c r="AJ71" s="41"/>
-      <c r="AK71" s="41"/>
-      <c r="AL71" s="41"/>
-      <c r="AM71" s="41"/>
-      <c r="AN71" s="41"/>
-      <c r="AO71" s="41"/>
-      <c r="AP71" s="41"/>
-      <c r="AQ71" s="41"/>
-      <c r="AR71" s="41"/>
-      <c r="AS71" s="41"/>
-      <c r="AT71" s="41"/>
-      <c r="AU71" s="41"/>
-      <c r="AV71" s="41"/>
-      <c r="AW71" s="41"/>
-      <c r="AX71" s="41"/>
-      <c r="AY71" s="41"/>
-      <c r="AZ71" s="41"/>
-      <c r="BA71" s="41"/>
-      <c r="BB71" s="41"/>
-      <c r="BC71" s="41"/>
-      <c r="BD71" s="41"/>
-      <c r="BE71" s="41"/>
-      <c r="BF71" s="41"/>
-      <c r="BG71" s="41"/>
-      <c r="BH71" s="41"/>
-      <c r="BI71" s="41"/>
-      <c r="BJ71" s="41"/>
-      <c r="BK71" s="41"/>
-      <c r="BL71" s="41"/>
-      <c r="BM71" s="41"/>
-      <c r="BN71" s="41"/>
-      <c r="BO71" s="41"/>
-      <c r="BP71" s="41"/>
-      <c r="BQ71" s="41"/>
-      <c r="BR71" s="41"/>
-      <c r="BS71" s="41"/>
-      <c r="BT71" s="41"/>
-      <c r="BU71" s="41"/>
-      <c r="BV71" s="41"/>
-      <c r="BW71" s="41"/>
-      <c r="BX71" s="41"/>
-      <c r="BY71" s="41"/>
-      <c r="BZ71" s="41"/>
-      <c r="CA71" s="41"/>
-      <c r="CB71" s="41"/>
-      <c r="CC71" s="41"/>
-      <c r="CD71" s="41"/>
-      <c r="CE71" s="41"/>
-      <c r="CF71" s="41"/>
-      <c r="CG71" s="41"/>
-      <c r="CH71" s="41"/>
-      <c r="CI71" s="41"/>
-      <c r="CJ71" s="41"/>
-      <c r="CK71" s="41"/>
-      <c r="CL71" s="41"/>
-      <c r="CM71" s="41"/>
-      <c r="CN71" s="41"/>
-      <c r="CO71" s="41"/>
-      <c r="CP71" s="41"/>
-      <c r="CQ71" s="41"/>
-      <c r="CR71" s="41"/>
-      <c r="CS71" s="41"/>
-      <c r="CT71" s="41"/>
-      <c r="CU71" s="41"/>
-      <c r="CV71" s="41"/>
-      <c r="CW71" s="41"/>
-      <c r="CX71" s="42"/>
+    <row r="71" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A71" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="9">
+        <v>3</v>
+      </c>
+      <c r="D71" s="69">
+        <v>23.03</v>
+      </c>
+      <c r="E71" s="70">
+        <v>6.04</v>
+      </c>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="32"/>
+      <c r="U71" s="32"/>
+      <c r="V71" s="32"/>
+      <c r="W71" s="32"/>
+      <c r="X71" s="32"/>
+      <c r="Y71" s="32"/>
+      <c r="Z71" s="32"/>
+      <c r="AA71" s="32"/>
+      <c r="AB71" s="32"/>
+      <c r="AC71" s="32"/>
+      <c r="AD71" s="32"/>
+      <c r="AE71" s="32"/>
+      <c r="AF71" s="32"/>
+      <c r="AG71" s="32"/>
+      <c r="AH71" s="32"/>
+      <c r="AI71" s="32"/>
+      <c r="AJ71" s="32"/>
+      <c r="AK71" s="32"/>
+      <c r="AL71" s="32"/>
+      <c r="AM71" s="32"/>
+      <c r="AN71" s="55">
+        <v>3</v>
+      </c>
+      <c r="AO71" s="32"/>
+      <c r="AP71" s="32"/>
+      <c r="AQ71" s="32"/>
+      <c r="AR71" s="32"/>
+      <c r="AS71" s="32"/>
+      <c r="AT71" s="32"/>
+      <c r="AU71" s="32"/>
+      <c r="AV71" s="32"/>
+      <c r="AW71" s="32"/>
+      <c r="AX71" s="32"/>
+      <c r="AY71" s="32"/>
+      <c r="AZ71" s="32"/>
+      <c r="BA71" s="32"/>
+      <c r="BB71" s="32"/>
+      <c r="BC71" s="32"/>
+      <c r="BD71" s="32"/>
+      <c r="BE71" s="32"/>
+      <c r="BF71" s="32"/>
+      <c r="BG71" s="32"/>
+      <c r="BH71" s="32"/>
+      <c r="BI71" s="32"/>
+      <c r="BJ71" s="32"/>
+      <c r="BK71" s="32"/>
+      <c r="BL71" s="32"/>
+      <c r="BM71" s="32"/>
+      <c r="BN71" s="32"/>
+      <c r="BO71" s="32"/>
+      <c r="BP71" s="32"/>
+      <c r="BQ71" s="32"/>
+      <c r="BR71" s="32"/>
+      <c r="BS71" s="32"/>
+      <c r="BT71" s="32"/>
+      <c r="BU71" s="32"/>
+      <c r="BV71" s="32"/>
+      <c r="BW71" s="32"/>
+      <c r="BX71" s="32"/>
+      <c r="BY71" s="32"/>
+      <c r="BZ71" s="32"/>
+      <c r="CA71" s="32"/>
+      <c r="CB71" s="32"/>
+      <c r="CC71" s="32"/>
+      <c r="CD71" s="32"/>
+      <c r="CE71" s="32"/>
+      <c r="CF71" s="32"/>
+      <c r="CG71" s="32"/>
+      <c r="CH71" s="32"/>
+      <c r="CI71" s="32"/>
+      <c r="CJ71" s="32"/>
+      <c r="CK71" s="32"/>
+      <c r="CL71" s="32"/>
+      <c r="CM71" s="32"/>
+      <c r="CN71" s="32"/>
+      <c r="CO71" s="32"/>
+      <c r="CP71" s="32"/>
+      <c r="CQ71" s="32"/>
+      <c r="CR71" s="32"/>
+      <c r="CS71" s="32"/>
+      <c r="CT71" s="32"/>
+      <c r="CU71" s="32"/>
+      <c r="CV71" s="32"/>
+      <c r="CW71" s="32"/>
+      <c r="CX71" s="33"/>
       <c r="CY71" s="21"/>
     </row>
-    <row r="72" spans="1:103">
+    <row r="72" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A72" s="68"/>
       <c r="B72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="70">
-        <v>6.04</v>
-      </c>
-      <c r="E72" s="72">
-        <v>4.05</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C72" s="9">
+        <v>3</v>
+      </c>
+      <c r="D72" s="69"/>
+      <c r="E72" s="70"/>
       <c r="F72" s="31"/>
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
@@ -10008,7 +10109,9 @@
       <c r="AK72" s="32"/>
       <c r="AL72" s="32"/>
       <c r="AM72" s="32"/>
-      <c r="AN72" s="32"/>
+      <c r="AN72" s="53">
+        <v>3</v>
+      </c>
       <c r="AO72" s="32"/>
       <c r="AP72" s="32"/>
       <c r="AQ72" s="32"/>
@@ -10073,16 +10176,22 @@
       <c r="CX72" s="33"/>
       <c r="CY72" s="21"/>
     </row>
-    <row r="73" spans="1:103">
-      <c r="A73" s="69"/>
+    <row r="73" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A73" s="67" t="s">
+        <v>46</v>
+      </c>
       <c r="B73" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="71"/>
-      <c r="E73" s="72"/>
+        <v>6</v>
+      </c>
+      <c r="C73" s="9">
+        <v>1</v>
+      </c>
+      <c r="D73" s="69">
+        <v>23.03</v>
+      </c>
+      <c r="E73" s="70">
+        <v>6.04</v>
+      </c>
       <c r="F73" s="31"/>
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
@@ -10182,135 +10291,127 @@
       <c r="CX73" s="33"/>
       <c r="CY73" s="21"/>
     </row>
-    <row r="74" spans="1:103">
-      <c r="A74" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="19" t="s">
+    <row r="74" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A74" s="68"/>
+      <c r="B74" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41"/>
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
-      <c r="Q74" s="41"/>
-      <c r="R74" s="41"/>
-      <c r="S74" s="41"/>
-      <c r="T74" s="41"/>
-      <c r="U74" s="41"/>
-      <c r="V74" s="41"/>
-      <c r="W74" s="41"/>
-      <c r="X74" s="41"/>
-      <c r="Y74" s="41"/>
-      <c r="Z74" s="41"/>
-      <c r="AA74" s="41"/>
-      <c r="AB74" s="41"/>
-      <c r="AC74" s="41"/>
-      <c r="AD74" s="41"/>
-      <c r="AE74" s="41"/>
-      <c r="AF74" s="41"/>
-      <c r="AG74" s="41"/>
-      <c r="AH74" s="41"/>
-      <c r="AI74" s="41"/>
-      <c r="AJ74" s="41"/>
-      <c r="AK74" s="41"/>
-      <c r="AL74" s="41"/>
-      <c r="AM74" s="41"/>
-      <c r="AN74" s="41"/>
-      <c r="AO74" s="41"/>
-      <c r="AP74" s="41"/>
-      <c r="AQ74" s="41"/>
-      <c r="AR74" s="41"/>
-      <c r="AS74" s="41"/>
-      <c r="AT74" s="41"/>
-      <c r="AU74" s="41"/>
-      <c r="AV74" s="41"/>
-      <c r="AW74" s="41"/>
-      <c r="AX74" s="41"/>
-      <c r="AY74" s="41"/>
-      <c r="AZ74" s="41"/>
-      <c r="BA74" s="41"/>
-      <c r="BB74" s="41"/>
-      <c r="BC74" s="41"/>
-      <c r="BD74" s="41"/>
-      <c r="BE74" s="41"/>
-      <c r="BF74" s="41"/>
-      <c r="BG74" s="41"/>
-      <c r="BH74" s="41"/>
-      <c r="BI74" s="41"/>
-      <c r="BJ74" s="41"/>
-      <c r="BK74" s="41"/>
-      <c r="BL74" s="41"/>
-      <c r="BM74" s="41"/>
-      <c r="BN74" s="41"/>
-      <c r="BO74" s="41"/>
-      <c r="BP74" s="41"/>
-      <c r="BQ74" s="41"/>
-      <c r="BR74" s="41"/>
-      <c r="BS74" s="41"/>
-      <c r="BT74" s="41"/>
-      <c r="BU74" s="41"/>
-      <c r="BV74" s="41"/>
-      <c r="BW74" s="41"/>
-      <c r="BX74" s="41"/>
-      <c r="BY74" s="41"/>
-      <c r="BZ74" s="41"/>
-      <c r="CA74" s="41"/>
-      <c r="CB74" s="41"/>
-      <c r="CC74" s="41"/>
-      <c r="CD74" s="41"/>
-      <c r="CE74" s="41"/>
-      <c r="CF74" s="41"/>
-      <c r="CG74" s="41"/>
-      <c r="CH74" s="41"/>
-      <c r="CI74" s="41"/>
-      <c r="CJ74" s="41"/>
-      <c r="CK74" s="41"/>
-      <c r="CL74" s="41"/>
-      <c r="CM74" s="41"/>
-      <c r="CN74" s="41"/>
-      <c r="CO74" s="41"/>
-      <c r="CP74" s="41"/>
-      <c r="CQ74" s="41"/>
-      <c r="CR74" s="41"/>
-      <c r="CS74" s="41"/>
-      <c r="CT74" s="41"/>
-      <c r="CU74" s="41"/>
-      <c r="CV74" s="41"/>
-      <c r="CW74" s="41"/>
-      <c r="CX74" s="42"/>
+      <c r="C74" s="9">
+        <v>3</v>
+      </c>
+      <c r="D74" s="69"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="32"/>
+      <c r="U74" s="32"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="32"/>
+      <c r="X74" s="32"/>
+      <c r="Y74" s="32"/>
+      <c r="Z74" s="32"/>
+      <c r="AA74" s="32"/>
+      <c r="AB74" s="32"/>
+      <c r="AC74" s="32"/>
+      <c r="AD74" s="32"/>
+      <c r="AE74" s="32"/>
+      <c r="AF74" s="32"/>
+      <c r="AG74" s="32"/>
+      <c r="AH74" s="32"/>
+      <c r="AI74" s="32"/>
+      <c r="AJ74" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK74" s="32"/>
+      <c r="AL74" s="32"/>
+      <c r="AM74" s="32"/>
+      <c r="AN74" s="32"/>
+      <c r="AO74" s="32"/>
+      <c r="AP74" s="32"/>
+      <c r="AQ74" s="32"/>
+      <c r="AR74" s="32"/>
+      <c r="AS74" s="32"/>
+      <c r="AT74" s="32"/>
+      <c r="AU74" s="32"/>
+      <c r="AV74" s="32"/>
+      <c r="AW74" s="32"/>
+      <c r="AX74" s="32"/>
+      <c r="AY74" s="32"/>
+      <c r="AZ74" s="32"/>
+      <c r="BA74" s="32"/>
+      <c r="BB74" s="32"/>
+      <c r="BC74" s="32"/>
+      <c r="BD74" s="32"/>
+      <c r="BE74" s="32"/>
+      <c r="BF74" s="32"/>
+      <c r="BG74" s="32"/>
+      <c r="BH74" s="32"/>
+      <c r="BI74" s="32"/>
+      <c r="BJ74" s="32"/>
+      <c r="BK74" s="32"/>
+      <c r="BL74" s="32"/>
+      <c r="BM74" s="32"/>
+      <c r="BN74" s="32"/>
+      <c r="BO74" s="32"/>
+      <c r="BP74" s="32"/>
+      <c r="BQ74" s="32"/>
+      <c r="BR74" s="32"/>
+      <c r="BS74" s="32"/>
+      <c r="BT74" s="32"/>
+      <c r="BU74" s="32"/>
+      <c r="BV74" s="32"/>
+      <c r="BW74" s="32"/>
+      <c r="BX74" s="32"/>
+      <c r="BY74" s="32"/>
+      <c r="BZ74" s="32"/>
+      <c r="CA74" s="32"/>
+      <c r="CB74" s="32"/>
+      <c r="CC74" s="32"/>
+      <c r="CD74" s="32"/>
+      <c r="CE74" s="32"/>
+      <c r="CF74" s="32"/>
+      <c r="CG74" s="32"/>
+      <c r="CH74" s="32"/>
+      <c r="CI74" s="32"/>
+      <c r="CJ74" s="32"/>
+      <c r="CK74" s="32"/>
+      <c r="CL74" s="32"/>
+      <c r="CM74" s="32"/>
+      <c r="CN74" s="32"/>
+      <c r="CO74" s="32"/>
+      <c r="CP74" s="32"/>
+      <c r="CQ74" s="32"/>
+      <c r="CR74" s="32"/>
+      <c r="CS74" s="32"/>
+      <c r="CT74" s="32"/>
+      <c r="CU74" s="32"/>
+      <c r="CV74" s="32"/>
+      <c r="CW74" s="32"/>
+      <c r="CX74" s="33"/>
       <c r="CY74" s="21"/>
     </row>
-    <row r="75" spans="1:103">
-      <c r="A75" s="68"/>
-      <c r="B75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="70">
-        <v>6.04</v>
-      </c>
-      <c r="E75" s="72">
-        <v>4.05</v>
-      </c>
+    <row r="75" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="77">
+        <v>44292</v>
+      </c>
+      <c r="E75" s="78"/>
       <c r="F75" s="31"/>
       <c r="G75" s="32"/>
       <c r="H75" s="32"/>
@@ -10341,7 +10442,9 @@
       <c r="AG75" s="32"/>
       <c r="AH75" s="32"/>
       <c r="AI75" s="32"/>
-      <c r="AJ75" s="32"/>
+      <c r="AJ75" s="53">
+        <v>3</v>
+      </c>
       <c r="AK75" s="32"/>
       <c r="AL75" s="32"/>
       <c r="AM75" s="32"/>
@@ -10410,118 +10513,124 @@
       <c r="CX75" s="33"/>
       <c r="CY75" s="21"/>
     </row>
-    <row r="76" spans="1:103">
-      <c r="A76" s="69"/>
-      <c r="B76" s="7" t="s">
+    <row r="76" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="71"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="32"/>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="32"/>
-      <c r="R76" s="32"/>
-      <c r="S76" s="32"/>
-      <c r="T76" s="32"/>
-      <c r="U76" s="32"/>
-      <c r="V76" s="32"/>
-      <c r="W76" s="32"/>
-      <c r="X76" s="32"/>
-      <c r="Y76" s="32"/>
-      <c r="Z76" s="32"/>
-      <c r="AA76" s="32"/>
-      <c r="AB76" s="32"/>
-      <c r="AC76" s="32"/>
-      <c r="AD76" s="32"/>
-      <c r="AE76" s="32"/>
-      <c r="AF76" s="32"/>
-      <c r="AG76" s="32"/>
-      <c r="AH76" s="32"/>
-      <c r="AI76" s="32"/>
-      <c r="AJ76" s="32"/>
-      <c r="AK76" s="32"/>
-      <c r="AL76" s="32"/>
-      <c r="AM76" s="32"/>
-      <c r="AN76" s="32"/>
-      <c r="AO76" s="32"/>
-      <c r="AP76" s="32"/>
-      <c r="AQ76" s="32"/>
-      <c r="AR76" s="32"/>
-      <c r="AS76" s="32"/>
-      <c r="AT76" s="32"/>
-      <c r="AU76" s="32"/>
-      <c r="AV76" s="32"/>
-      <c r="AW76" s="32"/>
-      <c r="AX76" s="32"/>
-      <c r="AY76" s="32"/>
-      <c r="AZ76" s="32"/>
-      <c r="BA76" s="32"/>
-      <c r="BB76" s="32"/>
-      <c r="BC76" s="32"/>
-      <c r="BD76" s="32"/>
-      <c r="BE76" s="32"/>
-      <c r="BF76" s="32"/>
-      <c r="BG76" s="32"/>
-      <c r="BH76" s="32"/>
-      <c r="BI76" s="32"/>
-      <c r="BJ76" s="32"/>
-      <c r="BK76" s="32"/>
-      <c r="BL76" s="32"/>
-      <c r="BM76" s="32"/>
-      <c r="BN76" s="32"/>
-      <c r="BO76" s="32"/>
-      <c r="BP76" s="32"/>
-      <c r="BQ76" s="32"/>
-      <c r="BR76" s="32"/>
-      <c r="BS76" s="32"/>
-      <c r="BT76" s="32"/>
-      <c r="BU76" s="32"/>
-      <c r="BV76" s="32"/>
-      <c r="BW76" s="32"/>
-      <c r="BX76" s="32"/>
-      <c r="BY76" s="32"/>
-      <c r="BZ76" s="32"/>
-      <c r="CA76" s="32"/>
-      <c r="CB76" s="32"/>
-      <c r="CC76" s="32"/>
-      <c r="CD76" s="32"/>
-      <c r="CE76" s="32"/>
-      <c r="CF76" s="32"/>
-      <c r="CG76" s="32"/>
-      <c r="CH76" s="32"/>
-      <c r="CI76" s="32"/>
-      <c r="CJ76" s="32"/>
-      <c r="CK76" s="32"/>
-      <c r="CL76" s="32"/>
-      <c r="CM76" s="32"/>
-      <c r="CN76" s="32"/>
-      <c r="CO76" s="32"/>
-      <c r="CP76" s="32"/>
-      <c r="CQ76" s="32"/>
-      <c r="CR76" s="32"/>
-      <c r="CS76" s="32"/>
-      <c r="CT76" s="32"/>
-      <c r="CU76" s="32"/>
-      <c r="CV76" s="32"/>
-      <c r="CW76" s="32"/>
-      <c r="CX76" s="33"/>
+      <c r="E76" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="44"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="45"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="45"/>
+      <c r="S76" s="45"/>
+      <c r="T76" s="45"/>
+      <c r="U76" s="45"/>
+      <c r="V76" s="45"/>
+      <c r="W76" s="45"/>
+      <c r="X76" s="45"/>
+      <c r="Y76" s="45"/>
+      <c r="Z76" s="45"/>
+      <c r="AA76" s="45"/>
+      <c r="AB76" s="45"/>
+      <c r="AC76" s="45"/>
+      <c r="AD76" s="45"/>
+      <c r="AE76" s="45"/>
+      <c r="AF76" s="45"/>
+      <c r="AG76" s="45"/>
+      <c r="AH76" s="45"/>
+      <c r="AI76" s="45"/>
+      <c r="AJ76" s="45"/>
+      <c r="AK76" s="45"/>
+      <c r="AL76" s="45"/>
+      <c r="AM76" s="45"/>
+      <c r="AN76" s="45"/>
+      <c r="AO76" s="45"/>
+      <c r="AP76" s="45"/>
+      <c r="AQ76" s="45"/>
+      <c r="AR76" s="45"/>
+      <c r="AS76" s="45"/>
+      <c r="AT76" s="45"/>
+      <c r="AU76" s="45"/>
+      <c r="AV76" s="45"/>
+      <c r="AW76" s="45"/>
+      <c r="AX76" s="45"/>
+      <c r="AY76" s="45"/>
+      <c r="AZ76" s="45"/>
+      <c r="BA76" s="45"/>
+      <c r="BB76" s="45"/>
+      <c r="BC76" s="45"/>
+      <c r="BD76" s="45"/>
+      <c r="BE76" s="45"/>
+      <c r="BF76" s="45"/>
+      <c r="BG76" s="45"/>
+      <c r="BH76" s="45"/>
+      <c r="BI76" s="45"/>
+      <c r="BJ76" s="45"/>
+      <c r="BK76" s="45"/>
+      <c r="BL76" s="45"/>
+      <c r="BM76" s="45"/>
+      <c r="BN76" s="45"/>
+      <c r="BO76" s="45"/>
+      <c r="BP76" s="45"/>
+      <c r="BQ76" s="45"/>
+      <c r="BR76" s="45"/>
+      <c r="BS76" s="45"/>
+      <c r="BT76" s="45"/>
+      <c r="BU76" s="45"/>
+      <c r="BV76" s="45"/>
+      <c r="BW76" s="45"/>
+      <c r="BX76" s="45"/>
+      <c r="BY76" s="45"/>
+      <c r="BZ76" s="45"/>
+      <c r="CA76" s="45"/>
+      <c r="CB76" s="45"/>
+      <c r="CC76" s="45"/>
+      <c r="CD76" s="45"/>
+      <c r="CE76" s="45"/>
+      <c r="CF76" s="45"/>
+      <c r="CG76" s="45"/>
+      <c r="CH76" s="45"/>
+      <c r="CI76" s="45"/>
+      <c r="CJ76" s="45"/>
+      <c r="CK76" s="45"/>
+      <c r="CL76" s="45"/>
+      <c r="CM76" s="45"/>
+      <c r="CN76" s="45"/>
+      <c r="CO76" s="45"/>
+      <c r="CP76" s="45"/>
+      <c r="CQ76" s="45"/>
+      <c r="CR76" s="45"/>
+      <c r="CS76" s="45"/>
+      <c r="CT76" s="45"/>
+      <c r="CU76" s="45"/>
+      <c r="CV76" s="45"/>
+      <c r="CW76" s="45"/>
+      <c r="CX76" s="46"/>
       <c r="CY76" s="21"/>
     </row>
-    <row r="77" spans="1:103">
+    <row r="77" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>9</v>
@@ -10634,18 +10743,18 @@
       <c r="CX77" s="42"/>
       <c r="CY77" s="21"/>
     </row>
-    <row r="78" spans="1:103">
-      <c r="A78" s="68"/>
+    <row r="78" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A78" s="67"/>
       <c r="B78" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="70">
+      <c r="D78" s="71">
         <v>6.04</v>
       </c>
-      <c r="E78" s="72">
+      <c r="E78" s="70">
         <v>4.05</v>
       </c>
       <c r="F78" s="31"/>
@@ -10747,16 +10856,16 @@
       <c r="CX78" s="33"/>
       <c r="CY78" s="21"/>
     </row>
-    <row r="79" spans="1:103">
-      <c r="A79" s="69"/>
+    <row r="79" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A79" s="68"/>
       <c r="B79" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="71"/>
-      <c r="E79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="70"/>
       <c r="F79" s="31"/>
       <c r="G79" s="32"/>
       <c r="H79" s="32"/>
@@ -10856,9 +10965,9 @@
       <c r="CX79" s="33"/>
       <c r="CY79" s="21"/>
     </row>
-    <row r="80" spans="1:103">
+    <row r="80" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>9</v>
@@ -10971,18 +11080,18 @@
       <c r="CX80" s="42"/>
       <c r="CY80" s="21"/>
     </row>
-    <row r="81" spans="1:103">
-      <c r="A81" s="68"/>
+    <row r="81" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A81" s="67"/>
       <c r="B81" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="70">
+      <c r="D81" s="71">
         <v>6.04</v>
       </c>
-      <c r="E81" s="72">
+      <c r="E81" s="70">
         <v>4.05</v>
       </c>
       <c r="F81" s="31"/>
@@ -11084,16 +11193,16 @@
       <c r="CX81" s="33"/>
       <c r="CY81" s="21"/>
     </row>
-    <row r="82" spans="1:103">
-      <c r="A82" s="69"/>
+    <row r="82" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A82" s="68"/>
       <c r="B82" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="71"/>
-      <c r="E82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="70"/>
       <c r="F82" s="31"/>
       <c r="G82" s="32"/>
       <c r="H82" s="32"/>
@@ -11193,9 +11302,9 @@
       <c r="CX82" s="33"/>
       <c r="CY82" s="21"/>
     </row>
-    <row r="83" spans="1:103">
+    <row r="83" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>9</v>
@@ -11308,18 +11417,18 @@
       <c r="CX83" s="42"/>
       <c r="CY83" s="21"/>
     </row>
-    <row r="84" spans="1:103">
-      <c r="A84" s="68"/>
+    <row r="84" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A84" s="67"/>
       <c r="B84" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="70">
+      <c r="D84" s="71">
         <v>6.04</v>
       </c>
-      <c r="E84" s="72">
+      <c r="E84" s="70">
         <v>4.05</v>
       </c>
       <c r="F84" s="31"/>
@@ -11421,16 +11530,16 @@
       <c r="CX84" s="33"/>
       <c r="CY84" s="21"/>
     </row>
-    <row r="85" spans="1:103">
-      <c r="A85" s="69"/>
+    <row r="85" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A85" s="68"/>
       <c r="B85" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="71"/>
-      <c r="E85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="70"/>
       <c r="F85" s="31"/>
       <c r="G85" s="32"/>
       <c r="H85" s="32"/>
@@ -11530,468 +11639,472 @@
       <c r="CX85" s="33"/>
       <c r="CY85" s="21"/>
     </row>
-    <row r="86" spans="1:103">
-      <c r="A86" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="78">
-        <v>44320</v>
-      </c>
-      <c r="E86" s="79"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
-      <c r="T86" s="32"/>
-      <c r="U86" s="32"/>
-      <c r="V86" s="32"/>
-      <c r="W86" s="32"/>
-      <c r="X86" s="32"/>
-      <c r="Y86" s="32"/>
-      <c r="Z86" s="32"/>
-      <c r="AA86" s="32"/>
-      <c r="AB86" s="32"/>
-      <c r="AC86" s="32"/>
-      <c r="AD86" s="32"/>
-      <c r="AE86" s="32"/>
-      <c r="AF86" s="32"/>
-      <c r="AG86" s="32"/>
-      <c r="AH86" s="32"/>
-      <c r="AI86" s="32"/>
-      <c r="AJ86" s="32"/>
-      <c r="AK86" s="32"/>
-      <c r="AL86" s="32"/>
-      <c r="AM86" s="32"/>
-      <c r="AN86" s="32"/>
-      <c r="AO86" s="32"/>
-      <c r="AP86" s="32"/>
-      <c r="AQ86" s="32"/>
-      <c r="AR86" s="32"/>
-      <c r="AS86" s="32"/>
-      <c r="AT86" s="32"/>
-      <c r="AU86" s="32"/>
-      <c r="AV86" s="32"/>
-      <c r="AW86" s="32"/>
-      <c r="AX86" s="32"/>
-      <c r="AY86" s="32"/>
-      <c r="AZ86" s="32"/>
-      <c r="BA86" s="32"/>
-      <c r="BB86" s="32"/>
-      <c r="BC86" s="32"/>
-      <c r="BD86" s="32"/>
-      <c r="BE86" s="32"/>
-      <c r="BF86" s="32"/>
-      <c r="BG86" s="32"/>
-      <c r="BH86" s="32"/>
-      <c r="BI86" s="32"/>
-      <c r="BJ86" s="32"/>
-      <c r="BK86" s="32"/>
-      <c r="BL86" s="32"/>
-      <c r="BM86" s="32"/>
-      <c r="BN86" s="32"/>
-      <c r="BO86" s="32"/>
-      <c r="BP86" s="32"/>
-      <c r="BQ86" s="32"/>
-      <c r="BR86" s="32"/>
-      <c r="BS86" s="32"/>
-      <c r="BT86" s="32"/>
-      <c r="BU86" s="32"/>
-      <c r="BV86" s="32"/>
-      <c r="BW86" s="32"/>
-      <c r="BX86" s="32"/>
-      <c r="BY86" s="32"/>
-      <c r="BZ86" s="32"/>
-      <c r="CA86" s="32"/>
-      <c r="CB86" s="32"/>
-      <c r="CC86" s="32"/>
-      <c r="CD86" s="32"/>
-      <c r="CE86" s="32"/>
-      <c r="CF86" s="32"/>
-      <c r="CG86" s="32"/>
-      <c r="CH86" s="32"/>
-      <c r="CI86" s="32"/>
-      <c r="CJ86" s="32"/>
-      <c r="CK86" s="32"/>
-      <c r="CL86" s="32"/>
-      <c r="CM86" s="32"/>
-      <c r="CN86" s="32"/>
-      <c r="CO86" s="32"/>
-      <c r="CP86" s="32"/>
-      <c r="CQ86" s="32"/>
-      <c r="CR86" s="32"/>
-      <c r="CS86" s="32"/>
-      <c r="CT86" s="32"/>
-      <c r="CU86" s="32"/>
-      <c r="CV86" s="32"/>
-      <c r="CW86" s="32"/>
-      <c r="CX86" s="33"/>
+    <row r="86" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="40"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
+      <c r="T86" s="41"/>
+      <c r="U86" s="41"/>
+      <c r="V86" s="41"/>
+      <c r="W86" s="41"/>
+      <c r="X86" s="41"/>
+      <c r="Y86" s="41"/>
+      <c r="Z86" s="41"/>
+      <c r="AA86" s="41"/>
+      <c r="AB86" s="41"/>
+      <c r="AC86" s="41"/>
+      <c r="AD86" s="41"/>
+      <c r="AE86" s="41"/>
+      <c r="AF86" s="41"/>
+      <c r="AG86" s="41"/>
+      <c r="AH86" s="41"/>
+      <c r="AI86" s="41"/>
+      <c r="AJ86" s="41"/>
+      <c r="AK86" s="41"/>
+      <c r="AL86" s="41"/>
+      <c r="AM86" s="41"/>
+      <c r="AN86" s="41"/>
+      <c r="AO86" s="41"/>
+      <c r="AP86" s="41"/>
+      <c r="AQ86" s="41"/>
+      <c r="AR86" s="41"/>
+      <c r="AS86" s="41"/>
+      <c r="AT86" s="41"/>
+      <c r="AU86" s="41"/>
+      <c r="AV86" s="41"/>
+      <c r="AW86" s="41"/>
+      <c r="AX86" s="41"/>
+      <c r="AY86" s="41"/>
+      <c r="AZ86" s="41"/>
+      <c r="BA86" s="41"/>
+      <c r="BB86" s="41"/>
+      <c r="BC86" s="41"/>
+      <c r="BD86" s="41"/>
+      <c r="BE86" s="41"/>
+      <c r="BF86" s="41"/>
+      <c r="BG86" s="41"/>
+      <c r="BH86" s="41"/>
+      <c r="BI86" s="41"/>
+      <c r="BJ86" s="41"/>
+      <c r="BK86" s="41"/>
+      <c r="BL86" s="41"/>
+      <c r="BM86" s="41"/>
+      <c r="BN86" s="41"/>
+      <c r="BO86" s="41"/>
+      <c r="BP86" s="41"/>
+      <c r="BQ86" s="41"/>
+      <c r="BR86" s="41"/>
+      <c r="BS86" s="41"/>
+      <c r="BT86" s="41"/>
+      <c r="BU86" s="41"/>
+      <c r="BV86" s="41"/>
+      <c r="BW86" s="41"/>
+      <c r="BX86" s="41"/>
+      <c r="BY86" s="41"/>
+      <c r="BZ86" s="41"/>
+      <c r="CA86" s="41"/>
+      <c r="CB86" s="41"/>
+      <c r="CC86" s="41"/>
+      <c r="CD86" s="41"/>
+      <c r="CE86" s="41"/>
+      <c r="CF86" s="41"/>
+      <c r="CG86" s="41"/>
+      <c r="CH86" s="41"/>
+      <c r="CI86" s="41"/>
+      <c r="CJ86" s="41"/>
+      <c r="CK86" s="41"/>
+      <c r="CL86" s="41"/>
+      <c r="CM86" s="41"/>
+      <c r="CN86" s="41"/>
+      <c r="CO86" s="41"/>
+      <c r="CP86" s="41"/>
+      <c r="CQ86" s="41"/>
+      <c r="CR86" s="41"/>
+      <c r="CS86" s="41"/>
+      <c r="CT86" s="41"/>
+      <c r="CU86" s="41"/>
+      <c r="CV86" s="41"/>
+      <c r="CW86" s="41"/>
+      <c r="CX86" s="42"/>
       <c r="CY86" s="21"/>
     </row>
-    <row r="87" spans="1:103">
-      <c r="A87" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" s="10" t="s">
+    <row r="87" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A87" s="67"/>
+      <c r="B87" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" s="44"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="45"/>
-      <c r="O87" s="45"/>
-      <c r="P87" s="45"/>
-      <c r="Q87" s="45"/>
-      <c r="R87" s="45"/>
-      <c r="S87" s="45"/>
-      <c r="T87" s="45"/>
-      <c r="U87" s="45"/>
-      <c r="V87" s="45"/>
-      <c r="W87" s="45"/>
-      <c r="X87" s="45"/>
-      <c r="Y87" s="45"/>
-      <c r="Z87" s="45"/>
-      <c r="AA87" s="45"/>
-      <c r="AB87" s="45"/>
-      <c r="AC87" s="45"/>
-      <c r="AD87" s="45"/>
-      <c r="AE87" s="45"/>
-      <c r="AF87" s="45"/>
-      <c r="AG87" s="45"/>
-      <c r="AH87" s="45"/>
-      <c r="AI87" s="45"/>
-      <c r="AJ87" s="45"/>
-      <c r="AK87" s="45"/>
-      <c r="AL87" s="45"/>
-      <c r="AM87" s="45"/>
-      <c r="AN87" s="45"/>
-      <c r="AO87" s="45"/>
-      <c r="AP87" s="45"/>
-      <c r="AQ87" s="45"/>
-      <c r="AR87" s="45"/>
-      <c r="AS87" s="45"/>
-      <c r="AT87" s="45"/>
-      <c r="AU87" s="45"/>
-      <c r="AV87" s="45"/>
-      <c r="AW87" s="45"/>
-      <c r="AX87" s="45"/>
-      <c r="AY87" s="45"/>
-      <c r="AZ87" s="45"/>
-      <c r="BA87" s="45"/>
-      <c r="BB87" s="45"/>
-      <c r="BC87" s="45"/>
-      <c r="BD87" s="45"/>
-      <c r="BE87" s="45"/>
-      <c r="BF87" s="45"/>
-      <c r="BG87" s="45"/>
-      <c r="BH87" s="45"/>
-      <c r="BI87" s="45"/>
-      <c r="BJ87" s="45"/>
-      <c r="BK87" s="45"/>
-      <c r="BL87" s="45"/>
-      <c r="BM87" s="45"/>
-      <c r="BN87" s="45"/>
-      <c r="BO87" s="45"/>
-      <c r="BP87" s="45"/>
-      <c r="BQ87" s="45"/>
-      <c r="BR87" s="45"/>
-      <c r="BS87" s="45"/>
-      <c r="BT87" s="45"/>
-      <c r="BU87" s="45"/>
-      <c r="BV87" s="45"/>
-      <c r="BW87" s="45"/>
-      <c r="BX87" s="45"/>
-      <c r="BY87" s="45"/>
-      <c r="BZ87" s="45"/>
-      <c r="CA87" s="45"/>
-      <c r="CB87" s="45"/>
-      <c r="CC87" s="45"/>
-      <c r="CD87" s="45"/>
-      <c r="CE87" s="45"/>
-      <c r="CF87" s="45"/>
-      <c r="CG87" s="45"/>
-      <c r="CH87" s="45"/>
-      <c r="CI87" s="45"/>
-      <c r="CJ87" s="45"/>
-      <c r="CK87" s="45"/>
-      <c r="CL87" s="45"/>
-      <c r="CM87" s="45"/>
-      <c r="CN87" s="45"/>
-      <c r="CO87" s="45"/>
-      <c r="CP87" s="45"/>
-      <c r="CQ87" s="45"/>
-      <c r="CR87" s="45"/>
-      <c r="CS87" s="45"/>
-      <c r="CT87" s="45"/>
-      <c r="CU87" s="45"/>
-      <c r="CV87" s="45"/>
-      <c r="CW87" s="45"/>
-      <c r="CX87" s="46"/>
+      <c r="C87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="71">
+        <v>6.04</v>
+      </c>
+      <c r="E87" s="70">
+        <v>4.05</v>
+      </c>
+      <c r="F87" s="31"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
+      <c r="V87" s="32"/>
+      <c r="W87" s="32"/>
+      <c r="X87" s="32"/>
+      <c r="Y87" s="32"/>
+      <c r="Z87" s="32"/>
+      <c r="AA87" s="32"/>
+      <c r="AB87" s="32"/>
+      <c r="AC87" s="32"/>
+      <c r="AD87" s="32"/>
+      <c r="AE87" s="32"/>
+      <c r="AF87" s="32"/>
+      <c r="AG87" s="32"/>
+      <c r="AH87" s="32"/>
+      <c r="AI87" s="32"/>
+      <c r="AJ87" s="32"/>
+      <c r="AK87" s="32"/>
+      <c r="AL87" s="32"/>
+      <c r="AM87" s="32"/>
+      <c r="AN87" s="32"/>
+      <c r="AO87" s="32"/>
+      <c r="AP87" s="32"/>
+      <c r="AQ87" s="32"/>
+      <c r="AR87" s="32"/>
+      <c r="AS87" s="32"/>
+      <c r="AT87" s="32"/>
+      <c r="AU87" s="32"/>
+      <c r="AV87" s="32"/>
+      <c r="AW87" s="32"/>
+      <c r="AX87" s="32"/>
+      <c r="AY87" s="32"/>
+      <c r="AZ87" s="32"/>
+      <c r="BA87" s="32"/>
+      <c r="BB87" s="32"/>
+      <c r="BC87" s="32"/>
+      <c r="BD87" s="32"/>
+      <c r="BE87" s="32"/>
+      <c r="BF87" s="32"/>
+      <c r="BG87" s="32"/>
+      <c r="BH87" s="32"/>
+      <c r="BI87" s="32"/>
+      <c r="BJ87" s="32"/>
+      <c r="BK87" s="32"/>
+      <c r="BL87" s="32"/>
+      <c r="BM87" s="32"/>
+      <c r="BN87" s="32"/>
+      <c r="BO87" s="32"/>
+      <c r="BP87" s="32"/>
+      <c r="BQ87" s="32"/>
+      <c r="BR87" s="32"/>
+      <c r="BS87" s="32"/>
+      <c r="BT87" s="32"/>
+      <c r="BU87" s="32"/>
+      <c r="BV87" s="32"/>
+      <c r="BW87" s="32"/>
+      <c r="BX87" s="32"/>
+      <c r="BY87" s="32"/>
+      <c r="BZ87" s="32"/>
+      <c r="CA87" s="32"/>
+      <c r="CB87" s="32"/>
+      <c r="CC87" s="32"/>
+      <c r="CD87" s="32"/>
+      <c r="CE87" s="32"/>
+      <c r="CF87" s="32"/>
+      <c r="CG87" s="32"/>
+      <c r="CH87" s="32"/>
+      <c r="CI87" s="32"/>
+      <c r="CJ87" s="32"/>
+      <c r="CK87" s="32"/>
+      <c r="CL87" s="32"/>
+      <c r="CM87" s="32"/>
+      <c r="CN87" s="32"/>
+      <c r="CO87" s="32"/>
+      <c r="CP87" s="32"/>
+      <c r="CQ87" s="32"/>
+      <c r="CR87" s="32"/>
+      <c r="CS87" s="32"/>
+      <c r="CT87" s="32"/>
+      <c r="CU87" s="32"/>
+      <c r="CV87" s="32"/>
+      <c r="CW87" s="32"/>
+      <c r="CX87" s="33"/>
       <c r="CY87" s="21"/>
     </row>
-    <row r="88" spans="1:103">
-      <c r="A88" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="19" t="s">
+    <row r="88" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A88" s="68"/>
+      <c r="B88" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="40"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="41"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="41"/>
-      <c r="U88" s="41"/>
-      <c r="V88" s="41"/>
-      <c r="W88" s="41"/>
-      <c r="X88" s="41"/>
-      <c r="Y88" s="41"/>
-      <c r="Z88" s="41"/>
-      <c r="AA88" s="41"/>
-      <c r="AB88" s="41"/>
-      <c r="AC88" s="41"/>
-      <c r="AD88" s="41"/>
-      <c r="AE88" s="41"/>
-      <c r="AF88" s="41"/>
-      <c r="AG88" s="41"/>
-      <c r="AH88" s="41"/>
-      <c r="AI88" s="41"/>
-      <c r="AJ88" s="41"/>
-      <c r="AK88" s="41"/>
-      <c r="AL88" s="41"/>
-      <c r="AM88" s="41"/>
-      <c r="AN88" s="41"/>
-      <c r="AO88" s="41"/>
-      <c r="AP88" s="41"/>
-      <c r="AQ88" s="41"/>
-      <c r="AR88" s="41"/>
-      <c r="AS88" s="41"/>
-      <c r="AT88" s="41"/>
-      <c r="AU88" s="41"/>
-      <c r="AV88" s="41"/>
-      <c r="AW88" s="41"/>
-      <c r="AX88" s="41"/>
-      <c r="AY88" s="41"/>
-      <c r="AZ88" s="41"/>
-      <c r="BA88" s="41"/>
-      <c r="BB88" s="41"/>
-      <c r="BC88" s="41"/>
-      <c r="BD88" s="41"/>
-      <c r="BE88" s="41"/>
-      <c r="BF88" s="41"/>
-      <c r="BG88" s="41"/>
-      <c r="BH88" s="41"/>
-      <c r="BI88" s="41"/>
-      <c r="BJ88" s="41"/>
-      <c r="BK88" s="41"/>
-      <c r="BL88" s="41"/>
-      <c r="BM88" s="41"/>
-      <c r="BN88" s="41"/>
-      <c r="BO88" s="41"/>
-      <c r="BP88" s="41"/>
-      <c r="BQ88" s="41"/>
-      <c r="BR88" s="41"/>
-      <c r="BS88" s="41"/>
-      <c r="BT88" s="41"/>
-      <c r="BU88" s="41"/>
-      <c r="BV88" s="41"/>
-      <c r="BW88" s="41"/>
-      <c r="BX88" s="41"/>
-      <c r="BY88" s="41"/>
-      <c r="BZ88" s="41"/>
-      <c r="CA88" s="41"/>
-      <c r="CB88" s="41"/>
-      <c r="CC88" s="41"/>
-      <c r="CD88" s="41"/>
-      <c r="CE88" s="41"/>
-      <c r="CF88" s="41"/>
-      <c r="CG88" s="41"/>
-      <c r="CH88" s="41"/>
-      <c r="CI88" s="41"/>
-      <c r="CJ88" s="41"/>
-      <c r="CK88" s="41"/>
-      <c r="CL88" s="41"/>
-      <c r="CM88" s="41"/>
-      <c r="CN88" s="41"/>
-      <c r="CO88" s="41"/>
-      <c r="CP88" s="41"/>
-      <c r="CQ88" s="41"/>
-      <c r="CR88" s="41"/>
-      <c r="CS88" s="41"/>
-      <c r="CT88" s="41"/>
-      <c r="CU88" s="41"/>
-      <c r="CV88" s="41"/>
-      <c r="CW88" s="41"/>
-      <c r="CX88" s="42"/>
+      <c r="C88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="72"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="32"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="32"/>
+      <c r="W88" s="32"/>
+      <c r="X88" s="32"/>
+      <c r="Y88" s="32"/>
+      <c r="Z88" s="32"/>
+      <c r="AA88" s="32"/>
+      <c r="AB88" s="32"/>
+      <c r="AC88" s="32"/>
+      <c r="AD88" s="32"/>
+      <c r="AE88" s="32"/>
+      <c r="AF88" s="32"/>
+      <c r="AG88" s="32"/>
+      <c r="AH88" s="32"/>
+      <c r="AI88" s="32"/>
+      <c r="AJ88" s="32"/>
+      <c r="AK88" s="32"/>
+      <c r="AL88" s="32"/>
+      <c r="AM88" s="32"/>
+      <c r="AN88" s="32"/>
+      <c r="AO88" s="32"/>
+      <c r="AP88" s="32"/>
+      <c r="AQ88" s="32"/>
+      <c r="AR88" s="32"/>
+      <c r="AS88" s="32"/>
+      <c r="AT88" s="32"/>
+      <c r="AU88" s="32"/>
+      <c r="AV88" s="32"/>
+      <c r="AW88" s="32"/>
+      <c r="AX88" s="32"/>
+      <c r="AY88" s="32"/>
+      <c r="AZ88" s="32"/>
+      <c r="BA88" s="32"/>
+      <c r="BB88" s="32"/>
+      <c r="BC88" s="32"/>
+      <c r="BD88" s="32"/>
+      <c r="BE88" s="32"/>
+      <c r="BF88" s="32"/>
+      <c r="BG88" s="32"/>
+      <c r="BH88" s="32"/>
+      <c r="BI88" s="32"/>
+      <c r="BJ88" s="32"/>
+      <c r="BK88" s="32"/>
+      <c r="BL88" s="32"/>
+      <c r="BM88" s="32"/>
+      <c r="BN88" s="32"/>
+      <c r="BO88" s="32"/>
+      <c r="BP88" s="32"/>
+      <c r="BQ88" s="32"/>
+      <c r="BR88" s="32"/>
+      <c r="BS88" s="32"/>
+      <c r="BT88" s="32"/>
+      <c r="BU88" s="32"/>
+      <c r="BV88" s="32"/>
+      <c r="BW88" s="32"/>
+      <c r="BX88" s="32"/>
+      <c r="BY88" s="32"/>
+      <c r="BZ88" s="32"/>
+      <c r="CA88" s="32"/>
+      <c r="CB88" s="32"/>
+      <c r="CC88" s="32"/>
+      <c r="CD88" s="32"/>
+      <c r="CE88" s="32"/>
+      <c r="CF88" s="32"/>
+      <c r="CG88" s="32"/>
+      <c r="CH88" s="32"/>
+      <c r="CI88" s="32"/>
+      <c r="CJ88" s="32"/>
+      <c r="CK88" s="32"/>
+      <c r="CL88" s="32"/>
+      <c r="CM88" s="32"/>
+      <c r="CN88" s="32"/>
+      <c r="CO88" s="32"/>
+      <c r="CP88" s="32"/>
+      <c r="CQ88" s="32"/>
+      <c r="CR88" s="32"/>
+      <c r="CS88" s="32"/>
+      <c r="CT88" s="32"/>
+      <c r="CU88" s="32"/>
+      <c r="CV88" s="32"/>
+      <c r="CW88" s="32"/>
+      <c r="CX88" s="33"/>
       <c r="CY88" s="21"/>
     </row>
-    <row r="89" spans="1:103">
-      <c r="A89" s="68"/>
-      <c r="B89" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="75">
-        <v>4.05</v>
-      </c>
-      <c r="E89" s="72">
-        <v>18.04</v>
-      </c>
-      <c r="F89" s="31"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
-      <c r="O89" s="32"/>
-      <c r="P89" s="32"/>
-      <c r="Q89" s="32"/>
-      <c r="R89" s="32"/>
-      <c r="S89" s="32"/>
-      <c r="T89" s="32"/>
-      <c r="U89" s="32"/>
-      <c r="V89" s="32"/>
-      <c r="W89" s="32"/>
-      <c r="X89" s="32"/>
-      <c r="Y89" s="32"/>
-      <c r="Z89" s="32"/>
-      <c r="AA89" s="32"/>
-      <c r="AB89" s="32"/>
-      <c r="AC89" s="32"/>
-      <c r="AD89" s="32"/>
-      <c r="AE89" s="32"/>
-      <c r="AF89" s="32"/>
-      <c r="AG89" s="32"/>
-      <c r="AH89" s="32"/>
-      <c r="AI89" s="32"/>
-      <c r="AJ89" s="32"/>
-      <c r="AK89" s="32"/>
-      <c r="AL89" s="32"/>
-      <c r="AM89" s="32"/>
-      <c r="AN89" s="32"/>
-      <c r="AO89" s="32"/>
-      <c r="AP89" s="32"/>
-      <c r="AQ89" s="32"/>
-      <c r="AR89" s="32"/>
-      <c r="AS89" s="32"/>
-      <c r="AT89" s="32"/>
-      <c r="AU89" s="32"/>
-      <c r="AV89" s="32"/>
-      <c r="AW89" s="32"/>
-      <c r="AX89" s="32"/>
-      <c r="AY89" s="32"/>
-      <c r="AZ89" s="32"/>
-      <c r="BA89" s="32"/>
-      <c r="BB89" s="32"/>
-      <c r="BC89" s="32"/>
-      <c r="BD89" s="32"/>
-      <c r="BE89" s="32"/>
-      <c r="BF89" s="32"/>
-      <c r="BG89" s="32"/>
-      <c r="BH89" s="32"/>
-      <c r="BI89" s="32"/>
-      <c r="BJ89" s="32"/>
-      <c r="BK89" s="32"/>
-      <c r="BL89" s="32"/>
-      <c r="BM89" s="32"/>
-      <c r="BN89" s="32"/>
-      <c r="BO89" s="32"/>
-      <c r="BP89" s="32"/>
-      <c r="BQ89" s="32"/>
-      <c r="BR89" s="32"/>
-      <c r="BS89" s="32"/>
-      <c r="BT89" s="32"/>
-      <c r="BU89" s="32"/>
-      <c r="BV89" s="32"/>
-      <c r="BW89" s="32"/>
-      <c r="BX89" s="32"/>
-      <c r="BY89" s="32"/>
-      <c r="BZ89" s="32"/>
-      <c r="CA89" s="32"/>
-      <c r="CB89" s="32"/>
-      <c r="CC89" s="32"/>
-      <c r="CD89" s="32"/>
-      <c r="CE89" s="32"/>
-      <c r="CF89" s="32"/>
-      <c r="CG89" s="32"/>
-      <c r="CH89" s="32"/>
-      <c r="CI89" s="32"/>
-      <c r="CJ89" s="32"/>
-      <c r="CK89" s="32"/>
-      <c r="CL89" s="32"/>
-      <c r="CM89" s="32"/>
-      <c r="CN89" s="32"/>
-      <c r="CO89" s="32"/>
-      <c r="CP89" s="32"/>
-      <c r="CQ89" s="32"/>
-      <c r="CR89" s="32"/>
-      <c r="CS89" s="32"/>
-      <c r="CT89" s="32"/>
-      <c r="CU89" s="32"/>
-      <c r="CV89" s="32"/>
-      <c r="CW89" s="32"/>
-      <c r="CX89" s="33"/>
+    <row r="89" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="40"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="41"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="41"/>
+      <c r="S89" s="41"/>
+      <c r="T89" s="41"/>
+      <c r="U89" s="41"/>
+      <c r="V89" s="41"/>
+      <c r="W89" s="41"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="41"/>
+      <c r="Z89" s="41"/>
+      <c r="AA89" s="41"/>
+      <c r="AB89" s="41"/>
+      <c r="AC89" s="41"/>
+      <c r="AD89" s="41"/>
+      <c r="AE89" s="41"/>
+      <c r="AF89" s="41"/>
+      <c r="AG89" s="41"/>
+      <c r="AH89" s="41"/>
+      <c r="AI89" s="41"/>
+      <c r="AJ89" s="41"/>
+      <c r="AK89" s="41"/>
+      <c r="AL89" s="41"/>
+      <c r="AM89" s="41"/>
+      <c r="AN89" s="41"/>
+      <c r="AO89" s="41"/>
+      <c r="AP89" s="41"/>
+      <c r="AQ89" s="41"/>
+      <c r="AR89" s="41"/>
+      <c r="AS89" s="41"/>
+      <c r="AT89" s="41"/>
+      <c r="AU89" s="41"/>
+      <c r="AV89" s="41"/>
+      <c r="AW89" s="41"/>
+      <c r="AX89" s="41"/>
+      <c r="AY89" s="41"/>
+      <c r="AZ89" s="41"/>
+      <c r="BA89" s="41"/>
+      <c r="BB89" s="41"/>
+      <c r="BC89" s="41"/>
+      <c r="BD89" s="41"/>
+      <c r="BE89" s="41"/>
+      <c r="BF89" s="41"/>
+      <c r="BG89" s="41"/>
+      <c r="BH89" s="41"/>
+      <c r="BI89" s="41"/>
+      <c r="BJ89" s="41"/>
+      <c r="BK89" s="41"/>
+      <c r="BL89" s="41"/>
+      <c r="BM89" s="41"/>
+      <c r="BN89" s="41"/>
+      <c r="BO89" s="41"/>
+      <c r="BP89" s="41"/>
+      <c r="BQ89" s="41"/>
+      <c r="BR89" s="41"/>
+      <c r="BS89" s="41"/>
+      <c r="BT89" s="41"/>
+      <c r="BU89" s="41"/>
+      <c r="BV89" s="41"/>
+      <c r="BW89" s="41"/>
+      <c r="BX89" s="41"/>
+      <c r="BY89" s="41"/>
+      <c r="BZ89" s="41"/>
+      <c r="CA89" s="41"/>
+      <c r="CB89" s="41"/>
+      <c r="CC89" s="41"/>
+      <c r="CD89" s="41"/>
+      <c r="CE89" s="41"/>
+      <c r="CF89" s="41"/>
+      <c r="CG89" s="41"/>
+      <c r="CH89" s="41"/>
+      <c r="CI89" s="41"/>
+      <c r="CJ89" s="41"/>
+      <c r="CK89" s="41"/>
+      <c r="CL89" s="41"/>
+      <c r="CM89" s="41"/>
+      <c r="CN89" s="41"/>
+      <c r="CO89" s="41"/>
+      <c r="CP89" s="41"/>
+      <c r="CQ89" s="41"/>
+      <c r="CR89" s="41"/>
+      <c r="CS89" s="41"/>
+      <c r="CT89" s="41"/>
+      <c r="CU89" s="41"/>
+      <c r="CV89" s="41"/>
+      <c r="CW89" s="41"/>
+      <c r="CX89" s="42"/>
       <c r="CY89" s="21"/>
     </row>
-    <row r="90" spans="1:103">
-      <c r="A90" s="69"/>
+    <row r="90" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A90" s="67"/>
       <c r="B90" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="75"/>
-      <c r="E90" s="72"/>
+      <c r="D90" s="71">
+        <v>6.04</v>
+      </c>
+      <c r="E90" s="70">
+        <v>4.05</v>
+      </c>
       <c r="F90" s="31"/>
       <c r="G90" s="32"/>
       <c r="H90" s="32"/>
@@ -12091,135 +12204,125 @@
       <c r="CX90" s="33"/>
       <c r="CY90" s="21"/>
     </row>
-    <row r="91" spans="1:103">
-      <c r="A91" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="19" t="s">
+    <row r="91" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A91" s="68"/>
+      <c r="B91" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="40"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="41"/>
-      <c r="N91" s="41"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
-      <c r="Q91" s="41"/>
-      <c r="R91" s="41"/>
-      <c r="S91" s="41"/>
-      <c r="T91" s="41"/>
-      <c r="U91" s="41"/>
-      <c r="V91" s="41"/>
-      <c r="W91" s="41"/>
-      <c r="X91" s="41"/>
-      <c r="Y91" s="41"/>
-      <c r="Z91" s="41"/>
-      <c r="AA91" s="41"/>
-      <c r="AB91" s="41"/>
-      <c r="AC91" s="41"/>
-      <c r="AD91" s="41"/>
-      <c r="AE91" s="41"/>
-      <c r="AF91" s="41"/>
-      <c r="AG91" s="41"/>
-      <c r="AH91" s="41"/>
-      <c r="AI91" s="41"/>
-      <c r="AJ91" s="41"/>
-      <c r="AK91" s="41"/>
-      <c r="AL91" s="41"/>
-      <c r="AM91" s="41"/>
-      <c r="AN91" s="41"/>
-      <c r="AO91" s="41"/>
-      <c r="AP91" s="41"/>
-      <c r="AQ91" s="41"/>
-      <c r="AR91" s="41"/>
-      <c r="AS91" s="41"/>
-      <c r="AT91" s="41"/>
-      <c r="AU91" s="41"/>
-      <c r="AV91" s="41"/>
-      <c r="AW91" s="41"/>
-      <c r="AX91" s="41"/>
-      <c r="AY91" s="41"/>
-      <c r="AZ91" s="41"/>
-      <c r="BA91" s="41"/>
-      <c r="BB91" s="41"/>
-      <c r="BC91" s="41"/>
-      <c r="BD91" s="41"/>
-      <c r="BE91" s="41"/>
-      <c r="BF91" s="41"/>
-      <c r="BG91" s="41"/>
-      <c r="BH91" s="41"/>
-      <c r="BI91" s="41"/>
-      <c r="BJ91" s="41"/>
-      <c r="BK91" s="41"/>
-      <c r="BL91" s="41"/>
-      <c r="BM91" s="41"/>
-      <c r="BN91" s="41"/>
-      <c r="BO91" s="41"/>
-      <c r="BP91" s="41"/>
-      <c r="BQ91" s="41"/>
-      <c r="BR91" s="41"/>
-      <c r="BS91" s="41"/>
-      <c r="BT91" s="41"/>
-      <c r="BU91" s="41"/>
-      <c r="BV91" s="41"/>
-      <c r="BW91" s="41"/>
-      <c r="BX91" s="41"/>
-      <c r="BY91" s="41"/>
-      <c r="BZ91" s="41"/>
-      <c r="CA91" s="41"/>
-      <c r="CB91" s="41"/>
-      <c r="CC91" s="41"/>
-      <c r="CD91" s="41"/>
-      <c r="CE91" s="41"/>
-      <c r="CF91" s="41"/>
-      <c r="CG91" s="41"/>
-      <c r="CH91" s="41"/>
-      <c r="CI91" s="41"/>
-      <c r="CJ91" s="41"/>
-      <c r="CK91" s="41"/>
-      <c r="CL91" s="41"/>
-      <c r="CM91" s="41"/>
-      <c r="CN91" s="41"/>
-      <c r="CO91" s="41"/>
-      <c r="CP91" s="41"/>
-      <c r="CQ91" s="41"/>
-      <c r="CR91" s="41"/>
-      <c r="CS91" s="41"/>
-      <c r="CT91" s="41"/>
-      <c r="CU91" s="41"/>
-      <c r="CV91" s="41"/>
-      <c r="CW91" s="41"/>
-      <c r="CX91" s="42"/>
+      <c r="C91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="72"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="32"/>
+      <c r="P91" s="32"/>
+      <c r="Q91" s="32"/>
+      <c r="R91" s="32"/>
+      <c r="S91" s="32"/>
+      <c r="T91" s="32"/>
+      <c r="U91" s="32"/>
+      <c r="V91" s="32"/>
+      <c r="W91" s="32"/>
+      <c r="X91" s="32"/>
+      <c r="Y91" s="32"/>
+      <c r="Z91" s="32"/>
+      <c r="AA91" s="32"/>
+      <c r="AB91" s="32"/>
+      <c r="AC91" s="32"/>
+      <c r="AD91" s="32"/>
+      <c r="AE91" s="32"/>
+      <c r="AF91" s="32"/>
+      <c r="AG91" s="32"/>
+      <c r="AH91" s="32"/>
+      <c r="AI91" s="32"/>
+      <c r="AJ91" s="32"/>
+      <c r="AK91" s="32"/>
+      <c r="AL91" s="32"/>
+      <c r="AM91" s="32"/>
+      <c r="AN91" s="32"/>
+      <c r="AO91" s="32"/>
+      <c r="AP91" s="32"/>
+      <c r="AQ91" s="32"/>
+      <c r="AR91" s="32"/>
+      <c r="AS91" s="32"/>
+      <c r="AT91" s="32"/>
+      <c r="AU91" s="32"/>
+      <c r="AV91" s="32"/>
+      <c r="AW91" s="32"/>
+      <c r="AX91" s="32"/>
+      <c r="AY91" s="32"/>
+      <c r="AZ91" s="32"/>
+      <c r="BA91" s="32"/>
+      <c r="BB91" s="32"/>
+      <c r="BC91" s="32"/>
+      <c r="BD91" s="32"/>
+      <c r="BE91" s="32"/>
+      <c r="BF91" s="32"/>
+      <c r="BG91" s="32"/>
+      <c r="BH91" s="32"/>
+      <c r="BI91" s="32"/>
+      <c r="BJ91" s="32"/>
+      <c r="BK91" s="32"/>
+      <c r="BL91" s="32"/>
+      <c r="BM91" s="32"/>
+      <c r="BN91" s="32"/>
+      <c r="BO91" s="32"/>
+      <c r="BP91" s="32"/>
+      <c r="BQ91" s="32"/>
+      <c r="BR91" s="32"/>
+      <c r="BS91" s="32"/>
+      <c r="BT91" s="32"/>
+      <c r="BU91" s="32"/>
+      <c r="BV91" s="32"/>
+      <c r="BW91" s="32"/>
+      <c r="BX91" s="32"/>
+      <c r="BY91" s="32"/>
+      <c r="BZ91" s="32"/>
+      <c r="CA91" s="32"/>
+      <c r="CB91" s="32"/>
+      <c r="CC91" s="32"/>
+      <c r="CD91" s="32"/>
+      <c r="CE91" s="32"/>
+      <c r="CF91" s="32"/>
+      <c r="CG91" s="32"/>
+      <c r="CH91" s="32"/>
+      <c r="CI91" s="32"/>
+      <c r="CJ91" s="32"/>
+      <c r="CK91" s="32"/>
+      <c r="CL91" s="32"/>
+      <c r="CM91" s="32"/>
+      <c r="CN91" s="32"/>
+      <c r="CO91" s="32"/>
+      <c r="CP91" s="32"/>
+      <c r="CQ91" s="32"/>
+      <c r="CR91" s="32"/>
+      <c r="CS91" s="32"/>
+      <c r="CT91" s="32"/>
+      <c r="CU91" s="32"/>
+      <c r="CV91" s="32"/>
+      <c r="CW91" s="32"/>
+      <c r="CX91" s="33"/>
       <c r="CY91" s="21"/>
     </row>
-    <row r="92" spans="1:103">
-      <c r="A92" s="68"/>
-      <c r="B92" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="75">
-        <v>4.05</v>
-      </c>
-      <c r="E92" s="72">
-        <v>18.04</v>
-      </c>
+    <row r="92" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="77">
+        <v>44320</v>
+      </c>
+      <c r="E92" s="78"/>
       <c r="F92" s="31"/>
       <c r="G92" s="32"/>
       <c r="H92" s="32"/>
@@ -12319,118 +12422,124 @@
       <c r="CX92" s="33"/>
       <c r="CY92" s="21"/>
     </row>
-    <row r="93" spans="1:103">
-      <c r="A93" s="69"/>
-      <c r="B93" s="7" t="s">
+    <row r="93" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="75"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="32"/>
-      <c r="N93" s="32"/>
-      <c r="O93" s="32"/>
-      <c r="P93" s="32"/>
-      <c r="Q93" s="32"/>
-      <c r="R93" s="32"/>
-      <c r="S93" s="32"/>
-      <c r="T93" s="32"/>
-      <c r="U93" s="32"/>
-      <c r="V93" s="32"/>
-      <c r="W93" s="32"/>
-      <c r="X93" s="32"/>
-      <c r="Y93" s="32"/>
-      <c r="Z93" s="32"/>
-      <c r="AA93" s="32"/>
-      <c r="AB93" s="32"/>
-      <c r="AC93" s="32"/>
-      <c r="AD93" s="32"/>
-      <c r="AE93" s="32"/>
-      <c r="AF93" s="32"/>
-      <c r="AG93" s="32"/>
-      <c r="AH93" s="32"/>
-      <c r="AI93" s="32"/>
-      <c r="AJ93" s="32"/>
-      <c r="AK93" s="32"/>
-      <c r="AL93" s="32"/>
-      <c r="AM93" s="32"/>
-      <c r="AN93" s="32"/>
-      <c r="AO93" s="32"/>
-      <c r="AP93" s="32"/>
-      <c r="AQ93" s="32"/>
-      <c r="AR93" s="32"/>
-      <c r="AS93" s="32"/>
-      <c r="AT93" s="32"/>
-      <c r="AU93" s="32"/>
-      <c r="AV93" s="32"/>
-      <c r="AW93" s="32"/>
-      <c r="AX93" s="32"/>
-      <c r="AY93" s="32"/>
-      <c r="AZ93" s="32"/>
-      <c r="BA93" s="32"/>
-      <c r="BB93" s="32"/>
-      <c r="BC93" s="32"/>
-      <c r="BD93" s="32"/>
-      <c r="BE93" s="32"/>
-      <c r="BF93" s="32"/>
-      <c r="BG93" s="32"/>
-      <c r="BH93" s="32"/>
-      <c r="BI93" s="32"/>
-      <c r="BJ93" s="32"/>
-      <c r="BK93" s="32"/>
-      <c r="BL93" s="32"/>
-      <c r="BM93" s="32"/>
-      <c r="BN93" s="32"/>
-      <c r="BO93" s="32"/>
-      <c r="BP93" s="32"/>
-      <c r="BQ93" s="32"/>
-      <c r="BR93" s="32"/>
-      <c r="BS93" s="32"/>
-      <c r="BT93" s="32"/>
-      <c r="BU93" s="32"/>
-      <c r="BV93" s="32"/>
-      <c r="BW93" s="32"/>
-      <c r="BX93" s="32"/>
-      <c r="BY93" s="32"/>
-      <c r="BZ93" s="32"/>
-      <c r="CA93" s="32"/>
-      <c r="CB93" s="32"/>
-      <c r="CC93" s="32"/>
-      <c r="CD93" s="32"/>
-      <c r="CE93" s="32"/>
-      <c r="CF93" s="32"/>
-      <c r="CG93" s="32"/>
-      <c r="CH93" s="32"/>
-      <c r="CI93" s="32"/>
-      <c r="CJ93" s="32"/>
-      <c r="CK93" s="32"/>
-      <c r="CL93" s="32"/>
-      <c r="CM93" s="32"/>
-      <c r="CN93" s="32"/>
-      <c r="CO93" s="32"/>
-      <c r="CP93" s="32"/>
-      <c r="CQ93" s="32"/>
-      <c r="CR93" s="32"/>
-      <c r="CS93" s="32"/>
-      <c r="CT93" s="32"/>
-      <c r="CU93" s="32"/>
-      <c r="CV93" s="32"/>
-      <c r="CW93" s="32"/>
-      <c r="CX93" s="33"/>
+      <c r="E93" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="44"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="45"/>
+      <c r="O93" s="45"/>
+      <c r="P93" s="45"/>
+      <c r="Q93" s="45"/>
+      <c r="R93" s="45"/>
+      <c r="S93" s="45"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="45"/>
+      <c r="V93" s="45"/>
+      <c r="W93" s="45"/>
+      <c r="X93" s="45"/>
+      <c r="Y93" s="45"/>
+      <c r="Z93" s="45"/>
+      <c r="AA93" s="45"/>
+      <c r="AB93" s="45"/>
+      <c r="AC93" s="45"/>
+      <c r="AD93" s="45"/>
+      <c r="AE93" s="45"/>
+      <c r="AF93" s="45"/>
+      <c r="AG93" s="45"/>
+      <c r="AH93" s="45"/>
+      <c r="AI93" s="45"/>
+      <c r="AJ93" s="45"/>
+      <c r="AK93" s="45"/>
+      <c r="AL93" s="45"/>
+      <c r="AM93" s="45"/>
+      <c r="AN93" s="45"/>
+      <c r="AO93" s="45"/>
+      <c r="AP93" s="45"/>
+      <c r="AQ93" s="45"/>
+      <c r="AR93" s="45"/>
+      <c r="AS93" s="45"/>
+      <c r="AT93" s="45"/>
+      <c r="AU93" s="45"/>
+      <c r="AV93" s="45"/>
+      <c r="AW93" s="45"/>
+      <c r="AX93" s="45"/>
+      <c r="AY93" s="45"/>
+      <c r="AZ93" s="45"/>
+      <c r="BA93" s="45"/>
+      <c r="BB93" s="45"/>
+      <c r="BC93" s="45"/>
+      <c r="BD93" s="45"/>
+      <c r="BE93" s="45"/>
+      <c r="BF93" s="45"/>
+      <c r="BG93" s="45"/>
+      <c r="BH93" s="45"/>
+      <c r="BI93" s="45"/>
+      <c r="BJ93" s="45"/>
+      <c r="BK93" s="45"/>
+      <c r="BL93" s="45"/>
+      <c r="BM93" s="45"/>
+      <c r="BN93" s="45"/>
+      <c r="BO93" s="45"/>
+      <c r="BP93" s="45"/>
+      <c r="BQ93" s="45"/>
+      <c r="BR93" s="45"/>
+      <c r="BS93" s="45"/>
+      <c r="BT93" s="45"/>
+      <c r="BU93" s="45"/>
+      <c r="BV93" s="45"/>
+      <c r="BW93" s="45"/>
+      <c r="BX93" s="45"/>
+      <c r="BY93" s="45"/>
+      <c r="BZ93" s="45"/>
+      <c r="CA93" s="45"/>
+      <c r="CB93" s="45"/>
+      <c r="CC93" s="45"/>
+      <c r="CD93" s="45"/>
+      <c r="CE93" s="45"/>
+      <c r="CF93" s="45"/>
+      <c r="CG93" s="45"/>
+      <c r="CH93" s="45"/>
+      <c r="CI93" s="45"/>
+      <c r="CJ93" s="45"/>
+      <c r="CK93" s="45"/>
+      <c r="CL93" s="45"/>
+      <c r="CM93" s="45"/>
+      <c r="CN93" s="45"/>
+      <c r="CO93" s="45"/>
+      <c r="CP93" s="45"/>
+      <c r="CQ93" s="45"/>
+      <c r="CR93" s="45"/>
+      <c r="CS93" s="45"/>
+      <c r="CT93" s="45"/>
+      <c r="CU93" s="45"/>
+      <c r="CV93" s="45"/>
+      <c r="CW93" s="45"/>
+      <c r="CX93" s="46"/>
       <c r="CY93" s="21"/>
     </row>
-    <row r="94" spans="1:103">
+    <row r="94" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>9</v>
@@ -12543,18 +12652,18 @@
       <c r="CX94" s="42"/>
       <c r="CY94" s="21"/>
     </row>
-    <row r="95" spans="1:103">
-      <c r="A95" s="68"/>
+    <row r="95" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A95" s="67"/>
       <c r="B95" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="75">
+      <c r="D95" s="69">
         <v>4.05</v>
       </c>
-      <c r="E95" s="72">
+      <c r="E95" s="70">
         <v>18.04</v>
       </c>
       <c r="F95" s="31"/>
@@ -12656,16 +12765,16 @@
       <c r="CX95" s="33"/>
       <c r="CY95" s="21"/>
     </row>
-    <row r="96" spans="1:103">
-      <c r="A96" s="69"/>
+    <row r="96" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A96" s="68"/>
       <c r="B96" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="75"/>
-      <c r="E96" s="72"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="70"/>
       <c r="F96" s="31"/>
       <c r="G96" s="32"/>
       <c r="H96" s="32"/>
@@ -12765,9 +12874,9 @@
       <c r="CX96" s="33"/>
       <c r="CY96" s="21"/>
     </row>
-    <row r="97" spans="1:103">
+    <row r="97" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>9</v>
@@ -12880,18 +12989,18 @@
       <c r="CX97" s="42"/>
       <c r="CY97" s="21"/>
     </row>
-    <row r="98" spans="1:103">
-      <c r="A98" s="68"/>
+    <row r="98" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A98" s="67"/>
       <c r="B98" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="75">
+      <c r="D98" s="69">
         <v>4.05</v>
       </c>
-      <c r="E98" s="72">
+      <c r="E98" s="70">
         <v>18.04</v>
       </c>
       <c r="F98" s="31"/>
@@ -12993,16 +13102,16 @@
       <c r="CX98" s="33"/>
       <c r="CY98" s="21"/>
     </row>
-    <row r="99" spans="1:103">
-      <c r="A99" s="69"/>
+    <row r="99" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A99" s="68"/>
       <c r="B99" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="75"/>
-      <c r="E99" s="72"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="70"/>
       <c r="F99" s="31"/>
       <c r="G99" s="32"/>
       <c r="H99" s="32"/>
@@ -13102,9 +13211,9 @@
       <c r="CX99" s="33"/>
       <c r="CY99" s="21"/>
     </row>
-    <row r="100" spans="1:103">
+    <row r="100" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>9</v>
@@ -13217,18 +13326,18 @@
       <c r="CX100" s="42"/>
       <c r="CY100" s="21"/>
     </row>
-    <row r="101" spans="1:103">
-      <c r="A101" s="68"/>
+    <row r="101" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A101" s="67"/>
       <c r="B101" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="75">
+      <c r="D101" s="69">
         <v>4.05</v>
       </c>
-      <c r="E101" s="72">
+      <c r="E101" s="70">
         <v>18.04</v>
       </c>
       <c r="F101" s="31"/>
@@ -13330,16 +13439,16 @@
       <c r="CX101" s="33"/>
       <c r="CY101" s="21"/>
     </row>
-    <row r="102" spans="1:103">
-      <c r="A102" s="69"/>
+    <row r="102" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A102" s="68"/>
       <c r="B102" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="75"/>
-      <c r="E102" s="72"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="70"/>
       <c r="F102" s="31"/>
       <c r="G102" s="32"/>
       <c r="H102" s="32"/>
@@ -13439,468 +13548,472 @@
       <c r="CX102" s="33"/>
       <c r="CY102" s="21"/>
     </row>
-    <row r="103" spans="1:103">
-      <c r="A103" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="78">
-        <v>44334</v>
-      </c>
-      <c r="E103" s="79"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="32"/>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="32"/>
-      <c r="R103" s="32"/>
-      <c r="S103" s="32"/>
-      <c r="T103" s="32"/>
-      <c r="U103" s="32"/>
-      <c r="V103" s="32"/>
-      <c r="W103" s="32"/>
-      <c r="X103" s="32"/>
-      <c r="Y103" s="32"/>
-      <c r="Z103" s="32"/>
-      <c r="AA103" s="32"/>
-      <c r="AB103" s="32"/>
-      <c r="AC103" s="32"/>
-      <c r="AD103" s="32"/>
-      <c r="AE103" s="32"/>
-      <c r="AF103" s="32"/>
-      <c r="AG103" s="32"/>
-      <c r="AH103" s="32"/>
-      <c r="AI103" s="32"/>
-      <c r="AJ103" s="32"/>
-      <c r="AK103" s="32"/>
-      <c r="AL103" s="32"/>
-      <c r="AM103" s="32"/>
-      <c r="AN103" s="32"/>
-      <c r="AO103" s="32"/>
-      <c r="AP103" s="32"/>
-      <c r="AQ103" s="32"/>
-      <c r="AR103" s="32"/>
-      <c r="AS103" s="32"/>
-      <c r="AT103" s="32"/>
-      <c r="AU103" s="32"/>
-      <c r="AV103" s="32"/>
-      <c r="AW103" s="32"/>
-      <c r="AX103" s="32"/>
-      <c r="AY103" s="32"/>
-      <c r="AZ103" s="32"/>
-      <c r="BA103" s="32"/>
-      <c r="BB103" s="32"/>
-      <c r="BC103" s="32"/>
-      <c r="BD103" s="32"/>
-      <c r="BE103" s="32"/>
-      <c r="BF103" s="32"/>
-      <c r="BG103" s="32"/>
-      <c r="BH103" s="32"/>
-      <c r="BI103" s="32"/>
-      <c r="BJ103" s="32"/>
-      <c r="BK103" s="32"/>
-      <c r="BL103" s="32"/>
-      <c r="BM103" s="32"/>
-      <c r="BN103" s="32"/>
-      <c r="BO103" s="32"/>
-      <c r="BP103" s="32"/>
-      <c r="BQ103" s="32"/>
-      <c r="BR103" s="32"/>
-      <c r="BS103" s="32"/>
-      <c r="BT103" s="32"/>
-      <c r="BU103" s="32"/>
-      <c r="BV103" s="32"/>
-      <c r="BW103" s="32"/>
-      <c r="BX103" s="32"/>
-      <c r="BY103" s="32"/>
-      <c r="BZ103" s="32"/>
-      <c r="CA103" s="32"/>
-      <c r="CB103" s="32"/>
-      <c r="CC103" s="32"/>
-      <c r="CD103" s="32"/>
-      <c r="CE103" s="32"/>
-      <c r="CF103" s="32"/>
-      <c r="CG103" s="32"/>
-      <c r="CH103" s="32"/>
-      <c r="CI103" s="32"/>
-      <c r="CJ103" s="32"/>
-      <c r="CK103" s="32"/>
-      <c r="CL103" s="32"/>
-      <c r="CM103" s="32"/>
-      <c r="CN103" s="32"/>
-      <c r="CO103" s="32"/>
-      <c r="CP103" s="32"/>
-      <c r="CQ103" s="32"/>
-      <c r="CR103" s="32"/>
-      <c r="CS103" s="32"/>
-      <c r="CT103" s="32"/>
-      <c r="CU103" s="32"/>
-      <c r="CV103" s="32"/>
-      <c r="CW103" s="32"/>
-      <c r="CX103" s="33"/>
+    <row r="103" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="40"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
+      <c r="M103" s="41"/>
+      <c r="N103" s="41"/>
+      <c r="O103" s="41"/>
+      <c r="P103" s="41"/>
+      <c r="Q103" s="41"/>
+      <c r="R103" s="41"/>
+      <c r="S103" s="41"/>
+      <c r="T103" s="41"/>
+      <c r="U103" s="41"/>
+      <c r="V103" s="41"/>
+      <c r="W103" s="41"/>
+      <c r="X103" s="41"/>
+      <c r="Y103" s="41"/>
+      <c r="Z103" s="41"/>
+      <c r="AA103" s="41"/>
+      <c r="AB103" s="41"/>
+      <c r="AC103" s="41"/>
+      <c r="AD103" s="41"/>
+      <c r="AE103" s="41"/>
+      <c r="AF103" s="41"/>
+      <c r="AG103" s="41"/>
+      <c r="AH103" s="41"/>
+      <c r="AI103" s="41"/>
+      <c r="AJ103" s="41"/>
+      <c r="AK103" s="41"/>
+      <c r="AL103" s="41"/>
+      <c r="AM103" s="41"/>
+      <c r="AN103" s="41"/>
+      <c r="AO103" s="41"/>
+      <c r="AP103" s="41"/>
+      <c r="AQ103" s="41"/>
+      <c r="AR103" s="41"/>
+      <c r="AS103" s="41"/>
+      <c r="AT103" s="41"/>
+      <c r="AU103" s="41"/>
+      <c r="AV103" s="41"/>
+      <c r="AW103" s="41"/>
+      <c r="AX103" s="41"/>
+      <c r="AY103" s="41"/>
+      <c r="AZ103" s="41"/>
+      <c r="BA103" s="41"/>
+      <c r="BB103" s="41"/>
+      <c r="BC103" s="41"/>
+      <c r="BD103" s="41"/>
+      <c r="BE103" s="41"/>
+      <c r="BF103" s="41"/>
+      <c r="BG103" s="41"/>
+      <c r="BH103" s="41"/>
+      <c r="BI103" s="41"/>
+      <c r="BJ103" s="41"/>
+      <c r="BK103" s="41"/>
+      <c r="BL103" s="41"/>
+      <c r="BM103" s="41"/>
+      <c r="BN103" s="41"/>
+      <c r="BO103" s="41"/>
+      <c r="BP103" s="41"/>
+      <c r="BQ103" s="41"/>
+      <c r="BR103" s="41"/>
+      <c r="BS103" s="41"/>
+      <c r="BT103" s="41"/>
+      <c r="BU103" s="41"/>
+      <c r="BV103" s="41"/>
+      <c r="BW103" s="41"/>
+      <c r="BX103" s="41"/>
+      <c r="BY103" s="41"/>
+      <c r="BZ103" s="41"/>
+      <c r="CA103" s="41"/>
+      <c r="CB103" s="41"/>
+      <c r="CC103" s="41"/>
+      <c r="CD103" s="41"/>
+      <c r="CE103" s="41"/>
+      <c r="CF103" s="41"/>
+      <c r="CG103" s="41"/>
+      <c r="CH103" s="41"/>
+      <c r="CI103" s="41"/>
+      <c r="CJ103" s="41"/>
+      <c r="CK103" s="41"/>
+      <c r="CL103" s="41"/>
+      <c r="CM103" s="41"/>
+      <c r="CN103" s="41"/>
+      <c r="CO103" s="41"/>
+      <c r="CP103" s="41"/>
+      <c r="CQ103" s="41"/>
+      <c r="CR103" s="41"/>
+      <c r="CS103" s="41"/>
+      <c r="CT103" s="41"/>
+      <c r="CU103" s="41"/>
+      <c r="CV103" s="41"/>
+      <c r="CW103" s="41"/>
+      <c r="CX103" s="42"/>
       <c r="CY103" s="21"/>
     </row>
-    <row r="104" spans="1:103">
-      <c r="A104" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B104" s="10" t="s">
+    <row r="104" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A104" s="67"/>
+      <c r="B104" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="44"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="45"/>
-      <c r="J104" s="45"/>
-      <c r="K104" s="45"/>
-      <c r="L104" s="45"/>
-      <c r="M104" s="45"/>
-      <c r="N104" s="45"/>
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
-      <c r="Q104" s="45"/>
-      <c r="R104" s="45"/>
-      <c r="S104" s="45"/>
-      <c r="T104" s="45"/>
-      <c r="U104" s="45"/>
-      <c r="V104" s="45"/>
-      <c r="W104" s="45"/>
-      <c r="X104" s="45"/>
-      <c r="Y104" s="45"/>
-      <c r="Z104" s="45"/>
-      <c r="AA104" s="45"/>
-      <c r="AB104" s="45"/>
-      <c r="AC104" s="45"/>
-      <c r="AD104" s="45"/>
-      <c r="AE104" s="45"/>
-      <c r="AF104" s="45"/>
-      <c r="AG104" s="45"/>
-      <c r="AH104" s="45"/>
-      <c r="AI104" s="45"/>
-      <c r="AJ104" s="45"/>
-      <c r="AK104" s="45"/>
-      <c r="AL104" s="45"/>
-      <c r="AM104" s="45"/>
-      <c r="AN104" s="45"/>
-      <c r="AO104" s="45"/>
-      <c r="AP104" s="45"/>
-      <c r="AQ104" s="45"/>
-      <c r="AR104" s="45"/>
-      <c r="AS104" s="45"/>
-      <c r="AT104" s="45"/>
-      <c r="AU104" s="45"/>
-      <c r="AV104" s="45"/>
-      <c r="AW104" s="45"/>
-      <c r="AX104" s="45"/>
-      <c r="AY104" s="45"/>
-      <c r="AZ104" s="45"/>
-      <c r="BA104" s="45"/>
-      <c r="BB104" s="45"/>
-      <c r="BC104" s="45"/>
-      <c r="BD104" s="45"/>
-      <c r="BE104" s="45"/>
-      <c r="BF104" s="45"/>
-      <c r="BG104" s="45"/>
-      <c r="BH104" s="45"/>
-      <c r="BI104" s="45"/>
-      <c r="BJ104" s="45"/>
-      <c r="BK104" s="45"/>
-      <c r="BL104" s="45"/>
-      <c r="BM104" s="45"/>
-      <c r="BN104" s="45"/>
-      <c r="BO104" s="45"/>
-      <c r="BP104" s="45"/>
-      <c r="BQ104" s="45"/>
-      <c r="BR104" s="45"/>
-      <c r="BS104" s="45"/>
-      <c r="BT104" s="45"/>
-      <c r="BU104" s="45"/>
-      <c r="BV104" s="45"/>
-      <c r="BW104" s="45"/>
-      <c r="BX104" s="45"/>
-      <c r="BY104" s="45"/>
-      <c r="BZ104" s="45"/>
-      <c r="CA104" s="45"/>
-      <c r="CB104" s="45"/>
-      <c r="CC104" s="45"/>
-      <c r="CD104" s="45"/>
-      <c r="CE104" s="45"/>
-      <c r="CF104" s="45"/>
-      <c r="CG104" s="45"/>
-      <c r="CH104" s="45"/>
-      <c r="CI104" s="45"/>
-      <c r="CJ104" s="45"/>
-      <c r="CK104" s="45"/>
-      <c r="CL104" s="45"/>
-      <c r="CM104" s="45"/>
-      <c r="CN104" s="45"/>
-      <c r="CO104" s="45"/>
-      <c r="CP104" s="45"/>
-      <c r="CQ104" s="45"/>
-      <c r="CR104" s="45"/>
-      <c r="CS104" s="45"/>
-      <c r="CT104" s="45"/>
-      <c r="CU104" s="45"/>
-      <c r="CV104" s="45"/>
-      <c r="CW104" s="45"/>
-      <c r="CX104" s="46"/>
+      <c r="C104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="69">
+        <v>4.05</v>
+      </c>
+      <c r="E104" s="70">
+        <v>18.04</v>
+      </c>
+      <c r="F104" s="31"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="32"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="32"/>
+      <c r="S104" s="32"/>
+      <c r="T104" s="32"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="32"/>
+      <c r="W104" s="32"/>
+      <c r="X104" s="32"/>
+      <c r="Y104" s="32"/>
+      <c r="Z104" s="32"/>
+      <c r="AA104" s="32"/>
+      <c r="AB104" s="32"/>
+      <c r="AC104" s="32"/>
+      <c r="AD104" s="32"/>
+      <c r="AE104" s="32"/>
+      <c r="AF104" s="32"/>
+      <c r="AG104" s="32"/>
+      <c r="AH104" s="32"/>
+      <c r="AI104" s="32"/>
+      <c r="AJ104" s="32"/>
+      <c r="AK104" s="32"/>
+      <c r="AL104" s="32"/>
+      <c r="AM104" s="32"/>
+      <c r="AN104" s="32"/>
+      <c r="AO104" s="32"/>
+      <c r="AP104" s="32"/>
+      <c r="AQ104" s="32"/>
+      <c r="AR104" s="32"/>
+      <c r="AS104" s="32"/>
+      <c r="AT104" s="32"/>
+      <c r="AU104" s="32"/>
+      <c r="AV104" s="32"/>
+      <c r="AW104" s="32"/>
+      <c r="AX104" s="32"/>
+      <c r="AY104" s="32"/>
+      <c r="AZ104" s="32"/>
+      <c r="BA104" s="32"/>
+      <c r="BB104" s="32"/>
+      <c r="BC104" s="32"/>
+      <c r="BD104" s="32"/>
+      <c r="BE104" s="32"/>
+      <c r="BF104" s="32"/>
+      <c r="BG104" s="32"/>
+      <c r="BH104" s="32"/>
+      <c r="BI104" s="32"/>
+      <c r="BJ104" s="32"/>
+      <c r="BK104" s="32"/>
+      <c r="BL104" s="32"/>
+      <c r="BM104" s="32"/>
+      <c r="BN104" s="32"/>
+      <c r="BO104" s="32"/>
+      <c r="BP104" s="32"/>
+      <c r="BQ104" s="32"/>
+      <c r="BR104" s="32"/>
+      <c r="BS104" s="32"/>
+      <c r="BT104" s="32"/>
+      <c r="BU104" s="32"/>
+      <c r="BV104" s="32"/>
+      <c r="BW104" s="32"/>
+      <c r="BX104" s="32"/>
+      <c r="BY104" s="32"/>
+      <c r="BZ104" s="32"/>
+      <c r="CA104" s="32"/>
+      <c r="CB104" s="32"/>
+      <c r="CC104" s="32"/>
+      <c r="CD104" s="32"/>
+      <c r="CE104" s="32"/>
+      <c r="CF104" s="32"/>
+      <c r="CG104" s="32"/>
+      <c r="CH104" s="32"/>
+      <c r="CI104" s="32"/>
+      <c r="CJ104" s="32"/>
+      <c r="CK104" s="32"/>
+      <c r="CL104" s="32"/>
+      <c r="CM104" s="32"/>
+      <c r="CN104" s="32"/>
+      <c r="CO104" s="32"/>
+      <c r="CP104" s="32"/>
+      <c r="CQ104" s="32"/>
+      <c r="CR104" s="32"/>
+      <c r="CS104" s="32"/>
+      <c r="CT104" s="32"/>
+      <c r="CU104" s="32"/>
+      <c r="CV104" s="32"/>
+      <c r="CW104" s="32"/>
+      <c r="CX104" s="33"/>
       <c r="CY104" s="21"/>
     </row>
-    <row r="105" spans="1:103">
-      <c r="A105" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="19" t="s">
+    <row r="105" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A105" s="68"/>
+      <c r="B105" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="40"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="41"/>
-      <c r="M105" s="41"/>
-      <c r="N105" s="41"/>
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
-      <c r="Q105" s="41"/>
-      <c r="R105" s="41"/>
-      <c r="S105" s="41"/>
-      <c r="T105" s="41"/>
-      <c r="U105" s="41"/>
-      <c r="V105" s="41"/>
-      <c r="W105" s="41"/>
-      <c r="X105" s="41"/>
-      <c r="Y105" s="41"/>
-      <c r="Z105" s="41"/>
-      <c r="AA105" s="41"/>
-      <c r="AB105" s="41"/>
-      <c r="AC105" s="41"/>
-      <c r="AD105" s="41"/>
-      <c r="AE105" s="41"/>
-      <c r="AF105" s="41"/>
-      <c r="AG105" s="41"/>
-      <c r="AH105" s="41"/>
-      <c r="AI105" s="41"/>
-      <c r="AJ105" s="41"/>
-      <c r="AK105" s="41"/>
-      <c r="AL105" s="41"/>
-      <c r="AM105" s="41"/>
-      <c r="AN105" s="41"/>
-      <c r="AO105" s="41"/>
-      <c r="AP105" s="41"/>
-      <c r="AQ105" s="41"/>
-      <c r="AR105" s="41"/>
-      <c r="AS105" s="41"/>
-      <c r="AT105" s="41"/>
-      <c r="AU105" s="41"/>
-      <c r="AV105" s="41"/>
-      <c r="AW105" s="41"/>
-      <c r="AX105" s="41"/>
-      <c r="AY105" s="41"/>
-      <c r="AZ105" s="41"/>
-      <c r="BA105" s="41"/>
-      <c r="BB105" s="41"/>
-      <c r="BC105" s="41"/>
-      <c r="BD105" s="41"/>
-      <c r="BE105" s="41"/>
-      <c r="BF105" s="41"/>
-      <c r="BG105" s="41"/>
-      <c r="BH105" s="41"/>
-      <c r="BI105" s="41"/>
-      <c r="BJ105" s="41"/>
-      <c r="BK105" s="41"/>
-      <c r="BL105" s="41"/>
-      <c r="BM105" s="41"/>
-      <c r="BN105" s="41"/>
-      <c r="BO105" s="41"/>
-      <c r="BP105" s="41"/>
-      <c r="BQ105" s="41"/>
-      <c r="BR105" s="41"/>
-      <c r="BS105" s="41"/>
-      <c r="BT105" s="41"/>
-      <c r="BU105" s="41"/>
-      <c r="BV105" s="41"/>
-      <c r="BW105" s="41"/>
-      <c r="BX105" s="41"/>
-      <c r="BY105" s="41"/>
-      <c r="BZ105" s="41"/>
-      <c r="CA105" s="41"/>
-      <c r="CB105" s="41"/>
-      <c r="CC105" s="41"/>
-      <c r="CD105" s="41"/>
-      <c r="CE105" s="41"/>
-      <c r="CF105" s="41"/>
-      <c r="CG105" s="41"/>
-      <c r="CH105" s="41"/>
-      <c r="CI105" s="41"/>
-      <c r="CJ105" s="41"/>
-      <c r="CK105" s="41"/>
-      <c r="CL105" s="41"/>
-      <c r="CM105" s="41"/>
-      <c r="CN105" s="41"/>
-      <c r="CO105" s="41"/>
-      <c r="CP105" s="41"/>
-      <c r="CQ105" s="41"/>
-      <c r="CR105" s="41"/>
-      <c r="CS105" s="41"/>
-      <c r="CT105" s="41"/>
-      <c r="CU105" s="41"/>
-      <c r="CV105" s="41"/>
-      <c r="CW105" s="41"/>
-      <c r="CX105" s="42"/>
+      <c r="C105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="69"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="32"/>
+      <c r="P105" s="32"/>
+      <c r="Q105" s="32"/>
+      <c r="R105" s="32"/>
+      <c r="S105" s="32"/>
+      <c r="T105" s="32"/>
+      <c r="U105" s="32"/>
+      <c r="V105" s="32"/>
+      <c r="W105" s="32"/>
+      <c r="X105" s="32"/>
+      <c r="Y105" s="32"/>
+      <c r="Z105" s="32"/>
+      <c r="AA105" s="32"/>
+      <c r="AB105" s="32"/>
+      <c r="AC105" s="32"/>
+      <c r="AD105" s="32"/>
+      <c r="AE105" s="32"/>
+      <c r="AF105" s="32"/>
+      <c r="AG105" s="32"/>
+      <c r="AH105" s="32"/>
+      <c r="AI105" s="32"/>
+      <c r="AJ105" s="32"/>
+      <c r="AK105" s="32"/>
+      <c r="AL105" s="32"/>
+      <c r="AM105" s="32"/>
+      <c r="AN105" s="32"/>
+      <c r="AO105" s="32"/>
+      <c r="AP105" s="32"/>
+      <c r="AQ105" s="32"/>
+      <c r="AR105" s="32"/>
+      <c r="AS105" s="32"/>
+      <c r="AT105" s="32"/>
+      <c r="AU105" s="32"/>
+      <c r="AV105" s="32"/>
+      <c r="AW105" s="32"/>
+      <c r="AX105" s="32"/>
+      <c r="AY105" s="32"/>
+      <c r="AZ105" s="32"/>
+      <c r="BA105" s="32"/>
+      <c r="BB105" s="32"/>
+      <c r="BC105" s="32"/>
+      <c r="BD105" s="32"/>
+      <c r="BE105" s="32"/>
+      <c r="BF105" s="32"/>
+      <c r="BG105" s="32"/>
+      <c r="BH105" s="32"/>
+      <c r="BI105" s="32"/>
+      <c r="BJ105" s="32"/>
+      <c r="BK105" s="32"/>
+      <c r="BL105" s="32"/>
+      <c r="BM105" s="32"/>
+      <c r="BN105" s="32"/>
+      <c r="BO105" s="32"/>
+      <c r="BP105" s="32"/>
+      <c r="BQ105" s="32"/>
+      <c r="BR105" s="32"/>
+      <c r="BS105" s="32"/>
+      <c r="BT105" s="32"/>
+      <c r="BU105" s="32"/>
+      <c r="BV105" s="32"/>
+      <c r="BW105" s="32"/>
+      <c r="BX105" s="32"/>
+      <c r="BY105" s="32"/>
+      <c r="BZ105" s="32"/>
+      <c r="CA105" s="32"/>
+      <c r="CB105" s="32"/>
+      <c r="CC105" s="32"/>
+      <c r="CD105" s="32"/>
+      <c r="CE105" s="32"/>
+      <c r="CF105" s="32"/>
+      <c r="CG105" s="32"/>
+      <c r="CH105" s="32"/>
+      <c r="CI105" s="32"/>
+      <c r="CJ105" s="32"/>
+      <c r="CK105" s="32"/>
+      <c r="CL105" s="32"/>
+      <c r="CM105" s="32"/>
+      <c r="CN105" s="32"/>
+      <c r="CO105" s="32"/>
+      <c r="CP105" s="32"/>
+      <c r="CQ105" s="32"/>
+      <c r="CR105" s="32"/>
+      <c r="CS105" s="32"/>
+      <c r="CT105" s="32"/>
+      <c r="CU105" s="32"/>
+      <c r="CV105" s="32"/>
+      <c r="CW105" s="32"/>
+      <c r="CX105" s="33"/>
       <c r="CY105" s="21"/>
     </row>
-    <row r="106" spans="1:103">
-      <c r="A106" s="68"/>
-      <c r="B106" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="75">
-        <v>18.04</v>
-      </c>
-      <c r="E106" s="72">
-        <v>25.04</v>
-      </c>
-      <c r="F106" s="31"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="32"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="32"/>
-      <c r="R106" s="32"/>
-      <c r="S106" s="32"/>
-      <c r="T106" s="32"/>
-      <c r="U106" s="32"/>
-      <c r="V106" s="32"/>
-      <c r="W106" s="32"/>
-      <c r="X106" s="32"/>
-      <c r="Y106" s="32"/>
-      <c r="Z106" s="32"/>
-      <c r="AA106" s="32"/>
-      <c r="AB106" s="32"/>
-      <c r="AC106" s="32"/>
-      <c r="AD106" s="32"/>
-      <c r="AE106" s="32"/>
-      <c r="AF106" s="32"/>
-      <c r="AG106" s="32"/>
-      <c r="AH106" s="32"/>
-      <c r="AI106" s="32"/>
-      <c r="AJ106" s="32"/>
-      <c r="AK106" s="32"/>
-      <c r="AL106" s="32"/>
-      <c r="AM106" s="32"/>
-      <c r="AN106" s="32"/>
-      <c r="AO106" s="32"/>
-      <c r="AP106" s="32"/>
-      <c r="AQ106" s="32"/>
-      <c r="AR106" s="32"/>
-      <c r="AS106" s="32"/>
-      <c r="AT106" s="32"/>
-      <c r="AU106" s="32"/>
-      <c r="AV106" s="32"/>
-      <c r="AW106" s="32"/>
-      <c r="AX106" s="32"/>
-      <c r="AY106" s="32"/>
-      <c r="AZ106" s="32"/>
-      <c r="BA106" s="32"/>
-      <c r="BB106" s="32"/>
-      <c r="BC106" s="32"/>
-      <c r="BD106" s="32"/>
-      <c r="BE106" s="32"/>
-      <c r="BF106" s="32"/>
-      <c r="BG106" s="32"/>
-      <c r="BH106" s="32"/>
-      <c r="BI106" s="32"/>
-      <c r="BJ106" s="32"/>
-      <c r="BK106" s="32"/>
-      <c r="BL106" s="32"/>
-      <c r="BM106" s="32"/>
-      <c r="BN106" s="32"/>
-      <c r="BO106" s="32"/>
-      <c r="BP106" s="32"/>
-      <c r="BQ106" s="32"/>
-      <c r="BR106" s="32"/>
-      <c r="BS106" s="32"/>
-      <c r="BT106" s="32"/>
-      <c r="BU106" s="32"/>
-      <c r="BV106" s="32"/>
-      <c r="BW106" s="32"/>
-      <c r="BX106" s="32"/>
-      <c r="BY106" s="32"/>
-      <c r="BZ106" s="32"/>
-      <c r="CA106" s="32"/>
-      <c r="CB106" s="32"/>
-      <c r="CC106" s="32"/>
-      <c r="CD106" s="32"/>
-      <c r="CE106" s="32"/>
-      <c r="CF106" s="32"/>
-      <c r="CG106" s="32"/>
-      <c r="CH106" s="32"/>
-      <c r="CI106" s="32"/>
-      <c r="CJ106" s="32"/>
-      <c r="CK106" s="32"/>
-      <c r="CL106" s="32"/>
-      <c r="CM106" s="32"/>
-      <c r="CN106" s="32"/>
-      <c r="CO106" s="32"/>
-      <c r="CP106" s="32"/>
-      <c r="CQ106" s="32"/>
-      <c r="CR106" s="32"/>
-      <c r="CS106" s="32"/>
-      <c r="CT106" s="32"/>
-      <c r="CU106" s="32"/>
-      <c r="CV106" s="32"/>
-      <c r="CW106" s="32"/>
-      <c r="CX106" s="33"/>
+    <row r="106" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="40"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="41"/>
+      <c r="M106" s="41"/>
+      <c r="N106" s="41"/>
+      <c r="O106" s="41"/>
+      <c r="P106" s="41"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="41"/>
+      <c r="S106" s="41"/>
+      <c r="T106" s="41"/>
+      <c r="U106" s="41"/>
+      <c r="V106" s="41"/>
+      <c r="W106" s="41"/>
+      <c r="X106" s="41"/>
+      <c r="Y106" s="41"/>
+      <c r="Z106" s="41"/>
+      <c r="AA106" s="41"/>
+      <c r="AB106" s="41"/>
+      <c r="AC106" s="41"/>
+      <c r="AD106" s="41"/>
+      <c r="AE106" s="41"/>
+      <c r="AF106" s="41"/>
+      <c r="AG106" s="41"/>
+      <c r="AH106" s="41"/>
+      <c r="AI106" s="41"/>
+      <c r="AJ106" s="41"/>
+      <c r="AK106" s="41"/>
+      <c r="AL106" s="41"/>
+      <c r="AM106" s="41"/>
+      <c r="AN106" s="41"/>
+      <c r="AO106" s="41"/>
+      <c r="AP106" s="41"/>
+      <c r="AQ106" s="41"/>
+      <c r="AR106" s="41"/>
+      <c r="AS106" s="41"/>
+      <c r="AT106" s="41"/>
+      <c r="AU106" s="41"/>
+      <c r="AV106" s="41"/>
+      <c r="AW106" s="41"/>
+      <c r="AX106" s="41"/>
+      <c r="AY106" s="41"/>
+      <c r="AZ106" s="41"/>
+      <c r="BA106" s="41"/>
+      <c r="BB106" s="41"/>
+      <c r="BC106" s="41"/>
+      <c r="BD106" s="41"/>
+      <c r="BE106" s="41"/>
+      <c r="BF106" s="41"/>
+      <c r="BG106" s="41"/>
+      <c r="BH106" s="41"/>
+      <c r="BI106" s="41"/>
+      <c r="BJ106" s="41"/>
+      <c r="BK106" s="41"/>
+      <c r="BL106" s="41"/>
+      <c r="BM106" s="41"/>
+      <c r="BN106" s="41"/>
+      <c r="BO106" s="41"/>
+      <c r="BP106" s="41"/>
+      <c r="BQ106" s="41"/>
+      <c r="BR106" s="41"/>
+      <c r="BS106" s="41"/>
+      <c r="BT106" s="41"/>
+      <c r="BU106" s="41"/>
+      <c r="BV106" s="41"/>
+      <c r="BW106" s="41"/>
+      <c r="BX106" s="41"/>
+      <c r="BY106" s="41"/>
+      <c r="BZ106" s="41"/>
+      <c r="CA106" s="41"/>
+      <c r="CB106" s="41"/>
+      <c r="CC106" s="41"/>
+      <c r="CD106" s="41"/>
+      <c r="CE106" s="41"/>
+      <c r="CF106" s="41"/>
+      <c r="CG106" s="41"/>
+      <c r="CH106" s="41"/>
+      <c r="CI106" s="41"/>
+      <c r="CJ106" s="41"/>
+      <c r="CK106" s="41"/>
+      <c r="CL106" s="41"/>
+      <c r="CM106" s="41"/>
+      <c r="CN106" s="41"/>
+      <c r="CO106" s="41"/>
+      <c r="CP106" s="41"/>
+      <c r="CQ106" s="41"/>
+      <c r="CR106" s="41"/>
+      <c r="CS106" s="41"/>
+      <c r="CT106" s="41"/>
+      <c r="CU106" s="41"/>
+      <c r="CV106" s="41"/>
+      <c r="CW106" s="41"/>
+      <c r="CX106" s="42"/>
       <c r="CY106" s="21"/>
     </row>
-    <row r="107" spans="1:103">
-      <c r="A107" s="69"/>
+    <row r="107" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A107" s="67"/>
       <c r="B107" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="75"/>
-      <c r="E107" s="72"/>
+      <c r="D107" s="69">
+        <v>4.05</v>
+      </c>
+      <c r="E107" s="70">
+        <v>18.04</v>
+      </c>
       <c r="F107" s="31"/>
       <c r="G107" s="32"/>
       <c r="H107" s="32"/>
@@ -14000,135 +14113,125 @@
       <c r="CX107" s="33"/>
       <c r="CY107" s="21"/>
     </row>
-    <row r="108" spans="1:103">
-      <c r="A108" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="19" t="s">
+    <row r="108" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A108" s="68"/>
+      <c r="B108" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="40"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="41"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
-      <c r="R108" s="41"/>
-      <c r="S108" s="41"/>
-      <c r="T108" s="41"/>
-      <c r="U108" s="41"/>
-      <c r="V108" s="41"/>
-      <c r="W108" s="41"/>
-      <c r="X108" s="41"/>
-      <c r="Y108" s="41"/>
-      <c r="Z108" s="41"/>
-      <c r="AA108" s="41"/>
-      <c r="AB108" s="41"/>
-      <c r="AC108" s="41"/>
-      <c r="AD108" s="41"/>
-      <c r="AE108" s="41"/>
-      <c r="AF108" s="41"/>
-      <c r="AG108" s="41"/>
-      <c r="AH108" s="41"/>
-      <c r="AI108" s="41"/>
-      <c r="AJ108" s="41"/>
-      <c r="AK108" s="41"/>
-      <c r="AL108" s="41"/>
-      <c r="AM108" s="41"/>
-      <c r="AN108" s="41"/>
-      <c r="AO108" s="41"/>
-      <c r="AP108" s="41"/>
-      <c r="AQ108" s="41"/>
-      <c r="AR108" s="41"/>
-      <c r="AS108" s="41"/>
-      <c r="AT108" s="41"/>
-      <c r="AU108" s="41"/>
-      <c r="AV108" s="41"/>
-      <c r="AW108" s="41"/>
-      <c r="AX108" s="41"/>
-      <c r="AY108" s="41"/>
-      <c r="AZ108" s="41"/>
-      <c r="BA108" s="41"/>
-      <c r="BB108" s="41"/>
-      <c r="BC108" s="41"/>
-      <c r="BD108" s="41"/>
-      <c r="BE108" s="41"/>
-      <c r="BF108" s="41"/>
-      <c r="BG108" s="41"/>
-      <c r="BH108" s="41"/>
-      <c r="BI108" s="41"/>
-      <c r="BJ108" s="41"/>
-      <c r="BK108" s="41"/>
-      <c r="BL108" s="41"/>
-      <c r="BM108" s="41"/>
-      <c r="BN108" s="41"/>
-      <c r="BO108" s="41"/>
-      <c r="BP108" s="41"/>
-      <c r="BQ108" s="41"/>
-      <c r="BR108" s="41"/>
-      <c r="BS108" s="41"/>
-      <c r="BT108" s="41"/>
-      <c r="BU108" s="41"/>
-      <c r="BV108" s="41"/>
-      <c r="BW108" s="41"/>
-      <c r="BX108" s="41"/>
-      <c r="BY108" s="41"/>
-      <c r="BZ108" s="41"/>
-      <c r="CA108" s="41"/>
-      <c r="CB108" s="41"/>
-      <c r="CC108" s="41"/>
-      <c r="CD108" s="41"/>
-      <c r="CE108" s="41"/>
-      <c r="CF108" s="41"/>
-      <c r="CG108" s="41"/>
-      <c r="CH108" s="41"/>
-      <c r="CI108" s="41"/>
-      <c r="CJ108" s="41"/>
-      <c r="CK108" s="41"/>
-      <c r="CL108" s="41"/>
-      <c r="CM108" s="41"/>
-      <c r="CN108" s="41"/>
-      <c r="CO108" s="41"/>
-      <c r="CP108" s="41"/>
-      <c r="CQ108" s="41"/>
-      <c r="CR108" s="41"/>
-      <c r="CS108" s="41"/>
-      <c r="CT108" s="41"/>
-      <c r="CU108" s="41"/>
-      <c r="CV108" s="41"/>
-      <c r="CW108" s="41"/>
-      <c r="CX108" s="42"/>
+      <c r="C108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="69"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32"/>
+      <c r="S108" s="32"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="32"/>
+      <c r="X108" s="32"/>
+      <c r="Y108" s="32"/>
+      <c r="Z108" s="32"/>
+      <c r="AA108" s="32"/>
+      <c r="AB108" s="32"/>
+      <c r="AC108" s="32"/>
+      <c r="AD108" s="32"/>
+      <c r="AE108" s="32"/>
+      <c r="AF108" s="32"/>
+      <c r="AG108" s="32"/>
+      <c r="AH108" s="32"/>
+      <c r="AI108" s="32"/>
+      <c r="AJ108" s="32"/>
+      <c r="AK108" s="32"/>
+      <c r="AL108" s="32"/>
+      <c r="AM108" s="32"/>
+      <c r="AN108" s="32"/>
+      <c r="AO108" s="32"/>
+      <c r="AP108" s="32"/>
+      <c r="AQ108" s="32"/>
+      <c r="AR108" s="32"/>
+      <c r="AS108" s="32"/>
+      <c r="AT108" s="32"/>
+      <c r="AU108" s="32"/>
+      <c r="AV108" s="32"/>
+      <c r="AW108" s="32"/>
+      <c r="AX108" s="32"/>
+      <c r="AY108" s="32"/>
+      <c r="AZ108" s="32"/>
+      <c r="BA108" s="32"/>
+      <c r="BB108" s="32"/>
+      <c r="BC108" s="32"/>
+      <c r="BD108" s="32"/>
+      <c r="BE108" s="32"/>
+      <c r="BF108" s="32"/>
+      <c r="BG108" s="32"/>
+      <c r="BH108" s="32"/>
+      <c r="BI108" s="32"/>
+      <c r="BJ108" s="32"/>
+      <c r="BK108" s="32"/>
+      <c r="BL108" s="32"/>
+      <c r="BM108" s="32"/>
+      <c r="BN108" s="32"/>
+      <c r="BO108" s="32"/>
+      <c r="BP108" s="32"/>
+      <c r="BQ108" s="32"/>
+      <c r="BR108" s="32"/>
+      <c r="BS108" s="32"/>
+      <c r="BT108" s="32"/>
+      <c r="BU108" s="32"/>
+      <c r="BV108" s="32"/>
+      <c r="BW108" s="32"/>
+      <c r="BX108" s="32"/>
+      <c r="BY108" s="32"/>
+      <c r="BZ108" s="32"/>
+      <c r="CA108" s="32"/>
+      <c r="CB108" s="32"/>
+      <c r="CC108" s="32"/>
+      <c r="CD108" s="32"/>
+      <c r="CE108" s="32"/>
+      <c r="CF108" s="32"/>
+      <c r="CG108" s="32"/>
+      <c r="CH108" s="32"/>
+      <c r="CI108" s="32"/>
+      <c r="CJ108" s="32"/>
+      <c r="CK108" s="32"/>
+      <c r="CL108" s="32"/>
+      <c r="CM108" s="32"/>
+      <c r="CN108" s="32"/>
+      <c r="CO108" s="32"/>
+      <c r="CP108" s="32"/>
+      <c r="CQ108" s="32"/>
+      <c r="CR108" s="32"/>
+      <c r="CS108" s="32"/>
+      <c r="CT108" s="32"/>
+      <c r="CU108" s="32"/>
+      <c r="CV108" s="32"/>
+      <c r="CW108" s="32"/>
+      <c r="CX108" s="33"/>
       <c r="CY108" s="21"/>
     </row>
-    <row r="109" spans="1:103">
-      <c r="A109" s="68"/>
-      <c r="B109" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="75">
-        <v>18.04</v>
-      </c>
-      <c r="E109" s="72">
-        <v>25.04</v>
-      </c>
+    <row r="109" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="77">
+        <v>44334</v>
+      </c>
+      <c r="E109" s="78"/>
       <c r="F109" s="31"/>
       <c r="G109" s="32"/>
       <c r="H109" s="32"/>
@@ -14228,118 +14331,124 @@
       <c r="CX109" s="33"/>
       <c r="CY109" s="21"/>
     </row>
-    <row r="110" spans="1:103">
-      <c r="A110" s="69"/>
-      <c r="B110" s="7" t="s">
+    <row r="110" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="75"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="32"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="32"/>
-      <c r="L110" s="32"/>
-      <c r="M110" s="32"/>
-      <c r="N110" s="32"/>
-      <c r="O110" s="32"/>
-      <c r="P110" s="32"/>
-      <c r="Q110" s="32"/>
-      <c r="R110" s="32"/>
-      <c r="S110" s="32"/>
-      <c r="T110" s="32"/>
-      <c r="U110" s="32"/>
-      <c r="V110" s="32"/>
-      <c r="W110" s="32"/>
-      <c r="X110" s="32"/>
-      <c r="Y110" s="32"/>
-      <c r="Z110" s="32"/>
-      <c r="AA110" s="32"/>
-      <c r="AB110" s="32"/>
-      <c r="AC110" s="32"/>
-      <c r="AD110" s="32"/>
-      <c r="AE110" s="32"/>
-      <c r="AF110" s="32"/>
-      <c r="AG110" s="32"/>
-      <c r="AH110" s="32"/>
-      <c r="AI110" s="32"/>
-      <c r="AJ110" s="32"/>
-      <c r="AK110" s="32"/>
-      <c r="AL110" s="32"/>
-      <c r="AM110" s="32"/>
-      <c r="AN110" s="32"/>
-      <c r="AO110" s="32"/>
-      <c r="AP110" s="32"/>
-      <c r="AQ110" s="32"/>
-      <c r="AR110" s="32"/>
-      <c r="AS110" s="32"/>
-      <c r="AT110" s="32"/>
-      <c r="AU110" s="32"/>
-      <c r="AV110" s="32"/>
-      <c r="AW110" s="32"/>
-      <c r="AX110" s="32"/>
-      <c r="AY110" s="32"/>
-      <c r="AZ110" s="32"/>
-      <c r="BA110" s="32"/>
-      <c r="BB110" s="32"/>
-      <c r="BC110" s="32"/>
-      <c r="BD110" s="32"/>
-      <c r="BE110" s="32"/>
-      <c r="BF110" s="32"/>
-      <c r="BG110" s="32"/>
-      <c r="BH110" s="32"/>
-      <c r="BI110" s="32"/>
-      <c r="BJ110" s="32"/>
-      <c r="BK110" s="32"/>
-      <c r="BL110" s="32"/>
-      <c r="BM110" s="32"/>
-      <c r="BN110" s="32"/>
-      <c r="BO110" s="32"/>
-      <c r="BP110" s="32"/>
-      <c r="BQ110" s="32"/>
-      <c r="BR110" s="32"/>
-      <c r="BS110" s="32"/>
-      <c r="BT110" s="32"/>
-      <c r="BU110" s="32"/>
-      <c r="BV110" s="32"/>
-      <c r="BW110" s="32"/>
-      <c r="BX110" s="32"/>
-      <c r="BY110" s="32"/>
-      <c r="BZ110" s="32"/>
-      <c r="CA110" s="32"/>
-      <c r="CB110" s="32"/>
-      <c r="CC110" s="32"/>
-      <c r="CD110" s="32"/>
-      <c r="CE110" s="32"/>
-      <c r="CF110" s="32"/>
-      <c r="CG110" s="32"/>
-      <c r="CH110" s="32"/>
-      <c r="CI110" s="32"/>
-      <c r="CJ110" s="32"/>
-      <c r="CK110" s="32"/>
-      <c r="CL110" s="32"/>
-      <c r="CM110" s="32"/>
-      <c r="CN110" s="32"/>
-      <c r="CO110" s="32"/>
-      <c r="CP110" s="32"/>
-      <c r="CQ110" s="32"/>
-      <c r="CR110" s="32"/>
-      <c r="CS110" s="32"/>
-      <c r="CT110" s="32"/>
-      <c r="CU110" s="32"/>
-      <c r="CV110" s="32"/>
-      <c r="CW110" s="32"/>
-      <c r="CX110" s="33"/>
+      <c r="E110" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="44"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45"/>
+      <c r="K110" s="45"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="45"/>
+      <c r="Q110" s="45"/>
+      <c r="R110" s="45"/>
+      <c r="S110" s="45"/>
+      <c r="T110" s="45"/>
+      <c r="U110" s="45"/>
+      <c r="V110" s="45"/>
+      <c r="W110" s="45"/>
+      <c r="X110" s="45"/>
+      <c r="Y110" s="45"/>
+      <c r="Z110" s="45"/>
+      <c r="AA110" s="45"/>
+      <c r="AB110" s="45"/>
+      <c r="AC110" s="45"/>
+      <c r="AD110" s="45"/>
+      <c r="AE110" s="45"/>
+      <c r="AF110" s="45"/>
+      <c r="AG110" s="45"/>
+      <c r="AH110" s="45"/>
+      <c r="AI110" s="45"/>
+      <c r="AJ110" s="45"/>
+      <c r="AK110" s="45"/>
+      <c r="AL110" s="45"/>
+      <c r="AM110" s="45"/>
+      <c r="AN110" s="45"/>
+      <c r="AO110" s="45"/>
+      <c r="AP110" s="45"/>
+      <c r="AQ110" s="45"/>
+      <c r="AR110" s="45"/>
+      <c r="AS110" s="45"/>
+      <c r="AT110" s="45"/>
+      <c r="AU110" s="45"/>
+      <c r="AV110" s="45"/>
+      <c r="AW110" s="45"/>
+      <c r="AX110" s="45"/>
+      <c r="AY110" s="45"/>
+      <c r="AZ110" s="45"/>
+      <c r="BA110" s="45"/>
+      <c r="BB110" s="45"/>
+      <c r="BC110" s="45"/>
+      <c r="BD110" s="45"/>
+      <c r="BE110" s="45"/>
+      <c r="BF110" s="45"/>
+      <c r="BG110" s="45"/>
+      <c r="BH110" s="45"/>
+      <c r="BI110" s="45"/>
+      <c r="BJ110" s="45"/>
+      <c r="BK110" s="45"/>
+      <c r="BL110" s="45"/>
+      <c r="BM110" s="45"/>
+      <c r="BN110" s="45"/>
+      <c r="BO110" s="45"/>
+      <c r="BP110" s="45"/>
+      <c r="BQ110" s="45"/>
+      <c r="BR110" s="45"/>
+      <c r="BS110" s="45"/>
+      <c r="BT110" s="45"/>
+      <c r="BU110" s="45"/>
+      <c r="BV110" s="45"/>
+      <c r="BW110" s="45"/>
+      <c r="BX110" s="45"/>
+      <c r="BY110" s="45"/>
+      <c r="BZ110" s="45"/>
+      <c r="CA110" s="45"/>
+      <c r="CB110" s="45"/>
+      <c r="CC110" s="45"/>
+      <c r="CD110" s="45"/>
+      <c r="CE110" s="45"/>
+      <c r="CF110" s="45"/>
+      <c r="CG110" s="45"/>
+      <c r="CH110" s="45"/>
+      <c r="CI110" s="45"/>
+      <c r="CJ110" s="45"/>
+      <c r="CK110" s="45"/>
+      <c r="CL110" s="45"/>
+      <c r="CM110" s="45"/>
+      <c r="CN110" s="45"/>
+      <c r="CO110" s="45"/>
+      <c r="CP110" s="45"/>
+      <c r="CQ110" s="45"/>
+      <c r="CR110" s="45"/>
+      <c r="CS110" s="45"/>
+      <c r="CT110" s="45"/>
+      <c r="CU110" s="45"/>
+      <c r="CV110" s="45"/>
+      <c r="CW110" s="45"/>
+      <c r="CX110" s="46"/>
       <c r="CY110" s="21"/>
     </row>
-    <row r="111" spans="1:103">
+    <row r="111" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>9</v>
@@ -14452,18 +14561,18 @@
       <c r="CX111" s="42"/>
       <c r="CY111" s="21"/>
     </row>
-    <row r="112" spans="1:103">
-      <c r="A112" s="68"/>
+    <row r="112" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A112" s="67"/>
       <c r="B112" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="75">
+      <c r="D112" s="69">
         <v>18.04</v>
       </c>
-      <c r="E112" s="72">
+      <c r="E112" s="70">
         <v>25.04</v>
       </c>
       <c r="F112" s="31"/>
@@ -14565,16 +14674,16 @@
       <c r="CX112" s="33"/>
       <c r="CY112" s="21"/>
     </row>
-    <row r="113" spans="1:103">
-      <c r="A113" s="69"/>
+    <row r="113" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A113" s="68"/>
       <c r="B113" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="72"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="70"/>
       <c r="F113" s="31"/>
       <c r="G113" s="32"/>
       <c r="H113" s="32"/>
@@ -14674,9 +14783,9 @@
       <c r="CX113" s="33"/>
       <c r="CY113" s="21"/>
     </row>
-    <row r="114" spans="1:103">
+    <row r="114" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>9</v>
@@ -14789,18 +14898,18 @@
       <c r="CX114" s="42"/>
       <c r="CY114" s="21"/>
     </row>
-    <row r="115" spans="1:103">
-      <c r="A115" s="68"/>
+    <row r="115" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A115" s="67"/>
       <c r="B115" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="75">
+      <c r="D115" s="69">
         <v>18.04</v>
       </c>
-      <c r="E115" s="72">
+      <c r="E115" s="70">
         <v>25.04</v>
       </c>
       <c r="F115" s="31"/>
@@ -14902,16 +15011,16 @@
       <c r="CX115" s="33"/>
       <c r="CY115" s="21"/>
     </row>
-    <row r="116" spans="1:103">
-      <c r="A116" s="69"/>
+    <row r="116" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A116" s="68"/>
       <c r="B116" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="75"/>
-      <c r="E116" s="72"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="70"/>
       <c r="F116" s="31"/>
       <c r="G116" s="32"/>
       <c r="H116" s="32"/>
@@ -15011,9 +15120,9 @@
       <c r="CX116" s="33"/>
       <c r="CY116" s="21"/>
     </row>
-    <row r="117" spans="1:103">
+    <row r="117" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>9</v>
@@ -15124,20 +15233,20 @@
       <c r="CV117" s="41"/>
       <c r="CW117" s="41"/>
       <c r="CX117" s="42"/>
-      <c r="CY117" s="11"/>
+      <c r="CY117" s="21"/>
     </row>
-    <row r="118" spans="1:103">
-      <c r="A118" s="68"/>
+    <row r="118" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A118" s="67"/>
       <c r="B118" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="75">
+      <c r="D118" s="69">
         <v>18.04</v>
       </c>
-      <c r="E118" s="72">
+      <c r="E118" s="70">
         <v>25.04</v>
       </c>
       <c r="F118" s="31"/>
@@ -15237,17 +15346,18 @@
       <c r="CV118" s="32"/>
       <c r="CW118" s="32"/>
       <c r="CX118" s="33"/>
+      <c r="CY118" s="21"/>
     </row>
-    <row r="119" spans="1:103">
-      <c r="A119" s="69"/>
+    <row r="119" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A119" s="68"/>
       <c r="B119" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="75"/>
-      <c r="E119" s="72"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="70"/>
       <c r="F119" s="31"/>
       <c r="G119" s="32"/>
       <c r="H119" s="32"/>
@@ -15345,275 +15455,1010 @@
       <c r="CV119" s="32"/>
       <c r="CW119" s="32"/>
       <c r="CX119" s="33"/>
+      <c r="CY119" s="21"/>
     </row>
-    <row r="120" spans="1:103" ht="16" thickBot="1">
-      <c r="A120" s="16" t="s">
+    <row r="120" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="40"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
+      <c r="K120" s="41"/>
+      <c r="L120" s="41"/>
+      <c r="M120" s="41"/>
+      <c r="N120" s="41"/>
+      <c r="O120" s="41"/>
+      <c r="P120" s="41"/>
+      <c r="Q120" s="41"/>
+      <c r="R120" s="41"/>
+      <c r="S120" s="41"/>
+      <c r="T120" s="41"/>
+      <c r="U120" s="41"/>
+      <c r="V120" s="41"/>
+      <c r="W120" s="41"/>
+      <c r="X120" s="41"/>
+      <c r="Y120" s="41"/>
+      <c r="Z120" s="41"/>
+      <c r="AA120" s="41"/>
+      <c r="AB120" s="41"/>
+      <c r="AC120" s="41"/>
+      <c r="AD120" s="41"/>
+      <c r="AE120" s="41"/>
+      <c r="AF120" s="41"/>
+      <c r="AG120" s="41"/>
+      <c r="AH120" s="41"/>
+      <c r="AI120" s="41"/>
+      <c r="AJ120" s="41"/>
+      <c r="AK120" s="41"/>
+      <c r="AL120" s="41"/>
+      <c r="AM120" s="41"/>
+      <c r="AN120" s="41"/>
+      <c r="AO120" s="41"/>
+      <c r="AP120" s="41"/>
+      <c r="AQ120" s="41"/>
+      <c r="AR120" s="41"/>
+      <c r="AS120" s="41"/>
+      <c r="AT120" s="41"/>
+      <c r="AU120" s="41"/>
+      <c r="AV120" s="41"/>
+      <c r="AW120" s="41"/>
+      <c r="AX120" s="41"/>
+      <c r="AY120" s="41"/>
+      <c r="AZ120" s="41"/>
+      <c r="BA120" s="41"/>
+      <c r="BB120" s="41"/>
+      <c r="BC120" s="41"/>
+      <c r="BD120" s="41"/>
+      <c r="BE120" s="41"/>
+      <c r="BF120" s="41"/>
+      <c r="BG120" s="41"/>
+      <c r="BH120" s="41"/>
+      <c r="BI120" s="41"/>
+      <c r="BJ120" s="41"/>
+      <c r="BK120" s="41"/>
+      <c r="BL120" s="41"/>
+      <c r="BM120" s="41"/>
+      <c r="BN120" s="41"/>
+      <c r="BO120" s="41"/>
+      <c r="BP120" s="41"/>
+      <c r="BQ120" s="41"/>
+      <c r="BR120" s="41"/>
+      <c r="BS120" s="41"/>
+      <c r="BT120" s="41"/>
+      <c r="BU120" s="41"/>
+      <c r="BV120" s="41"/>
+      <c r="BW120" s="41"/>
+      <c r="BX120" s="41"/>
+      <c r="BY120" s="41"/>
+      <c r="BZ120" s="41"/>
+      <c r="CA120" s="41"/>
+      <c r="CB120" s="41"/>
+      <c r="CC120" s="41"/>
+      <c r="CD120" s="41"/>
+      <c r="CE120" s="41"/>
+      <c r="CF120" s="41"/>
+      <c r="CG120" s="41"/>
+      <c r="CH120" s="41"/>
+      <c r="CI120" s="41"/>
+      <c r="CJ120" s="41"/>
+      <c r="CK120" s="41"/>
+      <c r="CL120" s="41"/>
+      <c r="CM120" s="41"/>
+      <c r="CN120" s="41"/>
+      <c r="CO120" s="41"/>
+      <c r="CP120" s="41"/>
+      <c r="CQ120" s="41"/>
+      <c r="CR120" s="41"/>
+      <c r="CS120" s="41"/>
+      <c r="CT120" s="41"/>
+      <c r="CU120" s="41"/>
+      <c r="CV120" s="41"/>
+      <c r="CW120" s="41"/>
+      <c r="CX120" s="42"/>
+      <c r="CY120" s="21"/>
+    </row>
+    <row r="121" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A121" s="67"/>
+      <c r="B121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="69">
+        <v>18.04</v>
+      </c>
+      <c r="E121" s="70">
+        <v>25.04</v>
+      </c>
+      <c r="F121" s="31"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
+      <c r="M121" s="32"/>
+      <c r="N121" s="32"/>
+      <c r="O121" s="32"/>
+      <c r="P121" s="32"/>
+      <c r="Q121" s="32"/>
+      <c r="R121" s="32"/>
+      <c r="S121" s="32"/>
+      <c r="T121" s="32"/>
+      <c r="U121" s="32"/>
+      <c r="V121" s="32"/>
+      <c r="W121" s="32"/>
+      <c r="X121" s="32"/>
+      <c r="Y121" s="32"/>
+      <c r="Z121" s="32"/>
+      <c r="AA121" s="32"/>
+      <c r="AB121" s="32"/>
+      <c r="AC121" s="32"/>
+      <c r="AD121" s="32"/>
+      <c r="AE121" s="32"/>
+      <c r="AF121" s="32"/>
+      <c r="AG121" s="32"/>
+      <c r="AH121" s="32"/>
+      <c r="AI121" s="32"/>
+      <c r="AJ121" s="32"/>
+      <c r="AK121" s="32"/>
+      <c r="AL121" s="32"/>
+      <c r="AM121" s="32"/>
+      <c r="AN121" s="32"/>
+      <c r="AO121" s="32"/>
+      <c r="AP121" s="32"/>
+      <c r="AQ121" s="32"/>
+      <c r="AR121" s="32"/>
+      <c r="AS121" s="32"/>
+      <c r="AT121" s="32"/>
+      <c r="AU121" s="32"/>
+      <c r="AV121" s="32"/>
+      <c r="AW121" s="32"/>
+      <c r="AX121" s="32"/>
+      <c r="AY121" s="32"/>
+      <c r="AZ121" s="32"/>
+      <c r="BA121" s="32"/>
+      <c r="BB121" s="32"/>
+      <c r="BC121" s="32"/>
+      <c r="BD121" s="32"/>
+      <c r="BE121" s="32"/>
+      <c r="BF121" s="32"/>
+      <c r="BG121" s="32"/>
+      <c r="BH121" s="32"/>
+      <c r="BI121" s="32"/>
+      <c r="BJ121" s="32"/>
+      <c r="BK121" s="32"/>
+      <c r="BL121" s="32"/>
+      <c r="BM121" s="32"/>
+      <c r="BN121" s="32"/>
+      <c r="BO121" s="32"/>
+      <c r="BP121" s="32"/>
+      <c r="BQ121" s="32"/>
+      <c r="BR121" s="32"/>
+      <c r="BS121" s="32"/>
+      <c r="BT121" s="32"/>
+      <c r="BU121" s="32"/>
+      <c r="BV121" s="32"/>
+      <c r="BW121" s="32"/>
+      <c r="BX121" s="32"/>
+      <c r="BY121" s="32"/>
+      <c r="BZ121" s="32"/>
+      <c r="CA121" s="32"/>
+      <c r="CB121" s="32"/>
+      <c r="CC121" s="32"/>
+      <c r="CD121" s="32"/>
+      <c r="CE121" s="32"/>
+      <c r="CF121" s="32"/>
+      <c r="CG121" s="32"/>
+      <c r="CH121" s="32"/>
+      <c r="CI121" s="32"/>
+      <c r="CJ121" s="32"/>
+      <c r="CK121" s="32"/>
+      <c r="CL121" s="32"/>
+      <c r="CM121" s="32"/>
+      <c r="CN121" s="32"/>
+      <c r="CO121" s="32"/>
+      <c r="CP121" s="32"/>
+      <c r="CQ121" s="32"/>
+      <c r="CR121" s="32"/>
+      <c r="CS121" s="32"/>
+      <c r="CT121" s="32"/>
+      <c r="CU121" s="32"/>
+      <c r="CV121" s="32"/>
+      <c r="CW121" s="32"/>
+      <c r="CX121" s="33"/>
+      <c r="CY121" s="21"/>
+    </row>
+    <row r="122" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A122" s="68"/>
+      <c r="B122" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="69"/>
+      <c r="E122" s="70"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="32"/>
+      <c r="O122" s="32"/>
+      <c r="P122" s="32"/>
+      <c r="Q122" s="32"/>
+      <c r="R122" s="32"/>
+      <c r="S122" s="32"/>
+      <c r="T122" s="32"/>
+      <c r="U122" s="32"/>
+      <c r="V122" s="32"/>
+      <c r="W122" s="32"/>
+      <c r="X122" s="32"/>
+      <c r="Y122" s="32"/>
+      <c r="Z122" s="32"/>
+      <c r="AA122" s="32"/>
+      <c r="AB122" s="32"/>
+      <c r="AC122" s="32"/>
+      <c r="AD122" s="32"/>
+      <c r="AE122" s="32"/>
+      <c r="AF122" s="32"/>
+      <c r="AG122" s="32"/>
+      <c r="AH122" s="32"/>
+      <c r="AI122" s="32"/>
+      <c r="AJ122" s="32"/>
+      <c r="AK122" s="32"/>
+      <c r="AL122" s="32"/>
+      <c r="AM122" s="32"/>
+      <c r="AN122" s="32"/>
+      <c r="AO122" s="32"/>
+      <c r="AP122" s="32"/>
+      <c r="AQ122" s="32"/>
+      <c r="AR122" s="32"/>
+      <c r="AS122" s="32"/>
+      <c r="AT122" s="32"/>
+      <c r="AU122" s="32"/>
+      <c r="AV122" s="32"/>
+      <c r="AW122" s="32"/>
+      <c r="AX122" s="32"/>
+      <c r="AY122" s="32"/>
+      <c r="AZ122" s="32"/>
+      <c r="BA122" s="32"/>
+      <c r="BB122" s="32"/>
+      <c r="BC122" s="32"/>
+      <c r="BD122" s="32"/>
+      <c r="BE122" s="32"/>
+      <c r="BF122" s="32"/>
+      <c r="BG122" s="32"/>
+      <c r="BH122" s="32"/>
+      <c r="BI122" s="32"/>
+      <c r="BJ122" s="32"/>
+      <c r="BK122" s="32"/>
+      <c r="BL122" s="32"/>
+      <c r="BM122" s="32"/>
+      <c r="BN122" s="32"/>
+      <c r="BO122" s="32"/>
+      <c r="BP122" s="32"/>
+      <c r="BQ122" s="32"/>
+      <c r="BR122" s="32"/>
+      <c r="BS122" s="32"/>
+      <c r="BT122" s="32"/>
+      <c r="BU122" s="32"/>
+      <c r="BV122" s="32"/>
+      <c r="BW122" s="32"/>
+      <c r="BX122" s="32"/>
+      <c r="BY122" s="32"/>
+      <c r="BZ122" s="32"/>
+      <c r="CA122" s="32"/>
+      <c r="CB122" s="32"/>
+      <c r="CC122" s="32"/>
+      <c r="CD122" s="32"/>
+      <c r="CE122" s="32"/>
+      <c r="CF122" s="32"/>
+      <c r="CG122" s="32"/>
+      <c r="CH122" s="32"/>
+      <c r="CI122" s="32"/>
+      <c r="CJ122" s="32"/>
+      <c r="CK122" s="32"/>
+      <c r="CL122" s="32"/>
+      <c r="CM122" s="32"/>
+      <c r="CN122" s="32"/>
+      <c r="CO122" s="32"/>
+      <c r="CP122" s="32"/>
+      <c r="CQ122" s="32"/>
+      <c r="CR122" s="32"/>
+      <c r="CS122" s="32"/>
+      <c r="CT122" s="32"/>
+      <c r="CU122" s="32"/>
+      <c r="CV122" s="32"/>
+      <c r="CW122" s="32"/>
+      <c r="CX122" s="33"/>
+      <c r="CY122" s="21"/>
+    </row>
+    <row r="123" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="40"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="41"/>
+      <c r="L123" s="41"/>
+      <c r="M123" s="41"/>
+      <c r="N123" s="41"/>
+      <c r="O123" s="41"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="41"/>
+      <c r="R123" s="41"/>
+      <c r="S123" s="41"/>
+      <c r="T123" s="41"/>
+      <c r="U123" s="41"/>
+      <c r="V123" s="41"/>
+      <c r="W123" s="41"/>
+      <c r="X123" s="41"/>
+      <c r="Y123" s="41"/>
+      <c r="Z123" s="41"/>
+      <c r="AA123" s="41"/>
+      <c r="AB123" s="41"/>
+      <c r="AC123" s="41"/>
+      <c r="AD123" s="41"/>
+      <c r="AE123" s="41"/>
+      <c r="AF123" s="41"/>
+      <c r="AG123" s="41"/>
+      <c r="AH123" s="41"/>
+      <c r="AI123" s="41"/>
+      <c r="AJ123" s="41"/>
+      <c r="AK123" s="41"/>
+      <c r="AL123" s="41"/>
+      <c r="AM123" s="41"/>
+      <c r="AN123" s="41"/>
+      <c r="AO123" s="41"/>
+      <c r="AP123" s="41"/>
+      <c r="AQ123" s="41"/>
+      <c r="AR123" s="41"/>
+      <c r="AS123" s="41"/>
+      <c r="AT123" s="41"/>
+      <c r="AU123" s="41"/>
+      <c r="AV123" s="41"/>
+      <c r="AW123" s="41"/>
+      <c r="AX123" s="41"/>
+      <c r="AY123" s="41"/>
+      <c r="AZ123" s="41"/>
+      <c r="BA123" s="41"/>
+      <c r="BB123" s="41"/>
+      <c r="BC123" s="41"/>
+      <c r="BD123" s="41"/>
+      <c r="BE123" s="41"/>
+      <c r="BF123" s="41"/>
+      <c r="BG123" s="41"/>
+      <c r="BH123" s="41"/>
+      <c r="BI123" s="41"/>
+      <c r="BJ123" s="41"/>
+      <c r="BK123" s="41"/>
+      <c r="BL123" s="41"/>
+      <c r="BM123" s="41"/>
+      <c r="BN123" s="41"/>
+      <c r="BO123" s="41"/>
+      <c r="BP123" s="41"/>
+      <c r="BQ123" s="41"/>
+      <c r="BR123" s="41"/>
+      <c r="BS123" s="41"/>
+      <c r="BT123" s="41"/>
+      <c r="BU123" s="41"/>
+      <c r="BV123" s="41"/>
+      <c r="BW123" s="41"/>
+      <c r="BX123" s="41"/>
+      <c r="BY123" s="41"/>
+      <c r="BZ123" s="41"/>
+      <c r="CA123" s="41"/>
+      <c r="CB123" s="41"/>
+      <c r="CC123" s="41"/>
+      <c r="CD123" s="41"/>
+      <c r="CE123" s="41"/>
+      <c r="CF123" s="41"/>
+      <c r="CG123" s="41"/>
+      <c r="CH123" s="41"/>
+      <c r="CI123" s="41"/>
+      <c r="CJ123" s="41"/>
+      <c r="CK123" s="41"/>
+      <c r="CL123" s="41"/>
+      <c r="CM123" s="41"/>
+      <c r="CN123" s="41"/>
+      <c r="CO123" s="41"/>
+      <c r="CP123" s="41"/>
+      <c r="CQ123" s="41"/>
+      <c r="CR123" s="41"/>
+      <c r="CS123" s="41"/>
+      <c r="CT123" s="41"/>
+      <c r="CU123" s="41"/>
+      <c r="CV123" s="41"/>
+      <c r="CW123" s="41"/>
+      <c r="CX123" s="42"/>
+      <c r="CY123" s="11"/>
+    </row>
+    <row r="124" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A124" s="67"/>
+      <c r="B124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="69">
+        <v>18.04</v>
+      </c>
+      <c r="E124" s="70">
+        <v>25.04</v>
+      </c>
+      <c r="F124" s="31"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="32"/>
+      <c r="K124" s="32"/>
+      <c r="L124" s="32"/>
+      <c r="M124" s="32"/>
+      <c r="N124" s="32"/>
+      <c r="O124" s="32"/>
+      <c r="P124" s="32"/>
+      <c r="Q124" s="32"/>
+      <c r="R124" s="32"/>
+      <c r="S124" s="32"/>
+      <c r="T124" s="32"/>
+      <c r="U124" s="32"/>
+      <c r="V124" s="32"/>
+      <c r="W124" s="32"/>
+      <c r="X124" s="32"/>
+      <c r="Y124" s="32"/>
+      <c r="Z124" s="32"/>
+      <c r="AA124" s="32"/>
+      <c r="AB124" s="32"/>
+      <c r="AC124" s="32"/>
+      <c r="AD124" s="32"/>
+      <c r="AE124" s="32"/>
+      <c r="AF124" s="32"/>
+      <c r="AG124" s="32"/>
+      <c r="AH124" s="32"/>
+      <c r="AI124" s="32"/>
+      <c r="AJ124" s="32"/>
+      <c r="AK124" s="32"/>
+      <c r="AL124" s="32"/>
+      <c r="AM124" s="32"/>
+      <c r="AN124" s="32"/>
+      <c r="AO124" s="32"/>
+      <c r="AP124" s="32"/>
+      <c r="AQ124" s="32"/>
+      <c r="AR124" s="32"/>
+      <c r="AS124" s="32"/>
+      <c r="AT124" s="32"/>
+      <c r="AU124" s="32"/>
+      <c r="AV124" s="32"/>
+      <c r="AW124" s="32"/>
+      <c r="AX124" s="32"/>
+      <c r="AY124" s="32"/>
+      <c r="AZ124" s="32"/>
+      <c r="BA124" s="32"/>
+      <c r="BB124" s="32"/>
+      <c r="BC124" s="32"/>
+      <c r="BD124" s="32"/>
+      <c r="BE124" s="32"/>
+      <c r="BF124" s="32"/>
+      <c r="BG124" s="32"/>
+      <c r="BH124" s="32"/>
+      <c r="BI124" s="32"/>
+      <c r="BJ124" s="32"/>
+      <c r="BK124" s="32"/>
+      <c r="BL124" s="32"/>
+      <c r="BM124" s="32"/>
+      <c r="BN124" s="32"/>
+      <c r="BO124" s="32"/>
+      <c r="BP124" s="32"/>
+      <c r="BQ124" s="32"/>
+      <c r="BR124" s="32"/>
+      <c r="BS124" s="32"/>
+      <c r="BT124" s="32"/>
+      <c r="BU124" s="32"/>
+      <c r="BV124" s="32"/>
+      <c r="BW124" s="32"/>
+      <c r="BX124" s="32"/>
+      <c r="BY124" s="32"/>
+      <c r="BZ124" s="32"/>
+      <c r="CA124" s="32"/>
+      <c r="CB124" s="32"/>
+      <c r="CC124" s="32"/>
+      <c r="CD124" s="32"/>
+      <c r="CE124" s="32"/>
+      <c r="CF124" s="32"/>
+      <c r="CG124" s="32"/>
+      <c r="CH124" s="32"/>
+      <c r="CI124" s="32"/>
+      <c r="CJ124" s="32"/>
+      <c r="CK124" s="32"/>
+      <c r="CL124" s="32"/>
+      <c r="CM124" s="32"/>
+      <c r="CN124" s="32"/>
+      <c r="CO124" s="32"/>
+      <c r="CP124" s="32"/>
+      <c r="CQ124" s="32"/>
+      <c r="CR124" s="32"/>
+      <c r="CS124" s="32"/>
+      <c r="CT124" s="32"/>
+      <c r="CU124" s="32"/>
+      <c r="CV124" s="32"/>
+      <c r="CW124" s="32"/>
+      <c r="CX124" s="33"/>
+    </row>
+    <row r="125" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A125" s="68"/>
+      <c r="B125" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="69"/>
+      <c r="E125" s="70"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+      <c r="M125" s="32"/>
+      <c r="N125" s="32"/>
+      <c r="O125" s="32"/>
+      <c r="P125" s="32"/>
+      <c r="Q125" s="32"/>
+      <c r="R125" s="32"/>
+      <c r="S125" s="32"/>
+      <c r="T125" s="32"/>
+      <c r="U125" s="32"/>
+      <c r="V125" s="32"/>
+      <c r="W125" s="32"/>
+      <c r="X125" s="32"/>
+      <c r="Y125" s="32"/>
+      <c r="Z125" s="32"/>
+      <c r="AA125" s="32"/>
+      <c r="AB125" s="32"/>
+      <c r="AC125" s="32"/>
+      <c r="AD125" s="32"/>
+      <c r="AE125" s="32"/>
+      <c r="AF125" s="32"/>
+      <c r="AG125" s="32"/>
+      <c r="AH125" s="32"/>
+      <c r="AI125" s="32"/>
+      <c r="AJ125" s="32"/>
+      <c r="AK125" s="32"/>
+      <c r="AL125" s="32"/>
+      <c r="AM125" s="32"/>
+      <c r="AN125" s="32"/>
+      <c r="AO125" s="32"/>
+      <c r="AP125" s="32"/>
+      <c r="AQ125" s="32"/>
+      <c r="AR125" s="32"/>
+      <c r="AS125" s="32"/>
+      <c r="AT125" s="32"/>
+      <c r="AU125" s="32"/>
+      <c r="AV125" s="32"/>
+      <c r="AW125" s="32"/>
+      <c r="AX125" s="32"/>
+      <c r="AY125" s="32"/>
+      <c r="AZ125" s="32"/>
+      <c r="BA125" s="32"/>
+      <c r="BB125" s="32"/>
+      <c r="BC125" s="32"/>
+      <c r="BD125" s="32"/>
+      <c r="BE125" s="32"/>
+      <c r="BF125" s="32"/>
+      <c r="BG125" s="32"/>
+      <c r="BH125" s="32"/>
+      <c r="BI125" s="32"/>
+      <c r="BJ125" s="32"/>
+      <c r="BK125" s="32"/>
+      <c r="BL125" s="32"/>
+      <c r="BM125" s="32"/>
+      <c r="BN125" s="32"/>
+      <c r="BO125" s="32"/>
+      <c r="BP125" s="32"/>
+      <c r="BQ125" s="32"/>
+      <c r="BR125" s="32"/>
+      <c r="BS125" s="32"/>
+      <c r="BT125" s="32"/>
+      <c r="BU125" s="32"/>
+      <c r="BV125" s="32"/>
+      <c r="BW125" s="32"/>
+      <c r="BX125" s="32"/>
+      <c r="BY125" s="32"/>
+      <c r="BZ125" s="32"/>
+      <c r="CA125" s="32"/>
+      <c r="CB125" s="32"/>
+      <c r="CC125" s="32"/>
+      <c r="CD125" s="32"/>
+      <c r="CE125" s="32"/>
+      <c r="CF125" s="32"/>
+      <c r="CG125" s="32"/>
+      <c r="CH125" s="32"/>
+      <c r="CI125" s="32"/>
+      <c r="CJ125" s="32"/>
+      <c r="CK125" s="32"/>
+      <c r="CL125" s="32"/>
+      <c r="CM125" s="32"/>
+      <c r="CN125" s="32"/>
+      <c r="CO125" s="32"/>
+      <c r="CP125" s="32"/>
+      <c r="CQ125" s="32"/>
+      <c r="CR125" s="32"/>
+      <c r="CS125" s="32"/>
+      <c r="CT125" s="32"/>
+      <c r="CU125" s="32"/>
+      <c r="CV125" s="32"/>
+      <c r="CW125" s="32"/>
+      <c r="CX125" s="33"/>
+    </row>
+    <row r="126" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="78">
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="77">
         <v>44348</v>
       </c>
-      <c r="E120" s="79"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="32"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="32"/>
-      <c r="L120" s="32"/>
-      <c r="M120" s="32"/>
-      <c r="N120" s="32"/>
-      <c r="O120" s="32"/>
-      <c r="P120" s="32"/>
-      <c r="Q120" s="32"/>
-      <c r="R120" s="32"/>
-      <c r="S120" s="32"/>
-      <c r="T120" s="32"/>
-      <c r="U120" s="32"/>
-      <c r="V120" s="32"/>
-      <c r="W120" s="32"/>
-      <c r="X120" s="32"/>
-      <c r="Y120" s="32"/>
-      <c r="Z120" s="32"/>
-      <c r="AA120" s="32"/>
-      <c r="AB120" s="32"/>
-      <c r="AC120" s="32"/>
-      <c r="AD120" s="32"/>
-      <c r="AE120" s="32"/>
-      <c r="AF120" s="32"/>
-      <c r="AG120" s="32"/>
-      <c r="AH120" s="32"/>
-      <c r="AI120" s="32"/>
-      <c r="AJ120" s="32"/>
-      <c r="AK120" s="32"/>
-      <c r="AL120" s="32"/>
-      <c r="AM120" s="32"/>
-      <c r="AN120" s="32"/>
-      <c r="AO120" s="32"/>
-      <c r="AP120" s="32"/>
-      <c r="AQ120" s="32"/>
-      <c r="AR120" s="32"/>
-      <c r="AS120" s="32"/>
-      <c r="AT120" s="32"/>
-      <c r="AU120" s="32"/>
-      <c r="AV120" s="32"/>
-      <c r="AW120" s="32"/>
-      <c r="AX120" s="32"/>
-      <c r="AY120" s="32"/>
-      <c r="AZ120" s="32"/>
-      <c r="BA120" s="32"/>
-      <c r="BB120" s="32"/>
-      <c r="BC120" s="32"/>
-      <c r="BD120" s="32"/>
-      <c r="BE120" s="32"/>
-      <c r="BF120" s="32"/>
-      <c r="BG120" s="32"/>
-      <c r="BH120" s="32"/>
-      <c r="BI120" s="32"/>
-      <c r="BJ120" s="32"/>
-      <c r="BK120" s="32"/>
-      <c r="BL120" s="32"/>
-      <c r="BM120" s="32"/>
-      <c r="BN120" s="32"/>
-      <c r="BO120" s="32"/>
-      <c r="BP120" s="32"/>
-      <c r="BQ120" s="32"/>
-      <c r="BR120" s="32"/>
-      <c r="BS120" s="32"/>
-      <c r="BT120" s="32"/>
-      <c r="BU120" s="32"/>
-      <c r="BV120" s="32"/>
-      <c r="BW120" s="32"/>
-      <c r="BX120" s="32"/>
-      <c r="BY120" s="32"/>
-      <c r="BZ120" s="32"/>
-      <c r="CA120" s="32"/>
-      <c r="CB120" s="32"/>
-      <c r="CC120" s="32"/>
-      <c r="CD120" s="32"/>
-      <c r="CE120" s="32"/>
-      <c r="CF120" s="32"/>
-      <c r="CG120" s="32"/>
-      <c r="CH120" s="32"/>
-      <c r="CI120" s="32"/>
-      <c r="CJ120" s="32"/>
-      <c r="CK120" s="32"/>
-      <c r="CL120" s="32"/>
-      <c r="CM120" s="32"/>
-      <c r="CN120" s="32"/>
-      <c r="CO120" s="32"/>
-      <c r="CP120" s="32"/>
-      <c r="CQ120" s="32"/>
-      <c r="CR120" s="32"/>
-      <c r="CS120" s="32"/>
-      <c r="CT120" s="32"/>
-      <c r="CU120" s="32"/>
-      <c r="CV120" s="32"/>
-      <c r="CW120" s="32"/>
-      <c r="CX120" s="33"/>
+      <c r="E126" s="78"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="32"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="32"/>
+      <c r="P126" s="32"/>
+      <c r="Q126" s="32"/>
+      <c r="R126" s="32"/>
+      <c r="S126" s="32"/>
+      <c r="T126" s="32"/>
+      <c r="U126" s="32"/>
+      <c r="V126" s="32"/>
+      <c r="W126" s="32"/>
+      <c r="X126" s="32"/>
+      <c r="Y126" s="32"/>
+      <c r="Z126" s="32"/>
+      <c r="AA126" s="32"/>
+      <c r="AB126" s="32"/>
+      <c r="AC126" s="32"/>
+      <c r="AD126" s="32"/>
+      <c r="AE126" s="32"/>
+      <c r="AF126" s="32"/>
+      <c r="AG126" s="32"/>
+      <c r="AH126" s="32"/>
+      <c r="AI126" s="32"/>
+      <c r="AJ126" s="32"/>
+      <c r="AK126" s="32"/>
+      <c r="AL126" s="32"/>
+      <c r="AM126" s="32"/>
+      <c r="AN126" s="32"/>
+      <c r="AO126" s="32"/>
+      <c r="AP126" s="32"/>
+      <c r="AQ126" s="32"/>
+      <c r="AR126" s="32"/>
+      <c r="AS126" s="32"/>
+      <c r="AT126" s="32"/>
+      <c r="AU126" s="32"/>
+      <c r="AV126" s="32"/>
+      <c r="AW126" s="32"/>
+      <c r="AX126" s="32"/>
+      <c r="AY126" s="32"/>
+      <c r="AZ126" s="32"/>
+      <c r="BA126" s="32"/>
+      <c r="BB126" s="32"/>
+      <c r="BC126" s="32"/>
+      <c r="BD126" s="32"/>
+      <c r="BE126" s="32"/>
+      <c r="BF126" s="32"/>
+      <c r="BG126" s="32"/>
+      <c r="BH126" s="32"/>
+      <c r="BI126" s="32"/>
+      <c r="BJ126" s="32"/>
+      <c r="BK126" s="32"/>
+      <c r="BL126" s="32"/>
+      <c r="BM126" s="32"/>
+      <c r="BN126" s="32"/>
+      <c r="BO126" s="32"/>
+      <c r="BP126" s="32"/>
+      <c r="BQ126" s="32"/>
+      <c r="BR126" s="32"/>
+      <c r="BS126" s="32"/>
+      <c r="BT126" s="32"/>
+      <c r="BU126" s="32"/>
+      <c r="BV126" s="32"/>
+      <c r="BW126" s="32"/>
+      <c r="BX126" s="32"/>
+      <c r="BY126" s="32"/>
+      <c r="BZ126" s="32"/>
+      <c r="CA126" s="32"/>
+      <c r="CB126" s="32"/>
+      <c r="CC126" s="32"/>
+      <c r="CD126" s="32"/>
+      <c r="CE126" s="32"/>
+      <c r="CF126" s="32"/>
+      <c r="CG126" s="32"/>
+      <c r="CH126" s="32"/>
+      <c r="CI126" s="32"/>
+      <c r="CJ126" s="32"/>
+      <c r="CK126" s="32"/>
+      <c r="CL126" s="32"/>
+      <c r="CM126" s="32"/>
+      <c r="CN126" s="32"/>
+      <c r="CO126" s="32"/>
+      <c r="CP126" s="32"/>
+      <c r="CQ126" s="32"/>
+      <c r="CR126" s="32"/>
+      <c r="CS126" s="32"/>
+      <c r="CT126" s="32"/>
+      <c r="CU126" s="32"/>
+      <c r="CV126" s="32"/>
+      <c r="CW126" s="32"/>
+      <c r="CX126" s="33"/>
     </row>
-    <row r="121" spans="1:103" ht="16" thickTop="1">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="47"/>
-      <c r="J121" s="47"/>
-      <c r="K121" s="47"/>
-      <c r="L121" s="47"/>
-      <c r="M121" s="47"/>
-      <c r="N121" s="47"/>
-      <c r="O121" s="47"/>
-      <c r="P121" s="47"/>
-      <c r="Q121" s="47"/>
-      <c r="R121" s="47"/>
-      <c r="S121" s="47"/>
-      <c r="T121" s="47"/>
-      <c r="U121" s="47"/>
-      <c r="V121" s="47"/>
-      <c r="W121" s="47"/>
-      <c r="X121" s="47"/>
-      <c r="Y121" s="47"/>
-      <c r="Z121" s="47"/>
-      <c r="AA121" s="47"/>
-      <c r="AB121" s="47"/>
-      <c r="AC121" s="47"/>
-      <c r="AD121" s="47"/>
-      <c r="AE121" s="47"/>
-      <c r="AF121" s="47"/>
-      <c r="AG121" s="47"/>
-      <c r="AH121" s="47"/>
-      <c r="AI121" s="47"/>
-      <c r="AJ121" s="47"/>
-      <c r="AK121" s="47"/>
-      <c r="AL121" s="47"/>
-      <c r="AM121" s="47"/>
-      <c r="AN121" s="47"/>
-      <c r="AO121" s="47"/>
-      <c r="AP121" s="47"/>
-      <c r="AQ121" s="47"/>
-      <c r="AR121" s="47"/>
-      <c r="AS121" s="47"/>
-      <c r="AT121" s="47"/>
-      <c r="AU121" s="47"/>
-      <c r="AV121" s="47"/>
-      <c r="AW121" s="47"/>
-      <c r="AX121" s="47"/>
-      <c r="AY121" s="47"/>
-      <c r="AZ121" s="47"/>
-      <c r="BA121" s="47"/>
-      <c r="BB121" s="47"/>
-      <c r="BC121" s="47"/>
-      <c r="BD121" s="47"/>
-      <c r="BE121" s="47"/>
-      <c r="BF121" s="47"/>
-      <c r="BG121" s="47"/>
-      <c r="BH121" s="47"/>
-      <c r="BI121" s="47"/>
-      <c r="BJ121" s="47"/>
-      <c r="BK121" s="47"/>
-      <c r="BL121" s="47"/>
-      <c r="BM121" s="47"/>
-      <c r="BN121" s="47"/>
-      <c r="BO121" s="47"/>
-      <c r="BP121" s="47"/>
-      <c r="BQ121" s="47"/>
-      <c r="BR121" s="47"/>
-      <c r="BS121" s="47"/>
-      <c r="BT121" s="47"/>
-      <c r="BU121" s="47"/>
-      <c r="BV121" s="47"/>
-      <c r="BW121" s="47"/>
-      <c r="BX121" s="47"/>
-      <c r="BY121" s="47"/>
-      <c r="BZ121" s="47"/>
-      <c r="CA121" s="47"/>
-      <c r="CB121" s="47"/>
-      <c r="CC121" s="47"/>
-      <c r="CD121" s="47"/>
-      <c r="CE121" s="47"/>
-      <c r="CF121" s="47"/>
-      <c r="CG121" s="47"/>
-      <c r="CH121" s="47"/>
-      <c r="CI121" s="47"/>
-      <c r="CJ121" s="47"/>
-      <c r="CK121" s="47"/>
-      <c r="CL121" s="47"/>
-      <c r="CM121" s="47"/>
-      <c r="CN121" s="47"/>
-      <c r="CO121" s="47"/>
-      <c r="CP121" s="47"/>
-      <c r="CQ121" s="47"/>
-      <c r="CR121" s="47"/>
-      <c r="CS121" s="47"/>
-      <c r="CT121" s="47"/>
-      <c r="CU121" s="47"/>
-      <c r="CV121" s="47"/>
-      <c r="CW121" s="47"/>
-      <c r="CX121" s="47"/>
+    <row r="127" spans="1:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
+      <c r="I127" s="47"/>
+      <c r="J127" s="47"/>
+      <c r="K127" s="47"/>
+      <c r="L127" s="47"/>
+      <c r="M127" s="47"/>
+      <c r="N127" s="47"/>
+      <c r="O127" s="47"/>
+      <c r="P127" s="47"/>
+      <c r="Q127" s="47"/>
+      <c r="R127" s="47"/>
+      <c r="S127" s="47"/>
+      <c r="T127" s="47"/>
+      <c r="U127" s="47"/>
+      <c r="V127" s="47"/>
+      <c r="W127" s="47"/>
+      <c r="X127" s="47"/>
+      <c r="Y127" s="47"/>
+      <c r="Z127" s="47"/>
+      <c r="AA127" s="47"/>
+      <c r="AB127" s="47"/>
+      <c r="AC127" s="47"/>
+      <c r="AD127" s="47"/>
+      <c r="AE127" s="47"/>
+      <c r="AF127" s="47"/>
+      <c r="AG127" s="47"/>
+      <c r="AH127" s="47"/>
+      <c r="AI127" s="47"/>
+      <c r="AJ127" s="47"/>
+      <c r="AK127" s="47"/>
+      <c r="AL127" s="47"/>
+      <c r="AM127" s="47"/>
+      <c r="AN127" s="47"/>
+      <c r="AO127" s="47"/>
+      <c r="AP127" s="47"/>
+      <c r="AQ127" s="47"/>
+      <c r="AR127" s="47"/>
+      <c r="AS127" s="47"/>
+      <c r="AT127" s="47"/>
+      <c r="AU127" s="47"/>
+      <c r="AV127" s="47"/>
+      <c r="AW127" s="47"/>
+      <c r="AX127" s="47"/>
+      <c r="AY127" s="47"/>
+      <c r="AZ127" s="47"/>
+      <c r="BA127" s="47"/>
+      <c r="BB127" s="47"/>
+      <c r="BC127" s="47"/>
+      <c r="BD127" s="47"/>
+      <c r="BE127" s="47"/>
+      <c r="BF127" s="47"/>
+      <c r="BG127" s="47"/>
+      <c r="BH127" s="47"/>
+      <c r="BI127" s="47"/>
+      <c r="BJ127" s="47"/>
+      <c r="BK127" s="47"/>
+      <c r="BL127" s="47"/>
+      <c r="BM127" s="47"/>
+      <c r="BN127" s="47"/>
+      <c r="BO127" s="47"/>
+      <c r="BP127" s="47"/>
+      <c r="BQ127" s="47"/>
+      <c r="BR127" s="47"/>
+      <c r="BS127" s="47"/>
+      <c r="BT127" s="47"/>
+      <c r="BU127" s="47"/>
+      <c r="BV127" s="47"/>
+      <c r="BW127" s="47"/>
+      <c r="BX127" s="47"/>
+      <c r="BY127" s="47"/>
+      <c r="BZ127" s="47"/>
+      <c r="CA127" s="47"/>
+      <c r="CB127" s="47"/>
+      <c r="CC127" s="47"/>
+      <c r="CD127" s="47"/>
+      <c r="CE127" s="47"/>
+      <c r="CF127" s="47"/>
+      <c r="CG127" s="47"/>
+      <c r="CH127" s="47"/>
+      <c r="CI127" s="47"/>
+      <c r="CJ127" s="47"/>
+      <c r="CK127" s="47"/>
+      <c r="CL127" s="47"/>
+      <c r="CM127" s="47"/>
+      <c r="CN127" s="47"/>
+      <c r="CO127" s="47"/>
+      <c r="CP127" s="47"/>
+      <c r="CQ127" s="47"/>
+      <c r="CR127" s="47"/>
+      <c r="CS127" s="47"/>
+      <c r="CT127" s="47"/>
+      <c r="CU127" s="47"/>
+      <c r="CV127" s="47"/>
+      <c r="CW127" s="47"/>
+      <c r="CX127" s="47"/>
     </row>
-    <row r="123" spans="1:103" ht="16" thickBot="1"/>
-    <row r="124" spans="1:103">
-      <c r="D124" s="24"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="49"/>
+    <row r="129" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D130" s="24"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="49"/>
     </row>
-    <row r="125" spans="1:103">
-      <c r="D125" s="26"/>
-      <c r="E125" s="20" t="s">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D131" s="26"/>
+      <c r="E131" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F125" s="50"/>
+      <c r="F131" s="50"/>
     </row>
-    <row r="126" spans="1:103">
-      <c r="D126" s="28"/>
-      <c r="E126" s="20" t="s">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D132" s="28"/>
+      <c r="E132" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F126" s="50"/>
+      <c r="F132" s="50"/>
     </row>
-    <row r="127" spans="1:103" ht="16" thickBot="1">
-      <c r="D127" s="29"/>
-      <c r="E127" s="27" t="s">
+    <row r="133" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D133" s="29"/>
+      <c r="E133" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F127" s="51"/>
+      <c r="F133" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
+  <mergeCells count="139">
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E48:E49"/>
     <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D58:D59"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="E21:E22"/>
@@ -15632,91 +16477,38 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitsplan/Iteration_Arbeitsplan.xlsx
+++ b/Arbeitsplan/Iteration_Arbeitsplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maikp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Koch\PSE_DELIVERABLES\Arbeitsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9D611E-C026-42AA-8457-A7551EEAFF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FE50DF-D81D-47E6-856F-ED295FA4919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="61">
   <si>
     <t>Zeitplan PSE eonum AG</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>Kategorien Body für neue Buttons und Routing</t>
+  </si>
+  <si>
+    <t>Mobiltaugliche Buttons</t>
+  </si>
+  <si>
+    <t>Mobilfriendly Design</t>
+  </si>
+  <si>
+    <t>Kommunikation</t>
+  </si>
+  <si>
+    <t>Kommentare verfassen</t>
   </si>
 </sst>
 </file>
@@ -725,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -862,6 +874,21 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,23 +901,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -919,6 +931,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -942,13 +960,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1116,13 +1134,13 @@
     <xdr:from>
       <xdr:col>75</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1174,13 +1192,13 @@
     <xdr:from>
       <xdr:col>89</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1232,13 +1250,13 @@
     <xdr:from>
       <xdr:col>101</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>101</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1586,16 +1604,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD384E66-6977-4A33-945E-14F730629694}">
-  <dimension ref="A1:CY135"/>
+  <dimension ref="A1:CY141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX89" sqref="AX89"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BQ98" sqref="BQ98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="6" max="102" width="5.7109375" style="48" customWidth="1"/>
@@ -2351,7 +2369,7 @@
       <c r="CY5" s="21"/>
     </row>
     <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="73" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2360,10 +2378,10 @@
       <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="75">
         <v>23.02</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="71">
         <v>16.03</v>
       </c>
       <c r="F6" s="60"/>
@@ -2472,15 +2490,15 @@
       <c r="CY6" s="21"/>
     </row>
     <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="73"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="60"/>
       <c r="G7" s="61"/>
       <c r="H7" s="61"/>
@@ -2587,7 +2605,7 @@
       <c r="CY7" s="21"/>
     </row>
     <row r="8" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="73" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2596,10 +2614,10 @@
       <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="75">
         <v>23.02</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="71">
         <v>16.03</v>
       </c>
       <c r="F8" s="31"/>
@@ -2704,15 +2722,15 @@
       <c r="CY8" s="21"/>
     </row>
     <row r="9" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="73"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="31"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -2930,7 +2948,7 @@
       <c r="CY10" s="21"/>
     </row>
     <row r="11" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="73" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2940,10 +2958,10 @@
         <f>SUM(F11:CX11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="75">
         <v>23.02</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="71">
         <v>16.03</v>
       </c>
       <c r="F11" s="31"/>
@@ -3048,7 +3066,7 @@
       <c r="CY11" s="21"/>
     </row>
     <row r="12" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
@@ -3056,8 +3074,8 @@
         <f>SUM(F12:CX12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -3160,7 +3178,7 @@
       <c r="CY12" s="21"/>
     </row>
     <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="73" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="57" t="s">
@@ -3170,10 +3188,10 @@
         <f>SUM(F13:CX13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="75">
         <v>23.02</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="71">
         <v>16.03</v>
       </c>
       <c r="F13" s="31"/>
@@ -3288,8 +3306,8 @@
         <f>SUM(F14:CX14)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="73"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -3512,7 +3530,7 @@
       <c r="CY15" s="21"/>
     </row>
     <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="73" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -3521,10 +3539,10 @@
       <c r="C16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="75">
         <v>23.02</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="71">
         <v>16.03</v>
       </c>
       <c r="F16" s="31"/>
@@ -3636,7 +3654,7 @@
       <c r="C17" s="64">
         <v>3</v>
       </c>
-      <c r="D17" s="74"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="86"/>
       <c r="F17" s="31"/>
       <c r="G17" s="32"/>
@@ -3749,7 +3767,7 @@
       <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="77">
         <v>23.02</v>
       </c>
       <c r="E18" s="86">
@@ -3859,15 +3877,15 @@
       <c r="CY18" s="21"/>
     </row>
     <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="73"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -4087,7 +4105,7 @@
       <c r="CY20" s="21"/>
     </row>
     <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4096,10 +4114,10 @@
       <c r="C21" s="54">
         <v>1</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="75">
         <v>23.02</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="71">
         <v>16.03</v>
       </c>
       <c r="F21" s="31"/>
@@ -4204,15 +4222,15 @@
       <c r="CY21" s="21"/>
     </row>
     <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="54">
         <v>1</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="73"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -4315,7 +4333,7 @@
       <c r="CY22" s="21"/>
     </row>
     <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="73" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4325,10 +4343,10 @@
         <f>SUM(F23:CX23)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="75">
         <v>23.02</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="71">
         <v>16.03</v>
       </c>
       <c r="F23" s="31"/>
@@ -4439,7 +4457,7 @@
       <c r="CY23" s="21"/>
     </row>
     <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="7" t="s">
         <v>8</v>
       </c>
@@ -4447,8 +4465,8 @@
         <f>SUM(F24:CX24)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="73"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -4664,7 +4682,7 @@
       <c r="CY25" s="21"/>
     </row>
     <row r="26" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="73" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4673,10 +4691,10 @@
       <c r="C26" s="9">
         <v>4.5</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="75">
         <v>23.02</v>
       </c>
-      <c r="E26" s="72">
+      <c r="E26" s="71">
         <v>16.03</v>
       </c>
       <c r="F26" s="31"/>
@@ -4787,15 +4805,15 @@
       <c r="CY26" s="21"/>
     </row>
     <row r="27" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="9">
         <v>4.5</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="73"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -4904,7 +4922,7 @@
       <c r="CY27" s="21"/>
     </row>
     <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="73" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4913,10 +4931,10 @@
       <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="75">
         <v>23.02</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="71">
         <v>16.03</v>
       </c>
       <c r="F28" s="31"/>
@@ -5023,15 +5041,15 @@
       <c r="CY28" s="21"/>
     </row>
     <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="73"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="31"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -5136,7 +5154,7 @@
       <c r="CY29" s="21"/>
     </row>
     <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -5145,10 +5163,10 @@
       <c r="C30" s="9">
         <v>4</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="75">
         <v>23.02</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="71">
         <v>16.03</v>
       </c>
       <c r="F30" s="31"/>
@@ -5257,15 +5275,15 @@
       <c r="CY30" s="21"/>
     </row>
     <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="9">
         <v>3</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="73"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="31"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -5377,10 +5395,10 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="76">
+      <c r="D32" s="69">
         <v>44636</v>
       </c>
-      <c r="E32" s="77"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="31"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -5711,7 +5729,7 @@
       <c r="CY34" s="21"/>
     </row>
     <row r="35" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -5720,10 +5738,10 @@
       <c r="C35" s="9">
         <v>3</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="77">
         <v>23.03</v>
       </c>
-      <c r="E35" s="75">
+      <c r="E35" s="68">
         <v>6.04</v>
       </c>
       <c r="F35" s="31"/>
@@ -5832,15 +5850,15 @@
       <c r="CY35" s="21"/>
     </row>
     <row r="36" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="9">
         <v>6</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -5947,7 +5965,7 @@
       <c r="CY36" s="21"/>
     </row>
     <row r="37" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="73" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5956,10 +5974,10 @@
       <c r="C37" s="9">
         <v>2</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="77">
         <v>23.03</v>
       </c>
-      <c r="E37" s="75">
+      <c r="E37" s="68">
         <v>6.04</v>
       </c>
       <c r="F37" s="31"/>
@@ -6064,15 +6082,15 @@
       <c r="CY37" s="21"/>
     </row>
     <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="9">
         <v>3</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -6175,7 +6193,7 @@
       <c r="CY38" s="21"/>
     </row>
     <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="73" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -6184,10 +6202,10 @@
       <c r="C39" s="9">
         <v>2</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="77">
         <v>23.03</v>
       </c>
-      <c r="E39" s="75">
+      <c r="E39" s="68">
         <v>6.04</v>
       </c>
       <c r="F39" s="31"/>
@@ -6294,15 +6312,15 @@
       <c r="CY39" s="21"/>
     </row>
     <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="9">
         <v>2</v>
       </c>
-      <c r="D40" s="74"/>
-      <c r="E40" s="75"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -6524,7 +6542,7 @@
       <c r="CY41" s="21"/>
     </row>
     <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="73" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -6534,10 +6552,10 @@
         <f t="shared" ref="C42:C49" si="0">SUM(F42:CX42)</f>
         <v>11</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="71">
         <v>6.04</v>
       </c>
       <c r="F42" s="31"/>
@@ -6658,7 +6676,7 @@
       <c r="CY42" s="11"/>
     </row>
     <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="7" t="s">
         <v>8</v>
       </c>
@@ -6666,8 +6684,8 @@
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="73"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="72"/>
       <c r="F43" s="31"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -6785,7 +6803,7 @@
       <c r="CY43" s="11"/>
     </row>
     <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="73" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -6795,10 +6813,10 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="72">
+      <c r="E44" s="71">
         <v>6.04</v>
       </c>
       <c r="F44" s="31"/>
@@ -6913,7 +6931,7 @@
       <c r="CY44" s="11"/>
     </row>
     <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="7" t="s">
         <v>8</v>
       </c>
@@ -6921,8 +6939,8 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="73"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="72"/>
       <c r="F45" s="31"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -7035,7 +7053,7 @@
       <c r="CY45" s="11"/>
     </row>
     <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="73" t="s">
         <v>41</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -7045,10 +7063,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="72">
+      <c r="E46" s="71">
         <v>6.04</v>
       </c>
       <c r="F46" s="31"/>
@@ -7153,7 +7171,7 @@
       <c r="CY46" s="11"/>
     </row>
     <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="7" t="s">
         <v>8</v>
       </c>
@@ -7161,8 +7179,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="73"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="31"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -7265,7 +7283,7 @@
       <c r="CY47" s="11"/>
     </row>
     <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="68" t="s">
+      <c r="A48" s="73" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -7275,10 +7293,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="72">
+      <c r="E48" s="71">
         <v>6.04</v>
       </c>
       <c r="F48" s="31"/>
@@ -7387,7 +7405,7 @@
       <c r="CY48" s="11"/>
     </row>
     <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="7" t="s">
         <v>8</v>
       </c>
@@ -7395,8 +7413,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="73"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="31"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -7620,7 +7638,7 @@
       <c r="CY50" s="11"/>
     </row>
     <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="73" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -7629,10 +7647,10 @@
       <c r="C51" s="9">
         <v>3</v>
       </c>
-      <c r="D51" s="70" t="s">
+      <c r="D51" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="72">
+      <c r="E51" s="71">
         <v>6.04</v>
       </c>
       <c r="F51" s="31"/>
@@ -7739,15 +7757,15 @@
       <c r="CY51" s="11"/>
     </row>
     <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="9">
         <v>3</v>
       </c>
-      <c r="D52" s="71"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="31"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -7852,7 +7870,7 @@
       <c r="CY52" s="11"/>
     </row>
     <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="68" t="s">
+      <c r="A53" s="73" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -7861,10 +7879,10 @@
       <c r="C53" s="9">
         <v>6</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="72">
+      <c r="E53" s="71">
         <v>6.04</v>
       </c>
       <c r="F53" s="31"/>
@@ -7976,15 +7994,15 @@
       <c r="CX53" s="33"/>
     </row>
     <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="9">
         <v>7</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="73"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="31"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -8095,7 +8113,7 @@
       <c r="CY54" s="11"/>
     </row>
     <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="73" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -8104,10 +8122,10 @@
       <c r="C55" s="9">
         <v>1</v>
       </c>
-      <c r="D55" s="70" t="s">
+      <c r="D55" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="72">
+      <c r="E55" s="71">
         <v>6.04</v>
       </c>
       <c r="F55" s="31"/>
@@ -8212,15 +8230,15 @@
       <c r="CY55" s="11"/>
     </row>
     <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="9">
         <v>1</v>
       </c>
-      <c r="D56" s="71"/>
-      <c r="E56" s="73"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="31"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -8448,10 +8466,10 @@
       <c r="C58" s="9">
         <v>4</v>
       </c>
-      <c r="D58" s="70" t="s">
+      <c r="D58" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="75">
+      <c r="E58" s="68">
         <v>6.04</v>
       </c>
       <c r="F58" s="31"/>
@@ -8569,8 +8587,8 @@
       <c r="C59" s="9">
         <v>10</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="75"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="68"/>
       <c r="F59" s="31"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -8688,10 +8706,10 @@
       <c r="C60" s="9">
         <v>2</v>
       </c>
-      <c r="D60" s="70" t="s">
+      <c r="D60" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="75">
+      <c r="E60" s="68">
         <v>6.04</v>
       </c>
       <c r="F60" s="31"/>
@@ -8805,8 +8823,8 @@
       <c r="C61" s="9">
         <v>2</v>
       </c>
-      <c r="D61" s="71"/>
-      <c r="E61" s="75"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="31"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
@@ -8920,10 +8938,10 @@
       <c r="C62" s="9">
         <v>2</v>
       </c>
-      <c r="D62" s="70" t="s">
+      <c r="D62" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="75">
+      <c r="E62" s="68">
         <v>6.04</v>
       </c>
       <c r="F62" s="31"/>
@@ -9037,8 +9055,8 @@
       <c r="C63" s="9">
         <v>2</v>
       </c>
-      <c r="D63" s="71"/>
-      <c r="E63" s="75"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
@@ -9143,7 +9161,7 @@
       <c r="CY63" s="21"/>
     </row>
     <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="68" t="s">
+      <c r="A64" s="73" t="s">
         <v>55</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -9152,10 +9170,10 @@
       <c r="C64" s="9">
         <v>4</v>
       </c>
-      <c r="D64" s="70" t="s">
+      <c r="D64" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="75">
+      <c r="E64" s="68">
         <v>6.04</v>
       </c>
       <c r="F64" s="31"/>
@@ -9266,15 +9284,15 @@
       <c r="CY64" s="21"/>
     </row>
     <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="69"/>
+      <c r="A65" s="74"/>
       <c r="B65" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="9">
         <v>4</v>
       </c>
-      <c r="D65" s="71"/>
-      <c r="E65" s="75"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="31"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
@@ -9500,7 +9518,7 @@
       <c r="CY66" s="21"/>
     </row>
     <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="68" t="s">
+      <c r="A67" s="73" t="s">
         <v>42</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -9509,10 +9527,10 @@
       <c r="C67" s="9">
         <v>4</v>
       </c>
-      <c r="D67" s="74">
+      <c r="D67" s="77">
         <v>23.03</v>
       </c>
-      <c r="E67" s="75">
+      <c r="E67" s="68">
         <v>6.04</v>
       </c>
       <c r="F67" s="31"/>
@@ -9621,15 +9639,15 @@
       <c r="CY67" s="21"/>
     </row>
     <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="69"/>
+      <c r="A68" s="74"/>
       <c r="B68" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="9">
         <v>5</v>
       </c>
-      <c r="D68" s="74"/>
-      <c r="E68" s="75"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="31"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
@@ -9736,7 +9754,7 @@
       <c r="CY68" s="21"/>
     </row>
     <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="68" t="s">
+      <c r="A69" s="73" t="s">
         <v>43</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -9745,10 +9763,10 @@
       <c r="C69" s="9">
         <v>2</v>
       </c>
-      <c r="D69" s="74">
+      <c r="D69" s="77">
         <v>23.03</v>
       </c>
-      <c r="E69" s="75">
+      <c r="E69" s="68">
         <v>6.04</v>
       </c>
       <c r="F69" s="31"/>
@@ -9853,15 +9871,15 @@
       <c r="CY69" s="21"/>
     </row>
     <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="69"/>
+      <c r="A70" s="74"/>
       <c r="B70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="9">
         <v>1</v>
       </c>
-      <c r="D70" s="74"/>
-      <c r="E70" s="75"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="68"/>
       <c r="F70" s="31"/>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
@@ -9964,7 +9982,7 @@
       <c r="CY70" s="21"/>
     </row>
     <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="73" t="s">
         <v>44</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -9973,10 +9991,10 @@
       <c r="C71" s="9">
         <v>2</v>
       </c>
-      <c r="D71" s="74">
+      <c r="D71" s="77">
         <v>23.03</v>
       </c>
-      <c r="E71" s="75">
+      <c r="E71" s="68">
         <v>6.04</v>
       </c>
       <c r="F71" s="31"/>
@@ -10081,15 +10099,15 @@
       <c r="CY71" s="21"/>
     </row>
     <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="69"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="9">
         <v>2</v>
       </c>
-      <c r="D72" s="74"/>
-      <c r="E72" s="75"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="68"/>
       <c r="F72" s="31"/>
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
@@ -10192,7 +10210,7 @@
       <c r="CY72" s="21"/>
     </row>
     <row r="73" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A73" s="68" t="s">
+      <c r="A73" s="73" t="s">
         <v>45</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -10201,10 +10219,10 @@
       <c r="C73" s="9">
         <v>3</v>
       </c>
-      <c r="D73" s="74">
+      <c r="D73" s="77">
         <v>23.03</v>
       </c>
-      <c r="E73" s="75">
+      <c r="E73" s="68">
         <v>6.04</v>
       </c>
       <c r="F73" s="31"/>
@@ -10309,15 +10327,15 @@
       <c r="CY73" s="21"/>
     </row>
     <row r="74" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A74" s="69"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="9">
         <v>3</v>
       </c>
-      <c r="D74" s="74"/>
-      <c r="E74" s="75"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="68"/>
       <c r="F74" s="31"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
@@ -10420,7 +10438,7 @@
       <c r="CY74" s="21"/>
     </row>
     <row r="75" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A75" s="68" t="s">
+      <c r="A75" s="73" t="s">
         <v>46</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -10429,10 +10447,10 @@
       <c r="C75" s="9">
         <v>1</v>
       </c>
-      <c r="D75" s="74">
+      <c r="D75" s="77">
         <v>23.03</v>
       </c>
-      <c r="E75" s="75">
+      <c r="E75" s="68">
         <v>6.04</v>
       </c>
       <c r="F75" s="31"/>
@@ -10535,15 +10553,15 @@
       <c r="CY75" s="21"/>
     </row>
     <row r="76" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A76" s="69"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="9">
         <v>3</v>
       </c>
-      <c r="D76" s="74"/>
-      <c r="E76" s="75"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="31"/>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
@@ -10651,10 +10669,10 @@
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="76">
+      <c r="D77" s="69">
         <v>44292</v>
       </c>
-      <c r="E77" s="77"/>
+      <c r="E77" s="70"/>
       <c r="F77" s="31"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -10987,17 +11005,17 @@
       <c r="CY79" s="21"/>
     </row>
     <row r="80" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A80" s="68"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="70">
+      <c r="D80" s="75">
         <v>6.04</v>
       </c>
-      <c r="E80" s="75">
+      <c r="E80" s="68">
         <v>4.05</v>
       </c>
       <c r="F80" s="31"/>
@@ -11100,15 +11118,15 @@
       <c r="CY80" s="21"/>
     </row>
     <row r="81" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A81" s="69"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="71"/>
-      <c r="E81" s="75"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="68"/>
       <c r="F81" s="31"/>
       <c r="G81" s="32"/>
       <c r="H81" s="32"/>
@@ -11324,17 +11342,17 @@
       <c r="CY82" s="21"/>
     </row>
     <row r="83" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="70">
+      <c r="D83" s="75">
         <v>6.04</v>
       </c>
-      <c r="E83" s="75">
+      <c r="E83" s="68">
         <v>4.05</v>
       </c>
       <c r="F83" s="31"/>
@@ -11437,15 +11455,15 @@
       <c r="CY83" s="21"/>
     </row>
     <row r="84" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A84" s="69"/>
+      <c r="A84" s="74"/>
       <c r="B84" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="71"/>
-      <c r="E84" s="75"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="68"/>
       <c r="F84" s="31"/>
       <c r="G84" s="32"/>
       <c r="H84" s="32"/>
@@ -11661,17 +11679,17 @@
       <c r="CY85" s="21"/>
     </row>
     <row r="86" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="70">
+      <c r="D86" s="75">
         <v>6.04</v>
       </c>
-      <c r="E86" s="75">
+      <c r="E86" s="68">
         <v>4.05</v>
       </c>
       <c r="F86" s="31"/>
@@ -11774,15 +11792,15 @@
       <c r="CY86" s="21"/>
     </row>
     <row r="87" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A87" s="69"/>
+      <c r="A87" s="74"/>
       <c r="B87" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="71"/>
-      <c r="E87" s="75"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="68"/>
       <c r="F87" s="31"/>
       <c r="G87" s="32"/>
       <c r="H87" s="32"/>
@@ -11998,7 +12016,7 @@
       <c r="CY88" s="21"/>
     </row>
     <row r="89" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A89" s="68" t="s">
+      <c r="A89" s="73" t="s">
         <v>56</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -12007,10 +12025,10 @@
       <c r="C89" s="9">
         <v>5</v>
       </c>
-      <c r="D89" s="70">
+      <c r="D89" s="75">
         <v>6.04</v>
       </c>
-      <c r="E89" s="75">
+      <c r="E89" s="68">
         <v>4.05</v>
       </c>
       <c r="F89" s="31"/>
@@ -12115,13 +12133,13 @@
       <c r="CY89" s="21"/>
     </row>
     <row r="90" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
+      <c r="A90" s="74"/>
       <c r="B90" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="9"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="75"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="68"/>
       <c r="F90" s="31"/>
       <c r="G90" s="32"/>
       <c r="H90" s="32"/>
@@ -12339,17 +12357,19 @@
       <c r="CY91" s="21"/>
     </row>
     <row r="92" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A92" s="68"/>
+      <c r="A92" s="73" t="s">
+        <v>58</v>
+      </c>
       <c r="B92" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="70">
+      <c r="C92" s="9">
+        <v>6</v>
+      </c>
+      <c r="D92" s="75">
         <v>6.04</v>
       </c>
-      <c r="E92" s="75">
+      <c r="E92" s="68">
         <v>4.05</v>
       </c>
       <c r="F92" s="31"/>
@@ -12412,7 +12432,9 @@
       <c r="BK92" s="32"/>
       <c r="BL92" s="32"/>
       <c r="BM92" s="32"/>
-      <c r="BN92" s="32"/>
+      <c r="BN92" s="55">
+        <v>6</v>
+      </c>
       <c r="BO92" s="32"/>
       <c r="BP92" s="32"/>
       <c r="BQ92" s="32"/>
@@ -12452,15 +12474,15 @@
       <c r="CY92" s="21"/>
     </row>
     <row r="93" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A93" s="69"/>
+      <c r="A93" s="74"/>
       <c r="B93" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="71"/>
-      <c r="E93" s="75"/>
+      <c r="C93" s="9">
+        <v>5</v>
+      </c>
+      <c r="D93" s="76"/>
+      <c r="E93" s="68"/>
       <c r="F93" s="31"/>
       <c r="G93" s="32"/>
       <c r="H93" s="32"/>
@@ -12521,7 +12543,9 @@
       <c r="BK93" s="32"/>
       <c r="BL93" s="32"/>
       <c r="BM93" s="32"/>
-      <c r="BN93" s="32"/>
+      <c r="BN93" s="53">
+        <v>5</v>
+      </c>
       <c r="BO93" s="32"/>
       <c r="BP93" s="32"/>
       <c r="BQ93" s="32"/>
@@ -12560,16 +12584,22 @@
       <c r="CX93" s="33"/>
       <c r="CY93" s="21"/>
     </row>
-    <row r="94" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="76">
-        <v>44320</v>
-      </c>
-      <c r="E94" s="77"/>
+    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="9">
+        <v>1</v>
+      </c>
+      <c r="D94" s="75">
+        <v>6.04</v>
+      </c>
+      <c r="E94" s="68">
+        <v>4.05</v>
+      </c>
       <c r="F94" s="31"/>
       <c r="G94" s="32"/>
       <c r="H94" s="32"/>
@@ -12620,7 +12650,9 @@
       <c r="BA94" s="32"/>
       <c r="BB94" s="32"/>
       <c r="BC94" s="32"/>
-      <c r="BD94" s="32"/>
+      <c r="BD94" s="55">
+        <v>1</v>
+      </c>
       <c r="BE94" s="32"/>
       <c r="BF94" s="32"/>
       <c r="BG94" s="32"/>
@@ -12669,250 +12701,245 @@
       <c r="CX94" s="33"/>
       <c r="CY94" s="21"/>
     </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="18" t="s">
+    <row r="95" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="74"/>
+      <c r="B95" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" s="44"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="45"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="45"/>
-      <c r="N95" s="45"/>
-      <c r="O95" s="45"/>
-      <c r="P95" s="45"/>
-      <c r="Q95" s="45"/>
-      <c r="R95" s="45"/>
-      <c r="S95" s="45"/>
-      <c r="T95" s="45"/>
-      <c r="U95" s="45"/>
-      <c r="V95" s="45"/>
-      <c r="W95" s="45"/>
-      <c r="X95" s="45"/>
-      <c r="Y95" s="45"/>
-      <c r="Z95" s="45"/>
-      <c r="AA95" s="45"/>
-      <c r="AB95" s="45"/>
-      <c r="AC95" s="45"/>
-      <c r="AD95" s="45"/>
-      <c r="AE95" s="45"/>
-      <c r="AF95" s="45"/>
-      <c r="AG95" s="45"/>
-      <c r="AH95" s="45"/>
-      <c r="AI95" s="45"/>
-      <c r="AJ95" s="45"/>
-      <c r="AK95" s="45"/>
-      <c r="AL95" s="45"/>
-      <c r="AM95" s="45"/>
-      <c r="AN95" s="45"/>
-      <c r="AO95" s="45"/>
-      <c r="AP95" s="45"/>
-      <c r="AQ95" s="45"/>
-      <c r="AR95" s="45"/>
-      <c r="AS95" s="45"/>
-      <c r="AT95" s="45"/>
-      <c r="AU95" s="45"/>
-      <c r="AV95" s="45"/>
-      <c r="AW95" s="45"/>
-      <c r="AX95" s="45"/>
-      <c r="AY95" s="45"/>
-      <c r="AZ95" s="45"/>
-      <c r="BA95" s="45"/>
-      <c r="BB95" s="45"/>
-      <c r="BC95" s="45"/>
-      <c r="BD95" s="45"/>
-      <c r="BE95" s="45"/>
-      <c r="BF95" s="45"/>
-      <c r="BG95" s="45"/>
-      <c r="BH95" s="45"/>
-      <c r="BI95" s="45"/>
-      <c r="BJ95" s="45"/>
-      <c r="BK95" s="45"/>
-      <c r="BL95" s="45"/>
-      <c r="BM95" s="45"/>
-      <c r="BN95" s="45"/>
-      <c r="BO95" s="45"/>
-      <c r="BP95" s="45"/>
-      <c r="BQ95" s="45"/>
-      <c r="BR95" s="45"/>
-      <c r="BS95" s="45"/>
-      <c r="BT95" s="45"/>
-      <c r="BU95" s="45"/>
-      <c r="BV95" s="45"/>
-      <c r="BW95" s="45"/>
-      <c r="BX95" s="45"/>
-      <c r="BY95" s="45"/>
-      <c r="BZ95" s="45"/>
-      <c r="CA95" s="45"/>
-      <c r="CB95" s="45"/>
-      <c r="CC95" s="45"/>
-      <c r="CD95" s="45"/>
-      <c r="CE95" s="45"/>
-      <c r="CF95" s="45"/>
-      <c r="CG95" s="45"/>
-      <c r="CH95" s="45"/>
-      <c r="CI95" s="45"/>
-      <c r="CJ95" s="45"/>
-      <c r="CK95" s="45"/>
-      <c r="CL95" s="45"/>
-      <c r="CM95" s="45"/>
-      <c r="CN95" s="45"/>
-      <c r="CO95" s="45"/>
-      <c r="CP95" s="45"/>
-      <c r="CQ95" s="45"/>
-      <c r="CR95" s="45"/>
-      <c r="CS95" s="45"/>
-      <c r="CT95" s="45"/>
-      <c r="CU95" s="45"/>
-      <c r="CV95" s="45"/>
-      <c r="CW95" s="45"/>
-      <c r="CX95" s="46"/>
+      <c r="C95" s="9">
+        <v>3</v>
+      </c>
+      <c r="D95" s="76"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="32"/>
+      <c r="T95" s="32"/>
+      <c r="U95" s="32"/>
+      <c r="V95" s="32"/>
+      <c r="W95" s="32"/>
+      <c r="X95" s="32"/>
+      <c r="Y95" s="32"/>
+      <c r="Z95" s="32"/>
+      <c r="AA95" s="32"/>
+      <c r="AB95" s="32"/>
+      <c r="AC95" s="32"/>
+      <c r="AD95" s="32"/>
+      <c r="AE95" s="32"/>
+      <c r="AF95" s="32"/>
+      <c r="AG95" s="32"/>
+      <c r="AH95" s="32"/>
+      <c r="AI95" s="32"/>
+      <c r="AJ95" s="32"/>
+      <c r="AK95" s="32"/>
+      <c r="AL95" s="32"/>
+      <c r="AM95" s="32"/>
+      <c r="AN95" s="32"/>
+      <c r="AO95" s="32"/>
+      <c r="AP95" s="32"/>
+      <c r="AQ95" s="32"/>
+      <c r="AR95" s="32"/>
+      <c r="AS95" s="32"/>
+      <c r="AT95" s="32"/>
+      <c r="AU95" s="32"/>
+      <c r="AV95" s="32"/>
+      <c r="AW95" s="32"/>
+      <c r="AX95" s="32"/>
+      <c r="AY95" s="32"/>
+      <c r="AZ95" s="32"/>
+      <c r="BA95" s="32"/>
+      <c r="BB95" s="32"/>
+      <c r="BC95" s="32"/>
+      <c r="BD95" s="53">
+        <v>3</v>
+      </c>
+      <c r="BE95" s="32"/>
+      <c r="BF95" s="32"/>
+      <c r="BG95" s="32"/>
+      <c r="BH95" s="32"/>
+      <c r="BI95" s="32"/>
+      <c r="BJ95" s="32"/>
+      <c r="BK95" s="32"/>
+      <c r="BL95" s="32"/>
+      <c r="BM95" s="32"/>
+      <c r="BN95" s="32"/>
+      <c r="BO95" s="32"/>
+      <c r="BP95" s="32"/>
+      <c r="BQ95" s="32"/>
+      <c r="BR95" s="32"/>
+      <c r="BS95" s="32"/>
+      <c r="BT95" s="32"/>
+      <c r="BU95" s="32"/>
+      <c r="BV95" s="32"/>
+      <c r="BW95" s="32"/>
+      <c r="BX95" s="32"/>
+      <c r="BY95" s="32"/>
+      <c r="BZ95" s="32"/>
+      <c r="CA95" s="32"/>
+      <c r="CB95" s="32"/>
+      <c r="CC95" s="32"/>
+      <c r="CD95" s="32"/>
+      <c r="CE95" s="32"/>
+      <c r="CF95" s="32"/>
+      <c r="CG95" s="32"/>
+      <c r="CH95" s="32"/>
+      <c r="CI95" s="32"/>
+      <c r="CJ95" s="32"/>
+      <c r="CK95" s="32"/>
+      <c r="CL95" s="32"/>
+      <c r="CM95" s="32"/>
+      <c r="CN95" s="32"/>
+      <c r="CO95" s="32"/>
+      <c r="CP95" s="32"/>
+      <c r="CQ95" s="32"/>
+      <c r="CR95" s="32"/>
+      <c r="CS95" s="32"/>
+      <c r="CT95" s="32"/>
+      <c r="CU95" s="32"/>
+      <c r="CV95" s="32"/>
+      <c r="CW95" s="32"/>
+      <c r="CX95" s="33"/>
       <c r="CY95" s="21"/>
     </row>
-    <row r="96" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="40"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
-      <c r="Q96" s="41"/>
-      <c r="R96" s="41"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
-      <c r="V96" s="41"/>
-      <c r="W96" s="41"/>
-      <c r="X96" s="41"/>
-      <c r="Y96" s="41"/>
-      <c r="Z96" s="41"/>
-      <c r="AA96" s="41"/>
-      <c r="AB96" s="41"/>
-      <c r="AC96" s="41"/>
-      <c r="AD96" s="41"/>
-      <c r="AE96" s="41"/>
-      <c r="AF96" s="41"/>
-      <c r="AG96" s="41"/>
-      <c r="AH96" s="41"/>
-      <c r="AI96" s="41"/>
-      <c r="AJ96" s="41"/>
-      <c r="AK96" s="41"/>
-      <c r="AL96" s="41"/>
-      <c r="AM96" s="41"/>
-      <c r="AN96" s="41"/>
-      <c r="AO96" s="41"/>
-      <c r="AP96" s="41"/>
-      <c r="AQ96" s="41"/>
-      <c r="AR96" s="41"/>
-      <c r="AS96" s="41"/>
-      <c r="AT96" s="41"/>
-      <c r="AU96" s="41"/>
-      <c r="AV96" s="41"/>
-      <c r="AW96" s="41"/>
-      <c r="AX96" s="41"/>
-      <c r="AY96" s="41"/>
-      <c r="AZ96" s="41"/>
-      <c r="BA96" s="41"/>
-      <c r="BB96" s="41"/>
-      <c r="BC96" s="41"/>
-      <c r="BD96" s="41"/>
-      <c r="BE96" s="41"/>
-      <c r="BF96" s="41"/>
-      <c r="BG96" s="41"/>
-      <c r="BH96" s="41"/>
-      <c r="BI96" s="41"/>
-      <c r="BJ96" s="41"/>
-      <c r="BK96" s="41"/>
-      <c r="BL96" s="41"/>
-      <c r="BM96" s="41"/>
-      <c r="BN96" s="41"/>
-      <c r="BO96" s="41"/>
-      <c r="BP96" s="41"/>
-      <c r="BQ96" s="41"/>
-      <c r="BR96" s="41"/>
-      <c r="BS96" s="41"/>
-      <c r="BT96" s="41"/>
-      <c r="BU96" s="41"/>
-      <c r="BV96" s="41"/>
-      <c r="BW96" s="41"/>
-      <c r="BX96" s="41"/>
-      <c r="BY96" s="41"/>
-      <c r="BZ96" s="41"/>
-      <c r="CA96" s="41"/>
-      <c r="CB96" s="41"/>
-      <c r="CC96" s="41"/>
-      <c r="CD96" s="41"/>
-      <c r="CE96" s="41"/>
-      <c r="CF96" s="41"/>
-      <c r="CG96" s="41"/>
-      <c r="CH96" s="41"/>
-      <c r="CI96" s="41"/>
-      <c r="CJ96" s="41"/>
-      <c r="CK96" s="41"/>
-      <c r="CL96" s="41"/>
-      <c r="CM96" s="41"/>
-      <c r="CN96" s="41"/>
-      <c r="CO96" s="41"/>
-      <c r="CP96" s="41"/>
-      <c r="CQ96" s="41"/>
-      <c r="CR96" s="41"/>
-      <c r="CS96" s="41"/>
-      <c r="CT96" s="41"/>
-      <c r="CU96" s="41"/>
-      <c r="CV96" s="41"/>
-      <c r="CW96" s="41"/>
-      <c r="CX96" s="42"/>
+    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="9">
+        <v>1</v>
+      </c>
+      <c r="D96" s="75">
+        <v>6.04</v>
+      </c>
+      <c r="E96" s="68">
+        <v>4.05</v>
+      </c>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="32"/>
+      <c r="P96" s="32"/>
+      <c r="Q96" s="32"/>
+      <c r="R96" s="32"/>
+      <c r="S96" s="32"/>
+      <c r="T96" s="32"/>
+      <c r="U96" s="32"/>
+      <c r="V96" s="32"/>
+      <c r="W96" s="32"/>
+      <c r="X96" s="32"/>
+      <c r="Y96" s="32"/>
+      <c r="Z96" s="32"/>
+      <c r="AA96" s="32"/>
+      <c r="AB96" s="32"/>
+      <c r="AC96" s="32"/>
+      <c r="AD96" s="32"/>
+      <c r="AE96" s="32"/>
+      <c r="AF96" s="32"/>
+      <c r="AG96" s="32"/>
+      <c r="AH96" s="32"/>
+      <c r="AI96" s="32"/>
+      <c r="AJ96" s="32"/>
+      <c r="AK96" s="32"/>
+      <c r="AL96" s="32"/>
+      <c r="AM96" s="32"/>
+      <c r="AN96" s="32"/>
+      <c r="AO96" s="32"/>
+      <c r="AP96" s="32"/>
+      <c r="AQ96" s="32"/>
+      <c r="AR96" s="32"/>
+      <c r="AS96" s="32"/>
+      <c r="AT96" s="32"/>
+      <c r="AU96" s="32"/>
+      <c r="AV96" s="32"/>
+      <c r="AW96" s="32"/>
+      <c r="AX96" s="32"/>
+      <c r="AY96" s="32"/>
+      <c r="AZ96" s="32"/>
+      <c r="BA96" s="32"/>
+      <c r="BB96" s="32"/>
+      <c r="BC96" s="32"/>
+      <c r="BE96" s="32"/>
+      <c r="BF96" s="32"/>
+      <c r="BG96" s="32"/>
+      <c r="BH96" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BI96" s="32"/>
+      <c r="BJ96" s="32"/>
+      <c r="BK96" s="32"/>
+      <c r="BL96" s="32"/>
+      <c r="BM96" s="32"/>
+      <c r="BN96" s="32"/>
+      <c r="BO96" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BP96" s="32"/>
+      <c r="BQ96" s="32"/>
+      <c r="BR96" s="32"/>
+      <c r="BS96" s="32"/>
+      <c r="BT96" s="32"/>
+      <c r="BU96" s="32"/>
+      <c r="BV96" s="32"/>
+      <c r="BW96" s="32"/>
+      <c r="BX96" s="32"/>
+      <c r="BY96" s="32"/>
+      <c r="BZ96" s="32"/>
+      <c r="CA96" s="32"/>
+      <c r="CB96" s="32"/>
+      <c r="CC96" s="32"/>
+      <c r="CD96" s="32"/>
+      <c r="CE96" s="32"/>
+      <c r="CF96" s="32"/>
+      <c r="CG96" s="32"/>
+      <c r="CH96" s="32"/>
+      <c r="CI96" s="32"/>
+      <c r="CJ96" s="32"/>
+      <c r="CK96" s="32"/>
+      <c r="CL96" s="32"/>
+      <c r="CM96" s="32"/>
+      <c r="CN96" s="32"/>
+      <c r="CO96" s="32"/>
+      <c r="CP96" s="32"/>
+      <c r="CQ96" s="32"/>
+      <c r="CR96" s="32"/>
+      <c r="CS96" s="32"/>
+      <c r="CT96" s="32"/>
+      <c r="CU96" s="32"/>
+      <c r="CV96" s="32"/>
+      <c r="CW96" s="32"/>
+      <c r="CX96" s="33"/>
       <c r="CY96" s="21"/>
     </row>
-    <row r="97" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A97" s="68"/>
+    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="74"/>
       <c r="B97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="74">
-        <v>4.05</v>
-      </c>
-      <c r="E97" s="75">
-        <v>18.04</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C97" s="9">
+        <v>1</v>
+      </c>
+      <c r="D97" s="76"/>
+      <c r="E97" s="68"/>
       <c r="F97" s="31"/>
       <c r="G97" s="32"/>
       <c r="H97" s="32"/>
@@ -12967,14 +12994,18 @@
       <c r="BE97" s="32"/>
       <c r="BF97" s="32"/>
       <c r="BG97" s="32"/>
-      <c r="BH97" s="32"/>
+      <c r="BH97" s="53">
+        <v>0.5</v>
+      </c>
       <c r="BI97" s="32"/>
       <c r="BJ97" s="32"/>
       <c r="BK97" s="32"/>
       <c r="BL97" s="32"/>
       <c r="BM97" s="32"/>
       <c r="BN97" s="32"/>
-      <c r="BO97" s="32"/>
+      <c r="BO97" s="53">
+        <v>0.5</v>
+      </c>
       <c r="BP97" s="32"/>
       <c r="BQ97" s="32"/>
       <c r="BR97" s="32"/>
@@ -13012,16 +13043,22 @@
       <c r="CX97" s="33"/>
       <c r="CY97" s="21"/>
     </row>
-    <row r="98" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A98" s="69"/>
+    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="73" t="s">
+        <v>60</v>
+      </c>
       <c r="B98" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="74"/>
-      <c r="E98" s="75"/>
+        <v>6</v>
+      </c>
+      <c r="C98" s="9">
+        <v>2</v>
+      </c>
+      <c r="D98" s="75">
+        <v>6.04</v>
+      </c>
+      <c r="E98" s="68">
+        <v>4.05</v>
+      </c>
       <c r="F98" s="31"/>
       <c r="G98" s="32"/>
       <c r="H98" s="32"/>
@@ -13121,135 +13158,127 @@
       <c r="CX98" s="33"/>
       <c r="CY98" s="21"/>
     </row>
-    <row r="99" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="19" t="s">
+    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="74"/>
+      <c r="B99" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="40"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="41"/>
-      <c r="S99" s="41"/>
-      <c r="T99" s="41"/>
-      <c r="U99" s="41"/>
-      <c r="V99" s="41"/>
-      <c r="W99" s="41"/>
-      <c r="X99" s="41"/>
-      <c r="Y99" s="41"/>
-      <c r="Z99" s="41"/>
-      <c r="AA99" s="41"/>
-      <c r="AB99" s="41"/>
-      <c r="AC99" s="41"/>
-      <c r="AD99" s="41"/>
-      <c r="AE99" s="41"/>
-      <c r="AF99" s="41"/>
-      <c r="AG99" s="41"/>
-      <c r="AH99" s="41"/>
-      <c r="AI99" s="41"/>
-      <c r="AJ99" s="41"/>
-      <c r="AK99" s="41"/>
-      <c r="AL99" s="41"/>
-      <c r="AM99" s="41"/>
-      <c r="AN99" s="41"/>
-      <c r="AO99" s="41"/>
-      <c r="AP99" s="41"/>
-      <c r="AQ99" s="41"/>
-      <c r="AR99" s="41"/>
-      <c r="AS99" s="41"/>
-      <c r="AT99" s="41"/>
-      <c r="AU99" s="41"/>
-      <c r="AV99" s="41"/>
-      <c r="AW99" s="41"/>
-      <c r="AX99" s="41"/>
-      <c r="AY99" s="41"/>
-      <c r="AZ99" s="41"/>
-      <c r="BA99" s="41"/>
-      <c r="BB99" s="41"/>
-      <c r="BC99" s="41"/>
-      <c r="BD99" s="41"/>
-      <c r="BE99" s="41"/>
-      <c r="BF99" s="41"/>
-      <c r="BG99" s="41"/>
-      <c r="BH99" s="41"/>
-      <c r="BI99" s="41"/>
-      <c r="BJ99" s="41"/>
-      <c r="BK99" s="41"/>
-      <c r="BL99" s="41"/>
-      <c r="BM99" s="41"/>
-      <c r="BN99" s="41"/>
-      <c r="BO99" s="41"/>
-      <c r="BP99" s="41"/>
-      <c r="BQ99" s="41"/>
-      <c r="BR99" s="41"/>
-      <c r="BS99" s="41"/>
-      <c r="BT99" s="41"/>
-      <c r="BU99" s="41"/>
-      <c r="BV99" s="41"/>
-      <c r="BW99" s="41"/>
-      <c r="BX99" s="41"/>
-      <c r="BY99" s="41"/>
-      <c r="BZ99" s="41"/>
-      <c r="CA99" s="41"/>
-      <c r="CB99" s="41"/>
-      <c r="CC99" s="41"/>
-      <c r="CD99" s="41"/>
-      <c r="CE99" s="41"/>
-      <c r="CF99" s="41"/>
-      <c r="CG99" s="41"/>
-      <c r="CH99" s="41"/>
-      <c r="CI99" s="41"/>
-      <c r="CJ99" s="41"/>
-      <c r="CK99" s="41"/>
-      <c r="CL99" s="41"/>
-      <c r="CM99" s="41"/>
-      <c r="CN99" s="41"/>
-      <c r="CO99" s="41"/>
-      <c r="CP99" s="41"/>
-      <c r="CQ99" s="41"/>
-      <c r="CR99" s="41"/>
-      <c r="CS99" s="41"/>
-      <c r="CT99" s="41"/>
-      <c r="CU99" s="41"/>
-      <c r="CV99" s="41"/>
-      <c r="CW99" s="41"/>
-      <c r="CX99" s="42"/>
+      <c r="C99" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D99" s="76"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="32"/>
+      <c r="O99" s="32"/>
+      <c r="P99" s="32"/>
+      <c r="Q99" s="32"/>
+      <c r="R99" s="32"/>
+      <c r="S99" s="32"/>
+      <c r="T99" s="32"/>
+      <c r="U99" s="32"/>
+      <c r="V99" s="32"/>
+      <c r="W99" s="32"/>
+      <c r="X99" s="32"/>
+      <c r="Y99" s="32"/>
+      <c r="Z99" s="32"/>
+      <c r="AA99" s="32"/>
+      <c r="AB99" s="32"/>
+      <c r="AC99" s="32"/>
+      <c r="AD99" s="32"/>
+      <c r="AE99" s="32"/>
+      <c r="AF99" s="32"/>
+      <c r="AG99" s="32"/>
+      <c r="AH99" s="32"/>
+      <c r="AI99" s="32"/>
+      <c r="AJ99" s="32"/>
+      <c r="AK99" s="32"/>
+      <c r="AL99" s="32"/>
+      <c r="AM99" s="32"/>
+      <c r="AN99" s="32"/>
+      <c r="AO99" s="32"/>
+      <c r="AP99" s="32"/>
+      <c r="AQ99" s="32"/>
+      <c r="AR99" s="32"/>
+      <c r="AS99" s="32"/>
+      <c r="AT99" s="32"/>
+      <c r="AU99" s="32"/>
+      <c r="AV99" s="32"/>
+      <c r="AW99" s="32"/>
+      <c r="AX99" s="32"/>
+      <c r="AY99" s="32"/>
+      <c r="AZ99" s="32"/>
+      <c r="BA99" s="32"/>
+      <c r="BB99" s="32"/>
+      <c r="BC99" s="32"/>
+      <c r="BD99" s="32"/>
+      <c r="BE99" s="32"/>
+      <c r="BF99" s="32"/>
+      <c r="BG99" s="32"/>
+      <c r="BH99" s="32"/>
+      <c r="BI99" s="32"/>
+      <c r="BJ99" s="32"/>
+      <c r="BK99" s="32"/>
+      <c r="BL99" s="55">
+        <v>2</v>
+      </c>
+      <c r="BM99" s="32"/>
+      <c r="BN99" s="32"/>
+      <c r="BO99" s="32"/>
+      <c r="BP99" s="32"/>
+      <c r="BQ99" s="32"/>
+      <c r="BR99" s="32"/>
+      <c r="BS99" s="32"/>
+      <c r="BT99" s="32"/>
+      <c r="BU99" s="32"/>
+      <c r="BV99" s="32"/>
+      <c r="BW99" s="32"/>
+      <c r="BX99" s="32"/>
+      <c r="BY99" s="32"/>
+      <c r="BZ99" s="32"/>
+      <c r="CA99" s="32"/>
+      <c r="CB99" s="32"/>
+      <c r="CC99" s="32"/>
+      <c r="CD99" s="32"/>
+      <c r="CE99" s="32"/>
+      <c r="CF99" s="32"/>
+      <c r="CG99" s="32"/>
+      <c r="CH99" s="32"/>
+      <c r="CI99" s="32"/>
+      <c r="CJ99" s="32"/>
+      <c r="CK99" s="32"/>
+      <c r="CL99" s="32"/>
+      <c r="CM99" s="32"/>
+      <c r="CN99" s="32"/>
+      <c r="CO99" s="32"/>
+      <c r="CP99" s="32"/>
+      <c r="CQ99" s="32"/>
+      <c r="CR99" s="32"/>
+      <c r="CS99" s="32"/>
+      <c r="CT99" s="32"/>
+      <c r="CU99" s="32"/>
+      <c r="CV99" s="32"/>
+      <c r="CW99" s="32"/>
+      <c r="CX99" s="33"/>
       <c r="CY99" s="21"/>
     </row>
-    <row r="100" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A100" s="68"/>
-      <c r="B100" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="74">
-        <v>4.05</v>
-      </c>
-      <c r="E100" s="75">
-        <v>18.04</v>
-      </c>
+    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="87">
+        <v>44320</v>
+      </c>
+      <c r="E100" s="88"/>
       <c r="F100" s="31"/>
       <c r="G100" s="32"/>
       <c r="H100" s="32"/>
@@ -13300,7 +13329,6 @@
       <c r="BA100" s="32"/>
       <c r="BB100" s="32"/>
       <c r="BC100" s="32"/>
-      <c r="BD100" s="32"/>
       <c r="BE100" s="32"/>
       <c r="BF100" s="32"/>
       <c r="BG100" s="32"/>
@@ -13308,7 +13336,9 @@
       <c r="BI100" s="32"/>
       <c r="BJ100" s="32"/>
       <c r="BK100" s="32"/>
-      <c r="BL100" s="32"/>
+      <c r="BL100" s="53">
+        <v>2.5</v>
+      </c>
       <c r="BM100" s="32"/>
       <c r="BN100" s="32"/>
       <c r="BO100" s="32"/>
@@ -13349,118 +13379,124 @@
       <c r="CX100" s="33"/>
       <c r="CY100" s="21"/>
     </row>
-    <row r="101" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A101" s="69"/>
-      <c r="B101" s="7" t="s">
+    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="74"/>
-      <c r="E101" s="75"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="32"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="32"/>
-      <c r="P101" s="32"/>
-      <c r="Q101" s="32"/>
-      <c r="R101" s="32"/>
-      <c r="S101" s="32"/>
-      <c r="T101" s="32"/>
-      <c r="U101" s="32"/>
-      <c r="V101" s="32"/>
-      <c r="W101" s="32"/>
-      <c r="X101" s="32"/>
-      <c r="Y101" s="32"/>
-      <c r="Z101" s="32"/>
-      <c r="AA101" s="32"/>
-      <c r="AB101" s="32"/>
-      <c r="AC101" s="32"/>
-      <c r="AD101" s="32"/>
-      <c r="AE101" s="32"/>
-      <c r="AF101" s="32"/>
-      <c r="AG101" s="32"/>
-      <c r="AH101" s="32"/>
-      <c r="AI101" s="32"/>
-      <c r="AJ101" s="32"/>
-      <c r="AK101" s="32"/>
-      <c r="AL101" s="32"/>
-      <c r="AM101" s="32"/>
-      <c r="AN101" s="32"/>
-      <c r="AO101" s="32"/>
-      <c r="AP101" s="32"/>
-      <c r="AQ101" s="32"/>
-      <c r="AR101" s="32"/>
-      <c r="AS101" s="32"/>
-      <c r="AT101" s="32"/>
-      <c r="AU101" s="32"/>
-      <c r="AV101" s="32"/>
-      <c r="AW101" s="32"/>
-      <c r="AX101" s="32"/>
-      <c r="AY101" s="32"/>
-      <c r="AZ101" s="32"/>
-      <c r="BA101" s="32"/>
-      <c r="BB101" s="32"/>
-      <c r="BC101" s="32"/>
-      <c r="BD101" s="32"/>
-      <c r="BE101" s="32"/>
-      <c r="BF101" s="32"/>
-      <c r="BG101" s="32"/>
-      <c r="BH101" s="32"/>
-      <c r="BI101" s="32"/>
-      <c r="BJ101" s="32"/>
-      <c r="BK101" s="32"/>
-      <c r="BL101" s="32"/>
-      <c r="BM101" s="32"/>
-      <c r="BN101" s="32"/>
-      <c r="BO101" s="32"/>
-      <c r="BP101" s="32"/>
-      <c r="BQ101" s="32"/>
-      <c r="BR101" s="32"/>
-      <c r="BS101" s="32"/>
-      <c r="BT101" s="32"/>
-      <c r="BU101" s="32"/>
-      <c r="BV101" s="32"/>
-      <c r="BW101" s="32"/>
-      <c r="BX101" s="32"/>
-      <c r="BY101" s="32"/>
-      <c r="BZ101" s="32"/>
-      <c r="CA101" s="32"/>
-      <c r="CB101" s="32"/>
-      <c r="CC101" s="32"/>
-      <c r="CD101" s="32"/>
-      <c r="CE101" s="32"/>
-      <c r="CF101" s="32"/>
-      <c r="CG101" s="32"/>
-      <c r="CH101" s="32"/>
-      <c r="CI101" s="32"/>
-      <c r="CJ101" s="32"/>
-      <c r="CK101" s="32"/>
-      <c r="CL101" s="32"/>
-      <c r="CM101" s="32"/>
-      <c r="CN101" s="32"/>
-      <c r="CO101" s="32"/>
-      <c r="CP101" s="32"/>
-      <c r="CQ101" s="32"/>
-      <c r="CR101" s="32"/>
-      <c r="CS101" s="32"/>
-      <c r="CT101" s="32"/>
-      <c r="CU101" s="32"/>
-      <c r="CV101" s="32"/>
-      <c r="CW101" s="32"/>
-      <c r="CX101" s="33"/>
+      <c r="E101" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="44"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="45"/>
+      <c r="N101" s="45"/>
+      <c r="O101" s="45"/>
+      <c r="P101" s="45"/>
+      <c r="Q101" s="45"/>
+      <c r="R101" s="45"/>
+      <c r="S101" s="45"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="45"/>
+      <c r="V101" s="45"/>
+      <c r="W101" s="45"/>
+      <c r="X101" s="45"/>
+      <c r="Y101" s="45"/>
+      <c r="Z101" s="45"/>
+      <c r="AA101" s="45"/>
+      <c r="AB101" s="45"/>
+      <c r="AC101" s="45"/>
+      <c r="AD101" s="45"/>
+      <c r="AE101" s="45"/>
+      <c r="AF101" s="45"/>
+      <c r="AG101" s="45"/>
+      <c r="AH101" s="45"/>
+      <c r="AI101" s="45"/>
+      <c r="AJ101" s="45"/>
+      <c r="AK101" s="45"/>
+      <c r="AL101" s="45"/>
+      <c r="AM101" s="45"/>
+      <c r="AN101" s="45"/>
+      <c r="AO101" s="45"/>
+      <c r="AP101" s="45"/>
+      <c r="AQ101" s="45"/>
+      <c r="AR101" s="45"/>
+      <c r="AS101" s="45"/>
+      <c r="AT101" s="45"/>
+      <c r="AU101" s="45"/>
+      <c r="AV101" s="45"/>
+      <c r="AW101" s="45"/>
+      <c r="AX101" s="45"/>
+      <c r="AY101" s="45"/>
+      <c r="AZ101" s="45"/>
+      <c r="BA101" s="45"/>
+      <c r="BB101" s="45"/>
+      <c r="BC101" s="45"/>
+      <c r="BD101" s="45"/>
+      <c r="BE101" s="45"/>
+      <c r="BF101" s="45"/>
+      <c r="BG101" s="45"/>
+      <c r="BH101" s="45"/>
+      <c r="BI101" s="45"/>
+      <c r="BJ101" s="45"/>
+      <c r="BK101" s="45"/>
+      <c r="BL101" s="45"/>
+      <c r="BM101" s="45"/>
+      <c r="BN101" s="45"/>
+      <c r="BO101" s="45"/>
+      <c r="BP101" s="45"/>
+      <c r="BQ101" s="45"/>
+      <c r="BR101" s="45"/>
+      <c r="BS101" s="45"/>
+      <c r="BT101" s="45"/>
+      <c r="BU101" s="45"/>
+      <c r="BV101" s="45"/>
+      <c r="BW101" s="45"/>
+      <c r="BX101" s="45"/>
+      <c r="BY101" s="45"/>
+      <c r="BZ101" s="45"/>
+      <c r="CA101" s="45"/>
+      <c r="CB101" s="45"/>
+      <c r="CC101" s="45"/>
+      <c r="CD101" s="45"/>
+      <c r="CE101" s="45"/>
+      <c r="CF101" s="45"/>
+      <c r="CG101" s="45"/>
+      <c r="CH101" s="45"/>
+      <c r="CI101" s="45"/>
+      <c r="CJ101" s="45"/>
+      <c r="CK101" s="45"/>
+      <c r="CL101" s="45"/>
+      <c r="CM101" s="45"/>
+      <c r="CN101" s="45"/>
+      <c r="CO101" s="45"/>
+      <c r="CP101" s="45"/>
+      <c r="CQ101" s="45"/>
+      <c r="CR101" s="45"/>
+      <c r="CS101" s="45"/>
+      <c r="CT101" s="45"/>
+      <c r="CU101" s="45"/>
+      <c r="CV101" s="45"/>
+      <c r="CW101" s="45"/>
+      <c r="CX101" s="46"/>
       <c r="CY101" s="21"/>
     </row>
     <row r="102" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>9</v>
@@ -13574,17 +13610,17 @@
       <c r="CY102" s="21"/>
     </row>
     <row r="103" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A103" s="68"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="74">
+      <c r="D103" s="77">
         <v>4.05</v>
       </c>
-      <c r="E103" s="75">
+      <c r="E103" s="68">
         <v>18.04</v>
       </c>
       <c r="F103" s="31"/>
@@ -13687,15 +13723,15 @@
       <c r="CY103" s="21"/>
     </row>
     <row r="104" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A104" s="69"/>
+      <c r="A104" s="74"/>
       <c r="B104" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="74"/>
-      <c r="E104" s="75"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="68"/>
       <c r="F104" s="31"/>
       <c r="G104" s="32"/>
       <c r="H104" s="32"/>
@@ -13797,7 +13833,7 @@
     </row>
     <row r="105" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>9</v>
@@ -13911,17 +13947,17 @@
       <c r="CY105" s="21"/>
     </row>
     <row r="106" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A106" s="68"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="74">
+      <c r="D106" s="77">
         <v>4.05</v>
       </c>
-      <c r="E106" s="75">
+      <c r="E106" s="68">
         <v>18.04</v>
       </c>
       <c r="F106" s="31"/>
@@ -14024,15 +14060,15 @@
       <c r="CY106" s="21"/>
     </row>
     <row r="107" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A107" s="69"/>
+      <c r="A107" s="74"/>
       <c r="B107" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="74"/>
-      <c r="E107" s="75"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="68"/>
       <c r="F107" s="31"/>
       <c r="G107" s="32"/>
       <c r="H107" s="32"/>
@@ -14134,7 +14170,7 @@
     </row>
     <row r="108" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>9</v>
@@ -14248,17 +14284,17 @@
       <c r="CY108" s="21"/>
     </row>
     <row r="109" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A109" s="68"/>
+      <c r="A109" s="73"/>
       <c r="B109" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="74">
+      <c r="D109" s="77">
         <v>4.05</v>
       </c>
-      <c r="E109" s="75">
+      <c r="E109" s="68">
         <v>18.04</v>
       </c>
       <c r="F109" s="31"/>
@@ -14361,15 +14397,15 @@
       <c r="CY109" s="21"/>
     </row>
     <row r="110" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A110" s="69"/>
+      <c r="A110" s="74"/>
       <c r="B110" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="74"/>
-      <c r="E110" s="75"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="68"/>
       <c r="F110" s="31"/>
       <c r="G110" s="32"/>
       <c r="H110" s="32"/>
@@ -14470,467 +14506,471 @@
       <c r="CY110" s="21"/>
     </row>
     <row r="111" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="76">
-        <v>44334</v>
-      </c>
-      <c r="E111" s="77"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="32"/>
-      <c r="J111" s="32"/>
-      <c r="K111" s="32"/>
-      <c r="L111" s="32"/>
-      <c r="M111" s="32"/>
-      <c r="N111" s="32"/>
-      <c r="O111" s="32"/>
-      <c r="P111" s="32"/>
-      <c r="Q111" s="32"/>
-      <c r="R111" s="32"/>
-      <c r="S111" s="32"/>
-      <c r="T111" s="32"/>
-      <c r="U111" s="32"/>
-      <c r="V111" s="32"/>
-      <c r="W111" s="32"/>
-      <c r="X111" s="32"/>
-      <c r="Y111" s="32"/>
-      <c r="Z111" s="32"/>
-      <c r="AA111" s="32"/>
-      <c r="AB111" s="32"/>
-      <c r="AC111" s="32"/>
-      <c r="AD111" s="32"/>
-      <c r="AE111" s="32"/>
-      <c r="AF111" s="32"/>
-      <c r="AG111" s="32"/>
-      <c r="AH111" s="32"/>
-      <c r="AI111" s="32"/>
-      <c r="AJ111" s="32"/>
-      <c r="AK111" s="32"/>
-      <c r="AL111" s="32"/>
-      <c r="AM111" s="32"/>
-      <c r="AN111" s="32"/>
-      <c r="AO111" s="32"/>
-      <c r="AP111" s="32"/>
-      <c r="AQ111" s="32"/>
-      <c r="AR111" s="32"/>
-      <c r="AS111" s="32"/>
-      <c r="AT111" s="32"/>
-      <c r="AU111" s="32"/>
-      <c r="AV111" s="32"/>
-      <c r="AW111" s="32"/>
-      <c r="AX111" s="32"/>
-      <c r="AY111" s="32"/>
-      <c r="AZ111" s="32"/>
-      <c r="BA111" s="32"/>
-      <c r="BB111" s="32"/>
-      <c r="BC111" s="32"/>
-      <c r="BD111" s="32"/>
-      <c r="BE111" s="32"/>
-      <c r="BF111" s="32"/>
-      <c r="BG111" s="32"/>
-      <c r="BH111" s="32"/>
-      <c r="BI111" s="32"/>
-      <c r="BJ111" s="32"/>
-      <c r="BK111" s="32"/>
-      <c r="BL111" s="32"/>
-      <c r="BM111" s="32"/>
-      <c r="BN111" s="32"/>
-      <c r="BO111" s="32"/>
-      <c r="BP111" s="32"/>
-      <c r="BQ111" s="32"/>
-      <c r="BR111" s="32"/>
-      <c r="BS111" s="32"/>
-      <c r="BT111" s="32"/>
-      <c r="BU111" s="32"/>
-      <c r="BV111" s="32"/>
-      <c r="BW111" s="32"/>
-      <c r="BX111" s="32"/>
-      <c r="BY111" s="32"/>
-      <c r="BZ111" s="32"/>
-      <c r="CA111" s="32"/>
-      <c r="CB111" s="32"/>
-      <c r="CC111" s="32"/>
-      <c r="CD111" s="32"/>
-      <c r="CE111" s="32"/>
-      <c r="CF111" s="32"/>
-      <c r="CG111" s="32"/>
-      <c r="CH111" s="32"/>
-      <c r="CI111" s="32"/>
-      <c r="CJ111" s="32"/>
-      <c r="CK111" s="32"/>
-      <c r="CL111" s="32"/>
-      <c r="CM111" s="32"/>
-      <c r="CN111" s="32"/>
-      <c r="CO111" s="32"/>
-      <c r="CP111" s="32"/>
-      <c r="CQ111" s="32"/>
-      <c r="CR111" s="32"/>
-      <c r="CS111" s="32"/>
-      <c r="CT111" s="32"/>
-      <c r="CU111" s="32"/>
-      <c r="CV111" s="32"/>
-      <c r="CW111" s="32"/>
-      <c r="CX111" s="33"/>
+      <c r="A111" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="40"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="41"/>
+      <c r="S111" s="41"/>
+      <c r="T111" s="41"/>
+      <c r="U111" s="41"/>
+      <c r="V111" s="41"/>
+      <c r="W111" s="41"/>
+      <c r="X111" s="41"/>
+      <c r="Y111" s="41"/>
+      <c r="Z111" s="41"/>
+      <c r="AA111" s="41"/>
+      <c r="AB111" s="41"/>
+      <c r="AC111" s="41"/>
+      <c r="AD111" s="41"/>
+      <c r="AE111" s="41"/>
+      <c r="AF111" s="41"/>
+      <c r="AG111" s="41"/>
+      <c r="AH111" s="41"/>
+      <c r="AI111" s="41"/>
+      <c r="AJ111" s="41"/>
+      <c r="AK111" s="41"/>
+      <c r="AL111" s="41"/>
+      <c r="AM111" s="41"/>
+      <c r="AN111" s="41"/>
+      <c r="AO111" s="41"/>
+      <c r="AP111" s="41"/>
+      <c r="AQ111" s="41"/>
+      <c r="AR111" s="41"/>
+      <c r="AS111" s="41"/>
+      <c r="AT111" s="41"/>
+      <c r="AU111" s="41"/>
+      <c r="AV111" s="41"/>
+      <c r="AW111" s="41"/>
+      <c r="AX111" s="41"/>
+      <c r="AY111" s="41"/>
+      <c r="AZ111" s="41"/>
+      <c r="BA111" s="41"/>
+      <c r="BB111" s="41"/>
+      <c r="BC111" s="41"/>
+      <c r="BD111" s="41"/>
+      <c r="BE111" s="41"/>
+      <c r="BF111" s="41"/>
+      <c r="BG111" s="41"/>
+      <c r="BH111" s="41"/>
+      <c r="BI111" s="41"/>
+      <c r="BJ111" s="41"/>
+      <c r="BK111" s="41"/>
+      <c r="BL111" s="41"/>
+      <c r="BM111" s="41"/>
+      <c r="BN111" s="41"/>
+      <c r="BO111" s="41"/>
+      <c r="BP111" s="41"/>
+      <c r="BQ111" s="41"/>
+      <c r="BR111" s="41"/>
+      <c r="BS111" s="41"/>
+      <c r="BT111" s="41"/>
+      <c r="BU111" s="41"/>
+      <c r="BV111" s="41"/>
+      <c r="BW111" s="41"/>
+      <c r="BX111" s="41"/>
+      <c r="BY111" s="41"/>
+      <c r="BZ111" s="41"/>
+      <c r="CA111" s="41"/>
+      <c r="CB111" s="41"/>
+      <c r="CC111" s="41"/>
+      <c r="CD111" s="41"/>
+      <c r="CE111" s="41"/>
+      <c r="CF111" s="41"/>
+      <c r="CG111" s="41"/>
+      <c r="CH111" s="41"/>
+      <c r="CI111" s="41"/>
+      <c r="CJ111" s="41"/>
+      <c r="CK111" s="41"/>
+      <c r="CL111" s="41"/>
+      <c r="CM111" s="41"/>
+      <c r="CN111" s="41"/>
+      <c r="CO111" s="41"/>
+      <c r="CP111" s="41"/>
+      <c r="CQ111" s="41"/>
+      <c r="CR111" s="41"/>
+      <c r="CS111" s="41"/>
+      <c r="CT111" s="41"/>
+      <c r="CU111" s="41"/>
+      <c r="CV111" s="41"/>
+      <c r="CW111" s="41"/>
+      <c r="CX111" s="42"/>
       <c r="CY111" s="21"/>
     </row>
     <row r="112" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="73"/>
+      <c r="B112" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="44"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="45"/>
-      <c r="J112" s="45"/>
-      <c r="K112" s="45"/>
-      <c r="L112" s="45"/>
-      <c r="M112" s="45"/>
-      <c r="N112" s="45"/>
-      <c r="O112" s="45"/>
-      <c r="P112" s="45"/>
-      <c r="Q112" s="45"/>
-      <c r="R112" s="45"/>
-      <c r="S112" s="45"/>
-      <c r="T112" s="45"/>
-      <c r="U112" s="45"/>
-      <c r="V112" s="45"/>
-      <c r="W112" s="45"/>
-      <c r="X112" s="45"/>
-      <c r="Y112" s="45"/>
-      <c r="Z112" s="45"/>
-      <c r="AA112" s="45"/>
-      <c r="AB112" s="45"/>
-      <c r="AC112" s="45"/>
-      <c r="AD112" s="45"/>
-      <c r="AE112" s="45"/>
-      <c r="AF112" s="45"/>
-      <c r="AG112" s="45"/>
-      <c r="AH112" s="45"/>
-      <c r="AI112" s="45"/>
-      <c r="AJ112" s="45"/>
-      <c r="AK112" s="45"/>
-      <c r="AL112" s="45"/>
-      <c r="AM112" s="45"/>
-      <c r="AN112" s="45"/>
-      <c r="AO112" s="45"/>
-      <c r="AP112" s="45"/>
-      <c r="AQ112" s="45"/>
-      <c r="AR112" s="45"/>
-      <c r="AS112" s="45"/>
-      <c r="AT112" s="45"/>
-      <c r="AU112" s="45"/>
-      <c r="AV112" s="45"/>
-      <c r="AW112" s="45"/>
-      <c r="AX112" s="45"/>
-      <c r="AY112" s="45"/>
-      <c r="AZ112" s="45"/>
-      <c r="BA112" s="45"/>
-      <c r="BB112" s="45"/>
-      <c r="BC112" s="45"/>
-      <c r="BD112" s="45"/>
-      <c r="BE112" s="45"/>
-      <c r="BF112" s="45"/>
-      <c r="BG112" s="45"/>
-      <c r="BH112" s="45"/>
-      <c r="BI112" s="45"/>
-      <c r="BJ112" s="45"/>
-      <c r="BK112" s="45"/>
-      <c r="BL112" s="45"/>
-      <c r="BM112" s="45"/>
-      <c r="BN112" s="45"/>
-      <c r="BO112" s="45"/>
-      <c r="BP112" s="45"/>
-      <c r="BQ112" s="45"/>
-      <c r="BR112" s="45"/>
-      <c r="BS112" s="45"/>
-      <c r="BT112" s="45"/>
-      <c r="BU112" s="45"/>
-      <c r="BV112" s="45"/>
-      <c r="BW112" s="45"/>
-      <c r="BX112" s="45"/>
-      <c r="BY112" s="45"/>
-      <c r="BZ112" s="45"/>
-      <c r="CA112" s="45"/>
-      <c r="CB112" s="45"/>
-      <c r="CC112" s="45"/>
-      <c r="CD112" s="45"/>
-      <c r="CE112" s="45"/>
-      <c r="CF112" s="45"/>
-      <c r="CG112" s="45"/>
-      <c r="CH112" s="45"/>
-      <c r="CI112" s="45"/>
-      <c r="CJ112" s="45"/>
-      <c r="CK112" s="45"/>
-      <c r="CL112" s="45"/>
-      <c r="CM112" s="45"/>
-      <c r="CN112" s="45"/>
-      <c r="CO112" s="45"/>
-      <c r="CP112" s="45"/>
-      <c r="CQ112" s="45"/>
-      <c r="CR112" s="45"/>
-      <c r="CS112" s="45"/>
-      <c r="CT112" s="45"/>
-      <c r="CU112" s="45"/>
-      <c r="CV112" s="45"/>
-      <c r="CW112" s="45"/>
-      <c r="CX112" s="46"/>
+      <c r="C112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="77">
+        <v>4.05</v>
+      </c>
+      <c r="E112" s="68">
+        <v>18.04</v>
+      </c>
+      <c r="F112" s="31"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="32"/>
+      <c r="P112" s="32"/>
+      <c r="Q112" s="32"/>
+      <c r="R112" s="32"/>
+      <c r="S112" s="32"/>
+      <c r="T112" s="32"/>
+      <c r="U112" s="32"/>
+      <c r="V112" s="32"/>
+      <c r="W112" s="32"/>
+      <c r="X112" s="32"/>
+      <c r="Y112" s="32"/>
+      <c r="Z112" s="32"/>
+      <c r="AA112" s="32"/>
+      <c r="AB112" s="32"/>
+      <c r="AC112" s="32"/>
+      <c r="AD112" s="32"/>
+      <c r="AE112" s="32"/>
+      <c r="AF112" s="32"/>
+      <c r="AG112" s="32"/>
+      <c r="AH112" s="32"/>
+      <c r="AI112" s="32"/>
+      <c r="AJ112" s="32"/>
+      <c r="AK112" s="32"/>
+      <c r="AL112" s="32"/>
+      <c r="AM112" s="32"/>
+      <c r="AN112" s="32"/>
+      <c r="AO112" s="32"/>
+      <c r="AP112" s="32"/>
+      <c r="AQ112" s="32"/>
+      <c r="AR112" s="32"/>
+      <c r="AS112" s="32"/>
+      <c r="AT112" s="32"/>
+      <c r="AU112" s="32"/>
+      <c r="AV112" s="32"/>
+      <c r="AW112" s="32"/>
+      <c r="AX112" s="32"/>
+      <c r="AY112" s="32"/>
+      <c r="AZ112" s="32"/>
+      <c r="BA112" s="32"/>
+      <c r="BB112" s="32"/>
+      <c r="BC112" s="32"/>
+      <c r="BD112" s="32"/>
+      <c r="BE112" s="32"/>
+      <c r="BF112" s="32"/>
+      <c r="BG112" s="32"/>
+      <c r="BH112" s="32"/>
+      <c r="BI112" s="32"/>
+      <c r="BJ112" s="32"/>
+      <c r="BK112" s="32"/>
+      <c r="BL112" s="32"/>
+      <c r="BM112" s="32"/>
+      <c r="BN112" s="32"/>
+      <c r="BO112" s="32"/>
+      <c r="BP112" s="32"/>
+      <c r="BQ112" s="32"/>
+      <c r="BR112" s="32"/>
+      <c r="BS112" s="32"/>
+      <c r="BT112" s="32"/>
+      <c r="BU112" s="32"/>
+      <c r="BV112" s="32"/>
+      <c r="BW112" s="32"/>
+      <c r="BX112" s="32"/>
+      <c r="BY112" s="32"/>
+      <c r="BZ112" s="32"/>
+      <c r="CA112" s="32"/>
+      <c r="CB112" s="32"/>
+      <c r="CC112" s="32"/>
+      <c r="CD112" s="32"/>
+      <c r="CE112" s="32"/>
+      <c r="CF112" s="32"/>
+      <c r="CG112" s="32"/>
+      <c r="CH112" s="32"/>
+      <c r="CI112" s="32"/>
+      <c r="CJ112" s="32"/>
+      <c r="CK112" s="32"/>
+      <c r="CL112" s="32"/>
+      <c r="CM112" s="32"/>
+      <c r="CN112" s="32"/>
+      <c r="CO112" s="32"/>
+      <c r="CP112" s="32"/>
+      <c r="CQ112" s="32"/>
+      <c r="CR112" s="32"/>
+      <c r="CS112" s="32"/>
+      <c r="CT112" s="32"/>
+      <c r="CU112" s="32"/>
+      <c r="CV112" s="32"/>
+      <c r="CW112" s="32"/>
+      <c r="CX112" s="33"/>
       <c r="CY112" s="21"/>
     </row>
     <row r="113" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="19" t="s">
+      <c r="A113" s="74"/>
+      <c r="B113" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="40"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="41"/>
-      <c r="L113" s="41"/>
-      <c r="M113" s="41"/>
-      <c r="N113" s="41"/>
-      <c r="O113" s="41"/>
-      <c r="P113" s="41"/>
-      <c r="Q113" s="41"/>
-      <c r="R113" s="41"/>
-      <c r="S113" s="41"/>
-      <c r="T113" s="41"/>
-      <c r="U113" s="41"/>
-      <c r="V113" s="41"/>
-      <c r="W113" s="41"/>
-      <c r="X113" s="41"/>
-      <c r="Y113" s="41"/>
-      <c r="Z113" s="41"/>
-      <c r="AA113" s="41"/>
-      <c r="AB113" s="41"/>
-      <c r="AC113" s="41"/>
-      <c r="AD113" s="41"/>
-      <c r="AE113" s="41"/>
-      <c r="AF113" s="41"/>
-      <c r="AG113" s="41"/>
-      <c r="AH113" s="41"/>
-      <c r="AI113" s="41"/>
-      <c r="AJ113" s="41"/>
-      <c r="AK113" s="41"/>
-      <c r="AL113" s="41"/>
-      <c r="AM113" s="41"/>
-      <c r="AN113" s="41"/>
-      <c r="AO113" s="41"/>
-      <c r="AP113" s="41"/>
-      <c r="AQ113" s="41"/>
-      <c r="AR113" s="41"/>
-      <c r="AS113" s="41"/>
-      <c r="AT113" s="41"/>
-      <c r="AU113" s="41"/>
-      <c r="AV113" s="41"/>
-      <c r="AW113" s="41"/>
-      <c r="AX113" s="41"/>
-      <c r="AY113" s="41"/>
-      <c r="AZ113" s="41"/>
-      <c r="BA113" s="41"/>
-      <c r="BB113" s="41"/>
-      <c r="BC113" s="41"/>
-      <c r="BD113" s="41"/>
-      <c r="BE113" s="41"/>
-      <c r="BF113" s="41"/>
-      <c r="BG113" s="41"/>
-      <c r="BH113" s="41"/>
-      <c r="BI113" s="41"/>
-      <c r="BJ113" s="41"/>
-      <c r="BK113" s="41"/>
-      <c r="BL113" s="41"/>
-      <c r="BM113" s="41"/>
-      <c r="BN113" s="41"/>
-      <c r="BO113" s="41"/>
-      <c r="BP113" s="41"/>
-      <c r="BQ113" s="41"/>
-      <c r="BR113" s="41"/>
-      <c r="BS113" s="41"/>
-      <c r="BT113" s="41"/>
-      <c r="BU113" s="41"/>
-      <c r="BV113" s="41"/>
-      <c r="BW113" s="41"/>
-      <c r="BX113" s="41"/>
-      <c r="BY113" s="41"/>
-      <c r="BZ113" s="41"/>
-      <c r="CA113" s="41"/>
-      <c r="CB113" s="41"/>
-      <c r="CC113" s="41"/>
-      <c r="CD113" s="41"/>
-      <c r="CE113" s="41"/>
-      <c r="CF113" s="41"/>
-      <c r="CG113" s="41"/>
-      <c r="CH113" s="41"/>
-      <c r="CI113" s="41"/>
-      <c r="CJ113" s="41"/>
-      <c r="CK113" s="41"/>
-      <c r="CL113" s="41"/>
-      <c r="CM113" s="41"/>
-      <c r="CN113" s="41"/>
-      <c r="CO113" s="41"/>
-      <c r="CP113" s="41"/>
-      <c r="CQ113" s="41"/>
-      <c r="CR113" s="41"/>
-      <c r="CS113" s="41"/>
-      <c r="CT113" s="41"/>
-      <c r="CU113" s="41"/>
-      <c r="CV113" s="41"/>
-      <c r="CW113" s="41"/>
-      <c r="CX113" s="42"/>
+      <c r="C113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="77"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="32"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
+      <c r="X113" s="32"/>
+      <c r="Y113" s="32"/>
+      <c r="Z113" s="32"/>
+      <c r="AA113" s="32"/>
+      <c r="AB113" s="32"/>
+      <c r="AC113" s="32"/>
+      <c r="AD113" s="32"/>
+      <c r="AE113" s="32"/>
+      <c r="AF113" s="32"/>
+      <c r="AG113" s="32"/>
+      <c r="AH113" s="32"/>
+      <c r="AI113" s="32"/>
+      <c r="AJ113" s="32"/>
+      <c r="AK113" s="32"/>
+      <c r="AL113" s="32"/>
+      <c r="AM113" s="32"/>
+      <c r="AN113" s="32"/>
+      <c r="AO113" s="32"/>
+      <c r="AP113" s="32"/>
+      <c r="AQ113" s="32"/>
+      <c r="AR113" s="32"/>
+      <c r="AS113" s="32"/>
+      <c r="AT113" s="32"/>
+      <c r="AU113" s="32"/>
+      <c r="AV113" s="32"/>
+      <c r="AW113" s="32"/>
+      <c r="AX113" s="32"/>
+      <c r="AY113" s="32"/>
+      <c r="AZ113" s="32"/>
+      <c r="BA113" s="32"/>
+      <c r="BB113" s="32"/>
+      <c r="BC113" s="32"/>
+      <c r="BD113" s="32"/>
+      <c r="BE113" s="32"/>
+      <c r="BF113" s="32"/>
+      <c r="BG113" s="32"/>
+      <c r="BH113" s="32"/>
+      <c r="BI113" s="32"/>
+      <c r="BJ113" s="32"/>
+      <c r="BK113" s="32"/>
+      <c r="BL113" s="32"/>
+      <c r="BM113" s="32"/>
+      <c r="BN113" s="32"/>
+      <c r="BO113" s="32"/>
+      <c r="BP113" s="32"/>
+      <c r="BQ113" s="32"/>
+      <c r="BR113" s="32"/>
+      <c r="BS113" s="32"/>
+      <c r="BT113" s="32"/>
+      <c r="BU113" s="32"/>
+      <c r="BV113" s="32"/>
+      <c r="BW113" s="32"/>
+      <c r="BX113" s="32"/>
+      <c r="BY113" s="32"/>
+      <c r="BZ113" s="32"/>
+      <c r="CA113" s="32"/>
+      <c r="CB113" s="32"/>
+      <c r="CC113" s="32"/>
+      <c r="CD113" s="32"/>
+      <c r="CE113" s="32"/>
+      <c r="CF113" s="32"/>
+      <c r="CG113" s="32"/>
+      <c r="CH113" s="32"/>
+      <c r="CI113" s="32"/>
+      <c r="CJ113" s="32"/>
+      <c r="CK113" s="32"/>
+      <c r="CL113" s="32"/>
+      <c r="CM113" s="32"/>
+      <c r="CN113" s="32"/>
+      <c r="CO113" s="32"/>
+      <c r="CP113" s="32"/>
+      <c r="CQ113" s="32"/>
+      <c r="CR113" s="32"/>
+      <c r="CS113" s="32"/>
+      <c r="CT113" s="32"/>
+      <c r="CU113" s="32"/>
+      <c r="CV113" s="32"/>
+      <c r="CW113" s="32"/>
+      <c r="CX113" s="33"/>
       <c r="CY113" s="21"/>
     </row>
     <row r="114" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A114" s="68"/>
-      <c r="B114" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" s="74">
-        <v>18.04</v>
-      </c>
-      <c r="E114" s="75">
-        <v>25.04</v>
-      </c>
-      <c r="F114" s="31"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="32"/>
-      <c r="J114" s="32"/>
-      <c r="K114" s="32"/>
-      <c r="L114" s="32"/>
-      <c r="M114" s="32"/>
-      <c r="N114" s="32"/>
-      <c r="O114" s="32"/>
-      <c r="P114" s="32"/>
-      <c r="Q114" s="32"/>
-      <c r="R114" s="32"/>
-      <c r="S114" s="32"/>
-      <c r="T114" s="32"/>
-      <c r="U114" s="32"/>
-      <c r="V114" s="32"/>
-      <c r="W114" s="32"/>
-      <c r="X114" s="32"/>
-      <c r="Y114" s="32"/>
-      <c r="Z114" s="32"/>
-      <c r="AA114" s="32"/>
-      <c r="AB114" s="32"/>
-      <c r="AC114" s="32"/>
-      <c r="AD114" s="32"/>
-      <c r="AE114" s="32"/>
-      <c r="AF114" s="32"/>
-      <c r="AG114" s="32"/>
-      <c r="AH114" s="32"/>
-      <c r="AI114" s="32"/>
-      <c r="AJ114" s="32"/>
-      <c r="AK114" s="32"/>
-      <c r="AL114" s="32"/>
-      <c r="AM114" s="32"/>
-      <c r="AN114" s="32"/>
-      <c r="AO114" s="32"/>
-      <c r="AP114" s="32"/>
-      <c r="AQ114" s="32"/>
-      <c r="AR114" s="32"/>
-      <c r="AS114" s="32"/>
-      <c r="AT114" s="32"/>
-      <c r="AU114" s="32"/>
-      <c r="AV114" s="32"/>
-      <c r="AW114" s="32"/>
-      <c r="AX114" s="32"/>
-      <c r="AY114" s="32"/>
-      <c r="AZ114" s="32"/>
-      <c r="BA114" s="32"/>
-      <c r="BB114" s="32"/>
-      <c r="BC114" s="32"/>
-      <c r="BD114" s="32"/>
-      <c r="BE114" s="32"/>
-      <c r="BF114" s="32"/>
-      <c r="BG114" s="32"/>
-      <c r="BH114" s="32"/>
-      <c r="BI114" s="32"/>
-      <c r="BJ114" s="32"/>
-      <c r="BK114" s="32"/>
-      <c r="BL114" s="32"/>
-      <c r="BM114" s="32"/>
-      <c r="BN114" s="32"/>
-      <c r="BO114" s="32"/>
-      <c r="BP114" s="32"/>
-      <c r="BQ114" s="32"/>
-      <c r="BR114" s="32"/>
-      <c r="BS114" s="32"/>
-      <c r="BT114" s="32"/>
-      <c r="BU114" s="32"/>
-      <c r="BV114" s="32"/>
-      <c r="BW114" s="32"/>
-      <c r="BX114" s="32"/>
-      <c r="BY114" s="32"/>
-      <c r="BZ114" s="32"/>
-      <c r="CA114" s="32"/>
-      <c r="CB114" s="32"/>
-      <c r="CC114" s="32"/>
-      <c r="CD114" s="32"/>
-      <c r="CE114" s="32"/>
-      <c r="CF114" s="32"/>
-      <c r="CG114" s="32"/>
-      <c r="CH114" s="32"/>
-      <c r="CI114" s="32"/>
-      <c r="CJ114" s="32"/>
-      <c r="CK114" s="32"/>
-      <c r="CL114" s="32"/>
-      <c r="CM114" s="32"/>
-      <c r="CN114" s="32"/>
-      <c r="CO114" s="32"/>
-      <c r="CP114" s="32"/>
-      <c r="CQ114" s="32"/>
-      <c r="CR114" s="32"/>
-      <c r="CS114" s="32"/>
-      <c r="CT114" s="32"/>
-      <c r="CU114" s="32"/>
-      <c r="CV114" s="32"/>
-      <c r="CW114" s="32"/>
-      <c r="CX114" s="33"/>
+      <c r="A114" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="40"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
+      <c r="L114" s="41"/>
+      <c r="M114" s="41"/>
+      <c r="N114" s="41"/>
+      <c r="O114" s="41"/>
+      <c r="P114" s="41"/>
+      <c r="Q114" s="41"/>
+      <c r="R114" s="41"/>
+      <c r="S114" s="41"/>
+      <c r="T114" s="41"/>
+      <c r="U114" s="41"/>
+      <c r="V114" s="41"/>
+      <c r="W114" s="41"/>
+      <c r="X114" s="41"/>
+      <c r="Y114" s="41"/>
+      <c r="Z114" s="41"/>
+      <c r="AA114" s="41"/>
+      <c r="AB114" s="41"/>
+      <c r="AC114" s="41"/>
+      <c r="AD114" s="41"/>
+      <c r="AE114" s="41"/>
+      <c r="AF114" s="41"/>
+      <c r="AG114" s="41"/>
+      <c r="AH114" s="41"/>
+      <c r="AI114" s="41"/>
+      <c r="AJ114" s="41"/>
+      <c r="AK114" s="41"/>
+      <c r="AL114" s="41"/>
+      <c r="AM114" s="41"/>
+      <c r="AN114" s="41"/>
+      <c r="AO114" s="41"/>
+      <c r="AP114" s="41"/>
+      <c r="AQ114" s="41"/>
+      <c r="AR114" s="41"/>
+      <c r="AS114" s="41"/>
+      <c r="AT114" s="41"/>
+      <c r="AU114" s="41"/>
+      <c r="AV114" s="41"/>
+      <c r="AW114" s="41"/>
+      <c r="AX114" s="41"/>
+      <c r="AY114" s="41"/>
+      <c r="AZ114" s="41"/>
+      <c r="BA114" s="41"/>
+      <c r="BB114" s="41"/>
+      <c r="BC114" s="41"/>
+      <c r="BD114" s="41"/>
+      <c r="BE114" s="41"/>
+      <c r="BF114" s="41"/>
+      <c r="BG114" s="41"/>
+      <c r="BH114" s="41"/>
+      <c r="BI114" s="41"/>
+      <c r="BJ114" s="41"/>
+      <c r="BK114" s="41"/>
+      <c r="BL114" s="41"/>
+      <c r="BM114" s="41"/>
+      <c r="BN114" s="41"/>
+      <c r="BO114" s="41"/>
+      <c r="BP114" s="41"/>
+      <c r="BQ114" s="41"/>
+      <c r="BR114" s="41"/>
+      <c r="BS114" s="41"/>
+      <c r="BT114" s="41"/>
+      <c r="BU114" s="41"/>
+      <c r="BV114" s="41"/>
+      <c r="BW114" s="41"/>
+      <c r="BX114" s="41"/>
+      <c r="BY114" s="41"/>
+      <c r="BZ114" s="41"/>
+      <c r="CA114" s="41"/>
+      <c r="CB114" s="41"/>
+      <c r="CC114" s="41"/>
+      <c r="CD114" s="41"/>
+      <c r="CE114" s="41"/>
+      <c r="CF114" s="41"/>
+      <c r="CG114" s="41"/>
+      <c r="CH114" s="41"/>
+      <c r="CI114" s="41"/>
+      <c r="CJ114" s="41"/>
+      <c r="CK114" s="41"/>
+      <c r="CL114" s="41"/>
+      <c r="CM114" s="41"/>
+      <c r="CN114" s="41"/>
+      <c r="CO114" s="41"/>
+      <c r="CP114" s="41"/>
+      <c r="CQ114" s="41"/>
+      <c r="CR114" s="41"/>
+      <c r="CS114" s="41"/>
+      <c r="CT114" s="41"/>
+      <c r="CU114" s="41"/>
+      <c r="CV114" s="41"/>
+      <c r="CW114" s="41"/>
+      <c r="CX114" s="42"/>
       <c r="CY114" s="21"/>
     </row>
     <row r="115" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A115" s="69"/>
+      <c r="A115" s="73"/>
       <c r="B115" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="74"/>
-      <c r="E115" s="75"/>
+      <c r="D115" s="77">
+        <v>4.05</v>
+      </c>
+      <c r="E115" s="68">
+        <v>18.04</v>
+      </c>
       <c r="F115" s="31"/>
       <c r="G115" s="32"/>
       <c r="H115" s="32"/>
@@ -15031,134 +15071,124 @@
       <c r="CY115" s="21"/>
     </row>
     <row r="116" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="19" t="s">
+      <c r="A116" s="74"/>
+      <c r="B116" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="40"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
-      <c r="K116" s="41"/>
-      <c r="L116" s="41"/>
-      <c r="M116" s="41"/>
-      <c r="N116" s="41"/>
-      <c r="O116" s="41"/>
-      <c r="P116" s="41"/>
-      <c r="Q116" s="41"/>
-      <c r="R116" s="41"/>
-      <c r="S116" s="41"/>
-      <c r="T116" s="41"/>
-      <c r="U116" s="41"/>
-      <c r="V116" s="41"/>
-      <c r="W116" s="41"/>
-      <c r="X116" s="41"/>
-      <c r="Y116" s="41"/>
-      <c r="Z116" s="41"/>
-      <c r="AA116" s="41"/>
-      <c r="AB116" s="41"/>
-      <c r="AC116" s="41"/>
-      <c r="AD116" s="41"/>
-      <c r="AE116" s="41"/>
-      <c r="AF116" s="41"/>
-      <c r="AG116" s="41"/>
-      <c r="AH116" s="41"/>
-      <c r="AI116" s="41"/>
-      <c r="AJ116" s="41"/>
-      <c r="AK116" s="41"/>
-      <c r="AL116" s="41"/>
-      <c r="AM116" s="41"/>
-      <c r="AN116" s="41"/>
-      <c r="AO116" s="41"/>
-      <c r="AP116" s="41"/>
-      <c r="AQ116" s="41"/>
-      <c r="AR116" s="41"/>
-      <c r="AS116" s="41"/>
-      <c r="AT116" s="41"/>
-      <c r="AU116" s="41"/>
-      <c r="AV116" s="41"/>
-      <c r="AW116" s="41"/>
-      <c r="AX116" s="41"/>
-      <c r="AY116" s="41"/>
-      <c r="AZ116" s="41"/>
-      <c r="BA116" s="41"/>
-      <c r="BB116" s="41"/>
-      <c r="BC116" s="41"/>
-      <c r="BD116" s="41"/>
-      <c r="BE116" s="41"/>
-      <c r="BF116" s="41"/>
-      <c r="BG116" s="41"/>
-      <c r="BH116" s="41"/>
-      <c r="BI116" s="41"/>
-      <c r="BJ116" s="41"/>
-      <c r="BK116" s="41"/>
-      <c r="BL116" s="41"/>
-      <c r="BM116" s="41"/>
-      <c r="BN116" s="41"/>
-      <c r="BO116" s="41"/>
-      <c r="BP116" s="41"/>
-      <c r="BQ116" s="41"/>
-      <c r="BR116" s="41"/>
-      <c r="BS116" s="41"/>
-      <c r="BT116" s="41"/>
-      <c r="BU116" s="41"/>
-      <c r="BV116" s="41"/>
-      <c r="BW116" s="41"/>
-      <c r="BX116" s="41"/>
-      <c r="BY116" s="41"/>
-      <c r="BZ116" s="41"/>
-      <c r="CA116" s="41"/>
-      <c r="CB116" s="41"/>
-      <c r="CC116" s="41"/>
-      <c r="CD116" s="41"/>
-      <c r="CE116" s="41"/>
-      <c r="CF116" s="41"/>
-      <c r="CG116" s="41"/>
-      <c r="CH116" s="41"/>
-      <c r="CI116" s="41"/>
-      <c r="CJ116" s="41"/>
-      <c r="CK116" s="41"/>
-      <c r="CL116" s="41"/>
-      <c r="CM116" s="41"/>
-      <c r="CN116" s="41"/>
-      <c r="CO116" s="41"/>
-      <c r="CP116" s="41"/>
-      <c r="CQ116" s="41"/>
-      <c r="CR116" s="41"/>
-      <c r="CS116" s="41"/>
-      <c r="CT116" s="41"/>
-      <c r="CU116" s="41"/>
-      <c r="CV116" s="41"/>
-      <c r="CW116" s="41"/>
-      <c r="CX116" s="42"/>
+      <c r="C116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="77"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="32"/>
+      <c r="M116" s="32"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="32"/>
+      <c r="P116" s="32"/>
+      <c r="Q116" s="32"/>
+      <c r="R116" s="32"/>
+      <c r="S116" s="32"/>
+      <c r="T116" s="32"/>
+      <c r="U116" s="32"/>
+      <c r="V116" s="32"/>
+      <c r="W116" s="32"/>
+      <c r="X116" s="32"/>
+      <c r="Y116" s="32"/>
+      <c r="Z116" s="32"/>
+      <c r="AA116" s="32"/>
+      <c r="AB116" s="32"/>
+      <c r="AC116" s="32"/>
+      <c r="AD116" s="32"/>
+      <c r="AE116" s="32"/>
+      <c r="AF116" s="32"/>
+      <c r="AG116" s="32"/>
+      <c r="AH116" s="32"/>
+      <c r="AI116" s="32"/>
+      <c r="AJ116" s="32"/>
+      <c r="AK116" s="32"/>
+      <c r="AL116" s="32"/>
+      <c r="AM116" s="32"/>
+      <c r="AN116" s="32"/>
+      <c r="AO116" s="32"/>
+      <c r="AP116" s="32"/>
+      <c r="AQ116" s="32"/>
+      <c r="AR116" s="32"/>
+      <c r="AS116" s="32"/>
+      <c r="AT116" s="32"/>
+      <c r="AU116" s="32"/>
+      <c r="AV116" s="32"/>
+      <c r="AW116" s="32"/>
+      <c r="AX116" s="32"/>
+      <c r="AY116" s="32"/>
+      <c r="AZ116" s="32"/>
+      <c r="BA116" s="32"/>
+      <c r="BB116" s="32"/>
+      <c r="BC116" s="32"/>
+      <c r="BD116" s="32"/>
+      <c r="BE116" s="32"/>
+      <c r="BF116" s="32"/>
+      <c r="BG116" s="32"/>
+      <c r="BH116" s="32"/>
+      <c r="BI116" s="32"/>
+      <c r="BJ116" s="32"/>
+      <c r="BK116" s="32"/>
+      <c r="BL116" s="32"/>
+      <c r="BM116" s="32"/>
+      <c r="BN116" s="32"/>
+      <c r="BO116" s="32"/>
+      <c r="BP116" s="32"/>
+      <c r="BQ116" s="32"/>
+      <c r="BR116" s="32"/>
+      <c r="BS116" s="32"/>
+      <c r="BT116" s="32"/>
+      <c r="BU116" s="32"/>
+      <c r="BV116" s="32"/>
+      <c r="BW116" s="32"/>
+      <c r="BX116" s="32"/>
+      <c r="BY116" s="32"/>
+      <c r="BZ116" s="32"/>
+      <c r="CA116" s="32"/>
+      <c r="CB116" s="32"/>
+      <c r="CC116" s="32"/>
+      <c r="CD116" s="32"/>
+      <c r="CE116" s="32"/>
+      <c r="CF116" s="32"/>
+      <c r="CG116" s="32"/>
+      <c r="CH116" s="32"/>
+      <c r="CI116" s="32"/>
+      <c r="CJ116" s="32"/>
+      <c r="CK116" s="32"/>
+      <c r="CL116" s="32"/>
+      <c r="CM116" s="32"/>
+      <c r="CN116" s="32"/>
+      <c r="CO116" s="32"/>
+      <c r="CP116" s="32"/>
+      <c r="CQ116" s="32"/>
+      <c r="CR116" s="32"/>
+      <c r="CS116" s="32"/>
+      <c r="CT116" s="32"/>
+      <c r="CU116" s="32"/>
+      <c r="CV116" s="32"/>
+      <c r="CW116" s="32"/>
+      <c r="CX116" s="33"/>
       <c r="CY116" s="21"/>
     </row>
     <row r="117" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A117" s="68"/>
-      <c r="B117" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" s="74">
-        <v>18.04</v>
-      </c>
-      <c r="E117" s="75">
-        <v>25.04</v>
-      </c>
+      <c r="A117" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="69">
+        <v>44334</v>
+      </c>
+      <c r="E117" s="70"/>
       <c r="F117" s="31"/>
       <c r="G117" s="32"/>
       <c r="H117" s="32"/>
@@ -15259,117 +15289,123 @@
       <c r="CY117" s="21"/>
     </row>
     <row r="118" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A118" s="69"/>
-      <c r="B118" s="7" t="s">
+      <c r="A118" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="74"/>
-      <c r="E118" s="75"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
-      <c r="J118" s="32"/>
-      <c r="K118" s="32"/>
-      <c r="L118" s="32"/>
-      <c r="M118" s="32"/>
-      <c r="N118" s="32"/>
-      <c r="O118" s="32"/>
-      <c r="P118" s="32"/>
-      <c r="Q118" s="32"/>
-      <c r="R118" s="32"/>
-      <c r="S118" s="32"/>
-      <c r="T118" s="32"/>
-      <c r="U118" s="32"/>
-      <c r="V118" s="32"/>
-      <c r="W118" s="32"/>
-      <c r="X118" s="32"/>
-      <c r="Y118" s="32"/>
-      <c r="Z118" s="32"/>
-      <c r="AA118" s="32"/>
-      <c r="AB118" s="32"/>
-      <c r="AC118" s="32"/>
-      <c r="AD118" s="32"/>
-      <c r="AE118" s="32"/>
-      <c r="AF118" s="32"/>
-      <c r="AG118" s="32"/>
-      <c r="AH118" s="32"/>
-      <c r="AI118" s="32"/>
-      <c r="AJ118" s="32"/>
-      <c r="AK118" s="32"/>
-      <c r="AL118" s="32"/>
-      <c r="AM118" s="32"/>
-      <c r="AN118" s="32"/>
-      <c r="AO118" s="32"/>
-      <c r="AP118" s="32"/>
-      <c r="AQ118" s="32"/>
-      <c r="AR118" s="32"/>
-      <c r="AS118" s="32"/>
-      <c r="AT118" s="32"/>
-      <c r="AU118" s="32"/>
-      <c r="AV118" s="32"/>
-      <c r="AW118" s="32"/>
-      <c r="AX118" s="32"/>
-      <c r="AY118" s="32"/>
-      <c r="AZ118" s="32"/>
-      <c r="BA118" s="32"/>
-      <c r="BB118" s="32"/>
-      <c r="BC118" s="32"/>
-      <c r="BD118" s="32"/>
-      <c r="BE118" s="32"/>
-      <c r="BF118" s="32"/>
-      <c r="BG118" s="32"/>
-      <c r="BH118" s="32"/>
-      <c r="BI118" s="32"/>
-      <c r="BJ118" s="32"/>
-      <c r="BK118" s="32"/>
-      <c r="BL118" s="32"/>
-      <c r="BM118" s="32"/>
-      <c r="BN118" s="32"/>
-      <c r="BO118" s="32"/>
-      <c r="BP118" s="32"/>
-      <c r="BQ118" s="32"/>
-      <c r="BR118" s="32"/>
-      <c r="BS118" s="32"/>
-      <c r="BT118" s="32"/>
-      <c r="BU118" s="32"/>
-      <c r="BV118" s="32"/>
-      <c r="BW118" s="32"/>
-      <c r="BX118" s="32"/>
-      <c r="BY118" s="32"/>
-      <c r="BZ118" s="32"/>
-      <c r="CA118" s="32"/>
-      <c r="CB118" s="32"/>
-      <c r="CC118" s="32"/>
-      <c r="CD118" s="32"/>
-      <c r="CE118" s="32"/>
-      <c r="CF118" s="32"/>
-      <c r="CG118" s="32"/>
-      <c r="CH118" s="32"/>
-      <c r="CI118" s="32"/>
-      <c r="CJ118" s="32"/>
-      <c r="CK118" s="32"/>
-      <c r="CL118" s="32"/>
-      <c r="CM118" s="32"/>
-      <c r="CN118" s="32"/>
-      <c r="CO118" s="32"/>
-      <c r="CP118" s="32"/>
-      <c r="CQ118" s="32"/>
-      <c r="CR118" s="32"/>
-      <c r="CS118" s="32"/>
-      <c r="CT118" s="32"/>
-      <c r="CU118" s="32"/>
-      <c r="CV118" s="32"/>
-      <c r="CW118" s="32"/>
-      <c r="CX118" s="33"/>
+      <c r="E118" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="44"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="45"/>
+      <c r="J118" s="45"/>
+      <c r="K118" s="45"/>
+      <c r="L118" s="45"/>
+      <c r="M118" s="45"/>
+      <c r="N118" s="45"/>
+      <c r="O118" s="45"/>
+      <c r="P118" s="45"/>
+      <c r="Q118" s="45"/>
+      <c r="R118" s="45"/>
+      <c r="S118" s="45"/>
+      <c r="T118" s="45"/>
+      <c r="U118" s="45"/>
+      <c r="V118" s="45"/>
+      <c r="W118" s="45"/>
+      <c r="X118" s="45"/>
+      <c r="Y118" s="45"/>
+      <c r="Z118" s="45"/>
+      <c r="AA118" s="45"/>
+      <c r="AB118" s="45"/>
+      <c r="AC118" s="45"/>
+      <c r="AD118" s="45"/>
+      <c r="AE118" s="45"/>
+      <c r="AF118" s="45"/>
+      <c r="AG118" s="45"/>
+      <c r="AH118" s="45"/>
+      <c r="AI118" s="45"/>
+      <c r="AJ118" s="45"/>
+      <c r="AK118" s="45"/>
+      <c r="AL118" s="45"/>
+      <c r="AM118" s="45"/>
+      <c r="AN118" s="45"/>
+      <c r="AO118" s="45"/>
+      <c r="AP118" s="45"/>
+      <c r="AQ118" s="45"/>
+      <c r="AR118" s="45"/>
+      <c r="AS118" s="45"/>
+      <c r="AT118" s="45"/>
+      <c r="AU118" s="45"/>
+      <c r="AV118" s="45"/>
+      <c r="AW118" s="45"/>
+      <c r="AX118" s="45"/>
+      <c r="AY118" s="45"/>
+      <c r="AZ118" s="45"/>
+      <c r="BA118" s="45"/>
+      <c r="BB118" s="45"/>
+      <c r="BC118" s="45"/>
+      <c r="BD118" s="45"/>
+      <c r="BE118" s="45"/>
+      <c r="BF118" s="45"/>
+      <c r="BG118" s="45"/>
+      <c r="BH118" s="45"/>
+      <c r="BI118" s="45"/>
+      <c r="BJ118" s="45"/>
+      <c r="BK118" s="45"/>
+      <c r="BL118" s="45"/>
+      <c r="BM118" s="45"/>
+      <c r="BN118" s="45"/>
+      <c r="BO118" s="45"/>
+      <c r="BP118" s="45"/>
+      <c r="BQ118" s="45"/>
+      <c r="BR118" s="45"/>
+      <c r="BS118" s="45"/>
+      <c r="BT118" s="45"/>
+      <c r="BU118" s="45"/>
+      <c r="BV118" s="45"/>
+      <c r="BW118" s="45"/>
+      <c r="BX118" s="45"/>
+      <c r="BY118" s="45"/>
+      <c r="BZ118" s="45"/>
+      <c r="CA118" s="45"/>
+      <c r="CB118" s="45"/>
+      <c r="CC118" s="45"/>
+      <c r="CD118" s="45"/>
+      <c r="CE118" s="45"/>
+      <c r="CF118" s="45"/>
+      <c r="CG118" s="45"/>
+      <c r="CH118" s="45"/>
+      <c r="CI118" s="45"/>
+      <c r="CJ118" s="45"/>
+      <c r="CK118" s="45"/>
+      <c r="CL118" s="45"/>
+      <c r="CM118" s="45"/>
+      <c r="CN118" s="45"/>
+      <c r="CO118" s="45"/>
+      <c r="CP118" s="45"/>
+      <c r="CQ118" s="45"/>
+      <c r="CR118" s="45"/>
+      <c r="CS118" s="45"/>
+      <c r="CT118" s="45"/>
+      <c r="CU118" s="45"/>
+      <c r="CV118" s="45"/>
+      <c r="CW118" s="45"/>
+      <c r="CX118" s="46"/>
       <c r="CY118" s="21"/>
     </row>
     <row r="119" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>9</v>
@@ -15483,17 +15519,17 @@
       <c r="CY119" s="21"/>
     </row>
     <row r="120" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A120" s="68"/>
+      <c r="A120" s="73"/>
       <c r="B120" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="74">
+      <c r="D120" s="77">
         <v>18.04</v>
       </c>
-      <c r="E120" s="75">
+      <c r="E120" s="68">
         <v>25.04</v>
       </c>
       <c r="F120" s="31"/>
@@ -15596,15 +15632,15 @@
       <c r="CY120" s="21"/>
     </row>
     <row r="121" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A121" s="69"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="74"/>
-      <c r="E121" s="75"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="68"/>
       <c r="F121" s="31"/>
       <c r="G121" s="32"/>
       <c r="H121" s="32"/>
@@ -15706,7 +15742,7 @@
     </row>
     <row r="122" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>9</v>
@@ -15820,17 +15856,17 @@
       <c r="CY122" s="21"/>
     </row>
     <row r="123" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A123" s="68"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="74">
+      <c r="D123" s="77">
         <v>18.04</v>
       </c>
-      <c r="E123" s="75">
+      <c r="E123" s="68">
         <v>25.04</v>
       </c>
       <c r="F123" s="31"/>
@@ -15933,15 +15969,15 @@
       <c r="CY123" s="21"/>
     </row>
     <row r="124" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A124" s="69"/>
+      <c r="A124" s="74"/>
       <c r="B124" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="74"/>
-      <c r="E124" s="75"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="68"/>
       <c r="F124" s="31"/>
       <c r="G124" s="32"/>
       <c r="H124" s="32"/>
@@ -16043,7 +16079,7 @@
     </row>
     <row r="125" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>9</v>
@@ -16154,20 +16190,20 @@
       <c r="CV125" s="41"/>
       <c r="CW125" s="41"/>
       <c r="CX125" s="42"/>
-      <c r="CY125" s="11"/>
+      <c r="CY125" s="21"/>
     </row>
     <row r="126" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A126" s="68"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="74">
+      <c r="D126" s="77">
         <v>18.04</v>
       </c>
-      <c r="E126" s="75">
+      <c r="E126" s="68">
         <v>25.04</v>
       </c>
       <c r="F126" s="31"/>
@@ -16267,17 +16303,18 @@
       <c r="CV126" s="32"/>
       <c r="CW126" s="32"/>
       <c r="CX126" s="33"/>
+      <c r="CY126" s="21"/>
     </row>
     <row r="127" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A127" s="69"/>
+      <c r="A127" s="74"/>
       <c r="B127" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="74"/>
-      <c r="E127" s="75"/>
+      <c r="D127" s="77"/>
+      <c r="E127" s="68"/>
       <c r="F127" s="31"/>
       <c r="G127" s="32"/>
       <c r="H127" s="32"/>
@@ -16375,248 +16412,1048 @@
       <c r="CV127" s="32"/>
       <c r="CW127" s="32"/>
       <c r="CX127" s="33"/>
+      <c r="CY127" s="21"/>
     </row>
-    <row r="128" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="16" t="s">
+    <row r="128" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="40"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="41"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="41"/>
+      <c r="N128" s="41"/>
+      <c r="O128" s="41"/>
+      <c r="P128" s="41"/>
+      <c r="Q128" s="41"/>
+      <c r="R128" s="41"/>
+      <c r="S128" s="41"/>
+      <c r="T128" s="41"/>
+      <c r="U128" s="41"/>
+      <c r="V128" s="41"/>
+      <c r="W128" s="41"/>
+      <c r="X128" s="41"/>
+      <c r="Y128" s="41"/>
+      <c r="Z128" s="41"/>
+      <c r="AA128" s="41"/>
+      <c r="AB128" s="41"/>
+      <c r="AC128" s="41"/>
+      <c r="AD128" s="41"/>
+      <c r="AE128" s="41"/>
+      <c r="AF128" s="41"/>
+      <c r="AG128" s="41"/>
+      <c r="AH128" s="41"/>
+      <c r="AI128" s="41"/>
+      <c r="AJ128" s="41"/>
+      <c r="AK128" s="41"/>
+      <c r="AL128" s="41"/>
+      <c r="AM128" s="41"/>
+      <c r="AN128" s="41"/>
+      <c r="AO128" s="41"/>
+      <c r="AP128" s="41"/>
+      <c r="AQ128" s="41"/>
+      <c r="AR128" s="41"/>
+      <c r="AS128" s="41"/>
+      <c r="AT128" s="41"/>
+      <c r="AU128" s="41"/>
+      <c r="AV128" s="41"/>
+      <c r="AW128" s="41"/>
+      <c r="AX128" s="41"/>
+      <c r="AY128" s="41"/>
+      <c r="AZ128" s="41"/>
+      <c r="BA128" s="41"/>
+      <c r="BB128" s="41"/>
+      <c r="BC128" s="41"/>
+      <c r="BD128" s="41"/>
+      <c r="BE128" s="41"/>
+      <c r="BF128" s="41"/>
+      <c r="BG128" s="41"/>
+      <c r="BH128" s="41"/>
+      <c r="BI128" s="41"/>
+      <c r="BJ128" s="41"/>
+      <c r="BK128" s="41"/>
+      <c r="BL128" s="41"/>
+      <c r="BM128" s="41"/>
+      <c r="BN128" s="41"/>
+      <c r="BO128" s="41"/>
+      <c r="BP128" s="41"/>
+      <c r="BQ128" s="41"/>
+      <c r="BR128" s="41"/>
+      <c r="BS128" s="41"/>
+      <c r="BT128" s="41"/>
+      <c r="BU128" s="41"/>
+      <c r="BV128" s="41"/>
+      <c r="BW128" s="41"/>
+      <c r="BX128" s="41"/>
+      <c r="BY128" s="41"/>
+      <c r="BZ128" s="41"/>
+      <c r="CA128" s="41"/>
+      <c r="CB128" s="41"/>
+      <c r="CC128" s="41"/>
+      <c r="CD128" s="41"/>
+      <c r="CE128" s="41"/>
+      <c r="CF128" s="41"/>
+      <c r="CG128" s="41"/>
+      <c r="CH128" s="41"/>
+      <c r="CI128" s="41"/>
+      <c r="CJ128" s="41"/>
+      <c r="CK128" s="41"/>
+      <c r="CL128" s="41"/>
+      <c r="CM128" s="41"/>
+      <c r="CN128" s="41"/>
+      <c r="CO128" s="41"/>
+      <c r="CP128" s="41"/>
+      <c r="CQ128" s="41"/>
+      <c r="CR128" s="41"/>
+      <c r="CS128" s="41"/>
+      <c r="CT128" s="41"/>
+      <c r="CU128" s="41"/>
+      <c r="CV128" s="41"/>
+      <c r="CW128" s="41"/>
+      <c r="CX128" s="42"/>
+      <c r="CY128" s="21"/>
+    </row>
+    <row r="129" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A129" s="73"/>
+      <c r="B129" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="77">
+        <v>18.04</v>
+      </c>
+      <c r="E129" s="68">
+        <v>25.04</v>
+      </c>
+      <c r="F129" s="31"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
+      <c r="M129" s="32"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="32"/>
+      <c r="P129" s="32"/>
+      <c r="Q129" s="32"/>
+      <c r="R129" s="32"/>
+      <c r="S129" s="32"/>
+      <c r="T129" s="32"/>
+      <c r="U129" s="32"/>
+      <c r="V129" s="32"/>
+      <c r="W129" s="32"/>
+      <c r="X129" s="32"/>
+      <c r="Y129" s="32"/>
+      <c r="Z129" s="32"/>
+      <c r="AA129" s="32"/>
+      <c r="AB129" s="32"/>
+      <c r="AC129" s="32"/>
+      <c r="AD129" s="32"/>
+      <c r="AE129" s="32"/>
+      <c r="AF129" s="32"/>
+      <c r="AG129" s="32"/>
+      <c r="AH129" s="32"/>
+      <c r="AI129" s="32"/>
+      <c r="AJ129" s="32"/>
+      <c r="AK129" s="32"/>
+      <c r="AL129" s="32"/>
+      <c r="AM129" s="32"/>
+      <c r="AN129" s="32"/>
+      <c r="AO129" s="32"/>
+      <c r="AP129" s="32"/>
+      <c r="AQ129" s="32"/>
+      <c r="AR129" s="32"/>
+      <c r="AS129" s="32"/>
+      <c r="AT129" s="32"/>
+      <c r="AU129" s="32"/>
+      <c r="AV129" s="32"/>
+      <c r="AW129" s="32"/>
+      <c r="AX129" s="32"/>
+      <c r="AY129" s="32"/>
+      <c r="AZ129" s="32"/>
+      <c r="BA129" s="32"/>
+      <c r="BB129" s="32"/>
+      <c r="BC129" s="32"/>
+      <c r="BD129" s="32"/>
+      <c r="BE129" s="32"/>
+      <c r="BF129" s="32"/>
+      <c r="BG129" s="32"/>
+      <c r="BH129" s="32"/>
+      <c r="BI129" s="32"/>
+      <c r="BJ129" s="32"/>
+      <c r="BK129" s="32"/>
+      <c r="BL129" s="32"/>
+      <c r="BM129" s="32"/>
+      <c r="BN129" s="32"/>
+      <c r="BO129" s="32"/>
+      <c r="BP129" s="32"/>
+      <c r="BQ129" s="32"/>
+      <c r="BR129" s="32"/>
+      <c r="BS129" s="32"/>
+      <c r="BT129" s="32"/>
+      <c r="BU129" s="32"/>
+      <c r="BV129" s="32"/>
+      <c r="BW129" s="32"/>
+      <c r="BX129" s="32"/>
+      <c r="BY129" s="32"/>
+      <c r="BZ129" s="32"/>
+      <c r="CA129" s="32"/>
+      <c r="CB129" s="32"/>
+      <c r="CC129" s="32"/>
+      <c r="CD129" s="32"/>
+      <c r="CE129" s="32"/>
+      <c r="CF129" s="32"/>
+      <c r="CG129" s="32"/>
+      <c r="CH129" s="32"/>
+      <c r="CI129" s="32"/>
+      <c r="CJ129" s="32"/>
+      <c r="CK129" s="32"/>
+      <c r="CL129" s="32"/>
+      <c r="CM129" s="32"/>
+      <c r="CN129" s="32"/>
+      <c r="CO129" s="32"/>
+      <c r="CP129" s="32"/>
+      <c r="CQ129" s="32"/>
+      <c r="CR129" s="32"/>
+      <c r="CS129" s="32"/>
+      <c r="CT129" s="32"/>
+      <c r="CU129" s="32"/>
+      <c r="CV129" s="32"/>
+      <c r="CW129" s="32"/>
+      <c r="CX129" s="33"/>
+      <c r="CY129" s="21"/>
+    </row>
+    <row r="130" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A130" s="74"/>
+      <c r="B130" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="77"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
+      <c r="P130" s="32"/>
+      <c r="Q130" s="32"/>
+      <c r="R130" s="32"/>
+      <c r="S130" s="32"/>
+      <c r="T130" s="32"/>
+      <c r="U130" s="32"/>
+      <c r="V130" s="32"/>
+      <c r="W130" s="32"/>
+      <c r="X130" s="32"/>
+      <c r="Y130" s="32"/>
+      <c r="Z130" s="32"/>
+      <c r="AA130" s="32"/>
+      <c r="AB130" s="32"/>
+      <c r="AC130" s="32"/>
+      <c r="AD130" s="32"/>
+      <c r="AE130" s="32"/>
+      <c r="AF130" s="32"/>
+      <c r="AG130" s="32"/>
+      <c r="AH130" s="32"/>
+      <c r="AI130" s="32"/>
+      <c r="AJ130" s="32"/>
+      <c r="AK130" s="32"/>
+      <c r="AL130" s="32"/>
+      <c r="AM130" s="32"/>
+      <c r="AN130" s="32"/>
+      <c r="AO130" s="32"/>
+      <c r="AP130" s="32"/>
+      <c r="AQ130" s="32"/>
+      <c r="AR130" s="32"/>
+      <c r="AS130" s="32"/>
+      <c r="AT130" s="32"/>
+      <c r="AU130" s="32"/>
+      <c r="AV130" s="32"/>
+      <c r="AW130" s="32"/>
+      <c r="AX130" s="32"/>
+      <c r="AY130" s="32"/>
+      <c r="AZ130" s="32"/>
+      <c r="BA130" s="32"/>
+      <c r="BB130" s="32"/>
+      <c r="BC130" s="32"/>
+      <c r="BD130" s="32"/>
+      <c r="BE130" s="32"/>
+      <c r="BF130" s="32"/>
+      <c r="BG130" s="32"/>
+      <c r="BH130" s="32"/>
+      <c r="BI130" s="32"/>
+      <c r="BJ130" s="32"/>
+      <c r="BK130" s="32"/>
+      <c r="BL130" s="32"/>
+      <c r="BM130" s="32"/>
+      <c r="BN130" s="32"/>
+      <c r="BO130" s="32"/>
+      <c r="BP130" s="32"/>
+      <c r="BQ130" s="32"/>
+      <c r="BR130" s="32"/>
+      <c r="BS130" s="32"/>
+      <c r="BT130" s="32"/>
+      <c r="BU130" s="32"/>
+      <c r="BV130" s="32"/>
+      <c r="BW130" s="32"/>
+      <c r="BX130" s="32"/>
+      <c r="BY130" s="32"/>
+      <c r="BZ130" s="32"/>
+      <c r="CA130" s="32"/>
+      <c r="CB130" s="32"/>
+      <c r="CC130" s="32"/>
+      <c r="CD130" s="32"/>
+      <c r="CE130" s="32"/>
+      <c r="CF130" s="32"/>
+      <c r="CG130" s="32"/>
+      <c r="CH130" s="32"/>
+      <c r="CI130" s="32"/>
+      <c r="CJ130" s="32"/>
+      <c r="CK130" s="32"/>
+      <c r="CL130" s="32"/>
+      <c r="CM130" s="32"/>
+      <c r="CN130" s="32"/>
+      <c r="CO130" s="32"/>
+      <c r="CP130" s="32"/>
+      <c r="CQ130" s="32"/>
+      <c r="CR130" s="32"/>
+      <c r="CS130" s="32"/>
+      <c r="CT130" s="32"/>
+      <c r="CU130" s="32"/>
+      <c r="CV130" s="32"/>
+      <c r="CW130" s="32"/>
+      <c r="CX130" s="33"/>
+      <c r="CY130" s="21"/>
+    </row>
+    <row r="131" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="40"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="41"/>
+      <c r="L131" s="41"/>
+      <c r="M131" s="41"/>
+      <c r="N131" s="41"/>
+      <c r="O131" s="41"/>
+      <c r="P131" s="41"/>
+      <c r="Q131" s="41"/>
+      <c r="R131" s="41"/>
+      <c r="S131" s="41"/>
+      <c r="T131" s="41"/>
+      <c r="U131" s="41"/>
+      <c r="V131" s="41"/>
+      <c r="W131" s="41"/>
+      <c r="X131" s="41"/>
+      <c r="Y131" s="41"/>
+      <c r="Z131" s="41"/>
+      <c r="AA131" s="41"/>
+      <c r="AB131" s="41"/>
+      <c r="AC131" s="41"/>
+      <c r="AD131" s="41"/>
+      <c r="AE131" s="41"/>
+      <c r="AF131" s="41"/>
+      <c r="AG131" s="41"/>
+      <c r="AH131" s="41"/>
+      <c r="AI131" s="41"/>
+      <c r="AJ131" s="41"/>
+      <c r="AK131" s="41"/>
+      <c r="AL131" s="41"/>
+      <c r="AM131" s="41"/>
+      <c r="AN131" s="41"/>
+      <c r="AO131" s="41"/>
+      <c r="AP131" s="41"/>
+      <c r="AQ131" s="41"/>
+      <c r="AR131" s="41"/>
+      <c r="AS131" s="41"/>
+      <c r="AT131" s="41"/>
+      <c r="AU131" s="41"/>
+      <c r="AV131" s="41"/>
+      <c r="AW131" s="41"/>
+      <c r="AX131" s="41"/>
+      <c r="AY131" s="41"/>
+      <c r="AZ131" s="41"/>
+      <c r="BA131" s="41"/>
+      <c r="BB131" s="41"/>
+      <c r="BC131" s="41"/>
+      <c r="BD131" s="41"/>
+      <c r="BE131" s="41"/>
+      <c r="BF131" s="41"/>
+      <c r="BG131" s="41"/>
+      <c r="BH131" s="41"/>
+      <c r="BI131" s="41"/>
+      <c r="BJ131" s="41"/>
+      <c r="BK131" s="41"/>
+      <c r="BL131" s="41"/>
+      <c r="BM131" s="41"/>
+      <c r="BN131" s="41"/>
+      <c r="BO131" s="41"/>
+      <c r="BP131" s="41"/>
+      <c r="BQ131" s="41"/>
+      <c r="BR131" s="41"/>
+      <c r="BS131" s="41"/>
+      <c r="BT131" s="41"/>
+      <c r="BU131" s="41"/>
+      <c r="BV131" s="41"/>
+      <c r="BW131" s="41"/>
+      <c r="BX131" s="41"/>
+      <c r="BY131" s="41"/>
+      <c r="BZ131" s="41"/>
+      <c r="CA131" s="41"/>
+      <c r="CB131" s="41"/>
+      <c r="CC131" s="41"/>
+      <c r="CD131" s="41"/>
+      <c r="CE131" s="41"/>
+      <c r="CF131" s="41"/>
+      <c r="CG131" s="41"/>
+      <c r="CH131" s="41"/>
+      <c r="CI131" s="41"/>
+      <c r="CJ131" s="41"/>
+      <c r="CK131" s="41"/>
+      <c r="CL131" s="41"/>
+      <c r="CM131" s="41"/>
+      <c r="CN131" s="41"/>
+      <c r="CO131" s="41"/>
+      <c r="CP131" s="41"/>
+      <c r="CQ131" s="41"/>
+      <c r="CR131" s="41"/>
+      <c r="CS131" s="41"/>
+      <c r="CT131" s="41"/>
+      <c r="CU131" s="41"/>
+      <c r="CV131" s="41"/>
+      <c r="CW131" s="41"/>
+      <c r="CX131" s="42"/>
+      <c r="CY131" s="11"/>
+    </row>
+    <row r="132" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A132" s="73"/>
+      <c r="B132" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="77">
+        <v>18.04</v>
+      </c>
+      <c r="E132" s="68">
+        <v>25.04</v>
+      </c>
+      <c r="F132" s="31"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="32"/>
+      <c r="J132" s="32"/>
+      <c r="K132" s="32"/>
+      <c r="L132" s="32"/>
+      <c r="M132" s="32"/>
+      <c r="N132" s="32"/>
+      <c r="O132" s="32"/>
+      <c r="P132" s="32"/>
+      <c r="Q132" s="32"/>
+      <c r="R132" s="32"/>
+      <c r="S132" s="32"/>
+      <c r="T132" s="32"/>
+      <c r="U132" s="32"/>
+      <c r="V132" s="32"/>
+      <c r="W132" s="32"/>
+      <c r="X132" s="32"/>
+      <c r="Y132" s="32"/>
+      <c r="Z132" s="32"/>
+      <c r="AA132" s="32"/>
+      <c r="AB132" s="32"/>
+      <c r="AC132" s="32"/>
+      <c r="AD132" s="32"/>
+      <c r="AE132" s="32"/>
+      <c r="AF132" s="32"/>
+      <c r="AG132" s="32"/>
+      <c r="AH132" s="32"/>
+      <c r="AI132" s="32"/>
+      <c r="AJ132" s="32"/>
+      <c r="AK132" s="32"/>
+      <c r="AL132" s="32"/>
+      <c r="AM132" s="32"/>
+      <c r="AN132" s="32"/>
+      <c r="AO132" s="32"/>
+      <c r="AP132" s="32"/>
+      <c r="AQ132" s="32"/>
+      <c r="AR132" s="32"/>
+      <c r="AS132" s="32"/>
+      <c r="AT132" s="32"/>
+      <c r="AU132" s="32"/>
+      <c r="AV132" s="32"/>
+      <c r="AW132" s="32"/>
+      <c r="AX132" s="32"/>
+      <c r="AY132" s="32"/>
+      <c r="AZ132" s="32"/>
+      <c r="BA132" s="32"/>
+      <c r="BB132" s="32"/>
+      <c r="BC132" s="32"/>
+      <c r="BD132" s="32"/>
+      <c r="BE132" s="32"/>
+      <c r="BF132" s="32"/>
+      <c r="BG132" s="32"/>
+      <c r="BH132" s="32"/>
+      <c r="BI132" s="32"/>
+      <c r="BJ132" s="32"/>
+      <c r="BK132" s="32"/>
+      <c r="BL132" s="32"/>
+      <c r="BM132" s="32"/>
+      <c r="BN132" s="32"/>
+      <c r="BO132" s="32"/>
+      <c r="BP132" s="32"/>
+      <c r="BQ132" s="32"/>
+      <c r="BR132" s="32"/>
+      <c r="BS132" s="32"/>
+      <c r="BT132" s="32"/>
+      <c r="BU132" s="32"/>
+      <c r="BV132" s="32"/>
+      <c r="BW132" s="32"/>
+      <c r="BX132" s="32"/>
+      <c r="BY132" s="32"/>
+      <c r="BZ132" s="32"/>
+      <c r="CA132" s="32"/>
+      <c r="CB132" s="32"/>
+      <c r="CC132" s="32"/>
+      <c r="CD132" s="32"/>
+      <c r="CE132" s="32"/>
+      <c r="CF132" s="32"/>
+      <c r="CG132" s="32"/>
+      <c r="CH132" s="32"/>
+      <c r="CI132" s="32"/>
+      <c r="CJ132" s="32"/>
+      <c r="CK132" s="32"/>
+      <c r="CL132" s="32"/>
+      <c r="CM132" s="32"/>
+      <c r="CN132" s="32"/>
+      <c r="CO132" s="32"/>
+      <c r="CP132" s="32"/>
+      <c r="CQ132" s="32"/>
+      <c r="CR132" s="32"/>
+      <c r="CS132" s="32"/>
+      <c r="CT132" s="32"/>
+      <c r="CU132" s="32"/>
+      <c r="CV132" s="32"/>
+      <c r="CW132" s="32"/>
+      <c r="CX132" s="33"/>
+    </row>
+    <row r="133" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A133" s="74"/>
+      <c r="B133" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="77"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="32"/>
+      <c r="K133" s="32"/>
+      <c r="L133" s="32"/>
+      <c r="M133" s="32"/>
+      <c r="N133" s="32"/>
+      <c r="O133" s="32"/>
+      <c r="P133" s="32"/>
+      <c r="Q133" s="32"/>
+      <c r="R133" s="32"/>
+      <c r="S133" s="32"/>
+      <c r="T133" s="32"/>
+      <c r="U133" s="32"/>
+      <c r="V133" s="32"/>
+      <c r="W133" s="32"/>
+      <c r="X133" s="32"/>
+      <c r="Y133" s="32"/>
+      <c r="Z133" s="32"/>
+      <c r="AA133" s="32"/>
+      <c r="AB133" s="32"/>
+      <c r="AC133" s="32"/>
+      <c r="AD133" s="32"/>
+      <c r="AE133" s="32"/>
+      <c r="AF133" s="32"/>
+      <c r="AG133" s="32"/>
+      <c r="AH133" s="32"/>
+      <c r="AI133" s="32"/>
+      <c r="AJ133" s="32"/>
+      <c r="AK133" s="32"/>
+      <c r="AL133" s="32"/>
+      <c r="AM133" s="32"/>
+      <c r="AN133" s="32"/>
+      <c r="AO133" s="32"/>
+      <c r="AP133" s="32"/>
+      <c r="AQ133" s="32"/>
+      <c r="AR133" s="32"/>
+      <c r="AS133" s="32"/>
+      <c r="AT133" s="32"/>
+      <c r="AU133" s="32"/>
+      <c r="AV133" s="32"/>
+      <c r="AW133" s="32"/>
+      <c r="AX133" s="32"/>
+      <c r="AY133" s="32"/>
+      <c r="AZ133" s="32"/>
+      <c r="BA133" s="32"/>
+      <c r="BB133" s="32"/>
+      <c r="BC133" s="32"/>
+      <c r="BD133" s="32"/>
+      <c r="BE133" s="32"/>
+      <c r="BF133" s="32"/>
+      <c r="BG133" s="32"/>
+      <c r="BH133" s="32"/>
+      <c r="BI133" s="32"/>
+      <c r="BJ133" s="32"/>
+      <c r="BK133" s="32"/>
+      <c r="BL133" s="32"/>
+      <c r="BM133" s="32"/>
+      <c r="BN133" s="32"/>
+      <c r="BO133" s="32"/>
+      <c r="BP133" s="32"/>
+      <c r="BQ133" s="32"/>
+      <c r="BR133" s="32"/>
+      <c r="BS133" s="32"/>
+      <c r="BT133" s="32"/>
+      <c r="BU133" s="32"/>
+      <c r="BV133" s="32"/>
+      <c r="BW133" s="32"/>
+      <c r="BX133" s="32"/>
+      <c r="BY133" s="32"/>
+      <c r="BZ133" s="32"/>
+      <c r="CA133" s="32"/>
+      <c r="CB133" s="32"/>
+      <c r="CC133" s="32"/>
+      <c r="CD133" s="32"/>
+      <c r="CE133" s="32"/>
+      <c r="CF133" s="32"/>
+      <c r="CG133" s="32"/>
+      <c r="CH133" s="32"/>
+      <c r="CI133" s="32"/>
+      <c r="CJ133" s="32"/>
+      <c r="CK133" s="32"/>
+      <c r="CL133" s="32"/>
+      <c r="CM133" s="32"/>
+      <c r="CN133" s="32"/>
+      <c r="CO133" s="32"/>
+      <c r="CP133" s="32"/>
+      <c r="CQ133" s="32"/>
+      <c r="CR133" s="32"/>
+      <c r="CS133" s="32"/>
+      <c r="CT133" s="32"/>
+      <c r="CU133" s="32"/>
+      <c r="CV133" s="32"/>
+      <c r="CW133" s="32"/>
+      <c r="CX133" s="33"/>
+    </row>
+    <row r="134" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="76">
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="69">
         <v>44348</v>
       </c>
-      <c r="E128" s="77"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="32"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="32"/>
-      <c r="M128" s="32"/>
-      <c r="N128" s="32"/>
-      <c r="O128" s="32"/>
-      <c r="P128" s="32"/>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="32"/>
-      <c r="S128" s="32"/>
-      <c r="T128" s="32"/>
-      <c r="U128" s="32"/>
-      <c r="V128" s="32"/>
-      <c r="W128" s="32"/>
-      <c r="X128" s="32"/>
-      <c r="Y128" s="32"/>
-      <c r="Z128" s="32"/>
-      <c r="AA128" s="32"/>
-      <c r="AB128" s="32"/>
-      <c r="AC128" s="32"/>
-      <c r="AD128" s="32"/>
-      <c r="AE128" s="32"/>
-      <c r="AF128" s="32"/>
-      <c r="AG128" s="32"/>
-      <c r="AH128" s="32"/>
-      <c r="AI128" s="32"/>
-      <c r="AJ128" s="32"/>
-      <c r="AK128" s="32"/>
-      <c r="AL128" s="32"/>
-      <c r="AM128" s="32"/>
-      <c r="AN128" s="32"/>
-      <c r="AO128" s="32"/>
-      <c r="AP128" s="32"/>
-      <c r="AQ128" s="32"/>
-      <c r="AR128" s="32"/>
-      <c r="AS128" s="32"/>
-      <c r="AT128" s="32"/>
-      <c r="AU128" s="32"/>
-      <c r="AV128" s="32"/>
-      <c r="AW128" s="32"/>
-      <c r="AX128" s="32"/>
-      <c r="AY128" s="32"/>
-      <c r="AZ128" s="32"/>
-      <c r="BA128" s="32"/>
-      <c r="BB128" s="32"/>
-      <c r="BC128" s="32"/>
-      <c r="BD128" s="32"/>
-      <c r="BE128" s="32"/>
-      <c r="BF128" s="32"/>
-      <c r="BG128" s="32"/>
-      <c r="BH128" s="32"/>
-      <c r="BI128" s="32"/>
-      <c r="BJ128" s="32"/>
-      <c r="BK128" s="32"/>
-      <c r="BL128" s="32"/>
-      <c r="BM128" s="32"/>
-      <c r="BN128" s="32"/>
-      <c r="BO128" s="32"/>
-      <c r="BP128" s="32"/>
-      <c r="BQ128" s="32"/>
-      <c r="BR128" s="32"/>
-      <c r="BS128" s="32"/>
-      <c r="BT128" s="32"/>
-      <c r="BU128" s="32"/>
-      <c r="BV128" s="32"/>
-      <c r="BW128" s="32"/>
-      <c r="BX128" s="32"/>
-      <c r="BY128" s="32"/>
-      <c r="BZ128" s="32"/>
-      <c r="CA128" s="32"/>
-      <c r="CB128" s="32"/>
-      <c r="CC128" s="32"/>
-      <c r="CD128" s="32"/>
-      <c r="CE128" s="32"/>
-      <c r="CF128" s="32"/>
-      <c r="CG128" s="32"/>
-      <c r="CH128" s="32"/>
-      <c r="CI128" s="32"/>
-      <c r="CJ128" s="32"/>
-      <c r="CK128" s="32"/>
-      <c r="CL128" s="32"/>
-      <c r="CM128" s="32"/>
-      <c r="CN128" s="32"/>
-      <c r="CO128" s="32"/>
-      <c r="CP128" s="32"/>
-      <c r="CQ128" s="32"/>
-      <c r="CR128" s="32"/>
-      <c r="CS128" s="32"/>
-      <c r="CT128" s="32"/>
-      <c r="CU128" s="32"/>
-      <c r="CV128" s="32"/>
-      <c r="CW128" s="32"/>
-      <c r="CX128" s="33"/>
+      <c r="E134" s="70"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="32"/>
+      <c r="L134" s="32"/>
+      <c r="M134" s="32"/>
+      <c r="N134" s="32"/>
+      <c r="O134" s="32"/>
+      <c r="P134" s="32"/>
+      <c r="Q134" s="32"/>
+      <c r="R134" s="32"/>
+      <c r="S134" s="32"/>
+      <c r="T134" s="32"/>
+      <c r="U134" s="32"/>
+      <c r="V134" s="32"/>
+      <c r="W134" s="32"/>
+      <c r="X134" s="32"/>
+      <c r="Y134" s="32"/>
+      <c r="Z134" s="32"/>
+      <c r="AA134" s="32"/>
+      <c r="AB134" s="32"/>
+      <c r="AC134" s="32"/>
+      <c r="AD134" s="32"/>
+      <c r="AE134" s="32"/>
+      <c r="AF134" s="32"/>
+      <c r="AG134" s="32"/>
+      <c r="AH134" s="32"/>
+      <c r="AI134" s="32"/>
+      <c r="AJ134" s="32"/>
+      <c r="AK134" s="32"/>
+      <c r="AL134" s="32"/>
+      <c r="AM134" s="32"/>
+      <c r="AN134" s="32"/>
+      <c r="AO134" s="32"/>
+      <c r="AP134" s="32"/>
+      <c r="AQ134" s="32"/>
+      <c r="AR134" s="32"/>
+      <c r="AS134" s="32"/>
+      <c r="AT134" s="32"/>
+      <c r="AU134" s="32"/>
+      <c r="AV134" s="32"/>
+      <c r="AW134" s="32"/>
+      <c r="AX134" s="32"/>
+      <c r="AY134" s="32"/>
+      <c r="AZ134" s="32"/>
+      <c r="BA134" s="32"/>
+      <c r="BB134" s="32"/>
+      <c r="BC134" s="32"/>
+      <c r="BD134" s="32"/>
+      <c r="BE134" s="32"/>
+      <c r="BF134" s="32"/>
+      <c r="BG134" s="32"/>
+      <c r="BH134" s="32"/>
+      <c r="BI134" s="32"/>
+      <c r="BJ134" s="32"/>
+      <c r="BK134" s="32"/>
+      <c r="BL134" s="32"/>
+      <c r="BM134" s="32"/>
+      <c r="BN134" s="32"/>
+      <c r="BO134" s="32"/>
+      <c r="BP134" s="32"/>
+      <c r="BQ134" s="32"/>
+      <c r="BR134" s="32"/>
+      <c r="BS134" s="32"/>
+      <c r="BT134" s="32"/>
+      <c r="BU134" s="32"/>
+      <c r="BV134" s="32"/>
+      <c r="BW134" s="32"/>
+      <c r="BX134" s="32"/>
+      <c r="BY134" s="32"/>
+      <c r="BZ134" s="32"/>
+      <c r="CA134" s="32"/>
+      <c r="CB134" s="32"/>
+      <c r="CC134" s="32"/>
+      <c r="CD134" s="32"/>
+      <c r="CE134" s="32"/>
+      <c r="CF134" s="32"/>
+      <c r="CG134" s="32"/>
+      <c r="CH134" s="32"/>
+      <c r="CI134" s="32"/>
+      <c r="CJ134" s="32"/>
+      <c r="CK134" s="32"/>
+      <c r="CL134" s="32"/>
+      <c r="CM134" s="32"/>
+      <c r="CN134" s="32"/>
+      <c r="CO134" s="32"/>
+      <c r="CP134" s="32"/>
+      <c r="CQ134" s="32"/>
+      <c r="CR134" s="32"/>
+      <c r="CS134" s="32"/>
+      <c r="CT134" s="32"/>
+      <c r="CU134" s="32"/>
+      <c r="CV134" s="32"/>
+      <c r="CW134" s="32"/>
+      <c r="CX134" s="33"/>
     </row>
-    <row r="129" spans="1:102" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="47"/>
-      <c r="I129" s="47"/>
-      <c r="J129" s="47"/>
-      <c r="K129" s="47"/>
-      <c r="L129" s="47"/>
-      <c r="M129" s="47"/>
-      <c r="N129" s="47"/>
-      <c r="O129" s="47"/>
-      <c r="P129" s="47"/>
-      <c r="Q129" s="47"/>
-      <c r="R129" s="47"/>
-      <c r="S129" s="47"/>
-      <c r="T129" s="47"/>
-      <c r="U129" s="47"/>
-      <c r="V129" s="47"/>
-      <c r="W129" s="47"/>
-      <c r="X129" s="47"/>
-      <c r="Y129" s="47"/>
-      <c r="Z129" s="47"/>
-      <c r="AA129" s="47"/>
-      <c r="AB129" s="47"/>
-      <c r="AC129" s="47"/>
-      <c r="AD129" s="47"/>
-      <c r="AE129" s="47"/>
-      <c r="AF129" s="47"/>
-      <c r="AG129" s="47"/>
-      <c r="AH129" s="47"/>
-      <c r="AI129" s="47"/>
-      <c r="AJ129" s="47"/>
-      <c r="AK129" s="47"/>
-      <c r="AL129" s="47"/>
-      <c r="AM129" s="47"/>
-      <c r="AN129" s="47"/>
-      <c r="AO129" s="47"/>
-      <c r="AP129" s="47"/>
-      <c r="AQ129" s="47"/>
-      <c r="AR129" s="47"/>
-      <c r="AS129" s="47"/>
-      <c r="AT129" s="47"/>
-      <c r="AU129" s="47"/>
-      <c r="AV129" s="47"/>
-      <c r="AW129" s="47"/>
-      <c r="AX129" s="47"/>
-      <c r="AY129" s="47"/>
-      <c r="AZ129" s="47"/>
-      <c r="BA129" s="47"/>
-      <c r="BB129" s="47"/>
-      <c r="BC129" s="47"/>
-      <c r="BD129" s="47"/>
-      <c r="BE129" s="47"/>
-      <c r="BF129" s="47"/>
-      <c r="BG129" s="47"/>
-      <c r="BH129" s="47"/>
-      <c r="BI129" s="47"/>
-      <c r="BJ129" s="47"/>
-      <c r="BK129" s="47"/>
-      <c r="BL129" s="47"/>
-      <c r="BM129" s="47"/>
-      <c r="BN129" s="47"/>
-      <c r="BO129" s="47"/>
-      <c r="BP129" s="47"/>
-      <c r="BQ129" s="47"/>
-      <c r="BR129" s="47"/>
-      <c r="BS129" s="47"/>
-      <c r="BT129" s="47"/>
-      <c r="BU129" s="47"/>
-      <c r="BV129" s="47"/>
-      <c r="BW129" s="47"/>
-      <c r="BX129" s="47"/>
-      <c r="BY129" s="47"/>
-      <c r="BZ129" s="47"/>
-      <c r="CA129" s="47"/>
-      <c r="CB129" s="47"/>
-      <c r="CC129" s="47"/>
-      <c r="CD129" s="47"/>
-      <c r="CE129" s="47"/>
-      <c r="CF129" s="47"/>
-      <c r="CG129" s="47"/>
-      <c r="CH129" s="47"/>
-      <c r="CI129" s="47"/>
-      <c r="CJ129" s="47"/>
-      <c r="CK129" s="47"/>
-      <c r="CL129" s="47"/>
-      <c r="CM129" s="47"/>
-      <c r="CN129" s="47"/>
-      <c r="CO129" s="47"/>
-      <c r="CP129" s="47"/>
-      <c r="CQ129" s="47"/>
-      <c r="CR129" s="47"/>
-      <c r="CS129" s="47"/>
-      <c r="CT129" s="47"/>
-      <c r="CU129" s="47"/>
-      <c r="CV129" s="47"/>
-      <c r="CW129" s="47"/>
-      <c r="CX129" s="47"/>
+    <row r="135" spans="1:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="47"/>
+      <c r="K135" s="47"/>
+      <c r="L135" s="47"/>
+      <c r="M135" s="47"/>
+      <c r="N135" s="47"/>
+      <c r="O135" s="47"/>
+      <c r="P135" s="47"/>
+      <c r="Q135" s="47"/>
+      <c r="R135" s="47"/>
+      <c r="S135" s="47"/>
+      <c r="T135" s="47"/>
+      <c r="U135" s="47"/>
+      <c r="V135" s="47"/>
+      <c r="W135" s="47"/>
+      <c r="X135" s="47"/>
+      <c r="Y135" s="47"/>
+      <c r="Z135" s="47"/>
+      <c r="AA135" s="47"/>
+      <c r="AB135" s="47"/>
+      <c r="AC135" s="47"/>
+      <c r="AD135" s="47"/>
+      <c r="AE135" s="47"/>
+      <c r="AF135" s="47"/>
+      <c r="AG135" s="47"/>
+      <c r="AH135" s="47"/>
+      <c r="AI135" s="47"/>
+      <c r="AJ135" s="47"/>
+      <c r="AK135" s="47"/>
+      <c r="AL135" s="47"/>
+      <c r="AM135" s="47"/>
+      <c r="AN135" s="47"/>
+      <c r="AO135" s="47"/>
+      <c r="AP135" s="47"/>
+      <c r="AQ135" s="47"/>
+      <c r="AR135" s="47"/>
+      <c r="AS135" s="47"/>
+      <c r="AT135" s="47"/>
+      <c r="AU135" s="47"/>
+      <c r="AV135" s="47"/>
+      <c r="AW135" s="47"/>
+      <c r="AX135" s="47"/>
+      <c r="AY135" s="47"/>
+      <c r="AZ135" s="47"/>
+      <c r="BA135" s="47"/>
+      <c r="BB135" s="47"/>
+      <c r="BC135" s="47"/>
+      <c r="BD135" s="47"/>
+      <c r="BE135" s="47"/>
+      <c r="BF135" s="47"/>
+      <c r="BG135" s="47"/>
+      <c r="BH135" s="47"/>
+      <c r="BI135" s="47"/>
+      <c r="BJ135" s="47"/>
+      <c r="BK135" s="47"/>
+      <c r="BL135" s="47"/>
+      <c r="BM135" s="47"/>
+      <c r="BN135" s="47"/>
+      <c r="BO135" s="47"/>
+      <c r="BP135" s="47"/>
+      <c r="BQ135" s="47"/>
+      <c r="BR135" s="47"/>
+      <c r="BS135" s="47"/>
+      <c r="BT135" s="47"/>
+      <c r="BU135" s="47"/>
+      <c r="BV135" s="47"/>
+      <c r="BW135" s="47"/>
+      <c r="BX135" s="47"/>
+      <c r="BY135" s="47"/>
+      <c r="BZ135" s="47"/>
+      <c r="CA135" s="47"/>
+      <c r="CB135" s="47"/>
+      <c r="CC135" s="47"/>
+      <c r="CD135" s="47"/>
+      <c r="CE135" s="47"/>
+      <c r="CF135" s="47"/>
+      <c r="CG135" s="47"/>
+      <c r="CH135" s="47"/>
+      <c r="CI135" s="47"/>
+      <c r="CJ135" s="47"/>
+      <c r="CK135" s="47"/>
+      <c r="CL135" s="47"/>
+      <c r="CM135" s="47"/>
+      <c r="CN135" s="47"/>
+      <c r="CO135" s="47"/>
+      <c r="CP135" s="47"/>
+      <c r="CQ135" s="47"/>
+      <c r="CR135" s="47"/>
+      <c r="CS135" s="47"/>
+      <c r="CT135" s="47"/>
+      <c r="CU135" s="47"/>
+      <c r="CV135" s="47"/>
+      <c r="CW135" s="47"/>
+      <c r="CX135" s="47"/>
     </row>
-    <row r="131" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="D132" s="24"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="49"/>
+    <row r="137" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="D138" s="24"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="49"/>
     </row>
-    <row r="133" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="D133" s="26"/>
-      <c r="E133" s="20" t="s">
+    <row r="139" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="D139" s="26"/>
+      <c r="E139" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F133" s="50"/>
+      <c r="F139" s="50"/>
     </row>
-    <row r="134" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="D134" s="28"/>
-      <c r="E134" s="20" t="s">
+    <row r="140" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="D140" s="28"/>
+      <c r="E140" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F134" s="50"/>
+      <c r="F140" s="50"/>
     </row>
-    <row r="135" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="29"/>
-      <c r="E135" s="27" t="s">
+    <row r="141" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="29"/>
+      <c r="E141" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F135" s="51"/>
+      <c r="F141" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="151">
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="E23:E24"/>
@@ -16641,124 +17478,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitsplan/Iteration_Arbeitsplan.xlsx
+++ b/Arbeitsplan/Iteration_Arbeitsplan.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolicfilip/Documents/GitHub/PSE_DELIVERABLES/Arbeitsplan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kevin\Documents\PSE_DELIVERABLES\Arbeitsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E07E661-4F44-D94A-B007-3705EF38C3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B8E93-9C56-456A-8D38-4BC41D87FF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
+    <workbookView xWindow="18135" yWindow="1065" windowWidth="27945" windowHeight="17850" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="68">
   <si>
     <t>Zeitplan PSE eonum AG</t>
   </si>
@@ -147,9 +157,6 @@
     <t>16.03.</t>
   </si>
   <si>
-    <t>Search Results</t>
-  </si>
-  <si>
     <t>Risikoanalyse / Statusbericht</t>
   </si>
   <si>
@@ -217,6 +224,21 @@
   </si>
   <si>
     <t>Bug fixing</t>
+  </si>
+  <si>
+    <t>PopUp</t>
+  </si>
+  <si>
+    <t>Mobile Version</t>
+  </si>
+  <si>
+    <t>Translations</t>
+  </si>
+  <si>
+    <t>searchResults / searchBar</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
   </si>
 </sst>
 </file>
@@ -323,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -732,11 +754,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -873,6 +908,21 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,35 +935,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,6 +963,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,13 +1015,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1133,13 +1189,13 @@
     <xdr:from>
       <xdr:col>75</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1191,13 +1247,13 @@
     <xdr:from>
       <xdr:col>89</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1249,13 +1305,13 @@
     <xdr:from>
       <xdr:col>101</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>101</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1603,31 +1659,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD384E66-6977-4A33-945E-14F730629694}">
-  <dimension ref="A1:CY145"/>
+  <dimension ref="A1:CY151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="6" max="102" width="5.6640625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="6" max="102" width="5.7109375" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="83"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="30">
         <v>44615</v>
       </c>
@@ -1921,7 +1977,7 @@
       </c>
       <c r="CY1" s="17"/>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2026,7 +2082,7 @@
       <c r="CX2" s="33"/>
       <c r="CY2" s="21"/>
     </row>
-    <row r="3" spans="1:103" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2137,7 +2193,7 @@
       <c r="CX3" s="36"/>
       <c r="CY3" s="21"/>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2308,7 @@
       <c r="CX4" s="39"/>
       <c r="CY4" s="21"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2367,8 +2423,8 @@
       <c r="CX5" s="42"/>
       <c r="CY5" s="21"/>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2377,10 +2433,10 @@
       <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="75">
         <v>23.02</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="71">
         <v>16.03</v>
       </c>
       <c r="F6" s="60"/>
@@ -2488,16 +2544,16 @@
       <c r="CX6" s="62"/>
       <c r="CY6" s="21"/>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="74"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="60"/>
       <c r="G7" s="61"/>
       <c r="H7" s="61"/>
@@ -2603,8 +2659,8 @@
       <c r="CX7" s="62"/>
       <c r="CY7" s="21"/>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2613,10 +2669,10 @@
       <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="75">
         <v>23.02</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="71">
         <v>16.03</v>
       </c>
       <c r="F8" s="31"/>
@@ -2720,16 +2776,16 @@
       <c r="CX8" s="33"/>
       <c r="CY8" s="21"/>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
+    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A9" s="74"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="31"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -2831,7 +2887,7 @@
       <c r="CX9" s="33"/>
       <c r="CY9" s="21"/>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -2946,8 +3002,8 @@
       <c r="CX10" s="42"/>
       <c r="CY10" s="21"/>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2957,10 +3013,10 @@
         <f>SUM(F11:CX11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="75">
         <v>23.02</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="71">
         <v>16.03</v>
       </c>
       <c r="F11" s="31"/>
@@ -3064,8 +3120,8 @@
       <c r="CX11" s="33"/>
       <c r="CY11" s="21"/>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
@@ -3073,8 +3129,8 @@
         <f>SUM(F12:CX12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="74"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -3176,8 +3232,8 @@
       <c r="CX12" s="33"/>
       <c r="CY12" s="21"/>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68" t="s">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="57" t="s">
@@ -3187,10 +3243,10 @@
         <f>SUM(F13:CX13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="75">
         <v>23.02</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="71">
         <v>16.03</v>
       </c>
       <c r="F13" s="31"/>
@@ -3296,8 +3352,8 @@
       <c r="CX13" s="33"/>
       <c r="CY13" s="21"/>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87"/>
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
       <c r="B14" s="57" t="s">
         <v>8</v>
       </c>
@@ -3305,8 +3361,8 @@
         <f>SUM(F14:CX14)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="74"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -3413,7 +3469,7 @@
       <c r="CX14" s="33"/>
       <c r="CY14" s="21"/>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>22</v>
       </c>
@@ -3528,8 +3584,8 @@
       <c r="CX15" s="42"/>
       <c r="CY15" s="21"/>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -3538,10 +3594,10 @@
       <c r="C16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="75">
         <v>23.02</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="71">
         <v>16.03</v>
       </c>
       <c r="F16" s="31"/>
@@ -3645,16 +3701,16 @@
       <c r="CX16" s="33"/>
       <c r="CY16" s="21"/>
     </row>
-    <row r="17" spans="1:103" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
+    <row r="17" spans="1:103" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
       <c r="B17" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="64">
         <v>3</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="88"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="31"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -3756,8 +3812,8 @@
       <c r="CX17" s="33"/>
       <c r="CY17" s="65"/>
     </row>
-    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87" t="s">
+    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -3766,10 +3822,10 @@
       <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="77">
         <v>23.02</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="86">
         <v>16.03</v>
       </c>
       <c r="F18" s="31"/>
@@ -3875,16 +3931,16 @@
       <c r="CX18" s="33"/>
       <c r="CY18" s="21"/>
     </row>
-    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74"/>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -3988,7 +4044,7 @@
       <c r="CX19" s="33"/>
       <c r="CY19" s="21"/>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -4103,8 +4159,8 @@
       <c r="CX20" s="42"/>
       <c r="CY20" s="21"/>
     </row>
-    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4113,10 +4169,10 @@
       <c r="C21" s="54">
         <v>1</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="75">
         <v>23.02</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="71">
         <v>16.03</v>
       </c>
       <c r="F21" s="31"/>
@@ -4220,16 +4276,16 @@
       <c r="CX21" s="33"/>
       <c r="CY21" s="21"/>
     </row>
-    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="69"/>
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="74"/>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="54">
         <v>1</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -4331,8 +4387,8 @@
       <c r="CX22" s="33"/>
       <c r="CY22" s="21"/>
     </row>
-    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68" t="s">
+    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4342,10 +4398,10 @@
         <f>SUM(F23:CX23)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="75">
         <v>23.02</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="71">
         <v>16.03</v>
       </c>
       <c r="F23" s="31"/>
@@ -4455,8 +4511,8 @@
       <c r="CX23" s="33"/>
       <c r="CY23" s="21"/>
     </row>
-    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="69"/>
+    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="74"/>
       <c r="B24" s="7" t="s">
         <v>8</v>
       </c>
@@ -4464,8 +4520,8 @@
         <f>SUM(F24:CX24)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="74"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -4565,7 +4621,7 @@
       <c r="CX24" s="33"/>
       <c r="CY24" s="21"/>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -4680,8 +4736,8 @@
       <c r="CX25" s="42"/>
       <c r="CY25" s="21"/>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4690,10 +4746,10 @@
       <c r="C26" s="9">
         <v>4.5</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="75">
         <v>23.02</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="71">
         <v>16.03</v>
       </c>
       <c r="F26" s="31"/>
@@ -4803,16 +4859,16 @@
       <c r="CX26" s="33"/>
       <c r="CY26" s="21"/>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A27" s="69"/>
+    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A27" s="74"/>
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="9">
         <v>4.5</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="74"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -4920,8 +4976,8 @@
       <c r="CX27" s="33"/>
       <c r="CY27" s="21"/>
     </row>
-    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
+    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4930,10 +4986,10 @@
       <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="75">
         <v>23.02</v>
       </c>
-      <c r="E28" s="73">
+      <c r="E28" s="71">
         <v>16.03</v>
       </c>
       <c r="F28" s="31"/>
@@ -5039,16 +5095,16 @@
       <c r="CX28" s="33"/>
       <c r="CY28" s="21"/>
     </row>
-    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69"/>
+    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="74"/>
       <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="74"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="31"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -5152,8 +5208,8 @@
       <c r="CX29" s="33"/>
       <c r="CY29" s="21"/>
     </row>
-    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="68" t="s">
+    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -5162,10 +5218,10 @@
       <c r="C30" s="9">
         <v>4</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="75">
         <v>23.02</v>
       </c>
-      <c r="E30" s="73">
+      <c r="E30" s="71">
         <v>16.03</v>
       </c>
       <c r="F30" s="31"/>
@@ -5273,16 +5329,16 @@
       <c r="CX30" s="33"/>
       <c r="CY30" s="21"/>
     </row>
-    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="69"/>
+    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="74"/>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="9">
         <v>3</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="74"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="31"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -5388,16 +5444,16 @@
       <c r="CX31" s="33"/>
       <c r="CY31" s="21"/>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="76">
+      <c r="D32" s="69">
         <v>44636</v>
       </c>
-      <c r="E32" s="77"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="31"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -5497,21 +5553,23 @@
       <c r="CX32" s="33"/>
       <c r="CY32" s="21"/>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>7</v>
+      <c r="C33" s="10">
+        <f>SUM(C34,C41,C50,C57,C66)</f>
+        <v>57.5</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>7</v>
+      <c r="E33" s="22">
+        <f>SUM(E34,E41,E50,E57,E66)</f>
+        <v>75</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="45"/>
@@ -5612,7 +5670,7 @@
       <c r="CX33" s="46"/>
       <c r="CY33" s="21"/>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
@@ -5727,9 +5785,9 @@
       <c r="CX34" s="42"/>
       <c r="CY34" s="21"/>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A35" s="68" t="s">
-        <v>50</v>
+    <row r="35" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A35" s="73" t="s">
+        <v>49</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>6</v>
@@ -5737,10 +5795,10 @@
       <c r="C35" s="9">
         <v>3</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="77">
         <v>23.03</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="68">
         <v>6.04</v>
       </c>
       <c r="F35" s="31"/>
@@ -5848,16 +5906,16 @@
       <c r="CX35" s="33"/>
       <c r="CY35" s="21"/>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
+    <row r="36" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A36" s="74"/>
       <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="9">
         <v>6</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="72"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -5963,9 +6021,9 @@
       <c r="CX36" s="33"/>
       <c r="CY36" s="21"/>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A37" s="68" t="s">
-        <v>51</v>
+    <row r="37" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A37" s="73" t="s">
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>6</v>
@@ -5973,10 +6031,10 @@
       <c r="C37" s="9">
         <v>2</v>
       </c>
-      <c r="D37" s="75">
+      <c r="D37" s="77">
         <v>23.03</v>
       </c>
-      <c r="E37" s="72">
+      <c r="E37" s="68">
         <v>6.04</v>
       </c>
       <c r="F37" s="31"/>
@@ -6080,16 +6138,16 @@
       <c r="CX37" s="33"/>
       <c r="CY37" s="21"/>
     </row>
-    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="69"/>
+    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="74"/>
       <c r="B38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="9">
         <v>3</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="72"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -6191,8 +6249,8 @@
       <c r="CX38" s="33"/>
       <c r="CY38" s="21"/>
     </row>
-    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68" t="s">
+    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="73" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -6201,10 +6259,10 @@
       <c r="C39" s="9">
         <v>2</v>
       </c>
-      <c r="D39" s="75">
+      <c r="D39" s="77">
         <v>23.03</v>
       </c>
-      <c r="E39" s="72">
+      <c r="E39" s="68">
         <v>6.04</v>
       </c>
       <c r="F39" s="31"/>
@@ -6310,16 +6368,16 @@
       <c r="CX39" s="33"/>
       <c r="CY39" s="21"/>
     </row>
-    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="69"/>
+    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="74"/>
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="9">
         <v>2</v>
       </c>
-      <c r="D40" s="75"/>
-      <c r="E40" s="72"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -6423,7 +6481,7 @@
       <c r="CX40" s="33"/>
       <c r="CY40" s="21"/>
     </row>
-    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -6432,14 +6490,14 @@
       </c>
       <c r="C41" s="5">
         <f>SUM(C42,C44,C46,C48)</f>
-        <v>23.5</v>
+        <v>19.5</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="23">
         <f>SUM(C43,C45,C47,C49)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="41"/>
@@ -6540,21 +6598,21 @@
       <c r="CX41" s="42"/>
       <c r="CY41" s="21"/>
     </row>
-    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="68" t="s">
-        <v>38</v>
+    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="73" t="s">
+        <v>66</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" ref="C42:C49" si="0">SUM(F42:CX42)</f>
+        <f>SUM(F42:AX42)</f>
         <v>11</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="73">
+      <c r="E42" s="71">
         <v>6.04</v>
       </c>
       <c r="F42" s="31"/>
@@ -6674,17 +6732,17 @@
       <c r="CX42" s="33"/>
       <c r="CY42" s="11"/>
     </row>
-    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="69"/>
+    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="74"/>
       <c r="B43" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C43:C49" si="0">SUM(F43:AX43)</f>
         <v>13.5</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="74"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="72"/>
       <c r="F43" s="31"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -6801,9 +6859,9 @@
       <c r="CX43" s="33"/>
       <c r="CY43" s="11"/>
     </row>
-    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68" t="s">
-        <v>40</v>
+    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="73" t="s">
+        <v>38</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>6</v>
@@ -6812,10 +6870,10 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="73">
+      <c r="E44" s="71">
         <v>6.04</v>
       </c>
       <c r="F44" s="31"/>
@@ -6929,8 +6987,8 @@
       <c r="CX44" s="33"/>
       <c r="CY44" s="11"/>
     </row>
-    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="69"/>
+    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="74"/>
       <c r="B45" s="7" t="s">
         <v>8</v>
       </c>
@@ -6938,8 +6996,8 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="74"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="72"/>
       <c r="F45" s="31"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -7051,9 +7109,9 @@
       <c r="CX45" s="33"/>
       <c r="CY45" s="11"/>
     </row>
-    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="68" t="s">
-        <v>41</v>
+    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="73" t="s">
+        <v>65</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>6</v>
@@ -7062,10 +7120,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="71">
         <v>6.04</v>
       </c>
       <c r="F46" s="31"/>
@@ -7169,8 +7227,8 @@
       <c r="CX46" s="33"/>
       <c r="CY46" s="11"/>
     </row>
-    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="69"/>
+    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="74"/>
       <c r="B47" s="7" t="s">
         <v>8</v>
       </c>
@@ -7178,8 +7236,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="74"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="31"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -7281,21 +7339,21 @@
       <c r="CX47" s="33"/>
       <c r="CY47" s="11"/>
     </row>
-    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="68" t="s">
-        <v>55</v>
+    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="73" t="s">
+        <v>54</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D48" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="73">
+      <c r="E48" s="71">
         <v>6.04</v>
       </c>
       <c r="F48" s="31"/>
@@ -7344,12 +7402,8 @@
       <c r="AU48" s="32"/>
       <c r="AV48" s="32"/>
       <c r="AW48" s="32"/>
-      <c r="AX48" s="55">
-        <v>2</v>
-      </c>
-      <c r="AY48" s="55">
-        <v>2</v>
-      </c>
+      <c r="AX48" s="8"/>
+      <c r="AY48" s="8"/>
       <c r="AZ48" s="32"/>
       <c r="BA48" s="32"/>
       <c r="BB48" s="32"/>
@@ -7403,17 +7457,17 @@
       <c r="CX48" s="33"/>
       <c r="CY48" s="11"/>
     </row>
-    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="69"/>
+    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="74"/>
       <c r="B49" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="74"/>
+        <v>4</v>
+      </c>
+      <c r="D49" s="76"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="31"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -7460,12 +7514,8 @@
       <c r="AU49" s="32"/>
       <c r="AV49" s="32"/>
       <c r="AW49" s="32"/>
-      <c r="AX49" s="53">
-        <v>2</v>
-      </c>
-      <c r="AY49" s="53">
-        <v>2</v>
-      </c>
+      <c r="AX49" s="8"/>
+      <c r="AY49" s="8"/>
       <c r="AZ49" s="32"/>
       <c r="BA49" s="32"/>
       <c r="BB49" s="32"/>
@@ -7519,7 +7569,7 @@
       <c r="CX49" s="33"/>
       <c r="CY49" s="11"/>
     </row>
-    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -7636,9 +7686,9 @@
       <c r="CX50" s="42"/>
       <c r="CY50" s="11"/>
     </row>
-    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="68" t="s">
-        <v>54</v>
+    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>6</v>
@@ -7646,10 +7696,10 @@
       <c r="C51" s="9">
         <v>3</v>
       </c>
-      <c r="D51" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="73">
+      <c r="D51" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="71">
         <v>6.04</v>
       </c>
       <c r="F51" s="31"/>
@@ -7755,16 +7805,16 @@
       <c r="CX51" s="33"/>
       <c r="CY51" s="11"/>
     </row>
-    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="69"/>
+    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="74"/>
       <c r="B52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="9">
         <v>3</v>
       </c>
-      <c r="D52" s="71"/>
-      <c r="E52" s="74"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="31"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -7868,9 +7918,9 @@
       <c r="CX52" s="33"/>
       <c r="CY52" s="11"/>
     </row>
-    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="68" t="s">
-        <v>53</v>
+    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="73" t="s">
+        <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>6</v>
@@ -7878,10 +7928,10 @@
       <c r="C53" s="9">
         <v>6</v>
       </c>
-      <c r="D53" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="73">
+      <c r="D53" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="71">
         <v>6.04</v>
       </c>
       <c r="F53" s="31"/>
@@ -7992,16 +8042,16 @@
       <c r="CW53" s="32"/>
       <c r="CX53" s="33"/>
     </row>
-    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="69"/>
+    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="74"/>
       <c r="B54" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="9">
         <v>7</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="74"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="31"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -8111,9 +8161,9 @@
       <c r="CX54" s="33"/>
       <c r="CY54" s="11"/>
     </row>
-    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="68" t="s">
-        <v>41</v>
+    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="73" t="s">
+        <v>40</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>6</v>
@@ -8121,10 +8171,10 @@
       <c r="C55" s="9">
         <v>1</v>
       </c>
-      <c r="D55" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="73">
+      <c r="D55" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="71">
         <v>6.04</v>
       </c>
       <c r="F55" s="31"/>
@@ -8228,16 +8278,16 @@
       <c r="CX55" s="33"/>
       <c r="CY55" s="11"/>
     </row>
-    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="69"/>
+    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="74"/>
       <c r="B56" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="9">
         <v>1</v>
       </c>
-      <c r="D56" s="71"/>
-      <c r="E56" s="74"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="31"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -8338,7 +8388,7 @@
       <c r="CW56" s="32"/>
       <c r="CX56" s="33"/>
     </row>
-    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>23</v>
       </c>
@@ -8455,9 +8505,9 @@
       <c r="CX57" s="42"/>
       <c r="CY57" s="21"/>
     </row>
-    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>6</v>
@@ -8465,10 +8515,10 @@
       <c r="C58" s="9">
         <v>4</v>
       </c>
-      <c r="D58" s="70" t="s">
+      <c r="D58" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="72">
+      <c r="E58" s="68">
         <v>6.04</v>
       </c>
       <c r="F58" s="31"/>
@@ -8578,7 +8628,7 @@
       <c r="CX58" s="33"/>
       <c r="CY58" s="21"/>
     </row>
-    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="79"/>
       <c r="B59" s="7" t="s">
         <v>8</v>
@@ -8586,8 +8636,8 @@
       <c r="C59" s="9">
         <v>10</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="72"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="68"/>
       <c r="F59" s="31"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -8695,9 +8745,9 @@
       <c r="CX59" s="33"/>
       <c r="CY59" s="21"/>
     </row>
-    <row r="60" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A60" s="78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>6</v>
@@ -8705,10 +8755,10 @@
       <c r="C60" s="9">
         <v>2</v>
       </c>
-      <c r="D60" s="70" t="s">
+      <c r="D60" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="72">
+      <c r="E60" s="68">
         <v>6.04</v>
       </c>
       <c r="F60" s="31"/>
@@ -8814,7 +8864,7 @@
       <c r="CX60" s="33"/>
       <c r="CY60" s="21"/>
     </row>
-    <row r="61" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A61" s="79"/>
       <c r="B61" s="7" t="s">
         <v>8</v>
@@ -8822,8 +8872,8 @@
       <c r="C61" s="9">
         <v>2</v>
       </c>
-      <c r="D61" s="71"/>
-      <c r="E61" s="72"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="31"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
@@ -8927,9 +8977,9 @@
       <c r="CX61" s="33"/>
       <c r="CY61" s="21"/>
     </row>
-    <row r="62" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A62" s="78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>6</v>
@@ -8937,10 +8987,10 @@
       <c r="C62" s="9">
         <v>2</v>
       </c>
-      <c r="D62" s="70" t="s">
+      <c r="D62" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="72">
+      <c r="E62" s="68">
         <v>6.04</v>
       </c>
       <c r="F62" s="31"/>
@@ -9046,7 +9096,7 @@
       <c r="CX62" s="33"/>
       <c r="CY62" s="21"/>
     </row>
-    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="79"/>
       <c r="B63" s="7" t="s">
         <v>8</v>
@@ -9054,8 +9104,8 @@
       <c r="C63" s="9">
         <v>2</v>
       </c>
-      <c r="D63" s="71"/>
-      <c r="E63" s="72"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
@@ -9159,9 +9209,9 @@
       <c r="CX63" s="33"/>
       <c r="CY63" s="21"/>
     </row>
-    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="68" t="s">
-        <v>55</v>
+    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="73" t="s">
+        <v>54</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>6</v>
@@ -9169,10 +9219,10 @@
       <c r="C64" s="9">
         <v>4</v>
       </c>
-      <c r="D64" s="70" t="s">
+      <c r="D64" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="72">
+      <c r="E64" s="68">
         <v>6.04</v>
       </c>
       <c r="F64" s="31"/>
@@ -9282,16 +9332,16 @@
       <c r="CX64" s="33"/>
       <c r="CY64" s="21"/>
     </row>
-    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="69"/>
+    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="74"/>
       <c r="B65" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="9">
         <v>4</v>
       </c>
-      <c r="D65" s="71"/>
-      <c r="E65" s="72"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="31"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
@@ -9399,7 +9449,7 @@
       <c r="CX65" s="33"/>
       <c r="CY65" s="21"/>
     </row>
-    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>24</v>
       </c>
@@ -9516,9 +9566,9 @@
       <c r="CX66" s="42"/>
       <c r="CY66" s="21"/>
     </row>
-    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="68" t="s">
-        <v>42</v>
+    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="73" t="s">
+        <v>41</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>6</v>
@@ -9526,10 +9576,10 @@
       <c r="C67" s="9">
         <v>4</v>
       </c>
-      <c r="D67" s="75">
+      <c r="D67" s="77">
         <v>23.03</v>
       </c>
-      <c r="E67" s="72">
+      <c r="E67" s="68">
         <v>6.04</v>
       </c>
       <c r="F67" s="31"/>
@@ -9637,16 +9687,16 @@
       <c r="CX67" s="33"/>
       <c r="CY67" s="21"/>
     </row>
-    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="69"/>
+    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="74"/>
       <c r="B68" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="9">
         <v>5</v>
       </c>
-      <c r="D68" s="75"/>
-      <c r="E68" s="72"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="31"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
@@ -9752,9 +9802,9 @@
       <c r="CX68" s="33"/>
       <c r="CY68" s="21"/>
     </row>
-    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="68" t="s">
-        <v>43</v>
+    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="73" t="s">
+        <v>42</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>6</v>
@@ -9762,10 +9812,10 @@
       <c r="C69" s="9">
         <v>2</v>
       </c>
-      <c r="D69" s="75">
+      <c r="D69" s="77">
         <v>23.03</v>
       </c>
-      <c r="E69" s="72">
+      <c r="E69" s="68">
         <v>6.04</v>
       </c>
       <c r="F69" s="31"/>
@@ -9869,16 +9919,16 @@
       <c r="CX69" s="33"/>
       <c r="CY69" s="21"/>
     </row>
-    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="69"/>
+    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="74"/>
       <c r="B70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="9">
         <v>1</v>
       </c>
-      <c r="D70" s="75"/>
-      <c r="E70" s="72"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="68"/>
       <c r="F70" s="31"/>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
@@ -9980,9 +10030,9 @@
       <c r="CX70" s="33"/>
       <c r="CY70" s="21"/>
     </row>
-    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="68" t="s">
-        <v>44</v>
+    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="73" t="s">
+        <v>43</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>6</v>
@@ -9990,10 +10040,10 @@
       <c r="C71" s="9">
         <v>2</v>
       </c>
-      <c r="D71" s="75">
+      <c r="D71" s="77">
         <v>23.03</v>
       </c>
-      <c r="E71" s="72">
+      <c r="E71" s="68">
         <v>6.04</v>
       </c>
       <c r="F71" s="31"/>
@@ -10097,16 +10147,16 @@
       <c r="CX71" s="33"/>
       <c r="CY71" s="21"/>
     </row>
-    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="69"/>
+    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="74"/>
       <c r="B72" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="9">
         <v>2</v>
       </c>
-      <c r="D72" s="75"/>
-      <c r="E72" s="72"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="68"/>
       <c r="F72" s="31"/>
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
@@ -10208,9 +10258,9 @@
       <c r="CX72" s="33"/>
       <c r="CY72" s="21"/>
     </row>
-    <row r="73" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A73" s="68" t="s">
-        <v>45</v>
+    <row r="73" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A73" s="73" t="s">
+        <v>44</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>6</v>
@@ -10218,10 +10268,10 @@
       <c r="C73" s="9">
         <v>3</v>
       </c>
-      <c r="D73" s="75">
+      <c r="D73" s="77">
         <v>23.03</v>
       </c>
-      <c r="E73" s="72">
+      <c r="E73" s="68">
         <v>6.04</v>
       </c>
       <c r="F73" s="31"/>
@@ -10325,16 +10375,16 @@
       <c r="CX73" s="33"/>
       <c r="CY73" s="21"/>
     </row>
-    <row r="74" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A74" s="69"/>
+    <row r="74" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A74" s="74"/>
       <c r="B74" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="9">
         <v>3</v>
       </c>
-      <c r="D74" s="75"/>
-      <c r="E74" s="72"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="68"/>
       <c r="F74" s="31"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
@@ -10436,9 +10486,9 @@
       <c r="CX74" s="33"/>
       <c r="CY74" s="21"/>
     </row>
-    <row r="75" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A75" s="68" t="s">
-        <v>46</v>
+    <row r="75" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A75" s="73" t="s">
+        <v>45</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>6</v>
@@ -10446,10 +10496,10 @@
       <c r="C75" s="9">
         <v>1</v>
       </c>
-      <c r="D75" s="75">
+      <c r="D75" s="77">
         <v>23.03</v>
       </c>
-      <c r="E75" s="72">
+      <c r="E75" s="68">
         <v>6.04</v>
       </c>
       <c r="F75" s="31"/>
@@ -10551,16 +10601,16 @@
       <c r="CX75" s="33"/>
       <c r="CY75" s="21"/>
     </row>
-    <row r="76" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A76" s="69"/>
+    <row r="76" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A76" s="74"/>
       <c r="B76" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="9">
         <v>3</v>
       </c>
-      <c r="D76" s="75"/>
-      <c r="E76" s="72"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="31"/>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
@@ -10662,16 +10712,16 @@
       <c r="CX76" s="33"/>
       <c r="CY76" s="21"/>
     </row>
-    <row r="77" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="76">
+      <c r="D77" s="91">
         <v>44292</v>
       </c>
-      <c r="E77" s="77"/>
+      <c r="E77" s="92"/>
       <c r="F77" s="31"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -10773,7 +10823,7 @@
       <c r="CX77" s="33"/>
       <c r="CY77" s="21"/>
     </row>
-    <row r="78" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>15</v>
       </c>
@@ -10888,7 +10938,7 @@
       <c r="CX78" s="46"/>
       <c r="CY78" s="21"/>
     </row>
-    <row r="79" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>20</v>
       </c>
@@ -11003,9 +11053,9 @@
       <c r="CX79" s="42"/>
       <c r="CY79" s="21"/>
     </row>
-    <row r="80" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A80" s="68" t="s">
-        <v>63</v>
+    <row r="80" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A80" s="73" t="s">
+        <v>62</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>6</v>
@@ -11013,10 +11063,10 @@
       <c r="C80" s="9">
         <v>3</v>
       </c>
-      <c r="D80" s="70">
+      <c r="D80" s="75">
         <v>6.04</v>
       </c>
-      <c r="E80" s="88">
+      <c r="E80" s="86">
         <v>4.05</v>
       </c>
       <c r="F80" s="31"/>
@@ -11124,16 +11174,16 @@
       <c r="CX80" s="33"/>
       <c r="CY80" s="21"/>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A81" s="69"/>
+    <row r="81" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A81" s="74"/>
       <c r="B81" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="9">
         <v>4</v>
       </c>
-      <c r="D81" s="71"/>
-      <c r="E81" s="74"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="72"/>
       <c r="F81" s="31"/>
       <c r="G81" s="32"/>
       <c r="H81" s="32"/>
@@ -11239,9 +11289,9 @@
       <c r="CX81" s="33"/>
       <c r="CY81" s="21"/>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A82" s="68" t="s">
-        <v>62</v>
+    <row r="82" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A82" s="73" t="s">
+        <v>61</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>6</v>
@@ -11249,10 +11299,10 @@
       <c r="C82" s="9">
         <v>1</v>
       </c>
-      <c r="D82" s="70">
+      <c r="D82" s="75">
         <v>6.04</v>
       </c>
-      <c r="E82" s="72">
+      <c r="E82" s="68">
         <v>4.05</v>
       </c>
       <c r="F82" s="31"/>
@@ -11356,16 +11406,16 @@
       <c r="CX82" s="33"/>
       <c r="CY82" s="21"/>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A83" s="69"/>
+    <row r="83" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A83" s="74"/>
       <c r="B83" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="9">
         <v>1</v>
       </c>
-      <c r="D83" s="71"/>
-      <c r="E83" s="72"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="68"/>
       <c r="F83" s="31"/>
       <c r="G83" s="32"/>
       <c r="H83" s="32"/>
@@ -11467,9 +11517,9 @@
       <c r="CX83" s="33"/>
       <c r="CY83" s="21"/>
     </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A84" s="68" t="s">
-        <v>61</v>
+    <row r="84" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A84" s="73" t="s">
+        <v>60</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>6</v>
@@ -11477,10 +11527,10 @@
       <c r="C84" s="9">
         <v>2</v>
       </c>
-      <c r="D84" s="70">
+      <c r="D84" s="75">
         <v>6.04</v>
       </c>
-      <c r="E84" s="88">
+      <c r="E84" s="86">
         <v>4.05</v>
       </c>
       <c r="F84" s="31"/>
@@ -11584,16 +11634,16 @@
       <c r="CX84" s="33"/>
       <c r="CY84" s="21"/>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A85" s="69"/>
+    <row r="85" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A85" s="74"/>
       <c r="B85" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="9">
         <v>1</v>
       </c>
-      <c r="D85" s="71"/>
-      <c r="E85" s="74"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="72"/>
       <c r="F85" s="31"/>
       <c r="G85" s="32"/>
       <c r="H85" s="32"/>
@@ -11695,21 +11745,23 @@
       <c r="CX85" s="33"/>
       <c r="CY85" s="21"/>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="19" t="s">
+      <c r="C86" s="5">
+        <f>SUM(C87,C89,C91,C93)</f>
+        <v>20</v>
+      </c>
+      <c r="D86" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="23" t="s">
-        <v>10</v>
+      <c r="E86" s="23">
+        <f>SUM(C88,C90,C92,C94)</f>
+        <v>27</v>
       </c>
       <c r="F86" s="40"/>
       <c r="G86" s="41"/>
@@ -11810,909 +11862,973 @@
       <c r="CX86" s="42"/>
       <c r="CY86" s="21"/>
     </row>
-    <row r="87" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A87" s="68"/>
+    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="73" t="s">
+        <v>54</v>
+      </c>
       <c r="B87" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="70">
+      <c r="C87" s="96">
+        <f>SUM(F87:CX87)</f>
+        <v>9</v>
+      </c>
+      <c r="D87" s="95">
         <v>6.04</v>
       </c>
-      <c r="E87" s="72">
+      <c r="E87" s="97">
         <v>4.05</v>
       </c>
-      <c r="F87" s="31"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
-      <c r="V87" s="32"/>
-      <c r="W87" s="32"/>
-      <c r="X87" s="32"/>
-      <c r="Y87" s="32"/>
-      <c r="Z87" s="32"/>
-      <c r="AA87" s="32"/>
-      <c r="AB87" s="32"/>
-      <c r="AC87" s="32"/>
-      <c r="AD87" s="32"/>
-      <c r="AE87" s="32"/>
-      <c r="AF87" s="32"/>
-      <c r="AG87" s="32"/>
-      <c r="AH87" s="32"/>
-      <c r="AI87" s="32"/>
-      <c r="AJ87" s="32"/>
-      <c r="AK87" s="32"/>
-      <c r="AL87" s="32"/>
-      <c r="AM87" s="32"/>
-      <c r="AN87" s="32"/>
-      <c r="AO87" s="32"/>
-      <c r="AP87" s="32"/>
-      <c r="AQ87" s="32"/>
-      <c r="AR87" s="32"/>
-      <c r="AS87" s="32"/>
-      <c r="AT87" s="32"/>
-      <c r="AU87" s="32"/>
-      <c r="AV87" s="32"/>
-      <c r="AW87" s="32"/>
-      <c r="AX87" s="32"/>
-      <c r="AY87" s="32"/>
-      <c r="AZ87" s="32"/>
-      <c r="BA87" s="32"/>
-      <c r="BB87" s="32"/>
-      <c r="BC87" s="32"/>
-      <c r="BD87" s="32"/>
-      <c r="BE87" s="32"/>
-      <c r="BF87" s="32"/>
-      <c r="BG87" s="32"/>
-      <c r="BH87" s="32"/>
-      <c r="BI87" s="32"/>
-      <c r="BJ87" s="32"/>
-      <c r="BK87" s="32"/>
-      <c r="BL87" s="32"/>
-      <c r="BM87" s="32"/>
-      <c r="BN87" s="32"/>
-      <c r="BO87" s="32"/>
-      <c r="BP87" s="32"/>
-      <c r="BQ87" s="32"/>
-      <c r="BR87" s="32"/>
-      <c r="BS87" s="32"/>
-      <c r="BT87" s="32"/>
-      <c r="BU87" s="32"/>
-      <c r="BV87" s="32"/>
-      <c r="BW87" s="32"/>
-      <c r="BX87" s="32"/>
-      <c r="BY87" s="32"/>
-      <c r="BZ87" s="32"/>
-      <c r="CA87" s="32"/>
-      <c r="CB87" s="32"/>
-      <c r="CC87" s="32"/>
-      <c r="CD87" s="32"/>
-      <c r="CE87" s="32"/>
-      <c r="CF87" s="32"/>
-      <c r="CG87" s="32"/>
-      <c r="CH87" s="32"/>
-      <c r="CI87" s="32"/>
-      <c r="CJ87" s="32"/>
-      <c r="CK87" s="32"/>
-      <c r="CL87" s="32"/>
-      <c r="CM87" s="32"/>
-      <c r="CN87" s="32"/>
-      <c r="CO87" s="32"/>
-      <c r="CP87" s="32"/>
-      <c r="CQ87" s="32"/>
-      <c r="CR87" s="32"/>
-      <c r="CS87" s="32"/>
-      <c r="CT87" s="32"/>
-      <c r="CU87" s="32"/>
-      <c r="CV87" s="32"/>
-      <c r="CW87" s="32"/>
-      <c r="CX87" s="33"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="88"/>
+      <c r="H87" s="88"/>
+      <c r="I87" s="88"/>
+      <c r="J87" s="88"/>
+      <c r="K87" s="88"/>
+      <c r="L87" s="88"/>
+      <c r="M87" s="88"/>
+      <c r="N87" s="88"/>
+      <c r="O87" s="88"/>
+      <c r="P87" s="88"/>
+      <c r="Q87" s="88"/>
+      <c r="R87" s="88"/>
+      <c r="S87" s="88"/>
+      <c r="T87" s="88"/>
+      <c r="U87" s="88"/>
+      <c r="V87" s="88"/>
+      <c r="W87" s="88"/>
+      <c r="X87" s="88"/>
+      <c r="Y87" s="88"/>
+      <c r="Z87" s="88"/>
+      <c r="AA87" s="88"/>
+      <c r="AB87" s="88"/>
+      <c r="AC87" s="88"/>
+      <c r="AD87" s="88"/>
+      <c r="AE87" s="88"/>
+      <c r="AF87" s="88"/>
+      <c r="AG87" s="88"/>
+      <c r="AH87" s="88"/>
+      <c r="AI87" s="88"/>
+      <c r="AJ87" s="88"/>
+      <c r="AK87" s="88"/>
+      <c r="AL87" s="88"/>
+      <c r="AM87" s="88"/>
+      <c r="AN87" s="88"/>
+      <c r="AO87" s="88"/>
+      <c r="AP87" s="88"/>
+      <c r="AQ87" s="88"/>
+      <c r="AR87" s="88"/>
+      <c r="AS87" s="88"/>
+      <c r="AT87" s="88"/>
+      <c r="AU87" s="88"/>
+      <c r="AV87" s="88"/>
+      <c r="AW87" s="88"/>
+      <c r="AX87" s="55">
+        <v>2</v>
+      </c>
+      <c r="AY87" s="55">
+        <v>2</v>
+      </c>
+      <c r="AZ87" s="55">
+        <v>1</v>
+      </c>
+      <c r="BA87" s="55">
+        <v>1</v>
+      </c>
+      <c r="BB87" s="88"/>
+      <c r="BC87" s="88"/>
+      <c r="BD87" s="88"/>
+      <c r="BE87" s="88"/>
+      <c r="BF87" s="88"/>
+      <c r="BG87" s="88"/>
+      <c r="BH87" s="88"/>
+      <c r="BI87" s="88"/>
+      <c r="BJ87" s="55">
+        <v>0</v>
+      </c>
+      <c r="BK87" s="88"/>
+      <c r="BL87" s="88"/>
+      <c r="BM87" s="88"/>
+      <c r="BN87" s="88"/>
+      <c r="BO87" s="88"/>
+      <c r="BP87" s="88"/>
+      <c r="BQ87" s="88"/>
+      <c r="BR87" s="88"/>
+      <c r="BS87" s="88"/>
+      <c r="BT87" s="55">
+        <v>1</v>
+      </c>
+      <c r="BU87" s="55">
+        <v>1</v>
+      </c>
+      <c r="BV87" s="55">
+        <v>1</v>
+      </c>
+      <c r="BW87" s="88"/>
+      <c r="BX87" s="88"/>
+      <c r="BY87" s="88"/>
+      <c r="BZ87" s="88"/>
+      <c r="CA87" s="88"/>
+      <c r="CB87" s="88"/>
+      <c r="CC87" s="88"/>
+      <c r="CD87" s="88"/>
+      <c r="CE87" s="88"/>
+      <c r="CF87" s="88"/>
+      <c r="CG87" s="88"/>
+      <c r="CH87" s="88"/>
+      <c r="CI87" s="88"/>
+      <c r="CJ87" s="88"/>
+      <c r="CK87" s="88"/>
+      <c r="CL87" s="88"/>
+      <c r="CM87" s="88"/>
+      <c r="CN87" s="88"/>
+      <c r="CO87" s="88"/>
+      <c r="CP87" s="88"/>
+      <c r="CQ87" s="88"/>
+      <c r="CR87" s="88"/>
+      <c r="CS87" s="88"/>
+      <c r="CT87" s="88"/>
+      <c r="CU87" s="88"/>
+      <c r="CV87" s="88"/>
+      <c r="CW87" s="88"/>
+      <c r="CX87" s="89"/>
       <c r="CY87" s="21"/>
     </row>
-    <row r="88" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A88" s="69"/>
+    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="74"/>
       <c r="B88" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="71"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="32"/>
-      <c r="S88" s="32"/>
-      <c r="T88" s="32"/>
-      <c r="U88" s="32"/>
-      <c r="V88" s="32"/>
-      <c r="W88" s="32"/>
-      <c r="X88" s="32"/>
-      <c r="Y88" s="32"/>
-      <c r="Z88" s="32"/>
-      <c r="AA88" s="32"/>
-      <c r="AB88" s="32"/>
-      <c r="AC88" s="32"/>
-      <c r="AD88" s="32"/>
-      <c r="AE88" s="32"/>
-      <c r="AF88" s="32"/>
-      <c r="AG88" s="32"/>
-      <c r="AH88" s="32"/>
-      <c r="AI88" s="32"/>
-      <c r="AJ88" s="32"/>
-      <c r="AK88" s="32"/>
-      <c r="AL88" s="32"/>
-      <c r="AM88" s="32"/>
-      <c r="AN88" s="32"/>
-      <c r="AO88" s="32"/>
-      <c r="AP88" s="32"/>
-      <c r="AQ88" s="32"/>
-      <c r="AR88" s="32"/>
-      <c r="AS88" s="32"/>
-      <c r="AT88" s="32"/>
-      <c r="AU88" s="32"/>
-      <c r="AV88" s="32"/>
-      <c r="AW88" s="32"/>
-      <c r="AX88" s="32"/>
-      <c r="AY88" s="32"/>
-      <c r="AZ88" s="32"/>
-      <c r="BA88" s="32"/>
-      <c r="BB88" s="32"/>
-      <c r="BC88" s="32"/>
-      <c r="BD88" s="32"/>
-      <c r="BE88" s="32"/>
-      <c r="BF88" s="32"/>
-      <c r="BG88" s="32"/>
-      <c r="BH88" s="32"/>
-      <c r="BI88" s="32"/>
-      <c r="BJ88" s="32"/>
-      <c r="BK88" s="32"/>
-      <c r="BL88" s="32"/>
-      <c r="BM88" s="32"/>
-      <c r="BN88" s="32"/>
-      <c r="BO88" s="32"/>
-      <c r="BP88" s="32"/>
-      <c r="BQ88" s="32"/>
-      <c r="BR88" s="32"/>
-      <c r="BS88" s="32"/>
-      <c r="BT88" s="32"/>
-      <c r="BU88" s="32"/>
-      <c r="BV88" s="32"/>
-      <c r="BW88" s="32"/>
-      <c r="BX88" s="32"/>
-      <c r="BY88" s="32"/>
-      <c r="BZ88" s="32"/>
-      <c r="CA88" s="32"/>
-      <c r="CB88" s="32"/>
-      <c r="CC88" s="32"/>
-      <c r="CD88" s="32"/>
-      <c r="CE88" s="32"/>
-      <c r="CF88" s="32"/>
-      <c r="CG88" s="32"/>
-      <c r="CH88" s="32"/>
-      <c r="CI88" s="32"/>
-      <c r="CJ88" s="32"/>
-      <c r="CK88" s="32"/>
-      <c r="CL88" s="32"/>
-      <c r="CM88" s="32"/>
-      <c r="CN88" s="32"/>
-      <c r="CO88" s="32"/>
-      <c r="CP88" s="32"/>
-      <c r="CQ88" s="32"/>
-      <c r="CR88" s="32"/>
-      <c r="CS88" s="32"/>
-      <c r="CT88" s="32"/>
-      <c r="CU88" s="32"/>
-      <c r="CV88" s="32"/>
-      <c r="CW88" s="32"/>
-      <c r="CX88" s="33"/>
+      <c r="C88" s="96">
+        <f>SUM(F88:CX88)</f>
+        <v>12</v>
+      </c>
+      <c r="D88" s="95"/>
+      <c r="E88" s="97"/>
+      <c r="F88" s="94"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="K88" s="88"/>
+      <c r="L88" s="88"/>
+      <c r="M88" s="88"/>
+      <c r="N88" s="88"/>
+      <c r="O88" s="88"/>
+      <c r="P88" s="88"/>
+      <c r="Q88" s="88"/>
+      <c r="R88" s="88"/>
+      <c r="S88" s="88"/>
+      <c r="T88" s="88"/>
+      <c r="U88" s="88"/>
+      <c r="V88" s="88"/>
+      <c r="W88" s="88"/>
+      <c r="X88" s="88"/>
+      <c r="Y88" s="88"/>
+      <c r="Z88" s="88"/>
+      <c r="AA88" s="88"/>
+      <c r="AB88" s="88"/>
+      <c r="AC88" s="88"/>
+      <c r="AD88" s="88"/>
+      <c r="AE88" s="88"/>
+      <c r="AF88" s="88"/>
+      <c r="AG88" s="88"/>
+      <c r="AH88" s="88"/>
+      <c r="AI88" s="88"/>
+      <c r="AJ88" s="88"/>
+      <c r="AK88" s="88"/>
+      <c r="AL88" s="88"/>
+      <c r="AM88" s="88"/>
+      <c r="AN88" s="88"/>
+      <c r="AO88" s="88"/>
+      <c r="AP88" s="88"/>
+      <c r="AQ88" s="88"/>
+      <c r="AR88" s="88"/>
+      <c r="AS88" s="88"/>
+      <c r="AT88" s="88"/>
+      <c r="AU88" s="88"/>
+      <c r="AV88" s="88"/>
+      <c r="AW88" s="88"/>
+      <c r="AX88" s="53">
+        <v>2</v>
+      </c>
+      <c r="AY88" s="53">
+        <v>2</v>
+      </c>
+      <c r="AZ88" s="53">
+        <v>2</v>
+      </c>
+      <c r="BA88" s="53">
+        <v>1</v>
+      </c>
+      <c r="BB88" s="88"/>
+      <c r="BC88" s="88"/>
+      <c r="BD88" s="88"/>
+      <c r="BE88" s="88"/>
+      <c r="BF88" s="88"/>
+      <c r="BG88" s="88"/>
+      <c r="BH88" s="88"/>
+      <c r="BI88" s="88"/>
+      <c r="BJ88" s="53">
+        <v>2</v>
+      </c>
+      <c r="BK88" s="88"/>
+      <c r="BL88" s="88"/>
+      <c r="BM88" s="88"/>
+      <c r="BN88" s="88"/>
+      <c r="BO88" s="88"/>
+      <c r="BP88" s="88"/>
+      <c r="BQ88" s="88"/>
+      <c r="BR88" s="88"/>
+      <c r="BS88" s="88"/>
+      <c r="BT88" s="53">
+        <v>1</v>
+      </c>
+      <c r="BU88" s="53">
+        <v>1</v>
+      </c>
+      <c r="BV88" s="53">
+        <v>1</v>
+      </c>
+      <c r="BW88" s="88"/>
+      <c r="BX88" s="88"/>
+      <c r="BY88" s="88"/>
+      <c r="BZ88" s="88"/>
+      <c r="CA88" s="88"/>
+      <c r="CB88" s="88"/>
+      <c r="CC88" s="88"/>
+      <c r="CD88" s="88"/>
+      <c r="CE88" s="88"/>
+      <c r="CF88" s="88"/>
+      <c r="CG88" s="88"/>
+      <c r="CH88" s="88"/>
+      <c r="CI88" s="88"/>
+      <c r="CJ88" s="88"/>
+      <c r="CK88" s="88"/>
+      <c r="CL88" s="88"/>
+      <c r="CM88" s="88"/>
+      <c r="CN88" s="88"/>
+      <c r="CO88" s="88"/>
+      <c r="CP88" s="88"/>
+      <c r="CQ88" s="88"/>
+      <c r="CR88" s="88"/>
+      <c r="CS88" s="88"/>
+      <c r="CT88" s="88"/>
+      <c r="CU88" s="88"/>
+      <c r="CV88" s="88"/>
+      <c r="CW88" s="88"/>
+      <c r="CX88" s="89"/>
       <c r="CY88" s="21"/>
     </row>
-    <row r="89" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="5" t="s">
+    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="96">
+        <f>SUM(F89:CX89)</f>
         <v>9</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="40"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="41"/>
-      <c r="S89" s="41"/>
-      <c r="T89" s="41"/>
-      <c r="U89" s="41"/>
-      <c r="V89" s="41"/>
-      <c r="W89" s="41"/>
-      <c r="X89" s="41"/>
-      <c r="Y89" s="41"/>
-      <c r="Z89" s="41"/>
-      <c r="AA89" s="41"/>
-      <c r="AB89" s="41"/>
-      <c r="AC89" s="41"/>
-      <c r="AD89" s="41"/>
-      <c r="AE89" s="41"/>
-      <c r="AF89" s="41"/>
-      <c r="AG89" s="41"/>
-      <c r="AH89" s="41"/>
-      <c r="AI89" s="41"/>
-      <c r="AJ89" s="41"/>
-      <c r="AK89" s="41"/>
-      <c r="AL89" s="41"/>
-      <c r="AM89" s="41"/>
-      <c r="AN89" s="41"/>
-      <c r="AO89" s="41"/>
-      <c r="AP89" s="41"/>
-      <c r="AQ89" s="41"/>
-      <c r="AR89" s="41"/>
-      <c r="AS89" s="41"/>
-      <c r="AT89" s="41"/>
-      <c r="AU89" s="41"/>
-      <c r="AV89" s="41"/>
-      <c r="AW89" s="41"/>
-      <c r="AX89" s="41"/>
-      <c r="AY89" s="41"/>
-      <c r="AZ89" s="41"/>
-      <c r="BA89" s="41"/>
-      <c r="BB89" s="41"/>
-      <c r="BC89" s="41"/>
-      <c r="BD89" s="41"/>
-      <c r="BE89" s="41"/>
-      <c r="BF89" s="41"/>
-      <c r="BG89" s="41"/>
-      <c r="BH89" s="41"/>
-      <c r="BI89" s="41"/>
-      <c r="BJ89" s="41"/>
-      <c r="BK89" s="41"/>
-      <c r="BL89" s="41"/>
-      <c r="BM89" s="41"/>
-      <c r="BN89" s="41"/>
-      <c r="BO89" s="41"/>
-      <c r="BP89" s="41"/>
-      <c r="BQ89" s="41"/>
-      <c r="BR89" s="41"/>
-      <c r="BS89" s="41"/>
-      <c r="BT89" s="41"/>
-      <c r="BU89" s="41"/>
-      <c r="BV89" s="41"/>
-      <c r="BW89" s="41"/>
-      <c r="BX89" s="41"/>
-      <c r="BY89" s="41"/>
-      <c r="BZ89" s="41"/>
-      <c r="CA89" s="41"/>
-      <c r="CB89" s="41"/>
-      <c r="CC89" s="41"/>
-      <c r="CD89" s="41"/>
-      <c r="CE89" s="41"/>
-      <c r="CF89" s="41"/>
-      <c r="CG89" s="41"/>
-      <c r="CH89" s="41"/>
-      <c r="CI89" s="41"/>
-      <c r="CJ89" s="41"/>
-      <c r="CK89" s="41"/>
-      <c r="CL89" s="41"/>
-      <c r="CM89" s="41"/>
-      <c r="CN89" s="41"/>
-      <c r="CO89" s="41"/>
-      <c r="CP89" s="41"/>
-      <c r="CQ89" s="41"/>
-      <c r="CR89" s="41"/>
-      <c r="CS89" s="41"/>
-      <c r="CT89" s="41"/>
-      <c r="CU89" s="41"/>
-      <c r="CV89" s="41"/>
-      <c r="CW89" s="41"/>
-      <c r="CX89" s="42"/>
+      <c r="D89" s="95">
+        <v>6.04</v>
+      </c>
+      <c r="E89" s="97">
+        <v>4.05</v>
+      </c>
+      <c r="F89" s="94"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="K89" s="88"/>
+      <c r="L89" s="88"/>
+      <c r="M89" s="88"/>
+      <c r="N89" s="88"/>
+      <c r="O89" s="88"/>
+      <c r="P89" s="88"/>
+      <c r="Q89" s="88"/>
+      <c r="R89" s="88"/>
+      <c r="S89" s="88"/>
+      <c r="T89" s="88"/>
+      <c r="U89" s="88"/>
+      <c r="V89" s="88"/>
+      <c r="W89" s="88"/>
+      <c r="X89" s="88"/>
+      <c r="Y89" s="88"/>
+      <c r="Z89" s="88"/>
+      <c r="AA89" s="88"/>
+      <c r="AB89" s="88"/>
+      <c r="AC89" s="88"/>
+      <c r="AD89" s="88"/>
+      <c r="AE89" s="88"/>
+      <c r="AF89" s="88"/>
+      <c r="AG89" s="88"/>
+      <c r="AH89" s="88"/>
+      <c r="AI89" s="88"/>
+      <c r="AJ89" s="88"/>
+      <c r="AK89" s="88"/>
+      <c r="AL89" s="88"/>
+      <c r="AM89" s="88"/>
+      <c r="AN89" s="88"/>
+      <c r="AO89" s="88"/>
+      <c r="AP89" s="88"/>
+      <c r="AQ89" s="88"/>
+      <c r="AR89" s="88"/>
+      <c r="AS89" s="88"/>
+      <c r="AT89" s="88"/>
+      <c r="AU89" s="88"/>
+      <c r="AV89" s="88"/>
+      <c r="AW89" s="88"/>
+      <c r="AX89" s="88"/>
+      <c r="AY89" s="88"/>
+      <c r="AZ89" s="88"/>
+      <c r="BA89" s="88"/>
+      <c r="BB89" s="88"/>
+      <c r="BC89" s="55">
+        <v>2</v>
+      </c>
+      <c r="BD89" s="55">
+        <v>2</v>
+      </c>
+      <c r="BE89" s="88"/>
+      <c r="BF89" s="88"/>
+      <c r="BG89" s="88"/>
+      <c r="BH89" s="88"/>
+      <c r="BI89" s="55">
+        <v>1</v>
+      </c>
+      <c r="BJ89" s="55">
+        <v>3</v>
+      </c>
+      <c r="BK89" s="88"/>
+      <c r="BL89" s="55">
+        <v>1</v>
+      </c>
+      <c r="BM89" s="88"/>
+      <c r="BN89" s="88"/>
+      <c r="BO89" s="88"/>
+      <c r="BP89" s="88"/>
+      <c r="BQ89" s="88"/>
+      <c r="BR89" s="88"/>
+      <c r="BS89" s="88"/>
+      <c r="BT89" s="88"/>
+      <c r="BU89" s="88"/>
+      <c r="BV89" s="88"/>
+      <c r="BW89" s="88"/>
+      <c r="BX89" s="88"/>
+      <c r="BY89" s="88"/>
+      <c r="BZ89" s="88"/>
+      <c r="CA89" s="88"/>
+      <c r="CB89" s="88"/>
+      <c r="CC89" s="88"/>
+      <c r="CD89" s="88"/>
+      <c r="CE89" s="88"/>
+      <c r="CF89" s="88"/>
+      <c r="CG89" s="88"/>
+      <c r="CH89" s="88"/>
+      <c r="CI89" s="88"/>
+      <c r="CJ89" s="88"/>
+      <c r="CK89" s="88"/>
+      <c r="CL89" s="88"/>
+      <c r="CM89" s="88"/>
+      <c r="CN89" s="88"/>
+      <c r="CO89" s="88"/>
+      <c r="CP89" s="88"/>
+      <c r="CQ89" s="88"/>
+      <c r="CR89" s="88"/>
+      <c r="CS89" s="88"/>
+      <c r="CT89" s="88"/>
+      <c r="CU89" s="88"/>
+      <c r="CV89" s="88"/>
+      <c r="CW89" s="88"/>
+      <c r="CX89" s="89"/>
       <c r="CY89" s="21"/>
     </row>
-    <row r="90" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A90" s="68"/>
+    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="74"/>
       <c r="B90" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="70">
-        <v>6.04</v>
-      </c>
-      <c r="E90" s="72">
-        <v>4.05</v>
-      </c>
-      <c r="F90" s="31"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="32"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="32"/>
-      <c r="O90" s="32"/>
-      <c r="P90" s="32"/>
-      <c r="Q90" s="32"/>
-      <c r="R90" s="32"/>
-      <c r="S90" s="32"/>
-      <c r="T90" s="32"/>
-      <c r="U90" s="32"/>
-      <c r="V90" s="32"/>
-      <c r="W90" s="32"/>
-      <c r="X90" s="32"/>
-      <c r="Y90" s="32"/>
-      <c r="Z90" s="32"/>
-      <c r="AA90" s="32"/>
-      <c r="AB90" s="32"/>
-      <c r="AC90" s="32"/>
-      <c r="AD90" s="32"/>
-      <c r="AE90" s="32"/>
-      <c r="AF90" s="32"/>
-      <c r="AG90" s="32"/>
-      <c r="AH90" s="32"/>
-      <c r="AI90" s="32"/>
-      <c r="AJ90" s="32"/>
-      <c r="AK90" s="32"/>
-      <c r="AL90" s="32"/>
-      <c r="AM90" s="32"/>
-      <c r="AN90" s="32"/>
-      <c r="AO90" s="32"/>
-      <c r="AP90" s="32"/>
-      <c r="AQ90" s="32"/>
-      <c r="AR90" s="32"/>
-      <c r="AS90" s="32"/>
-      <c r="AT90" s="32"/>
-      <c r="AU90" s="32"/>
-      <c r="AV90" s="32"/>
-      <c r="AW90" s="32"/>
-      <c r="AX90" s="32"/>
-      <c r="AY90" s="32"/>
-      <c r="AZ90" s="32"/>
-      <c r="BA90" s="32"/>
-      <c r="BB90" s="32"/>
-      <c r="BC90" s="32"/>
-      <c r="BD90" s="32"/>
-      <c r="BE90" s="32"/>
-      <c r="BF90" s="32"/>
-      <c r="BG90" s="32"/>
-      <c r="BH90" s="32"/>
-      <c r="BI90" s="32"/>
-      <c r="BJ90" s="32"/>
-      <c r="BK90" s="32"/>
-      <c r="BL90" s="32"/>
-      <c r="BM90" s="32"/>
-      <c r="BN90" s="32"/>
-      <c r="BO90" s="32"/>
-      <c r="BP90" s="32"/>
-      <c r="BQ90" s="32"/>
-      <c r="BR90" s="32"/>
-      <c r="BS90" s="32"/>
-      <c r="BT90" s="32"/>
-      <c r="BU90" s="32"/>
-      <c r="BV90" s="32"/>
-      <c r="BW90" s="32"/>
-      <c r="BX90" s="32"/>
-      <c r="BY90" s="32"/>
-      <c r="BZ90" s="32"/>
-      <c r="CA90" s="32"/>
-      <c r="CB90" s="32"/>
-      <c r="CC90" s="32"/>
-      <c r="CD90" s="32"/>
-      <c r="CE90" s="32"/>
-      <c r="CF90" s="32"/>
-      <c r="CG90" s="32"/>
-      <c r="CH90" s="32"/>
-      <c r="CI90" s="32"/>
-      <c r="CJ90" s="32"/>
-      <c r="CK90" s="32"/>
-      <c r="CL90" s="32"/>
-      <c r="CM90" s="32"/>
-      <c r="CN90" s="32"/>
-      <c r="CO90" s="32"/>
-      <c r="CP90" s="32"/>
-      <c r="CQ90" s="32"/>
-      <c r="CR90" s="32"/>
-      <c r="CS90" s="32"/>
-      <c r="CT90" s="32"/>
-      <c r="CU90" s="32"/>
-      <c r="CV90" s="32"/>
-      <c r="CW90" s="32"/>
-      <c r="CX90" s="33"/>
+        <v>8</v>
+      </c>
+      <c r="C90" s="96">
+        <f>SUM(F90:CX90)</f>
+        <v>12</v>
+      </c>
+      <c r="D90" s="95"/>
+      <c r="E90" s="97"/>
+      <c r="F90" s="94"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="88"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="88"/>
+      <c r="O90" s="88"/>
+      <c r="P90" s="88"/>
+      <c r="Q90" s="88"/>
+      <c r="R90" s="88"/>
+      <c r="S90" s="88"/>
+      <c r="T90" s="88"/>
+      <c r="U90" s="88"/>
+      <c r="V90" s="88"/>
+      <c r="W90" s="88"/>
+      <c r="X90" s="88"/>
+      <c r="Y90" s="88"/>
+      <c r="Z90" s="88"/>
+      <c r="AA90" s="88"/>
+      <c r="AB90" s="88"/>
+      <c r="AC90" s="88"/>
+      <c r="AD90" s="88"/>
+      <c r="AE90" s="88"/>
+      <c r="AF90" s="88"/>
+      <c r="AG90" s="88"/>
+      <c r="AH90" s="88"/>
+      <c r="AI90" s="88"/>
+      <c r="AJ90" s="88"/>
+      <c r="AK90" s="88"/>
+      <c r="AL90" s="88"/>
+      <c r="AM90" s="88"/>
+      <c r="AN90" s="88"/>
+      <c r="AO90" s="88"/>
+      <c r="AP90" s="88"/>
+      <c r="AQ90" s="88"/>
+      <c r="AR90" s="88"/>
+      <c r="AS90" s="88"/>
+      <c r="AT90" s="88"/>
+      <c r="AU90" s="88"/>
+      <c r="AV90" s="88"/>
+      <c r="AW90" s="88"/>
+      <c r="AX90" s="88"/>
+      <c r="AY90" s="88"/>
+      <c r="AZ90" s="88"/>
+      <c r="BA90" s="88"/>
+      <c r="BB90" s="88"/>
+      <c r="BC90" s="53">
+        <v>3</v>
+      </c>
+      <c r="BD90" s="53">
+        <v>3</v>
+      </c>
+      <c r="BE90" s="88"/>
+      <c r="BF90" s="88"/>
+      <c r="BG90" s="88"/>
+      <c r="BH90" s="88"/>
+      <c r="BI90" s="53">
+        <v>2</v>
+      </c>
+      <c r="BJ90" s="53">
+        <v>3</v>
+      </c>
+      <c r="BK90" s="88"/>
+      <c r="BL90" s="53">
+        <v>1</v>
+      </c>
+      <c r="BM90" s="88"/>
+      <c r="BN90" s="88"/>
+      <c r="BO90" s="88"/>
+      <c r="BP90" s="88"/>
+      <c r="BQ90" s="88"/>
+      <c r="BR90" s="88"/>
+      <c r="BS90" s="88"/>
+      <c r="BT90" s="88"/>
+      <c r="BU90" s="88"/>
+      <c r="BV90" s="88"/>
+      <c r="BW90" s="88"/>
+      <c r="BX90" s="88"/>
+      <c r="BY90" s="88"/>
+      <c r="BZ90" s="88"/>
+      <c r="CA90" s="88"/>
+      <c r="CB90" s="88"/>
+      <c r="CC90" s="88"/>
+      <c r="CD90" s="88"/>
+      <c r="CE90" s="88"/>
+      <c r="CF90" s="88"/>
+      <c r="CG90" s="88"/>
+      <c r="CH90" s="88"/>
+      <c r="CI90" s="88"/>
+      <c r="CJ90" s="88"/>
+      <c r="CK90" s="88"/>
+      <c r="CL90" s="88"/>
+      <c r="CM90" s="88"/>
+      <c r="CN90" s="88"/>
+      <c r="CO90" s="88"/>
+      <c r="CP90" s="88"/>
+      <c r="CQ90" s="88"/>
+      <c r="CR90" s="88"/>
+      <c r="CS90" s="88"/>
+      <c r="CT90" s="88"/>
+      <c r="CU90" s="88"/>
+      <c r="CV90" s="88"/>
+      <c r="CW90" s="88"/>
+      <c r="CX90" s="89"/>
       <c r="CY90" s="21"/>
     </row>
-    <row r="91" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A91" s="69"/>
+    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="73" t="s">
+        <v>64</v>
+      </c>
       <c r="B91" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="71"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="32"/>
-      <c r="M91" s="32"/>
-      <c r="N91" s="32"/>
-      <c r="O91" s="32"/>
-      <c r="P91" s="32"/>
-      <c r="Q91" s="32"/>
-      <c r="R91" s="32"/>
-      <c r="S91" s="32"/>
-      <c r="T91" s="32"/>
-      <c r="U91" s="32"/>
-      <c r="V91" s="32"/>
-      <c r="W91" s="32"/>
-      <c r="X91" s="32"/>
-      <c r="Y91" s="32"/>
-      <c r="Z91" s="32"/>
-      <c r="AA91" s="32"/>
-      <c r="AB91" s="32"/>
-      <c r="AC91" s="32"/>
-      <c r="AD91" s="32"/>
-      <c r="AE91" s="32"/>
-      <c r="AF91" s="32"/>
-      <c r="AG91" s="32"/>
-      <c r="AH91" s="32"/>
-      <c r="AI91" s="32"/>
-      <c r="AJ91" s="32"/>
-      <c r="AK91" s="32"/>
-      <c r="AL91" s="32"/>
-      <c r="AM91" s="32"/>
-      <c r="AN91" s="32"/>
-      <c r="AO91" s="32"/>
-      <c r="AP91" s="32"/>
-      <c r="AQ91" s="32"/>
-      <c r="AR91" s="32"/>
-      <c r="AS91" s="32"/>
-      <c r="AT91" s="32"/>
-      <c r="AU91" s="32"/>
-      <c r="AV91" s="32"/>
-      <c r="AW91" s="32"/>
-      <c r="AX91" s="32"/>
-      <c r="AY91" s="32"/>
-      <c r="AZ91" s="32"/>
-      <c r="BA91" s="32"/>
-      <c r="BB91" s="32"/>
-      <c r="BC91" s="32"/>
-      <c r="BD91" s="32"/>
-      <c r="BE91" s="32"/>
-      <c r="BF91" s="32"/>
-      <c r="BG91" s="32"/>
-      <c r="BH91" s="32"/>
-      <c r="BI91" s="32"/>
-      <c r="BJ91" s="32"/>
-      <c r="BK91" s="32"/>
-      <c r="BL91" s="32"/>
-      <c r="BM91" s="32"/>
-      <c r="BN91" s="32"/>
-      <c r="BO91" s="32"/>
-      <c r="BP91" s="32"/>
-      <c r="BQ91" s="32"/>
-      <c r="BR91" s="32"/>
-      <c r="BS91" s="32"/>
-      <c r="BT91" s="32"/>
-      <c r="BU91" s="32"/>
-      <c r="BV91" s="32"/>
-      <c r="BW91" s="32"/>
-      <c r="BX91" s="32"/>
-      <c r="BY91" s="32"/>
-      <c r="BZ91" s="32"/>
-      <c r="CA91" s="32"/>
-      <c r="CB91" s="32"/>
-      <c r="CC91" s="32"/>
-      <c r="CD91" s="32"/>
-      <c r="CE91" s="32"/>
-      <c r="CF91" s="32"/>
-      <c r="CG91" s="32"/>
-      <c r="CH91" s="32"/>
-      <c r="CI91" s="32"/>
-      <c r="CJ91" s="32"/>
-      <c r="CK91" s="32"/>
-      <c r="CL91" s="32"/>
-      <c r="CM91" s="32"/>
-      <c r="CN91" s="32"/>
-      <c r="CO91" s="32"/>
-      <c r="CP91" s="32"/>
-      <c r="CQ91" s="32"/>
-      <c r="CR91" s="32"/>
-      <c r="CS91" s="32"/>
-      <c r="CT91" s="32"/>
-      <c r="CU91" s="32"/>
-      <c r="CV91" s="32"/>
-      <c r="CW91" s="32"/>
-      <c r="CX91" s="33"/>
+        <v>6</v>
+      </c>
+      <c r="C91" s="96">
+        <f>SUM(F91:CX91)</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="95">
+        <v>6.04</v>
+      </c>
+      <c r="E91" s="97">
+        <v>4.05</v>
+      </c>
+      <c r="F91" s="94"/>
+      <c r="G91" s="88"/>
+      <c r="H91" s="88"/>
+      <c r="I91" s="88"/>
+      <c r="J91" s="88"/>
+      <c r="K91" s="88"/>
+      <c r="L91" s="88"/>
+      <c r="M91" s="88"/>
+      <c r="N91" s="88"/>
+      <c r="O91" s="88"/>
+      <c r="P91" s="88"/>
+      <c r="Q91" s="88"/>
+      <c r="R91" s="88"/>
+      <c r="S91" s="88"/>
+      <c r="T91" s="88"/>
+      <c r="U91" s="88"/>
+      <c r="V91" s="88"/>
+      <c r="W91" s="88"/>
+      <c r="X91" s="88"/>
+      <c r="Y91" s="88"/>
+      <c r="Z91" s="88"/>
+      <c r="AA91" s="88"/>
+      <c r="AB91" s="88"/>
+      <c r="AC91" s="88"/>
+      <c r="AD91" s="88"/>
+      <c r="AE91" s="88"/>
+      <c r="AF91" s="88"/>
+      <c r="AG91" s="88"/>
+      <c r="AH91" s="88"/>
+      <c r="AI91" s="88"/>
+      <c r="AJ91" s="88"/>
+      <c r="AK91" s="88"/>
+      <c r="AL91" s="88"/>
+      <c r="AM91" s="88"/>
+      <c r="AN91" s="88"/>
+      <c r="AO91" s="88"/>
+      <c r="AP91" s="88"/>
+      <c r="AQ91" s="88"/>
+      <c r="AR91" s="88"/>
+      <c r="AS91" s="88"/>
+      <c r="AT91" s="88"/>
+      <c r="AU91" s="88"/>
+      <c r="AV91" s="88"/>
+      <c r="AW91" s="88"/>
+      <c r="AX91" s="88"/>
+      <c r="AY91" s="88"/>
+      <c r="AZ91" s="88"/>
+      <c r="BA91" s="88"/>
+      <c r="BB91" s="88"/>
+      <c r="BC91" s="88"/>
+      <c r="BD91" s="88"/>
+      <c r="BE91" s="88"/>
+      <c r="BF91" s="88"/>
+      <c r="BG91" s="88"/>
+      <c r="BH91" s="88"/>
+      <c r="BI91" s="88"/>
+      <c r="BJ91" s="88"/>
+      <c r="BK91" s="88"/>
+      <c r="BL91" s="88"/>
+      <c r="BM91" s="88"/>
+      <c r="BN91" s="55">
+        <v>0</v>
+      </c>
+      <c r="BO91" s="88"/>
+      <c r="BP91" s="88"/>
+      <c r="BQ91" s="88"/>
+      <c r="BR91" s="88"/>
+      <c r="BS91" s="88"/>
+      <c r="BT91" s="88"/>
+      <c r="BU91" s="88"/>
+      <c r="BV91" s="88"/>
+      <c r="BW91" s="88"/>
+      <c r="BX91" s="88"/>
+      <c r="BY91" s="88"/>
+      <c r="BZ91" s="88"/>
+      <c r="CA91" s="88"/>
+      <c r="CB91" s="88"/>
+      <c r="CC91" s="88"/>
+      <c r="CD91" s="88"/>
+      <c r="CE91" s="88"/>
+      <c r="CF91" s="88"/>
+      <c r="CG91" s="88"/>
+      <c r="CH91" s="88"/>
+      <c r="CI91" s="88"/>
+      <c r="CJ91" s="88"/>
+      <c r="CK91" s="88"/>
+      <c r="CL91" s="88"/>
+      <c r="CM91" s="88"/>
+      <c r="CN91" s="88"/>
+      <c r="CO91" s="88"/>
+      <c r="CP91" s="88"/>
+      <c r="CQ91" s="88"/>
+      <c r="CR91" s="88"/>
+      <c r="CS91" s="88"/>
+      <c r="CT91" s="88"/>
+      <c r="CU91" s="88"/>
+      <c r="CV91" s="88"/>
+      <c r="CW91" s="88"/>
+      <c r="CX91" s="89"/>
       <c r="CY91" s="21"/>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="19" t="s">
+    <row r="92" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A92" s="74"/>
+      <c r="B92" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="40"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="41"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
-      <c r="Q92" s="41"/>
-      <c r="R92" s="41"/>
-      <c r="S92" s="41"/>
-      <c r="T92" s="41"/>
-      <c r="U92" s="41"/>
-      <c r="V92" s="41"/>
-      <c r="W92" s="41"/>
-      <c r="X92" s="41"/>
-      <c r="Y92" s="41"/>
-      <c r="Z92" s="41"/>
-      <c r="AA92" s="41"/>
-      <c r="AB92" s="41"/>
-      <c r="AC92" s="41"/>
-      <c r="AD92" s="41"/>
-      <c r="AE92" s="41"/>
-      <c r="AF92" s="41"/>
-      <c r="AG92" s="41"/>
-      <c r="AH92" s="41"/>
-      <c r="AI92" s="41"/>
-      <c r="AJ92" s="41"/>
-      <c r="AK92" s="41"/>
-      <c r="AL92" s="41"/>
-      <c r="AM92" s="41"/>
-      <c r="AN92" s="41"/>
-      <c r="AO92" s="41"/>
-      <c r="AP92" s="41"/>
-      <c r="AQ92" s="41"/>
-      <c r="AR92" s="41"/>
-      <c r="AS92" s="41"/>
-      <c r="AT92" s="41"/>
-      <c r="AU92" s="41"/>
-      <c r="AV92" s="41"/>
-      <c r="AW92" s="41"/>
-      <c r="AX92" s="41"/>
-      <c r="AY92" s="41"/>
-      <c r="AZ92" s="41"/>
-      <c r="BA92" s="41"/>
-      <c r="BB92" s="41"/>
-      <c r="BC92" s="41"/>
-      <c r="BD92" s="41"/>
-      <c r="BE92" s="41"/>
-      <c r="BF92" s="41"/>
-      <c r="BG92" s="41"/>
-      <c r="BH92" s="41"/>
-      <c r="BI92" s="41"/>
-      <c r="BJ92" s="41"/>
-      <c r="BK92" s="41"/>
-      <c r="BL92" s="41"/>
-      <c r="BM92" s="41"/>
-      <c r="BN92" s="41"/>
-      <c r="BO92" s="41"/>
-      <c r="BP92" s="41"/>
-      <c r="BQ92" s="41"/>
-      <c r="BR92" s="41"/>
-      <c r="BS92" s="41"/>
-      <c r="BT92" s="41"/>
-      <c r="BU92" s="41"/>
-      <c r="BV92" s="41"/>
-      <c r="BW92" s="41"/>
-      <c r="BX92" s="41"/>
-      <c r="BY92" s="41"/>
-      <c r="BZ92" s="41"/>
-      <c r="CA92" s="41"/>
-      <c r="CB92" s="41"/>
-      <c r="CC92" s="41"/>
-      <c r="CD92" s="41"/>
-      <c r="CE92" s="41"/>
-      <c r="CF92" s="41"/>
-      <c r="CG92" s="41"/>
-      <c r="CH92" s="41"/>
-      <c r="CI92" s="41"/>
-      <c r="CJ92" s="41"/>
-      <c r="CK92" s="41"/>
-      <c r="CL92" s="41"/>
-      <c r="CM92" s="41"/>
-      <c r="CN92" s="41"/>
-      <c r="CO92" s="41"/>
-      <c r="CP92" s="41"/>
-      <c r="CQ92" s="41"/>
-      <c r="CR92" s="41"/>
-      <c r="CS92" s="41"/>
-      <c r="CT92" s="41"/>
-      <c r="CU92" s="41"/>
-      <c r="CV92" s="41"/>
-      <c r="CW92" s="41"/>
-      <c r="CX92" s="42"/>
+      <c r="C92" s="96">
+        <f>SUM(F92:CX92)</f>
+        <v>1</v>
+      </c>
+      <c r="D92" s="95"/>
+      <c r="E92" s="97"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="88"/>
+      <c r="I92" s="88"/>
+      <c r="J92" s="88"/>
+      <c r="K92" s="88"/>
+      <c r="L92" s="88"/>
+      <c r="M92" s="88"/>
+      <c r="N92" s="88"/>
+      <c r="O92" s="88"/>
+      <c r="P92" s="88"/>
+      <c r="Q92" s="88"/>
+      <c r="R92" s="88"/>
+      <c r="S92" s="88"/>
+      <c r="T92" s="88"/>
+      <c r="U92" s="88"/>
+      <c r="V92" s="88"/>
+      <c r="W92" s="88"/>
+      <c r="X92" s="88"/>
+      <c r="Y92" s="88"/>
+      <c r="Z92" s="88"/>
+      <c r="AA92" s="88"/>
+      <c r="AB92" s="88"/>
+      <c r="AC92" s="88"/>
+      <c r="AD92" s="88"/>
+      <c r="AE92" s="88"/>
+      <c r="AF92" s="88"/>
+      <c r="AG92" s="88"/>
+      <c r="AH92" s="88"/>
+      <c r="AI92" s="88"/>
+      <c r="AJ92" s="88"/>
+      <c r="AK92" s="88"/>
+      <c r="AL92" s="88"/>
+      <c r="AM92" s="88"/>
+      <c r="AN92" s="88"/>
+      <c r="AO92" s="88"/>
+      <c r="AP92" s="88"/>
+      <c r="AQ92" s="88"/>
+      <c r="AR92" s="88"/>
+      <c r="AS92" s="88"/>
+      <c r="AT92" s="88"/>
+      <c r="AU92" s="88"/>
+      <c r="AV92" s="88"/>
+      <c r="AW92" s="88"/>
+      <c r="AX92" s="88"/>
+      <c r="AY92" s="88"/>
+      <c r="AZ92" s="88"/>
+      <c r="BA92" s="88"/>
+      <c r="BB92" s="88"/>
+      <c r="BC92" s="88"/>
+      <c r="BD92" s="88"/>
+      <c r="BE92" s="88"/>
+      <c r="BF92" s="88"/>
+      <c r="BG92" s="88"/>
+      <c r="BH92" s="88"/>
+      <c r="BI92" s="88"/>
+      <c r="BJ92" s="88"/>
+      <c r="BK92" s="88"/>
+      <c r="BL92" s="88"/>
+      <c r="BM92" s="88"/>
+      <c r="BN92" s="53">
+        <v>1</v>
+      </c>
+      <c r="BO92" s="88"/>
+      <c r="BP92" s="88"/>
+      <c r="BQ92" s="88"/>
+      <c r="BR92" s="88"/>
+      <c r="BS92" s="88"/>
+      <c r="BT92" s="88"/>
+      <c r="BU92" s="88"/>
+      <c r="BV92" s="88"/>
+      <c r="BW92" s="88"/>
+      <c r="BX92" s="88"/>
+      <c r="BY92" s="88"/>
+      <c r="BZ92" s="88"/>
+      <c r="CA92" s="88"/>
+      <c r="CB92" s="88"/>
+      <c r="CC92" s="88"/>
+      <c r="CD92" s="88"/>
+      <c r="CE92" s="88"/>
+      <c r="CF92" s="88"/>
+      <c r="CG92" s="88"/>
+      <c r="CH92" s="88"/>
+      <c r="CI92" s="88"/>
+      <c r="CJ92" s="88"/>
+      <c r="CK92" s="88"/>
+      <c r="CL92" s="88"/>
+      <c r="CM92" s="88"/>
+      <c r="CN92" s="88"/>
+      <c r="CO92" s="88"/>
+      <c r="CP92" s="88"/>
+      <c r="CQ92" s="88"/>
+      <c r="CR92" s="88"/>
+      <c r="CS92" s="88"/>
+      <c r="CT92" s="88"/>
+      <c r="CU92" s="88"/>
+      <c r="CV92" s="88"/>
+      <c r="CW92" s="88"/>
+      <c r="CX92" s="89"/>
       <c r="CY92" s="21"/>
     </row>
-    <row r="93" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A93" s="68" t="s">
-        <v>56</v>
+    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="73" t="s">
+        <v>52</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="9">
-        <v>5</v>
-      </c>
-      <c r="D93" s="70">
+      <c r="C93" s="96">
+        <f>SUM(F93:CX93)</f>
+        <v>2</v>
+      </c>
+      <c r="D93" s="95">
         <v>6.04</v>
       </c>
-      <c r="E93" s="72">
+      <c r="E93" s="97">
         <v>4.05</v>
       </c>
-      <c r="F93" s="31"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="32"/>
-      <c r="N93" s="32"/>
-      <c r="O93" s="32"/>
-      <c r="P93" s="32"/>
-      <c r="Q93" s="32"/>
-      <c r="R93" s="32"/>
-      <c r="S93" s="32"/>
-      <c r="T93" s="32"/>
-      <c r="U93" s="32"/>
-      <c r="V93" s="32"/>
-      <c r="W93" s="32"/>
-      <c r="X93" s="32"/>
-      <c r="Y93" s="32"/>
-      <c r="Z93" s="32"/>
-      <c r="AA93" s="32"/>
-      <c r="AB93" s="32"/>
-      <c r="AC93" s="32"/>
-      <c r="AD93" s="32"/>
-      <c r="AE93" s="32"/>
-      <c r="AF93" s="32"/>
-      <c r="AG93" s="32"/>
-      <c r="AH93" s="32"/>
-      <c r="AI93" s="32"/>
-      <c r="AJ93" s="32"/>
-      <c r="AK93" s="32"/>
-      <c r="AL93" s="32"/>
-      <c r="AM93" s="32"/>
-      <c r="AN93" s="32"/>
-      <c r="AO93" s="32"/>
-      <c r="AP93" s="32"/>
-      <c r="AQ93" s="32"/>
-      <c r="AR93" s="32"/>
-      <c r="AS93" s="32"/>
-      <c r="AT93" s="32"/>
-      <c r="AU93" s="32"/>
-      <c r="AV93" s="32"/>
-      <c r="AW93" s="32"/>
-      <c r="AX93" s="55">
+      <c r="F93" s="94"/>
+      <c r="G93" s="88"/>
+      <c r="H93" s="88"/>
+      <c r="I93" s="88"/>
+      <c r="J93" s="88"/>
+      <c r="K93" s="88"/>
+      <c r="L93" s="88"/>
+      <c r="M93" s="88"/>
+      <c r="N93" s="88"/>
+      <c r="O93" s="88"/>
+      <c r="P93" s="88"/>
+      <c r="Q93" s="88"/>
+      <c r="R93" s="88"/>
+      <c r="S93" s="88"/>
+      <c r="T93" s="88"/>
+      <c r="U93" s="88"/>
+      <c r="V93" s="88"/>
+      <c r="W93" s="88"/>
+      <c r="X93" s="88"/>
+      <c r="Y93" s="88"/>
+      <c r="Z93" s="88"/>
+      <c r="AA93" s="88"/>
+      <c r="AB93" s="88"/>
+      <c r="AC93" s="88"/>
+      <c r="AD93" s="88"/>
+      <c r="AE93" s="88"/>
+      <c r="AF93" s="88"/>
+      <c r="AG93" s="88"/>
+      <c r="AH93" s="88"/>
+      <c r="AI93" s="88"/>
+      <c r="AJ93" s="88"/>
+      <c r="AK93" s="88"/>
+      <c r="AL93" s="88"/>
+      <c r="AM93" s="88"/>
+      <c r="AN93" s="88"/>
+      <c r="AO93" s="88"/>
+      <c r="AP93" s="88"/>
+      <c r="AQ93" s="88"/>
+      <c r="AR93" s="88"/>
+      <c r="AS93" s="88"/>
+      <c r="AT93" s="88"/>
+      <c r="AU93" s="88"/>
+      <c r="AV93" s="88"/>
+      <c r="AW93" s="88"/>
+      <c r="AX93" s="88"/>
+      <c r="AY93" s="88"/>
+      <c r="AZ93" s="88"/>
+      <c r="BA93" s="88"/>
+      <c r="BB93" s="88"/>
+      <c r="BC93" s="88"/>
+      <c r="BD93" s="88"/>
+      <c r="BE93" s="88"/>
+      <c r="BF93" s="88"/>
+      <c r="BG93" s="88"/>
+      <c r="BH93" s="88"/>
+      <c r="BI93" s="88"/>
+      <c r="BJ93" s="88"/>
+      <c r="BK93" s="88"/>
+      <c r="BL93" s="88"/>
+      <c r="BM93" s="88"/>
+      <c r="BN93" s="88"/>
+      <c r="BO93" s="55">
         <v>2</v>
       </c>
-      <c r="AY93" s="32"/>
-      <c r="AZ93" s="32"/>
-      <c r="BA93" s="32"/>
-      <c r="BB93" s="32"/>
-      <c r="BC93" s="32"/>
-      <c r="BD93" s="32"/>
-      <c r="BE93" s="32"/>
-      <c r="BF93" s="32"/>
-      <c r="BG93" s="32"/>
-      <c r="BH93" s="32"/>
-      <c r="BI93" s="32"/>
-      <c r="BJ93" s="32"/>
-      <c r="BK93" s="32"/>
-      <c r="BL93" s="32"/>
-      <c r="BM93" s="32"/>
-      <c r="BN93" s="32"/>
-      <c r="BO93" s="32"/>
-      <c r="BP93" s="32"/>
-      <c r="BQ93" s="32"/>
-      <c r="BR93" s="32"/>
-      <c r="BS93" s="32"/>
-      <c r="BT93" s="32"/>
-      <c r="BU93" s="32"/>
-      <c r="BV93" s="32"/>
-      <c r="BW93" s="32"/>
-      <c r="BX93" s="32"/>
-      <c r="BY93" s="32"/>
-      <c r="BZ93" s="32"/>
-      <c r="CA93" s="32"/>
-      <c r="CB93" s="32"/>
-      <c r="CC93" s="32"/>
-      <c r="CD93" s="32"/>
-      <c r="CE93" s="32"/>
-      <c r="CF93" s="32"/>
-      <c r="CG93" s="32"/>
-      <c r="CH93" s="32"/>
-      <c r="CI93" s="32"/>
-      <c r="CJ93" s="32"/>
-      <c r="CK93" s="32"/>
-      <c r="CL93" s="32"/>
-      <c r="CM93" s="32"/>
-      <c r="CN93" s="32"/>
-      <c r="CO93" s="32"/>
-      <c r="CP93" s="32"/>
-      <c r="CQ93" s="32"/>
-      <c r="CR93" s="32"/>
-      <c r="CS93" s="32"/>
-      <c r="CT93" s="32"/>
-      <c r="CU93" s="32"/>
-      <c r="CV93" s="32"/>
-      <c r="CW93" s="32"/>
-      <c r="CX93" s="33"/>
+      <c r="BP93" s="88"/>
+      <c r="BQ93" s="88"/>
+      <c r="BR93" s="88"/>
+      <c r="BS93" s="88"/>
+      <c r="BT93" s="88"/>
+      <c r="BU93" s="88"/>
+      <c r="BV93" s="88"/>
+      <c r="BW93" s="88"/>
+      <c r="BX93" s="88"/>
+      <c r="BY93" s="88"/>
+      <c r="BZ93" s="88"/>
+      <c r="CA93" s="88"/>
+      <c r="CB93" s="88"/>
+      <c r="CC93" s="88"/>
+      <c r="CD93" s="88"/>
+      <c r="CE93" s="88"/>
+      <c r="CF93" s="88"/>
+      <c r="CG93" s="88"/>
+      <c r="CH93" s="88"/>
+      <c r="CI93" s="88"/>
+      <c r="CJ93" s="88"/>
+      <c r="CK93" s="88"/>
+      <c r="CL93" s="88"/>
+      <c r="CM93" s="88"/>
+      <c r="CN93" s="88"/>
+      <c r="CO93" s="88"/>
+      <c r="CP93" s="88"/>
+      <c r="CQ93" s="88"/>
+      <c r="CR93" s="88"/>
+      <c r="CS93" s="88"/>
+      <c r="CT93" s="88"/>
+      <c r="CU93" s="88"/>
+      <c r="CV93" s="88"/>
+      <c r="CW93" s="88"/>
+      <c r="CX93" s="89"/>
       <c r="CY93" s="21"/>
     </row>
-    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="69"/>
+    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="74"/>
       <c r="B94" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="32"/>
-      <c r="M94" s="32"/>
-      <c r="N94" s="32"/>
-      <c r="O94" s="32"/>
-      <c r="P94" s="32"/>
-      <c r="Q94" s="32"/>
-      <c r="R94" s="32"/>
-      <c r="S94" s="32"/>
-      <c r="T94" s="32"/>
-      <c r="U94" s="32"/>
-      <c r="V94" s="32"/>
-      <c r="W94" s="32"/>
-      <c r="X94" s="32"/>
-      <c r="Y94" s="32"/>
-      <c r="Z94" s="32"/>
-      <c r="AA94" s="32"/>
-      <c r="AB94" s="32"/>
-      <c r="AC94" s="32"/>
-      <c r="AD94" s="32"/>
-      <c r="AE94" s="32"/>
-      <c r="AF94" s="32"/>
-      <c r="AG94" s="32"/>
-      <c r="AH94" s="32"/>
-      <c r="AI94" s="32"/>
-      <c r="AJ94" s="32"/>
-      <c r="AK94" s="32"/>
-      <c r="AL94" s="32"/>
-      <c r="AM94" s="32"/>
-      <c r="AN94" s="32"/>
-      <c r="AO94" s="32"/>
-      <c r="AP94" s="32"/>
-      <c r="AQ94" s="32"/>
-      <c r="AR94" s="32"/>
-      <c r="AS94" s="32"/>
-      <c r="AT94" s="32"/>
-      <c r="AU94" s="32"/>
-      <c r="AV94" s="32"/>
-      <c r="AW94" s="32"/>
-      <c r="AX94" s="53">
+      <c r="C94" s="96">
+        <f>SUM(F94:CX94)</f>
         <v>2</v>
       </c>
-      <c r="AY94" s="32"/>
-      <c r="AZ94" s="32"/>
-      <c r="BA94" s="32"/>
-      <c r="BB94" s="32"/>
-      <c r="BC94" s="32"/>
-      <c r="BD94" s="32"/>
-      <c r="BE94" s="32"/>
-      <c r="BF94" s="32"/>
-      <c r="BG94" s="32"/>
-      <c r="BH94" s="32"/>
-      <c r="BI94" s="32"/>
-      <c r="BJ94" s="32"/>
-      <c r="BK94" s="32"/>
-      <c r="BL94" s="32"/>
-      <c r="BM94" s="32"/>
-      <c r="BN94" s="32"/>
-      <c r="BO94" s="32"/>
-      <c r="BP94" s="32"/>
-      <c r="BQ94" s="32"/>
-      <c r="BR94" s="32"/>
-      <c r="BS94" s="32"/>
-      <c r="BT94" s="32"/>
-      <c r="BU94" s="32"/>
-      <c r="BV94" s="32"/>
-      <c r="BW94" s="32"/>
-      <c r="BX94" s="32"/>
-      <c r="BY94" s="32"/>
-      <c r="BZ94" s="32"/>
-      <c r="CA94" s="32"/>
-      <c r="CB94" s="32"/>
-      <c r="CC94" s="32"/>
-      <c r="CD94" s="32"/>
-      <c r="CE94" s="32"/>
-      <c r="CF94" s="32"/>
-      <c r="CG94" s="32"/>
-      <c r="CH94" s="32"/>
-      <c r="CI94" s="32"/>
-      <c r="CJ94" s="32"/>
-      <c r="CK94" s="32"/>
-      <c r="CL94" s="32"/>
-      <c r="CM94" s="32"/>
-      <c r="CN94" s="32"/>
-      <c r="CO94" s="32"/>
-      <c r="CP94" s="32"/>
-      <c r="CQ94" s="32"/>
-      <c r="CR94" s="32"/>
-      <c r="CS94" s="32"/>
-      <c r="CT94" s="32"/>
-      <c r="CU94" s="32"/>
-      <c r="CV94" s="32"/>
-      <c r="CW94" s="32"/>
-      <c r="CX94" s="33"/>
+      <c r="D94" s="95"/>
+      <c r="E94" s="97"/>
+      <c r="F94" s="94"/>
+      <c r="G94" s="88"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="88"/>
+      <c r="J94" s="88"/>
+      <c r="K94" s="88"/>
+      <c r="L94" s="88"/>
+      <c r="M94" s="88"/>
+      <c r="N94" s="88"/>
+      <c r="O94" s="88"/>
+      <c r="P94" s="88"/>
+      <c r="Q94" s="88"/>
+      <c r="R94" s="88"/>
+      <c r="S94" s="88"/>
+      <c r="T94" s="88"/>
+      <c r="U94" s="88"/>
+      <c r="V94" s="88"/>
+      <c r="W94" s="88"/>
+      <c r="X94" s="88"/>
+      <c r="Y94" s="88"/>
+      <c r="Z94" s="88"/>
+      <c r="AA94" s="88"/>
+      <c r="AB94" s="88"/>
+      <c r="AC94" s="88"/>
+      <c r="AD94" s="88"/>
+      <c r="AE94" s="88"/>
+      <c r="AF94" s="88"/>
+      <c r="AG94" s="88"/>
+      <c r="AH94" s="88"/>
+      <c r="AI94" s="88"/>
+      <c r="AJ94" s="88"/>
+      <c r="AK94" s="88"/>
+      <c r="AL94" s="88"/>
+      <c r="AM94" s="88"/>
+      <c r="AN94" s="88"/>
+      <c r="AO94" s="88"/>
+      <c r="AP94" s="88"/>
+      <c r="AQ94" s="88"/>
+      <c r="AR94" s="88"/>
+      <c r="AS94" s="88"/>
+      <c r="AT94" s="88"/>
+      <c r="AU94" s="88"/>
+      <c r="AV94" s="88"/>
+      <c r="AW94" s="88"/>
+      <c r="AX94" s="88"/>
+      <c r="AY94" s="88"/>
+      <c r="AZ94" s="88"/>
+      <c r="BA94" s="88"/>
+      <c r="BB94" s="88"/>
+      <c r="BC94" s="88"/>
+      <c r="BD94" s="88"/>
+      <c r="BE94" s="88"/>
+      <c r="BF94" s="88"/>
+      <c r="BG94" s="88"/>
+      <c r="BH94" s="88"/>
+      <c r="BI94" s="88"/>
+      <c r="BJ94" s="88"/>
+      <c r="BK94" s="88"/>
+      <c r="BL94" s="88"/>
+      <c r="BM94" s="88"/>
+      <c r="BN94" s="88"/>
+      <c r="BO94" s="53">
+        <v>2</v>
+      </c>
+      <c r="BP94" s="88"/>
+      <c r="BQ94" s="88"/>
+      <c r="BR94" s="88"/>
+      <c r="BS94" s="88"/>
+      <c r="BT94" s="88"/>
+      <c r="BU94" s="88"/>
+      <c r="BV94" s="88"/>
+      <c r="BW94" s="88"/>
+      <c r="BX94" s="88"/>
+      <c r="BY94" s="88"/>
+      <c r="BZ94" s="88"/>
+      <c r="CA94" s="88"/>
+      <c r="CB94" s="88"/>
+      <c r="CC94" s="88"/>
+      <c r="CD94" s="88"/>
+      <c r="CE94" s="88"/>
+      <c r="CF94" s="88"/>
+      <c r="CG94" s="88"/>
+      <c r="CH94" s="88"/>
+      <c r="CI94" s="88"/>
+      <c r="CJ94" s="88"/>
+      <c r="CK94" s="88"/>
+      <c r="CL94" s="88"/>
+      <c r="CM94" s="88"/>
+      <c r="CN94" s="88"/>
+      <c r="CO94" s="88"/>
+      <c r="CP94" s="88"/>
+      <c r="CQ94" s="88"/>
+      <c r="CR94" s="88"/>
+      <c r="CS94" s="88"/>
+      <c r="CT94" s="88"/>
+      <c r="CU94" s="88"/>
+      <c r="CV94" s="88"/>
+      <c r="CW94" s="88"/>
+      <c r="CX94" s="89"/>
       <c r="CY94" s="21"/>
     </row>
-    <row r="95" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>9</v>
@@ -12720,7 +12836,7 @@
       <c r="C95" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="90" t="s">
         <v>8</v>
       </c>
       <c r="E95" s="23" t="s">
@@ -12825,20 +12941,18 @@
       <c r="CX95" s="42"/>
       <c r="CY95" s="21"/>
     </row>
-    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="68" t="s">
-        <v>58</v>
-      </c>
+    <row r="96" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A96" s="73"/>
       <c r="B96" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="9">
-        <v>6</v>
-      </c>
-      <c r="D96" s="70">
+      <c r="C96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="75">
         <v>6.04</v>
       </c>
-      <c r="E96" s="72">
+      <c r="E96" s="68">
         <v>4.05</v>
       </c>
       <c r="F96" s="31"/>
@@ -12901,9 +13015,7 @@
       <c r="BK96" s="32"/>
       <c r="BL96" s="32"/>
       <c r="BM96" s="32"/>
-      <c r="BN96" s="55">
-        <v>6</v>
-      </c>
+      <c r="BN96" s="32"/>
       <c r="BO96" s="32"/>
       <c r="BP96" s="32"/>
       <c r="BQ96" s="32"/>
@@ -12942,16 +13054,16 @@
       <c r="CX96" s="33"/>
       <c r="CY96" s="21"/>
     </row>
-    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="69"/>
+    <row r="97" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A97" s="74"/>
       <c r="B97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="9">
-        <v>5</v>
-      </c>
-      <c r="D97" s="71"/>
-      <c r="E97" s="72"/>
+      <c r="C97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="76"/>
+      <c r="E97" s="68"/>
       <c r="F97" s="31"/>
       <c r="G97" s="32"/>
       <c r="H97" s="32"/>
@@ -13012,9 +13124,7 @@
       <c r="BK97" s="32"/>
       <c r="BL97" s="32"/>
       <c r="BM97" s="32"/>
-      <c r="BN97" s="53">
-        <v>5</v>
-      </c>
+      <c r="BN97" s="32"/>
       <c r="BO97" s="32"/>
       <c r="BP97" s="32"/>
       <c r="BQ97" s="32"/>
@@ -13053,133 +13163,137 @@
       <c r="CX97" s="33"/>
       <c r="CY97" s="21"/>
     </row>
-    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="9">
-        <v>1</v>
-      </c>
-      <c r="D98" s="70">
-        <v>6.04</v>
-      </c>
-      <c r="E98" s="72">
-        <v>4.05</v>
-      </c>
-      <c r="F98" s="31"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="32"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="32"/>
-      <c r="P98" s="32"/>
-      <c r="Q98" s="32"/>
-      <c r="R98" s="32"/>
-      <c r="S98" s="32"/>
-      <c r="T98" s="32"/>
-      <c r="U98" s="32"/>
-      <c r="V98" s="32"/>
-      <c r="W98" s="32"/>
-      <c r="X98" s="32"/>
-      <c r="Y98" s="32"/>
-      <c r="Z98" s="32"/>
-      <c r="AA98" s="32"/>
-      <c r="AB98" s="32"/>
-      <c r="AC98" s="32"/>
-      <c r="AD98" s="32"/>
-      <c r="AE98" s="32"/>
-      <c r="AF98" s="32"/>
-      <c r="AG98" s="32"/>
-      <c r="AH98" s="32"/>
-      <c r="AI98" s="32"/>
-      <c r="AJ98" s="32"/>
-      <c r="AK98" s="32"/>
-      <c r="AL98" s="32"/>
-      <c r="AM98" s="32"/>
-      <c r="AN98" s="32"/>
-      <c r="AO98" s="32"/>
-      <c r="AP98" s="32"/>
-      <c r="AQ98" s="32"/>
-      <c r="AR98" s="32"/>
-      <c r="AS98" s="32"/>
-      <c r="AT98" s="32"/>
-      <c r="AU98" s="32"/>
-      <c r="AV98" s="32"/>
-      <c r="AW98" s="32"/>
-      <c r="AX98" s="32"/>
-      <c r="AY98" s="32"/>
-      <c r="AZ98" s="32"/>
-      <c r="BA98" s="32"/>
-      <c r="BB98" s="32"/>
-      <c r="BC98" s="32"/>
-      <c r="BD98" s="55">
-        <v>1</v>
-      </c>
-      <c r="BE98" s="32"/>
-      <c r="BF98" s="32"/>
-      <c r="BG98" s="32"/>
-      <c r="BH98" s="32"/>
-      <c r="BI98" s="32"/>
-      <c r="BJ98" s="32"/>
-      <c r="BK98" s="32"/>
-      <c r="BL98" s="32"/>
-      <c r="BM98" s="32"/>
-      <c r="BN98" s="32"/>
-      <c r="BO98" s="32"/>
-      <c r="BP98" s="32"/>
-      <c r="BQ98" s="32"/>
-      <c r="BR98" s="32"/>
-      <c r="BS98" s="32"/>
-      <c r="BT98" s="32"/>
-      <c r="BU98" s="32"/>
-      <c r="BV98" s="32"/>
-      <c r="BW98" s="32"/>
-      <c r="BX98" s="32"/>
-      <c r="BY98" s="32"/>
-      <c r="BZ98" s="32"/>
-      <c r="CA98" s="32"/>
-      <c r="CB98" s="32"/>
-      <c r="CC98" s="32"/>
-      <c r="CD98" s="32"/>
-      <c r="CE98" s="32"/>
-      <c r="CF98" s="32"/>
-      <c r="CG98" s="32"/>
-      <c r="CH98" s="32"/>
-      <c r="CI98" s="32"/>
-      <c r="CJ98" s="32"/>
-      <c r="CK98" s="32"/>
-      <c r="CL98" s="32"/>
-      <c r="CM98" s="32"/>
-      <c r="CN98" s="32"/>
-      <c r="CO98" s="32"/>
-      <c r="CP98" s="32"/>
-      <c r="CQ98" s="32"/>
-      <c r="CR98" s="32"/>
-      <c r="CS98" s="32"/>
-      <c r="CT98" s="32"/>
-      <c r="CU98" s="32"/>
-      <c r="CV98" s="32"/>
-      <c r="CW98" s="32"/>
-      <c r="CX98" s="33"/>
+    <row r="98" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="40"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="41"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="41"/>
+      <c r="P98" s="41"/>
+      <c r="Q98" s="41"/>
+      <c r="R98" s="41"/>
+      <c r="S98" s="41"/>
+      <c r="T98" s="41"/>
+      <c r="U98" s="41"/>
+      <c r="V98" s="41"/>
+      <c r="W98" s="41"/>
+      <c r="X98" s="41"/>
+      <c r="Y98" s="41"/>
+      <c r="Z98" s="41"/>
+      <c r="AA98" s="41"/>
+      <c r="AB98" s="41"/>
+      <c r="AC98" s="41"/>
+      <c r="AD98" s="41"/>
+      <c r="AE98" s="41"/>
+      <c r="AF98" s="41"/>
+      <c r="AG98" s="41"/>
+      <c r="AH98" s="41"/>
+      <c r="AI98" s="41"/>
+      <c r="AJ98" s="41"/>
+      <c r="AK98" s="41"/>
+      <c r="AL98" s="41"/>
+      <c r="AM98" s="41"/>
+      <c r="AN98" s="41"/>
+      <c r="AO98" s="41"/>
+      <c r="AP98" s="41"/>
+      <c r="AQ98" s="41"/>
+      <c r="AR98" s="41"/>
+      <c r="AS98" s="41"/>
+      <c r="AT98" s="41"/>
+      <c r="AU98" s="41"/>
+      <c r="AV98" s="41"/>
+      <c r="AW98" s="41"/>
+      <c r="AX98" s="41"/>
+      <c r="AY98" s="41"/>
+      <c r="AZ98" s="41"/>
+      <c r="BA98" s="41"/>
+      <c r="BB98" s="41"/>
+      <c r="BC98" s="41"/>
+      <c r="BD98" s="41"/>
+      <c r="BE98" s="41"/>
+      <c r="BF98" s="41"/>
+      <c r="BG98" s="41"/>
+      <c r="BH98" s="41"/>
+      <c r="BI98" s="41"/>
+      <c r="BJ98" s="41"/>
+      <c r="BK98" s="41"/>
+      <c r="BL98" s="41"/>
+      <c r="BM98" s="41"/>
+      <c r="BN98" s="41"/>
+      <c r="BO98" s="41"/>
+      <c r="BP98" s="41"/>
+      <c r="BQ98" s="41"/>
+      <c r="BR98" s="41"/>
+      <c r="BS98" s="41"/>
+      <c r="BT98" s="41"/>
+      <c r="BU98" s="41"/>
+      <c r="BV98" s="41"/>
+      <c r="BW98" s="41"/>
+      <c r="BX98" s="41"/>
+      <c r="BY98" s="41"/>
+      <c r="BZ98" s="41"/>
+      <c r="CA98" s="41"/>
+      <c r="CB98" s="41"/>
+      <c r="CC98" s="41"/>
+      <c r="CD98" s="41"/>
+      <c r="CE98" s="41"/>
+      <c r="CF98" s="41"/>
+      <c r="CG98" s="41"/>
+      <c r="CH98" s="41"/>
+      <c r="CI98" s="41"/>
+      <c r="CJ98" s="41"/>
+      <c r="CK98" s="41"/>
+      <c r="CL98" s="41"/>
+      <c r="CM98" s="41"/>
+      <c r="CN98" s="41"/>
+      <c r="CO98" s="41"/>
+      <c r="CP98" s="41"/>
+      <c r="CQ98" s="41"/>
+      <c r="CR98" s="41"/>
+      <c r="CS98" s="41"/>
+      <c r="CT98" s="41"/>
+      <c r="CU98" s="41"/>
+      <c r="CV98" s="41"/>
+      <c r="CW98" s="41"/>
+      <c r="CX98" s="42"/>
       <c r="CY98" s="21"/>
     </row>
-    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="69"/>
+    <row r="99" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A99" s="73" t="s">
+        <v>55</v>
+      </c>
       <c r="B99" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" s="9">
-        <v>3</v>
-      </c>
-      <c r="D99" s="71"/>
-      <c r="E99" s="72"/>
+        <v>5</v>
+      </c>
+      <c r="D99" s="75">
+        <v>6.04</v>
+      </c>
+      <c r="E99" s="68">
+        <v>4.05</v>
+      </c>
       <c r="F99" s="31"/>
       <c r="G99" s="32"/>
       <c r="H99" s="32"/>
@@ -13224,15 +13338,15 @@
       <c r="AU99" s="32"/>
       <c r="AV99" s="32"/>
       <c r="AW99" s="32"/>
-      <c r="AX99" s="32"/>
+      <c r="AX99" s="55">
+        <v>2</v>
+      </c>
       <c r="AY99" s="32"/>
       <c r="AZ99" s="32"/>
       <c r="BA99" s="32"/>
       <c r="BB99" s="32"/>
       <c r="BC99" s="32"/>
-      <c r="BD99" s="53">
-        <v>3</v>
-      </c>
+      <c r="BD99" s="32"/>
       <c r="BE99" s="32"/>
       <c r="BF99" s="32"/>
       <c r="BG99" s="32"/>
@@ -13281,22 +13395,14 @@
       <c r="CX99" s="33"/>
       <c r="CY99" s="21"/>
     </row>
-    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="68" t="s">
-        <v>59</v>
-      </c>
+    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="74"/>
       <c r="B100" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="9">
-        <v>1</v>
-      </c>
-      <c r="D100" s="70">
-        <v>6.04</v>
-      </c>
-      <c r="E100" s="72">
-        <v>4.05</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="68"/>
       <c r="F100" s="31"/>
       <c r="G100" s="32"/>
       <c r="H100" s="32"/>
@@ -13341,27 +13447,26 @@
       <c r="AU100" s="32"/>
       <c r="AV100" s="32"/>
       <c r="AW100" s="32"/>
-      <c r="AX100" s="32"/>
+      <c r="AX100" s="53">
+        <v>2</v>
+      </c>
       <c r="AY100" s="32"/>
       <c r="AZ100" s="32"/>
       <c r="BA100" s="32"/>
       <c r="BB100" s="32"/>
       <c r="BC100" s="32"/>
+      <c r="BD100" s="32"/>
       <c r="BE100" s="32"/>
       <c r="BF100" s="32"/>
       <c r="BG100" s="32"/>
-      <c r="BH100" s="55">
-        <v>0.5</v>
-      </c>
+      <c r="BH100" s="32"/>
       <c r="BI100" s="32"/>
       <c r="BJ100" s="32"/>
       <c r="BK100" s="32"/>
       <c r="BL100" s="32"/>
       <c r="BM100" s="32"/>
       <c r="BN100" s="32"/>
-      <c r="BO100" s="55">
-        <v>0.5</v>
-      </c>
+      <c r="BO100" s="32"/>
       <c r="BP100" s="32"/>
       <c r="BQ100" s="32"/>
       <c r="BR100" s="32"/>
@@ -13399,133 +13504,135 @@
       <c r="CX100" s="33"/>
       <c r="CY100" s="21"/>
     </row>
-    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="69"/>
-      <c r="B101" s="7" t="s">
+    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="9">
-        <v>1</v>
-      </c>
-      <c r="D101" s="71"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="32"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="32"/>
-      <c r="P101" s="32"/>
-      <c r="Q101" s="32"/>
-      <c r="R101" s="32"/>
-      <c r="S101" s="32"/>
-      <c r="T101" s="32"/>
-      <c r="U101" s="32"/>
-      <c r="V101" s="32"/>
-      <c r="W101" s="32"/>
-      <c r="X101" s="32"/>
-      <c r="Y101" s="32"/>
-      <c r="Z101" s="32"/>
-      <c r="AA101" s="32"/>
-      <c r="AB101" s="32"/>
-      <c r="AC101" s="32"/>
-      <c r="AD101" s="32"/>
-      <c r="AE101" s="32"/>
-      <c r="AF101" s="32"/>
-      <c r="AG101" s="32"/>
-      <c r="AH101" s="32"/>
-      <c r="AI101" s="32"/>
-      <c r="AJ101" s="32"/>
-      <c r="AK101" s="32"/>
-      <c r="AL101" s="32"/>
-      <c r="AM101" s="32"/>
-      <c r="AN101" s="32"/>
-      <c r="AO101" s="32"/>
-      <c r="AP101" s="32"/>
-      <c r="AQ101" s="32"/>
-      <c r="AR101" s="32"/>
-      <c r="AS101" s="32"/>
-      <c r="AT101" s="32"/>
-      <c r="AU101" s="32"/>
-      <c r="AV101" s="32"/>
-      <c r="AW101" s="32"/>
-      <c r="AX101" s="32"/>
-      <c r="AY101" s="32"/>
-      <c r="AZ101" s="32"/>
-      <c r="BA101" s="32"/>
-      <c r="BB101" s="32"/>
-      <c r="BC101" s="32"/>
-      <c r="BD101" s="32"/>
-      <c r="BE101" s="32"/>
-      <c r="BF101" s="32"/>
-      <c r="BG101" s="32"/>
-      <c r="BH101" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="BI101" s="32"/>
-      <c r="BJ101" s="32"/>
-      <c r="BK101" s="32"/>
-      <c r="BL101" s="32"/>
-      <c r="BM101" s="32"/>
-      <c r="BN101" s="32"/>
-      <c r="BO101" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="BP101" s="32"/>
-      <c r="BQ101" s="32"/>
-      <c r="BR101" s="32"/>
-      <c r="BS101" s="32"/>
-      <c r="BT101" s="32"/>
-      <c r="BU101" s="32"/>
-      <c r="BV101" s="32"/>
-      <c r="BW101" s="32"/>
-      <c r="BX101" s="32"/>
-      <c r="BY101" s="32"/>
-      <c r="BZ101" s="32"/>
-      <c r="CA101" s="32"/>
-      <c r="CB101" s="32"/>
-      <c r="CC101" s="32"/>
-      <c r="CD101" s="32"/>
-      <c r="CE101" s="32"/>
-      <c r="CF101" s="32"/>
-      <c r="CG101" s="32"/>
-      <c r="CH101" s="32"/>
-      <c r="CI101" s="32"/>
-      <c r="CJ101" s="32"/>
-      <c r="CK101" s="32"/>
-      <c r="CL101" s="32"/>
-      <c r="CM101" s="32"/>
-      <c r="CN101" s="32"/>
-      <c r="CO101" s="32"/>
-      <c r="CP101" s="32"/>
-      <c r="CQ101" s="32"/>
-      <c r="CR101" s="32"/>
-      <c r="CS101" s="32"/>
-      <c r="CT101" s="32"/>
-      <c r="CU101" s="32"/>
-      <c r="CV101" s="32"/>
-      <c r="CW101" s="32"/>
-      <c r="CX101" s="33"/>
+      <c r="E101" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="40"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="41"/>
+      <c r="Q101" s="41"/>
+      <c r="R101" s="41"/>
+      <c r="S101" s="41"/>
+      <c r="T101" s="41"/>
+      <c r="U101" s="41"/>
+      <c r="V101" s="41"/>
+      <c r="W101" s="41"/>
+      <c r="X101" s="41"/>
+      <c r="Y101" s="41"/>
+      <c r="Z101" s="41"/>
+      <c r="AA101" s="41"/>
+      <c r="AB101" s="41"/>
+      <c r="AC101" s="41"/>
+      <c r="AD101" s="41"/>
+      <c r="AE101" s="41"/>
+      <c r="AF101" s="41"/>
+      <c r="AG101" s="41"/>
+      <c r="AH101" s="41"/>
+      <c r="AI101" s="41"/>
+      <c r="AJ101" s="41"/>
+      <c r="AK101" s="41"/>
+      <c r="AL101" s="41"/>
+      <c r="AM101" s="41"/>
+      <c r="AN101" s="41"/>
+      <c r="AO101" s="41"/>
+      <c r="AP101" s="41"/>
+      <c r="AQ101" s="41"/>
+      <c r="AR101" s="41"/>
+      <c r="AS101" s="41"/>
+      <c r="AT101" s="41"/>
+      <c r="AU101" s="41"/>
+      <c r="AV101" s="41"/>
+      <c r="AW101" s="41"/>
+      <c r="AX101" s="41"/>
+      <c r="AY101" s="41"/>
+      <c r="AZ101" s="41"/>
+      <c r="BA101" s="41"/>
+      <c r="BB101" s="41"/>
+      <c r="BC101" s="41"/>
+      <c r="BD101" s="41"/>
+      <c r="BE101" s="41"/>
+      <c r="BF101" s="41"/>
+      <c r="BG101" s="41"/>
+      <c r="BH101" s="41"/>
+      <c r="BI101" s="41"/>
+      <c r="BJ101" s="41"/>
+      <c r="BK101" s="41"/>
+      <c r="BL101" s="41"/>
+      <c r="BM101" s="41"/>
+      <c r="BN101" s="41"/>
+      <c r="BO101" s="41"/>
+      <c r="BP101" s="41"/>
+      <c r="BQ101" s="41"/>
+      <c r="BR101" s="41"/>
+      <c r="BS101" s="41"/>
+      <c r="BT101" s="41"/>
+      <c r="BU101" s="41"/>
+      <c r="BV101" s="41"/>
+      <c r="BW101" s="41"/>
+      <c r="BX101" s="41"/>
+      <c r="BY101" s="41"/>
+      <c r="BZ101" s="41"/>
+      <c r="CA101" s="41"/>
+      <c r="CB101" s="41"/>
+      <c r="CC101" s="41"/>
+      <c r="CD101" s="41"/>
+      <c r="CE101" s="41"/>
+      <c r="CF101" s="41"/>
+      <c r="CG101" s="41"/>
+      <c r="CH101" s="41"/>
+      <c r="CI101" s="41"/>
+      <c r="CJ101" s="41"/>
+      <c r="CK101" s="41"/>
+      <c r="CL101" s="41"/>
+      <c r="CM101" s="41"/>
+      <c r="CN101" s="41"/>
+      <c r="CO101" s="41"/>
+      <c r="CP101" s="41"/>
+      <c r="CQ101" s="41"/>
+      <c r="CR101" s="41"/>
+      <c r="CS101" s="41"/>
+      <c r="CT101" s="41"/>
+      <c r="CU101" s="41"/>
+      <c r="CV101" s="41"/>
+      <c r="CW101" s="41"/>
+      <c r="CX101" s="42"/>
       <c r="CY101" s="21"/>
     </row>
-    <row r="102" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A102" s="68" t="s">
-        <v>60</v>
+    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="73" t="s">
+        <v>57</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="9">
-        <v>2</v>
-      </c>
-      <c r="D102" s="70">
+        <v>6</v>
+      </c>
+      <c r="D102" s="75">
         <v>6.04</v>
       </c>
-      <c r="E102" s="72">
+      <c r="E102" s="68">
         <v>4.05</v>
       </c>
       <c r="F102" s="31"/>
@@ -13588,7 +13695,9 @@
       <c r="BK102" s="32"/>
       <c r="BL102" s="32"/>
       <c r="BM102" s="32"/>
-      <c r="BN102" s="32"/>
+      <c r="BN102" s="55">
+        <v>6</v>
+      </c>
       <c r="BO102" s="32"/>
       <c r="BP102" s="32"/>
       <c r="BQ102" s="32"/>
@@ -13627,16 +13736,16 @@
       <c r="CX102" s="33"/>
       <c r="CY102" s="21"/>
     </row>
-    <row r="103" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A103" s="69"/>
+    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="74"/>
       <c r="B103" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D103" s="71"/>
-      <c r="E103" s="72"/>
+        <v>5</v>
+      </c>
+      <c r="D103" s="76"/>
+      <c r="E103" s="68"/>
       <c r="F103" s="31"/>
       <c r="G103" s="32"/>
       <c r="H103" s="32"/>
@@ -13695,11 +13804,11 @@
       <c r="BI103" s="32"/>
       <c r="BJ103" s="32"/>
       <c r="BK103" s="32"/>
-      <c r="BL103" s="55">
-        <v>2</v>
-      </c>
+      <c r="BL103" s="32"/>
       <c r="BM103" s="32"/>
-      <c r="BN103" s="32"/>
+      <c r="BN103" s="53">
+        <v>5</v>
+      </c>
       <c r="BO103" s="32"/>
       <c r="BP103" s="32"/>
       <c r="BQ103" s="32"/>
@@ -13738,16 +13847,22 @@
       <c r="CX103" s="33"/>
       <c r="CY103" s="21"/>
     </row>
-    <row r="104" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A104" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="80">
-        <v>44320</v>
-      </c>
-      <c r="E104" s="81"/>
+    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="9">
+        <v>1</v>
+      </c>
+      <c r="D104" s="75">
+        <v>6.04</v>
+      </c>
+      <c r="E104" s="68">
+        <v>4.05</v>
+      </c>
       <c r="F104" s="31"/>
       <c r="G104" s="32"/>
       <c r="H104" s="32"/>
@@ -13798,7 +13913,9 @@
       <c r="BA104" s="32"/>
       <c r="BB104" s="32"/>
       <c r="BC104" s="32"/>
-      <c r="BD104" s="1"/>
+      <c r="BD104" s="55">
+        <v>1</v>
+      </c>
       <c r="BE104" s="32"/>
       <c r="BF104" s="32"/>
       <c r="BG104" s="32"/>
@@ -13806,9 +13923,7 @@
       <c r="BI104" s="32"/>
       <c r="BJ104" s="32"/>
       <c r="BK104" s="32"/>
-      <c r="BL104" s="53">
-        <v>2.5</v>
-      </c>
+      <c r="BL104" s="32"/>
       <c r="BM104" s="32"/>
       <c r="BN104" s="32"/>
       <c r="BO104" s="32"/>
@@ -13849,250 +13964,245 @@
       <c r="CX104" s="33"/>
       <c r="CY104" s="21"/>
     </row>
-    <row r="105" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="18" t="s">
+    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="74"/>
+      <c r="B105" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" s="44"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="45"/>
-      <c r="K105" s="45"/>
-      <c r="L105" s="45"/>
-      <c r="M105" s="45"/>
-      <c r="N105" s="45"/>
-      <c r="O105" s="45"/>
-      <c r="P105" s="45"/>
-      <c r="Q105" s="45"/>
-      <c r="R105" s="45"/>
-      <c r="S105" s="45"/>
-      <c r="T105" s="45"/>
-      <c r="U105" s="45"/>
-      <c r="V105" s="45"/>
-      <c r="W105" s="45"/>
-      <c r="X105" s="45"/>
-      <c r="Y105" s="45"/>
-      <c r="Z105" s="45"/>
-      <c r="AA105" s="45"/>
-      <c r="AB105" s="45"/>
-      <c r="AC105" s="45"/>
-      <c r="AD105" s="45"/>
-      <c r="AE105" s="45"/>
-      <c r="AF105" s="45"/>
-      <c r="AG105" s="45"/>
-      <c r="AH105" s="45"/>
-      <c r="AI105" s="45"/>
-      <c r="AJ105" s="45"/>
-      <c r="AK105" s="45"/>
-      <c r="AL105" s="45"/>
-      <c r="AM105" s="45"/>
-      <c r="AN105" s="45"/>
-      <c r="AO105" s="45"/>
-      <c r="AP105" s="45"/>
-      <c r="AQ105" s="45"/>
-      <c r="AR105" s="45"/>
-      <c r="AS105" s="45"/>
-      <c r="AT105" s="45"/>
-      <c r="AU105" s="45"/>
-      <c r="AV105" s="45"/>
-      <c r="AW105" s="45"/>
-      <c r="AX105" s="45"/>
-      <c r="AY105" s="45"/>
-      <c r="AZ105" s="45"/>
-      <c r="BA105" s="45"/>
-      <c r="BB105" s="45"/>
-      <c r="BC105" s="45"/>
-      <c r="BD105" s="45"/>
-      <c r="BE105" s="45"/>
-      <c r="BF105" s="45"/>
-      <c r="BG105" s="45"/>
-      <c r="BH105" s="45"/>
-      <c r="BI105" s="45"/>
-      <c r="BJ105" s="45"/>
-      <c r="BK105" s="45"/>
-      <c r="BL105" s="45"/>
-      <c r="BM105" s="45"/>
-      <c r="BN105" s="45"/>
-      <c r="BO105" s="45"/>
-      <c r="BP105" s="45"/>
-      <c r="BQ105" s="45"/>
-      <c r="BR105" s="45"/>
-      <c r="BS105" s="45"/>
-      <c r="BT105" s="45"/>
-      <c r="BU105" s="45"/>
-      <c r="BV105" s="45"/>
-      <c r="BW105" s="45"/>
-      <c r="BX105" s="45"/>
-      <c r="BY105" s="45"/>
-      <c r="BZ105" s="45"/>
-      <c r="CA105" s="45"/>
-      <c r="CB105" s="45"/>
-      <c r="CC105" s="45"/>
-      <c r="CD105" s="45"/>
-      <c r="CE105" s="45"/>
-      <c r="CF105" s="45"/>
-      <c r="CG105" s="45"/>
-      <c r="CH105" s="45"/>
-      <c r="CI105" s="45"/>
-      <c r="CJ105" s="45"/>
-      <c r="CK105" s="45"/>
-      <c r="CL105" s="45"/>
-      <c r="CM105" s="45"/>
-      <c r="CN105" s="45"/>
-      <c r="CO105" s="45"/>
-      <c r="CP105" s="45"/>
-      <c r="CQ105" s="45"/>
-      <c r="CR105" s="45"/>
-      <c r="CS105" s="45"/>
-      <c r="CT105" s="45"/>
-      <c r="CU105" s="45"/>
-      <c r="CV105" s="45"/>
-      <c r="CW105" s="45"/>
-      <c r="CX105" s="46"/>
+      <c r="C105" s="9">
+        <v>3</v>
+      </c>
+      <c r="D105" s="76"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="32"/>
+      <c r="P105" s="32"/>
+      <c r="Q105" s="32"/>
+      <c r="R105" s="32"/>
+      <c r="S105" s="32"/>
+      <c r="T105" s="32"/>
+      <c r="U105" s="32"/>
+      <c r="V105" s="32"/>
+      <c r="W105" s="32"/>
+      <c r="X105" s="32"/>
+      <c r="Y105" s="32"/>
+      <c r="Z105" s="32"/>
+      <c r="AA105" s="32"/>
+      <c r="AB105" s="32"/>
+      <c r="AC105" s="32"/>
+      <c r="AD105" s="32"/>
+      <c r="AE105" s="32"/>
+      <c r="AF105" s="32"/>
+      <c r="AG105" s="32"/>
+      <c r="AH105" s="32"/>
+      <c r="AI105" s="32"/>
+      <c r="AJ105" s="32"/>
+      <c r="AK105" s="32"/>
+      <c r="AL105" s="32"/>
+      <c r="AM105" s="32"/>
+      <c r="AN105" s="32"/>
+      <c r="AO105" s="32"/>
+      <c r="AP105" s="32"/>
+      <c r="AQ105" s="32"/>
+      <c r="AR105" s="32"/>
+      <c r="AS105" s="32"/>
+      <c r="AT105" s="32"/>
+      <c r="AU105" s="32"/>
+      <c r="AV105" s="32"/>
+      <c r="AW105" s="32"/>
+      <c r="AX105" s="32"/>
+      <c r="AY105" s="32"/>
+      <c r="AZ105" s="32"/>
+      <c r="BA105" s="32"/>
+      <c r="BB105" s="32"/>
+      <c r="BC105" s="32"/>
+      <c r="BD105" s="53">
+        <v>3</v>
+      </c>
+      <c r="BE105" s="32"/>
+      <c r="BF105" s="32"/>
+      <c r="BG105" s="32"/>
+      <c r="BH105" s="32"/>
+      <c r="BI105" s="32"/>
+      <c r="BJ105" s="32"/>
+      <c r="BK105" s="32"/>
+      <c r="BL105" s="32"/>
+      <c r="BM105" s="32"/>
+      <c r="BN105" s="32"/>
+      <c r="BO105" s="32"/>
+      <c r="BP105" s="32"/>
+      <c r="BQ105" s="32"/>
+      <c r="BR105" s="32"/>
+      <c r="BS105" s="32"/>
+      <c r="BT105" s="32"/>
+      <c r="BU105" s="32"/>
+      <c r="BV105" s="32"/>
+      <c r="BW105" s="32"/>
+      <c r="BX105" s="32"/>
+      <c r="BY105" s="32"/>
+      <c r="BZ105" s="32"/>
+      <c r="CA105" s="32"/>
+      <c r="CB105" s="32"/>
+      <c r="CC105" s="32"/>
+      <c r="CD105" s="32"/>
+      <c r="CE105" s="32"/>
+      <c r="CF105" s="32"/>
+      <c r="CG105" s="32"/>
+      <c r="CH105" s="32"/>
+      <c r="CI105" s="32"/>
+      <c r="CJ105" s="32"/>
+      <c r="CK105" s="32"/>
+      <c r="CL105" s="32"/>
+      <c r="CM105" s="32"/>
+      <c r="CN105" s="32"/>
+      <c r="CO105" s="32"/>
+      <c r="CP105" s="32"/>
+      <c r="CQ105" s="32"/>
+      <c r="CR105" s="32"/>
+      <c r="CS105" s="32"/>
+      <c r="CT105" s="32"/>
+      <c r="CU105" s="32"/>
+      <c r="CV105" s="32"/>
+      <c r="CW105" s="32"/>
+      <c r="CX105" s="33"/>
       <c r="CY105" s="21"/>
     </row>
-    <row r="106" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="40"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="41"/>
-      <c r="M106" s="41"/>
-      <c r="N106" s="41"/>
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
-      <c r="Q106" s="41"/>
-      <c r="R106" s="41"/>
-      <c r="S106" s="41"/>
-      <c r="T106" s="41"/>
-      <c r="U106" s="41"/>
-      <c r="V106" s="41"/>
-      <c r="W106" s="41"/>
-      <c r="X106" s="41"/>
-      <c r="Y106" s="41"/>
-      <c r="Z106" s="41"/>
-      <c r="AA106" s="41"/>
-      <c r="AB106" s="41"/>
-      <c r="AC106" s="41"/>
-      <c r="AD106" s="41"/>
-      <c r="AE106" s="41"/>
-      <c r="AF106" s="41"/>
-      <c r="AG106" s="41"/>
-      <c r="AH106" s="41"/>
-      <c r="AI106" s="41"/>
-      <c r="AJ106" s="41"/>
-      <c r="AK106" s="41"/>
-      <c r="AL106" s="41"/>
-      <c r="AM106" s="41"/>
-      <c r="AN106" s="41"/>
-      <c r="AO106" s="41"/>
-      <c r="AP106" s="41"/>
-      <c r="AQ106" s="41"/>
-      <c r="AR106" s="41"/>
-      <c r="AS106" s="41"/>
-      <c r="AT106" s="41"/>
-      <c r="AU106" s="41"/>
-      <c r="AV106" s="41"/>
-      <c r="AW106" s="41"/>
-      <c r="AX106" s="41"/>
-      <c r="AY106" s="41"/>
-      <c r="AZ106" s="41"/>
-      <c r="BA106" s="41"/>
-      <c r="BB106" s="41"/>
-      <c r="BC106" s="41"/>
-      <c r="BD106" s="41"/>
-      <c r="BE106" s="41"/>
-      <c r="BF106" s="41"/>
-      <c r="BG106" s="41"/>
-      <c r="BH106" s="41"/>
-      <c r="BI106" s="41"/>
-      <c r="BJ106" s="41"/>
-      <c r="BK106" s="41"/>
-      <c r="BL106" s="41"/>
-      <c r="BM106" s="41"/>
-      <c r="BN106" s="41"/>
-      <c r="BO106" s="41"/>
-      <c r="BP106" s="41"/>
-      <c r="BQ106" s="41"/>
-      <c r="BR106" s="41"/>
-      <c r="BS106" s="41"/>
-      <c r="BT106" s="41"/>
-      <c r="BU106" s="41"/>
-      <c r="BV106" s="41"/>
-      <c r="BW106" s="41"/>
-      <c r="BX106" s="41"/>
-      <c r="BY106" s="41"/>
-      <c r="BZ106" s="41"/>
-      <c r="CA106" s="41"/>
-      <c r="CB106" s="41"/>
-      <c r="CC106" s="41"/>
-      <c r="CD106" s="41"/>
-      <c r="CE106" s="41"/>
-      <c r="CF106" s="41"/>
-      <c r="CG106" s="41"/>
-      <c r="CH106" s="41"/>
-      <c r="CI106" s="41"/>
-      <c r="CJ106" s="41"/>
-      <c r="CK106" s="41"/>
-      <c r="CL106" s="41"/>
-      <c r="CM106" s="41"/>
-      <c r="CN106" s="41"/>
-      <c r="CO106" s="41"/>
-      <c r="CP106" s="41"/>
-      <c r="CQ106" s="41"/>
-      <c r="CR106" s="41"/>
-      <c r="CS106" s="41"/>
-      <c r="CT106" s="41"/>
-      <c r="CU106" s="41"/>
-      <c r="CV106" s="41"/>
-      <c r="CW106" s="41"/>
-      <c r="CX106" s="42"/>
+    <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="9">
+        <v>1</v>
+      </c>
+      <c r="D106" s="75">
+        <v>6.04</v>
+      </c>
+      <c r="E106" s="68">
+        <v>4.05</v>
+      </c>
+      <c r="F106" s="31"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="32"/>
+      <c r="Q106" s="32"/>
+      <c r="R106" s="32"/>
+      <c r="S106" s="32"/>
+      <c r="T106" s="32"/>
+      <c r="U106" s="32"/>
+      <c r="V106" s="32"/>
+      <c r="W106" s="32"/>
+      <c r="X106" s="32"/>
+      <c r="Y106" s="32"/>
+      <c r="Z106" s="32"/>
+      <c r="AA106" s="32"/>
+      <c r="AB106" s="32"/>
+      <c r="AC106" s="32"/>
+      <c r="AD106" s="32"/>
+      <c r="AE106" s="32"/>
+      <c r="AF106" s="32"/>
+      <c r="AG106" s="32"/>
+      <c r="AH106" s="32"/>
+      <c r="AI106" s="32"/>
+      <c r="AJ106" s="32"/>
+      <c r="AK106" s="32"/>
+      <c r="AL106" s="32"/>
+      <c r="AM106" s="32"/>
+      <c r="AN106" s="32"/>
+      <c r="AO106" s="32"/>
+      <c r="AP106" s="32"/>
+      <c r="AQ106" s="32"/>
+      <c r="AR106" s="32"/>
+      <c r="AS106" s="32"/>
+      <c r="AT106" s="32"/>
+      <c r="AU106" s="32"/>
+      <c r="AV106" s="32"/>
+      <c r="AW106" s="32"/>
+      <c r="AX106" s="32"/>
+      <c r="AY106" s="32"/>
+      <c r="AZ106" s="32"/>
+      <c r="BA106" s="32"/>
+      <c r="BB106" s="32"/>
+      <c r="BC106" s="32"/>
+      <c r="BE106" s="32"/>
+      <c r="BF106" s="32"/>
+      <c r="BG106" s="32"/>
+      <c r="BH106" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BI106" s="32"/>
+      <c r="BJ106" s="32"/>
+      <c r="BK106" s="32"/>
+      <c r="BL106" s="32"/>
+      <c r="BM106" s="32"/>
+      <c r="BN106" s="32"/>
+      <c r="BO106" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BP106" s="32"/>
+      <c r="BQ106" s="32"/>
+      <c r="BR106" s="32"/>
+      <c r="BS106" s="32"/>
+      <c r="BT106" s="32"/>
+      <c r="BU106" s="32"/>
+      <c r="BV106" s="32"/>
+      <c r="BW106" s="32"/>
+      <c r="BX106" s="32"/>
+      <c r="BY106" s="32"/>
+      <c r="BZ106" s="32"/>
+      <c r="CA106" s="32"/>
+      <c r="CB106" s="32"/>
+      <c r="CC106" s="32"/>
+      <c r="CD106" s="32"/>
+      <c r="CE106" s="32"/>
+      <c r="CF106" s="32"/>
+      <c r="CG106" s="32"/>
+      <c r="CH106" s="32"/>
+      <c r="CI106" s="32"/>
+      <c r="CJ106" s="32"/>
+      <c r="CK106" s="32"/>
+      <c r="CL106" s="32"/>
+      <c r="CM106" s="32"/>
+      <c r="CN106" s="32"/>
+      <c r="CO106" s="32"/>
+      <c r="CP106" s="32"/>
+      <c r="CQ106" s="32"/>
+      <c r="CR106" s="32"/>
+      <c r="CS106" s="32"/>
+      <c r="CT106" s="32"/>
+      <c r="CU106" s="32"/>
+      <c r="CV106" s="32"/>
+      <c r="CW106" s="32"/>
+      <c r="CX106" s="33"/>
       <c r="CY106" s="21"/>
     </row>
-    <row r="107" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A107" s="68"/>
+    <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="74"/>
       <c r="B107" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="75">
-        <v>4.05</v>
-      </c>
-      <c r="E107" s="72">
-        <v>18.04</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C107" s="9">
+        <v>1</v>
+      </c>
+      <c r="D107" s="76"/>
+      <c r="E107" s="68"/>
       <c r="F107" s="31"/>
       <c r="G107" s="32"/>
       <c r="H107" s="32"/>
@@ -14147,14 +14257,18 @@
       <c r="BE107" s="32"/>
       <c r="BF107" s="32"/>
       <c r="BG107" s="32"/>
-      <c r="BH107" s="32"/>
+      <c r="BH107" s="53">
+        <v>0.5</v>
+      </c>
       <c r="BI107" s="32"/>
       <c r="BJ107" s="32"/>
       <c r="BK107" s="32"/>
       <c r="BL107" s="32"/>
       <c r="BM107" s="32"/>
       <c r="BN107" s="32"/>
-      <c r="BO107" s="32"/>
+      <c r="BO107" s="53">
+        <v>0.5</v>
+      </c>
       <c r="BP107" s="32"/>
       <c r="BQ107" s="32"/>
       <c r="BR107" s="32"/>
@@ -14192,16 +14306,22 @@
       <c r="CX107" s="33"/>
       <c r="CY107" s="21"/>
     </row>
-    <row r="108" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A108" s="69"/>
+    <row r="108" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A108" s="73" t="s">
+        <v>59</v>
+      </c>
       <c r="B108" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="75"/>
-      <c r="E108" s="72"/>
+        <v>6</v>
+      </c>
+      <c r="C108" s="9">
+        <v>2</v>
+      </c>
+      <c r="D108" s="75">
+        <v>6.04</v>
+      </c>
+      <c r="E108" s="68">
+        <v>4.05</v>
+      </c>
       <c r="F108" s="31"/>
       <c r="G108" s="32"/>
       <c r="H108" s="32"/>
@@ -14301,135 +14421,127 @@
       <c r="CX108" s="33"/>
       <c r="CY108" s="21"/>
     </row>
-    <row r="109" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="19" t="s">
+    <row r="109" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A109" s="74"/>
+      <c r="B109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="40"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="41"/>
-      <c r="N109" s="41"/>
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="41"/>
-      <c r="R109" s="41"/>
-      <c r="S109" s="41"/>
-      <c r="T109" s="41"/>
-      <c r="U109" s="41"/>
-      <c r="V109" s="41"/>
-      <c r="W109" s="41"/>
-      <c r="X109" s="41"/>
-      <c r="Y109" s="41"/>
-      <c r="Z109" s="41"/>
-      <c r="AA109" s="41"/>
-      <c r="AB109" s="41"/>
-      <c r="AC109" s="41"/>
-      <c r="AD109" s="41"/>
-      <c r="AE109" s="41"/>
-      <c r="AF109" s="41"/>
-      <c r="AG109" s="41"/>
-      <c r="AH109" s="41"/>
-      <c r="AI109" s="41"/>
-      <c r="AJ109" s="41"/>
-      <c r="AK109" s="41"/>
-      <c r="AL109" s="41"/>
-      <c r="AM109" s="41"/>
-      <c r="AN109" s="41"/>
-      <c r="AO109" s="41"/>
-      <c r="AP109" s="41"/>
-      <c r="AQ109" s="41"/>
-      <c r="AR109" s="41"/>
-      <c r="AS109" s="41"/>
-      <c r="AT109" s="41"/>
-      <c r="AU109" s="41"/>
-      <c r="AV109" s="41"/>
-      <c r="AW109" s="41"/>
-      <c r="AX109" s="41"/>
-      <c r="AY109" s="41"/>
-      <c r="AZ109" s="41"/>
-      <c r="BA109" s="41"/>
-      <c r="BB109" s="41"/>
-      <c r="BC109" s="41"/>
-      <c r="BD109" s="41"/>
-      <c r="BE109" s="41"/>
-      <c r="BF109" s="41"/>
-      <c r="BG109" s="41"/>
-      <c r="BH109" s="41"/>
-      <c r="BI109" s="41"/>
-      <c r="BJ109" s="41"/>
-      <c r="BK109" s="41"/>
-      <c r="BL109" s="41"/>
-      <c r="BM109" s="41"/>
-      <c r="BN109" s="41"/>
-      <c r="BO109" s="41"/>
-      <c r="BP109" s="41"/>
-      <c r="BQ109" s="41"/>
-      <c r="BR109" s="41"/>
-      <c r="BS109" s="41"/>
-      <c r="BT109" s="41"/>
-      <c r="BU109" s="41"/>
-      <c r="BV109" s="41"/>
-      <c r="BW109" s="41"/>
-      <c r="BX109" s="41"/>
-      <c r="BY109" s="41"/>
-      <c r="BZ109" s="41"/>
-      <c r="CA109" s="41"/>
-      <c r="CB109" s="41"/>
-      <c r="CC109" s="41"/>
-      <c r="CD109" s="41"/>
-      <c r="CE109" s="41"/>
-      <c r="CF109" s="41"/>
-      <c r="CG109" s="41"/>
-      <c r="CH109" s="41"/>
-      <c r="CI109" s="41"/>
-      <c r="CJ109" s="41"/>
-      <c r="CK109" s="41"/>
-      <c r="CL109" s="41"/>
-      <c r="CM109" s="41"/>
-      <c r="CN109" s="41"/>
-      <c r="CO109" s="41"/>
-      <c r="CP109" s="41"/>
-      <c r="CQ109" s="41"/>
-      <c r="CR109" s="41"/>
-      <c r="CS109" s="41"/>
-      <c r="CT109" s="41"/>
-      <c r="CU109" s="41"/>
-      <c r="CV109" s="41"/>
-      <c r="CW109" s="41"/>
-      <c r="CX109" s="42"/>
+      <c r="C109" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D109" s="77"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="32"/>
+      <c r="P109" s="32"/>
+      <c r="Q109" s="32"/>
+      <c r="R109" s="32"/>
+      <c r="S109" s="32"/>
+      <c r="T109" s="32"/>
+      <c r="U109" s="32"/>
+      <c r="V109" s="32"/>
+      <c r="W109" s="32"/>
+      <c r="X109" s="32"/>
+      <c r="Y109" s="32"/>
+      <c r="Z109" s="32"/>
+      <c r="AA109" s="32"/>
+      <c r="AB109" s="32"/>
+      <c r="AC109" s="32"/>
+      <c r="AD109" s="32"/>
+      <c r="AE109" s="32"/>
+      <c r="AF109" s="32"/>
+      <c r="AG109" s="32"/>
+      <c r="AH109" s="32"/>
+      <c r="AI109" s="32"/>
+      <c r="AJ109" s="32"/>
+      <c r="AK109" s="32"/>
+      <c r="AL109" s="32"/>
+      <c r="AM109" s="32"/>
+      <c r="AN109" s="32"/>
+      <c r="AO109" s="32"/>
+      <c r="AP109" s="32"/>
+      <c r="AQ109" s="32"/>
+      <c r="AR109" s="32"/>
+      <c r="AS109" s="32"/>
+      <c r="AT109" s="32"/>
+      <c r="AU109" s="32"/>
+      <c r="AV109" s="32"/>
+      <c r="AW109" s="32"/>
+      <c r="AX109" s="32"/>
+      <c r="AY109" s="32"/>
+      <c r="AZ109" s="32"/>
+      <c r="BA109" s="32"/>
+      <c r="BB109" s="32"/>
+      <c r="BC109" s="32"/>
+      <c r="BD109" s="32"/>
+      <c r="BE109" s="32"/>
+      <c r="BF109" s="32"/>
+      <c r="BG109" s="32"/>
+      <c r="BH109" s="32"/>
+      <c r="BI109" s="32"/>
+      <c r="BJ109" s="32"/>
+      <c r="BK109" s="32"/>
+      <c r="BL109" s="55">
+        <v>2</v>
+      </c>
+      <c r="BM109" s="32"/>
+      <c r="BN109" s="32"/>
+      <c r="BO109" s="32"/>
+      <c r="BP109" s="32"/>
+      <c r="BQ109" s="32"/>
+      <c r="BR109" s="32"/>
+      <c r="BS109" s="32"/>
+      <c r="BT109" s="32"/>
+      <c r="BU109" s="32"/>
+      <c r="BV109" s="32"/>
+      <c r="BW109" s="32"/>
+      <c r="BX109" s="32"/>
+      <c r="BY109" s="32"/>
+      <c r="BZ109" s="32"/>
+      <c r="CA109" s="32"/>
+      <c r="CB109" s="32"/>
+      <c r="CC109" s="32"/>
+      <c r="CD109" s="32"/>
+      <c r="CE109" s="32"/>
+      <c r="CF109" s="32"/>
+      <c r="CG109" s="32"/>
+      <c r="CH109" s="32"/>
+      <c r="CI109" s="32"/>
+      <c r="CJ109" s="32"/>
+      <c r="CK109" s="32"/>
+      <c r="CL109" s="32"/>
+      <c r="CM109" s="32"/>
+      <c r="CN109" s="32"/>
+      <c r="CO109" s="32"/>
+      <c r="CP109" s="32"/>
+      <c r="CQ109" s="32"/>
+      <c r="CR109" s="32"/>
+      <c r="CS109" s="32"/>
+      <c r="CT109" s="32"/>
+      <c r="CU109" s="32"/>
+      <c r="CV109" s="32"/>
+      <c r="CW109" s="32"/>
+      <c r="CX109" s="33"/>
       <c r="CY109" s="21"/>
     </row>
-    <row r="110" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A110" s="68"/>
-      <c r="B110" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="75">
-        <v>4.05</v>
-      </c>
-      <c r="E110" s="72">
-        <v>18.04</v>
-      </c>
+    <row r="110" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="91">
+        <v>44320</v>
+      </c>
+      <c r="E110" s="93"/>
       <c r="F110" s="31"/>
       <c r="G110" s="32"/>
       <c r="H110" s="32"/>
@@ -14480,7 +14592,7 @@
       <c r="BA110" s="32"/>
       <c r="BB110" s="32"/>
       <c r="BC110" s="32"/>
-      <c r="BD110" s="32"/>
+      <c r="BD110" s="1"/>
       <c r="BE110" s="32"/>
       <c r="BF110" s="32"/>
       <c r="BG110" s="32"/>
@@ -14488,7 +14600,9 @@
       <c r="BI110" s="32"/>
       <c r="BJ110" s="32"/>
       <c r="BK110" s="32"/>
-      <c r="BL110" s="32"/>
+      <c r="BL110" s="53">
+        <v>2.5</v>
+      </c>
       <c r="BM110" s="32"/>
       <c r="BN110" s="32"/>
       <c r="BO110" s="32"/>
@@ -14529,118 +14643,124 @@
       <c r="CX110" s="33"/>
       <c r="CY110" s="21"/>
     </row>
-    <row r="111" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A111" s="69"/>
-      <c r="B111" s="7" t="s">
+    <row r="111" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="75"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="32"/>
-      <c r="J111" s="32"/>
-      <c r="K111" s="32"/>
-      <c r="L111" s="32"/>
-      <c r="M111" s="32"/>
-      <c r="N111" s="32"/>
-      <c r="O111" s="32"/>
-      <c r="P111" s="32"/>
-      <c r="Q111" s="32"/>
-      <c r="R111" s="32"/>
-      <c r="S111" s="32"/>
-      <c r="T111" s="32"/>
-      <c r="U111" s="32"/>
-      <c r="V111" s="32"/>
-      <c r="W111" s="32"/>
-      <c r="X111" s="32"/>
-      <c r="Y111" s="32"/>
-      <c r="Z111" s="32"/>
-      <c r="AA111" s="32"/>
-      <c r="AB111" s="32"/>
-      <c r="AC111" s="32"/>
-      <c r="AD111" s="32"/>
-      <c r="AE111" s="32"/>
-      <c r="AF111" s="32"/>
-      <c r="AG111" s="32"/>
-      <c r="AH111" s="32"/>
-      <c r="AI111" s="32"/>
-      <c r="AJ111" s="32"/>
-      <c r="AK111" s="32"/>
-      <c r="AL111" s="32"/>
-      <c r="AM111" s="32"/>
-      <c r="AN111" s="32"/>
-      <c r="AO111" s="32"/>
-      <c r="AP111" s="32"/>
-      <c r="AQ111" s="32"/>
-      <c r="AR111" s="32"/>
-      <c r="AS111" s="32"/>
-      <c r="AT111" s="32"/>
-      <c r="AU111" s="32"/>
-      <c r="AV111" s="32"/>
-      <c r="AW111" s="32"/>
-      <c r="AX111" s="32"/>
-      <c r="AY111" s="32"/>
-      <c r="AZ111" s="32"/>
-      <c r="BA111" s="32"/>
-      <c r="BB111" s="32"/>
-      <c r="BC111" s="32"/>
-      <c r="BD111" s="32"/>
-      <c r="BE111" s="32"/>
-      <c r="BF111" s="32"/>
-      <c r="BG111" s="32"/>
-      <c r="BH111" s="32"/>
-      <c r="BI111" s="32"/>
-      <c r="BJ111" s="32"/>
-      <c r="BK111" s="32"/>
-      <c r="BL111" s="32"/>
-      <c r="BM111" s="32"/>
-      <c r="BN111" s="32"/>
-      <c r="BO111" s="32"/>
-      <c r="BP111" s="32"/>
-      <c r="BQ111" s="32"/>
-      <c r="BR111" s="32"/>
-      <c r="BS111" s="32"/>
-      <c r="BT111" s="32"/>
-      <c r="BU111" s="32"/>
-      <c r="BV111" s="32"/>
-      <c r="BW111" s="32"/>
-      <c r="BX111" s="32"/>
-      <c r="BY111" s="32"/>
-      <c r="BZ111" s="32"/>
-      <c r="CA111" s="32"/>
-      <c r="CB111" s="32"/>
-      <c r="CC111" s="32"/>
-      <c r="CD111" s="32"/>
-      <c r="CE111" s="32"/>
-      <c r="CF111" s="32"/>
-      <c r="CG111" s="32"/>
-      <c r="CH111" s="32"/>
-      <c r="CI111" s="32"/>
-      <c r="CJ111" s="32"/>
-      <c r="CK111" s="32"/>
-      <c r="CL111" s="32"/>
-      <c r="CM111" s="32"/>
-      <c r="CN111" s="32"/>
-      <c r="CO111" s="32"/>
-      <c r="CP111" s="32"/>
-      <c r="CQ111" s="32"/>
-      <c r="CR111" s="32"/>
-      <c r="CS111" s="32"/>
-      <c r="CT111" s="32"/>
-      <c r="CU111" s="32"/>
-      <c r="CV111" s="32"/>
-      <c r="CW111" s="32"/>
-      <c r="CX111" s="33"/>
+      <c r="E111" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="44"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="45"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="45"/>
+      <c r="N111" s="45"/>
+      <c r="O111" s="45"/>
+      <c r="P111" s="45"/>
+      <c r="Q111" s="45"/>
+      <c r="R111" s="45"/>
+      <c r="S111" s="45"/>
+      <c r="T111" s="45"/>
+      <c r="U111" s="45"/>
+      <c r="V111" s="45"/>
+      <c r="W111" s="45"/>
+      <c r="X111" s="45"/>
+      <c r="Y111" s="45"/>
+      <c r="Z111" s="45"/>
+      <c r="AA111" s="45"/>
+      <c r="AB111" s="45"/>
+      <c r="AC111" s="45"/>
+      <c r="AD111" s="45"/>
+      <c r="AE111" s="45"/>
+      <c r="AF111" s="45"/>
+      <c r="AG111" s="45"/>
+      <c r="AH111" s="45"/>
+      <c r="AI111" s="45"/>
+      <c r="AJ111" s="45"/>
+      <c r="AK111" s="45"/>
+      <c r="AL111" s="45"/>
+      <c r="AM111" s="45"/>
+      <c r="AN111" s="45"/>
+      <c r="AO111" s="45"/>
+      <c r="AP111" s="45"/>
+      <c r="AQ111" s="45"/>
+      <c r="AR111" s="45"/>
+      <c r="AS111" s="45"/>
+      <c r="AT111" s="45"/>
+      <c r="AU111" s="45"/>
+      <c r="AV111" s="45"/>
+      <c r="AW111" s="45"/>
+      <c r="AX111" s="45"/>
+      <c r="AY111" s="45"/>
+      <c r="AZ111" s="45"/>
+      <c r="BA111" s="45"/>
+      <c r="BB111" s="45"/>
+      <c r="BC111" s="45"/>
+      <c r="BD111" s="45"/>
+      <c r="BE111" s="45"/>
+      <c r="BF111" s="45"/>
+      <c r="BG111" s="45"/>
+      <c r="BH111" s="45"/>
+      <c r="BI111" s="45"/>
+      <c r="BJ111" s="45"/>
+      <c r="BK111" s="45"/>
+      <c r="BL111" s="45"/>
+      <c r="BM111" s="45"/>
+      <c r="BN111" s="45"/>
+      <c r="BO111" s="45"/>
+      <c r="BP111" s="45"/>
+      <c r="BQ111" s="45"/>
+      <c r="BR111" s="45"/>
+      <c r="BS111" s="45"/>
+      <c r="BT111" s="45"/>
+      <c r="BU111" s="45"/>
+      <c r="BV111" s="45"/>
+      <c r="BW111" s="45"/>
+      <c r="BX111" s="45"/>
+      <c r="BY111" s="45"/>
+      <c r="BZ111" s="45"/>
+      <c r="CA111" s="45"/>
+      <c r="CB111" s="45"/>
+      <c r="CC111" s="45"/>
+      <c r="CD111" s="45"/>
+      <c r="CE111" s="45"/>
+      <c r="CF111" s="45"/>
+      <c r="CG111" s="45"/>
+      <c r="CH111" s="45"/>
+      <c r="CI111" s="45"/>
+      <c r="CJ111" s="45"/>
+      <c r="CK111" s="45"/>
+      <c r="CL111" s="45"/>
+      <c r="CM111" s="45"/>
+      <c r="CN111" s="45"/>
+      <c r="CO111" s="45"/>
+      <c r="CP111" s="45"/>
+      <c r="CQ111" s="45"/>
+      <c r="CR111" s="45"/>
+      <c r="CS111" s="45"/>
+      <c r="CT111" s="45"/>
+      <c r="CU111" s="45"/>
+      <c r="CV111" s="45"/>
+      <c r="CW111" s="45"/>
+      <c r="CX111" s="46"/>
       <c r="CY111" s="21"/>
     </row>
-    <row r="112" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>9</v>
@@ -14753,18 +14873,18 @@
       <c r="CX112" s="42"/>
       <c r="CY112" s="21"/>
     </row>
-    <row r="113" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A113" s="68"/>
+    <row r="113" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A113" s="73"/>
       <c r="B113" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="75">
+      <c r="D113" s="77">
         <v>4.05</v>
       </c>
-      <c r="E113" s="72">
+      <c r="E113" s="68">
         <v>18.04</v>
       </c>
       <c r="F113" s="31"/>
@@ -14866,16 +14986,16 @@
       <c r="CX113" s="33"/>
       <c r="CY113" s="21"/>
     </row>
-    <row r="114" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A114" s="69"/>
+    <row r="114" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A114" s="74"/>
       <c r="B114" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="75"/>
-      <c r="E114" s="72"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="68"/>
       <c r="F114" s="31"/>
       <c r="G114" s="32"/>
       <c r="H114" s="32"/>
@@ -14975,9 +15095,9 @@
       <c r="CX114" s="33"/>
       <c r="CY114" s="21"/>
     </row>
-    <row r="115" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>9</v>
@@ -15090,18 +15210,18 @@
       <c r="CX115" s="42"/>
       <c r="CY115" s="21"/>
     </row>
-    <row r="116" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A116" s="68"/>
+    <row r="116" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A116" s="73"/>
       <c r="B116" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="75">
+      <c r="D116" s="77">
         <v>4.05</v>
       </c>
-      <c r="E116" s="72">
+      <c r="E116" s="68">
         <v>18.04</v>
       </c>
       <c r="F116" s="31"/>
@@ -15203,16 +15323,16 @@
       <c r="CX116" s="33"/>
       <c r="CY116" s="21"/>
     </row>
-    <row r="117" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A117" s="69"/>
+    <row r="117" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A117" s="74"/>
       <c r="B117" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="75"/>
-      <c r="E117" s="72"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="68"/>
       <c r="F117" s="31"/>
       <c r="G117" s="32"/>
       <c r="H117" s="32"/>
@@ -15312,9 +15432,9 @@
       <c r="CX117" s="33"/>
       <c r="CY117" s="21"/>
     </row>
-    <row r="118" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>9</v>
@@ -15427,18 +15547,18 @@
       <c r="CX118" s="42"/>
       <c r="CY118" s="21"/>
     </row>
-    <row r="119" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A119" s="68"/>
+    <row r="119" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A119" s="73"/>
       <c r="B119" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="75">
+      <c r="D119" s="77">
         <v>4.05</v>
       </c>
-      <c r="E119" s="72">
+      <c r="E119" s="68">
         <v>18.04</v>
       </c>
       <c r="F119" s="31"/>
@@ -15540,16 +15660,16 @@
       <c r="CX119" s="33"/>
       <c r="CY119" s="21"/>
     </row>
-    <row r="120" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A120" s="69"/>
+    <row r="120" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A120" s="74"/>
       <c r="B120" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="75"/>
-      <c r="E120" s="72"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="68"/>
       <c r="F120" s="31"/>
       <c r="G120" s="32"/>
       <c r="H120" s="32"/>
@@ -15649,468 +15769,472 @@
       <c r="CX120" s="33"/>
       <c r="CY120" s="21"/>
     </row>
-    <row r="121" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A121" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="76">
-        <v>44334</v>
-      </c>
-      <c r="E121" s="77"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="32"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="32"/>
-      <c r="L121" s="32"/>
-      <c r="M121" s="32"/>
-      <c r="N121" s="32"/>
-      <c r="O121" s="32"/>
-      <c r="P121" s="32"/>
-      <c r="Q121" s="32"/>
-      <c r="R121" s="32"/>
-      <c r="S121" s="32"/>
-      <c r="T121" s="32"/>
-      <c r="U121" s="32"/>
-      <c r="V121" s="32"/>
-      <c r="W121" s="32"/>
-      <c r="X121" s="32"/>
-      <c r="Y121" s="32"/>
-      <c r="Z121" s="32"/>
-      <c r="AA121" s="32"/>
-      <c r="AB121" s="32"/>
-      <c r="AC121" s="32"/>
-      <c r="AD121" s="32"/>
-      <c r="AE121" s="32"/>
-      <c r="AF121" s="32"/>
-      <c r="AG121" s="32"/>
-      <c r="AH121" s="32"/>
-      <c r="AI121" s="32"/>
-      <c r="AJ121" s="32"/>
-      <c r="AK121" s="32"/>
-      <c r="AL121" s="32"/>
-      <c r="AM121" s="32"/>
-      <c r="AN121" s="32"/>
-      <c r="AO121" s="32"/>
-      <c r="AP121" s="32"/>
-      <c r="AQ121" s="32"/>
-      <c r="AR121" s="32"/>
-      <c r="AS121" s="32"/>
-      <c r="AT121" s="32"/>
-      <c r="AU121" s="32"/>
-      <c r="AV121" s="32"/>
-      <c r="AW121" s="32"/>
-      <c r="AX121" s="32"/>
-      <c r="AY121" s="32"/>
-      <c r="AZ121" s="32"/>
-      <c r="BA121" s="32"/>
-      <c r="BB121" s="32"/>
-      <c r="BC121" s="32"/>
-      <c r="BD121" s="32"/>
-      <c r="BE121" s="32"/>
-      <c r="BF121" s="32"/>
-      <c r="BG121" s="32"/>
-      <c r="BH121" s="32"/>
-      <c r="BI121" s="32"/>
-      <c r="BJ121" s="32"/>
-      <c r="BK121" s="32"/>
-      <c r="BL121" s="32"/>
-      <c r="BM121" s="32"/>
-      <c r="BN121" s="32"/>
-      <c r="BO121" s="32"/>
-      <c r="BP121" s="32"/>
-      <c r="BQ121" s="32"/>
-      <c r="BR121" s="32"/>
-      <c r="BS121" s="32"/>
-      <c r="BT121" s="32"/>
-      <c r="BU121" s="32"/>
-      <c r="BV121" s="32"/>
-      <c r="BW121" s="32"/>
-      <c r="BX121" s="32"/>
-      <c r="BY121" s="32"/>
-      <c r="BZ121" s="32"/>
-      <c r="CA121" s="32"/>
-      <c r="CB121" s="32"/>
-      <c r="CC121" s="32"/>
-      <c r="CD121" s="32"/>
-      <c r="CE121" s="32"/>
-      <c r="CF121" s="32"/>
-      <c r="CG121" s="32"/>
-      <c r="CH121" s="32"/>
-      <c r="CI121" s="32"/>
-      <c r="CJ121" s="32"/>
-      <c r="CK121" s="32"/>
-      <c r="CL121" s="32"/>
-      <c r="CM121" s="32"/>
-      <c r="CN121" s="32"/>
-      <c r="CO121" s="32"/>
-      <c r="CP121" s="32"/>
-      <c r="CQ121" s="32"/>
-      <c r="CR121" s="32"/>
-      <c r="CS121" s="32"/>
-      <c r="CT121" s="32"/>
-      <c r="CU121" s="32"/>
-      <c r="CV121" s="32"/>
-      <c r="CW121" s="32"/>
-      <c r="CX121" s="33"/>
+    <row r="121" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="40"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="41"/>
+      <c r="L121" s="41"/>
+      <c r="M121" s="41"/>
+      <c r="N121" s="41"/>
+      <c r="O121" s="41"/>
+      <c r="P121" s="41"/>
+      <c r="Q121" s="41"/>
+      <c r="R121" s="41"/>
+      <c r="S121" s="41"/>
+      <c r="T121" s="41"/>
+      <c r="U121" s="41"/>
+      <c r="V121" s="41"/>
+      <c r="W121" s="41"/>
+      <c r="X121" s="41"/>
+      <c r="Y121" s="41"/>
+      <c r="Z121" s="41"/>
+      <c r="AA121" s="41"/>
+      <c r="AB121" s="41"/>
+      <c r="AC121" s="41"/>
+      <c r="AD121" s="41"/>
+      <c r="AE121" s="41"/>
+      <c r="AF121" s="41"/>
+      <c r="AG121" s="41"/>
+      <c r="AH121" s="41"/>
+      <c r="AI121" s="41"/>
+      <c r="AJ121" s="41"/>
+      <c r="AK121" s="41"/>
+      <c r="AL121" s="41"/>
+      <c r="AM121" s="41"/>
+      <c r="AN121" s="41"/>
+      <c r="AO121" s="41"/>
+      <c r="AP121" s="41"/>
+      <c r="AQ121" s="41"/>
+      <c r="AR121" s="41"/>
+      <c r="AS121" s="41"/>
+      <c r="AT121" s="41"/>
+      <c r="AU121" s="41"/>
+      <c r="AV121" s="41"/>
+      <c r="AW121" s="41"/>
+      <c r="AX121" s="41"/>
+      <c r="AY121" s="41"/>
+      <c r="AZ121" s="41"/>
+      <c r="BA121" s="41"/>
+      <c r="BB121" s="41"/>
+      <c r="BC121" s="41"/>
+      <c r="BD121" s="41"/>
+      <c r="BE121" s="41"/>
+      <c r="BF121" s="41"/>
+      <c r="BG121" s="41"/>
+      <c r="BH121" s="41"/>
+      <c r="BI121" s="41"/>
+      <c r="BJ121" s="41"/>
+      <c r="BK121" s="41"/>
+      <c r="BL121" s="41"/>
+      <c r="BM121" s="41"/>
+      <c r="BN121" s="41"/>
+      <c r="BO121" s="41"/>
+      <c r="BP121" s="41"/>
+      <c r="BQ121" s="41"/>
+      <c r="BR121" s="41"/>
+      <c r="BS121" s="41"/>
+      <c r="BT121" s="41"/>
+      <c r="BU121" s="41"/>
+      <c r="BV121" s="41"/>
+      <c r="BW121" s="41"/>
+      <c r="BX121" s="41"/>
+      <c r="BY121" s="41"/>
+      <c r="BZ121" s="41"/>
+      <c r="CA121" s="41"/>
+      <c r="CB121" s="41"/>
+      <c r="CC121" s="41"/>
+      <c r="CD121" s="41"/>
+      <c r="CE121" s="41"/>
+      <c r="CF121" s="41"/>
+      <c r="CG121" s="41"/>
+      <c r="CH121" s="41"/>
+      <c r="CI121" s="41"/>
+      <c r="CJ121" s="41"/>
+      <c r="CK121" s="41"/>
+      <c r="CL121" s="41"/>
+      <c r="CM121" s="41"/>
+      <c r="CN121" s="41"/>
+      <c r="CO121" s="41"/>
+      <c r="CP121" s="41"/>
+      <c r="CQ121" s="41"/>
+      <c r="CR121" s="41"/>
+      <c r="CS121" s="41"/>
+      <c r="CT121" s="41"/>
+      <c r="CU121" s="41"/>
+      <c r="CV121" s="41"/>
+      <c r="CW121" s="41"/>
+      <c r="CX121" s="42"/>
       <c r="CY121" s="21"/>
     </row>
-    <row r="122" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A122" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B122" s="10" t="s">
+    <row r="122" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A122" s="73"/>
+      <c r="B122" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="44"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="45"/>
-      <c r="I122" s="45"/>
-      <c r="J122" s="45"/>
-      <c r="K122" s="45"/>
-      <c r="L122" s="45"/>
-      <c r="M122" s="45"/>
-      <c r="N122" s="45"/>
-      <c r="O122" s="45"/>
-      <c r="P122" s="45"/>
-      <c r="Q122" s="45"/>
-      <c r="R122" s="45"/>
-      <c r="S122" s="45"/>
-      <c r="T122" s="45"/>
-      <c r="U122" s="45"/>
-      <c r="V122" s="45"/>
-      <c r="W122" s="45"/>
-      <c r="X122" s="45"/>
-      <c r="Y122" s="45"/>
-      <c r="Z122" s="45"/>
-      <c r="AA122" s="45"/>
-      <c r="AB122" s="45"/>
-      <c r="AC122" s="45"/>
-      <c r="AD122" s="45"/>
-      <c r="AE122" s="45"/>
-      <c r="AF122" s="45"/>
-      <c r="AG122" s="45"/>
-      <c r="AH122" s="45"/>
-      <c r="AI122" s="45"/>
-      <c r="AJ122" s="45"/>
-      <c r="AK122" s="45"/>
-      <c r="AL122" s="45"/>
-      <c r="AM122" s="45"/>
-      <c r="AN122" s="45"/>
-      <c r="AO122" s="45"/>
-      <c r="AP122" s="45"/>
-      <c r="AQ122" s="45"/>
-      <c r="AR122" s="45"/>
-      <c r="AS122" s="45"/>
-      <c r="AT122" s="45"/>
-      <c r="AU122" s="45"/>
-      <c r="AV122" s="45"/>
-      <c r="AW122" s="45"/>
-      <c r="AX122" s="45"/>
-      <c r="AY122" s="45"/>
-      <c r="AZ122" s="45"/>
-      <c r="BA122" s="45"/>
-      <c r="BB122" s="45"/>
-      <c r="BC122" s="45"/>
-      <c r="BD122" s="45"/>
-      <c r="BE122" s="45"/>
-      <c r="BF122" s="45"/>
-      <c r="BG122" s="45"/>
-      <c r="BH122" s="45"/>
-      <c r="BI122" s="45"/>
-      <c r="BJ122" s="45"/>
-      <c r="BK122" s="45"/>
-      <c r="BL122" s="45"/>
-      <c r="BM122" s="45"/>
-      <c r="BN122" s="45"/>
-      <c r="BO122" s="45"/>
-      <c r="BP122" s="45"/>
-      <c r="BQ122" s="45"/>
-      <c r="BR122" s="45"/>
-      <c r="BS122" s="45"/>
-      <c r="BT122" s="45"/>
-      <c r="BU122" s="45"/>
-      <c r="BV122" s="45"/>
-      <c r="BW122" s="45"/>
-      <c r="BX122" s="45"/>
-      <c r="BY122" s="45"/>
-      <c r="BZ122" s="45"/>
-      <c r="CA122" s="45"/>
-      <c r="CB122" s="45"/>
-      <c r="CC122" s="45"/>
-      <c r="CD122" s="45"/>
-      <c r="CE122" s="45"/>
-      <c r="CF122" s="45"/>
-      <c r="CG122" s="45"/>
-      <c r="CH122" s="45"/>
-      <c r="CI122" s="45"/>
-      <c r="CJ122" s="45"/>
-      <c r="CK122" s="45"/>
-      <c r="CL122" s="45"/>
-      <c r="CM122" s="45"/>
-      <c r="CN122" s="45"/>
-      <c r="CO122" s="45"/>
-      <c r="CP122" s="45"/>
-      <c r="CQ122" s="45"/>
-      <c r="CR122" s="45"/>
-      <c r="CS122" s="45"/>
-      <c r="CT122" s="45"/>
-      <c r="CU122" s="45"/>
-      <c r="CV122" s="45"/>
-      <c r="CW122" s="45"/>
-      <c r="CX122" s="46"/>
+      <c r="C122" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="77">
+        <v>4.05</v>
+      </c>
+      <c r="E122" s="68">
+        <v>18.04</v>
+      </c>
+      <c r="F122" s="31"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="32"/>
+      <c r="O122" s="32"/>
+      <c r="P122" s="32"/>
+      <c r="Q122" s="32"/>
+      <c r="R122" s="32"/>
+      <c r="S122" s="32"/>
+      <c r="T122" s="32"/>
+      <c r="U122" s="32"/>
+      <c r="V122" s="32"/>
+      <c r="W122" s="32"/>
+      <c r="X122" s="32"/>
+      <c r="Y122" s="32"/>
+      <c r="Z122" s="32"/>
+      <c r="AA122" s="32"/>
+      <c r="AB122" s="32"/>
+      <c r="AC122" s="32"/>
+      <c r="AD122" s="32"/>
+      <c r="AE122" s="32"/>
+      <c r="AF122" s="32"/>
+      <c r="AG122" s="32"/>
+      <c r="AH122" s="32"/>
+      <c r="AI122" s="32"/>
+      <c r="AJ122" s="32"/>
+      <c r="AK122" s="32"/>
+      <c r="AL122" s="32"/>
+      <c r="AM122" s="32"/>
+      <c r="AN122" s="32"/>
+      <c r="AO122" s="32"/>
+      <c r="AP122" s="32"/>
+      <c r="AQ122" s="32"/>
+      <c r="AR122" s="32"/>
+      <c r="AS122" s="32"/>
+      <c r="AT122" s="32"/>
+      <c r="AU122" s="32"/>
+      <c r="AV122" s="32"/>
+      <c r="AW122" s="32"/>
+      <c r="AX122" s="32"/>
+      <c r="AY122" s="32"/>
+      <c r="AZ122" s="32"/>
+      <c r="BA122" s="32"/>
+      <c r="BB122" s="32"/>
+      <c r="BC122" s="32"/>
+      <c r="BD122" s="32"/>
+      <c r="BE122" s="32"/>
+      <c r="BF122" s="32"/>
+      <c r="BG122" s="32"/>
+      <c r="BH122" s="32"/>
+      <c r="BI122" s="32"/>
+      <c r="BJ122" s="32"/>
+      <c r="BK122" s="32"/>
+      <c r="BL122" s="32"/>
+      <c r="BM122" s="32"/>
+      <c r="BN122" s="32"/>
+      <c r="BO122" s="32"/>
+      <c r="BP122" s="32"/>
+      <c r="BQ122" s="32"/>
+      <c r="BR122" s="32"/>
+      <c r="BS122" s="32"/>
+      <c r="BT122" s="32"/>
+      <c r="BU122" s="32"/>
+      <c r="BV122" s="32"/>
+      <c r="BW122" s="32"/>
+      <c r="BX122" s="32"/>
+      <c r="BY122" s="32"/>
+      <c r="BZ122" s="32"/>
+      <c r="CA122" s="32"/>
+      <c r="CB122" s="32"/>
+      <c r="CC122" s="32"/>
+      <c r="CD122" s="32"/>
+      <c r="CE122" s="32"/>
+      <c r="CF122" s="32"/>
+      <c r="CG122" s="32"/>
+      <c r="CH122" s="32"/>
+      <c r="CI122" s="32"/>
+      <c r="CJ122" s="32"/>
+      <c r="CK122" s="32"/>
+      <c r="CL122" s="32"/>
+      <c r="CM122" s="32"/>
+      <c r="CN122" s="32"/>
+      <c r="CO122" s="32"/>
+      <c r="CP122" s="32"/>
+      <c r="CQ122" s="32"/>
+      <c r="CR122" s="32"/>
+      <c r="CS122" s="32"/>
+      <c r="CT122" s="32"/>
+      <c r="CU122" s="32"/>
+      <c r="CV122" s="32"/>
+      <c r="CW122" s="32"/>
+      <c r="CX122" s="33"/>
       <c r="CY122" s="21"/>
     </row>
-    <row r="123" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="19" t="s">
+    <row r="123" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A123" s="74"/>
+      <c r="B123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="40"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-      <c r="K123" s="41"/>
-      <c r="L123" s="41"/>
-      <c r="M123" s="41"/>
-      <c r="N123" s="41"/>
-      <c r="O123" s="41"/>
-      <c r="P123" s="41"/>
-      <c r="Q123" s="41"/>
-      <c r="R123" s="41"/>
-      <c r="S123" s="41"/>
-      <c r="T123" s="41"/>
-      <c r="U123" s="41"/>
-      <c r="V123" s="41"/>
-      <c r="W123" s="41"/>
-      <c r="X123" s="41"/>
-      <c r="Y123" s="41"/>
-      <c r="Z123" s="41"/>
-      <c r="AA123" s="41"/>
-      <c r="AB123" s="41"/>
-      <c r="AC123" s="41"/>
-      <c r="AD123" s="41"/>
-      <c r="AE123" s="41"/>
-      <c r="AF123" s="41"/>
-      <c r="AG123" s="41"/>
-      <c r="AH123" s="41"/>
-      <c r="AI123" s="41"/>
-      <c r="AJ123" s="41"/>
-      <c r="AK123" s="41"/>
-      <c r="AL123" s="41"/>
-      <c r="AM123" s="41"/>
-      <c r="AN123" s="41"/>
-      <c r="AO123" s="41"/>
-      <c r="AP123" s="41"/>
-      <c r="AQ123" s="41"/>
-      <c r="AR123" s="41"/>
-      <c r="AS123" s="41"/>
-      <c r="AT123" s="41"/>
-      <c r="AU123" s="41"/>
-      <c r="AV123" s="41"/>
-      <c r="AW123" s="41"/>
-      <c r="AX123" s="41"/>
-      <c r="AY123" s="41"/>
-      <c r="AZ123" s="41"/>
-      <c r="BA123" s="41"/>
-      <c r="BB123" s="41"/>
-      <c r="BC123" s="41"/>
-      <c r="BD123" s="41"/>
-      <c r="BE123" s="41"/>
-      <c r="BF123" s="41"/>
-      <c r="BG123" s="41"/>
-      <c r="BH123" s="41"/>
-      <c r="BI123" s="41"/>
-      <c r="BJ123" s="41"/>
-      <c r="BK123" s="41"/>
-      <c r="BL123" s="41"/>
-      <c r="BM123" s="41"/>
-      <c r="BN123" s="41"/>
-      <c r="BO123" s="41"/>
-      <c r="BP123" s="41"/>
-      <c r="BQ123" s="41"/>
-      <c r="BR123" s="41"/>
-      <c r="BS123" s="41"/>
-      <c r="BT123" s="41"/>
-      <c r="BU123" s="41"/>
-      <c r="BV123" s="41"/>
-      <c r="BW123" s="41"/>
-      <c r="BX123" s="41"/>
-      <c r="BY123" s="41"/>
-      <c r="BZ123" s="41"/>
-      <c r="CA123" s="41"/>
-      <c r="CB123" s="41"/>
-      <c r="CC123" s="41"/>
-      <c r="CD123" s="41"/>
-      <c r="CE123" s="41"/>
-      <c r="CF123" s="41"/>
-      <c r="CG123" s="41"/>
-      <c r="CH123" s="41"/>
-      <c r="CI123" s="41"/>
-      <c r="CJ123" s="41"/>
-      <c r="CK123" s="41"/>
-      <c r="CL123" s="41"/>
-      <c r="CM123" s="41"/>
-      <c r="CN123" s="41"/>
-      <c r="CO123" s="41"/>
-      <c r="CP123" s="41"/>
-      <c r="CQ123" s="41"/>
-      <c r="CR123" s="41"/>
-      <c r="CS123" s="41"/>
-      <c r="CT123" s="41"/>
-      <c r="CU123" s="41"/>
-      <c r="CV123" s="41"/>
-      <c r="CW123" s="41"/>
-      <c r="CX123" s="42"/>
+      <c r="C123" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="77"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="32"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="32"/>
+      <c r="O123" s="32"/>
+      <c r="P123" s="32"/>
+      <c r="Q123" s="32"/>
+      <c r="R123" s="32"/>
+      <c r="S123" s="32"/>
+      <c r="T123" s="32"/>
+      <c r="U123" s="32"/>
+      <c r="V123" s="32"/>
+      <c r="W123" s="32"/>
+      <c r="X123" s="32"/>
+      <c r="Y123" s="32"/>
+      <c r="Z123" s="32"/>
+      <c r="AA123" s="32"/>
+      <c r="AB123" s="32"/>
+      <c r="AC123" s="32"/>
+      <c r="AD123" s="32"/>
+      <c r="AE123" s="32"/>
+      <c r="AF123" s="32"/>
+      <c r="AG123" s="32"/>
+      <c r="AH123" s="32"/>
+      <c r="AI123" s="32"/>
+      <c r="AJ123" s="32"/>
+      <c r="AK123" s="32"/>
+      <c r="AL123" s="32"/>
+      <c r="AM123" s="32"/>
+      <c r="AN123" s="32"/>
+      <c r="AO123" s="32"/>
+      <c r="AP123" s="32"/>
+      <c r="AQ123" s="32"/>
+      <c r="AR123" s="32"/>
+      <c r="AS123" s="32"/>
+      <c r="AT123" s="32"/>
+      <c r="AU123" s="32"/>
+      <c r="AV123" s="32"/>
+      <c r="AW123" s="32"/>
+      <c r="AX123" s="32"/>
+      <c r="AY123" s="32"/>
+      <c r="AZ123" s="32"/>
+      <c r="BA123" s="32"/>
+      <c r="BB123" s="32"/>
+      <c r="BC123" s="32"/>
+      <c r="BD123" s="32"/>
+      <c r="BE123" s="32"/>
+      <c r="BF123" s="32"/>
+      <c r="BG123" s="32"/>
+      <c r="BH123" s="32"/>
+      <c r="BI123" s="32"/>
+      <c r="BJ123" s="32"/>
+      <c r="BK123" s="32"/>
+      <c r="BL123" s="32"/>
+      <c r="BM123" s="32"/>
+      <c r="BN123" s="32"/>
+      <c r="BO123" s="32"/>
+      <c r="BP123" s="32"/>
+      <c r="BQ123" s="32"/>
+      <c r="BR123" s="32"/>
+      <c r="BS123" s="32"/>
+      <c r="BT123" s="32"/>
+      <c r="BU123" s="32"/>
+      <c r="BV123" s="32"/>
+      <c r="BW123" s="32"/>
+      <c r="BX123" s="32"/>
+      <c r="BY123" s="32"/>
+      <c r="BZ123" s="32"/>
+      <c r="CA123" s="32"/>
+      <c r="CB123" s="32"/>
+      <c r="CC123" s="32"/>
+      <c r="CD123" s="32"/>
+      <c r="CE123" s="32"/>
+      <c r="CF123" s="32"/>
+      <c r="CG123" s="32"/>
+      <c r="CH123" s="32"/>
+      <c r="CI123" s="32"/>
+      <c r="CJ123" s="32"/>
+      <c r="CK123" s="32"/>
+      <c r="CL123" s="32"/>
+      <c r="CM123" s="32"/>
+      <c r="CN123" s="32"/>
+      <c r="CO123" s="32"/>
+      <c r="CP123" s="32"/>
+      <c r="CQ123" s="32"/>
+      <c r="CR123" s="32"/>
+      <c r="CS123" s="32"/>
+      <c r="CT123" s="32"/>
+      <c r="CU123" s="32"/>
+      <c r="CV123" s="32"/>
+      <c r="CW123" s="32"/>
+      <c r="CX123" s="33"/>
       <c r="CY123" s="21"/>
     </row>
-    <row r="124" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A124" s="68"/>
-      <c r="B124" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="75">
-        <v>18.04</v>
-      </c>
-      <c r="E124" s="72">
-        <v>25.04</v>
-      </c>
-      <c r="F124" s="31"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="32"/>
-      <c r="J124" s="32"/>
-      <c r="K124" s="32"/>
-      <c r="L124" s="32"/>
-      <c r="M124" s="32"/>
-      <c r="N124" s="32"/>
-      <c r="O124" s="32"/>
-      <c r="P124" s="32"/>
-      <c r="Q124" s="32"/>
-      <c r="R124" s="32"/>
-      <c r="S124" s="32"/>
-      <c r="T124" s="32"/>
-      <c r="U124" s="32"/>
-      <c r="V124" s="32"/>
-      <c r="W124" s="32"/>
-      <c r="X124" s="32"/>
-      <c r="Y124" s="32"/>
-      <c r="Z124" s="32"/>
-      <c r="AA124" s="32"/>
-      <c r="AB124" s="32"/>
-      <c r="AC124" s="32"/>
-      <c r="AD124" s="32"/>
-      <c r="AE124" s="32"/>
-      <c r="AF124" s="32"/>
-      <c r="AG124" s="32"/>
-      <c r="AH124" s="32"/>
-      <c r="AI124" s="32"/>
-      <c r="AJ124" s="32"/>
-      <c r="AK124" s="32"/>
-      <c r="AL124" s="32"/>
-      <c r="AM124" s="32"/>
-      <c r="AN124" s="32"/>
-      <c r="AO124" s="32"/>
-      <c r="AP124" s="32"/>
-      <c r="AQ124" s="32"/>
-      <c r="AR124" s="32"/>
-      <c r="AS124" s="32"/>
-      <c r="AT124" s="32"/>
-      <c r="AU124" s="32"/>
-      <c r="AV124" s="32"/>
-      <c r="AW124" s="32"/>
-      <c r="AX124" s="32"/>
-      <c r="AY124" s="32"/>
-      <c r="AZ124" s="32"/>
-      <c r="BA124" s="32"/>
-      <c r="BB124" s="32"/>
-      <c r="BC124" s="32"/>
-      <c r="BD124" s="32"/>
-      <c r="BE124" s="32"/>
-      <c r="BF124" s="32"/>
-      <c r="BG124" s="32"/>
-      <c r="BH124" s="32"/>
-      <c r="BI124" s="32"/>
-      <c r="BJ124" s="32"/>
-      <c r="BK124" s="32"/>
-      <c r="BL124" s="32"/>
-      <c r="BM124" s="32"/>
-      <c r="BN124" s="32"/>
-      <c r="BO124" s="32"/>
-      <c r="BP124" s="32"/>
-      <c r="BQ124" s="32"/>
-      <c r="BR124" s="32"/>
-      <c r="BS124" s="32"/>
-      <c r="BT124" s="32"/>
-      <c r="BU124" s="32"/>
-      <c r="BV124" s="32"/>
-      <c r="BW124" s="32"/>
-      <c r="BX124" s="32"/>
-      <c r="BY124" s="32"/>
-      <c r="BZ124" s="32"/>
-      <c r="CA124" s="32"/>
-      <c r="CB124" s="32"/>
-      <c r="CC124" s="32"/>
-      <c r="CD124" s="32"/>
-      <c r="CE124" s="32"/>
-      <c r="CF124" s="32"/>
-      <c r="CG124" s="32"/>
-      <c r="CH124" s="32"/>
-      <c r="CI124" s="32"/>
-      <c r="CJ124" s="32"/>
-      <c r="CK124" s="32"/>
-      <c r="CL124" s="32"/>
-      <c r="CM124" s="32"/>
-      <c r="CN124" s="32"/>
-      <c r="CO124" s="32"/>
-      <c r="CP124" s="32"/>
-      <c r="CQ124" s="32"/>
-      <c r="CR124" s="32"/>
-      <c r="CS124" s="32"/>
-      <c r="CT124" s="32"/>
-      <c r="CU124" s="32"/>
-      <c r="CV124" s="32"/>
-      <c r="CW124" s="32"/>
-      <c r="CX124" s="33"/>
+    <row r="124" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="40"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="41"/>
+      <c r="M124" s="41"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
+      <c r="P124" s="41"/>
+      <c r="Q124" s="41"/>
+      <c r="R124" s="41"/>
+      <c r="S124" s="41"/>
+      <c r="T124" s="41"/>
+      <c r="U124" s="41"/>
+      <c r="V124" s="41"/>
+      <c r="W124" s="41"/>
+      <c r="X124" s="41"/>
+      <c r="Y124" s="41"/>
+      <c r="Z124" s="41"/>
+      <c r="AA124" s="41"/>
+      <c r="AB124" s="41"/>
+      <c r="AC124" s="41"/>
+      <c r="AD124" s="41"/>
+      <c r="AE124" s="41"/>
+      <c r="AF124" s="41"/>
+      <c r="AG124" s="41"/>
+      <c r="AH124" s="41"/>
+      <c r="AI124" s="41"/>
+      <c r="AJ124" s="41"/>
+      <c r="AK124" s="41"/>
+      <c r="AL124" s="41"/>
+      <c r="AM124" s="41"/>
+      <c r="AN124" s="41"/>
+      <c r="AO124" s="41"/>
+      <c r="AP124" s="41"/>
+      <c r="AQ124" s="41"/>
+      <c r="AR124" s="41"/>
+      <c r="AS124" s="41"/>
+      <c r="AT124" s="41"/>
+      <c r="AU124" s="41"/>
+      <c r="AV124" s="41"/>
+      <c r="AW124" s="41"/>
+      <c r="AX124" s="41"/>
+      <c r="AY124" s="41"/>
+      <c r="AZ124" s="41"/>
+      <c r="BA124" s="41"/>
+      <c r="BB124" s="41"/>
+      <c r="BC124" s="41"/>
+      <c r="BD124" s="41"/>
+      <c r="BE124" s="41"/>
+      <c r="BF124" s="41"/>
+      <c r="BG124" s="41"/>
+      <c r="BH124" s="41"/>
+      <c r="BI124" s="41"/>
+      <c r="BJ124" s="41"/>
+      <c r="BK124" s="41"/>
+      <c r="BL124" s="41"/>
+      <c r="BM124" s="41"/>
+      <c r="BN124" s="41"/>
+      <c r="BO124" s="41"/>
+      <c r="BP124" s="41"/>
+      <c r="BQ124" s="41"/>
+      <c r="BR124" s="41"/>
+      <c r="BS124" s="41"/>
+      <c r="BT124" s="41"/>
+      <c r="BU124" s="41"/>
+      <c r="BV124" s="41"/>
+      <c r="BW124" s="41"/>
+      <c r="BX124" s="41"/>
+      <c r="BY124" s="41"/>
+      <c r="BZ124" s="41"/>
+      <c r="CA124" s="41"/>
+      <c r="CB124" s="41"/>
+      <c r="CC124" s="41"/>
+      <c r="CD124" s="41"/>
+      <c r="CE124" s="41"/>
+      <c r="CF124" s="41"/>
+      <c r="CG124" s="41"/>
+      <c r="CH124" s="41"/>
+      <c r="CI124" s="41"/>
+      <c r="CJ124" s="41"/>
+      <c r="CK124" s="41"/>
+      <c r="CL124" s="41"/>
+      <c r="CM124" s="41"/>
+      <c r="CN124" s="41"/>
+      <c r="CO124" s="41"/>
+      <c r="CP124" s="41"/>
+      <c r="CQ124" s="41"/>
+      <c r="CR124" s="41"/>
+      <c r="CS124" s="41"/>
+      <c r="CT124" s="41"/>
+      <c r="CU124" s="41"/>
+      <c r="CV124" s="41"/>
+      <c r="CW124" s="41"/>
+      <c r="CX124" s="42"/>
       <c r="CY124" s="21"/>
     </row>
-    <row r="125" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A125" s="69"/>
+    <row r="125" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A125" s="73"/>
       <c r="B125" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="75"/>
-      <c r="E125" s="72"/>
+      <c r="D125" s="77">
+        <v>4.05</v>
+      </c>
+      <c r="E125" s="68">
+        <v>18.04</v>
+      </c>
       <c r="F125" s="31"/>
       <c r="G125" s="32"/>
       <c r="H125" s="32"/>
@@ -16210,135 +16334,125 @@
       <c r="CX125" s="33"/>
       <c r="CY125" s="21"/>
     </row>
-    <row r="126" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="19" t="s">
+    <row r="126" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A126" s="74"/>
+      <c r="B126" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="40"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-      <c r="K126" s="41"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="41"/>
-      <c r="N126" s="41"/>
-      <c r="O126" s="41"/>
-      <c r="P126" s="41"/>
-      <c r="Q126" s="41"/>
-      <c r="R126" s="41"/>
-      <c r="S126" s="41"/>
-      <c r="T126" s="41"/>
-      <c r="U126" s="41"/>
-      <c r="V126" s="41"/>
-      <c r="W126" s="41"/>
-      <c r="X126" s="41"/>
-      <c r="Y126" s="41"/>
-      <c r="Z126" s="41"/>
-      <c r="AA126" s="41"/>
-      <c r="AB126" s="41"/>
-      <c r="AC126" s="41"/>
-      <c r="AD126" s="41"/>
-      <c r="AE126" s="41"/>
-      <c r="AF126" s="41"/>
-      <c r="AG126" s="41"/>
-      <c r="AH126" s="41"/>
-      <c r="AI126" s="41"/>
-      <c r="AJ126" s="41"/>
-      <c r="AK126" s="41"/>
-      <c r="AL126" s="41"/>
-      <c r="AM126" s="41"/>
-      <c r="AN126" s="41"/>
-      <c r="AO126" s="41"/>
-      <c r="AP126" s="41"/>
-      <c r="AQ126" s="41"/>
-      <c r="AR126" s="41"/>
-      <c r="AS126" s="41"/>
-      <c r="AT126" s="41"/>
-      <c r="AU126" s="41"/>
-      <c r="AV126" s="41"/>
-      <c r="AW126" s="41"/>
-      <c r="AX126" s="41"/>
-      <c r="AY126" s="41"/>
-      <c r="AZ126" s="41"/>
-      <c r="BA126" s="41"/>
-      <c r="BB126" s="41"/>
-      <c r="BC126" s="41"/>
-      <c r="BD126" s="41"/>
-      <c r="BE126" s="41"/>
-      <c r="BF126" s="41"/>
-      <c r="BG126" s="41"/>
-      <c r="BH126" s="41"/>
-      <c r="BI126" s="41"/>
-      <c r="BJ126" s="41"/>
-      <c r="BK126" s="41"/>
-      <c r="BL126" s="41"/>
-      <c r="BM126" s="41"/>
-      <c r="BN126" s="41"/>
-      <c r="BO126" s="41"/>
-      <c r="BP126" s="41"/>
-      <c r="BQ126" s="41"/>
-      <c r="BR126" s="41"/>
-      <c r="BS126" s="41"/>
-      <c r="BT126" s="41"/>
-      <c r="BU126" s="41"/>
-      <c r="BV126" s="41"/>
-      <c r="BW126" s="41"/>
-      <c r="BX126" s="41"/>
-      <c r="BY126" s="41"/>
-      <c r="BZ126" s="41"/>
-      <c r="CA126" s="41"/>
-      <c r="CB126" s="41"/>
-      <c r="CC126" s="41"/>
-      <c r="CD126" s="41"/>
-      <c r="CE126" s="41"/>
-      <c r="CF126" s="41"/>
-      <c r="CG126" s="41"/>
-      <c r="CH126" s="41"/>
-      <c r="CI126" s="41"/>
-      <c r="CJ126" s="41"/>
-      <c r="CK126" s="41"/>
-      <c r="CL126" s="41"/>
-      <c r="CM126" s="41"/>
-      <c r="CN126" s="41"/>
-      <c r="CO126" s="41"/>
-      <c r="CP126" s="41"/>
-      <c r="CQ126" s="41"/>
-      <c r="CR126" s="41"/>
-      <c r="CS126" s="41"/>
-      <c r="CT126" s="41"/>
-      <c r="CU126" s="41"/>
-      <c r="CV126" s="41"/>
-      <c r="CW126" s="41"/>
-      <c r="CX126" s="42"/>
+      <c r="C126" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="77"/>
+      <c r="E126" s="68"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="32"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="32"/>
+      <c r="P126" s="32"/>
+      <c r="Q126" s="32"/>
+      <c r="R126" s="32"/>
+      <c r="S126" s="32"/>
+      <c r="T126" s="32"/>
+      <c r="U126" s="32"/>
+      <c r="V126" s="32"/>
+      <c r="W126" s="32"/>
+      <c r="X126" s="32"/>
+      <c r="Y126" s="32"/>
+      <c r="Z126" s="32"/>
+      <c r="AA126" s="32"/>
+      <c r="AB126" s="32"/>
+      <c r="AC126" s="32"/>
+      <c r="AD126" s="32"/>
+      <c r="AE126" s="32"/>
+      <c r="AF126" s="32"/>
+      <c r="AG126" s="32"/>
+      <c r="AH126" s="32"/>
+      <c r="AI126" s="32"/>
+      <c r="AJ126" s="32"/>
+      <c r="AK126" s="32"/>
+      <c r="AL126" s="32"/>
+      <c r="AM126" s="32"/>
+      <c r="AN126" s="32"/>
+      <c r="AO126" s="32"/>
+      <c r="AP126" s="32"/>
+      <c r="AQ126" s="32"/>
+      <c r="AR126" s="32"/>
+      <c r="AS126" s="32"/>
+      <c r="AT126" s="32"/>
+      <c r="AU126" s="32"/>
+      <c r="AV126" s="32"/>
+      <c r="AW126" s="32"/>
+      <c r="AX126" s="32"/>
+      <c r="AY126" s="32"/>
+      <c r="AZ126" s="32"/>
+      <c r="BA126" s="32"/>
+      <c r="BB126" s="32"/>
+      <c r="BC126" s="32"/>
+      <c r="BD126" s="32"/>
+      <c r="BE126" s="32"/>
+      <c r="BF126" s="32"/>
+      <c r="BG126" s="32"/>
+      <c r="BH126" s="32"/>
+      <c r="BI126" s="32"/>
+      <c r="BJ126" s="32"/>
+      <c r="BK126" s="32"/>
+      <c r="BL126" s="32"/>
+      <c r="BM126" s="32"/>
+      <c r="BN126" s="32"/>
+      <c r="BO126" s="32"/>
+      <c r="BP126" s="32"/>
+      <c r="BQ126" s="32"/>
+      <c r="BR126" s="32"/>
+      <c r="BS126" s="32"/>
+      <c r="BT126" s="32"/>
+      <c r="BU126" s="32"/>
+      <c r="BV126" s="32"/>
+      <c r="BW126" s="32"/>
+      <c r="BX126" s="32"/>
+      <c r="BY126" s="32"/>
+      <c r="BZ126" s="32"/>
+      <c r="CA126" s="32"/>
+      <c r="CB126" s="32"/>
+      <c r="CC126" s="32"/>
+      <c r="CD126" s="32"/>
+      <c r="CE126" s="32"/>
+      <c r="CF126" s="32"/>
+      <c r="CG126" s="32"/>
+      <c r="CH126" s="32"/>
+      <c r="CI126" s="32"/>
+      <c r="CJ126" s="32"/>
+      <c r="CK126" s="32"/>
+      <c r="CL126" s="32"/>
+      <c r="CM126" s="32"/>
+      <c r="CN126" s="32"/>
+      <c r="CO126" s="32"/>
+      <c r="CP126" s="32"/>
+      <c r="CQ126" s="32"/>
+      <c r="CR126" s="32"/>
+      <c r="CS126" s="32"/>
+      <c r="CT126" s="32"/>
+      <c r="CU126" s="32"/>
+      <c r="CV126" s="32"/>
+      <c r="CW126" s="32"/>
+      <c r="CX126" s="33"/>
       <c r="CY126" s="21"/>
     </row>
-    <row r="127" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A127" s="68"/>
-      <c r="B127" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="75">
-        <v>18.04</v>
-      </c>
-      <c r="E127" s="72">
-        <v>25.04</v>
-      </c>
+    <row r="127" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="69">
+        <v>44334</v>
+      </c>
+      <c r="E127" s="70"/>
       <c r="F127" s="31"/>
       <c r="G127" s="32"/>
       <c r="H127" s="32"/>
@@ -16438,118 +16552,124 @@
       <c r="CX127" s="33"/>
       <c r="CY127" s="21"/>
     </row>
-    <row r="128" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A128" s="69"/>
-      <c r="B128" s="7" t="s">
+    <row r="128" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="75"/>
-      <c r="E128" s="72"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="32"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="32"/>
-      <c r="M128" s="32"/>
-      <c r="N128" s="32"/>
-      <c r="O128" s="32"/>
-      <c r="P128" s="32"/>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="32"/>
-      <c r="S128" s="32"/>
-      <c r="T128" s="32"/>
-      <c r="U128" s="32"/>
-      <c r="V128" s="32"/>
-      <c r="W128" s="32"/>
-      <c r="X128" s="32"/>
-      <c r="Y128" s="32"/>
-      <c r="Z128" s="32"/>
-      <c r="AA128" s="32"/>
-      <c r="AB128" s="32"/>
-      <c r="AC128" s="32"/>
-      <c r="AD128" s="32"/>
-      <c r="AE128" s="32"/>
-      <c r="AF128" s="32"/>
-      <c r="AG128" s="32"/>
-      <c r="AH128" s="32"/>
-      <c r="AI128" s="32"/>
-      <c r="AJ128" s="32"/>
-      <c r="AK128" s="32"/>
-      <c r="AL128" s="32"/>
-      <c r="AM128" s="32"/>
-      <c r="AN128" s="32"/>
-      <c r="AO128" s="32"/>
-      <c r="AP128" s="32"/>
-      <c r="AQ128" s="32"/>
-      <c r="AR128" s="32"/>
-      <c r="AS128" s="32"/>
-      <c r="AT128" s="32"/>
-      <c r="AU128" s="32"/>
-      <c r="AV128" s="32"/>
-      <c r="AW128" s="32"/>
-      <c r="AX128" s="32"/>
-      <c r="AY128" s="32"/>
-      <c r="AZ128" s="32"/>
-      <c r="BA128" s="32"/>
-      <c r="BB128" s="32"/>
-      <c r="BC128" s="32"/>
-      <c r="BD128" s="32"/>
-      <c r="BE128" s="32"/>
-      <c r="BF128" s="32"/>
-      <c r="BG128" s="32"/>
-      <c r="BH128" s="32"/>
-      <c r="BI128" s="32"/>
-      <c r="BJ128" s="32"/>
-      <c r="BK128" s="32"/>
-      <c r="BL128" s="32"/>
-      <c r="BM128" s="32"/>
-      <c r="BN128" s="32"/>
-      <c r="BO128" s="32"/>
-      <c r="BP128" s="32"/>
-      <c r="BQ128" s="32"/>
-      <c r="BR128" s="32"/>
-      <c r="BS128" s="32"/>
-      <c r="BT128" s="32"/>
-      <c r="BU128" s="32"/>
-      <c r="BV128" s="32"/>
-      <c r="BW128" s="32"/>
-      <c r="BX128" s="32"/>
-      <c r="BY128" s="32"/>
-      <c r="BZ128" s="32"/>
-      <c r="CA128" s="32"/>
-      <c r="CB128" s="32"/>
-      <c r="CC128" s="32"/>
-      <c r="CD128" s="32"/>
-      <c r="CE128" s="32"/>
-      <c r="CF128" s="32"/>
-      <c r="CG128" s="32"/>
-      <c r="CH128" s="32"/>
-      <c r="CI128" s="32"/>
-      <c r="CJ128" s="32"/>
-      <c r="CK128" s="32"/>
-      <c r="CL128" s="32"/>
-      <c r="CM128" s="32"/>
-      <c r="CN128" s="32"/>
-      <c r="CO128" s="32"/>
-      <c r="CP128" s="32"/>
-      <c r="CQ128" s="32"/>
-      <c r="CR128" s="32"/>
-      <c r="CS128" s="32"/>
-      <c r="CT128" s="32"/>
-      <c r="CU128" s="32"/>
-      <c r="CV128" s="32"/>
-      <c r="CW128" s="32"/>
-      <c r="CX128" s="33"/>
+      <c r="E128" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="44"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="45"/>
+      <c r="I128" s="45"/>
+      <c r="J128" s="45"/>
+      <c r="K128" s="45"/>
+      <c r="L128" s="45"/>
+      <c r="M128" s="45"/>
+      <c r="N128" s="45"/>
+      <c r="O128" s="45"/>
+      <c r="P128" s="45"/>
+      <c r="Q128" s="45"/>
+      <c r="R128" s="45"/>
+      <c r="S128" s="45"/>
+      <c r="T128" s="45"/>
+      <c r="U128" s="45"/>
+      <c r="V128" s="45"/>
+      <c r="W128" s="45"/>
+      <c r="X128" s="45"/>
+      <c r="Y128" s="45"/>
+      <c r="Z128" s="45"/>
+      <c r="AA128" s="45"/>
+      <c r="AB128" s="45"/>
+      <c r="AC128" s="45"/>
+      <c r="AD128" s="45"/>
+      <c r="AE128" s="45"/>
+      <c r="AF128" s="45"/>
+      <c r="AG128" s="45"/>
+      <c r="AH128" s="45"/>
+      <c r="AI128" s="45"/>
+      <c r="AJ128" s="45"/>
+      <c r="AK128" s="45"/>
+      <c r="AL128" s="45"/>
+      <c r="AM128" s="45"/>
+      <c r="AN128" s="45"/>
+      <c r="AO128" s="45"/>
+      <c r="AP128" s="45"/>
+      <c r="AQ128" s="45"/>
+      <c r="AR128" s="45"/>
+      <c r="AS128" s="45"/>
+      <c r="AT128" s="45"/>
+      <c r="AU128" s="45"/>
+      <c r="AV128" s="45"/>
+      <c r="AW128" s="45"/>
+      <c r="AX128" s="45"/>
+      <c r="AY128" s="45"/>
+      <c r="AZ128" s="45"/>
+      <c r="BA128" s="45"/>
+      <c r="BB128" s="45"/>
+      <c r="BC128" s="45"/>
+      <c r="BD128" s="45"/>
+      <c r="BE128" s="45"/>
+      <c r="BF128" s="45"/>
+      <c r="BG128" s="45"/>
+      <c r="BH128" s="45"/>
+      <c r="BI128" s="45"/>
+      <c r="BJ128" s="45"/>
+      <c r="BK128" s="45"/>
+      <c r="BL128" s="45"/>
+      <c r="BM128" s="45"/>
+      <c r="BN128" s="45"/>
+      <c r="BO128" s="45"/>
+      <c r="BP128" s="45"/>
+      <c r="BQ128" s="45"/>
+      <c r="BR128" s="45"/>
+      <c r="BS128" s="45"/>
+      <c r="BT128" s="45"/>
+      <c r="BU128" s="45"/>
+      <c r="BV128" s="45"/>
+      <c r="BW128" s="45"/>
+      <c r="BX128" s="45"/>
+      <c r="BY128" s="45"/>
+      <c r="BZ128" s="45"/>
+      <c r="CA128" s="45"/>
+      <c r="CB128" s="45"/>
+      <c r="CC128" s="45"/>
+      <c r="CD128" s="45"/>
+      <c r="CE128" s="45"/>
+      <c r="CF128" s="45"/>
+      <c r="CG128" s="45"/>
+      <c r="CH128" s="45"/>
+      <c r="CI128" s="45"/>
+      <c r="CJ128" s="45"/>
+      <c r="CK128" s="45"/>
+      <c r="CL128" s="45"/>
+      <c r="CM128" s="45"/>
+      <c r="CN128" s="45"/>
+      <c r="CO128" s="45"/>
+      <c r="CP128" s="45"/>
+      <c r="CQ128" s="45"/>
+      <c r="CR128" s="45"/>
+      <c r="CS128" s="45"/>
+      <c r="CT128" s="45"/>
+      <c r="CU128" s="45"/>
+      <c r="CV128" s="45"/>
+      <c r="CW128" s="45"/>
+      <c r="CX128" s="46"/>
       <c r="CY128" s="21"/>
     </row>
-    <row r="129" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>9</v>
@@ -16662,18 +16782,18 @@
       <c r="CX129" s="42"/>
       <c r="CY129" s="21"/>
     </row>
-    <row r="130" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A130" s="68"/>
+    <row r="130" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A130" s="73"/>
       <c r="B130" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="75">
+      <c r="D130" s="77">
         <v>18.04</v>
       </c>
-      <c r="E130" s="72">
+      <c r="E130" s="68">
         <v>25.04</v>
       </c>
       <c r="F130" s="31"/>
@@ -16775,16 +16895,16 @@
       <c r="CX130" s="33"/>
       <c r="CY130" s="21"/>
     </row>
-    <row r="131" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A131" s="69"/>
+    <row r="131" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A131" s="74"/>
       <c r="B131" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="75"/>
-      <c r="E131" s="72"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="68"/>
       <c r="F131" s="31"/>
       <c r="G131" s="32"/>
       <c r="H131" s="32"/>
@@ -16882,11 +17002,11 @@
       <c r="CV131" s="32"/>
       <c r="CW131" s="32"/>
       <c r="CX131" s="33"/>
-      <c r="CY131" s="11"/>
+      <c r="CY131" s="21"/>
     </row>
-    <row r="132" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>9</v>
@@ -16997,19 +17117,20 @@
       <c r="CV132" s="41"/>
       <c r="CW132" s="41"/>
       <c r="CX132" s="42"/>
+      <c r="CY132" s="21"/>
     </row>
-    <row r="133" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A133" s="68"/>
+    <row r="133" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A133" s="73"/>
       <c r="B133" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="75">
+      <c r="D133" s="77">
         <v>18.04</v>
       </c>
-      <c r="E133" s="72">
+      <c r="E133" s="68">
         <v>25.04</v>
       </c>
       <c r="F133" s="31"/>
@@ -17109,17 +17230,18 @@
       <c r="CV133" s="32"/>
       <c r="CW133" s="32"/>
       <c r="CX133" s="33"/>
+      <c r="CY133" s="21"/>
     </row>
-    <row r="134" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A134" s="69"/>
+    <row r="134" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A134" s="74"/>
       <c r="B134" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="75"/>
-      <c r="E134" s="72"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="68"/>
       <c r="F134" s="31"/>
       <c r="G134" s="32"/>
       <c r="H134" s="32"/>
@@ -17217,10 +17339,11 @@
       <c r="CV134" s="32"/>
       <c r="CW134" s="32"/>
       <c r="CX134" s="33"/>
+      <c r="CY134" s="21"/>
     </row>
-    <row r="135" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>9</v>
@@ -17331,19 +17454,20 @@
       <c r="CV135" s="41"/>
       <c r="CW135" s="41"/>
       <c r="CX135" s="42"/>
+      <c r="CY135" s="21"/>
     </row>
-    <row r="136" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A136" s="68"/>
+    <row r="136" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A136" s="73"/>
       <c r="B136" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="75">
+      <c r="D136" s="77">
         <v>18.04</v>
       </c>
-      <c r="E136" s="72">
+      <c r="E136" s="68">
         <v>25.04</v>
       </c>
       <c r="F136" s="31"/>
@@ -17443,17 +17567,18 @@
       <c r="CV136" s="32"/>
       <c r="CW136" s="32"/>
       <c r="CX136" s="33"/>
+      <c r="CY136" s="21"/>
     </row>
-    <row r="137" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A137" s="69"/>
+    <row r="137" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A137" s="74"/>
       <c r="B137" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="75"/>
-      <c r="E137" s="72"/>
+      <c r="D137" s="77"/>
+      <c r="E137" s="68"/>
       <c r="F137" s="31"/>
       <c r="G137" s="32"/>
       <c r="H137" s="32"/>
@@ -17551,248 +17676,1059 @@
       <c r="CV137" s="32"/>
       <c r="CW137" s="32"/>
       <c r="CX137" s="33"/>
+      <c r="CY137" s="11"/>
     </row>
-    <row r="138" spans="1:103" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="16" t="s">
+    <row r="138" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="40"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
+      <c r="K138" s="41"/>
+      <c r="L138" s="41"/>
+      <c r="M138" s="41"/>
+      <c r="N138" s="41"/>
+      <c r="O138" s="41"/>
+      <c r="P138" s="41"/>
+      <c r="Q138" s="41"/>
+      <c r="R138" s="41"/>
+      <c r="S138" s="41"/>
+      <c r="T138" s="41"/>
+      <c r="U138" s="41"/>
+      <c r="V138" s="41"/>
+      <c r="W138" s="41"/>
+      <c r="X138" s="41"/>
+      <c r="Y138" s="41"/>
+      <c r="Z138" s="41"/>
+      <c r="AA138" s="41"/>
+      <c r="AB138" s="41"/>
+      <c r="AC138" s="41"/>
+      <c r="AD138" s="41"/>
+      <c r="AE138" s="41"/>
+      <c r="AF138" s="41"/>
+      <c r="AG138" s="41"/>
+      <c r="AH138" s="41"/>
+      <c r="AI138" s="41"/>
+      <c r="AJ138" s="41"/>
+      <c r="AK138" s="41"/>
+      <c r="AL138" s="41"/>
+      <c r="AM138" s="41"/>
+      <c r="AN138" s="41"/>
+      <c r="AO138" s="41"/>
+      <c r="AP138" s="41"/>
+      <c r="AQ138" s="41"/>
+      <c r="AR138" s="41"/>
+      <c r="AS138" s="41"/>
+      <c r="AT138" s="41"/>
+      <c r="AU138" s="41"/>
+      <c r="AV138" s="41"/>
+      <c r="AW138" s="41"/>
+      <c r="AX138" s="41"/>
+      <c r="AY138" s="41"/>
+      <c r="AZ138" s="41"/>
+      <c r="BA138" s="41"/>
+      <c r="BB138" s="41"/>
+      <c r="BC138" s="41"/>
+      <c r="BD138" s="41"/>
+      <c r="BE138" s="41"/>
+      <c r="BF138" s="41"/>
+      <c r="BG138" s="41"/>
+      <c r="BH138" s="41"/>
+      <c r="BI138" s="41"/>
+      <c r="BJ138" s="41"/>
+      <c r="BK138" s="41"/>
+      <c r="BL138" s="41"/>
+      <c r="BM138" s="41"/>
+      <c r="BN138" s="41"/>
+      <c r="BO138" s="41"/>
+      <c r="BP138" s="41"/>
+      <c r="BQ138" s="41"/>
+      <c r="BR138" s="41"/>
+      <c r="BS138" s="41"/>
+      <c r="BT138" s="41"/>
+      <c r="BU138" s="41"/>
+      <c r="BV138" s="41"/>
+      <c r="BW138" s="41"/>
+      <c r="BX138" s="41"/>
+      <c r="BY138" s="41"/>
+      <c r="BZ138" s="41"/>
+      <c r="CA138" s="41"/>
+      <c r="CB138" s="41"/>
+      <c r="CC138" s="41"/>
+      <c r="CD138" s="41"/>
+      <c r="CE138" s="41"/>
+      <c r="CF138" s="41"/>
+      <c r="CG138" s="41"/>
+      <c r="CH138" s="41"/>
+      <c r="CI138" s="41"/>
+      <c r="CJ138" s="41"/>
+      <c r="CK138" s="41"/>
+      <c r="CL138" s="41"/>
+      <c r="CM138" s="41"/>
+      <c r="CN138" s="41"/>
+      <c r="CO138" s="41"/>
+      <c r="CP138" s="41"/>
+      <c r="CQ138" s="41"/>
+      <c r="CR138" s="41"/>
+      <c r="CS138" s="41"/>
+      <c r="CT138" s="41"/>
+      <c r="CU138" s="41"/>
+      <c r="CV138" s="41"/>
+      <c r="CW138" s="41"/>
+      <c r="CX138" s="42"/>
+    </row>
+    <row r="139" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A139" s="73"/>
+      <c r="B139" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="77">
+        <v>18.04</v>
+      </c>
+      <c r="E139" s="68">
+        <v>25.04</v>
+      </c>
+      <c r="F139" s="31"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="32"/>
+      <c r="K139" s="32"/>
+      <c r="L139" s="32"/>
+      <c r="M139" s="32"/>
+      <c r="N139" s="32"/>
+      <c r="O139" s="32"/>
+      <c r="P139" s="32"/>
+      <c r="Q139" s="32"/>
+      <c r="R139" s="32"/>
+      <c r="S139" s="32"/>
+      <c r="T139" s="32"/>
+      <c r="U139" s="32"/>
+      <c r="V139" s="32"/>
+      <c r="W139" s="32"/>
+      <c r="X139" s="32"/>
+      <c r="Y139" s="32"/>
+      <c r="Z139" s="32"/>
+      <c r="AA139" s="32"/>
+      <c r="AB139" s="32"/>
+      <c r="AC139" s="32"/>
+      <c r="AD139" s="32"/>
+      <c r="AE139" s="32"/>
+      <c r="AF139" s="32"/>
+      <c r="AG139" s="32"/>
+      <c r="AH139" s="32"/>
+      <c r="AI139" s="32"/>
+      <c r="AJ139" s="32"/>
+      <c r="AK139" s="32"/>
+      <c r="AL139" s="32"/>
+      <c r="AM139" s="32"/>
+      <c r="AN139" s="32"/>
+      <c r="AO139" s="32"/>
+      <c r="AP139" s="32"/>
+      <c r="AQ139" s="32"/>
+      <c r="AR139" s="32"/>
+      <c r="AS139" s="32"/>
+      <c r="AT139" s="32"/>
+      <c r="AU139" s="32"/>
+      <c r="AV139" s="32"/>
+      <c r="AW139" s="32"/>
+      <c r="AX139" s="32"/>
+      <c r="AY139" s="32"/>
+      <c r="AZ139" s="32"/>
+      <c r="BA139" s="32"/>
+      <c r="BB139" s="32"/>
+      <c r="BC139" s="32"/>
+      <c r="BD139" s="32"/>
+      <c r="BE139" s="32"/>
+      <c r="BF139" s="32"/>
+      <c r="BG139" s="32"/>
+      <c r="BH139" s="32"/>
+      <c r="BI139" s="32"/>
+      <c r="BJ139" s="32"/>
+      <c r="BK139" s="32"/>
+      <c r="BL139" s="32"/>
+      <c r="BM139" s="32"/>
+      <c r="BN139" s="32"/>
+      <c r="BO139" s="32"/>
+      <c r="BP139" s="32"/>
+      <c r="BQ139" s="32"/>
+      <c r="BR139" s="32"/>
+      <c r="BS139" s="32"/>
+      <c r="BT139" s="32"/>
+      <c r="BU139" s="32"/>
+      <c r="BV139" s="32"/>
+      <c r="BW139" s="32"/>
+      <c r="BX139" s="32"/>
+      <c r="BY139" s="32"/>
+      <c r="BZ139" s="32"/>
+      <c r="CA139" s="32"/>
+      <c r="CB139" s="32"/>
+      <c r="CC139" s="32"/>
+      <c r="CD139" s="32"/>
+      <c r="CE139" s="32"/>
+      <c r="CF139" s="32"/>
+      <c r="CG139" s="32"/>
+      <c r="CH139" s="32"/>
+      <c r="CI139" s="32"/>
+      <c r="CJ139" s="32"/>
+      <c r="CK139" s="32"/>
+      <c r="CL139" s="32"/>
+      <c r="CM139" s="32"/>
+      <c r="CN139" s="32"/>
+      <c r="CO139" s="32"/>
+      <c r="CP139" s="32"/>
+      <c r="CQ139" s="32"/>
+      <c r="CR139" s="32"/>
+      <c r="CS139" s="32"/>
+      <c r="CT139" s="32"/>
+      <c r="CU139" s="32"/>
+      <c r="CV139" s="32"/>
+      <c r="CW139" s="32"/>
+      <c r="CX139" s="33"/>
+    </row>
+    <row r="140" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A140" s="74"/>
+      <c r="B140" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="77"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
+      <c r="J140" s="32"/>
+      <c r="K140" s="32"/>
+      <c r="L140" s="32"/>
+      <c r="M140" s="32"/>
+      <c r="N140" s="32"/>
+      <c r="O140" s="32"/>
+      <c r="P140" s="32"/>
+      <c r="Q140" s="32"/>
+      <c r="R140" s="32"/>
+      <c r="S140" s="32"/>
+      <c r="T140" s="32"/>
+      <c r="U140" s="32"/>
+      <c r="V140" s="32"/>
+      <c r="W140" s="32"/>
+      <c r="X140" s="32"/>
+      <c r="Y140" s="32"/>
+      <c r="Z140" s="32"/>
+      <c r="AA140" s="32"/>
+      <c r="AB140" s="32"/>
+      <c r="AC140" s="32"/>
+      <c r="AD140" s="32"/>
+      <c r="AE140" s="32"/>
+      <c r="AF140" s="32"/>
+      <c r="AG140" s="32"/>
+      <c r="AH140" s="32"/>
+      <c r="AI140" s="32"/>
+      <c r="AJ140" s="32"/>
+      <c r="AK140" s="32"/>
+      <c r="AL140" s="32"/>
+      <c r="AM140" s="32"/>
+      <c r="AN140" s="32"/>
+      <c r="AO140" s="32"/>
+      <c r="AP140" s="32"/>
+      <c r="AQ140" s="32"/>
+      <c r="AR140" s="32"/>
+      <c r="AS140" s="32"/>
+      <c r="AT140" s="32"/>
+      <c r="AU140" s="32"/>
+      <c r="AV140" s="32"/>
+      <c r="AW140" s="32"/>
+      <c r="AX140" s="32"/>
+      <c r="AY140" s="32"/>
+      <c r="AZ140" s="32"/>
+      <c r="BA140" s="32"/>
+      <c r="BB140" s="32"/>
+      <c r="BC140" s="32"/>
+      <c r="BD140" s="32"/>
+      <c r="BE140" s="32"/>
+      <c r="BF140" s="32"/>
+      <c r="BG140" s="32"/>
+      <c r="BH140" s="32"/>
+      <c r="BI140" s="32"/>
+      <c r="BJ140" s="32"/>
+      <c r="BK140" s="32"/>
+      <c r="BL140" s="32"/>
+      <c r="BM140" s="32"/>
+      <c r="BN140" s="32"/>
+      <c r="BO140" s="32"/>
+      <c r="BP140" s="32"/>
+      <c r="BQ140" s="32"/>
+      <c r="BR140" s="32"/>
+      <c r="BS140" s="32"/>
+      <c r="BT140" s="32"/>
+      <c r="BU140" s="32"/>
+      <c r="BV140" s="32"/>
+      <c r="BW140" s="32"/>
+      <c r="BX140" s="32"/>
+      <c r="BY140" s="32"/>
+      <c r="BZ140" s="32"/>
+      <c r="CA140" s="32"/>
+      <c r="CB140" s="32"/>
+      <c r="CC140" s="32"/>
+      <c r="CD140" s="32"/>
+      <c r="CE140" s="32"/>
+      <c r="CF140" s="32"/>
+      <c r="CG140" s="32"/>
+      <c r="CH140" s="32"/>
+      <c r="CI140" s="32"/>
+      <c r="CJ140" s="32"/>
+      <c r="CK140" s="32"/>
+      <c r="CL140" s="32"/>
+      <c r="CM140" s="32"/>
+      <c r="CN140" s="32"/>
+      <c r="CO140" s="32"/>
+      <c r="CP140" s="32"/>
+      <c r="CQ140" s="32"/>
+      <c r="CR140" s="32"/>
+      <c r="CS140" s="32"/>
+      <c r="CT140" s="32"/>
+      <c r="CU140" s="32"/>
+      <c r="CV140" s="32"/>
+      <c r="CW140" s="32"/>
+      <c r="CX140" s="33"/>
+    </row>
+    <row r="141" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="40"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="41"/>
+      <c r="J141" s="41"/>
+      <c r="K141" s="41"/>
+      <c r="L141" s="41"/>
+      <c r="M141" s="41"/>
+      <c r="N141" s="41"/>
+      <c r="O141" s="41"/>
+      <c r="P141" s="41"/>
+      <c r="Q141" s="41"/>
+      <c r="R141" s="41"/>
+      <c r="S141" s="41"/>
+      <c r="T141" s="41"/>
+      <c r="U141" s="41"/>
+      <c r="V141" s="41"/>
+      <c r="W141" s="41"/>
+      <c r="X141" s="41"/>
+      <c r="Y141" s="41"/>
+      <c r="Z141" s="41"/>
+      <c r="AA141" s="41"/>
+      <c r="AB141" s="41"/>
+      <c r="AC141" s="41"/>
+      <c r="AD141" s="41"/>
+      <c r="AE141" s="41"/>
+      <c r="AF141" s="41"/>
+      <c r="AG141" s="41"/>
+      <c r="AH141" s="41"/>
+      <c r="AI141" s="41"/>
+      <c r="AJ141" s="41"/>
+      <c r="AK141" s="41"/>
+      <c r="AL141" s="41"/>
+      <c r="AM141" s="41"/>
+      <c r="AN141" s="41"/>
+      <c r="AO141" s="41"/>
+      <c r="AP141" s="41"/>
+      <c r="AQ141" s="41"/>
+      <c r="AR141" s="41"/>
+      <c r="AS141" s="41"/>
+      <c r="AT141" s="41"/>
+      <c r="AU141" s="41"/>
+      <c r="AV141" s="41"/>
+      <c r="AW141" s="41"/>
+      <c r="AX141" s="41"/>
+      <c r="AY141" s="41"/>
+      <c r="AZ141" s="41"/>
+      <c r="BA141" s="41"/>
+      <c r="BB141" s="41"/>
+      <c r="BC141" s="41"/>
+      <c r="BD141" s="41"/>
+      <c r="BE141" s="41"/>
+      <c r="BF141" s="41"/>
+      <c r="BG141" s="41"/>
+      <c r="BH141" s="41"/>
+      <c r="BI141" s="41"/>
+      <c r="BJ141" s="41"/>
+      <c r="BK141" s="41"/>
+      <c r="BL141" s="41"/>
+      <c r="BM141" s="41"/>
+      <c r="BN141" s="41"/>
+      <c r="BO141" s="41"/>
+      <c r="BP141" s="41"/>
+      <c r="BQ141" s="41"/>
+      <c r="BR141" s="41"/>
+      <c r="BS141" s="41"/>
+      <c r="BT141" s="41"/>
+      <c r="BU141" s="41"/>
+      <c r="BV141" s="41"/>
+      <c r="BW141" s="41"/>
+      <c r="BX141" s="41"/>
+      <c r="BY141" s="41"/>
+      <c r="BZ141" s="41"/>
+      <c r="CA141" s="41"/>
+      <c r="CB141" s="41"/>
+      <c r="CC141" s="41"/>
+      <c r="CD141" s="41"/>
+      <c r="CE141" s="41"/>
+      <c r="CF141" s="41"/>
+      <c r="CG141" s="41"/>
+      <c r="CH141" s="41"/>
+      <c r="CI141" s="41"/>
+      <c r="CJ141" s="41"/>
+      <c r="CK141" s="41"/>
+      <c r="CL141" s="41"/>
+      <c r="CM141" s="41"/>
+      <c r="CN141" s="41"/>
+      <c r="CO141" s="41"/>
+      <c r="CP141" s="41"/>
+      <c r="CQ141" s="41"/>
+      <c r="CR141" s="41"/>
+      <c r="CS141" s="41"/>
+      <c r="CT141" s="41"/>
+      <c r="CU141" s="41"/>
+      <c r="CV141" s="41"/>
+      <c r="CW141" s="41"/>
+      <c r="CX141" s="42"/>
+    </row>
+    <row r="142" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A142" s="73"/>
+      <c r="B142" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="77">
+        <v>18.04</v>
+      </c>
+      <c r="E142" s="68">
+        <v>25.04</v>
+      </c>
+      <c r="F142" s="31"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="32"/>
+      <c r="L142" s="32"/>
+      <c r="M142" s="32"/>
+      <c r="N142" s="32"/>
+      <c r="O142" s="32"/>
+      <c r="P142" s="32"/>
+      <c r="Q142" s="32"/>
+      <c r="R142" s="32"/>
+      <c r="S142" s="32"/>
+      <c r="T142" s="32"/>
+      <c r="U142" s="32"/>
+      <c r="V142" s="32"/>
+      <c r="W142" s="32"/>
+      <c r="X142" s="32"/>
+      <c r="Y142" s="32"/>
+      <c r="Z142" s="32"/>
+      <c r="AA142" s="32"/>
+      <c r="AB142" s="32"/>
+      <c r="AC142" s="32"/>
+      <c r="AD142" s="32"/>
+      <c r="AE142" s="32"/>
+      <c r="AF142" s="32"/>
+      <c r="AG142" s="32"/>
+      <c r="AH142" s="32"/>
+      <c r="AI142" s="32"/>
+      <c r="AJ142" s="32"/>
+      <c r="AK142" s="32"/>
+      <c r="AL142" s="32"/>
+      <c r="AM142" s="32"/>
+      <c r="AN142" s="32"/>
+      <c r="AO142" s="32"/>
+      <c r="AP142" s="32"/>
+      <c r="AQ142" s="32"/>
+      <c r="AR142" s="32"/>
+      <c r="AS142" s="32"/>
+      <c r="AT142" s="32"/>
+      <c r="AU142" s="32"/>
+      <c r="AV142" s="32"/>
+      <c r="AW142" s="32"/>
+      <c r="AX142" s="32"/>
+      <c r="AY142" s="32"/>
+      <c r="AZ142" s="32"/>
+      <c r="BA142" s="32"/>
+      <c r="BB142" s="32"/>
+      <c r="BC142" s="32"/>
+      <c r="BD142" s="32"/>
+      <c r="BE142" s="32"/>
+      <c r="BF142" s="32"/>
+      <c r="BG142" s="32"/>
+      <c r="BH142" s="32"/>
+      <c r="BI142" s="32"/>
+      <c r="BJ142" s="32"/>
+      <c r="BK142" s="32"/>
+      <c r="BL142" s="32"/>
+      <c r="BM142" s="32"/>
+      <c r="BN142" s="32"/>
+      <c r="BO142" s="32"/>
+      <c r="BP142" s="32"/>
+      <c r="BQ142" s="32"/>
+      <c r="BR142" s="32"/>
+      <c r="BS142" s="32"/>
+      <c r="BT142" s="32"/>
+      <c r="BU142" s="32"/>
+      <c r="BV142" s="32"/>
+      <c r="BW142" s="32"/>
+      <c r="BX142" s="32"/>
+      <c r="BY142" s="32"/>
+      <c r="BZ142" s="32"/>
+      <c r="CA142" s="32"/>
+      <c r="CB142" s="32"/>
+      <c r="CC142" s="32"/>
+      <c r="CD142" s="32"/>
+      <c r="CE142" s="32"/>
+      <c r="CF142" s="32"/>
+      <c r="CG142" s="32"/>
+      <c r="CH142" s="32"/>
+      <c r="CI142" s="32"/>
+      <c r="CJ142" s="32"/>
+      <c r="CK142" s="32"/>
+      <c r="CL142" s="32"/>
+      <c r="CM142" s="32"/>
+      <c r="CN142" s="32"/>
+      <c r="CO142" s="32"/>
+      <c r="CP142" s="32"/>
+      <c r="CQ142" s="32"/>
+      <c r="CR142" s="32"/>
+      <c r="CS142" s="32"/>
+      <c r="CT142" s="32"/>
+      <c r="CU142" s="32"/>
+      <c r="CV142" s="32"/>
+      <c r="CW142" s="32"/>
+      <c r="CX142" s="33"/>
+    </row>
+    <row r="143" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A143" s="74"/>
+      <c r="B143" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="77"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="32"/>
+      <c r="J143" s="32"/>
+      <c r="K143" s="32"/>
+      <c r="L143" s="32"/>
+      <c r="M143" s="32"/>
+      <c r="N143" s="32"/>
+      <c r="O143" s="32"/>
+      <c r="P143" s="32"/>
+      <c r="Q143" s="32"/>
+      <c r="R143" s="32"/>
+      <c r="S143" s="32"/>
+      <c r="T143" s="32"/>
+      <c r="U143" s="32"/>
+      <c r="V143" s="32"/>
+      <c r="W143" s="32"/>
+      <c r="X143" s="32"/>
+      <c r="Y143" s="32"/>
+      <c r="Z143" s="32"/>
+      <c r="AA143" s="32"/>
+      <c r="AB143" s="32"/>
+      <c r="AC143" s="32"/>
+      <c r="AD143" s="32"/>
+      <c r="AE143" s="32"/>
+      <c r="AF143" s="32"/>
+      <c r="AG143" s="32"/>
+      <c r="AH143" s="32"/>
+      <c r="AI143" s="32"/>
+      <c r="AJ143" s="32"/>
+      <c r="AK143" s="32"/>
+      <c r="AL143" s="32"/>
+      <c r="AM143" s="32"/>
+      <c r="AN143" s="32"/>
+      <c r="AO143" s="32"/>
+      <c r="AP143" s="32"/>
+      <c r="AQ143" s="32"/>
+      <c r="AR143" s="32"/>
+      <c r="AS143" s="32"/>
+      <c r="AT143" s="32"/>
+      <c r="AU143" s="32"/>
+      <c r="AV143" s="32"/>
+      <c r="AW143" s="32"/>
+      <c r="AX143" s="32"/>
+      <c r="AY143" s="32"/>
+      <c r="AZ143" s="32"/>
+      <c r="BA143" s="32"/>
+      <c r="BB143" s="32"/>
+      <c r="BC143" s="32"/>
+      <c r="BD143" s="32"/>
+      <c r="BE143" s="32"/>
+      <c r="BF143" s="32"/>
+      <c r="BG143" s="32"/>
+      <c r="BH143" s="32"/>
+      <c r="BI143" s="32"/>
+      <c r="BJ143" s="32"/>
+      <c r="BK143" s="32"/>
+      <c r="BL143" s="32"/>
+      <c r="BM143" s="32"/>
+      <c r="BN143" s="32"/>
+      <c r="BO143" s="32"/>
+      <c r="BP143" s="32"/>
+      <c r="BQ143" s="32"/>
+      <c r="BR143" s="32"/>
+      <c r="BS143" s="32"/>
+      <c r="BT143" s="32"/>
+      <c r="BU143" s="32"/>
+      <c r="BV143" s="32"/>
+      <c r="BW143" s="32"/>
+      <c r="BX143" s="32"/>
+      <c r="BY143" s="32"/>
+      <c r="BZ143" s="32"/>
+      <c r="CA143" s="32"/>
+      <c r="CB143" s="32"/>
+      <c r="CC143" s="32"/>
+      <c r="CD143" s="32"/>
+      <c r="CE143" s="32"/>
+      <c r="CF143" s="32"/>
+      <c r="CG143" s="32"/>
+      <c r="CH143" s="32"/>
+      <c r="CI143" s="32"/>
+      <c r="CJ143" s="32"/>
+      <c r="CK143" s="32"/>
+      <c r="CL143" s="32"/>
+      <c r="CM143" s="32"/>
+      <c r="CN143" s="32"/>
+      <c r="CO143" s="32"/>
+      <c r="CP143" s="32"/>
+      <c r="CQ143" s="32"/>
+      <c r="CR143" s="32"/>
+      <c r="CS143" s="32"/>
+      <c r="CT143" s="32"/>
+      <c r="CU143" s="32"/>
+      <c r="CV143" s="32"/>
+      <c r="CW143" s="32"/>
+      <c r="CX143" s="33"/>
+    </row>
+    <row r="144" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="76">
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="69">
         <v>44348</v>
       </c>
-      <c r="E138" s="77"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="32"/>
-      <c r="I138" s="32"/>
-      <c r="J138" s="32"/>
-      <c r="K138" s="32"/>
-      <c r="L138" s="32"/>
-      <c r="M138" s="32"/>
-      <c r="N138" s="32"/>
-      <c r="O138" s="32"/>
-      <c r="P138" s="32"/>
-      <c r="Q138" s="32"/>
-      <c r="R138" s="32"/>
-      <c r="S138" s="32"/>
-      <c r="T138" s="32"/>
-      <c r="U138" s="32"/>
-      <c r="V138" s="32"/>
-      <c r="W138" s="32"/>
-      <c r="X138" s="32"/>
-      <c r="Y138" s="32"/>
-      <c r="Z138" s="32"/>
-      <c r="AA138" s="32"/>
-      <c r="AB138" s="32"/>
-      <c r="AC138" s="32"/>
-      <c r="AD138" s="32"/>
-      <c r="AE138" s="32"/>
-      <c r="AF138" s="32"/>
-      <c r="AG138" s="32"/>
-      <c r="AH138" s="32"/>
-      <c r="AI138" s="32"/>
-      <c r="AJ138" s="32"/>
-      <c r="AK138" s="32"/>
-      <c r="AL138" s="32"/>
-      <c r="AM138" s="32"/>
-      <c r="AN138" s="32"/>
-      <c r="AO138" s="32"/>
-      <c r="AP138" s="32"/>
-      <c r="AQ138" s="32"/>
-      <c r="AR138" s="32"/>
-      <c r="AS138" s="32"/>
-      <c r="AT138" s="32"/>
-      <c r="AU138" s="32"/>
-      <c r="AV138" s="32"/>
-      <c r="AW138" s="32"/>
-      <c r="AX138" s="32"/>
-      <c r="AY138" s="32"/>
-      <c r="AZ138" s="32"/>
-      <c r="BA138" s="32"/>
-      <c r="BB138" s="32"/>
-      <c r="BC138" s="32"/>
-      <c r="BD138" s="32"/>
-      <c r="BE138" s="32"/>
-      <c r="BF138" s="32"/>
-      <c r="BG138" s="32"/>
-      <c r="BH138" s="32"/>
-      <c r="BI138" s="32"/>
-      <c r="BJ138" s="32"/>
-      <c r="BK138" s="32"/>
-      <c r="BL138" s="32"/>
-      <c r="BM138" s="32"/>
-      <c r="BN138" s="32"/>
-      <c r="BO138" s="32"/>
-      <c r="BP138" s="32"/>
-      <c r="BQ138" s="32"/>
-      <c r="BR138" s="32"/>
-      <c r="BS138" s="32"/>
-      <c r="BT138" s="32"/>
-      <c r="BU138" s="32"/>
-      <c r="BV138" s="32"/>
-      <c r="BW138" s="32"/>
-      <c r="BX138" s="32"/>
-      <c r="BY138" s="32"/>
-      <c r="BZ138" s="32"/>
-      <c r="CA138" s="32"/>
-      <c r="CB138" s="32"/>
-      <c r="CC138" s="32"/>
-      <c r="CD138" s="32"/>
-      <c r="CE138" s="32"/>
-      <c r="CF138" s="32"/>
-      <c r="CG138" s="32"/>
-      <c r="CH138" s="32"/>
-      <c r="CI138" s="32"/>
-      <c r="CJ138" s="32"/>
-      <c r="CK138" s="32"/>
-      <c r="CL138" s="32"/>
-      <c r="CM138" s="32"/>
-      <c r="CN138" s="32"/>
-      <c r="CO138" s="32"/>
-      <c r="CP138" s="32"/>
-      <c r="CQ138" s="32"/>
-      <c r="CR138" s="32"/>
-      <c r="CS138" s="32"/>
-      <c r="CT138" s="32"/>
-      <c r="CU138" s="32"/>
-      <c r="CV138" s="32"/>
-      <c r="CW138" s="32"/>
-      <c r="CX138" s="33"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="32"/>
+      <c r="J144" s="32"/>
+      <c r="K144" s="32"/>
+      <c r="L144" s="32"/>
+      <c r="M144" s="32"/>
+      <c r="N144" s="32"/>
+      <c r="O144" s="32"/>
+      <c r="P144" s="32"/>
+      <c r="Q144" s="32"/>
+      <c r="R144" s="32"/>
+      <c r="S144" s="32"/>
+      <c r="T144" s="32"/>
+      <c r="U144" s="32"/>
+      <c r="V144" s="32"/>
+      <c r="W144" s="32"/>
+      <c r="X144" s="32"/>
+      <c r="Y144" s="32"/>
+      <c r="Z144" s="32"/>
+      <c r="AA144" s="32"/>
+      <c r="AB144" s="32"/>
+      <c r="AC144" s="32"/>
+      <c r="AD144" s="32"/>
+      <c r="AE144" s="32"/>
+      <c r="AF144" s="32"/>
+      <c r="AG144" s="32"/>
+      <c r="AH144" s="32"/>
+      <c r="AI144" s="32"/>
+      <c r="AJ144" s="32"/>
+      <c r="AK144" s="32"/>
+      <c r="AL144" s="32"/>
+      <c r="AM144" s="32"/>
+      <c r="AN144" s="32"/>
+      <c r="AO144" s="32"/>
+      <c r="AP144" s="32"/>
+      <c r="AQ144" s="32"/>
+      <c r="AR144" s="32"/>
+      <c r="AS144" s="32"/>
+      <c r="AT144" s="32"/>
+      <c r="AU144" s="32"/>
+      <c r="AV144" s="32"/>
+      <c r="AW144" s="32"/>
+      <c r="AX144" s="32"/>
+      <c r="AY144" s="32"/>
+      <c r="AZ144" s="32"/>
+      <c r="BA144" s="32"/>
+      <c r="BB144" s="32"/>
+      <c r="BC144" s="32"/>
+      <c r="BD144" s="32"/>
+      <c r="BE144" s="32"/>
+      <c r="BF144" s="32"/>
+      <c r="BG144" s="32"/>
+      <c r="BH144" s="32"/>
+      <c r="BI144" s="32"/>
+      <c r="BJ144" s="32"/>
+      <c r="BK144" s="32"/>
+      <c r="BL144" s="32"/>
+      <c r="BM144" s="32"/>
+      <c r="BN144" s="32"/>
+      <c r="BO144" s="32"/>
+      <c r="BP144" s="32"/>
+      <c r="BQ144" s="32"/>
+      <c r="BR144" s="32"/>
+      <c r="BS144" s="32"/>
+      <c r="BT144" s="32"/>
+      <c r="BU144" s="32"/>
+      <c r="BV144" s="32"/>
+      <c r="BW144" s="32"/>
+      <c r="BX144" s="32"/>
+      <c r="BY144" s="32"/>
+      <c r="BZ144" s="32"/>
+      <c r="CA144" s="32"/>
+      <c r="CB144" s="32"/>
+      <c r="CC144" s="32"/>
+      <c r="CD144" s="32"/>
+      <c r="CE144" s="32"/>
+      <c r="CF144" s="32"/>
+      <c r="CG144" s="32"/>
+      <c r="CH144" s="32"/>
+      <c r="CI144" s="32"/>
+      <c r="CJ144" s="32"/>
+      <c r="CK144" s="32"/>
+      <c r="CL144" s="32"/>
+      <c r="CM144" s="32"/>
+      <c r="CN144" s="32"/>
+      <c r="CO144" s="32"/>
+      <c r="CP144" s="32"/>
+      <c r="CQ144" s="32"/>
+      <c r="CR144" s="32"/>
+      <c r="CS144" s="32"/>
+      <c r="CT144" s="32"/>
+      <c r="CU144" s="32"/>
+      <c r="CV144" s="32"/>
+      <c r="CW144" s="32"/>
+      <c r="CX144" s="33"/>
     </row>
-    <row r="139" spans="1:103" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="13"/>
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="47"/>
-      <c r="G139" s="47"/>
-      <c r="H139" s="47"/>
-      <c r="I139" s="47"/>
-      <c r="J139" s="47"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="47"/>
-      <c r="M139" s="47"/>
-      <c r="N139" s="47"/>
-      <c r="O139" s="47"/>
-      <c r="P139" s="47"/>
-      <c r="Q139" s="47"/>
-      <c r="R139" s="47"/>
-      <c r="S139" s="47"/>
-      <c r="T139" s="47"/>
-      <c r="U139" s="47"/>
-      <c r="V139" s="47"/>
-      <c r="W139" s="47"/>
-      <c r="X139" s="47"/>
-      <c r="Y139" s="47"/>
-      <c r="Z139" s="47"/>
-      <c r="AA139" s="47"/>
-      <c r="AB139" s="47"/>
-      <c r="AC139" s="47"/>
-      <c r="AD139" s="47"/>
-      <c r="AE139" s="47"/>
-      <c r="AF139" s="47"/>
-      <c r="AG139" s="47"/>
-      <c r="AH139" s="47"/>
-      <c r="AI139" s="47"/>
-      <c r="AJ139" s="47"/>
-      <c r="AK139" s="47"/>
-      <c r="AL139" s="47"/>
-      <c r="AM139" s="47"/>
-      <c r="AN139" s="47"/>
-      <c r="AO139" s="47"/>
-      <c r="AP139" s="47"/>
-      <c r="AQ139" s="47"/>
-      <c r="AR139" s="47"/>
-      <c r="AS139" s="47"/>
-      <c r="AT139" s="47"/>
-      <c r="AU139" s="47"/>
-      <c r="AV139" s="47"/>
-      <c r="AW139" s="47"/>
-      <c r="AX139" s="47"/>
-      <c r="AY139" s="47"/>
-      <c r="AZ139" s="47"/>
-      <c r="BA139" s="47"/>
-      <c r="BB139" s="47"/>
-      <c r="BC139" s="47"/>
-      <c r="BD139" s="47"/>
-      <c r="BE139" s="47"/>
-      <c r="BF139" s="47"/>
-      <c r="BG139" s="47"/>
-      <c r="BH139" s="47"/>
-      <c r="BI139" s="47"/>
-      <c r="BJ139" s="47"/>
-      <c r="BK139" s="47"/>
-      <c r="BL139" s="47"/>
-      <c r="BM139" s="47"/>
-      <c r="BN139" s="47"/>
-      <c r="BO139" s="47"/>
-      <c r="BP139" s="47"/>
-      <c r="BQ139" s="47"/>
-      <c r="BR139" s="47"/>
-      <c r="BS139" s="47"/>
-      <c r="BT139" s="47"/>
-      <c r="BU139" s="47"/>
-      <c r="BV139" s="47"/>
-      <c r="BW139" s="47"/>
-      <c r="BX139" s="47"/>
-      <c r="BY139" s="47"/>
-      <c r="BZ139" s="47"/>
-      <c r="CA139" s="47"/>
-      <c r="CB139" s="47"/>
-      <c r="CC139" s="47"/>
-      <c r="CD139" s="47"/>
-      <c r="CE139" s="47"/>
-      <c r="CF139" s="47"/>
-      <c r="CG139" s="47"/>
-      <c r="CH139" s="47"/>
-      <c r="CI139" s="47"/>
-      <c r="CJ139" s="47"/>
-      <c r="CK139" s="47"/>
-      <c r="CL139" s="47"/>
-      <c r="CM139" s="47"/>
-      <c r="CN139" s="47"/>
-      <c r="CO139" s="47"/>
-      <c r="CP139" s="47"/>
-      <c r="CQ139" s="47"/>
-      <c r="CR139" s="47"/>
-      <c r="CS139" s="47"/>
-      <c r="CT139" s="47"/>
-      <c r="CU139" s="47"/>
-      <c r="CV139" s="47"/>
-      <c r="CW139" s="47"/>
-      <c r="CX139" s="47"/>
+    <row r="145" spans="1:102" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="13"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="47"/>
+      <c r="I145" s="47"/>
+      <c r="J145" s="47"/>
+      <c r="K145" s="47"/>
+      <c r="L145" s="47"/>
+      <c r="M145" s="47"/>
+      <c r="N145" s="47"/>
+      <c r="O145" s="47"/>
+      <c r="P145" s="47"/>
+      <c r="Q145" s="47"/>
+      <c r="R145" s="47"/>
+      <c r="S145" s="47"/>
+      <c r="T145" s="47"/>
+      <c r="U145" s="47"/>
+      <c r="V145" s="47"/>
+      <c r="W145" s="47"/>
+      <c r="X145" s="47"/>
+      <c r="Y145" s="47"/>
+      <c r="Z145" s="47"/>
+      <c r="AA145" s="47"/>
+      <c r="AB145" s="47"/>
+      <c r="AC145" s="47"/>
+      <c r="AD145" s="47"/>
+      <c r="AE145" s="47"/>
+      <c r="AF145" s="47"/>
+      <c r="AG145" s="47"/>
+      <c r="AH145" s="47"/>
+      <c r="AI145" s="47"/>
+      <c r="AJ145" s="47"/>
+      <c r="AK145" s="47"/>
+      <c r="AL145" s="47"/>
+      <c r="AM145" s="47"/>
+      <c r="AN145" s="47"/>
+      <c r="AO145" s="47"/>
+      <c r="AP145" s="47"/>
+      <c r="AQ145" s="47"/>
+      <c r="AR145" s="47"/>
+      <c r="AS145" s="47"/>
+      <c r="AT145" s="47"/>
+      <c r="AU145" s="47"/>
+      <c r="AV145" s="47"/>
+      <c r="AW145" s="47"/>
+      <c r="AX145" s="47"/>
+      <c r="AY145" s="47"/>
+      <c r="AZ145" s="47"/>
+      <c r="BA145" s="47"/>
+      <c r="BB145" s="47"/>
+      <c r="BC145" s="47"/>
+      <c r="BD145" s="47"/>
+      <c r="BE145" s="47"/>
+      <c r="BF145" s="47"/>
+      <c r="BG145" s="47"/>
+      <c r="BH145" s="47"/>
+      <c r="BI145" s="47"/>
+      <c r="BJ145" s="47"/>
+      <c r="BK145" s="47"/>
+      <c r="BL145" s="47"/>
+      <c r="BM145" s="47"/>
+      <c r="BN145" s="47"/>
+      <c r="BO145" s="47"/>
+      <c r="BP145" s="47"/>
+      <c r="BQ145" s="47"/>
+      <c r="BR145" s="47"/>
+      <c r="BS145" s="47"/>
+      <c r="BT145" s="47"/>
+      <c r="BU145" s="47"/>
+      <c r="BV145" s="47"/>
+      <c r="BW145" s="47"/>
+      <c r="BX145" s="47"/>
+      <c r="BY145" s="47"/>
+      <c r="BZ145" s="47"/>
+      <c r="CA145" s="47"/>
+      <c r="CB145" s="47"/>
+      <c r="CC145" s="47"/>
+      <c r="CD145" s="47"/>
+      <c r="CE145" s="47"/>
+      <c r="CF145" s="47"/>
+      <c r="CG145" s="47"/>
+      <c r="CH145" s="47"/>
+      <c r="CI145" s="47"/>
+      <c r="CJ145" s="47"/>
+      <c r="CK145" s="47"/>
+      <c r="CL145" s="47"/>
+      <c r="CM145" s="47"/>
+      <c r="CN145" s="47"/>
+      <c r="CO145" s="47"/>
+      <c r="CP145" s="47"/>
+      <c r="CQ145" s="47"/>
+      <c r="CR145" s="47"/>
+      <c r="CS145" s="47"/>
+      <c r="CT145" s="47"/>
+      <c r="CU145" s="47"/>
+      <c r="CV145" s="47"/>
+      <c r="CW145" s="47"/>
+      <c r="CX145" s="47"/>
     </row>
-    <row r="141" spans="1:103" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="D142" s="24"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="49"/>
+    <row r="147" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="D148" s="24"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="49"/>
     </row>
-    <row r="143" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="D143" s="26"/>
-      <c r="E143" s="20" t="s">
+    <row r="149" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="D149" s="26"/>
+      <c r="E149" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F143" s="50"/>
+      <c r="F149" s="50"/>
     </row>
-    <row r="144" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="D144" s="28"/>
-      <c r="E144" s="20" t="s">
+    <row r="150" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="D150" s="28"/>
+      <c r="E150" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F144" s="50"/>
+      <c r="F150" s="50"/>
     </row>
-    <row r="145" spans="4:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D145" s="29"/>
-      <c r="E145" s="27" t="s">
+    <row r="151" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="29"/>
+      <c r="E151" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F145" s="51"/>
+      <c r="F151" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="166">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="E23:E24"/>
@@ -17817,139 +18753,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitsplan/Iteration_Arbeitsplan.xlsx
+++ b/Arbeitsplan/Iteration_Arbeitsplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakoc\PSE_DELIVERABLES\Arbeitsplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Desktop\PSE_DELIVERABLES\Arbeitsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33C08A-D153-4CF8-B99A-342B67EF989C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C2E191-BEDD-455D-8E07-C0C50D44CC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
+    <workbookView xWindow="2003" yWindow="3548" windowWidth="15390" windowHeight="9532" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="71">
   <si>
     <t>Zeitplan PSE eonum AG</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Kallender fertigstellen</t>
+  </si>
+  <si>
+    <t>Test cases mit selenium für ganze App</t>
+  </si>
+  <si>
+    <t>Kalender und klick auf Button/logo</t>
   </si>
 </sst>
 </file>
@@ -774,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -923,6 +929,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,50 +950,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -993,6 +981,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,13 +1027,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1192,13 +1201,13 @@
     <xdr:from>
       <xdr:col>75</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1250,13 +1259,13 @@
     <xdr:from>
       <xdr:col>89</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1308,13 +1317,13 @@
     <xdr:from>
       <xdr:col>101</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>101</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1662,14 +1671,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD384E66-6977-4A33-945E-14F730629694}">
-  <dimension ref="A1:CY153"/>
+  <dimension ref="A1:CY161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BU112" sqref="BU112"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BV108" sqref="BV108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
@@ -1677,16 +1686,16 @@
     <col min="6" max="102" width="5.6640625" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="93"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="30">
         <v>44615</v>
       </c>
@@ -1980,7 +1989,7 @@
       </c>
       <c r="CY1" s="17"/>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2085,7 +2094,7 @@
       <c r="CX2" s="33"/>
       <c r="CY2" s="21"/>
     </row>
-    <row r="3" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:103" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2196,7 +2205,7 @@
       <c r="CX3" s="36"/>
       <c r="CY3" s="21"/>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2311,7 +2320,7 @@
       <c r="CX4" s="39"/>
       <c r="CY4" s="21"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2426,8 +2435,8 @@
       <c r="CX5" s="42"/>
       <c r="CY5" s="21"/>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="78" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2436,10 +2445,10 @@
       <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="80">
         <v>23.02</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="76">
         <v>16.03</v>
       </c>
       <c r="F6" s="60"/>
@@ -2547,16 +2556,16 @@
       <c r="CX6" s="62"/>
       <c r="CY6" s="21"/>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="79"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="60"/>
       <c r="G7" s="61"/>
       <c r="H7" s="61"/>
@@ -2662,8 +2671,8 @@
       <c r="CX7" s="62"/>
       <c r="CY7" s="21"/>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A8" s="78" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2672,10 +2681,10 @@
       <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="80">
         <v>23.02</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="76">
         <v>16.03</v>
       </c>
       <c r="F8" s="31"/>
@@ -2779,16 +2788,16 @@
       <c r="CX8" s="33"/>
       <c r="CY8" s="21"/>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
+    <row r="9" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A9" s="79"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="31"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -2890,7 +2899,7 @@
       <c r="CX9" s="33"/>
       <c r="CY9" s="21"/>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -3005,8 +3014,8 @@
       <c r="CX10" s="42"/>
       <c r="CY10" s="21"/>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A11" s="78" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3016,10 +3025,10 @@
         <f>SUM(F11:CX11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="80">
         <v>23.02</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="76">
         <v>16.03</v>
       </c>
       <c r="F11" s="31"/>
@@ -3123,8 +3132,8 @@
       <c r="CX11" s="33"/>
       <c r="CY11" s="21"/>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
+    <row r="12" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A12" s="79"/>
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
@@ -3132,8 +3141,8 @@
         <f>SUM(F12:CX12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -3235,8 +3244,8 @@
       <c r="CX12" s="33"/>
       <c r="CY12" s="21"/>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="78" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="57" t="s">
@@ -3246,10 +3255,10 @@
         <f>SUM(F13:CX13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="80">
         <v>23.02</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="76">
         <v>16.03</v>
       </c>
       <c r="F13" s="31"/>
@@ -3355,8 +3364,8 @@
       <c r="CX13" s="33"/>
       <c r="CY13" s="21"/>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="91"/>
       <c r="B14" s="57" t="s">
         <v>8</v>
       </c>
@@ -3364,8 +3373,8 @@
         <f>SUM(F14:CX14)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -3472,7 +3481,7 @@
       <c r="CX14" s="33"/>
       <c r="CY14" s="21"/>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A15" s="59" t="s">
         <v>22</v>
       </c>
@@ -3587,8 +3596,8 @@
       <c r="CX15" s="42"/>
       <c r="CY15" s="21"/>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="78" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -3597,10 +3606,10 @@
       <c r="C16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="80">
         <v>23.02</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="76">
         <v>16.03</v>
       </c>
       <c r="F16" s="31"/>
@@ -3704,16 +3713,16 @@
       <c r="CX16" s="33"/>
       <c r="CY16" s="21"/>
     </row>
-    <row r="17" spans="1:103" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="97"/>
+    <row r="17" spans="1:103" s="66" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="91"/>
       <c r="B17" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="64">
         <v>3</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="84"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="31"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -3815,8 +3824,8 @@
       <c r="CX17" s="33"/>
       <c r="CY17" s="65"/>
     </row>
-    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="97" t="s">
+    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="91" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -3825,10 +3834,10 @@
       <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="83">
         <v>23.02</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="92">
         <v>16.03</v>
       </c>
       <c r="F18" s="31"/>
@@ -3934,16 +3943,16 @@
       <c r="CX18" s="33"/>
       <c r="CY18" s="21"/>
     </row>
-    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75"/>
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="79"/>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -4047,7 +4056,7 @@
       <c r="CX19" s="33"/>
       <c r="CY19" s="21"/>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -4162,8 +4171,8 @@
       <c r="CX20" s="42"/>
       <c r="CY20" s="21"/>
     </row>
-    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74" t="s">
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4172,10 +4181,10 @@
       <c r="C21" s="54">
         <v>1</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="80">
         <v>23.02</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="76">
         <v>16.03</v>
       </c>
       <c r="F21" s="31"/>
@@ -4279,16 +4288,16 @@
       <c r="CX21" s="33"/>
       <c r="CY21" s="21"/>
     </row>
-    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="79"/>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="54">
         <v>1</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -4390,8 +4399,8 @@
       <c r="CX22" s="33"/>
       <c r="CY22" s="21"/>
     </row>
-    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
+    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="78" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4401,10 +4410,10 @@
         <f>SUM(F23:CX23)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="80">
         <v>23.02</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="76">
         <v>16.03</v>
       </c>
       <c r="F23" s="31"/>
@@ -4514,8 +4523,8 @@
       <c r="CX23" s="33"/>
       <c r="CY23" s="21"/>
     </row>
-    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75"/>
+    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="79"/>
       <c r="B24" s="7" t="s">
         <v>8</v>
       </c>
@@ -4523,8 +4532,8 @@
         <f>SUM(F24:CX24)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -4624,7 +4633,7 @@
       <c r="CX24" s="33"/>
       <c r="CY24" s="21"/>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -4739,8 +4748,8 @@
       <c r="CX25" s="42"/>
       <c r="CY25" s="21"/>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A26" s="78" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4749,10 +4758,10 @@
       <c r="C26" s="9">
         <v>4.5</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="80">
         <v>23.02</v>
       </c>
-      <c r="E26" s="80">
+      <c r="E26" s="76">
         <v>16.03</v>
       </c>
       <c r="F26" s="31"/>
@@ -4862,16 +4871,16 @@
       <c r="CX26" s="33"/>
       <c r="CY26" s="21"/>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A27" s="75"/>
+    <row r="27" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A27" s="79"/>
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="9">
         <v>4.5</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -4979,8 +4988,8 @@
       <c r="CX27" s="33"/>
       <c r="CY27" s="21"/>
     </row>
-    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="74" t="s">
+    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4989,10 +4998,10 @@
       <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="80">
         <v>23.02</v>
       </c>
-      <c r="E28" s="80">
+      <c r="E28" s="76">
         <v>16.03</v>
       </c>
       <c r="F28" s="31"/>
@@ -5098,16 +5107,16 @@
       <c r="CX28" s="33"/>
       <c r="CY28" s="21"/>
     </row>
-    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
+    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="79"/>
       <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="31"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -5211,8 +5220,8 @@
       <c r="CX29" s="33"/>
       <c r="CY29" s="21"/>
     </row>
-    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="74" t="s">
+    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -5221,10 +5230,10 @@
       <c r="C30" s="9">
         <v>4</v>
       </c>
-      <c r="D30" s="76">
+      <c r="D30" s="80">
         <v>23.02</v>
       </c>
-      <c r="E30" s="80">
+      <c r="E30" s="76">
         <v>16.03</v>
       </c>
       <c r="F30" s="31"/>
@@ -5332,16 +5341,16 @@
       <c r="CX30" s="33"/>
       <c r="CY30" s="21"/>
     </row>
-    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
+    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="79"/>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="9">
         <v>3</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="31"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -5447,16 +5456,16 @@
       <c r="CX31" s="33"/>
       <c r="CY31" s="21"/>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="85">
+      <c r="D32" s="74">
         <v>44636</v>
       </c>
-      <c r="E32" s="86"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="31"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -5556,7 +5565,7 @@
       <c r="CX32" s="33"/>
       <c r="CY32" s="21"/>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
         <v>13</v>
       </c>
@@ -5673,7 +5682,7 @@
       <c r="CX33" s="46"/>
       <c r="CY33" s="21"/>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
@@ -5788,8 +5797,8 @@
       <c r="CX34" s="42"/>
       <c r="CY34" s="21"/>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A35" s="78" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -5798,10 +5807,10 @@
       <c r="C35" s="9">
         <v>3</v>
       </c>
-      <c r="D35" s="77">
+      <c r="D35" s="83">
         <v>23.03</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="82">
         <v>6.04</v>
       </c>
       <c r="F35" s="31"/>
@@ -5909,16 +5918,16 @@
       <c r="CX35" s="33"/>
       <c r="CY35" s="21"/>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A36" s="75"/>
+    <row r="36" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A36" s="79"/>
       <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="9">
         <v>6</v>
       </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="78"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -6024,8 +6033,8 @@
       <c r="CX36" s="33"/>
       <c r="CY36" s="21"/>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A37" s="74" t="s">
+    <row r="37" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A37" s="78" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -6034,10 +6043,10 @@
       <c r="C37" s="9">
         <v>2</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="83">
         <v>23.03</v>
       </c>
-      <c r="E37" s="78">
+      <c r="E37" s="82">
         <v>6.04</v>
       </c>
       <c r="F37" s="31"/>
@@ -6141,16 +6150,16 @@
       <c r="CX37" s="33"/>
       <c r="CY37" s="21"/>
     </row>
-    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="75"/>
+    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="79"/>
       <c r="B38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="9">
         <v>3</v>
       </c>
-      <c r="D38" s="77"/>
-      <c r="E38" s="78"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -6252,8 +6261,8 @@
       <c r="CX38" s="33"/>
       <c r="CY38" s="21"/>
     </row>
-    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74" t="s">
+    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -6262,10 +6271,10 @@
       <c r="C39" s="9">
         <v>2</v>
       </c>
-      <c r="D39" s="77">
+      <c r="D39" s="83">
         <v>23.03</v>
       </c>
-      <c r="E39" s="78">
+      <c r="E39" s="82">
         <v>6.04</v>
       </c>
       <c r="F39" s="31"/>
@@ -6371,16 +6380,16 @@
       <c r="CX39" s="33"/>
       <c r="CY39" s="21"/>
     </row>
-    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75"/>
+    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="79"/>
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="9">
         <v>2</v>
       </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="78"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -6484,7 +6493,7 @@
       <c r="CX40" s="33"/>
       <c r="CY40" s="21"/>
     </row>
-    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -6601,8 +6610,8 @@
       <c r="CX41" s="42"/>
       <c r="CY41" s="21"/>
     </row>
-    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="74" t="s">
+    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="78" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -6612,10 +6621,10 @@
         <f>SUM(F42:AX42)</f>
         <v>11</v>
       </c>
-      <c r="D42" s="76" t="s">
+      <c r="D42" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="80">
+      <c r="E42" s="76">
         <v>6.04</v>
       </c>
       <c r="F42" s="31"/>
@@ -6735,8 +6744,8 @@
       <c r="CX42" s="33"/>
       <c r="CY42" s="11"/>
     </row>
-    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="75"/>
+    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="79"/>
       <c r="B43" s="7" t="s">
         <v>8</v>
       </c>
@@ -6744,8 +6753,8 @@
         <f t="shared" ref="C43:C49" si="0">SUM(F43:AX43)</f>
         <v>13.5</v>
       </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="77"/>
       <c r="F43" s="31"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -6862,8 +6871,8 @@
       <c r="CX43" s="33"/>
       <c r="CY43" s="11"/>
     </row>
-    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="74" t="s">
+    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="78" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -6873,10 +6882,10 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D44" s="76" t="s">
+      <c r="D44" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="80">
+      <c r="E44" s="76">
         <v>6.04</v>
       </c>
       <c r="F44" s="31"/>
@@ -6990,8 +6999,8 @@
       <c r="CX44" s="33"/>
       <c r="CY44" s="11"/>
     </row>
-    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="75"/>
+    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="79"/>
       <c r="B45" s="7" t="s">
         <v>8</v>
       </c>
@@ -6999,8 +7008,8 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="D45" s="79"/>
-      <c r="E45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="77"/>
       <c r="F45" s="31"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -7112,8 +7121,8 @@
       <c r="CX45" s="33"/>
       <c r="CY45" s="11"/>
     </row>
-    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="74" t="s">
+    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="78" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -7123,10 +7132,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D46" s="76" t="s">
+      <c r="D46" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="80">
+      <c r="E46" s="76">
         <v>6.04</v>
       </c>
       <c r="F46" s="31"/>
@@ -7230,8 +7239,8 @@
       <c r="CX46" s="33"/>
       <c r="CY46" s="11"/>
     </row>
-    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75"/>
+    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="79"/>
       <c r="B47" s="7" t="s">
         <v>8</v>
       </c>
@@ -7239,8 +7248,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D47" s="79"/>
-      <c r="E47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="77"/>
       <c r="F47" s="31"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -7342,8 +7351,8 @@
       <c r="CX47" s="33"/>
       <c r="CY47" s="11"/>
     </row>
-    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="74" t="s">
+    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="78" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -7353,10 +7362,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D48" s="76" t="s">
+      <c r="D48" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="80">
+      <c r="E48" s="76">
         <v>6.04</v>
       </c>
       <c r="F48" s="31"/>
@@ -7460,8 +7469,8 @@
       <c r="CX48" s="33"/>
       <c r="CY48" s="11"/>
     </row>
-    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75"/>
+    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="79"/>
       <c r="B49" s="7" t="s">
         <v>8</v>
       </c>
@@ -7469,8 +7478,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D49" s="79"/>
-      <c r="E49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="31"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -7572,7 +7581,7 @@
       <c r="CX49" s="33"/>
       <c r="CY49" s="11"/>
     </row>
-    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -7689,8 +7698,8 @@
       <c r="CX50" s="42"/>
       <c r="CY50" s="11"/>
     </row>
-    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="74" t="s">
+    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="78" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -7699,10 +7708,10 @@
       <c r="C51" s="9">
         <v>3</v>
       </c>
-      <c r="D51" s="76" t="s">
+      <c r="D51" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="80">
+      <c r="E51" s="76">
         <v>6.04</v>
       </c>
       <c r="F51" s="31"/>
@@ -7808,16 +7817,16 @@
       <c r="CX51" s="33"/>
       <c r="CY51" s="11"/>
     </row>
-    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="75"/>
+    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="79"/>
       <c r="B52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="9">
         <v>3</v>
       </c>
-      <c r="D52" s="79"/>
-      <c r="E52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="77"/>
       <c r="F52" s="31"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -7921,8 +7930,8 @@
       <c r="CX52" s="33"/>
       <c r="CY52" s="11"/>
     </row>
-    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="74" t="s">
+    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="78" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -7931,10 +7940,10 @@
       <c r="C53" s="9">
         <v>6</v>
       </c>
-      <c r="D53" s="76" t="s">
+      <c r="D53" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="80">
+      <c r="E53" s="76">
         <v>6.04</v>
       </c>
       <c r="F53" s="31"/>
@@ -8045,16 +8054,16 @@
       <c r="CW53" s="32"/>
       <c r="CX53" s="33"/>
     </row>
-    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="75"/>
+    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="79"/>
       <c r="B54" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="9">
         <v>7</v>
       </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="77"/>
       <c r="F54" s="31"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -8164,8 +8173,8 @@
       <c r="CX54" s="33"/>
       <c r="CY54" s="11"/>
     </row>
-    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="74" t="s">
+    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="78" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -8174,10 +8183,10 @@
       <c r="C55" s="9">
         <v>1</v>
       </c>
-      <c r="D55" s="76" t="s">
+      <c r="D55" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="80">
+      <c r="E55" s="76">
         <v>6.04</v>
       </c>
       <c r="F55" s="31"/>
@@ -8281,16 +8290,16 @@
       <c r="CX55" s="33"/>
       <c r="CY55" s="11"/>
     </row>
-    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="75"/>
+    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="79"/>
       <c r="B56" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="9">
         <v>1</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="77"/>
       <c r="F56" s="31"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -8391,7 +8400,7 @@
       <c r="CW56" s="32"/>
       <c r="CX56" s="33"/>
     </row>
-    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>23</v>
       </c>
@@ -8508,8 +8517,8 @@
       <c r="CX57" s="42"/>
       <c r="CY57" s="21"/>
     </row>
-    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="89" t="s">
+    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -8518,10 +8527,10 @@
       <c r="C58" s="9">
         <v>4</v>
       </c>
-      <c r="D58" s="76" t="s">
+      <c r="D58" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="78">
+      <c r="E58" s="82">
         <v>6.04</v>
       </c>
       <c r="F58" s="31"/>
@@ -8631,16 +8640,16 @@
       <c r="CX58" s="33"/>
       <c r="CY58" s="21"/>
     </row>
-    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="90"/>
+    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="85"/>
       <c r="B59" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="9">
         <v>10</v>
       </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="78"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="31"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -8748,8 +8757,8 @@
       <c r="CX59" s="33"/>
       <c r="CY59" s="21"/>
     </row>
-    <row r="60" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A60" s="89" t="s">
+    <row r="60" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A60" s="84" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -8758,10 +8767,10 @@
       <c r="C60" s="9">
         <v>2</v>
       </c>
-      <c r="D60" s="76" t="s">
+      <c r="D60" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="78">
+      <c r="E60" s="82">
         <v>6.04</v>
       </c>
       <c r="F60" s="31"/>
@@ -8867,16 +8876,16 @@
       <c r="CX60" s="33"/>
       <c r="CY60" s="21"/>
     </row>
-    <row r="61" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A61" s="90"/>
+    <row r="61" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A61" s="85"/>
       <c r="B61" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="9">
         <v>2</v>
       </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="78"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="31"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
@@ -8980,8 +8989,8 @@
       <c r="CX61" s="33"/>
       <c r="CY61" s="21"/>
     </row>
-    <row r="62" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A62" s="89" t="s">
+    <row r="62" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A62" s="84" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -8990,10 +8999,10 @@
       <c r="C62" s="9">
         <v>2</v>
       </c>
-      <c r="D62" s="76" t="s">
+      <c r="D62" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="78">
+      <c r="E62" s="82">
         <v>6.04</v>
       </c>
       <c r="F62" s="31"/>
@@ -9099,16 +9108,16 @@
       <c r="CX62" s="33"/>
       <c r="CY62" s="21"/>
     </row>
-    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="90"/>
+    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="85"/>
       <c r="B63" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="9">
         <v>2</v>
       </c>
-      <c r="D63" s="79"/>
-      <c r="E63" s="78"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="82"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
@@ -9212,8 +9221,8 @@
       <c r="CX63" s="33"/>
       <c r="CY63" s="21"/>
     </row>
-    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="74" t="s">
+    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="78" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -9222,10 +9231,10 @@
       <c r="C64" s="9">
         <v>4</v>
       </c>
-      <c r="D64" s="76" t="s">
+      <c r="D64" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="78">
+      <c r="E64" s="82">
         <v>6.04</v>
       </c>
       <c r="F64" s="31"/>
@@ -9335,16 +9344,16 @@
       <c r="CX64" s="33"/>
       <c r="CY64" s="21"/>
     </row>
-    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="75"/>
+    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="79"/>
       <c r="B65" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="9">
         <v>4</v>
       </c>
-      <c r="D65" s="79"/>
-      <c r="E65" s="78"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="31"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
@@ -9452,7 +9461,7 @@
       <c r="CX65" s="33"/>
       <c r="CY65" s="21"/>
     </row>
-    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>24</v>
       </c>
@@ -9569,8 +9578,8 @@
       <c r="CX66" s="42"/>
       <c r="CY66" s="21"/>
     </row>
-    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="74" t="s">
+    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="78" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -9579,10 +9588,10 @@
       <c r="C67" s="9">
         <v>4</v>
       </c>
-      <c r="D67" s="77">
+      <c r="D67" s="83">
         <v>23.03</v>
       </c>
-      <c r="E67" s="78">
+      <c r="E67" s="82">
         <v>6.04</v>
       </c>
       <c r="F67" s="31"/>
@@ -9690,16 +9699,16 @@
       <c r="CX67" s="33"/>
       <c r="CY67" s="21"/>
     </row>
-    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="75"/>
+    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="79"/>
       <c r="B68" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="9">
         <v>5</v>
       </c>
-      <c r="D68" s="77"/>
-      <c r="E68" s="78"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="82"/>
       <c r="F68" s="31"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
@@ -9805,8 +9814,8 @@
       <c r="CX68" s="33"/>
       <c r="CY68" s="21"/>
     </row>
-    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="74" t="s">
+    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="78" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -9815,10 +9824,10 @@
       <c r="C69" s="9">
         <v>2</v>
       </c>
-      <c r="D69" s="77">
+      <c r="D69" s="83">
         <v>23.03</v>
       </c>
-      <c r="E69" s="78">
+      <c r="E69" s="82">
         <v>6.04</v>
       </c>
       <c r="F69" s="31"/>
@@ -9922,16 +9931,16 @@
       <c r="CX69" s="33"/>
       <c r="CY69" s="21"/>
     </row>
-    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="75"/>
+    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="79"/>
       <c r="B70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="9">
         <v>1</v>
       </c>
-      <c r="D70" s="77"/>
-      <c r="E70" s="78"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="82"/>
       <c r="F70" s="31"/>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
@@ -10033,8 +10042,8 @@
       <c r="CX70" s="33"/>
       <c r="CY70" s="21"/>
     </row>
-    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="74" t="s">
+    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="78" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -10043,10 +10052,10 @@
       <c r="C71" s="9">
         <v>2</v>
       </c>
-      <c r="D71" s="77">
+      <c r="D71" s="83">
         <v>23.03</v>
       </c>
-      <c r="E71" s="78">
+      <c r="E71" s="82">
         <v>6.04</v>
       </c>
       <c r="F71" s="31"/>
@@ -10150,16 +10159,16 @@
       <c r="CX71" s="33"/>
       <c r="CY71" s="21"/>
     </row>
-    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="75"/>
+    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="79"/>
       <c r="B72" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="9">
         <v>2</v>
       </c>
-      <c r="D72" s="77"/>
-      <c r="E72" s="78"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="82"/>
       <c r="F72" s="31"/>
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
@@ -10261,8 +10270,8 @@
       <c r="CX72" s="33"/>
       <c r="CY72" s="21"/>
     </row>
-    <row r="73" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A73" s="74" t="s">
+    <row r="73" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A73" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -10271,10 +10280,10 @@
       <c r="C73" s="9">
         <v>3</v>
       </c>
-      <c r="D73" s="77">
+      <c r="D73" s="83">
         <v>23.03</v>
       </c>
-      <c r="E73" s="78">
+      <c r="E73" s="82">
         <v>6.04</v>
       </c>
       <c r="F73" s="31"/>
@@ -10378,16 +10387,16 @@
       <c r="CX73" s="33"/>
       <c r="CY73" s="21"/>
     </row>
-    <row r="74" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A74" s="75"/>
+    <row r="74" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A74" s="79"/>
       <c r="B74" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="9">
         <v>3</v>
       </c>
-      <c r="D74" s="77"/>
-      <c r="E74" s="78"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="82"/>
       <c r="F74" s="31"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
@@ -10489,8 +10498,8 @@
       <c r="CX74" s="33"/>
       <c r="CY74" s="21"/>
     </row>
-    <row r="75" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A75" s="74" t="s">
+    <row r="75" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A75" s="78" t="s">
         <v>45</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -10499,10 +10508,10 @@
       <c r="C75" s="9">
         <v>1</v>
       </c>
-      <c r="D75" s="77">
+      <c r="D75" s="83">
         <v>23.03</v>
       </c>
-      <c r="E75" s="78">
+      <c r="E75" s="82">
         <v>6.04</v>
       </c>
       <c r="F75" s="31"/>
@@ -10604,16 +10613,16 @@
       <c r="CX75" s="33"/>
       <c r="CY75" s="21"/>
     </row>
-    <row r="76" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A76" s="75"/>
+    <row r="76" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A76" s="79"/>
       <c r="B76" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="9">
         <v>3</v>
       </c>
-      <c r="D76" s="77"/>
-      <c r="E76" s="78"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="82"/>
       <c r="F76" s="31"/>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
@@ -10715,16 +10724,16 @@
       <c r="CX76" s="33"/>
       <c r="CY76" s="21"/>
     </row>
-    <row r="77" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A77" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="87">
+      <c r="D77" s="93">
         <v>44292</v>
       </c>
-      <c r="E77" s="88"/>
+      <c r="E77" s="94"/>
       <c r="F77" s="31"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -10826,7 +10835,7 @@
       <c r="CX77" s="33"/>
       <c r="CY77" s="21"/>
     </row>
-    <row r="78" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A78" s="14" t="s">
         <v>15</v>
       </c>
@@ -10941,7 +10950,7 @@
       <c r="CX78" s="46"/>
       <c r="CY78" s="21"/>
     </row>
-    <row r="79" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>20</v>
       </c>
@@ -11056,8 +11065,8 @@
       <c r="CX79" s="42"/>
       <c r="CY79" s="21"/>
     </row>
-    <row r="80" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A80" s="74" t="s">
+    <row r="80" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A80" s="78" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -11066,10 +11075,10 @@
       <c r="C80" s="9">
         <v>3</v>
       </c>
-      <c r="D80" s="76">
+      <c r="D80" s="80">
         <v>6.04</v>
       </c>
-      <c r="E80" s="84">
+      <c r="E80" s="92">
         <v>4.05</v>
       </c>
       <c r="F80" s="31"/>
@@ -11177,16 +11186,16 @@
       <c r="CX80" s="33"/>
       <c r="CY80" s="21"/>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A81" s="75"/>
+    <row r="81" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A81" s="79"/>
       <c r="B81" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="9">
         <v>4</v>
       </c>
-      <c r="D81" s="79"/>
-      <c r="E81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="77"/>
       <c r="F81" s="31"/>
       <c r="G81" s="32"/>
       <c r="H81" s="32"/>
@@ -11292,8 +11301,8 @@
       <c r="CX81" s="33"/>
       <c r="CY81" s="21"/>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A82" s="74" t="s">
+    <row r="82" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A82" s="78" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -11302,10 +11311,10 @@
       <c r="C82" s="9">
         <v>1</v>
       </c>
-      <c r="D82" s="76">
+      <c r="D82" s="80">
         <v>6.04</v>
       </c>
-      <c r="E82" s="78">
+      <c r="E82" s="82">
         <v>4.05</v>
       </c>
       <c r="F82" s="31"/>
@@ -11409,16 +11418,16 @@
       <c r="CX82" s="33"/>
       <c r="CY82" s="21"/>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A83" s="75"/>
+    <row r="83" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A83" s="79"/>
       <c r="B83" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="9">
         <v>1</v>
       </c>
-      <c r="D83" s="79"/>
-      <c r="E83" s="78"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="82"/>
       <c r="F83" s="31"/>
       <c r="G83" s="32"/>
       <c r="H83" s="32"/>
@@ -11520,8 +11529,8 @@
       <c r="CX83" s="33"/>
       <c r="CY83" s="21"/>
     </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A84" s="74" t="s">
+    <row r="84" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A84" s="78" t="s">
         <v>60</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -11530,10 +11539,10 @@
       <c r="C84" s="9">
         <v>2</v>
       </c>
-      <c r="D84" s="76">
+      <c r="D84" s="80">
         <v>6.04</v>
       </c>
-      <c r="E84" s="84">
+      <c r="E84" s="92">
         <v>4.05</v>
       </c>
       <c r="F84" s="31"/>
@@ -11637,16 +11646,16 @@
       <c r="CX84" s="33"/>
       <c r="CY84" s="21"/>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A85" s="75"/>
+    <row r="85" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A85" s="79"/>
       <c r="B85" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="9">
         <v>1</v>
       </c>
-      <c r="D85" s="79"/>
-      <c r="E85" s="81"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="77"/>
       <c r="F85" s="31"/>
       <c r="G85" s="32"/>
       <c r="H85" s="32"/>
@@ -11748,7 +11757,7 @@
       <c r="CX85" s="33"/>
       <c r="CY85" s="21"/>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
         <v>21</v>
       </c>
@@ -11865,8 +11874,8 @@
       <c r="CX86" s="42"/>
       <c r="CY86" s="21"/>
     </row>
-    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="74" t="s">
+    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="78" t="s">
         <v>54</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -11876,10 +11885,10 @@
         <f t="shared" ref="C87:C94" si="1">SUM(F87:CX87)</f>
         <v>9</v>
       </c>
-      <c r="D87" s="82">
+      <c r="D87" s="97">
         <v>6.04</v>
       </c>
-      <c r="E87" s="83">
+      <c r="E87" s="96">
         <v>4.05</v>
       </c>
       <c r="F87" s="72"/>
@@ -11997,8 +12006,8 @@
       <c r="CX87" s="70"/>
       <c r="CY87" s="21"/>
     </row>
-    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="75"/>
+    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="79"/>
       <c r="B88" s="7" t="s">
         <v>8</v>
       </c>
@@ -12006,8 +12015,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D88" s="82"/>
-      <c r="E88" s="83"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="96"/>
       <c r="F88" s="72"/>
       <c r="G88" s="69"/>
       <c r="H88" s="69"/>
@@ -12123,8 +12132,8 @@
       <c r="CX88" s="70"/>
       <c r="CY88" s="21"/>
     </row>
-    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="74" t="s">
+    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="78" t="s">
         <v>63</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -12134,10 +12143,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D89" s="82">
+      <c r="D89" s="97">
         <v>6.04</v>
       </c>
-      <c r="E89" s="83">
+      <c r="E89" s="96">
         <v>4.05</v>
       </c>
       <c r="F89" s="72"/>
@@ -12249,8 +12258,8 @@
       <c r="CX89" s="70"/>
       <c r="CY89" s="21"/>
     </row>
-    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="75"/>
+    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="79"/>
       <c r="B90" s="7" t="s">
         <v>8</v>
       </c>
@@ -12258,8 +12267,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D90" s="82"/>
-      <c r="E90" s="83"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="96"/>
       <c r="F90" s="72"/>
       <c r="G90" s="69"/>
       <c r="H90" s="69"/>
@@ -12369,8 +12378,8 @@
       <c r="CX90" s="70"/>
       <c r="CY90" s="21"/>
     </row>
-    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="74" t="s">
+    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="78" t="s">
         <v>64</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -12380,10 +12389,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D91" s="82">
+      <c r="D91" s="97">
         <v>6.04</v>
       </c>
-      <c r="E91" s="83">
+      <c r="E91" s="96">
         <v>4.05</v>
       </c>
       <c r="F91" s="72"/>
@@ -12487,8 +12496,8 @@
       <c r="CX91" s="70"/>
       <c r="CY91" s="21"/>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A92" s="75"/>
+    <row r="92" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A92" s="79"/>
       <c r="B92" s="7" t="s">
         <v>8</v>
       </c>
@@ -12496,8 +12505,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D92" s="82"/>
-      <c r="E92" s="83"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="96"/>
       <c r="F92" s="72"/>
       <c r="G92" s="69"/>
       <c r="H92" s="69"/>
@@ -12599,8 +12608,8 @@
       <c r="CX92" s="70"/>
       <c r="CY92" s="21"/>
     </row>
-    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="74" t="s">
+    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="78" t="s">
         <v>52</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -12610,10 +12619,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D93" s="82">
+      <c r="D93" s="97">
         <v>6.04</v>
       </c>
-      <c r="E93" s="83">
+      <c r="E93" s="96">
         <v>4.05</v>
       </c>
       <c r="F93" s="72"/>
@@ -12717,8 +12726,8 @@
       <c r="CX93" s="70"/>
       <c r="CY93" s="21"/>
     </row>
-    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="75"/>
+    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="79"/>
       <c r="B94" s="7" t="s">
         <v>8</v>
       </c>
@@ -12726,8 +12735,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D94" s="82"/>
-      <c r="E94" s="83"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="96"/>
       <c r="F94" s="72"/>
       <c r="G94" s="69"/>
       <c r="H94" s="69"/>
@@ -12829,7 +12838,7 @@
       <c r="CX94" s="70"/>
       <c r="CY94" s="21"/>
     </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>22</v>
       </c>
@@ -12944,18 +12953,18 @@
       <c r="CX95" s="42"/>
       <c r="CY95" s="21"/>
     </row>
-    <row r="96" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A96" s="74"/>
+    <row r="96" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A96" s="78"/>
       <c r="B96" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="76">
+      <c r="D96" s="80">
         <v>6.04</v>
       </c>
-      <c r="E96" s="78">
+      <c r="E96" s="82">
         <v>4.05</v>
       </c>
       <c r="F96" s="31"/>
@@ -13057,16 +13066,16 @@
       <c r="CX96" s="33"/>
       <c r="CY96" s="21"/>
     </row>
-    <row r="97" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A97" s="75"/>
+    <row r="97" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A97" s="79"/>
       <c r="B97" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="79"/>
-      <c r="E97" s="78"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="82"/>
       <c r="F97" s="31"/>
       <c r="G97" s="32"/>
       <c r="H97" s="32"/>
@@ -13166,7 +13175,7 @@
       <c r="CX97" s="33"/>
       <c r="CY97" s="21"/>
     </row>
-    <row r="98" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A98" s="4" t="s">
         <v>23</v>
       </c>
@@ -13281,8 +13290,8 @@
       <c r="CX98" s="42"/>
       <c r="CY98" s="21"/>
     </row>
-    <row r="99" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A99" s="74" t="s">
+    <row r="99" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A99" s="78" t="s">
         <v>55</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -13291,10 +13300,10 @@
       <c r="C99" s="9">
         <v>5</v>
       </c>
-      <c r="D99" s="76">
+      <c r="D99" s="80">
         <v>6.04</v>
       </c>
-      <c r="E99" s="78">
+      <c r="E99" s="82">
         <v>4.05</v>
       </c>
       <c r="F99" s="31"/>
@@ -13398,14 +13407,14 @@
       <c r="CX99" s="33"/>
       <c r="CY99" s="21"/>
     </row>
-    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="75"/>
+    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="79"/>
       <c r="B100" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="9"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="78"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="82"/>
       <c r="F100" s="31"/>
       <c r="G100" s="32"/>
       <c r="H100" s="32"/>
@@ -13507,137 +13516,137 @@
       <c r="CX100" s="33"/>
       <c r="CY100" s="21"/>
     </row>
-    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="19" t="s">
+    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="9">
+        <v>3</v>
+      </c>
+      <c r="D101" s="80">
+        <v>6.04</v>
+      </c>
+      <c r="E101" s="98">
+        <v>4.05</v>
+      </c>
+      <c r="F101" s="31"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="32"/>
+      <c r="P101" s="32"/>
+      <c r="Q101" s="32"/>
+      <c r="R101" s="32"/>
+      <c r="S101" s="32"/>
+      <c r="T101" s="32"/>
+      <c r="U101" s="32"/>
+      <c r="V101" s="32"/>
+      <c r="W101" s="32"/>
+      <c r="X101" s="32"/>
+      <c r="Y101" s="32"/>
+      <c r="Z101" s="32"/>
+      <c r="AA101" s="32"/>
+      <c r="AB101" s="32"/>
+      <c r="AC101" s="32"/>
+      <c r="AD101" s="32"/>
+      <c r="AE101" s="32"/>
+      <c r="AF101" s="32"/>
+      <c r="AG101" s="32"/>
+      <c r="AH101" s="32"/>
+      <c r="AI101" s="32"/>
+      <c r="AJ101" s="32"/>
+      <c r="AK101" s="32"/>
+      <c r="AL101" s="32"/>
+      <c r="AM101" s="32"/>
+      <c r="AN101" s="32"/>
+      <c r="AO101" s="32"/>
+      <c r="AP101" s="32"/>
+      <c r="AQ101" s="32"/>
+      <c r="AR101" s="32"/>
+      <c r="AS101" s="32"/>
+      <c r="AT101" s="32"/>
+      <c r="AU101" s="32"/>
+      <c r="AV101" s="32"/>
+      <c r="AW101" s="32"/>
+      <c r="AX101" s="32"/>
+      <c r="AY101" s="32"/>
+      <c r="AZ101" s="32"/>
+      <c r="BA101" s="32"/>
+      <c r="BB101" s="32"/>
+      <c r="BC101" s="32"/>
+      <c r="BD101" s="32"/>
+      <c r="BE101" s="32"/>
+      <c r="BF101" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BG101" s="32"/>
+      <c r="BH101" s="32"/>
+      <c r="BI101" s="32"/>
+      <c r="BJ101" s="32"/>
+      <c r="BK101" s="32"/>
+      <c r="BL101" s="32"/>
+      <c r="BM101" s="32"/>
+      <c r="BN101" s="32"/>
+      <c r="BO101" s="55">
+        <v>2</v>
+      </c>
+      <c r="BP101" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BQ101" s="32"/>
+      <c r="BR101" s="32"/>
+      <c r="BS101" s="32"/>
+      <c r="BT101" s="32"/>
+      <c r="BU101" s="32"/>
+      <c r="BV101" s="32"/>
+      <c r="BW101" s="32"/>
+      <c r="BX101" s="32"/>
+      <c r="BY101" s="32"/>
+      <c r="BZ101" s="32"/>
+      <c r="CA101" s="32"/>
+      <c r="CB101" s="32"/>
+      <c r="CC101" s="32"/>
+      <c r="CD101" s="32"/>
+      <c r="CE101" s="32"/>
+      <c r="CF101" s="32"/>
+      <c r="CG101" s="32"/>
+      <c r="CH101" s="32"/>
+      <c r="CI101" s="32"/>
+      <c r="CJ101" s="32"/>
+      <c r="CK101" s="32"/>
+      <c r="CL101" s="32"/>
+      <c r="CM101" s="32"/>
+      <c r="CN101" s="32"/>
+      <c r="CO101" s="32"/>
+      <c r="CP101" s="32"/>
+      <c r="CQ101" s="32"/>
+      <c r="CR101" s="32"/>
+      <c r="CS101" s="32"/>
+      <c r="CT101" s="32"/>
+      <c r="CU101" s="32"/>
+      <c r="CV101" s="32"/>
+      <c r="CW101" s="32"/>
+      <c r="CX101" s="33"/>
+      <c r="CY101" s="11"/>
+    </row>
+    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="79"/>
+      <c r="B102" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="40"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="41"/>
-      <c r="R101" s="41"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="41"/>
-      <c r="U101" s="41"/>
-      <c r="V101" s="41"/>
-      <c r="W101" s="41"/>
-      <c r="X101" s="41"/>
-      <c r="Y101" s="41"/>
-      <c r="Z101" s="41"/>
-      <c r="AA101" s="41"/>
-      <c r="AB101" s="41"/>
-      <c r="AC101" s="41"/>
-      <c r="AD101" s="41"/>
-      <c r="AE101" s="41"/>
-      <c r="AF101" s="41"/>
-      <c r="AG101" s="41"/>
-      <c r="AH101" s="41"/>
-      <c r="AI101" s="41"/>
-      <c r="AJ101" s="41"/>
-      <c r="AK101" s="41"/>
-      <c r="AL101" s="41"/>
-      <c r="AM101" s="41"/>
-      <c r="AN101" s="41"/>
-      <c r="AO101" s="41"/>
-      <c r="AP101" s="41"/>
-      <c r="AQ101" s="41"/>
-      <c r="AR101" s="41"/>
-      <c r="AS101" s="41"/>
-      <c r="AT101" s="41"/>
-      <c r="AU101" s="41"/>
-      <c r="AV101" s="41"/>
-      <c r="AW101" s="41"/>
-      <c r="AX101" s="41"/>
-      <c r="AY101" s="41"/>
-      <c r="AZ101" s="41"/>
-      <c r="BA101" s="41"/>
-      <c r="BB101" s="41"/>
-      <c r="BC101" s="41"/>
-      <c r="BD101" s="41"/>
-      <c r="BE101" s="41"/>
-      <c r="BF101" s="41"/>
-      <c r="BG101" s="41"/>
-      <c r="BH101" s="41"/>
-      <c r="BI101" s="41"/>
-      <c r="BJ101" s="41"/>
-      <c r="BK101" s="41"/>
-      <c r="BL101" s="41"/>
-      <c r="BM101" s="41"/>
-      <c r="BN101" s="41"/>
-      <c r="BO101" s="41"/>
-      <c r="BP101" s="41"/>
-      <c r="BQ101" s="41"/>
-      <c r="BR101" s="41"/>
-      <c r="BS101" s="41"/>
-      <c r="BT101" s="41"/>
-      <c r="BU101" s="41"/>
-      <c r="BV101" s="41"/>
-      <c r="BW101" s="41"/>
-      <c r="BX101" s="41"/>
-      <c r="BY101" s="41"/>
-      <c r="BZ101" s="41"/>
-      <c r="CA101" s="41"/>
-      <c r="CB101" s="41"/>
-      <c r="CC101" s="41"/>
-      <c r="CD101" s="41"/>
-      <c r="CE101" s="41"/>
-      <c r="CF101" s="41"/>
-      <c r="CG101" s="41"/>
-      <c r="CH101" s="41"/>
-      <c r="CI101" s="41"/>
-      <c r="CJ101" s="41"/>
-      <c r="CK101" s="41"/>
-      <c r="CL101" s="41"/>
-      <c r="CM101" s="41"/>
-      <c r="CN101" s="41"/>
-      <c r="CO101" s="41"/>
-      <c r="CP101" s="41"/>
-      <c r="CQ101" s="41"/>
-      <c r="CR101" s="41"/>
-      <c r="CS101" s="41"/>
-      <c r="CT101" s="41"/>
-      <c r="CU101" s="41"/>
-      <c r="CV101" s="41"/>
-      <c r="CW101" s="41"/>
-      <c r="CX101" s="42"/>
-      <c r="CY101" s="21"/>
-    </row>
-    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="C102" s="9">
-        <v>6</v>
-      </c>
-      <c r="D102" s="76">
-        <v>6.04</v>
-      </c>
-      <c r="E102" s="78">
-        <v>4.05</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="D102" s="81"/>
+      <c r="E102" s="98"/>
       <c r="F102" s="31"/>
       <c r="G102" s="32"/>
       <c r="H102" s="32"/>
@@ -13690,7 +13699,9 @@
       <c r="BC102" s="32"/>
       <c r="BD102" s="32"/>
       <c r="BE102" s="32"/>
-      <c r="BF102" s="32"/>
+      <c r="BF102" s="53">
+        <v>0.5</v>
+      </c>
       <c r="BG102" s="32"/>
       <c r="BH102" s="32"/>
       <c r="BI102" s="32"/>
@@ -13698,11 +13709,13 @@
       <c r="BK102" s="32"/>
       <c r="BL102" s="32"/>
       <c r="BM102" s="32"/>
-      <c r="BN102" s="55">
-        <v>6</v>
-      </c>
-      <c r="BO102" s="32"/>
-      <c r="BP102" s="32"/>
+      <c r="BN102" s="32"/>
+      <c r="BO102" s="53">
+        <v>2</v>
+      </c>
+      <c r="BP102" s="53">
+        <v>2</v>
+      </c>
       <c r="BQ102" s="32"/>
       <c r="BR102" s="32"/>
       <c r="BS102" s="32"/>
@@ -13737,18 +13750,24 @@
       <c r="CV102" s="32"/>
       <c r="CW102" s="32"/>
       <c r="CX102" s="33"/>
-      <c r="CY102" s="21"/>
+      <c r="CY102" s="11"/>
     </row>
-    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="75"/>
+    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="78" t="s">
+        <v>56</v>
+      </c>
       <c r="B103" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" s="9">
-        <v>5</v>
-      </c>
-      <c r="D103" s="79"/>
-      <c r="E103" s="78"/>
+        <v>2</v>
+      </c>
+      <c r="D103" s="80">
+        <v>6.04</v>
+      </c>
+      <c r="E103" s="98">
+        <v>4.05</v>
+      </c>
       <c r="F103" s="31"/>
       <c r="G103" s="32"/>
       <c r="H103" s="32"/>
@@ -13801,17 +13820,21 @@
       <c r="BC103" s="32"/>
       <c r="BD103" s="32"/>
       <c r="BE103" s="32"/>
-      <c r="BF103" s="32"/>
+      <c r="BF103" s="55">
+        <v>0.5</v>
+      </c>
       <c r="BG103" s="32"/>
       <c r="BH103" s="32"/>
       <c r="BI103" s="32"/>
       <c r="BJ103" s="32"/>
-      <c r="BK103" s="32"/>
-      <c r="BL103" s="32"/>
+      <c r="BK103" s="55">
+        <v>1</v>
+      </c>
+      <c r="BL103" s="55">
+        <v>1</v>
+      </c>
       <c r="BM103" s="32"/>
-      <c r="BN103" s="53">
-        <v>5</v>
-      </c>
+      <c r="BN103" s="32"/>
       <c r="BO103" s="32"/>
       <c r="BP103" s="32"/>
       <c r="BQ103" s="32"/>
@@ -13848,24 +13871,18 @@
       <c r="CV103" s="32"/>
       <c r="CW103" s="32"/>
       <c r="CX103" s="33"/>
-      <c r="CY103" s="21"/>
+      <c r="CY103" s="11"/>
     </row>
-    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="74" t="s">
-        <v>56</v>
-      </c>
+    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="79"/>
       <c r="B104" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" s="9">
-        <v>1</v>
-      </c>
-      <c r="D104" s="76">
-        <v>6.04</v>
-      </c>
-      <c r="E104" s="78">
-        <v>4.05</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D104" s="81"/>
+      <c r="E104" s="98"/>
       <c r="F104" s="31"/>
       <c r="G104" s="32"/>
       <c r="H104" s="32"/>
@@ -13916,17 +13933,21 @@
       <c r="BA104" s="32"/>
       <c r="BB104" s="32"/>
       <c r="BC104" s="32"/>
-      <c r="BD104" s="55">
-        <v>1</v>
-      </c>
+      <c r="BD104" s="32"/>
       <c r="BE104" s="32"/>
-      <c r="BF104" s="32"/>
+      <c r="BF104" s="53">
+        <v>0.5</v>
+      </c>
       <c r="BG104" s="32"/>
       <c r="BH104" s="32"/>
       <c r="BI104" s="32"/>
       <c r="BJ104" s="32"/>
-      <c r="BK104" s="32"/>
-      <c r="BL104" s="32"/>
+      <c r="BK104" s="53">
+        <v>1</v>
+      </c>
+      <c r="BL104" s="53">
+        <v>1</v>
+      </c>
       <c r="BM104" s="32"/>
       <c r="BN104" s="32"/>
       <c r="BO104" s="32"/>
@@ -13965,18 +13986,24 @@
       <c r="CV104" s="32"/>
       <c r="CW104" s="32"/>
       <c r="CX104" s="33"/>
-      <c r="CY104" s="21"/>
+      <c r="CY104" s="11"/>
     </row>
-    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="75"/>
+    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="78" t="s">
+        <v>62</v>
+      </c>
       <c r="B105" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" s="9">
         <v>3</v>
       </c>
-      <c r="D105" s="79"/>
-      <c r="E105" s="78"/>
+      <c r="D105" s="80">
+        <v>6.04</v>
+      </c>
+      <c r="E105" s="98">
+        <v>4.05</v>
+      </c>
       <c r="F105" s="31"/>
       <c r="G105" s="32"/>
       <c r="H105" s="32"/>
@@ -14027,9 +14054,7 @@
       <c r="BA105" s="32"/>
       <c r="BB105" s="32"/>
       <c r="BC105" s="32"/>
-      <c r="BD105" s="53">
-        <v>3</v>
-      </c>
+      <c r="BD105" s="32"/>
       <c r="BE105" s="32"/>
       <c r="BF105" s="32"/>
       <c r="BG105" s="32"/>
@@ -14038,16 +14063,24 @@
       <c r="BJ105" s="32"/>
       <c r="BK105" s="32"/>
       <c r="BL105" s="32"/>
-      <c r="BM105" s="32"/>
+      <c r="BM105" s="55">
+        <v>0.5</v>
+      </c>
       <c r="BN105" s="32"/>
-      <c r="BO105" s="32"/>
+      <c r="BO105" s="55">
+        <v>0.5</v>
+      </c>
       <c r="BP105" s="32"/>
       <c r="BQ105" s="32"/>
       <c r="BR105" s="32"/>
       <c r="BS105" s="32"/>
-      <c r="BT105" s="32"/>
+      <c r="BT105" s="55">
+        <v>1</v>
+      </c>
       <c r="BU105" s="32"/>
-      <c r="BV105" s="32"/>
+      <c r="BV105" s="55">
+        <v>1</v>
+      </c>
       <c r="BW105" s="32"/>
       <c r="BX105" s="32"/>
       <c r="BY105" s="32"/>
@@ -14076,24 +14109,18 @@
       <c r="CV105" s="32"/>
       <c r="CW105" s="32"/>
       <c r="CX105" s="33"/>
-      <c r="CY105" s="21"/>
+      <c r="CY105" s="11"/>
     </row>
-    <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="74" t="s">
-        <v>58</v>
-      </c>
+    <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="79"/>
       <c r="B106" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D106" s="76">
-        <v>6.04</v>
-      </c>
-      <c r="E106" s="78">
-        <v>4.05</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="D106" s="81"/>
+      <c r="E106" s="98"/>
       <c r="F106" s="31"/>
       <c r="G106" s="32"/>
       <c r="H106" s="32"/>
@@ -14144,28 +14171,33 @@
       <c r="BA106" s="32"/>
       <c r="BB106" s="32"/>
       <c r="BC106" s="32"/>
+      <c r="BD106" s="32"/>
       <c r="BE106" s="32"/>
       <c r="BF106" s="32"/>
       <c r="BG106" s="32"/>
-      <c r="BH106" s="55">
-        <v>0.5</v>
-      </c>
+      <c r="BH106" s="32"/>
       <c r="BI106" s="32"/>
       <c r="BJ106" s="32"/>
       <c r="BK106" s="32"/>
       <c r="BL106" s="32"/>
-      <c r="BM106" s="32"/>
+      <c r="BM106" s="53">
+        <v>0.5</v>
+      </c>
       <c r="BN106" s="32"/>
-      <c r="BO106" s="55">
-        <v>0.5</v>
+      <c r="BO106" s="53">
+        <v>1</v>
       </c>
       <c r="BP106" s="32"/>
       <c r="BQ106" s="32"/>
       <c r="BR106" s="32"/>
       <c r="BS106" s="32"/>
-      <c r="BT106" s="32"/>
+      <c r="BT106" s="53">
+        <v>1</v>
+      </c>
       <c r="BU106" s="32"/>
-      <c r="BV106" s="32"/>
+      <c r="BV106" s="53">
+        <v>1</v>
+      </c>
       <c r="BW106" s="32"/>
       <c r="BX106" s="32"/>
       <c r="BY106" s="32"/>
@@ -14194,18 +14226,24 @@
       <c r="CV106" s="32"/>
       <c r="CW106" s="32"/>
       <c r="CX106" s="33"/>
-      <c r="CY106" s="21"/>
+      <c r="CY106" s="11"/>
     </row>
-    <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="75"/>
+    <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="78" t="s">
+        <v>70</v>
+      </c>
       <c r="B107" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" s="9">
         <v>1.5</v>
       </c>
-      <c r="D107" s="79"/>
-      <c r="E107" s="78"/>
+      <c r="D107" s="80">
+        <v>6.04</v>
+      </c>
+      <c r="E107" s="82">
+        <v>4.05</v>
+      </c>
       <c r="F107" s="31"/>
       <c r="G107" s="32"/>
       <c r="H107" s="32"/>
@@ -14260,26 +14298,24 @@
       <c r="BE107" s="32"/>
       <c r="BF107" s="32"/>
       <c r="BG107" s="32"/>
-      <c r="BH107" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="BH107" s="32"/>
       <c r="BI107" s="32"/>
       <c r="BJ107" s="32"/>
       <c r="BK107" s="32"/>
       <c r="BL107" s="32"/>
       <c r="BM107" s="32"/>
       <c r="BN107" s="32"/>
-      <c r="BO107" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="BO107" s="32"/>
       <c r="BP107" s="32"/>
       <c r="BQ107" s="32"/>
       <c r="BR107" s="32"/>
       <c r="BS107" s="32"/>
-      <c r="BT107" s="32"/>
+      <c r="BT107" s="55">
+        <v>0.5</v>
+      </c>
       <c r="BU107" s="32"/>
       <c r="BV107" s="55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BW107" s="32"/>
       <c r="BX107" s="32"/>
@@ -14311,22 +14347,16 @@
       <c r="CX107" s="33"/>
       <c r="CY107" s="21"/>
     </row>
-    <row r="108" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A108" s="74" t="s">
-        <v>59</v>
-      </c>
+    <row r="108" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="79"/>
       <c r="B108" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" s="9">
         <v>2</v>
       </c>
-      <c r="D108" s="76">
-        <v>6.04</v>
-      </c>
-      <c r="E108" s="78">
-        <v>4.05</v>
-      </c>
+      <c r="D108" s="81"/>
+      <c r="E108" s="82"/>
       <c r="F108" s="31"/>
       <c r="G108" s="32"/>
       <c r="H108" s="32"/>
@@ -14385,9 +14415,7 @@
       <c r="BI108" s="32"/>
       <c r="BJ108" s="32"/>
       <c r="BK108" s="32"/>
-      <c r="BL108" s="55">
-        <v>2</v>
-      </c>
+      <c r="BL108" s="32"/>
       <c r="BM108" s="32"/>
       <c r="BN108" s="32"/>
       <c r="BO108" s="32"/>
@@ -14395,10 +14423,12 @@
       <c r="BQ108" s="32"/>
       <c r="BR108" s="32"/>
       <c r="BS108" s="32"/>
-      <c r="BT108" s="32"/>
+      <c r="BT108" s="53">
+        <v>1</v>
+      </c>
       <c r="BU108" s="32"/>
       <c r="BV108" s="53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BW108" s="32"/>
       <c r="BX108" s="32"/>
@@ -14430,131 +14460,135 @@
       <c r="CX108" s="33"/>
       <c r="CY108" s="21"/>
     </row>
-    <row r="109" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A109" s="75"/>
-      <c r="B109" s="7" t="s">
+    <row r="109" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D109" s="77"/>
-      <c r="E109" s="78"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="32"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="32"/>
-      <c r="L109" s="32"/>
-      <c r="M109" s="32"/>
-      <c r="N109" s="32"/>
-      <c r="O109" s="32"/>
-      <c r="P109" s="32"/>
-      <c r="Q109" s="32"/>
-      <c r="R109" s="32"/>
-      <c r="S109" s="32"/>
-      <c r="T109" s="32"/>
-      <c r="U109" s="32"/>
-      <c r="V109" s="32"/>
-      <c r="W109" s="32"/>
-      <c r="X109" s="32"/>
-      <c r="Y109" s="32"/>
-      <c r="Z109" s="32"/>
-      <c r="AA109" s="32"/>
-      <c r="AB109" s="32"/>
-      <c r="AC109" s="32"/>
-      <c r="AD109" s="32"/>
-      <c r="AE109" s="32"/>
-      <c r="AF109" s="32"/>
-      <c r="AG109" s="32"/>
-      <c r="AH109" s="32"/>
-      <c r="AI109" s="32"/>
-      <c r="AJ109" s="32"/>
-      <c r="AK109" s="32"/>
-      <c r="AL109" s="32"/>
-      <c r="AM109" s="32"/>
-      <c r="AN109" s="32"/>
-      <c r="AO109" s="32"/>
-      <c r="AP109" s="32"/>
-      <c r="AQ109" s="32"/>
-      <c r="AR109" s="32"/>
-      <c r="AS109" s="32"/>
-      <c r="AT109" s="32"/>
-      <c r="AU109" s="32"/>
-      <c r="AV109" s="32"/>
-      <c r="AW109" s="32"/>
-      <c r="AX109" s="32"/>
-      <c r="AY109" s="32"/>
-      <c r="AZ109" s="32"/>
-      <c r="BA109" s="32"/>
-      <c r="BB109" s="32"/>
-      <c r="BC109" s="32"/>
-      <c r="BD109" s="32"/>
-      <c r="BE109" s="32"/>
-      <c r="BF109" s="32"/>
-      <c r="BG109" s="32"/>
-      <c r="BH109" s="32"/>
-      <c r="BI109" s="32"/>
-      <c r="BJ109" s="32"/>
-      <c r="BK109" s="32"/>
-      <c r="BL109" s="53">
-        <v>2.5</v>
-      </c>
-      <c r="BM109" s="32"/>
-      <c r="BN109" s="32"/>
-      <c r="BO109" s="32"/>
-      <c r="BP109" s="32"/>
-      <c r="BQ109" s="32"/>
-      <c r="BR109" s="32"/>
-      <c r="BS109" s="32"/>
-      <c r="BT109" s="32"/>
-      <c r="BU109" s="32"/>
-      <c r="BV109" s="32"/>
-      <c r="BW109" s="32"/>
-      <c r="BX109" s="32"/>
-      <c r="BY109" s="32"/>
-      <c r="BZ109" s="32"/>
-      <c r="CA109" s="32"/>
-      <c r="CB109" s="32"/>
-      <c r="CC109" s="32"/>
-      <c r="CD109" s="32"/>
-      <c r="CE109" s="32"/>
-      <c r="CF109" s="32"/>
-      <c r="CG109" s="32"/>
-      <c r="CH109" s="32"/>
-      <c r="CI109" s="32"/>
-      <c r="CJ109" s="32"/>
-      <c r="CK109" s="32"/>
-      <c r="CL109" s="32"/>
-      <c r="CM109" s="32"/>
-      <c r="CN109" s="32"/>
-      <c r="CO109" s="32"/>
-      <c r="CP109" s="32"/>
-      <c r="CQ109" s="32"/>
-      <c r="CR109" s="32"/>
-      <c r="CS109" s="32"/>
-      <c r="CT109" s="32"/>
-      <c r="CU109" s="32"/>
-      <c r="CV109" s="32"/>
-      <c r="CW109" s="32"/>
-      <c r="CX109" s="33"/>
+      <c r="E109" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="40"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="41"/>
+      <c r="M109" s="41"/>
+      <c r="N109" s="41"/>
+      <c r="O109" s="41"/>
+      <c r="P109" s="41"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="41"/>
+      <c r="S109" s="41"/>
+      <c r="T109" s="41"/>
+      <c r="U109" s="41"/>
+      <c r="V109" s="41"/>
+      <c r="W109" s="41"/>
+      <c r="X109" s="41"/>
+      <c r="Y109" s="41"/>
+      <c r="Z109" s="41"/>
+      <c r="AA109" s="41"/>
+      <c r="AB109" s="41"/>
+      <c r="AC109" s="41"/>
+      <c r="AD109" s="41"/>
+      <c r="AE109" s="41"/>
+      <c r="AF109" s="41"/>
+      <c r="AG109" s="41"/>
+      <c r="AH109" s="41"/>
+      <c r="AI109" s="41"/>
+      <c r="AJ109" s="41"/>
+      <c r="AK109" s="41"/>
+      <c r="AL109" s="41"/>
+      <c r="AM109" s="41"/>
+      <c r="AN109" s="41"/>
+      <c r="AO109" s="41"/>
+      <c r="AP109" s="41"/>
+      <c r="AQ109" s="41"/>
+      <c r="AR109" s="41"/>
+      <c r="AS109" s="41"/>
+      <c r="AT109" s="41"/>
+      <c r="AU109" s="41"/>
+      <c r="AV109" s="41"/>
+      <c r="AW109" s="41"/>
+      <c r="AX109" s="41"/>
+      <c r="AY109" s="41"/>
+      <c r="AZ109" s="41"/>
+      <c r="BA109" s="41"/>
+      <c r="BB109" s="41"/>
+      <c r="BC109" s="41"/>
+      <c r="BD109" s="41"/>
+      <c r="BE109" s="41"/>
+      <c r="BF109" s="41"/>
+      <c r="BG109" s="41"/>
+      <c r="BH109" s="41"/>
+      <c r="BI109" s="41"/>
+      <c r="BJ109" s="41"/>
+      <c r="BK109" s="41"/>
+      <c r="BL109" s="41"/>
+      <c r="BM109" s="41"/>
+      <c r="BN109" s="41"/>
+      <c r="BO109" s="41"/>
+      <c r="BP109" s="41"/>
+      <c r="BQ109" s="41"/>
+      <c r="BR109" s="41"/>
+      <c r="BS109" s="41"/>
+      <c r="BT109" s="41"/>
+      <c r="BU109" s="41"/>
+      <c r="BV109" s="41"/>
+      <c r="BW109" s="41"/>
+      <c r="BX109" s="41"/>
+      <c r="BY109" s="41"/>
+      <c r="BZ109" s="41"/>
+      <c r="CA109" s="41"/>
+      <c r="CB109" s="41"/>
+      <c r="CC109" s="41"/>
+      <c r="CD109" s="41"/>
+      <c r="CE109" s="41"/>
+      <c r="CF109" s="41"/>
+      <c r="CG109" s="41"/>
+      <c r="CH109" s="41"/>
+      <c r="CI109" s="41"/>
+      <c r="CJ109" s="41"/>
+      <c r="CK109" s="41"/>
+      <c r="CL109" s="41"/>
+      <c r="CM109" s="41"/>
+      <c r="CN109" s="41"/>
+      <c r="CO109" s="41"/>
+      <c r="CP109" s="41"/>
+      <c r="CQ109" s="41"/>
+      <c r="CR109" s="41"/>
+      <c r="CS109" s="41"/>
+      <c r="CT109" s="41"/>
+      <c r="CU109" s="41"/>
+      <c r="CV109" s="41"/>
+      <c r="CW109" s="41"/>
+      <c r="CX109" s="42"/>
       <c r="CY109" s="21"/>
     </row>
-    <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="74" t="s">
-        <v>68</v>
+    <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="78" t="s">
+        <v>57</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C110" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D110" s="76">
+        <v>6</v>
+      </c>
+      <c r="D110" s="80">
         <v>6.04</v>
       </c>
-      <c r="E110" s="78">
+      <c r="E110" s="82">
         <v>4.05</v>
       </c>
       <c r="F110" s="31"/>
@@ -14615,17 +14649,18 @@
       <c r="BI110" s="32"/>
       <c r="BJ110" s="32"/>
       <c r="BK110" s="32"/>
+      <c r="BL110" s="32"/>
       <c r="BM110" s="32"/>
-      <c r="BN110" s="32"/>
+      <c r="BN110" s="55">
+        <v>6</v>
+      </c>
       <c r="BO110" s="32"/>
       <c r="BP110" s="32"/>
       <c r="BQ110" s="32"/>
       <c r="BR110" s="32"/>
       <c r="BS110" s="32"/>
       <c r="BT110" s="32"/>
-      <c r="BU110" s="55">
-        <v>0.5</v>
-      </c>
+      <c r="BU110" s="32"/>
       <c r="BV110" s="32"/>
       <c r="BW110" s="32"/>
       <c r="BX110" s="32"/>
@@ -14657,16 +14692,16 @@
       <c r="CX110" s="33"/>
       <c r="CY110" s="21"/>
     </row>
-    <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="75"/>
+    <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="79"/>
       <c r="B111" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="9">
-        <v>3</v>
-      </c>
-      <c r="D111" s="77"/>
-      <c r="E111" s="78"/>
+        <v>5</v>
+      </c>
+      <c r="D111" s="81"/>
+      <c r="E111" s="82"/>
       <c r="F111" s="31"/>
       <c r="G111" s="32"/>
       <c r="H111" s="32"/>
@@ -14725,17 +14760,18 @@
       <c r="BI111" s="32"/>
       <c r="BJ111" s="32"/>
       <c r="BK111" s="32"/>
+      <c r="BL111" s="32"/>
       <c r="BM111" s="32"/>
-      <c r="BN111" s="32"/>
+      <c r="BN111" s="53">
+        <v>5</v>
+      </c>
       <c r="BO111" s="32"/>
       <c r="BP111" s="32"/>
       <c r="BQ111" s="32"/>
       <c r="BR111" s="32"/>
       <c r="BS111" s="32"/>
       <c r="BT111" s="32"/>
-      <c r="BU111" s="53">
-        <v>3</v>
-      </c>
+      <c r="BU111" s="32"/>
       <c r="BV111" s="32"/>
       <c r="BW111" s="32"/>
       <c r="BX111" s="32"/>
@@ -14767,16 +14803,22 @@
       <c r="CX111" s="33"/>
       <c r="CY111" s="21"/>
     </row>
-    <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="87">
-        <v>44320</v>
-      </c>
-      <c r="E112" s="91"/>
+    <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="9">
+        <v>1</v>
+      </c>
+      <c r="D112" s="80">
+        <v>6.04</v>
+      </c>
+      <c r="E112" s="82">
+        <v>4.05</v>
+      </c>
       <c r="F112" s="31"/>
       <c r="G112" s="32"/>
       <c r="H112" s="32"/>
@@ -14827,6 +14869,9 @@
       <c r="BA112" s="32"/>
       <c r="BB112" s="32"/>
       <c r="BC112" s="32"/>
+      <c r="BD112" s="55">
+        <v>1</v>
+      </c>
       <c r="BE112" s="32"/>
       <c r="BF112" s="32"/>
       <c r="BG112" s="32"/>
@@ -14834,7 +14879,7 @@
       <c r="BI112" s="32"/>
       <c r="BJ112" s="32"/>
       <c r="BK112" s="32"/>
-      <c r="BL112" s="48"/>
+      <c r="BL112" s="32"/>
       <c r="BM112" s="32"/>
       <c r="BN112" s="32"/>
       <c r="BO112" s="32"/>
@@ -14875,250 +14920,245 @@
       <c r="CX112" s="33"/>
       <c r="CY112" s="21"/>
     </row>
-    <row r="113" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="18" t="s">
+    <row r="113" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="79"/>
+      <c r="B113" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="44"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="45"/>
-      <c r="M113" s="45"/>
-      <c r="N113" s="45"/>
-      <c r="O113" s="45"/>
-      <c r="P113" s="45"/>
-      <c r="Q113" s="45"/>
-      <c r="R113" s="45"/>
-      <c r="S113" s="45"/>
-      <c r="T113" s="45"/>
-      <c r="U113" s="45"/>
-      <c r="V113" s="45"/>
-      <c r="W113" s="45"/>
-      <c r="X113" s="45"/>
-      <c r="Y113" s="45"/>
-      <c r="Z113" s="45"/>
-      <c r="AA113" s="45"/>
-      <c r="AB113" s="45"/>
-      <c r="AC113" s="45"/>
-      <c r="AD113" s="45"/>
-      <c r="AE113" s="45"/>
-      <c r="AF113" s="45"/>
-      <c r="AG113" s="45"/>
-      <c r="AH113" s="45"/>
-      <c r="AI113" s="45"/>
-      <c r="AJ113" s="45"/>
-      <c r="AK113" s="45"/>
-      <c r="AL113" s="45"/>
-      <c r="AM113" s="45"/>
-      <c r="AN113" s="45"/>
-      <c r="AO113" s="45"/>
-      <c r="AP113" s="45"/>
-      <c r="AQ113" s="45"/>
-      <c r="AR113" s="45"/>
-      <c r="AS113" s="45"/>
-      <c r="AT113" s="45"/>
-      <c r="AU113" s="45"/>
-      <c r="AV113" s="45"/>
-      <c r="AW113" s="45"/>
-      <c r="AX113" s="45"/>
-      <c r="AY113" s="45"/>
-      <c r="AZ113" s="45"/>
-      <c r="BA113" s="45"/>
-      <c r="BB113" s="45"/>
-      <c r="BC113" s="45"/>
-      <c r="BD113" s="45"/>
-      <c r="BE113" s="45"/>
-      <c r="BF113" s="45"/>
-      <c r="BG113" s="45"/>
-      <c r="BH113" s="45"/>
-      <c r="BI113" s="45"/>
-      <c r="BJ113" s="45"/>
-      <c r="BK113" s="45"/>
-      <c r="BL113" s="45"/>
-      <c r="BM113" s="45"/>
-      <c r="BN113" s="45"/>
-      <c r="BO113" s="45"/>
-      <c r="BP113" s="45"/>
-      <c r="BQ113" s="45"/>
-      <c r="BR113" s="45"/>
-      <c r="BS113" s="45"/>
-      <c r="BT113" s="45"/>
-      <c r="BU113" s="45"/>
-      <c r="BV113" s="45"/>
-      <c r="BW113" s="45"/>
-      <c r="BX113" s="45"/>
-      <c r="BY113" s="45"/>
-      <c r="BZ113" s="45"/>
-      <c r="CA113" s="45"/>
-      <c r="CB113" s="45"/>
-      <c r="CC113" s="45"/>
-      <c r="CD113" s="45"/>
-      <c r="CE113" s="45"/>
-      <c r="CF113" s="45"/>
-      <c r="CG113" s="45"/>
-      <c r="CH113" s="45"/>
-      <c r="CI113" s="45"/>
-      <c r="CJ113" s="45"/>
-      <c r="CK113" s="45"/>
-      <c r="CL113" s="45"/>
-      <c r="CM113" s="45"/>
-      <c r="CN113" s="45"/>
-      <c r="CO113" s="45"/>
-      <c r="CP113" s="45"/>
-      <c r="CQ113" s="45"/>
-      <c r="CR113" s="45"/>
-      <c r="CS113" s="45"/>
-      <c r="CT113" s="45"/>
-      <c r="CU113" s="45"/>
-      <c r="CV113" s="45"/>
-      <c r="CW113" s="45"/>
-      <c r="CX113" s="46"/>
+      <c r="C113" s="9">
+        <v>3</v>
+      </c>
+      <c r="D113" s="81"/>
+      <c r="E113" s="82"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="32"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
+      <c r="X113" s="32"/>
+      <c r="Y113" s="32"/>
+      <c r="Z113" s="32"/>
+      <c r="AA113" s="32"/>
+      <c r="AB113" s="32"/>
+      <c r="AC113" s="32"/>
+      <c r="AD113" s="32"/>
+      <c r="AE113" s="32"/>
+      <c r="AF113" s="32"/>
+      <c r="AG113" s="32"/>
+      <c r="AH113" s="32"/>
+      <c r="AI113" s="32"/>
+      <c r="AJ113" s="32"/>
+      <c r="AK113" s="32"/>
+      <c r="AL113" s="32"/>
+      <c r="AM113" s="32"/>
+      <c r="AN113" s="32"/>
+      <c r="AO113" s="32"/>
+      <c r="AP113" s="32"/>
+      <c r="AQ113" s="32"/>
+      <c r="AR113" s="32"/>
+      <c r="AS113" s="32"/>
+      <c r="AT113" s="32"/>
+      <c r="AU113" s="32"/>
+      <c r="AV113" s="32"/>
+      <c r="AW113" s="32"/>
+      <c r="AX113" s="32"/>
+      <c r="AY113" s="32"/>
+      <c r="AZ113" s="32"/>
+      <c r="BA113" s="32"/>
+      <c r="BB113" s="32"/>
+      <c r="BC113" s="32"/>
+      <c r="BD113" s="53">
+        <v>3</v>
+      </c>
+      <c r="BE113" s="32"/>
+      <c r="BF113" s="32"/>
+      <c r="BG113" s="32"/>
+      <c r="BH113" s="32"/>
+      <c r="BI113" s="32"/>
+      <c r="BJ113" s="32"/>
+      <c r="BK113" s="32"/>
+      <c r="BL113" s="32"/>
+      <c r="BM113" s="32"/>
+      <c r="BN113" s="32"/>
+      <c r="BO113" s="32"/>
+      <c r="BP113" s="32"/>
+      <c r="BQ113" s="32"/>
+      <c r="BR113" s="32"/>
+      <c r="BS113" s="32"/>
+      <c r="BT113" s="32"/>
+      <c r="BU113" s="32"/>
+      <c r="BV113" s="32"/>
+      <c r="BW113" s="32"/>
+      <c r="BX113" s="32"/>
+      <c r="BY113" s="32"/>
+      <c r="BZ113" s="32"/>
+      <c r="CA113" s="32"/>
+      <c r="CB113" s="32"/>
+      <c r="CC113" s="32"/>
+      <c r="CD113" s="32"/>
+      <c r="CE113" s="32"/>
+      <c r="CF113" s="32"/>
+      <c r="CG113" s="32"/>
+      <c r="CH113" s="32"/>
+      <c r="CI113" s="32"/>
+      <c r="CJ113" s="32"/>
+      <c r="CK113" s="32"/>
+      <c r="CL113" s="32"/>
+      <c r="CM113" s="32"/>
+      <c r="CN113" s="32"/>
+      <c r="CO113" s="32"/>
+      <c r="CP113" s="32"/>
+      <c r="CQ113" s="32"/>
+      <c r="CR113" s="32"/>
+      <c r="CS113" s="32"/>
+      <c r="CT113" s="32"/>
+      <c r="CU113" s="32"/>
+      <c r="CV113" s="32"/>
+      <c r="CW113" s="32"/>
+      <c r="CX113" s="33"/>
       <c r="CY113" s="21"/>
     </row>
-    <row r="114" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="40"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="41"/>
-      <c r="M114" s="41"/>
-      <c r="N114" s="41"/>
-      <c r="O114" s="41"/>
-      <c r="P114" s="41"/>
-      <c r="Q114" s="41"/>
-      <c r="R114" s="41"/>
-      <c r="S114" s="41"/>
-      <c r="T114" s="41"/>
-      <c r="U114" s="41"/>
-      <c r="V114" s="41"/>
-      <c r="W114" s="41"/>
-      <c r="X114" s="41"/>
-      <c r="Y114" s="41"/>
-      <c r="Z114" s="41"/>
-      <c r="AA114" s="41"/>
-      <c r="AB114" s="41"/>
-      <c r="AC114" s="41"/>
-      <c r="AD114" s="41"/>
-      <c r="AE114" s="41"/>
-      <c r="AF114" s="41"/>
-      <c r="AG114" s="41"/>
-      <c r="AH114" s="41"/>
-      <c r="AI114" s="41"/>
-      <c r="AJ114" s="41"/>
-      <c r="AK114" s="41"/>
-      <c r="AL114" s="41"/>
-      <c r="AM114" s="41"/>
-      <c r="AN114" s="41"/>
-      <c r="AO114" s="41"/>
-      <c r="AP114" s="41"/>
-      <c r="AQ114" s="41"/>
-      <c r="AR114" s="41"/>
-      <c r="AS114" s="41"/>
-      <c r="AT114" s="41"/>
-      <c r="AU114" s="41"/>
-      <c r="AV114" s="41"/>
-      <c r="AW114" s="41"/>
-      <c r="AX114" s="41"/>
-      <c r="AY114" s="41"/>
-      <c r="AZ114" s="41"/>
-      <c r="BA114" s="41"/>
-      <c r="BB114" s="41"/>
-      <c r="BC114" s="41"/>
-      <c r="BD114" s="41"/>
-      <c r="BE114" s="41"/>
-      <c r="BF114" s="41"/>
-      <c r="BG114" s="41"/>
-      <c r="BH114" s="41"/>
-      <c r="BI114" s="41"/>
-      <c r="BJ114" s="41"/>
-      <c r="BK114" s="41"/>
-      <c r="BL114" s="41"/>
-      <c r="BM114" s="41"/>
-      <c r="BN114" s="41"/>
-      <c r="BO114" s="41"/>
-      <c r="BP114" s="41"/>
-      <c r="BQ114" s="41"/>
-      <c r="BR114" s="41"/>
-      <c r="BS114" s="41"/>
-      <c r="BT114" s="41"/>
-      <c r="BU114" s="41"/>
-      <c r="BV114" s="41"/>
-      <c r="BW114" s="41"/>
-      <c r="BX114" s="41"/>
-      <c r="BY114" s="41"/>
-      <c r="BZ114" s="41"/>
-      <c r="CA114" s="41"/>
-      <c r="CB114" s="41"/>
-      <c r="CC114" s="41"/>
-      <c r="CD114" s="41"/>
-      <c r="CE114" s="41"/>
-      <c r="CF114" s="41"/>
-      <c r="CG114" s="41"/>
-      <c r="CH114" s="41"/>
-      <c r="CI114" s="41"/>
-      <c r="CJ114" s="41"/>
-      <c r="CK114" s="41"/>
-      <c r="CL114" s="41"/>
-      <c r="CM114" s="41"/>
-      <c r="CN114" s="41"/>
-      <c r="CO114" s="41"/>
-      <c r="CP114" s="41"/>
-      <c r="CQ114" s="41"/>
-      <c r="CR114" s="41"/>
-      <c r="CS114" s="41"/>
-      <c r="CT114" s="41"/>
-      <c r="CU114" s="41"/>
-      <c r="CV114" s="41"/>
-      <c r="CW114" s="41"/>
-      <c r="CX114" s="42"/>
+    <row r="114" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D114" s="80">
+        <v>6.04</v>
+      </c>
+      <c r="E114" s="82">
+        <v>4.05</v>
+      </c>
+      <c r="F114" s="31"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+      <c r="M114" s="32"/>
+      <c r="N114" s="32"/>
+      <c r="O114" s="32"/>
+      <c r="P114" s="32"/>
+      <c r="Q114" s="32"/>
+      <c r="R114" s="32"/>
+      <c r="S114" s="32"/>
+      <c r="T114" s="32"/>
+      <c r="U114" s="32"/>
+      <c r="V114" s="32"/>
+      <c r="W114" s="32"/>
+      <c r="X114" s="32"/>
+      <c r="Y114" s="32"/>
+      <c r="Z114" s="32"/>
+      <c r="AA114" s="32"/>
+      <c r="AB114" s="32"/>
+      <c r="AC114" s="32"/>
+      <c r="AD114" s="32"/>
+      <c r="AE114" s="32"/>
+      <c r="AF114" s="32"/>
+      <c r="AG114" s="32"/>
+      <c r="AH114" s="32"/>
+      <c r="AI114" s="32"/>
+      <c r="AJ114" s="32"/>
+      <c r="AK114" s="32"/>
+      <c r="AL114" s="32"/>
+      <c r="AM114" s="32"/>
+      <c r="AN114" s="32"/>
+      <c r="AO114" s="32"/>
+      <c r="AP114" s="32"/>
+      <c r="AQ114" s="32"/>
+      <c r="AR114" s="32"/>
+      <c r="AS114" s="32"/>
+      <c r="AT114" s="32"/>
+      <c r="AU114" s="32"/>
+      <c r="AV114" s="32"/>
+      <c r="AW114" s="32"/>
+      <c r="AX114" s="32"/>
+      <c r="AY114" s="32"/>
+      <c r="AZ114" s="32"/>
+      <c r="BA114" s="32"/>
+      <c r="BB114" s="32"/>
+      <c r="BC114" s="32"/>
+      <c r="BE114" s="32"/>
+      <c r="BF114" s="32"/>
+      <c r="BG114" s="32"/>
+      <c r="BH114" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BI114" s="32"/>
+      <c r="BJ114" s="32"/>
+      <c r="BK114" s="32"/>
+      <c r="BL114" s="32"/>
+      <c r="BM114" s="32"/>
+      <c r="BN114" s="32"/>
+      <c r="BO114" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BP114" s="32"/>
+      <c r="BQ114" s="32"/>
+      <c r="BR114" s="32"/>
+      <c r="BS114" s="32"/>
+      <c r="BT114" s="32"/>
+      <c r="BU114" s="32"/>
+      <c r="BV114" s="32"/>
+      <c r="BW114" s="32"/>
+      <c r="BX114" s="32"/>
+      <c r="BY114" s="32"/>
+      <c r="BZ114" s="32"/>
+      <c r="CA114" s="32"/>
+      <c r="CB114" s="32"/>
+      <c r="CC114" s="32"/>
+      <c r="CD114" s="32"/>
+      <c r="CE114" s="32"/>
+      <c r="CF114" s="32"/>
+      <c r="CG114" s="32"/>
+      <c r="CH114" s="32"/>
+      <c r="CI114" s="32"/>
+      <c r="CJ114" s="32"/>
+      <c r="CK114" s="32"/>
+      <c r="CL114" s="32"/>
+      <c r="CM114" s="32"/>
+      <c r="CN114" s="32"/>
+      <c r="CO114" s="32"/>
+      <c r="CP114" s="32"/>
+      <c r="CQ114" s="32"/>
+      <c r="CR114" s="32"/>
+      <c r="CS114" s="32"/>
+      <c r="CT114" s="32"/>
+      <c r="CU114" s="32"/>
+      <c r="CV114" s="32"/>
+      <c r="CW114" s="32"/>
+      <c r="CX114" s="33"/>
       <c r="CY114" s="21"/>
     </row>
-    <row r="115" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A115" s="74"/>
+    <row r="115" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="79"/>
       <c r="B115" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="77">
-        <v>4.05</v>
-      </c>
-      <c r="E115" s="78">
-        <v>18.04</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C115" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D115" s="81"/>
+      <c r="E115" s="82"/>
       <c r="F115" s="31"/>
       <c r="G115" s="32"/>
       <c r="H115" s="32"/>
@@ -15173,21 +15213,27 @@
       <c r="BE115" s="32"/>
       <c r="BF115" s="32"/>
       <c r="BG115" s="32"/>
-      <c r="BH115" s="32"/>
+      <c r="BH115" s="53">
+        <v>0.5</v>
+      </c>
       <c r="BI115" s="32"/>
       <c r="BJ115" s="32"/>
       <c r="BK115" s="32"/>
       <c r="BL115" s="32"/>
       <c r="BM115" s="32"/>
       <c r="BN115" s="32"/>
-      <c r="BO115" s="32"/>
+      <c r="BO115" s="53">
+        <v>0.5</v>
+      </c>
       <c r="BP115" s="32"/>
       <c r="BQ115" s="32"/>
       <c r="BR115" s="32"/>
       <c r="BS115" s="32"/>
       <c r="BT115" s="32"/>
       <c r="BU115" s="32"/>
-      <c r="BV115" s="32"/>
+      <c r="BV115" s="55">
+        <v>0.5</v>
+      </c>
       <c r="BW115" s="32"/>
       <c r="BX115" s="32"/>
       <c r="BY115" s="32"/>
@@ -15218,16 +15264,22 @@
       <c r="CX115" s="33"/>
       <c r="CY115" s="21"/>
     </row>
-    <row r="116" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A116" s="75"/>
+    <row r="116" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A116" s="78" t="s">
+        <v>59</v>
+      </c>
       <c r="B116" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="77"/>
-      <c r="E116" s="78"/>
+        <v>6</v>
+      </c>
+      <c r="C116" s="9">
+        <v>2</v>
+      </c>
+      <c r="D116" s="80">
+        <v>6.04</v>
+      </c>
+      <c r="E116" s="82">
+        <v>4.05</v>
+      </c>
       <c r="F116" s="31"/>
       <c r="G116" s="32"/>
       <c r="H116" s="32"/>
@@ -15286,7 +15338,9 @@
       <c r="BI116" s="32"/>
       <c r="BJ116" s="32"/>
       <c r="BK116" s="32"/>
-      <c r="BL116" s="32"/>
+      <c r="BL116" s="55">
+        <v>2</v>
+      </c>
       <c r="BM116" s="32"/>
       <c r="BN116" s="32"/>
       <c r="BO116" s="32"/>
@@ -15296,7 +15350,9 @@
       <c r="BS116" s="32"/>
       <c r="BT116" s="32"/>
       <c r="BU116" s="32"/>
-      <c r="BV116" s="32"/>
+      <c r="BV116" s="53">
+        <v>0.5</v>
+      </c>
       <c r="BW116" s="32"/>
       <c r="BX116" s="32"/>
       <c r="BY116" s="32"/>
@@ -15327,134 +15383,132 @@
       <c r="CX116" s="33"/>
       <c r="CY116" s="21"/>
     </row>
-    <row r="117" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="19" t="s">
+    <row r="117" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A117" s="79"/>
+      <c r="B117" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" s="40"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
-      <c r="M117" s="41"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="41"/>
-      <c r="P117" s="41"/>
-      <c r="Q117" s="41"/>
-      <c r="R117" s="41"/>
-      <c r="S117" s="41"/>
-      <c r="T117" s="41"/>
-      <c r="U117" s="41"/>
-      <c r="V117" s="41"/>
-      <c r="W117" s="41"/>
-      <c r="X117" s="41"/>
-      <c r="Y117" s="41"/>
-      <c r="Z117" s="41"/>
-      <c r="AA117" s="41"/>
-      <c r="AB117" s="41"/>
-      <c r="AC117" s="41"/>
-      <c r="AD117" s="41"/>
-      <c r="AE117" s="41"/>
-      <c r="AF117" s="41"/>
-      <c r="AG117" s="41"/>
-      <c r="AH117" s="41"/>
-      <c r="AI117" s="41"/>
-      <c r="AJ117" s="41"/>
-      <c r="AK117" s="41"/>
-      <c r="AL117" s="41"/>
-      <c r="AM117" s="41"/>
-      <c r="AN117" s="41"/>
-      <c r="AO117" s="41"/>
-      <c r="AP117" s="41"/>
-      <c r="AQ117" s="41"/>
-      <c r="AR117" s="41"/>
-      <c r="AS117" s="41"/>
-      <c r="AT117" s="41"/>
-      <c r="AU117" s="41"/>
-      <c r="AV117" s="41"/>
-      <c r="AW117" s="41"/>
-      <c r="AX117" s="41"/>
-      <c r="AY117" s="41"/>
-      <c r="AZ117" s="41"/>
-      <c r="BA117" s="41"/>
-      <c r="BB117" s="41"/>
-      <c r="BC117" s="41"/>
-      <c r="BD117" s="41"/>
-      <c r="BE117" s="41"/>
-      <c r="BF117" s="41"/>
-      <c r="BG117" s="41"/>
-      <c r="BH117" s="41"/>
-      <c r="BI117" s="41"/>
-      <c r="BJ117" s="41"/>
-      <c r="BK117" s="41"/>
-      <c r="BL117" s="41"/>
-      <c r="BM117" s="41"/>
-      <c r="BN117" s="41"/>
-      <c r="BO117" s="41"/>
-      <c r="BP117" s="41"/>
-      <c r="BQ117" s="41"/>
-      <c r="BR117" s="41"/>
-      <c r="BS117" s="41"/>
-      <c r="BT117" s="41"/>
-      <c r="BU117" s="41"/>
-      <c r="BV117" s="41"/>
-      <c r="BW117" s="41"/>
-      <c r="BX117" s="41"/>
-      <c r="BY117" s="41"/>
-      <c r="BZ117" s="41"/>
-      <c r="CA117" s="41"/>
-      <c r="CB117" s="41"/>
-      <c r="CC117" s="41"/>
-      <c r="CD117" s="41"/>
-      <c r="CE117" s="41"/>
-      <c r="CF117" s="41"/>
-      <c r="CG117" s="41"/>
-      <c r="CH117" s="41"/>
-      <c r="CI117" s="41"/>
-      <c r="CJ117" s="41"/>
-      <c r="CK117" s="41"/>
-      <c r="CL117" s="41"/>
-      <c r="CM117" s="41"/>
-      <c r="CN117" s="41"/>
-      <c r="CO117" s="41"/>
-      <c r="CP117" s="41"/>
-      <c r="CQ117" s="41"/>
-      <c r="CR117" s="41"/>
-      <c r="CS117" s="41"/>
-      <c r="CT117" s="41"/>
-      <c r="CU117" s="41"/>
-      <c r="CV117" s="41"/>
-      <c r="CW117" s="41"/>
-      <c r="CX117" s="42"/>
+      <c r="C117" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D117" s="83"/>
+      <c r="E117" s="82"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="32"/>
+      <c r="P117" s="32"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="32"/>
+      <c r="S117" s="32"/>
+      <c r="T117" s="32"/>
+      <c r="U117" s="32"/>
+      <c r="V117" s="32"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="32"/>
+      <c r="Z117" s="32"/>
+      <c r="AA117" s="32"/>
+      <c r="AB117" s="32"/>
+      <c r="AC117" s="32"/>
+      <c r="AD117" s="32"/>
+      <c r="AE117" s="32"/>
+      <c r="AF117" s="32"/>
+      <c r="AG117" s="32"/>
+      <c r="AH117" s="32"/>
+      <c r="AI117" s="32"/>
+      <c r="AJ117" s="32"/>
+      <c r="AK117" s="32"/>
+      <c r="AL117" s="32"/>
+      <c r="AM117" s="32"/>
+      <c r="AN117" s="32"/>
+      <c r="AO117" s="32"/>
+      <c r="AP117" s="32"/>
+      <c r="AQ117" s="32"/>
+      <c r="AR117" s="32"/>
+      <c r="AS117" s="32"/>
+      <c r="AT117" s="32"/>
+      <c r="AU117" s="32"/>
+      <c r="AV117" s="32"/>
+      <c r="AW117" s="32"/>
+      <c r="AX117" s="32"/>
+      <c r="AY117" s="32"/>
+      <c r="AZ117" s="32"/>
+      <c r="BA117" s="32"/>
+      <c r="BB117" s="32"/>
+      <c r="BC117" s="32"/>
+      <c r="BD117" s="32"/>
+      <c r="BE117" s="32"/>
+      <c r="BF117" s="32"/>
+      <c r="BG117" s="32"/>
+      <c r="BH117" s="32"/>
+      <c r="BI117" s="32"/>
+      <c r="BJ117" s="32"/>
+      <c r="BK117" s="32"/>
+      <c r="BL117" s="53">
+        <v>2.5</v>
+      </c>
+      <c r="BM117" s="32"/>
+      <c r="BN117" s="32"/>
+      <c r="BO117" s="32"/>
+      <c r="BP117" s="32"/>
+      <c r="BQ117" s="32"/>
+      <c r="BR117" s="32"/>
+      <c r="BS117" s="32"/>
+      <c r="BT117" s="32"/>
+      <c r="BU117" s="32"/>
+      <c r="BV117" s="32"/>
+      <c r="BW117" s="32"/>
+      <c r="BX117" s="32"/>
+      <c r="BY117" s="32"/>
+      <c r="BZ117" s="32"/>
+      <c r="CA117" s="32"/>
+      <c r="CB117" s="32"/>
+      <c r="CC117" s="32"/>
+      <c r="CD117" s="32"/>
+      <c r="CE117" s="32"/>
+      <c r="CF117" s="32"/>
+      <c r="CG117" s="32"/>
+      <c r="CH117" s="32"/>
+      <c r="CI117" s="32"/>
+      <c r="CJ117" s="32"/>
+      <c r="CK117" s="32"/>
+      <c r="CL117" s="32"/>
+      <c r="CM117" s="32"/>
+      <c r="CN117" s="32"/>
+      <c r="CO117" s="32"/>
+      <c r="CP117" s="32"/>
+      <c r="CQ117" s="32"/>
+      <c r="CR117" s="32"/>
+      <c r="CS117" s="32"/>
+      <c r="CT117" s="32"/>
+      <c r="CU117" s="32"/>
+      <c r="CV117" s="32"/>
+      <c r="CW117" s="32"/>
+      <c r="CX117" s="33"/>
       <c r="CY117" s="21"/>
     </row>
-    <row r="118" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A118" s="74"/>
+    <row r="118" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="78" t="s">
+        <v>68</v>
+      </c>
       <c r="B118" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="77">
+      <c r="C118" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D118" s="80">
+        <v>6.04</v>
+      </c>
+      <c r="E118" s="82">
         <v>4.05</v>
-      </c>
-      <c r="E118" s="78">
-        <v>18.04</v>
       </c>
       <c r="F118" s="31"/>
       <c r="G118" s="32"/>
@@ -15514,7 +15568,6 @@
       <c r="BI118" s="32"/>
       <c r="BJ118" s="32"/>
       <c r="BK118" s="32"/>
-      <c r="BL118" s="32"/>
       <c r="BM118" s="32"/>
       <c r="BN118" s="32"/>
       <c r="BO118" s="32"/>
@@ -15523,7 +15576,9 @@
       <c r="BR118" s="32"/>
       <c r="BS118" s="32"/>
       <c r="BT118" s="32"/>
-      <c r="BU118" s="32"/>
+      <c r="BU118" s="55">
+        <v>0.5</v>
+      </c>
       <c r="BV118" s="32"/>
       <c r="BW118" s="32"/>
       <c r="BX118" s="32"/>
@@ -15555,16 +15610,16 @@
       <c r="CX118" s="33"/>
       <c r="CY118" s="21"/>
     </row>
-    <row r="119" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A119" s="75"/>
+    <row r="119" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="79"/>
       <c r="B119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="77"/>
-      <c r="E119" s="78"/>
+      <c r="C119" s="9">
+        <v>3</v>
+      </c>
+      <c r="D119" s="83"/>
+      <c r="E119" s="82"/>
       <c r="F119" s="31"/>
       <c r="G119" s="32"/>
       <c r="H119" s="32"/>
@@ -15623,7 +15678,6 @@
       <c r="BI119" s="32"/>
       <c r="BJ119" s="32"/>
       <c r="BK119" s="32"/>
-      <c r="BL119" s="32"/>
       <c r="BM119" s="32"/>
       <c r="BN119" s="32"/>
       <c r="BO119" s="32"/>
@@ -15632,7 +15686,9 @@
       <c r="BR119" s="32"/>
       <c r="BS119" s="32"/>
       <c r="BT119" s="32"/>
-      <c r="BU119" s="32"/>
+      <c r="BU119" s="53">
+        <v>3</v>
+      </c>
       <c r="BV119" s="32"/>
       <c r="BW119" s="32"/>
       <c r="BX119" s="32"/>
@@ -15664,472 +15720,467 @@
       <c r="CX119" s="33"/>
       <c r="CY119" s="21"/>
     </row>
-    <row r="120" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" s="40"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-      <c r="K120" s="41"/>
-      <c r="L120" s="41"/>
-      <c r="M120" s="41"/>
-      <c r="N120" s="41"/>
-      <c r="O120" s="41"/>
-      <c r="P120" s="41"/>
-      <c r="Q120" s="41"/>
-      <c r="R120" s="41"/>
-      <c r="S120" s="41"/>
-      <c r="T120" s="41"/>
-      <c r="U120" s="41"/>
-      <c r="V120" s="41"/>
-      <c r="W120" s="41"/>
-      <c r="X120" s="41"/>
-      <c r="Y120" s="41"/>
-      <c r="Z120" s="41"/>
-      <c r="AA120" s="41"/>
-      <c r="AB120" s="41"/>
-      <c r="AC120" s="41"/>
-      <c r="AD120" s="41"/>
-      <c r="AE120" s="41"/>
-      <c r="AF120" s="41"/>
-      <c r="AG120" s="41"/>
-      <c r="AH120" s="41"/>
-      <c r="AI120" s="41"/>
-      <c r="AJ120" s="41"/>
-      <c r="AK120" s="41"/>
-      <c r="AL120" s="41"/>
-      <c r="AM120" s="41"/>
-      <c r="AN120" s="41"/>
-      <c r="AO120" s="41"/>
-      <c r="AP120" s="41"/>
-      <c r="AQ120" s="41"/>
-      <c r="AR120" s="41"/>
-      <c r="AS120" s="41"/>
-      <c r="AT120" s="41"/>
-      <c r="AU120" s="41"/>
-      <c r="AV120" s="41"/>
-      <c r="AW120" s="41"/>
-      <c r="AX120" s="41"/>
-      <c r="AY120" s="41"/>
-      <c r="AZ120" s="41"/>
-      <c r="BA120" s="41"/>
-      <c r="BB120" s="41"/>
-      <c r="BC120" s="41"/>
-      <c r="BD120" s="41"/>
-      <c r="BE120" s="41"/>
-      <c r="BF120" s="41"/>
-      <c r="BG120" s="41"/>
-      <c r="BH120" s="41"/>
-      <c r="BI120" s="41"/>
-      <c r="BJ120" s="41"/>
-      <c r="BK120" s="41"/>
-      <c r="BL120" s="41"/>
-      <c r="BM120" s="41"/>
-      <c r="BN120" s="41"/>
-      <c r="BO120" s="41"/>
-      <c r="BP120" s="41"/>
-      <c r="BQ120" s="41"/>
-      <c r="BR120" s="41"/>
-      <c r="BS120" s="41"/>
-      <c r="BT120" s="41"/>
-      <c r="BU120" s="41"/>
-      <c r="BV120" s="41"/>
-      <c r="BW120" s="41"/>
-      <c r="BX120" s="41"/>
-      <c r="BY120" s="41"/>
-      <c r="BZ120" s="41"/>
-      <c r="CA120" s="41"/>
-      <c r="CB120" s="41"/>
-      <c r="CC120" s="41"/>
-      <c r="CD120" s="41"/>
-      <c r="CE120" s="41"/>
-      <c r="CF120" s="41"/>
-      <c r="CG120" s="41"/>
-      <c r="CH120" s="41"/>
-      <c r="CI120" s="41"/>
-      <c r="CJ120" s="41"/>
-      <c r="CK120" s="41"/>
-      <c r="CL120" s="41"/>
-      <c r="CM120" s="41"/>
-      <c r="CN120" s="41"/>
-      <c r="CO120" s="41"/>
-      <c r="CP120" s="41"/>
-      <c r="CQ120" s="41"/>
-      <c r="CR120" s="41"/>
-      <c r="CS120" s="41"/>
-      <c r="CT120" s="41"/>
-      <c r="CU120" s="41"/>
-      <c r="CV120" s="41"/>
-      <c r="CW120" s="41"/>
-      <c r="CX120" s="42"/>
+    <row r="120" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="93">
+        <v>44320</v>
+      </c>
+      <c r="E120" s="95"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="32"/>
+      <c r="K120" s="32"/>
+      <c r="L120" s="32"/>
+      <c r="M120" s="32"/>
+      <c r="N120" s="32"/>
+      <c r="O120" s="32"/>
+      <c r="P120" s="32"/>
+      <c r="Q120" s="32"/>
+      <c r="R120" s="32"/>
+      <c r="S120" s="32"/>
+      <c r="T120" s="32"/>
+      <c r="U120" s="32"/>
+      <c r="V120" s="32"/>
+      <c r="W120" s="32"/>
+      <c r="X120" s="32"/>
+      <c r="Y120" s="32"/>
+      <c r="Z120" s="32"/>
+      <c r="AA120" s="32"/>
+      <c r="AB120" s="32"/>
+      <c r="AC120" s="32"/>
+      <c r="AD120" s="32"/>
+      <c r="AE120" s="32"/>
+      <c r="AF120" s="32"/>
+      <c r="AG120" s="32"/>
+      <c r="AH120" s="32"/>
+      <c r="AI120" s="32"/>
+      <c r="AJ120" s="32"/>
+      <c r="AK120" s="32"/>
+      <c r="AL120" s="32"/>
+      <c r="AM120" s="32"/>
+      <c r="AN120" s="32"/>
+      <c r="AO120" s="32"/>
+      <c r="AP120" s="32"/>
+      <c r="AQ120" s="32"/>
+      <c r="AR120" s="32"/>
+      <c r="AS120" s="32"/>
+      <c r="AT120" s="32"/>
+      <c r="AU120" s="32"/>
+      <c r="AV120" s="32"/>
+      <c r="AW120" s="32"/>
+      <c r="AX120" s="32"/>
+      <c r="AY120" s="32"/>
+      <c r="AZ120" s="32"/>
+      <c r="BA120" s="32"/>
+      <c r="BB120" s="32"/>
+      <c r="BC120" s="32"/>
+      <c r="BE120" s="32"/>
+      <c r="BF120" s="32"/>
+      <c r="BG120" s="32"/>
+      <c r="BH120" s="32"/>
+      <c r="BI120" s="32"/>
+      <c r="BJ120" s="32"/>
+      <c r="BK120" s="32"/>
+      <c r="BL120" s="48"/>
+      <c r="BM120" s="32"/>
+      <c r="BN120" s="32"/>
+      <c r="BO120" s="32"/>
+      <c r="BP120" s="32"/>
+      <c r="BQ120" s="32"/>
+      <c r="BR120" s="32"/>
+      <c r="BS120" s="32"/>
+      <c r="BT120" s="32"/>
+      <c r="BU120" s="32"/>
+      <c r="BV120" s="32"/>
+      <c r="BW120" s="32"/>
+      <c r="BX120" s="32"/>
+      <c r="BY120" s="32"/>
+      <c r="BZ120" s="32"/>
+      <c r="CA120" s="32"/>
+      <c r="CB120" s="32"/>
+      <c r="CC120" s="32"/>
+      <c r="CD120" s="32"/>
+      <c r="CE120" s="32"/>
+      <c r="CF120" s="32"/>
+      <c r="CG120" s="32"/>
+      <c r="CH120" s="32"/>
+      <c r="CI120" s="32"/>
+      <c r="CJ120" s="32"/>
+      <c r="CK120" s="32"/>
+      <c r="CL120" s="32"/>
+      <c r="CM120" s="32"/>
+      <c r="CN120" s="32"/>
+      <c r="CO120" s="32"/>
+      <c r="CP120" s="32"/>
+      <c r="CQ120" s="32"/>
+      <c r="CR120" s="32"/>
+      <c r="CS120" s="32"/>
+      <c r="CT120" s="32"/>
+      <c r="CU120" s="32"/>
+      <c r="CV120" s="32"/>
+      <c r="CW120" s="32"/>
+      <c r="CX120" s="33"/>
       <c r="CY120" s="21"/>
     </row>
-    <row r="121" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A121" s="74"/>
-      <c r="B121" s="7" t="s">
+    <row r="121" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" s="77">
-        <v>4.05</v>
-      </c>
-      <c r="E121" s="78">
-        <v>18.04</v>
-      </c>
-      <c r="F121" s="31"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="32"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="32"/>
-      <c r="L121" s="32"/>
-      <c r="M121" s="32"/>
-      <c r="N121" s="32"/>
-      <c r="O121" s="32"/>
-      <c r="P121" s="32"/>
-      <c r="Q121" s="32"/>
-      <c r="R121" s="32"/>
-      <c r="S121" s="32"/>
-      <c r="T121" s="32"/>
-      <c r="U121" s="32"/>
-      <c r="V121" s="32"/>
-      <c r="W121" s="32"/>
-      <c r="X121" s="32"/>
-      <c r="Y121" s="32"/>
-      <c r="Z121" s="32"/>
-      <c r="AA121" s="32"/>
-      <c r="AB121" s="32"/>
-      <c r="AC121" s="32"/>
-      <c r="AD121" s="32"/>
-      <c r="AE121" s="32"/>
-      <c r="AF121" s="32"/>
-      <c r="AG121" s="32"/>
-      <c r="AH121" s="32"/>
-      <c r="AI121" s="32"/>
-      <c r="AJ121" s="32"/>
-      <c r="AK121" s="32"/>
-      <c r="AL121" s="32"/>
-      <c r="AM121" s="32"/>
-      <c r="AN121" s="32"/>
-      <c r="AO121" s="32"/>
-      <c r="AP121" s="32"/>
-      <c r="AQ121" s="32"/>
-      <c r="AR121" s="32"/>
-      <c r="AS121" s="32"/>
-      <c r="AT121" s="32"/>
-      <c r="AU121" s="32"/>
-      <c r="AV121" s="32"/>
-      <c r="AW121" s="32"/>
-      <c r="AX121" s="32"/>
-      <c r="AY121" s="32"/>
-      <c r="AZ121" s="32"/>
-      <c r="BA121" s="32"/>
-      <c r="BB121" s="32"/>
-      <c r="BC121" s="32"/>
-      <c r="BD121" s="32"/>
-      <c r="BE121" s="32"/>
-      <c r="BF121" s="32"/>
-      <c r="BG121" s="32"/>
-      <c r="BH121" s="32"/>
-      <c r="BI121" s="32"/>
-      <c r="BJ121" s="32"/>
-      <c r="BK121" s="32"/>
-      <c r="BL121" s="32"/>
-      <c r="BM121" s="32"/>
-      <c r="BN121" s="32"/>
-      <c r="BO121" s="32"/>
-      <c r="BP121" s="32"/>
-      <c r="BQ121" s="32"/>
-      <c r="BR121" s="32"/>
-      <c r="BS121" s="32"/>
-      <c r="BT121" s="32"/>
-      <c r="BU121" s="32"/>
-      <c r="BV121" s="32"/>
-      <c r="BW121" s="32"/>
-      <c r="BX121" s="32"/>
-      <c r="BY121" s="32"/>
-      <c r="BZ121" s="32"/>
-      <c r="CA121" s="32"/>
-      <c r="CB121" s="32"/>
-      <c r="CC121" s="32"/>
-      <c r="CD121" s="32"/>
-      <c r="CE121" s="32"/>
-      <c r="CF121" s="32"/>
-      <c r="CG121" s="32"/>
-      <c r="CH121" s="32"/>
-      <c r="CI121" s="32"/>
-      <c r="CJ121" s="32"/>
-      <c r="CK121" s="32"/>
-      <c r="CL121" s="32"/>
-      <c r="CM121" s="32"/>
-      <c r="CN121" s="32"/>
-      <c r="CO121" s="32"/>
-      <c r="CP121" s="32"/>
-      <c r="CQ121" s="32"/>
-      <c r="CR121" s="32"/>
-      <c r="CS121" s="32"/>
-      <c r="CT121" s="32"/>
-      <c r="CU121" s="32"/>
-      <c r="CV121" s="32"/>
-      <c r="CW121" s="32"/>
-      <c r="CX121" s="33"/>
+      <c r="C121" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="44"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="45"/>
+      <c r="K121" s="45"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="45"/>
+      <c r="N121" s="45"/>
+      <c r="O121" s="45"/>
+      <c r="P121" s="45"/>
+      <c r="Q121" s="45"/>
+      <c r="R121" s="45"/>
+      <c r="S121" s="45"/>
+      <c r="T121" s="45"/>
+      <c r="U121" s="45"/>
+      <c r="V121" s="45"/>
+      <c r="W121" s="45"/>
+      <c r="X121" s="45"/>
+      <c r="Y121" s="45"/>
+      <c r="Z121" s="45"/>
+      <c r="AA121" s="45"/>
+      <c r="AB121" s="45"/>
+      <c r="AC121" s="45"/>
+      <c r="AD121" s="45"/>
+      <c r="AE121" s="45"/>
+      <c r="AF121" s="45"/>
+      <c r="AG121" s="45"/>
+      <c r="AH121" s="45"/>
+      <c r="AI121" s="45"/>
+      <c r="AJ121" s="45"/>
+      <c r="AK121" s="45"/>
+      <c r="AL121" s="45"/>
+      <c r="AM121" s="45"/>
+      <c r="AN121" s="45"/>
+      <c r="AO121" s="45"/>
+      <c r="AP121" s="45"/>
+      <c r="AQ121" s="45"/>
+      <c r="AR121" s="45"/>
+      <c r="AS121" s="45"/>
+      <c r="AT121" s="45"/>
+      <c r="AU121" s="45"/>
+      <c r="AV121" s="45"/>
+      <c r="AW121" s="45"/>
+      <c r="AX121" s="45"/>
+      <c r="AY121" s="45"/>
+      <c r="AZ121" s="45"/>
+      <c r="BA121" s="45"/>
+      <c r="BB121" s="45"/>
+      <c r="BC121" s="45"/>
+      <c r="BD121" s="45"/>
+      <c r="BE121" s="45"/>
+      <c r="BF121" s="45"/>
+      <c r="BG121" s="45"/>
+      <c r="BH121" s="45"/>
+      <c r="BI121" s="45"/>
+      <c r="BJ121" s="45"/>
+      <c r="BK121" s="45"/>
+      <c r="BL121" s="45"/>
+      <c r="BM121" s="45"/>
+      <c r="BN121" s="45"/>
+      <c r="BO121" s="45"/>
+      <c r="BP121" s="45"/>
+      <c r="BQ121" s="45"/>
+      <c r="BR121" s="45"/>
+      <c r="BS121" s="45"/>
+      <c r="BT121" s="45"/>
+      <c r="BU121" s="45"/>
+      <c r="BV121" s="45"/>
+      <c r="BW121" s="45"/>
+      <c r="BX121" s="45"/>
+      <c r="BY121" s="45"/>
+      <c r="BZ121" s="45"/>
+      <c r="CA121" s="45"/>
+      <c r="CB121" s="45"/>
+      <c r="CC121" s="45"/>
+      <c r="CD121" s="45"/>
+      <c r="CE121" s="45"/>
+      <c r="CF121" s="45"/>
+      <c r="CG121" s="45"/>
+      <c r="CH121" s="45"/>
+      <c r="CI121" s="45"/>
+      <c r="CJ121" s="45"/>
+      <c r="CK121" s="45"/>
+      <c r="CL121" s="45"/>
+      <c r="CM121" s="45"/>
+      <c r="CN121" s="45"/>
+      <c r="CO121" s="45"/>
+      <c r="CP121" s="45"/>
+      <c r="CQ121" s="45"/>
+      <c r="CR121" s="45"/>
+      <c r="CS121" s="45"/>
+      <c r="CT121" s="45"/>
+      <c r="CU121" s="45"/>
+      <c r="CV121" s="45"/>
+      <c r="CW121" s="45"/>
+      <c r="CX121" s="46"/>
       <c r="CY121" s="21"/>
     </row>
-    <row r="122" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A122" s="75"/>
-      <c r="B122" s="7" t="s">
+    <row r="122" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A122" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="77"/>
-      <c r="E122" s="78"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
-      <c r="J122" s="32"/>
-      <c r="K122" s="32"/>
-      <c r="L122" s="32"/>
-      <c r="M122" s="32"/>
-      <c r="N122" s="32"/>
-      <c r="O122" s="32"/>
-      <c r="P122" s="32"/>
-      <c r="Q122" s="32"/>
-      <c r="R122" s="32"/>
-      <c r="S122" s="32"/>
-      <c r="T122" s="32"/>
-      <c r="U122" s="32"/>
-      <c r="V122" s="32"/>
-      <c r="W122" s="32"/>
-      <c r="X122" s="32"/>
-      <c r="Y122" s="32"/>
-      <c r="Z122" s="32"/>
-      <c r="AA122" s="32"/>
-      <c r="AB122" s="32"/>
-      <c r="AC122" s="32"/>
-      <c r="AD122" s="32"/>
-      <c r="AE122" s="32"/>
-      <c r="AF122" s="32"/>
-      <c r="AG122" s="32"/>
-      <c r="AH122" s="32"/>
-      <c r="AI122" s="32"/>
-      <c r="AJ122" s="32"/>
-      <c r="AK122" s="32"/>
-      <c r="AL122" s="32"/>
-      <c r="AM122" s="32"/>
-      <c r="AN122" s="32"/>
-      <c r="AO122" s="32"/>
-      <c r="AP122" s="32"/>
-      <c r="AQ122" s="32"/>
-      <c r="AR122" s="32"/>
-      <c r="AS122" s="32"/>
-      <c r="AT122" s="32"/>
-      <c r="AU122" s="32"/>
-      <c r="AV122" s="32"/>
-      <c r="AW122" s="32"/>
-      <c r="AX122" s="32"/>
-      <c r="AY122" s="32"/>
-      <c r="AZ122" s="32"/>
-      <c r="BA122" s="32"/>
-      <c r="BB122" s="32"/>
-      <c r="BC122" s="32"/>
-      <c r="BD122" s="32"/>
-      <c r="BE122" s="32"/>
-      <c r="BF122" s="32"/>
-      <c r="BG122" s="32"/>
-      <c r="BH122" s="32"/>
-      <c r="BI122" s="32"/>
-      <c r="BJ122" s="32"/>
-      <c r="BK122" s="32"/>
-      <c r="BL122" s="32"/>
-      <c r="BM122" s="32"/>
-      <c r="BN122" s="32"/>
-      <c r="BO122" s="32"/>
-      <c r="BP122" s="32"/>
-      <c r="BQ122" s="32"/>
-      <c r="BR122" s="32"/>
-      <c r="BS122" s="32"/>
-      <c r="BT122" s="32"/>
-      <c r="BU122" s="32"/>
-      <c r="BV122" s="32"/>
-      <c r="BW122" s="32"/>
-      <c r="BX122" s="32"/>
-      <c r="BY122" s="32"/>
-      <c r="BZ122" s="32"/>
-      <c r="CA122" s="32"/>
-      <c r="CB122" s="32"/>
-      <c r="CC122" s="32"/>
-      <c r="CD122" s="32"/>
-      <c r="CE122" s="32"/>
-      <c r="CF122" s="32"/>
-      <c r="CG122" s="32"/>
-      <c r="CH122" s="32"/>
-      <c r="CI122" s="32"/>
-      <c r="CJ122" s="32"/>
-      <c r="CK122" s="32"/>
-      <c r="CL122" s="32"/>
-      <c r="CM122" s="32"/>
-      <c r="CN122" s="32"/>
-      <c r="CO122" s="32"/>
-      <c r="CP122" s="32"/>
-      <c r="CQ122" s="32"/>
-      <c r="CR122" s="32"/>
-      <c r="CS122" s="32"/>
-      <c r="CT122" s="32"/>
-      <c r="CU122" s="32"/>
-      <c r="CV122" s="32"/>
-      <c r="CW122" s="32"/>
-      <c r="CX122" s="33"/>
+      <c r="E122" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="40"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="41"/>
+      <c r="L122" s="41"/>
+      <c r="M122" s="41"/>
+      <c r="N122" s="41"/>
+      <c r="O122" s="41"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="41"/>
+      <c r="R122" s="41"/>
+      <c r="S122" s="41"/>
+      <c r="T122" s="41"/>
+      <c r="U122" s="41"/>
+      <c r="V122" s="41"/>
+      <c r="W122" s="41"/>
+      <c r="X122" s="41"/>
+      <c r="Y122" s="41"/>
+      <c r="Z122" s="41"/>
+      <c r="AA122" s="41"/>
+      <c r="AB122" s="41"/>
+      <c r="AC122" s="41"/>
+      <c r="AD122" s="41"/>
+      <c r="AE122" s="41"/>
+      <c r="AF122" s="41"/>
+      <c r="AG122" s="41"/>
+      <c r="AH122" s="41"/>
+      <c r="AI122" s="41"/>
+      <c r="AJ122" s="41"/>
+      <c r="AK122" s="41"/>
+      <c r="AL122" s="41"/>
+      <c r="AM122" s="41"/>
+      <c r="AN122" s="41"/>
+      <c r="AO122" s="41"/>
+      <c r="AP122" s="41"/>
+      <c r="AQ122" s="41"/>
+      <c r="AR122" s="41"/>
+      <c r="AS122" s="41"/>
+      <c r="AT122" s="41"/>
+      <c r="AU122" s="41"/>
+      <c r="AV122" s="41"/>
+      <c r="AW122" s="41"/>
+      <c r="AX122" s="41"/>
+      <c r="AY122" s="41"/>
+      <c r="AZ122" s="41"/>
+      <c r="BA122" s="41"/>
+      <c r="BB122" s="41"/>
+      <c r="BC122" s="41"/>
+      <c r="BD122" s="41"/>
+      <c r="BE122" s="41"/>
+      <c r="BF122" s="41"/>
+      <c r="BG122" s="41"/>
+      <c r="BH122" s="41"/>
+      <c r="BI122" s="41"/>
+      <c r="BJ122" s="41"/>
+      <c r="BK122" s="41"/>
+      <c r="BL122" s="41"/>
+      <c r="BM122" s="41"/>
+      <c r="BN122" s="41"/>
+      <c r="BO122" s="41"/>
+      <c r="BP122" s="41"/>
+      <c r="BQ122" s="41"/>
+      <c r="BR122" s="41"/>
+      <c r="BS122" s="41"/>
+      <c r="BT122" s="41"/>
+      <c r="BU122" s="41"/>
+      <c r="BV122" s="41"/>
+      <c r="BW122" s="41"/>
+      <c r="BX122" s="41"/>
+      <c r="BY122" s="41"/>
+      <c r="BZ122" s="41"/>
+      <c r="CA122" s="41"/>
+      <c r="CB122" s="41"/>
+      <c r="CC122" s="41"/>
+      <c r="CD122" s="41"/>
+      <c r="CE122" s="41"/>
+      <c r="CF122" s="41"/>
+      <c r="CG122" s="41"/>
+      <c r="CH122" s="41"/>
+      <c r="CI122" s="41"/>
+      <c r="CJ122" s="41"/>
+      <c r="CK122" s="41"/>
+      <c r="CL122" s="41"/>
+      <c r="CM122" s="41"/>
+      <c r="CN122" s="41"/>
+      <c r="CO122" s="41"/>
+      <c r="CP122" s="41"/>
+      <c r="CQ122" s="41"/>
+      <c r="CR122" s="41"/>
+      <c r="CS122" s="41"/>
+      <c r="CT122" s="41"/>
+      <c r="CU122" s="41"/>
+      <c r="CV122" s="41"/>
+      <c r="CW122" s="41"/>
+      <c r="CX122" s="42"/>
       <c r="CY122" s="21"/>
     </row>
-    <row r="123" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="40"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-      <c r="K123" s="41"/>
-      <c r="L123" s="41"/>
-      <c r="M123" s="41"/>
-      <c r="N123" s="41"/>
-      <c r="O123" s="41"/>
-      <c r="P123" s="41"/>
-      <c r="Q123" s="41"/>
-      <c r="R123" s="41"/>
-      <c r="S123" s="41"/>
-      <c r="T123" s="41"/>
-      <c r="U123" s="41"/>
-      <c r="V123" s="41"/>
-      <c r="W123" s="41"/>
-      <c r="X123" s="41"/>
-      <c r="Y123" s="41"/>
-      <c r="Z123" s="41"/>
-      <c r="AA123" s="41"/>
-      <c r="AB123" s="41"/>
-      <c r="AC123" s="41"/>
-      <c r="AD123" s="41"/>
-      <c r="AE123" s="41"/>
-      <c r="AF123" s="41"/>
-      <c r="AG123" s="41"/>
-      <c r="AH123" s="41"/>
-      <c r="AI123" s="41"/>
-      <c r="AJ123" s="41"/>
-      <c r="AK123" s="41"/>
-      <c r="AL123" s="41"/>
-      <c r="AM123" s="41"/>
-      <c r="AN123" s="41"/>
-      <c r="AO123" s="41"/>
-      <c r="AP123" s="41"/>
-      <c r="AQ123" s="41"/>
-      <c r="AR123" s="41"/>
-      <c r="AS123" s="41"/>
-      <c r="AT123" s="41"/>
-      <c r="AU123" s="41"/>
-      <c r="AV123" s="41"/>
-      <c r="AW123" s="41"/>
-      <c r="AX123" s="41"/>
-      <c r="AY123" s="41"/>
-      <c r="AZ123" s="41"/>
-      <c r="BA123" s="41"/>
-      <c r="BB123" s="41"/>
-      <c r="BC123" s="41"/>
-      <c r="BD123" s="41"/>
-      <c r="BE123" s="41"/>
-      <c r="BF123" s="41"/>
-      <c r="BG123" s="41"/>
-      <c r="BH123" s="41"/>
-      <c r="BI123" s="41"/>
-      <c r="BJ123" s="41"/>
-      <c r="BK123" s="41"/>
-      <c r="BL123" s="41"/>
-      <c r="BM123" s="41"/>
-      <c r="BN123" s="41"/>
-      <c r="BO123" s="41"/>
-      <c r="BP123" s="41"/>
-      <c r="BQ123" s="41"/>
-      <c r="BR123" s="41"/>
-      <c r="BS123" s="41"/>
-      <c r="BT123" s="41"/>
-      <c r="BU123" s="41"/>
-      <c r="BV123" s="41"/>
-      <c r="BW123" s="41"/>
-      <c r="BX123" s="41"/>
-      <c r="BY123" s="41"/>
-      <c r="BZ123" s="41"/>
-      <c r="CA123" s="41"/>
-      <c r="CB123" s="41"/>
-      <c r="CC123" s="41"/>
-      <c r="CD123" s="41"/>
-      <c r="CE123" s="41"/>
-      <c r="CF123" s="41"/>
-      <c r="CG123" s="41"/>
-      <c r="CH123" s="41"/>
-      <c r="CI123" s="41"/>
-      <c r="CJ123" s="41"/>
-      <c r="CK123" s="41"/>
-      <c r="CL123" s="41"/>
-      <c r="CM123" s="41"/>
-      <c r="CN123" s="41"/>
-      <c r="CO123" s="41"/>
-      <c r="CP123" s="41"/>
-      <c r="CQ123" s="41"/>
-      <c r="CR123" s="41"/>
-      <c r="CS123" s="41"/>
-      <c r="CT123" s="41"/>
-      <c r="CU123" s="41"/>
-      <c r="CV123" s="41"/>
-      <c r="CW123" s="41"/>
-      <c r="CX123" s="42"/>
+    <row r="123" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A123" s="78"/>
+      <c r="B123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="83">
+        <v>4.05</v>
+      </c>
+      <c r="E123" s="82">
+        <v>18.04</v>
+      </c>
+      <c r="F123" s="31"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="32"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="32"/>
+      <c r="O123" s="32"/>
+      <c r="P123" s="32"/>
+      <c r="Q123" s="32"/>
+      <c r="R123" s="32"/>
+      <c r="S123" s="32"/>
+      <c r="T123" s="32"/>
+      <c r="U123" s="32"/>
+      <c r="V123" s="32"/>
+      <c r="W123" s="32"/>
+      <c r="X123" s="32"/>
+      <c r="Y123" s="32"/>
+      <c r="Z123" s="32"/>
+      <c r="AA123" s="32"/>
+      <c r="AB123" s="32"/>
+      <c r="AC123" s="32"/>
+      <c r="AD123" s="32"/>
+      <c r="AE123" s="32"/>
+      <c r="AF123" s="32"/>
+      <c r="AG123" s="32"/>
+      <c r="AH123" s="32"/>
+      <c r="AI123" s="32"/>
+      <c r="AJ123" s="32"/>
+      <c r="AK123" s="32"/>
+      <c r="AL123" s="32"/>
+      <c r="AM123" s="32"/>
+      <c r="AN123" s="32"/>
+      <c r="AO123" s="32"/>
+      <c r="AP123" s="32"/>
+      <c r="AQ123" s="32"/>
+      <c r="AR123" s="32"/>
+      <c r="AS123" s="32"/>
+      <c r="AT123" s="32"/>
+      <c r="AU123" s="32"/>
+      <c r="AV123" s="32"/>
+      <c r="AW123" s="32"/>
+      <c r="AX123" s="32"/>
+      <c r="AY123" s="32"/>
+      <c r="AZ123" s="32"/>
+      <c r="BA123" s="32"/>
+      <c r="BB123" s="32"/>
+      <c r="BC123" s="32"/>
+      <c r="BD123" s="32"/>
+      <c r="BE123" s="32"/>
+      <c r="BF123" s="32"/>
+      <c r="BG123" s="32"/>
+      <c r="BH123" s="32"/>
+      <c r="BI123" s="32"/>
+      <c r="BJ123" s="32"/>
+      <c r="BK123" s="32"/>
+      <c r="BL123" s="32"/>
+      <c r="BM123" s="32"/>
+      <c r="BN123" s="32"/>
+      <c r="BO123" s="32"/>
+      <c r="BP123" s="32"/>
+      <c r="BQ123" s="32"/>
+      <c r="BR123" s="32"/>
+      <c r="BS123" s="32"/>
+      <c r="BT123" s="32"/>
+      <c r="BU123" s="32"/>
+      <c r="BV123" s="32"/>
+      <c r="BW123" s="32"/>
+      <c r="BX123" s="32"/>
+      <c r="BY123" s="32"/>
+      <c r="BZ123" s="32"/>
+      <c r="CA123" s="32"/>
+      <c r="CB123" s="32"/>
+      <c r="CC123" s="32"/>
+      <c r="CD123" s="32"/>
+      <c r="CE123" s="32"/>
+      <c r="CF123" s="32"/>
+      <c r="CG123" s="32"/>
+      <c r="CH123" s="32"/>
+      <c r="CI123" s="32"/>
+      <c r="CJ123" s="32"/>
+      <c r="CK123" s="32"/>
+      <c r="CL123" s="32"/>
+      <c r="CM123" s="32"/>
+      <c r="CN123" s="32"/>
+      <c r="CO123" s="32"/>
+      <c r="CP123" s="32"/>
+      <c r="CQ123" s="32"/>
+      <c r="CR123" s="32"/>
+      <c r="CS123" s="32"/>
+      <c r="CT123" s="32"/>
+      <c r="CU123" s="32"/>
+      <c r="CV123" s="32"/>
+      <c r="CW123" s="32"/>
+      <c r="CX123" s="33"/>
       <c r="CY123" s="21"/>
     </row>
-    <row r="124" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A124" s="74"/>
+    <row r="124" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A124" s="79"/>
       <c r="B124" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="77">
-        <v>4.05</v>
-      </c>
-      <c r="E124" s="78">
-        <v>18.04</v>
-      </c>
+      <c r="D124" s="83"/>
+      <c r="E124" s="82"/>
       <c r="F124" s="31"/>
       <c r="G124" s="32"/>
       <c r="H124" s="32"/>
@@ -16229,244 +16280,244 @@
       <c r="CX124" s="33"/>
       <c r="CY124" s="21"/>
     </row>
-    <row r="125" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A125" s="75"/>
-      <c r="B125" s="7" t="s">
+    <row r="125" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" s="77"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="32"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="32"/>
-      <c r="L125" s="32"/>
-      <c r="M125" s="32"/>
-      <c r="N125" s="32"/>
-      <c r="O125" s="32"/>
-      <c r="P125" s="32"/>
-      <c r="Q125" s="32"/>
-      <c r="R125" s="32"/>
-      <c r="S125" s="32"/>
-      <c r="T125" s="32"/>
-      <c r="U125" s="32"/>
-      <c r="V125" s="32"/>
-      <c r="W125" s="32"/>
-      <c r="X125" s="32"/>
-      <c r="Y125" s="32"/>
-      <c r="Z125" s="32"/>
-      <c r="AA125" s="32"/>
-      <c r="AB125" s="32"/>
-      <c r="AC125" s="32"/>
-      <c r="AD125" s="32"/>
-      <c r="AE125" s="32"/>
-      <c r="AF125" s="32"/>
-      <c r="AG125" s="32"/>
-      <c r="AH125" s="32"/>
-      <c r="AI125" s="32"/>
-      <c r="AJ125" s="32"/>
-      <c r="AK125" s="32"/>
-      <c r="AL125" s="32"/>
-      <c r="AM125" s="32"/>
-      <c r="AN125" s="32"/>
-      <c r="AO125" s="32"/>
-      <c r="AP125" s="32"/>
-      <c r="AQ125" s="32"/>
-      <c r="AR125" s="32"/>
-      <c r="AS125" s="32"/>
-      <c r="AT125" s="32"/>
-      <c r="AU125" s="32"/>
-      <c r="AV125" s="32"/>
-      <c r="AW125" s="32"/>
-      <c r="AX125" s="32"/>
-      <c r="AY125" s="32"/>
-      <c r="AZ125" s="32"/>
-      <c r="BA125" s="32"/>
-      <c r="BB125" s="32"/>
-      <c r="BC125" s="32"/>
-      <c r="BD125" s="32"/>
-      <c r="BE125" s="32"/>
-      <c r="BF125" s="32"/>
-      <c r="BG125" s="32"/>
-      <c r="BH125" s="32"/>
-      <c r="BI125" s="32"/>
-      <c r="BJ125" s="32"/>
-      <c r="BK125" s="32"/>
-      <c r="BL125" s="32"/>
-      <c r="BM125" s="32"/>
-      <c r="BN125" s="32"/>
-      <c r="BO125" s="32"/>
-      <c r="BP125" s="32"/>
-      <c r="BQ125" s="32"/>
-      <c r="BR125" s="32"/>
-      <c r="BS125" s="32"/>
-      <c r="BT125" s="32"/>
-      <c r="BU125" s="32"/>
-      <c r="BV125" s="32"/>
-      <c r="BW125" s="32"/>
-      <c r="BX125" s="32"/>
-      <c r="BY125" s="32"/>
-      <c r="BZ125" s="32"/>
-      <c r="CA125" s="32"/>
-      <c r="CB125" s="32"/>
-      <c r="CC125" s="32"/>
-      <c r="CD125" s="32"/>
-      <c r="CE125" s="32"/>
-      <c r="CF125" s="32"/>
-      <c r="CG125" s="32"/>
-      <c r="CH125" s="32"/>
-      <c r="CI125" s="32"/>
-      <c r="CJ125" s="32"/>
-      <c r="CK125" s="32"/>
-      <c r="CL125" s="32"/>
-      <c r="CM125" s="32"/>
-      <c r="CN125" s="32"/>
-      <c r="CO125" s="32"/>
-      <c r="CP125" s="32"/>
-      <c r="CQ125" s="32"/>
-      <c r="CR125" s="32"/>
-      <c r="CS125" s="32"/>
-      <c r="CT125" s="32"/>
-      <c r="CU125" s="32"/>
-      <c r="CV125" s="32"/>
-      <c r="CW125" s="32"/>
-      <c r="CX125" s="33"/>
+      <c r="E125" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="40"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="41"/>
+      <c r="L125" s="41"/>
+      <c r="M125" s="41"/>
+      <c r="N125" s="41"/>
+      <c r="O125" s="41"/>
+      <c r="P125" s="41"/>
+      <c r="Q125" s="41"/>
+      <c r="R125" s="41"/>
+      <c r="S125" s="41"/>
+      <c r="T125" s="41"/>
+      <c r="U125" s="41"/>
+      <c r="V125" s="41"/>
+      <c r="W125" s="41"/>
+      <c r="X125" s="41"/>
+      <c r="Y125" s="41"/>
+      <c r="Z125" s="41"/>
+      <c r="AA125" s="41"/>
+      <c r="AB125" s="41"/>
+      <c r="AC125" s="41"/>
+      <c r="AD125" s="41"/>
+      <c r="AE125" s="41"/>
+      <c r="AF125" s="41"/>
+      <c r="AG125" s="41"/>
+      <c r="AH125" s="41"/>
+      <c r="AI125" s="41"/>
+      <c r="AJ125" s="41"/>
+      <c r="AK125" s="41"/>
+      <c r="AL125" s="41"/>
+      <c r="AM125" s="41"/>
+      <c r="AN125" s="41"/>
+      <c r="AO125" s="41"/>
+      <c r="AP125" s="41"/>
+      <c r="AQ125" s="41"/>
+      <c r="AR125" s="41"/>
+      <c r="AS125" s="41"/>
+      <c r="AT125" s="41"/>
+      <c r="AU125" s="41"/>
+      <c r="AV125" s="41"/>
+      <c r="AW125" s="41"/>
+      <c r="AX125" s="41"/>
+      <c r="AY125" s="41"/>
+      <c r="AZ125" s="41"/>
+      <c r="BA125" s="41"/>
+      <c r="BB125" s="41"/>
+      <c r="BC125" s="41"/>
+      <c r="BD125" s="41"/>
+      <c r="BE125" s="41"/>
+      <c r="BF125" s="41"/>
+      <c r="BG125" s="41"/>
+      <c r="BH125" s="41"/>
+      <c r="BI125" s="41"/>
+      <c r="BJ125" s="41"/>
+      <c r="BK125" s="41"/>
+      <c r="BL125" s="41"/>
+      <c r="BM125" s="41"/>
+      <c r="BN125" s="41"/>
+      <c r="BO125" s="41"/>
+      <c r="BP125" s="41"/>
+      <c r="BQ125" s="41"/>
+      <c r="BR125" s="41"/>
+      <c r="BS125" s="41"/>
+      <c r="BT125" s="41"/>
+      <c r="BU125" s="41"/>
+      <c r="BV125" s="41"/>
+      <c r="BW125" s="41"/>
+      <c r="BX125" s="41"/>
+      <c r="BY125" s="41"/>
+      <c r="BZ125" s="41"/>
+      <c r="CA125" s="41"/>
+      <c r="CB125" s="41"/>
+      <c r="CC125" s="41"/>
+      <c r="CD125" s="41"/>
+      <c r="CE125" s="41"/>
+      <c r="CF125" s="41"/>
+      <c r="CG125" s="41"/>
+      <c r="CH125" s="41"/>
+      <c r="CI125" s="41"/>
+      <c r="CJ125" s="41"/>
+      <c r="CK125" s="41"/>
+      <c r="CL125" s="41"/>
+      <c r="CM125" s="41"/>
+      <c r="CN125" s="41"/>
+      <c r="CO125" s="41"/>
+      <c r="CP125" s="41"/>
+      <c r="CQ125" s="41"/>
+      <c r="CR125" s="41"/>
+      <c r="CS125" s="41"/>
+      <c r="CT125" s="41"/>
+      <c r="CU125" s="41"/>
+      <c r="CV125" s="41"/>
+      <c r="CW125" s="41"/>
+      <c r="CX125" s="42"/>
       <c r="CY125" s="21"/>
     </row>
-    <row r="126" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="40"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-      <c r="K126" s="41"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="41"/>
-      <c r="N126" s="41"/>
-      <c r="O126" s="41"/>
-      <c r="P126" s="41"/>
-      <c r="Q126" s="41"/>
-      <c r="R126" s="41"/>
-      <c r="S126" s="41"/>
-      <c r="T126" s="41"/>
-      <c r="U126" s="41"/>
-      <c r="V126" s="41"/>
-      <c r="W126" s="41"/>
-      <c r="X126" s="41"/>
-      <c r="Y126" s="41"/>
-      <c r="Z126" s="41"/>
-      <c r="AA126" s="41"/>
-      <c r="AB126" s="41"/>
-      <c r="AC126" s="41"/>
-      <c r="AD126" s="41"/>
-      <c r="AE126" s="41"/>
-      <c r="AF126" s="41"/>
-      <c r="AG126" s="41"/>
-      <c r="AH126" s="41"/>
-      <c r="AI126" s="41"/>
-      <c r="AJ126" s="41"/>
-      <c r="AK126" s="41"/>
-      <c r="AL126" s="41"/>
-      <c r="AM126" s="41"/>
-      <c r="AN126" s="41"/>
-      <c r="AO126" s="41"/>
-      <c r="AP126" s="41"/>
-      <c r="AQ126" s="41"/>
-      <c r="AR126" s="41"/>
-      <c r="AS126" s="41"/>
-      <c r="AT126" s="41"/>
-      <c r="AU126" s="41"/>
-      <c r="AV126" s="41"/>
-      <c r="AW126" s="41"/>
-      <c r="AX126" s="41"/>
-      <c r="AY126" s="41"/>
-      <c r="AZ126" s="41"/>
-      <c r="BA126" s="41"/>
-      <c r="BB126" s="41"/>
-      <c r="BC126" s="41"/>
-      <c r="BD126" s="41"/>
-      <c r="BE126" s="41"/>
-      <c r="BF126" s="41"/>
-      <c r="BG126" s="41"/>
-      <c r="BH126" s="41"/>
-      <c r="BI126" s="41"/>
-      <c r="BJ126" s="41"/>
-      <c r="BK126" s="41"/>
-      <c r="BL126" s="41"/>
-      <c r="BM126" s="41"/>
-      <c r="BN126" s="41"/>
-      <c r="BO126" s="41"/>
-      <c r="BP126" s="41"/>
-      <c r="BQ126" s="41"/>
-      <c r="BR126" s="41"/>
-      <c r="BS126" s="41"/>
-      <c r="BT126" s="41"/>
-      <c r="BU126" s="41"/>
-      <c r="BV126" s="41"/>
-      <c r="BW126" s="41"/>
-      <c r="BX126" s="41"/>
-      <c r="BY126" s="41"/>
-      <c r="BZ126" s="41"/>
-      <c r="CA126" s="41"/>
-      <c r="CB126" s="41"/>
-      <c r="CC126" s="41"/>
-      <c r="CD126" s="41"/>
-      <c r="CE126" s="41"/>
-      <c r="CF126" s="41"/>
-      <c r="CG126" s="41"/>
-      <c r="CH126" s="41"/>
-      <c r="CI126" s="41"/>
-      <c r="CJ126" s="41"/>
-      <c r="CK126" s="41"/>
-      <c r="CL126" s="41"/>
-      <c r="CM126" s="41"/>
-      <c r="CN126" s="41"/>
-      <c r="CO126" s="41"/>
-      <c r="CP126" s="41"/>
-      <c r="CQ126" s="41"/>
-      <c r="CR126" s="41"/>
-      <c r="CS126" s="41"/>
-      <c r="CT126" s="41"/>
-      <c r="CU126" s="41"/>
-      <c r="CV126" s="41"/>
-      <c r="CW126" s="41"/>
-      <c r="CX126" s="42"/>
+    <row r="126" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A126" s="78"/>
+      <c r="B126" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="83">
+        <v>4.05</v>
+      </c>
+      <c r="E126" s="82">
+        <v>18.04</v>
+      </c>
+      <c r="F126" s="31"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="32"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="32"/>
+      <c r="P126" s="32"/>
+      <c r="Q126" s="32"/>
+      <c r="R126" s="32"/>
+      <c r="S126" s="32"/>
+      <c r="T126" s="32"/>
+      <c r="U126" s="32"/>
+      <c r="V126" s="32"/>
+      <c r="W126" s="32"/>
+      <c r="X126" s="32"/>
+      <c r="Y126" s="32"/>
+      <c r="Z126" s="32"/>
+      <c r="AA126" s="32"/>
+      <c r="AB126" s="32"/>
+      <c r="AC126" s="32"/>
+      <c r="AD126" s="32"/>
+      <c r="AE126" s="32"/>
+      <c r="AF126" s="32"/>
+      <c r="AG126" s="32"/>
+      <c r="AH126" s="32"/>
+      <c r="AI126" s="32"/>
+      <c r="AJ126" s="32"/>
+      <c r="AK126" s="32"/>
+      <c r="AL126" s="32"/>
+      <c r="AM126" s="32"/>
+      <c r="AN126" s="32"/>
+      <c r="AO126" s="32"/>
+      <c r="AP126" s="32"/>
+      <c r="AQ126" s="32"/>
+      <c r="AR126" s="32"/>
+      <c r="AS126" s="32"/>
+      <c r="AT126" s="32"/>
+      <c r="AU126" s="32"/>
+      <c r="AV126" s="32"/>
+      <c r="AW126" s="32"/>
+      <c r="AX126" s="32"/>
+      <c r="AY126" s="32"/>
+      <c r="AZ126" s="32"/>
+      <c r="BA126" s="32"/>
+      <c r="BB126" s="32"/>
+      <c r="BC126" s="32"/>
+      <c r="BD126" s="32"/>
+      <c r="BE126" s="32"/>
+      <c r="BF126" s="32"/>
+      <c r="BG126" s="32"/>
+      <c r="BH126" s="32"/>
+      <c r="BI126" s="32"/>
+      <c r="BJ126" s="32"/>
+      <c r="BK126" s="32"/>
+      <c r="BL126" s="32"/>
+      <c r="BM126" s="32"/>
+      <c r="BN126" s="32"/>
+      <c r="BO126" s="32"/>
+      <c r="BP126" s="32"/>
+      <c r="BQ126" s="32"/>
+      <c r="BR126" s="32"/>
+      <c r="BS126" s="32"/>
+      <c r="BT126" s="32"/>
+      <c r="BU126" s="32"/>
+      <c r="BV126" s="32"/>
+      <c r="BW126" s="32"/>
+      <c r="BX126" s="32"/>
+      <c r="BY126" s="32"/>
+      <c r="BZ126" s="32"/>
+      <c r="CA126" s="32"/>
+      <c r="CB126" s="32"/>
+      <c r="CC126" s="32"/>
+      <c r="CD126" s="32"/>
+      <c r="CE126" s="32"/>
+      <c r="CF126" s="32"/>
+      <c r="CG126" s="32"/>
+      <c r="CH126" s="32"/>
+      <c r="CI126" s="32"/>
+      <c r="CJ126" s="32"/>
+      <c r="CK126" s="32"/>
+      <c r="CL126" s="32"/>
+      <c r="CM126" s="32"/>
+      <c r="CN126" s="32"/>
+      <c r="CO126" s="32"/>
+      <c r="CP126" s="32"/>
+      <c r="CQ126" s="32"/>
+      <c r="CR126" s="32"/>
+      <c r="CS126" s="32"/>
+      <c r="CT126" s="32"/>
+      <c r="CU126" s="32"/>
+      <c r="CV126" s="32"/>
+      <c r="CW126" s="32"/>
+      <c r="CX126" s="33"/>
       <c r="CY126" s="21"/>
     </row>
-    <row r="127" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A127" s="74"/>
+    <row r="127" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A127" s="79"/>
       <c r="B127" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="77">
-        <v>4.05</v>
-      </c>
-      <c r="E127" s="78">
-        <v>18.04</v>
-      </c>
+      <c r="D127" s="83"/>
+      <c r="E127" s="82"/>
       <c r="F127" s="31"/>
       <c r="G127" s="32"/>
       <c r="H127" s="32"/>
@@ -16566,125 +16617,135 @@
       <c r="CX127" s="33"/>
       <c r="CY127" s="21"/>
     </row>
-    <row r="128" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A128" s="75"/>
-      <c r="B128" s="7" t="s">
+    <row r="128" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="77"/>
-      <c r="E128" s="78"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="32"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="32"/>
-      <c r="M128" s="32"/>
-      <c r="N128" s="32"/>
-      <c r="O128" s="32"/>
-      <c r="P128" s="32"/>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="32"/>
-      <c r="S128" s="32"/>
-      <c r="T128" s="32"/>
-      <c r="U128" s="32"/>
-      <c r="V128" s="32"/>
-      <c r="W128" s="32"/>
-      <c r="X128" s="32"/>
-      <c r="Y128" s="32"/>
-      <c r="Z128" s="32"/>
-      <c r="AA128" s="32"/>
-      <c r="AB128" s="32"/>
-      <c r="AC128" s="32"/>
-      <c r="AD128" s="32"/>
-      <c r="AE128" s="32"/>
-      <c r="AF128" s="32"/>
-      <c r="AG128" s="32"/>
-      <c r="AH128" s="32"/>
-      <c r="AI128" s="32"/>
-      <c r="AJ128" s="32"/>
-      <c r="AK128" s="32"/>
-      <c r="AL128" s="32"/>
-      <c r="AM128" s="32"/>
-      <c r="AN128" s="32"/>
-      <c r="AO128" s="32"/>
-      <c r="AP128" s="32"/>
-      <c r="AQ128" s="32"/>
-      <c r="AR128" s="32"/>
-      <c r="AS128" s="32"/>
-      <c r="AT128" s="32"/>
-      <c r="AU128" s="32"/>
-      <c r="AV128" s="32"/>
-      <c r="AW128" s="32"/>
-      <c r="AX128" s="32"/>
-      <c r="AY128" s="32"/>
-      <c r="AZ128" s="32"/>
-      <c r="BA128" s="32"/>
-      <c r="BB128" s="32"/>
-      <c r="BC128" s="32"/>
-      <c r="BD128" s="32"/>
-      <c r="BE128" s="32"/>
-      <c r="BF128" s="32"/>
-      <c r="BG128" s="32"/>
-      <c r="BH128" s="32"/>
-      <c r="BI128" s="32"/>
-      <c r="BJ128" s="32"/>
-      <c r="BK128" s="32"/>
-      <c r="BL128" s="32"/>
-      <c r="BM128" s="32"/>
-      <c r="BN128" s="32"/>
-      <c r="BO128" s="32"/>
-      <c r="BP128" s="32"/>
-      <c r="BQ128" s="32"/>
-      <c r="BR128" s="32"/>
-      <c r="BS128" s="32"/>
-      <c r="BT128" s="32"/>
-      <c r="BU128" s="32"/>
-      <c r="BV128" s="32"/>
-      <c r="BW128" s="32"/>
-      <c r="BX128" s="32"/>
-      <c r="BY128" s="32"/>
-      <c r="BZ128" s="32"/>
-      <c r="CA128" s="32"/>
-      <c r="CB128" s="32"/>
-      <c r="CC128" s="32"/>
-      <c r="CD128" s="32"/>
-      <c r="CE128" s="32"/>
-      <c r="CF128" s="32"/>
-      <c r="CG128" s="32"/>
-      <c r="CH128" s="32"/>
-      <c r="CI128" s="32"/>
-      <c r="CJ128" s="32"/>
-      <c r="CK128" s="32"/>
-      <c r="CL128" s="32"/>
-      <c r="CM128" s="32"/>
-      <c r="CN128" s="32"/>
-      <c r="CO128" s="32"/>
-      <c r="CP128" s="32"/>
-      <c r="CQ128" s="32"/>
-      <c r="CR128" s="32"/>
-      <c r="CS128" s="32"/>
-      <c r="CT128" s="32"/>
-      <c r="CU128" s="32"/>
-      <c r="CV128" s="32"/>
-      <c r="CW128" s="32"/>
-      <c r="CX128" s="33"/>
+      <c r="E128" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="40"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="41"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="41"/>
+      <c r="N128" s="41"/>
+      <c r="O128" s="41"/>
+      <c r="P128" s="41"/>
+      <c r="Q128" s="41"/>
+      <c r="R128" s="41"/>
+      <c r="S128" s="41"/>
+      <c r="T128" s="41"/>
+      <c r="U128" s="41"/>
+      <c r="V128" s="41"/>
+      <c r="W128" s="41"/>
+      <c r="X128" s="41"/>
+      <c r="Y128" s="41"/>
+      <c r="Z128" s="41"/>
+      <c r="AA128" s="41"/>
+      <c r="AB128" s="41"/>
+      <c r="AC128" s="41"/>
+      <c r="AD128" s="41"/>
+      <c r="AE128" s="41"/>
+      <c r="AF128" s="41"/>
+      <c r="AG128" s="41"/>
+      <c r="AH128" s="41"/>
+      <c r="AI128" s="41"/>
+      <c r="AJ128" s="41"/>
+      <c r="AK128" s="41"/>
+      <c r="AL128" s="41"/>
+      <c r="AM128" s="41"/>
+      <c r="AN128" s="41"/>
+      <c r="AO128" s="41"/>
+      <c r="AP128" s="41"/>
+      <c r="AQ128" s="41"/>
+      <c r="AR128" s="41"/>
+      <c r="AS128" s="41"/>
+      <c r="AT128" s="41"/>
+      <c r="AU128" s="41"/>
+      <c r="AV128" s="41"/>
+      <c r="AW128" s="41"/>
+      <c r="AX128" s="41"/>
+      <c r="AY128" s="41"/>
+      <c r="AZ128" s="41"/>
+      <c r="BA128" s="41"/>
+      <c r="BB128" s="41"/>
+      <c r="BC128" s="41"/>
+      <c r="BD128" s="41"/>
+      <c r="BE128" s="41"/>
+      <c r="BF128" s="41"/>
+      <c r="BG128" s="41"/>
+      <c r="BH128" s="41"/>
+      <c r="BI128" s="41"/>
+      <c r="BJ128" s="41"/>
+      <c r="BK128" s="41"/>
+      <c r="BL128" s="41"/>
+      <c r="BM128" s="41"/>
+      <c r="BN128" s="41"/>
+      <c r="BO128" s="41"/>
+      <c r="BP128" s="41"/>
+      <c r="BQ128" s="41"/>
+      <c r="BR128" s="41"/>
+      <c r="BS128" s="41"/>
+      <c r="BT128" s="41"/>
+      <c r="BU128" s="41"/>
+      <c r="BV128" s="41"/>
+      <c r="BW128" s="41"/>
+      <c r="BX128" s="41"/>
+      <c r="BY128" s="41"/>
+      <c r="BZ128" s="41"/>
+      <c r="CA128" s="41"/>
+      <c r="CB128" s="41"/>
+      <c r="CC128" s="41"/>
+      <c r="CD128" s="41"/>
+      <c r="CE128" s="41"/>
+      <c r="CF128" s="41"/>
+      <c r="CG128" s="41"/>
+      <c r="CH128" s="41"/>
+      <c r="CI128" s="41"/>
+      <c r="CJ128" s="41"/>
+      <c r="CK128" s="41"/>
+      <c r="CL128" s="41"/>
+      <c r="CM128" s="41"/>
+      <c r="CN128" s="41"/>
+      <c r="CO128" s="41"/>
+      <c r="CP128" s="41"/>
+      <c r="CQ128" s="41"/>
+      <c r="CR128" s="41"/>
+      <c r="CS128" s="41"/>
+      <c r="CT128" s="41"/>
+      <c r="CU128" s="41"/>
+      <c r="CV128" s="41"/>
+      <c r="CW128" s="41"/>
+      <c r="CX128" s="42"/>
       <c r="CY128" s="21"/>
     </row>
-    <row r="129" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A129" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="85">
-        <v>44334</v>
-      </c>
-      <c r="E129" s="86"/>
+    <row r="129" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A129" s="78"/>
+      <c r="B129" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="83">
+        <v>4.05</v>
+      </c>
+      <c r="E129" s="82">
+        <v>18.04</v>
+      </c>
       <c r="F129" s="31"/>
       <c r="G129" s="32"/>
       <c r="H129" s="32"/>
@@ -16784,124 +16845,118 @@
       <c r="CX129" s="33"/>
       <c r="CY129" s="21"/>
     </row>
-    <row r="130" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A130" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" s="18" t="s">
+    <row r="130" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A130" s="79"/>
+      <c r="B130" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" s="44"/>
-      <c r="G130" s="45"/>
-      <c r="H130" s="45"/>
-      <c r="I130" s="45"/>
-      <c r="J130" s="45"/>
-      <c r="K130" s="45"/>
-      <c r="L130" s="45"/>
-      <c r="M130" s="45"/>
-      <c r="N130" s="45"/>
-      <c r="O130" s="45"/>
-      <c r="P130" s="45"/>
-      <c r="Q130" s="45"/>
-      <c r="R130" s="45"/>
-      <c r="S130" s="45"/>
-      <c r="T130" s="45"/>
-      <c r="U130" s="45"/>
-      <c r="V130" s="45"/>
-      <c r="W130" s="45"/>
-      <c r="X130" s="45"/>
-      <c r="Y130" s="45"/>
-      <c r="Z130" s="45"/>
-      <c r="AA130" s="45"/>
-      <c r="AB130" s="45"/>
-      <c r="AC130" s="45"/>
-      <c r="AD130" s="45"/>
-      <c r="AE130" s="45"/>
-      <c r="AF130" s="45"/>
-      <c r="AG130" s="45"/>
-      <c r="AH130" s="45"/>
-      <c r="AI130" s="45"/>
-      <c r="AJ130" s="45"/>
-      <c r="AK130" s="45"/>
-      <c r="AL130" s="45"/>
-      <c r="AM130" s="45"/>
-      <c r="AN130" s="45"/>
-      <c r="AO130" s="45"/>
-      <c r="AP130" s="45"/>
-      <c r="AQ130" s="45"/>
-      <c r="AR130" s="45"/>
-      <c r="AS130" s="45"/>
-      <c r="AT130" s="45"/>
-      <c r="AU130" s="45"/>
-      <c r="AV130" s="45"/>
-      <c r="AW130" s="45"/>
-      <c r="AX130" s="45"/>
-      <c r="AY130" s="45"/>
-      <c r="AZ130" s="45"/>
-      <c r="BA130" s="45"/>
-      <c r="BB130" s="45"/>
-      <c r="BC130" s="45"/>
-      <c r="BD130" s="45"/>
-      <c r="BE130" s="45"/>
-      <c r="BF130" s="45"/>
-      <c r="BG130" s="45"/>
-      <c r="BH130" s="45"/>
-      <c r="BI130" s="45"/>
-      <c r="BJ130" s="45"/>
-      <c r="BK130" s="45"/>
-      <c r="BL130" s="45"/>
-      <c r="BM130" s="45"/>
-      <c r="BN130" s="45"/>
-      <c r="BO130" s="45"/>
-      <c r="BP130" s="45"/>
-      <c r="BQ130" s="45"/>
-      <c r="BR130" s="45"/>
-      <c r="BS130" s="45"/>
-      <c r="BT130" s="45"/>
-      <c r="BU130" s="45"/>
-      <c r="BV130" s="45"/>
-      <c r="BW130" s="45"/>
-      <c r="BX130" s="45"/>
-      <c r="BY130" s="45"/>
-      <c r="BZ130" s="45"/>
-      <c r="CA130" s="45"/>
-      <c r="CB130" s="45"/>
-      <c r="CC130" s="45"/>
-      <c r="CD130" s="45"/>
-      <c r="CE130" s="45"/>
-      <c r="CF130" s="45"/>
-      <c r="CG130" s="45"/>
-      <c r="CH130" s="45"/>
-      <c r="CI130" s="45"/>
-      <c r="CJ130" s="45"/>
-      <c r="CK130" s="45"/>
-      <c r="CL130" s="45"/>
-      <c r="CM130" s="45"/>
-      <c r="CN130" s="45"/>
-      <c r="CO130" s="45"/>
-      <c r="CP130" s="45"/>
-      <c r="CQ130" s="45"/>
-      <c r="CR130" s="45"/>
-      <c r="CS130" s="45"/>
-      <c r="CT130" s="45"/>
-      <c r="CU130" s="45"/>
-      <c r="CV130" s="45"/>
-      <c r="CW130" s="45"/>
-      <c r="CX130" s="46"/>
+      <c r="C130" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="83"/>
+      <c r="E130" s="82"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
+      <c r="P130" s="32"/>
+      <c r="Q130" s="32"/>
+      <c r="R130" s="32"/>
+      <c r="S130" s="32"/>
+      <c r="T130" s="32"/>
+      <c r="U130" s="32"/>
+      <c r="V130" s="32"/>
+      <c r="W130" s="32"/>
+      <c r="X130" s="32"/>
+      <c r="Y130" s="32"/>
+      <c r="Z130" s="32"/>
+      <c r="AA130" s="32"/>
+      <c r="AB130" s="32"/>
+      <c r="AC130" s="32"/>
+      <c r="AD130" s="32"/>
+      <c r="AE130" s="32"/>
+      <c r="AF130" s="32"/>
+      <c r="AG130" s="32"/>
+      <c r="AH130" s="32"/>
+      <c r="AI130" s="32"/>
+      <c r="AJ130" s="32"/>
+      <c r="AK130" s="32"/>
+      <c r="AL130" s="32"/>
+      <c r="AM130" s="32"/>
+      <c r="AN130" s="32"/>
+      <c r="AO130" s="32"/>
+      <c r="AP130" s="32"/>
+      <c r="AQ130" s="32"/>
+      <c r="AR130" s="32"/>
+      <c r="AS130" s="32"/>
+      <c r="AT130" s="32"/>
+      <c r="AU130" s="32"/>
+      <c r="AV130" s="32"/>
+      <c r="AW130" s="32"/>
+      <c r="AX130" s="32"/>
+      <c r="AY130" s="32"/>
+      <c r="AZ130" s="32"/>
+      <c r="BA130" s="32"/>
+      <c r="BB130" s="32"/>
+      <c r="BC130" s="32"/>
+      <c r="BD130" s="32"/>
+      <c r="BE130" s="32"/>
+      <c r="BF130" s="32"/>
+      <c r="BG130" s="32"/>
+      <c r="BH130" s="32"/>
+      <c r="BI130" s="32"/>
+      <c r="BJ130" s="32"/>
+      <c r="BK130" s="32"/>
+      <c r="BL130" s="32"/>
+      <c r="BM130" s="32"/>
+      <c r="BN130" s="32"/>
+      <c r="BO130" s="32"/>
+      <c r="BP130" s="32"/>
+      <c r="BQ130" s="32"/>
+      <c r="BR130" s="32"/>
+      <c r="BS130" s="32"/>
+      <c r="BT130" s="32"/>
+      <c r="BU130" s="32"/>
+      <c r="BV130" s="32"/>
+      <c r="BW130" s="32"/>
+      <c r="BX130" s="32"/>
+      <c r="BY130" s="32"/>
+      <c r="BZ130" s="32"/>
+      <c r="CA130" s="32"/>
+      <c r="CB130" s="32"/>
+      <c r="CC130" s="32"/>
+      <c r="CD130" s="32"/>
+      <c r="CE130" s="32"/>
+      <c r="CF130" s="32"/>
+      <c r="CG130" s="32"/>
+      <c r="CH130" s="32"/>
+      <c r="CI130" s="32"/>
+      <c r="CJ130" s="32"/>
+      <c r="CK130" s="32"/>
+      <c r="CL130" s="32"/>
+      <c r="CM130" s="32"/>
+      <c r="CN130" s="32"/>
+      <c r="CO130" s="32"/>
+      <c r="CP130" s="32"/>
+      <c r="CQ130" s="32"/>
+      <c r="CR130" s="32"/>
+      <c r="CS130" s="32"/>
+      <c r="CT130" s="32"/>
+      <c r="CU130" s="32"/>
+      <c r="CV130" s="32"/>
+      <c r="CW130" s="32"/>
+      <c r="CX130" s="33"/>
       <c r="CY130" s="21"/>
     </row>
-    <row r="131" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>9</v>
@@ -17014,19 +17069,19 @@
       <c r="CX131" s="42"/>
       <c r="CY131" s="21"/>
     </row>
-    <row r="132" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A132" s="74"/>
+    <row r="132" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A132" s="78"/>
       <c r="B132" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="77">
+      <c r="D132" s="83">
+        <v>4.05</v>
+      </c>
+      <c r="E132" s="82">
         <v>18.04</v>
-      </c>
-      <c r="E132" s="78">
-        <v>25.04</v>
       </c>
       <c r="F132" s="31"/>
       <c r="G132" s="32"/>
@@ -17127,16 +17182,16 @@
       <c r="CX132" s="33"/>
       <c r="CY132" s="21"/>
     </row>
-    <row r="133" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A133" s="75"/>
+    <row r="133" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A133" s="79"/>
       <c r="B133" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="77"/>
-      <c r="E133" s="78"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="82"/>
       <c r="F133" s="31"/>
       <c r="G133" s="32"/>
       <c r="H133" s="32"/>
@@ -17236,9 +17291,9 @@
       <c r="CX133" s="33"/>
       <c r="CY133" s="21"/>
     </row>
-    <row r="134" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:103" x14ac:dyDescent="0.45">
       <c r="A134" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>9</v>
@@ -17351,19 +17406,19 @@
       <c r="CX134" s="42"/>
       <c r="CY134" s="21"/>
     </row>
-    <row r="135" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A135" s="74"/>
+    <row r="135" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A135" s="78"/>
       <c r="B135" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="77">
+      <c r="D135" s="83">
+        <v>4.05</v>
+      </c>
+      <c r="E135" s="82">
         <v>18.04</v>
-      </c>
-      <c r="E135" s="78">
-        <v>25.04</v>
       </c>
       <c r="F135" s="31"/>
       <c r="G135" s="32"/>
@@ -17464,16 +17519,16 @@
       <c r="CX135" s="33"/>
       <c r="CY135" s="21"/>
     </row>
-    <row r="136" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A136" s="75"/>
+    <row r="136" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A136" s="79"/>
       <c r="B136" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="77"/>
-      <c r="E136" s="78"/>
+      <c r="D136" s="83"/>
+      <c r="E136" s="82"/>
       <c r="F136" s="31"/>
       <c r="G136" s="32"/>
       <c r="H136" s="32"/>
@@ -17573,471 +17628,468 @@
       <c r="CX136" s="33"/>
       <c r="CY136" s="21"/>
     </row>
-    <row r="137" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="40"/>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
-      <c r="K137" s="41"/>
-      <c r="L137" s="41"/>
-      <c r="M137" s="41"/>
-      <c r="N137" s="41"/>
-      <c r="O137" s="41"/>
-      <c r="P137" s="41"/>
-      <c r="Q137" s="41"/>
-      <c r="R137" s="41"/>
-      <c r="S137" s="41"/>
-      <c r="T137" s="41"/>
-      <c r="U137" s="41"/>
-      <c r="V137" s="41"/>
-      <c r="W137" s="41"/>
-      <c r="X137" s="41"/>
-      <c r="Y137" s="41"/>
-      <c r="Z137" s="41"/>
-      <c r="AA137" s="41"/>
-      <c r="AB137" s="41"/>
-      <c r="AC137" s="41"/>
-      <c r="AD137" s="41"/>
-      <c r="AE137" s="41"/>
-      <c r="AF137" s="41"/>
-      <c r="AG137" s="41"/>
-      <c r="AH137" s="41"/>
-      <c r="AI137" s="41"/>
-      <c r="AJ137" s="41"/>
-      <c r="AK137" s="41"/>
-      <c r="AL137" s="41"/>
-      <c r="AM137" s="41"/>
-      <c r="AN137" s="41"/>
-      <c r="AO137" s="41"/>
-      <c r="AP137" s="41"/>
-      <c r="AQ137" s="41"/>
-      <c r="AR137" s="41"/>
-      <c r="AS137" s="41"/>
-      <c r="AT137" s="41"/>
-      <c r="AU137" s="41"/>
-      <c r="AV137" s="41"/>
-      <c r="AW137" s="41"/>
-      <c r="AX137" s="41"/>
-      <c r="AY137" s="41"/>
-      <c r="AZ137" s="41"/>
-      <c r="BA137" s="41"/>
-      <c r="BB137" s="41"/>
-      <c r="BC137" s="41"/>
-      <c r="BD137" s="41"/>
-      <c r="BE137" s="41"/>
-      <c r="BF137" s="41"/>
-      <c r="BG137" s="41"/>
-      <c r="BH137" s="41"/>
-      <c r="BI137" s="41"/>
-      <c r="BJ137" s="41"/>
-      <c r="BK137" s="41"/>
-      <c r="BL137" s="41"/>
-      <c r="BM137" s="41"/>
-      <c r="BN137" s="41"/>
-      <c r="BO137" s="41"/>
-      <c r="BP137" s="41"/>
-      <c r="BQ137" s="41"/>
-      <c r="BR137" s="41"/>
-      <c r="BS137" s="41"/>
-      <c r="BT137" s="41"/>
-      <c r="BU137" s="41"/>
-      <c r="BV137" s="41"/>
-      <c r="BW137" s="41"/>
-      <c r="BX137" s="41"/>
-      <c r="BY137" s="41"/>
-      <c r="BZ137" s="41"/>
-      <c r="CA137" s="41"/>
-      <c r="CB137" s="41"/>
-      <c r="CC137" s="41"/>
-      <c r="CD137" s="41"/>
-      <c r="CE137" s="41"/>
-      <c r="CF137" s="41"/>
-      <c r="CG137" s="41"/>
-      <c r="CH137" s="41"/>
-      <c r="CI137" s="41"/>
-      <c r="CJ137" s="41"/>
-      <c r="CK137" s="41"/>
-      <c r="CL137" s="41"/>
-      <c r="CM137" s="41"/>
-      <c r="CN137" s="41"/>
-      <c r="CO137" s="41"/>
-      <c r="CP137" s="41"/>
-      <c r="CQ137" s="41"/>
-      <c r="CR137" s="41"/>
-      <c r="CS137" s="41"/>
-      <c r="CT137" s="41"/>
-      <c r="CU137" s="41"/>
-      <c r="CV137" s="41"/>
-      <c r="CW137" s="41"/>
-      <c r="CX137" s="42"/>
+    <row r="137" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A137" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="74">
+        <v>44334</v>
+      </c>
+      <c r="E137" s="75"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
+      <c r="L137" s="32"/>
+      <c r="M137" s="32"/>
+      <c r="N137" s="32"/>
+      <c r="O137" s="32"/>
+      <c r="P137" s="32"/>
+      <c r="Q137" s="32"/>
+      <c r="R137" s="32"/>
+      <c r="S137" s="32"/>
+      <c r="T137" s="32"/>
+      <c r="U137" s="32"/>
+      <c r="V137" s="32"/>
+      <c r="W137" s="32"/>
+      <c r="X137" s="32"/>
+      <c r="Y137" s="32"/>
+      <c r="Z137" s="32"/>
+      <c r="AA137" s="32"/>
+      <c r="AB137" s="32"/>
+      <c r="AC137" s="32"/>
+      <c r="AD137" s="32"/>
+      <c r="AE137" s="32"/>
+      <c r="AF137" s="32"/>
+      <c r="AG137" s="32"/>
+      <c r="AH137" s="32"/>
+      <c r="AI137" s="32"/>
+      <c r="AJ137" s="32"/>
+      <c r="AK137" s="32"/>
+      <c r="AL137" s="32"/>
+      <c r="AM137" s="32"/>
+      <c r="AN137" s="32"/>
+      <c r="AO137" s="32"/>
+      <c r="AP137" s="32"/>
+      <c r="AQ137" s="32"/>
+      <c r="AR137" s="32"/>
+      <c r="AS137" s="32"/>
+      <c r="AT137" s="32"/>
+      <c r="AU137" s="32"/>
+      <c r="AV137" s="32"/>
+      <c r="AW137" s="32"/>
+      <c r="AX137" s="32"/>
+      <c r="AY137" s="32"/>
+      <c r="AZ137" s="32"/>
+      <c r="BA137" s="32"/>
+      <c r="BB137" s="32"/>
+      <c r="BC137" s="32"/>
+      <c r="BD137" s="32"/>
+      <c r="BE137" s="32"/>
+      <c r="BF137" s="32"/>
+      <c r="BG137" s="32"/>
+      <c r="BH137" s="32"/>
+      <c r="BI137" s="32"/>
+      <c r="BJ137" s="32"/>
+      <c r="BK137" s="32"/>
+      <c r="BL137" s="32"/>
+      <c r="BM137" s="32"/>
+      <c r="BN137" s="32"/>
+      <c r="BO137" s="32"/>
+      <c r="BP137" s="32"/>
+      <c r="BQ137" s="32"/>
+      <c r="BR137" s="32"/>
+      <c r="BS137" s="32"/>
+      <c r="BT137" s="32"/>
+      <c r="BU137" s="32"/>
+      <c r="BV137" s="32"/>
+      <c r="BW137" s="32"/>
+      <c r="BX137" s="32"/>
+      <c r="BY137" s="32"/>
+      <c r="BZ137" s="32"/>
+      <c r="CA137" s="32"/>
+      <c r="CB137" s="32"/>
+      <c r="CC137" s="32"/>
+      <c r="CD137" s="32"/>
+      <c r="CE137" s="32"/>
+      <c r="CF137" s="32"/>
+      <c r="CG137" s="32"/>
+      <c r="CH137" s="32"/>
+      <c r="CI137" s="32"/>
+      <c r="CJ137" s="32"/>
+      <c r="CK137" s="32"/>
+      <c r="CL137" s="32"/>
+      <c r="CM137" s="32"/>
+      <c r="CN137" s="32"/>
+      <c r="CO137" s="32"/>
+      <c r="CP137" s="32"/>
+      <c r="CQ137" s="32"/>
+      <c r="CR137" s="32"/>
+      <c r="CS137" s="32"/>
+      <c r="CT137" s="32"/>
+      <c r="CU137" s="32"/>
+      <c r="CV137" s="32"/>
+      <c r="CW137" s="32"/>
+      <c r="CX137" s="33"/>
       <c r="CY137" s="21"/>
     </row>
-    <row r="138" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A138" s="74"/>
-      <c r="B138" s="7" t="s">
+    <row r="138" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A138" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="77">
-        <v>18.04</v>
-      </c>
-      <c r="E138" s="78">
-        <v>25.04</v>
-      </c>
-      <c r="F138" s="31"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="32"/>
-      <c r="I138" s="32"/>
-      <c r="J138" s="32"/>
-      <c r="K138" s="32"/>
-      <c r="L138" s="32"/>
-      <c r="M138" s="32"/>
-      <c r="N138" s="32"/>
-      <c r="O138" s="32"/>
-      <c r="P138" s="32"/>
-      <c r="Q138" s="32"/>
-      <c r="R138" s="32"/>
-      <c r="S138" s="32"/>
-      <c r="T138" s="32"/>
-      <c r="U138" s="32"/>
-      <c r="V138" s="32"/>
-      <c r="W138" s="32"/>
-      <c r="X138" s="32"/>
-      <c r="Y138" s="32"/>
-      <c r="Z138" s="32"/>
-      <c r="AA138" s="32"/>
-      <c r="AB138" s="32"/>
-      <c r="AC138" s="32"/>
-      <c r="AD138" s="32"/>
-      <c r="AE138" s="32"/>
-      <c r="AF138" s="32"/>
-      <c r="AG138" s="32"/>
-      <c r="AH138" s="32"/>
-      <c r="AI138" s="32"/>
-      <c r="AJ138" s="32"/>
-      <c r="AK138" s="32"/>
-      <c r="AL138" s="32"/>
-      <c r="AM138" s="32"/>
-      <c r="AN138" s="32"/>
-      <c r="AO138" s="32"/>
-      <c r="AP138" s="32"/>
-      <c r="AQ138" s="32"/>
-      <c r="AR138" s="32"/>
-      <c r="AS138" s="32"/>
-      <c r="AT138" s="32"/>
-      <c r="AU138" s="32"/>
-      <c r="AV138" s="32"/>
-      <c r="AW138" s="32"/>
-      <c r="AX138" s="32"/>
-      <c r="AY138" s="32"/>
-      <c r="AZ138" s="32"/>
-      <c r="BA138" s="32"/>
-      <c r="BB138" s="32"/>
-      <c r="BC138" s="32"/>
-      <c r="BD138" s="32"/>
-      <c r="BE138" s="32"/>
-      <c r="BF138" s="32"/>
-      <c r="BG138" s="32"/>
-      <c r="BH138" s="32"/>
-      <c r="BI138" s="32"/>
-      <c r="BJ138" s="32"/>
-      <c r="BK138" s="32"/>
-      <c r="BL138" s="32"/>
-      <c r="BM138" s="32"/>
-      <c r="BN138" s="32"/>
-      <c r="BO138" s="32"/>
-      <c r="BP138" s="32"/>
-      <c r="BQ138" s="32"/>
-      <c r="BR138" s="32"/>
-      <c r="BS138" s="32"/>
-      <c r="BT138" s="32"/>
-      <c r="BU138" s="32"/>
-      <c r="BV138" s="32"/>
-      <c r="BW138" s="32"/>
-      <c r="BX138" s="32"/>
-      <c r="BY138" s="32"/>
-      <c r="BZ138" s="32"/>
-      <c r="CA138" s="32"/>
-      <c r="CB138" s="32"/>
-      <c r="CC138" s="32"/>
-      <c r="CD138" s="32"/>
-      <c r="CE138" s="32"/>
-      <c r="CF138" s="32"/>
-      <c r="CG138" s="32"/>
-      <c r="CH138" s="32"/>
-      <c r="CI138" s="32"/>
-      <c r="CJ138" s="32"/>
-      <c r="CK138" s="32"/>
-      <c r="CL138" s="32"/>
-      <c r="CM138" s="32"/>
-      <c r="CN138" s="32"/>
-      <c r="CO138" s="32"/>
-      <c r="CP138" s="32"/>
-      <c r="CQ138" s="32"/>
-      <c r="CR138" s="32"/>
-      <c r="CS138" s="32"/>
-      <c r="CT138" s="32"/>
-      <c r="CU138" s="32"/>
-      <c r="CV138" s="32"/>
-      <c r="CW138" s="32"/>
-      <c r="CX138" s="33"/>
+      <c r="C138" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" s="44"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="45"/>
+      <c r="J138" s="45"/>
+      <c r="K138" s="45"/>
+      <c r="L138" s="45"/>
+      <c r="M138" s="45"/>
+      <c r="N138" s="45"/>
+      <c r="O138" s="45"/>
+      <c r="P138" s="45"/>
+      <c r="Q138" s="45"/>
+      <c r="R138" s="45"/>
+      <c r="S138" s="45"/>
+      <c r="T138" s="45"/>
+      <c r="U138" s="45"/>
+      <c r="V138" s="45"/>
+      <c r="W138" s="45"/>
+      <c r="X138" s="45"/>
+      <c r="Y138" s="45"/>
+      <c r="Z138" s="45"/>
+      <c r="AA138" s="45"/>
+      <c r="AB138" s="45"/>
+      <c r="AC138" s="45"/>
+      <c r="AD138" s="45"/>
+      <c r="AE138" s="45"/>
+      <c r="AF138" s="45"/>
+      <c r="AG138" s="45"/>
+      <c r="AH138" s="45"/>
+      <c r="AI138" s="45"/>
+      <c r="AJ138" s="45"/>
+      <c r="AK138" s="45"/>
+      <c r="AL138" s="45"/>
+      <c r="AM138" s="45"/>
+      <c r="AN138" s="45"/>
+      <c r="AO138" s="45"/>
+      <c r="AP138" s="45"/>
+      <c r="AQ138" s="45"/>
+      <c r="AR138" s="45"/>
+      <c r="AS138" s="45"/>
+      <c r="AT138" s="45"/>
+      <c r="AU138" s="45"/>
+      <c r="AV138" s="45"/>
+      <c r="AW138" s="45"/>
+      <c r="AX138" s="45"/>
+      <c r="AY138" s="45"/>
+      <c r="AZ138" s="45"/>
+      <c r="BA138" s="45"/>
+      <c r="BB138" s="45"/>
+      <c r="BC138" s="45"/>
+      <c r="BD138" s="45"/>
+      <c r="BE138" s="45"/>
+      <c r="BF138" s="45"/>
+      <c r="BG138" s="45"/>
+      <c r="BH138" s="45"/>
+      <c r="BI138" s="45"/>
+      <c r="BJ138" s="45"/>
+      <c r="BK138" s="45"/>
+      <c r="BL138" s="45"/>
+      <c r="BM138" s="45"/>
+      <c r="BN138" s="45"/>
+      <c r="BO138" s="45"/>
+      <c r="BP138" s="45"/>
+      <c r="BQ138" s="45"/>
+      <c r="BR138" s="45"/>
+      <c r="BS138" s="45"/>
+      <c r="BT138" s="45"/>
+      <c r="BU138" s="45"/>
+      <c r="BV138" s="45"/>
+      <c r="BW138" s="45"/>
+      <c r="BX138" s="45"/>
+      <c r="BY138" s="45"/>
+      <c r="BZ138" s="45"/>
+      <c r="CA138" s="45"/>
+      <c r="CB138" s="45"/>
+      <c r="CC138" s="45"/>
+      <c r="CD138" s="45"/>
+      <c r="CE138" s="45"/>
+      <c r="CF138" s="45"/>
+      <c r="CG138" s="45"/>
+      <c r="CH138" s="45"/>
+      <c r="CI138" s="45"/>
+      <c r="CJ138" s="45"/>
+      <c r="CK138" s="45"/>
+      <c r="CL138" s="45"/>
+      <c r="CM138" s="45"/>
+      <c r="CN138" s="45"/>
+      <c r="CO138" s="45"/>
+      <c r="CP138" s="45"/>
+      <c r="CQ138" s="45"/>
+      <c r="CR138" s="45"/>
+      <c r="CS138" s="45"/>
+      <c r="CT138" s="45"/>
+      <c r="CU138" s="45"/>
+      <c r="CV138" s="45"/>
+      <c r="CW138" s="45"/>
+      <c r="CX138" s="46"/>
       <c r="CY138" s="21"/>
     </row>
-    <row r="139" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A139" s="75"/>
-      <c r="B139" s="7" t="s">
+    <row r="139" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A139" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="E139" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="40"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
+      <c r="K139" s="41"/>
+      <c r="L139" s="41"/>
+      <c r="M139" s="41"/>
+      <c r="N139" s="41"/>
+      <c r="O139" s="41"/>
+      <c r="P139" s="41"/>
+      <c r="Q139" s="41"/>
+      <c r="R139" s="41"/>
+      <c r="S139" s="41"/>
+      <c r="T139" s="41"/>
+      <c r="U139" s="41"/>
+      <c r="V139" s="41"/>
+      <c r="W139" s="41"/>
+      <c r="X139" s="41"/>
+      <c r="Y139" s="41"/>
+      <c r="Z139" s="41"/>
+      <c r="AA139" s="41"/>
+      <c r="AB139" s="41"/>
+      <c r="AC139" s="41"/>
+      <c r="AD139" s="41"/>
+      <c r="AE139" s="41"/>
+      <c r="AF139" s="41"/>
+      <c r="AG139" s="41"/>
+      <c r="AH139" s="41"/>
+      <c r="AI139" s="41"/>
+      <c r="AJ139" s="41"/>
+      <c r="AK139" s="41"/>
+      <c r="AL139" s="41"/>
+      <c r="AM139" s="41"/>
+      <c r="AN139" s="41"/>
+      <c r="AO139" s="41"/>
+      <c r="AP139" s="41"/>
+      <c r="AQ139" s="41"/>
+      <c r="AR139" s="41"/>
+      <c r="AS139" s="41"/>
+      <c r="AT139" s="41"/>
+      <c r="AU139" s="41"/>
+      <c r="AV139" s="41"/>
+      <c r="AW139" s="41"/>
+      <c r="AX139" s="41"/>
+      <c r="AY139" s="41"/>
+      <c r="AZ139" s="41"/>
+      <c r="BA139" s="41"/>
+      <c r="BB139" s="41"/>
+      <c r="BC139" s="41"/>
+      <c r="BD139" s="41"/>
+      <c r="BE139" s="41"/>
+      <c r="BF139" s="41"/>
+      <c r="BG139" s="41"/>
+      <c r="BH139" s="41"/>
+      <c r="BI139" s="41"/>
+      <c r="BJ139" s="41"/>
+      <c r="BK139" s="41"/>
+      <c r="BL139" s="41"/>
+      <c r="BM139" s="41"/>
+      <c r="BN139" s="41"/>
+      <c r="BO139" s="41"/>
+      <c r="BP139" s="41"/>
+      <c r="BQ139" s="41"/>
+      <c r="BR139" s="41"/>
+      <c r="BS139" s="41"/>
+      <c r="BT139" s="41"/>
+      <c r="BU139" s="41"/>
+      <c r="BV139" s="41"/>
+      <c r="BW139" s="41"/>
+      <c r="BX139" s="41"/>
+      <c r="BY139" s="41"/>
+      <c r="BZ139" s="41"/>
+      <c r="CA139" s="41"/>
+      <c r="CB139" s="41"/>
+      <c r="CC139" s="41"/>
+      <c r="CD139" s="41"/>
+      <c r="CE139" s="41"/>
+      <c r="CF139" s="41"/>
+      <c r="CG139" s="41"/>
+      <c r="CH139" s="41"/>
+      <c r="CI139" s="41"/>
+      <c r="CJ139" s="41"/>
+      <c r="CK139" s="41"/>
+      <c r="CL139" s="41"/>
+      <c r="CM139" s="41"/>
+      <c r="CN139" s="41"/>
+      <c r="CO139" s="41"/>
+      <c r="CP139" s="41"/>
+      <c r="CQ139" s="41"/>
+      <c r="CR139" s="41"/>
+      <c r="CS139" s="41"/>
+      <c r="CT139" s="41"/>
+      <c r="CU139" s="41"/>
+      <c r="CV139" s="41"/>
+      <c r="CW139" s="41"/>
+      <c r="CX139" s="42"/>
+      <c r="CY139" s="21"/>
+    </row>
+    <row r="140" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A140" s="78"/>
+      <c r="B140" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="77"/>
-      <c r="E139" s="78"/>
-      <c r="F139" s="31"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="32"/>
-      <c r="J139" s="32"/>
-      <c r="K139" s="32"/>
-      <c r="L139" s="32"/>
-      <c r="M139" s="32"/>
-      <c r="N139" s="32"/>
-      <c r="O139" s="32"/>
-      <c r="P139" s="32"/>
-      <c r="Q139" s="32"/>
-      <c r="R139" s="32"/>
-      <c r="S139" s="32"/>
-      <c r="T139" s="32"/>
-      <c r="U139" s="32"/>
-      <c r="V139" s="32"/>
-      <c r="W139" s="32"/>
-      <c r="X139" s="32"/>
-      <c r="Y139" s="32"/>
-      <c r="Z139" s="32"/>
-      <c r="AA139" s="32"/>
-      <c r="AB139" s="32"/>
-      <c r="AC139" s="32"/>
-      <c r="AD139" s="32"/>
-      <c r="AE139" s="32"/>
-      <c r="AF139" s="32"/>
-      <c r="AG139" s="32"/>
-      <c r="AH139" s="32"/>
-      <c r="AI139" s="32"/>
-      <c r="AJ139" s="32"/>
-      <c r="AK139" s="32"/>
-      <c r="AL139" s="32"/>
-      <c r="AM139" s="32"/>
-      <c r="AN139" s="32"/>
-      <c r="AO139" s="32"/>
-      <c r="AP139" s="32"/>
-      <c r="AQ139" s="32"/>
-      <c r="AR139" s="32"/>
-      <c r="AS139" s="32"/>
-      <c r="AT139" s="32"/>
-      <c r="AU139" s="32"/>
-      <c r="AV139" s="32"/>
-      <c r="AW139" s="32"/>
-      <c r="AX139" s="32"/>
-      <c r="AY139" s="32"/>
-      <c r="AZ139" s="32"/>
-      <c r="BA139" s="32"/>
-      <c r="BB139" s="32"/>
-      <c r="BC139" s="32"/>
-      <c r="BD139" s="32"/>
-      <c r="BE139" s="32"/>
-      <c r="BF139" s="32"/>
-      <c r="BG139" s="32"/>
-      <c r="BH139" s="32"/>
-      <c r="BI139" s="32"/>
-      <c r="BJ139" s="32"/>
-      <c r="BK139" s="32"/>
-      <c r="BL139" s="32"/>
-      <c r="BM139" s="32"/>
-      <c r="BN139" s="32"/>
-      <c r="BO139" s="32"/>
-      <c r="BP139" s="32"/>
-      <c r="BQ139" s="32"/>
-      <c r="BR139" s="32"/>
-      <c r="BS139" s="32"/>
-      <c r="BT139" s="32"/>
-      <c r="BU139" s="32"/>
-      <c r="BV139" s="32"/>
-      <c r="BW139" s="32"/>
-      <c r="BX139" s="32"/>
-      <c r="BY139" s="32"/>
-      <c r="BZ139" s="32"/>
-      <c r="CA139" s="32"/>
-      <c r="CB139" s="32"/>
-      <c r="CC139" s="32"/>
-      <c r="CD139" s="32"/>
-      <c r="CE139" s="32"/>
-      <c r="CF139" s="32"/>
-      <c r="CG139" s="32"/>
-      <c r="CH139" s="32"/>
-      <c r="CI139" s="32"/>
-      <c r="CJ139" s="32"/>
-      <c r="CK139" s="32"/>
-      <c r="CL139" s="32"/>
-      <c r="CM139" s="32"/>
-      <c r="CN139" s="32"/>
-      <c r="CO139" s="32"/>
-      <c r="CP139" s="32"/>
-      <c r="CQ139" s="32"/>
-      <c r="CR139" s="32"/>
-      <c r="CS139" s="32"/>
-      <c r="CT139" s="32"/>
-      <c r="CU139" s="32"/>
-      <c r="CV139" s="32"/>
-      <c r="CW139" s="32"/>
-      <c r="CX139" s="33"/>
-      <c r="CY139" s="11"/>
+      <c r="D140" s="83">
+        <v>18.04</v>
+      </c>
+      <c r="E140" s="82">
+        <v>25.04</v>
+      </c>
+      <c r="F140" s="31"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
+      <c r="J140" s="32"/>
+      <c r="K140" s="32"/>
+      <c r="L140" s="32"/>
+      <c r="M140" s="32"/>
+      <c r="N140" s="32"/>
+      <c r="O140" s="32"/>
+      <c r="P140" s="32"/>
+      <c r="Q140" s="32"/>
+      <c r="R140" s="32"/>
+      <c r="S140" s="32"/>
+      <c r="T140" s="32"/>
+      <c r="U140" s="32"/>
+      <c r="V140" s="32"/>
+      <c r="W140" s="32"/>
+      <c r="X140" s="32"/>
+      <c r="Y140" s="32"/>
+      <c r="Z140" s="32"/>
+      <c r="AA140" s="32"/>
+      <c r="AB140" s="32"/>
+      <c r="AC140" s="32"/>
+      <c r="AD140" s="32"/>
+      <c r="AE140" s="32"/>
+      <c r="AF140" s="32"/>
+      <c r="AG140" s="32"/>
+      <c r="AH140" s="32"/>
+      <c r="AI140" s="32"/>
+      <c r="AJ140" s="32"/>
+      <c r="AK140" s="32"/>
+      <c r="AL140" s="32"/>
+      <c r="AM140" s="32"/>
+      <c r="AN140" s="32"/>
+      <c r="AO140" s="32"/>
+      <c r="AP140" s="32"/>
+      <c r="AQ140" s="32"/>
+      <c r="AR140" s="32"/>
+      <c r="AS140" s="32"/>
+      <c r="AT140" s="32"/>
+      <c r="AU140" s="32"/>
+      <c r="AV140" s="32"/>
+      <c r="AW140" s="32"/>
+      <c r="AX140" s="32"/>
+      <c r="AY140" s="32"/>
+      <c r="AZ140" s="32"/>
+      <c r="BA140" s="32"/>
+      <c r="BB140" s="32"/>
+      <c r="BC140" s="32"/>
+      <c r="BD140" s="32"/>
+      <c r="BE140" s="32"/>
+      <c r="BF140" s="32"/>
+      <c r="BG140" s="32"/>
+      <c r="BH140" s="32"/>
+      <c r="BI140" s="32"/>
+      <c r="BJ140" s="32"/>
+      <c r="BK140" s="32"/>
+      <c r="BL140" s="32"/>
+      <c r="BM140" s="32"/>
+      <c r="BN140" s="32"/>
+      <c r="BO140" s="32"/>
+      <c r="BP140" s="32"/>
+      <c r="BQ140" s="32"/>
+      <c r="BR140" s="32"/>
+      <c r="BS140" s="32"/>
+      <c r="BT140" s="32"/>
+      <c r="BU140" s="32"/>
+      <c r="BV140" s="32"/>
+      <c r="BW140" s="32"/>
+      <c r="BX140" s="32"/>
+      <c r="BY140" s="32"/>
+      <c r="BZ140" s="32"/>
+      <c r="CA140" s="32"/>
+      <c r="CB140" s="32"/>
+      <c r="CC140" s="32"/>
+      <c r="CD140" s="32"/>
+      <c r="CE140" s="32"/>
+      <c r="CF140" s="32"/>
+      <c r="CG140" s="32"/>
+      <c r="CH140" s="32"/>
+      <c r="CI140" s="32"/>
+      <c r="CJ140" s="32"/>
+      <c r="CK140" s="32"/>
+      <c r="CL140" s="32"/>
+      <c r="CM140" s="32"/>
+      <c r="CN140" s="32"/>
+      <c r="CO140" s="32"/>
+      <c r="CP140" s="32"/>
+      <c r="CQ140" s="32"/>
+      <c r="CR140" s="32"/>
+      <c r="CS140" s="32"/>
+      <c r="CT140" s="32"/>
+      <c r="CU140" s="32"/>
+      <c r="CV140" s="32"/>
+      <c r="CW140" s="32"/>
+      <c r="CX140" s="33"/>
+      <c r="CY140" s="21"/>
     </row>
-    <row r="140" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="19" t="s">
+    <row r="141" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A141" s="79"/>
+      <c r="B141" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="E140" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="40"/>
-      <c r="G140" s="41"/>
-      <c r="H140" s="41"/>
-      <c r="I140" s="41"/>
-      <c r="J140" s="41"/>
-      <c r="K140" s="41"/>
-      <c r="L140" s="41"/>
-      <c r="M140" s="41"/>
-      <c r="N140" s="41"/>
-      <c r="O140" s="41"/>
-      <c r="P140" s="41"/>
-      <c r="Q140" s="41"/>
-      <c r="R140" s="41"/>
-      <c r="S140" s="41"/>
-      <c r="T140" s="41"/>
-      <c r="U140" s="41"/>
-      <c r="V140" s="41"/>
-      <c r="W140" s="41"/>
-      <c r="X140" s="41"/>
-      <c r="Y140" s="41"/>
-      <c r="Z140" s="41"/>
-      <c r="AA140" s="41"/>
-      <c r="AB140" s="41"/>
-      <c r="AC140" s="41"/>
-      <c r="AD140" s="41"/>
-      <c r="AE140" s="41"/>
-      <c r="AF140" s="41"/>
-      <c r="AG140" s="41"/>
-      <c r="AH140" s="41"/>
-      <c r="AI140" s="41"/>
-      <c r="AJ140" s="41"/>
-      <c r="AK140" s="41"/>
-      <c r="AL140" s="41"/>
-      <c r="AM140" s="41"/>
-      <c r="AN140" s="41"/>
-      <c r="AO140" s="41"/>
-      <c r="AP140" s="41"/>
-      <c r="AQ140" s="41"/>
-      <c r="AR140" s="41"/>
-      <c r="AS140" s="41"/>
-      <c r="AT140" s="41"/>
-      <c r="AU140" s="41"/>
-      <c r="AV140" s="41"/>
-      <c r="AW140" s="41"/>
-      <c r="AX140" s="41"/>
-      <c r="AY140" s="41"/>
-      <c r="AZ140" s="41"/>
-      <c r="BA140" s="41"/>
-      <c r="BB140" s="41"/>
-      <c r="BC140" s="41"/>
-      <c r="BD140" s="41"/>
-      <c r="BE140" s="41"/>
-      <c r="BF140" s="41"/>
-      <c r="BG140" s="41"/>
-      <c r="BH140" s="41"/>
-      <c r="BI140" s="41"/>
-      <c r="BJ140" s="41"/>
-      <c r="BK140" s="41"/>
-      <c r="BL140" s="41"/>
-      <c r="BM140" s="41"/>
-      <c r="BN140" s="41"/>
-      <c r="BO140" s="41"/>
-      <c r="BP140" s="41"/>
-      <c r="BQ140" s="41"/>
-      <c r="BR140" s="41"/>
-      <c r="BS140" s="41"/>
-      <c r="BT140" s="41"/>
-      <c r="BU140" s="41"/>
-      <c r="BV140" s="41"/>
-      <c r="BW140" s="41"/>
-      <c r="BX140" s="41"/>
-      <c r="BY140" s="41"/>
-      <c r="BZ140" s="41"/>
-      <c r="CA140" s="41"/>
-      <c r="CB140" s="41"/>
-      <c r="CC140" s="41"/>
-      <c r="CD140" s="41"/>
-      <c r="CE140" s="41"/>
-      <c r="CF140" s="41"/>
-      <c r="CG140" s="41"/>
-      <c r="CH140" s="41"/>
-      <c r="CI140" s="41"/>
-      <c r="CJ140" s="41"/>
-      <c r="CK140" s="41"/>
-      <c r="CL140" s="41"/>
-      <c r="CM140" s="41"/>
-      <c r="CN140" s="41"/>
-      <c r="CO140" s="41"/>
-      <c r="CP140" s="41"/>
-      <c r="CQ140" s="41"/>
-      <c r="CR140" s="41"/>
-      <c r="CS140" s="41"/>
-      <c r="CT140" s="41"/>
-      <c r="CU140" s="41"/>
-      <c r="CV140" s="41"/>
-      <c r="CW140" s="41"/>
-      <c r="CX140" s="42"/>
-    </row>
-    <row r="141" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A141" s="74"/>
-      <c r="B141" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="77">
-        <v>18.04</v>
-      </c>
-      <c r="E141" s="78">
-        <v>25.04</v>
-      </c>
+      <c r="D141" s="83"/>
+      <c r="E141" s="82"/>
       <c r="F141" s="31"/>
       <c r="G141" s="32"/>
       <c r="H141" s="32"/>
@@ -18135,243 +18187,246 @@
       <c r="CV141" s="32"/>
       <c r="CW141" s="32"/>
       <c r="CX141" s="33"/>
+      <c r="CY141" s="21"/>
     </row>
-    <row r="142" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A142" s="75"/>
-      <c r="B142" s="7" t="s">
+    <row r="142" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A142" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="E142" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="40"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="41"/>
+      <c r="J142" s="41"/>
+      <c r="K142" s="41"/>
+      <c r="L142" s="41"/>
+      <c r="M142" s="41"/>
+      <c r="N142" s="41"/>
+      <c r="O142" s="41"/>
+      <c r="P142" s="41"/>
+      <c r="Q142" s="41"/>
+      <c r="R142" s="41"/>
+      <c r="S142" s="41"/>
+      <c r="T142" s="41"/>
+      <c r="U142" s="41"/>
+      <c r="V142" s="41"/>
+      <c r="W142" s="41"/>
+      <c r="X142" s="41"/>
+      <c r="Y142" s="41"/>
+      <c r="Z142" s="41"/>
+      <c r="AA142" s="41"/>
+      <c r="AB142" s="41"/>
+      <c r="AC142" s="41"/>
+      <c r="AD142" s="41"/>
+      <c r="AE142" s="41"/>
+      <c r="AF142" s="41"/>
+      <c r="AG142" s="41"/>
+      <c r="AH142" s="41"/>
+      <c r="AI142" s="41"/>
+      <c r="AJ142" s="41"/>
+      <c r="AK142" s="41"/>
+      <c r="AL142" s="41"/>
+      <c r="AM142" s="41"/>
+      <c r="AN142" s="41"/>
+      <c r="AO142" s="41"/>
+      <c r="AP142" s="41"/>
+      <c r="AQ142" s="41"/>
+      <c r="AR142" s="41"/>
+      <c r="AS142" s="41"/>
+      <c r="AT142" s="41"/>
+      <c r="AU142" s="41"/>
+      <c r="AV142" s="41"/>
+      <c r="AW142" s="41"/>
+      <c r="AX142" s="41"/>
+      <c r="AY142" s="41"/>
+      <c r="AZ142" s="41"/>
+      <c r="BA142" s="41"/>
+      <c r="BB142" s="41"/>
+      <c r="BC142" s="41"/>
+      <c r="BD142" s="41"/>
+      <c r="BE142" s="41"/>
+      <c r="BF142" s="41"/>
+      <c r="BG142" s="41"/>
+      <c r="BH142" s="41"/>
+      <c r="BI142" s="41"/>
+      <c r="BJ142" s="41"/>
+      <c r="BK142" s="41"/>
+      <c r="BL142" s="41"/>
+      <c r="BM142" s="41"/>
+      <c r="BN142" s="41"/>
+      <c r="BO142" s="41"/>
+      <c r="BP142" s="41"/>
+      <c r="BQ142" s="41"/>
+      <c r="BR142" s="41"/>
+      <c r="BS142" s="41"/>
+      <c r="BT142" s="41"/>
+      <c r="BU142" s="41"/>
+      <c r="BV142" s="41"/>
+      <c r="BW142" s="41"/>
+      <c r="BX142" s="41"/>
+      <c r="BY142" s="41"/>
+      <c r="BZ142" s="41"/>
+      <c r="CA142" s="41"/>
+      <c r="CB142" s="41"/>
+      <c r="CC142" s="41"/>
+      <c r="CD142" s="41"/>
+      <c r="CE142" s="41"/>
+      <c r="CF142" s="41"/>
+      <c r="CG142" s="41"/>
+      <c r="CH142" s="41"/>
+      <c r="CI142" s="41"/>
+      <c r="CJ142" s="41"/>
+      <c r="CK142" s="41"/>
+      <c r="CL142" s="41"/>
+      <c r="CM142" s="41"/>
+      <c r="CN142" s="41"/>
+      <c r="CO142" s="41"/>
+      <c r="CP142" s="41"/>
+      <c r="CQ142" s="41"/>
+      <c r="CR142" s="41"/>
+      <c r="CS142" s="41"/>
+      <c r="CT142" s="41"/>
+      <c r="CU142" s="41"/>
+      <c r="CV142" s="41"/>
+      <c r="CW142" s="41"/>
+      <c r="CX142" s="42"/>
+      <c r="CY142" s="21"/>
+    </row>
+    <row r="143" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A143" s="78"/>
+      <c r="B143" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="77"/>
-      <c r="E142" s="78"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="32"/>
-      <c r="J142" s="32"/>
-      <c r="K142" s="32"/>
-      <c r="L142" s="32"/>
-      <c r="M142" s="32"/>
-      <c r="N142" s="32"/>
-      <c r="O142" s="32"/>
-      <c r="P142" s="32"/>
-      <c r="Q142" s="32"/>
-      <c r="R142" s="32"/>
-      <c r="S142" s="32"/>
-      <c r="T142" s="32"/>
-      <c r="U142" s="32"/>
-      <c r="V142" s="32"/>
-      <c r="W142" s="32"/>
-      <c r="X142" s="32"/>
-      <c r="Y142" s="32"/>
-      <c r="Z142" s="32"/>
-      <c r="AA142" s="32"/>
-      <c r="AB142" s="32"/>
-      <c r="AC142" s="32"/>
-      <c r="AD142" s="32"/>
-      <c r="AE142" s="32"/>
-      <c r="AF142" s="32"/>
-      <c r="AG142" s="32"/>
-      <c r="AH142" s="32"/>
-      <c r="AI142" s="32"/>
-      <c r="AJ142" s="32"/>
-      <c r="AK142" s="32"/>
-      <c r="AL142" s="32"/>
-      <c r="AM142" s="32"/>
-      <c r="AN142" s="32"/>
-      <c r="AO142" s="32"/>
-      <c r="AP142" s="32"/>
-      <c r="AQ142" s="32"/>
-      <c r="AR142" s="32"/>
-      <c r="AS142" s="32"/>
-      <c r="AT142" s="32"/>
-      <c r="AU142" s="32"/>
-      <c r="AV142" s="32"/>
-      <c r="AW142" s="32"/>
-      <c r="AX142" s="32"/>
-      <c r="AY142" s="32"/>
-      <c r="AZ142" s="32"/>
-      <c r="BA142" s="32"/>
-      <c r="BB142" s="32"/>
-      <c r="BC142" s="32"/>
-      <c r="BD142" s="32"/>
-      <c r="BE142" s="32"/>
-      <c r="BF142" s="32"/>
-      <c r="BG142" s="32"/>
-      <c r="BH142" s="32"/>
-      <c r="BI142" s="32"/>
-      <c r="BJ142" s="32"/>
-      <c r="BK142" s="32"/>
-      <c r="BL142" s="32"/>
-      <c r="BM142" s="32"/>
-      <c r="BN142" s="32"/>
-      <c r="BO142" s="32"/>
-      <c r="BP142" s="32"/>
-      <c r="BQ142" s="32"/>
-      <c r="BR142" s="32"/>
-      <c r="BS142" s="32"/>
-      <c r="BT142" s="32"/>
-      <c r="BU142" s="32"/>
-      <c r="BV142" s="32"/>
-      <c r="BW142" s="32"/>
-      <c r="BX142" s="32"/>
-      <c r="BY142" s="32"/>
-      <c r="BZ142" s="32"/>
-      <c r="CA142" s="32"/>
-      <c r="CB142" s="32"/>
-      <c r="CC142" s="32"/>
-      <c r="CD142" s="32"/>
-      <c r="CE142" s="32"/>
-      <c r="CF142" s="32"/>
-      <c r="CG142" s="32"/>
-      <c r="CH142" s="32"/>
-      <c r="CI142" s="32"/>
-      <c r="CJ142" s="32"/>
-      <c r="CK142" s="32"/>
-      <c r="CL142" s="32"/>
-      <c r="CM142" s="32"/>
-      <c r="CN142" s="32"/>
-      <c r="CO142" s="32"/>
-      <c r="CP142" s="32"/>
-      <c r="CQ142" s="32"/>
-      <c r="CR142" s="32"/>
-      <c r="CS142" s="32"/>
-      <c r="CT142" s="32"/>
-      <c r="CU142" s="32"/>
-      <c r="CV142" s="32"/>
-      <c r="CW142" s="32"/>
-      <c r="CX142" s="33"/>
+      <c r="D143" s="83">
+        <v>18.04</v>
+      </c>
+      <c r="E143" s="82">
+        <v>25.04</v>
+      </c>
+      <c r="F143" s="31"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="32"/>
+      <c r="J143" s="32"/>
+      <c r="K143" s="32"/>
+      <c r="L143" s="32"/>
+      <c r="M143" s="32"/>
+      <c r="N143" s="32"/>
+      <c r="O143" s="32"/>
+      <c r="P143" s="32"/>
+      <c r="Q143" s="32"/>
+      <c r="R143" s="32"/>
+      <c r="S143" s="32"/>
+      <c r="T143" s="32"/>
+      <c r="U143" s="32"/>
+      <c r="V143" s="32"/>
+      <c r="W143" s="32"/>
+      <c r="X143" s="32"/>
+      <c r="Y143" s="32"/>
+      <c r="Z143" s="32"/>
+      <c r="AA143" s="32"/>
+      <c r="AB143" s="32"/>
+      <c r="AC143" s="32"/>
+      <c r="AD143" s="32"/>
+      <c r="AE143" s="32"/>
+      <c r="AF143" s="32"/>
+      <c r="AG143" s="32"/>
+      <c r="AH143" s="32"/>
+      <c r="AI143" s="32"/>
+      <c r="AJ143" s="32"/>
+      <c r="AK143" s="32"/>
+      <c r="AL143" s="32"/>
+      <c r="AM143" s="32"/>
+      <c r="AN143" s="32"/>
+      <c r="AO143" s="32"/>
+      <c r="AP143" s="32"/>
+      <c r="AQ143" s="32"/>
+      <c r="AR143" s="32"/>
+      <c r="AS143" s="32"/>
+      <c r="AT143" s="32"/>
+      <c r="AU143" s="32"/>
+      <c r="AV143" s="32"/>
+      <c r="AW143" s="32"/>
+      <c r="AX143" s="32"/>
+      <c r="AY143" s="32"/>
+      <c r="AZ143" s="32"/>
+      <c r="BA143" s="32"/>
+      <c r="BB143" s="32"/>
+      <c r="BC143" s="32"/>
+      <c r="BD143" s="32"/>
+      <c r="BE143" s="32"/>
+      <c r="BF143" s="32"/>
+      <c r="BG143" s="32"/>
+      <c r="BH143" s="32"/>
+      <c r="BI143" s="32"/>
+      <c r="BJ143" s="32"/>
+      <c r="BK143" s="32"/>
+      <c r="BL143" s="32"/>
+      <c r="BM143" s="32"/>
+      <c r="BN143" s="32"/>
+      <c r="BO143" s="32"/>
+      <c r="BP143" s="32"/>
+      <c r="BQ143" s="32"/>
+      <c r="BR143" s="32"/>
+      <c r="BS143" s="32"/>
+      <c r="BT143" s="32"/>
+      <c r="BU143" s="32"/>
+      <c r="BV143" s="32"/>
+      <c r="BW143" s="32"/>
+      <c r="BX143" s="32"/>
+      <c r="BY143" s="32"/>
+      <c r="BZ143" s="32"/>
+      <c r="CA143" s="32"/>
+      <c r="CB143" s="32"/>
+      <c r="CC143" s="32"/>
+      <c r="CD143" s="32"/>
+      <c r="CE143" s="32"/>
+      <c r="CF143" s="32"/>
+      <c r="CG143" s="32"/>
+      <c r="CH143" s="32"/>
+      <c r="CI143" s="32"/>
+      <c r="CJ143" s="32"/>
+      <c r="CK143" s="32"/>
+      <c r="CL143" s="32"/>
+      <c r="CM143" s="32"/>
+      <c r="CN143" s="32"/>
+      <c r="CO143" s="32"/>
+      <c r="CP143" s="32"/>
+      <c r="CQ143" s="32"/>
+      <c r="CR143" s="32"/>
+      <c r="CS143" s="32"/>
+      <c r="CT143" s="32"/>
+      <c r="CU143" s="32"/>
+      <c r="CV143" s="32"/>
+      <c r="CW143" s="32"/>
+      <c r="CX143" s="33"/>
+      <c r="CY143" s="21"/>
     </row>
-    <row r="143" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" s="19" t="s">
+    <row r="144" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A144" s="79"/>
+      <c r="B144" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="E143" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="40"/>
-      <c r="G143" s="41"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="41"/>
-      <c r="J143" s="41"/>
-      <c r="K143" s="41"/>
-      <c r="L143" s="41"/>
-      <c r="M143" s="41"/>
-      <c r="N143" s="41"/>
-      <c r="O143" s="41"/>
-      <c r="P143" s="41"/>
-      <c r="Q143" s="41"/>
-      <c r="R143" s="41"/>
-      <c r="S143" s="41"/>
-      <c r="T143" s="41"/>
-      <c r="U143" s="41"/>
-      <c r="V143" s="41"/>
-      <c r="W143" s="41"/>
-      <c r="X143" s="41"/>
-      <c r="Y143" s="41"/>
-      <c r="Z143" s="41"/>
-      <c r="AA143" s="41"/>
-      <c r="AB143" s="41"/>
-      <c r="AC143" s="41"/>
-      <c r="AD143" s="41"/>
-      <c r="AE143" s="41"/>
-      <c r="AF143" s="41"/>
-      <c r="AG143" s="41"/>
-      <c r="AH143" s="41"/>
-      <c r="AI143" s="41"/>
-      <c r="AJ143" s="41"/>
-      <c r="AK143" s="41"/>
-      <c r="AL143" s="41"/>
-      <c r="AM143" s="41"/>
-      <c r="AN143" s="41"/>
-      <c r="AO143" s="41"/>
-      <c r="AP143" s="41"/>
-      <c r="AQ143" s="41"/>
-      <c r="AR143" s="41"/>
-      <c r="AS143" s="41"/>
-      <c r="AT143" s="41"/>
-      <c r="AU143" s="41"/>
-      <c r="AV143" s="41"/>
-      <c r="AW143" s="41"/>
-      <c r="AX143" s="41"/>
-      <c r="AY143" s="41"/>
-      <c r="AZ143" s="41"/>
-      <c r="BA143" s="41"/>
-      <c r="BB143" s="41"/>
-      <c r="BC143" s="41"/>
-      <c r="BD143" s="41"/>
-      <c r="BE143" s="41"/>
-      <c r="BF143" s="41"/>
-      <c r="BG143" s="41"/>
-      <c r="BH143" s="41"/>
-      <c r="BI143" s="41"/>
-      <c r="BJ143" s="41"/>
-      <c r="BK143" s="41"/>
-      <c r="BL143" s="41"/>
-      <c r="BM143" s="41"/>
-      <c r="BN143" s="41"/>
-      <c r="BO143" s="41"/>
-      <c r="BP143" s="41"/>
-      <c r="BQ143" s="41"/>
-      <c r="BR143" s="41"/>
-      <c r="BS143" s="41"/>
-      <c r="BT143" s="41"/>
-      <c r="BU143" s="41"/>
-      <c r="BV143" s="41"/>
-      <c r="BW143" s="41"/>
-      <c r="BX143" s="41"/>
-      <c r="BY143" s="41"/>
-      <c r="BZ143" s="41"/>
-      <c r="CA143" s="41"/>
-      <c r="CB143" s="41"/>
-      <c r="CC143" s="41"/>
-      <c r="CD143" s="41"/>
-      <c r="CE143" s="41"/>
-      <c r="CF143" s="41"/>
-      <c r="CG143" s="41"/>
-      <c r="CH143" s="41"/>
-      <c r="CI143" s="41"/>
-      <c r="CJ143" s="41"/>
-      <c r="CK143" s="41"/>
-      <c r="CL143" s="41"/>
-      <c r="CM143" s="41"/>
-      <c r="CN143" s="41"/>
-      <c r="CO143" s="41"/>
-      <c r="CP143" s="41"/>
-      <c r="CQ143" s="41"/>
-      <c r="CR143" s="41"/>
-      <c r="CS143" s="41"/>
-      <c r="CT143" s="41"/>
-      <c r="CU143" s="41"/>
-      <c r="CV143" s="41"/>
-      <c r="CW143" s="41"/>
-      <c r="CX143" s="42"/>
-    </row>
-    <row r="144" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A144" s="74"/>
-      <c r="B144" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="77">
-        <v>18.04</v>
-      </c>
-      <c r="E144" s="78">
-        <v>25.04</v>
-      </c>
+      <c r="D144" s="83"/>
+      <c r="E144" s="82"/>
       <c r="F144" s="31"/>
       <c r="G144" s="32"/>
       <c r="H144" s="32"/>
@@ -18469,125 +18524,137 @@
       <c r="CV144" s="32"/>
       <c r="CW144" s="32"/>
       <c r="CX144" s="33"/>
+      <c r="CY144" s="21"/>
     </row>
-    <row r="145" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A145" s="75"/>
-      <c r="B145" s="7" t="s">
+    <row r="145" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A145" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="E145" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="40"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="41"/>
+      <c r="L145" s="41"/>
+      <c r="M145" s="41"/>
+      <c r="N145" s="41"/>
+      <c r="O145" s="41"/>
+      <c r="P145" s="41"/>
+      <c r="Q145" s="41"/>
+      <c r="R145" s="41"/>
+      <c r="S145" s="41"/>
+      <c r="T145" s="41"/>
+      <c r="U145" s="41"/>
+      <c r="V145" s="41"/>
+      <c r="W145" s="41"/>
+      <c r="X145" s="41"/>
+      <c r="Y145" s="41"/>
+      <c r="Z145" s="41"/>
+      <c r="AA145" s="41"/>
+      <c r="AB145" s="41"/>
+      <c r="AC145" s="41"/>
+      <c r="AD145" s="41"/>
+      <c r="AE145" s="41"/>
+      <c r="AF145" s="41"/>
+      <c r="AG145" s="41"/>
+      <c r="AH145" s="41"/>
+      <c r="AI145" s="41"/>
+      <c r="AJ145" s="41"/>
+      <c r="AK145" s="41"/>
+      <c r="AL145" s="41"/>
+      <c r="AM145" s="41"/>
+      <c r="AN145" s="41"/>
+      <c r="AO145" s="41"/>
+      <c r="AP145" s="41"/>
+      <c r="AQ145" s="41"/>
+      <c r="AR145" s="41"/>
+      <c r="AS145" s="41"/>
+      <c r="AT145" s="41"/>
+      <c r="AU145" s="41"/>
+      <c r="AV145" s="41"/>
+      <c r="AW145" s="41"/>
+      <c r="AX145" s="41"/>
+      <c r="AY145" s="41"/>
+      <c r="AZ145" s="41"/>
+      <c r="BA145" s="41"/>
+      <c r="BB145" s="41"/>
+      <c r="BC145" s="41"/>
+      <c r="BD145" s="41"/>
+      <c r="BE145" s="41"/>
+      <c r="BF145" s="41"/>
+      <c r="BG145" s="41"/>
+      <c r="BH145" s="41"/>
+      <c r="BI145" s="41"/>
+      <c r="BJ145" s="41"/>
+      <c r="BK145" s="41"/>
+      <c r="BL145" s="41"/>
+      <c r="BM145" s="41"/>
+      <c r="BN145" s="41"/>
+      <c r="BO145" s="41"/>
+      <c r="BP145" s="41"/>
+      <c r="BQ145" s="41"/>
+      <c r="BR145" s="41"/>
+      <c r="BS145" s="41"/>
+      <c r="BT145" s="41"/>
+      <c r="BU145" s="41"/>
+      <c r="BV145" s="41"/>
+      <c r="BW145" s="41"/>
+      <c r="BX145" s="41"/>
+      <c r="BY145" s="41"/>
+      <c r="BZ145" s="41"/>
+      <c r="CA145" s="41"/>
+      <c r="CB145" s="41"/>
+      <c r="CC145" s="41"/>
+      <c r="CD145" s="41"/>
+      <c r="CE145" s="41"/>
+      <c r="CF145" s="41"/>
+      <c r="CG145" s="41"/>
+      <c r="CH145" s="41"/>
+      <c r="CI145" s="41"/>
+      <c r="CJ145" s="41"/>
+      <c r="CK145" s="41"/>
+      <c r="CL145" s="41"/>
+      <c r="CM145" s="41"/>
+      <c r="CN145" s="41"/>
+      <c r="CO145" s="41"/>
+      <c r="CP145" s="41"/>
+      <c r="CQ145" s="41"/>
+      <c r="CR145" s="41"/>
+      <c r="CS145" s="41"/>
+      <c r="CT145" s="41"/>
+      <c r="CU145" s="41"/>
+      <c r="CV145" s="41"/>
+      <c r="CW145" s="41"/>
+      <c r="CX145" s="42"/>
+      <c r="CY145" s="21"/>
+    </row>
+    <row r="146" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A146" s="78"/>
+      <c r="B146" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="77"/>
-      <c r="E145" s="78"/>
-      <c r="F145" s="31"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="32"/>
-      <c r="I145" s="32"/>
-      <c r="J145" s="32"/>
-      <c r="K145" s="32"/>
-      <c r="L145" s="32"/>
-      <c r="M145" s="32"/>
-      <c r="N145" s="32"/>
-      <c r="O145" s="32"/>
-      <c r="P145" s="32"/>
-      <c r="Q145" s="32"/>
-      <c r="R145" s="32"/>
-      <c r="S145" s="32"/>
-      <c r="T145" s="32"/>
-      <c r="U145" s="32"/>
-      <c r="V145" s="32"/>
-      <c r="W145" s="32"/>
-      <c r="X145" s="32"/>
-      <c r="Y145" s="32"/>
-      <c r="Z145" s="32"/>
-      <c r="AA145" s="32"/>
-      <c r="AB145" s="32"/>
-      <c r="AC145" s="32"/>
-      <c r="AD145" s="32"/>
-      <c r="AE145" s="32"/>
-      <c r="AF145" s="32"/>
-      <c r="AG145" s="32"/>
-      <c r="AH145" s="32"/>
-      <c r="AI145" s="32"/>
-      <c r="AJ145" s="32"/>
-      <c r="AK145" s="32"/>
-      <c r="AL145" s="32"/>
-      <c r="AM145" s="32"/>
-      <c r="AN145" s="32"/>
-      <c r="AO145" s="32"/>
-      <c r="AP145" s="32"/>
-      <c r="AQ145" s="32"/>
-      <c r="AR145" s="32"/>
-      <c r="AS145" s="32"/>
-      <c r="AT145" s="32"/>
-      <c r="AU145" s="32"/>
-      <c r="AV145" s="32"/>
-      <c r="AW145" s="32"/>
-      <c r="AX145" s="32"/>
-      <c r="AY145" s="32"/>
-      <c r="AZ145" s="32"/>
-      <c r="BA145" s="32"/>
-      <c r="BB145" s="32"/>
-      <c r="BC145" s="32"/>
-      <c r="BD145" s="32"/>
-      <c r="BE145" s="32"/>
-      <c r="BF145" s="32"/>
-      <c r="BG145" s="32"/>
-      <c r="BH145" s="32"/>
-      <c r="BI145" s="32"/>
-      <c r="BJ145" s="32"/>
-      <c r="BK145" s="32"/>
-      <c r="BL145" s="32"/>
-      <c r="BM145" s="32"/>
-      <c r="BN145" s="32"/>
-      <c r="BO145" s="32"/>
-      <c r="BP145" s="32"/>
-      <c r="BQ145" s="32"/>
-      <c r="BR145" s="32"/>
-      <c r="BS145" s="32"/>
-      <c r="BT145" s="32"/>
-      <c r="BU145" s="32"/>
-      <c r="BV145" s="32"/>
-      <c r="BW145" s="32"/>
-      <c r="BX145" s="32"/>
-      <c r="BY145" s="32"/>
-      <c r="BZ145" s="32"/>
-      <c r="CA145" s="32"/>
-      <c r="CB145" s="32"/>
-      <c r="CC145" s="32"/>
-      <c r="CD145" s="32"/>
-      <c r="CE145" s="32"/>
-      <c r="CF145" s="32"/>
-      <c r="CG145" s="32"/>
-      <c r="CH145" s="32"/>
-      <c r="CI145" s="32"/>
-      <c r="CJ145" s="32"/>
-      <c r="CK145" s="32"/>
-      <c r="CL145" s="32"/>
-      <c r="CM145" s="32"/>
-      <c r="CN145" s="32"/>
-      <c r="CO145" s="32"/>
-      <c r="CP145" s="32"/>
-      <c r="CQ145" s="32"/>
-      <c r="CR145" s="32"/>
-      <c r="CS145" s="32"/>
-      <c r="CT145" s="32"/>
-      <c r="CU145" s="32"/>
-      <c r="CV145" s="32"/>
-      <c r="CW145" s="32"/>
-      <c r="CX145" s="33"/>
-    </row>
-    <row r="146" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="85">
-        <v>44348</v>
-      </c>
-      <c r="E146" s="86"/>
+      <c r="D146" s="83">
+        <v>18.04</v>
+      </c>
+      <c r="E146" s="82">
+        <v>25.04</v>
+      </c>
       <c r="F146" s="31"/>
       <c r="G146" s="32"/>
       <c r="H146" s="32"/>
@@ -18685,140 +18752,1183 @@
       <c r="CV146" s="32"/>
       <c r="CW146" s="32"/>
       <c r="CX146" s="33"/>
+      <c r="CY146" s="21"/>
     </row>
-    <row r="147" spans="1:102" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="13"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="47"/>
-      <c r="I147" s="47"/>
-      <c r="J147" s="47"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="47"/>
-      <c r="M147" s="47"/>
-      <c r="N147" s="47"/>
-      <c r="O147" s="47"/>
-      <c r="P147" s="47"/>
-      <c r="Q147" s="47"/>
-      <c r="R147" s="47"/>
-      <c r="S147" s="47"/>
-      <c r="T147" s="47"/>
-      <c r="U147" s="47"/>
-      <c r="V147" s="47"/>
-      <c r="W147" s="47"/>
-      <c r="X147" s="47"/>
-      <c r="Y147" s="47"/>
-      <c r="Z147" s="47"/>
-      <c r="AA147" s="47"/>
-      <c r="AB147" s="47"/>
-      <c r="AC147" s="47"/>
-      <c r="AD147" s="47"/>
-      <c r="AE147" s="47"/>
-      <c r="AF147" s="47"/>
-      <c r="AG147" s="47"/>
-      <c r="AH147" s="47"/>
-      <c r="AI147" s="47"/>
-      <c r="AJ147" s="47"/>
-      <c r="AK147" s="47"/>
-      <c r="AL147" s="47"/>
-      <c r="AM147" s="47"/>
-      <c r="AN147" s="47"/>
-      <c r="AO147" s="47"/>
-      <c r="AP147" s="47"/>
-      <c r="AQ147" s="47"/>
-      <c r="AR147" s="47"/>
-      <c r="AS147" s="47"/>
-      <c r="AT147" s="47"/>
-      <c r="AU147" s="47"/>
-      <c r="AV147" s="47"/>
-      <c r="AW147" s="47"/>
-      <c r="AX147" s="47"/>
-      <c r="AY147" s="47"/>
-      <c r="AZ147" s="47"/>
-      <c r="BA147" s="47"/>
-      <c r="BB147" s="47"/>
-      <c r="BC147" s="47"/>
-      <c r="BD147" s="47"/>
-      <c r="BE147" s="47"/>
-      <c r="BF147" s="47"/>
-      <c r="BG147" s="47"/>
-      <c r="BH147" s="47"/>
-      <c r="BI147" s="47"/>
-      <c r="BJ147" s="47"/>
-      <c r="BK147" s="47"/>
-      <c r="BL147" s="47"/>
-      <c r="BM147" s="47"/>
-      <c r="BN147" s="47"/>
-      <c r="BO147" s="47"/>
-      <c r="BP147" s="47"/>
-      <c r="BQ147" s="47"/>
-      <c r="BR147" s="47"/>
-      <c r="BS147" s="47"/>
-      <c r="BT147" s="47"/>
-      <c r="BU147" s="47"/>
-      <c r="BV147" s="47"/>
-      <c r="BW147" s="47"/>
-      <c r="BX147" s="47"/>
-      <c r="BY147" s="47"/>
-      <c r="BZ147" s="47"/>
-      <c r="CA147" s="47"/>
-      <c r="CB147" s="47"/>
-      <c r="CC147" s="47"/>
-      <c r="CD147" s="47"/>
-      <c r="CE147" s="47"/>
-      <c r="CF147" s="47"/>
-      <c r="CG147" s="47"/>
-      <c r="CH147" s="47"/>
-      <c r="CI147" s="47"/>
-      <c r="CJ147" s="47"/>
-      <c r="CK147" s="47"/>
-      <c r="CL147" s="47"/>
-      <c r="CM147" s="47"/>
-      <c r="CN147" s="47"/>
-      <c r="CO147" s="47"/>
-      <c r="CP147" s="47"/>
-      <c r="CQ147" s="47"/>
-      <c r="CR147" s="47"/>
-      <c r="CS147" s="47"/>
-      <c r="CT147" s="47"/>
-      <c r="CU147" s="47"/>
-      <c r="CV147" s="47"/>
-      <c r="CW147" s="47"/>
-      <c r="CX147" s="47"/>
+    <row r="147" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A147" s="79"/>
+      <c r="B147" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="83"/>
+      <c r="E147" s="82"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="32"/>
+      <c r="K147" s="32"/>
+      <c r="L147" s="32"/>
+      <c r="M147" s="32"/>
+      <c r="N147" s="32"/>
+      <c r="O147" s="32"/>
+      <c r="P147" s="32"/>
+      <c r="Q147" s="32"/>
+      <c r="R147" s="32"/>
+      <c r="S147" s="32"/>
+      <c r="T147" s="32"/>
+      <c r="U147" s="32"/>
+      <c r="V147" s="32"/>
+      <c r="W147" s="32"/>
+      <c r="X147" s="32"/>
+      <c r="Y147" s="32"/>
+      <c r="Z147" s="32"/>
+      <c r="AA147" s="32"/>
+      <c r="AB147" s="32"/>
+      <c r="AC147" s="32"/>
+      <c r="AD147" s="32"/>
+      <c r="AE147" s="32"/>
+      <c r="AF147" s="32"/>
+      <c r="AG147" s="32"/>
+      <c r="AH147" s="32"/>
+      <c r="AI147" s="32"/>
+      <c r="AJ147" s="32"/>
+      <c r="AK147" s="32"/>
+      <c r="AL147" s="32"/>
+      <c r="AM147" s="32"/>
+      <c r="AN147" s="32"/>
+      <c r="AO147" s="32"/>
+      <c r="AP147" s="32"/>
+      <c r="AQ147" s="32"/>
+      <c r="AR147" s="32"/>
+      <c r="AS147" s="32"/>
+      <c r="AT147" s="32"/>
+      <c r="AU147" s="32"/>
+      <c r="AV147" s="32"/>
+      <c r="AW147" s="32"/>
+      <c r="AX147" s="32"/>
+      <c r="AY147" s="32"/>
+      <c r="AZ147" s="32"/>
+      <c r="BA147" s="32"/>
+      <c r="BB147" s="32"/>
+      <c r="BC147" s="32"/>
+      <c r="BD147" s="32"/>
+      <c r="BE147" s="32"/>
+      <c r="BF147" s="32"/>
+      <c r="BG147" s="32"/>
+      <c r="BH147" s="32"/>
+      <c r="BI147" s="32"/>
+      <c r="BJ147" s="32"/>
+      <c r="BK147" s="32"/>
+      <c r="BL147" s="32"/>
+      <c r="BM147" s="32"/>
+      <c r="BN147" s="32"/>
+      <c r="BO147" s="32"/>
+      <c r="BP147" s="32"/>
+      <c r="BQ147" s="32"/>
+      <c r="BR147" s="32"/>
+      <c r="BS147" s="32"/>
+      <c r="BT147" s="32"/>
+      <c r="BU147" s="32"/>
+      <c r="BV147" s="32"/>
+      <c r="BW147" s="32"/>
+      <c r="BX147" s="32"/>
+      <c r="BY147" s="32"/>
+      <c r="BZ147" s="32"/>
+      <c r="CA147" s="32"/>
+      <c r="CB147" s="32"/>
+      <c r="CC147" s="32"/>
+      <c r="CD147" s="32"/>
+      <c r="CE147" s="32"/>
+      <c r="CF147" s="32"/>
+      <c r="CG147" s="32"/>
+      <c r="CH147" s="32"/>
+      <c r="CI147" s="32"/>
+      <c r="CJ147" s="32"/>
+      <c r="CK147" s="32"/>
+      <c r="CL147" s="32"/>
+      <c r="CM147" s="32"/>
+      <c r="CN147" s="32"/>
+      <c r="CO147" s="32"/>
+      <c r="CP147" s="32"/>
+      <c r="CQ147" s="32"/>
+      <c r="CR147" s="32"/>
+      <c r="CS147" s="32"/>
+      <c r="CT147" s="32"/>
+      <c r="CU147" s="32"/>
+      <c r="CV147" s="32"/>
+      <c r="CW147" s="32"/>
+      <c r="CX147" s="33"/>
+      <c r="CY147" s="11"/>
     </row>
-    <row r="149" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="150" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="D150" s="24"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="49"/>
+    <row r="148" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A148" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="40"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="41"/>
+      <c r="K148" s="41"/>
+      <c r="L148" s="41"/>
+      <c r="M148" s="41"/>
+      <c r="N148" s="41"/>
+      <c r="O148" s="41"/>
+      <c r="P148" s="41"/>
+      <c r="Q148" s="41"/>
+      <c r="R148" s="41"/>
+      <c r="S148" s="41"/>
+      <c r="T148" s="41"/>
+      <c r="U148" s="41"/>
+      <c r="V148" s="41"/>
+      <c r="W148" s="41"/>
+      <c r="X148" s="41"/>
+      <c r="Y148" s="41"/>
+      <c r="Z148" s="41"/>
+      <c r="AA148" s="41"/>
+      <c r="AB148" s="41"/>
+      <c r="AC148" s="41"/>
+      <c r="AD148" s="41"/>
+      <c r="AE148" s="41"/>
+      <c r="AF148" s="41"/>
+      <c r="AG148" s="41"/>
+      <c r="AH148" s="41"/>
+      <c r="AI148" s="41"/>
+      <c r="AJ148" s="41"/>
+      <c r="AK148" s="41"/>
+      <c r="AL148" s="41"/>
+      <c r="AM148" s="41"/>
+      <c r="AN148" s="41"/>
+      <c r="AO148" s="41"/>
+      <c r="AP148" s="41"/>
+      <c r="AQ148" s="41"/>
+      <c r="AR148" s="41"/>
+      <c r="AS148" s="41"/>
+      <c r="AT148" s="41"/>
+      <c r="AU148" s="41"/>
+      <c r="AV148" s="41"/>
+      <c r="AW148" s="41"/>
+      <c r="AX148" s="41"/>
+      <c r="AY148" s="41"/>
+      <c r="AZ148" s="41"/>
+      <c r="BA148" s="41"/>
+      <c r="BB148" s="41"/>
+      <c r="BC148" s="41"/>
+      <c r="BD148" s="41"/>
+      <c r="BE148" s="41"/>
+      <c r="BF148" s="41"/>
+      <c r="BG148" s="41"/>
+      <c r="BH148" s="41"/>
+      <c r="BI148" s="41"/>
+      <c r="BJ148" s="41"/>
+      <c r="BK148" s="41"/>
+      <c r="BL148" s="41"/>
+      <c r="BM148" s="41"/>
+      <c r="BN148" s="41"/>
+      <c r="BO148" s="41"/>
+      <c r="BP148" s="41"/>
+      <c r="BQ148" s="41"/>
+      <c r="BR148" s="41"/>
+      <c r="BS148" s="41"/>
+      <c r="BT148" s="41"/>
+      <c r="BU148" s="41"/>
+      <c r="BV148" s="41"/>
+      <c r="BW148" s="41"/>
+      <c r="BX148" s="41"/>
+      <c r="BY148" s="41"/>
+      <c r="BZ148" s="41"/>
+      <c r="CA148" s="41"/>
+      <c r="CB148" s="41"/>
+      <c r="CC148" s="41"/>
+      <c r="CD148" s="41"/>
+      <c r="CE148" s="41"/>
+      <c r="CF148" s="41"/>
+      <c r="CG148" s="41"/>
+      <c r="CH148" s="41"/>
+      <c r="CI148" s="41"/>
+      <c r="CJ148" s="41"/>
+      <c r="CK148" s="41"/>
+      <c r="CL148" s="41"/>
+      <c r="CM148" s="41"/>
+      <c r="CN148" s="41"/>
+      <c r="CO148" s="41"/>
+      <c r="CP148" s="41"/>
+      <c r="CQ148" s="41"/>
+      <c r="CR148" s="41"/>
+      <c r="CS148" s="41"/>
+      <c r="CT148" s="41"/>
+      <c r="CU148" s="41"/>
+      <c r="CV148" s="41"/>
+      <c r="CW148" s="41"/>
+      <c r="CX148" s="42"/>
     </row>
-    <row r="151" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="D151" s="26"/>
-      <c r="E151" s="20" t="s">
+    <row r="149" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A149" s="78"/>
+      <c r="B149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="83">
+        <v>18.04</v>
+      </c>
+      <c r="E149" s="82">
+        <v>25.04</v>
+      </c>
+      <c r="F149" s="31"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
+      <c r="J149" s="32"/>
+      <c r="K149" s="32"/>
+      <c r="L149" s="32"/>
+      <c r="M149" s="32"/>
+      <c r="N149" s="32"/>
+      <c r="O149" s="32"/>
+      <c r="P149" s="32"/>
+      <c r="Q149" s="32"/>
+      <c r="R149" s="32"/>
+      <c r="S149" s="32"/>
+      <c r="T149" s="32"/>
+      <c r="U149" s="32"/>
+      <c r="V149" s="32"/>
+      <c r="W149" s="32"/>
+      <c r="X149" s="32"/>
+      <c r="Y149" s="32"/>
+      <c r="Z149" s="32"/>
+      <c r="AA149" s="32"/>
+      <c r="AB149" s="32"/>
+      <c r="AC149" s="32"/>
+      <c r="AD149" s="32"/>
+      <c r="AE149" s="32"/>
+      <c r="AF149" s="32"/>
+      <c r="AG149" s="32"/>
+      <c r="AH149" s="32"/>
+      <c r="AI149" s="32"/>
+      <c r="AJ149" s="32"/>
+      <c r="AK149" s="32"/>
+      <c r="AL149" s="32"/>
+      <c r="AM149" s="32"/>
+      <c r="AN149" s="32"/>
+      <c r="AO149" s="32"/>
+      <c r="AP149" s="32"/>
+      <c r="AQ149" s="32"/>
+      <c r="AR149" s="32"/>
+      <c r="AS149" s="32"/>
+      <c r="AT149" s="32"/>
+      <c r="AU149" s="32"/>
+      <c r="AV149" s="32"/>
+      <c r="AW149" s="32"/>
+      <c r="AX149" s="32"/>
+      <c r="AY149" s="32"/>
+      <c r="AZ149" s="32"/>
+      <c r="BA149" s="32"/>
+      <c r="BB149" s="32"/>
+      <c r="BC149" s="32"/>
+      <c r="BD149" s="32"/>
+      <c r="BE149" s="32"/>
+      <c r="BF149" s="32"/>
+      <c r="BG149" s="32"/>
+      <c r="BH149" s="32"/>
+      <c r="BI149" s="32"/>
+      <c r="BJ149" s="32"/>
+      <c r="BK149" s="32"/>
+      <c r="BL149" s="32"/>
+      <c r="BM149" s="32"/>
+      <c r="BN149" s="32"/>
+      <c r="BO149" s="32"/>
+      <c r="BP149" s="32"/>
+      <c r="BQ149" s="32"/>
+      <c r="BR149" s="32"/>
+      <c r="BS149" s="32"/>
+      <c r="BT149" s="32"/>
+      <c r="BU149" s="32"/>
+      <c r="BV149" s="32"/>
+      <c r="BW149" s="32"/>
+      <c r="BX149" s="32"/>
+      <c r="BY149" s="32"/>
+      <c r="BZ149" s="32"/>
+      <c r="CA149" s="32"/>
+      <c r="CB149" s="32"/>
+      <c r="CC149" s="32"/>
+      <c r="CD149" s="32"/>
+      <c r="CE149" s="32"/>
+      <c r="CF149" s="32"/>
+      <c r="CG149" s="32"/>
+      <c r="CH149" s="32"/>
+      <c r="CI149" s="32"/>
+      <c r="CJ149" s="32"/>
+      <c r="CK149" s="32"/>
+      <c r="CL149" s="32"/>
+      <c r="CM149" s="32"/>
+      <c r="CN149" s="32"/>
+      <c r="CO149" s="32"/>
+      <c r="CP149" s="32"/>
+      <c r="CQ149" s="32"/>
+      <c r="CR149" s="32"/>
+      <c r="CS149" s="32"/>
+      <c r="CT149" s="32"/>
+      <c r="CU149" s="32"/>
+      <c r="CV149" s="32"/>
+      <c r="CW149" s="32"/>
+      <c r="CX149" s="33"/>
+    </row>
+    <row r="150" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A150" s="79"/>
+      <c r="B150" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="83"/>
+      <c r="E150" s="82"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="32"/>
+      <c r="K150" s="32"/>
+      <c r="L150" s="32"/>
+      <c r="M150" s="32"/>
+      <c r="N150" s="32"/>
+      <c r="O150" s="32"/>
+      <c r="P150" s="32"/>
+      <c r="Q150" s="32"/>
+      <c r="R150" s="32"/>
+      <c r="S150" s="32"/>
+      <c r="T150" s="32"/>
+      <c r="U150" s="32"/>
+      <c r="V150" s="32"/>
+      <c r="W150" s="32"/>
+      <c r="X150" s="32"/>
+      <c r="Y150" s="32"/>
+      <c r="Z150" s="32"/>
+      <c r="AA150" s="32"/>
+      <c r="AB150" s="32"/>
+      <c r="AC150" s="32"/>
+      <c r="AD150" s="32"/>
+      <c r="AE150" s="32"/>
+      <c r="AF150" s="32"/>
+      <c r="AG150" s="32"/>
+      <c r="AH150" s="32"/>
+      <c r="AI150" s="32"/>
+      <c r="AJ150" s="32"/>
+      <c r="AK150" s="32"/>
+      <c r="AL150" s="32"/>
+      <c r="AM150" s="32"/>
+      <c r="AN150" s="32"/>
+      <c r="AO150" s="32"/>
+      <c r="AP150" s="32"/>
+      <c r="AQ150" s="32"/>
+      <c r="AR150" s="32"/>
+      <c r="AS150" s="32"/>
+      <c r="AT150" s="32"/>
+      <c r="AU150" s="32"/>
+      <c r="AV150" s="32"/>
+      <c r="AW150" s="32"/>
+      <c r="AX150" s="32"/>
+      <c r="AY150" s="32"/>
+      <c r="AZ150" s="32"/>
+      <c r="BA150" s="32"/>
+      <c r="BB150" s="32"/>
+      <c r="BC150" s="32"/>
+      <c r="BD150" s="32"/>
+      <c r="BE150" s="32"/>
+      <c r="BF150" s="32"/>
+      <c r="BG150" s="32"/>
+      <c r="BH150" s="32"/>
+      <c r="BI150" s="32"/>
+      <c r="BJ150" s="32"/>
+      <c r="BK150" s="32"/>
+      <c r="BL150" s="32"/>
+      <c r="BM150" s="32"/>
+      <c r="BN150" s="32"/>
+      <c r="BO150" s="32"/>
+      <c r="BP150" s="32"/>
+      <c r="BQ150" s="32"/>
+      <c r="BR150" s="32"/>
+      <c r="BS150" s="32"/>
+      <c r="BT150" s="32"/>
+      <c r="BU150" s="32"/>
+      <c r="BV150" s="32"/>
+      <c r="BW150" s="32"/>
+      <c r="BX150" s="32"/>
+      <c r="BY150" s="32"/>
+      <c r="BZ150" s="32"/>
+      <c r="CA150" s="32"/>
+      <c r="CB150" s="32"/>
+      <c r="CC150" s="32"/>
+      <c r="CD150" s="32"/>
+      <c r="CE150" s="32"/>
+      <c r="CF150" s="32"/>
+      <c r="CG150" s="32"/>
+      <c r="CH150" s="32"/>
+      <c r="CI150" s="32"/>
+      <c r="CJ150" s="32"/>
+      <c r="CK150" s="32"/>
+      <c r="CL150" s="32"/>
+      <c r="CM150" s="32"/>
+      <c r="CN150" s="32"/>
+      <c r="CO150" s="32"/>
+      <c r="CP150" s="32"/>
+      <c r="CQ150" s="32"/>
+      <c r="CR150" s="32"/>
+      <c r="CS150" s="32"/>
+      <c r="CT150" s="32"/>
+      <c r="CU150" s="32"/>
+      <c r="CV150" s="32"/>
+      <c r="CW150" s="32"/>
+      <c r="CX150" s="33"/>
+    </row>
+    <row r="151" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A151" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="40"/>
+      <c r="G151" s="41"/>
+      <c r="H151" s="41"/>
+      <c r="I151" s="41"/>
+      <c r="J151" s="41"/>
+      <c r="K151" s="41"/>
+      <c r="L151" s="41"/>
+      <c r="M151" s="41"/>
+      <c r="N151" s="41"/>
+      <c r="O151" s="41"/>
+      <c r="P151" s="41"/>
+      <c r="Q151" s="41"/>
+      <c r="R151" s="41"/>
+      <c r="S151" s="41"/>
+      <c r="T151" s="41"/>
+      <c r="U151" s="41"/>
+      <c r="V151" s="41"/>
+      <c r="W151" s="41"/>
+      <c r="X151" s="41"/>
+      <c r="Y151" s="41"/>
+      <c r="Z151" s="41"/>
+      <c r="AA151" s="41"/>
+      <c r="AB151" s="41"/>
+      <c r="AC151" s="41"/>
+      <c r="AD151" s="41"/>
+      <c r="AE151" s="41"/>
+      <c r="AF151" s="41"/>
+      <c r="AG151" s="41"/>
+      <c r="AH151" s="41"/>
+      <c r="AI151" s="41"/>
+      <c r="AJ151" s="41"/>
+      <c r="AK151" s="41"/>
+      <c r="AL151" s="41"/>
+      <c r="AM151" s="41"/>
+      <c r="AN151" s="41"/>
+      <c r="AO151" s="41"/>
+      <c r="AP151" s="41"/>
+      <c r="AQ151" s="41"/>
+      <c r="AR151" s="41"/>
+      <c r="AS151" s="41"/>
+      <c r="AT151" s="41"/>
+      <c r="AU151" s="41"/>
+      <c r="AV151" s="41"/>
+      <c r="AW151" s="41"/>
+      <c r="AX151" s="41"/>
+      <c r="AY151" s="41"/>
+      <c r="AZ151" s="41"/>
+      <c r="BA151" s="41"/>
+      <c r="BB151" s="41"/>
+      <c r="BC151" s="41"/>
+      <c r="BD151" s="41"/>
+      <c r="BE151" s="41"/>
+      <c r="BF151" s="41"/>
+      <c r="BG151" s="41"/>
+      <c r="BH151" s="41"/>
+      <c r="BI151" s="41"/>
+      <c r="BJ151" s="41"/>
+      <c r="BK151" s="41"/>
+      <c r="BL151" s="41"/>
+      <c r="BM151" s="41"/>
+      <c r="BN151" s="41"/>
+      <c r="BO151" s="41"/>
+      <c r="BP151" s="41"/>
+      <c r="BQ151" s="41"/>
+      <c r="BR151" s="41"/>
+      <c r="BS151" s="41"/>
+      <c r="BT151" s="41"/>
+      <c r="BU151" s="41"/>
+      <c r="BV151" s="41"/>
+      <c r="BW151" s="41"/>
+      <c r="BX151" s="41"/>
+      <c r="BY151" s="41"/>
+      <c r="BZ151" s="41"/>
+      <c r="CA151" s="41"/>
+      <c r="CB151" s="41"/>
+      <c r="CC151" s="41"/>
+      <c r="CD151" s="41"/>
+      <c r="CE151" s="41"/>
+      <c r="CF151" s="41"/>
+      <c r="CG151" s="41"/>
+      <c r="CH151" s="41"/>
+      <c r="CI151" s="41"/>
+      <c r="CJ151" s="41"/>
+      <c r="CK151" s="41"/>
+      <c r="CL151" s="41"/>
+      <c r="CM151" s="41"/>
+      <c r="CN151" s="41"/>
+      <c r="CO151" s="41"/>
+      <c r="CP151" s="41"/>
+      <c r="CQ151" s="41"/>
+      <c r="CR151" s="41"/>
+      <c r="CS151" s="41"/>
+      <c r="CT151" s="41"/>
+      <c r="CU151" s="41"/>
+      <c r="CV151" s="41"/>
+      <c r="CW151" s="41"/>
+      <c r="CX151" s="42"/>
+    </row>
+    <row r="152" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A152" s="78"/>
+      <c r="B152" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="83">
+        <v>18.04</v>
+      </c>
+      <c r="E152" s="82">
+        <v>25.04</v>
+      </c>
+      <c r="F152" s="31"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="32"/>
+      <c r="K152" s="32"/>
+      <c r="L152" s="32"/>
+      <c r="M152" s="32"/>
+      <c r="N152" s="32"/>
+      <c r="O152" s="32"/>
+      <c r="P152" s="32"/>
+      <c r="Q152" s="32"/>
+      <c r="R152" s="32"/>
+      <c r="S152" s="32"/>
+      <c r="T152" s="32"/>
+      <c r="U152" s="32"/>
+      <c r="V152" s="32"/>
+      <c r="W152" s="32"/>
+      <c r="X152" s="32"/>
+      <c r="Y152" s="32"/>
+      <c r="Z152" s="32"/>
+      <c r="AA152" s="32"/>
+      <c r="AB152" s="32"/>
+      <c r="AC152" s="32"/>
+      <c r="AD152" s="32"/>
+      <c r="AE152" s="32"/>
+      <c r="AF152" s="32"/>
+      <c r="AG152" s="32"/>
+      <c r="AH152" s="32"/>
+      <c r="AI152" s="32"/>
+      <c r="AJ152" s="32"/>
+      <c r="AK152" s="32"/>
+      <c r="AL152" s="32"/>
+      <c r="AM152" s="32"/>
+      <c r="AN152" s="32"/>
+      <c r="AO152" s="32"/>
+      <c r="AP152" s="32"/>
+      <c r="AQ152" s="32"/>
+      <c r="AR152" s="32"/>
+      <c r="AS152" s="32"/>
+      <c r="AT152" s="32"/>
+      <c r="AU152" s="32"/>
+      <c r="AV152" s="32"/>
+      <c r="AW152" s="32"/>
+      <c r="AX152" s="32"/>
+      <c r="AY152" s="32"/>
+      <c r="AZ152" s="32"/>
+      <c r="BA152" s="32"/>
+      <c r="BB152" s="32"/>
+      <c r="BC152" s="32"/>
+      <c r="BD152" s="32"/>
+      <c r="BE152" s="32"/>
+      <c r="BF152" s="32"/>
+      <c r="BG152" s="32"/>
+      <c r="BH152" s="32"/>
+      <c r="BI152" s="32"/>
+      <c r="BJ152" s="32"/>
+      <c r="BK152" s="32"/>
+      <c r="BL152" s="32"/>
+      <c r="BM152" s="32"/>
+      <c r="BN152" s="32"/>
+      <c r="BO152" s="32"/>
+      <c r="BP152" s="32"/>
+      <c r="BQ152" s="32"/>
+      <c r="BR152" s="32"/>
+      <c r="BS152" s="32"/>
+      <c r="BT152" s="32"/>
+      <c r="BU152" s="32"/>
+      <c r="BV152" s="32"/>
+      <c r="BW152" s="32"/>
+      <c r="BX152" s="32"/>
+      <c r="BY152" s="32"/>
+      <c r="BZ152" s="32"/>
+      <c r="CA152" s="32"/>
+      <c r="CB152" s="32"/>
+      <c r="CC152" s="32"/>
+      <c r="CD152" s="32"/>
+      <c r="CE152" s="32"/>
+      <c r="CF152" s="32"/>
+      <c r="CG152" s="32"/>
+      <c r="CH152" s="32"/>
+      <c r="CI152" s="32"/>
+      <c r="CJ152" s="32"/>
+      <c r="CK152" s="32"/>
+      <c r="CL152" s="32"/>
+      <c r="CM152" s="32"/>
+      <c r="CN152" s="32"/>
+      <c r="CO152" s="32"/>
+      <c r="CP152" s="32"/>
+      <c r="CQ152" s="32"/>
+      <c r="CR152" s="32"/>
+      <c r="CS152" s="32"/>
+      <c r="CT152" s="32"/>
+      <c r="CU152" s="32"/>
+      <c r="CV152" s="32"/>
+      <c r="CW152" s="32"/>
+      <c r="CX152" s="33"/>
+    </row>
+    <row r="153" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A153" s="79"/>
+      <c r="B153" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="83"/>
+      <c r="E153" s="82"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="32"/>
+      <c r="I153" s="32"/>
+      <c r="J153" s="32"/>
+      <c r="K153" s="32"/>
+      <c r="L153" s="32"/>
+      <c r="M153" s="32"/>
+      <c r="N153" s="32"/>
+      <c r="O153" s="32"/>
+      <c r="P153" s="32"/>
+      <c r="Q153" s="32"/>
+      <c r="R153" s="32"/>
+      <c r="S153" s="32"/>
+      <c r="T153" s="32"/>
+      <c r="U153" s="32"/>
+      <c r="V153" s="32"/>
+      <c r="W153" s="32"/>
+      <c r="X153" s="32"/>
+      <c r="Y153" s="32"/>
+      <c r="Z153" s="32"/>
+      <c r="AA153" s="32"/>
+      <c r="AB153" s="32"/>
+      <c r="AC153" s="32"/>
+      <c r="AD153" s="32"/>
+      <c r="AE153" s="32"/>
+      <c r="AF153" s="32"/>
+      <c r="AG153" s="32"/>
+      <c r="AH153" s="32"/>
+      <c r="AI153" s="32"/>
+      <c r="AJ153" s="32"/>
+      <c r="AK153" s="32"/>
+      <c r="AL153" s="32"/>
+      <c r="AM153" s="32"/>
+      <c r="AN153" s="32"/>
+      <c r="AO153" s="32"/>
+      <c r="AP153" s="32"/>
+      <c r="AQ153" s="32"/>
+      <c r="AR153" s="32"/>
+      <c r="AS153" s="32"/>
+      <c r="AT153" s="32"/>
+      <c r="AU153" s="32"/>
+      <c r="AV153" s="32"/>
+      <c r="AW153" s="32"/>
+      <c r="AX153" s="32"/>
+      <c r="AY153" s="32"/>
+      <c r="AZ153" s="32"/>
+      <c r="BA153" s="32"/>
+      <c r="BB153" s="32"/>
+      <c r="BC153" s="32"/>
+      <c r="BD153" s="32"/>
+      <c r="BE153" s="32"/>
+      <c r="BF153" s="32"/>
+      <c r="BG153" s="32"/>
+      <c r="BH153" s="32"/>
+      <c r="BI153" s="32"/>
+      <c r="BJ153" s="32"/>
+      <c r="BK153" s="32"/>
+      <c r="BL153" s="32"/>
+      <c r="BM153" s="32"/>
+      <c r="BN153" s="32"/>
+      <c r="BO153" s="32"/>
+      <c r="BP153" s="32"/>
+      <c r="BQ153" s="32"/>
+      <c r="BR153" s="32"/>
+      <c r="BS153" s="32"/>
+      <c r="BT153" s="32"/>
+      <c r="BU153" s="32"/>
+      <c r="BV153" s="32"/>
+      <c r="BW153" s="32"/>
+      <c r="BX153" s="32"/>
+      <c r="BY153" s="32"/>
+      <c r="BZ153" s="32"/>
+      <c r="CA153" s="32"/>
+      <c r="CB153" s="32"/>
+      <c r="CC153" s="32"/>
+      <c r="CD153" s="32"/>
+      <c r="CE153" s="32"/>
+      <c r="CF153" s="32"/>
+      <c r="CG153" s="32"/>
+      <c r="CH153" s="32"/>
+      <c r="CI153" s="32"/>
+      <c r="CJ153" s="32"/>
+      <c r="CK153" s="32"/>
+      <c r="CL153" s="32"/>
+      <c r="CM153" s="32"/>
+      <c r="CN153" s="32"/>
+      <c r="CO153" s="32"/>
+      <c r="CP153" s="32"/>
+      <c r="CQ153" s="32"/>
+      <c r="CR153" s="32"/>
+      <c r="CS153" s="32"/>
+      <c r="CT153" s="32"/>
+      <c r="CU153" s="32"/>
+      <c r="CV153" s="32"/>
+      <c r="CW153" s="32"/>
+      <c r="CX153" s="33"/>
+    </row>
+    <row r="154" spans="1:103" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A154" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="74">
+        <v>44348</v>
+      </c>
+      <c r="E154" s="75"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="32"/>
+      <c r="J154" s="32"/>
+      <c r="K154" s="32"/>
+      <c r="L154" s="32"/>
+      <c r="M154" s="32"/>
+      <c r="N154" s="32"/>
+      <c r="O154" s="32"/>
+      <c r="P154" s="32"/>
+      <c r="Q154" s="32"/>
+      <c r="R154" s="32"/>
+      <c r="S154" s="32"/>
+      <c r="T154" s="32"/>
+      <c r="U154" s="32"/>
+      <c r="V154" s="32"/>
+      <c r="W154" s="32"/>
+      <c r="X154" s="32"/>
+      <c r="Y154" s="32"/>
+      <c r="Z154" s="32"/>
+      <c r="AA154" s="32"/>
+      <c r="AB154" s="32"/>
+      <c r="AC154" s="32"/>
+      <c r="AD154" s="32"/>
+      <c r="AE154" s="32"/>
+      <c r="AF154" s="32"/>
+      <c r="AG154" s="32"/>
+      <c r="AH154" s="32"/>
+      <c r="AI154" s="32"/>
+      <c r="AJ154" s="32"/>
+      <c r="AK154" s="32"/>
+      <c r="AL154" s="32"/>
+      <c r="AM154" s="32"/>
+      <c r="AN154" s="32"/>
+      <c r="AO154" s="32"/>
+      <c r="AP154" s="32"/>
+      <c r="AQ154" s="32"/>
+      <c r="AR154" s="32"/>
+      <c r="AS154" s="32"/>
+      <c r="AT154" s="32"/>
+      <c r="AU154" s="32"/>
+      <c r="AV154" s="32"/>
+      <c r="AW154" s="32"/>
+      <c r="AX154" s="32"/>
+      <c r="AY154" s="32"/>
+      <c r="AZ154" s="32"/>
+      <c r="BA154" s="32"/>
+      <c r="BB154" s="32"/>
+      <c r="BC154" s="32"/>
+      <c r="BD154" s="32"/>
+      <c r="BE154" s="32"/>
+      <c r="BF154" s="32"/>
+      <c r="BG154" s="32"/>
+      <c r="BH154" s="32"/>
+      <c r="BI154" s="32"/>
+      <c r="BJ154" s="32"/>
+      <c r="BK154" s="32"/>
+      <c r="BL154" s="32"/>
+      <c r="BM154" s="32"/>
+      <c r="BN154" s="32"/>
+      <c r="BO154" s="32"/>
+      <c r="BP154" s="32"/>
+      <c r="BQ154" s="32"/>
+      <c r="BR154" s="32"/>
+      <c r="BS154" s="32"/>
+      <c r="BT154" s="32"/>
+      <c r="BU154" s="32"/>
+      <c r="BV154" s="32"/>
+      <c r="BW154" s="32"/>
+      <c r="BX154" s="32"/>
+      <c r="BY154" s="32"/>
+      <c r="BZ154" s="32"/>
+      <c r="CA154" s="32"/>
+      <c r="CB154" s="32"/>
+      <c r="CC154" s="32"/>
+      <c r="CD154" s="32"/>
+      <c r="CE154" s="32"/>
+      <c r="CF154" s="32"/>
+      <c r="CG154" s="32"/>
+      <c r="CH154" s="32"/>
+      <c r="CI154" s="32"/>
+      <c r="CJ154" s="32"/>
+      <c r="CK154" s="32"/>
+      <c r="CL154" s="32"/>
+      <c r="CM154" s="32"/>
+      <c r="CN154" s="32"/>
+      <c r="CO154" s="32"/>
+      <c r="CP154" s="32"/>
+      <c r="CQ154" s="32"/>
+      <c r="CR154" s="32"/>
+      <c r="CS154" s="32"/>
+      <c r="CT154" s="32"/>
+      <c r="CU154" s="32"/>
+      <c r="CV154" s="32"/>
+      <c r="CW154" s="32"/>
+      <c r="CX154" s="33"/>
+    </row>
+    <row r="155" spans="1:103" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="13"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="47"/>
+      <c r="G155" s="47"/>
+      <c r="H155" s="47"/>
+      <c r="I155" s="47"/>
+      <c r="J155" s="47"/>
+      <c r="K155" s="47"/>
+      <c r="L155" s="47"/>
+      <c r="M155" s="47"/>
+      <c r="N155" s="47"/>
+      <c r="O155" s="47"/>
+      <c r="P155" s="47"/>
+      <c r="Q155" s="47"/>
+      <c r="R155" s="47"/>
+      <c r="S155" s="47"/>
+      <c r="T155" s="47"/>
+      <c r="U155" s="47"/>
+      <c r="V155" s="47"/>
+      <c r="W155" s="47"/>
+      <c r="X155" s="47"/>
+      <c r="Y155" s="47"/>
+      <c r="Z155" s="47"/>
+      <c r="AA155" s="47"/>
+      <c r="AB155" s="47"/>
+      <c r="AC155" s="47"/>
+      <c r="AD155" s="47"/>
+      <c r="AE155" s="47"/>
+      <c r="AF155" s="47"/>
+      <c r="AG155" s="47"/>
+      <c r="AH155" s="47"/>
+      <c r="AI155" s="47"/>
+      <c r="AJ155" s="47"/>
+      <c r="AK155" s="47"/>
+      <c r="AL155" s="47"/>
+      <c r="AM155" s="47"/>
+      <c r="AN155" s="47"/>
+      <c r="AO155" s="47"/>
+      <c r="AP155" s="47"/>
+      <c r="AQ155" s="47"/>
+      <c r="AR155" s="47"/>
+      <c r="AS155" s="47"/>
+      <c r="AT155" s="47"/>
+      <c r="AU155" s="47"/>
+      <c r="AV155" s="47"/>
+      <c r="AW155" s="47"/>
+      <c r="AX155" s="47"/>
+      <c r="AY155" s="47"/>
+      <c r="AZ155" s="47"/>
+      <c r="BA155" s="47"/>
+      <c r="BB155" s="47"/>
+      <c r="BC155" s="47"/>
+      <c r="BD155" s="47"/>
+      <c r="BE155" s="47"/>
+      <c r="BF155" s="47"/>
+      <c r="BG155" s="47"/>
+      <c r="BH155" s="47"/>
+      <c r="BI155" s="47"/>
+      <c r="BJ155" s="47"/>
+      <c r="BK155" s="47"/>
+      <c r="BL155" s="47"/>
+      <c r="BM155" s="47"/>
+      <c r="BN155" s="47"/>
+      <c r="BO155" s="47"/>
+      <c r="BP155" s="47"/>
+      <c r="BQ155" s="47"/>
+      <c r="BR155" s="47"/>
+      <c r="BS155" s="47"/>
+      <c r="BT155" s="47"/>
+      <c r="BU155" s="47"/>
+      <c r="BV155" s="47"/>
+      <c r="BW155" s="47"/>
+      <c r="BX155" s="47"/>
+      <c r="BY155" s="47"/>
+      <c r="BZ155" s="47"/>
+      <c r="CA155" s="47"/>
+      <c r="CB155" s="47"/>
+      <c r="CC155" s="47"/>
+      <c r="CD155" s="47"/>
+      <c r="CE155" s="47"/>
+      <c r="CF155" s="47"/>
+      <c r="CG155" s="47"/>
+      <c r="CH155" s="47"/>
+      <c r="CI155" s="47"/>
+      <c r="CJ155" s="47"/>
+      <c r="CK155" s="47"/>
+      <c r="CL155" s="47"/>
+      <c r="CM155" s="47"/>
+      <c r="CN155" s="47"/>
+      <c r="CO155" s="47"/>
+      <c r="CP155" s="47"/>
+      <c r="CQ155" s="47"/>
+      <c r="CR155" s="47"/>
+      <c r="CS155" s="47"/>
+      <c r="CT155" s="47"/>
+      <c r="CU155" s="47"/>
+      <c r="CV155" s="47"/>
+      <c r="CW155" s="47"/>
+      <c r="CX155" s="47"/>
+    </row>
+    <row r="157" spans="1:103" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="158" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="D158" s="24"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="49"/>
+    </row>
+    <row r="159" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="D159" s="26"/>
+      <c r="E159" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F151" s="50"/>
+      <c r="F159" s="50"/>
     </row>
-    <row r="152" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="D152" s="28"/>
-      <c r="E152" s="20" t="s">
+    <row r="160" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="D160" s="28"/>
+      <c r="E160" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F152" s="50"/>
+      <c r="F160" s="50"/>
     </row>
-    <row r="153" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D153" s="29"/>
-      <c r="E153" s="27" t="s">
+    <row r="161" spans="4:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D161" s="29"/>
+      <c r="E161" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F153" s="51"/>
+      <c r="F161" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="169">
+  <mergeCells count="181">
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="A26:A27"/>
@@ -18843,151 +19953,6 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D87:D88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitsplan/Iteration_Arbeitsplan.xlsx
+++ b/Arbeitsplan/Iteration_Arbeitsplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakoc\PSE_DELIVERABLES\Arbeitsplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meni\Documents\GitHub\PSE_DELIVERABLES\Arbeitsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33C08A-D153-4CF8-B99A-342B67EF989C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3589A761-E9A8-4ECB-B805-33431C06CF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="72">
   <si>
     <t>Zeitplan PSE eonum AG</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>Kallender fertigstellen</t>
+  </si>
+  <si>
+    <t>search/report/fix bugs</t>
+  </si>
+  <si>
+    <t>change button label and show full label</t>
+  </si>
+  <si>
+    <t>Planen/Vorbereite/Durchführen von Usability-Tests</t>
   </si>
 </sst>
 </file>
@@ -923,6 +932,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,9 +945,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -956,16 +965,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -974,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1018,13 +1027,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1192,13 +1201,13 @@
     <xdr:from>
       <xdr:col>75</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1250,13 +1259,13 @@
     <xdr:from>
       <xdr:col>89</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1308,13 +1317,13 @@
     <xdr:from>
       <xdr:col>101</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>101</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1662,11 +1671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD384E66-6977-4A33-945E-14F730629694}">
-  <dimension ref="A1:CY153"/>
+  <dimension ref="A1:CY159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BU112" sqref="BU112"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BX103" activeCellId="12" sqref="BA101 BE99 BM99 BN99 BL99 BM101 BN101 BP103 BS97 BU97 BV103 BW103 BX103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2427,7 +2436,7 @@
       <c r="CY5" s="21"/>
     </row>
     <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2436,7 +2445,7 @@
       <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="77">
         <v>23.02</v>
       </c>
       <c r="E6" s="80">
@@ -2548,7 +2557,7 @@
       <c r="CY6" s="21"/>
     </row>
     <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2663,7 +2672,7 @@
       <c r="CY7" s="21"/>
     </row>
     <row r="8" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="75" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2672,7 +2681,7 @@
       <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="77">
         <v>23.02</v>
       </c>
       <c r="E8" s="80">
@@ -2780,7 +2789,7 @@
       <c r="CY8" s="21"/>
     </row>
     <row r="9" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
@@ -3006,7 +3015,7 @@
       <c r="CY10" s="21"/>
     </row>
     <row r="11" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="75" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3016,7 +3025,7 @@
         <f>SUM(F11:CX11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="77">
         <v>23.02</v>
       </c>
       <c r="E11" s="80">
@@ -3124,7 +3133,7 @@
       <c r="CY11" s="21"/>
     </row>
     <row r="12" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
@@ -3236,7 +3245,7 @@
       <c r="CY12" s="21"/>
     </row>
     <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="75" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="57" t="s">
@@ -3246,7 +3255,7 @@
         <f>SUM(F13:CX13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="77">
         <v>23.02</v>
       </c>
       <c r="E13" s="80">
@@ -3588,7 +3597,7 @@
       <c r="CY15" s="21"/>
     </row>
     <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="75" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -3597,7 +3606,7 @@
       <c r="C16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="77">
         <v>23.02</v>
       </c>
       <c r="E16" s="80">
@@ -3712,7 +3721,7 @@
       <c r="C17" s="64">
         <v>3</v>
       </c>
-      <c r="D17" s="77"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="84"/>
       <c r="F17" s="31"/>
       <c r="G17" s="32"/>
@@ -3825,7 +3834,7 @@
       <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="78">
         <v>23.02</v>
       </c>
       <c r="E18" s="84">
@@ -3935,7 +3944,7 @@
       <c r="CY18" s="21"/>
     </row>
     <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
@@ -4163,7 +4172,7 @@
       <c r="CY20" s="21"/>
     </row>
     <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="75" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4172,7 +4181,7 @@
       <c r="C21" s="54">
         <v>1</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="77">
         <v>23.02</v>
       </c>
       <c r="E21" s="80">
@@ -4280,7 +4289,7 @@
       <c r="CY21" s="21"/>
     </row>
     <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
@@ -4391,7 +4400,7 @@
       <c r="CY22" s="21"/>
     </row>
     <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="75" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4401,7 +4410,7 @@
         <f>SUM(F23:CX23)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="77">
         <v>23.02</v>
       </c>
       <c r="E23" s="80">
@@ -4515,7 +4524,7 @@
       <c r="CY23" s="21"/>
     </row>
     <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="7" t="s">
         <v>8</v>
       </c>
@@ -4740,7 +4749,7 @@
       <c r="CY25" s="21"/>
     </row>
     <row r="26" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="75" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4749,7 +4758,7 @@
       <c r="C26" s="9">
         <v>4.5</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="77">
         <v>23.02</v>
       </c>
       <c r="E26" s="80">
@@ -4863,7 +4872,7 @@
       <c r="CY26" s="21"/>
     </row>
     <row r="27" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A27" s="75"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
@@ -4980,7 +4989,7 @@
       <c r="CY27" s="21"/>
     </row>
     <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="75" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4989,7 +4998,7 @@
       <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="77">
         <v>23.02</v>
       </c>
       <c r="E28" s="80">
@@ -5099,7 +5108,7 @@
       <c r="CY28" s="21"/>
     </row>
     <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
@@ -5212,7 +5221,7 @@
       <c r="CY29" s="21"/>
     </row>
     <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="75" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -5221,7 +5230,7 @@
       <c r="C30" s="9">
         <v>4</v>
       </c>
-      <c r="D30" s="76">
+      <c r="D30" s="77">
         <v>23.02</v>
       </c>
       <c r="E30" s="80">
@@ -5333,7 +5342,7 @@
       <c r="CY30" s="21"/>
     </row>
     <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
@@ -5453,10 +5462,10 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="85">
+      <c r="D32" s="87">
         <v>44636</v>
       </c>
-      <c r="E32" s="86"/>
+      <c r="E32" s="88"/>
       <c r="F32" s="31"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -5789,7 +5798,7 @@
       <c r="CY34" s="21"/>
     </row>
     <row r="35" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="75" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -5798,10 +5807,10 @@
       <c r="C35" s="9">
         <v>3</v>
       </c>
-      <c r="D35" s="77">
+      <c r="D35" s="78">
         <v>23.03</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="74">
         <v>6.04</v>
       </c>
       <c r="F35" s="31"/>
@@ -5910,15 +5919,15 @@
       <c r="CY35" s="21"/>
     </row>
     <row r="36" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A36" s="75"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="9">
         <v>6</v>
       </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -6025,7 +6034,7 @@
       <c r="CY36" s="21"/>
     </row>
     <row r="37" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="75" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -6034,10 +6043,10 @@
       <c r="C37" s="9">
         <v>2</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="78">
         <v>23.03</v>
       </c>
-      <c r="E37" s="78">
+      <c r="E37" s="74">
         <v>6.04</v>
       </c>
       <c r="F37" s="31"/>
@@ -6142,15 +6151,15 @@
       <c r="CY37" s="21"/>
     </row>
     <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="75"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="9">
         <v>3</v>
       </c>
-      <c r="D38" s="77"/>
-      <c r="E38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -6253,7 +6262,7 @@
       <c r="CY38" s="21"/>
     </row>
     <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="75" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -6262,10 +6271,10 @@
       <c r="C39" s="9">
         <v>2</v>
       </c>
-      <c r="D39" s="77">
+      <c r="D39" s="78">
         <v>23.03</v>
       </c>
-      <c r="E39" s="78">
+      <c r="E39" s="74">
         <v>6.04</v>
       </c>
       <c r="F39" s="31"/>
@@ -6372,15 +6381,15 @@
       <c r="CY39" s="21"/>
     </row>
     <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="9">
         <v>2</v>
       </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="74"/>
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -6602,7 +6611,7 @@
       <c r="CY41" s="21"/>
     </row>
     <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="75" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -6612,7 +6621,7 @@
         <f>SUM(F42:AX42)</f>
         <v>11</v>
       </c>
-      <c r="D42" s="76" t="s">
+      <c r="D42" s="77" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="80">
@@ -6736,7 +6745,7 @@
       <c r="CY42" s="11"/>
     </row>
     <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="75"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="7" t="s">
         <v>8</v>
       </c>
@@ -6863,7 +6872,7 @@
       <c r="CY43" s="11"/>
     </row>
     <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="75" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -6873,7 +6882,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D44" s="76" t="s">
+      <c r="D44" s="77" t="s">
         <v>39</v>
       </c>
       <c r="E44" s="80">
@@ -6991,7 +7000,7 @@
       <c r="CY44" s="11"/>
     </row>
     <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="75"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="7" t="s">
         <v>8</v>
       </c>
@@ -7113,7 +7122,7 @@
       <c r="CY45" s="11"/>
     </row>
     <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="75" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -7123,7 +7132,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D46" s="76" t="s">
+      <c r="D46" s="77" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="80">
@@ -7231,7 +7240,7 @@
       <c r="CY46" s="11"/>
     </row>
     <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75"/>
+      <c r="A47" s="76"/>
       <c r="B47" s="7" t="s">
         <v>8</v>
       </c>
@@ -7343,7 +7352,7 @@
       <c r="CY47" s="11"/>
     </row>
     <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="75" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -7353,7 +7362,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D48" s="76" t="s">
+      <c r="D48" s="77" t="s">
         <v>39</v>
       </c>
       <c r="E48" s="80">
@@ -7461,7 +7470,7 @@
       <c r="CY48" s="11"/>
     </row>
     <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="7" t="s">
         <v>8</v>
       </c>
@@ -7690,7 +7699,7 @@
       <c r="CY50" s="11"/>
     </row>
     <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="75" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -7699,7 +7708,7 @@
       <c r="C51" s="9">
         <v>3</v>
       </c>
-      <c r="D51" s="76" t="s">
+      <c r="D51" s="77" t="s">
         <v>51</v>
       </c>
       <c r="E51" s="80">
@@ -7809,7 +7818,7 @@
       <c r="CY51" s="11"/>
     </row>
     <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="75"/>
+      <c r="A52" s="76"/>
       <c r="B52" s="7" t="s">
         <v>8</v>
       </c>
@@ -7922,7 +7931,7 @@
       <c r="CY52" s="11"/>
     </row>
     <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="75" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -7931,7 +7940,7 @@
       <c r="C53" s="9">
         <v>6</v>
       </c>
-      <c r="D53" s="76" t="s">
+      <c r="D53" s="77" t="s">
         <v>51</v>
       </c>
       <c r="E53" s="80">
@@ -8046,7 +8055,7 @@
       <c r="CX53" s="33"/>
     </row>
     <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="75"/>
+      <c r="A54" s="76"/>
       <c r="B54" s="7" t="s">
         <v>8</v>
       </c>
@@ -8165,7 +8174,7 @@
       <c r="CY54" s="11"/>
     </row>
     <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="74" t="s">
+      <c r="A55" s="75" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -8174,7 +8183,7 @@
       <c r="C55" s="9">
         <v>1</v>
       </c>
-      <c r="D55" s="76" t="s">
+      <c r="D55" s="77" t="s">
         <v>51</v>
       </c>
       <c r="E55" s="80">
@@ -8282,7 +8291,7 @@
       <c r="CY55" s="11"/>
     </row>
     <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="75"/>
+      <c r="A56" s="76"/>
       <c r="B56" s="7" t="s">
         <v>8</v>
       </c>
@@ -8518,10 +8527,10 @@
       <c r="C58" s="9">
         <v>4</v>
       </c>
-      <c r="D58" s="76" t="s">
+      <c r="D58" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="78">
+      <c r="E58" s="74">
         <v>6.04</v>
       </c>
       <c r="F58" s="31"/>
@@ -8640,7 +8649,7 @@
         <v>10</v>
       </c>
       <c r="D59" s="79"/>
-      <c r="E59" s="78"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="31"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -8758,10 +8767,10 @@
       <c r="C60" s="9">
         <v>2</v>
       </c>
-      <c r="D60" s="76" t="s">
+      <c r="D60" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="78">
+      <c r="E60" s="74">
         <v>6.04</v>
       </c>
       <c r="F60" s="31"/>
@@ -8876,7 +8885,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="79"/>
-      <c r="E61" s="78"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="31"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
@@ -8990,10 +8999,10 @@
       <c r="C62" s="9">
         <v>2</v>
       </c>
-      <c r="D62" s="76" t="s">
+      <c r="D62" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="78">
+      <c r="E62" s="74">
         <v>6.04</v>
       </c>
       <c r="F62" s="31"/>
@@ -9108,7 +9117,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="79"/>
-      <c r="E63" s="78"/>
+      <c r="E63" s="74"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
@@ -9213,7 +9222,7 @@
       <c r="CY63" s="21"/>
     </row>
     <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="74" t="s">
+      <c r="A64" s="75" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -9222,10 +9231,10 @@
       <c r="C64" s="9">
         <v>4</v>
       </c>
-      <c r="D64" s="76" t="s">
+      <c r="D64" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="78">
+      <c r="E64" s="74">
         <v>6.04</v>
       </c>
       <c r="F64" s="31"/>
@@ -9336,7 +9345,7 @@
       <c r="CY64" s="21"/>
     </row>
     <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="75"/>
+      <c r="A65" s="76"/>
       <c r="B65" s="7" t="s">
         <v>8</v>
       </c>
@@ -9344,7 +9353,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="79"/>
-      <c r="E65" s="78"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="31"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
@@ -9570,7 +9579,7 @@
       <c r="CY66" s="21"/>
     </row>
     <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="74" t="s">
+      <c r="A67" s="75" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -9579,10 +9588,10 @@
       <c r="C67" s="9">
         <v>4</v>
       </c>
-      <c r="D67" s="77">
+      <c r="D67" s="78">
         <v>23.03</v>
       </c>
-      <c r="E67" s="78">
+      <c r="E67" s="74">
         <v>6.04</v>
       </c>
       <c r="F67" s="31"/>
@@ -9691,15 +9700,15 @@
       <c r="CY67" s="21"/>
     </row>
     <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="75"/>
+      <c r="A68" s="76"/>
       <c r="B68" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="9">
         <v>5</v>
       </c>
-      <c r="D68" s="77"/>
-      <c r="E68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="74"/>
       <c r="F68" s="31"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
@@ -9806,7 +9815,7 @@
       <c r="CY68" s="21"/>
     </row>
     <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="74" t="s">
+      <c r="A69" s="75" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -9815,10 +9824,10 @@
       <c r="C69" s="9">
         <v>2</v>
       </c>
-      <c r="D69" s="77">
+      <c r="D69" s="78">
         <v>23.03</v>
       </c>
-      <c r="E69" s="78">
+      <c r="E69" s="74">
         <v>6.04</v>
       </c>
       <c r="F69" s="31"/>
@@ -9923,15 +9932,15 @@
       <c r="CY69" s="21"/>
     </row>
     <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="75"/>
+      <c r="A70" s="76"/>
       <c r="B70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="9">
         <v>1</v>
       </c>
-      <c r="D70" s="77"/>
-      <c r="E70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="74"/>
       <c r="F70" s="31"/>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
@@ -10034,7 +10043,7 @@
       <c r="CY70" s="21"/>
     </row>
     <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="74" t="s">
+      <c r="A71" s="75" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -10043,10 +10052,10 @@
       <c r="C71" s="9">
         <v>2</v>
       </c>
-      <c r="D71" s="77">
+      <c r="D71" s="78">
         <v>23.03</v>
       </c>
-      <c r="E71" s="78">
+      <c r="E71" s="74">
         <v>6.04</v>
       </c>
       <c r="F71" s="31"/>
@@ -10151,15 +10160,15 @@
       <c r="CY71" s="21"/>
     </row>
     <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="75"/>
+      <c r="A72" s="76"/>
       <c r="B72" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="9">
         <v>2</v>
       </c>
-      <c r="D72" s="77"/>
-      <c r="E72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="74"/>
       <c r="F72" s="31"/>
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
@@ -10262,7 +10271,7 @@
       <c r="CY72" s="21"/>
     </row>
     <row r="73" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="75" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -10271,10 +10280,10 @@
       <c r="C73" s="9">
         <v>3</v>
       </c>
-      <c r="D73" s="77">
+      <c r="D73" s="78">
         <v>23.03</v>
       </c>
-      <c r="E73" s="78">
+      <c r="E73" s="74">
         <v>6.04</v>
       </c>
       <c r="F73" s="31"/>
@@ -10379,15 +10388,15 @@
       <c r="CY73" s="21"/>
     </row>
     <row r="74" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A74" s="75"/>
+      <c r="A74" s="76"/>
       <c r="B74" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="9">
         <v>3</v>
       </c>
-      <c r="D74" s="77"/>
-      <c r="E74" s="78"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="74"/>
       <c r="F74" s="31"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
@@ -10490,7 +10499,7 @@
       <c r="CY74" s="21"/>
     </row>
     <row r="75" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A75" s="74" t="s">
+      <c r="A75" s="75" t="s">
         <v>45</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -10499,10 +10508,10 @@
       <c r="C75" s="9">
         <v>1</v>
       </c>
-      <c r="D75" s="77">
+      <c r="D75" s="78">
         <v>23.03</v>
       </c>
-      <c r="E75" s="78">
+      <c r="E75" s="74">
         <v>6.04</v>
       </c>
       <c r="F75" s="31"/>
@@ -10605,15 +10614,15 @@
       <c r="CY75" s="21"/>
     </row>
     <row r="76" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A76" s="75"/>
+      <c r="A76" s="76"/>
       <c r="B76" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="9">
         <v>3</v>
       </c>
-      <c r="D76" s="77"/>
-      <c r="E76" s="78"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="74"/>
       <c r="F76" s="31"/>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
@@ -10721,10 +10730,10 @@
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="87">
+      <c r="D77" s="85">
         <v>44292</v>
       </c>
-      <c r="E77" s="88"/>
+      <c r="E77" s="91"/>
       <c r="F77" s="31"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -11057,7 +11066,7 @@
       <c r="CY79" s="21"/>
     </row>
     <row r="80" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A80" s="74" t="s">
+      <c r="A80" s="75" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -11066,7 +11075,7 @@
       <c r="C80" s="9">
         <v>3</v>
       </c>
-      <c r="D80" s="76">
+      <c r="D80" s="77">
         <v>6.04</v>
       </c>
       <c r="E80" s="84">
@@ -11178,7 +11187,7 @@
       <c r="CY80" s="21"/>
     </row>
     <row r="81" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A81" s="75"/>
+      <c r="A81" s="76"/>
       <c r="B81" s="7" t="s">
         <v>8</v>
       </c>
@@ -11293,7 +11302,7 @@
       <c r="CY81" s="21"/>
     </row>
     <row r="82" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A82" s="74" t="s">
+      <c r="A82" s="75" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -11302,10 +11311,10 @@
       <c r="C82" s="9">
         <v>1</v>
       </c>
-      <c r="D82" s="76">
+      <c r="D82" s="77">
         <v>6.04</v>
       </c>
-      <c r="E82" s="78">
+      <c r="E82" s="74">
         <v>4.05</v>
       </c>
       <c r="F82" s="31"/>
@@ -11410,7 +11419,7 @@
       <c r="CY82" s="21"/>
     </row>
     <row r="83" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A83" s="75"/>
+      <c r="A83" s="76"/>
       <c r="B83" s="7" t="s">
         <v>8</v>
       </c>
@@ -11418,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="79"/>
-      <c r="E83" s="78"/>
+      <c r="E83" s="74"/>
       <c r="F83" s="31"/>
       <c r="G83" s="32"/>
       <c r="H83" s="32"/>
@@ -11521,7 +11530,7 @@
       <c r="CY83" s="21"/>
     </row>
     <row r="84" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A84" s="74" t="s">
+      <c r="A84" s="75" t="s">
         <v>60</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -11530,7 +11539,7 @@
       <c r="C84" s="9">
         <v>2</v>
       </c>
-      <c r="D84" s="76">
+      <c r="D84" s="77">
         <v>6.04</v>
       </c>
       <c r="E84" s="84">
@@ -11638,7 +11647,7 @@
       <c r="CY84" s="21"/>
     </row>
     <row r="85" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A85" s="75"/>
+      <c r="A85" s="76"/>
       <c r="B85" s="7" t="s">
         <v>8</v>
       </c>
@@ -11866,7 +11875,7 @@
       <c r="CY86" s="21"/>
     </row>
     <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="74" t="s">
+      <c r="A87" s="75" t="s">
         <v>54</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -11998,7 +12007,7 @@
       <c r="CY87" s="21"/>
     </row>
     <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="75"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="7" t="s">
         <v>8</v>
       </c>
@@ -12124,7 +12133,7 @@
       <c r="CY88" s="21"/>
     </row>
     <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="74" t="s">
+      <c r="A89" s="75" t="s">
         <v>63</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -12250,7 +12259,7 @@
       <c r="CY89" s="21"/>
     </row>
     <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="75"/>
+      <c r="A90" s="76"/>
       <c r="B90" s="7" t="s">
         <v>8</v>
       </c>
@@ -12370,7 +12379,7 @@
       <c r="CY90" s="21"/>
     </row>
     <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="74" t="s">
+      <c r="A91" s="75" t="s">
         <v>64</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -12488,7 +12497,7 @@
       <c r="CY91" s="21"/>
     </row>
     <row r="92" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A92" s="75"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="7" t="s">
         <v>8</v>
       </c>
@@ -12600,7 +12609,7 @@
       <c r="CY92" s="21"/>
     </row>
     <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="74" t="s">
+      <c r="A93" s="75" t="s">
         <v>52</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -12718,7 +12727,7 @@
       <c r="CY93" s="21"/>
     </row>
     <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="75"/>
+      <c r="A94" s="76"/>
       <c r="B94" s="7" t="s">
         <v>8</v>
       </c>
@@ -12836,14 +12845,14 @@
       <c r="B95" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>10</v>
+      <c r="C95" s="5">
+        <v>17</v>
       </c>
       <c r="D95" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="23" t="s">
-        <v>10</v>
+      <c r="E95" s="23">
+        <v>21.5</v>
       </c>
       <c r="F95" s="40"/>
       <c r="G95" s="41"/>
@@ -12945,17 +12954,19 @@
       <c r="CY95" s="21"/>
     </row>
     <row r="96" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A96" s="74"/>
+      <c r="A96" s="75" t="s">
+        <v>70</v>
+      </c>
       <c r="B96" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="76">
+      <c r="C96" s="9">
+        <v>4</v>
+      </c>
+      <c r="D96" s="77">
         <v>6.04</v>
       </c>
-      <c r="E96" s="78">
+      <c r="E96" s="74">
         <v>4.05</v>
       </c>
       <c r="F96" s="31"/>
@@ -13023,9 +13034,13 @@
       <c r="BP96" s="32"/>
       <c r="BQ96" s="32"/>
       <c r="BR96" s="32"/>
-      <c r="BS96" s="32"/>
+      <c r="BS96" s="55">
+        <v>1</v>
+      </c>
       <c r="BT96" s="32"/>
-      <c r="BU96" s="32"/>
+      <c r="BU96" s="55">
+        <v>3</v>
+      </c>
       <c r="BV96" s="32"/>
       <c r="BW96" s="32"/>
       <c r="BX96" s="32"/>
@@ -13058,15 +13073,15 @@
       <c r="CY96" s="21"/>
     </row>
     <row r="97" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A97" s="75"/>
+      <c r="A97" s="76"/>
       <c r="B97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>11</v>
+      <c r="C97" s="9">
+        <v>5</v>
       </c>
       <c r="D97" s="79"/>
-      <c r="E97" s="78"/>
+      <c r="E97" s="74"/>
       <c r="F97" s="31"/>
       <c r="G97" s="32"/>
       <c r="H97" s="32"/>
@@ -13132,9 +13147,13 @@
       <c r="BP97" s="32"/>
       <c r="BQ97" s="32"/>
       <c r="BR97" s="32"/>
-      <c r="BS97" s="32"/>
+      <c r="BS97" s="53">
+        <v>2</v>
+      </c>
       <c r="BT97" s="32"/>
-      <c r="BU97" s="32"/>
+      <c r="BU97" s="53">
+        <v>3</v>
+      </c>
       <c r="BV97" s="32"/>
       <c r="BW97" s="32"/>
       <c r="BX97" s="32"/>
@@ -13166,137 +13185,139 @@
       <c r="CX97" s="33"/>
       <c r="CY97" s="21"/>
     </row>
-    <row r="98" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="40"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
-      <c r="Q98" s="41"/>
-      <c r="R98" s="41"/>
-      <c r="S98" s="41"/>
-      <c r="T98" s="41"/>
-      <c r="U98" s="41"/>
-      <c r="V98" s="41"/>
-      <c r="W98" s="41"/>
-      <c r="X98" s="41"/>
-      <c r="Y98" s="41"/>
-      <c r="Z98" s="41"/>
-      <c r="AA98" s="41"/>
-      <c r="AB98" s="41"/>
-      <c r="AC98" s="41"/>
-      <c r="AD98" s="41"/>
-      <c r="AE98" s="41"/>
-      <c r="AF98" s="41"/>
-      <c r="AG98" s="41"/>
-      <c r="AH98" s="41"/>
-      <c r="AI98" s="41"/>
-      <c r="AJ98" s="41"/>
-      <c r="AK98" s="41"/>
-      <c r="AL98" s="41"/>
-      <c r="AM98" s="41"/>
-      <c r="AN98" s="41"/>
-      <c r="AO98" s="41"/>
-      <c r="AP98" s="41"/>
-      <c r="AQ98" s="41"/>
-      <c r="AR98" s="41"/>
-      <c r="AS98" s="41"/>
-      <c r="AT98" s="41"/>
-      <c r="AU98" s="41"/>
-      <c r="AV98" s="41"/>
-      <c r="AW98" s="41"/>
-      <c r="AX98" s="41"/>
-      <c r="AY98" s="41"/>
-      <c r="AZ98" s="41"/>
-      <c r="BA98" s="41"/>
-      <c r="BB98" s="41"/>
-      <c r="BC98" s="41"/>
-      <c r="BD98" s="41"/>
-      <c r="BE98" s="41"/>
-      <c r="BF98" s="41"/>
-      <c r="BG98" s="41"/>
-      <c r="BH98" s="41"/>
-      <c r="BI98" s="41"/>
-      <c r="BJ98" s="41"/>
-      <c r="BK98" s="41"/>
-      <c r="BL98" s="41"/>
-      <c r="BM98" s="41"/>
-      <c r="BN98" s="41"/>
-      <c r="BO98" s="41"/>
-      <c r="BP98" s="41"/>
-      <c r="BQ98" s="41"/>
-      <c r="BR98" s="41"/>
-      <c r="BS98" s="41"/>
-      <c r="BT98" s="41"/>
-      <c r="BU98" s="41"/>
-      <c r="BV98" s="41"/>
-      <c r="BW98" s="41"/>
-      <c r="BX98" s="41"/>
-      <c r="BY98" s="41"/>
-      <c r="BZ98" s="41"/>
-      <c r="CA98" s="41"/>
-      <c r="CB98" s="41"/>
-      <c r="CC98" s="41"/>
-      <c r="CD98" s="41"/>
-      <c r="CE98" s="41"/>
-      <c r="CF98" s="41"/>
-      <c r="CG98" s="41"/>
-      <c r="CH98" s="41"/>
-      <c r="CI98" s="41"/>
-      <c r="CJ98" s="41"/>
-      <c r="CK98" s="41"/>
-      <c r="CL98" s="41"/>
-      <c r="CM98" s="41"/>
-      <c r="CN98" s="41"/>
-      <c r="CO98" s="41"/>
-      <c r="CP98" s="41"/>
-      <c r="CQ98" s="41"/>
-      <c r="CR98" s="41"/>
-      <c r="CS98" s="41"/>
-      <c r="CT98" s="41"/>
-      <c r="CU98" s="41"/>
-      <c r="CV98" s="41"/>
-      <c r="CW98" s="41"/>
-      <c r="CX98" s="42"/>
+    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="9">
+        <v>5</v>
+      </c>
+      <c r="D98" s="77">
+        <v>6.04</v>
+      </c>
+      <c r="E98" s="74">
+        <v>4.05</v>
+      </c>
+      <c r="F98" s="31"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="32"/>
+      <c r="P98" s="32"/>
+      <c r="Q98" s="32"/>
+      <c r="R98" s="32"/>
+      <c r="S98" s="32"/>
+      <c r="T98" s="32"/>
+      <c r="U98" s="32"/>
+      <c r="V98" s="32"/>
+      <c r="W98" s="32"/>
+      <c r="X98" s="32"/>
+      <c r="Y98" s="32"/>
+      <c r="Z98" s="32"/>
+      <c r="AA98" s="32"/>
+      <c r="AB98" s="32"/>
+      <c r="AC98" s="32"/>
+      <c r="AD98" s="32"/>
+      <c r="AE98" s="32"/>
+      <c r="AF98" s="32"/>
+      <c r="AG98" s="32"/>
+      <c r="AH98" s="32"/>
+      <c r="AI98" s="32"/>
+      <c r="AJ98" s="32"/>
+      <c r="AK98" s="32"/>
+      <c r="AL98" s="32"/>
+      <c r="AM98" s="32"/>
+      <c r="AN98" s="32"/>
+      <c r="AO98" s="32"/>
+      <c r="AP98" s="32"/>
+      <c r="AQ98" s="32"/>
+      <c r="AR98" s="32"/>
+      <c r="AS98" s="32"/>
+      <c r="AT98" s="32"/>
+      <c r="AU98" s="32"/>
+      <c r="AV98" s="32"/>
+      <c r="AW98" s="32"/>
+      <c r="AX98" s="32"/>
+      <c r="AY98" s="32"/>
+      <c r="AZ98" s="32"/>
+      <c r="BA98" s="32"/>
+      <c r="BB98" s="32"/>
+      <c r="BC98" s="32"/>
+      <c r="BD98" s="32"/>
+      <c r="BE98" s="55">
+        <v>1</v>
+      </c>
+      <c r="BF98" s="32"/>
+      <c r="BG98" s="32"/>
+      <c r="BH98" s="32"/>
+      <c r="BI98" s="32"/>
+      <c r="BJ98" s="32"/>
+      <c r="BK98" s="32"/>
+      <c r="BL98" s="55">
+        <v>3</v>
+      </c>
+      <c r="BM98" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BN98" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BO98" s="32"/>
+      <c r="BP98" s="32"/>
+      <c r="BQ98" s="32"/>
+      <c r="BR98" s="32"/>
+      <c r="BS98" s="32"/>
+      <c r="BT98" s="32"/>
+      <c r="BU98" s="32"/>
+      <c r="BV98" s="32"/>
+      <c r="BW98" s="32"/>
+      <c r="BX98" s="32"/>
+      <c r="BY98" s="32"/>
+      <c r="BZ98" s="32"/>
+      <c r="CA98" s="32"/>
+      <c r="CB98" s="32"/>
+      <c r="CC98" s="32"/>
+      <c r="CD98" s="32"/>
+      <c r="CE98" s="32"/>
+      <c r="CF98" s="32"/>
+      <c r="CG98" s="32"/>
+      <c r="CH98" s="32"/>
+      <c r="CI98" s="32"/>
+      <c r="CJ98" s="32"/>
+      <c r="CK98" s="32"/>
+      <c r="CL98" s="32"/>
+      <c r="CM98" s="32"/>
+      <c r="CN98" s="32"/>
+      <c r="CO98" s="32"/>
+      <c r="CP98" s="32"/>
+      <c r="CQ98" s="32"/>
+      <c r="CR98" s="32"/>
+      <c r="CS98" s="32"/>
+      <c r="CT98" s="32"/>
+      <c r="CU98" s="32"/>
+      <c r="CV98" s="32"/>
+      <c r="CW98" s="32"/>
+      <c r="CX98" s="33"/>
       <c r="CY98" s="21"/>
     </row>
-    <row r="99" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A99" s="74" t="s">
-        <v>55</v>
-      </c>
+    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="76"/>
       <c r="B99" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" s="9">
-        <v>5</v>
-      </c>
-      <c r="D99" s="76">
-        <v>6.04</v>
-      </c>
-      <c r="E99" s="78">
-        <v>4.05</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D99" s="79"/>
+      <c r="E99" s="74"/>
       <c r="F99" s="31"/>
       <c r="G99" s="32"/>
       <c r="H99" s="32"/>
@@ -13341,25 +13362,31 @@
       <c r="AU99" s="32"/>
       <c r="AV99" s="32"/>
       <c r="AW99" s="32"/>
-      <c r="AX99" s="55">
-        <v>2</v>
-      </c>
+      <c r="AX99" s="32"/>
       <c r="AY99" s="32"/>
       <c r="AZ99" s="32"/>
       <c r="BA99" s="32"/>
       <c r="BB99" s="32"/>
       <c r="BC99" s="32"/>
       <c r="BD99" s="32"/>
-      <c r="BE99" s="32"/>
+      <c r="BE99" s="53">
+        <v>2</v>
+      </c>
       <c r="BF99" s="32"/>
       <c r="BG99" s="32"/>
       <c r="BH99" s="32"/>
       <c r="BI99" s="32"/>
       <c r="BJ99" s="32"/>
       <c r="BK99" s="32"/>
-      <c r="BL99" s="32"/>
-      <c r="BM99" s="32"/>
-      <c r="BN99" s="32"/>
+      <c r="BL99" s="53">
+        <v>4</v>
+      </c>
+      <c r="BM99" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="BN99" s="53">
+        <v>0.5</v>
+      </c>
       <c r="BO99" s="32"/>
       <c r="BP99" s="32"/>
       <c r="BQ99" s="32"/>
@@ -13399,13 +13426,21 @@
       <c r="CY99" s="21"/>
     </row>
     <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="75"/>
+      <c r="A100" s="75" t="s">
+        <v>69</v>
+      </c>
       <c r="B100" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="78"/>
+        <v>6</v>
+      </c>
+      <c r="C100" s="9">
+        <v>2</v>
+      </c>
+      <c r="D100" s="77">
+        <v>6.04</v>
+      </c>
+      <c r="E100" s="74">
+        <v>4.05</v>
+      </c>
       <c r="F100" s="31"/>
       <c r="G100" s="32"/>
       <c r="H100" s="32"/>
@@ -13450,12 +13485,12 @@
       <c r="AU100" s="32"/>
       <c r="AV100" s="32"/>
       <c r="AW100" s="32"/>
-      <c r="AX100" s="53">
-        <v>2</v>
-      </c>
+      <c r="AX100" s="32"/>
       <c r="AY100" s="32"/>
       <c r="AZ100" s="32"/>
-      <c r="BA100" s="32"/>
+      <c r="BA100" s="55">
+        <v>1</v>
+      </c>
       <c r="BB100" s="32"/>
       <c r="BC100" s="32"/>
       <c r="BD100" s="32"/>
@@ -13467,8 +13502,12 @@
       <c r="BJ100" s="32"/>
       <c r="BK100" s="32"/>
       <c r="BL100" s="32"/>
-      <c r="BM100" s="32"/>
-      <c r="BN100" s="32"/>
+      <c r="BM100" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BN100" s="55">
+        <v>0.5</v>
+      </c>
       <c r="BO100" s="32"/>
       <c r="BP100" s="32"/>
       <c r="BQ100" s="32"/>
@@ -13508,123 +13547,123 @@
       <c r="CY100" s="21"/>
     </row>
     <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="19" t="s">
+      <c r="A101" s="76"/>
+      <c r="B101" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="40"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="41"/>
-      <c r="R101" s="41"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="41"/>
-      <c r="U101" s="41"/>
-      <c r="V101" s="41"/>
-      <c r="W101" s="41"/>
-      <c r="X101" s="41"/>
-      <c r="Y101" s="41"/>
-      <c r="Z101" s="41"/>
-      <c r="AA101" s="41"/>
-      <c r="AB101" s="41"/>
-      <c r="AC101" s="41"/>
-      <c r="AD101" s="41"/>
-      <c r="AE101" s="41"/>
-      <c r="AF101" s="41"/>
-      <c r="AG101" s="41"/>
-      <c r="AH101" s="41"/>
-      <c r="AI101" s="41"/>
-      <c r="AJ101" s="41"/>
-      <c r="AK101" s="41"/>
-      <c r="AL101" s="41"/>
-      <c r="AM101" s="41"/>
-      <c r="AN101" s="41"/>
-      <c r="AO101" s="41"/>
-      <c r="AP101" s="41"/>
-      <c r="AQ101" s="41"/>
-      <c r="AR101" s="41"/>
-      <c r="AS101" s="41"/>
-      <c r="AT101" s="41"/>
-      <c r="AU101" s="41"/>
-      <c r="AV101" s="41"/>
-      <c r="AW101" s="41"/>
-      <c r="AX101" s="41"/>
-      <c r="AY101" s="41"/>
-      <c r="AZ101" s="41"/>
-      <c r="BA101" s="41"/>
-      <c r="BB101" s="41"/>
-      <c r="BC101" s="41"/>
-      <c r="BD101" s="41"/>
-      <c r="BE101" s="41"/>
-      <c r="BF101" s="41"/>
-      <c r="BG101" s="41"/>
-      <c r="BH101" s="41"/>
-      <c r="BI101" s="41"/>
-      <c r="BJ101" s="41"/>
-      <c r="BK101" s="41"/>
-      <c r="BL101" s="41"/>
-      <c r="BM101" s="41"/>
-      <c r="BN101" s="41"/>
-      <c r="BO101" s="41"/>
-      <c r="BP101" s="41"/>
-      <c r="BQ101" s="41"/>
-      <c r="BR101" s="41"/>
-      <c r="BS101" s="41"/>
-      <c r="BT101" s="41"/>
-      <c r="BU101" s="41"/>
-      <c r="BV101" s="41"/>
-      <c r="BW101" s="41"/>
-      <c r="BX101" s="41"/>
-      <c r="BY101" s="41"/>
-      <c r="BZ101" s="41"/>
-      <c r="CA101" s="41"/>
-      <c r="CB101" s="41"/>
-      <c r="CC101" s="41"/>
-      <c r="CD101" s="41"/>
-      <c r="CE101" s="41"/>
-      <c r="CF101" s="41"/>
-      <c r="CG101" s="41"/>
-      <c r="CH101" s="41"/>
-      <c r="CI101" s="41"/>
-      <c r="CJ101" s="41"/>
-      <c r="CK101" s="41"/>
-      <c r="CL101" s="41"/>
-      <c r="CM101" s="41"/>
-      <c r="CN101" s="41"/>
-      <c r="CO101" s="41"/>
-      <c r="CP101" s="41"/>
-      <c r="CQ101" s="41"/>
-      <c r="CR101" s="41"/>
-      <c r="CS101" s="41"/>
-      <c r="CT101" s="41"/>
-      <c r="CU101" s="41"/>
-      <c r="CV101" s="41"/>
-      <c r="CW101" s="41"/>
-      <c r="CX101" s="42"/>
+      <c r="C101" s="9">
+        <v>2</v>
+      </c>
+      <c r="D101" s="79"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="32"/>
+      <c r="P101" s="32"/>
+      <c r="Q101" s="32"/>
+      <c r="R101" s="32"/>
+      <c r="S101" s="32"/>
+      <c r="T101" s="32"/>
+      <c r="U101" s="32"/>
+      <c r="V101" s="32"/>
+      <c r="W101" s="32"/>
+      <c r="X101" s="32"/>
+      <c r="Y101" s="32"/>
+      <c r="Z101" s="32"/>
+      <c r="AA101" s="32"/>
+      <c r="AB101" s="32"/>
+      <c r="AC101" s="32"/>
+      <c r="AD101" s="32"/>
+      <c r="AE101" s="32"/>
+      <c r="AF101" s="32"/>
+      <c r="AG101" s="32"/>
+      <c r="AH101" s="32"/>
+      <c r="AI101" s="32"/>
+      <c r="AJ101" s="32"/>
+      <c r="AK101" s="32"/>
+      <c r="AL101" s="32"/>
+      <c r="AM101" s="32"/>
+      <c r="AN101" s="32"/>
+      <c r="AO101" s="32"/>
+      <c r="AP101" s="32"/>
+      <c r="AQ101" s="32"/>
+      <c r="AR101" s="32"/>
+      <c r="AS101" s="32"/>
+      <c r="AT101" s="32"/>
+      <c r="AU101" s="32"/>
+      <c r="AV101" s="32"/>
+      <c r="AW101" s="32"/>
+      <c r="AX101" s="32"/>
+      <c r="AY101" s="32"/>
+      <c r="AZ101" s="32"/>
+      <c r="BA101" s="53">
+        <v>1</v>
+      </c>
+      <c r="BB101" s="32"/>
+      <c r="BC101" s="32"/>
+      <c r="BD101" s="32"/>
+      <c r="BE101" s="32"/>
+      <c r="BF101" s="32"/>
+      <c r="BG101" s="32"/>
+      <c r="BH101" s="32"/>
+      <c r="BI101" s="32"/>
+      <c r="BJ101" s="32"/>
+      <c r="BK101" s="32"/>
+      <c r="BL101" s="32"/>
+      <c r="BM101" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="BN101" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="BO101" s="32"/>
+      <c r="BP101" s="32"/>
+      <c r="BQ101" s="32"/>
+      <c r="BR101" s="32"/>
+      <c r="BS101" s="32"/>
+      <c r="BT101" s="32"/>
+      <c r="BU101" s="32"/>
+      <c r="BV101" s="32"/>
+      <c r="BW101" s="32"/>
+      <c r="BX101" s="32"/>
+      <c r="BY101" s="32"/>
+      <c r="BZ101" s="32"/>
+      <c r="CA101" s="32"/>
+      <c r="CB101" s="32"/>
+      <c r="CC101" s="32"/>
+      <c r="CD101" s="32"/>
+      <c r="CE101" s="32"/>
+      <c r="CF101" s="32"/>
+      <c r="CG101" s="32"/>
+      <c r="CH101" s="32"/>
+      <c r="CI101" s="32"/>
+      <c r="CJ101" s="32"/>
+      <c r="CK101" s="32"/>
+      <c r="CL101" s="32"/>
+      <c r="CM101" s="32"/>
+      <c r="CN101" s="32"/>
+      <c r="CO101" s="32"/>
+      <c r="CP101" s="32"/>
+      <c r="CQ101" s="32"/>
+      <c r="CR101" s="32"/>
+      <c r="CS101" s="32"/>
+      <c r="CT101" s="32"/>
+      <c r="CU101" s="32"/>
+      <c r="CV101" s="32"/>
+      <c r="CW101" s="32"/>
+      <c r="CX101" s="33"/>
       <c r="CY101" s="21"/>
     </row>
     <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="74" t="s">
-        <v>57</v>
+      <c r="A102" s="75" t="s">
+        <v>71</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>6</v>
@@ -13632,10 +13671,10 @@
       <c r="C102" s="9">
         <v>6</v>
       </c>
-      <c r="D102" s="76">
+      <c r="D102" s="77">
         <v>6.04</v>
       </c>
-      <c r="E102" s="78">
+      <c r="E102" s="74">
         <v>4.05</v>
       </c>
       <c r="F102" s="31"/>
@@ -13698,19 +13737,25 @@
       <c r="BK102" s="32"/>
       <c r="BL102" s="32"/>
       <c r="BM102" s="32"/>
-      <c r="BN102" s="55">
-        <v>6</v>
-      </c>
+      <c r="BN102" s="32"/>
       <c r="BO102" s="32"/>
-      <c r="BP102" s="32"/>
+      <c r="BP102" s="55">
+        <v>1.5</v>
+      </c>
       <c r="BQ102" s="32"/>
       <c r="BR102" s="32"/>
       <c r="BS102" s="32"/>
       <c r="BT102" s="32"/>
       <c r="BU102" s="32"/>
-      <c r="BV102" s="32"/>
-      <c r="BW102" s="32"/>
-      <c r="BX102" s="32"/>
+      <c r="BV102" s="55">
+        <v>3</v>
+      </c>
+      <c r="BW102" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BX102" s="55">
+        <v>1</v>
+      </c>
       <c r="BY102" s="32"/>
       <c r="BZ102" s="32"/>
       <c r="CA102" s="32"/>
@@ -13740,15 +13785,15 @@
       <c r="CY102" s="21"/>
     </row>
     <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="75"/>
+      <c r="A103" s="76"/>
       <c r="B103" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="9">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="D103" s="79"/>
-      <c r="E103" s="78"/>
+      <c r="E103" s="74"/>
       <c r="F103" s="31"/>
       <c r="G103" s="32"/>
       <c r="H103" s="32"/>
@@ -13809,19 +13854,25 @@
       <c r="BK103" s="32"/>
       <c r="BL103" s="32"/>
       <c r="BM103" s="32"/>
-      <c r="BN103" s="53">
-        <v>5</v>
-      </c>
+      <c r="BN103" s="32"/>
       <c r="BO103" s="32"/>
-      <c r="BP103" s="32"/>
+      <c r="BP103" s="53">
+        <v>2</v>
+      </c>
       <c r="BQ103" s="32"/>
       <c r="BR103" s="32"/>
       <c r="BS103" s="32"/>
       <c r="BT103" s="32"/>
       <c r="BU103" s="32"/>
-      <c r="BV103" s="32"/>
-      <c r="BW103" s="32"/>
-      <c r="BX103" s="32"/>
+      <c r="BV103" s="53">
+        <v>3.5</v>
+      </c>
+      <c r="BW103" s="53">
+        <v>1</v>
+      </c>
+      <c r="BX103" s="53">
+        <v>1</v>
+      </c>
       <c r="BY103" s="32"/>
       <c r="BZ103" s="32"/>
       <c r="CA103" s="32"/>
@@ -13850,133 +13901,137 @@
       <c r="CX103" s="33"/>
       <c r="CY103" s="21"/>
     </row>
-    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="9">
-        <v>1</v>
-      </c>
-      <c r="D104" s="76">
-        <v>6.04</v>
-      </c>
-      <c r="E104" s="78">
-        <v>4.05</v>
-      </c>
-      <c r="F104" s="31"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="32"/>
-      <c r="S104" s="32"/>
-      <c r="T104" s="32"/>
-      <c r="U104" s="32"/>
-      <c r="V104" s="32"/>
-      <c r="W104" s="32"/>
-      <c r="X104" s="32"/>
-      <c r="Y104" s="32"/>
-      <c r="Z104" s="32"/>
-      <c r="AA104" s="32"/>
-      <c r="AB104" s="32"/>
-      <c r="AC104" s="32"/>
-      <c r="AD104" s="32"/>
-      <c r="AE104" s="32"/>
-      <c r="AF104" s="32"/>
-      <c r="AG104" s="32"/>
-      <c r="AH104" s="32"/>
-      <c r="AI104" s="32"/>
-      <c r="AJ104" s="32"/>
-      <c r="AK104" s="32"/>
-      <c r="AL104" s="32"/>
-      <c r="AM104" s="32"/>
-      <c r="AN104" s="32"/>
-      <c r="AO104" s="32"/>
-      <c r="AP104" s="32"/>
-      <c r="AQ104" s="32"/>
-      <c r="AR104" s="32"/>
-      <c r="AS104" s="32"/>
-      <c r="AT104" s="32"/>
-      <c r="AU104" s="32"/>
-      <c r="AV104" s="32"/>
-      <c r="AW104" s="32"/>
-      <c r="AX104" s="32"/>
-      <c r="AY104" s="32"/>
-      <c r="AZ104" s="32"/>
-      <c r="BA104" s="32"/>
-      <c r="BB104" s="32"/>
-      <c r="BC104" s="32"/>
-      <c r="BD104" s="55">
-        <v>1</v>
-      </c>
-      <c r="BE104" s="32"/>
-      <c r="BF104" s="32"/>
-      <c r="BG104" s="32"/>
-      <c r="BH104" s="32"/>
-      <c r="BI104" s="32"/>
-      <c r="BJ104" s="32"/>
-      <c r="BK104" s="32"/>
-      <c r="BL104" s="32"/>
-      <c r="BM104" s="32"/>
-      <c r="BN104" s="32"/>
-      <c r="BO104" s="32"/>
-      <c r="BP104" s="32"/>
-      <c r="BQ104" s="32"/>
-      <c r="BR104" s="32"/>
-      <c r="BS104" s="32"/>
-      <c r="BT104" s="32"/>
-      <c r="BU104" s="32"/>
-      <c r="BV104" s="32"/>
-      <c r="BW104" s="32"/>
-      <c r="BX104" s="32"/>
-      <c r="BY104" s="32"/>
-      <c r="BZ104" s="32"/>
-      <c r="CA104" s="32"/>
-      <c r="CB104" s="32"/>
-      <c r="CC104" s="32"/>
-      <c r="CD104" s="32"/>
-      <c r="CE104" s="32"/>
-      <c r="CF104" s="32"/>
-      <c r="CG104" s="32"/>
-      <c r="CH104" s="32"/>
-      <c r="CI104" s="32"/>
-      <c r="CJ104" s="32"/>
-      <c r="CK104" s="32"/>
-      <c r="CL104" s="32"/>
-      <c r="CM104" s="32"/>
-      <c r="CN104" s="32"/>
-      <c r="CO104" s="32"/>
-      <c r="CP104" s="32"/>
-      <c r="CQ104" s="32"/>
-      <c r="CR104" s="32"/>
-      <c r="CS104" s="32"/>
-      <c r="CT104" s="32"/>
-      <c r="CU104" s="32"/>
-      <c r="CV104" s="32"/>
-      <c r="CW104" s="32"/>
-      <c r="CX104" s="33"/>
+    <row r="104" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="40"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="41"/>
+      <c r="M104" s="41"/>
+      <c r="N104" s="41"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="41"/>
+      <c r="Q104" s="41"/>
+      <c r="R104" s="41"/>
+      <c r="S104" s="41"/>
+      <c r="T104" s="41"/>
+      <c r="U104" s="41"/>
+      <c r="V104" s="41"/>
+      <c r="W104" s="41"/>
+      <c r="X104" s="41"/>
+      <c r="Y104" s="41"/>
+      <c r="Z104" s="41"/>
+      <c r="AA104" s="41"/>
+      <c r="AB104" s="41"/>
+      <c r="AC104" s="41"/>
+      <c r="AD104" s="41"/>
+      <c r="AE104" s="41"/>
+      <c r="AF104" s="41"/>
+      <c r="AG104" s="41"/>
+      <c r="AH104" s="41"/>
+      <c r="AI104" s="41"/>
+      <c r="AJ104" s="41"/>
+      <c r="AK104" s="41"/>
+      <c r="AL104" s="41"/>
+      <c r="AM104" s="41"/>
+      <c r="AN104" s="41"/>
+      <c r="AO104" s="41"/>
+      <c r="AP104" s="41"/>
+      <c r="AQ104" s="41"/>
+      <c r="AR104" s="41"/>
+      <c r="AS104" s="41"/>
+      <c r="AT104" s="41"/>
+      <c r="AU104" s="41"/>
+      <c r="AV104" s="41"/>
+      <c r="AW104" s="41"/>
+      <c r="AX104" s="41"/>
+      <c r="AY104" s="41"/>
+      <c r="AZ104" s="41"/>
+      <c r="BA104" s="41"/>
+      <c r="BB104" s="41"/>
+      <c r="BC104" s="41"/>
+      <c r="BD104" s="41"/>
+      <c r="BE104" s="41"/>
+      <c r="BF104" s="41"/>
+      <c r="BG104" s="41"/>
+      <c r="BH104" s="41"/>
+      <c r="BI104" s="41"/>
+      <c r="BJ104" s="41"/>
+      <c r="BK104" s="41"/>
+      <c r="BL104" s="41"/>
+      <c r="BM104" s="41"/>
+      <c r="BN104" s="41"/>
+      <c r="BO104" s="41"/>
+      <c r="BP104" s="41"/>
+      <c r="BQ104" s="41"/>
+      <c r="BR104" s="41"/>
+      <c r="BS104" s="41"/>
+      <c r="BT104" s="41"/>
+      <c r="BU104" s="41"/>
+      <c r="BV104" s="41"/>
+      <c r="BW104" s="41"/>
+      <c r="BX104" s="41"/>
+      <c r="BY104" s="41"/>
+      <c r="BZ104" s="41"/>
+      <c r="CA104" s="41"/>
+      <c r="CB104" s="41"/>
+      <c r="CC104" s="41"/>
+      <c r="CD104" s="41"/>
+      <c r="CE104" s="41"/>
+      <c r="CF104" s="41"/>
+      <c r="CG104" s="41"/>
+      <c r="CH104" s="41"/>
+      <c r="CI104" s="41"/>
+      <c r="CJ104" s="41"/>
+      <c r="CK104" s="41"/>
+      <c r="CL104" s="41"/>
+      <c r="CM104" s="41"/>
+      <c r="CN104" s="41"/>
+      <c r="CO104" s="41"/>
+      <c r="CP104" s="41"/>
+      <c r="CQ104" s="41"/>
+      <c r="CR104" s="41"/>
+      <c r="CS104" s="41"/>
+      <c r="CT104" s="41"/>
+      <c r="CU104" s="41"/>
+      <c r="CV104" s="41"/>
+      <c r="CW104" s="41"/>
+      <c r="CX104" s="42"/>
       <c r="CY104" s="21"/>
     </row>
-    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="75"/>
+    <row r="105" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A105" s="75" t="s">
+        <v>55</v>
+      </c>
       <c r="B105" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" s="9">
-        <v>3</v>
-      </c>
-      <c r="D105" s="79"/>
-      <c r="E105" s="78"/>
+        <v>5</v>
+      </c>
+      <c r="D105" s="77">
+        <v>6.04</v>
+      </c>
+      <c r="E105" s="74">
+        <v>4.05</v>
+      </c>
       <c r="F105" s="31"/>
       <c r="G105" s="32"/>
       <c r="H105" s="32"/>
@@ -14021,15 +14076,15 @@
       <c r="AU105" s="32"/>
       <c r="AV105" s="32"/>
       <c r="AW105" s="32"/>
-      <c r="AX105" s="32"/>
+      <c r="AX105" s="55">
+        <v>2</v>
+      </c>
       <c r="AY105" s="32"/>
       <c r="AZ105" s="32"/>
       <c r="BA105" s="32"/>
       <c r="BB105" s="32"/>
       <c r="BC105" s="32"/>
-      <c r="BD105" s="53">
-        <v>3</v>
-      </c>
+      <c r="BD105" s="32"/>
       <c r="BE105" s="32"/>
       <c r="BF105" s="32"/>
       <c r="BG105" s="32"/>
@@ -14079,21 +14134,13 @@
       <c r="CY105" s="21"/>
     </row>
     <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="74" t="s">
-        <v>58</v>
-      </c>
+      <c r="A106" s="76"/>
       <c r="B106" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D106" s="76">
-        <v>6.04</v>
-      </c>
-      <c r="E106" s="78">
-        <v>4.05</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="74"/>
       <c r="F106" s="31"/>
       <c r="G106" s="32"/>
       <c r="H106" s="32"/>
@@ -14138,27 +14185,26 @@
       <c r="AU106" s="32"/>
       <c r="AV106" s="32"/>
       <c r="AW106" s="32"/>
-      <c r="AX106" s="32"/>
+      <c r="AX106" s="53">
+        <v>2</v>
+      </c>
       <c r="AY106" s="32"/>
       <c r="AZ106" s="32"/>
       <c r="BA106" s="32"/>
       <c r="BB106" s="32"/>
       <c r="BC106" s="32"/>
+      <c r="BD106" s="32"/>
       <c r="BE106" s="32"/>
       <c r="BF106" s="32"/>
       <c r="BG106" s="32"/>
-      <c r="BH106" s="55">
-        <v>0.5</v>
-      </c>
+      <c r="BH106" s="32"/>
       <c r="BI106" s="32"/>
       <c r="BJ106" s="32"/>
       <c r="BK106" s="32"/>
       <c r="BL106" s="32"/>
       <c r="BM106" s="32"/>
       <c r="BN106" s="32"/>
-      <c r="BO106" s="55">
-        <v>0.5</v>
-      </c>
+      <c r="BO106" s="32"/>
       <c r="BP106" s="32"/>
       <c r="BQ106" s="32"/>
       <c r="BR106" s="32"/>
@@ -14197,134 +14243,134 @@
       <c r="CY106" s="21"/>
     </row>
     <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="75"/>
-      <c r="B107" s="7" t="s">
+      <c r="A107" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D107" s="79"/>
-      <c r="E107" s="78"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
-      <c r="L107" s="32"/>
-      <c r="M107" s="32"/>
-      <c r="N107" s="32"/>
-      <c r="O107" s="32"/>
-      <c r="P107" s="32"/>
-      <c r="Q107" s="32"/>
-      <c r="R107" s="32"/>
-      <c r="S107" s="32"/>
-      <c r="T107" s="32"/>
-      <c r="U107" s="32"/>
-      <c r="V107" s="32"/>
-      <c r="W107" s="32"/>
-      <c r="X107" s="32"/>
-      <c r="Y107" s="32"/>
-      <c r="Z107" s="32"/>
-      <c r="AA107" s="32"/>
-      <c r="AB107" s="32"/>
-      <c r="AC107" s="32"/>
-      <c r="AD107" s="32"/>
-      <c r="AE107" s="32"/>
-      <c r="AF107" s="32"/>
-      <c r="AG107" s="32"/>
-      <c r="AH107" s="32"/>
-      <c r="AI107" s="32"/>
-      <c r="AJ107" s="32"/>
-      <c r="AK107" s="32"/>
-      <c r="AL107" s="32"/>
-      <c r="AM107" s="32"/>
-      <c r="AN107" s="32"/>
-      <c r="AO107" s="32"/>
-      <c r="AP107" s="32"/>
-      <c r="AQ107" s="32"/>
-      <c r="AR107" s="32"/>
-      <c r="AS107" s="32"/>
-      <c r="AT107" s="32"/>
-      <c r="AU107" s="32"/>
-      <c r="AV107" s="32"/>
-      <c r="AW107" s="32"/>
-      <c r="AX107" s="32"/>
-      <c r="AY107" s="32"/>
-      <c r="AZ107" s="32"/>
-      <c r="BA107" s="32"/>
-      <c r="BB107" s="32"/>
-      <c r="BC107" s="32"/>
-      <c r="BD107" s="32"/>
-      <c r="BE107" s="32"/>
-      <c r="BF107" s="32"/>
-      <c r="BG107" s="32"/>
-      <c r="BH107" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="BI107" s="32"/>
-      <c r="BJ107" s="32"/>
-      <c r="BK107" s="32"/>
-      <c r="BL107" s="32"/>
-      <c r="BM107" s="32"/>
-      <c r="BN107" s="32"/>
-      <c r="BO107" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="BP107" s="32"/>
-      <c r="BQ107" s="32"/>
-      <c r="BR107" s="32"/>
-      <c r="BS107" s="32"/>
-      <c r="BT107" s="32"/>
-      <c r="BU107" s="32"/>
-      <c r="BV107" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="BW107" s="32"/>
-      <c r="BX107" s="32"/>
-      <c r="BY107" s="32"/>
-      <c r="BZ107" s="32"/>
-      <c r="CA107" s="32"/>
-      <c r="CB107" s="32"/>
-      <c r="CC107" s="32"/>
-      <c r="CD107" s="32"/>
-      <c r="CE107" s="32"/>
-      <c r="CF107" s="32"/>
-      <c r="CG107" s="32"/>
-      <c r="CH107" s="32"/>
-      <c r="CI107" s="32"/>
-      <c r="CJ107" s="32"/>
-      <c r="CK107" s="32"/>
-      <c r="CL107" s="32"/>
-      <c r="CM107" s="32"/>
-      <c r="CN107" s="32"/>
-      <c r="CO107" s="32"/>
-      <c r="CP107" s="32"/>
-      <c r="CQ107" s="32"/>
-      <c r="CR107" s="32"/>
-      <c r="CS107" s="32"/>
-      <c r="CT107" s="32"/>
-      <c r="CU107" s="32"/>
-      <c r="CV107" s="32"/>
-      <c r="CW107" s="32"/>
-      <c r="CX107" s="33"/>
+      <c r="E107" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="40"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="41"/>
+      <c r="M107" s="41"/>
+      <c r="N107" s="41"/>
+      <c r="O107" s="41"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="41"/>
+      <c r="S107" s="41"/>
+      <c r="T107" s="41"/>
+      <c r="U107" s="41"/>
+      <c r="V107" s="41"/>
+      <c r="W107" s="41"/>
+      <c r="X107" s="41"/>
+      <c r="Y107" s="41"/>
+      <c r="Z107" s="41"/>
+      <c r="AA107" s="41"/>
+      <c r="AB107" s="41"/>
+      <c r="AC107" s="41"/>
+      <c r="AD107" s="41"/>
+      <c r="AE107" s="41"/>
+      <c r="AF107" s="41"/>
+      <c r="AG107" s="41"/>
+      <c r="AH107" s="41"/>
+      <c r="AI107" s="41"/>
+      <c r="AJ107" s="41"/>
+      <c r="AK107" s="41"/>
+      <c r="AL107" s="41"/>
+      <c r="AM107" s="41"/>
+      <c r="AN107" s="41"/>
+      <c r="AO107" s="41"/>
+      <c r="AP107" s="41"/>
+      <c r="AQ107" s="41"/>
+      <c r="AR107" s="41"/>
+      <c r="AS107" s="41"/>
+      <c r="AT107" s="41"/>
+      <c r="AU107" s="41"/>
+      <c r="AV107" s="41"/>
+      <c r="AW107" s="41"/>
+      <c r="AX107" s="41"/>
+      <c r="AY107" s="41"/>
+      <c r="AZ107" s="41"/>
+      <c r="BA107" s="41"/>
+      <c r="BB107" s="41"/>
+      <c r="BC107" s="41"/>
+      <c r="BD107" s="41"/>
+      <c r="BE107" s="41"/>
+      <c r="BF107" s="41"/>
+      <c r="BG107" s="41"/>
+      <c r="BH107" s="41"/>
+      <c r="BI107" s="41"/>
+      <c r="BJ107" s="41"/>
+      <c r="BK107" s="41"/>
+      <c r="BL107" s="41"/>
+      <c r="BM107" s="41"/>
+      <c r="BN107" s="41"/>
+      <c r="BO107" s="41"/>
+      <c r="BP107" s="41"/>
+      <c r="BQ107" s="41"/>
+      <c r="BR107" s="41"/>
+      <c r="BS107" s="41"/>
+      <c r="BT107" s="41"/>
+      <c r="BU107" s="41"/>
+      <c r="BV107" s="41"/>
+      <c r="BW107" s="41"/>
+      <c r="BX107" s="41"/>
+      <c r="BY107" s="41"/>
+      <c r="BZ107" s="41"/>
+      <c r="CA107" s="41"/>
+      <c r="CB107" s="41"/>
+      <c r="CC107" s="41"/>
+      <c r="CD107" s="41"/>
+      <c r="CE107" s="41"/>
+      <c r="CF107" s="41"/>
+      <c r="CG107" s="41"/>
+      <c r="CH107" s="41"/>
+      <c r="CI107" s="41"/>
+      <c r="CJ107" s="41"/>
+      <c r="CK107" s="41"/>
+      <c r="CL107" s="41"/>
+      <c r="CM107" s="41"/>
+      <c r="CN107" s="41"/>
+      <c r="CO107" s="41"/>
+      <c r="CP107" s="41"/>
+      <c r="CQ107" s="41"/>
+      <c r="CR107" s="41"/>
+      <c r="CS107" s="41"/>
+      <c r="CT107" s="41"/>
+      <c r="CU107" s="41"/>
+      <c r="CV107" s="41"/>
+      <c r="CW107" s="41"/>
+      <c r="CX107" s="42"/>
       <c r="CY107" s="21"/>
     </row>
-    <row r="108" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A108" s="74" t="s">
-        <v>59</v>
+    <row r="108" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="75" t="s">
+        <v>57</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="9">
-        <v>2</v>
-      </c>
-      <c r="D108" s="76">
+        <v>6</v>
+      </c>
+      <c r="D108" s="77">
         <v>6.04</v>
       </c>
-      <c r="E108" s="78">
+      <c r="E108" s="74">
         <v>4.05</v>
       </c>
       <c r="F108" s="31"/>
@@ -14385,11 +14431,11 @@
       <c r="BI108" s="32"/>
       <c r="BJ108" s="32"/>
       <c r="BK108" s="32"/>
-      <c r="BL108" s="55">
-        <v>2</v>
-      </c>
+      <c r="BL108" s="32"/>
       <c r="BM108" s="32"/>
-      <c r="BN108" s="32"/>
+      <c r="BN108" s="55">
+        <v>6</v>
+      </c>
       <c r="BO108" s="32"/>
       <c r="BP108" s="32"/>
       <c r="BQ108" s="32"/>
@@ -14397,9 +14443,7 @@
       <c r="BS108" s="32"/>
       <c r="BT108" s="32"/>
       <c r="BU108" s="32"/>
-      <c r="BV108" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="BV108" s="32"/>
       <c r="BW108" s="32"/>
       <c r="BX108" s="32"/>
       <c r="BY108" s="32"/>
@@ -14430,16 +14474,16 @@
       <c r="CX108" s="33"/>
       <c r="CY108" s="21"/>
     </row>
-    <row r="109" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A109" s="75"/>
+    <row r="109" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="76"/>
       <c r="B109" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D109" s="77"/>
-      <c r="E109" s="78"/>
+        <v>5</v>
+      </c>
+      <c r="D109" s="79"/>
+      <c r="E109" s="74"/>
       <c r="F109" s="31"/>
       <c r="G109" s="32"/>
       <c r="H109" s="32"/>
@@ -14498,11 +14542,11 @@
       <c r="BI109" s="32"/>
       <c r="BJ109" s="32"/>
       <c r="BK109" s="32"/>
-      <c r="BL109" s="53">
-        <v>2.5</v>
-      </c>
+      <c r="BL109" s="32"/>
       <c r="BM109" s="32"/>
-      <c r="BN109" s="32"/>
+      <c r="BN109" s="53">
+        <v>5</v>
+      </c>
       <c r="BO109" s="32"/>
       <c r="BP109" s="32"/>
       <c r="BQ109" s="32"/>
@@ -14542,19 +14586,19 @@
       <c r="CY109" s="21"/>
     </row>
     <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="74" t="s">
-        <v>68</v>
+      <c r="A110" s="75" t="s">
+        <v>56</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C110" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D110" s="76">
+        <v>1</v>
+      </c>
+      <c r="D110" s="77">
         <v>6.04</v>
       </c>
-      <c r="E110" s="78">
+      <c r="E110" s="74">
         <v>4.05</v>
       </c>
       <c r="F110" s="31"/>
@@ -14607,7 +14651,9 @@
       <c r="BA110" s="32"/>
       <c r="BB110" s="32"/>
       <c r="BC110" s="32"/>
-      <c r="BD110" s="32"/>
+      <c r="BD110" s="55">
+        <v>1</v>
+      </c>
       <c r="BE110" s="32"/>
       <c r="BF110" s="32"/>
       <c r="BG110" s="32"/>
@@ -14615,6 +14661,7 @@
       <c r="BI110" s="32"/>
       <c r="BJ110" s="32"/>
       <c r="BK110" s="32"/>
+      <c r="BL110" s="32"/>
       <c r="BM110" s="32"/>
       <c r="BN110" s="32"/>
       <c r="BO110" s="32"/>
@@ -14623,9 +14670,7 @@
       <c r="BR110" s="32"/>
       <c r="BS110" s="32"/>
       <c r="BT110" s="32"/>
-      <c r="BU110" s="55">
-        <v>0.5</v>
-      </c>
+      <c r="BU110" s="32"/>
       <c r="BV110" s="32"/>
       <c r="BW110" s="32"/>
       <c r="BX110" s="32"/>
@@ -14658,15 +14703,15 @@
       <c r="CY110" s="21"/>
     </row>
     <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="75"/>
+      <c r="A111" s="76"/>
       <c r="B111" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="9">
         <v>3</v>
       </c>
-      <c r="D111" s="77"/>
-      <c r="E111" s="78"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="74"/>
       <c r="F111" s="31"/>
       <c r="G111" s="32"/>
       <c r="H111" s="32"/>
@@ -14717,7 +14762,9 @@
       <c r="BA111" s="32"/>
       <c r="BB111" s="32"/>
       <c r="BC111" s="32"/>
-      <c r="BD111" s="32"/>
+      <c r="BD111" s="53">
+        <v>3</v>
+      </c>
       <c r="BE111" s="32"/>
       <c r="BF111" s="32"/>
       <c r="BG111" s="32"/>
@@ -14725,6 +14772,7 @@
       <c r="BI111" s="32"/>
       <c r="BJ111" s="32"/>
       <c r="BK111" s="32"/>
+      <c r="BL111" s="32"/>
       <c r="BM111" s="32"/>
       <c r="BN111" s="32"/>
       <c r="BO111" s="32"/>
@@ -14733,9 +14781,7 @@
       <c r="BR111" s="32"/>
       <c r="BS111" s="32"/>
       <c r="BT111" s="32"/>
-      <c r="BU111" s="53">
-        <v>3</v>
-      </c>
+      <c r="BU111" s="32"/>
       <c r="BV111" s="32"/>
       <c r="BW111" s="32"/>
       <c r="BX111" s="32"/>
@@ -14768,15 +14814,21 @@
       <c r="CY111" s="21"/>
     </row>
     <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="87">
-        <v>44320</v>
-      </c>
-      <c r="E112" s="91"/>
+      <c r="A112" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D112" s="77">
+        <v>6.04</v>
+      </c>
+      <c r="E112" s="74">
+        <v>4.05</v>
+      </c>
       <c r="F112" s="31"/>
       <c r="G112" s="32"/>
       <c r="H112" s="32"/>
@@ -14830,14 +14882,18 @@
       <c r="BE112" s="32"/>
       <c r="BF112" s="32"/>
       <c r="BG112" s="32"/>
-      <c r="BH112" s="32"/>
+      <c r="BH112" s="55">
+        <v>0.5</v>
+      </c>
       <c r="BI112" s="32"/>
       <c r="BJ112" s="32"/>
       <c r="BK112" s="32"/>
-      <c r="BL112" s="48"/>
+      <c r="BL112" s="32"/>
       <c r="BM112" s="32"/>
       <c r="BN112" s="32"/>
-      <c r="BO112" s="32"/>
+      <c r="BO112" s="55">
+        <v>0.5</v>
+      </c>
       <c r="BP112" s="32"/>
       <c r="BQ112" s="32"/>
       <c r="BR112" s="32"/>
@@ -14876,249 +14932,249 @@
       <c r="CY112" s="21"/>
     </row>
     <row r="113" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="18" t="s">
+      <c r="A113" s="76"/>
+      <c r="B113" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="44"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="45"/>
-      <c r="M113" s="45"/>
-      <c r="N113" s="45"/>
-      <c r="O113" s="45"/>
-      <c r="P113" s="45"/>
-      <c r="Q113" s="45"/>
-      <c r="R113" s="45"/>
-      <c r="S113" s="45"/>
-      <c r="T113" s="45"/>
-      <c r="U113" s="45"/>
-      <c r="V113" s="45"/>
-      <c r="W113" s="45"/>
-      <c r="X113" s="45"/>
-      <c r="Y113" s="45"/>
-      <c r="Z113" s="45"/>
-      <c r="AA113" s="45"/>
-      <c r="AB113" s="45"/>
-      <c r="AC113" s="45"/>
-      <c r="AD113" s="45"/>
-      <c r="AE113" s="45"/>
-      <c r="AF113" s="45"/>
-      <c r="AG113" s="45"/>
-      <c r="AH113" s="45"/>
-      <c r="AI113" s="45"/>
-      <c r="AJ113" s="45"/>
-      <c r="AK113" s="45"/>
-      <c r="AL113" s="45"/>
-      <c r="AM113" s="45"/>
-      <c r="AN113" s="45"/>
-      <c r="AO113" s="45"/>
-      <c r="AP113" s="45"/>
-      <c r="AQ113" s="45"/>
-      <c r="AR113" s="45"/>
-      <c r="AS113" s="45"/>
-      <c r="AT113" s="45"/>
-      <c r="AU113" s="45"/>
-      <c r="AV113" s="45"/>
-      <c r="AW113" s="45"/>
-      <c r="AX113" s="45"/>
-      <c r="AY113" s="45"/>
-      <c r="AZ113" s="45"/>
-      <c r="BA113" s="45"/>
-      <c r="BB113" s="45"/>
-      <c r="BC113" s="45"/>
-      <c r="BD113" s="45"/>
-      <c r="BE113" s="45"/>
-      <c r="BF113" s="45"/>
-      <c r="BG113" s="45"/>
-      <c r="BH113" s="45"/>
-      <c r="BI113" s="45"/>
-      <c r="BJ113" s="45"/>
-      <c r="BK113" s="45"/>
-      <c r="BL113" s="45"/>
-      <c r="BM113" s="45"/>
-      <c r="BN113" s="45"/>
-      <c r="BO113" s="45"/>
-      <c r="BP113" s="45"/>
-      <c r="BQ113" s="45"/>
-      <c r="BR113" s="45"/>
-      <c r="BS113" s="45"/>
-      <c r="BT113" s="45"/>
-      <c r="BU113" s="45"/>
-      <c r="BV113" s="45"/>
-      <c r="BW113" s="45"/>
-      <c r="BX113" s="45"/>
-      <c r="BY113" s="45"/>
-      <c r="BZ113" s="45"/>
-      <c r="CA113" s="45"/>
-      <c r="CB113" s="45"/>
-      <c r="CC113" s="45"/>
-      <c r="CD113" s="45"/>
-      <c r="CE113" s="45"/>
-      <c r="CF113" s="45"/>
-      <c r="CG113" s="45"/>
-      <c r="CH113" s="45"/>
-      <c r="CI113" s="45"/>
-      <c r="CJ113" s="45"/>
-      <c r="CK113" s="45"/>
-      <c r="CL113" s="45"/>
-      <c r="CM113" s="45"/>
-      <c r="CN113" s="45"/>
-      <c r="CO113" s="45"/>
-      <c r="CP113" s="45"/>
-      <c r="CQ113" s="45"/>
-      <c r="CR113" s="45"/>
-      <c r="CS113" s="45"/>
-      <c r="CT113" s="45"/>
-      <c r="CU113" s="45"/>
-      <c r="CV113" s="45"/>
-      <c r="CW113" s="45"/>
-      <c r="CX113" s="46"/>
+      <c r="C113" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D113" s="79"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="32"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
+      <c r="X113" s="32"/>
+      <c r="Y113" s="32"/>
+      <c r="Z113" s="32"/>
+      <c r="AA113" s="32"/>
+      <c r="AB113" s="32"/>
+      <c r="AC113" s="32"/>
+      <c r="AD113" s="32"/>
+      <c r="AE113" s="32"/>
+      <c r="AF113" s="32"/>
+      <c r="AG113" s="32"/>
+      <c r="AH113" s="32"/>
+      <c r="AI113" s="32"/>
+      <c r="AJ113" s="32"/>
+      <c r="AK113" s="32"/>
+      <c r="AL113" s="32"/>
+      <c r="AM113" s="32"/>
+      <c r="AN113" s="32"/>
+      <c r="AO113" s="32"/>
+      <c r="AP113" s="32"/>
+      <c r="AQ113" s="32"/>
+      <c r="AR113" s="32"/>
+      <c r="AS113" s="32"/>
+      <c r="AT113" s="32"/>
+      <c r="AU113" s="32"/>
+      <c r="AV113" s="32"/>
+      <c r="AW113" s="32"/>
+      <c r="AX113" s="32"/>
+      <c r="AY113" s="32"/>
+      <c r="AZ113" s="32"/>
+      <c r="BA113" s="32"/>
+      <c r="BB113" s="32"/>
+      <c r="BC113" s="32"/>
+      <c r="BD113" s="32"/>
+      <c r="BE113" s="32"/>
+      <c r="BF113" s="32"/>
+      <c r="BG113" s="32"/>
+      <c r="BH113" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="BI113" s="32"/>
+      <c r="BJ113" s="32"/>
+      <c r="BK113" s="32"/>
+      <c r="BL113" s="32"/>
+      <c r="BM113" s="32"/>
+      <c r="BN113" s="32"/>
+      <c r="BO113" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="BP113" s="32"/>
+      <c r="BQ113" s="32"/>
+      <c r="BR113" s="32"/>
+      <c r="BS113" s="32"/>
+      <c r="BT113" s="32"/>
+      <c r="BU113" s="32"/>
+      <c r="BV113" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="BW113" s="32"/>
+      <c r="BX113" s="32"/>
+      <c r="BY113" s="32"/>
+      <c r="BZ113" s="32"/>
+      <c r="CA113" s="32"/>
+      <c r="CB113" s="32"/>
+      <c r="CC113" s="32"/>
+      <c r="CD113" s="32"/>
+      <c r="CE113" s="32"/>
+      <c r="CF113" s="32"/>
+      <c r="CG113" s="32"/>
+      <c r="CH113" s="32"/>
+      <c r="CI113" s="32"/>
+      <c r="CJ113" s="32"/>
+      <c r="CK113" s="32"/>
+      <c r="CL113" s="32"/>
+      <c r="CM113" s="32"/>
+      <c r="CN113" s="32"/>
+      <c r="CO113" s="32"/>
+      <c r="CP113" s="32"/>
+      <c r="CQ113" s="32"/>
+      <c r="CR113" s="32"/>
+      <c r="CS113" s="32"/>
+      <c r="CT113" s="32"/>
+      <c r="CU113" s="32"/>
+      <c r="CV113" s="32"/>
+      <c r="CW113" s="32"/>
+      <c r="CX113" s="33"/>
       <c r="CY113" s="21"/>
     </row>
     <row r="114" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="40"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="41"/>
-      <c r="M114" s="41"/>
-      <c r="N114" s="41"/>
-      <c r="O114" s="41"/>
-      <c r="P114" s="41"/>
-      <c r="Q114" s="41"/>
-      <c r="R114" s="41"/>
-      <c r="S114" s="41"/>
-      <c r="T114" s="41"/>
-      <c r="U114" s="41"/>
-      <c r="V114" s="41"/>
-      <c r="W114" s="41"/>
-      <c r="X114" s="41"/>
-      <c r="Y114" s="41"/>
-      <c r="Z114" s="41"/>
-      <c r="AA114" s="41"/>
-      <c r="AB114" s="41"/>
-      <c r="AC114" s="41"/>
-      <c r="AD114" s="41"/>
-      <c r="AE114" s="41"/>
-      <c r="AF114" s="41"/>
-      <c r="AG114" s="41"/>
-      <c r="AH114" s="41"/>
-      <c r="AI114" s="41"/>
-      <c r="AJ114" s="41"/>
-      <c r="AK114" s="41"/>
-      <c r="AL114" s="41"/>
-      <c r="AM114" s="41"/>
-      <c r="AN114" s="41"/>
-      <c r="AO114" s="41"/>
-      <c r="AP114" s="41"/>
-      <c r="AQ114" s="41"/>
-      <c r="AR114" s="41"/>
-      <c r="AS114" s="41"/>
-      <c r="AT114" s="41"/>
-      <c r="AU114" s="41"/>
-      <c r="AV114" s="41"/>
-      <c r="AW114" s="41"/>
-      <c r="AX114" s="41"/>
-      <c r="AY114" s="41"/>
-      <c r="AZ114" s="41"/>
-      <c r="BA114" s="41"/>
-      <c r="BB114" s="41"/>
-      <c r="BC114" s="41"/>
-      <c r="BD114" s="41"/>
-      <c r="BE114" s="41"/>
-      <c r="BF114" s="41"/>
-      <c r="BG114" s="41"/>
-      <c r="BH114" s="41"/>
-      <c r="BI114" s="41"/>
-      <c r="BJ114" s="41"/>
-      <c r="BK114" s="41"/>
-      <c r="BL114" s="41"/>
-      <c r="BM114" s="41"/>
-      <c r="BN114" s="41"/>
-      <c r="BO114" s="41"/>
-      <c r="BP114" s="41"/>
-      <c r="BQ114" s="41"/>
-      <c r="BR114" s="41"/>
-      <c r="BS114" s="41"/>
-      <c r="BT114" s="41"/>
-      <c r="BU114" s="41"/>
-      <c r="BV114" s="41"/>
-      <c r="BW114" s="41"/>
-      <c r="BX114" s="41"/>
-      <c r="BY114" s="41"/>
-      <c r="BZ114" s="41"/>
-      <c r="CA114" s="41"/>
-      <c r="CB114" s="41"/>
-      <c r="CC114" s="41"/>
-      <c r="CD114" s="41"/>
-      <c r="CE114" s="41"/>
-      <c r="CF114" s="41"/>
-      <c r="CG114" s="41"/>
-      <c r="CH114" s="41"/>
-      <c r="CI114" s="41"/>
-      <c r="CJ114" s="41"/>
-      <c r="CK114" s="41"/>
-      <c r="CL114" s="41"/>
-      <c r="CM114" s="41"/>
-      <c r="CN114" s="41"/>
-      <c r="CO114" s="41"/>
-      <c r="CP114" s="41"/>
-      <c r="CQ114" s="41"/>
-      <c r="CR114" s="41"/>
-      <c r="CS114" s="41"/>
-      <c r="CT114" s="41"/>
-      <c r="CU114" s="41"/>
-      <c r="CV114" s="41"/>
-      <c r="CW114" s="41"/>
-      <c r="CX114" s="42"/>
+      <c r="A114" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="9">
+        <v>2</v>
+      </c>
+      <c r="D114" s="77">
+        <v>6.04</v>
+      </c>
+      <c r="E114" s="74">
+        <v>4.05</v>
+      </c>
+      <c r="F114" s="31"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+      <c r="M114" s="32"/>
+      <c r="N114" s="32"/>
+      <c r="O114" s="32"/>
+      <c r="P114" s="32"/>
+      <c r="Q114" s="32"/>
+      <c r="R114" s="32"/>
+      <c r="S114" s="32"/>
+      <c r="T114" s="32"/>
+      <c r="U114" s="32"/>
+      <c r="V114" s="32"/>
+      <c r="W114" s="32"/>
+      <c r="X114" s="32"/>
+      <c r="Y114" s="32"/>
+      <c r="Z114" s="32"/>
+      <c r="AA114" s="32"/>
+      <c r="AB114" s="32"/>
+      <c r="AC114" s="32"/>
+      <c r="AD114" s="32"/>
+      <c r="AE114" s="32"/>
+      <c r="AF114" s="32"/>
+      <c r="AG114" s="32"/>
+      <c r="AH114" s="32"/>
+      <c r="AI114" s="32"/>
+      <c r="AJ114" s="32"/>
+      <c r="AK114" s="32"/>
+      <c r="AL114" s="32"/>
+      <c r="AM114" s="32"/>
+      <c r="AN114" s="32"/>
+      <c r="AO114" s="32"/>
+      <c r="AP114" s="32"/>
+      <c r="AQ114" s="32"/>
+      <c r="AR114" s="32"/>
+      <c r="AS114" s="32"/>
+      <c r="AT114" s="32"/>
+      <c r="AU114" s="32"/>
+      <c r="AV114" s="32"/>
+      <c r="AW114" s="32"/>
+      <c r="AX114" s="32"/>
+      <c r="AY114" s="32"/>
+      <c r="AZ114" s="32"/>
+      <c r="BA114" s="32"/>
+      <c r="BB114" s="32"/>
+      <c r="BC114" s="32"/>
+      <c r="BD114" s="32"/>
+      <c r="BE114" s="32"/>
+      <c r="BF114" s="32"/>
+      <c r="BG114" s="32"/>
+      <c r="BH114" s="32"/>
+      <c r="BI114" s="32"/>
+      <c r="BJ114" s="32"/>
+      <c r="BK114" s="32"/>
+      <c r="BL114" s="55">
+        <v>2</v>
+      </c>
+      <c r="BM114" s="32"/>
+      <c r="BN114" s="32"/>
+      <c r="BO114" s="32"/>
+      <c r="BP114" s="32"/>
+      <c r="BQ114" s="32"/>
+      <c r="BR114" s="32"/>
+      <c r="BS114" s="32"/>
+      <c r="BT114" s="32"/>
+      <c r="BU114" s="32"/>
+      <c r="BV114" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="BW114" s="32"/>
+      <c r="BX114" s="32"/>
+      <c r="BY114" s="32"/>
+      <c r="BZ114" s="32"/>
+      <c r="CA114" s="32"/>
+      <c r="CB114" s="32"/>
+      <c r="CC114" s="32"/>
+      <c r="CD114" s="32"/>
+      <c r="CE114" s="32"/>
+      <c r="CF114" s="32"/>
+      <c r="CG114" s="32"/>
+      <c r="CH114" s="32"/>
+      <c r="CI114" s="32"/>
+      <c r="CJ114" s="32"/>
+      <c r="CK114" s="32"/>
+      <c r="CL114" s="32"/>
+      <c r="CM114" s="32"/>
+      <c r="CN114" s="32"/>
+      <c r="CO114" s="32"/>
+      <c r="CP114" s="32"/>
+      <c r="CQ114" s="32"/>
+      <c r="CR114" s="32"/>
+      <c r="CS114" s="32"/>
+      <c r="CT114" s="32"/>
+      <c r="CU114" s="32"/>
+      <c r="CV114" s="32"/>
+      <c r="CW114" s="32"/>
+      <c r="CX114" s="33"/>
       <c r="CY114" s="21"/>
     </row>
     <row r="115" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A115" s="74"/>
+      <c r="A115" s="76"/>
       <c r="B115" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="77">
-        <v>4.05</v>
-      </c>
-      <c r="E115" s="78">
-        <v>18.04</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C115" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D115" s="78"/>
+      <c r="E115" s="74"/>
       <c r="F115" s="31"/>
       <c r="G115" s="32"/>
       <c r="H115" s="32"/>
@@ -15177,7 +15233,9 @@
       <c r="BI115" s="32"/>
       <c r="BJ115" s="32"/>
       <c r="BK115" s="32"/>
-      <c r="BL115" s="32"/>
+      <c r="BL115" s="53">
+        <v>2.5</v>
+      </c>
       <c r="BM115" s="32"/>
       <c r="BN115" s="32"/>
       <c r="BO115" s="32"/>
@@ -15218,16 +15276,22 @@
       <c r="CX115" s="33"/>
       <c r="CY115" s="21"/>
     </row>
-    <row r="116" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A116" s="75"/>
+    <row r="116" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="75" t="s">
+        <v>68</v>
+      </c>
       <c r="B116" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="77"/>
-      <c r="E116" s="78"/>
+        <v>6</v>
+      </c>
+      <c r="C116" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D116" s="77">
+        <v>6.04</v>
+      </c>
+      <c r="E116" s="74">
+        <v>4.05</v>
+      </c>
       <c r="F116" s="31"/>
       <c r="G116" s="32"/>
       <c r="H116" s="32"/>
@@ -15286,7 +15350,6 @@
       <c r="BI116" s="32"/>
       <c r="BJ116" s="32"/>
       <c r="BK116" s="32"/>
-      <c r="BL116" s="32"/>
       <c r="BM116" s="32"/>
       <c r="BN116" s="32"/>
       <c r="BO116" s="32"/>
@@ -15295,7 +15358,9 @@
       <c r="BR116" s="32"/>
       <c r="BS116" s="32"/>
       <c r="BT116" s="32"/>
-      <c r="BU116" s="32"/>
+      <c r="BU116" s="55">
+        <v>0.5</v>
+      </c>
       <c r="BV116" s="32"/>
       <c r="BW116" s="32"/>
       <c r="BX116" s="32"/>
@@ -15327,135 +15392,126 @@
       <c r="CX116" s="33"/>
       <c r="CY116" s="21"/>
     </row>
-    <row r="117" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="19" t="s">
+    <row r="117" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="76"/>
+      <c r="B117" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" s="40"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
-      <c r="M117" s="41"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="41"/>
-      <c r="P117" s="41"/>
-      <c r="Q117" s="41"/>
-      <c r="R117" s="41"/>
-      <c r="S117" s="41"/>
-      <c r="T117" s="41"/>
-      <c r="U117" s="41"/>
-      <c r="V117" s="41"/>
-      <c r="W117" s="41"/>
-      <c r="X117" s="41"/>
-      <c r="Y117" s="41"/>
-      <c r="Z117" s="41"/>
-      <c r="AA117" s="41"/>
-      <c r="AB117" s="41"/>
-      <c r="AC117" s="41"/>
-      <c r="AD117" s="41"/>
-      <c r="AE117" s="41"/>
-      <c r="AF117" s="41"/>
-      <c r="AG117" s="41"/>
-      <c r="AH117" s="41"/>
-      <c r="AI117" s="41"/>
-      <c r="AJ117" s="41"/>
-      <c r="AK117" s="41"/>
-      <c r="AL117" s="41"/>
-      <c r="AM117" s="41"/>
-      <c r="AN117" s="41"/>
-      <c r="AO117" s="41"/>
-      <c r="AP117" s="41"/>
-      <c r="AQ117" s="41"/>
-      <c r="AR117" s="41"/>
-      <c r="AS117" s="41"/>
-      <c r="AT117" s="41"/>
-      <c r="AU117" s="41"/>
-      <c r="AV117" s="41"/>
-      <c r="AW117" s="41"/>
-      <c r="AX117" s="41"/>
-      <c r="AY117" s="41"/>
-      <c r="AZ117" s="41"/>
-      <c r="BA117" s="41"/>
-      <c r="BB117" s="41"/>
-      <c r="BC117" s="41"/>
-      <c r="BD117" s="41"/>
-      <c r="BE117" s="41"/>
-      <c r="BF117" s="41"/>
-      <c r="BG117" s="41"/>
-      <c r="BH117" s="41"/>
-      <c r="BI117" s="41"/>
-      <c r="BJ117" s="41"/>
-      <c r="BK117" s="41"/>
-      <c r="BL117" s="41"/>
-      <c r="BM117" s="41"/>
-      <c r="BN117" s="41"/>
-      <c r="BO117" s="41"/>
-      <c r="BP117" s="41"/>
-      <c r="BQ117" s="41"/>
-      <c r="BR117" s="41"/>
-      <c r="BS117" s="41"/>
-      <c r="BT117" s="41"/>
-      <c r="BU117" s="41"/>
-      <c r="BV117" s="41"/>
-      <c r="BW117" s="41"/>
-      <c r="BX117" s="41"/>
-      <c r="BY117" s="41"/>
-      <c r="BZ117" s="41"/>
-      <c r="CA117" s="41"/>
-      <c r="CB117" s="41"/>
-      <c r="CC117" s="41"/>
-      <c r="CD117" s="41"/>
-      <c r="CE117" s="41"/>
-      <c r="CF117" s="41"/>
-      <c r="CG117" s="41"/>
-      <c r="CH117" s="41"/>
-      <c r="CI117" s="41"/>
-      <c r="CJ117" s="41"/>
-      <c r="CK117" s="41"/>
-      <c r="CL117" s="41"/>
-      <c r="CM117" s="41"/>
-      <c r="CN117" s="41"/>
-      <c r="CO117" s="41"/>
-      <c r="CP117" s="41"/>
-      <c r="CQ117" s="41"/>
-      <c r="CR117" s="41"/>
-      <c r="CS117" s="41"/>
-      <c r="CT117" s="41"/>
-      <c r="CU117" s="41"/>
-      <c r="CV117" s="41"/>
-      <c r="CW117" s="41"/>
-      <c r="CX117" s="42"/>
+      <c r="C117" s="9">
+        <v>3</v>
+      </c>
+      <c r="D117" s="78"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="32"/>
+      <c r="P117" s="32"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="32"/>
+      <c r="S117" s="32"/>
+      <c r="T117" s="32"/>
+      <c r="U117" s="32"/>
+      <c r="V117" s="32"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="32"/>
+      <c r="Z117" s="32"/>
+      <c r="AA117" s="32"/>
+      <c r="AB117" s="32"/>
+      <c r="AC117" s="32"/>
+      <c r="AD117" s="32"/>
+      <c r="AE117" s="32"/>
+      <c r="AF117" s="32"/>
+      <c r="AG117" s="32"/>
+      <c r="AH117" s="32"/>
+      <c r="AI117" s="32"/>
+      <c r="AJ117" s="32"/>
+      <c r="AK117" s="32"/>
+      <c r="AL117" s="32"/>
+      <c r="AM117" s="32"/>
+      <c r="AN117" s="32"/>
+      <c r="AO117" s="32"/>
+      <c r="AP117" s="32"/>
+      <c r="AQ117" s="32"/>
+      <c r="AR117" s="32"/>
+      <c r="AS117" s="32"/>
+      <c r="AT117" s="32"/>
+      <c r="AU117" s="32"/>
+      <c r="AV117" s="32"/>
+      <c r="AW117" s="32"/>
+      <c r="AX117" s="32"/>
+      <c r="AY117" s="32"/>
+      <c r="AZ117" s="32"/>
+      <c r="BA117" s="32"/>
+      <c r="BB117" s="32"/>
+      <c r="BC117" s="32"/>
+      <c r="BD117" s="32"/>
+      <c r="BE117" s="32"/>
+      <c r="BF117" s="32"/>
+      <c r="BG117" s="32"/>
+      <c r="BH117" s="32"/>
+      <c r="BI117" s="32"/>
+      <c r="BJ117" s="32"/>
+      <c r="BK117" s="32"/>
+      <c r="BM117" s="32"/>
+      <c r="BN117" s="32"/>
+      <c r="BO117" s="32"/>
+      <c r="BP117" s="32"/>
+      <c r="BQ117" s="32"/>
+      <c r="BR117" s="32"/>
+      <c r="BS117" s="32"/>
+      <c r="BT117" s="32"/>
+      <c r="BU117" s="53">
+        <v>3</v>
+      </c>
+      <c r="BV117" s="32"/>
+      <c r="BW117" s="32"/>
+      <c r="BX117" s="32"/>
+      <c r="BY117" s="32"/>
+      <c r="BZ117" s="32"/>
+      <c r="CA117" s="32"/>
+      <c r="CB117" s="32"/>
+      <c r="CC117" s="32"/>
+      <c r="CD117" s="32"/>
+      <c r="CE117" s="32"/>
+      <c r="CF117" s="32"/>
+      <c r="CG117" s="32"/>
+      <c r="CH117" s="32"/>
+      <c r="CI117" s="32"/>
+      <c r="CJ117" s="32"/>
+      <c r="CK117" s="32"/>
+      <c r="CL117" s="32"/>
+      <c r="CM117" s="32"/>
+      <c r="CN117" s="32"/>
+      <c r="CO117" s="32"/>
+      <c r="CP117" s="32"/>
+      <c r="CQ117" s="32"/>
+      <c r="CR117" s="32"/>
+      <c r="CS117" s="32"/>
+      <c r="CT117" s="32"/>
+      <c r="CU117" s="32"/>
+      <c r="CV117" s="32"/>
+      <c r="CW117" s="32"/>
+      <c r="CX117" s="33"/>
       <c r="CY117" s="21"/>
     </row>
-    <row r="118" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A118" s="74"/>
-      <c r="B118" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="77">
-        <v>4.05</v>
-      </c>
-      <c r="E118" s="78">
-        <v>18.04</v>
-      </c>
+    <row r="118" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="85">
+        <v>44320</v>
+      </c>
+      <c r="E118" s="86"/>
       <c r="F118" s="31"/>
       <c r="G118" s="32"/>
       <c r="H118" s="32"/>
@@ -15506,7 +15562,6 @@
       <c r="BA118" s="32"/>
       <c r="BB118" s="32"/>
       <c r="BC118" s="32"/>
-      <c r="BD118" s="32"/>
       <c r="BE118" s="32"/>
       <c r="BF118" s="32"/>
       <c r="BG118" s="32"/>
@@ -15514,7 +15569,7 @@
       <c r="BI118" s="32"/>
       <c r="BJ118" s="32"/>
       <c r="BK118" s="32"/>
-      <c r="BL118" s="32"/>
+      <c r="BL118" s="48"/>
       <c r="BM118" s="32"/>
       <c r="BN118" s="32"/>
       <c r="BO118" s="32"/>
@@ -15555,118 +15610,124 @@
       <c r="CX118" s="33"/>
       <c r="CY118" s="21"/>
     </row>
-    <row r="119" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A119" s="75"/>
-      <c r="B119" s="7" t="s">
+    <row r="119" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="77"/>
-      <c r="E119" s="78"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="32"/>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="32"/>
-      <c r="O119" s="32"/>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="32"/>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
-      <c r="W119" s="32"/>
-      <c r="X119" s="32"/>
-      <c r="Y119" s="32"/>
-      <c r="Z119" s="32"/>
-      <c r="AA119" s="32"/>
-      <c r="AB119" s="32"/>
-      <c r="AC119" s="32"/>
-      <c r="AD119" s="32"/>
-      <c r="AE119" s="32"/>
-      <c r="AF119" s="32"/>
-      <c r="AG119" s="32"/>
-      <c r="AH119" s="32"/>
-      <c r="AI119" s="32"/>
-      <c r="AJ119" s="32"/>
-      <c r="AK119" s="32"/>
-      <c r="AL119" s="32"/>
-      <c r="AM119" s="32"/>
-      <c r="AN119" s="32"/>
-      <c r="AO119" s="32"/>
-      <c r="AP119" s="32"/>
-      <c r="AQ119" s="32"/>
-      <c r="AR119" s="32"/>
-      <c r="AS119" s="32"/>
-      <c r="AT119" s="32"/>
-      <c r="AU119" s="32"/>
-      <c r="AV119" s="32"/>
-      <c r="AW119" s="32"/>
-      <c r="AX119" s="32"/>
-      <c r="AY119" s="32"/>
-      <c r="AZ119" s="32"/>
-      <c r="BA119" s="32"/>
-      <c r="BB119" s="32"/>
-      <c r="BC119" s="32"/>
-      <c r="BD119" s="32"/>
-      <c r="BE119" s="32"/>
-      <c r="BF119" s="32"/>
-      <c r="BG119" s="32"/>
-      <c r="BH119" s="32"/>
-      <c r="BI119" s="32"/>
-      <c r="BJ119" s="32"/>
-      <c r="BK119" s="32"/>
-      <c r="BL119" s="32"/>
-      <c r="BM119" s="32"/>
-      <c r="BN119" s="32"/>
-      <c r="BO119" s="32"/>
-      <c r="BP119" s="32"/>
-      <c r="BQ119" s="32"/>
-      <c r="BR119" s="32"/>
-      <c r="BS119" s="32"/>
-      <c r="BT119" s="32"/>
-      <c r="BU119" s="32"/>
-      <c r="BV119" s="32"/>
-      <c r="BW119" s="32"/>
-      <c r="BX119" s="32"/>
-      <c r="BY119" s="32"/>
-      <c r="BZ119" s="32"/>
-      <c r="CA119" s="32"/>
-      <c r="CB119" s="32"/>
-      <c r="CC119" s="32"/>
-      <c r="CD119" s="32"/>
-      <c r="CE119" s="32"/>
-      <c r="CF119" s="32"/>
-      <c r="CG119" s="32"/>
-      <c r="CH119" s="32"/>
-      <c r="CI119" s="32"/>
-      <c r="CJ119" s="32"/>
-      <c r="CK119" s="32"/>
-      <c r="CL119" s="32"/>
-      <c r="CM119" s="32"/>
-      <c r="CN119" s="32"/>
-      <c r="CO119" s="32"/>
-      <c r="CP119" s="32"/>
-      <c r="CQ119" s="32"/>
-      <c r="CR119" s="32"/>
-      <c r="CS119" s="32"/>
-      <c r="CT119" s="32"/>
-      <c r="CU119" s="32"/>
-      <c r="CV119" s="32"/>
-      <c r="CW119" s="32"/>
-      <c r="CX119" s="33"/>
+      <c r="E119" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="44"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="45"/>
+      <c r="I119" s="45"/>
+      <c r="J119" s="45"/>
+      <c r="K119" s="45"/>
+      <c r="L119" s="45"/>
+      <c r="M119" s="45"/>
+      <c r="N119" s="45"/>
+      <c r="O119" s="45"/>
+      <c r="P119" s="45"/>
+      <c r="Q119" s="45"/>
+      <c r="R119" s="45"/>
+      <c r="S119" s="45"/>
+      <c r="T119" s="45"/>
+      <c r="U119" s="45"/>
+      <c r="V119" s="45"/>
+      <c r="W119" s="45"/>
+      <c r="X119" s="45"/>
+      <c r="Y119" s="45"/>
+      <c r="Z119" s="45"/>
+      <c r="AA119" s="45"/>
+      <c r="AB119" s="45"/>
+      <c r="AC119" s="45"/>
+      <c r="AD119" s="45"/>
+      <c r="AE119" s="45"/>
+      <c r="AF119" s="45"/>
+      <c r="AG119" s="45"/>
+      <c r="AH119" s="45"/>
+      <c r="AI119" s="45"/>
+      <c r="AJ119" s="45"/>
+      <c r="AK119" s="45"/>
+      <c r="AL119" s="45"/>
+      <c r="AM119" s="45"/>
+      <c r="AN119" s="45"/>
+      <c r="AO119" s="45"/>
+      <c r="AP119" s="45"/>
+      <c r="AQ119" s="45"/>
+      <c r="AR119" s="45"/>
+      <c r="AS119" s="45"/>
+      <c r="AT119" s="45"/>
+      <c r="AU119" s="45"/>
+      <c r="AV119" s="45"/>
+      <c r="AW119" s="45"/>
+      <c r="AX119" s="45"/>
+      <c r="AY119" s="45"/>
+      <c r="AZ119" s="45"/>
+      <c r="BA119" s="45"/>
+      <c r="BB119" s="45"/>
+      <c r="BC119" s="45"/>
+      <c r="BD119" s="45"/>
+      <c r="BE119" s="45"/>
+      <c r="BF119" s="45"/>
+      <c r="BG119" s="45"/>
+      <c r="BH119" s="45"/>
+      <c r="BI119" s="45"/>
+      <c r="BJ119" s="45"/>
+      <c r="BK119" s="45"/>
+      <c r="BL119" s="45"/>
+      <c r="BM119" s="45"/>
+      <c r="BN119" s="45"/>
+      <c r="BO119" s="45"/>
+      <c r="BP119" s="45"/>
+      <c r="BQ119" s="45"/>
+      <c r="BR119" s="45"/>
+      <c r="BS119" s="45"/>
+      <c r="BT119" s="45"/>
+      <c r="BU119" s="45"/>
+      <c r="BV119" s="45"/>
+      <c r="BW119" s="45"/>
+      <c r="BX119" s="45"/>
+      <c r="BY119" s="45"/>
+      <c r="BZ119" s="45"/>
+      <c r="CA119" s="45"/>
+      <c r="CB119" s="45"/>
+      <c r="CC119" s="45"/>
+      <c r="CD119" s="45"/>
+      <c r="CE119" s="45"/>
+      <c r="CF119" s="45"/>
+      <c r="CG119" s="45"/>
+      <c r="CH119" s="45"/>
+      <c r="CI119" s="45"/>
+      <c r="CJ119" s="45"/>
+      <c r="CK119" s="45"/>
+      <c r="CL119" s="45"/>
+      <c r="CM119" s="45"/>
+      <c r="CN119" s="45"/>
+      <c r="CO119" s="45"/>
+      <c r="CP119" s="45"/>
+      <c r="CQ119" s="45"/>
+      <c r="CR119" s="45"/>
+      <c r="CS119" s="45"/>
+      <c r="CT119" s="45"/>
+      <c r="CU119" s="45"/>
+      <c r="CV119" s="45"/>
+      <c r="CW119" s="45"/>
+      <c r="CX119" s="46"/>
       <c r="CY119" s="21"/>
     </row>
     <row r="120" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>9</v>
@@ -15780,17 +15841,17 @@
       <c r="CY120" s="21"/>
     </row>
     <row r="121" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A121" s="74"/>
+      <c r="A121" s="75"/>
       <c r="B121" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="77">
+      <c r="D121" s="78">
         <v>4.05</v>
       </c>
-      <c r="E121" s="78">
+      <c r="E121" s="74">
         <v>18.04</v>
       </c>
       <c r="F121" s="31"/>
@@ -15893,15 +15954,15 @@
       <c r="CY121" s="21"/>
     </row>
     <row r="122" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A122" s="75"/>
+      <c r="A122" s="76"/>
       <c r="B122" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="77"/>
-      <c r="E122" s="78"/>
+      <c r="D122" s="78"/>
+      <c r="E122" s="74"/>
       <c r="F122" s="31"/>
       <c r="G122" s="32"/>
       <c r="H122" s="32"/>
@@ -16003,7 +16064,7 @@
     </row>
     <row r="123" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>9</v>
@@ -16117,17 +16178,17 @@
       <c r="CY123" s="21"/>
     </row>
     <row r="124" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A124" s="74"/>
+      <c r="A124" s="75"/>
       <c r="B124" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="77">
+      <c r="D124" s="78">
         <v>4.05</v>
       </c>
-      <c r="E124" s="78">
+      <c r="E124" s="74">
         <v>18.04</v>
       </c>
       <c r="F124" s="31"/>
@@ -16230,15 +16291,15 @@
       <c r="CY124" s="21"/>
     </row>
     <row r="125" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A125" s="75"/>
+      <c r="A125" s="76"/>
       <c r="B125" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="77"/>
-      <c r="E125" s="78"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="74"/>
       <c r="F125" s="31"/>
       <c r="G125" s="32"/>
       <c r="H125" s="32"/>
@@ -16340,7 +16401,7 @@
     </row>
     <row r="126" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>9</v>
@@ -16454,17 +16515,17 @@
       <c r="CY126" s="21"/>
     </row>
     <row r="127" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A127" s="74"/>
+      <c r="A127" s="75"/>
       <c r="B127" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="77">
+      <c r="D127" s="78">
         <v>4.05</v>
       </c>
-      <c r="E127" s="78">
+      <c r="E127" s="74">
         <v>18.04</v>
       </c>
       <c r="F127" s="31"/>
@@ -16567,15 +16628,15 @@
       <c r="CY127" s="21"/>
     </row>
     <row r="128" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A128" s="75"/>
+      <c r="A128" s="76"/>
       <c r="B128" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="77"/>
-      <c r="E128" s="78"/>
+      <c r="D128" s="78"/>
+      <c r="E128" s="74"/>
       <c r="F128" s="31"/>
       <c r="G128" s="32"/>
       <c r="H128" s="32"/>
@@ -16676,467 +16737,471 @@
       <c r="CY128" s="21"/>
     </row>
     <row r="129" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A129" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="85">
-        <v>44334</v>
-      </c>
-      <c r="E129" s="86"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="32"/>
-      <c r="J129" s="32"/>
-      <c r="K129" s="32"/>
-      <c r="L129" s="32"/>
-      <c r="M129" s="32"/>
-      <c r="N129" s="32"/>
-      <c r="O129" s="32"/>
-      <c r="P129" s="32"/>
-      <c r="Q129" s="32"/>
-      <c r="R129" s="32"/>
-      <c r="S129" s="32"/>
-      <c r="T129" s="32"/>
-      <c r="U129" s="32"/>
-      <c r="V129" s="32"/>
-      <c r="W129" s="32"/>
-      <c r="X129" s="32"/>
-      <c r="Y129" s="32"/>
-      <c r="Z129" s="32"/>
-      <c r="AA129" s="32"/>
-      <c r="AB129" s="32"/>
-      <c r="AC129" s="32"/>
-      <c r="AD129" s="32"/>
-      <c r="AE129" s="32"/>
-      <c r="AF129" s="32"/>
-      <c r="AG129" s="32"/>
-      <c r="AH129" s="32"/>
-      <c r="AI129" s="32"/>
-      <c r="AJ129" s="32"/>
-      <c r="AK129" s="32"/>
-      <c r="AL129" s="32"/>
-      <c r="AM129" s="32"/>
-      <c r="AN129" s="32"/>
-      <c r="AO129" s="32"/>
-      <c r="AP129" s="32"/>
-      <c r="AQ129" s="32"/>
-      <c r="AR129" s="32"/>
-      <c r="AS129" s="32"/>
-      <c r="AT129" s="32"/>
-      <c r="AU129" s="32"/>
-      <c r="AV129" s="32"/>
-      <c r="AW129" s="32"/>
-      <c r="AX129" s="32"/>
-      <c r="AY129" s="32"/>
-      <c r="AZ129" s="32"/>
-      <c r="BA129" s="32"/>
-      <c r="BB129" s="32"/>
-      <c r="BC129" s="32"/>
-      <c r="BD129" s="32"/>
-      <c r="BE129" s="32"/>
-      <c r="BF129" s="32"/>
-      <c r="BG129" s="32"/>
-      <c r="BH129" s="32"/>
-      <c r="BI129" s="32"/>
-      <c r="BJ129" s="32"/>
-      <c r="BK129" s="32"/>
-      <c r="BL129" s="32"/>
-      <c r="BM129" s="32"/>
-      <c r="BN129" s="32"/>
-      <c r="BO129" s="32"/>
-      <c r="BP129" s="32"/>
-      <c r="BQ129" s="32"/>
-      <c r="BR129" s="32"/>
-      <c r="BS129" s="32"/>
-      <c r="BT129" s="32"/>
-      <c r="BU129" s="32"/>
-      <c r="BV129" s="32"/>
-      <c r="BW129" s="32"/>
-      <c r="BX129" s="32"/>
-      <c r="BY129" s="32"/>
-      <c r="BZ129" s="32"/>
-      <c r="CA129" s="32"/>
-      <c r="CB129" s="32"/>
-      <c r="CC129" s="32"/>
-      <c r="CD129" s="32"/>
-      <c r="CE129" s="32"/>
-      <c r="CF129" s="32"/>
-      <c r="CG129" s="32"/>
-      <c r="CH129" s="32"/>
-      <c r="CI129" s="32"/>
-      <c r="CJ129" s="32"/>
-      <c r="CK129" s="32"/>
-      <c r="CL129" s="32"/>
-      <c r="CM129" s="32"/>
-      <c r="CN129" s="32"/>
-      <c r="CO129" s="32"/>
-      <c r="CP129" s="32"/>
-      <c r="CQ129" s="32"/>
-      <c r="CR129" s="32"/>
-      <c r="CS129" s="32"/>
-      <c r="CT129" s="32"/>
-      <c r="CU129" s="32"/>
-      <c r="CV129" s="32"/>
-      <c r="CW129" s="32"/>
-      <c r="CX129" s="33"/>
+      <c r="A129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="40"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="41"/>
+      <c r="L129" s="41"/>
+      <c r="M129" s="41"/>
+      <c r="N129" s="41"/>
+      <c r="O129" s="41"/>
+      <c r="P129" s="41"/>
+      <c r="Q129" s="41"/>
+      <c r="R129" s="41"/>
+      <c r="S129" s="41"/>
+      <c r="T129" s="41"/>
+      <c r="U129" s="41"/>
+      <c r="V129" s="41"/>
+      <c r="W129" s="41"/>
+      <c r="X129" s="41"/>
+      <c r="Y129" s="41"/>
+      <c r="Z129" s="41"/>
+      <c r="AA129" s="41"/>
+      <c r="AB129" s="41"/>
+      <c r="AC129" s="41"/>
+      <c r="AD129" s="41"/>
+      <c r="AE129" s="41"/>
+      <c r="AF129" s="41"/>
+      <c r="AG129" s="41"/>
+      <c r="AH129" s="41"/>
+      <c r="AI129" s="41"/>
+      <c r="AJ129" s="41"/>
+      <c r="AK129" s="41"/>
+      <c r="AL129" s="41"/>
+      <c r="AM129" s="41"/>
+      <c r="AN129" s="41"/>
+      <c r="AO129" s="41"/>
+      <c r="AP129" s="41"/>
+      <c r="AQ129" s="41"/>
+      <c r="AR129" s="41"/>
+      <c r="AS129" s="41"/>
+      <c r="AT129" s="41"/>
+      <c r="AU129" s="41"/>
+      <c r="AV129" s="41"/>
+      <c r="AW129" s="41"/>
+      <c r="AX129" s="41"/>
+      <c r="AY129" s="41"/>
+      <c r="AZ129" s="41"/>
+      <c r="BA129" s="41"/>
+      <c r="BB129" s="41"/>
+      <c r="BC129" s="41"/>
+      <c r="BD129" s="41"/>
+      <c r="BE129" s="41"/>
+      <c r="BF129" s="41"/>
+      <c r="BG129" s="41"/>
+      <c r="BH129" s="41"/>
+      <c r="BI129" s="41"/>
+      <c r="BJ129" s="41"/>
+      <c r="BK129" s="41"/>
+      <c r="BL129" s="41"/>
+      <c r="BM129" s="41"/>
+      <c r="BN129" s="41"/>
+      <c r="BO129" s="41"/>
+      <c r="BP129" s="41"/>
+      <c r="BQ129" s="41"/>
+      <c r="BR129" s="41"/>
+      <c r="BS129" s="41"/>
+      <c r="BT129" s="41"/>
+      <c r="BU129" s="41"/>
+      <c r="BV129" s="41"/>
+      <c r="BW129" s="41"/>
+      <c r="BX129" s="41"/>
+      <c r="BY129" s="41"/>
+      <c r="BZ129" s="41"/>
+      <c r="CA129" s="41"/>
+      <c r="CB129" s="41"/>
+      <c r="CC129" s="41"/>
+      <c r="CD129" s="41"/>
+      <c r="CE129" s="41"/>
+      <c r="CF129" s="41"/>
+      <c r="CG129" s="41"/>
+      <c r="CH129" s="41"/>
+      <c r="CI129" s="41"/>
+      <c r="CJ129" s="41"/>
+      <c r="CK129" s="41"/>
+      <c r="CL129" s="41"/>
+      <c r="CM129" s="41"/>
+      <c r="CN129" s="41"/>
+      <c r="CO129" s="41"/>
+      <c r="CP129" s="41"/>
+      <c r="CQ129" s="41"/>
+      <c r="CR129" s="41"/>
+      <c r="CS129" s="41"/>
+      <c r="CT129" s="41"/>
+      <c r="CU129" s="41"/>
+      <c r="CV129" s="41"/>
+      <c r="CW129" s="41"/>
+      <c r="CX129" s="42"/>
       <c r="CY129" s="21"/>
     </row>
     <row r="130" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A130" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B130" s="10" t="s">
+      <c r="A130" s="75"/>
+      <c r="B130" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" s="44"/>
-      <c r="G130" s="45"/>
-      <c r="H130" s="45"/>
-      <c r="I130" s="45"/>
-      <c r="J130" s="45"/>
-      <c r="K130" s="45"/>
-      <c r="L130" s="45"/>
-      <c r="M130" s="45"/>
-      <c r="N130" s="45"/>
-      <c r="O130" s="45"/>
-      <c r="P130" s="45"/>
-      <c r="Q130" s="45"/>
-      <c r="R130" s="45"/>
-      <c r="S130" s="45"/>
-      <c r="T130" s="45"/>
-      <c r="U130" s="45"/>
-      <c r="V130" s="45"/>
-      <c r="W130" s="45"/>
-      <c r="X130" s="45"/>
-      <c r="Y130" s="45"/>
-      <c r="Z130" s="45"/>
-      <c r="AA130" s="45"/>
-      <c r="AB130" s="45"/>
-      <c r="AC130" s="45"/>
-      <c r="AD130" s="45"/>
-      <c r="AE130" s="45"/>
-      <c r="AF130" s="45"/>
-      <c r="AG130" s="45"/>
-      <c r="AH130" s="45"/>
-      <c r="AI130" s="45"/>
-      <c r="AJ130" s="45"/>
-      <c r="AK130" s="45"/>
-      <c r="AL130" s="45"/>
-      <c r="AM130" s="45"/>
-      <c r="AN130" s="45"/>
-      <c r="AO130" s="45"/>
-      <c r="AP130" s="45"/>
-      <c r="AQ130" s="45"/>
-      <c r="AR130" s="45"/>
-      <c r="AS130" s="45"/>
-      <c r="AT130" s="45"/>
-      <c r="AU130" s="45"/>
-      <c r="AV130" s="45"/>
-      <c r="AW130" s="45"/>
-      <c r="AX130" s="45"/>
-      <c r="AY130" s="45"/>
-      <c r="AZ130" s="45"/>
-      <c r="BA130" s="45"/>
-      <c r="BB130" s="45"/>
-      <c r="BC130" s="45"/>
-      <c r="BD130" s="45"/>
-      <c r="BE130" s="45"/>
-      <c r="BF130" s="45"/>
-      <c r="BG130" s="45"/>
-      <c r="BH130" s="45"/>
-      <c r="BI130" s="45"/>
-      <c r="BJ130" s="45"/>
-      <c r="BK130" s="45"/>
-      <c r="BL130" s="45"/>
-      <c r="BM130" s="45"/>
-      <c r="BN130" s="45"/>
-      <c r="BO130" s="45"/>
-      <c r="BP130" s="45"/>
-      <c r="BQ130" s="45"/>
-      <c r="BR130" s="45"/>
-      <c r="BS130" s="45"/>
-      <c r="BT130" s="45"/>
-      <c r="BU130" s="45"/>
-      <c r="BV130" s="45"/>
-      <c r="BW130" s="45"/>
-      <c r="BX130" s="45"/>
-      <c r="BY130" s="45"/>
-      <c r="BZ130" s="45"/>
-      <c r="CA130" s="45"/>
-      <c r="CB130" s="45"/>
-      <c r="CC130" s="45"/>
-      <c r="CD130" s="45"/>
-      <c r="CE130" s="45"/>
-      <c r="CF130" s="45"/>
-      <c r="CG130" s="45"/>
-      <c r="CH130" s="45"/>
-      <c r="CI130" s="45"/>
-      <c r="CJ130" s="45"/>
-      <c r="CK130" s="45"/>
-      <c r="CL130" s="45"/>
-      <c r="CM130" s="45"/>
-      <c r="CN130" s="45"/>
-      <c r="CO130" s="45"/>
-      <c r="CP130" s="45"/>
-      <c r="CQ130" s="45"/>
-      <c r="CR130" s="45"/>
-      <c r="CS130" s="45"/>
-      <c r="CT130" s="45"/>
-      <c r="CU130" s="45"/>
-      <c r="CV130" s="45"/>
-      <c r="CW130" s="45"/>
-      <c r="CX130" s="46"/>
+      <c r="C130" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="78">
+        <v>4.05</v>
+      </c>
+      <c r="E130" s="74">
+        <v>18.04</v>
+      </c>
+      <c r="F130" s="31"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
+      <c r="P130" s="32"/>
+      <c r="Q130" s="32"/>
+      <c r="R130" s="32"/>
+      <c r="S130" s="32"/>
+      <c r="T130" s="32"/>
+      <c r="U130" s="32"/>
+      <c r="V130" s="32"/>
+      <c r="W130" s="32"/>
+      <c r="X130" s="32"/>
+      <c r="Y130" s="32"/>
+      <c r="Z130" s="32"/>
+      <c r="AA130" s="32"/>
+      <c r="AB130" s="32"/>
+      <c r="AC130" s="32"/>
+      <c r="AD130" s="32"/>
+      <c r="AE130" s="32"/>
+      <c r="AF130" s="32"/>
+      <c r="AG130" s="32"/>
+      <c r="AH130" s="32"/>
+      <c r="AI130" s="32"/>
+      <c r="AJ130" s="32"/>
+      <c r="AK130" s="32"/>
+      <c r="AL130" s="32"/>
+      <c r="AM130" s="32"/>
+      <c r="AN130" s="32"/>
+      <c r="AO130" s="32"/>
+      <c r="AP130" s="32"/>
+      <c r="AQ130" s="32"/>
+      <c r="AR130" s="32"/>
+      <c r="AS130" s="32"/>
+      <c r="AT130" s="32"/>
+      <c r="AU130" s="32"/>
+      <c r="AV130" s="32"/>
+      <c r="AW130" s="32"/>
+      <c r="AX130" s="32"/>
+      <c r="AY130" s="32"/>
+      <c r="AZ130" s="32"/>
+      <c r="BA130" s="32"/>
+      <c r="BB130" s="32"/>
+      <c r="BC130" s="32"/>
+      <c r="BD130" s="32"/>
+      <c r="BE130" s="32"/>
+      <c r="BF130" s="32"/>
+      <c r="BG130" s="32"/>
+      <c r="BH130" s="32"/>
+      <c r="BI130" s="32"/>
+      <c r="BJ130" s="32"/>
+      <c r="BK130" s="32"/>
+      <c r="BL130" s="32"/>
+      <c r="BM130" s="32"/>
+      <c r="BN130" s="32"/>
+      <c r="BO130" s="32"/>
+      <c r="BP130" s="32"/>
+      <c r="BQ130" s="32"/>
+      <c r="BR130" s="32"/>
+      <c r="BS130" s="32"/>
+      <c r="BT130" s="32"/>
+      <c r="BU130" s="32"/>
+      <c r="BV130" s="32"/>
+      <c r="BW130" s="32"/>
+      <c r="BX130" s="32"/>
+      <c r="BY130" s="32"/>
+      <c r="BZ130" s="32"/>
+      <c r="CA130" s="32"/>
+      <c r="CB130" s="32"/>
+      <c r="CC130" s="32"/>
+      <c r="CD130" s="32"/>
+      <c r="CE130" s="32"/>
+      <c r="CF130" s="32"/>
+      <c r="CG130" s="32"/>
+      <c r="CH130" s="32"/>
+      <c r="CI130" s="32"/>
+      <c r="CJ130" s="32"/>
+      <c r="CK130" s="32"/>
+      <c r="CL130" s="32"/>
+      <c r="CM130" s="32"/>
+      <c r="CN130" s="32"/>
+      <c r="CO130" s="32"/>
+      <c r="CP130" s="32"/>
+      <c r="CQ130" s="32"/>
+      <c r="CR130" s="32"/>
+      <c r="CS130" s="32"/>
+      <c r="CT130" s="32"/>
+      <c r="CU130" s="32"/>
+      <c r="CV130" s="32"/>
+      <c r="CW130" s="32"/>
+      <c r="CX130" s="33"/>
       <c r="CY130" s="21"/>
     </row>
     <row r="131" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="19" t="s">
+      <c r="A131" s="76"/>
+      <c r="B131" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="40"/>
-      <c r="G131" s="41"/>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
-      <c r="K131" s="41"/>
-      <c r="L131" s="41"/>
-      <c r="M131" s="41"/>
-      <c r="N131" s="41"/>
-      <c r="O131" s="41"/>
-      <c r="P131" s="41"/>
-      <c r="Q131" s="41"/>
-      <c r="R131" s="41"/>
-      <c r="S131" s="41"/>
-      <c r="T131" s="41"/>
-      <c r="U131" s="41"/>
-      <c r="V131" s="41"/>
-      <c r="W131" s="41"/>
-      <c r="X131" s="41"/>
-      <c r="Y131" s="41"/>
-      <c r="Z131" s="41"/>
-      <c r="AA131" s="41"/>
-      <c r="AB131" s="41"/>
-      <c r="AC131" s="41"/>
-      <c r="AD131" s="41"/>
-      <c r="AE131" s="41"/>
-      <c r="AF131" s="41"/>
-      <c r="AG131" s="41"/>
-      <c r="AH131" s="41"/>
-      <c r="AI131" s="41"/>
-      <c r="AJ131" s="41"/>
-      <c r="AK131" s="41"/>
-      <c r="AL131" s="41"/>
-      <c r="AM131" s="41"/>
-      <c r="AN131" s="41"/>
-      <c r="AO131" s="41"/>
-      <c r="AP131" s="41"/>
-      <c r="AQ131" s="41"/>
-      <c r="AR131" s="41"/>
-      <c r="AS131" s="41"/>
-      <c r="AT131" s="41"/>
-      <c r="AU131" s="41"/>
-      <c r="AV131" s="41"/>
-      <c r="AW131" s="41"/>
-      <c r="AX131" s="41"/>
-      <c r="AY131" s="41"/>
-      <c r="AZ131" s="41"/>
-      <c r="BA131" s="41"/>
-      <c r="BB131" s="41"/>
-      <c r="BC131" s="41"/>
-      <c r="BD131" s="41"/>
-      <c r="BE131" s="41"/>
-      <c r="BF131" s="41"/>
-      <c r="BG131" s="41"/>
-      <c r="BH131" s="41"/>
-      <c r="BI131" s="41"/>
-      <c r="BJ131" s="41"/>
-      <c r="BK131" s="41"/>
-      <c r="BL131" s="41"/>
-      <c r="BM131" s="41"/>
-      <c r="BN131" s="41"/>
-      <c r="BO131" s="41"/>
-      <c r="BP131" s="41"/>
-      <c r="BQ131" s="41"/>
-      <c r="BR131" s="41"/>
-      <c r="BS131" s="41"/>
-      <c r="BT131" s="41"/>
-      <c r="BU131" s="41"/>
-      <c r="BV131" s="41"/>
-      <c r="BW131" s="41"/>
-      <c r="BX131" s="41"/>
-      <c r="BY131" s="41"/>
-      <c r="BZ131" s="41"/>
-      <c r="CA131" s="41"/>
-      <c r="CB131" s="41"/>
-      <c r="CC131" s="41"/>
-      <c r="CD131" s="41"/>
-      <c r="CE131" s="41"/>
-      <c r="CF131" s="41"/>
-      <c r="CG131" s="41"/>
-      <c r="CH131" s="41"/>
-      <c r="CI131" s="41"/>
-      <c r="CJ131" s="41"/>
-      <c r="CK131" s="41"/>
-      <c r="CL131" s="41"/>
-      <c r="CM131" s="41"/>
-      <c r="CN131" s="41"/>
-      <c r="CO131" s="41"/>
-      <c r="CP131" s="41"/>
-      <c r="CQ131" s="41"/>
-      <c r="CR131" s="41"/>
-      <c r="CS131" s="41"/>
-      <c r="CT131" s="41"/>
-      <c r="CU131" s="41"/>
-      <c r="CV131" s="41"/>
-      <c r="CW131" s="41"/>
-      <c r="CX131" s="42"/>
+      <c r="C131" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="78"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="32"/>
+      <c r="K131" s="32"/>
+      <c r="L131" s="32"/>
+      <c r="M131" s="32"/>
+      <c r="N131" s="32"/>
+      <c r="O131" s="32"/>
+      <c r="P131" s="32"/>
+      <c r="Q131" s="32"/>
+      <c r="R131" s="32"/>
+      <c r="S131" s="32"/>
+      <c r="T131" s="32"/>
+      <c r="U131" s="32"/>
+      <c r="V131" s="32"/>
+      <c r="W131" s="32"/>
+      <c r="X131" s="32"/>
+      <c r="Y131" s="32"/>
+      <c r="Z131" s="32"/>
+      <c r="AA131" s="32"/>
+      <c r="AB131" s="32"/>
+      <c r="AC131" s="32"/>
+      <c r="AD131" s="32"/>
+      <c r="AE131" s="32"/>
+      <c r="AF131" s="32"/>
+      <c r="AG131" s="32"/>
+      <c r="AH131" s="32"/>
+      <c r="AI131" s="32"/>
+      <c r="AJ131" s="32"/>
+      <c r="AK131" s="32"/>
+      <c r="AL131" s="32"/>
+      <c r="AM131" s="32"/>
+      <c r="AN131" s="32"/>
+      <c r="AO131" s="32"/>
+      <c r="AP131" s="32"/>
+      <c r="AQ131" s="32"/>
+      <c r="AR131" s="32"/>
+      <c r="AS131" s="32"/>
+      <c r="AT131" s="32"/>
+      <c r="AU131" s="32"/>
+      <c r="AV131" s="32"/>
+      <c r="AW131" s="32"/>
+      <c r="AX131" s="32"/>
+      <c r="AY131" s="32"/>
+      <c r="AZ131" s="32"/>
+      <c r="BA131" s="32"/>
+      <c r="BB131" s="32"/>
+      <c r="BC131" s="32"/>
+      <c r="BD131" s="32"/>
+      <c r="BE131" s="32"/>
+      <c r="BF131" s="32"/>
+      <c r="BG131" s="32"/>
+      <c r="BH131" s="32"/>
+      <c r="BI131" s="32"/>
+      <c r="BJ131" s="32"/>
+      <c r="BK131" s="32"/>
+      <c r="BL131" s="32"/>
+      <c r="BM131" s="32"/>
+      <c r="BN131" s="32"/>
+      <c r="BO131" s="32"/>
+      <c r="BP131" s="32"/>
+      <c r="BQ131" s="32"/>
+      <c r="BR131" s="32"/>
+      <c r="BS131" s="32"/>
+      <c r="BT131" s="32"/>
+      <c r="BU131" s="32"/>
+      <c r="BV131" s="32"/>
+      <c r="BW131" s="32"/>
+      <c r="BX131" s="32"/>
+      <c r="BY131" s="32"/>
+      <c r="BZ131" s="32"/>
+      <c r="CA131" s="32"/>
+      <c r="CB131" s="32"/>
+      <c r="CC131" s="32"/>
+      <c r="CD131" s="32"/>
+      <c r="CE131" s="32"/>
+      <c r="CF131" s="32"/>
+      <c r="CG131" s="32"/>
+      <c r="CH131" s="32"/>
+      <c r="CI131" s="32"/>
+      <c r="CJ131" s="32"/>
+      <c r="CK131" s="32"/>
+      <c r="CL131" s="32"/>
+      <c r="CM131" s="32"/>
+      <c r="CN131" s="32"/>
+      <c r="CO131" s="32"/>
+      <c r="CP131" s="32"/>
+      <c r="CQ131" s="32"/>
+      <c r="CR131" s="32"/>
+      <c r="CS131" s="32"/>
+      <c r="CT131" s="32"/>
+      <c r="CU131" s="32"/>
+      <c r="CV131" s="32"/>
+      <c r="CW131" s="32"/>
+      <c r="CX131" s="33"/>
       <c r="CY131" s="21"/>
     </row>
     <row r="132" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A132" s="74"/>
-      <c r="B132" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="77">
-        <v>18.04</v>
-      </c>
-      <c r="E132" s="78">
-        <v>25.04</v>
-      </c>
-      <c r="F132" s="31"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="32"/>
-      <c r="J132" s="32"/>
-      <c r="K132" s="32"/>
-      <c r="L132" s="32"/>
-      <c r="M132" s="32"/>
-      <c r="N132" s="32"/>
-      <c r="O132" s="32"/>
-      <c r="P132" s="32"/>
-      <c r="Q132" s="32"/>
-      <c r="R132" s="32"/>
-      <c r="S132" s="32"/>
-      <c r="T132" s="32"/>
-      <c r="U132" s="32"/>
-      <c r="V132" s="32"/>
-      <c r="W132" s="32"/>
-      <c r="X132" s="32"/>
-      <c r="Y132" s="32"/>
-      <c r="Z132" s="32"/>
-      <c r="AA132" s="32"/>
-      <c r="AB132" s="32"/>
-      <c r="AC132" s="32"/>
-      <c r="AD132" s="32"/>
-      <c r="AE132" s="32"/>
-      <c r="AF132" s="32"/>
-      <c r="AG132" s="32"/>
-      <c r="AH132" s="32"/>
-      <c r="AI132" s="32"/>
-      <c r="AJ132" s="32"/>
-      <c r="AK132" s="32"/>
-      <c r="AL132" s="32"/>
-      <c r="AM132" s="32"/>
-      <c r="AN132" s="32"/>
-      <c r="AO132" s="32"/>
-      <c r="AP132" s="32"/>
-      <c r="AQ132" s="32"/>
-      <c r="AR132" s="32"/>
-      <c r="AS132" s="32"/>
-      <c r="AT132" s="32"/>
-      <c r="AU132" s="32"/>
-      <c r="AV132" s="32"/>
-      <c r="AW132" s="32"/>
-      <c r="AX132" s="32"/>
-      <c r="AY132" s="32"/>
-      <c r="AZ132" s="32"/>
-      <c r="BA132" s="32"/>
-      <c r="BB132" s="32"/>
-      <c r="BC132" s="32"/>
-      <c r="BD132" s="32"/>
-      <c r="BE132" s="32"/>
-      <c r="BF132" s="32"/>
-      <c r="BG132" s="32"/>
-      <c r="BH132" s="32"/>
-      <c r="BI132" s="32"/>
-      <c r="BJ132" s="32"/>
-      <c r="BK132" s="32"/>
-      <c r="BL132" s="32"/>
-      <c r="BM132" s="32"/>
-      <c r="BN132" s="32"/>
-      <c r="BO132" s="32"/>
-      <c r="BP132" s="32"/>
-      <c r="BQ132" s="32"/>
-      <c r="BR132" s="32"/>
-      <c r="BS132" s="32"/>
-      <c r="BT132" s="32"/>
-      <c r="BU132" s="32"/>
-      <c r="BV132" s="32"/>
-      <c r="BW132" s="32"/>
-      <c r="BX132" s="32"/>
-      <c r="BY132" s="32"/>
-      <c r="BZ132" s="32"/>
-      <c r="CA132" s="32"/>
-      <c r="CB132" s="32"/>
-      <c r="CC132" s="32"/>
-      <c r="CD132" s="32"/>
-      <c r="CE132" s="32"/>
-      <c r="CF132" s="32"/>
-      <c r="CG132" s="32"/>
-      <c r="CH132" s="32"/>
-      <c r="CI132" s="32"/>
-      <c r="CJ132" s="32"/>
-      <c r="CK132" s="32"/>
-      <c r="CL132" s="32"/>
-      <c r="CM132" s="32"/>
-      <c r="CN132" s="32"/>
-      <c r="CO132" s="32"/>
-      <c r="CP132" s="32"/>
-      <c r="CQ132" s="32"/>
-      <c r="CR132" s="32"/>
-      <c r="CS132" s="32"/>
-      <c r="CT132" s="32"/>
-      <c r="CU132" s="32"/>
-      <c r="CV132" s="32"/>
-      <c r="CW132" s="32"/>
-      <c r="CX132" s="33"/>
+      <c r="A132" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="40"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="41"/>
+      <c r="L132" s="41"/>
+      <c r="M132" s="41"/>
+      <c r="N132" s="41"/>
+      <c r="O132" s="41"/>
+      <c r="P132" s="41"/>
+      <c r="Q132" s="41"/>
+      <c r="R132" s="41"/>
+      <c r="S132" s="41"/>
+      <c r="T132" s="41"/>
+      <c r="U132" s="41"/>
+      <c r="V132" s="41"/>
+      <c r="W132" s="41"/>
+      <c r="X132" s="41"/>
+      <c r="Y132" s="41"/>
+      <c r="Z132" s="41"/>
+      <c r="AA132" s="41"/>
+      <c r="AB132" s="41"/>
+      <c r="AC132" s="41"/>
+      <c r="AD132" s="41"/>
+      <c r="AE132" s="41"/>
+      <c r="AF132" s="41"/>
+      <c r="AG132" s="41"/>
+      <c r="AH132" s="41"/>
+      <c r="AI132" s="41"/>
+      <c r="AJ132" s="41"/>
+      <c r="AK132" s="41"/>
+      <c r="AL132" s="41"/>
+      <c r="AM132" s="41"/>
+      <c r="AN132" s="41"/>
+      <c r="AO132" s="41"/>
+      <c r="AP132" s="41"/>
+      <c r="AQ132" s="41"/>
+      <c r="AR132" s="41"/>
+      <c r="AS132" s="41"/>
+      <c r="AT132" s="41"/>
+      <c r="AU132" s="41"/>
+      <c r="AV132" s="41"/>
+      <c r="AW132" s="41"/>
+      <c r="AX132" s="41"/>
+      <c r="AY132" s="41"/>
+      <c r="AZ132" s="41"/>
+      <c r="BA132" s="41"/>
+      <c r="BB132" s="41"/>
+      <c r="BC132" s="41"/>
+      <c r="BD132" s="41"/>
+      <c r="BE132" s="41"/>
+      <c r="BF132" s="41"/>
+      <c r="BG132" s="41"/>
+      <c r="BH132" s="41"/>
+      <c r="BI132" s="41"/>
+      <c r="BJ132" s="41"/>
+      <c r="BK132" s="41"/>
+      <c r="BL132" s="41"/>
+      <c r="BM132" s="41"/>
+      <c r="BN132" s="41"/>
+      <c r="BO132" s="41"/>
+      <c r="BP132" s="41"/>
+      <c r="BQ132" s="41"/>
+      <c r="BR132" s="41"/>
+      <c r="BS132" s="41"/>
+      <c r="BT132" s="41"/>
+      <c r="BU132" s="41"/>
+      <c r="BV132" s="41"/>
+      <c r="BW132" s="41"/>
+      <c r="BX132" s="41"/>
+      <c r="BY132" s="41"/>
+      <c r="BZ132" s="41"/>
+      <c r="CA132" s="41"/>
+      <c r="CB132" s="41"/>
+      <c r="CC132" s="41"/>
+      <c r="CD132" s="41"/>
+      <c r="CE132" s="41"/>
+      <c r="CF132" s="41"/>
+      <c r="CG132" s="41"/>
+      <c r="CH132" s="41"/>
+      <c r="CI132" s="41"/>
+      <c r="CJ132" s="41"/>
+      <c r="CK132" s="41"/>
+      <c r="CL132" s="41"/>
+      <c r="CM132" s="41"/>
+      <c r="CN132" s="41"/>
+      <c r="CO132" s="41"/>
+      <c r="CP132" s="41"/>
+      <c r="CQ132" s="41"/>
+      <c r="CR132" s="41"/>
+      <c r="CS132" s="41"/>
+      <c r="CT132" s="41"/>
+      <c r="CU132" s="41"/>
+      <c r="CV132" s="41"/>
+      <c r="CW132" s="41"/>
+      <c r="CX132" s="42"/>
       <c r="CY132" s="21"/>
     </row>
     <row r="133" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A133" s="75"/>
       <c r="B133" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="77"/>
-      <c r="E133" s="78"/>
+      <c r="D133" s="78">
+        <v>4.05</v>
+      </c>
+      <c r="E133" s="74">
+        <v>18.04</v>
+      </c>
       <c r="F133" s="31"/>
       <c r="G133" s="32"/>
       <c r="H133" s="32"/>
@@ -17237,134 +17302,124 @@
       <c r="CY133" s="21"/>
     </row>
     <row r="134" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" s="19" t="s">
+      <c r="A134" s="76"/>
+      <c r="B134" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E134" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="40"/>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
-      <c r="K134" s="41"/>
-      <c r="L134" s="41"/>
-      <c r="M134" s="41"/>
-      <c r="N134" s="41"/>
-      <c r="O134" s="41"/>
-      <c r="P134" s="41"/>
-      <c r="Q134" s="41"/>
-      <c r="R134" s="41"/>
-      <c r="S134" s="41"/>
-      <c r="T134" s="41"/>
-      <c r="U134" s="41"/>
-      <c r="V134" s="41"/>
-      <c r="W134" s="41"/>
-      <c r="X134" s="41"/>
-      <c r="Y134" s="41"/>
-      <c r="Z134" s="41"/>
-      <c r="AA134" s="41"/>
-      <c r="AB134" s="41"/>
-      <c r="AC134" s="41"/>
-      <c r="AD134" s="41"/>
-      <c r="AE134" s="41"/>
-      <c r="AF134" s="41"/>
-      <c r="AG134" s="41"/>
-      <c r="AH134" s="41"/>
-      <c r="AI134" s="41"/>
-      <c r="AJ134" s="41"/>
-      <c r="AK134" s="41"/>
-      <c r="AL134" s="41"/>
-      <c r="AM134" s="41"/>
-      <c r="AN134" s="41"/>
-      <c r="AO134" s="41"/>
-      <c r="AP134" s="41"/>
-      <c r="AQ134" s="41"/>
-      <c r="AR134" s="41"/>
-      <c r="AS134" s="41"/>
-      <c r="AT134" s="41"/>
-      <c r="AU134" s="41"/>
-      <c r="AV134" s="41"/>
-      <c r="AW134" s="41"/>
-      <c r="AX134" s="41"/>
-      <c r="AY134" s="41"/>
-      <c r="AZ134" s="41"/>
-      <c r="BA134" s="41"/>
-      <c r="BB134" s="41"/>
-      <c r="BC134" s="41"/>
-      <c r="BD134" s="41"/>
-      <c r="BE134" s="41"/>
-      <c r="BF134" s="41"/>
-      <c r="BG134" s="41"/>
-      <c r="BH134" s="41"/>
-      <c r="BI134" s="41"/>
-      <c r="BJ134" s="41"/>
-      <c r="BK134" s="41"/>
-      <c r="BL134" s="41"/>
-      <c r="BM134" s="41"/>
-      <c r="BN134" s="41"/>
-      <c r="BO134" s="41"/>
-      <c r="BP134" s="41"/>
-      <c r="BQ134" s="41"/>
-      <c r="BR134" s="41"/>
-      <c r="BS134" s="41"/>
-      <c r="BT134" s="41"/>
-      <c r="BU134" s="41"/>
-      <c r="BV134" s="41"/>
-      <c r="BW134" s="41"/>
-      <c r="BX134" s="41"/>
-      <c r="BY134" s="41"/>
-      <c r="BZ134" s="41"/>
-      <c r="CA134" s="41"/>
-      <c r="CB134" s="41"/>
-      <c r="CC134" s="41"/>
-      <c r="CD134" s="41"/>
-      <c r="CE134" s="41"/>
-      <c r="CF134" s="41"/>
-      <c r="CG134" s="41"/>
-      <c r="CH134" s="41"/>
-      <c r="CI134" s="41"/>
-      <c r="CJ134" s="41"/>
-      <c r="CK134" s="41"/>
-      <c r="CL134" s="41"/>
-      <c r="CM134" s="41"/>
-      <c r="CN134" s="41"/>
-      <c r="CO134" s="41"/>
-      <c r="CP134" s="41"/>
-      <c r="CQ134" s="41"/>
-      <c r="CR134" s="41"/>
-      <c r="CS134" s="41"/>
-      <c r="CT134" s="41"/>
-      <c r="CU134" s="41"/>
-      <c r="CV134" s="41"/>
-      <c r="CW134" s="41"/>
-      <c r="CX134" s="42"/>
+      <c r="C134" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="78"/>
+      <c r="E134" s="74"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="32"/>
+      <c r="L134" s="32"/>
+      <c r="M134" s="32"/>
+      <c r="N134" s="32"/>
+      <c r="O134" s="32"/>
+      <c r="P134" s="32"/>
+      <c r="Q134" s="32"/>
+      <c r="R134" s="32"/>
+      <c r="S134" s="32"/>
+      <c r="T134" s="32"/>
+      <c r="U134" s="32"/>
+      <c r="V134" s="32"/>
+      <c r="W134" s="32"/>
+      <c r="X134" s="32"/>
+      <c r="Y134" s="32"/>
+      <c r="Z134" s="32"/>
+      <c r="AA134" s="32"/>
+      <c r="AB134" s="32"/>
+      <c r="AC134" s="32"/>
+      <c r="AD134" s="32"/>
+      <c r="AE134" s="32"/>
+      <c r="AF134" s="32"/>
+      <c r="AG134" s="32"/>
+      <c r="AH134" s="32"/>
+      <c r="AI134" s="32"/>
+      <c r="AJ134" s="32"/>
+      <c r="AK134" s="32"/>
+      <c r="AL134" s="32"/>
+      <c r="AM134" s="32"/>
+      <c r="AN134" s="32"/>
+      <c r="AO134" s="32"/>
+      <c r="AP134" s="32"/>
+      <c r="AQ134" s="32"/>
+      <c r="AR134" s="32"/>
+      <c r="AS134" s="32"/>
+      <c r="AT134" s="32"/>
+      <c r="AU134" s="32"/>
+      <c r="AV134" s="32"/>
+      <c r="AW134" s="32"/>
+      <c r="AX134" s="32"/>
+      <c r="AY134" s="32"/>
+      <c r="AZ134" s="32"/>
+      <c r="BA134" s="32"/>
+      <c r="BB134" s="32"/>
+      <c r="BC134" s="32"/>
+      <c r="BD134" s="32"/>
+      <c r="BE134" s="32"/>
+      <c r="BF134" s="32"/>
+      <c r="BG134" s="32"/>
+      <c r="BH134" s="32"/>
+      <c r="BI134" s="32"/>
+      <c r="BJ134" s="32"/>
+      <c r="BK134" s="32"/>
+      <c r="BL134" s="32"/>
+      <c r="BM134" s="32"/>
+      <c r="BN134" s="32"/>
+      <c r="BO134" s="32"/>
+      <c r="BP134" s="32"/>
+      <c r="BQ134" s="32"/>
+      <c r="BR134" s="32"/>
+      <c r="BS134" s="32"/>
+      <c r="BT134" s="32"/>
+      <c r="BU134" s="32"/>
+      <c r="BV134" s="32"/>
+      <c r="BW134" s="32"/>
+      <c r="BX134" s="32"/>
+      <c r="BY134" s="32"/>
+      <c r="BZ134" s="32"/>
+      <c r="CA134" s="32"/>
+      <c r="CB134" s="32"/>
+      <c r="CC134" s="32"/>
+      <c r="CD134" s="32"/>
+      <c r="CE134" s="32"/>
+      <c r="CF134" s="32"/>
+      <c r="CG134" s="32"/>
+      <c r="CH134" s="32"/>
+      <c r="CI134" s="32"/>
+      <c r="CJ134" s="32"/>
+      <c r="CK134" s="32"/>
+      <c r="CL134" s="32"/>
+      <c r="CM134" s="32"/>
+      <c r="CN134" s="32"/>
+      <c r="CO134" s="32"/>
+      <c r="CP134" s="32"/>
+      <c r="CQ134" s="32"/>
+      <c r="CR134" s="32"/>
+      <c r="CS134" s="32"/>
+      <c r="CT134" s="32"/>
+      <c r="CU134" s="32"/>
+      <c r="CV134" s="32"/>
+      <c r="CW134" s="32"/>
+      <c r="CX134" s="33"/>
       <c r="CY134" s="21"/>
     </row>
     <row r="135" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A135" s="74"/>
-      <c r="B135" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" s="77">
-        <v>18.04</v>
-      </c>
-      <c r="E135" s="78">
-        <v>25.04</v>
-      </c>
+      <c r="A135" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="87">
+        <v>44334</v>
+      </c>
+      <c r="E135" s="88"/>
       <c r="F135" s="31"/>
       <c r="G135" s="32"/>
       <c r="H135" s="32"/>
@@ -17465,117 +17520,123 @@
       <c r="CY135" s="21"/>
     </row>
     <row r="136" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A136" s="75"/>
-      <c r="B136" s="7" t="s">
+      <c r="A136" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" s="77"/>
-      <c r="E136" s="78"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="32"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="32"/>
-      <c r="J136" s="32"/>
-      <c r="K136" s="32"/>
-      <c r="L136" s="32"/>
-      <c r="M136" s="32"/>
-      <c r="N136" s="32"/>
-      <c r="O136" s="32"/>
-      <c r="P136" s="32"/>
-      <c r="Q136" s="32"/>
-      <c r="R136" s="32"/>
-      <c r="S136" s="32"/>
-      <c r="T136" s="32"/>
-      <c r="U136" s="32"/>
-      <c r="V136" s="32"/>
-      <c r="W136" s="32"/>
-      <c r="X136" s="32"/>
-      <c r="Y136" s="32"/>
-      <c r="Z136" s="32"/>
-      <c r="AA136" s="32"/>
-      <c r="AB136" s="32"/>
-      <c r="AC136" s="32"/>
-      <c r="AD136" s="32"/>
-      <c r="AE136" s="32"/>
-      <c r="AF136" s="32"/>
-      <c r="AG136" s="32"/>
-      <c r="AH136" s="32"/>
-      <c r="AI136" s="32"/>
-      <c r="AJ136" s="32"/>
-      <c r="AK136" s="32"/>
-      <c r="AL136" s="32"/>
-      <c r="AM136" s="32"/>
-      <c r="AN136" s="32"/>
-      <c r="AO136" s="32"/>
-      <c r="AP136" s="32"/>
-      <c r="AQ136" s="32"/>
-      <c r="AR136" s="32"/>
-      <c r="AS136" s="32"/>
-      <c r="AT136" s="32"/>
-      <c r="AU136" s="32"/>
-      <c r="AV136" s="32"/>
-      <c r="AW136" s="32"/>
-      <c r="AX136" s="32"/>
-      <c r="AY136" s="32"/>
-      <c r="AZ136" s="32"/>
-      <c r="BA136" s="32"/>
-      <c r="BB136" s="32"/>
-      <c r="BC136" s="32"/>
-      <c r="BD136" s="32"/>
-      <c r="BE136" s="32"/>
-      <c r="BF136" s="32"/>
-      <c r="BG136" s="32"/>
-      <c r="BH136" s="32"/>
-      <c r="BI136" s="32"/>
-      <c r="BJ136" s="32"/>
-      <c r="BK136" s="32"/>
-      <c r="BL136" s="32"/>
-      <c r="BM136" s="32"/>
-      <c r="BN136" s="32"/>
-      <c r="BO136" s="32"/>
-      <c r="BP136" s="32"/>
-      <c r="BQ136" s="32"/>
-      <c r="BR136" s="32"/>
-      <c r="BS136" s="32"/>
-      <c r="BT136" s="32"/>
-      <c r="BU136" s="32"/>
-      <c r="BV136" s="32"/>
-      <c r="BW136" s="32"/>
-      <c r="BX136" s="32"/>
-      <c r="BY136" s="32"/>
-      <c r="BZ136" s="32"/>
-      <c r="CA136" s="32"/>
-      <c r="CB136" s="32"/>
-      <c r="CC136" s="32"/>
-      <c r="CD136" s="32"/>
-      <c r="CE136" s="32"/>
-      <c r="CF136" s="32"/>
-      <c r="CG136" s="32"/>
-      <c r="CH136" s="32"/>
-      <c r="CI136" s="32"/>
-      <c r="CJ136" s="32"/>
-      <c r="CK136" s="32"/>
-      <c r="CL136" s="32"/>
-      <c r="CM136" s="32"/>
-      <c r="CN136" s="32"/>
-      <c r="CO136" s="32"/>
-      <c r="CP136" s="32"/>
-      <c r="CQ136" s="32"/>
-      <c r="CR136" s="32"/>
-      <c r="CS136" s="32"/>
-      <c r="CT136" s="32"/>
-      <c r="CU136" s="32"/>
-      <c r="CV136" s="32"/>
-      <c r="CW136" s="32"/>
-      <c r="CX136" s="33"/>
+      <c r="E136" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="44"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="45"/>
+      <c r="J136" s="45"/>
+      <c r="K136" s="45"/>
+      <c r="L136" s="45"/>
+      <c r="M136" s="45"/>
+      <c r="N136" s="45"/>
+      <c r="O136" s="45"/>
+      <c r="P136" s="45"/>
+      <c r="Q136" s="45"/>
+      <c r="R136" s="45"/>
+      <c r="S136" s="45"/>
+      <c r="T136" s="45"/>
+      <c r="U136" s="45"/>
+      <c r="V136" s="45"/>
+      <c r="W136" s="45"/>
+      <c r="X136" s="45"/>
+      <c r="Y136" s="45"/>
+      <c r="Z136" s="45"/>
+      <c r="AA136" s="45"/>
+      <c r="AB136" s="45"/>
+      <c r="AC136" s="45"/>
+      <c r="AD136" s="45"/>
+      <c r="AE136" s="45"/>
+      <c r="AF136" s="45"/>
+      <c r="AG136" s="45"/>
+      <c r="AH136" s="45"/>
+      <c r="AI136" s="45"/>
+      <c r="AJ136" s="45"/>
+      <c r="AK136" s="45"/>
+      <c r="AL136" s="45"/>
+      <c r="AM136" s="45"/>
+      <c r="AN136" s="45"/>
+      <c r="AO136" s="45"/>
+      <c r="AP136" s="45"/>
+      <c r="AQ136" s="45"/>
+      <c r="AR136" s="45"/>
+      <c r="AS136" s="45"/>
+      <c r="AT136" s="45"/>
+      <c r="AU136" s="45"/>
+      <c r="AV136" s="45"/>
+      <c r="AW136" s="45"/>
+      <c r="AX136" s="45"/>
+      <c r="AY136" s="45"/>
+      <c r="AZ136" s="45"/>
+      <c r="BA136" s="45"/>
+      <c r="BB136" s="45"/>
+      <c r="BC136" s="45"/>
+      <c r="BD136" s="45"/>
+      <c r="BE136" s="45"/>
+      <c r="BF136" s="45"/>
+      <c r="BG136" s="45"/>
+      <c r="BH136" s="45"/>
+      <c r="BI136" s="45"/>
+      <c r="BJ136" s="45"/>
+      <c r="BK136" s="45"/>
+      <c r="BL136" s="45"/>
+      <c r="BM136" s="45"/>
+      <c r="BN136" s="45"/>
+      <c r="BO136" s="45"/>
+      <c r="BP136" s="45"/>
+      <c r="BQ136" s="45"/>
+      <c r="BR136" s="45"/>
+      <c r="BS136" s="45"/>
+      <c r="BT136" s="45"/>
+      <c r="BU136" s="45"/>
+      <c r="BV136" s="45"/>
+      <c r="BW136" s="45"/>
+      <c r="BX136" s="45"/>
+      <c r="BY136" s="45"/>
+      <c r="BZ136" s="45"/>
+      <c r="CA136" s="45"/>
+      <c r="CB136" s="45"/>
+      <c r="CC136" s="45"/>
+      <c r="CD136" s="45"/>
+      <c r="CE136" s="45"/>
+      <c r="CF136" s="45"/>
+      <c r="CG136" s="45"/>
+      <c r="CH136" s="45"/>
+      <c r="CI136" s="45"/>
+      <c r="CJ136" s="45"/>
+      <c r="CK136" s="45"/>
+      <c r="CL136" s="45"/>
+      <c r="CM136" s="45"/>
+      <c r="CN136" s="45"/>
+      <c r="CO136" s="45"/>
+      <c r="CP136" s="45"/>
+      <c r="CQ136" s="45"/>
+      <c r="CR136" s="45"/>
+      <c r="CS136" s="45"/>
+      <c r="CT136" s="45"/>
+      <c r="CU136" s="45"/>
+      <c r="CV136" s="45"/>
+      <c r="CW136" s="45"/>
+      <c r="CX136" s="46"/>
       <c r="CY136" s="21"/>
     </row>
     <row r="137" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>9</v>
@@ -17689,17 +17750,17 @@
       <c r="CY137" s="21"/>
     </row>
     <row r="138" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A138" s="74"/>
+      <c r="A138" s="75"/>
       <c r="B138" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="77">
+      <c r="D138" s="78">
         <v>18.04</v>
       </c>
-      <c r="E138" s="78">
+      <c r="E138" s="74">
         <v>25.04</v>
       </c>
       <c r="F138" s="31"/>
@@ -17802,15 +17863,15 @@
       <c r="CY138" s="21"/>
     </row>
     <row r="139" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A139" s="75"/>
+      <c r="A139" s="76"/>
       <c r="B139" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="77"/>
-      <c r="E139" s="78"/>
+      <c r="D139" s="78"/>
+      <c r="E139" s="74"/>
       <c r="F139" s="31"/>
       <c r="G139" s="32"/>
       <c r="H139" s="32"/>
@@ -17908,11 +17969,11 @@
       <c r="CV139" s="32"/>
       <c r="CW139" s="32"/>
       <c r="CX139" s="33"/>
-      <c r="CY139" s="11"/>
+      <c r="CY139" s="21"/>
     </row>
     <row r="140" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>9</v>
@@ -18023,19 +18084,20 @@
       <c r="CV140" s="41"/>
       <c r="CW140" s="41"/>
       <c r="CX140" s="42"/>
+      <c r="CY140" s="21"/>
     </row>
     <row r="141" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A141" s="74"/>
+      <c r="A141" s="75"/>
       <c r="B141" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="77">
+      <c r="D141" s="78">
         <v>18.04</v>
       </c>
-      <c r="E141" s="78">
+      <c r="E141" s="74">
         <v>25.04</v>
       </c>
       <c r="F141" s="31"/>
@@ -18135,17 +18197,18 @@
       <c r="CV141" s="32"/>
       <c r="CW141" s="32"/>
       <c r="CX141" s="33"/>
+      <c r="CY141" s="21"/>
     </row>
     <row r="142" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A142" s="75"/>
+      <c r="A142" s="76"/>
       <c r="B142" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="77"/>
-      <c r="E142" s="78"/>
+      <c r="D142" s="78"/>
+      <c r="E142" s="74"/>
       <c r="F142" s="31"/>
       <c r="G142" s="32"/>
       <c r="H142" s="32"/>
@@ -18243,10 +18306,11 @@
       <c r="CV142" s="32"/>
       <c r="CW142" s="32"/>
       <c r="CX142" s="33"/>
+      <c r="CY142" s="21"/>
     </row>
     <row r="143" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>9</v>
@@ -18357,19 +18421,20 @@
       <c r="CV143" s="41"/>
       <c r="CW143" s="41"/>
       <c r="CX143" s="42"/>
+      <c r="CY143" s="21"/>
     </row>
     <row r="144" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A144" s="74"/>
+      <c r="A144" s="75"/>
       <c r="B144" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="77">
+      <c r="D144" s="78">
         <v>18.04</v>
       </c>
-      <c r="E144" s="78">
+      <c r="E144" s="74">
         <v>25.04</v>
       </c>
       <c r="F144" s="31"/>
@@ -18469,17 +18534,18 @@
       <c r="CV144" s="32"/>
       <c r="CW144" s="32"/>
       <c r="CX144" s="33"/>
+      <c r="CY144" s="21"/>
     </row>
-    <row r="145" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A145" s="75"/>
+    <row r="145" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A145" s="76"/>
       <c r="B145" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="77"/>
-      <c r="E145" s="78"/>
+      <c r="D145" s="78"/>
+      <c r="E145" s="74"/>
       <c r="F145" s="31"/>
       <c r="G145" s="32"/>
       <c r="H145" s="32"/>
@@ -18577,248 +18643,917 @@
       <c r="CV145" s="32"/>
       <c r="CW145" s="32"/>
       <c r="CX145" s="33"/>
+      <c r="CY145" s="11"/>
     </row>
-    <row r="146" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="16" t="s">
+    <row r="146" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="40"/>
+      <c r="G146" s="41"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="41"/>
+      <c r="J146" s="41"/>
+      <c r="K146" s="41"/>
+      <c r="L146" s="41"/>
+      <c r="M146" s="41"/>
+      <c r="N146" s="41"/>
+      <c r="O146" s="41"/>
+      <c r="P146" s="41"/>
+      <c r="Q146" s="41"/>
+      <c r="R146" s="41"/>
+      <c r="S146" s="41"/>
+      <c r="T146" s="41"/>
+      <c r="U146" s="41"/>
+      <c r="V146" s="41"/>
+      <c r="W146" s="41"/>
+      <c r="X146" s="41"/>
+      <c r="Y146" s="41"/>
+      <c r="Z146" s="41"/>
+      <c r="AA146" s="41"/>
+      <c r="AB146" s="41"/>
+      <c r="AC146" s="41"/>
+      <c r="AD146" s="41"/>
+      <c r="AE146" s="41"/>
+      <c r="AF146" s="41"/>
+      <c r="AG146" s="41"/>
+      <c r="AH146" s="41"/>
+      <c r="AI146" s="41"/>
+      <c r="AJ146" s="41"/>
+      <c r="AK146" s="41"/>
+      <c r="AL146" s="41"/>
+      <c r="AM146" s="41"/>
+      <c r="AN146" s="41"/>
+      <c r="AO146" s="41"/>
+      <c r="AP146" s="41"/>
+      <c r="AQ146" s="41"/>
+      <c r="AR146" s="41"/>
+      <c r="AS146" s="41"/>
+      <c r="AT146" s="41"/>
+      <c r="AU146" s="41"/>
+      <c r="AV146" s="41"/>
+      <c r="AW146" s="41"/>
+      <c r="AX146" s="41"/>
+      <c r="AY146" s="41"/>
+      <c r="AZ146" s="41"/>
+      <c r="BA146" s="41"/>
+      <c r="BB146" s="41"/>
+      <c r="BC146" s="41"/>
+      <c r="BD146" s="41"/>
+      <c r="BE146" s="41"/>
+      <c r="BF146" s="41"/>
+      <c r="BG146" s="41"/>
+      <c r="BH146" s="41"/>
+      <c r="BI146" s="41"/>
+      <c r="BJ146" s="41"/>
+      <c r="BK146" s="41"/>
+      <c r="BL146" s="41"/>
+      <c r="BM146" s="41"/>
+      <c r="BN146" s="41"/>
+      <c r="BO146" s="41"/>
+      <c r="BP146" s="41"/>
+      <c r="BQ146" s="41"/>
+      <c r="BR146" s="41"/>
+      <c r="BS146" s="41"/>
+      <c r="BT146" s="41"/>
+      <c r="BU146" s="41"/>
+      <c r="BV146" s="41"/>
+      <c r="BW146" s="41"/>
+      <c r="BX146" s="41"/>
+      <c r="BY146" s="41"/>
+      <c r="BZ146" s="41"/>
+      <c r="CA146" s="41"/>
+      <c r="CB146" s="41"/>
+      <c r="CC146" s="41"/>
+      <c r="CD146" s="41"/>
+      <c r="CE146" s="41"/>
+      <c r="CF146" s="41"/>
+      <c r="CG146" s="41"/>
+      <c r="CH146" s="41"/>
+      <c r="CI146" s="41"/>
+      <c r="CJ146" s="41"/>
+      <c r="CK146" s="41"/>
+      <c r="CL146" s="41"/>
+      <c r="CM146" s="41"/>
+      <c r="CN146" s="41"/>
+      <c r="CO146" s="41"/>
+      <c r="CP146" s="41"/>
+      <c r="CQ146" s="41"/>
+      <c r="CR146" s="41"/>
+      <c r="CS146" s="41"/>
+      <c r="CT146" s="41"/>
+      <c r="CU146" s="41"/>
+      <c r="CV146" s="41"/>
+      <c r="CW146" s="41"/>
+      <c r="CX146" s="42"/>
+    </row>
+    <row r="147" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A147" s="75"/>
+      <c r="B147" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="78">
+        <v>18.04</v>
+      </c>
+      <c r="E147" s="74">
+        <v>25.04</v>
+      </c>
+      <c r="F147" s="31"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="32"/>
+      <c r="K147" s="32"/>
+      <c r="L147" s="32"/>
+      <c r="M147" s="32"/>
+      <c r="N147" s="32"/>
+      <c r="O147" s="32"/>
+      <c r="P147" s="32"/>
+      <c r="Q147" s="32"/>
+      <c r="R147" s="32"/>
+      <c r="S147" s="32"/>
+      <c r="T147" s="32"/>
+      <c r="U147" s="32"/>
+      <c r="V147" s="32"/>
+      <c r="W147" s="32"/>
+      <c r="X147" s="32"/>
+      <c r="Y147" s="32"/>
+      <c r="Z147" s="32"/>
+      <c r="AA147" s="32"/>
+      <c r="AB147" s="32"/>
+      <c r="AC147" s="32"/>
+      <c r="AD147" s="32"/>
+      <c r="AE147" s="32"/>
+      <c r="AF147" s="32"/>
+      <c r="AG147" s="32"/>
+      <c r="AH147" s="32"/>
+      <c r="AI147" s="32"/>
+      <c r="AJ147" s="32"/>
+      <c r="AK147" s="32"/>
+      <c r="AL147" s="32"/>
+      <c r="AM147" s="32"/>
+      <c r="AN147" s="32"/>
+      <c r="AO147" s="32"/>
+      <c r="AP147" s="32"/>
+      <c r="AQ147" s="32"/>
+      <c r="AR147" s="32"/>
+      <c r="AS147" s="32"/>
+      <c r="AT147" s="32"/>
+      <c r="AU147" s="32"/>
+      <c r="AV147" s="32"/>
+      <c r="AW147" s="32"/>
+      <c r="AX147" s="32"/>
+      <c r="AY147" s="32"/>
+      <c r="AZ147" s="32"/>
+      <c r="BA147" s="32"/>
+      <c r="BB147" s="32"/>
+      <c r="BC147" s="32"/>
+      <c r="BD147" s="32"/>
+      <c r="BE147" s="32"/>
+      <c r="BF147" s="32"/>
+      <c r="BG147" s="32"/>
+      <c r="BH147" s="32"/>
+      <c r="BI147" s="32"/>
+      <c r="BJ147" s="32"/>
+      <c r="BK147" s="32"/>
+      <c r="BL147" s="32"/>
+      <c r="BM147" s="32"/>
+      <c r="BN147" s="32"/>
+      <c r="BO147" s="32"/>
+      <c r="BP147" s="32"/>
+      <c r="BQ147" s="32"/>
+      <c r="BR147" s="32"/>
+      <c r="BS147" s="32"/>
+      <c r="BT147" s="32"/>
+      <c r="BU147" s="32"/>
+      <c r="BV147" s="32"/>
+      <c r="BW147" s="32"/>
+      <c r="BX147" s="32"/>
+      <c r="BY147" s="32"/>
+      <c r="BZ147" s="32"/>
+      <c r="CA147" s="32"/>
+      <c r="CB147" s="32"/>
+      <c r="CC147" s="32"/>
+      <c r="CD147" s="32"/>
+      <c r="CE147" s="32"/>
+      <c r="CF147" s="32"/>
+      <c r="CG147" s="32"/>
+      <c r="CH147" s="32"/>
+      <c r="CI147" s="32"/>
+      <c r="CJ147" s="32"/>
+      <c r="CK147" s="32"/>
+      <c r="CL147" s="32"/>
+      <c r="CM147" s="32"/>
+      <c r="CN147" s="32"/>
+      <c r="CO147" s="32"/>
+      <c r="CP147" s="32"/>
+      <c r="CQ147" s="32"/>
+      <c r="CR147" s="32"/>
+      <c r="CS147" s="32"/>
+      <c r="CT147" s="32"/>
+      <c r="CU147" s="32"/>
+      <c r="CV147" s="32"/>
+      <c r="CW147" s="32"/>
+      <c r="CX147" s="33"/>
+    </row>
+    <row r="148" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A148" s="76"/>
+      <c r="B148" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="78"/>
+      <c r="E148" s="74"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="32"/>
+      <c r="K148" s="32"/>
+      <c r="L148" s="32"/>
+      <c r="M148" s="32"/>
+      <c r="N148" s="32"/>
+      <c r="O148" s="32"/>
+      <c r="P148" s="32"/>
+      <c r="Q148" s="32"/>
+      <c r="R148" s="32"/>
+      <c r="S148" s="32"/>
+      <c r="T148" s="32"/>
+      <c r="U148" s="32"/>
+      <c r="V148" s="32"/>
+      <c r="W148" s="32"/>
+      <c r="X148" s="32"/>
+      <c r="Y148" s="32"/>
+      <c r="Z148" s="32"/>
+      <c r="AA148" s="32"/>
+      <c r="AB148" s="32"/>
+      <c r="AC148" s="32"/>
+      <c r="AD148" s="32"/>
+      <c r="AE148" s="32"/>
+      <c r="AF148" s="32"/>
+      <c r="AG148" s="32"/>
+      <c r="AH148" s="32"/>
+      <c r="AI148" s="32"/>
+      <c r="AJ148" s="32"/>
+      <c r="AK148" s="32"/>
+      <c r="AL148" s="32"/>
+      <c r="AM148" s="32"/>
+      <c r="AN148" s="32"/>
+      <c r="AO148" s="32"/>
+      <c r="AP148" s="32"/>
+      <c r="AQ148" s="32"/>
+      <c r="AR148" s="32"/>
+      <c r="AS148" s="32"/>
+      <c r="AT148" s="32"/>
+      <c r="AU148" s="32"/>
+      <c r="AV148" s="32"/>
+      <c r="AW148" s="32"/>
+      <c r="AX148" s="32"/>
+      <c r="AY148" s="32"/>
+      <c r="AZ148" s="32"/>
+      <c r="BA148" s="32"/>
+      <c r="BB148" s="32"/>
+      <c r="BC148" s="32"/>
+      <c r="BD148" s="32"/>
+      <c r="BE148" s="32"/>
+      <c r="BF148" s="32"/>
+      <c r="BG148" s="32"/>
+      <c r="BH148" s="32"/>
+      <c r="BI148" s="32"/>
+      <c r="BJ148" s="32"/>
+      <c r="BK148" s="32"/>
+      <c r="BL148" s="32"/>
+      <c r="BM148" s="32"/>
+      <c r="BN148" s="32"/>
+      <c r="BO148" s="32"/>
+      <c r="BP148" s="32"/>
+      <c r="BQ148" s="32"/>
+      <c r="BR148" s="32"/>
+      <c r="BS148" s="32"/>
+      <c r="BT148" s="32"/>
+      <c r="BU148" s="32"/>
+      <c r="BV148" s="32"/>
+      <c r="BW148" s="32"/>
+      <c r="BX148" s="32"/>
+      <c r="BY148" s="32"/>
+      <c r="BZ148" s="32"/>
+      <c r="CA148" s="32"/>
+      <c r="CB148" s="32"/>
+      <c r="CC148" s="32"/>
+      <c r="CD148" s="32"/>
+      <c r="CE148" s="32"/>
+      <c r="CF148" s="32"/>
+      <c r="CG148" s="32"/>
+      <c r="CH148" s="32"/>
+      <c r="CI148" s="32"/>
+      <c r="CJ148" s="32"/>
+      <c r="CK148" s="32"/>
+      <c r="CL148" s="32"/>
+      <c r="CM148" s="32"/>
+      <c r="CN148" s="32"/>
+      <c r="CO148" s="32"/>
+      <c r="CP148" s="32"/>
+      <c r="CQ148" s="32"/>
+      <c r="CR148" s="32"/>
+      <c r="CS148" s="32"/>
+      <c r="CT148" s="32"/>
+      <c r="CU148" s="32"/>
+      <c r="CV148" s="32"/>
+      <c r="CW148" s="32"/>
+      <c r="CX148" s="33"/>
+    </row>
+    <row r="149" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="40"/>
+      <c r="G149" s="41"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+      <c r="J149" s="41"/>
+      <c r="K149" s="41"/>
+      <c r="L149" s="41"/>
+      <c r="M149" s="41"/>
+      <c r="N149" s="41"/>
+      <c r="O149" s="41"/>
+      <c r="P149" s="41"/>
+      <c r="Q149" s="41"/>
+      <c r="R149" s="41"/>
+      <c r="S149" s="41"/>
+      <c r="T149" s="41"/>
+      <c r="U149" s="41"/>
+      <c r="V149" s="41"/>
+      <c r="W149" s="41"/>
+      <c r="X149" s="41"/>
+      <c r="Y149" s="41"/>
+      <c r="Z149" s="41"/>
+      <c r="AA149" s="41"/>
+      <c r="AB149" s="41"/>
+      <c r="AC149" s="41"/>
+      <c r="AD149" s="41"/>
+      <c r="AE149" s="41"/>
+      <c r="AF149" s="41"/>
+      <c r="AG149" s="41"/>
+      <c r="AH149" s="41"/>
+      <c r="AI149" s="41"/>
+      <c r="AJ149" s="41"/>
+      <c r="AK149" s="41"/>
+      <c r="AL149" s="41"/>
+      <c r="AM149" s="41"/>
+      <c r="AN149" s="41"/>
+      <c r="AO149" s="41"/>
+      <c r="AP149" s="41"/>
+      <c r="AQ149" s="41"/>
+      <c r="AR149" s="41"/>
+      <c r="AS149" s="41"/>
+      <c r="AT149" s="41"/>
+      <c r="AU149" s="41"/>
+      <c r="AV149" s="41"/>
+      <c r="AW149" s="41"/>
+      <c r="AX149" s="41"/>
+      <c r="AY149" s="41"/>
+      <c r="AZ149" s="41"/>
+      <c r="BA149" s="41"/>
+      <c r="BB149" s="41"/>
+      <c r="BC149" s="41"/>
+      <c r="BD149" s="41"/>
+      <c r="BE149" s="41"/>
+      <c r="BF149" s="41"/>
+      <c r="BG149" s="41"/>
+      <c r="BH149" s="41"/>
+      <c r="BI149" s="41"/>
+      <c r="BJ149" s="41"/>
+      <c r="BK149" s="41"/>
+      <c r="BL149" s="41"/>
+      <c r="BM149" s="41"/>
+      <c r="BN149" s="41"/>
+      <c r="BO149" s="41"/>
+      <c r="BP149" s="41"/>
+      <c r="BQ149" s="41"/>
+      <c r="BR149" s="41"/>
+      <c r="BS149" s="41"/>
+      <c r="BT149" s="41"/>
+      <c r="BU149" s="41"/>
+      <c r="BV149" s="41"/>
+      <c r="BW149" s="41"/>
+      <c r="BX149" s="41"/>
+      <c r="BY149" s="41"/>
+      <c r="BZ149" s="41"/>
+      <c r="CA149" s="41"/>
+      <c r="CB149" s="41"/>
+      <c r="CC149" s="41"/>
+      <c r="CD149" s="41"/>
+      <c r="CE149" s="41"/>
+      <c r="CF149" s="41"/>
+      <c r="CG149" s="41"/>
+      <c r="CH149" s="41"/>
+      <c r="CI149" s="41"/>
+      <c r="CJ149" s="41"/>
+      <c r="CK149" s="41"/>
+      <c r="CL149" s="41"/>
+      <c r="CM149" s="41"/>
+      <c r="CN149" s="41"/>
+      <c r="CO149" s="41"/>
+      <c r="CP149" s="41"/>
+      <c r="CQ149" s="41"/>
+      <c r="CR149" s="41"/>
+      <c r="CS149" s="41"/>
+      <c r="CT149" s="41"/>
+      <c r="CU149" s="41"/>
+      <c r="CV149" s="41"/>
+      <c r="CW149" s="41"/>
+      <c r="CX149" s="42"/>
+    </row>
+    <row r="150" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A150" s="75"/>
+      <c r="B150" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="78">
+        <v>18.04</v>
+      </c>
+      <c r="E150" s="74">
+        <v>25.04</v>
+      </c>
+      <c r="F150" s="31"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="32"/>
+      <c r="K150" s="32"/>
+      <c r="L150" s="32"/>
+      <c r="M150" s="32"/>
+      <c r="N150" s="32"/>
+      <c r="O150" s="32"/>
+      <c r="P150" s="32"/>
+      <c r="Q150" s="32"/>
+      <c r="R150" s="32"/>
+      <c r="S150" s="32"/>
+      <c r="T150" s="32"/>
+      <c r="U150" s="32"/>
+      <c r="V150" s="32"/>
+      <c r="W150" s="32"/>
+      <c r="X150" s="32"/>
+      <c r="Y150" s="32"/>
+      <c r="Z150" s="32"/>
+      <c r="AA150" s="32"/>
+      <c r="AB150" s="32"/>
+      <c r="AC150" s="32"/>
+      <c r="AD150" s="32"/>
+      <c r="AE150" s="32"/>
+      <c r="AF150" s="32"/>
+      <c r="AG150" s="32"/>
+      <c r="AH150" s="32"/>
+      <c r="AI150" s="32"/>
+      <c r="AJ150" s="32"/>
+      <c r="AK150" s="32"/>
+      <c r="AL150" s="32"/>
+      <c r="AM150" s="32"/>
+      <c r="AN150" s="32"/>
+      <c r="AO150" s="32"/>
+      <c r="AP150" s="32"/>
+      <c r="AQ150" s="32"/>
+      <c r="AR150" s="32"/>
+      <c r="AS150" s="32"/>
+      <c r="AT150" s="32"/>
+      <c r="AU150" s="32"/>
+      <c r="AV150" s="32"/>
+      <c r="AW150" s="32"/>
+      <c r="AX150" s="32"/>
+      <c r="AY150" s="32"/>
+      <c r="AZ150" s="32"/>
+      <c r="BA150" s="32"/>
+      <c r="BB150" s="32"/>
+      <c r="BC150" s="32"/>
+      <c r="BD150" s="32"/>
+      <c r="BE150" s="32"/>
+      <c r="BF150" s="32"/>
+      <c r="BG150" s="32"/>
+      <c r="BH150" s="32"/>
+      <c r="BI150" s="32"/>
+      <c r="BJ150" s="32"/>
+      <c r="BK150" s="32"/>
+      <c r="BL150" s="32"/>
+      <c r="BM150" s="32"/>
+      <c r="BN150" s="32"/>
+      <c r="BO150" s="32"/>
+      <c r="BP150" s="32"/>
+      <c r="BQ150" s="32"/>
+      <c r="BR150" s="32"/>
+      <c r="BS150" s="32"/>
+      <c r="BT150" s="32"/>
+      <c r="BU150" s="32"/>
+      <c r="BV150" s="32"/>
+      <c r="BW150" s="32"/>
+      <c r="BX150" s="32"/>
+      <c r="BY150" s="32"/>
+      <c r="BZ150" s="32"/>
+      <c r="CA150" s="32"/>
+      <c r="CB150" s="32"/>
+      <c r="CC150" s="32"/>
+      <c r="CD150" s="32"/>
+      <c r="CE150" s="32"/>
+      <c r="CF150" s="32"/>
+      <c r="CG150" s="32"/>
+      <c r="CH150" s="32"/>
+      <c r="CI150" s="32"/>
+      <c r="CJ150" s="32"/>
+      <c r="CK150" s="32"/>
+      <c r="CL150" s="32"/>
+      <c r="CM150" s="32"/>
+      <c r="CN150" s="32"/>
+      <c r="CO150" s="32"/>
+      <c r="CP150" s="32"/>
+      <c r="CQ150" s="32"/>
+      <c r="CR150" s="32"/>
+      <c r="CS150" s="32"/>
+      <c r="CT150" s="32"/>
+      <c r="CU150" s="32"/>
+      <c r="CV150" s="32"/>
+      <c r="CW150" s="32"/>
+      <c r="CX150" s="33"/>
+    </row>
+    <row r="151" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A151" s="76"/>
+      <c r="B151" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="78"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="32"/>
+      <c r="J151" s="32"/>
+      <c r="K151" s="32"/>
+      <c r="L151" s="32"/>
+      <c r="M151" s="32"/>
+      <c r="N151" s="32"/>
+      <c r="O151" s="32"/>
+      <c r="P151" s="32"/>
+      <c r="Q151" s="32"/>
+      <c r="R151" s="32"/>
+      <c r="S151" s="32"/>
+      <c r="T151" s="32"/>
+      <c r="U151" s="32"/>
+      <c r="V151" s="32"/>
+      <c r="W151" s="32"/>
+      <c r="X151" s="32"/>
+      <c r="Y151" s="32"/>
+      <c r="Z151" s="32"/>
+      <c r="AA151" s="32"/>
+      <c r="AB151" s="32"/>
+      <c r="AC151" s="32"/>
+      <c r="AD151" s="32"/>
+      <c r="AE151" s="32"/>
+      <c r="AF151" s="32"/>
+      <c r="AG151" s="32"/>
+      <c r="AH151" s="32"/>
+      <c r="AI151" s="32"/>
+      <c r="AJ151" s="32"/>
+      <c r="AK151" s="32"/>
+      <c r="AL151" s="32"/>
+      <c r="AM151" s="32"/>
+      <c r="AN151" s="32"/>
+      <c r="AO151" s="32"/>
+      <c r="AP151" s="32"/>
+      <c r="AQ151" s="32"/>
+      <c r="AR151" s="32"/>
+      <c r="AS151" s="32"/>
+      <c r="AT151" s="32"/>
+      <c r="AU151" s="32"/>
+      <c r="AV151" s="32"/>
+      <c r="AW151" s="32"/>
+      <c r="AX151" s="32"/>
+      <c r="AY151" s="32"/>
+      <c r="AZ151" s="32"/>
+      <c r="BA151" s="32"/>
+      <c r="BB151" s="32"/>
+      <c r="BC151" s="32"/>
+      <c r="BD151" s="32"/>
+      <c r="BE151" s="32"/>
+      <c r="BF151" s="32"/>
+      <c r="BG151" s="32"/>
+      <c r="BH151" s="32"/>
+      <c r="BI151" s="32"/>
+      <c r="BJ151" s="32"/>
+      <c r="BK151" s="32"/>
+      <c r="BL151" s="32"/>
+      <c r="BM151" s="32"/>
+      <c r="BN151" s="32"/>
+      <c r="BO151" s="32"/>
+      <c r="BP151" s="32"/>
+      <c r="BQ151" s="32"/>
+      <c r="BR151" s="32"/>
+      <c r="BS151" s="32"/>
+      <c r="BT151" s="32"/>
+      <c r="BU151" s="32"/>
+      <c r="BV151" s="32"/>
+      <c r="BW151" s="32"/>
+      <c r="BX151" s="32"/>
+      <c r="BY151" s="32"/>
+      <c r="BZ151" s="32"/>
+      <c r="CA151" s="32"/>
+      <c r="CB151" s="32"/>
+      <c r="CC151" s="32"/>
+      <c r="CD151" s="32"/>
+      <c r="CE151" s="32"/>
+      <c r="CF151" s="32"/>
+      <c r="CG151" s="32"/>
+      <c r="CH151" s="32"/>
+      <c r="CI151" s="32"/>
+      <c r="CJ151" s="32"/>
+      <c r="CK151" s="32"/>
+      <c r="CL151" s="32"/>
+      <c r="CM151" s="32"/>
+      <c r="CN151" s="32"/>
+      <c r="CO151" s="32"/>
+      <c r="CP151" s="32"/>
+      <c r="CQ151" s="32"/>
+      <c r="CR151" s="32"/>
+      <c r="CS151" s="32"/>
+      <c r="CT151" s="32"/>
+      <c r="CU151" s="32"/>
+      <c r="CV151" s="32"/>
+      <c r="CW151" s="32"/>
+      <c r="CX151" s="33"/>
+    </row>
+    <row r="152" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="85">
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="87">
         <v>44348</v>
       </c>
-      <c r="E146" s="86"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="32"/>
-      <c r="J146" s="32"/>
-      <c r="K146" s="32"/>
-      <c r="L146" s="32"/>
-      <c r="M146" s="32"/>
-      <c r="N146" s="32"/>
-      <c r="O146" s="32"/>
-      <c r="P146" s="32"/>
-      <c r="Q146" s="32"/>
-      <c r="R146" s="32"/>
-      <c r="S146" s="32"/>
-      <c r="T146" s="32"/>
-      <c r="U146" s="32"/>
-      <c r="V146" s="32"/>
-      <c r="W146" s="32"/>
-      <c r="X146" s="32"/>
-      <c r="Y146" s="32"/>
-      <c r="Z146" s="32"/>
-      <c r="AA146" s="32"/>
-      <c r="AB146" s="32"/>
-      <c r="AC146" s="32"/>
-      <c r="AD146" s="32"/>
-      <c r="AE146" s="32"/>
-      <c r="AF146" s="32"/>
-      <c r="AG146" s="32"/>
-      <c r="AH146" s="32"/>
-      <c r="AI146" s="32"/>
-      <c r="AJ146" s="32"/>
-      <c r="AK146" s="32"/>
-      <c r="AL146" s="32"/>
-      <c r="AM146" s="32"/>
-      <c r="AN146" s="32"/>
-      <c r="AO146" s="32"/>
-      <c r="AP146" s="32"/>
-      <c r="AQ146" s="32"/>
-      <c r="AR146" s="32"/>
-      <c r="AS146" s="32"/>
-      <c r="AT146" s="32"/>
-      <c r="AU146" s="32"/>
-      <c r="AV146" s="32"/>
-      <c r="AW146" s="32"/>
-      <c r="AX146" s="32"/>
-      <c r="AY146" s="32"/>
-      <c r="AZ146" s="32"/>
-      <c r="BA146" s="32"/>
-      <c r="BB146" s="32"/>
-      <c r="BC146" s="32"/>
-      <c r="BD146" s="32"/>
-      <c r="BE146" s="32"/>
-      <c r="BF146" s="32"/>
-      <c r="BG146" s="32"/>
-      <c r="BH146" s="32"/>
-      <c r="BI146" s="32"/>
-      <c r="BJ146" s="32"/>
-      <c r="BK146" s="32"/>
-      <c r="BL146" s="32"/>
-      <c r="BM146" s="32"/>
-      <c r="BN146" s="32"/>
-      <c r="BO146" s="32"/>
-      <c r="BP146" s="32"/>
-      <c r="BQ146" s="32"/>
-      <c r="BR146" s="32"/>
-      <c r="BS146" s="32"/>
-      <c r="BT146" s="32"/>
-      <c r="BU146" s="32"/>
-      <c r="BV146" s="32"/>
-      <c r="BW146" s="32"/>
-      <c r="BX146" s="32"/>
-      <c r="BY146" s="32"/>
-      <c r="BZ146" s="32"/>
-      <c r="CA146" s="32"/>
-      <c r="CB146" s="32"/>
-      <c r="CC146" s="32"/>
-      <c r="CD146" s="32"/>
-      <c r="CE146" s="32"/>
-      <c r="CF146" s="32"/>
-      <c r="CG146" s="32"/>
-      <c r="CH146" s="32"/>
-      <c r="CI146" s="32"/>
-      <c r="CJ146" s="32"/>
-      <c r="CK146" s="32"/>
-      <c r="CL146" s="32"/>
-      <c r="CM146" s="32"/>
-      <c r="CN146" s="32"/>
-      <c r="CO146" s="32"/>
-      <c r="CP146" s="32"/>
-      <c r="CQ146" s="32"/>
-      <c r="CR146" s="32"/>
-      <c r="CS146" s="32"/>
-      <c r="CT146" s="32"/>
-      <c r="CU146" s="32"/>
-      <c r="CV146" s="32"/>
-      <c r="CW146" s="32"/>
-      <c r="CX146" s="33"/>
+      <c r="E152" s="88"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="32"/>
+      <c r="K152" s="32"/>
+      <c r="L152" s="32"/>
+      <c r="M152" s="32"/>
+      <c r="N152" s="32"/>
+      <c r="O152" s="32"/>
+      <c r="P152" s="32"/>
+      <c r="Q152" s="32"/>
+      <c r="R152" s="32"/>
+      <c r="S152" s="32"/>
+      <c r="T152" s="32"/>
+      <c r="U152" s="32"/>
+      <c r="V152" s="32"/>
+      <c r="W152" s="32"/>
+      <c r="X152" s="32"/>
+      <c r="Y152" s="32"/>
+      <c r="Z152" s="32"/>
+      <c r="AA152" s="32"/>
+      <c r="AB152" s="32"/>
+      <c r="AC152" s="32"/>
+      <c r="AD152" s="32"/>
+      <c r="AE152" s="32"/>
+      <c r="AF152" s="32"/>
+      <c r="AG152" s="32"/>
+      <c r="AH152" s="32"/>
+      <c r="AI152" s="32"/>
+      <c r="AJ152" s="32"/>
+      <c r="AK152" s="32"/>
+      <c r="AL152" s="32"/>
+      <c r="AM152" s="32"/>
+      <c r="AN152" s="32"/>
+      <c r="AO152" s="32"/>
+      <c r="AP152" s="32"/>
+      <c r="AQ152" s="32"/>
+      <c r="AR152" s="32"/>
+      <c r="AS152" s="32"/>
+      <c r="AT152" s="32"/>
+      <c r="AU152" s="32"/>
+      <c r="AV152" s="32"/>
+      <c r="AW152" s="32"/>
+      <c r="AX152" s="32"/>
+      <c r="AY152" s="32"/>
+      <c r="AZ152" s="32"/>
+      <c r="BA152" s="32"/>
+      <c r="BB152" s="32"/>
+      <c r="BC152" s="32"/>
+      <c r="BD152" s="32"/>
+      <c r="BE152" s="32"/>
+      <c r="BF152" s="32"/>
+      <c r="BG152" s="32"/>
+      <c r="BH152" s="32"/>
+      <c r="BI152" s="32"/>
+      <c r="BJ152" s="32"/>
+      <c r="BK152" s="32"/>
+      <c r="BL152" s="32"/>
+      <c r="BM152" s="32"/>
+      <c r="BN152" s="32"/>
+      <c r="BO152" s="32"/>
+      <c r="BP152" s="32"/>
+      <c r="BQ152" s="32"/>
+      <c r="BR152" s="32"/>
+      <c r="BS152" s="32"/>
+      <c r="BT152" s="32"/>
+      <c r="BU152" s="32"/>
+      <c r="BV152" s="32"/>
+      <c r="BW152" s="32"/>
+      <c r="BX152" s="32"/>
+      <c r="BY152" s="32"/>
+      <c r="BZ152" s="32"/>
+      <c r="CA152" s="32"/>
+      <c r="CB152" s="32"/>
+      <c r="CC152" s="32"/>
+      <c r="CD152" s="32"/>
+      <c r="CE152" s="32"/>
+      <c r="CF152" s="32"/>
+      <c r="CG152" s="32"/>
+      <c r="CH152" s="32"/>
+      <c r="CI152" s="32"/>
+      <c r="CJ152" s="32"/>
+      <c r="CK152" s="32"/>
+      <c r="CL152" s="32"/>
+      <c r="CM152" s="32"/>
+      <c r="CN152" s="32"/>
+      <c r="CO152" s="32"/>
+      <c r="CP152" s="32"/>
+      <c r="CQ152" s="32"/>
+      <c r="CR152" s="32"/>
+      <c r="CS152" s="32"/>
+      <c r="CT152" s="32"/>
+      <c r="CU152" s="32"/>
+      <c r="CV152" s="32"/>
+      <c r="CW152" s="32"/>
+      <c r="CX152" s="33"/>
     </row>
-    <row r="147" spans="1:102" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="13"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="47"/>
-      <c r="I147" s="47"/>
-      <c r="J147" s="47"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="47"/>
-      <c r="M147" s="47"/>
-      <c r="N147" s="47"/>
-      <c r="O147" s="47"/>
-      <c r="P147" s="47"/>
-      <c r="Q147" s="47"/>
-      <c r="R147" s="47"/>
-      <c r="S147" s="47"/>
-      <c r="T147" s="47"/>
-      <c r="U147" s="47"/>
-      <c r="V147" s="47"/>
-      <c r="W147" s="47"/>
-      <c r="X147" s="47"/>
-      <c r="Y147" s="47"/>
-      <c r="Z147" s="47"/>
-      <c r="AA147" s="47"/>
-      <c r="AB147" s="47"/>
-      <c r="AC147" s="47"/>
-      <c r="AD147" s="47"/>
-      <c r="AE147" s="47"/>
-      <c r="AF147" s="47"/>
-      <c r="AG147" s="47"/>
-      <c r="AH147" s="47"/>
-      <c r="AI147" s="47"/>
-      <c r="AJ147" s="47"/>
-      <c r="AK147" s="47"/>
-      <c r="AL147" s="47"/>
-      <c r="AM147" s="47"/>
-      <c r="AN147" s="47"/>
-      <c r="AO147" s="47"/>
-      <c r="AP147" s="47"/>
-      <c r="AQ147" s="47"/>
-      <c r="AR147" s="47"/>
-      <c r="AS147" s="47"/>
-      <c r="AT147" s="47"/>
-      <c r="AU147" s="47"/>
-      <c r="AV147" s="47"/>
-      <c r="AW147" s="47"/>
-      <c r="AX147" s="47"/>
-      <c r="AY147" s="47"/>
-      <c r="AZ147" s="47"/>
-      <c r="BA147" s="47"/>
-      <c r="BB147" s="47"/>
-      <c r="BC147" s="47"/>
-      <c r="BD147" s="47"/>
-      <c r="BE147" s="47"/>
-      <c r="BF147" s="47"/>
-      <c r="BG147" s="47"/>
-      <c r="BH147" s="47"/>
-      <c r="BI147" s="47"/>
-      <c r="BJ147" s="47"/>
-      <c r="BK147" s="47"/>
-      <c r="BL147" s="47"/>
-      <c r="BM147" s="47"/>
-      <c r="BN147" s="47"/>
-      <c r="BO147" s="47"/>
-      <c r="BP147" s="47"/>
-      <c r="BQ147" s="47"/>
-      <c r="BR147" s="47"/>
-      <c r="BS147" s="47"/>
-      <c r="BT147" s="47"/>
-      <c r="BU147" s="47"/>
-      <c r="BV147" s="47"/>
-      <c r="BW147" s="47"/>
-      <c r="BX147" s="47"/>
-      <c r="BY147" s="47"/>
-      <c r="BZ147" s="47"/>
-      <c r="CA147" s="47"/>
-      <c r="CB147" s="47"/>
-      <c r="CC147" s="47"/>
-      <c r="CD147" s="47"/>
-      <c r="CE147" s="47"/>
-      <c r="CF147" s="47"/>
-      <c r="CG147" s="47"/>
-      <c r="CH147" s="47"/>
-      <c r="CI147" s="47"/>
-      <c r="CJ147" s="47"/>
-      <c r="CK147" s="47"/>
-      <c r="CL147" s="47"/>
-      <c r="CM147" s="47"/>
-      <c r="CN147" s="47"/>
-      <c r="CO147" s="47"/>
-      <c r="CP147" s="47"/>
-      <c r="CQ147" s="47"/>
-      <c r="CR147" s="47"/>
-      <c r="CS147" s="47"/>
-      <c r="CT147" s="47"/>
-      <c r="CU147" s="47"/>
-      <c r="CV147" s="47"/>
-      <c r="CW147" s="47"/>
-      <c r="CX147" s="47"/>
+    <row r="153" spans="1:103" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="13"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="47"/>
+      <c r="J153" s="47"/>
+      <c r="K153" s="47"/>
+      <c r="L153" s="47"/>
+      <c r="M153" s="47"/>
+      <c r="N153" s="47"/>
+      <c r="O153" s="47"/>
+      <c r="P153" s="47"/>
+      <c r="Q153" s="47"/>
+      <c r="R153" s="47"/>
+      <c r="S153" s="47"/>
+      <c r="T153" s="47"/>
+      <c r="U153" s="47"/>
+      <c r="V153" s="47"/>
+      <c r="W153" s="47"/>
+      <c r="X153" s="47"/>
+      <c r="Y153" s="47"/>
+      <c r="Z153" s="47"/>
+      <c r="AA153" s="47"/>
+      <c r="AB153" s="47"/>
+      <c r="AC153" s="47"/>
+      <c r="AD153" s="47"/>
+      <c r="AE153" s="47"/>
+      <c r="AF153" s="47"/>
+      <c r="AG153" s="47"/>
+      <c r="AH153" s="47"/>
+      <c r="AI153" s="47"/>
+      <c r="AJ153" s="47"/>
+      <c r="AK153" s="47"/>
+      <c r="AL153" s="47"/>
+      <c r="AM153" s="47"/>
+      <c r="AN153" s="47"/>
+      <c r="AO153" s="47"/>
+      <c r="AP153" s="47"/>
+      <c r="AQ153" s="47"/>
+      <c r="AR153" s="47"/>
+      <c r="AS153" s="47"/>
+      <c r="AT153" s="47"/>
+      <c r="AU153" s="47"/>
+      <c r="AV153" s="47"/>
+      <c r="AW153" s="47"/>
+      <c r="AX153" s="47"/>
+      <c r="AY153" s="47"/>
+      <c r="AZ153" s="47"/>
+      <c r="BA153" s="47"/>
+      <c r="BB153" s="47"/>
+      <c r="BC153" s="47"/>
+      <c r="BD153" s="47"/>
+      <c r="BE153" s="47"/>
+      <c r="BF153" s="47"/>
+      <c r="BG153" s="47"/>
+      <c r="BH153" s="47"/>
+      <c r="BI153" s="47"/>
+      <c r="BJ153" s="47"/>
+      <c r="BK153" s="47"/>
+      <c r="BL153" s="47"/>
+      <c r="BM153" s="47"/>
+      <c r="BN153" s="47"/>
+      <c r="BO153" s="47"/>
+      <c r="BP153" s="47"/>
+      <c r="BQ153" s="47"/>
+      <c r="BR153" s="47"/>
+      <c r="BS153" s="47"/>
+      <c r="BT153" s="47"/>
+      <c r="BU153" s="47"/>
+      <c r="BV153" s="47"/>
+      <c r="BW153" s="47"/>
+      <c r="BX153" s="47"/>
+      <c r="BY153" s="47"/>
+      <c r="BZ153" s="47"/>
+      <c r="CA153" s="47"/>
+      <c r="CB153" s="47"/>
+      <c r="CC153" s="47"/>
+      <c r="CD153" s="47"/>
+      <c r="CE153" s="47"/>
+      <c r="CF153" s="47"/>
+      <c r="CG153" s="47"/>
+      <c r="CH153" s="47"/>
+      <c r="CI153" s="47"/>
+      <c r="CJ153" s="47"/>
+      <c r="CK153" s="47"/>
+      <c r="CL153" s="47"/>
+      <c r="CM153" s="47"/>
+      <c r="CN153" s="47"/>
+      <c r="CO153" s="47"/>
+      <c r="CP153" s="47"/>
+      <c r="CQ153" s="47"/>
+      <c r="CR153" s="47"/>
+      <c r="CS153" s="47"/>
+      <c r="CT153" s="47"/>
+      <c r="CU153" s="47"/>
+      <c r="CV153" s="47"/>
+      <c r="CW153" s="47"/>
+      <c r="CX153" s="47"/>
     </row>
-    <row r="149" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="150" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="D150" s="24"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="49"/>
+    <row r="155" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="156" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="D156" s="24"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="49"/>
     </row>
-    <row r="151" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="D151" s="26"/>
-      <c r="E151" s="20" t="s">
+    <row r="157" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="D157" s="26"/>
+      <c r="E157" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F151" s="50"/>
+      <c r="F157" s="50"/>
     </row>
-    <row r="152" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="D152" s="28"/>
-      <c r="E152" s="20" t="s">
+    <row r="158" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="D158" s="28"/>
+      <c r="E158" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F152" s="50"/>
+      <c r="F158" s="50"/>
     </row>
-    <row r="153" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D153" s="29"/>
-      <c r="E153" s="27" t="s">
+    <row r="159" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D159" s="29"/>
+      <c r="E159" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F153" s="51"/>
+      <c r="F159" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="169">
+  <mergeCells count="178">
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="A26:A27"/>
@@ -18895,51 +19630,61 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="D80:D81"/>
     <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="A141:A142"/>
     <mergeCell ref="D138:D139"/>
     <mergeCell ref="E138:E139"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A127:A128"/>
     <mergeCell ref="D127:D128"/>
     <mergeCell ref="E127:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
     <mergeCell ref="D121:D122"/>
     <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D100:D101"/>
     <mergeCell ref="D102:D103"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D87:D88"/>
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="E89:E90"/>
@@ -18963,20 +19708,20 @@
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E102:E103"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="D55:D56"/>
@@ -18987,7 +19732,6 @@
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D87:D88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitsplan/Iteration_Arbeitsplan.xlsx
+++ b/Arbeitsplan/Iteration_Arbeitsplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\PSE_DELIVERABLES\Arbeitsplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Eonum\PSE_DELIVERABLES\Arbeitsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF7F346-318E-47C5-9525-088CE263BE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE86BB-CB0E-48A7-B8D1-7BA9D6F131F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="78">
   <si>
     <t>Zeitplan PSE eonum AG</t>
   </si>
@@ -260,6 +259,15 @@
   </si>
   <si>
     <t>Statusbericht</t>
+  </si>
+  <si>
+    <t>Mehr Tests schreiben</t>
+  </si>
+  <si>
+    <t>Test cases exportieren von Selenium und Webdriver für mehrere Browsers installieren</t>
+  </si>
+  <si>
+    <t>Dokumentation für Tests schreiben</t>
   </si>
 </sst>
 </file>
@@ -928,81 +936,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1060,9 +993,84 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1083,13 +1091,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1315,13 +1323,13 @@
     <xdr:from>
       <xdr:col>89</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1373,13 +1381,13 @@
     <xdr:from>
       <xdr:col>101</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>101</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1431,7 +1439,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1727,32 +1735,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD384E66-6977-4A33-945E-14F730629694}">
-  <dimension ref="A1:CY169"/>
+  <dimension ref="A1:CY173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CG127" sqref="CG127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
-    <col min="3" max="3" width="5.6328125" style="36" customWidth="1"/>
-    <col min="4" max="5" width="10.90625" style="36"/>
-    <col min="6" max="102" width="5.6328125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="36" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="36"/>
+    <col min="6" max="102" width="5.5703125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="72" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="73"/>
+      <c r="E1" s="99"/>
       <c r="F1" s="18">
         <v>44615</v>
       </c>
@@ -2046,10 +2054,10 @@
       </c>
       <c r="CY1" s="16"/>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="84"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="57"/>
       <c r="E2" s="55"/>
       <c r="F2" s="19"/>
@@ -2151,7 +2159,7 @@
       <c r="CX2" s="21"/>
       <c r="CY2" s="17"/>
     </row>
-    <row r="3" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2261,21 +2269,21 @@
       <c r="CX3" s="24"/>
       <c r="CY3" s="17"/>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="60">
         <f>SUM(C10,C15,C20,C25,C5)</f>
         <v>33.5</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="91">
+      <c r="E4" s="66">
         <f>SUM(E5,E10,E15,E20,E25)</f>
         <v>32.5</v>
       </c>
@@ -2378,21 +2386,21 @@
       <c r="CX4" s="27"/>
       <c r="CY4" s="17"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="61">
         <f>SUM(C6,C8)</f>
         <v>7</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="67">
         <f>SUM(C7,C9)</f>
         <v>6</v>
       </c>
@@ -2495,20 +2503,20 @@
       <c r="CX5" s="30"/>
       <c r="CY5" s="17"/>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="62">
         <v>5</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="80">
         <v>23.02</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="87">
         <v>16.03</v>
       </c>
       <c r="F6" s="45"/>
@@ -2616,16 +2624,16 @@
       <c r="CX6" s="47"/>
       <c r="CY6" s="17"/>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60"/>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="62">
         <v>4</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="45"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
@@ -2731,20 +2739,20 @@
       <c r="CX7" s="47"/>
       <c r="CY7" s="17"/>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="62">
         <v>2</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="80">
         <v>23.02</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="87">
         <v>16.03</v>
       </c>
       <c r="F8" s="19"/>
@@ -2848,16 +2856,16 @@
       <c r="CX8" s="21"/>
       <c r="CY8" s="17"/>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A9" s="60"/>
+    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="62">
         <v>2</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -2959,21 +2967,21 @@
       <c r="CX9" s="21"/>
       <c r="CY9" s="17"/>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="61">
         <f>SUM(C11,C13)</f>
         <v>4</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="67">
         <f>SUM(C12,C14)</f>
         <v>6</v>
       </c>
@@ -3076,21 +3084,21 @@
       <c r="CX10" s="30"/>
       <c r="CY10" s="17"/>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="62">
         <f>SUM(F11:CX11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="80">
         <v>23.02</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="87">
         <v>16.03</v>
       </c>
       <c r="F11" s="19"/>
@@ -3194,17 +3202,17 @@
       <c r="CX11" s="21"/>
       <c r="CY11" s="17"/>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A12" s="60"/>
+    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A12" s="79"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="62">
         <f>SUM(F12:CX12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="64"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -3306,8 +3314,8 @@
       <c r="CX12" s="21"/>
       <c r="CY12" s="17"/>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="59" t="s">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="78" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -3317,10 +3325,10 @@
         <f>SUM(F13:CX13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="80">
         <v>23.02</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="87">
         <v>16.03</v>
       </c>
       <c r="F13" s="19"/>
@@ -3426,17 +3434,17 @@
       <c r="CX13" s="21"/>
       <c r="CY13" s="17"/>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="77"/>
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="95"/>
       <c r="B14" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="63">
         <f>SUM(F14:CX14)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -3543,21 +3551,21 @@
       <c r="CX14" s="21"/>
       <c r="CY14" s="17"/>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="61">
         <f>SUM(C16,C18)</f>
         <v>7</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="92">
+      <c r="E15" s="67">
         <f>SUM(C17,C19)</f>
         <v>6</v>
       </c>
@@ -3660,20 +3668,20 @@
       <c r="CX15" s="30"/>
       <c r="CY15" s="17"/>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="62">
         <v>3</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="80">
         <v>23.02</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="87">
         <v>16.03</v>
       </c>
       <c r="F16" s="19"/>
@@ -3777,16 +3785,16 @@
       <c r="CX16" s="21"/>
       <c r="CY16" s="17"/>
     </row>
-    <row r="17" spans="1:103" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="77"/>
+    <row r="17" spans="1:103" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="95"/>
       <c r="B17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="62">
         <v>3</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="63"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -3888,20 +3896,20 @@
       <c r="CX17" s="21"/>
       <c r="CY17" s="49"/>
     </row>
-    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="77" t="s">
+    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="95" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="62">
         <v>4</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="81">
         <v>23.02</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="89">
         <v>16.03</v>
       </c>
       <c r="F18" s="19"/>
@@ -4007,16 +4015,16 @@
       <c r="CX18" s="21"/>
       <c r="CY18" s="17"/>
     </row>
-    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="60"/>
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="79"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="62">
         <v>3</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -4120,21 +4128,21 @@
       <c r="CX19" s="21"/>
       <c r="CY19" s="17"/>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="61">
         <f>SUM(C21,C23)</f>
         <v>6</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="92">
+      <c r="E20" s="67">
         <f>SUM(C22,C24)</f>
         <v>6</v>
       </c>
@@ -4237,20 +4245,20 @@
       <c r="CX20" s="30"/>
       <c r="CY20" s="17"/>
     </row>
-    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="62">
         <v>1</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="80">
         <v>23.02</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="87">
         <v>16.03</v>
       </c>
       <c r="F21" s="19"/>
@@ -4354,16 +4362,16 @@
       <c r="CX21" s="21"/>
       <c r="CY21" s="17"/>
     </row>
-    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="60"/>
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="79"/>
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="87">
+      <c r="C22" s="62">
         <v>1</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="64"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -4465,21 +4473,21 @@
       <c r="CX22" s="21"/>
       <c r="CY22" s="17"/>
     </row>
-    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="59" t="s">
+    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="87">
+      <c r="C23" s="62">
         <f>SUM(F23:CX23)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="80">
         <v>23.02</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="87">
         <v>16.03</v>
       </c>
       <c r="F23" s="19"/>
@@ -4589,17 +4597,17 @@
       <c r="CX23" s="21"/>
       <c r="CY23" s="17"/>
     </row>
-    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="60"/>
+    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="79"/>
       <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="62">
         <f>SUM(F24:CX24)</f>
         <v>5</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="64"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="19"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -4707,20 +4715,20 @@
       <c r="CX24" s="21"/>
       <c r="CY24" s="17"/>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="61">
         <v>9.5</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="67">
         <v>8.5</v>
       </c>
       <c r="F25" s="28"/>
@@ -4822,20 +4830,20 @@
       <c r="CX25" s="30"/>
       <c r="CY25" s="17"/>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A26" s="78" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="62">
         <v>4.5</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="80">
         <v>23.02</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="87">
         <v>16.03</v>
       </c>
       <c r="F26" s="19"/>
@@ -4945,16 +4953,16 @@
       <c r="CX26" s="21"/>
       <c r="CY26" s="17"/>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A27" s="60"/>
+    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A27" s="79"/>
       <c r="B27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="62">
         <v>4.5</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="64"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="88"/>
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -5062,20 +5070,20 @@
       <c r="CX27" s="21"/>
       <c r="CY27" s="17"/>
     </row>
-    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="87">
+      <c r="C28" s="62">
         <v>1</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="80">
         <v>23.02</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="87">
         <v>16.03</v>
       </c>
       <c r="F28" s="19"/>
@@ -5181,16 +5189,16 @@
       <c r="CX28" s="21"/>
       <c r="CY28" s="17"/>
     </row>
-    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="60"/>
+    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="79"/>
       <c r="B29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C29" s="62">
         <v>1</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="88"/>
       <c r="F29" s="19"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -5294,20 +5302,20 @@
       <c r="CX29" s="21"/>
       <c r="CY29" s="17"/>
     </row>
-    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="59" t="s">
+    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="87">
+      <c r="C30" s="62">
         <v>4</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="80">
         <v>23.02</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="87">
         <v>16.03</v>
       </c>
       <c r="F30" s="19"/>
@@ -5415,16 +5423,16 @@
       <c r="CX30" s="21"/>
       <c r="CY30" s="17"/>
     </row>
-    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="60"/>
+    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="87">
+      <c r="C31" s="62">
         <v>3</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="64"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -5530,16 +5538,16 @@
       <c r="CX31" s="21"/>
       <c r="CY31" s="17"/>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="66">
+      <c r="C32" s="62"/>
+      <c r="D32" s="92">
         <v>44636</v>
       </c>
-      <c r="E32" s="67"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -5639,21 +5647,21 @@
       <c r="CX32" s="21"/>
       <c r="CY32" s="17"/>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="85">
+      <c r="C33" s="60">
         <f>SUM(C34,C41,C50,C57,C66)</f>
         <v>57.5</v>
       </c>
-      <c r="D33" s="95" t="s">
+      <c r="D33" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="91">
+      <c r="E33" s="66">
         <f>SUM(E34,E41,E50,E57,E66)</f>
         <v>75</v>
       </c>
@@ -5756,20 +5764,20 @@
       <c r="CX33" s="34"/>
       <c r="CY33" s="17"/>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="86">
+      <c r="C34" s="61">
         <v>8</v>
       </c>
-      <c r="D34" s="96" t="s">
+      <c r="D34" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="92">
+      <c r="E34" s="67">
         <v>11</v>
       </c>
       <c r="F34" s="28"/>
@@ -5871,20 +5879,20 @@
       <c r="CX34" s="30"/>
       <c r="CY34" s="17"/>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A35" s="59" t="s">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A35" s="78" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="87">
+      <c r="C35" s="62">
         <v>3</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="81">
         <v>23.03</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="82">
         <v>6.04</v>
       </c>
       <c r="F35" s="19"/>
@@ -5992,16 +6000,16 @@
       <c r="CX35" s="21"/>
       <c r="CY35" s="17"/>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A36" s="60"/>
+    <row r="36" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
       <c r="B36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C36" s="62">
         <v>6</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="68"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="19"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
@@ -6107,20 +6115,20 @@
       <c r="CX36" s="21"/>
       <c r="CY36" s="17"/>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A37" s="59" t="s">
+    <row r="37" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="62">
         <v>2</v>
       </c>
-      <c r="D37" s="69">
+      <c r="D37" s="81">
         <v>23.03</v>
       </c>
-      <c r="E37" s="68">
+      <c r="E37" s="82">
         <v>6.04</v>
       </c>
       <c r="F37" s="19"/>
@@ -6224,16 +6232,16 @@
       <c r="CX37" s="21"/>
       <c r="CY37" s="17"/>
     </row>
-    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="60"/>
+    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="79"/>
       <c r="B38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="62">
         <v>3</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="68"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="19"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -6335,20 +6343,20 @@
       <c r="CX38" s="21"/>
       <c r="CY38" s="17"/>
     </row>
-    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="59" t="s">
+    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="87">
+      <c r="C39" s="62">
         <v>2</v>
       </c>
-      <c r="D39" s="69">
+      <c r="D39" s="81">
         <v>23.03</v>
       </c>
-      <c r="E39" s="68">
+      <c r="E39" s="82">
         <v>6.04</v>
       </c>
       <c r="F39" s="19"/>
@@ -6454,16 +6462,16 @@
       <c r="CX39" s="21"/>
       <c r="CY39" s="17"/>
     </row>
-    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="60"/>
+    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="79"/>
       <c r="B40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="87">
+      <c r="C40" s="62">
         <v>2</v>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="68"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
@@ -6567,21 +6575,21 @@
       <c r="CX40" s="21"/>
       <c r="CY40" s="17"/>
     </row>
-    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="86">
+      <c r="C41" s="61">
         <f>SUM(C42,C44,C46,C48)</f>
         <v>19.5</v>
       </c>
-      <c r="D41" s="96" t="s">
+      <c r="D41" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="92">
+      <c r="E41" s="67">
         <f>SUM(C43,C45,C47,C49)</f>
         <v>25</v>
       </c>
@@ -6684,21 +6692,21 @@
       <c r="CX41" s="30"/>
       <c r="CY41" s="17"/>
     </row>
-    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="59" t="s">
+    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="78" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="87">
+      <c r="C42" s="62">
         <f>SUM(F42:AX42)</f>
         <v>11</v>
       </c>
-      <c r="D42" s="61" t="s">
+      <c r="D42" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="87">
         <v>6.04</v>
       </c>
       <c r="F42" s="19"/>
@@ -6818,17 +6826,17 @@
       <c r="CX42" s="21"/>
       <c r="CY42" s="10"/>
     </row>
-    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="60"/>
+    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="79"/>
       <c r="B43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="87">
+      <c r="C43" s="62">
         <f t="shared" ref="C43:C49" si="0">SUM(F43:AX43)</f>
         <v>13.5</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="64"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="88"/>
       <c r="F43" s="19"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -6945,21 +6953,21 @@
       <c r="CX43" s="21"/>
       <c r="CY43" s="10"/>
     </row>
-    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="59" t="s">
+    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="78" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="87">
+      <c r="C44" s="62">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="65">
+      <c r="E44" s="87">
         <v>6.04</v>
       </c>
       <c r="F44" s="19"/>
@@ -7073,17 +7081,17 @@
       <c r="CX44" s="21"/>
       <c r="CY44" s="10"/>
     </row>
-    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="60"/>
+    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="79"/>
       <c r="B45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="87">
+      <c r="C45" s="62">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="64"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="88"/>
       <c r="F45" s="19"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -7195,21 +7203,21 @@
       <c r="CX45" s="21"/>
       <c r="CY45" s="10"/>
     </row>
-    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="59" t="s">
+    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="78" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="87">
+      <c r="C46" s="62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="65">
+      <c r="E46" s="87">
         <v>6.04</v>
       </c>
       <c r="F46" s="19"/>
@@ -7313,17 +7321,17 @@
       <c r="CX46" s="21"/>
       <c r="CY46" s="10"/>
     </row>
-    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="60"/>
+    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="79"/>
       <c r="B47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="87">
+      <c r="C47" s="62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="64"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="88"/>
       <c r="F47" s="19"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
@@ -7425,21 +7433,21 @@
       <c r="CX47" s="21"/>
       <c r="CY47" s="10"/>
     </row>
-    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="59" t="s">
+    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="78" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="87">
+      <c r="C48" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D48" s="61" t="s">
+      <c r="D48" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="65">
+      <c r="E48" s="87">
         <v>6.04</v>
       </c>
       <c r="F48" s="19"/>
@@ -7543,17 +7551,17 @@
       <c r="CX48" s="21"/>
       <c r="CY48" s="10"/>
     </row>
-    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="60"/>
+    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="79"/>
       <c r="B49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="87">
+      <c r="C49" s="62">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="64"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="88"/>
       <c r="F49" s="19"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
@@ -7655,21 +7663,21 @@
       <c r="CX49" s="21"/>
       <c r="CY49" s="10"/>
     </row>
-    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="86">
+      <c r="C50" s="61">
         <f>SUM(C51,C53,C55)</f>
         <v>10</v>
       </c>
-      <c r="D50" s="96" t="s">
+      <c r="D50" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="92">
+      <c r="E50" s="67">
         <f>SUM(C52,C54,C56)</f>
         <v>11</v>
       </c>
@@ -7772,20 +7780,20 @@
       <c r="CX50" s="30"/>
       <c r="CY50" s="10"/>
     </row>
-    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="59" t="s">
+    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="78" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="87">
+      <c r="C51" s="62">
         <v>3</v>
       </c>
-      <c r="D51" s="61" t="s">
+      <c r="D51" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="65">
+      <c r="E51" s="87">
         <v>6.04</v>
       </c>
       <c r="F51" s="19"/>
@@ -7891,16 +7899,16 @@
       <c r="CX51" s="21"/>
       <c r="CY51" s="10"/>
     </row>
-    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="60"/>
+    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="79"/>
       <c r="B52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="87">
+      <c r="C52" s="62">
         <v>3</v>
       </c>
-      <c r="D52" s="62"/>
-      <c r="E52" s="64"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="88"/>
       <c r="F52" s="19"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -8004,20 +8012,20 @@
       <c r="CX52" s="21"/>
       <c r="CY52" s="10"/>
     </row>
-    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="59" t="s">
+    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="78" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="87">
+      <c r="C53" s="62">
         <v>6</v>
       </c>
-      <c r="D53" s="61" t="s">
+      <c r="D53" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="65">
+      <c r="E53" s="87">
         <v>6.04</v>
       </c>
       <c r="F53" s="19"/>
@@ -8128,16 +8136,16 @@
       <c r="CW53" s="20"/>
       <c r="CX53" s="21"/>
     </row>
-    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="60"/>
+    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="79"/>
       <c r="B54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="62">
         <v>7</v>
       </c>
-      <c r="D54" s="62"/>
-      <c r="E54" s="64"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="88"/>
       <c r="F54" s="19"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
@@ -8247,20 +8255,20 @@
       <c r="CX54" s="21"/>
       <c r="CY54" s="10"/>
     </row>
-    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="59" t="s">
+    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="78" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="87">
+      <c r="C55" s="62">
         <v>1</v>
       </c>
-      <c r="D55" s="61" t="s">
+      <c r="D55" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="65">
+      <c r="E55" s="87">
         <v>6.04</v>
       </c>
       <c r="F55" s="19"/>
@@ -8364,16 +8372,16 @@
       <c r="CX55" s="21"/>
       <c r="CY55" s="10"/>
     </row>
-    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="60"/>
+    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="79"/>
       <c r="B56" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="87">
+      <c r="C56" s="62">
         <v>1</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="64"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="88"/>
       <c r="F56" s="19"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
@@ -8474,21 +8482,21 @@
       <c r="CW56" s="20"/>
       <c r="CX56" s="21"/>
     </row>
-    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="86">
+      <c r="C57" s="61">
         <f>SUM(C58,C60,C62)</f>
         <v>8</v>
       </c>
-      <c r="D57" s="96" t="s">
+      <c r="D57" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="92">
+      <c r="E57" s="67">
         <f>SUM(C59,C61,C63)</f>
         <v>14</v>
       </c>
@@ -8591,20 +8599,20 @@
       <c r="CX57" s="30"/>
       <c r="CY57" s="17"/>
     </row>
-    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="70" t="s">
+    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="87">
+      <c r="C58" s="62">
         <v>4</v>
       </c>
-      <c r="D58" s="61" t="s">
+      <c r="D58" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="68">
+      <c r="E58" s="82">
         <v>6.04</v>
       </c>
       <c r="F58" s="19"/>
@@ -8714,16 +8722,16 @@
       <c r="CX58" s="21"/>
       <c r="CY58" s="17"/>
     </row>
-    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="71"/>
+    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="97"/>
       <c r="B59" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="87">
+      <c r="C59" s="62">
         <v>10</v>
       </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="68"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="19"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
@@ -8831,20 +8839,20 @@
       <c r="CX59" s="21"/>
       <c r="CY59" s="17"/>
     </row>
-    <row r="60" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A60" s="70" t="s">
+    <row r="60" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A60" s="96" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="87">
+      <c r="C60" s="62">
         <v>2</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="68">
+      <c r="E60" s="82">
         <v>6.04</v>
       </c>
       <c r="F60" s="19"/>
@@ -8950,16 +8958,16 @@
       <c r="CX60" s="21"/>
       <c r="CY60" s="17"/>
     </row>
-    <row r="61" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A61" s="71"/>
+    <row r="61" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A61" s="97"/>
       <c r="B61" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="87">
+      <c r="C61" s="62">
         <v>2</v>
       </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="68"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="19"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -9063,20 +9071,20 @@
       <c r="CX61" s="21"/>
       <c r="CY61" s="17"/>
     </row>
-    <row r="62" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A62" s="70" t="s">
+    <row r="62" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A62" s="96" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="87">
+      <c r="C62" s="62">
         <v>2</v>
       </c>
-      <c r="D62" s="61" t="s">
+      <c r="D62" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="68">
+      <c r="E62" s="82">
         <v>6.04</v>
       </c>
       <c r="F62" s="19"/>
@@ -9182,16 +9190,16 @@
       <c r="CX62" s="21"/>
       <c r="CY62" s="17"/>
     </row>
-    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="71"/>
+    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="97"/>
       <c r="B63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="87">
+      <c r="C63" s="62">
         <v>2</v>
       </c>
-      <c r="D63" s="62"/>
-      <c r="E63" s="68"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="82"/>
       <c r="F63" s="19"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
@@ -9295,20 +9303,20 @@
       <c r="CX63" s="21"/>
       <c r="CY63" s="17"/>
     </row>
-    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="59" t="s">
+    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="78" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="87">
+      <c r="C64" s="62">
         <v>4</v>
       </c>
-      <c r="D64" s="61" t="s">
+      <c r="D64" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="68">
+      <c r="E64" s="82">
         <v>6.04</v>
       </c>
       <c r="F64" s="19"/>
@@ -9418,16 +9426,16 @@
       <c r="CX64" s="21"/>
       <c r="CY64" s="17"/>
     </row>
-    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="60"/>
+    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="79"/>
       <c r="B65" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="87">
+      <c r="C65" s="62">
         <v>4</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="68"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="19"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
@@ -9535,21 +9543,21 @@
       <c r="CX65" s="21"/>
       <c r="CY65" s="17"/>
     </row>
-    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="86">
+      <c r="C66" s="61">
         <f>SUM(C67,C69,C71,C73,C75)</f>
         <v>12</v>
       </c>
-      <c r="D66" s="96" t="s">
+      <c r="D66" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="92">
+      <c r="E66" s="67">
         <f>SUM(C68,C70,C72,C74,C76)</f>
         <v>14</v>
       </c>
@@ -9652,20 +9660,20 @@
       <c r="CX66" s="30"/>
       <c r="CY66" s="17"/>
     </row>
-    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="59" t="s">
+    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="78" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="87">
+      <c r="C67" s="62">
         <v>4</v>
       </c>
-      <c r="D67" s="69">
+      <c r="D67" s="81">
         <v>23.03</v>
       </c>
-      <c r="E67" s="68">
+      <c r="E67" s="82">
         <v>6.04</v>
       </c>
       <c r="F67" s="19"/>
@@ -9773,16 +9781,16 @@
       <c r="CX67" s="21"/>
       <c r="CY67" s="17"/>
     </row>
-    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="60"/>
+    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="79"/>
       <c r="B68" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="87">
+      <c r="C68" s="62">
         <v>5</v>
       </c>
-      <c r="D68" s="69"/>
-      <c r="E68" s="68"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="82"/>
       <c r="F68" s="19"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
@@ -9888,20 +9896,20 @@
       <c r="CX68" s="21"/>
       <c r="CY68" s="17"/>
     </row>
-    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="59" t="s">
+    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="78" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="87">
+      <c r="C69" s="62">
         <v>2</v>
       </c>
-      <c r="D69" s="69">
+      <c r="D69" s="81">
         <v>23.03</v>
       </c>
-      <c r="E69" s="68">
+      <c r="E69" s="82">
         <v>6.04</v>
       </c>
       <c r="F69" s="19"/>
@@ -10005,16 +10013,16 @@
       <c r="CX69" s="21"/>
       <c r="CY69" s="17"/>
     </row>
-    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="60"/>
+    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="79"/>
       <c r="B70" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="87">
+      <c r="C70" s="62">
         <v>1</v>
       </c>
-      <c r="D70" s="69"/>
-      <c r="E70" s="68"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="82"/>
       <c r="F70" s="19"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -10116,20 +10124,20 @@
       <c r="CX70" s="21"/>
       <c r="CY70" s="17"/>
     </row>
-    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="59" t="s">
+    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="78" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="87">
+      <c r="C71" s="62">
         <v>2</v>
       </c>
-      <c r="D71" s="69">
+      <c r="D71" s="81">
         <v>23.03</v>
       </c>
-      <c r="E71" s="68">
+      <c r="E71" s="82">
         <v>6.04</v>
       </c>
       <c r="F71" s="19"/>
@@ -10233,16 +10241,16 @@
       <c r="CX71" s="21"/>
       <c r="CY71" s="17"/>
     </row>
-    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="60"/>
+    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="79"/>
       <c r="B72" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="87">
+      <c r="C72" s="62">
         <v>2</v>
       </c>
-      <c r="D72" s="69"/>
-      <c r="E72" s="68"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="82"/>
       <c r="F72" s="19"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -10344,20 +10352,20 @@
       <c r="CX72" s="21"/>
       <c r="CY72" s="17"/>
     </row>
-    <row r="73" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A73" s="59" t="s">
+    <row r="73" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A73" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="87">
+      <c r="C73" s="62">
         <v>3</v>
       </c>
-      <c r="D73" s="69">
+      <c r="D73" s="81">
         <v>23.03</v>
       </c>
-      <c r="E73" s="68">
+      <c r="E73" s="82">
         <v>6.04</v>
       </c>
       <c r="F73" s="19"/>
@@ -10461,16 +10469,16 @@
       <c r="CX73" s="21"/>
       <c r="CY73" s="17"/>
     </row>
-    <row r="74" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A74" s="60"/>
+    <row r="74" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A74" s="79"/>
       <c r="B74" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="87">
+      <c r="C74" s="62">
         <v>3</v>
       </c>
-      <c r="D74" s="69"/>
-      <c r="E74" s="68"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="82"/>
       <c r="F74" s="19"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
@@ -10572,20 +10580,20 @@
       <c r="CX74" s="21"/>
       <c r="CY74" s="17"/>
     </row>
-    <row r="75" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A75" s="59" t="s">
+    <row r="75" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A75" s="78" t="s">
         <v>45</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="87">
+      <c r="C75" s="62">
         <v>1</v>
       </c>
-      <c r="D75" s="69">
+      <c r="D75" s="81">
         <v>23.03</v>
       </c>
-      <c r="E75" s="68">
+      <c r="E75" s="82">
         <v>6.04</v>
       </c>
       <c r="F75" s="19"/>
@@ -10687,16 +10695,16 @@
       <c r="CX75" s="21"/>
       <c r="CY75" s="17"/>
     </row>
-    <row r="76" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A76" s="60"/>
+    <row r="76" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A76" s="79"/>
       <c r="B76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="87">
+      <c r="C76" s="62">
         <v>3</v>
       </c>
-      <c r="D76" s="69"/>
-      <c r="E76" s="68"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="82"/>
       <c r="F76" s="19"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
@@ -10798,16 +10806,16 @@
       <c r="CX76" s="21"/>
       <c r="CY76" s="17"/>
     </row>
-    <row r="77" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="8"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="78">
+      <c r="C77" s="62"/>
+      <c r="D77" s="90">
         <v>44292</v>
       </c>
-      <c r="E77" s="79"/>
+      <c r="E77" s="94"/>
       <c r="F77" s="19"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
@@ -10909,21 +10917,21 @@
       <c r="CX77" s="21"/>
       <c r="CY77" s="17"/>
     </row>
-    <row r="78" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="85">
+      <c r="C78" s="60">
         <f>SUM(C86,C95,C106,C117,C79)</f>
         <v>66</v>
       </c>
-      <c r="D78" s="95" t="s">
+      <c r="D78" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="91">
+      <c r="E78" s="66">
         <f>SUM(E86,E95,E106,E117,E79)</f>
         <v>84</v>
       </c>
@@ -11026,21 +11034,21 @@
       <c r="CX78" s="34"/>
       <c r="CY78" s="17"/>
     </row>
-    <row r="79" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="86">
+      <c r="C79" s="61">
         <f>SUM(C82,C84,C80)</f>
         <v>6</v>
       </c>
-      <c r="D79" s="96" t="s">
+      <c r="D79" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="92">
+      <c r="E79" s="67">
         <f>SUM(C81,C83,C85)</f>
         <v>6</v>
       </c>
@@ -11143,20 +11151,20 @@
       <c r="CX79" s="30"/>
       <c r="CY79" s="17"/>
     </row>
-    <row r="80" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A80" s="59" t="s">
+    <row r="80" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A80" s="78" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="87">
+      <c r="C80" s="62">
         <v>3</v>
       </c>
-      <c r="D80" s="61">
+      <c r="D80" s="80">
         <v>6.04</v>
       </c>
-      <c r="E80" s="63">
+      <c r="E80" s="89">
         <v>4.05</v>
       </c>
       <c r="F80" s="19"/>
@@ -11264,16 +11272,16 @@
       <c r="CX80" s="21"/>
       <c r="CY80" s="17"/>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A81" s="60"/>
+    <row r="81" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A81" s="79"/>
       <c r="B81" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="87">
+      <c r="C81" s="62">
         <v>4</v>
       </c>
-      <c r="D81" s="62"/>
-      <c r="E81" s="64"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="88"/>
       <c r="F81" s="19"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
@@ -11379,20 +11387,20 @@
       <c r="CX81" s="21"/>
       <c r="CY81" s="17"/>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A82" s="59" t="s">
+    <row r="82" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A82" s="78" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="87">
+      <c r="C82" s="62">
         <v>1</v>
       </c>
-      <c r="D82" s="61">
+      <c r="D82" s="80">
         <v>6.04</v>
       </c>
-      <c r="E82" s="68">
+      <c r="E82" s="82">
         <v>4.05</v>
       </c>
       <c r="F82" s="19"/>
@@ -11496,16 +11504,16 @@
       <c r="CX82" s="21"/>
       <c r="CY82" s="17"/>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A83" s="60"/>
+    <row r="83" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A83" s="79"/>
       <c r="B83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="87">
+      <c r="C83" s="62">
         <v>1</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="68"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="82"/>
       <c r="F83" s="19"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
@@ -11607,20 +11615,20 @@
       <c r="CX83" s="21"/>
       <c r="CY83" s="17"/>
     </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A84" s="59" t="s">
+    <row r="84" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A84" s="78" t="s">
         <v>60</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="87">
+      <c r="C84" s="62">
         <v>2</v>
       </c>
-      <c r="D84" s="61">
+      <c r="D84" s="80">
         <v>6.04</v>
       </c>
-      <c r="E84" s="63">
+      <c r="E84" s="89">
         <v>4.05</v>
       </c>
       <c r="F84" s="19"/>
@@ -11724,16 +11732,16 @@
       <c r="CX84" s="21"/>
       <c r="CY84" s="17"/>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A85" s="60"/>
+    <row r="85" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A85" s="79"/>
       <c r="B85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="87">
+      <c r="C85" s="62">
         <v>1</v>
       </c>
-      <c r="D85" s="62"/>
-      <c r="E85" s="64"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="88"/>
       <c r="F85" s="19"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
@@ -11835,21 +11843,21 @@
       <c r="CX85" s="21"/>
       <c r="CY85" s="17"/>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="86">
+      <c r="C86" s="61">
         <f>SUM(C87,C89,C91,C93)</f>
         <v>20</v>
       </c>
-      <c r="D86" s="97" t="s">
+      <c r="D86" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="92">
+      <c r="E86" s="67">
         <f>SUM(C88,C90,C92,C94)</f>
         <v>27</v>
       </c>
@@ -11952,8 +11960,8 @@
       <c r="CX86" s="30"/>
       <c r="CY86" s="17"/>
     </row>
-    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="59" t="s">
+    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="78" t="s">
         <v>54</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -11963,10 +11971,10 @@
         <f t="shared" ref="C87:C94" si="1">SUM(F87:CX87)</f>
         <v>9</v>
       </c>
-      <c r="D87" s="82">
+      <c r="D87" s="84">
         <v>6.04</v>
       </c>
-      <c r="E87" s="83">
+      <c r="E87" s="85">
         <v>4.05</v>
       </c>
       <c r="F87" s="54"/>
@@ -12084,8 +12092,8 @@
       <c r="CX87" s="53"/>
       <c r="CY87" s="17"/>
     </row>
-    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="60"/>
+    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="79"/>
       <c r="B88" s="6" t="s">
         <v>8</v>
       </c>
@@ -12093,8 +12101,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D88" s="82"/>
-      <c r="E88" s="83"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="85"/>
       <c r="F88" s="54"/>
       <c r="G88" s="52"/>
       <c r="H88" s="52"/>
@@ -12210,8 +12218,8 @@
       <c r="CX88" s="53"/>
       <c r="CY88" s="17"/>
     </row>
-    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="59" t="s">
+    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="78" t="s">
         <v>63</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -12221,10 +12229,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D89" s="82">
+      <c r="D89" s="84">
         <v>6.04</v>
       </c>
-      <c r="E89" s="83">
+      <c r="E89" s="85">
         <v>4.05</v>
       </c>
       <c r="F89" s="54"/>
@@ -12336,8 +12344,8 @@
       <c r="CX89" s="53"/>
       <c r="CY89" s="17"/>
     </row>
-    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="60"/>
+    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="79"/>
       <c r="B90" s="6" t="s">
         <v>8</v>
       </c>
@@ -12345,8 +12353,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D90" s="82"/>
-      <c r="E90" s="83"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="85"/>
       <c r="F90" s="54"/>
       <c r="G90" s="52"/>
       <c r="H90" s="52"/>
@@ -12456,8 +12464,8 @@
       <c r="CX90" s="53"/>
       <c r="CY90" s="17"/>
     </row>
-    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="59" t="s">
+    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="78" t="s">
         <v>64</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -12467,10 +12475,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D91" s="82">
+      <c r="D91" s="84">
         <v>6.04</v>
       </c>
-      <c r="E91" s="83">
+      <c r="E91" s="85">
         <v>4.05</v>
       </c>
       <c r="F91" s="54"/>
@@ -12574,8 +12582,8 @@
       <c r="CX91" s="53"/>
       <c r="CY91" s="17"/>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A92" s="60"/>
+    <row r="92" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A92" s="79"/>
       <c r="B92" s="6" t="s">
         <v>8</v>
       </c>
@@ -12583,8 +12591,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D92" s="82"/>
-      <c r="E92" s="83"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="85"/>
       <c r="F92" s="54"/>
       <c r="G92" s="52"/>
       <c r="H92" s="52"/>
@@ -12686,8 +12694,8 @@
       <c r="CX92" s="53"/>
       <c r="CY92" s="17"/>
     </row>
-    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="59" t="s">
+    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="78" t="s">
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -12697,10 +12705,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D93" s="82">
+      <c r="D93" s="84">
         <v>6.04</v>
       </c>
-      <c r="E93" s="83">
+      <c r="E93" s="85">
         <v>4.05</v>
       </c>
       <c r="F93" s="54"/>
@@ -12804,8 +12812,8 @@
       <c r="CX93" s="53"/>
       <c r="CY93" s="17"/>
     </row>
-    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="60"/>
+    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="79"/>
       <c r="B94" s="6" t="s">
         <v>8</v>
       </c>
@@ -12813,8 +12821,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D94" s="82"/>
-      <c r="E94" s="83"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="85"/>
       <c r="F94" s="54"/>
       <c r="G94" s="52"/>
       <c r="H94" s="52"/>
@@ -12916,20 +12924,20 @@
       <c r="CX94" s="53"/>
       <c r="CY94" s="17"/>
     </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="86">
+      <c r="C95" s="61">
         <v>17.5</v>
       </c>
-      <c r="D95" s="98" t="s">
+      <c r="D95" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="92">
+      <c r="E95" s="67">
         <v>22</v>
       </c>
       <c r="F95" s="28"/>
@@ -13031,20 +13039,20 @@
       <c r="CX95" s="30"/>
       <c r="CY95" s="17"/>
     </row>
-    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="59" t="s">
+    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="78" t="s">
         <v>71</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="87">
+      <c r="C96" s="62">
         <v>4</v>
       </c>
-      <c r="D96" s="61">
+      <c r="D96" s="80">
         <v>6.04</v>
       </c>
-      <c r="E96" s="65">
+      <c r="E96" s="87">
         <v>4.05</v>
       </c>
       <c r="F96" s="19"/>
@@ -13150,16 +13158,16 @@
       <c r="CX96" s="21"/>
       <c r="CY96" s="10"/>
     </row>
-    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="60"/>
+    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="79"/>
       <c r="B97" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="87">
+      <c r="C97" s="62">
         <v>5</v>
       </c>
-      <c r="D97" s="62"/>
-      <c r="E97" s="63"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="89"/>
       <c r="F97" s="19"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
@@ -13263,20 +13271,20 @@
       <c r="CX97" s="21"/>
       <c r="CY97" s="10"/>
     </row>
-    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="59" t="s">
+    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="78" t="s">
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="87">
+      <c r="C98" s="62">
         <v>5</v>
       </c>
-      <c r="D98" s="61">
+      <c r="D98" s="80">
         <v>6.04</v>
       </c>
-      <c r="E98" s="63">
+      <c r="E98" s="89">
         <v>4.05</v>
       </c>
       <c r="F98" s="19"/>
@@ -13386,16 +13394,16 @@
       <c r="CX98" s="21"/>
       <c r="CY98" s="10"/>
     </row>
-    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="60"/>
+    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="79"/>
       <c r="B99" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="87">
+      <c r="C99" s="62">
         <v>7</v>
       </c>
-      <c r="D99" s="62"/>
-      <c r="E99" s="63"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="89"/>
       <c r="F99" s="19"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
@@ -13503,20 +13511,20 @@
       <c r="CX99" s="21"/>
       <c r="CY99" s="10"/>
     </row>
-    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="59" t="s">
+    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="78" t="s">
         <v>72</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="87">
+      <c r="C100" s="62">
         <v>2</v>
       </c>
-      <c r="D100" s="61">
+      <c r="D100" s="80">
         <v>6.04</v>
       </c>
-      <c r="E100" s="63">
+      <c r="E100" s="89">
         <v>4.05</v>
       </c>
       <c r="F100" s="19"/>
@@ -13624,16 +13632,16 @@
       <c r="CX100" s="21"/>
       <c r="CY100" s="10"/>
     </row>
-    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="60"/>
+    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="79"/>
       <c r="B101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="87">
+      <c r="C101" s="62">
         <v>2</v>
       </c>
-      <c r="D101" s="62"/>
-      <c r="E101" s="63"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="89"/>
       <c r="F101" s="19"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
@@ -13739,20 +13747,20 @@
       <c r="CX101" s="21"/>
       <c r="CY101" s="10"/>
     </row>
-    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="59" t="s">
+    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="78" t="s">
         <v>73</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="87">
+      <c r="C102" s="62">
         <v>6</v>
       </c>
-      <c r="D102" s="61">
+      <c r="D102" s="80">
         <v>6.04</v>
       </c>
-      <c r="E102" s="63">
+      <c r="E102" s="89">
         <v>4.05</v>
       </c>
       <c r="F102" s="19"/>
@@ -13860,16 +13868,16 @@
       <c r="CX102" s="21"/>
       <c r="CY102" s="10"/>
     </row>
-    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="60"/>
+    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="79"/>
       <c r="B103" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="87">
+      <c r="C103" s="62">
         <v>7.5</v>
       </c>
-      <c r="D103" s="62"/>
-      <c r="E103" s="64"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="88"/>
       <c r="F103" s="19"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
@@ -13975,20 +13983,20 @@
       <c r="CX103" s="21"/>
       <c r="CY103" s="10"/>
     </row>
-    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="59" t="s">
+    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="78" t="s">
         <v>74</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="87">
+      <c r="C104" s="62">
         <v>0.5</v>
       </c>
-      <c r="D104" s="61">
+      <c r="D104" s="80">
         <v>6.04</v>
       </c>
-      <c r="E104" s="65">
+      <c r="E104" s="87">
         <v>4.05</v>
       </c>
       <c r="F104" s="19"/>
@@ -14092,16 +14100,16 @@
       <c r="CX104" s="21"/>
       <c r="CY104" s="17"/>
     </row>
-    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="60"/>
+    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="79"/>
       <c r="B105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="87">
+      <c r="C105" s="62">
         <v>0.5</v>
       </c>
-      <c r="D105" s="62"/>
-      <c r="E105" s="64"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="88"/>
       <c r="F105" s="19"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
@@ -14203,21 +14211,21 @@
       <c r="CX105" s="21"/>
       <c r="CY105" s="17"/>
     </row>
-    <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="86">
+      <c r="C106" s="61">
         <f>SUM(C109,C111,C113,C115,C107)</f>
         <v>11.5</v>
       </c>
-      <c r="D106" s="96" t="s">
+      <c r="D106" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="92">
+      <c r="E106" s="67">
         <f>SUM(C108,C110,C112,C114,C116)</f>
         <v>14</v>
       </c>
@@ -14320,20 +14328,20 @@
       <c r="CX106" s="30"/>
       <c r="CY106" s="17"/>
     </row>
-    <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="59" t="s">
+    <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="78" t="s">
         <v>55</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="87">
+      <c r="C107" s="62">
         <v>2</v>
       </c>
-      <c r="D107" s="61">
+      <c r="D107" s="80">
         <v>6.04</v>
       </c>
-      <c r="E107" s="65">
+      <c r="E107" s="87">
         <v>4.05</v>
       </c>
       <c r="F107" s="19"/>
@@ -14437,17 +14445,17 @@
       <c r="CX107" s="21"/>
       <c r="CY107" s="17"/>
     </row>
-    <row r="108" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="60"/>
+    <row r="108" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="79"/>
       <c r="B108" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="87">
+      <c r="C108" s="62">
         <f>SUM(F108:BX108)</f>
         <v>2</v>
       </c>
-      <c r="D108" s="62"/>
-      <c r="E108" s="63"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="89"/>
       <c r="F108" s="19"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
@@ -14549,20 +14557,20 @@
       <c r="CX108" s="21"/>
       <c r="CY108" s="17"/>
     </row>
-    <row r="109" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="59" t="s">
+    <row r="109" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="78" t="s">
         <v>69</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="87">
+      <c r="C109" s="62">
         <v>3</v>
       </c>
-      <c r="D109" s="61">
+      <c r="D109" s="80">
         <v>6.04</v>
       </c>
-      <c r="E109" s="63">
+      <c r="E109" s="89">
         <v>4.05</v>
       </c>
       <c r="F109" s="19"/>
@@ -14670,16 +14678,16 @@
       <c r="CX109" s="21"/>
       <c r="CY109" s="10"/>
     </row>
-    <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="60"/>
+    <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="79"/>
       <c r="B110" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="87">
+      <c r="C110" s="62">
         <v>4.5</v>
       </c>
-      <c r="D110" s="62"/>
-      <c r="E110" s="63"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="89"/>
       <c r="F110" s="19"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
@@ -14785,20 +14793,20 @@
       <c r="CX110" s="21"/>
       <c r="CY110" s="10"/>
     </row>
-    <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="59" t="s">
+    <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="78" t="s">
         <v>56</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="87">
+      <c r="C111" s="62">
         <v>2</v>
       </c>
-      <c r="D111" s="61">
+      <c r="D111" s="80">
         <v>6.04</v>
       </c>
-      <c r="E111" s="81">
+      <c r="E111" s="86">
         <v>4.05</v>
       </c>
       <c r="F111" s="19"/>
@@ -14906,16 +14914,16 @@
       <c r="CX111" s="21"/>
       <c r="CY111" s="10"/>
     </row>
-    <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="60"/>
+    <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="79"/>
       <c r="B112" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="87">
+      <c r="C112" s="62">
         <v>2</v>
       </c>
-      <c r="D112" s="62"/>
-      <c r="E112" s="81"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="86"/>
       <c r="F112" s="19"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
@@ -15021,20 +15029,20 @@
       <c r="CX112" s="21"/>
       <c r="CY112" s="10"/>
     </row>
-    <row r="113" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="59" t="s">
+    <row r="113" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="78" t="s">
         <v>62</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="87">
+      <c r="C113" s="62">
         <v>3</v>
       </c>
-      <c r="D113" s="61">
+      <c r="D113" s="80">
         <v>6.04</v>
       </c>
-      <c r="E113" s="81">
+      <c r="E113" s="86">
         <v>4.05</v>
       </c>
       <c r="F113" s="19"/>
@@ -15144,16 +15152,16 @@
       <c r="CX113" s="21"/>
       <c r="CY113" s="10"/>
     </row>
-    <row r="114" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="60"/>
+    <row r="114" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="79"/>
       <c r="B114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="87">
+      <c r="C114" s="62">
         <v>3.5</v>
       </c>
-      <c r="D114" s="62"/>
-      <c r="E114" s="81"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="86"/>
       <c r="F114" s="19"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
@@ -15261,20 +15269,20 @@
       <c r="CX114" s="21"/>
       <c r="CY114" s="10"/>
     </row>
-    <row r="115" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="59" t="s">
+    <row r="115" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="78" t="s">
         <v>70</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C115" s="87">
+      <c r="C115" s="62">
         <v>1.5</v>
       </c>
-      <c r="D115" s="61">
+      <c r="D115" s="80">
         <v>6.04</v>
       </c>
-      <c r="E115" s="68">
+      <c r="E115" s="82">
         <v>4.05</v>
       </c>
       <c r="F115" s="19"/>
@@ -15380,16 +15388,16 @@
       <c r="CX115" s="21"/>
       <c r="CY115" s="17"/>
     </row>
-    <row r="116" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="60"/>
+    <row r="116" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="79"/>
       <c r="B116" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="87">
+      <c r="C116" s="62">
         <v>2</v>
       </c>
-      <c r="D116" s="62"/>
-      <c r="E116" s="68"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="82"/>
       <c r="F116" s="19"/>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
@@ -15493,21 +15501,21 @@
       <c r="CX116" s="21"/>
       <c r="CY116" s="17"/>
     </row>
-    <row r="117" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="86">
+      <c r="C117" s="61">
         <f>SUM(C120,C122,C124,C126,C118)</f>
         <v>11</v>
       </c>
-      <c r="D117" s="96" t="s">
+      <c r="D117" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="92">
+      <c r="E117" s="67">
         <f>SUM(C119,C121,C123,C125,C127)</f>
         <v>15</v>
       </c>
@@ -15610,20 +15618,20 @@
       <c r="CX117" s="30"/>
       <c r="CY117" s="17"/>
     </row>
-    <row r="118" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="59" t="s">
+    <row r="118" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="78" t="s">
         <v>57</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="87">
+      <c r="C118" s="62">
         <v>6</v>
       </c>
-      <c r="D118" s="61">
+      <c r="D118" s="80">
         <v>6.04</v>
       </c>
-      <c r="E118" s="68">
+      <c r="E118" s="82">
         <v>4.05</v>
       </c>
       <c r="F118" s="19"/>
@@ -15727,16 +15735,16 @@
       <c r="CX118" s="21"/>
       <c r="CY118" s="17"/>
     </row>
-    <row r="119" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="60"/>
+    <row r="119" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="79"/>
       <c r="B119" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="87">
+      <c r="C119" s="62">
         <v>5</v>
       </c>
-      <c r="D119" s="62"/>
-      <c r="E119" s="68"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="82"/>
       <c r="F119" s="19"/>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
@@ -15838,20 +15846,20 @@
       <c r="CX119" s="21"/>
       <c r="CY119" s="17"/>
     </row>
-    <row r="120" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="59" t="s">
+    <row r="120" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="78" t="s">
         <v>56</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="87">
+      <c r="C120" s="62">
         <v>1</v>
       </c>
-      <c r="D120" s="61">
+      <c r="D120" s="80">
         <v>6.04</v>
       </c>
-      <c r="E120" s="68">
+      <c r="E120" s="82">
         <v>4.05</v>
       </c>
       <c r="F120" s="19"/>
@@ -15955,16 +15963,16 @@
       <c r="CX120" s="21"/>
       <c r="CY120" s="17"/>
     </row>
-    <row r="121" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="60"/>
+    <row r="121" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="79"/>
       <c r="B121" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="87">
+      <c r="C121" s="62">
         <v>3</v>
       </c>
-      <c r="D121" s="62"/>
-      <c r="E121" s="68"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="82"/>
       <c r="F121" s="19"/>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
@@ -16066,20 +16074,20 @@
       <c r="CX121" s="21"/>
       <c r="CY121" s="17"/>
     </row>
-    <row r="122" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="59" t="s">
+    <row r="122" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="78" t="s">
         <v>58</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="87">
+      <c r="C122" s="62">
         <v>1.5</v>
       </c>
-      <c r="D122" s="61">
+      <c r="D122" s="80">
         <v>6.04</v>
       </c>
-      <c r="E122" s="68">
+      <c r="E122" s="82">
         <v>4.05</v>
       </c>
       <c r="F122" s="19"/>
@@ -16184,16 +16192,16 @@
       <c r="CX122" s="21"/>
       <c r="CY122" s="17"/>
     </row>
-    <row r="123" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="60"/>
+    <row r="123" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="79"/>
       <c r="B123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="87">
+      <c r="C123" s="62">
         <v>1.5</v>
       </c>
-      <c r="D123" s="62"/>
-      <c r="E123" s="68"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="82"/>
       <c r="F123" s="19"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
@@ -16299,20 +16307,20 @@
       <c r="CX123" s="21"/>
       <c r="CY123" s="17"/>
     </row>
-    <row r="124" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A124" s="59" t="s">
+    <row r="124" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A124" s="78" t="s">
         <v>59</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="87">
+      <c r="C124" s="62">
         <v>2</v>
       </c>
-      <c r="D124" s="61">
+      <c r="D124" s="80">
         <v>6.04</v>
       </c>
-      <c r="E124" s="68">
+      <c r="E124" s="82">
         <v>4.05</v>
       </c>
       <c r="F124" s="19"/>
@@ -16418,16 +16426,16 @@
       <c r="CX124" s="21"/>
       <c r="CY124" s="17"/>
     </row>
-    <row r="125" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A125" s="60"/>
+    <row r="125" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A125" s="79"/>
       <c r="B125" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="87">
+      <c r="C125" s="62">
         <v>2.5</v>
       </c>
-      <c r="D125" s="69"/>
-      <c r="E125" s="68"/>
+      <c r="D125" s="81"/>
+      <c r="E125" s="82"/>
       <c r="F125" s="19"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
@@ -16529,20 +16537,20 @@
       <c r="CX125" s="21"/>
       <c r="CY125" s="17"/>
     </row>
-    <row r="126" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="59" t="s">
+    <row r="126" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="78" t="s">
         <v>68</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="87">
+      <c r="C126" s="62">
         <v>0.5</v>
       </c>
-      <c r="D126" s="61">
+      <c r="D126" s="80">
         <v>6.04</v>
       </c>
-      <c r="E126" s="68">
+      <c r="E126" s="82">
         <v>4.05</v>
       </c>
       <c r="F126" s="19"/>
@@ -16645,16 +16653,16 @@
       <c r="CX126" s="21"/>
       <c r="CY126" s="17"/>
     </row>
-    <row r="127" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="60"/>
+    <row r="127" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="79"/>
       <c r="B127" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="87">
+      <c r="C127" s="62">
         <v>3</v>
       </c>
-      <c r="D127" s="69"/>
-      <c r="E127" s="68"/>
+      <c r="D127" s="81"/>
+      <c r="E127" s="82"/>
       <c r="F127" s="19"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
@@ -16755,16 +16763,16 @@
       <c r="CX127" s="21"/>
       <c r="CY127" s="17"/>
     </row>
-    <row r="128" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B128" s="8"/>
-      <c r="C128" s="87"/>
-      <c r="D128" s="78">
+      <c r="C128" s="62"/>
+      <c r="D128" s="90">
         <v>44320</v>
       </c>
-      <c r="E128" s="80"/>
+      <c r="E128" s="91"/>
       <c r="F128" s="19"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
@@ -16863,20 +16871,20 @@
       <c r="CX128" s="21"/>
       <c r="CY128" s="17"/>
     </row>
-    <row r="129" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C129" s="85" t="s">
+      <c r="C129" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="95" t="s">
+      <c r="D129" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="91" t="s">
+      <c r="E129" s="66" t="s">
         <v>7</v>
       </c>
       <c r="F129" s="32"/>
@@ -16978,20 +16986,20 @@
       <c r="CX129" s="34"/>
       <c r="CY129" s="17"/>
     </row>
-    <row r="130" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="86" t="s">
+      <c r="C130" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="96" t="s">
+      <c r="D130" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="92" t="s">
+      <c r="E130" s="67" t="s">
         <v>10</v>
       </c>
       <c r="F130" s="28"/>
@@ -17093,19 +17101,19 @@
       <c r="CX130" s="30"/>
       <c r="CY130" s="17"/>
     </row>
-    <row r="131" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A131" s="59"/>
+    <row r="131" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A131" s="78"/>
       <c r="B131" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="87" t="s">
+      <c r="C131" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="69">
+      <c r="D131" s="81">
         <v>4.05</v>
       </c>
-      <c r="E131" s="68">
-        <v>18.04</v>
+      <c r="E131" s="82">
+        <v>18.05</v>
       </c>
       <c r="F131" s="19"/>
       <c r="G131" s="20"/>
@@ -17206,16 +17214,16 @@
       <c r="CX131" s="21"/>
       <c r="CY131" s="17"/>
     </row>
-    <row r="132" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A132" s="60"/>
+    <row r="132" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A132" s="79"/>
       <c r="B132" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="87" t="s">
+      <c r="C132" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="69"/>
-      <c r="E132" s="68"/>
+      <c r="D132" s="81"/>
+      <c r="E132" s="82"/>
       <c r="F132" s="19"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
@@ -17315,20 +17323,20 @@
       <c r="CX132" s="21"/>
       <c r="CY132" s="17"/>
     </row>
-    <row r="133" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="86" t="s">
+      <c r="C133" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D133" s="96" t="s">
+      <c r="D133" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E133" s="92" t="s">
+      <c r="E133" s="67" t="s">
         <v>10</v>
       </c>
       <c r="F133" s="28"/>
@@ -17430,19 +17438,19 @@
       <c r="CX133" s="30"/>
       <c r="CY133" s="17"/>
     </row>
-    <row r="134" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A134" s="59"/>
+    <row r="134" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A134" s="78"/>
       <c r="B134" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C134" s="87" t="s">
+      <c r="C134" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="69">
+      <c r="D134" s="81">
         <v>4.05</v>
       </c>
-      <c r="E134" s="68">
-        <v>18.04</v>
+      <c r="E134" s="82">
+        <v>18.05</v>
       </c>
       <c r="F134" s="19"/>
       <c r="G134" s="20"/>
@@ -17543,16 +17551,16 @@
       <c r="CX134" s="21"/>
       <c r="CY134" s="17"/>
     </row>
-    <row r="135" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A135" s="60"/>
+    <row r="135" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A135" s="79"/>
       <c r="B135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="87" t="s">
+      <c r="C135" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="69"/>
-      <c r="E135" s="68"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="82"/>
       <c r="F135" s="19"/>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
@@ -17652,20 +17660,20 @@
       <c r="CX135" s="21"/>
       <c r="CY135" s="17"/>
     </row>
-    <row r="136" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C136" s="86" t="s">
+      <c r="C136" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D136" s="96" t="s">
+      <c r="D136" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="92" t="s">
+      <c r="E136" s="67" t="s">
         <v>10</v>
       </c>
       <c r="F136" s="28"/>
@@ -17767,19 +17775,19 @@
       <c r="CX136" s="30"/>
       <c r="CY136" s="17"/>
     </row>
-    <row r="137" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A137" s="59"/>
+    <row r="137" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A137" s="78"/>
       <c r="B137" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="87" t="s">
+      <c r="C137" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="69">
+      <c r="D137" s="81">
         <v>4.05</v>
       </c>
-      <c r="E137" s="68">
-        <v>18.04</v>
+      <c r="E137" s="82">
+        <v>18.05</v>
       </c>
       <c r="F137" s="19"/>
       <c r="G137" s="20"/>
@@ -17880,16 +17888,16 @@
       <c r="CX137" s="21"/>
       <c r="CY137" s="17"/>
     </row>
-    <row r="138" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A138" s="60"/>
+    <row r="138" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A138" s="79"/>
       <c r="B138" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="87" t="s">
+      <c r="C138" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="69"/>
-      <c r="E138" s="68"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="82"/>
       <c r="F138" s="19"/>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -17989,20 +17997,20 @@
       <c r="CX138" s="21"/>
       <c r="CY138" s="17"/>
     </row>
-    <row r="139" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="86" t="s">
+      <c r="C139" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D139" s="96" t="s">
+      <c r="D139" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E139" s="92" t="s">
+      <c r="E139" s="67" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="28"/>
@@ -18104,19 +18112,21 @@
       <c r="CX139" s="30"/>
       <c r="CY139" s="17"/>
     </row>
-    <row r="140" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A140" s="59"/>
+    <row r="140" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A140" s="78" t="s">
+        <v>76</v>
+      </c>
       <c r="B140" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C140" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" s="69">
+      <c r="C140" s="62">
+        <v>2</v>
+      </c>
+      <c r="D140" s="81">
         <v>4.05</v>
       </c>
-      <c r="E140" s="68">
-        <v>18.04</v>
+      <c r="E140" s="82">
+        <v>18.05</v>
       </c>
       <c r="F140" s="19"/>
       <c r="G140" s="20"/>
@@ -18191,13 +18201,19 @@
       <c r="BX140" s="20"/>
       <c r="BY140" s="20"/>
       <c r="BZ140" s="20"/>
-      <c r="CA140" s="20"/>
-      <c r="CB140" s="20"/>
+      <c r="CA140" s="42">
+        <v>1</v>
+      </c>
+      <c r="CB140" s="42">
+        <v>1</v>
+      </c>
       <c r="CC140" s="20"/>
       <c r="CD140" s="20"/>
       <c r="CE140" s="20"/>
       <c r="CF140" s="20"/>
-      <c r="CG140" s="20"/>
+      <c r="CG140" s="42">
+        <v>2</v>
+      </c>
       <c r="CH140" s="20"/>
       <c r="CI140" s="20"/>
       <c r="CJ140" s="20"/>
@@ -18217,16 +18233,16 @@
       <c r="CX140" s="21"/>
       <c r="CY140" s="17"/>
     </row>
-    <row r="141" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A141" s="60"/>
+    <row r="141" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A141" s="79"/>
       <c r="B141" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="69"/>
-      <c r="E141" s="68"/>
+      <c r="C141" s="62">
+        <v>4</v>
+      </c>
+      <c r="D141" s="81"/>
+      <c r="E141" s="82"/>
       <c r="F141" s="19"/>
       <c r="G141" s="20"/>
       <c r="H141" s="20"/>
@@ -18300,13 +18316,19 @@
       <c r="BX141" s="20"/>
       <c r="BY141" s="20"/>
       <c r="BZ141" s="20"/>
-      <c r="CA141" s="20"/>
-      <c r="CB141" s="20"/>
+      <c r="CA141" s="41">
+        <v>1</v>
+      </c>
+      <c r="CB141" s="41">
+        <v>1</v>
+      </c>
       <c r="CC141" s="20"/>
       <c r="CD141" s="20"/>
       <c r="CE141" s="20"/>
       <c r="CF141" s="20"/>
-      <c r="CG141" s="20"/>
+      <c r="CG141" s="41">
+        <v>2</v>
+      </c>
       <c r="CH141" s="20"/>
       <c r="CI141" s="20"/>
       <c r="CJ141" s="20"/>
@@ -18326,135 +18348,141 @@
       <c r="CX141" s="21"/>
       <c r="CY141" s="17"/>
     </row>
-    <row r="142" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A142" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="28"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="29"/>
-      <c r="I142" s="29"/>
-      <c r="J142" s="29"/>
-      <c r="K142" s="29"/>
-      <c r="L142" s="29"/>
-      <c r="M142" s="29"/>
-      <c r="N142" s="29"/>
-      <c r="O142" s="29"/>
-      <c r="P142" s="29"/>
-      <c r="Q142" s="29"/>
-      <c r="R142" s="29"/>
-      <c r="S142" s="29"/>
-      <c r="T142" s="29"/>
-      <c r="U142" s="29"/>
-      <c r="V142" s="29"/>
-      <c r="W142" s="29"/>
-      <c r="X142" s="29"/>
-      <c r="Y142" s="29"/>
-      <c r="Z142" s="29"/>
-      <c r="AA142" s="29"/>
-      <c r="AB142" s="29"/>
-      <c r="AC142" s="29"/>
-      <c r="AD142" s="29"/>
-      <c r="AE142" s="29"/>
-      <c r="AF142" s="29"/>
-      <c r="AG142" s="29"/>
-      <c r="AH142" s="29"/>
-      <c r="AI142" s="29"/>
-      <c r="AJ142" s="29"/>
-      <c r="AK142" s="29"/>
-      <c r="AL142" s="29"/>
-      <c r="AM142" s="29"/>
-      <c r="AN142" s="29"/>
-      <c r="AO142" s="29"/>
-      <c r="AP142" s="29"/>
-      <c r="AQ142" s="29"/>
-      <c r="AR142" s="29"/>
-      <c r="AS142" s="29"/>
-      <c r="AT142" s="29"/>
-      <c r="AU142" s="29"/>
-      <c r="AV142" s="29"/>
-      <c r="AW142" s="29"/>
-      <c r="AX142" s="29"/>
-      <c r="AY142" s="29"/>
-      <c r="AZ142" s="29"/>
-      <c r="BA142" s="29"/>
-      <c r="BB142" s="29"/>
-      <c r="BC142" s="29"/>
-      <c r="BD142" s="29"/>
-      <c r="BE142" s="29"/>
-      <c r="BF142" s="29"/>
-      <c r="BG142" s="29"/>
-      <c r="BH142" s="29"/>
-      <c r="BI142" s="29"/>
-      <c r="BJ142" s="29"/>
-      <c r="BK142" s="29"/>
-      <c r="BL142" s="29"/>
-      <c r="BM142" s="29"/>
-      <c r="BN142" s="29"/>
-      <c r="BO142" s="29"/>
-      <c r="BP142" s="29"/>
-      <c r="BQ142" s="29"/>
-      <c r="BR142" s="29"/>
-      <c r="BS142" s="29"/>
-      <c r="BT142" s="29"/>
-      <c r="BU142" s="29"/>
-      <c r="BV142" s="29"/>
-      <c r="BW142" s="29"/>
-      <c r="BX142" s="29"/>
-      <c r="BY142" s="29"/>
-      <c r="BZ142" s="29"/>
-      <c r="CA142" s="29"/>
-      <c r="CB142" s="29"/>
-      <c r="CC142" s="29"/>
-      <c r="CD142" s="29"/>
-      <c r="CE142" s="29"/>
-      <c r="CF142" s="29"/>
-      <c r="CG142" s="29"/>
-      <c r="CH142" s="29"/>
-      <c r="CI142" s="29"/>
-      <c r="CJ142" s="29"/>
-      <c r="CK142" s="29"/>
-      <c r="CL142" s="29"/>
-      <c r="CM142" s="29"/>
-      <c r="CN142" s="29"/>
-      <c r="CO142" s="29"/>
-      <c r="CP142" s="29"/>
-      <c r="CQ142" s="29"/>
-      <c r="CR142" s="29"/>
-      <c r="CS142" s="29"/>
-      <c r="CT142" s="29"/>
-      <c r="CU142" s="29"/>
-      <c r="CV142" s="29"/>
-      <c r="CW142" s="29"/>
-      <c r="CX142" s="30"/>
+    <row r="142" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="62">
+        <v>5</v>
+      </c>
+      <c r="D142" s="81">
+        <v>4.05</v>
+      </c>
+      <c r="E142" s="82">
+        <v>18.05</v>
+      </c>
+      <c r="F142" s="19"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="20"/>
+      <c r="O142" s="20"/>
+      <c r="P142" s="20"/>
+      <c r="Q142" s="20"/>
+      <c r="R142" s="20"/>
+      <c r="S142" s="20"/>
+      <c r="T142" s="20"/>
+      <c r="U142" s="20"/>
+      <c r="V142" s="20"/>
+      <c r="W142" s="20"/>
+      <c r="X142" s="20"/>
+      <c r="Y142" s="20"/>
+      <c r="Z142" s="20"/>
+      <c r="AA142" s="20"/>
+      <c r="AB142" s="20"/>
+      <c r="AC142" s="20"/>
+      <c r="AD142" s="20"/>
+      <c r="AE142" s="20"/>
+      <c r="AF142" s="20"/>
+      <c r="AG142" s="20"/>
+      <c r="AH142" s="20"/>
+      <c r="AI142" s="20"/>
+      <c r="AJ142" s="20"/>
+      <c r="AK142" s="20"/>
+      <c r="AL142" s="20"/>
+      <c r="AM142" s="20"/>
+      <c r="AN142" s="20"/>
+      <c r="AO142" s="20"/>
+      <c r="AP142" s="20"/>
+      <c r="AQ142" s="20"/>
+      <c r="AR142" s="20"/>
+      <c r="AS142" s="20"/>
+      <c r="AT142" s="20"/>
+      <c r="AU142" s="20"/>
+      <c r="AV142" s="20"/>
+      <c r="AW142" s="20"/>
+      <c r="AX142" s="20"/>
+      <c r="AY142" s="20"/>
+      <c r="AZ142" s="20"/>
+      <c r="BA142" s="20"/>
+      <c r="BB142" s="20"/>
+      <c r="BC142" s="20"/>
+      <c r="BD142" s="20"/>
+      <c r="BE142" s="20"/>
+      <c r="BF142" s="20"/>
+      <c r="BG142" s="20"/>
+      <c r="BH142" s="20"/>
+      <c r="BI142" s="20"/>
+      <c r="BJ142" s="20"/>
+      <c r="BK142" s="20"/>
+      <c r="BL142" s="20"/>
+      <c r="BM142" s="20"/>
+      <c r="BN142" s="20"/>
+      <c r="BO142" s="20"/>
+      <c r="BP142" s="20"/>
+      <c r="BQ142" s="20"/>
+      <c r="BR142" s="20"/>
+      <c r="BS142" s="20"/>
+      <c r="BT142" s="20"/>
+      <c r="BU142" s="20"/>
+      <c r="BV142" s="20"/>
+      <c r="BW142" s="20"/>
+      <c r="BX142" s="20"/>
+      <c r="BY142" s="20"/>
+      <c r="BZ142" s="20"/>
+      <c r="CA142" s="20"/>
+      <c r="CB142" s="42">
+        <v>1</v>
+      </c>
+      <c r="CC142" s="20"/>
+      <c r="CD142" s="20"/>
+      <c r="CE142" s="20"/>
+      <c r="CF142" s="20"/>
+      <c r="CG142" s="42">
+        <v>1</v>
+      </c>
+      <c r="CH142" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="CI142" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="CJ142" s="20"/>
+      <c r="CK142" s="42">
+        <v>1</v>
+      </c>
+      <c r="CL142" s="20"/>
+      <c r="CM142" s="20"/>
+      <c r="CN142" s="20"/>
+      <c r="CO142" s="20"/>
+      <c r="CP142" s="20"/>
+      <c r="CQ142" s="20"/>
+      <c r="CR142" s="20"/>
+      <c r="CS142" s="20"/>
+      <c r="CT142" s="20"/>
+      <c r="CU142" s="20"/>
+      <c r="CV142" s="20"/>
+      <c r="CW142" s="20"/>
+      <c r="CX142" s="21"/>
       <c r="CY142" s="17"/>
     </row>
-    <row r="143" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A143" s="59"/>
+    <row r="143" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="79"/>
       <c r="B143" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="69">
-        <v>4.05</v>
-      </c>
-      <c r="E143" s="68">
-        <v>18.04</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C143" s="62">
+        <v>4.5</v>
+      </c>
+      <c r="D143" s="81"/>
+      <c r="E143" s="82"/>
       <c r="F143" s="19"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -18529,16 +18557,26 @@
       <c r="BY143" s="20"/>
       <c r="BZ143" s="20"/>
       <c r="CA143" s="20"/>
-      <c r="CB143" s="20"/>
+      <c r="CB143" s="41">
+        <v>1</v>
+      </c>
       <c r="CC143" s="20"/>
       <c r="CD143" s="20"/>
       <c r="CE143" s="20"/>
       <c r="CF143" s="20"/>
-      <c r="CG143" s="20"/>
-      <c r="CH143" s="20"/>
-      <c r="CI143" s="20"/>
+      <c r="CG143" s="41">
+        <v>1</v>
+      </c>
+      <c r="CH143" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="CI143" s="41">
+        <v>1</v>
+      </c>
       <c r="CJ143" s="20"/>
-      <c r="CK143" s="20"/>
+      <c r="CK143" s="41">
+        <v>1</v>
+      </c>
       <c r="CL143" s="20"/>
       <c r="CM143" s="20"/>
       <c r="CN143" s="20"/>
@@ -18554,16 +18592,22 @@
       <c r="CX143" s="21"/>
       <c r="CY143" s="17"/>
     </row>
-    <row r="144" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A144" s="60"/>
+    <row r="144" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="78" t="s">
+        <v>77</v>
+      </c>
       <c r="B144" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" s="69"/>
-      <c r="E144" s="68"/>
+        <v>6</v>
+      </c>
+      <c r="C144" s="62">
+        <v>1</v>
+      </c>
+      <c r="D144" s="81">
+        <v>4.05</v>
+      </c>
+      <c r="E144" s="82">
+        <v>18.05</v>
+      </c>
       <c r="F144" s="19"/>
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
@@ -18648,7 +18692,9 @@
       <c r="CI144" s="20"/>
       <c r="CJ144" s="20"/>
       <c r="CK144" s="20"/>
-      <c r="CL144" s="20"/>
+      <c r="CL144" s="42">
+        <v>1</v>
+      </c>
       <c r="CM144" s="20"/>
       <c r="CN144" s="20"/>
       <c r="CO144" s="20"/>
@@ -18663,16 +18709,16 @@
       <c r="CX144" s="21"/>
       <c r="CY144" s="17"/>
     </row>
-    <row r="145" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A145" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="87"/>
-      <c r="D145" s="66">
-        <v>44334</v>
-      </c>
-      <c r="E145" s="67"/>
+    <row r="145" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="79"/>
+      <c r="B145" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="62">
+        <v>1</v>
+      </c>
+      <c r="D145" s="81"/>
+      <c r="E145" s="82"/>
       <c r="F145" s="19"/>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
@@ -18757,7 +18803,9 @@
       <c r="CI145" s="20"/>
       <c r="CJ145" s="20"/>
       <c r="CK145" s="20"/>
-      <c r="CL145" s="20"/>
+      <c r="CL145" s="41">
+        <v>1</v>
+      </c>
       <c r="CM145" s="20"/>
       <c r="CN145" s="20"/>
       <c r="CO145" s="20"/>
@@ -18772,250 +18820,244 @@
       <c r="CX145" s="21"/>
       <c r="CY145" s="17"/>
     </row>
-    <row r="146" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A146" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D146" s="95" t="s">
+    <row r="146" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E146" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" s="32"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="33"/>
-      <c r="K146" s="33"/>
-      <c r="L146" s="33"/>
-      <c r="M146" s="33"/>
-      <c r="N146" s="33"/>
-      <c r="O146" s="33"/>
-      <c r="P146" s="33"/>
-      <c r="Q146" s="33"/>
-      <c r="R146" s="33"/>
-      <c r="S146" s="33"/>
-      <c r="T146" s="33"/>
-      <c r="U146" s="33"/>
-      <c r="V146" s="33"/>
-      <c r="W146" s="33"/>
-      <c r="X146" s="33"/>
-      <c r="Y146" s="33"/>
-      <c r="Z146" s="33"/>
-      <c r="AA146" s="33"/>
-      <c r="AB146" s="33"/>
-      <c r="AC146" s="33"/>
-      <c r="AD146" s="33"/>
-      <c r="AE146" s="33"/>
-      <c r="AF146" s="33"/>
-      <c r="AG146" s="33"/>
-      <c r="AH146" s="33"/>
-      <c r="AI146" s="33"/>
-      <c r="AJ146" s="33"/>
-      <c r="AK146" s="33"/>
-      <c r="AL146" s="33"/>
-      <c r="AM146" s="33"/>
-      <c r="AN146" s="33"/>
-      <c r="AO146" s="33"/>
-      <c r="AP146" s="33"/>
-      <c r="AQ146" s="33"/>
-      <c r="AR146" s="33"/>
-      <c r="AS146" s="33"/>
-      <c r="AT146" s="33"/>
-      <c r="AU146" s="33"/>
-      <c r="AV146" s="33"/>
-      <c r="AW146" s="33"/>
-      <c r="AX146" s="33"/>
-      <c r="AY146" s="33"/>
-      <c r="AZ146" s="33"/>
-      <c r="BA146" s="33"/>
-      <c r="BB146" s="33"/>
-      <c r="BC146" s="33"/>
-      <c r="BD146" s="33"/>
-      <c r="BE146" s="33"/>
-      <c r="BF146" s="33"/>
-      <c r="BG146" s="33"/>
-      <c r="BH146" s="33"/>
-      <c r="BI146" s="33"/>
-      <c r="BJ146" s="33"/>
-      <c r="BK146" s="33"/>
-      <c r="BL146" s="33"/>
-      <c r="BM146" s="33"/>
-      <c r="BN146" s="33"/>
-      <c r="BO146" s="33"/>
-      <c r="BP146" s="33"/>
-      <c r="BQ146" s="33"/>
-      <c r="BR146" s="33"/>
-      <c r="BS146" s="33"/>
-      <c r="BT146" s="33"/>
-      <c r="BU146" s="33"/>
-      <c r="BV146" s="33"/>
-      <c r="BW146" s="33"/>
-      <c r="BX146" s="33"/>
-      <c r="BY146" s="33"/>
-      <c r="BZ146" s="33"/>
-      <c r="CA146" s="33"/>
-      <c r="CB146" s="33"/>
-      <c r="CC146" s="33"/>
-      <c r="CD146" s="33"/>
-      <c r="CE146" s="33"/>
-      <c r="CF146" s="33"/>
-      <c r="CG146" s="33"/>
-      <c r="CH146" s="33"/>
-      <c r="CI146" s="33"/>
-      <c r="CJ146" s="33"/>
-      <c r="CK146" s="33"/>
-      <c r="CL146" s="33"/>
-      <c r="CM146" s="33"/>
-      <c r="CN146" s="33"/>
-      <c r="CO146" s="33"/>
-      <c r="CP146" s="33"/>
-      <c r="CQ146" s="33"/>
-      <c r="CR146" s="33"/>
-      <c r="CS146" s="33"/>
-      <c r="CT146" s="33"/>
-      <c r="CU146" s="33"/>
-      <c r="CV146" s="33"/>
-      <c r="CW146" s="33"/>
-      <c r="CX146" s="34"/>
+      <c r="E146" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="28"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
+      <c r="M146" s="29"/>
+      <c r="N146" s="29"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="29"/>
+      <c r="Q146" s="29"/>
+      <c r="R146" s="29"/>
+      <c r="S146" s="29"/>
+      <c r="T146" s="29"/>
+      <c r="U146" s="29"/>
+      <c r="V146" s="29"/>
+      <c r="W146" s="29"/>
+      <c r="X146" s="29"/>
+      <c r="Y146" s="29"/>
+      <c r="Z146" s="29"/>
+      <c r="AA146" s="29"/>
+      <c r="AB146" s="29"/>
+      <c r="AC146" s="29"/>
+      <c r="AD146" s="29"/>
+      <c r="AE146" s="29"/>
+      <c r="AF146" s="29"/>
+      <c r="AG146" s="29"/>
+      <c r="AH146" s="29"/>
+      <c r="AI146" s="29"/>
+      <c r="AJ146" s="29"/>
+      <c r="AK146" s="29"/>
+      <c r="AL146" s="29"/>
+      <c r="AM146" s="29"/>
+      <c r="AN146" s="29"/>
+      <c r="AO146" s="29"/>
+      <c r="AP146" s="29"/>
+      <c r="AQ146" s="29"/>
+      <c r="AR146" s="29"/>
+      <c r="AS146" s="29"/>
+      <c r="AT146" s="29"/>
+      <c r="AU146" s="29"/>
+      <c r="AV146" s="29"/>
+      <c r="AW146" s="29"/>
+      <c r="AX146" s="29"/>
+      <c r="AY146" s="29"/>
+      <c r="AZ146" s="29"/>
+      <c r="BA146" s="29"/>
+      <c r="BB146" s="29"/>
+      <c r="BC146" s="29"/>
+      <c r="BD146" s="29"/>
+      <c r="BE146" s="29"/>
+      <c r="BF146" s="29"/>
+      <c r="BG146" s="29"/>
+      <c r="BH146" s="29"/>
+      <c r="BI146" s="29"/>
+      <c r="BJ146" s="29"/>
+      <c r="BK146" s="29"/>
+      <c r="BL146" s="29"/>
+      <c r="BM146" s="29"/>
+      <c r="BN146" s="29"/>
+      <c r="BO146" s="29"/>
+      <c r="BP146" s="29"/>
+      <c r="BQ146" s="29"/>
+      <c r="BR146" s="29"/>
+      <c r="BS146" s="29"/>
+      <c r="BT146" s="29"/>
+      <c r="BU146" s="29"/>
+      <c r="BV146" s="29"/>
+      <c r="BW146" s="29"/>
+      <c r="BX146" s="29"/>
+      <c r="BY146" s="29"/>
+      <c r="BZ146" s="29"/>
+      <c r="CA146" s="29"/>
+      <c r="CB146" s="29"/>
+      <c r="CC146" s="29"/>
+      <c r="CD146" s="29"/>
+      <c r="CE146" s="29"/>
+      <c r="CF146" s="29"/>
+      <c r="CG146" s="29"/>
+      <c r="CH146" s="29"/>
+      <c r="CI146" s="29"/>
+      <c r="CJ146" s="29"/>
+      <c r="CK146" s="29"/>
+      <c r="CL146" s="29"/>
+      <c r="CM146" s="29"/>
+      <c r="CN146" s="29"/>
+      <c r="CO146" s="29"/>
+      <c r="CP146" s="29"/>
+      <c r="CQ146" s="29"/>
+      <c r="CR146" s="29"/>
+      <c r="CS146" s="29"/>
+      <c r="CT146" s="29"/>
+      <c r="CU146" s="29"/>
+      <c r="CV146" s="29"/>
+      <c r="CW146" s="29"/>
+      <c r="CX146" s="30"/>
       <c r="CY146" s="17"/>
     </row>
-    <row r="147" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A147" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="28"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="29"/>
-      <c r="I147" s="29"/>
-      <c r="J147" s="29"/>
-      <c r="K147" s="29"/>
-      <c r="L147" s="29"/>
-      <c r="M147" s="29"/>
-      <c r="N147" s="29"/>
-      <c r="O147" s="29"/>
-      <c r="P147" s="29"/>
-      <c r="Q147" s="29"/>
-      <c r="R147" s="29"/>
-      <c r="S147" s="29"/>
-      <c r="T147" s="29"/>
-      <c r="U147" s="29"/>
-      <c r="V147" s="29"/>
-      <c r="W147" s="29"/>
-      <c r="X147" s="29"/>
-      <c r="Y147" s="29"/>
-      <c r="Z147" s="29"/>
-      <c r="AA147" s="29"/>
-      <c r="AB147" s="29"/>
-      <c r="AC147" s="29"/>
-      <c r="AD147" s="29"/>
-      <c r="AE147" s="29"/>
-      <c r="AF147" s="29"/>
-      <c r="AG147" s="29"/>
-      <c r="AH147" s="29"/>
-      <c r="AI147" s="29"/>
-      <c r="AJ147" s="29"/>
-      <c r="AK147" s="29"/>
-      <c r="AL147" s="29"/>
-      <c r="AM147" s="29"/>
-      <c r="AN147" s="29"/>
-      <c r="AO147" s="29"/>
-      <c r="AP147" s="29"/>
-      <c r="AQ147" s="29"/>
-      <c r="AR147" s="29"/>
-      <c r="AS147" s="29"/>
-      <c r="AT147" s="29"/>
-      <c r="AU147" s="29"/>
-      <c r="AV147" s="29"/>
-      <c r="AW147" s="29"/>
-      <c r="AX147" s="29"/>
-      <c r="AY147" s="29"/>
-      <c r="AZ147" s="29"/>
-      <c r="BA147" s="29"/>
-      <c r="BB147" s="29"/>
-      <c r="BC147" s="29"/>
-      <c r="BD147" s="29"/>
-      <c r="BE147" s="29"/>
-      <c r="BF147" s="29"/>
-      <c r="BG147" s="29"/>
-      <c r="BH147" s="29"/>
-      <c r="BI147" s="29"/>
-      <c r="BJ147" s="29"/>
-      <c r="BK147" s="29"/>
-      <c r="BL147" s="29"/>
-      <c r="BM147" s="29"/>
-      <c r="BN147" s="29"/>
-      <c r="BO147" s="29"/>
-      <c r="BP147" s="29"/>
-      <c r="BQ147" s="29"/>
-      <c r="BR147" s="29"/>
-      <c r="BS147" s="29"/>
-      <c r="BT147" s="29"/>
-      <c r="BU147" s="29"/>
-      <c r="BV147" s="29"/>
-      <c r="BW147" s="29"/>
-      <c r="BX147" s="29"/>
-      <c r="BY147" s="29"/>
-      <c r="BZ147" s="29"/>
-      <c r="CA147" s="29"/>
-      <c r="CB147" s="29"/>
-      <c r="CC147" s="29"/>
-      <c r="CD147" s="29"/>
-      <c r="CE147" s="29"/>
-      <c r="CF147" s="29"/>
-      <c r="CG147" s="29"/>
-      <c r="CH147" s="29"/>
-      <c r="CI147" s="29"/>
-      <c r="CJ147" s="29"/>
-      <c r="CK147" s="29"/>
-      <c r="CL147" s="29"/>
-      <c r="CM147" s="29"/>
-      <c r="CN147" s="29"/>
-      <c r="CO147" s="29"/>
-      <c r="CP147" s="29"/>
-      <c r="CQ147" s="29"/>
-      <c r="CR147" s="29"/>
-      <c r="CS147" s="29"/>
-      <c r="CT147" s="29"/>
-      <c r="CU147" s="29"/>
-      <c r="CV147" s="29"/>
-      <c r="CW147" s="29"/>
-      <c r="CX147" s="30"/>
+    <row r="147" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A147" s="78"/>
+      <c r="B147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="81">
+        <v>4.05</v>
+      </c>
+      <c r="E147" s="82">
+        <v>18.05</v>
+      </c>
+      <c r="F147" s="19"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="20"/>
+      <c r="O147" s="20"/>
+      <c r="P147" s="20"/>
+      <c r="Q147" s="20"/>
+      <c r="R147" s="20"/>
+      <c r="S147" s="20"/>
+      <c r="T147" s="20"/>
+      <c r="U147" s="20"/>
+      <c r="V147" s="20"/>
+      <c r="W147" s="20"/>
+      <c r="X147" s="20"/>
+      <c r="Y147" s="20"/>
+      <c r="Z147" s="20"/>
+      <c r="AA147" s="20"/>
+      <c r="AB147" s="20"/>
+      <c r="AC147" s="20"/>
+      <c r="AD147" s="20"/>
+      <c r="AE147" s="20"/>
+      <c r="AF147" s="20"/>
+      <c r="AG147" s="20"/>
+      <c r="AH147" s="20"/>
+      <c r="AI147" s="20"/>
+      <c r="AJ147" s="20"/>
+      <c r="AK147" s="20"/>
+      <c r="AL147" s="20"/>
+      <c r="AM147" s="20"/>
+      <c r="AN147" s="20"/>
+      <c r="AO147" s="20"/>
+      <c r="AP147" s="20"/>
+      <c r="AQ147" s="20"/>
+      <c r="AR147" s="20"/>
+      <c r="AS147" s="20"/>
+      <c r="AT147" s="20"/>
+      <c r="AU147" s="20"/>
+      <c r="AV147" s="20"/>
+      <c r="AW147" s="20"/>
+      <c r="AX147" s="20"/>
+      <c r="AY147" s="20"/>
+      <c r="AZ147" s="20"/>
+      <c r="BA147" s="20"/>
+      <c r="BB147" s="20"/>
+      <c r="BC147" s="20"/>
+      <c r="BD147" s="20"/>
+      <c r="BE147" s="20"/>
+      <c r="BF147" s="20"/>
+      <c r="BG147" s="20"/>
+      <c r="BH147" s="20"/>
+      <c r="BI147" s="20"/>
+      <c r="BJ147" s="20"/>
+      <c r="BK147" s="20"/>
+      <c r="BL147" s="20"/>
+      <c r="BM147" s="20"/>
+      <c r="BN147" s="20"/>
+      <c r="BO147" s="20"/>
+      <c r="BP147" s="20"/>
+      <c r="BQ147" s="20"/>
+      <c r="BR147" s="20"/>
+      <c r="BS147" s="20"/>
+      <c r="BT147" s="20"/>
+      <c r="BU147" s="20"/>
+      <c r="BV147" s="20"/>
+      <c r="BW147" s="20"/>
+      <c r="BX147" s="20"/>
+      <c r="BY147" s="20"/>
+      <c r="BZ147" s="20"/>
+      <c r="CA147" s="20"/>
+      <c r="CB147" s="20"/>
+      <c r="CC147" s="20"/>
+      <c r="CD147" s="20"/>
+      <c r="CE147" s="20"/>
+      <c r="CF147" s="20"/>
+      <c r="CG147" s="20"/>
+      <c r="CH147" s="20"/>
+      <c r="CI147" s="20"/>
+      <c r="CJ147" s="20"/>
+      <c r="CK147" s="20"/>
+      <c r="CL147" s="20"/>
+      <c r="CM147" s="20"/>
+      <c r="CN147" s="20"/>
+      <c r="CO147" s="20"/>
+      <c r="CP147" s="20"/>
+      <c r="CQ147" s="20"/>
+      <c r="CR147" s="20"/>
+      <c r="CS147" s="20"/>
+      <c r="CT147" s="20"/>
+      <c r="CU147" s="20"/>
+      <c r="CV147" s="20"/>
+      <c r="CW147" s="20"/>
+      <c r="CX147" s="21"/>
       <c r="CY147" s="17"/>
     </row>
-    <row r="148" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A148" s="59"/>
+    <row r="148" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A148" s="79"/>
       <c r="B148" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="69">
-        <v>18.04</v>
-      </c>
-      <c r="E148" s="68">
-        <v>25.04</v>
-      </c>
+      <c r="D148" s="81"/>
+      <c r="E148" s="82"/>
       <c r="F148" s="19"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
@@ -19115,16 +19157,16 @@
       <c r="CX148" s="21"/>
       <c r="CY148" s="17"/>
     </row>
-    <row r="149" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A149" s="60"/>
-      <c r="B149" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" s="69"/>
-      <c r="E149" s="68"/>
+    <row r="149" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="8"/>
+      <c r="C149" s="62"/>
+      <c r="D149" s="92">
+        <v>44334</v>
+      </c>
+      <c r="E149" s="93"/>
       <c r="F149" s="19"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
@@ -19224,244 +19266,250 @@
       <c r="CX149" s="21"/>
       <c r="CY149" s="17"/>
     </row>
-    <row r="150" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A150" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="96" t="s">
+    <row r="150" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E150" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="28"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="29"/>
-      <c r="I150" s="29"/>
-      <c r="J150" s="29"/>
-      <c r="K150" s="29"/>
-      <c r="L150" s="29"/>
-      <c r="M150" s="29"/>
-      <c r="N150" s="29"/>
-      <c r="O150" s="29"/>
-      <c r="P150" s="29"/>
-      <c r="Q150" s="29"/>
-      <c r="R150" s="29"/>
-      <c r="S150" s="29"/>
-      <c r="T150" s="29"/>
-      <c r="U150" s="29"/>
-      <c r="V150" s="29"/>
-      <c r="W150" s="29"/>
-      <c r="X150" s="29"/>
-      <c r="Y150" s="29"/>
-      <c r="Z150" s="29"/>
-      <c r="AA150" s="29"/>
-      <c r="AB150" s="29"/>
-      <c r="AC150" s="29"/>
-      <c r="AD150" s="29"/>
-      <c r="AE150" s="29"/>
-      <c r="AF150" s="29"/>
-      <c r="AG150" s="29"/>
-      <c r="AH150" s="29"/>
-      <c r="AI150" s="29"/>
-      <c r="AJ150" s="29"/>
-      <c r="AK150" s="29"/>
-      <c r="AL150" s="29"/>
-      <c r="AM150" s="29"/>
-      <c r="AN150" s="29"/>
-      <c r="AO150" s="29"/>
-      <c r="AP150" s="29"/>
-      <c r="AQ150" s="29"/>
-      <c r="AR150" s="29"/>
-      <c r="AS150" s="29"/>
-      <c r="AT150" s="29"/>
-      <c r="AU150" s="29"/>
-      <c r="AV150" s="29"/>
-      <c r="AW150" s="29"/>
-      <c r="AX150" s="29"/>
-      <c r="AY150" s="29"/>
-      <c r="AZ150" s="29"/>
-      <c r="BA150" s="29"/>
-      <c r="BB150" s="29"/>
-      <c r="BC150" s="29"/>
-      <c r="BD150" s="29"/>
-      <c r="BE150" s="29"/>
-      <c r="BF150" s="29"/>
-      <c r="BG150" s="29"/>
-      <c r="BH150" s="29"/>
-      <c r="BI150" s="29"/>
-      <c r="BJ150" s="29"/>
-      <c r="BK150" s="29"/>
-      <c r="BL150" s="29"/>
-      <c r="BM150" s="29"/>
-      <c r="BN150" s="29"/>
-      <c r="BO150" s="29"/>
-      <c r="BP150" s="29"/>
-      <c r="BQ150" s="29"/>
-      <c r="BR150" s="29"/>
-      <c r="BS150" s="29"/>
-      <c r="BT150" s="29"/>
-      <c r="BU150" s="29"/>
-      <c r="BV150" s="29"/>
-      <c r="BW150" s="29"/>
-      <c r="BX150" s="29"/>
-      <c r="BY150" s="29"/>
-      <c r="BZ150" s="29"/>
-      <c r="CA150" s="29"/>
-      <c r="CB150" s="29"/>
-      <c r="CC150" s="29"/>
-      <c r="CD150" s="29"/>
-      <c r="CE150" s="29"/>
-      <c r="CF150" s="29"/>
-      <c r="CG150" s="29"/>
-      <c r="CH150" s="29"/>
-      <c r="CI150" s="29"/>
-      <c r="CJ150" s="29"/>
-      <c r="CK150" s="29"/>
-      <c r="CL150" s="29"/>
-      <c r="CM150" s="29"/>
-      <c r="CN150" s="29"/>
-      <c r="CO150" s="29"/>
-      <c r="CP150" s="29"/>
-      <c r="CQ150" s="29"/>
-      <c r="CR150" s="29"/>
-      <c r="CS150" s="29"/>
-      <c r="CT150" s="29"/>
-      <c r="CU150" s="29"/>
-      <c r="CV150" s="29"/>
-      <c r="CW150" s="29"/>
-      <c r="CX150" s="30"/>
+      <c r="E150" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="32"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33"/>
+      <c r="I150" s="33"/>
+      <c r="J150" s="33"/>
+      <c r="K150" s="33"/>
+      <c r="L150" s="33"/>
+      <c r="M150" s="33"/>
+      <c r="N150" s="33"/>
+      <c r="O150" s="33"/>
+      <c r="P150" s="33"/>
+      <c r="Q150" s="33"/>
+      <c r="R150" s="33"/>
+      <c r="S150" s="33"/>
+      <c r="T150" s="33"/>
+      <c r="U150" s="33"/>
+      <c r="V150" s="33"/>
+      <c r="W150" s="33"/>
+      <c r="X150" s="33"/>
+      <c r="Y150" s="33"/>
+      <c r="Z150" s="33"/>
+      <c r="AA150" s="33"/>
+      <c r="AB150" s="33"/>
+      <c r="AC150" s="33"/>
+      <c r="AD150" s="33"/>
+      <c r="AE150" s="33"/>
+      <c r="AF150" s="33"/>
+      <c r="AG150" s="33"/>
+      <c r="AH150" s="33"/>
+      <c r="AI150" s="33"/>
+      <c r="AJ150" s="33"/>
+      <c r="AK150" s="33"/>
+      <c r="AL150" s="33"/>
+      <c r="AM150" s="33"/>
+      <c r="AN150" s="33"/>
+      <c r="AO150" s="33"/>
+      <c r="AP150" s="33"/>
+      <c r="AQ150" s="33"/>
+      <c r="AR150" s="33"/>
+      <c r="AS150" s="33"/>
+      <c r="AT150" s="33"/>
+      <c r="AU150" s="33"/>
+      <c r="AV150" s="33"/>
+      <c r="AW150" s="33"/>
+      <c r="AX150" s="33"/>
+      <c r="AY150" s="33"/>
+      <c r="AZ150" s="33"/>
+      <c r="BA150" s="33"/>
+      <c r="BB150" s="33"/>
+      <c r="BC150" s="33"/>
+      <c r="BD150" s="33"/>
+      <c r="BE150" s="33"/>
+      <c r="BF150" s="33"/>
+      <c r="BG150" s="33"/>
+      <c r="BH150" s="33"/>
+      <c r="BI150" s="33"/>
+      <c r="BJ150" s="33"/>
+      <c r="BK150" s="33"/>
+      <c r="BL150" s="33"/>
+      <c r="BM150" s="33"/>
+      <c r="BN150" s="33"/>
+      <c r="BO150" s="33"/>
+      <c r="BP150" s="33"/>
+      <c r="BQ150" s="33"/>
+      <c r="BR150" s="33"/>
+      <c r="BS150" s="33"/>
+      <c r="BT150" s="33"/>
+      <c r="BU150" s="33"/>
+      <c r="BV150" s="33"/>
+      <c r="BW150" s="33"/>
+      <c r="BX150" s="33"/>
+      <c r="BY150" s="33"/>
+      <c r="BZ150" s="33"/>
+      <c r="CA150" s="33"/>
+      <c r="CB150" s="33"/>
+      <c r="CC150" s="33"/>
+      <c r="CD150" s="33"/>
+      <c r="CE150" s="33"/>
+      <c r="CF150" s="33"/>
+      <c r="CG150" s="33"/>
+      <c r="CH150" s="33"/>
+      <c r="CI150" s="33"/>
+      <c r="CJ150" s="33"/>
+      <c r="CK150" s="33"/>
+      <c r="CL150" s="33"/>
+      <c r="CM150" s="33"/>
+      <c r="CN150" s="33"/>
+      <c r="CO150" s="33"/>
+      <c r="CP150" s="33"/>
+      <c r="CQ150" s="33"/>
+      <c r="CR150" s="33"/>
+      <c r="CS150" s="33"/>
+      <c r="CT150" s="33"/>
+      <c r="CU150" s="33"/>
+      <c r="CV150" s="33"/>
+      <c r="CW150" s="33"/>
+      <c r="CX150" s="34"/>
       <c r="CY150" s="17"/>
     </row>
-    <row r="151" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A151" s="59"/>
-      <c r="B151" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D151" s="69">
-        <v>18.04</v>
-      </c>
-      <c r="E151" s="68">
-        <v>25.04</v>
-      </c>
-      <c r="F151" s="19"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20"/>
-      <c r="J151" s="20"/>
-      <c r="K151" s="20"/>
-      <c r="L151" s="20"/>
-      <c r="M151" s="20"/>
-      <c r="N151" s="20"/>
-      <c r="O151" s="20"/>
-      <c r="P151" s="20"/>
-      <c r="Q151" s="20"/>
-      <c r="R151" s="20"/>
-      <c r="S151" s="20"/>
-      <c r="T151" s="20"/>
-      <c r="U151" s="20"/>
-      <c r="V151" s="20"/>
-      <c r="W151" s="20"/>
-      <c r="X151" s="20"/>
-      <c r="Y151" s="20"/>
-      <c r="Z151" s="20"/>
-      <c r="AA151" s="20"/>
-      <c r="AB151" s="20"/>
-      <c r="AC151" s="20"/>
-      <c r="AD151" s="20"/>
-      <c r="AE151" s="20"/>
-      <c r="AF151" s="20"/>
-      <c r="AG151" s="20"/>
-      <c r="AH151" s="20"/>
-      <c r="AI151" s="20"/>
-      <c r="AJ151" s="20"/>
-      <c r="AK151" s="20"/>
-      <c r="AL151" s="20"/>
-      <c r="AM151" s="20"/>
-      <c r="AN151" s="20"/>
-      <c r="AO151" s="20"/>
-      <c r="AP151" s="20"/>
-      <c r="AQ151" s="20"/>
-      <c r="AR151" s="20"/>
-      <c r="AS151" s="20"/>
-      <c r="AT151" s="20"/>
-      <c r="AU151" s="20"/>
-      <c r="AV151" s="20"/>
-      <c r="AW151" s="20"/>
-      <c r="AX151" s="20"/>
-      <c r="AY151" s="20"/>
-      <c r="AZ151" s="20"/>
-      <c r="BA151" s="20"/>
-      <c r="BB151" s="20"/>
-      <c r="BC151" s="20"/>
-      <c r="BD151" s="20"/>
-      <c r="BE151" s="20"/>
-      <c r="BF151" s="20"/>
-      <c r="BG151" s="20"/>
-      <c r="BH151" s="20"/>
-      <c r="BI151" s="20"/>
-      <c r="BJ151" s="20"/>
-      <c r="BK151" s="20"/>
-      <c r="BL151" s="20"/>
-      <c r="BM151" s="20"/>
-      <c r="BN151" s="20"/>
-      <c r="BO151" s="20"/>
-      <c r="BP151" s="20"/>
-      <c r="BQ151" s="20"/>
-      <c r="BR151" s="20"/>
-      <c r="BS151" s="20"/>
-      <c r="BT151" s="20"/>
-      <c r="BU151" s="20"/>
-      <c r="BV151" s="20"/>
-      <c r="BW151" s="20"/>
-      <c r="BX151" s="20"/>
-      <c r="BY151" s="20"/>
-      <c r="BZ151" s="20"/>
-      <c r="CA151" s="20"/>
-      <c r="CB151" s="20"/>
-      <c r="CC151" s="20"/>
-      <c r="CD151" s="20"/>
-      <c r="CE151" s="20"/>
-      <c r="CF151" s="20"/>
-      <c r="CG151" s="20"/>
-      <c r="CH151" s="20"/>
-      <c r="CI151" s="20"/>
-      <c r="CJ151" s="20"/>
-      <c r="CK151" s="20"/>
-      <c r="CL151" s="20"/>
-      <c r="CM151" s="20"/>
-      <c r="CN151" s="20"/>
-      <c r="CO151" s="20"/>
-      <c r="CP151" s="20"/>
-      <c r="CQ151" s="20"/>
-      <c r="CR151" s="20"/>
-      <c r="CS151" s="20"/>
-      <c r="CT151" s="20"/>
-      <c r="CU151" s="20"/>
-      <c r="CV151" s="20"/>
-      <c r="CW151" s="20"/>
-      <c r="CX151" s="21"/>
+    <row r="151" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="28"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="29"/>
+      <c r="K151" s="29"/>
+      <c r="L151" s="29"/>
+      <c r="M151" s="29"/>
+      <c r="N151" s="29"/>
+      <c r="O151" s="29"/>
+      <c r="P151" s="29"/>
+      <c r="Q151" s="29"/>
+      <c r="R151" s="29"/>
+      <c r="S151" s="29"/>
+      <c r="T151" s="29"/>
+      <c r="U151" s="29"/>
+      <c r="V151" s="29"/>
+      <c r="W151" s="29"/>
+      <c r="X151" s="29"/>
+      <c r="Y151" s="29"/>
+      <c r="Z151" s="29"/>
+      <c r="AA151" s="29"/>
+      <c r="AB151" s="29"/>
+      <c r="AC151" s="29"/>
+      <c r="AD151" s="29"/>
+      <c r="AE151" s="29"/>
+      <c r="AF151" s="29"/>
+      <c r="AG151" s="29"/>
+      <c r="AH151" s="29"/>
+      <c r="AI151" s="29"/>
+      <c r="AJ151" s="29"/>
+      <c r="AK151" s="29"/>
+      <c r="AL151" s="29"/>
+      <c r="AM151" s="29"/>
+      <c r="AN151" s="29"/>
+      <c r="AO151" s="29"/>
+      <c r="AP151" s="29"/>
+      <c r="AQ151" s="29"/>
+      <c r="AR151" s="29"/>
+      <c r="AS151" s="29"/>
+      <c r="AT151" s="29"/>
+      <c r="AU151" s="29"/>
+      <c r="AV151" s="29"/>
+      <c r="AW151" s="29"/>
+      <c r="AX151" s="29"/>
+      <c r="AY151" s="29"/>
+      <c r="AZ151" s="29"/>
+      <c r="BA151" s="29"/>
+      <c r="BB151" s="29"/>
+      <c r="BC151" s="29"/>
+      <c r="BD151" s="29"/>
+      <c r="BE151" s="29"/>
+      <c r="BF151" s="29"/>
+      <c r="BG151" s="29"/>
+      <c r="BH151" s="29"/>
+      <c r="BI151" s="29"/>
+      <c r="BJ151" s="29"/>
+      <c r="BK151" s="29"/>
+      <c r="BL151" s="29"/>
+      <c r="BM151" s="29"/>
+      <c r="BN151" s="29"/>
+      <c r="BO151" s="29"/>
+      <c r="BP151" s="29"/>
+      <c r="BQ151" s="29"/>
+      <c r="BR151" s="29"/>
+      <c r="BS151" s="29"/>
+      <c r="BT151" s="29"/>
+      <c r="BU151" s="29"/>
+      <c r="BV151" s="29"/>
+      <c r="BW151" s="29"/>
+      <c r="BX151" s="29"/>
+      <c r="BY151" s="29"/>
+      <c r="BZ151" s="29"/>
+      <c r="CA151" s="29"/>
+      <c r="CB151" s="29"/>
+      <c r="CC151" s="29"/>
+      <c r="CD151" s="29"/>
+      <c r="CE151" s="29"/>
+      <c r="CF151" s="29"/>
+      <c r="CG151" s="29"/>
+      <c r="CH151" s="29"/>
+      <c r="CI151" s="29"/>
+      <c r="CJ151" s="29"/>
+      <c r="CK151" s="29"/>
+      <c r="CL151" s="29"/>
+      <c r="CM151" s="29"/>
+      <c r="CN151" s="29"/>
+      <c r="CO151" s="29"/>
+      <c r="CP151" s="29"/>
+      <c r="CQ151" s="29"/>
+      <c r="CR151" s="29"/>
+      <c r="CS151" s="29"/>
+      <c r="CT151" s="29"/>
+      <c r="CU151" s="29"/>
+      <c r="CV151" s="29"/>
+      <c r="CW151" s="29"/>
+      <c r="CX151" s="30"/>
       <c r="CY151" s="17"/>
     </row>
-    <row r="152" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A152" s="60"/>
+    <row r="152" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A152" s="78"/>
       <c r="B152" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D152" s="69"/>
-      <c r="E152" s="68"/>
+      <c r="D152" s="81">
+        <v>18.04</v>
+      </c>
+      <c r="E152" s="82">
+        <v>25.04</v>
+      </c>
       <c r="F152" s="19"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
@@ -19561,244 +19609,244 @@
       <c r="CX152" s="21"/>
       <c r="CY152" s="17"/>
     </row>
-    <row r="153" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A153" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C153" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="96" t="s">
+    <row r="153" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A153" s="79"/>
+      <c r="B153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E153" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" s="28"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
-      <c r="M153" s="29"/>
-      <c r="N153" s="29"/>
-      <c r="O153" s="29"/>
-      <c r="P153" s="29"/>
-      <c r="Q153" s="29"/>
-      <c r="R153" s="29"/>
-      <c r="S153" s="29"/>
-      <c r="T153" s="29"/>
-      <c r="U153" s="29"/>
-      <c r="V153" s="29"/>
-      <c r="W153" s="29"/>
-      <c r="X153" s="29"/>
-      <c r="Y153" s="29"/>
-      <c r="Z153" s="29"/>
-      <c r="AA153" s="29"/>
-      <c r="AB153" s="29"/>
-      <c r="AC153" s="29"/>
-      <c r="AD153" s="29"/>
-      <c r="AE153" s="29"/>
-      <c r="AF153" s="29"/>
-      <c r="AG153" s="29"/>
-      <c r="AH153" s="29"/>
-      <c r="AI153" s="29"/>
-      <c r="AJ153" s="29"/>
-      <c r="AK153" s="29"/>
-      <c r="AL153" s="29"/>
-      <c r="AM153" s="29"/>
-      <c r="AN153" s="29"/>
-      <c r="AO153" s="29"/>
-      <c r="AP153" s="29"/>
-      <c r="AQ153" s="29"/>
-      <c r="AR153" s="29"/>
-      <c r="AS153" s="29"/>
-      <c r="AT153" s="29"/>
-      <c r="AU153" s="29"/>
-      <c r="AV153" s="29"/>
-      <c r="AW153" s="29"/>
-      <c r="AX153" s="29"/>
-      <c r="AY153" s="29"/>
-      <c r="AZ153" s="29"/>
-      <c r="BA153" s="29"/>
-      <c r="BB153" s="29"/>
-      <c r="BC153" s="29"/>
-      <c r="BD153" s="29"/>
-      <c r="BE153" s="29"/>
-      <c r="BF153" s="29"/>
-      <c r="BG153" s="29"/>
-      <c r="BH153" s="29"/>
-      <c r="BI153" s="29"/>
-      <c r="BJ153" s="29"/>
-      <c r="BK153" s="29"/>
-      <c r="BL153" s="29"/>
-      <c r="BM153" s="29"/>
-      <c r="BN153" s="29"/>
-      <c r="BO153" s="29"/>
-      <c r="BP153" s="29"/>
-      <c r="BQ153" s="29"/>
-      <c r="BR153" s="29"/>
-      <c r="BS153" s="29"/>
-      <c r="BT153" s="29"/>
-      <c r="BU153" s="29"/>
-      <c r="BV153" s="29"/>
-      <c r="BW153" s="29"/>
-      <c r="BX153" s="29"/>
-      <c r="BY153" s="29"/>
-      <c r="BZ153" s="29"/>
-      <c r="CA153" s="29"/>
-      <c r="CB153" s="29"/>
-      <c r="CC153" s="29"/>
-      <c r="CD153" s="29"/>
-      <c r="CE153" s="29"/>
-      <c r="CF153" s="29"/>
-      <c r="CG153" s="29"/>
-      <c r="CH153" s="29"/>
-      <c r="CI153" s="29"/>
-      <c r="CJ153" s="29"/>
-      <c r="CK153" s="29"/>
-      <c r="CL153" s="29"/>
-      <c r="CM153" s="29"/>
-      <c r="CN153" s="29"/>
-      <c r="CO153" s="29"/>
-      <c r="CP153" s="29"/>
-      <c r="CQ153" s="29"/>
-      <c r="CR153" s="29"/>
-      <c r="CS153" s="29"/>
-      <c r="CT153" s="29"/>
-      <c r="CU153" s="29"/>
-      <c r="CV153" s="29"/>
-      <c r="CW153" s="29"/>
-      <c r="CX153" s="30"/>
+      <c r="C153" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="81"/>
+      <c r="E153" s="82"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="20"/>
+      <c r="O153" s="20"/>
+      <c r="P153" s="20"/>
+      <c r="Q153" s="20"/>
+      <c r="R153" s="20"/>
+      <c r="S153" s="20"/>
+      <c r="T153" s="20"/>
+      <c r="U153" s="20"/>
+      <c r="V153" s="20"/>
+      <c r="W153" s="20"/>
+      <c r="X153" s="20"/>
+      <c r="Y153" s="20"/>
+      <c r="Z153" s="20"/>
+      <c r="AA153" s="20"/>
+      <c r="AB153" s="20"/>
+      <c r="AC153" s="20"/>
+      <c r="AD153" s="20"/>
+      <c r="AE153" s="20"/>
+      <c r="AF153" s="20"/>
+      <c r="AG153" s="20"/>
+      <c r="AH153" s="20"/>
+      <c r="AI153" s="20"/>
+      <c r="AJ153" s="20"/>
+      <c r="AK153" s="20"/>
+      <c r="AL153" s="20"/>
+      <c r="AM153" s="20"/>
+      <c r="AN153" s="20"/>
+      <c r="AO153" s="20"/>
+      <c r="AP153" s="20"/>
+      <c r="AQ153" s="20"/>
+      <c r="AR153" s="20"/>
+      <c r="AS153" s="20"/>
+      <c r="AT153" s="20"/>
+      <c r="AU153" s="20"/>
+      <c r="AV153" s="20"/>
+      <c r="AW153" s="20"/>
+      <c r="AX153" s="20"/>
+      <c r="AY153" s="20"/>
+      <c r="AZ153" s="20"/>
+      <c r="BA153" s="20"/>
+      <c r="BB153" s="20"/>
+      <c r="BC153" s="20"/>
+      <c r="BD153" s="20"/>
+      <c r="BE153" s="20"/>
+      <c r="BF153" s="20"/>
+      <c r="BG153" s="20"/>
+      <c r="BH153" s="20"/>
+      <c r="BI153" s="20"/>
+      <c r="BJ153" s="20"/>
+      <c r="BK153" s="20"/>
+      <c r="BL153" s="20"/>
+      <c r="BM153" s="20"/>
+      <c r="BN153" s="20"/>
+      <c r="BO153" s="20"/>
+      <c r="BP153" s="20"/>
+      <c r="BQ153" s="20"/>
+      <c r="BR153" s="20"/>
+      <c r="BS153" s="20"/>
+      <c r="BT153" s="20"/>
+      <c r="BU153" s="20"/>
+      <c r="BV153" s="20"/>
+      <c r="BW153" s="20"/>
+      <c r="BX153" s="20"/>
+      <c r="BY153" s="20"/>
+      <c r="BZ153" s="20"/>
+      <c r="CA153" s="20"/>
+      <c r="CB153" s="20"/>
+      <c r="CC153" s="20"/>
+      <c r="CD153" s="20"/>
+      <c r="CE153" s="20"/>
+      <c r="CF153" s="20"/>
+      <c r="CG153" s="20"/>
+      <c r="CH153" s="20"/>
+      <c r="CI153" s="20"/>
+      <c r="CJ153" s="20"/>
+      <c r="CK153" s="20"/>
+      <c r="CL153" s="20"/>
+      <c r="CM153" s="20"/>
+      <c r="CN153" s="20"/>
+      <c r="CO153" s="20"/>
+      <c r="CP153" s="20"/>
+      <c r="CQ153" s="20"/>
+      <c r="CR153" s="20"/>
+      <c r="CS153" s="20"/>
+      <c r="CT153" s="20"/>
+      <c r="CU153" s="20"/>
+      <c r="CV153" s="20"/>
+      <c r="CW153" s="20"/>
+      <c r="CX153" s="21"/>
       <c r="CY153" s="17"/>
     </row>
-    <row r="154" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A154" s="59"/>
-      <c r="B154" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C154" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="69">
-        <v>18.04</v>
-      </c>
-      <c r="E154" s="68">
-        <v>25.04</v>
-      </c>
-      <c r="F154" s="19"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
-      <c r="M154" s="20"/>
-      <c r="N154" s="20"/>
-      <c r="O154" s="20"/>
-      <c r="P154" s="20"/>
-      <c r="Q154" s="20"/>
-      <c r="R154" s="20"/>
-      <c r="S154" s="20"/>
-      <c r="T154" s="20"/>
-      <c r="U154" s="20"/>
-      <c r="V154" s="20"/>
-      <c r="W154" s="20"/>
-      <c r="X154" s="20"/>
-      <c r="Y154" s="20"/>
-      <c r="Z154" s="20"/>
-      <c r="AA154" s="20"/>
-      <c r="AB154" s="20"/>
-      <c r="AC154" s="20"/>
-      <c r="AD154" s="20"/>
-      <c r="AE154" s="20"/>
-      <c r="AF154" s="20"/>
-      <c r="AG154" s="20"/>
-      <c r="AH154" s="20"/>
-      <c r="AI154" s="20"/>
-      <c r="AJ154" s="20"/>
-      <c r="AK154" s="20"/>
-      <c r="AL154" s="20"/>
-      <c r="AM154" s="20"/>
-      <c r="AN154" s="20"/>
-      <c r="AO154" s="20"/>
-      <c r="AP154" s="20"/>
-      <c r="AQ154" s="20"/>
-      <c r="AR154" s="20"/>
-      <c r="AS154" s="20"/>
-      <c r="AT154" s="20"/>
-      <c r="AU154" s="20"/>
-      <c r="AV154" s="20"/>
-      <c r="AW154" s="20"/>
-      <c r="AX154" s="20"/>
-      <c r="AY154" s="20"/>
-      <c r="AZ154" s="20"/>
-      <c r="BA154" s="20"/>
-      <c r="BB154" s="20"/>
-      <c r="BC154" s="20"/>
-      <c r="BD154" s="20"/>
-      <c r="BE154" s="20"/>
-      <c r="BF154" s="20"/>
-      <c r="BG154" s="20"/>
-      <c r="BH154" s="20"/>
-      <c r="BI154" s="20"/>
-      <c r="BJ154" s="20"/>
-      <c r="BK154" s="20"/>
-      <c r="BL154" s="20"/>
-      <c r="BM154" s="20"/>
-      <c r="BN154" s="20"/>
-      <c r="BO154" s="20"/>
-      <c r="BP154" s="20"/>
-      <c r="BQ154" s="20"/>
-      <c r="BR154" s="20"/>
-      <c r="BS154" s="20"/>
-      <c r="BT154" s="20"/>
-      <c r="BU154" s="20"/>
-      <c r="BV154" s="20"/>
-      <c r="BW154" s="20"/>
-      <c r="BX154" s="20"/>
-      <c r="BY154" s="20"/>
-      <c r="BZ154" s="20"/>
-      <c r="CA154" s="20"/>
-      <c r="CB154" s="20"/>
-      <c r="CC154" s="20"/>
-      <c r="CD154" s="20"/>
-      <c r="CE154" s="20"/>
-      <c r="CF154" s="20"/>
-      <c r="CG154" s="20"/>
-      <c r="CH154" s="20"/>
-      <c r="CI154" s="20"/>
-      <c r="CJ154" s="20"/>
-      <c r="CK154" s="20"/>
-      <c r="CL154" s="20"/>
-      <c r="CM154" s="20"/>
-      <c r="CN154" s="20"/>
-      <c r="CO154" s="20"/>
-      <c r="CP154" s="20"/>
-      <c r="CQ154" s="20"/>
-      <c r="CR154" s="20"/>
-      <c r="CS154" s="20"/>
-      <c r="CT154" s="20"/>
-      <c r="CU154" s="20"/>
-      <c r="CV154" s="20"/>
-      <c r="CW154" s="20"/>
-      <c r="CX154" s="21"/>
+    <row r="154" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="28"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="29"/>
+      <c r="M154" s="29"/>
+      <c r="N154" s="29"/>
+      <c r="O154" s="29"/>
+      <c r="P154" s="29"/>
+      <c r="Q154" s="29"/>
+      <c r="R154" s="29"/>
+      <c r="S154" s="29"/>
+      <c r="T154" s="29"/>
+      <c r="U154" s="29"/>
+      <c r="V154" s="29"/>
+      <c r="W154" s="29"/>
+      <c r="X154" s="29"/>
+      <c r="Y154" s="29"/>
+      <c r="Z154" s="29"/>
+      <c r="AA154" s="29"/>
+      <c r="AB154" s="29"/>
+      <c r="AC154" s="29"/>
+      <c r="AD154" s="29"/>
+      <c r="AE154" s="29"/>
+      <c r="AF154" s="29"/>
+      <c r="AG154" s="29"/>
+      <c r="AH154" s="29"/>
+      <c r="AI154" s="29"/>
+      <c r="AJ154" s="29"/>
+      <c r="AK154" s="29"/>
+      <c r="AL154" s="29"/>
+      <c r="AM154" s="29"/>
+      <c r="AN154" s="29"/>
+      <c r="AO154" s="29"/>
+      <c r="AP154" s="29"/>
+      <c r="AQ154" s="29"/>
+      <c r="AR154" s="29"/>
+      <c r="AS154" s="29"/>
+      <c r="AT154" s="29"/>
+      <c r="AU154" s="29"/>
+      <c r="AV154" s="29"/>
+      <c r="AW154" s="29"/>
+      <c r="AX154" s="29"/>
+      <c r="AY154" s="29"/>
+      <c r="AZ154" s="29"/>
+      <c r="BA154" s="29"/>
+      <c r="BB154" s="29"/>
+      <c r="BC154" s="29"/>
+      <c r="BD154" s="29"/>
+      <c r="BE154" s="29"/>
+      <c r="BF154" s="29"/>
+      <c r="BG154" s="29"/>
+      <c r="BH154" s="29"/>
+      <c r="BI154" s="29"/>
+      <c r="BJ154" s="29"/>
+      <c r="BK154" s="29"/>
+      <c r="BL154" s="29"/>
+      <c r="BM154" s="29"/>
+      <c r="BN154" s="29"/>
+      <c r="BO154" s="29"/>
+      <c r="BP154" s="29"/>
+      <c r="BQ154" s="29"/>
+      <c r="BR154" s="29"/>
+      <c r="BS154" s="29"/>
+      <c r="BT154" s="29"/>
+      <c r="BU154" s="29"/>
+      <c r="BV154" s="29"/>
+      <c r="BW154" s="29"/>
+      <c r="BX154" s="29"/>
+      <c r="BY154" s="29"/>
+      <c r="BZ154" s="29"/>
+      <c r="CA154" s="29"/>
+      <c r="CB154" s="29"/>
+      <c r="CC154" s="29"/>
+      <c r="CD154" s="29"/>
+      <c r="CE154" s="29"/>
+      <c r="CF154" s="29"/>
+      <c r="CG154" s="29"/>
+      <c r="CH154" s="29"/>
+      <c r="CI154" s="29"/>
+      <c r="CJ154" s="29"/>
+      <c r="CK154" s="29"/>
+      <c r="CL154" s="29"/>
+      <c r="CM154" s="29"/>
+      <c r="CN154" s="29"/>
+      <c r="CO154" s="29"/>
+      <c r="CP154" s="29"/>
+      <c r="CQ154" s="29"/>
+      <c r="CR154" s="29"/>
+      <c r="CS154" s="29"/>
+      <c r="CT154" s="29"/>
+      <c r="CU154" s="29"/>
+      <c r="CV154" s="29"/>
+      <c r="CW154" s="29"/>
+      <c r="CX154" s="30"/>
       <c r="CY154" s="17"/>
     </row>
-    <row r="155" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A155" s="60"/>
+    <row r="155" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A155" s="78"/>
       <c r="B155" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="69"/>
-      <c r="E155" s="68"/>
+      <c r="D155" s="81">
+        <v>18.04</v>
+      </c>
+      <c r="E155" s="82">
+        <v>25.04</v>
+      </c>
       <c r="F155" s="19"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
@@ -19896,244 +19944,246 @@
       <c r="CV155" s="20"/>
       <c r="CW155" s="20"/>
       <c r="CX155" s="21"/>
-      <c r="CY155" s="10"/>
+      <c r="CY155" s="17"/>
     </row>
-    <row r="156" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A156" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B156" s="5" t="s">
+    <row r="156" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A156" s="79"/>
+      <c r="B156" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="81"/>
+      <c r="E156" s="82"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="20"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="20"/>
+      <c r="R156" s="20"/>
+      <c r="S156" s="20"/>
+      <c r="T156" s="20"/>
+      <c r="U156" s="20"/>
+      <c r="V156" s="20"/>
+      <c r="W156" s="20"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="20"/>
+      <c r="Z156" s="20"/>
+      <c r="AA156" s="20"/>
+      <c r="AB156" s="20"/>
+      <c r="AC156" s="20"/>
+      <c r="AD156" s="20"/>
+      <c r="AE156" s="20"/>
+      <c r="AF156" s="20"/>
+      <c r="AG156" s="20"/>
+      <c r="AH156" s="20"/>
+      <c r="AI156" s="20"/>
+      <c r="AJ156" s="20"/>
+      <c r="AK156" s="20"/>
+      <c r="AL156" s="20"/>
+      <c r="AM156" s="20"/>
+      <c r="AN156" s="20"/>
+      <c r="AO156" s="20"/>
+      <c r="AP156" s="20"/>
+      <c r="AQ156" s="20"/>
+      <c r="AR156" s="20"/>
+      <c r="AS156" s="20"/>
+      <c r="AT156" s="20"/>
+      <c r="AU156" s="20"/>
+      <c r="AV156" s="20"/>
+      <c r="AW156" s="20"/>
+      <c r="AX156" s="20"/>
+      <c r="AY156" s="20"/>
+      <c r="AZ156" s="20"/>
+      <c r="BA156" s="20"/>
+      <c r="BB156" s="20"/>
+      <c r="BC156" s="20"/>
+      <c r="BD156" s="20"/>
+      <c r="BE156" s="20"/>
+      <c r="BF156" s="20"/>
+      <c r="BG156" s="20"/>
+      <c r="BH156" s="20"/>
+      <c r="BI156" s="20"/>
+      <c r="BJ156" s="20"/>
+      <c r="BK156" s="20"/>
+      <c r="BL156" s="20"/>
+      <c r="BM156" s="20"/>
+      <c r="BN156" s="20"/>
+      <c r="BO156" s="20"/>
+      <c r="BP156" s="20"/>
+      <c r="BQ156" s="20"/>
+      <c r="BR156" s="20"/>
+      <c r="BS156" s="20"/>
+      <c r="BT156" s="20"/>
+      <c r="BU156" s="20"/>
+      <c r="BV156" s="20"/>
+      <c r="BW156" s="20"/>
+      <c r="BX156" s="20"/>
+      <c r="BY156" s="20"/>
+      <c r="BZ156" s="20"/>
+      <c r="CA156" s="20"/>
+      <c r="CB156" s="20"/>
+      <c r="CC156" s="20"/>
+      <c r="CD156" s="20"/>
+      <c r="CE156" s="20"/>
+      <c r="CF156" s="20"/>
+      <c r="CG156" s="20"/>
+      <c r="CH156" s="20"/>
+      <c r="CI156" s="20"/>
+      <c r="CJ156" s="20"/>
+      <c r="CK156" s="20"/>
+      <c r="CL156" s="20"/>
+      <c r="CM156" s="20"/>
+      <c r="CN156" s="20"/>
+      <c r="CO156" s="20"/>
+      <c r="CP156" s="20"/>
+      <c r="CQ156" s="20"/>
+      <c r="CR156" s="20"/>
+      <c r="CS156" s="20"/>
+      <c r="CT156" s="20"/>
+      <c r="CU156" s="20"/>
+      <c r="CV156" s="20"/>
+      <c r="CW156" s="20"/>
+      <c r="CX156" s="21"/>
+      <c r="CY156" s="17"/>
+    </row>
+    <row r="157" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C156" s="86" t="s">
+      <c r="C157" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D156" s="96" t="s">
+      <c r="D157" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E156" s="92" t="s">
+      <c r="E157" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F156" s="28"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-      <c r="N156" s="29"/>
-      <c r="O156" s="29"/>
-      <c r="P156" s="29"/>
-      <c r="Q156" s="29"/>
-      <c r="R156" s="29"/>
-      <c r="S156" s="29"/>
-      <c r="T156" s="29"/>
-      <c r="U156" s="29"/>
-      <c r="V156" s="29"/>
-      <c r="W156" s="29"/>
-      <c r="X156" s="29"/>
-      <c r="Y156" s="29"/>
-      <c r="Z156" s="29"/>
-      <c r="AA156" s="29"/>
-      <c r="AB156" s="29"/>
-      <c r="AC156" s="29"/>
-      <c r="AD156" s="29"/>
-      <c r="AE156" s="29"/>
-      <c r="AF156" s="29"/>
-      <c r="AG156" s="29"/>
-      <c r="AH156" s="29"/>
-      <c r="AI156" s="29"/>
-      <c r="AJ156" s="29"/>
-      <c r="AK156" s="29"/>
-      <c r="AL156" s="29"/>
-      <c r="AM156" s="29"/>
-      <c r="AN156" s="29"/>
-      <c r="AO156" s="29"/>
-      <c r="AP156" s="29"/>
-      <c r="AQ156" s="29"/>
-      <c r="AR156" s="29"/>
-      <c r="AS156" s="29"/>
-      <c r="AT156" s="29"/>
-      <c r="AU156" s="29"/>
-      <c r="AV156" s="29"/>
-      <c r="AW156" s="29"/>
-      <c r="AX156" s="29"/>
-      <c r="AY156" s="29"/>
-      <c r="AZ156" s="29"/>
-      <c r="BA156" s="29"/>
-      <c r="BB156" s="29"/>
-      <c r="BC156" s="29"/>
-      <c r="BD156" s="29"/>
-      <c r="BE156" s="29"/>
-      <c r="BF156" s="29"/>
-      <c r="BG156" s="29"/>
-      <c r="BH156" s="29"/>
-      <c r="BI156" s="29"/>
-      <c r="BJ156" s="29"/>
-      <c r="BK156" s="29"/>
-      <c r="BL156" s="29"/>
-      <c r="BM156" s="29"/>
-      <c r="BN156" s="29"/>
-      <c r="BO156" s="29"/>
-      <c r="BP156" s="29"/>
-      <c r="BQ156" s="29"/>
-      <c r="BR156" s="29"/>
-      <c r="BS156" s="29"/>
-      <c r="BT156" s="29"/>
-      <c r="BU156" s="29"/>
-      <c r="BV156" s="29"/>
-      <c r="BW156" s="29"/>
-      <c r="BX156" s="29"/>
-      <c r="BY156" s="29"/>
-      <c r="BZ156" s="29"/>
-      <c r="CA156" s="29"/>
-      <c r="CB156" s="29"/>
-      <c r="CC156" s="29"/>
-      <c r="CD156" s="29"/>
-      <c r="CE156" s="29"/>
-      <c r="CF156" s="29"/>
-      <c r="CG156" s="29"/>
-      <c r="CH156" s="29"/>
-      <c r="CI156" s="29"/>
-      <c r="CJ156" s="29"/>
-      <c r="CK156" s="29"/>
-      <c r="CL156" s="29"/>
-      <c r="CM156" s="29"/>
-      <c r="CN156" s="29"/>
-      <c r="CO156" s="29"/>
-      <c r="CP156" s="29"/>
-      <c r="CQ156" s="29"/>
-      <c r="CR156" s="29"/>
-      <c r="CS156" s="29"/>
-      <c r="CT156" s="29"/>
-      <c r="CU156" s="29"/>
-      <c r="CV156" s="29"/>
-      <c r="CW156" s="29"/>
-      <c r="CX156" s="30"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="29"/>
+      <c r="L157" s="29"/>
+      <c r="M157" s="29"/>
+      <c r="N157" s="29"/>
+      <c r="O157" s="29"/>
+      <c r="P157" s="29"/>
+      <c r="Q157" s="29"/>
+      <c r="R157" s="29"/>
+      <c r="S157" s="29"/>
+      <c r="T157" s="29"/>
+      <c r="U157" s="29"/>
+      <c r="V157" s="29"/>
+      <c r="W157" s="29"/>
+      <c r="X157" s="29"/>
+      <c r="Y157" s="29"/>
+      <c r="Z157" s="29"/>
+      <c r="AA157" s="29"/>
+      <c r="AB157" s="29"/>
+      <c r="AC157" s="29"/>
+      <c r="AD157" s="29"/>
+      <c r="AE157" s="29"/>
+      <c r="AF157" s="29"/>
+      <c r="AG157" s="29"/>
+      <c r="AH157" s="29"/>
+      <c r="AI157" s="29"/>
+      <c r="AJ157" s="29"/>
+      <c r="AK157" s="29"/>
+      <c r="AL157" s="29"/>
+      <c r="AM157" s="29"/>
+      <c r="AN157" s="29"/>
+      <c r="AO157" s="29"/>
+      <c r="AP157" s="29"/>
+      <c r="AQ157" s="29"/>
+      <c r="AR157" s="29"/>
+      <c r="AS157" s="29"/>
+      <c r="AT157" s="29"/>
+      <c r="AU157" s="29"/>
+      <c r="AV157" s="29"/>
+      <c r="AW157" s="29"/>
+      <c r="AX157" s="29"/>
+      <c r="AY157" s="29"/>
+      <c r="AZ157" s="29"/>
+      <c r="BA157" s="29"/>
+      <c r="BB157" s="29"/>
+      <c r="BC157" s="29"/>
+      <c r="BD157" s="29"/>
+      <c r="BE157" s="29"/>
+      <c r="BF157" s="29"/>
+      <c r="BG157" s="29"/>
+      <c r="BH157" s="29"/>
+      <c r="BI157" s="29"/>
+      <c r="BJ157" s="29"/>
+      <c r="BK157" s="29"/>
+      <c r="BL157" s="29"/>
+      <c r="BM157" s="29"/>
+      <c r="BN157" s="29"/>
+      <c r="BO157" s="29"/>
+      <c r="BP157" s="29"/>
+      <c r="BQ157" s="29"/>
+      <c r="BR157" s="29"/>
+      <c r="BS157" s="29"/>
+      <c r="BT157" s="29"/>
+      <c r="BU157" s="29"/>
+      <c r="BV157" s="29"/>
+      <c r="BW157" s="29"/>
+      <c r="BX157" s="29"/>
+      <c r="BY157" s="29"/>
+      <c r="BZ157" s="29"/>
+      <c r="CA157" s="29"/>
+      <c r="CB157" s="29"/>
+      <c r="CC157" s="29"/>
+      <c r="CD157" s="29"/>
+      <c r="CE157" s="29"/>
+      <c r="CF157" s="29"/>
+      <c r="CG157" s="29"/>
+      <c r="CH157" s="29"/>
+      <c r="CI157" s="29"/>
+      <c r="CJ157" s="29"/>
+      <c r="CK157" s="29"/>
+      <c r="CL157" s="29"/>
+      <c r="CM157" s="29"/>
+      <c r="CN157" s="29"/>
+      <c r="CO157" s="29"/>
+      <c r="CP157" s="29"/>
+      <c r="CQ157" s="29"/>
+      <c r="CR157" s="29"/>
+      <c r="CS157" s="29"/>
+      <c r="CT157" s="29"/>
+      <c r="CU157" s="29"/>
+      <c r="CV157" s="29"/>
+      <c r="CW157" s="29"/>
+      <c r="CX157" s="30"/>
+      <c r="CY157" s="17"/>
     </row>
-    <row r="157" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A157" s="59"/>
-      <c r="B157" s="6" t="s">
+    <row r="158" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A158" s="78"/>
+      <c r="B158" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="87" t="s">
+      <c r="C158" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="69">
+      <c r="D158" s="81">
         <v>18.04</v>
       </c>
-      <c r="E157" s="68">
+      <c r="E158" s="82">
         <v>25.04</v>
       </c>
-      <c r="F157" s="19"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="20"/>
-      <c r="N157" s="20"/>
-      <c r="O157" s="20"/>
-      <c r="P157" s="20"/>
-      <c r="Q157" s="20"/>
-      <c r="R157" s="20"/>
-      <c r="S157" s="20"/>
-      <c r="T157" s="20"/>
-      <c r="U157" s="20"/>
-      <c r="V157" s="20"/>
-      <c r="W157" s="20"/>
-      <c r="X157" s="20"/>
-      <c r="Y157" s="20"/>
-      <c r="Z157" s="20"/>
-      <c r="AA157" s="20"/>
-      <c r="AB157" s="20"/>
-      <c r="AC157" s="20"/>
-      <c r="AD157" s="20"/>
-      <c r="AE157" s="20"/>
-      <c r="AF157" s="20"/>
-      <c r="AG157" s="20"/>
-      <c r="AH157" s="20"/>
-      <c r="AI157" s="20"/>
-      <c r="AJ157" s="20"/>
-      <c r="AK157" s="20"/>
-      <c r="AL157" s="20"/>
-      <c r="AM157" s="20"/>
-      <c r="AN157" s="20"/>
-      <c r="AO157" s="20"/>
-      <c r="AP157" s="20"/>
-      <c r="AQ157" s="20"/>
-      <c r="AR157" s="20"/>
-      <c r="AS157" s="20"/>
-      <c r="AT157" s="20"/>
-      <c r="AU157" s="20"/>
-      <c r="AV157" s="20"/>
-      <c r="AW157" s="20"/>
-      <c r="AX157" s="20"/>
-      <c r="AY157" s="20"/>
-      <c r="AZ157" s="20"/>
-      <c r="BA157" s="20"/>
-      <c r="BB157" s="20"/>
-      <c r="BC157" s="20"/>
-      <c r="BD157" s="20"/>
-      <c r="BE157" s="20"/>
-      <c r="BF157" s="20"/>
-      <c r="BG157" s="20"/>
-      <c r="BH157" s="20"/>
-      <c r="BI157" s="20"/>
-      <c r="BJ157" s="20"/>
-      <c r="BK157" s="20"/>
-      <c r="BL157" s="20"/>
-      <c r="BM157" s="20"/>
-      <c r="BN157" s="20"/>
-      <c r="BO157" s="20"/>
-      <c r="BP157" s="20"/>
-      <c r="BQ157" s="20"/>
-      <c r="BR157" s="20"/>
-      <c r="BS157" s="20"/>
-      <c r="BT157" s="20"/>
-      <c r="BU157" s="20"/>
-      <c r="BV157" s="20"/>
-      <c r="BW157" s="20"/>
-      <c r="BX157" s="20"/>
-      <c r="BY157" s="20"/>
-      <c r="BZ157" s="20"/>
-      <c r="CA157" s="20"/>
-      <c r="CB157" s="20"/>
-      <c r="CC157" s="20"/>
-      <c r="CD157" s="20"/>
-      <c r="CE157" s="20"/>
-      <c r="CF157" s="20"/>
-      <c r="CG157" s="20"/>
-      <c r="CH157" s="20"/>
-      <c r="CI157" s="20"/>
-      <c r="CJ157" s="20"/>
-      <c r="CK157" s="20"/>
-      <c r="CL157" s="20"/>
-      <c r="CM157" s="20"/>
-      <c r="CN157" s="20"/>
-      <c r="CO157" s="20"/>
-      <c r="CP157" s="20"/>
-      <c r="CQ157" s="20"/>
-      <c r="CR157" s="20"/>
-      <c r="CS157" s="20"/>
-      <c r="CT157" s="20"/>
-      <c r="CU157" s="20"/>
-      <c r="CV157" s="20"/>
-      <c r="CW157" s="20"/>
-      <c r="CX157" s="21"/>
-    </row>
-    <row r="158" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A158" s="60"/>
-      <c r="B158" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="69"/>
-      <c r="E158" s="68"/>
       <c r="F158" s="19"/>
       <c r="G158" s="20"/>
       <c r="H158" s="20"/>
@@ -20231,243 +20281,245 @@
       <c r="CV158" s="20"/>
       <c r="CW158" s="20"/>
       <c r="CX158" s="21"/>
+      <c r="CY158" s="17"/>
     </row>
-    <row r="159" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A159" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B159" s="5" t="s">
+    <row r="159" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A159" s="79"/>
+      <c r="B159" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="81"/>
+      <c r="E159" s="82"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="20"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="20"/>
+      <c r="O159" s="20"/>
+      <c r="P159" s="20"/>
+      <c r="Q159" s="20"/>
+      <c r="R159" s="20"/>
+      <c r="S159" s="20"/>
+      <c r="T159" s="20"/>
+      <c r="U159" s="20"/>
+      <c r="V159" s="20"/>
+      <c r="W159" s="20"/>
+      <c r="X159" s="20"/>
+      <c r="Y159" s="20"/>
+      <c r="Z159" s="20"/>
+      <c r="AA159" s="20"/>
+      <c r="AB159" s="20"/>
+      <c r="AC159" s="20"/>
+      <c r="AD159" s="20"/>
+      <c r="AE159" s="20"/>
+      <c r="AF159" s="20"/>
+      <c r="AG159" s="20"/>
+      <c r="AH159" s="20"/>
+      <c r="AI159" s="20"/>
+      <c r="AJ159" s="20"/>
+      <c r="AK159" s="20"/>
+      <c r="AL159" s="20"/>
+      <c r="AM159" s="20"/>
+      <c r="AN159" s="20"/>
+      <c r="AO159" s="20"/>
+      <c r="AP159" s="20"/>
+      <c r="AQ159" s="20"/>
+      <c r="AR159" s="20"/>
+      <c r="AS159" s="20"/>
+      <c r="AT159" s="20"/>
+      <c r="AU159" s="20"/>
+      <c r="AV159" s="20"/>
+      <c r="AW159" s="20"/>
+      <c r="AX159" s="20"/>
+      <c r="AY159" s="20"/>
+      <c r="AZ159" s="20"/>
+      <c r="BA159" s="20"/>
+      <c r="BB159" s="20"/>
+      <c r="BC159" s="20"/>
+      <c r="BD159" s="20"/>
+      <c r="BE159" s="20"/>
+      <c r="BF159" s="20"/>
+      <c r="BG159" s="20"/>
+      <c r="BH159" s="20"/>
+      <c r="BI159" s="20"/>
+      <c r="BJ159" s="20"/>
+      <c r="BK159" s="20"/>
+      <c r="BL159" s="20"/>
+      <c r="BM159" s="20"/>
+      <c r="BN159" s="20"/>
+      <c r="BO159" s="20"/>
+      <c r="BP159" s="20"/>
+      <c r="BQ159" s="20"/>
+      <c r="BR159" s="20"/>
+      <c r="BS159" s="20"/>
+      <c r="BT159" s="20"/>
+      <c r="BU159" s="20"/>
+      <c r="BV159" s="20"/>
+      <c r="BW159" s="20"/>
+      <c r="BX159" s="20"/>
+      <c r="BY159" s="20"/>
+      <c r="BZ159" s="20"/>
+      <c r="CA159" s="20"/>
+      <c r="CB159" s="20"/>
+      <c r="CC159" s="20"/>
+      <c r="CD159" s="20"/>
+      <c r="CE159" s="20"/>
+      <c r="CF159" s="20"/>
+      <c r="CG159" s="20"/>
+      <c r="CH159" s="20"/>
+      <c r="CI159" s="20"/>
+      <c r="CJ159" s="20"/>
+      <c r="CK159" s="20"/>
+      <c r="CL159" s="20"/>
+      <c r="CM159" s="20"/>
+      <c r="CN159" s="20"/>
+      <c r="CO159" s="20"/>
+      <c r="CP159" s="20"/>
+      <c r="CQ159" s="20"/>
+      <c r="CR159" s="20"/>
+      <c r="CS159" s="20"/>
+      <c r="CT159" s="20"/>
+      <c r="CU159" s="20"/>
+      <c r="CV159" s="20"/>
+      <c r="CW159" s="20"/>
+      <c r="CX159" s="21"/>
+      <c r="CY159" s="10"/>
+    </row>
+    <row r="160" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C159" s="86" t="s">
+      <c r="C160" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D159" s="96" t="s">
+      <c r="D160" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E159" s="92" t="s">
+      <c r="E160" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F159" s="28"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
-      <c r="J159" s="29"/>
-      <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
-      <c r="M159" s="29"/>
-      <c r="N159" s="29"/>
-      <c r="O159" s="29"/>
-      <c r="P159" s="29"/>
-      <c r="Q159" s="29"/>
-      <c r="R159" s="29"/>
-      <c r="S159" s="29"/>
-      <c r="T159" s="29"/>
-      <c r="U159" s="29"/>
-      <c r="V159" s="29"/>
-      <c r="W159" s="29"/>
-      <c r="X159" s="29"/>
-      <c r="Y159" s="29"/>
-      <c r="Z159" s="29"/>
-      <c r="AA159" s="29"/>
-      <c r="AB159" s="29"/>
-      <c r="AC159" s="29"/>
-      <c r="AD159" s="29"/>
-      <c r="AE159" s="29"/>
-      <c r="AF159" s="29"/>
-      <c r="AG159" s="29"/>
-      <c r="AH159" s="29"/>
-      <c r="AI159" s="29"/>
-      <c r="AJ159" s="29"/>
-      <c r="AK159" s="29"/>
-      <c r="AL159" s="29"/>
-      <c r="AM159" s="29"/>
-      <c r="AN159" s="29"/>
-      <c r="AO159" s="29"/>
-      <c r="AP159" s="29"/>
-      <c r="AQ159" s="29"/>
-      <c r="AR159" s="29"/>
-      <c r="AS159" s="29"/>
-      <c r="AT159" s="29"/>
-      <c r="AU159" s="29"/>
-      <c r="AV159" s="29"/>
-      <c r="AW159" s="29"/>
-      <c r="AX159" s="29"/>
-      <c r="AY159" s="29"/>
-      <c r="AZ159" s="29"/>
-      <c r="BA159" s="29"/>
-      <c r="BB159" s="29"/>
-      <c r="BC159" s="29"/>
-      <c r="BD159" s="29"/>
-      <c r="BE159" s="29"/>
-      <c r="BF159" s="29"/>
-      <c r="BG159" s="29"/>
-      <c r="BH159" s="29"/>
-      <c r="BI159" s="29"/>
-      <c r="BJ159" s="29"/>
-      <c r="BK159" s="29"/>
-      <c r="BL159" s="29"/>
-      <c r="BM159" s="29"/>
-      <c r="BN159" s="29"/>
-      <c r="BO159" s="29"/>
-      <c r="BP159" s="29"/>
-      <c r="BQ159" s="29"/>
-      <c r="BR159" s="29"/>
-      <c r="BS159" s="29"/>
-      <c r="BT159" s="29"/>
-      <c r="BU159" s="29"/>
-      <c r="BV159" s="29"/>
-      <c r="BW159" s="29"/>
-      <c r="BX159" s="29"/>
-      <c r="BY159" s="29"/>
-      <c r="BZ159" s="29"/>
-      <c r="CA159" s="29"/>
-      <c r="CB159" s="29"/>
-      <c r="CC159" s="29"/>
-      <c r="CD159" s="29"/>
-      <c r="CE159" s="29"/>
-      <c r="CF159" s="29"/>
-      <c r="CG159" s="29"/>
-      <c r="CH159" s="29"/>
-      <c r="CI159" s="29"/>
-      <c r="CJ159" s="29"/>
-      <c r="CK159" s="29"/>
-      <c r="CL159" s="29"/>
-      <c r="CM159" s="29"/>
-      <c r="CN159" s="29"/>
-      <c r="CO159" s="29"/>
-      <c r="CP159" s="29"/>
-      <c r="CQ159" s="29"/>
-      <c r="CR159" s="29"/>
-      <c r="CS159" s="29"/>
-      <c r="CT159" s="29"/>
-      <c r="CU159" s="29"/>
-      <c r="CV159" s="29"/>
-      <c r="CW159" s="29"/>
-      <c r="CX159" s="30"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="29"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
+      <c r="M160" s="29"/>
+      <c r="N160" s="29"/>
+      <c r="O160" s="29"/>
+      <c r="P160" s="29"/>
+      <c r="Q160" s="29"/>
+      <c r="R160" s="29"/>
+      <c r="S160" s="29"/>
+      <c r="T160" s="29"/>
+      <c r="U160" s="29"/>
+      <c r="V160" s="29"/>
+      <c r="W160" s="29"/>
+      <c r="X160" s="29"/>
+      <c r="Y160" s="29"/>
+      <c r="Z160" s="29"/>
+      <c r="AA160" s="29"/>
+      <c r="AB160" s="29"/>
+      <c r="AC160" s="29"/>
+      <c r="AD160" s="29"/>
+      <c r="AE160" s="29"/>
+      <c r="AF160" s="29"/>
+      <c r="AG160" s="29"/>
+      <c r="AH160" s="29"/>
+      <c r="AI160" s="29"/>
+      <c r="AJ160" s="29"/>
+      <c r="AK160" s="29"/>
+      <c r="AL160" s="29"/>
+      <c r="AM160" s="29"/>
+      <c r="AN160" s="29"/>
+      <c r="AO160" s="29"/>
+      <c r="AP160" s="29"/>
+      <c r="AQ160" s="29"/>
+      <c r="AR160" s="29"/>
+      <c r="AS160" s="29"/>
+      <c r="AT160" s="29"/>
+      <c r="AU160" s="29"/>
+      <c r="AV160" s="29"/>
+      <c r="AW160" s="29"/>
+      <c r="AX160" s="29"/>
+      <c r="AY160" s="29"/>
+      <c r="AZ160" s="29"/>
+      <c r="BA160" s="29"/>
+      <c r="BB160" s="29"/>
+      <c r="BC160" s="29"/>
+      <c r="BD160" s="29"/>
+      <c r="BE160" s="29"/>
+      <c r="BF160" s="29"/>
+      <c r="BG160" s="29"/>
+      <c r="BH160" s="29"/>
+      <c r="BI160" s="29"/>
+      <c r="BJ160" s="29"/>
+      <c r="BK160" s="29"/>
+      <c r="BL160" s="29"/>
+      <c r="BM160" s="29"/>
+      <c r="BN160" s="29"/>
+      <c r="BO160" s="29"/>
+      <c r="BP160" s="29"/>
+      <c r="BQ160" s="29"/>
+      <c r="BR160" s="29"/>
+      <c r="BS160" s="29"/>
+      <c r="BT160" s="29"/>
+      <c r="BU160" s="29"/>
+      <c r="BV160" s="29"/>
+      <c r="BW160" s="29"/>
+      <c r="BX160" s="29"/>
+      <c r="BY160" s="29"/>
+      <c r="BZ160" s="29"/>
+      <c r="CA160" s="29"/>
+      <c r="CB160" s="29"/>
+      <c r="CC160" s="29"/>
+      <c r="CD160" s="29"/>
+      <c r="CE160" s="29"/>
+      <c r="CF160" s="29"/>
+      <c r="CG160" s="29"/>
+      <c r="CH160" s="29"/>
+      <c r="CI160" s="29"/>
+      <c r="CJ160" s="29"/>
+      <c r="CK160" s="29"/>
+      <c r="CL160" s="29"/>
+      <c r="CM160" s="29"/>
+      <c r="CN160" s="29"/>
+      <c r="CO160" s="29"/>
+      <c r="CP160" s="29"/>
+      <c r="CQ160" s="29"/>
+      <c r="CR160" s="29"/>
+      <c r="CS160" s="29"/>
+      <c r="CT160" s="29"/>
+      <c r="CU160" s="29"/>
+      <c r="CV160" s="29"/>
+      <c r="CW160" s="29"/>
+      <c r="CX160" s="30"/>
     </row>
-    <row r="160" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A160" s="59"/>
-      <c r="B160" s="6" t="s">
+    <row r="161" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A161" s="78"/>
+      <c r="B161" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C160" s="87" t="s">
+      <c r="C161" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="69">
+      <c r="D161" s="81">
         <v>18.04</v>
       </c>
-      <c r="E160" s="68">
+      <c r="E161" s="82">
         <v>25.04</v>
       </c>
-      <c r="F160" s="19"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="20"/>
-      <c r="J160" s="20"/>
-      <c r="K160" s="20"/>
-      <c r="L160" s="20"/>
-      <c r="M160" s="20"/>
-      <c r="N160" s="20"/>
-      <c r="O160" s="20"/>
-      <c r="P160" s="20"/>
-      <c r="Q160" s="20"/>
-      <c r="R160" s="20"/>
-      <c r="S160" s="20"/>
-      <c r="T160" s="20"/>
-      <c r="U160" s="20"/>
-      <c r="V160" s="20"/>
-      <c r="W160" s="20"/>
-      <c r="X160" s="20"/>
-      <c r="Y160" s="20"/>
-      <c r="Z160" s="20"/>
-      <c r="AA160" s="20"/>
-      <c r="AB160" s="20"/>
-      <c r="AC160" s="20"/>
-      <c r="AD160" s="20"/>
-      <c r="AE160" s="20"/>
-      <c r="AF160" s="20"/>
-      <c r="AG160" s="20"/>
-      <c r="AH160" s="20"/>
-      <c r="AI160" s="20"/>
-      <c r="AJ160" s="20"/>
-      <c r="AK160" s="20"/>
-      <c r="AL160" s="20"/>
-      <c r="AM160" s="20"/>
-      <c r="AN160" s="20"/>
-      <c r="AO160" s="20"/>
-      <c r="AP160" s="20"/>
-      <c r="AQ160" s="20"/>
-      <c r="AR160" s="20"/>
-      <c r="AS160" s="20"/>
-      <c r="AT160" s="20"/>
-      <c r="AU160" s="20"/>
-      <c r="AV160" s="20"/>
-      <c r="AW160" s="20"/>
-      <c r="AX160" s="20"/>
-      <c r="AY160" s="20"/>
-      <c r="AZ160" s="20"/>
-      <c r="BA160" s="20"/>
-      <c r="BB160" s="20"/>
-      <c r="BC160" s="20"/>
-      <c r="BD160" s="20"/>
-      <c r="BE160" s="20"/>
-      <c r="BF160" s="20"/>
-      <c r="BG160" s="20"/>
-      <c r="BH160" s="20"/>
-      <c r="BI160" s="20"/>
-      <c r="BJ160" s="20"/>
-      <c r="BK160" s="20"/>
-      <c r="BL160" s="20"/>
-      <c r="BM160" s="20"/>
-      <c r="BN160" s="20"/>
-      <c r="BO160" s="20"/>
-      <c r="BP160" s="20"/>
-      <c r="BQ160" s="20"/>
-      <c r="BR160" s="20"/>
-      <c r="BS160" s="20"/>
-      <c r="BT160" s="20"/>
-      <c r="BU160" s="20"/>
-      <c r="BV160" s="20"/>
-      <c r="BW160" s="20"/>
-      <c r="BX160" s="20"/>
-      <c r="BY160" s="20"/>
-      <c r="BZ160" s="20"/>
-      <c r="CA160" s="20"/>
-      <c r="CB160" s="20"/>
-      <c r="CC160" s="20"/>
-      <c r="CD160" s="20"/>
-      <c r="CE160" s="20"/>
-      <c r="CF160" s="20"/>
-      <c r="CG160" s="20"/>
-      <c r="CH160" s="20"/>
-      <c r="CI160" s="20"/>
-      <c r="CJ160" s="20"/>
-      <c r="CK160" s="20"/>
-      <c r="CL160" s="20"/>
-      <c r="CM160" s="20"/>
-      <c r="CN160" s="20"/>
-      <c r="CO160" s="20"/>
-      <c r="CP160" s="20"/>
-      <c r="CQ160" s="20"/>
-      <c r="CR160" s="20"/>
-      <c r="CS160" s="20"/>
-      <c r="CT160" s="20"/>
-      <c r="CU160" s="20"/>
-      <c r="CV160" s="20"/>
-      <c r="CW160" s="20"/>
-      <c r="CX160" s="21"/>
-    </row>
-    <row r="161" spans="1:102" x14ac:dyDescent="0.35">
-      <c r="A161" s="60"/>
-      <c r="B161" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="69"/>
-      <c r="E161" s="68"/>
       <c r="F161" s="19"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
@@ -20566,16 +20618,16 @@
       <c r="CW161" s="20"/>
       <c r="CX161" s="21"/>
     </row>
-    <row r="162" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B162" s="11"/>
-      <c r="C162" s="89"/>
-      <c r="D162" s="66">
-        <v>44348</v>
-      </c>
-      <c r="E162" s="67"/>
+    <row r="162" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A162" s="79"/>
+      <c r="B162" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="81"/>
+      <c r="E162" s="82"/>
       <c r="F162" s="19"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
@@ -20674,148 +20726,747 @@
       <c r="CW162" s="20"/>
       <c r="CX162" s="21"/>
     </row>
-    <row r="163" spans="1:102" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="90"/>
-      <c r="D163" s="90"/>
-      <c r="E163" s="90"/>
-      <c r="F163" s="35"/>
-      <c r="G163" s="35"/>
-      <c r="H163" s="35"/>
-      <c r="I163" s="35"/>
-      <c r="J163" s="35"/>
-      <c r="K163" s="35"/>
-      <c r="L163" s="35"/>
-      <c r="M163" s="35"/>
-      <c r="N163" s="35"/>
-      <c r="O163" s="35"/>
-      <c r="P163" s="35"/>
-      <c r="Q163" s="35"/>
-      <c r="R163" s="35"/>
-      <c r="S163" s="35"/>
-      <c r="T163" s="35"/>
-      <c r="U163" s="35"/>
-      <c r="V163" s="35"/>
-      <c r="W163" s="35"/>
-      <c r="X163" s="35"/>
-      <c r="Y163" s="35"/>
-      <c r="Z163" s="35"/>
-      <c r="AA163" s="35"/>
-      <c r="AB163" s="35"/>
-      <c r="AC163" s="35"/>
-      <c r="AD163" s="35"/>
-      <c r="AE163" s="35"/>
-      <c r="AF163" s="35"/>
-      <c r="AG163" s="35"/>
-      <c r="AH163" s="35"/>
-      <c r="AI163" s="35"/>
-      <c r="AJ163" s="35"/>
-      <c r="AK163" s="35"/>
-      <c r="AL163" s="35"/>
-      <c r="AM163" s="35"/>
-      <c r="AN163" s="35"/>
-      <c r="AO163" s="35"/>
-      <c r="AP163" s="35"/>
-      <c r="AQ163" s="35"/>
-      <c r="AR163" s="35"/>
-      <c r="AS163" s="35"/>
-      <c r="AT163" s="35"/>
-      <c r="AU163" s="35"/>
-      <c r="AV163" s="35"/>
-      <c r="AW163" s="35"/>
-      <c r="AX163" s="35"/>
-      <c r="AY163" s="35"/>
-      <c r="AZ163" s="35"/>
-      <c r="BA163" s="35"/>
-      <c r="BB163" s="35"/>
-      <c r="BC163" s="35"/>
-      <c r="BD163" s="35"/>
-      <c r="BE163" s="35"/>
-      <c r="BF163" s="35"/>
-      <c r="BG163" s="35"/>
-      <c r="BH163" s="35"/>
-      <c r="BI163" s="35"/>
-      <c r="BJ163" s="35"/>
-      <c r="BK163" s="35"/>
-      <c r="BL163" s="35"/>
-      <c r="BM163" s="35"/>
-      <c r="BN163" s="35"/>
-      <c r="BO163" s="35"/>
-      <c r="BP163" s="35"/>
-      <c r="BQ163" s="35"/>
-      <c r="BR163" s="35"/>
-      <c r="BS163" s="35"/>
-      <c r="BT163" s="35"/>
-      <c r="BU163" s="35"/>
-      <c r="BV163" s="35"/>
-      <c r="BW163" s="35"/>
-      <c r="BX163" s="35"/>
-      <c r="BY163" s="35"/>
-      <c r="BZ163" s="35"/>
-      <c r="CA163" s="35"/>
-      <c r="CB163" s="35"/>
-      <c r="CC163" s="35"/>
-      <c r="CD163" s="35"/>
-      <c r="CE163" s="35"/>
-      <c r="CF163" s="35"/>
-      <c r="CG163" s="35"/>
-      <c r="CH163" s="35"/>
-      <c r="CI163" s="35"/>
-      <c r="CJ163" s="35"/>
-      <c r="CK163" s="35"/>
-      <c r="CL163" s="35"/>
-      <c r="CM163" s="35"/>
-      <c r="CN163" s="35"/>
-      <c r="CO163" s="35"/>
-      <c r="CP163" s="35"/>
-      <c r="CQ163" s="35"/>
-      <c r="CR163" s="35"/>
-      <c r="CS163" s="35"/>
-      <c r="CT163" s="35"/>
-      <c r="CU163" s="35"/>
-      <c r="CV163" s="35"/>
-      <c r="CW163" s="35"/>
-      <c r="CX163" s="35"/>
+    <row r="163" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="28"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
+      <c r="I163" s="29"/>
+      <c r="J163" s="29"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="29"/>
+      <c r="M163" s="29"/>
+      <c r="N163" s="29"/>
+      <c r="O163" s="29"/>
+      <c r="P163" s="29"/>
+      <c r="Q163" s="29"/>
+      <c r="R163" s="29"/>
+      <c r="S163" s="29"/>
+      <c r="T163" s="29"/>
+      <c r="U163" s="29"/>
+      <c r="V163" s="29"/>
+      <c r="W163" s="29"/>
+      <c r="X163" s="29"/>
+      <c r="Y163" s="29"/>
+      <c r="Z163" s="29"/>
+      <c r="AA163" s="29"/>
+      <c r="AB163" s="29"/>
+      <c r="AC163" s="29"/>
+      <c r="AD163" s="29"/>
+      <c r="AE163" s="29"/>
+      <c r="AF163" s="29"/>
+      <c r="AG163" s="29"/>
+      <c r="AH163" s="29"/>
+      <c r="AI163" s="29"/>
+      <c r="AJ163" s="29"/>
+      <c r="AK163" s="29"/>
+      <c r="AL163" s="29"/>
+      <c r="AM163" s="29"/>
+      <c r="AN163" s="29"/>
+      <c r="AO163" s="29"/>
+      <c r="AP163" s="29"/>
+      <c r="AQ163" s="29"/>
+      <c r="AR163" s="29"/>
+      <c r="AS163" s="29"/>
+      <c r="AT163" s="29"/>
+      <c r="AU163" s="29"/>
+      <c r="AV163" s="29"/>
+      <c r="AW163" s="29"/>
+      <c r="AX163" s="29"/>
+      <c r="AY163" s="29"/>
+      <c r="AZ163" s="29"/>
+      <c r="BA163" s="29"/>
+      <c r="BB163" s="29"/>
+      <c r="BC163" s="29"/>
+      <c r="BD163" s="29"/>
+      <c r="BE163" s="29"/>
+      <c r="BF163" s="29"/>
+      <c r="BG163" s="29"/>
+      <c r="BH163" s="29"/>
+      <c r="BI163" s="29"/>
+      <c r="BJ163" s="29"/>
+      <c r="BK163" s="29"/>
+      <c r="BL163" s="29"/>
+      <c r="BM163" s="29"/>
+      <c r="BN163" s="29"/>
+      <c r="BO163" s="29"/>
+      <c r="BP163" s="29"/>
+      <c r="BQ163" s="29"/>
+      <c r="BR163" s="29"/>
+      <c r="BS163" s="29"/>
+      <c r="BT163" s="29"/>
+      <c r="BU163" s="29"/>
+      <c r="BV163" s="29"/>
+      <c r="BW163" s="29"/>
+      <c r="BX163" s="29"/>
+      <c r="BY163" s="29"/>
+      <c r="BZ163" s="29"/>
+      <c r="CA163" s="29"/>
+      <c r="CB163" s="29"/>
+      <c r="CC163" s="29"/>
+      <c r="CD163" s="29"/>
+      <c r="CE163" s="29"/>
+      <c r="CF163" s="29"/>
+      <c r="CG163" s="29"/>
+      <c r="CH163" s="29"/>
+      <c r="CI163" s="29"/>
+      <c r="CJ163" s="29"/>
+      <c r="CK163" s="29"/>
+      <c r="CL163" s="29"/>
+      <c r="CM163" s="29"/>
+      <c r="CN163" s="29"/>
+      <c r="CO163" s="29"/>
+      <c r="CP163" s="29"/>
+      <c r="CQ163" s="29"/>
+      <c r="CR163" s="29"/>
+      <c r="CS163" s="29"/>
+      <c r="CT163" s="29"/>
+      <c r="CU163" s="29"/>
+      <c r="CV163" s="29"/>
+      <c r="CW163" s="29"/>
+      <c r="CX163" s="30"/>
     </row>
-    <row r="165" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="166" spans="1:102" x14ac:dyDescent="0.35">
-      <c r="D166" s="99"/>
+    <row r="164" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A164" s="78"/>
+      <c r="B164" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="81">
+        <v>18.04</v>
+      </c>
+      <c r="E164" s="82">
+        <v>25.04</v>
+      </c>
+      <c r="F164" s="19"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="20"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="20"/>
+      <c r="O164" s="20"/>
+      <c r="P164" s="20"/>
+      <c r="Q164" s="20"/>
+      <c r="R164" s="20"/>
+      <c r="S164" s="20"/>
+      <c r="T164" s="20"/>
+      <c r="U164" s="20"/>
+      <c r="V164" s="20"/>
+      <c r="W164" s="20"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+      <c r="Z164" s="20"/>
+      <c r="AA164" s="20"/>
+      <c r="AB164" s="20"/>
+      <c r="AC164" s="20"/>
+      <c r="AD164" s="20"/>
+      <c r="AE164" s="20"/>
+      <c r="AF164" s="20"/>
+      <c r="AG164" s="20"/>
+      <c r="AH164" s="20"/>
+      <c r="AI164" s="20"/>
+      <c r="AJ164" s="20"/>
+      <c r="AK164" s="20"/>
+      <c r="AL164" s="20"/>
+      <c r="AM164" s="20"/>
+      <c r="AN164" s="20"/>
+      <c r="AO164" s="20"/>
+      <c r="AP164" s="20"/>
+      <c r="AQ164" s="20"/>
+      <c r="AR164" s="20"/>
+      <c r="AS164" s="20"/>
+      <c r="AT164" s="20"/>
+      <c r="AU164" s="20"/>
+      <c r="AV164" s="20"/>
+      <c r="AW164" s="20"/>
+      <c r="AX164" s="20"/>
+      <c r="AY164" s="20"/>
+      <c r="AZ164" s="20"/>
+      <c r="BA164" s="20"/>
+      <c r="BB164" s="20"/>
+      <c r="BC164" s="20"/>
+      <c r="BD164" s="20"/>
+      <c r="BE164" s="20"/>
+      <c r="BF164" s="20"/>
+      <c r="BG164" s="20"/>
+      <c r="BH164" s="20"/>
+      <c r="BI164" s="20"/>
+      <c r="BJ164" s="20"/>
+      <c r="BK164" s="20"/>
+      <c r="BL164" s="20"/>
+      <c r="BM164" s="20"/>
+      <c r="BN164" s="20"/>
+      <c r="BO164" s="20"/>
+      <c r="BP164" s="20"/>
+      <c r="BQ164" s="20"/>
+      <c r="BR164" s="20"/>
+      <c r="BS164" s="20"/>
+      <c r="BT164" s="20"/>
+      <c r="BU164" s="20"/>
+      <c r="BV164" s="20"/>
+      <c r="BW164" s="20"/>
+      <c r="BX164" s="20"/>
+      <c r="BY164" s="20"/>
+      <c r="BZ164" s="20"/>
+      <c r="CA164" s="20"/>
+      <c r="CB164" s="20"/>
+      <c r="CC164" s="20"/>
+      <c r="CD164" s="20"/>
+      <c r="CE164" s="20"/>
+      <c r="CF164" s="20"/>
+      <c r="CG164" s="20"/>
+      <c r="CH164" s="20"/>
+      <c r="CI164" s="20"/>
+      <c r="CJ164" s="20"/>
+      <c r="CK164" s="20"/>
+      <c r="CL164" s="20"/>
+      <c r="CM164" s="20"/>
+      <c r="CN164" s="20"/>
+      <c r="CO164" s="20"/>
+      <c r="CP164" s="20"/>
+      <c r="CQ164" s="20"/>
+      <c r="CR164" s="20"/>
+      <c r="CS164" s="20"/>
+      <c r="CT164" s="20"/>
+      <c r="CU164" s="20"/>
+      <c r="CV164" s="20"/>
+      <c r="CW164" s="20"/>
+      <c r="CX164" s="21"/>
+    </row>
+    <row r="165" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A165" s="79"/>
+      <c r="B165" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="81"/>
+      <c r="E165" s="82"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="20"/>
+      <c r="K165" s="20"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="20"/>
+      <c r="N165" s="20"/>
+      <c r="O165" s="20"/>
+      <c r="P165" s="20"/>
+      <c r="Q165" s="20"/>
+      <c r="R165" s="20"/>
+      <c r="S165" s="20"/>
+      <c r="T165" s="20"/>
+      <c r="U165" s="20"/>
+      <c r="V165" s="20"/>
+      <c r="W165" s="20"/>
+      <c r="X165" s="20"/>
+      <c r="Y165" s="20"/>
+      <c r="Z165" s="20"/>
+      <c r="AA165" s="20"/>
+      <c r="AB165" s="20"/>
+      <c r="AC165" s="20"/>
+      <c r="AD165" s="20"/>
+      <c r="AE165" s="20"/>
+      <c r="AF165" s="20"/>
+      <c r="AG165" s="20"/>
+      <c r="AH165" s="20"/>
+      <c r="AI165" s="20"/>
+      <c r="AJ165" s="20"/>
+      <c r="AK165" s="20"/>
+      <c r="AL165" s="20"/>
+      <c r="AM165" s="20"/>
+      <c r="AN165" s="20"/>
+      <c r="AO165" s="20"/>
+      <c r="AP165" s="20"/>
+      <c r="AQ165" s="20"/>
+      <c r="AR165" s="20"/>
+      <c r="AS165" s="20"/>
+      <c r="AT165" s="20"/>
+      <c r="AU165" s="20"/>
+      <c r="AV165" s="20"/>
+      <c r="AW165" s="20"/>
+      <c r="AX165" s="20"/>
+      <c r="AY165" s="20"/>
+      <c r="AZ165" s="20"/>
+      <c r="BA165" s="20"/>
+      <c r="BB165" s="20"/>
+      <c r="BC165" s="20"/>
+      <c r="BD165" s="20"/>
+      <c r="BE165" s="20"/>
+      <c r="BF165" s="20"/>
+      <c r="BG165" s="20"/>
+      <c r="BH165" s="20"/>
+      <c r="BI165" s="20"/>
+      <c r="BJ165" s="20"/>
+      <c r="BK165" s="20"/>
+      <c r="BL165" s="20"/>
+      <c r="BM165" s="20"/>
+      <c r="BN165" s="20"/>
+      <c r="BO165" s="20"/>
+      <c r="BP165" s="20"/>
+      <c r="BQ165" s="20"/>
+      <c r="BR165" s="20"/>
+      <c r="BS165" s="20"/>
+      <c r="BT165" s="20"/>
+      <c r="BU165" s="20"/>
+      <c r="BV165" s="20"/>
+      <c r="BW165" s="20"/>
+      <c r="BX165" s="20"/>
+      <c r="BY165" s="20"/>
+      <c r="BZ165" s="20"/>
+      <c r="CA165" s="20"/>
+      <c r="CB165" s="20"/>
+      <c r="CC165" s="20"/>
+      <c r="CD165" s="20"/>
+      <c r="CE165" s="20"/>
+      <c r="CF165" s="20"/>
+      <c r="CG165" s="20"/>
+      <c r="CH165" s="20"/>
+      <c r="CI165" s="20"/>
+      <c r="CJ165" s="20"/>
+      <c r="CK165" s="20"/>
+      <c r="CL165" s="20"/>
+      <c r="CM165" s="20"/>
+      <c r="CN165" s="20"/>
+      <c r="CO165" s="20"/>
+      <c r="CP165" s="20"/>
+      <c r="CQ165" s="20"/>
+      <c r="CR165" s="20"/>
+      <c r="CS165" s="20"/>
+      <c r="CT165" s="20"/>
+      <c r="CU165" s="20"/>
+      <c r="CV165" s="20"/>
+      <c r="CW165" s="20"/>
+      <c r="CX165" s="21"/>
+    </row>
+    <row r="166" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="11"/>
+      <c r="C166" s="64"/>
+      <c r="D166" s="92">
+        <v>44348</v>
+      </c>
       <c r="E166" s="93"/>
-      <c r="F166" s="37"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="20"/>
+      <c r="K166" s="20"/>
+      <c r="L166" s="20"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="20"/>
+      <c r="O166" s="20"/>
+      <c r="P166" s="20"/>
+      <c r="Q166" s="20"/>
+      <c r="R166" s="20"/>
+      <c r="S166" s="20"/>
+      <c r="T166" s="20"/>
+      <c r="U166" s="20"/>
+      <c r="V166" s="20"/>
+      <c r="W166" s="20"/>
+      <c r="X166" s="20"/>
+      <c r="Y166" s="20"/>
+      <c r="Z166" s="20"/>
+      <c r="AA166" s="20"/>
+      <c r="AB166" s="20"/>
+      <c r="AC166" s="20"/>
+      <c r="AD166" s="20"/>
+      <c r="AE166" s="20"/>
+      <c r="AF166" s="20"/>
+      <c r="AG166" s="20"/>
+      <c r="AH166" s="20"/>
+      <c r="AI166" s="20"/>
+      <c r="AJ166" s="20"/>
+      <c r="AK166" s="20"/>
+      <c r="AL166" s="20"/>
+      <c r="AM166" s="20"/>
+      <c r="AN166" s="20"/>
+      <c r="AO166" s="20"/>
+      <c r="AP166" s="20"/>
+      <c r="AQ166" s="20"/>
+      <c r="AR166" s="20"/>
+      <c r="AS166" s="20"/>
+      <c r="AT166" s="20"/>
+      <c r="AU166" s="20"/>
+      <c r="AV166" s="20"/>
+      <c r="AW166" s="20"/>
+      <c r="AX166" s="20"/>
+      <c r="AY166" s="20"/>
+      <c r="AZ166" s="20"/>
+      <c r="BA166" s="20"/>
+      <c r="BB166" s="20"/>
+      <c r="BC166" s="20"/>
+      <c r="BD166" s="20"/>
+      <c r="BE166" s="20"/>
+      <c r="BF166" s="20"/>
+      <c r="BG166" s="20"/>
+      <c r="BH166" s="20"/>
+      <c r="BI166" s="20"/>
+      <c r="BJ166" s="20"/>
+      <c r="BK166" s="20"/>
+      <c r="BL166" s="20"/>
+      <c r="BM166" s="20"/>
+      <c r="BN166" s="20"/>
+      <c r="BO166" s="20"/>
+      <c r="BP166" s="20"/>
+      <c r="BQ166" s="20"/>
+      <c r="BR166" s="20"/>
+      <c r="BS166" s="20"/>
+      <c r="BT166" s="20"/>
+      <c r="BU166" s="20"/>
+      <c r="BV166" s="20"/>
+      <c r="BW166" s="20"/>
+      <c r="BX166" s="20"/>
+      <c r="BY166" s="20"/>
+      <c r="BZ166" s="20"/>
+      <c r="CA166" s="20"/>
+      <c r="CB166" s="20"/>
+      <c r="CC166" s="20"/>
+      <c r="CD166" s="20"/>
+      <c r="CE166" s="20"/>
+      <c r="CF166" s="20"/>
+      <c r="CG166" s="20"/>
+      <c r="CH166" s="20"/>
+      <c r="CI166" s="20"/>
+      <c r="CJ166" s="20"/>
+      <c r="CK166" s="20"/>
+      <c r="CL166" s="20"/>
+      <c r="CM166" s="20"/>
+      <c r="CN166" s="20"/>
+      <c r="CO166" s="20"/>
+      <c r="CP166" s="20"/>
+      <c r="CQ166" s="20"/>
+      <c r="CR166" s="20"/>
+      <c r="CS166" s="20"/>
+      <c r="CT166" s="20"/>
+      <c r="CU166" s="20"/>
+      <c r="CV166" s="20"/>
+      <c r="CW166" s="20"/>
+      <c r="CX166" s="21"/>
     </row>
-    <row r="167" spans="1:102" x14ac:dyDescent="0.35">
-      <c r="D167" s="100"/>
-      <c r="E167" s="55" t="s">
+    <row r="167" spans="1:102" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="65"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="65"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="35"/>
+      <c r="J167" s="35"/>
+      <c r="K167" s="35"/>
+      <c r="L167" s="35"/>
+      <c r="M167" s="35"/>
+      <c r="N167" s="35"/>
+      <c r="O167" s="35"/>
+      <c r="P167" s="35"/>
+      <c r="Q167" s="35"/>
+      <c r="R167" s="35"/>
+      <c r="S167" s="35"/>
+      <c r="T167" s="35"/>
+      <c r="U167" s="35"/>
+      <c r="V167" s="35"/>
+      <c r="W167" s="35"/>
+      <c r="X167" s="35"/>
+      <c r="Y167" s="35"/>
+      <c r="Z167" s="35"/>
+      <c r="AA167" s="35"/>
+      <c r="AB167" s="35"/>
+      <c r="AC167" s="35"/>
+      <c r="AD167" s="35"/>
+      <c r="AE167" s="35"/>
+      <c r="AF167" s="35"/>
+      <c r="AG167" s="35"/>
+      <c r="AH167" s="35"/>
+      <c r="AI167" s="35"/>
+      <c r="AJ167" s="35"/>
+      <c r="AK167" s="35"/>
+      <c r="AL167" s="35"/>
+      <c r="AM167" s="35"/>
+      <c r="AN167" s="35"/>
+      <c r="AO167" s="35"/>
+      <c r="AP167" s="35"/>
+      <c r="AQ167" s="35"/>
+      <c r="AR167" s="35"/>
+      <c r="AS167" s="35"/>
+      <c r="AT167" s="35"/>
+      <c r="AU167" s="35"/>
+      <c r="AV167" s="35"/>
+      <c r="AW167" s="35"/>
+      <c r="AX167" s="35"/>
+      <c r="AY167" s="35"/>
+      <c r="AZ167" s="35"/>
+      <c r="BA167" s="35"/>
+      <c r="BB167" s="35"/>
+      <c r="BC167" s="35"/>
+      <c r="BD167" s="35"/>
+      <c r="BE167" s="35"/>
+      <c r="BF167" s="35"/>
+      <c r="BG167" s="35"/>
+      <c r="BH167" s="35"/>
+      <c r="BI167" s="35"/>
+      <c r="BJ167" s="35"/>
+      <c r="BK167" s="35"/>
+      <c r="BL167" s="35"/>
+      <c r="BM167" s="35"/>
+      <c r="BN167" s="35"/>
+      <c r="BO167" s="35"/>
+      <c r="BP167" s="35"/>
+      <c r="BQ167" s="35"/>
+      <c r="BR167" s="35"/>
+      <c r="BS167" s="35"/>
+      <c r="BT167" s="35"/>
+      <c r="BU167" s="35"/>
+      <c r="BV167" s="35"/>
+      <c r="BW167" s="35"/>
+      <c r="BX167" s="35"/>
+      <c r="BY167" s="35"/>
+      <c r="BZ167" s="35"/>
+      <c r="CA167" s="35"/>
+      <c r="CB167" s="35"/>
+      <c r="CC167" s="35"/>
+      <c r="CD167" s="35"/>
+      <c r="CE167" s="35"/>
+      <c r="CF167" s="35"/>
+      <c r="CG167" s="35"/>
+      <c r="CH167" s="35"/>
+      <c r="CI167" s="35"/>
+      <c r="CJ167" s="35"/>
+      <c r="CK167" s="35"/>
+      <c r="CL167" s="35"/>
+      <c r="CM167" s="35"/>
+      <c r="CN167" s="35"/>
+      <c r="CO167" s="35"/>
+      <c r="CP167" s="35"/>
+      <c r="CQ167" s="35"/>
+      <c r="CR167" s="35"/>
+      <c r="CS167" s="35"/>
+      <c r="CT167" s="35"/>
+      <c r="CU167" s="35"/>
+      <c r="CV167" s="35"/>
+      <c r="CW167" s="35"/>
+      <c r="CX167" s="35"/>
+    </row>
+    <row r="169" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="D170" s="74"/>
+      <c r="E170" s="68"/>
+      <c r="F170" s="37"/>
+    </row>
+    <row r="171" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="D171" s="75"/>
+      <c r="E171" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F167" s="38"/>
+      <c r="F171" s="38"/>
     </row>
-    <row r="168" spans="1:102" x14ac:dyDescent="0.35">
-      <c r="D168" s="101"/>
-      <c r="E168" s="55" t="s">
+    <row r="172" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="D172" s="76"/>
+      <c r="E172" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F168" s="38"/>
+      <c r="F172" s="38"/>
     </row>
-    <row r="169" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D169" s="102"/>
-      <c r="E169" s="94" t="s">
+    <row r="173" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D173" s="77"/>
+      <c r="E173" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F169" s="39"/>
+      <c r="F173" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="193">
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
+  <mergeCells count="199">
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="E89:E90"/>
     <mergeCell ref="D91:D92"/>
@@ -20840,166 +21491,15 @@
     <mergeCell ref="D111:D112"/>
     <mergeCell ref="E111:E112"/>
     <mergeCell ref="A113:A114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitsplan/Iteration_Arbeitsplan.xlsx
+++ b/Arbeitsplan/Iteration_Arbeitsplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Eonum\PSE_DELIVERABLES\Arbeitsplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meni\Documents\GitHub\PSE_DELIVERABLES\Arbeitsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE86BB-CB0E-48A7-B8D1-7BA9D6F131F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5D0AB0-7FEE-4048-BCD9-A7478D6C6F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="82">
   <si>
     <t>Zeitplan PSE eonum AG</t>
   </si>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>Dokumentation für Tests schreiben</t>
+  </si>
+  <si>
+    <t>Bugs suchen und fixen</t>
+  </si>
+  <si>
+    <t>Usability Tests ausführen und -werten</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Bugs suchen und Code durchgehen</t>
   </si>
 </sst>
 </file>
@@ -993,6 +1005,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,50 +1020,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1068,9 +1059,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1091,13 +1103,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1323,13 +1335,13 @@
     <xdr:from>
       <xdr:col>89</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1381,13 +1393,13 @@
     <xdr:from>
       <xdr:col>101</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>101</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1439,7 +1451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1735,32 +1747,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD384E66-6977-4A33-945E-14F730629694}">
-  <dimension ref="A1:CY173"/>
+  <dimension ref="A1:CY177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CG127" sqref="CG127"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="36" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="36"/>
-    <col min="6" max="102" width="5.5703125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="36" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="36"/>
+    <col min="6" max="102" width="5.5546875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="98" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="99"/>
+      <c r="E1" s="92"/>
       <c r="F1" s="18">
         <v>44615</v>
       </c>
@@ -2054,7 +2066,7 @@
       </c>
       <c r="CY1" s="16"/>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="59"/>
@@ -2159,7 +2171,7 @@
       <c r="CX2" s="21"/>
       <c r="CY2" s="17"/>
     </row>
-    <row r="3" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2269,7 +2281,7 @@
       <c r="CX3" s="24"/>
       <c r="CY3" s="17"/>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2398,7 @@
       <c r="CX4" s="27"/>
       <c r="CY4" s="17"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2515,8 @@
       <c r="CX5" s="30"/>
       <c r="CY5" s="17"/>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2513,10 +2525,10 @@
       <c r="C6" s="62">
         <v>5</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="82">
         <v>23.02</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="86">
         <v>16.03</v>
       </c>
       <c r="F6" s="45"/>
@@ -2624,8 +2636,8 @@
       <c r="CX6" s="47"/>
       <c r="CY6" s="17"/>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="81"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -2633,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="83"/>
-      <c r="E7" s="88"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="45"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
@@ -2739,8 +2751,8 @@
       <c r="CX7" s="47"/>
       <c r="CY7" s="17"/>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A8" s="80" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2749,10 +2761,10 @@
       <c r="C8" s="62">
         <v>2</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="82">
         <v>23.02</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="86">
         <v>16.03</v>
       </c>
       <c r="F8" s="19"/>
@@ -2856,8 +2868,8 @@
       <c r="CX8" s="21"/>
       <c r="CY8" s="17"/>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
+    <row r="9" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A9" s="81"/>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2865,7 +2877,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="83"/>
-      <c r="E9" s="88"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -2967,7 +2979,7 @@
       <c r="CX9" s="21"/>
       <c r="CY9" s="17"/>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -3084,8 +3096,8 @@
       <c r="CX10" s="30"/>
       <c r="CY10" s="17"/>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A11" s="80" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3095,10 +3107,10 @@
         <f>SUM(F11:CX11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="82">
         <v>23.02</v>
       </c>
-      <c r="E11" s="87">
+      <c r="E11" s="86">
         <v>16.03</v>
       </c>
       <c r="F11" s="19"/>
@@ -3202,8 +3214,8 @@
       <c r="CX11" s="21"/>
       <c r="CY11" s="17"/>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
+    <row r="12" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A12" s="81"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -3212,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="83"/>
-      <c r="E12" s="88"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -3314,8 +3326,8 @@
       <c r="CX12" s="21"/>
       <c r="CY12" s="17"/>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="80" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -3325,10 +3337,10 @@
         <f>SUM(F13:CX13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="82">
         <v>23.02</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="86">
         <v>16.03</v>
       </c>
       <c r="F13" s="19"/>
@@ -3434,8 +3446,8 @@
       <c r="CX13" s="21"/>
       <c r="CY13" s="17"/>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="96"/>
       <c r="B14" s="43" t="s">
         <v>8</v>
       </c>
@@ -3444,7 +3456,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="83"/>
-      <c r="E14" s="88"/>
+      <c r="E14" s="85"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -3551,7 +3563,7 @@
       <c r="CX14" s="21"/>
       <c r="CY14" s="17"/>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>22</v>
       </c>
@@ -3668,8 +3680,8 @@
       <c r="CX15" s="30"/>
       <c r="CY15" s="17"/>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="80" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3678,10 +3690,10 @@
       <c r="C16" s="62">
         <v>3</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="82">
         <v>23.02</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="86">
         <v>16.03</v>
       </c>
       <c r="F16" s="19"/>
@@ -3785,16 +3797,16 @@
       <c r="CX16" s="21"/>
       <c r="CY16" s="17"/>
     </row>
-    <row r="17" spans="1:103" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
+    <row r="17" spans="1:103" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="96"/>
       <c r="B17" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="62">
         <v>3</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="89"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -3896,8 +3908,8 @@
       <c r="CX17" s="21"/>
       <c r="CY17" s="49"/>
     </row>
-    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="96" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3906,10 +3918,10 @@
       <c r="C18" s="62">
         <v>4</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="78">
         <v>23.02</v>
       </c>
-      <c r="E18" s="89">
+      <c r="E18" s="84">
         <v>16.03</v>
       </c>
       <c r="F18" s="19"/>
@@ -4015,8 +4027,8 @@
       <c r="CX18" s="21"/>
       <c r="CY18" s="17"/>
     </row>
-    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="81"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
@@ -4024,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="83"/>
-      <c r="E19" s="88"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -4128,7 +4140,7 @@
       <c r="CX19" s="21"/>
       <c r="CY19" s="17"/>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -4245,8 +4257,8 @@
       <c r="CX20" s="30"/>
       <c r="CY20" s="17"/>
     </row>
-    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="80" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -4255,10 +4267,10 @@
       <c r="C21" s="62">
         <v>1</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="82">
         <v>23.02</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="86">
         <v>16.03</v>
       </c>
       <c r="F21" s="19"/>
@@ -4362,8 +4374,8 @@
       <c r="CX21" s="21"/>
       <c r="CY21" s="17"/>
     </row>
-    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="81"/>
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
@@ -4371,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="83"/>
-      <c r="E22" s="88"/>
+      <c r="E22" s="85"/>
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -4473,8 +4485,8 @@
       <c r="CX22" s="21"/>
       <c r="CY22" s="17"/>
     </row>
-    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4484,10 +4496,10 @@
         <f>SUM(F23:CX23)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="82">
         <v>23.02</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="86">
         <v>16.03</v>
       </c>
       <c r="F23" s="19"/>
@@ -4597,8 +4609,8 @@
       <c r="CX23" s="21"/>
       <c r="CY23" s="17"/>
     </row>
-    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
+    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="81"/>
       <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="83"/>
-      <c r="E24" s="88"/>
+      <c r="E24" s="85"/>
       <c r="F24" s="19"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -4715,7 +4727,7 @@
       <c r="CX24" s="21"/>
       <c r="CY24" s="17"/>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -4830,8 +4842,8 @@
       <c r="CX25" s="30"/>
       <c r="CY25" s="17"/>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A26" s="80" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4840,10 +4852,10 @@
       <c r="C26" s="62">
         <v>4.5</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="82">
         <v>23.02</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="86">
         <v>16.03</v>
       </c>
       <c r="F26" s="19"/>
@@ -4953,8 +4965,8 @@
       <c r="CX26" s="21"/>
       <c r="CY26" s="17"/>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
+    <row r="27" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A27" s="81"/>
       <c r="B27" s="6" t="s">
         <v>8</v>
       </c>
@@ -4962,7 +4974,7 @@
         <v>4.5</v>
       </c>
       <c r="D27" s="83"/>
-      <c r="E27" s="88"/>
+      <c r="E27" s="85"/>
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -5070,8 +5082,8 @@
       <c r="CX27" s="21"/>
       <c r="CY27" s="17"/>
     </row>
-    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78" t="s">
+    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="80" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -5080,10 +5092,10 @@
       <c r="C28" s="62">
         <v>1</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="82">
         <v>23.02</v>
       </c>
-      <c r="E28" s="87">
+      <c r="E28" s="86">
         <v>16.03</v>
       </c>
       <c r="F28" s="19"/>
@@ -5189,8 +5201,8 @@
       <c r="CX28" s="21"/>
       <c r="CY28" s="17"/>
     </row>
-    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
+    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="81"/>
       <c r="B29" s="6" t="s">
         <v>8</v>
       </c>
@@ -5198,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="83"/>
-      <c r="E29" s="88"/>
+      <c r="E29" s="85"/>
       <c r="F29" s="19"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -5302,8 +5314,8 @@
       <c r="CX29" s="21"/>
       <c r="CY29" s="17"/>
     </row>
-    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
+    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="80" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -5312,10 +5324,10 @@
       <c r="C30" s="62">
         <v>4</v>
       </c>
-      <c r="D30" s="80">
+      <c r="D30" s="82">
         <v>23.02</v>
       </c>
-      <c r="E30" s="87">
+      <c r="E30" s="86">
         <v>16.03</v>
       </c>
       <c r="F30" s="19"/>
@@ -5423,8 +5435,8 @@
       <c r="CX30" s="21"/>
       <c r="CY30" s="17"/>
     </row>
-    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
+    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="81"/>
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
@@ -5432,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="83"/>
-      <c r="E31" s="88"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -5538,16 +5550,16 @@
       <c r="CX31" s="21"/>
       <c r="CY31" s="17"/>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="62"/>
-      <c r="D32" s="92">
+      <c r="D32" s="87">
         <v>44636</v>
       </c>
-      <c r="E32" s="93"/>
+      <c r="E32" s="88"/>
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -5647,7 +5659,7 @@
       <c r="CX32" s="21"/>
       <c r="CY32" s="17"/>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>13</v>
       </c>
@@ -5764,7 +5776,7 @@
       <c r="CX33" s="34"/>
       <c r="CY33" s="17"/>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
@@ -5879,8 +5891,8 @@
       <c r="CX34" s="30"/>
       <c r="CY34" s="17"/>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A35" s="78" t="s">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A35" s="80" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -5889,10 +5901,10 @@
       <c r="C35" s="62">
         <v>3</v>
       </c>
-      <c r="D35" s="81">
+      <c r="D35" s="78">
         <v>23.03</v>
       </c>
-      <c r="E35" s="82">
+      <c r="E35" s="79">
         <v>6.04</v>
       </c>
       <c r="F35" s="19"/>
@@ -6000,16 +6012,16 @@
       <c r="CX35" s="21"/>
       <c r="CY35" s="17"/>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
+    <row r="36" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A36" s="81"/>
       <c r="B36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="62">
         <v>6</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="82"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="19"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
@@ -6115,8 +6127,8 @@
       <c r="CX36" s="21"/>
       <c r="CY36" s="17"/>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+    <row r="37" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A37" s="80" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -6125,10 +6137,10 @@
       <c r="C37" s="62">
         <v>2</v>
       </c>
-      <c r="D37" s="81">
+      <c r="D37" s="78">
         <v>23.03</v>
       </c>
-      <c r="E37" s="82">
+      <c r="E37" s="79">
         <v>6.04</v>
       </c>
       <c r="F37" s="19"/>
@@ -6232,16 +6244,16 @@
       <c r="CX37" s="21"/>
       <c r="CY37" s="17"/>
     </row>
-    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
+    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="81"/>
       <c r="B38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="62">
         <v>3</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="82"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="19"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -6343,8 +6355,8 @@
       <c r="CX38" s="21"/>
       <c r="CY38" s="17"/>
     </row>
-    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="80" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -6353,10 +6365,10 @@
       <c r="C39" s="62">
         <v>2</v>
       </c>
-      <c r="D39" s="81">
+      <c r="D39" s="78">
         <v>23.03</v>
       </c>
-      <c r="E39" s="82">
+      <c r="E39" s="79">
         <v>6.04</v>
       </c>
       <c r="F39" s="19"/>
@@ -6462,16 +6474,16 @@
       <c r="CX39" s="21"/>
       <c r="CY39" s="17"/>
     </row>
-    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
+    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="81"/>
       <c r="B40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="62">
         <v>2</v>
       </c>
-      <c r="D40" s="81"/>
-      <c r="E40" s="82"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
@@ -6575,7 +6587,7 @@
       <c r="CX40" s="21"/>
       <c r="CY40" s="17"/>
     </row>
-    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -6692,8 +6704,8 @@
       <c r="CX41" s="30"/>
       <c r="CY41" s="17"/>
     </row>
-    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="78" t="s">
+    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="80" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6703,10 +6715,10 @@
         <f>SUM(F42:AX42)</f>
         <v>11</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="87">
+      <c r="E42" s="86">
         <v>6.04</v>
       </c>
       <c r="F42" s="19"/>
@@ -6826,8 +6838,8 @@
       <c r="CX42" s="21"/>
       <c r="CY42" s="10"/>
     </row>
-    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
+    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="81"/>
       <c r="B43" s="6" t="s">
         <v>8</v>
       </c>
@@ -6836,7 +6848,7 @@
         <v>13.5</v>
       </c>
       <c r="D43" s="83"/>
-      <c r="E43" s="88"/>
+      <c r="E43" s="85"/>
       <c r="F43" s="19"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -6953,8 +6965,8 @@
       <c r="CX43" s="21"/>
       <c r="CY43" s="10"/>
     </row>
-    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
+    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="80" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -6964,10 +6976,10 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D44" s="80" t="s">
+      <c r="D44" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="87">
+      <c r="E44" s="86">
         <v>6.04</v>
       </c>
       <c r="F44" s="19"/>
@@ -7081,8 +7093,8 @@
       <c r="CX44" s="21"/>
       <c r="CY44" s="10"/>
     </row>
-    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
+    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="81"/>
       <c r="B45" s="6" t="s">
         <v>8</v>
       </c>
@@ -7091,7 +7103,7 @@
         <v>6.5</v>
       </c>
       <c r="D45" s="83"/>
-      <c r="E45" s="88"/>
+      <c r="E45" s="85"/>
       <c r="F45" s="19"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -7203,8 +7215,8 @@
       <c r="CX45" s="21"/>
       <c r="CY45" s="10"/>
     </row>
-    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="78" t="s">
+    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="80" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -7214,10 +7226,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D46" s="80" t="s">
+      <c r="D46" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="87">
+      <c r="E46" s="86">
         <v>6.04</v>
       </c>
       <c r="F46" s="19"/>
@@ -7321,8 +7333,8 @@
       <c r="CX46" s="21"/>
       <c r="CY46" s="10"/>
     </row>
-    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
+    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="81"/>
       <c r="B47" s="6" t="s">
         <v>8</v>
       </c>
@@ -7331,7 +7343,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="83"/>
-      <c r="E47" s="88"/>
+      <c r="E47" s="85"/>
       <c r="F47" s="19"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
@@ -7433,8 +7445,8 @@
       <c r="CX47" s="21"/>
       <c r="CY47" s="10"/>
     </row>
-    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="78" t="s">
+    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="80" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -7444,10 +7456,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="D48" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="87">
+      <c r="E48" s="86">
         <v>6.04</v>
       </c>
       <c r="F48" s="19"/>
@@ -7551,8 +7563,8 @@
       <c r="CX48" s="21"/>
       <c r="CY48" s="10"/>
     </row>
-    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
+    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="81"/>
       <c r="B49" s="6" t="s">
         <v>8</v>
       </c>
@@ -7561,7 +7573,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="83"/>
-      <c r="E49" s="88"/>
+      <c r="E49" s="85"/>
       <c r="F49" s="19"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
@@ -7663,7 +7675,7 @@
       <c r="CX49" s="21"/>
       <c r="CY49" s="10"/>
     </row>
-    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -7780,8 +7792,8 @@
       <c r="CX50" s="30"/>
       <c r="CY50" s="10"/>
     </row>
-    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="78" t="s">
+    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="80" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7790,10 +7802,10 @@
       <c r="C51" s="62">
         <v>3</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D51" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="87">
+      <c r="E51" s="86">
         <v>6.04</v>
       </c>
       <c r="F51" s="19"/>
@@ -7899,8 +7911,8 @@
       <c r="CX51" s="21"/>
       <c r="CY51" s="10"/>
     </row>
-    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
+    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="81"/>
       <c r="B52" s="6" t="s">
         <v>8</v>
       </c>
@@ -7908,7 +7920,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="83"/>
-      <c r="E52" s="88"/>
+      <c r="E52" s="85"/>
       <c r="F52" s="19"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -8012,8 +8024,8 @@
       <c r="CX52" s="21"/>
       <c r="CY52" s="10"/>
     </row>
-    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="78" t="s">
+    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="80" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -8022,10 +8034,10 @@
       <c r="C53" s="62">
         <v>6</v>
       </c>
-      <c r="D53" s="80" t="s">
+      <c r="D53" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="87">
+      <c r="E53" s="86">
         <v>6.04</v>
       </c>
       <c r="F53" s="19"/>
@@ -8136,8 +8148,8 @@
       <c r="CW53" s="20"/>
       <c r="CX53" s="21"/>
     </row>
-    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
+    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="81"/>
       <c r="B54" s="6" t="s">
         <v>8</v>
       </c>
@@ -8145,7 +8157,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="83"/>
-      <c r="E54" s="88"/>
+      <c r="E54" s="85"/>
       <c r="F54" s="19"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
@@ -8255,8 +8267,8 @@
       <c r="CX54" s="21"/>
       <c r="CY54" s="10"/>
     </row>
-    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78" t="s">
+    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="80" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -8265,10 +8277,10 @@
       <c r="C55" s="62">
         <v>1</v>
       </c>
-      <c r="D55" s="80" t="s">
+      <c r="D55" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="87">
+      <c r="E55" s="86">
         <v>6.04</v>
       </c>
       <c r="F55" s="19"/>
@@ -8372,8 +8384,8 @@
       <c r="CX55" s="21"/>
       <c r="CY55" s="10"/>
     </row>
-    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
+    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="81"/>
       <c r="B56" s="6" t="s">
         <v>8</v>
       </c>
@@ -8381,7 +8393,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="83"/>
-      <c r="E56" s="88"/>
+      <c r="E56" s="85"/>
       <c r="F56" s="19"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
@@ -8482,7 +8494,7 @@
       <c r="CW56" s="20"/>
       <c r="CX56" s="21"/>
     </row>
-    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>23</v>
       </c>
@@ -8599,8 +8611,8 @@
       <c r="CX57" s="30"/>
       <c r="CY57" s="17"/>
     </row>
-    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="96" t="s">
+    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="89" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -8609,10 +8621,10 @@
       <c r="C58" s="62">
         <v>4</v>
       </c>
-      <c r="D58" s="80" t="s">
+      <c r="D58" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="82">
+      <c r="E58" s="79">
         <v>6.04</v>
       </c>
       <c r="F58" s="19"/>
@@ -8722,8 +8734,8 @@
       <c r="CX58" s="21"/>
       <c r="CY58" s="17"/>
     </row>
-    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="97"/>
+    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="90"/>
       <c r="B59" s="6" t="s">
         <v>8</v>
       </c>
@@ -8731,7 +8743,7 @@
         <v>10</v>
       </c>
       <c r="D59" s="83"/>
-      <c r="E59" s="82"/>
+      <c r="E59" s="79"/>
       <c r="F59" s="19"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
@@ -8839,8 +8851,8 @@
       <c r="CX59" s="21"/>
       <c r="CY59" s="17"/>
     </row>
-    <row r="60" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A60" s="96" t="s">
+    <row r="60" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A60" s="89" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -8849,10 +8861,10 @@
       <c r="C60" s="62">
         <v>2</v>
       </c>
-      <c r="D60" s="80" t="s">
+      <c r="D60" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="82">
+      <c r="E60" s="79">
         <v>6.04</v>
       </c>
       <c r="F60" s="19"/>
@@ -8958,8 +8970,8 @@
       <c r="CX60" s="21"/>
       <c r="CY60" s="17"/>
     </row>
-    <row r="61" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A61" s="97"/>
+    <row r="61" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A61" s="90"/>
       <c r="B61" s="6" t="s">
         <v>8</v>
       </c>
@@ -8967,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="83"/>
-      <c r="E61" s="82"/>
+      <c r="E61" s="79"/>
       <c r="F61" s="19"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -9071,8 +9083,8 @@
       <c r="CX61" s="21"/>
       <c r="CY61" s="17"/>
     </row>
-    <row r="62" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A62" s="96" t="s">
+    <row r="62" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A62" s="89" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -9081,10 +9093,10 @@
       <c r="C62" s="62">
         <v>2</v>
       </c>
-      <c r="D62" s="80" t="s">
+      <c r="D62" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="82">
+      <c r="E62" s="79">
         <v>6.04</v>
       </c>
       <c r="F62" s="19"/>
@@ -9190,8 +9202,8 @@
       <c r="CX62" s="21"/>
       <c r="CY62" s="17"/>
     </row>
-    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="97"/>
+    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="90"/>
       <c r="B63" s="6" t="s">
         <v>8</v>
       </c>
@@ -9199,7 +9211,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="83"/>
-      <c r="E63" s="82"/>
+      <c r="E63" s="79"/>
       <c r="F63" s="19"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
@@ -9303,8 +9315,8 @@
       <c r="CX63" s="21"/>
       <c r="CY63" s="17"/>
     </row>
-    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="78" t="s">
+    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="80" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -9313,10 +9325,10 @@
       <c r="C64" s="62">
         <v>4</v>
       </c>
-      <c r="D64" s="80" t="s">
+      <c r="D64" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="82">
+      <c r="E64" s="79">
         <v>6.04</v>
       </c>
       <c r="F64" s="19"/>
@@ -9426,8 +9438,8 @@
       <c r="CX64" s="21"/>
       <c r="CY64" s="17"/>
     </row>
-    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
+    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="81"/>
       <c r="B65" s="6" t="s">
         <v>8</v>
       </c>
@@ -9435,7 +9447,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="83"/>
-      <c r="E65" s="82"/>
+      <c r="E65" s="79"/>
       <c r="F65" s="19"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
@@ -9543,7 +9555,7 @@
       <c r="CX65" s="21"/>
       <c r="CY65" s="17"/>
     </row>
-    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>24</v>
       </c>
@@ -9660,8 +9672,8 @@
       <c r="CX66" s="30"/>
       <c r="CY66" s="17"/>
     </row>
-    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="78" t="s">
+    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="80" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -9670,10 +9682,10 @@
       <c r="C67" s="62">
         <v>4</v>
       </c>
-      <c r="D67" s="81">
+      <c r="D67" s="78">
         <v>23.03</v>
       </c>
-      <c r="E67" s="82">
+      <c r="E67" s="79">
         <v>6.04</v>
       </c>
       <c r="F67" s="19"/>
@@ -9781,16 +9793,16 @@
       <c r="CX67" s="21"/>
       <c r="CY67" s="17"/>
     </row>
-    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="79"/>
+    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="81"/>
       <c r="B68" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="62">
         <v>5</v>
       </c>
-      <c r="D68" s="81"/>
-      <c r="E68" s="82"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="79"/>
       <c r="F68" s="19"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
@@ -9896,8 +9908,8 @@
       <c r="CX68" s="21"/>
       <c r="CY68" s="17"/>
     </row>
-    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="78" t="s">
+    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="80" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -9906,10 +9918,10 @@
       <c r="C69" s="62">
         <v>2</v>
       </c>
-      <c r="D69" s="81">
+      <c r="D69" s="78">
         <v>23.03</v>
       </c>
-      <c r="E69" s="82">
+      <c r="E69" s="79">
         <v>6.04</v>
       </c>
       <c r="F69" s="19"/>
@@ -10013,16 +10025,16 @@
       <c r="CX69" s="21"/>
       <c r="CY69" s="17"/>
     </row>
-    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="79"/>
+    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="81"/>
       <c r="B70" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="62">
         <v>1</v>
       </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="82"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="79"/>
       <c r="F70" s="19"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -10124,8 +10136,8 @@
       <c r="CX70" s="21"/>
       <c r="CY70" s="17"/>
     </row>
-    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="78" t="s">
+    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="80" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -10134,10 +10146,10 @@
       <c r="C71" s="62">
         <v>2</v>
       </c>
-      <c r="D71" s="81">
+      <c r="D71" s="78">
         <v>23.03</v>
       </c>
-      <c r="E71" s="82">
+      <c r="E71" s="79">
         <v>6.04</v>
       </c>
       <c r="F71" s="19"/>
@@ -10241,16 +10253,16 @@
       <c r="CX71" s="21"/>
       <c r="CY71" s="17"/>
     </row>
-    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="79"/>
+    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="81"/>
       <c r="B72" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="62">
         <v>2</v>
       </c>
-      <c r="D72" s="81"/>
-      <c r="E72" s="82"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="79"/>
       <c r="F72" s="19"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -10352,8 +10364,8 @@
       <c r="CX72" s="21"/>
       <c r="CY72" s="17"/>
     </row>
-    <row r="73" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A73" s="78" t="s">
+    <row r="73" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A73" s="80" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -10362,10 +10374,10 @@
       <c r="C73" s="62">
         <v>3</v>
       </c>
-      <c r="D73" s="81">
+      <c r="D73" s="78">
         <v>23.03</v>
       </c>
-      <c r="E73" s="82">
+      <c r="E73" s="79">
         <v>6.04</v>
       </c>
       <c r="F73" s="19"/>
@@ -10469,16 +10481,16 @@
       <c r="CX73" s="21"/>
       <c r="CY73" s="17"/>
     </row>
-    <row r="74" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A74" s="79"/>
+    <row r="74" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A74" s="81"/>
       <c r="B74" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="62">
         <v>3</v>
       </c>
-      <c r="D74" s="81"/>
-      <c r="E74" s="82"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="79"/>
       <c r="F74" s="19"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
@@ -10580,8 +10592,8 @@
       <c r="CX74" s="21"/>
       <c r="CY74" s="17"/>
     </row>
-    <row r="75" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A75" s="78" t="s">
+    <row r="75" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A75" s="80" t="s">
         <v>45</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -10590,10 +10602,10 @@
       <c r="C75" s="62">
         <v>1</v>
       </c>
-      <c r="D75" s="81">
+      <c r="D75" s="78">
         <v>23.03</v>
       </c>
-      <c r="E75" s="82">
+      <c r="E75" s="79">
         <v>6.04</v>
       </c>
       <c r="F75" s="19"/>
@@ -10695,16 +10707,16 @@
       <c r="CX75" s="21"/>
       <c r="CY75" s="17"/>
     </row>
-    <row r="76" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A76" s="79"/>
+    <row r="76" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A76" s="81"/>
       <c r="B76" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="62">
         <v>3</v>
       </c>
-      <c r="D76" s="81"/>
-      <c r="E76" s="82"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="79"/>
       <c r="F76" s="19"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
@@ -10806,16 +10818,16 @@
       <c r="CX76" s="21"/>
       <c r="CY76" s="17"/>
     </row>
-    <row r="77" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="62"/>
-      <c r="D77" s="90">
+      <c r="D77" s="99">
         <v>44292</v>
       </c>
-      <c r="E77" s="94"/>
+      <c r="E77" s="100"/>
       <c r="F77" s="19"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
@@ -10917,7 +10929,7 @@
       <c r="CX77" s="21"/>
       <c r="CY77" s="17"/>
     </row>
-    <row r="78" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>15</v>
       </c>
@@ -11034,7 +11046,7 @@
       <c r="CX78" s="34"/>
       <c r="CY78" s="17"/>
     </row>
-    <row r="79" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>20</v>
       </c>
@@ -11151,8 +11163,8 @@
       <c r="CX79" s="30"/>
       <c r="CY79" s="17"/>
     </row>
-    <row r="80" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A80" s="78" t="s">
+    <row r="80" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A80" s="80" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -11161,10 +11173,10 @@
       <c r="C80" s="62">
         <v>3</v>
       </c>
-      <c r="D80" s="80">
+      <c r="D80" s="82">
         <v>6.04</v>
       </c>
-      <c r="E80" s="89">
+      <c r="E80" s="84">
         <v>4.05</v>
       </c>
       <c r="F80" s="19"/>
@@ -11272,8 +11284,8 @@
       <c r="CX80" s="21"/>
       <c r="CY80" s="17"/>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A81" s="79"/>
+    <row r="81" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A81" s="81"/>
       <c r="B81" s="6" t="s">
         <v>8</v>
       </c>
@@ -11281,7 +11293,7 @@
         <v>4</v>
       </c>
       <c r="D81" s="83"/>
-      <c r="E81" s="88"/>
+      <c r="E81" s="85"/>
       <c r="F81" s="19"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
@@ -11387,8 +11399,8 @@
       <c r="CX81" s="21"/>
       <c r="CY81" s="17"/>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A82" s="78" t="s">
+    <row r="82" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A82" s="80" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -11397,10 +11409,10 @@
       <c r="C82" s="62">
         <v>1</v>
       </c>
-      <c r="D82" s="80">
+      <c r="D82" s="82">
         <v>6.04</v>
       </c>
-      <c r="E82" s="82">
+      <c r="E82" s="79">
         <v>4.05</v>
       </c>
       <c r="F82" s="19"/>
@@ -11504,8 +11516,8 @@
       <c r="CX82" s="21"/>
       <c r="CY82" s="17"/>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A83" s="79"/>
+    <row r="83" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A83" s="81"/>
       <c r="B83" s="6" t="s">
         <v>8</v>
       </c>
@@ -11513,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="83"/>
-      <c r="E83" s="82"/>
+      <c r="E83" s="79"/>
       <c r="F83" s="19"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
@@ -11615,8 +11627,8 @@
       <c r="CX83" s="21"/>
       <c r="CY83" s="17"/>
     </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A84" s="78" t="s">
+    <row r="84" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A84" s="80" t="s">
         <v>60</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -11625,10 +11637,10 @@
       <c r="C84" s="62">
         <v>2</v>
       </c>
-      <c r="D84" s="80">
+      <c r="D84" s="82">
         <v>6.04</v>
       </c>
-      <c r="E84" s="89">
+      <c r="E84" s="84">
         <v>4.05</v>
       </c>
       <c r="F84" s="19"/>
@@ -11732,8 +11744,8 @@
       <c r="CX84" s="21"/>
       <c r="CY84" s="17"/>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
+    <row r="85" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A85" s="81"/>
       <c r="B85" s="6" t="s">
         <v>8</v>
       </c>
@@ -11741,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="83"/>
-      <c r="E85" s="88"/>
+      <c r="E85" s="85"/>
       <c r="F85" s="19"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
@@ -11843,7 +11855,7 @@
       <c r="CX85" s="21"/>
       <c r="CY85" s="17"/>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>21</v>
       </c>
@@ -11960,8 +11972,8 @@
       <c r="CX86" s="30"/>
       <c r="CY86" s="17"/>
     </row>
-    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="78" t="s">
+    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="80" t="s">
         <v>54</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -11971,10 +11983,10 @@
         <f t="shared" ref="C87:C94" si="1">SUM(F87:CX87)</f>
         <v>9</v>
       </c>
-      <c r="D87" s="84">
+      <c r="D87" s="97">
         <v>6.04</v>
       </c>
-      <c r="E87" s="85">
+      <c r="E87" s="98">
         <v>4.05</v>
       </c>
       <c r="F87" s="54"/>
@@ -12092,8 +12104,8 @@
       <c r="CX87" s="53"/>
       <c r="CY87" s="17"/>
     </row>
-    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
+    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="81"/>
       <c r="B88" s="6" t="s">
         <v>8</v>
       </c>
@@ -12101,8 +12113,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D88" s="84"/>
-      <c r="E88" s="85"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="98"/>
       <c r="F88" s="54"/>
       <c r="G88" s="52"/>
       <c r="H88" s="52"/>
@@ -12218,8 +12230,8 @@
       <c r="CX88" s="53"/>
       <c r="CY88" s="17"/>
     </row>
-    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="78" t="s">
+    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="80" t="s">
         <v>63</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -12229,10 +12241,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D89" s="84">
+      <c r="D89" s="97">
         <v>6.04</v>
       </c>
-      <c r="E89" s="85">
+      <c r="E89" s="98">
         <v>4.05</v>
       </c>
       <c r="F89" s="54"/>
@@ -12344,8 +12356,8 @@
       <c r="CX89" s="53"/>
       <c r="CY89" s="17"/>
     </row>
-    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="79"/>
+    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="81"/>
       <c r="B90" s="6" t="s">
         <v>8</v>
       </c>
@@ -12353,8 +12365,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D90" s="84"/>
-      <c r="E90" s="85"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="98"/>
       <c r="F90" s="54"/>
       <c r="G90" s="52"/>
       <c r="H90" s="52"/>
@@ -12464,8 +12476,8 @@
       <c r="CX90" s="53"/>
       <c r="CY90" s="17"/>
     </row>
-    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="78" t="s">
+    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="80" t="s">
         <v>64</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -12475,10 +12487,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D91" s="84">
+      <c r="D91" s="97">
         <v>6.04</v>
       </c>
-      <c r="E91" s="85">
+      <c r="E91" s="98">
         <v>4.05</v>
       </c>
       <c r="F91" s="54"/>
@@ -12582,8 +12594,8 @@
       <c r="CX91" s="53"/>
       <c r="CY91" s="17"/>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A92" s="79"/>
+    <row r="92" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A92" s="81"/>
       <c r="B92" s="6" t="s">
         <v>8</v>
       </c>
@@ -12591,8 +12603,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D92" s="84"/>
-      <c r="E92" s="85"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="98"/>
       <c r="F92" s="54"/>
       <c r="G92" s="52"/>
       <c r="H92" s="52"/>
@@ -12694,8 +12706,8 @@
       <c r="CX92" s="53"/>
       <c r="CY92" s="17"/>
     </row>
-    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="78" t="s">
+    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="80" t="s">
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -12705,10 +12717,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D93" s="84">
+      <c r="D93" s="97">
         <v>6.04</v>
       </c>
-      <c r="E93" s="85">
+      <c r="E93" s="98">
         <v>4.05</v>
       </c>
       <c r="F93" s="54"/>
@@ -12812,8 +12824,8 @@
       <c r="CX93" s="53"/>
       <c r="CY93" s="17"/>
     </row>
-    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="79"/>
+    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="81"/>
       <c r="B94" s="6" t="s">
         <v>8</v>
       </c>
@@ -12821,8 +12833,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D94" s="84"/>
-      <c r="E94" s="85"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="98"/>
       <c r="F94" s="54"/>
       <c r="G94" s="52"/>
       <c r="H94" s="52"/>
@@ -12924,7 +12936,7 @@
       <c r="CX94" s="53"/>
       <c r="CY94" s="17"/>
     </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>22</v>
       </c>
@@ -13039,8 +13051,8 @@
       <c r="CX95" s="30"/>
       <c r="CY95" s="17"/>
     </row>
-    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="78" t="s">
+    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="80" t="s">
         <v>71</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -13049,10 +13061,10 @@
       <c r="C96" s="62">
         <v>4</v>
       </c>
-      <c r="D96" s="80">
+      <c r="D96" s="82">
         <v>6.04</v>
       </c>
-      <c r="E96" s="87">
+      <c r="E96" s="86">
         <v>4.05</v>
       </c>
       <c r="F96" s="19"/>
@@ -13158,8 +13170,8 @@
       <c r="CX96" s="21"/>
       <c r="CY96" s="10"/>
     </row>
-    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="79"/>
+    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="81"/>
       <c r="B97" s="6" t="s">
         <v>8</v>
       </c>
@@ -13167,7 +13179,7 @@
         <v>5</v>
       </c>
       <c r="D97" s="83"/>
-      <c r="E97" s="89"/>
+      <c r="E97" s="84"/>
       <c r="F97" s="19"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
@@ -13271,8 +13283,8 @@
       <c r="CX97" s="21"/>
       <c r="CY97" s="10"/>
     </row>
-    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="78" t="s">
+    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="80" t="s">
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -13281,10 +13293,10 @@
       <c r="C98" s="62">
         <v>5</v>
       </c>
-      <c r="D98" s="80">
+      <c r="D98" s="82">
         <v>6.04</v>
       </c>
-      <c r="E98" s="89">
+      <c r="E98" s="84">
         <v>4.05</v>
       </c>
       <c r="F98" s="19"/>
@@ -13394,8 +13406,8 @@
       <c r="CX98" s="21"/>
       <c r="CY98" s="10"/>
     </row>
-    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="79"/>
+    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="81"/>
       <c r="B99" s="6" t="s">
         <v>8</v>
       </c>
@@ -13403,7 +13415,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="83"/>
-      <c r="E99" s="89"/>
+      <c r="E99" s="84"/>
       <c r="F99" s="19"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
@@ -13511,8 +13523,8 @@
       <c r="CX99" s="21"/>
       <c r="CY99" s="10"/>
     </row>
-    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="78" t="s">
+    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="80" t="s">
         <v>72</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -13521,10 +13533,10 @@
       <c r="C100" s="62">
         <v>2</v>
       </c>
-      <c r="D100" s="80">
+      <c r="D100" s="82">
         <v>6.04</v>
       </c>
-      <c r="E100" s="89">
+      <c r="E100" s="84">
         <v>4.05</v>
       </c>
       <c r="F100" s="19"/>
@@ -13632,8 +13644,8 @@
       <c r="CX100" s="21"/>
       <c r="CY100" s="10"/>
     </row>
-    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="79"/>
+    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="81"/>
       <c r="B101" s="6" t="s">
         <v>8</v>
       </c>
@@ -13641,7 +13653,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="83"/>
-      <c r="E101" s="89"/>
+      <c r="E101" s="84"/>
       <c r="F101" s="19"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
@@ -13747,8 +13759,8 @@
       <c r="CX101" s="21"/>
       <c r="CY101" s="10"/>
     </row>
-    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="78" t="s">
+    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="80" t="s">
         <v>73</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -13757,10 +13769,10 @@
       <c r="C102" s="62">
         <v>6</v>
       </c>
-      <c r="D102" s="80">
+      <c r="D102" s="82">
         <v>6.04</v>
       </c>
-      <c r="E102" s="89">
+      <c r="E102" s="84">
         <v>4.05</v>
       </c>
       <c r="F102" s="19"/>
@@ -13868,8 +13880,8 @@
       <c r="CX102" s="21"/>
       <c r="CY102" s="10"/>
     </row>
-    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="79"/>
+    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="81"/>
       <c r="B103" s="6" t="s">
         <v>8</v>
       </c>
@@ -13877,7 +13889,7 @@
         <v>7.5</v>
       </c>
       <c r="D103" s="83"/>
-      <c r="E103" s="88"/>
+      <c r="E103" s="85"/>
       <c r="F103" s="19"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
@@ -13983,8 +13995,8 @@
       <c r="CX103" s="21"/>
       <c r="CY103" s="10"/>
     </row>
-    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="78" t="s">
+    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="80" t="s">
         <v>74</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -13993,10 +14005,10 @@
       <c r="C104" s="62">
         <v>0.5</v>
       </c>
-      <c r="D104" s="80">
+      <c r="D104" s="82">
         <v>6.04</v>
       </c>
-      <c r="E104" s="87">
+      <c r="E104" s="86">
         <v>4.05</v>
       </c>
       <c r="F104" s="19"/>
@@ -14100,8 +14112,8 @@
       <c r="CX104" s="21"/>
       <c r="CY104" s="17"/>
     </row>
-    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="79"/>
+    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="81"/>
       <c r="B105" s="6" t="s">
         <v>8</v>
       </c>
@@ -14109,7 +14121,7 @@
         <v>0.5</v>
       </c>
       <c r="D105" s="83"/>
-      <c r="E105" s="88"/>
+      <c r="E105" s="85"/>
       <c r="F105" s="19"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
@@ -14211,7 +14223,7 @@
       <c r="CX105" s="21"/>
       <c r="CY105" s="17"/>
     </row>
-    <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>23</v>
       </c>
@@ -14328,8 +14340,8 @@
       <c r="CX106" s="30"/>
       <c r="CY106" s="17"/>
     </row>
-    <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="78" t="s">
+    <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="80" t="s">
         <v>55</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -14338,10 +14350,10 @@
       <c r="C107" s="62">
         <v>2</v>
       </c>
-      <c r="D107" s="80">
+      <c r="D107" s="82">
         <v>6.04</v>
       </c>
-      <c r="E107" s="87">
+      <c r="E107" s="86">
         <v>4.05</v>
       </c>
       <c r="F107" s="19"/>
@@ -14445,8 +14457,8 @@
       <c r="CX107" s="21"/>
       <c r="CY107" s="17"/>
     </row>
-    <row r="108" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="79"/>
+    <row r="108" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="81"/>
       <c r="B108" s="6" t="s">
         <v>8</v>
       </c>
@@ -14455,7 +14467,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="83"/>
-      <c r="E108" s="89"/>
+      <c r="E108" s="84"/>
       <c r="F108" s="19"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
@@ -14557,8 +14569,8 @@
       <c r="CX108" s="21"/>
       <c r="CY108" s="17"/>
     </row>
-    <row r="109" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="78" t="s">
+    <row r="109" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="80" t="s">
         <v>69</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -14567,10 +14579,10 @@
       <c r="C109" s="62">
         <v>3</v>
       </c>
-      <c r="D109" s="80">
+      <c r="D109" s="82">
         <v>6.04</v>
       </c>
-      <c r="E109" s="89">
+      <c r="E109" s="84">
         <v>4.05</v>
       </c>
       <c r="F109" s="19"/>
@@ -14678,8 +14690,8 @@
       <c r="CX109" s="21"/>
       <c r="CY109" s="10"/>
     </row>
-    <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="79"/>
+    <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="81"/>
       <c r="B110" s="6" t="s">
         <v>8</v>
       </c>
@@ -14687,7 +14699,7 @@
         <v>4.5</v>
       </c>
       <c r="D110" s="83"/>
-      <c r="E110" s="89"/>
+      <c r="E110" s="84"/>
       <c r="F110" s="19"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
@@ -14793,8 +14805,8 @@
       <c r="CX110" s="21"/>
       <c r="CY110" s="10"/>
     </row>
-    <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="78" t="s">
+    <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="80" t="s">
         <v>56</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -14803,10 +14815,10 @@
       <c r="C111" s="62">
         <v>2</v>
       </c>
-      <c r="D111" s="80">
+      <c r="D111" s="82">
         <v>6.04</v>
       </c>
-      <c r="E111" s="86">
+      <c r="E111" s="102">
         <v>4.05</v>
       </c>
       <c r="F111" s="19"/>
@@ -14914,8 +14926,8 @@
       <c r="CX111" s="21"/>
       <c r="CY111" s="10"/>
     </row>
-    <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="79"/>
+    <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="81"/>
       <c r="B112" s="6" t="s">
         <v>8</v>
       </c>
@@ -14923,7 +14935,7 @@
         <v>2</v>
       </c>
       <c r="D112" s="83"/>
-      <c r="E112" s="86"/>
+      <c r="E112" s="102"/>
       <c r="F112" s="19"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
@@ -15029,8 +15041,8 @@
       <c r="CX112" s="21"/>
       <c r="CY112" s="10"/>
     </row>
-    <row r="113" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="78" t="s">
+    <row r="113" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="80" t="s">
         <v>62</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -15039,10 +15051,10 @@
       <c r="C113" s="62">
         <v>3</v>
       </c>
-      <c r="D113" s="80">
+      <c r="D113" s="82">
         <v>6.04</v>
       </c>
-      <c r="E113" s="86">
+      <c r="E113" s="102">
         <v>4.05</v>
       </c>
       <c r="F113" s="19"/>
@@ -15152,8 +15164,8 @@
       <c r="CX113" s="21"/>
       <c r="CY113" s="10"/>
     </row>
-    <row r="114" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="79"/>
+    <row r="114" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="81"/>
       <c r="B114" s="6" t="s">
         <v>8</v>
       </c>
@@ -15161,7 +15173,7 @@
         <v>3.5</v>
       </c>
       <c r="D114" s="83"/>
-      <c r="E114" s="86"/>
+      <c r="E114" s="102"/>
       <c r="F114" s="19"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
@@ -15269,8 +15281,8 @@
       <c r="CX114" s="21"/>
       <c r="CY114" s="10"/>
     </row>
-    <row r="115" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="78" t="s">
+    <row r="115" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="80" t="s">
         <v>70</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -15279,10 +15291,10 @@
       <c r="C115" s="62">
         <v>1.5</v>
       </c>
-      <c r="D115" s="80">
+      <c r="D115" s="82">
         <v>6.04</v>
       </c>
-      <c r="E115" s="82">
+      <c r="E115" s="79">
         <v>4.05</v>
       </c>
       <c r="F115" s="19"/>
@@ -15388,8 +15400,8 @@
       <c r="CX115" s="21"/>
       <c r="CY115" s="17"/>
     </row>
-    <row r="116" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="79"/>
+    <row r="116" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="81"/>
       <c r="B116" s="6" t="s">
         <v>8</v>
       </c>
@@ -15397,7 +15409,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="83"/>
-      <c r="E116" s="82"/>
+      <c r="E116" s="79"/>
       <c r="F116" s="19"/>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
@@ -15501,7 +15513,7 @@
       <c r="CX116" s="21"/>
       <c r="CY116" s="17"/>
     </row>
-    <row r="117" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>24</v>
       </c>
@@ -15618,8 +15630,8 @@
       <c r="CX117" s="30"/>
       <c r="CY117" s="17"/>
     </row>
-    <row r="118" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="78" t="s">
+    <row r="118" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="80" t="s">
         <v>57</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -15628,10 +15640,10 @@
       <c r="C118" s="62">
         <v>6</v>
       </c>
-      <c r="D118" s="80">
+      <c r="D118" s="82">
         <v>6.04</v>
       </c>
-      <c r="E118" s="82">
+      <c r="E118" s="79">
         <v>4.05</v>
       </c>
       <c r="F118" s="19"/>
@@ -15735,8 +15747,8 @@
       <c r="CX118" s="21"/>
       <c r="CY118" s="17"/>
     </row>
-    <row r="119" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="79"/>
+    <row r="119" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="81"/>
       <c r="B119" s="6" t="s">
         <v>8</v>
       </c>
@@ -15744,7 +15756,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="83"/>
-      <c r="E119" s="82"/>
+      <c r="E119" s="79"/>
       <c r="F119" s="19"/>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
@@ -15846,8 +15858,8 @@
       <c r="CX119" s="21"/>
       <c r="CY119" s="17"/>
     </row>
-    <row r="120" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="78" t="s">
+    <row r="120" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="80" t="s">
         <v>56</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -15856,10 +15868,10 @@
       <c r="C120" s="62">
         <v>1</v>
       </c>
-      <c r="D120" s="80">
+      <c r="D120" s="82">
         <v>6.04</v>
       </c>
-      <c r="E120" s="82">
+      <c r="E120" s="79">
         <v>4.05</v>
       </c>
       <c r="F120" s="19"/>
@@ -15963,8 +15975,8 @@
       <c r="CX120" s="21"/>
       <c r="CY120" s="17"/>
     </row>
-    <row r="121" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="79"/>
+    <row r="121" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="81"/>
       <c r="B121" s="6" t="s">
         <v>8</v>
       </c>
@@ -15972,7 +15984,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="83"/>
-      <c r="E121" s="82"/>
+      <c r="E121" s="79"/>
       <c r="F121" s="19"/>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
@@ -16074,8 +16086,8 @@
       <c r="CX121" s="21"/>
       <c r="CY121" s="17"/>
     </row>
-    <row r="122" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="78" t="s">
+    <row r="122" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="80" t="s">
         <v>58</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -16084,10 +16096,10 @@
       <c r="C122" s="62">
         <v>1.5</v>
       </c>
-      <c r="D122" s="80">
+      <c r="D122" s="82">
         <v>6.04</v>
       </c>
-      <c r="E122" s="82">
+      <c r="E122" s="79">
         <v>4.05</v>
       </c>
       <c r="F122" s="19"/>
@@ -16192,8 +16204,8 @@
       <c r="CX122" s="21"/>
       <c r="CY122" s="17"/>
     </row>
-    <row r="123" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="79"/>
+    <row r="123" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="81"/>
       <c r="B123" s="6" t="s">
         <v>8</v>
       </c>
@@ -16201,7 +16213,7 @@
         <v>1.5</v>
       </c>
       <c r="D123" s="83"/>
-      <c r="E123" s="82"/>
+      <c r="E123" s="79"/>
       <c r="F123" s="19"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
@@ -16307,8 +16319,8 @@
       <c r="CX123" s="21"/>
       <c r="CY123" s="17"/>
     </row>
-    <row r="124" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A124" s="78" t="s">
+    <row r="124" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A124" s="80" t="s">
         <v>59</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -16317,10 +16329,10 @@
       <c r="C124" s="62">
         <v>2</v>
       </c>
-      <c r="D124" s="80">
+      <c r="D124" s="82">
         <v>6.04</v>
       </c>
-      <c r="E124" s="82">
+      <c r="E124" s="79">
         <v>4.05</v>
       </c>
       <c r="F124" s="19"/>
@@ -16426,16 +16438,16 @@
       <c r="CX124" s="21"/>
       <c r="CY124" s="17"/>
     </row>
-    <row r="125" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A125" s="79"/>
+    <row r="125" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A125" s="81"/>
       <c r="B125" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="62">
         <v>2.5</v>
       </c>
-      <c r="D125" s="81"/>
-      <c r="E125" s="82"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="79"/>
       <c r="F125" s="19"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
@@ -16537,8 +16549,8 @@
       <c r="CX125" s="21"/>
       <c r="CY125" s="17"/>
     </row>
-    <row r="126" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="78" t="s">
+    <row r="126" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="80" t="s">
         <v>68</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -16547,10 +16559,10 @@
       <c r="C126" s="62">
         <v>0.5</v>
       </c>
-      <c r="D126" s="80">
+      <c r="D126" s="82">
         <v>6.04</v>
       </c>
-      <c r="E126" s="82">
+      <c r="E126" s="79">
         <v>4.05</v>
       </c>
       <c r="F126" s="19"/>
@@ -16653,16 +16665,16 @@
       <c r="CX126" s="21"/>
       <c r="CY126" s="17"/>
     </row>
-    <row r="127" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="79"/>
+    <row r="127" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="81"/>
       <c r="B127" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="62">
         <v>3</v>
       </c>
-      <c r="D127" s="81"/>
-      <c r="E127" s="82"/>
+      <c r="D127" s="78"/>
+      <c r="E127" s="79"/>
       <c r="F127" s="19"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
@@ -16763,16 +16775,16 @@
       <c r="CX127" s="21"/>
       <c r="CY127" s="17"/>
     </row>
-    <row r="128" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="62"/>
-      <c r="D128" s="90">
+      <c r="D128" s="99">
         <v>44320</v>
       </c>
-      <c r="E128" s="91"/>
+      <c r="E128" s="101"/>
       <c r="F128" s="19"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
@@ -16871,7 +16883,7 @@
       <c r="CX128" s="21"/>
       <c r="CY128" s="17"/>
     </row>
-    <row r="129" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
         <v>67</v>
       </c>
@@ -16986,7 +16998,7 @@
       <c r="CX129" s="34"/>
       <c r="CY129" s="17"/>
     </row>
-    <row r="130" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>20</v>
       </c>
@@ -17101,18 +17113,18 @@
       <c r="CX130" s="30"/>
       <c r="CY130" s="17"/>
     </row>
-    <row r="131" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A131" s="78"/>
+    <row r="131" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A131" s="80"/>
       <c r="B131" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="81">
+      <c r="D131" s="78">
         <v>4.05</v>
       </c>
-      <c r="E131" s="82">
+      <c r="E131" s="79">
         <v>18.05</v>
       </c>
       <c r="F131" s="19"/>
@@ -17214,16 +17226,16 @@
       <c r="CX131" s="21"/>
       <c r="CY131" s="17"/>
     </row>
-    <row r="132" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A132" s="79"/>
+    <row r="132" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A132" s="81"/>
       <c r="B132" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="81"/>
-      <c r="E132" s="82"/>
+      <c r="D132" s="78"/>
+      <c r="E132" s="79"/>
       <c r="F132" s="19"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
@@ -17323,7 +17335,7 @@
       <c r="CX132" s="21"/>
       <c r="CY132" s="17"/>
     </row>
-    <row r="133" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>21</v>
       </c>
@@ -17438,18 +17450,18 @@
       <c r="CX133" s="30"/>
       <c r="CY133" s="17"/>
     </row>
-    <row r="134" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A134" s="78"/>
+    <row r="134" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A134" s="80"/>
       <c r="B134" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C134" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="81">
+      <c r="D134" s="78">
         <v>4.05</v>
       </c>
-      <c r="E134" s="82">
+      <c r="E134" s="79">
         <v>18.05</v>
       </c>
       <c r="F134" s="19"/>
@@ -17551,16 +17563,16 @@
       <c r="CX134" s="21"/>
       <c r="CY134" s="17"/>
     </row>
-    <row r="135" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A135" s="79"/>
+    <row r="135" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A135" s="81"/>
       <c r="B135" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="81"/>
-      <c r="E135" s="82"/>
+      <c r="D135" s="78"/>
+      <c r="E135" s="79"/>
       <c r="F135" s="19"/>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
@@ -17660,21 +17672,21 @@
       <c r="CX135" s="21"/>
       <c r="CY135" s="17"/>
     </row>
-    <row r="136" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C136" s="61" t="s">
-        <v>10</v>
+      <c r="C136" s="61">
+        <v>5</v>
       </c>
       <c r="D136" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="67" t="s">
-        <v>10</v>
+      <c r="E136" s="67">
+        <v>6</v>
       </c>
       <c r="F136" s="28"/>
       <c r="G136" s="29"/>
@@ -17775,18 +17787,20 @@
       <c r="CX136" s="30"/>
       <c r="CY136" s="17"/>
     </row>
-    <row r="137" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A137" s="78"/>
+    <row r="137" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A137" s="80" t="s">
+        <v>78</v>
+      </c>
       <c r="B137" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="81">
+      <c r="C137" s="62">
+        <v>3</v>
+      </c>
+      <c r="D137" s="78">
         <v>4.05</v>
       </c>
-      <c r="E137" s="82">
+      <c r="E137" s="79">
         <v>18.05</v>
       </c>
       <c r="F137" s="19"/>
@@ -17860,19 +17874,27 @@
       <c r="BV137" s="20"/>
       <c r="BW137" s="20"/>
       <c r="BX137" s="20"/>
-      <c r="BY137" s="20"/>
+      <c r="BY137" s="42">
+        <v>0.5</v>
+      </c>
       <c r="BZ137" s="20"/>
       <c r="CA137" s="20"/>
       <c r="CB137" s="20"/>
-      <c r="CC137" s="20"/>
-      <c r="CD137" s="20"/>
+      <c r="CC137" s="42">
+        <v>1</v>
+      </c>
+      <c r="CD137" s="42">
+        <v>1</v>
+      </c>
       <c r="CE137" s="20"/>
       <c r="CF137" s="20"/>
       <c r="CG137" s="20"/>
       <c r="CH137" s="20"/>
       <c r="CI137" s="20"/>
       <c r="CJ137" s="20"/>
-      <c r="CK137" s="20"/>
+      <c r="CK137" s="42">
+        <v>0.5</v>
+      </c>
       <c r="CL137" s="20"/>
       <c r="CM137" s="20"/>
       <c r="CN137" s="20"/>
@@ -17888,16 +17910,16 @@
       <c r="CX137" s="21"/>
       <c r="CY137" s="17"/>
     </row>
-    <row r="138" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A138" s="79"/>
+    <row r="138" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A138" s="81"/>
       <c r="B138" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="81"/>
-      <c r="E138" s="82"/>
+      <c r="C138" s="62">
+        <v>4</v>
+      </c>
+      <c r="D138" s="78"/>
+      <c r="E138" s="79"/>
       <c r="F138" s="19"/>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -17969,19 +17991,27 @@
       <c r="BV138" s="20"/>
       <c r="BW138" s="20"/>
       <c r="BX138" s="20"/>
-      <c r="BY138" s="20"/>
+      <c r="BY138" s="41">
+        <v>1</v>
+      </c>
       <c r="BZ138" s="20"/>
       <c r="CA138" s="20"/>
       <c r="CB138" s="20"/>
-      <c r="CC138" s="20"/>
-      <c r="CD138" s="20"/>
+      <c r="CC138" s="41">
+        <v>1</v>
+      </c>
+      <c r="CD138" s="41">
+        <v>1</v>
+      </c>
       <c r="CE138" s="20"/>
       <c r="CF138" s="20"/>
       <c r="CG138" s="20"/>
       <c r="CH138" s="20"/>
       <c r="CI138" s="20"/>
       <c r="CJ138" s="20"/>
-      <c r="CK138" s="20"/>
+      <c r="CK138" s="41">
+        <v>1</v>
+      </c>
       <c r="CL138" s="20"/>
       <c r="CM138" s="20"/>
       <c r="CN138" s="20"/>
@@ -17997,137 +18027,135 @@
       <c r="CX138" s="21"/>
       <c r="CY138" s="17"/>
     </row>
-    <row r="139" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="28"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
-      <c r="J139" s="29"/>
-      <c r="K139" s="29"/>
-      <c r="L139" s="29"/>
-      <c r="M139" s="29"/>
-      <c r="N139" s="29"/>
-      <c r="O139" s="29"/>
-      <c r="P139" s="29"/>
-      <c r="Q139" s="29"/>
-      <c r="R139" s="29"/>
-      <c r="S139" s="29"/>
-      <c r="T139" s="29"/>
-      <c r="U139" s="29"/>
-      <c r="V139" s="29"/>
-      <c r="W139" s="29"/>
-      <c r="X139" s="29"/>
-      <c r="Y139" s="29"/>
-      <c r="Z139" s="29"/>
-      <c r="AA139" s="29"/>
-      <c r="AB139" s="29"/>
-      <c r="AC139" s="29"/>
-      <c r="AD139" s="29"/>
-      <c r="AE139" s="29"/>
-      <c r="AF139" s="29"/>
-      <c r="AG139" s="29"/>
-      <c r="AH139" s="29"/>
-      <c r="AI139" s="29"/>
-      <c r="AJ139" s="29"/>
-      <c r="AK139" s="29"/>
-      <c r="AL139" s="29"/>
-      <c r="AM139" s="29"/>
-      <c r="AN139" s="29"/>
-      <c r="AO139" s="29"/>
-      <c r="AP139" s="29"/>
-      <c r="AQ139" s="29"/>
-      <c r="AR139" s="29"/>
-      <c r="AS139" s="29"/>
-      <c r="AT139" s="29"/>
-      <c r="AU139" s="29"/>
-      <c r="AV139" s="29"/>
-      <c r="AW139" s="29"/>
-      <c r="AX139" s="29"/>
-      <c r="AY139" s="29"/>
-      <c r="AZ139" s="29"/>
-      <c r="BA139" s="29"/>
-      <c r="BB139" s="29"/>
-      <c r="BC139" s="29"/>
-      <c r="BD139" s="29"/>
-      <c r="BE139" s="29"/>
-      <c r="BF139" s="29"/>
-      <c r="BG139" s="29"/>
-      <c r="BH139" s="29"/>
-      <c r="BI139" s="29"/>
-      <c r="BJ139" s="29"/>
-      <c r="BK139" s="29"/>
-      <c r="BL139" s="29"/>
-      <c r="BM139" s="29"/>
-      <c r="BN139" s="29"/>
-      <c r="BO139" s="29"/>
-      <c r="BP139" s="29"/>
-      <c r="BQ139" s="29"/>
-      <c r="BR139" s="29"/>
-      <c r="BS139" s="29"/>
-      <c r="BT139" s="29"/>
-      <c r="BU139" s="29"/>
-      <c r="BV139" s="29"/>
-      <c r="BW139" s="29"/>
-      <c r="BX139" s="29"/>
-      <c r="BY139" s="29"/>
-      <c r="BZ139" s="29"/>
-      <c r="CA139" s="29"/>
-      <c r="CB139" s="29"/>
-      <c r="CC139" s="29"/>
-      <c r="CD139" s="29"/>
-      <c r="CE139" s="29"/>
-      <c r="CF139" s="29"/>
-      <c r="CG139" s="29"/>
-      <c r="CH139" s="29"/>
-      <c r="CI139" s="29"/>
-      <c r="CJ139" s="29"/>
-      <c r="CK139" s="29"/>
-      <c r="CL139" s="29"/>
-      <c r="CM139" s="29"/>
-      <c r="CN139" s="29"/>
-      <c r="CO139" s="29"/>
-      <c r="CP139" s="29"/>
-      <c r="CQ139" s="29"/>
-      <c r="CR139" s="29"/>
-      <c r="CS139" s="29"/>
-      <c r="CT139" s="29"/>
-      <c r="CU139" s="29"/>
-      <c r="CV139" s="29"/>
-      <c r="CW139" s="29"/>
-      <c r="CX139" s="30"/>
+    <row r="139" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="62">
+        <v>2</v>
+      </c>
+      <c r="D139" s="78">
+        <v>4.05</v>
+      </c>
+      <c r="E139" s="79">
+        <v>18.05</v>
+      </c>
+      <c r="F139" s="19"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="20"/>
+      <c r="L139" s="20"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="20"/>
+      <c r="O139" s="20"/>
+      <c r="P139" s="20"/>
+      <c r="Q139" s="20"/>
+      <c r="R139" s="20"/>
+      <c r="S139" s="20"/>
+      <c r="T139" s="20"/>
+      <c r="U139" s="20"/>
+      <c r="V139" s="20"/>
+      <c r="W139" s="20"/>
+      <c r="X139" s="20"/>
+      <c r="Y139" s="20"/>
+      <c r="Z139" s="20"/>
+      <c r="AA139" s="20"/>
+      <c r="AB139" s="20"/>
+      <c r="AC139" s="20"/>
+      <c r="AD139" s="20"/>
+      <c r="AE139" s="20"/>
+      <c r="AF139" s="20"/>
+      <c r="AG139" s="20"/>
+      <c r="AH139" s="20"/>
+      <c r="AI139" s="20"/>
+      <c r="AJ139" s="20"/>
+      <c r="AK139" s="20"/>
+      <c r="AL139" s="20"/>
+      <c r="AM139" s="20"/>
+      <c r="AN139" s="20"/>
+      <c r="AO139" s="20"/>
+      <c r="AP139" s="20"/>
+      <c r="AQ139" s="20"/>
+      <c r="AR139" s="20"/>
+      <c r="AS139" s="20"/>
+      <c r="AT139" s="20"/>
+      <c r="AU139" s="20"/>
+      <c r="AV139" s="20"/>
+      <c r="AW139" s="20"/>
+      <c r="AX139" s="20"/>
+      <c r="AY139" s="20"/>
+      <c r="AZ139" s="20"/>
+      <c r="BA139" s="20"/>
+      <c r="BB139" s="20"/>
+      <c r="BC139" s="20"/>
+      <c r="BD139" s="20"/>
+      <c r="BE139" s="20"/>
+      <c r="BF139" s="20"/>
+      <c r="BG139" s="20"/>
+      <c r="BH139" s="20"/>
+      <c r="BI139" s="20"/>
+      <c r="BJ139" s="20"/>
+      <c r="BK139" s="20"/>
+      <c r="BL139" s="20"/>
+      <c r="BM139" s="20"/>
+      <c r="BN139" s="20"/>
+      <c r="BO139" s="20"/>
+      <c r="BP139" s="20"/>
+      <c r="BQ139" s="20"/>
+      <c r="BR139" s="20"/>
+      <c r="BS139" s="20"/>
+      <c r="BT139" s="20"/>
+      <c r="BU139" s="20"/>
+      <c r="BV139" s="20"/>
+      <c r="BW139" s="20"/>
+      <c r="BX139" s="20"/>
+      <c r="BY139" s="20"/>
+      <c r="BZ139" s="20"/>
+      <c r="CA139" s="20"/>
+      <c r="CB139" s="20"/>
+      <c r="CC139" s="20"/>
+      <c r="CD139" s="42">
+        <v>1</v>
+      </c>
+      <c r="CE139" s="20"/>
+      <c r="CF139" s="20"/>
+      <c r="CG139" s="20"/>
+      <c r="CH139" s="20"/>
+      <c r="CI139" s="20"/>
+      <c r="CJ139" s="20"/>
+      <c r="CK139" s="20"/>
+      <c r="CL139" s="42">
+        <v>1</v>
+      </c>
+      <c r="CM139" s="20"/>
+      <c r="CN139" s="20"/>
+      <c r="CO139" s="20"/>
+      <c r="CP139" s="20"/>
+      <c r="CQ139" s="20"/>
+      <c r="CR139" s="20"/>
+      <c r="CS139" s="20"/>
+      <c r="CT139" s="20"/>
+      <c r="CU139" s="20"/>
+      <c r="CV139" s="20"/>
+      <c r="CW139" s="20"/>
+      <c r="CX139" s="21"/>
       <c r="CY139" s="17"/>
     </row>
-    <row r="140" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A140" s="78" t="s">
-        <v>76</v>
-      </c>
+    <row r="140" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="81"/>
       <c r="B140" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" s="62">
         <v>2</v>
       </c>
-      <c r="D140" s="81">
-        <v>4.05</v>
-      </c>
-      <c r="E140" s="82">
-        <v>18.05</v>
-      </c>
+      <c r="D140" s="78"/>
+      <c r="E140" s="79"/>
       <c r="F140" s="19"/>
       <c r="G140" s="20"/>
       <c r="H140" s="20"/>
@@ -18201,24 +18229,22 @@
       <c r="BX140" s="20"/>
       <c r="BY140" s="20"/>
       <c r="BZ140" s="20"/>
-      <c r="CA140" s="42">
+      <c r="CA140" s="20"/>
+      <c r="CB140" s="20"/>
+      <c r="CC140" s="20"/>
+      <c r="CD140" s="41">
         <v>1</v>
       </c>
-      <c r="CB140" s="42">
-        <v>1</v>
-      </c>
-      <c r="CC140" s="20"/>
-      <c r="CD140" s="20"/>
       <c r="CE140" s="20"/>
       <c r="CF140" s="20"/>
-      <c r="CG140" s="42">
-        <v>2</v>
-      </c>
+      <c r="CG140" s="20"/>
       <c r="CH140" s="20"/>
       <c r="CI140" s="20"/>
       <c r="CJ140" s="20"/>
       <c r="CK140" s="20"/>
-      <c r="CL140" s="20"/>
+      <c r="CL140" s="41">
+        <v>1</v>
+      </c>
       <c r="CM140" s="20"/>
       <c r="CN140" s="20"/>
       <c r="CO140" s="20"/>
@@ -18233,135 +18259,135 @@
       <c r="CX140" s="21"/>
       <c r="CY140" s="17"/>
     </row>
-    <row r="141" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A141" s="79"/>
-      <c r="B141" s="6" t="s">
+    <row r="141" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="62">
-        <v>4</v>
-      </c>
-      <c r="D141" s="81"/>
-      <c r="E141" s="82"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20"/>
-      <c r="L141" s="20"/>
-      <c r="M141" s="20"/>
-      <c r="N141" s="20"/>
-      <c r="O141" s="20"/>
-      <c r="P141" s="20"/>
-      <c r="Q141" s="20"/>
-      <c r="R141" s="20"/>
-      <c r="S141" s="20"/>
-      <c r="T141" s="20"/>
-      <c r="U141" s="20"/>
-      <c r="V141" s="20"/>
-      <c r="W141" s="20"/>
-      <c r="X141" s="20"/>
-      <c r="Y141" s="20"/>
-      <c r="Z141" s="20"/>
-      <c r="AA141" s="20"/>
-      <c r="AB141" s="20"/>
-      <c r="AC141" s="20"/>
-      <c r="AD141" s="20"/>
-      <c r="AE141" s="20"/>
-      <c r="AF141" s="20"/>
-      <c r="AG141" s="20"/>
-      <c r="AH141" s="20"/>
-      <c r="AI141" s="20"/>
-      <c r="AJ141" s="20"/>
-      <c r="AK141" s="20"/>
-      <c r="AL141" s="20"/>
-      <c r="AM141" s="20"/>
-      <c r="AN141" s="20"/>
-      <c r="AO141" s="20"/>
-      <c r="AP141" s="20"/>
-      <c r="AQ141" s="20"/>
-      <c r="AR141" s="20"/>
-      <c r="AS141" s="20"/>
-      <c r="AT141" s="20"/>
-      <c r="AU141" s="20"/>
-      <c r="AV141" s="20"/>
-      <c r="AW141" s="20"/>
-      <c r="AX141" s="20"/>
-      <c r="AY141" s="20"/>
-      <c r="AZ141" s="20"/>
-      <c r="BA141" s="20"/>
-      <c r="BB141" s="20"/>
-      <c r="BC141" s="20"/>
-      <c r="BD141" s="20"/>
-      <c r="BE141" s="20"/>
-      <c r="BF141" s="20"/>
-      <c r="BG141" s="20"/>
-      <c r="BH141" s="20"/>
-      <c r="BI141" s="20"/>
-      <c r="BJ141" s="20"/>
-      <c r="BK141" s="20"/>
-      <c r="BL141" s="20"/>
-      <c r="BM141" s="20"/>
-      <c r="BN141" s="20"/>
-      <c r="BO141" s="20"/>
-      <c r="BP141" s="20"/>
-      <c r="BQ141" s="20"/>
-      <c r="BR141" s="20"/>
-      <c r="BS141" s="20"/>
-      <c r="BT141" s="20"/>
-      <c r="BU141" s="20"/>
-      <c r="BV141" s="20"/>
-      <c r="BW141" s="20"/>
-      <c r="BX141" s="20"/>
-      <c r="BY141" s="20"/>
-      <c r="BZ141" s="20"/>
-      <c r="CA141" s="41">
-        <v>1</v>
-      </c>
-      <c r="CB141" s="41">
-        <v>1</v>
-      </c>
-      <c r="CC141" s="20"/>
-      <c r="CD141" s="20"/>
-      <c r="CE141" s="20"/>
-      <c r="CF141" s="20"/>
-      <c r="CG141" s="41">
-        <v>2</v>
-      </c>
-      <c r="CH141" s="20"/>
-      <c r="CI141" s="20"/>
-      <c r="CJ141" s="20"/>
-      <c r="CK141" s="20"/>
-      <c r="CL141" s="20"/>
-      <c r="CM141" s="20"/>
-      <c r="CN141" s="20"/>
-      <c r="CO141" s="20"/>
-      <c r="CP141" s="20"/>
-      <c r="CQ141" s="20"/>
-      <c r="CR141" s="20"/>
-      <c r="CS141" s="20"/>
-      <c r="CT141" s="20"/>
-      <c r="CU141" s="20"/>
-      <c r="CV141" s="20"/>
-      <c r="CW141" s="20"/>
-      <c r="CX141" s="21"/>
+      <c r="E141" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="28"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="29"/>
+      <c r="L141" s="29"/>
+      <c r="M141" s="29"/>
+      <c r="N141" s="29"/>
+      <c r="O141" s="29"/>
+      <c r="P141" s="29"/>
+      <c r="Q141" s="29"/>
+      <c r="R141" s="29"/>
+      <c r="S141" s="29"/>
+      <c r="T141" s="29"/>
+      <c r="U141" s="29"/>
+      <c r="V141" s="29"/>
+      <c r="W141" s="29"/>
+      <c r="X141" s="29"/>
+      <c r="Y141" s="29"/>
+      <c r="Z141" s="29"/>
+      <c r="AA141" s="29"/>
+      <c r="AB141" s="29"/>
+      <c r="AC141" s="29"/>
+      <c r="AD141" s="29"/>
+      <c r="AE141" s="29"/>
+      <c r="AF141" s="29"/>
+      <c r="AG141" s="29"/>
+      <c r="AH141" s="29"/>
+      <c r="AI141" s="29"/>
+      <c r="AJ141" s="29"/>
+      <c r="AK141" s="29"/>
+      <c r="AL141" s="29"/>
+      <c r="AM141" s="29"/>
+      <c r="AN141" s="29"/>
+      <c r="AO141" s="29"/>
+      <c r="AP141" s="29"/>
+      <c r="AQ141" s="29"/>
+      <c r="AR141" s="29"/>
+      <c r="AS141" s="29"/>
+      <c r="AT141" s="29"/>
+      <c r="AU141" s="29"/>
+      <c r="AV141" s="29"/>
+      <c r="AW141" s="29"/>
+      <c r="AX141" s="29"/>
+      <c r="AY141" s="29"/>
+      <c r="AZ141" s="29"/>
+      <c r="BA141" s="29"/>
+      <c r="BB141" s="29"/>
+      <c r="BC141" s="29"/>
+      <c r="BD141" s="29"/>
+      <c r="BE141" s="29"/>
+      <c r="BF141" s="29"/>
+      <c r="BG141" s="29"/>
+      <c r="BH141" s="29"/>
+      <c r="BI141" s="29"/>
+      <c r="BJ141" s="29"/>
+      <c r="BK141" s="29"/>
+      <c r="BL141" s="29"/>
+      <c r="BM141" s="29"/>
+      <c r="BN141" s="29"/>
+      <c r="BO141" s="29"/>
+      <c r="BP141" s="29"/>
+      <c r="BQ141" s="29"/>
+      <c r="BR141" s="29"/>
+      <c r="BS141" s="29"/>
+      <c r="BT141" s="29"/>
+      <c r="BU141" s="29"/>
+      <c r="BV141" s="29"/>
+      <c r="BW141" s="29"/>
+      <c r="BX141" s="29"/>
+      <c r="BY141" s="29"/>
+      <c r="BZ141" s="29"/>
+      <c r="CA141" s="29"/>
+      <c r="CB141" s="29"/>
+      <c r="CC141" s="29"/>
+      <c r="CD141" s="29"/>
+      <c r="CE141" s="29"/>
+      <c r="CF141" s="29"/>
+      <c r="CG141" s="29"/>
+      <c r="CH141" s="29"/>
+      <c r="CI141" s="29"/>
+      <c r="CJ141" s="29"/>
+      <c r="CK141" s="29"/>
+      <c r="CL141" s="29"/>
+      <c r="CM141" s="29"/>
+      <c r="CN141" s="29"/>
+      <c r="CO141" s="29"/>
+      <c r="CP141" s="29"/>
+      <c r="CQ141" s="29"/>
+      <c r="CR141" s="29"/>
+      <c r="CS141" s="29"/>
+      <c r="CT141" s="29"/>
+      <c r="CU141" s="29"/>
+      <c r="CV141" s="29"/>
+      <c r="CW141" s="29"/>
+      <c r="CX141" s="30"/>
       <c r="CY141" s="17"/>
     </row>
-    <row r="142" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="78" t="s">
-        <v>75</v>
+    <row r="142" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A142" s="80" t="s">
+        <v>76</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C142" s="62">
-        <v>5</v>
-      </c>
-      <c r="D142" s="81">
+        <v>2</v>
+      </c>
+      <c r="D142" s="78">
         <v>4.05</v>
       </c>
-      <c r="E142" s="82">
+      <c r="E142" s="79">
         <v>18.05</v>
       </c>
       <c r="F142" s="19"/>
@@ -18437,7 +18463,9 @@
       <c r="BX142" s="20"/>
       <c r="BY142" s="20"/>
       <c r="BZ142" s="20"/>
-      <c r="CA142" s="20"/>
+      <c r="CA142" s="42">
+        <v>1</v>
+      </c>
       <c r="CB142" s="42">
         <v>1</v>
       </c>
@@ -18446,18 +18474,12 @@
       <c r="CE142" s="20"/>
       <c r="CF142" s="20"/>
       <c r="CG142" s="42">
-        <v>1</v>
-      </c>
-      <c r="CH142" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="CI142" s="42">
-        <v>0.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="CH142" s="20"/>
+      <c r="CI142" s="20"/>
       <c r="CJ142" s="20"/>
-      <c r="CK142" s="42">
-        <v>1</v>
-      </c>
+      <c r="CK142" s="20"/>
       <c r="CL142" s="20"/>
       <c r="CM142" s="20"/>
       <c r="CN142" s="20"/>
@@ -18473,16 +18495,16 @@
       <c r="CX142" s="21"/>
       <c r="CY142" s="17"/>
     </row>
-    <row r="143" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="79"/>
+    <row r="143" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A143" s="81"/>
       <c r="B143" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="62">
-        <v>4.5</v>
-      </c>
-      <c r="D143" s="81"/>
-      <c r="E143" s="82"/>
+        <v>4</v>
+      </c>
+      <c r="D143" s="78"/>
+      <c r="E143" s="79"/>
       <c r="F143" s="19"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -18556,7 +18578,9 @@
       <c r="BX143" s="20"/>
       <c r="BY143" s="20"/>
       <c r="BZ143" s="20"/>
-      <c r="CA143" s="20"/>
+      <c r="CA143" s="41">
+        <v>1</v>
+      </c>
       <c r="CB143" s="41">
         <v>1</v>
       </c>
@@ -18565,18 +18589,12 @@
       <c r="CE143" s="20"/>
       <c r="CF143" s="20"/>
       <c r="CG143" s="41">
-        <v>1</v>
-      </c>
-      <c r="CH143" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="CI143" s="41">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="CH143" s="20"/>
+      <c r="CI143" s="20"/>
       <c r="CJ143" s="20"/>
-      <c r="CK143" s="41">
-        <v>1</v>
-      </c>
+      <c r="CK143" s="20"/>
       <c r="CL143" s="20"/>
       <c r="CM143" s="20"/>
       <c r="CN143" s="20"/>
@@ -18592,20 +18610,20 @@
       <c r="CX143" s="21"/>
       <c r="CY143" s="17"/>
     </row>
-    <row r="144" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="78" t="s">
-        <v>77</v>
+    <row r="144" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="80" t="s">
+        <v>75</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="62">
-        <v>1</v>
-      </c>
-      <c r="D144" s="81">
+        <v>5</v>
+      </c>
+      <c r="D144" s="78">
         <v>4.05</v>
       </c>
-      <c r="E144" s="82">
+      <c r="E144" s="79">
         <v>18.05</v>
       </c>
       <c r="F144" s="19"/>
@@ -18682,19 +18700,27 @@
       <c r="BY144" s="20"/>
       <c r="BZ144" s="20"/>
       <c r="CA144" s="20"/>
-      <c r="CB144" s="20"/>
+      <c r="CB144" s="42">
+        <v>1</v>
+      </c>
       <c r="CC144" s="20"/>
       <c r="CD144" s="20"/>
       <c r="CE144" s="20"/>
       <c r="CF144" s="20"/>
-      <c r="CG144" s="20"/>
-      <c r="CH144" s="20"/>
-      <c r="CI144" s="20"/>
+      <c r="CG144" s="42">
+        <v>1</v>
+      </c>
+      <c r="CH144" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="CI144" s="42">
+        <v>0.5</v>
+      </c>
       <c r="CJ144" s="20"/>
-      <c r="CK144" s="20"/>
-      <c r="CL144" s="42">
+      <c r="CK144" s="42">
         <v>1</v>
       </c>
+      <c r="CL144" s="20"/>
       <c r="CM144" s="20"/>
       <c r="CN144" s="20"/>
       <c r="CO144" s="20"/>
@@ -18709,16 +18735,16 @@
       <c r="CX144" s="21"/>
       <c r="CY144" s="17"/>
     </row>
-    <row r="145" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="79"/>
+    <row r="145" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="81"/>
       <c r="B145" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="62">
-        <v>1</v>
-      </c>
-      <c r="D145" s="81"/>
-      <c r="E145" s="82"/>
+        <v>4.5</v>
+      </c>
+      <c r="D145" s="78"/>
+      <c r="E145" s="79"/>
       <c r="F145" s="19"/>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
@@ -18793,19 +18819,27 @@
       <c r="BY145" s="20"/>
       <c r="BZ145" s="20"/>
       <c r="CA145" s="20"/>
-      <c r="CB145" s="20"/>
+      <c r="CB145" s="41">
+        <v>1</v>
+      </c>
       <c r="CC145" s="20"/>
       <c r="CD145" s="20"/>
       <c r="CE145" s="20"/>
       <c r="CF145" s="20"/>
-      <c r="CG145" s="20"/>
-      <c r="CH145" s="20"/>
-      <c r="CI145" s="20"/>
+      <c r="CG145" s="41">
+        <v>1</v>
+      </c>
+      <c r="CH145" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="CI145" s="41">
+        <v>1</v>
+      </c>
       <c r="CJ145" s="20"/>
-      <c r="CK145" s="20"/>
-      <c r="CL145" s="41">
+      <c r="CK145" s="41">
         <v>1</v>
       </c>
+      <c r="CL145" s="20"/>
       <c r="CM145" s="20"/>
       <c r="CN145" s="20"/>
       <c r="CO145" s="20"/>
@@ -18820,135 +18854,133 @@
       <c r="CX145" s="21"/>
       <c r="CY145" s="17"/>
     </row>
-    <row r="146" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="28"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
-      <c r="J146" s="29"/>
-      <c r="K146" s="29"/>
-      <c r="L146" s="29"/>
-      <c r="M146" s="29"/>
-      <c r="N146" s="29"/>
-      <c r="O146" s="29"/>
-      <c r="P146" s="29"/>
-      <c r="Q146" s="29"/>
-      <c r="R146" s="29"/>
-      <c r="S146" s="29"/>
-      <c r="T146" s="29"/>
-      <c r="U146" s="29"/>
-      <c r="V146" s="29"/>
-      <c r="W146" s="29"/>
-      <c r="X146" s="29"/>
-      <c r="Y146" s="29"/>
-      <c r="Z146" s="29"/>
-      <c r="AA146" s="29"/>
-      <c r="AB146" s="29"/>
-      <c r="AC146" s="29"/>
-      <c r="AD146" s="29"/>
-      <c r="AE146" s="29"/>
-      <c r="AF146" s="29"/>
-      <c r="AG146" s="29"/>
-      <c r="AH146" s="29"/>
-      <c r="AI146" s="29"/>
-      <c r="AJ146" s="29"/>
-      <c r="AK146" s="29"/>
-      <c r="AL146" s="29"/>
-      <c r="AM146" s="29"/>
-      <c r="AN146" s="29"/>
-      <c r="AO146" s="29"/>
-      <c r="AP146" s="29"/>
-      <c r="AQ146" s="29"/>
-      <c r="AR146" s="29"/>
-      <c r="AS146" s="29"/>
-      <c r="AT146" s="29"/>
-      <c r="AU146" s="29"/>
-      <c r="AV146" s="29"/>
-      <c r="AW146" s="29"/>
-      <c r="AX146" s="29"/>
-      <c r="AY146" s="29"/>
-      <c r="AZ146" s="29"/>
-      <c r="BA146" s="29"/>
-      <c r="BB146" s="29"/>
-      <c r="BC146" s="29"/>
-      <c r="BD146" s="29"/>
-      <c r="BE146" s="29"/>
-      <c r="BF146" s="29"/>
-      <c r="BG146" s="29"/>
-      <c r="BH146" s="29"/>
-      <c r="BI146" s="29"/>
-      <c r="BJ146" s="29"/>
-      <c r="BK146" s="29"/>
-      <c r="BL146" s="29"/>
-      <c r="BM146" s="29"/>
-      <c r="BN146" s="29"/>
-      <c r="BO146" s="29"/>
-      <c r="BP146" s="29"/>
-      <c r="BQ146" s="29"/>
-      <c r="BR146" s="29"/>
-      <c r="BS146" s="29"/>
-      <c r="BT146" s="29"/>
-      <c r="BU146" s="29"/>
-      <c r="BV146" s="29"/>
-      <c r="BW146" s="29"/>
-      <c r="BX146" s="29"/>
-      <c r="BY146" s="29"/>
-      <c r="BZ146" s="29"/>
-      <c r="CA146" s="29"/>
-      <c r="CB146" s="29"/>
-      <c r="CC146" s="29"/>
-      <c r="CD146" s="29"/>
-      <c r="CE146" s="29"/>
-      <c r="CF146" s="29"/>
-      <c r="CG146" s="29"/>
-      <c r="CH146" s="29"/>
-      <c r="CI146" s="29"/>
-      <c r="CJ146" s="29"/>
-      <c r="CK146" s="29"/>
-      <c r="CL146" s="29"/>
-      <c r="CM146" s="29"/>
-      <c r="CN146" s="29"/>
-      <c r="CO146" s="29"/>
-      <c r="CP146" s="29"/>
-      <c r="CQ146" s="29"/>
-      <c r="CR146" s="29"/>
-      <c r="CS146" s="29"/>
-      <c r="CT146" s="29"/>
-      <c r="CU146" s="29"/>
-      <c r="CV146" s="29"/>
-      <c r="CW146" s="29"/>
-      <c r="CX146" s="30"/>
+    <row r="146" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="62">
+        <v>1</v>
+      </c>
+      <c r="D146" s="78">
+        <v>4.05</v>
+      </c>
+      <c r="E146" s="79">
+        <v>18.05</v>
+      </c>
+      <c r="F146" s="19"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="20"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="20"/>
+      <c r="O146" s="20"/>
+      <c r="P146" s="20"/>
+      <c r="Q146" s="20"/>
+      <c r="R146" s="20"/>
+      <c r="S146" s="20"/>
+      <c r="T146" s="20"/>
+      <c r="U146" s="20"/>
+      <c r="V146" s="20"/>
+      <c r="W146" s="20"/>
+      <c r="X146" s="20"/>
+      <c r="Y146" s="20"/>
+      <c r="Z146" s="20"/>
+      <c r="AA146" s="20"/>
+      <c r="AB146" s="20"/>
+      <c r="AC146" s="20"/>
+      <c r="AD146" s="20"/>
+      <c r="AE146" s="20"/>
+      <c r="AF146" s="20"/>
+      <c r="AG146" s="20"/>
+      <c r="AH146" s="20"/>
+      <c r="AI146" s="20"/>
+      <c r="AJ146" s="20"/>
+      <c r="AK146" s="20"/>
+      <c r="AL146" s="20"/>
+      <c r="AM146" s="20"/>
+      <c r="AN146" s="20"/>
+      <c r="AO146" s="20"/>
+      <c r="AP146" s="20"/>
+      <c r="AQ146" s="20"/>
+      <c r="AR146" s="20"/>
+      <c r="AS146" s="20"/>
+      <c r="AT146" s="20"/>
+      <c r="AU146" s="20"/>
+      <c r="AV146" s="20"/>
+      <c r="AW146" s="20"/>
+      <c r="AX146" s="20"/>
+      <c r="AY146" s="20"/>
+      <c r="AZ146" s="20"/>
+      <c r="BA146" s="20"/>
+      <c r="BB146" s="20"/>
+      <c r="BC146" s="20"/>
+      <c r="BD146" s="20"/>
+      <c r="BE146" s="20"/>
+      <c r="BF146" s="20"/>
+      <c r="BG146" s="20"/>
+      <c r="BH146" s="20"/>
+      <c r="BI146" s="20"/>
+      <c r="BJ146" s="20"/>
+      <c r="BK146" s="20"/>
+      <c r="BL146" s="20"/>
+      <c r="BM146" s="20"/>
+      <c r="BN146" s="20"/>
+      <c r="BO146" s="20"/>
+      <c r="BP146" s="20"/>
+      <c r="BQ146" s="20"/>
+      <c r="BR146" s="20"/>
+      <c r="BS146" s="20"/>
+      <c r="BT146" s="20"/>
+      <c r="BU146" s="20"/>
+      <c r="BV146" s="20"/>
+      <c r="BW146" s="20"/>
+      <c r="BX146" s="20"/>
+      <c r="BY146" s="20"/>
+      <c r="BZ146" s="20"/>
+      <c r="CA146" s="20"/>
+      <c r="CB146" s="20"/>
+      <c r="CC146" s="20"/>
+      <c r="CD146" s="20"/>
+      <c r="CE146" s="20"/>
+      <c r="CF146" s="20"/>
+      <c r="CG146" s="20"/>
+      <c r="CH146" s="20"/>
+      <c r="CI146" s="20"/>
+      <c r="CJ146" s="20"/>
+      <c r="CK146" s="20"/>
+      <c r="CL146" s="42">
+        <v>1</v>
+      </c>
+      <c r="CM146" s="20"/>
+      <c r="CN146" s="20"/>
+      <c r="CO146" s="20"/>
+      <c r="CP146" s="20"/>
+      <c r="CQ146" s="20"/>
+      <c r="CR146" s="20"/>
+      <c r="CS146" s="20"/>
+      <c r="CT146" s="20"/>
+      <c r="CU146" s="20"/>
+      <c r="CV146" s="20"/>
+      <c r="CW146" s="20"/>
+      <c r="CX146" s="21"/>
       <c r="CY146" s="17"/>
     </row>
-    <row r="147" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A147" s="78"/>
+    <row r="147" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="81"/>
       <c r="B147" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C147" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="81">
-        <v>4.05</v>
-      </c>
-      <c r="E147" s="82">
-        <v>18.05</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C147" s="62">
+        <v>1</v>
+      </c>
+      <c r="D147" s="78"/>
+      <c r="E147" s="79"/>
       <c r="F147" s="19"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
@@ -19033,7 +19065,9 @@
       <c r="CI147" s="20"/>
       <c r="CJ147" s="20"/>
       <c r="CK147" s="20"/>
-      <c r="CL147" s="20"/>
+      <c r="CL147" s="41">
+        <v>1</v>
+      </c>
       <c r="CM147" s="20"/>
       <c r="CN147" s="20"/>
       <c r="CO147" s="20"/>
@@ -19048,125 +19082,135 @@
       <c r="CX147" s="21"/>
       <c r="CY147" s="17"/>
     </row>
-    <row r="148" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A148" s="79"/>
-      <c r="B148" s="6" t="s">
+    <row r="148" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" s="81"/>
-      <c r="E148" s="82"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="20"/>
-      <c r="J148" s="20"/>
-      <c r="K148" s="20"/>
-      <c r="L148" s="20"/>
-      <c r="M148" s="20"/>
-      <c r="N148" s="20"/>
-      <c r="O148" s="20"/>
-      <c r="P148" s="20"/>
-      <c r="Q148" s="20"/>
-      <c r="R148" s="20"/>
-      <c r="S148" s="20"/>
-      <c r="T148" s="20"/>
-      <c r="U148" s="20"/>
-      <c r="V148" s="20"/>
-      <c r="W148" s="20"/>
-      <c r="X148" s="20"/>
-      <c r="Y148" s="20"/>
-      <c r="Z148" s="20"/>
-      <c r="AA148" s="20"/>
-      <c r="AB148" s="20"/>
-      <c r="AC148" s="20"/>
-      <c r="AD148" s="20"/>
-      <c r="AE148" s="20"/>
-      <c r="AF148" s="20"/>
-      <c r="AG148" s="20"/>
-      <c r="AH148" s="20"/>
-      <c r="AI148" s="20"/>
-      <c r="AJ148" s="20"/>
-      <c r="AK148" s="20"/>
-      <c r="AL148" s="20"/>
-      <c r="AM148" s="20"/>
-      <c r="AN148" s="20"/>
-      <c r="AO148" s="20"/>
-      <c r="AP148" s="20"/>
-      <c r="AQ148" s="20"/>
-      <c r="AR148" s="20"/>
-      <c r="AS148" s="20"/>
-      <c r="AT148" s="20"/>
-      <c r="AU148" s="20"/>
-      <c r="AV148" s="20"/>
-      <c r="AW148" s="20"/>
-      <c r="AX148" s="20"/>
-      <c r="AY148" s="20"/>
-      <c r="AZ148" s="20"/>
-      <c r="BA148" s="20"/>
-      <c r="BB148" s="20"/>
-      <c r="BC148" s="20"/>
-      <c r="BD148" s="20"/>
-      <c r="BE148" s="20"/>
-      <c r="BF148" s="20"/>
-      <c r="BG148" s="20"/>
-      <c r="BH148" s="20"/>
-      <c r="BI148" s="20"/>
-      <c r="BJ148" s="20"/>
-      <c r="BK148" s="20"/>
-      <c r="BL148" s="20"/>
-      <c r="BM148" s="20"/>
-      <c r="BN148" s="20"/>
-      <c r="BO148" s="20"/>
-      <c r="BP148" s="20"/>
-      <c r="BQ148" s="20"/>
-      <c r="BR148" s="20"/>
-      <c r="BS148" s="20"/>
-      <c r="BT148" s="20"/>
-      <c r="BU148" s="20"/>
-      <c r="BV148" s="20"/>
-      <c r="BW148" s="20"/>
-      <c r="BX148" s="20"/>
-      <c r="BY148" s="20"/>
-      <c r="BZ148" s="20"/>
-      <c r="CA148" s="20"/>
-      <c r="CB148" s="20"/>
-      <c r="CC148" s="20"/>
-      <c r="CD148" s="20"/>
-      <c r="CE148" s="20"/>
-      <c r="CF148" s="20"/>
-      <c r="CG148" s="20"/>
-      <c r="CH148" s="20"/>
-      <c r="CI148" s="20"/>
-      <c r="CJ148" s="20"/>
-      <c r="CK148" s="20"/>
-      <c r="CL148" s="20"/>
-      <c r="CM148" s="20"/>
-      <c r="CN148" s="20"/>
-      <c r="CO148" s="20"/>
-      <c r="CP148" s="20"/>
-      <c r="CQ148" s="20"/>
-      <c r="CR148" s="20"/>
-      <c r="CS148" s="20"/>
-      <c r="CT148" s="20"/>
-      <c r="CU148" s="20"/>
-      <c r="CV148" s="20"/>
-      <c r="CW148" s="20"/>
-      <c r="CX148" s="21"/>
+      <c r="E148" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="28"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="29"/>
+      <c r="M148" s="29"/>
+      <c r="N148" s="29"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="29"/>
+      <c r="Q148" s="29"/>
+      <c r="R148" s="29"/>
+      <c r="S148" s="29"/>
+      <c r="T148" s="29"/>
+      <c r="U148" s="29"/>
+      <c r="V148" s="29"/>
+      <c r="W148" s="29"/>
+      <c r="X148" s="29"/>
+      <c r="Y148" s="29"/>
+      <c r="Z148" s="29"/>
+      <c r="AA148" s="29"/>
+      <c r="AB148" s="29"/>
+      <c r="AC148" s="29"/>
+      <c r="AD148" s="29"/>
+      <c r="AE148" s="29"/>
+      <c r="AF148" s="29"/>
+      <c r="AG148" s="29"/>
+      <c r="AH148" s="29"/>
+      <c r="AI148" s="29"/>
+      <c r="AJ148" s="29"/>
+      <c r="AK148" s="29"/>
+      <c r="AL148" s="29"/>
+      <c r="AM148" s="29"/>
+      <c r="AN148" s="29"/>
+      <c r="AO148" s="29"/>
+      <c r="AP148" s="29"/>
+      <c r="AQ148" s="29"/>
+      <c r="AR148" s="29"/>
+      <c r="AS148" s="29"/>
+      <c r="AT148" s="29"/>
+      <c r="AU148" s="29"/>
+      <c r="AV148" s="29"/>
+      <c r="AW148" s="29"/>
+      <c r="AX148" s="29"/>
+      <c r="AY148" s="29"/>
+      <c r="AZ148" s="29"/>
+      <c r="BA148" s="29"/>
+      <c r="BB148" s="29"/>
+      <c r="BC148" s="29"/>
+      <c r="BD148" s="29"/>
+      <c r="BE148" s="29"/>
+      <c r="BF148" s="29"/>
+      <c r="BG148" s="29"/>
+      <c r="BH148" s="29"/>
+      <c r="BI148" s="29"/>
+      <c r="BJ148" s="29"/>
+      <c r="BK148" s="29"/>
+      <c r="BL148" s="29"/>
+      <c r="BM148" s="29"/>
+      <c r="BN148" s="29"/>
+      <c r="BO148" s="29"/>
+      <c r="BP148" s="29"/>
+      <c r="BQ148" s="29"/>
+      <c r="BR148" s="29"/>
+      <c r="BS148" s="29"/>
+      <c r="BT148" s="29"/>
+      <c r="BU148" s="29"/>
+      <c r="BV148" s="29"/>
+      <c r="BW148" s="29"/>
+      <c r="BX148" s="29"/>
+      <c r="BY148" s="29"/>
+      <c r="BZ148" s="29"/>
+      <c r="CA148" s="29"/>
+      <c r="CB148" s="29"/>
+      <c r="CC148" s="29"/>
+      <c r="CD148" s="29"/>
+      <c r="CE148" s="29"/>
+      <c r="CF148" s="29"/>
+      <c r="CG148" s="29"/>
+      <c r="CH148" s="29"/>
+      <c r="CI148" s="29"/>
+      <c r="CJ148" s="29"/>
+      <c r="CK148" s="29"/>
+      <c r="CL148" s="29"/>
+      <c r="CM148" s="29"/>
+      <c r="CN148" s="29"/>
+      <c r="CO148" s="29"/>
+      <c r="CP148" s="29"/>
+      <c r="CQ148" s="29"/>
+      <c r="CR148" s="29"/>
+      <c r="CS148" s="29"/>
+      <c r="CT148" s="29"/>
+      <c r="CU148" s="29"/>
+      <c r="CV148" s="29"/>
+      <c r="CW148" s="29"/>
+      <c r="CX148" s="30"/>
       <c r="CY148" s="17"/>
     </row>
-    <row r="149" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="62"/>
-      <c r="D149" s="92">
-        <v>44334</v>
-      </c>
-      <c r="E149" s="93"/>
+    <row r="149" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A149" s="80"/>
+      <c r="B149" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="78">
+        <v>4.05</v>
+      </c>
+      <c r="E149" s="79">
+        <v>18.05</v>
+      </c>
       <c r="F149" s="19"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
@@ -19266,587 +19310,577 @@
       <c r="CX149" s="21"/>
       <c r="CY149" s="17"/>
     </row>
-    <row r="150" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="70" t="s">
+    <row r="150" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A150" s="81"/>
+      <c r="B150" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E150" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F150" s="32"/>
-      <c r="G150" s="33"/>
-      <c r="H150" s="33"/>
-      <c r="I150" s="33"/>
-      <c r="J150" s="33"/>
-      <c r="K150" s="33"/>
-      <c r="L150" s="33"/>
-      <c r="M150" s="33"/>
-      <c r="N150" s="33"/>
-      <c r="O150" s="33"/>
-      <c r="P150" s="33"/>
-      <c r="Q150" s="33"/>
-      <c r="R150" s="33"/>
-      <c r="S150" s="33"/>
-      <c r="T150" s="33"/>
-      <c r="U150" s="33"/>
-      <c r="V150" s="33"/>
-      <c r="W150" s="33"/>
-      <c r="X150" s="33"/>
-      <c r="Y150" s="33"/>
-      <c r="Z150" s="33"/>
-      <c r="AA150" s="33"/>
-      <c r="AB150" s="33"/>
-      <c r="AC150" s="33"/>
-      <c r="AD150" s="33"/>
-      <c r="AE150" s="33"/>
-      <c r="AF150" s="33"/>
-      <c r="AG150" s="33"/>
-      <c r="AH150" s="33"/>
-      <c r="AI150" s="33"/>
-      <c r="AJ150" s="33"/>
-      <c r="AK150" s="33"/>
-      <c r="AL150" s="33"/>
-      <c r="AM150" s="33"/>
-      <c r="AN150" s="33"/>
-      <c r="AO150" s="33"/>
-      <c r="AP150" s="33"/>
-      <c r="AQ150" s="33"/>
-      <c r="AR150" s="33"/>
-      <c r="AS150" s="33"/>
-      <c r="AT150" s="33"/>
-      <c r="AU150" s="33"/>
-      <c r="AV150" s="33"/>
-      <c r="AW150" s="33"/>
-      <c r="AX150" s="33"/>
-      <c r="AY150" s="33"/>
-      <c r="AZ150" s="33"/>
-      <c r="BA150" s="33"/>
-      <c r="BB150" s="33"/>
-      <c r="BC150" s="33"/>
-      <c r="BD150" s="33"/>
-      <c r="BE150" s="33"/>
-      <c r="BF150" s="33"/>
-      <c r="BG150" s="33"/>
-      <c r="BH150" s="33"/>
-      <c r="BI150" s="33"/>
-      <c r="BJ150" s="33"/>
-      <c r="BK150" s="33"/>
-      <c r="BL150" s="33"/>
-      <c r="BM150" s="33"/>
-      <c r="BN150" s="33"/>
-      <c r="BO150" s="33"/>
-      <c r="BP150" s="33"/>
-      <c r="BQ150" s="33"/>
-      <c r="BR150" s="33"/>
-      <c r="BS150" s="33"/>
-      <c r="BT150" s="33"/>
-      <c r="BU150" s="33"/>
-      <c r="BV150" s="33"/>
-      <c r="BW150" s="33"/>
-      <c r="BX150" s="33"/>
-      <c r="BY150" s="33"/>
-      <c r="BZ150" s="33"/>
-      <c r="CA150" s="33"/>
-      <c r="CB150" s="33"/>
-      <c r="CC150" s="33"/>
-      <c r="CD150" s="33"/>
-      <c r="CE150" s="33"/>
-      <c r="CF150" s="33"/>
-      <c r="CG150" s="33"/>
-      <c r="CH150" s="33"/>
-      <c r="CI150" s="33"/>
-      <c r="CJ150" s="33"/>
-      <c r="CK150" s="33"/>
-      <c r="CL150" s="33"/>
-      <c r="CM150" s="33"/>
-      <c r="CN150" s="33"/>
-      <c r="CO150" s="33"/>
-      <c r="CP150" s="33"/>
-      <c r="CQ150" s="33"/>
-      <c r="CR150" s="33"/>
-      <c r="CS150" s="33"/>
-      <c r="CT150" s="33"/>
-      <c r="CU150" s="33"/>
-      <c r="CV150" s="33"/>
-      <c r="CW150" s="33"/>
-      <c r="CX150" s="34"/>
+      <c r="C150" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="78"/>
+      <c r="E150" s="79"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
+      <c r="M150" s="20"/>
+      <c r="N150" s="20"/>
+      <c r="O150" s="20"/>
+      <c r="P150" s="20"/>
+      <c r="Q150" s="20"/>
+      <c r="R150" s="20"/>
+      <c r="S150" s="20"/>
+      <c r="T150" s="20"/>
+      <c r="U150" s="20"/>
+      <c r="V150" s="20"/>
+      <c r="W150" s="20"/>
+      <c r="X150" s="20"/>
+      <c r="Y150" s="20"/>
+      <c r="Z150" s="20"/>
+      <c r="AA150" s="20"/>
+      <c r="AB150" s="20"/>
+      <c r="AC150" s="20"/>
+      <c r="AD150" s="20"/>
+      <c r="AE150" s="20"/>
+      <c r="AF150" s="20"/>
+      <c r="AG150" s="20"/>
+      <c r="AH150" s="20"/>
+      <c r="AI150" s="20"/>
+      <c r="AJ150" s="20"/>
+      <c r="AK150" s="20"/>
+      <c r="AL150" s="20"/>
+      <c r="AM150" s="20"/>
+      <c r="AN150" s="20"/>
+      <c r="AO150" s="20"/>
+      <c r="AP150" s="20"/>
+      <c r="AQ150" s="20"/>
+      <c r="AR150" s="20"/>
+      <c r="AS150" s="20"/>
+      <c r="AT150" s="20"/>
+      <c r="AU150" s="20"/>
+      <c r="AV150" s="20"/>
+      <c r="AW150" s="20"/>
+      <c r="AX150" s="20"/>
+      <c r="AY150" s="20"/>
+      <c r="AZ150" s="20"/>
+      <c r="BA150" s="20"/>
+      <c r="BB150" s="20"/>
+      <c r="BC150" s="20"/>
+      <c r="BD150" s="20"/>
+      <c r="BE150" s="20"/>
+      <c r="BF150" s="20"/>
+      <c r="BG150" s="20"/>
+      <c r="BH150" s="20"/>
+      <c r="BI150" s="20"/>
+      <c r="BJ150" s="20"/>
+      <c r="BK150" s="20"/>
+      <c r="BL150" s="20"/>
+      <c r="BM150" s="20"/>
+      <c r="BN150" s="20"/>
+      <c r="BO150" s="20"/>
+      <c r="BP150" s="20"/>
+      <c r="BQ150" s="20"/>
+      <c r="BR150" s="20"/>
+      <c r="BS150" s="20"/>
+      <c r="BT150" s="20"/>
+      <c r="BU150" s="20"/>
+      <c r="BV150" s="20"/>
+      <c r="BW150" s="20"/>
+      <c r="BX150" s="20"/>
+      <c r="BY150" s="20"/>
+      <c r="BZ150" s="20"/>
+      <c r="CA150" s="20"/>
+      <c r="CB150" s="20"/>
+      <c r="CC150" s="20"/>
+      <c r="CD150" s="20"/>
+      <c r="CE150" s="20"/>
+      <c r="CF150" s="20"/>
+      <c r="CG150" s="20"/>
+      <c r="CH150" s="20"/>
+      <c r="CI150" s="20"/>
+      <c r="CJ150" s="20"/>
+      <c r="CK150" s="20"/>
+      <c r="CL150" s="20"/>
+      <c r="CM150" s="20"/>
+      <c r="CN150" s="20"/>
+      <c r="CO150" s="20"/>
+      <c r="CP150" s="20"/>
+      <c r="CQ150" s="20"/>
+      <c r="CR150" s="20"/>
+      <c r="CS150" s="20"/>
+      <c r="CT150" s="20"/>
+      <c r="CU150" s="20"/>
+      <c r="CV150" s="20"/>
+      <c r="CW150" s="20"/>
+      <c r="CX150" s="21"/>
       <c r="CY150" s="17"/>
     </row>
-    <row r="151" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D151" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" s="28"/>
-      <c r="G151" s="29"/>
-      <c r="H151" s="29"/>
-      <c r="I151" s="29"/>
-      <c r="J151" s="29"/>
-      <c r="K151" s="29"/>
-      <c r="L151" s="29"/>
-      <c r="M151" s="29"/>
-      <c r="N151" s="29"/>
-      <c r="O151" s="29"/>
-      <c r="P151" s="29"/>
-      <c r="Q151" s="29"/>
-      <c r="R151" s="29"/>
-      <c r="S151" s="29"/>
-      <c r="T151" s="29"/>
-      <c r="U151" s="29"/>
-      <c r="V151" s="29"/>
-      <c r="W151" s="29"/>
-      <c r="X151" s="29"/>
-      <c r="Y151" s="29"/>
-      <c r="Z151" s="29"/>
-      <c r="AA151" s="29"/>
-      <c r="AB151" s="29"/>
-      <c r="AC151" s="29"/>
-      <c r="AD151" s="29"/>
-      <c r="AE151" s="29"/>
-      <c r="AF151" s="29"/>
-      <c r="AG151" s="29"/>
-      <c r="AH151" s="29"/>
-      <c r="AI151" s="29"/>
-      <c r="AJ151" s="29"/>
-      <c r="AK151" s="29"/>
-      <c r="AL151" s="29"/>
-      <c r="AM151" s="29"/>
-      <c r="AN151" s="29"/>
-      <c r="AO151" s="29"/>
-      <c r="AP151" s="29"/>
-      <c r="AQ151" s="29"/>
-      <c r="AR151" s="29"/>
-      <c r="AS151" s="29"/>
-      <c r="AT151" s="29"/>
-      <c r="AU151" s="29"/>
-      <c r="AV151" s="29"/>
-      <c r="AW151" s="29"/>
-      <c r="AX151" s="29"/>
-      <c r="AY151" s="29"/>
-      <c r="AZ151" s="29"/>
-      <c r="BA151" s="29"/>
-      <c r="BB151" s="29"/>
-      <c r="BC151" s="29"/>
-      <c r="BD151" s="29"/>
-      <c r="BE151" s="29"/>
-      <c r="BF151" s="29"/>
-      <c r="BG151" s="29"/>
-      <c r="BH151" s="29"/>
-      <c r="BI151" s="29"/>
-      <c r="BJ151" s="29"/>
-      <c r="BK151" s="29"/>
-      <c r="BL151" s="29"/>
-      <c r="BM151" s="29"/>
-      <c r="BN151" s="29"/>
-      <c r="BO151" s="29"/>
-      <c r="BP151" s="29"/>
-      <c r="BQ151" s="29"/>
-      <c r="BR151" s="29"/>
-      <c r="BS151" s="29"/>
-      <c r="BT151" s="29"/>
-      <c r="BU151" s="29"/>
-      <c r="BV151" s="29"/>
-      <c r="BW151" s="29"/>
-      <c r="BX151" s="29"/>
-      <c r="BY151" s="29"/>
-      <c r="BZ151" s="29"/>
-      <c r="CA151" s="29"/>
-      <c r="CB151" s="29"/>
-      <c r="CC151" s="29"/>
-      <c r="CD151" s="29"/>
-      <c r="CE151" s="29"/>
-      <c r="CF151" s="29"/>
-      <c r="CG151" s="29"/>
-      <c r="CH151" s="29"/>
-      <c r="CI151" s="29"/>
-      <c r="CJ151" s="29"/>
-      <c r="CK151" s="29"/>
-      <c r="CL151" s="29"/>
-      <c r="CM151" s="29"/>
-      <c r="CN151" s="29"/>
-      <c r="CO151" s="29"/>
-      <c r="CP151" s="29"/>
-      <c r="CQ151" s="29"/>
-      <c r="CR151" s="29"/>
-      <c r="CS151" s="29"/>
-      <c r="CT151" s="29"/>
-      <c r="CU151" s="29"/>
-      <c r="CV151" s="29"/>
-      <c r="CW151" s="29"/>
-      <c r="CX151" s="30"/>
+    <row r="151" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A151" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="8"/>
+      <c r="C151" s="62"/>
+      <c r="D151" s="87">
+        <v>44334</v>
+      </c>
+      <c r="E151" s="88"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="20"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="20"/>
+      <c r="O151" s="20"/>
+      <c r="P151" s="20"/>
+      <c r="Q151" s="20"/>
+      <c r="R151" s="20"/>
+      <c r="S151" s="20"/>
+      <c r="T151" s="20"/>
+      <c r="U151" s="20"/>
+      <c r="V151" s="20"/>
+      <c r="W151" s="20"/>
+      <c r="X151" s="20"/>
+      <c r="Y151" s="20"/>
+      <c r="Z151" s="20"/>
+      <c r="AA151" s="20"/>
+      <c r="AB151" s="20"/>
+      <c r="AC151" s="20"/>
+      <c r="AD151" s="20"/>
+      <c r="AE151" s="20"/>
+      <c r="AF151" s="20"/>
+      <c r="AG151" s="20"/>
+      <c r="AH151" s="20"/>
+      <c r="AI151" s="20"/>
+      <c r="AJ151" s="20"/>
+      <c r="AK151" s="20"/>
+      <c r="AL151" s="20"/>
+      <c r="AM151" s="20"/>
+      <c r="AN151" s="20"/>
+      <c r="AO151" s="20"/>
+      <c r="AP151" s="20"/>
+      <c r="AQ151" s="20"/>
+      <c r="AR151" s="20"/>
+      <c r="AS151" s="20"/>
+      <c r="AT151" s="20"/>
+      <c r="AU151" s="20"/>
+      <c r="AV151" s="20"/>
+      <c r="AW151" s="20"/>
+      <c r="AX151" s="20"/>
+      <c r="AY151" s="20"/>
+      <c r="AZ151" s="20"/>
+      <c r="BA151" s="20"/>
+      <c r="BB151" s="20"/>
+      <c r="BC151" s="20"/>
+      <c r="BD151" s="20"/>
+      <c r="BE151" s="20"/>
+      <c r="BF151" s="20"/>
+      <c r="BG151" s="20"/>
+      <c r="BH151" s="20"/>
+      <c r="BI151" s="20"/>
+      <c r="BJ151" s="20"/>
+      <c r="BK151" s="20"/>
+      <c r="BL151" s="20"/>
+      <c r="BM151" s="20"/>
+      <c r="BN151" s="20"/>
+      <c r="BO151" s="20"/>
+      <c r="BP151" s="20"/>
+      <c r="BQ151" s="20"/>
+      <c r="BR151" s="20"/>
+      <c r="BS151" s="20"/>
+      <c r="BT151" s="20"/>
+      <c r="BU151" s="20"/>
+      <c r="BV151" s="20"/>
+      <c r="BW151" s="20"/>
+      <c r="BX151" s="20"/>
+      <c r="BY151" s="20"/>
+      <c r="BZ151" s="20"/>
+      <c r="CA151" s="20"/>
+      <c r="CB151" s="20"/>
+      <c r="CC151" s="20"/>
+      <c r="CD151" s="20"/>
+      <c r="CE151" s="20"/>
+      <c r="CF151" s="20"/>
+      <c r="CG151" s="20"/>
+      <c r="CH151" s="20"/>
+      <c r="CI151" s="20"/>
+      <c r="CJ151" s="20"/>
+      <c r="CK151" s="20"/>
+      <c r="CL151" s="20"/>
+      <c r="CM151" s="20"/>
+      <c r="CN151" s="20"/>
+      <c r="CO151" s="20"/>
+      <c r="CP151" s="20"/>
+      <c r="CQ151" s="20"/>
+      <c r="CR151" s="20"/>
+      <c r="CS151" s="20"/>
+      <c r="CT151" s="20"/>
+      <c r="CU151" s="20"/>
+      <c r="CV151" s="20"/>
+      <c r="CW151" s="20"/>
+      <c r="CX151" s="21"/>
       <c r="CY151" s="17"/>
     </row>
-    <row r="152" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A152" s="78"/>
-      <c r="B152" s="6" t="s">
+    <row r="152" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A152" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" s="81">
-        <v>18.04</v>
-      </c>
-      <c r="E152" s="82">
-        <v>25.04</v>
-      </c>
-      <c r="F152" s="19"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20"/>
-      <c r="L152" s="20"/>
-      <c r="M152" s="20"/>
-      <c r="N152" s="20"/>
-      <c r="O152" s="20"/>
-      <c r="P152" s="20"/>
-      <c r="Q152" s="20"/>
-      <c r="R152" s="20"/>
-      <c r="S152" s="20"/>
-      <c r="T152" s="20"/>
-      <c r="U152" s="20"/>
-      <c r="V152" s="20"/>
-      <c r="W152" s="20"/>
-      <c r="X152" s="20"/>
-      <c r="Y152" s="20"/>
-      <c r="Z152" s="20"/>
-      <c r="AA152" s="20"/>
-      <c r="AB152" s="20"/>
-      <c r="AC152" s="20"/>
-      <c r="AD152" s="20"/>
-      <c r="AE152" s="20"/>
-      <c r="AF152" s="20"/>
-      <c r="AG152" s="20"/>
-      <c r="AH152" s="20"/>
-      <c r="AI152" s="20"/>
-      <c r="AJ152" s="20"/>
-      <c r="AK152" s="20"/>
-      <c r="AL152" s="20"/>
-      <c r="AM152" s="20"/>
-      <c r="AN152" s="20"/>
-      <c r="AO152" s="20"/>
-      <c r="AP152" s="20"/>
-      <c r="AQ152" s="20"/>
-      <c r="AR152" s="20"/>
-      <c r="AS152" s="20"/>
-      <c r="AT152" s="20"/>
-      <c r="AU152" s="20"/>
-      <c r="AV152" s="20"/>
-      <c r="AW152" s="20"/>
-      <c r="AX152" s="20"/>
-      <c r="AY152" s="20"/>
-      <c r="AZ152" s="20"/>
-      <c r="BA152" s="20"/>
-      <c r="BB152" s="20"/>
-      <c r="BC152" s="20"/>
-      <c r="BD152" s="20"/>
-      <c r="BE152" s="20"/>
-      <c r="BF152" s="20"/>
-      <c r="BG152" s="20"/>
-      <c r="BH152" s="20"/>
-      <c r="BI152" s="20"/>
-      <c r="BJ152" s="20"/>
-      <c r="BK152" s="20"/>
-      <c r="BL152" s="20"/>
-      <c r="BM152" s="20"/>
-      <c r="BN152" s="20"/>
-      <c r="BO152" s="20"/>
-      <c r="BP152" s="20"/>
-      <c r="BQ152" s="20"/>
-      <c r="BR152" s="20"/>
-      <c r="BS152" s="20"/>
-      <c r="BT152" s="20"/>
-      <c r="BU152" s="20"/>
-      <c r="BV152" s="20"/>
-      <c r="BW152" s="20"/>
-      <c r="BX152" s="20"/>
-      <c r="BY152" s="20"/>
-      <c r="BZ152" s="20"/>
-      <c r="CA152" s="20"/>
-      <c r="CB152" s="20"/>
-      <c r="CC152" s="20"/>
-      <c r="CD152" s="20"/>
-      <c r="CE152" s="20"/>
-      <c r="CF152" s="20"/>
-      <c r="CG152" s="20"/>
-      <c r="CH152" s="20"/>
-      <c r="CI152" s="20"/>
-      <c r="CJ152" s="20"/>
-      <c r="CK152" s="20"/>
-      <c r="CL152" s="20"/>
-      <c r="CM152" s="20"/>
-      <c r="CN152" s="20"/>
-      <c r="CO152" s="20"/>
-      <c r="CP152" s="20"/>
-      <c r="CQ152" s="20"/>
-      <c r="CR152" s="20"/>
-      <c r="CS152" s="20"/>
-      <c r="CT152" s="20"/>
-      <c r="CU152" s="20"/>
-      <c r="CV152" s="20"/>
-      <c r="CW152" s="20"/>
-      <c r="CX152" s="21"/>
+      <c r="C152" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" s="32"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="33"/>
+      <c r="I152" s="33"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="33"/>
+      <c r="L152" s="33"/>
+      <c r="M152" s="33"/>
+      <c r="N152" s="33"/>
+      <c r="O152" s="33"/>
+      <c r="P152" s="33"/>
+      <c r="Q152" s="33"/>
+      <c r="R152" s="33"/>
+      <c r="S152" s="33"/>
+      <c r="T152" s="33"/>
+      <c r="U152" s="33"/>
+      <c r="V152" s="33"/>
+      <c r="W152" s="33"/>
+      <c r="X152" s="33"/>
+      <c r="Y152" s="33"/>
+      <c r="Z152" s="33"/>
+      <c r="AA152" s="33"/>
+      <c r="AB152" s="33"/>
+      <c r="AC152" s="33"/>
+      <c r="AD152" s="33"/>
+      <c r="AE152" s="33"/>
+      <c r="AF152" s="33"/>
+      <c r="AG152" s="33"/>
+      <c r="AH152" s="33"/>
+      <c r="AI152" s="33"/>
+      <c r="AJ152" s="33"/>
+      <c r="AK152" s="33"/>
+      <c r="AL152" s="33"/>
+      <c r="AM152" s="33"/>
+      <c r="AN152" s="33"/>
+      <c r="AO152" s="33"/>
+      <c r="AP152" s="33"/>
+      <c r="AQ152" s="33"/>
+      <c r="AR152" s="33"/>
+      <c r="AS152" s="33"/>
+      <c r="AT152" s="33"/>
+      <c r="AU152" s="33"/>
+      <c r="AV152" s="33"/>
+      <c r="AW152" s="33"/>
+      <c r="AX152" s="33"/>
+      <c r="AY152" s="33"/>
+      <c r="AZ152" s="33"/>
+      <c r="BA152" s="33"/>
+      <c r="BB152" s="33"/>
+      <c r="BC152" s="33"/>
+      <c r="BD152" s="33"/>
+      <c r="BE152" s="33"/>
+      <c r="BF152" s="33"/>
+      <c r="BG152" s="33"/>
+      <c r="BH152" s="33"/>
+      <c r="BI152" s="33"/>
+      <c r="BJ152" s="33"/>
+      <c r="BK152" s="33"/>
+      <c r="BL152" s="33"/>
+      <c r="BM152" s="33"/>
+      <c r="BN152" s="33"/>
+      <c r="BO152" s="33"/>
+      <c r="BP152" s="33"/>
+      <c r="BQ152" s="33"/>
+      <c r="BR152" s="33"/>
+      <c r="BS152" s="33"/>
+      <c r="BT152" s="33"/>
+      <c r="BU152" s="33"/>
+      <c r="BV152" s="33"/>
+      <c r="BW152" s="33"/>
+      <c r="BX152" s="33"/>
+      <c r="BY152" s="33"/>
+      <c r="BZ152" s="33"/>
+      <c r="CA152" s="33"/>
+      <c r="CB152" s="33"/>
+      <c r="CC152" s="33"/>
+      <c r="CD152" s="33"/>
+      <c r="CE152" s="33"/>
+      <c r="CF152" s="33"/>
+      <c r="CG152" s="33"/>
+      <c r="CH152" s="33"/>
+      <c r="CI152" s="33"/>
+      <c r="CJ152" s="33"/>
+      <c r="CK152" s="33"/>
+      <c r="CL152" s="33"/>
+      <c r="CM152" s="33"/>
+      <c r="CN152" s="33"/>
+      <c r="CO152" s="33"/>
+      <c r="CP152" s="33"/>
+      <c r="CQ152" s="33"/>
+      <c r="CR152" s="33"/>
+      <c r="CS152" s="33"/>
+      <c r="CT152" s="33"/>
+      <c r="CU152" s="33"/>
+      <c r="CV152" s="33"/>
+      <c r="CW152" s="33"/>
+      <c r="CX152" s="34"/>
       <c r="CY152" s="17"/>
     </row>
-    <row r="153" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A153" s="79"/>
-      <c r="B153" s="6" t="s">
+    <row r="153" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C153" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="81"/>
-      <c r="E153" s="82"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
-      <c r="M153" s="20"/>
-      <c r="N153" s="20"/>
-      <c r="O153" s="20"/>
-      <c r="P153" s="20"/>
-      <c r="Q153" s="20"/>
-      <c r="R153" s="20"/>
-      <c r="S153" s="20"/>
-      <c r="T153" s="20"/>
-      <c r="U153" s="20"/>
-      <c r="V153" s="20"/>
-      <c r="W153" s="20"/>
-      <c r="X153" s="20"/>
-      <c r="Y153" s="20"/>
-      <c r="Z153" s="20"/>
-      <c r="AA153" s="20"/>
-      <c r="AB153" s="20"/>
-      <c r="AC153" s="20"/>
-      <c r="AD153" s="20"/>
-      <c r="AE153" s="20"/>
-      <c r="AF153" s="20"/>
-      <c r="AG153" s="20"/>
-      <c r="AH153" s="20"/>
-      <c r="AI153" s="20"/>
-      <c r="AJ153" s="20"/>
-      <c r="AK153" s="20"/>
-      <c r="AL153" s="20"/>
-      <c r="AM153" s="20"/>
-      <c r="AN153" s="20"/>
-      <c r="AO153" s="20"/>
-      <c r="AP153" s="20"/>
-      <c r="AQ153" s="20"/>
-      <c r="AR153" s="20"/>
-      <c r="AS153" s="20"/>
-      <c r="AT153" s="20"/>
-      <c r="AU153" s="20"/>
-      <c r="AV153" s="20"/>
-      <c r="AW153" s="20"/>
-      <c r="AX153" s="20"/>
-      <c r="AY153" s="20"/>
-      <c r="AZ153" s="20"/>
-      <c r="BA153" s="20"/>
-      <c r="BB153" s="20"/>
-      <c r="BC153" s="20"/>
-      <c r="BD153" s="20"/>
-      <c r="BE153" s="20"/>
-      <c r="BF153" s="20"/>
-      <c r="BG153" s="20"/>
-      <c r="BH153" s="20"/>
-      <c r="BI153" s="20"/>
-      <c r="BJ153" s="20"/>
-      <c r="BK153" s="20"/>
-      <c r="BL153" s="20"/>
-      <c r="BM153" s="20"/>
-      <c r="BN153" s="20"/>
-      <c r="BO153" s="20"/>
-      <c r="BP153" s="20"/>
-      <c r="BQ153" s="20"/>
-      <c r="BR153" s="20"/>
-      <c r="BS153" s="20"/>
-      <c r="BT153" s="20"/>
-      <c r="BU153" s="20"/>
-      <c r="BV153" s="20"/>
-      <c r="BW153" s="20"/>
-      <c r="BX153" s="20"/>
-      <c r="BY153" s="20"/>
-      <c r="BZ153" s="20"/>
-      <c r="CA153" s="20"/>
-      <c r="CB153" s="20"/>
-      <c r="CC153" s="20"/>
-      <c r="CD153" s="20"/>
-      <c r="CE153" s="20"/>
-      <c r="CF153" s="20"/>
-      <c r="CG153" s="20"/>
-      <c r="CH153" s="20"/>
-      <c r="CI153" s="20"/>
-      <c r="CJ153" s="20"/>
-      <c r="CK153" s="20"/>
-      <c r="CL153" s="20"/>
-      <c r="CM153" s="20"/>
-      <c r="CN153" s="20"/>
-      <c r="CO153" s="20"/>
-      <c r="CP153" s="20"/>
-      <c r="CQ153" s="20"/>
-      <c r="CR153" s="20"/>
-      <c r="CS153" s="20"/>
-      <c r="CT153" s="20"/>
-      <c r="CU153" s="20"/>
-      <c r="CV153" s="20"/>
-      <c r="CW153" s="20"/>
-      <c r="CX153" s="21"/>
+      <c r="E153" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="28"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
+      <c r="M153" s="29"/>
+      <c r="N153" s="29"/>
+      <c r="O153" s="29"/>
+      <c r="P153" s="29"/>
+      <c r="Q153" s="29"/>
+      <c r="R153" s="29"/>
+      <c r="S153" s="29"/>
+      <c r="T153" s="29"/>
+      <c r="U153" s="29"/>
+      <c r="V153" s="29"/>
+      <c r="W153" s="29"/>
+      <c r="X153" s="29"/>
+      <c r="Y153" s="29"/>
+      <c r="Z153" s="29"/>
+      <c r="AA153" s="29"/>
+      <c r="AB153" s="29"/>
+      <c r="AC153" s="29"/>
+      <c r="AD153" s="29"/>
+      <c r="AE153" s="29"/>
+      <c r="AF153" s="29"/>
+      <c r="AG153" s="29"/>
+      <c r="AH153" s="29"/>
+      <c r="AI153" s="29"/>
+      <c r="AJ153" s="29"/>
+      <c r="AK153" s="29"/>
+      <c r="AL153" s="29"/>
+      <c r="AM153" s="29"/>
+      <c r="AN153" s="29"/>
+      <c r="AO153" s="29"/>
+      <c r="AP153" s="29"/>
+      <c r="AQ153" s="29"/>
+      <c r="AR153" s="29"/>
+      <c r="AS153" s="29"/>
+      <c r="AT153" s="29"/>
+      <c r="AU153" s="29"/>
+      <c r="AV153" s="29"/>
+      <c r="AW153" s="29"/>
+      <c r="AX153" s="29"/>
+      <c r="AY153" s="29"/>
+      <c r="AZ153" s="29"/>
+      <c r="BA153" s="29"/>
+      <c r="BB153" s="29"/>
+      <c r="BC153" s="29"/>
+      <c r="BD153" s="29"/>
+      <c r="BE153" s="29"/>
+      <c r="BF153" s="29"/>
+      <c r="BG153" s="29"/>
+      <c r="BH153" s="29"/>
+      <c r="BI153" s="29"/>
+      <c r="BJ153" s="29"/>
+      <c r="BK153" s="29"/>
+      <c r="BL153" s="29"/>
+      <c r="BM153" s="29"/>
+      <c r="BN153" s="29"/>
+      <c r="BO153" s="29"/>
+      <c r="BP153" s="29"/>
+      <c r="BQ153" s="29"/>
+      <c r="BR153" s="29"/>
+      <c r="BS153" s="29"/>
+      <c r="BT153" s="29"/>
+      <c r="BU153" s="29"/>
+      <c r="BV153" s="29"/>
+      <c r="BW153" s="29"/>
+      <c r="BX153" s="29"/>
+      <c r="BY153" s="29"/>
+      <c r="BZ153" s="29"/>
+      <c r="CA153" s="29"/>
+      <c r="CB153" s="29"/>
+      <c r="CC153" s="29"/>
+      <c r="CD153" s="29"/>
+      <c r="CE153" s="29"/>
+      <c r="CF153" s="29"/>
+      <c r="CG153" s="29"/>
+      <c r="CH153" s="29"/>
+      <c r="CI153" s="29"/>
+      <c r="CJ153" s="29"/>
+      <c r="CK153" s="29"/>
+      <c r="CL153" s="29"/>
+      <c r="CM153" s="29"/>
+      <c r="CN153" s="29"/>
+      <c r="CO153" s="29"/>
+      <c r="CP153" s="29"/>
+      <c r="CQ153" s="29"/>
+      <c r="CR153" s="29"/>
+      <c r="CS153" s="29"/>
+      <c r="CT153" s="29"/>
+      <c r="CU153" s="29"/>
+      <c r="CV153" s="29"/>
+      <c r="CW153" s="29"/>
+      <c r="CX153" s="30"/>
       <c r="CY153" s="17"/>
     </row>
-    <row r="154" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" s="28"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
-      <c r="M154" s="29"/>
-      <c r="N154" s="29"/>
-      <c r="O154" s="29"/>
-      <c r="P154" s="29"/>
-      <c r="Q154" s="29"/>
-      <c r="R154" s="29"/>
-      <c r="S154" s="29"/>
-      <c r="T154" s="29"/>
-      <c r="U154" s="29"/>
-      <c r="V154" s="29"/>
-      <c r="W154" s="29"/>
-      <c r="X154" s="29"/>
-      <c r="Y154" s="29"/>
-      <c r="Z154" s="29"/>
-      <c r="AA154" s="29"/>
-      <c r="AB154" s="29"/>
-      <c r="AC154" s="29"/>
-      <c r="AD154" s="29"/>
-      <c r="AE154" s="29"/>
-      <c r="AF154" s="29"/>
-      <c r="AG154" s="29"/>
-      <c r="AH154" s="29"/>
-      <c r="AI154" s="29"/>
-      <c r="AJ154" s="29"/>
-      <c r="AK154" s="29"/>
-      <c r="AL154" s="29"/>
-      <c r="AM154" s="29"/>
-      <c r="AN154" s="29"/>
-      <c r="AO154" s="29"/>
-      <c r="AP154" s="29"/>
-      <c r="AQ154" s="29"/>
-      <c r="AR154" s="29"/>
-      <c r="AS154" s="29"/>
-      <c r="AT154" s="29"/>
-      <c r="AU154" s="29"/>
-      <c r="AV154" s="29"/>
-      <c r="AW154" s="29"/>
-      <c r="AX154" s="29"/>
-      <c r="AY154" s="29"/>
-      <c r="AZ154" s="29"/>
-      <c r="BA154" s="29"/>
-      <c r="BB154" s="29"/>
-      <c r="BC154" s="29"/>
-      <c r="BD154" s="29"/>
-      <c r="BE154" s="29"/>
-      <c r="BF154" s="29"/>
-      <c r="BG154" s="29"/>
-      <c r="BH154" s="29"/>
-      <c r="BI154" s="29"/>
-      <c r="BJ154" s="29"/>
-      <c r="BK154" s="29"/>
-      <c r="BL154" s="29"/>
-      <c r="BM154" s="29"/>
-      <c r="BN154" s="29"/>
-      <c r="BO154" s="29"/>
-      <c r="BP154" s="29"/>
-      <c r="BQ154" s="29"/>
-      <c r="BR154" s="29"/>
-      <c r="BS154" s="29"/>
-      <c r="BT154" s="29"/>
-      <c r="BU154" s="29"/>
-      <c r="BV154" s="29"/>
-      <c r="BW154" s="29"/>
-      <c r="BX154" s="29"/>
-      <c r="BY154" s="29"/>
-      <c r="BZ154" s="29"/>
-      <c r="CA154" s="29"/>
-      <c r="CB154" s="29"/>
-      <c r="CC154" s="29"/>
-      <c r="CD154" s="29"/>
-      <c r="CE154" s="29"/>
-      <c r="CF154" s="29"/>
-      <c r="CG154" s="29"/>
-      <c r="CH154" s="29"/>
-      <c r="CI154" s="29"/>
-      <c r="CJ154" s="29"/>
-      <c r="CK154" s="29"/>
-      <c r="CL154" s="29"/>
-      <c r="CM154" s="29"/>
-      <c r="CN154" s="29"/>
-      <c r="CO154" s="29"/>
-      <c r="CP154" s="29"/>
-      <c r="CQ154" s="29"/>
-      <c r="CR154" s="29"/>
-      <c r="CS154" s="29"/>
-      <c r="CT154" s="29"/>
-      <c r="CU154" s="29"/>
-      <c r="CV154" s="29"/>
-      <c r="CW154" s="29"/>
-      <c r="CX154" s="30"/>
+    <row r="154" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A154" s="80"/>
+      <c r="B154" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="78">
+        <v>18.04</v>
+      </c>
+      <c r="E154" s="79">
+        <v>25.04</v>
+      </c>
+      <c r="F154" s="19"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154" s="20"/>
+      <c r="R154" s="20"/>
+      <c r="S154" s="20"/>
+      <c r="T154" s="20"/>
+      <c r="U154" s="20"/>
+      <c r="V154" s="20"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="20"/>
+      <c r="Z154" s="20"/>
+      <c r="AA154" s="20"/>
+      <c r="AB154" s="20"/>
+      <c r="AC154" s="20"/>
+      <c r="AD154" s="20"/>
+      <c r="AE154" s="20"/>
+      <c r="AF154" s="20"/>
+      <c r="AG154" s="20"/>
+      <c r="AH154" s="20"/>
+      <c r="AI154" s="20"/>
+      <c r="AJ154" s="20"/>
+      <c r="AK154" s="20"/>
+      <c r="AL154" s="20"/>
+      <c r="AM154" s="20"/>
+      <c r="AN154" s="20"/>
+      <c r="AO154" s="20"/>
+      <c r="AP154" s="20"/>
+      <c r="AQ154" s="20"/>
+      <c r="AR154" s="20"/>
+      <c r="AS154" s="20"/>
+      <c r="AT154" s="20"/>
+      <c r="AU154" s="20"/>
+      <c r="AV154" s="20"/>
+      <c r="AW154" s="20"/>
+      <c r="AX154" s="20"/>
+      <c r="AY154" s="20"/>
+      <c r="AZ154" s="20"/>
+      <c r="BA154" s="20"/>
+      <c r="BB154" s="20"/>
+      <c r="BC154" s="20"/>
+      <c r="BD154" s="20"/>
+      <c r="BE154" s="20"/>
+      <c r="BF154" s="20"/>
+      <c r="BG154" s="20"/>
+      <c r="BH154" s="20"/>
+      <c r="BI154" s="20"/>
+      <c r="BJ154" s="20"/>
+      <c r="BK154" s="20"/>
+      <c r="BL154" s="20"/>
+      <c r="BM154" s="20"/>
+      <c r="BN154" s="20"/>
+      <c r="BO154" s="20"/>
+      <c r="BP154" s="20"/>
+      <c r="BQ154" s="20"/>
+      <c r="BR154" s="20"/>
+      <c r="BS154" s="20"/>
+      <c r="BT154" s="20"/>
+      <c r="BU154" s="20"/>
+      <c r="BV154" s="20"/>
+      <c r="BW154" s="20"/>
+      <c r="BX154" s="20"/>
+      <c r="BY154" s="20"/>
+      <c r="BZ154" s="20"/>
+      <c r="CA154" s="20"/>
+      <c r="CB154" s="20"/>
+      <c r="CC154" s="20"/>
+      <c r="CD154" s="20"/>
+      <c r="CE154" s="20"/>
+      <c r="CF154" s="20"/>
+      <c r="CG154" s="20"/>
+      <c r="CH154" s="20"/>
+      <c r="CI154" s="20"/>
+      <c r="CJ154" s="20"/>
+      <c r="CK154" s="20"/>
+      <c r="CL154" s="20"/>
+      <c r="CM154" s="20"/>
+      <c r="CN154" s="20"/>
+      <c r="CO154" s="20"/>
+      <c r="CP154" s="20"/>
+      <c r="CQ154" s="20"/>
+      <c r="CR154" s="20"/>
+      <c r="CS154" s="20"/>
+      <c r="CT154" s="20"/>
+      <c r="CU154" s="20"/>
+      <c r="CV154" s="20"/>
+      <c r="CW154" s="20"/>
+      <c r="CX154" s="21"/>
       <c r="CY154" s="17"/>
     </row>
-    <row r="155" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A155" s="78"/>
+    <row r="155" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A155" s="81"/>
       <c r="B155" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="81">
-        <v>18.04</v>
-      </c>
-      <c r="E155" s="82">
-        <v>25.04</v>
-      </c>
+      <c r="D155" s="78"/>
+      <c r="E155" s="79"/>
       <c r="F155" s="19"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
@@ -19946,244 +19980,244 @@
       <c r="CX155" s="21"/>
       <c r="CY155" s="17"/>
     </row>
-    <row r="156" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A156" s="79"/>
-      <c r="B156" s="6" t="s">
+    <row r="156" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C156" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="81"/>
-      <c r="E156" s="82"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="20"/>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
-      <c r="M156" s="20"/>
-      <c r="N156" s="20"/>
-      <c r="O156" s="20"/>
-      <c r="P156" s="20"/>
-      <c r="Q156" s="20"/>
-      <c r="R156" s="20"/>
-      <c r="S156" s="20"/>
-      <c r="T156" s="20"/>
-      <c r="U156" s="20"/>
-      <c r="V156" s="20"/>
-      <c r="W156" s="20"/>
-      <c r="X156" s="20"/>
-      <c r="Y156" s="20"/>
-      <c r="Z156" s="20"/>
-      <c r="AA156" s="20"/>
-      <c r="AB156" s="20"/>
-      <c r="AC156" s="20"/>
-      <c r="AD156" s="20"/>
-      <c r="AE156" s="20"/>
-      <c r="AF156" s="20"/>
-      <c r="AG156" s="20"/>
-      <c r="AH156" s="20"/>
-      <c r="AI156" s="20"/>
-      <c r="AJ156" s="20"/>
-      <c r="AK156" s="20"/>
-      <c r="AL156" s="20"/>
-      <c r="AM156" s="20"/>
-      <c r="AN156" s="20"/>
-      <c r="AO156" s="20"/>
-      <c r="AP156" s="20"/>
-      <c r="AQ156" s="20"/>
-      <c r="AR156" s="20"/>
-      <c r="AS156" s="20"/>
-      <c r="AT156" s="20"/>
-      <c r="AU156" s="20"/>
-      <c r="AV156" s="20"/>
-      <c r="AW156" s="20"/>
-      <c r="AX156" s="20"/>
-      <c r="AY156" s="20"/>
-      <c r="AZ156" s="20"/>
-      <c r="BA156" s="20"/>
-      <c r="BB156" s="20"/>
-      <c r="BC156" s="20"/>
-      <c r="BD156" s="20"/>
-      <c r="BE156" s="20"/>
-      <c r="BF156" s="20"/>
-      <c r="BG156" s="20"/>
-      <c r="BH156" s="20"/>
-      <c r="BI156" s="20"/>
-      <c r="BJ156" s="20"/>
-      <c r="BK156" s="20"/>
-      <c r="BL156" s="20"/>
-      <c r="BM156" s="20"/>
-      <c r="BN156" s="20"/>
-      <c r="BO156" s="20"/>
-      <c r="BP156" s="20"/>
-      <c r="BQ156" s="20"/>
-      <c r="BR156" s="20"/>
-      <c r="BS156" s="20"/>
-      <c r="BT156" s="20"/>
-      <c r="BU156" s="20"/>
-      <c r="BV156" s="20"/>
-      <c r="BW156" s="20"/>
-      <c r="BX156" s="20"/>
-      <c r="BY156" s="20"/>
-      <c r="BZ156" s="20"/>
-      <c r="CA156" s="20"/>
-      <c r="CB156" s="20"/>
-      <c r="CC156" s="20"/>
-      <c r="CD156" s="20"/>
-      <c r="CE156" s="20"/>
-      <c r="CF156" s="20"/>
-      <c r="CG156" s="20"/>
-      <c r="CH156" s="20"/>
-      <c r="CI156" s="20"/>
-      <c r="CJ156" s="20"/>
-      <c r="CK156" s="20"/>
-      <c r="CL156" s="20"/>
-      <c r="CM156" s="20"/>
-      <c r="CN156" s="20"/>
-      <c r="CO156" s="20"/>
-      <c r="CP156" s="20"/>
-      <c r="CQ156" s="20"/>
-      <c r="CR156" s="20"/>
-      <c r="CS156" s="20"/>
-      <c r="CT156" s="20"/>
-      <c r="CU156" s="20"/>
-      <c r="CV156" s="20"/>
-      <c r="CW156" s="20"/>
-      <c r="CX156" s="21"/>
+      <c r="E156" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="28"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="29"/>
+      <c r="M156" s="29"/>
+      <c r="N156" s="29"/>
+      <c r="O156" s="29"/>
+      <c r="P156" s="29"/>
+      <c r="Q156" s="29"/>
+      <c r="R156" s="29"/>
+      <c r="S156" s="29"/>
+      <c r="T156" s="29"/>
+      <c r="U156" s="29"/>
+      <c r="V156" s="29"/>
+      <c r="W156" s="29"/>
+      <c r="X156" s="29"/>
+      <c r="Y156" s="29"/>
+      <c r="Z156" s="29"/>
+      <c r="AA156" s="29"/>
+      <c r="AB156" s="29"/>
+      <c r="AC156" s="29"/>
+      <c r="AD156" s="29"/>
+      <c r="AE156" s="29"/>
+      <c r="AF156" s="29"/>
+      <c r="AG156" s="29"/>
+      <c r="AH156" s="29"/>
+      <c r="AI156" s="29"/>
+      <c r="AJ156" s="29"/>
+      <c r="AK156" s="29"/>
+      <c r="AL156" s="29"/>
+      <c r="AM156" s="29"/>
+      <c r="AN156" s="29"/>
+      <c r="AO156" s="29"/>
+      <c r="AP156" s="29"/>
+      <c r="AQ156" s="29"/>
+      <c r="AR156" s="29"/>
+      <c r="AS156" s="29"/>
+      <c r="AT156" s="29"/>
+      <c r="AU156" s="29"/>
+      <c r="AV156" s="29"/>
+      <c r="AW156" s="29"/>
+      <c r="AX156" s="29"/>
+      <c r="AY156" s="29"/>
+      <c r="AZ156" s="29"/>
+      <c r="BA156" s="29"/>
+      <c r="BB156" s="29"/>
+      <c r="BC156" s="29"/>
+      <c r="BD156" s="29"/>
+      <c r="BE156" s="29"/>
+      <c r="BF156" s="29"/>
+      <c r="BG156" s="29"/>
+      <c r="BH156" s="29"/>
+      <c r="BI156" s="29"/>
+      <c r="BJ156" s="29"/>
+      <c r="BK156" s="29"/>
+      <c r="BL156" s="29"/>
+      <c r="BM156" s="29"/>
+      <c r="BN156" s="29"/>
+      <c r="BO156" s="29"/>
+      <c r="BP156" s="29"/>
+      <c r="BQ156" s="29"/>
+      <c r="BR156" s="29"/>
+      <c r="BS156" s="29"/>
+      <c r="BT156" s="29"/>
+      <c r="BU156" s="29"/>
+      <c r="BV156" s="29"/>
+      <c r="BW156" s="29"/>
+      <c r="BX156" s="29"/>
+      <c r="BY156" s="29"/>
+      <c r="BZ156" s="29"/>
+      <c r="CA156" s="29"/>
+      <c r="CB156" s="29"/>
+      <c r="CC156" s="29"/>
+      <c r="CD156" s="29"/>
+      <c r="CE156" s="29"/>
+      <c r="CF156" s="29"/>
+      <c r="CG156" s="29"/>
+      <c r="CH156" s="29"/>
+      <c r="CI156" s="29"/>
+      <c r="CJ156" s="29"/>
+      <c r="CK156" s="29"/>
+      <c r="CL156" s="29"/>
+      <c r="CM156" s="29"/>
+      <c r="CN156" s="29"/>
+      <c r="CO156" s="29"/>
+      <c r="CP156" s="29"/>
+      <c r="CQ156" s="29"/>
+      <c r="CR156" s="29"/>
+      <c r="CS156" s="29"/>
+      <c r="CT156" s="29"/>
+      <c r="CU156" s="29"/>
+      <c r="CV156" s="29"/>
+      <c r="CW156" s="29"/>
+      <c r="CX156" s="30"/>
       <c r="CY156" s="17"/>
     </row>
-    <row r="157" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C157" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" s="28"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="29"/>
-      <c r="L157" s="29"/>
-      <c r="M157" s="29"/>
-      <c r="N157" s="29"/>
-      <c r="O157" s="29"/>
-      <c r="P157" s="29"/>
-      <c r="Q157" s="29"/>
-      <c r="R157" s="29"/>
-      <c r="S157" s="29"/>
-      <c r="T157" s="29"/>
-      <c r="U157" s="29"/>
-      <c r="V157" s="29"/>
-      <c r="W157" s="29"/>
-      <c r="X157" s="29"/>
-      <c r="Y157" s="29"/>
-      <c r="Z157" s="29"/>
-      <c r="AA157" s="29"/>
-      <c r="AB157" s="29"/>
-      <c r="AC157" s="29"/>
-      <c r="AD157" s="29"/>
-      <c r="AE157" s="29"/>
-      <c r="AF157" s="29"/>
-      <c r="AG157" s="29"/>
-      <c r="AH157" s="29"/>
-      <c r="AI157" s="29"/>
-      <c r="AJ157" s="29"/>
-      <c r="AK157" s="29"/>
-      <c r="AL157" s="29"/>
-      <c r="AM157" s="29"/>
-      <c r="AN157" s="29"/>
-      <c r="AO157" s="29"/>
-      <c r="AP157" s="29"/>
-      <c r="AQ157" s="29"/>
-      <c r="AR157" s="29"/>
-      <c r="AS157" s="29"/>
-      <c r="AT157" s="29"/>
-      <c r="AU157" s="29"/>
-      <c r="AV157" s="29"/>
-      <c r="AW157" s="29"/>
-      <c r="AX157" s="29"/>
-      <c r="AY157" s="29"/>
-      <c r="AZ157" s="29"/>
-      <c r="BA157" s="29"/>
-      <c r="BB157" s="29"/>
-      <c r="BC157" s="29"/>
-      <c r="BD157" s="29"/>
-      <c r="BE157" s="29"/>
-      <c r="BF157" s="29"/>
-      <c r="BG157" s="29"/>
-      <c r="BH157" s="29"/>
-      <c r="BI157" s="29"/>
-      <c r="BJ157" s="29"/>
-      <c r="BK157" s="29"/>
-      <c r="BL157" s="29"/>
-      <c r="BM157" s="29"/>
-      <c r="BN157" s="29"/>
-      <c r="BO157" s="29"/>
-      <c r="BP157" s="29"/>
-      <c r="BQ157" s="29"/>
-      <c r="BR157" s="29"/>
-      <c r="BS157" s="29"/>
-      <c r="BT157" s="29"/>
-      <c r="BU157" s="29"/>
-      <c r="BV157" s="29"/>
-      <c r="BW157" s="29"/>
-      <c r="BX157" s="29"/>
-      <c r="BY157" s="29"/>
-      <c r="BZ157" s="29"/>
-      <c r="CA157" s="29"/>
-      <c r="CB157" s="29"/>
-      <c r="CC157" s="29"/>
-      <c r="CD157" s="29"/>
-      <c r="CE157" s="29"/>
-      <c r="CF157" s="29"/>
-      <c r="CG157" s="29"/>
-      <c r="CH157" s="29"/>
-      <c r="CI157" s="29"/>
-      <c r="CJ157" s="29"/>
-      <c r="CK157" s="29"/>
-      <c r="CL157" s="29"/>
-      <c r="CM157" s="29"/>
-      <c r="CN157" s="29"/>
-      <c r="CO157" s="29"/>
-      <c r="CP157" s="29"/>
-      <c r="CQ157" s="29"/>
-      <c r="CR157" s="29"/>
-      <c r="CS157" s="29"/>
-      <c r="CT157" s="29"/>
-      <c r="CU157" s="29"/>
-      <c r="CV157" s="29"/>
-      <c r="CW157" s="29"/>
-      <c r="CX157" s="30"/>
+    <row r="157" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A157" s="80"/>
+      <c r="B157" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="78">
+        <v>18.04</v>
+      </c>
+      <c r="E157" s="79">
+        <v>25.04</v>
+      </c>
+      <c r="F157" s="19"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="20"/>
+      <c r="O157" s="20"/>
+      <c r="P157" s="20"/>
+      <c r="Q157" s="20"/>
+      <c r="R157" s="20"/>
+      <c r="S157" s="20"/>
+      <c r="T157" s="20"/>
+      <c r="U157" s="20"/>
+      <c r="V157" s="20"/>
+      <c r="W157" s="20"/>
+      <c r="X157" s="20"/>
+      <c r="Y157" s="20"/>
+      <c r="Z157" s="20"/>
+      <c r="AA157" s="20"/>
+      <c r="AB157" s="20"/>
+      <c r="AC157" s="20"/>
+      <c r="AD157" s="20"/>
+      <c r="AE157" s="20"/>
+      <c r="AF157" s="20"/>
+      <c r="AG157" s="20"/>
+      <c r="AH157" s="20"/>
+      <c r="AI157" s="20"/>
+      <c r="AJ157" s="20"/>
+      <c r="AK157" s="20"/>
+      <c r="AL157" s="20"/>
+      <c r="AM157" s="20"/>
+      <c r="AN157" s="20"/>
+      <c r="AO157" s="20"/>
+      <c r="AP157" s="20"/>
+      <c r="AQ157" s="20"/>
+      <c r="AR157" s="20"/>
+      <c r="AS157" s="20"/>
+      <c r="AT157" s="20"/>
+      <c r="AU157" s="20"/>
+      <c r="AV157" s="20"/>
+      <c r="AW157" s="20"/>
+      <c r="AX157" s="20"/>
+      <c r="AY157" s="20"/>
+      <c r="AZ157" s="20"/>
+      <c r="BA157" s="20"/>
+      <c r="BB157" s="20"/>
+      <c r="BC157" s="20"/>
+      <c r="BD157" s="20"/>
+      <c r="BE157" s="20"/>
+      <c r="BF157" s="20"/>
+      <c r="BG157" s="20"/>
+      <c r="BH157" s="20"/>
+      <c r="BI157" s="20"/>
+      <c r="BJ157" s="20"/>
+      <c r="BK157" s="20"/>
+      <c r="BL157" s="20"/>
+      <c r="BM157" s="20"/>
+      <c r="BN157" s="20"/>
+      <c r="BO157" s="20"/>
+      <c r="BP157" s="20"/>
+      <c r="BQ157" s="20"/>
+      <c r="BR157" s="20"/>
+      <c r="BS157" s="20"/>
+      <c r="BT157" s="20"/>
+      <c r="BU157" s="20"/>
+      <c r="BV157" s="20"/>
+      <c r="BW157" s="20"/>
+      <c r="BX157" s="20"/>
+      <c r="BY157" s="20"/>
+      <c r="BZ157" s="20"/>
+      <c r="CA157" s="20"/>
+      <c r="CB157" s="20"/>
+      <c r="CC157" s="20"/>
+      <c r="CD157" s="20"/>
+      <c r="CE157" s="20"/>
+      <c r="CF157" s="20"/>
+      <c r="CG157" s="20"/>
+      <c r="CH157" s="20"/>
+      <c r="CI157" s="20"/>
+      <c r="CJ157" s="20"/>
+      <c r="CK157" s="20"/>
+      <c r="CL157" s="20"/>
+      <c r="CM157" s="20"/>
+      <c r="CN157" s="20"/>
+      <c r="CO157" s="20"/>
+      <c r="CP157" s="20"/>
+      <c r="CQ157" s="20"/>
+      <c r="CR157" s="20"/>
+      <c r="CS157" s="20"/>
+      <c r="CT157" s="20"/>
+      <c r="CU157" s="20"/>
+      <c r="CV157" s="20"/>
+      <c r="CW157" s="20"/>
+      <c r="CX157" s="21"/>
       <c r="CY157" s="17"/>
     </row>
-    <row r="158" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A158" s="78"/>
+    <row r="158" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A158" s="81"/>
       <c r="B158" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="81">
-        <v>18.04</v>
-      </c>
-      <c r="E158" s="82">
-        <v>25.04</v>
-      </c>
+      <c r="D158" s="78"/>
+      <c r="E158" s="79"/>
       <c r="F158" s="19"/>
       <c r="G158" s="20"/>
       <c r="H158" s="20"/>
@@ -20283,243 +20317,252 @@
       <c r="CX158" s="21"/>
       <c r="CY158" s="17"/>
     </row>
-    <row r="159" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A159" s="79"/>
-      <c r="B159" s="6" t="s">
+    <row r="159" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="61">
+        <v>4</v>
+      </c>
+      <c r="D159" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C159" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" s="81"/>
-      <c r="E159" s="82"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="20"/>
-      <c r="J159" s="20"/>
-      <c r="K159" s="20"/>
-      <c r="L159" s="20"/>
-      <c r="M159" s="20"/>
-      <c r="N159" s="20"/>
-      <c r="O159" s="20"/>
-      <c r="P159" s="20"/>
-      <c r="Q159" s="20"/>
-      <c r="R159" s="20"/>
-      <c r="S159" s="20"/>
-      <c r="T159" s="20"/>
-      <c r="U159" s="20"/>
-      <c r="V159" s="20"/>
-      <c r="W159" s="20"/>
-      <c r="X159" s="20"/>
-      <c r="Y159" s="20"/>
-      <c r="Z159" s="20"/>
-      <c r="AA159" s="20"/>
-      <c r="AB159" s="20"/>
-      <c r="AC159" s="20"/>
-      <c r="AD159" s="20"/>
-      <c r="AE159" s="20"/>
-      <c r="AF159" s="20"/>
-      <c r="AG159" s="20"/>
-      <c r="AH159" s="20"/>
-      <c r="AI159" s="20"/>
-      <c r="AJ159" s="20"/>
-      <c r="AK159" s="20"/>
-      <c r="AL159" s="20"/>
-      <c r="AM159" s="20"/>
-      <c r="AN159" s="20"/>
-      <c r="AO159" s="20"/>
-      <c r="AP159" s="20"/>
-      <c r="AQ159" s="20"/>
-      <c r="AR159" s="20"/>
-      <c r="AS159" s="20"/>
-      <c r="AT159" s="20"/>
-      <c r="AU159" s="20"/>
-      <c r="AV159" s="20"/>
-      <c r="AW159" s="20"/>
-      <c r="AX159" s="20"/>
-      <c r="AY159" s="20"/>
-      <c r="AZ159" s="20"/>
-      <c r="BA159" s="20"/>
-      <c r="BB159" s="20"/>
-      <c r="BC159" s="20"/>
-      <c r="BD159" s="20"/>
-      <c r="BE159" s="20"/>
-      <c r="BF159" s="20"/>
-      <c r="BG159" s="20"/>
-      <c r="BH159" s="20"/>
-      <c r="BI159" s="20"/>
-      <c r="BJ159" s="20"/>
-      <c r="BK159" s="20"/>
-      <c r="BL159" s="20"/>
-      <c r="BM159" s="20"/>
-      <c r="BN159" s="20"/>
-      <c r="BO159" s="20"/>
-      <c r="BP159" s="20"/>
-      <c r="BQ159" s="20"/>
-      <c r="BR159" s="20"/>
-      <c r="BS159" s="20"/>
-      <c r="BT159" s="20"/>
-      <c r="BU159" s="20"/>
-      <c r="BV159" s="20"/>
-      <c r="BW159" s="20"/>
-      <c r="BX159" s="20"/>
-      <c r="BY159" s="20"/>
-      <c r="BZ159" s="20"/>
-      <c r="CA159" s="20"/>
-      <c r="CB159" s="20"/>
-      <c r="CC159" s="20"/>
-      <c r="CD159" s="20"/>
-      <c r="CE159" s="20"/>
-      <c r="CF159" s="20"/>
-      <c r="CG159" s="20"/>
-      <c r="CH159" s="20"/>
-      <c r="CI159" s="20"/>
-      <c r="CJ159" s="20"/>
-      <c r="CK159" s="20"/>
-      <c r="CL159" s="20"/>
-      <c r="CM159" s="20"/>
-      <c r="CN159" s="20"/>
-      <c r="CO159" s="20"/>
-      <c r="CP159" s="20"/>
-      <c r="CQ159" s="20"/>
-      <c r="CR159" s="20"/>
-      <c r="CS159" s="20"/>
-      <c r="CT159" s="20"/>
-      <c r="CU159" s="20"/>
-      <c r="CV159" s="20"/>
-      <c r="CW159" s="20"/>
-      <c r="CX159" s="21"/>
-      <c r="CY159" s="10"/>
+      <c r="E159" s="67">
+        <v>4.5</v>
+      </c>
+      <c r="F159" s="28"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="29"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="29"/>
+      <c r="M159" s="29"/>
+      <c r="N159" s="29"/>
+      <c r="O159" s="29"/>
+      <c r="P159" s="29"/>
+      <c r="Q159" s="29"/>
+      <c r="R159" s="29"/>
+      <c r="S159" s="29"/>
+      <c r="T159" s="29"/>
+      <c r="U159" s="29"/>
+      <c r="V159" s="29"/>
+      <c r="W159" s="29"/>
+      <c r="X159" s="29"/>
+      <c r="Y159" s="29"/>
+      <c r="Z159" s="29"/>
+      <c r="AA159" s="29"/>
+      <c r="AB159" s="29"/>
+      <c r="AC159" s="29"/>
+      <c r="AD159" s="29"/>
+      <c r="AE159" s="29"/>
+      <c r="AF159" s="29"/>
+      <c r="AG159" s="29"/>
+      <c r="AH159" s="29"/>
+      <c r="AI159" s="29"/>
+      <c r="AJ159" s="29"/>
+      <c r="AK159" s="29"/>
+      <c r="AL159" s="29"/>
+      <c r="AM159" s="29"/>
+      <c r="AN159" s="29"/>
+      <c r="AO159" s="29"/>
+      <c r="AP159" s="29"/>
+      <c r="AQ159" s="29"/>
+      <c r="AR159" s="29"/>
+      <c r="AS159" s="29"/>
+      <c r="AT159" s="29"/>
+      <c r="AU159" s="29"/>
+      <c r="AV159" s="29"/>
+      <c r="AW159" s="29"/>
+      <c r="AX159" s="29"/>
+      <c r="AY159" s="29"/>
+      <c r="AZ159" s="29"/>
+      <c r="BA159" s="29"/>
+      <c r="BB159" s="29"/>
+      <c r="BC159" s="29"/>
+      <c r="BD159" s="29"/>
+      <c r="BE159" s="29"/>
+      <c r="BF159" s="29"/>
+      <c r="BG159" s="29"/>
+      <c r="BH159" s="29"/>
+      <c r="BI159" s="29"/>
+      <c r="BJ159" s="29"/>
+      <c r="BK159" s="29"/>
+      <c r="BL159" s="29"/>
+      <c r="BM159" s="29"/>
+      <c r="BN159" s="29"/>
+      <c r="BO159" s="29"/>
+      <c r="BP159" s="29"/>
+      <c r="BQ159" s="29"/>
+      <c r="BR159" s="29"/>
+      <c r="BS159" s="29"/>
+      <c r="BT159" s="29"/>
+      <c r="BU159" s="29"/>
+      <c r="BV159" s="29"/>
+      <c r="BW159" s="29"/>
+      <c r="BX159" s="29"/>
+      <c r="BY159" s="29"/>
+      <c r="BZ159" s="29"/>
+      <c r="CA159" s="29"/>
+      <c r="CB159" s="29"/>
+      <c r="CC159" s="29"/>
+      <c r="CD159" s="29"/>
+      <c r="CE159" s="29"/>
+      <c r="CF159" s="29"/>
+      <c r="CG159" s="29"/>
+      <c r="CH159" s="29"/>
+      <c r="CI159" s="29"/>
+      <c r="CJ159" s="29"/>
+      <c r="CK159" s="29"/>
+      <c r="CL159" s="29"/>
+      <c r="CM159" s="29"/>
+      <c r="CN159" s="29"/>
+      <c r="CO159" s="29"/>
+      <c r="CP159" s="29"/>
+      <c r="CQ159" s="29"/>
+      <c r="CR159" s="29"/>
+      <c r="CS159" s="29"/>
+      <c r="CT159" s="29"/>
+      <c r="CU159" s="29"/>
+      <c r="CV159" s="29"/>
+      <c r="CW159" s="29"/>
+      <c r="CX159" s="30"/>
+      <c r="CY159" s="17"/>
     </row>
-    <row r="160" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C160" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D160" s="71" t="s">
+    <row r="160" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A160" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="62">
+        <v>3</v>
+      </c>
+      <c r="D160" s="82">
+        <v>18.04</v>
+      </c>
+      <c r="E160" s="86">
+        <v>25.04</v>
+      </c>
+      <c r="F160" s="19"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="20"/>
+      <c r="K160" s="20"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="20"/>
+      <c r="O160" s="20"/>
+      <c r="P160" s="20"/>
+      <c r="Q160" s="20"/>
+      <c r="R160" s="20"/>
+      <c r="S160" s="20"/>
+      <c r="T160" s="20"/>
+      <c r="U160" s="20"/>
+      <c r="V160" s="20"/>
+      <c r="W160" s="20"/>
+      <c r="X160" s="20"/>
+      <c r="Y160" s="20"/>
+      <c r="Z160" s="20"/>
+      <c r="AA160" s="20"/>
+      <c r="AB160" s="20"/>
+      <c r="AC160" s="20"/>
+      <c r="AD160" s="20"/>
+      <c r="AE160" s="20"/>
+      <c r="AF160" s="20"/>
+      <c r="AG160" s="20"/>
+      <c r="AH160" s="20"/>
+      <c r="AI160" s="20"/>
+      <c r="AJ160" s="20"/>
+      <c r="AK160" s="20"/>
+      <c r="AL160" s="20"/>
+      <c r="AM160" s="20"/>
+      <c r="AN160" s="20"/>
+      <c r="AO160" s="20"/>
+      <c r="AP160" s="20"/>
+      <c r="AQ160" s="20"/>
+      <c r="AR160" s="20"/>
+      <c r="AS160" s="20"/>
+      <c r="AT160" s="20"/>
+      <c r="AU160" s="20"/>
+      <c r="AV160" s="20"/>
+      <c r="AW160" s="20"/>
+      <c r="AX160" s="20"/>
+      <c r="AY160" s="20"/>
+      <c r="AZ160" s="20"/>
+      <c r="BA160" s="20"/>
+      <c r="BB160" s="20"/>
+      <c r="BC160" s="20"/>
+      <c r="BD160" s="20"/>
+      <c r="BE160" s="20"/>
+      <c r="BF160" s="20"/>
+      <c r="BG160" s="20"/>
+      <c r="BH160" s="20"/>
+      <c r="BI160" s="20"/>
+      <c r="BJ160" s="20"/>
+      <c r="BK160" s="20"/>
+      <c r="BL160" s="20"/>
+      <c r="BM160" s="20"/>
+      <c r="BN160" s="20"/>
+      <c r="BO160" s="20"/>
+      <c r="BP160" s="20"/>
+      <c r="BQ160" s="20"/>
+      <c r="BR160" s="20"/>
+      <c r="BS160" s="20"/>
+      <c r="BT160" s="20"/>
+      <c r="BU160" s="20"/>
+      <c r="BV160" s="20"/>
+      <c r="BW160" s="20"/>
+      <c r="BX160" s="20"/>
+      <c r="BY160" s="20"/>
+      <c r="BZ160" s="20"/>
+      <c r="CA160" s="20"/>
+      <c r="CB160" s="20"/>
+      <c r="CC160" s="20"/>
+      <c r="CD160" s="20"/>
+      <c r="CE160" s="20"/>
+      <c r="CF160" s="20"/>
+      <c r="CG160" s="20"/>
+      <c r="CH160" s="20"/>
+      <c r="CI160" s="20"/>
+      <c r="CJ160" s="20"/>
+      <c r="CK160" s="20"/>
+      <c r="CL160" s="20"/>
+      <c r="CM160" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="CN160" s="20"/>
+      <c r="CO160" s="20"/>
+      <c r="CP160" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="CQ160" s="42">
+        <v>1</v>
+      </c>
+      <c r="CR160" s="20"/>
+      <c r="CS160" s="20"/>
+      <c r="CT160" s="20"/>
+      <c r="CU160" s="20"/>
+      <c r="CV160" s="20"/>
+      <c r="CW160" s="20"/>
+      <c r="CX160" s="21"/>
+      <c r="CY160" s="17"/>
+    </row>
+    <row r="161" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A161" s="81"/>
+      <c r="B161" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E160" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" s="28"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="29"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="29"/>
-      <c r="N160" s="29"/>
-      <c r="O160" s="29"/>
-      <c r="P160" s="29"/>
-      <c r="Q160" s="29"/>
-      <c r="R160" s="29"/>
-      <c r="S160" s="29"/>
-      <c r="T160" s="29"/>
-      <c r="U160" s="29"/>
-      <c r="V160" s="29"/>
-      <c r="W160" s="29"/>
-      <c r="X160" s="29"/>
-      <c r="Y160" s="29"/>
-      <c r="Z160" s="29"/>
-      <c r="AA160" s="29"/>
-      <c r="AB160" s="29"/>
-      <c r="AC160" s="29"/>
-      <c r="AD160" s="29"/>
-      <c r="AE160" s="29"/>
-      <c r="AF160" s="29"/>
-      <c r="AG160" s="29"/>
-      <c r="AH160" s="29"/>
-      <c r="AI160" s="29"/>
-      <c r="AJ160" s="29"/>
-      <c r="AK160" s="29"/>
-      <c r="AL160" s="29"/>
-      <c r="AM160" s="29"/>
-      <c r="AN160" s="29"/>
-      <c r="AO160" s="29"/>
-      <c r="AP160" s="29"/>
-      <c r="AQ160" s="29"/>
-      <c r="AR160" s="29"/>
-      <c r="AS160" s="29"/>
-      <c r="AT160" s="29"/>
-      <c r="AU160" s="29"/>
-      <c r="AV160" s="29"/>
-      <c r="AW160" s="29"/>
-      <c r="AX160" s="29"/>
-      <c r="AY160" s="29"/>
-      <c r="AZ160" s="29"/>
-      <c r="BA160" s="29"/>
-      <c r="BB160" s="29"/>
-      <c r="BC160" s="29"/>
-      <c r="BD160" s="29"/>
-      <c r="BE160" s="29"/>
-      <c r="BF160" s="29"/>
-      <c r="BG160" s="29"/>
-      <c r="BH160" s="29"/>
-      <c r="BI160" s="29"/>
-      <c r="BJ160" s="29"/>
-      <c r="BK160" s="29"/>
-      <c r="BL160" s="29"/>
-      <c r="BM160" s="29"/>
-      <c r="BN160" s="29"/>
-      <c r="BO160" s="29"/>
-      <c r="BP160" s="29"/>
-      <c r="BQ160" s="29"/>
-      <c r="BR160" s="29"/>
-      <c r="BS160" s="29"/>
-      <c r="BT160" s="29"/>
-      <c r="BU160" s="29"/>
-      <c r="BV160" s="29"/>
-      <c r="BW160" s="29"/>
-      <c r="BX160" s="29"/>
-      <c r="BY160" s="29"/>
-      <c r="BZ160" s="29"/>
-      <c r="CA160" s="29"/>
-      <c r="CB160" s="29"/>
-      <c r="CC160" s="29"/>
-      <c r="CD160" s="29"/>
-      <c r="CE160" s="29"/>
-      <c r="CF160" s="29"/>
-      <c r="CG160" s="29"/>
-      <c r="CH160" s="29"/>
-      <c r="CI160" s="29"/>
-      <c r="CJ160" s="29"/>
-      <c r="CK160" s="29"/>
-      <c r="CL160" s="29"/>
-      <c r="CM160" s="29"/>
-      <c r="CN160" s="29"/>
-      <c r="CO160" s="29"/>
-      <c r="CP160" s="29"/>
-      <c r="CQ160" s="29"/>
-      <c r="CR160" s="29"/>
-      <c r="CS160" s="29"/>
-      <c r="CT160" s="29"/>
-      <c r="CU160" s="29"/>
-      <c r="CV160" s="29"/>
-      <c r="CW160" s="29"/>
-      <c r="CX160" s="30"/>
-    </row>
-    <row r="161" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A161" s="78"/>
-      <c r="B161" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="81">
-        <v>18.04</v>
-      </c>
-      <c r="E161" s="82">
-        <v>25.04</v>
-      </c>
+      <c r="C161" s="62">
+        <v>3</v>
+      </c>
+      <c r="D161" s="78"/>
+      <c r="E161" s="84"/>
       <c r="F161" s="19"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
@@ -20605,11 +20648,17 @@
       <c r="CJ161" s="20"/>
       <c r="CK161" s="20"/>
       <c r="CL161" s="20"/>
-      <c r="CM161" s="20"/>
+      <c r="CM161" s="41">
+        <v>0.5</v>
+      </c>
       <c r="CN161" s="20"/>
       <c r="CO161" s="20"/>
-      <c r="CP161" s="20"/>
-      <c r="CQ161" s="20"/>
+      <c r="CP161" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="CQ161" s="41">
+        <v>1</v>
+      </c>
       <c r="CR161" s="20"/>
       <c r="CS161" s="20"/>
       <c r="CT161" s="20"/>
@@ -20617,17 +20666,24 @@
       <c r="CV161" s="20"/>
       <c r="CW161" s="20"/>
       <c r="CX161" s="21"/>
+      <c r="CY161" s="10"/>
     </row>
-    <row r="162" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A162" s="79"/>
+    <row r="162" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="80" t="s">
+        <v>80</v>
+      </c>
       <c r="B162" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="81"/>
-      <c r="E162" s="82"/>
+        <v>6</v>
+      </c>
+      <c r="C162" s="62">
+        <v>1</v>
+      </c>
+      <c r="D162" s="82">
+        <v>18.04</v>
+      </c>
+      <c r="E162" s="86">
+        <v>25.04</v>
+      </c>
       <c r="F162" s="19"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
@@ -20718,250 +20774,256 @@
       <c r="CO162" s="20"/>
       <c r="CP162" s="20"/>
       <c r="CQ162" s="20"/>
-      <c r="CR162" s="20"/>
+      <c r="CR162" s="42">
+        <v>1</v>
+      </c>
       <c r="CS162" s="20"/>
       <c r="CT162" s="20"/>
       <c r="CU162" s="20"/>
       <c r="CV162" s="20"/>
       <c r="CW162" s="20"/>
       <c r="CX162" s="21"/>
+      <c r="CY162" s="10"/>
     </row>
-    <row r="163" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B163" s="5" t="s">
+    <row r="163" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="81"/>
+      <c r="B163" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="62">
+        <v>1.5</v>
+      </c>
+      <c r="D163" s="78"/>
+      <c r="E163" s="84"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="20"/>
+      <c r="O163" s="20"/>
+      <c r="P163" s="20"/>
+      <c r="Q163" s="20"/>
+      <c r="R163" s="20"/>
+      <c r="S163" s="20"/>
+      <c r="T163" s="20"/>
+      <c r="U163" s="20"/>
+      <c r="V163" s="20"/>
+      <c r="W163" s="20"/>
+      <c r="X163" s="20"/>
+      <c r="Y163" s="20"/>
+      <c r="Z163" s="20"/>
+      <c r="AA163" s="20"/>
+      <c r="AB163" s="20"/>
+      <c r="AC163" s="20"/>
+      <c r="AD163" s="20"/>
+      <c r="AE163" s="20"/>
+      <c r="AF163" s="20"/>
+      <c r="AG163" s="20"/>
+      <c r="AH163" s="20"/>
+      <c r="AI163" s="20"/>
+      <c r="AJ163" s="20"/>
+      <c r="AK163" s="20"/>
+      <c r="AL163" s="20"/>
+      <c r="AM163" s="20"/>
+      <c r="AN163" s="20"/>
+      <c r="AO163" s="20"/>
+      <c r="AP163" s="20"/>
+      <c r="AQ163" s="20"/>
+      <c r="AR163" s="20"/>
+      <c r="AS163" s="20"/>
+      <c r="AT163" s="20"/>
+      <c r="AU163" s="20"/>
+      <c r="AV163" s="20"/>
+      <c r="AW163" s="20"/>
+      <c r="AX163" s="20"/>
+      <c r="AY163" s="20"/>
+      <c r="AZ163" s="20"/>
+      <c r="BA163" s="20"/>
+      <c r="BB163" s="20"/>
+      <c r="BC163" s="20"/>
+      <c r="BD163" s="20"/>
+      <c r="BE163" s="20"/>
+      <c r="BF163" s="20"/>
+      <c r="BG163" s="20"/>
+      <c r="BH163" s="20"/>
+      <c r="BI163" s="20"/>
+      <c r="BJ163" s="20"/>
+      <c r="BK163" s="20"/>
+      <c r="BL163" s="20"/>
+      <c r="BM163" s="20"/>
+      <c r="BN163" s="20"/>
+      <c r="BO163" s="20"/>
+      <c r="BP163" s="20"/>
+      <c r="BQ163" s="20"/>
+      <c r="BR163" s="20"/>
+      <c r="BS163" s="20"/>
+      <c r="BT163" s="20"/>
+      <c r="BU163" s="20"/>
+      <c r="BV163" s="20"/>
+      <c r="BW163" s="20"/>
+      <c r="BX163" s="20"/>
+      <c r="BY163" s="20"/>
+      <c r="BZ163" s="20"/>
+      <c r="CA163" s="20"/>
+      <c r="CB163" s="20"/>
+      <c r="CC163" s="20"/>
+      <c r="CD163" s="20"/>
+      <c r="CE163" s="20"/>
+      <c r="CF163" s="20"/>
+      <c r="CG163" s="20"/>
+      <c r="CH163" s="20"/>
+      <c r="CI163" s="20"/>
+      <c r="CJ163" s="20"/>
+      <c r="CK163" s="20"/>
+      <c r="CL163" s="20"/>
+      <c r="CM163" s="20"/>
+      <c r="CN163" s="20"/>
+      <c r="CO163" s="20"/>
+      <c r="CP163" s="20"/>
+      <c r="CQ163" s="20"/>
+      <c r="CR163" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="CS163" s="20"/>
+      <c r="CT163" s="20"/>
+      <c r="CU163" s="20"/>
+      <c r="CV163" s="20"/>
+      <c r="CW163" s="20"/>
+      <c r="CX163" s="21"/>
+      <c r="CY163" s="10"/>
+    </row>
+    <row r="164" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C163" s="61" t="s">
+      <c r="C164" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D163" s="71" t="s">
+      <c r="D164" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E163" s="67" t="s">
+      <c r="E164" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="28"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="29"/>
-      <c r="L163" s="29"/>
-      <c r="M163" s="29"/>
-      <c r="N163" s="29"/>
-      <c r="O163" s="29"/>
-      <c r="P163" s="29"/>
-      <c r="Q163" s="29"/>
-      <c r="R163" s="29"/>
-      <c r="S163" s="29"/>
-      <c r="T163" s="29"/>
-      <c r="U163" s="29"/>
-      <c r="V163" s="29"/>
-      <c r="W163" s="29"/>
-      <c r="X163" s="29"/>
-      <c r="Y163" s="29"/>
-      <c r="Z163" s="29"/>
-      <c r="AA163" s="29"/>
-      <c r="AB163" s="29"/>
-      <c r="AC163" s="29"/>
-      <c r="AD163" s="29"/>
-      <c r="AE163" s="29"/>
-      <c r="AF163" s="29"/>
-      <c r="AG163" s="29"/>
-      <c r="AH163" s="29"/>
-      <c r="AI163" s="29"/>
-      <c r="AJ163" s="29"/>
-      <c r="AK163" s="29"/>
-      <c r="AL163" s="29"/>
-      <c r="AM163" s="29"/>
-      <c r="AN163" s="29"/>
-      <c r="AO163" s="29"/>
-      <c r="AP163" s="29"/>
-      <c r="AQ163" s="29"/>
-      <c r="AR163" s="29"/>
-      <c r="AS163" s="29"/>
-      <c r="AT163" s="29"/>
-      <c r="AU163" s="29"/>
-      <c r="AV163" s="29"/>
-      <c r="AW163" s="29"/>
-      <c r="AX163" s="29"/>
-      <c r="AY163" s="29"/>
-      <c r="AZ163" s="29"/>
-      <c r="BA163" s="29"/>
-      <c r="BB163" s="29"/>
-      <c r="BC163" s="29"/>
-      <c r="BD163" s="29"/>
-      <c r="BE163" s="29"/>
-      <c r="BF163" s="29"/>
-      <c r="BG163" s="29"/>
-      <c r="BH163" s="29"/>
-      <c r="BI163" s="29"/>
-      <c r="BJ163" s="29"/>
-      <c r="BK163" s="29"/>
-      <c r="BL163" s="29"/>
-      <c r="BM163" s="29"/>
-      <c r="BN163" s="29"/>
-      <c r="BO163" s="29"/>
-      <c r="BP163" s="29"/>
-      <c r="BQ163" s="29"/>
-      <c r="BR163" s="29"/>
-      <c r="BS163" s="29"/>
-      <c r="BT163" s="29"/>
-      <c r="BU163" s="29"/>
-      <c r="BV163" s="29"/>
-      <c r="BW163" s="29"/>
-      <c r="BX163" s="29"/>
-      <c r="BY163" s="29"/>
-      <c r="BZ163" s="29"/>
-      <c r="CA163" s="29"/>
-      <c r="CB163" s="29"/>
-      <c r="CC163" s="29"/>
-      <c r="CD163" s="29"/>
-      <c r="CE163" s="29"/>
-      <c r="CF163" s="29"/>
-      <c r="CG163" s="29"/>
-      <c r="CH163" s="29"/>
-      <c r="CI163" s="29"/>
-      <c r="CJ163" s="29"/>
-      <c r="CK163" s="29"/>
-      <c r="CL163" s="29"/>
-      <c r="CM163" s="29"/>
-      <c r="CN163" s="29"/>
-      <c r="CO163" s="29"/>
-      <c r="CP163" s="29"/>
-      <c r="CQ163" s="29"/>
-      <c r="CR163" s="29"/>
-      <c r="CS163" s="29"/>
-      <c r="CT163" s="29"/>
-      <c r="CU163" s="29"/>
-      <c r="CV163" s="29"/>
-      <c r="CW163" s="29"/>
-      <c r="CX163" s="30"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="29"/>
+      <c r="I164" s="29"/>
+      <c r="J164" s="29"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="29"/>
+      <c r="M164" s="29"/>
+      <c r="N164" s="29"/>
+      <c r="O164" s="29"/>
+      <c r="P164" s="29"/>
+      <c r="Q164" s="29"/>
+      <c r="R164" s="29"/>
+      <c r="S164" s="29"/>
+      <c r="T164" s="29"/>
+      <c r="U164" s="29"/>
+      <c r="V164" s="29"/>
+      <c r="W164" s="29"/>
+      <c r="X164" s="29"/>
+      <c r="Y164" s="29"/>
+      <c r="Z164" s="29"/>
+      <c r="AA164" s="29"/>
+      <c r="AB164" s="29"/>
+      <c r="AC164" s="29"/>
+      <c r="AD164" s="29"/>
+      <c r="AE164" s="29"/>
+      <c r="AF164" s="29"/>
+      <c r="AG164" s="29"/>
+      <c r="AH164" s="29"/>
+      <c r="AI164" s="29"/>
+      <c r="AJ164" s="29"/>
+      <c r="AK164" s="29"/>
+      <c r="AL164" s="29"/>
+      <c r="AM164" s="29"/>
+      <c r="AN164" s="29"/>
+      <c r="AO164" s="29"/>
+      <c r="AP164" s="29"/>
+      <c r="AQ164" s="29"/>
+      <c r="AR164" s="29"/>
+      <c r="AS164" s="29"/>
+      <c r="AT164" s="29"/>
+      <c r="AU164" s="29"/>
+      <c r="AV164" s="29"/>
+      <c r="AW164" s="29"/>
+      <c r="AX164" s="29"/>
+      <c r="AY164" s="29"/>
+      <c r="AZ164" s="29"/>
+      <c r="BA164" s="29"/>
+      <c r="BB164" s="29"/>
+      <c r="BC164" s="29"/>
+      <c r="BD164" s="29"/>
+      <c r="BE164" s="29"/>
+      <c r="BF164" s="29"/>
+      <c r="BG164" s="29"/>
+      <c r="BH164" s="29"/>
+      <c r="BI164" s="29"/>
+      <c r="BJ164" s="29"/>
+      <c r="BK164" s="29"/>
+      <c r="BL164" s="29"/>
+      <c r="BM164" s="29"/>
+      <c r="BN164" s="29"/>
+      <c r="BO164" s="29"/>
+      <c r="BP164" s="29"/>
+      <c r="BQ164" s="29"/>
+      <c r="BR164" s="29"/>
+      <c r="BS164" s="29"/>
+      <c r="BT164" s="29"/>
+      <c r="BU164" s="29"/>
+      <c r="BV164" s="29"/>
+      <c r="BW164" s="29"/>
+      <c r="BX164" s="29"/>
+      <c r="BY164" s="29"/>
+      <c r="BZ164" s="29"/>
+      <c r="CA164" s="29"/>
+      <c r="CB164" s="29"/>
+      <c r="CC164" s="29"/>
+      <c r="CD164" s="29"/>
+      <c r="CE164" s="29"/>
+      <c r="CF164" s="29"/>
+      <c r="CG164" s="29"/>
+      <c r="CH164" s="29"/>
+      <c r="CI164" s="29"/>
+      <c r="CJ164" s="29"/>
+      <c r="CK164" s="29"/>
+      <c r="CL164" s="29"/>
+      <c r="CM164" s="29"/>
+      <c r="CN164" s="29"/>
+      <c r="CO164" s="29"/>
+      <c r="CP164" s="29"/>
+      <c r="CQ164" s="29"/>
+      <c r="CR164" s="29"/>
+      <c r="CS164" s="29"/>
+      <c r="CT164" s="29"/>
+      <c r="CU164" s="29"/>
+      <c r="CV164" s="29"/>
+      <c r="CW164" s="29"/>
+      <c r="CX164" s="30"/>
     </row>
-    <row r="164" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A164" s="78"/>
-      <c r="B164" s="6" t="s">
+    <row r="165" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A165" s="80"/>
+      <c r="B165" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C164" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="81">
-        <v>18.04</v>
-      </c>
-      <c r="E164" s="82">
-        <v>25.04</v>
-      </c>
-      <c r="F164" s="19"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="20"/>
-      <c r="J164" s="20"/>
-      <c r="K164" s="20"/>
-      <c r="L164" s="20"/>
-      <c r="M164" s="20"/>
-      <c r="N164" s="20"/>
-      <c r="O164" s="20"/>
-      <c r="P164" s="20"/>
-      <c r="Q164" s="20"/>
-      <c r="R164" s="20"/>
-      <c r="S164" s="20"/>
-      <c r="T164" s="20"/>
-      <c r="U164" s="20"/>
-      <c r="V164" s="20"/>
-      <c r="W164" s="20"/>
-      <c r="X164" s="20"/>
-      <c r="Y164" s="20"/>
-      <c r="Z164" s="20"/>
-      <c r="AA164" s="20"/>
-      <c r="AB164" s="20"/>
-      <c r="AC164" s="20"/>
-      <c r="AD164" s="20"/>
-      <c r="AE164" s="20"/>
-      <c r="AF164" s="20"/>
-      <c r="AG164" s="20"/>
-      <c r="AH164" s="20"/>
-      <c r="AI164" s="20"/>
-      <c r="AJ164" s="20"/>
-      <c r="AK164" s="20"/>
-      <c r="AL164" s="20"/>
-      <c r="AM164" s="20"/>
-      <c r="AN164" s="20"/>
-      <c r="AO164" s="20"/>
-      <c r="AP164" s="20"/>
-      <c r="AQ164" s="20"/>
-      <c r="AR164" s="20"/>
-      <c r="AS164" s="20"/>
-      <c r="AT164" s="20"/>
-      <c r="AU164" s="20"/>
-      <c r="AV164" s="20"/>
-      <c r="AW164" s="20"/>
-      <c r="AX164" s="20"/>
-      <c r="AY164" s="20"/>
-      <c r="AZ164" s="20"/>
-      <c r="BA164" s="20"/>
-      <c r="BB164" s="20"/>
-      <c r="BC164" s="20"/>
-      <c r="BD164" s="20"/>
-      <c r="BE164" s="20"/>
-      <c r="BF164" s="20"/>
-      <c r="BG164" s="20"/>
-      <c r="BH164" s="20"/>
-      <c r="BI164" s="20"/>
-      <c r="BJ164" s="20"/>
-      <c r="BK164" s="20"/>
-      <c r="BL164" s="20"/>
-      <c r="BM164" s="20"/>
-      <c r="BN164" s="20"/>
-      <c r="BO164" s="20"/>
-      <c r="BP164" s="20"/>
-      <c r="BQ164" s="20"/>
-      <c r="BR164" s="20"/>
-      <c r="BS164" s="20"/>
-      <c r="BT164" s="20"/>
-      <c r="BU164" s="20"/>
-      <c r="BV164" s="20"/>
-      <c r="BW164" s="20"/>
-      <c r="BX164" s="20"/>
-      <c r="BY164" s="20"/>
-      <c r="BZ164" s="20"/>
-      <c r="CA164" s="20"/>
-      <c r="CB164" s="20"/>
-      <c r="CC164" s="20"/>
-      <c r="CD164" s="20"/>
-      <c r="CE164" s="20"/>
-      <c r="CF164" s="20"/>
-      <c r="CG164" s="20"/>
-      <c r="CH164" s="20"/>
-      <c r="CI164" s="20"/>
-      <c r="CJ164" s="20"/>
-      <c r="CK164" s="20"/>
-      <c r="CL164" s="20"/>
-      <c r="CM164" s="20"/>
-      <c r="CN164" s="20"/>
-      <c r="CO164" s="20"/>
-      <c r="CP164" s="20"/>
-      <c r="CQ164" s="20"/>
-      <c r="CR164" s="20"/>
-      <c r="CS164" s="20"/>
-      <c r="CT164" s="20"/>
-      <c r="CU164" s="20"/>
-      <c r="CV164" s="20"/>
-      <c r="CW164" s="20"/>
-      <c r="CX164" s="21"/>
-    </row>
-    <row r="165" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A165" s="79"/>
-      <c r="B165" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C165" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D165" s="81"/>
-      <c r="E165" s="82"/>
+      <c r="D165" s="78">
+        <v>18.04</v>
+      </c>
+      <c r="E165" s="79">
+        <v>25.04</v>
+      </c>
       <c r="F165" s="19"/>
       <c r="G165" s="20"/>
       <c r="H165" s="20"/>
@@ -21060,16 +21122,16 @@
       <c r="CW165" s="20"/>
       <c r="CX165" s="21"/>
     </row>
-    <row r="166" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B166" s="11"/>
-      <c r="C166" s="64"/>
-      <c r="D166" s="92">
-        <v>44348</v>
-      </c>
-      <c r="E166" s="93"/>
+    <row r="166" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A166" s="81"/>
+      <c r="B166" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="78"/>
+      <c r="E166" s="79"/>
       <c r="F166" s="19"/>
       <c r="G166" s="20"/>
       <c r="H166" s="20"/>
@@ -21168,153 +21230,738 @@
       <c r="CW166" s="20"/>
       <c r="CX166" s="21"/>
     </row>
-    <row r="167" spans="1:102" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="65"/>
-      <c r="D167" s="65"/>
-      <c r="E167" s="65"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="35"/>
-      <c r="I167" s="35"/>
-      <c r="J167" s="35"/>
-      <c r="K167" s="35"/>
-      <c r="L167" s="35"/>
-      <c r="M167" s="35"/>
-      <c r="N167" s="35"/>
-      <c r="O167" s="35"/>
-      <c r="P167" s="35"/>
-      <c r="Q167" s="35"/>
-      <c r="R167" s="35"/>
-      <c r="S167" s="35"/>
-      <c r="T167" s="35"/>
-      <c r="U167" s="35"/>
-      <c r="V167" s="35"/>
-      <c r="W167" s="35"/>
-      <c r="X167" s="35"/>
-      <c r="Y167" s="35"/>
-      <c r="Z167" s="35"/>
-      <c r="AA167" s="35"/>
-      <c r="AB167" s="35"/>
-      <c r="AC167" s="35"/>
-      <c r="AD167" s="35"/>
-      <c r="AE167" s="35"/>
-      <c r="AF167" s="35"/>
-      <c r="AG167" s="35"/>
-      <c r="AH167" s="35"/>
-      <c r="AI167" s="35"/>
-      <c r="AJ167" s="35"/>
-      <c r="AK167" s="35"/>
-      <c r="AL167" s="35"/>
-      <c r="AM167" s="35"/>
-      <c r="AN167" s="35"/>
-      <c r="AO167" s="35"/>
-      <c r="AP167" s="35"/>
-      <c r="AQ167" s="35"/>
-      <c r="AR167" s="35"/>
-      <c r="AS167" s="35"/>
-      <c r="AT167" s="35"/>
-      <c r="AU167" s="35"/>
-      <c r="AV167" s="35"/>
-      <c r="AW167" s="35"/>
-      <c r="AX167" s="35"/>
-      <c r="AY167" s="35"/>
-      <c r="AZ167" s="35"/>
-      <c r="BA167" s="35"/>
-      <c r="BB167" s="35"/>
-      <c r="BC167" s="35"/>
-      <c r="BD167" s="35"/>
-      <c r="BE167" s="35"/>
-      <c r="BF167" s="35"/>
-      <c r="BG167" s="35"/>
-      <c r="BH167" s="35"/>
-      <c r="BI167" s="35"/>
-      <c r="BJ167" s="35"/>
-      <c r="BK167" s="35"/>
-      <c r="BL167" s="35"/>
-      <c r="BM167" s="35"/>
-      <c r="BN167" s="35"/>
-      <c r="BO167" s="35"/>
-      <c r="BP167" s="35"/>
-      <c r="BQ167" s="35"/>
-      <c r="BR167" s="35"/>
-      <c r="BS167" s="35"/>
-      <c r="BT167" s="35"/>
-      <c r="BU167" s="35"/>
-      <c r="BV167" s="35"/>
-      <c r="BW167" s="35"/>
-      <c r="BX167" s="35"/>
-      <c r="BY167" s="35"/>
-      <c r="BZ167" s="35"/>
-      <c r="CA167" s="35"/>
-      <c r="CB167" s="35"/>
-      <c r="CC167" s="35"/>
-      <c r="CD167" s="35"/>
-      <c r="CE167" s="35"/>
-      <c r="CF167" s="35"/>
-      <c r="CG167" s="35"/>
-      <c r="CH167" s="35"/>
-      <c r="CI167" s="35"/>
-      <c r="CJ167" s="35"/>
-      <c r="CK167" s="35"/>
-      <c r="CL167" s="35"/>
-      <c r="CM167" s="35"/>
-      <c r="CN167" s="35"/>
-      <c r="CO167" s="35"/>
-      <c r="CP167" s="35"/>
-      <c r="CQ167" s="35"/>
-      <c r="CR167" s="35"/>
-      <c r="CS167" s="35"/>
-      <c r="CT167" s="35"/>
-      <c r="CU167" s="35"/>
-      <c r="CV167" s="35"/>
-      <c r="CW167" s="35"/>
-      <c r="CX167" s="35"/>
+    <row r="167" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="28"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
+      <c r="I167" s="29"/>
+      <c r="J167" s="29"/>
+      <c r="K167" s="29"/>
+      <c r="L167" s="29"/>
+      <c r="M167" s="29"/>
+      <c r="N167" s="29"/>
+      <c r="O167" s="29"/>
+      <c r="P167" s="29"/>
+      <c r="Q167" s="29"/>
+      <c r="R167" s="29"/>
+      <c r="S167" s="29"/>
+      <c r="T167" s="29"/>
+      <c r="U167" s="29"/>
+      <c r="V167" s="29"/>
+      <c r="W167" s="29"/>
+      <c r="X167" s="29"/>
+      <c r="Y167" s="29"/>
+      <c r="Z167" s="29"/>
+      <c r="AA167" s="29"/>
+      <c r="AB167" s="29"/>
+      <c r="AC167" s="29"/>
+      <c r="AD167" s="29"/>
+      <c r="AE167" s="29"/>
+      <c r="AF167" s="29"/>
+      <c r="AG167" s="29"/>
+      <c r="AH167" s="29"/>
+      <c r="AI167" s="29"/>
+      <c r="AJ167" s="29"/>
+      <c r="AK167" s="29"/>
+      <c r="AL167" s="29"/>
+      <c r="AM167" s="29"/>
+      <c r="AN167" s="29"/>
+      <c r="AO167" s="29"/>
+      <c r="AP167" s="29"/>
+      <c r="AQ167" s="29"/>
+      <c r="AR167" s="29"/>
+      <c r="AS167" s="29"/>
+      <c r="AT167" s="29"/>
+      <c r="AU167" s="29"/>
+      <c r="AV167" s="29"/>
+      <c r="AW167" s="29"/>
+      <c r="AX167" s="29"/>
+      <c r="AY167" s="29"/>
+      <c r="AZ167" s="29"/>
+      <c r="BA167" s="29"/>
+      <c r="BB167" s="29"/>
+      <c r="BC167" s="29"/>
+      <c r="BD167" s="29"/>
+      <c r="BE167" s="29"/>
+      <c r="BF167" s="29"/>
+      <c r="BG167" s="29"/>
+      <c r="BH167" s="29"/>
+      <c r="BI167" s="29"/>
+      <c r="BJ167" s="29"/>
+      <c r="BK167" s="29"/>
+      <c r="BL167" s="29"/>
+      <c r="BM167" s="29"/>
+      <c r="BN167" s="29"/>
+      <c r="BO167" s="29"/>
+      <c r="BP167" s="29"/>
+      <c r="BQ167" s="29"/>
+      <c r="BR167" s="29"/>
+      <c r="BS167" s="29"/>
+      <c r="BT167" s="29"/>
+      <c r="BU167" s="29"/>
+      <c r="BV167" s="29"/>
+      <c r="BW167" s="29"/>
+      <c r="BX167" s="29"/>
+      <c r="BY167" s="29"/>
+      <c r="BZ167" s="29"/>
+      <c r="CA167" s="29"/>
+      <c r="CB167" s="29"/>
+      <c r="CC167" s="29"/>
+      <c r="CD167" s="29"/>
+      <c r="CE167" s="29"/>
+      <c r="CF167" s="29"/>
+      <c r="CG167" s="29"/>
+      <c r="CH167" s="29"/>
+      <c r="CI167" s="29"/>
+      <c r="CJ167" s="29"/>
+      <c r="CK167" s="29"/>
+      <c r="CL167" s="29"/>
+      <c r="CM167" s="29"/>
+      <c r="CN167" s="29"/>
+      <c r="CO167" s="29"/>
+      <c r="CP167" s="29"/>
+      <c r="CQ167" s="29"/>
+      <c r="CR167" s="29"/>
+      <c r="CS167" s="29"/>
+      <c r="CT167" s="29"/>
+      <c r="CU167" s="29"/>
+      <c r="CV167" s="29"/>
+      <c r="CW167" s="29"/>
+      <c r="CX167" s="30"/>
     </row>
-    <row r="169" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="D170" s="74"/>
-      <c r="E170" s="68"/>
-      <c r="F170" s="37"/>
+    <row r="168" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A168" s="80"/>
+      <c r="B168" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="78">
+        <v>18.04</v>
+      </c>
+      <c r="E168" s="79">
+        <v>25.04</v>
+      </c>
+      <c r="F168" s="19"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="20"/>
+      <c r="L168" s="20"/>
+      <c r="M168" s="20"/>
+      <c r="N168" s="20"/>
+      <c r="O168" s="20"/>
+      <c r="P168" s="20"/>
+      <c r="Q168" s="20"/>
+      <c r="R168" s="20"/>
+      <c r="S168" s="20"/>
+      <c r="T168" s="20"/>
+      <c r="U168" s="20"/>
+      <c r="V168" s="20"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="20"/>
+      <c r="AA168" s="20"/>
+      <c r="AB168" s="20"/>
+      <c r="AC168" s="20"/>
+      <c r="AD168" s="20"/>
+      <c r="AE168" s="20"/>
+      <c r="AF168" s="20"/>
+      <c r="AG168" s="20"/>
+      <c r="AH168" s="20"/>
+      <c r="AI168" s="20"/>
+      <c r="AJ168" s="20"/>
+      <c r="AK168" s="20"/>
+      <c r="AL168" s="20"/>
+      <c r="AM168" s="20"/>
+      <c r="AN168" s="20"/>
+      <c r="AO168" s="20"/>
+      <c r="AP168" s="20"/>
+      <c r="AQ168" s="20"/>
+      <c r="AR168" s="20"/>
+      <c r="AS168" s="20"/>
+      <c r="AT168" s="20"/>
+      <c r="AU168" s="20"/>
+      <c r="AV168" s="20"/>
+      <c r="AW168" s="20"/>
+      <c r="AX168" s="20"/>
+      <c r="AY168" s="20"/>
+      <c r="AZ168" s="20"/>
+      <c r="BA168" s="20"/>
+      <c r="BB168" s="20"/>
+      <c r="BC168" s="20"/>
+      <c r="BD168" s="20"/>
+      <c r="BE168" s="20"/>
+      <c r="BF168" s="20"/>
+      <c r="BG168" s="20"/>
+      <c r="BH168" s="20"/>
+      <c r="BI168" s="20"/>
+      <c r="BJ168" s="20"/>
+      <c r="BK168" s="20"/>
+      <c r="BL168" s="20"/>
+      <c r="BM168" s="20"/>
+      <c r="BN168" s="20"/>
+      <c r="BO168" s="20"/>
+      <c r="BP168" s="20"/>
+      <c r="BQ168" s="20"/>
+      <c r="BR168" s="20"/>
+      <c r="BS168" s="20"/>
+      <c r="BT168" s="20"/>
+      <c r="BU168" s="20"/>
+      <c r="BV168" s="20"/>
+      <c r="BW168" s="20"/>
+      <c r="BX168" s="20"/>
+      <c r="BY168" s="20"/>
+      <c r="BZ168" s="20"/>
+      <c r="CA168" s="20"/>
+      <c r="CB168" s="20"/>
+      <c r="CC168" s="20"/>
+      <c r="CD168" s="20"/>
+      <c r="CE168" s="20"/>
+      <c r="CF168" s="20"/>
+      <c r="CG168" s="20"/>
+      <c r="CH168" s="20"/>
+      <c r="CI168" s="20"/>
+      <c r="CJ168" s="20"/>
+      <c r="CK168" s="20"/>
+      <c r="CL168" s="20"/>
+      <c r="CM168" s="20"/>
+      <c r="CN168" s="20"/>
+      <c r="CO168" s="20"/>
+      <c r="CP168" s="20"/>
+      <c r="CQ168" s="20"/>
+      <c r="CR168" s="20"/>
+      <c r="CS168" s="20"/>
+      <c r="CT168" s="20"/>
+      <c r="CU168" s="20"/>
+      <c r="CV168" s="20"/>
+      <c r="CW168" s="20"/>
+      <c r="CX168" s="21"/>
     </row>
-    <row r="171" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="D171" s="75"/>
-      <c r="E171" s="55" t="s">
+    <row r="169" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A169" s="81"/>
+      <c r="B169" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="78"/>
+      <c r="E169" s="79"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="20"/>
+      <c r="K169" s="20"/>
+      <c r="L169" s="20"/>
+      <c r="M169" s="20"/>
+      <c r="N169" s="20"/>
+      <c r="O169" s="20"/>
+      <c r="P169" s="20"/>
+      <c r="Q169" s="20"/>
+      <c r="R169" s="20"/>
+      <c r="S169" s="20"/>
+      <c r="T169" s="20"/>
+      <c r="U169" s="20"/>
+      <c r="V169" s="20"/>
+      <c r="W169" s="20"/>
+      <c r="X169" s="20"/>
+      <c r="Y169" s="20"/>
+      <c r="Z169" s="20"/>
+      <c r="AA169" s="20"/>
+      <c r="AB169" s="20"/>
+      <c r="AC169" s="20"/>
+      <c r="AD169" s="20"/>
+      <c r="AE169" s="20"/>
+      <c r="AF169" s="20"/>
+      <c r="AG169" s="20"/>
+      <c r="AH169" s="20"/>
+      <c r="AI169" s="20"/>
+      <c r="AJ169" s="20"/>
+      <c r="AK169" s="20"/>
+      <c r="AL169" s="20"/>
+      <c r="AM169" s="20"/>
+      <c r="AN169" s="20"/>
+      <c r="AO169" s="20"/>
+      <c r="AP169" s="20"/>
+      <c r="AQ169" s="20"/>
+      <c r="AR169" s="20"/>
+      <c r="AS169" s="20"/>
+      <c r="AT169" s="20"/>
+      <c r="AU169" s="20"/>
+      <c r="AV169" s="20"/>
+      <c r="AW169" s="20"/>
+      <c r="AX169" s="20"/>
+      <c r="AY169" s="20"/>
+      <c r="AZ169" s="20"/>
+      <c r="BA169" s="20"/>
+      <c r="BB169" s="20"/>
+      <c r="BC169" s="20"/>
+      <c r="BD169" s="20"/>
+      <c r="BE169" s="20"/>
+      <c r="BF169" s="20"/>
+      <c r="BG169" s="20"/>
+      <c r="BH169" s="20"/>
+      <c r="BI169" s="20"/>
+      <c r="BJ169" s="20"/>
+      <c r="BK169" s="20"/>
+      <c r="BL169" s="20"/>
+      <c r="BM169" s="20"/>
+      <c r="BN169" s="20"/>
+      <c r="BO169" s="20"/>
+      <c r="BP169" s="20"/>
+      <c r="BQ169" s="20"/>
+      <c r="BR169" s="20"/>
+      <c r="BS169" s="20"/>
+      <c r="BT169" s="20"/>
+      <c r="BU169" s="20"/>
+      <c r="BV169" s="20"/>
+      <c r="BW169" s="20"/>
+      <c r="BX169" s="20"/>
+      <c r="BY169" s="20"/>
+      <c r="BZ169" s="20"/>
+      <c r="CA169" s="20"/>
+      <c r="CB169" s="20"/>
+      <c r="CC169" s="20"/>
+      <c r="CD169" s="20"/>
+      <c r="CE169" s="20"/>
+      <c r="CF169" s="20"/>
+      <c r="CG169" s="20"/>
+      <c r="CH169" s="20"/>
+      <c r="CI169" s="20"/>
+      <c r="CJ169" s="20"/>
+      <c r="CK169" s="20"/>
+      <c r="CL169" s="20"/>
+      <c r="CM169" s="20"/>
+      <c r="CN169" s="20"/>
+      <c r="CO169" s="20"/>
+      <c r="CP169" s="20"/>
+      <c r="CQ169" s="20"/>
+      <c r="CR169" s="20"/>
+      <c r="CS169" s="20"/>
+      <c r="CT169" s="20"/>
+      <c r="CU169" s="20"/>
+      <c r="CV169" s="20"/>
+      <c r="CW169" s="20"/>
+      <c r="CX169" s="21"/>
+    </row>
+    <row r="170" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" s="11"/>
+      <c r="C170" s="64"/>
+      <c r="D170" s="87">
+        <v>44348</v>
+      </c>
+      <c r="E170" s="88"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="20"/>
+      <c r="K170" s="20"/>
+      <c r="L170" s="20"/>
+      <c r="M170" s="20"/>
+      <c r="N170" s="20"/>
+      <c r="O170" s="20"/>
+      <c r="P170" s="20"/>
+      <c r="Q170" s="20"/>
+      <c r="R170" s="20"/>
+      <c r="S170" s="20"/>
+      <c r="T170" s="20"/>
+      <c r="U170" s="20"/>
+      <c r="V170" s="20"/>
+      <c r="W170" s="20"/>
+      <c r="X170" s="20"/>
+      <c r="Y170" s="20"/>
+      <c r="Z170" s="20"/>
+      <c r="AA170" s="20"/>
+      <c r="AB170" s="20"/>
+      <c r="AC170" s="20"/>
+      <c r="AD170" s="20"/>
+      <c r="AE170" s="20"/>
+      <c r="AF170" s="20"/>
+      <c r="AG170" s="20"/>
+      <c r="AH170" s="20"/>
+      <c r="AI170" s="20"/>
+      <c r="AJ170" s="20"/>
+      <c r="AK170" s="20"/>
+      <c r="AL170" s="20"/>
+      <c r="AM170" s="20"/>
+      <c r="AN170" s="20"/>
+      <c r="AO170" s="20"/>
+      <c r="AP170" s="20"/>
+      <c r="AQ170" s="20"/>
+      <c r="AR170" s="20"/>
+      <c r="AS170" s="20"/>
+      <c r="AT170" s="20"/>
+      <c r="AU170" s="20"/>
+      <c r="AV170" s="20"/>
+      <c r="AW170" s="20"/>
+      <c r="AX170" s="20"/>
+      <c r="AY170" s="20"/>
+      <c r="AZ170" s="20"/>
+      <c r="BA170" s="20"/>
+      <c r="BB170" s="20"/>
+      <c r="BC170" s="20"/>
+      <c r="BD170" s="20"/>
+      <c r="BE170" s="20"/>
+      <c r="BF170" s="20"/>
+      <c r="BG170" s="20"/>
+      <c r="BH170" s="20"/>
+      <c r="BI170" s="20"/>
+      <c r="BJ170" s="20"/>
+      <c r="BK170" s="20"/>
+      <c r="BL170" s="20"/>
+      <c r="BM170" s="20"/>
+      <c r="BN170" s="20"/>
+      <c r="BO170" s="20"/>
+      <c r="BP170" s="20"/>
+      <c r="BQ170" s="20"/>
+      <c r="BR170" s="20"/>
+      <c r="BS170" s="20"/>
+      <c r="BT170" s="20"/>
+      <c r="BU170" s="20"/>
+      <c r="BV170" s="20"/>
+      <c r="BW170" s="20"/>
+      <c r="BX170" s="20"/>
+      <c r="BY170" s="20"/>
+      <c r="BZ170" s="20"/>
+      <c r="CA170" s="20"/>
+      <c r="CB170" s="20"/>
+      <c r="CC170" s="20"/>
+      <c r="CD170" s="20"/>
+      <c r="CE170" s="20"/>
+      <c r="CF170" s="20"/>
+      <c r="CG170" s="20"/>
+      <c r="CH170" s="20"/>
+      <c r="CI170" s="20"/>
+      <c r="CJ170" s="20"/>
+      <c r="CK170" s="20"/>
+      <c r="CL170" s="20"/>
+      <c r="CM170" s="20"/>
+      <c r="CN170" s="20"/>
+      <c r="CO170" s="20"/>
+      <c r="CP170" s="20"/>
+      <c r="CQ170" s="20"/>
+      <c r="CR170" s="20"/>
+      <c r="CS170" s="20"/>
+      <c r="CT170" s="20"/>
+      <c r="CU170" s="20"/>
+      <c r="CV170" s="20"/>
+      <c r="CW170" s="20"/>
+      <c r="CX170" s="21"/>
+    </row>
+    <row r="171" spans="1:103" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="65"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="65"/>
+      <c r="F171" s="35"/>
+      <c r="G171" s="35"/>
+      <c r="H171" s="35"/>
+      <c r="I171" s="35"/>
+      <c r="J171" s="35"/>
+      <c r="K171" s="35"/>
+      <c r="L171" s="35"/>
+      <c r="M171" s="35"/>
+      <c r="N171" s="35"/>
+      <c r="O171" s="35"/>
+      <c r="P171" s="35"/>
+      <c r="Q171" s="35"/>
+      <c r="R171" s="35"/>
+      <c r="S171" s="35"/>
+      <c r="T171" s="35"/>
+      <c r="U171" s="35"/>
+      <c r="V171" s="35"/>
+      <c r="W171" s="35"/>
+      <c r="X171" s="35"/>
+      <c r="Y171" s="35"/>
+      <c r="Z171" s="35"/>
+      <c r="AA171" s="35"/>
+      <c r="AB171" s="35"/>
+      <c r="AC171" s="35"/>
+      <c r="AD171" s="35"/>
+      <c r="AE171" s="35"/>
+      <c r="AF171" s="35"/>
+      <c r="AG171" s="35"/>
+      <c r="AH171" s="35"/>
+      <c r="AI171" s="35"/>
+      <c r="AJ171" s="35"/>
+      <c r="AK171" s="35"/>
+      <c r="AL171" s="35"/>
+      <c r="AM171" s="35"/>
+      <c r="AN171" s="35"/>
+      <c r="AO171" s="35"/>
+      <c r="AP171" s="35"/>
+      <c r="AQ171" s="35"/>
+      <c r="AR171" s="35"/>
+      <c r="AS171" s="35"/>
+      <c r="AT171" s="35"/>
+      <c r="AU171" s="35"/>
+      <c r="AV171" s="35"/>
+      <c r="AW171" s="35"/>
+      <c r="AX171" s="35"/>
+      <c r="AY171" s="35"/>
+      <c r="AZ171" s="35"/>
+      <c r="BA171" s="35"/>
+      <c r="BB171" s="35"/>
+      <c r="BC171" s="35"/>
+      <c r="BD171" s="35"/>
+      <c r="BE171" s="35"/>
+      <c r="BF171" s="35"/>
+      <c r="BG171" s="35"/>
+      <c r="BH171" s="35"/>
+      <c r="BI171" s="35"/>
+      <c r="BJ171" s="35"/>
+      <c r="BK171" s="35"/>
+      <c r="BL171" s="35"/>
+      <c r="BM171" s="35"/>
+      <c r="BN171" s="35"/>
+      <c r="BO171" s="35"/>
+      <c r="BP171" s="35"/>
+      <c r="BQ171" s="35"/>
+      <c r="BR171" s="35"/>
+      <c r="BS171" s="35"/>
+      <c r="BT171" s="35"/>
+      <c r="BU171" s="35"/>
+      <c r="BV171" s="35"/>
+      <c r="BW171" s="35"/>
+      <c r="BX171" s="35"/>
+      <c r="BY171" s="35"/>
+      <c r="BZ171" s="35"/>
+      <c r="CA171" s="35"/>
+      <c r="CB171" s="35"/>
+      <c r="CC171" s="35"/>
+      <c r="CD171" s="35"/>
+      <c r="CE171" s="35"/>
+      <c r="CF171" s="35"/>
+      <c r="CG171" s="35"/>
+      <c r="CH171" s="35"/>
+      <c r="CI171" s="35"/>
+      <c r="CJ171" s="35"/>
+      <c r="CK171" s="35"/>
+      <c r="CL171" s="35"/>
+      <c r="CM171" s="35"/>
+      <c r="CN171" s="35"/>
+      <c r="CO171" s="35"/>
+      <c r="CP171" s="35"/>
+      <c r="CQ171" s="35"/>
+      <c r="CR171" s="35"/>
+      <c r="CS171" s="35"/>
+      <c r="CT171" s="35"/>
+      <c r="CU171" s="35"/>
+      <c r="CV171" s="35"/>
+      <c r="CW171" s="35"/>
+      <c r="CX171" s="35"/>
+    </row>
+    <row r="173" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="174" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="D174" s="74"/>
+      <c r="E174" s="68"/>
+      <c r="F174" s="37"/>
+    </row>
+    <row r="175" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="D175" s="75"/>
+      <c r="E175" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F171" s="38"/>
+      <c r="F175" s="38"/>
     </row>
-    <row r="172" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="D172" s="76"/>
-      <c r="E172" s="55" t="s">
+    <row r="176" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="D176" s="76"/>
+      <c r="E176" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F172" s="38"/>
+      <c r="F176" s="38"/>
     </row>
-    <row r="173" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D173" s="77"/>
-      <c r="E173" s="69" t="s">
+    <row r="177" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D177" s="77"/>
+      <c r="E177" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F173" s="39"/>
+      <c r="F177" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="199">
+  <mergeCells count="205">
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="A142:A143"/>
     <mergeCell ref="D142:D143"/>
     <mergeCell ref="E142:E143"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="A149:A150"/>
     <mergeCell ref="A144:A145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="D96:D97"/>
     <mergeCell ref="E96:E97"/>
@@ -21339,86 +21986,20 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
     <mergeCell ref="A131:A132"/>
     <mergeCell ref="A137:A138"/>
     <mergeCell ref="D137:D138"/>
@@ -21429,77 +22010,6 @@
     <mergeCell ref="E104:E105"/>
     <mergeCell ref="D131:D132"/>
     <mergeCell ref="E131:E132"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitsplan/Iteration_Arbeitsplan.xlsx
+++ b/Arbeitsplan/Iteration_Arbeitsplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meni\Documents\GitHub\PSE_DELIVERABLES\Arbeitsplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Eonum\PSE_DELIVERABLES\Arbeitsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5D0AB0-7FEE-4048-BCD9-A7478D6C6F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C540B-6D9C-4162-B6B2-05F86BE245D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="82">
   <si>
     <t>Zeitplan PSE eonum AG</t>
   </si>
@@ -1005,12 +1005,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,23 +1014,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1059,30 +1080,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1451,7 +1451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1749,30 +1749,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD384E66-6977-4A33-945E-14F730629694}">
   <dimension ref="A1:CY177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CR166" sqref="CR166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="36" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="36"/>
-    <col min="6" max="102" width="5.5546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="36" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="36"/>
+    <col min="6" max="102" width="5.5703125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="91" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="92"/>
+      <c r="E1" s="99"/>
       <c r="F1" s="18">
         <v>44615</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="CY1" s="16"/>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="59"/>
@@ -2171,7 +2171,7 @@
       <c r="CX2" s="21"/>
       <c r="CY2" s="17"/>
     </row>
-    <row r="3" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="CX3" s="24"/>
       <c r="CY3" s="17"/>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="CX4" s="27"/>
       <c r="CY4" s="17"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2515,8 +2515,8 @@
       <c r="CX5" s="30"/>
       <c r="CY5" s="17"/>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2525,10 +2525,10 @@
       <c r="C6" s="62">
         <v>5</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="80">
         <v>23.02</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="82">
         <v>16.03</v>
       </c>
       <c r="F6" s="45"/>
@@ -2636,16 +2636,16 @@
       <c r="CX6" s="47"/>
       <c r="CY6" s="17"/>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="62">
         <v>4</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="85"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="45"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
@@ -2751,8 +2751,8 @@
       <c r="CX7" s="47"/>
       <c r="CY7" s="17"/>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2761,10 +2761,10 @@
       <c r="C8" s="62">
         <v>2</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>23.02</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="82">
         <v>16.03</v>
       </c>
       <c r="F8" s="19"/>
@@ -2868,16 +2868,16 @@
       <c r="CX8" s="21"/>
       <c r="CY8" s="17"/>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
+    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="62">
         <v>2</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="85"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -2979,7 +2979,7 @@
       <c r="CX9" s="21"/>
       <c r="CY9" s="17"/>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -3096,8 +3096,8 @@
       <c r="CX10" s="30"/>
       <c r="CY10" s="17"/>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3107,10 +3107,10 @@
         <f>SUM(F11:CX11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>23.02</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="82">
         <v>16.03</v>
       </c>
       <c r="F11" s="19"/>
@@ -3214,8 +3214,8 @@
       <c r="CX11" s="21"/>
       <c r="CY11" s="17"/>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
+    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A12" s="79"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -3223,8 +3223,8 @@
         <f>SUM(F12:CX12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="85"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -3326,8 +3326,8 @@
       <c r="CX12" s="21"/>
       <c r="CY12" s="17"/>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80" t="s">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="78" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -3337,10 +3337,10 @@
         <f>SUM(F13:CX13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>23.02</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="82">
         <v>16.03</v>
       </c>
       <c r="F13" s="19"/>
@@ -3446,8 +3446,8 @@
       <c r="CX13" s="21"/>
       <c r="CY13" s="17"/>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="96"/>
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="95"/>
       <c r="B14" s="43" t="s">
         <v>8</v>
       </c>
@@ -3455,8 +3455,8 @@
         <f>SUM(F14:CX14)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="85"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -3563,7 +3563,7 @@
       <c r="CX14" s="21"/>
       <c r="CY14" s="17"/>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>22</v>
       </c>
@@ -3680,8 +3680,8 @@
       <c r="CX15" s="30"/>
       <c r="CY15" s="17"/>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="80" t="s">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3690,10 +3690,10 @@
       <c r="C16" s="62">
         <v>3</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>23.02</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="82">
         <v>16.03</v>
       </c>
       <c r="F16" s="19"/>
@@ -3797,16 +3797,16 @@
       <c r="CX16" s="21"/>
       <c r="CY16" s="17"/>
     </row>
-    <row r="17" spans="1:103" s="50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
+    <row r="17" spans="1:103" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="95"/>
       <c r="B17" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="62">
         <v>3</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="84"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -3908,8 +3908,8 @@
       <c r="CX17" s="21"/>
       <c r="CY17" s="49"/>
     </row>
-    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96" t="s">
+    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="95" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3918,10 +3918,10 @@
       <c r="C18" s="62">
         <v>4</v>
       </c>
-      <c r="D18" s="78">
+      <c r="D18" s="81">
         <v>23.02</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="83">
         <v>16.03</v>
       </c>
       <c r="F18" s="19"/>
@@ -4027,16 +4027,16 @@
       <c r="CX18" s="21"/>
       <c r="CY18" s="17"/>
     </row>
-    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="79"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="62">
         <v>3</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="85"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -4140,7 +4140,7 @@
       <c r="CX19" s="21"/>
       <c r="CY19" s="17"/>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -4257,8 +4257,8 @@
       <c r="CX20" s="30"/>
       <c r="CY20" s="17"/>
     </row>
-    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -4267,10 +4267,10 @@
       <c r="C21" s="62">
         <v>1</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>23.02</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="82">
         <v>16.03</v>
       </c>
       <c r="F21" s="19"/>
@@ -4374,16 +4374,16 @@
       <c r="CX21" s="21"/>
       <c r="CY21" s="17"/>
     </row>
-    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="79"/>
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="62">
         <v>1</v>
       </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="85"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -4485,8 +4485,8 @@
       <c r="CX22" s="21"/>
       <c r="CY22" s="17"/>
     </row>
-    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4496,10 +4496,10 @@
         <f>SUM(F23:CX23)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>23.02</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="82">
         <v>16.03</v>
       </c>
       <c r="F23" s="19"/>
@@ -4609,8 +4609,8 @@
       <c r="CX23" s="21"/>
       <c r="CY23" s="17"/>
     </row>
-    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
+    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="79"/>
       <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
@@ -4618,8 +4618,8 @@
         <f>SUM(F24:CX24)</f>
         <v>5</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="85"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
       <c r="F24" s="19"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -4727,7 +4727,7 @@
       <c r="CX24" s="21"/>
       <c r="CY24" s="17"/>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -4842,8 +4842,8 @@
       <c r="CX25" s="30"/>
       <c r="CY25" s="17"/>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A26" s="80" t="s">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A26" s="78" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4852,10 +4852,10 @@
       <c r="C26" s="62">
         <v>4.5</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <v>23.02</v>
       </c>
-      <c r="E26" s="86">
+      <c r="E26" s="82">
         <v>16.03</v>
       </c>
       <c r="F26" s="19"/>
@@ -4965,16 +4965,16 @@
       <c r="CX26" s="21"/>
       <c r="CY26" s="17"/>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
+    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A27" s="79"/>
       <c r="B27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="62">
         <v>4.5</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="85"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -5082,8 +5082,8 @@
       <c r="CX27" s="21"/>
       <c r="CY27" s="17"/>
     </row>
-    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="80" t="s">
+    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -5092,10 +5092,10 @@
       <c r="C28" s="62">
         <v>1</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <v>23.02</v>
       </c>
-      <c r="E28" s="86">
+      <c r="E28" s="82">
         <v>16.03</v>
       </c>
       <c r="F28" s="19"/>
@@ -5201,16 +5201,16 @@
       <c r="CX28" s="21"/>
       <c r="CY28" s="17"/>
     </row>
-    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
+    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="79"/>
       <c r="B29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="62">
         <v>1</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="85"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="19"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -5314,8 +5314,8 @@
       <c r="CX29" s="21"/>
       <c r="CY29" s="17"/>
     </row>
-    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="80" t="s">
+    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -5324,10 +5324,10 @@
       <c r="C30" s="62">
         <v>4</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="80">
         <v>23.02</v>
       </c>
-      <c r="E30" s="86">
+      <c r="E30" s="82">
         <v>16.03</v>
       </c>
       <c r="F30" s="19"/>
@@ -5435,16 +5435,16 @@
       <c r="CX30" s="21"/>
       <c r="CY30" s="17"/>
     </row>
-    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="81"/>
+    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="62">
         <v>3</v>
       </c>
-      <c r="D31" s="83"/>
-      <c r="E31" s="85"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -5550,16 +5550,16 @@
       <c r="CX31" s="21"/>
       <c r="CY31" s="17"/>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="62"/>
-      <c r="D32" s="87">
+      <c r="D32" s="92">
         <v>44636</v>
       </c>
-      <c r="E32" s="88"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -5659,7 +5659,7 @@
       <c r="CX32" s="21"/>
       <c r="CY32" s="17"/>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>13</v>
       </c>
@@ -5776,7 +5776,7 @@
       <c r="CX33" s="34"/>
       <c r="CY33" s="17"/>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
@@ -5891,8 +5891,8 @@
       <c r="CX34" s="30"/>
       <c r="CY34" s="17"/>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A35" s="80" t="s">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A35" s="78" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -5901,10 +5901,10 @@
       <c r="C35" s="62">
         <v>3</v>
       </c>
-      <c r="D35" s="78">
+      <c r="D35" s="81">
         <v>23.03</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="84">
         <v>6.04</v>
       </c>
       <c r="F35" s="19"/>
@@ -6012,16 +6012,16 @@
       <c r="CX35" s="21"/>
       <c r="CY35" s="17"/>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
+    <row r="36" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
       <c r="B36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="62">
         <v>6</v>
       </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="84"/>
       <c r="F36" s="19"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
@@ -6127,8 +6127,8 @@
       <c r="CX36" s="21"/>
       <c r="CY36" s="17"/>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A37" s="80" t="s">
+    <row r="37" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -6137,10 +6137,10 @@
       <c r="C37" s="62">
         <v>2</v>
       </c>
-      <c r="D37" s="78">
+      <c r="D37" s="81">
         <v>23.03</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="84">
         <v>6.04</v>
       </c>
       <c r="F37" s="19"/>
@@ -6244,16 +6244,16 @@
       <c r="CX37" s="21"/>
       <c r="CY37" s="17"/>
     </row>
-    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="81"/>
+    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="79"/>
       <c r="B38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="62">
         <v>3</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="84"/>
       <c r="F38" s="19"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -6355,8 +6355,8 @@
       <c r="CX38" s="21"/>
       <c r="CY38" s="17"/>
     </row>
-    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="80" t="s">
+    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -6365,10 +6365,10 @@
       <c r="C39" s="62">
         <v>2</v>
       </c>
-      <c r="D39" s="78">
+      <c r="D39" s="81">
         <v>23.03</v>
       </c>
-      <c r="E39" s="79">
+      <c r="E39" s="84">
         <v>6.04</v>
       </c>
       <c r="F39" s="19"/>
@@ -6474,16 +6474,16 @@
       <c r="CX39" s="21"/>
       <c r="CY39" s="17"/>
     </row>
-    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="81"/>
+    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="79"/>
       <c r="B40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="62">
         <v>2</v>
       </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="84"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
@@ -6587,7 +6587,7 @@
       <c r="CX40" s="21"/>
       <c r="CY40" s="17"/>
     </row>
-    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -6704,8 +6704,8 @@
       <c r="CX41" s="30"/>
       <c r="CY41" s="17"/>
     </row>
-    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="80" t="s">
+    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="78" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6715,10 +6715,10 @@
         <f>SUM(F42:AX42)</f>
         <v>11</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="86">
+      <c r="E42" s="82">
         <v>6.04</v>
       </c>
       <c r="F42" s="19"/>
@@ -6838,8 +6838,8 @@
       <c r="CX42" s="21"/>
       <c r="CY42" s="10"/>
     </row>
-    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="81"/>
+    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="79"/>
       <c r="B43" s="6" t="s">
         <v>8</v>
       </c>
@@ -6847,8 +6847,8 @@
         <f t="shared" ref="C43:C49" si="0">SUM(F43:AX43)</f>
         <v>13.5</v>
       </c>
-      <c r="D43" s="83"/>
-      <c r="E43" s="85"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="89"/>
       <c r="F43" s="19"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -6965,8 +6965,8 @@
       <c r="CX43" s="21"/>
       <c r="CY43" s="10"/>
     </row>
-    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="80" t="s">
+    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="78" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -6976,10 +6976,10 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="86">
+      <c r="E44" s="82">
         <v>6.04</v>
       </c>
       <c r="F44" s="19"/>
@@ -7093,8 +7093,8 @@
       <c r="CX44" s="21"/>
       <c r="CY44" s="10"/>
     </row>
-    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="81"/>
+    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="79"/>
       <c r="B45" s="6" t="s">
         <v>8</v>
       </c>
@@ -7102,8 +7102,8 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="85"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="89"/>
       <c r="F45" s="19"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -7215,8 +7215,8 @@
       <c r="CX45" s="21"/>
       <c r="CY45" s="10"/>
     </row>
-    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="80" t="s">
+    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="78" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -7226,10 +7226,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="86">
+      <c r="E46" s="82">
         <v>6.04</v>
       </c>
       <c r="F46" s="19"/>
@@ -7333,8 +7333,8 @@
       <c r="CX46" s="21"/>
       <c r="CY46" s="10"/>
     </row>
-    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="81"/>
+    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="79"/>
       <c r="B47" s="6" t="s">
         <v>8</v>
       </c>
@@ -7342,8 +7342,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="85"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="89"/>
       <c r="F47" s="19"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
@@ -7445,8 +7445,8 @@
       <c r="CX47" s="21"/>
       <c r="CY47" s="10"/>
     </row>
-    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="80" t="s">
+    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="78" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -7456,10 +7456,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D48" s="82" t="s">
+      <c r="D48" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="86">
+      <c r="E48" s="82">
         <v>6.04</v>
       </c>
       <c r="F48" s="19"/>
@@ -7563,8 +7563,8 @@
       <c r="CX48" s="21"/>
       <c r="CY48" s="10"/>
     </row>
-    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="81"/>
+    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="79"/>
       <c r="B49" s="6" t="s">
         <v>8</v>
       </c>
@@ -7572,8 +7572,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="85"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="89"/>
       <c r="F49" s="19"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
@@ -7675,7 +7675,7 @@
       <c r="CX49" s="21"/>
       <c r="CY49" s="10"/>
     </row>
-    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -7792,8 +7792,8 @@
       <c r="CX50" s="30"/>
       <c r="CY50" s="10"/>
     </row>
-    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="80" t="s">
+    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="78" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7802,10 +7802,10 @@
       <c r="C51" s="62">
         <v>3</v>
       </c>
-      <c r="D51" s="82" t="s">
+      <c r="D51" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="86">
+      <c r="E51" s="82">
         <v>6.04</v>
       </c>
       <c r="F51" s="19"/>
@@ -7911,16 +7911,16 @@
       <c r="CX51" s="21"/>
       <c r="CY51" s="10"/>
     </row>
-    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="81"/>
+    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="79"/>
       <c r="B52" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="62">
         <v>3</v>
       </c>
-      <c r="D52" s="83"/>
-      <c r="E52" s="85"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="89"/>
       <c r="F52" s="19"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -8024,8 +8024,8 @@
       <c r="CX52" s="21"/>
       <c r="CY52" s="10"/>
     </row>
-    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="80" t="s">
+    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="78" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -8034,10 +8034,10 @@
       <c r="C53" s="62">
         <v>6</v>
       </c>
-      <c r="D53" s="82" t="s">
+      <c r="D53" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="86">
+      <c r="E53" s="82">
         <v>6.04</v>
       </c>
       <c r="F53" s="19"/>
@@ -8148,16 +8148,16 @@
       <c r="CW53" s="20"/>
       <c r="CX53" s="21"/>
     </row>
-    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="81"/>
+    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="79"/>
       <c r="B54" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="62">
         <v>7</v>
       </c>
-      <c r="D54" s="83"/>
-      <c r="E54" s="85"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="89"/>
       <c r="F54" s="19"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
@@ -8267,8 +8267,8 @@
       <c r="CX54" s="21"/>
       <c r="CY54" s="10"/>
     </row>
-    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="80" t="s">
+    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="78" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -8277,10 +8277,10 @@
       <c r="C55" s="62">
         <v>1</v>
       </c>
-      <c r="D55" s="82" t="s">
+      <c r="D55" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="86">
+      <c r="E55" s="82">
         <v>6.04</v>
       </c>
       <c r="F55" s="19"/>
@@ -8384,16 +8384,16 @@
       <c r="CX55" s="21"/>
       <c r="CY55" s="10"/>
     </row>
-    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="81"/>
+    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="79"/>
       <c r="B56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="62">
         <v>1</v>
       </c>
-      <c r="D56" s="83"/>
-      <c r="E56" s="85"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="89"/>
       <c r="F56" s="19"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
@@ -8494,7 +8494,7 @@
       <c r="CW56" s="20"/>
       <c r="CX56" s="21"/>
     </row>
-    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>23</v>
       </c>
@@ -8611,8 +8611,8 @@
       <c r="CX57" s="30"/>
       <c r="CY57" s="17"/>
     </row>
-    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="89" t="s">
+    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -8621,10 +8621,10 @@
       <c r="C58" s="62">
         <v>4</v>
       </c>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="79">
+      <c r="E58" s="84">
         <v>6.04</v>
       </c>
       <c r="F58" s="19"/>
@@ -8734,16 +8734,16 @@
       <c r="CX58" s="21"/>
       <c r="CY58" s="17"/>
     </row>
-    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="90"/>
+    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="97"/>
       <c r="B59" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="62">
         <v>10</v>
       </c>
-      <c r="D59" s="83"/>
-      <c r="E59" s="79"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="84"/>
       <c r="F59" s="19"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
@@ -8851,8 +8851,8 @@
       <c r="CX59" s="21"/>
       <c r="CY59" s="17"/>
     </row>
-    <row r="60" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A60" s="89" t="s">
+    <row r="60" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A60" s="96" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -8861,10 +8861,10 @@
       <c r="C60" s="62">
         <v>2</v>
       </c>
-      <c r="D60" s="82" t="s">
+      <c r="D60" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="79">
+      <c r="E60" s="84">
         <v>6.04</v>
       </c>
       <c r="F60" s="19"/>
@@ -8970,16 +8970,16 @@
       <c r="CX60" s="21"/>
       <c r="CY60" s="17"/>
     </row>
-    <row r="61" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A61" s="90"/>
+    <row r="61" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A61" s="97"/>
       <c r="B61" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="62">
         <v>2</v>
       </c>
-      <c r="D61" s="83"/>
-      <c r="E61" s="79"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="84"/>
       <c r="F61" s="19"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -9083,8 +9083,8 @@
       <c r="CX61" s="21"/>
       <c r="CY61" s="17"/>
     </row>
-    <row r="62" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A62" s="89" t="s">
+    <row r="62" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A62" s="96" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -9093,10 +9093,10 @@
       <c r="C62" s="62">
         <v>2</v>
       </c>
-      <c r="D62" s="82" t="s">
+      <c r="D62" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="79">
+      <c r="E62" s="84">
         <v>6.04</v>
       </c>
       <c r="F62" s="19"/>
@@ -9202,16 +9202,16 @@
       <c r="CX62" s="21"/>
       <c r="CY62" s="17"/>
     </row>
-    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="90"/>
+    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="97"/>
       <c r="B63" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="62">
         <v>2</v>
       </c>
-      <c r="D63" s="83"/>
-      <c r="E63" s="79"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="84"/>
       <c r="F63" s="19"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
@@ -9315,8 +9315,8 @@
       <c r="CX63" s="21"/>
       <c r="CY63" s="17"/>
     </row>
-    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="80" t="s">
+    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="78" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -9325,10 +9325,10 @@
       <c r="C64" s="62">
         <v>4</v>
       </c>
-      <c r="D64" s="82" t="s">
+      <c r="D64" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="79">
+      <c r="E64" s="84">
         <v>6.04</v>
       </c>
       <c r="F64" s="19"/>
@@ -9438,16 +9438,16 @@
       <c r="CX64" s="21"/>
       <c r="CY64" s="17"/>
     </row>
-    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="81"/>
+    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="79"/>
       <c r="B65" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="62">
         <v>4</v>
       </c>
-      <c r="D65" s="83"/>
-      <c r="E65" s="79"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="84"/>
       <c r="F65" s="19"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
@@ -9555,7 +9555,7 @@
       <c r="CX65" s="21"/>
       <c r="CY65" s="17"/>
     </row>
-    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>24</v>
       </c>
@@ -9672,8 +9672,8 @@
       <c r="CX66" s="30"/>
       <c r="CY66" s="17"/>
     </row>
-    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="80" t="s">
+    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="78" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -9682,10 +9682,10 @@
       <c r="C67" s="62">
         <v>4</v>
       </c>
-      <c r="D67" s="78">
+      <c r="D67" s="81">
         <v>23.03</v>
       </c>
-      <c r="E67" s="79">
+      <c r="E67" s="84">
         <v>6.04</v>
       </c>
       <c r="F67" s="19"/>
@@ -9793,16 +9793,16 @@
       <c r="CX67" s="21"/>
       <c r="CY67" s="17"/>
     </row>
-    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="81"/>
+    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="79"/>
       <c r="B68" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="62">
         <v>5</v>
       </c>
-      <c r="D68" s="78"/>
-      <c r="E68" s="79"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="84"/>
       <c r="F68" s="19"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
@@ -9908,8 +9908,8 @@
       <c r="CX68" s="21"/>
       <c r="CY68" s="17"/>
     </row>
-    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="80" t="s">
+    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="78" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -9918,10 +9918,10 @@
       <c r="C69" s="62">
         <v>2</v>
       </c>
-      <c r="D69" s="78">
+      <c r="D69" s="81">
         <v>23.03</v>
       </c>
-      <c r="E69" s="79">
+      <c r="E69" s="84">
         <v>6.04</v>
       </c>
       <c r="F69" s="19"/>
@@ -10025,16 +10025,16 @@
       <c r="CX69" s="21"/>
       <c r="CY69" s="17"/>
     </row>
-    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="81"/>
+    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="79"/>
       <c r="B70" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="62">
         <v>1</v>
       </c>
-      <c r="D70" s="78"/>
-      <c r="E70" s="79"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="84"/>
       <c r="F70" s="19"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -10136,8 +10136,8 @@
       <c r="CX70" s="21"/>
       <c r="CY70" s="17"/>
     </row>
-    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="80" t="s">
+    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="78" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -10146,10 +10146,10 @@
       <c r="C71" s="62">
         <v>2</v>
       </c>
-      <c r="D71" s="78">
+      <c r="D71" s="81">
         <v>23.03</v>
       </c>
-      <c r="E71" s="79">
+      <c r="E71" s="84">
         <v>6.04</v>
       </c>
       <c r="F71" s="19"/>
@@ -10253,16 +10253,16 @@
       <c r="CX71" s="21"/>
       <c r="CY71" s="17"/>
     </row>
-    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="81"/>
+    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="79"/>
       <c r="B72" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="62">
         <v>2</v>
       </c>
-      <c r="D72" s="78"/>
-      <c r="E72" s="79"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="84"/>
       <c r="F72" s="19"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -10364,8 +10364,8 @@
       <c r="CX72" s="21"/>
       <c r="CY72" s="17"/>
     </row>
-    <row r="73" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A73" s="80" t="s">
+    <row r="73" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A73" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -10374,10 +10374,10 @@
       <c r="C73" s="62">
         <v>3</v>
       </c>
-      <c r="D73" s="78">
+      <c r="D73" s="81">
         <v>23.03</v>
       </c>
-      <c r="E73" s="79">
+      <c r="E73" s="84">
         <v>6.04</v>
       </c>
       <c r="F73" s="19"/>
@@ -10481,16 +10481,16 @@
       <c r="CX73" s="21"/>
       <c r="CY73" s="17"/>
     </row>
-    <row r="74" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A74" s="81"/>
+    <row r="74" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A74" s="79"/>
       <c r="B74" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="62">
         <v>3</v>
       </c>
-      <c r="D74" s="78"/>
-      <c r="E74" s="79"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="84"/>
       <c r="F74" s="19"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
@@ -10592,8 +10592,8 @@
       <c r="CX74" s="21"/>
       <c r="CY74" s="17"/>
     </row>
-    <row r="75" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A75" s="80" t="s">
+    <row r="75" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A75" s="78" t="s">
         <v>45</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -10602,10 +10602,10 @@
       <c r="C75" s="62">
         <v>1</v>
       </c>
-      <c r="D75" s="78">
+      <c r="D75" s="81">
         <v>23.03</v>
       </c>
-      <c r="E75" s="79">
+      <c r="E75" s="84">
         <v>6.04</v>
       </c>
       <c r="F75" s="19"/>
@@ -10707,16 +10707,16 @@
       <c r="CX75" s="21"/>
       <c r="CY75" s="17"/>
     </row>
-    <row r="76" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A76" s="81"/>
+    <row r="76" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A76" s="79"/>
       <c r="B76" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="62">
         <v>3</v>
       </c>
-      <c r="D76" s="78"/>
-      <c r="E76" s="79"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="84"/>
       <c r="F76" s="19"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
@@ -10818,16 +10818,16 @@
       <c r="CX76" s="21"/>
       <c r="CY76" s="17"/>
     </row>
-    <row r="77" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="62"/>
-      <c r="D77" s="99">
+      <c r="D77" s="90">
         <v>44292</v>
       </c>
-      <c r="E77" s="100"/>
+      <c r="E77" s="94"/>
       <c r="F77" s="19"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
@@ -10929,7 +10929,7 @@
       <c r="CX77" s="21"/>
       <c r="CY77" s="17"/>
     </row>
-    <row r="78" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>15</v>
       </c>
@@ -11046,7 +11046,7 @@
       <c r="CX78" s="34"/>
       <c r="CY78" s="17"/>
     </row>
-    <row r="79" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>20</v>
       </c>
@@ -11163,8 +11163,8 @@
       <c r="CX79" s="30"/>
       <c r="CY79" s="17"/>
     </row>
-    <row r="80" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A80" s="80" t="s">
+    <row r="80" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A80" s="78" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -11173,10 +11173,10 @@
       <c r="C80" s="62">
         <v>3</v>
       </c>
-      <c r="D80" s="82">
+      <c r="D80" s="80">
         <v>6.04</v>
       </c>
-      <c r="E80" s="84">
+      <c r="E80" s="83">
         <v>4.05</v>
       </c>
       <c r="F80" s="19"/>
@@ -11284,16 +11284,16 @@
       <c r="CX80" s="21"/>
       <c r="CY80" s="17"/>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A81" s="81"/>
+    <row r="81" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A81" s="79"/>
       <c r="B81" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="62">
         <v>4</v>
       </c>
-      <c r="D81" s="83"/>
-      <c r="E81" s="85"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="89"/>
       <c r="F81" s="19"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
@@ -11399,8 +11399,8 @@
       <c r="CX81" s="21"/>
       <c r="CY81" s="17"/>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A82" s="80" t="s">
+    <row r="82" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A82" s="78" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -11409,10 +11409,10 @@
       <c r="C82" s="62">
         <v>1</v>
       </c>
-      <c r="D82" s="82">
+      <c r="D82" s="80">
         <v>6.04</v>
       </c>
-      <c r="E82" s="79">
+      <c r="E82" s="84">
         <v>4.05</v>
       </c>
       <c r="F82" s="19"/>
@@ -11516,16 +11516,16 @@
       <c r="CX82" s="21"/>
       <c r="CY82" s="17"/>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A83" s="81"/>
+    <row r="83" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A83" s="79"/>
       <c r="B83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="62">
         <v>1</v>
       </c>
-      <c r="D83" s="83"/>
-      <c r="E83" s="79"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="84"/>
       <c r="F83" s="19"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
@@ -11627,8 +11627,8 @@
       <c r="CX83" s="21"/>
       <c r="CY83" s="17"/>
     </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A84" s="80" t="s">
+    <row r="84" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A84" s="78" t="s">
         <v>60</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -11637,10 +11637,10 @@
       <c r="C84" s="62">
         <v>2</v>
       </c>
-      <c r="D84" s="82">
+      <c r="D84" s="80">
         <v>6.04</v>
       </c>
-      <c r="E84" s="84">
+      <c r="E84" s="83">
         <v>4.05</v>
       </c>
       <c r="F84" s="19"/>
@@ -11744,16 +11744,16 @@
       <c r="CX84" s="21"/>
       <c r="CY84" s="17"/>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A85" s="81"/>
+    <row r="85" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A85" s="79"/>
       <c r="B85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="62">
         <v>1</v>
       </c>
-      <c r="D85" s="83"/>
-      <c r="E85" s="85"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="89"/>
       <c r="F85" s="19"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
@@ -11855,7 +11855,7 @@
       <c r="CX85" s="21"/>
       <c r="CY85" s="17"/>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>21</v>
       </c>
@@ -11972,8 +11972,8 @@
       <c r="CX86" s="30"/>
       <c r="CY86" s="17"/>
     </row>
-    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="80" t="s">
+    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="78" t="s">
         <v>54</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -11983,10 +11983,10 @@
         <f t="shared" ref="C87:C94" si="1">SUM(F87:CX87)</f>
         <v>9</v>
       </c>
-      <c r="D87" s="97">
+      <c r="D87" s="86">
         <v>6.04</v>
       </c>
-      <c r="E87" s="98">
+      <c r="E87" s="85">
         <v>4.05</v>
       </c>
       <c r="F87" s="54"/>
@@ -12104,8 +12104,8 @@
       <c r="CX87" s="53"/>
       <c r="CY87" s="17"/>
     </row>
-    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="81"/>
+    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="79"/>
       <c r="B88" s="6" t="s">
         <v>8</v>
       </c>
@@ -12113,8 +12113,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D88" s="97"/>
-      <c r="E88" s="98"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="85"/>
       <c r="F88" s="54"/>
       <c r="G88" s="52"/>
       <c r="H88" s="52"/>
@@ -12230,8 +12230,8 @@
       <c r="CX88" s="53"/>
       <c r="CY88" s="17"/>
     </row>
-    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="80" t="s">
+    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="78" t="s">
         <v>63</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -12241,10 +12241,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D89" s="97">
+      <c r="D89" s="86">
         <v>6.04</v>
       </c>
-      <c r="E89" s="98">
+      <c r="E89" s="85">
         <v>4.05</v>
       </c>
       <c r="F89" s="54"/>
@@ -12356,8 +12356,8 @@
       <c r="CX89" s="53"/>
       <c r="CY89" s="17"/>
     </row>
-    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="81"/>
+    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="79"/>
       <c r="B90" s="6" t="s">
         <v>8</v>
       </c>
@@ -12365,8 +12365,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D90" s="97"/>
-      <c r="E90" s="98"/>
+      <c r="D90" s="86"/>
+      <c r="E90" s="85"/>
       <c r="F90" s="54"/>
       <c r="G90" s="52"/>
       <c r="H90" s="52"/>
@@ -12476,8 +12476,8 @@
       <c r="CX90" s="53"/>
       <c r="CY90" s="17"/>
     </row>
-    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="80" t="s">
+    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="78" t="s">
         <v>64</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -12487,10 +12487,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D91" s="97">
+      <c r="D91" s="86">
         <v>6.04</v>
       </c>
-      <c r="E91" s="98">
+      <c r="E91" s="85">
         <v>4.05</v>
       </c>
       <c r="F91" s="54"/>
@@ -12594,8 +12594,8 @@
       <c r="CX91" s="53"/>
       <c r="CY91" s="17"/>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A92" s="81"/>
+    <row r="92" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A92" s="79"/>
       <c r="B92" s="6" t="s">
         <v>8</v>
       </c>
@@ -12603,8 +12603,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D92" s="97"/>
-      <c r="E92" s="98"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="85"/>
       <c r="F92" s="54"/>
       <c r="G92" s="52"/>
       <c r="H92" s="52"/>
@@ -12706,8 +12706,8 @@
       <c r="CX92" s="53"/>
       <c r="CY92" s="17"/>
     </row>
-    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="80" t="s">
+    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="78" t="s">
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -12717,10 +12717,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D93" s="97">
+      <c r="D93" s="86">
         <v>6.04</v>
       </c>
-      <c r="E93" s="98">
+      <c r="E93" s="85">
         <v>4.05</v>
       </c>
       <c r="F93" s="54"/>
@@ -12824,8 +12824,8 @@
       <c r="CX93" s="53"/>
       <c r="CY93" s="17"/>
     </row>
-    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="81"/>
+    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="79"/>
       <c r="B94" s="6" t="s">
         <v>8</v>
       </c>
@@ -12833,8 +12833,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D94" s="97"/>
-      <c r="E94" s="98"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="85"/>
       <c r="F94" s="54"/>
       <c r="G94" s="52"/>
       <c r="H94" s="52"/>
@@ -12936,7 +12936,7 @@
       <c r="CX94" s="53"/>
       <c r="CY94" s="17"/>
     </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>22</v>
       </c>
@@ -13051,8 +13051,8 @@
       <c r="CX95" s="30"/>
       <c r="CY95" s="17"/>
     </row>
-    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="80" t="s">
+    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="78" t="s">
         <v>71</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -13061,10 +13061,10 @@
       <c r="C96" s="62">
         <v>4</v>
       </c>
-      <c r="D96" s="82">
+      <c r="D96" s="80">
         <v>6.04</v>
       </c>
-      <c r="E96" s="86">
+      <c r="E96" s="82">
         <v>4.05</v>
       </c>
       <c r="F96" s="19"/>
@@ -13170,16 +13170,16 @@
       <c r="CX96" s="21"/>
       <c r="CY96" s="10"/>
     </row>
-    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="81"/>
+    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="79"/>
       <c r="B97" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="62">
         <v>5</v>
       </c>
-      <c r="D97" s="83"/>
-      <c r="E97" s="84"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="83"/>
       <c r="F97" s="19"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
@@ -13283,8 +13283,8 @@
       <c r="CX97" s="21"/>
       <c r="CY97" s="10"/>
     </row>
-    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="80" t="s">
+    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="78" t="s">
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -13293,10 +13293,10 @@
       <c r="C98" s="62">
         <v>5</v>
       </c>
-      <c r="D98" s="82">
+      <c r="D98" s="80">
         <v>6.04</v>
       </c>
-      <c r="E98" s="84">
+      <c r="E98" s="83">
         <v>4.05</v>
       </c>
       <c r="F98" s="19"/>
@@ -13406,16 +13406,16 @@
       <c r="CX98" s="21"/>
       <c r="CY98" s="10"/>
     </row>
-    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="81"/>
+    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="79"/>
       <c r="B99" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="62">
         <v>7</v>
       </c>
-      <c r="D99" s="83"/>
-      <c r="E99" s="84"/>
+      <c r="D99" s="88"/>
+      <c r="E99" s="83"/>
       <c r="F99" s="19"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
@@ -13523,8 +13523,8 @@
       <c r="CX99" s="21"/>
       <c r="CY99" s="10"/>
     </row>
-    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="80" t="s">
+    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="78" t="s">
         <v>72</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -13533,10 +13533,10 @@
       <c r="C100" s="62">
         <v>2</v>
       </c>
-      <c r="D100" s="82">
+      <c r="D100" s="80">
         <v>6.04</v>
       </c>
-      <c r="E100" s="84">
+      <c r="E100" s="83">
         <v>4.05</v>
       </c>
       <c r="F100" s="19"/>
@@ -13644,16 +13644,16 @@
       <c r="CX100" s="21"/>
       <c r="CY100" s="10"/>
     </row>
-    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="81"/>
+    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="79"/>
       <c r="B101" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="62">
         <v>2</v>
       </c>
-      <c r="D101" s="83"/>
-      <c r="E101" s="84"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="83"/>
       <c r="F101" s="19"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
@@ -13759,8 +13759,8 @@
       <c r="CX101" s="21"/>
       <c r="CY101" s="10"/>
     </row>
-    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="80" t="s">
+    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="78" t="s">
         <v>73</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -13769,10 +13769,10 @@
       <c r="C102" s="62">
         <v>6</v>
       </c>
-      <c r="D102" s="82">
+      <c r="D102" s="80">
         <v>6.04</v>
       </c>
-      <c r="E102" s="84">
+      <c r="E102" s="83">
         <v>4.05</v>
       </c>
       <c r="F102" s="19"/>
@@ -13880,16 +13880,16 @@
       <c r="CX102" s="21"/>
       <c r="CY102" s="10"/>
     </row>
-    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="81"/>
+    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="79"/>
       <c r="B103" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="62">
         <v>7.5</v>
       </c>
-      <c r="D103" s="83"/>
-      <c r="E103" s="85"/>
+      <c r="D103" s="88"/>
+      <c r="E103" s="89"/>
       <c r="F103" s="19"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
@@ -13995,8 +13995,8 @@
       <c r="CX103" s="21"/>
       <c r="CY103" s="10"/>
     </row>
-    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="80" t="s">
+    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="78" t="s">
         <v>74</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -14005,10 +14005,10 @@
       <c r="C104" s="62">
         <v>0.5</v>
       </c>
-      <c r="D104" s="82">
+      <c r="D104" s="80">
         <v>6.04</v>
       </c>
-      <c r="E104" s="86">
+      <c r="E104" s="82">
         <v>4.05</v>
       </c>
       <c r="F104" s="19"/>
@@ -14112,16 +14112,16 @@
       <c r="CX104" s="21"/>
       <c r="CY104" s="17"/>
     </row>
-    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="81"/>
+    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="79"/>
       <c r="B105" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="62">
         <v>0.5</v>
       </c>
-      <c r="D105" s="83"/>
-      <c r="E105" s="85"/>
+      <c r="D105" s="88"/>
+      <c r="E105" s="89"/>
       <c r="F105" s="19"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
@@ -14223,7 +14223,7 @@
       <c r="CX105" s="21"/>
       <c r="CY105" s="17"/>
     </row>
-    <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>23</v>
       </c>
@@ -14340,8 +14340,8 @@
       <c r="CX106" s="30"/>
       <c r="CY106" s="17"/>
     </row>
-    <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="80" t="s">
+    <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="78" t="s">
         <v>55</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -14350,10 +14350,10 @@
       <c r="C107" s="62">
         <v>2</v>
       </c>
-      <c r="D107" s="82">
+      <c r="D107" s="80">
         <v>6.04</v>
       </c>
-      <c r="E107" s="86">
+      <c r="E107" s="82">
         <v>4.05</v>
       </c>
       <c r="F107" s="19"/>
@@ -14457,8 +14457,8 @@
       <c r="CX107" s="21"/>
       <c r="CY107" s="17"/>
     </row>
-    <row r="108" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="81"/>
+    <row r="108" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="79"/>
       <c r="B108" s="6" t="s">
         <v>8</v>
       </c>
@@ -14466,8 +14466,8 @@
         <f>SUM(F108:BX108)</f>
         <v>2</v>
       </c>
-      <c r="D108" s="83"/>
-      <c r="E108" s="84"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="83"/>
       <c r="F108" s="19"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
@@ -14569,8 +14569,8 @@
       <c r="CX108" s="21"/>
       <c r="CY108" s="17"/>
     </row>
-    <row r="109" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="80" t="s">
+    <row r="109" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="78" t="s">
         <v>69</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -14579,10 +14579,10 @@
       <c r="C109" s="62">
         <v>3</v>
       </c>
-      <c r="D109" s="82">
+      <c r="D109" s="80">
         <v>6.04</v>
       </c>
-      <c r="E109" s="84">
+      <c r="E109" s="83">
         <v>4.05</v>
       </c>
       <c r="F109" s="19"/>
@@ -14690,16 +14690,16 @@
       <c r="CX109" s="21"/>
       <c r="CY109" s="10"/>
     </row>
-    <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="81"/>
+    <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="79"/>
       <c r="B110" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="62">
         <v>4.5</v>
       </c>
-      <c r="D110" s="83"/>
-      <c r="E110" s="84"/>
+      <c r="D110" s="88"/>
+      <c r="E110" s="83"/>
       <c r="F110" s="19"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
@@ -14805,8 +14805,8 @@
       <c r="CX110" s="21"/>
       <c r="CY110" s="10"/>
     </row>
-    <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="80" t="s">
+    <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="78" t="s">
         <v>56</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -14815,10 +14815,10 @@
       <c r="C111" s="62">
         <v>2</v>
       </c>
-      <c r="D111" s="82">
+      <c r="D111" s="80">
         <v>6.04</v>
       </c>
-      <c r="E111" s="102">
+      <c r="E111" s="87">
         <v>4.05</v>
       </c>
       <c r="F111" s="19"/>
@@ -14926,16 +14926,16 @@
       <c r="CX111" s="21"/>
       <c r="CY111" s="10"/>
     </row>
-    <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="81"/>
+    <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="79"/>
       <c r="B112" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="62">
         <v>2</v>
       </c>
-      <c r="D112" s="83"/>
-      <c r="E112" s="102"/>
+      <c r="D112" s="88"/>
+      <c r="E112" s="87"/>
       <c r="F112" s="19"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
@@ -15041,8 +15041,8 @@
       <c r="CX112" s="21"/>
       <c r="CY112" s="10"/>
     </row>
-    <row r="113" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="80" t="s">
+    <row r="113" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="78" t="s">
         <v>62</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -15051,10 +15051,10 @@
       <c r="C113" s="62">
         <v>3</v>
       </c>
-      <c r="D113" s="82">
+      <c r="D113" s="80">
         <v>6.04</v>
       </c>
-      <c r="E113" s="102">
+      <c r="E113" s="87">
         <v>4.05</v>
       </c>
       <c r="F113" s="19"/>
@@ -15164,16 +15164,16 @@
       <c r="CX113" s="21"/>
       <c r="CY113" s="10"/>
     </row>
-    <row r="114" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="81"/>
+    <row r="114" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="79"/>
       <c r="B114" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="62">
         <v>3.5</v>
       </c>
-      <c r="D114" s="83"/>
-      <c r="E114" s="102"/>
+      <c r="D114" s="88"/>
+      <c r="E114" s="87"/>
       <c r="F114" s="19"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
@@ -15281,8 +15281,8 @@
       <c r="CX114" s="21"/>
       <c r="CY114" s="10"/>
     </row>
-    <row r="115" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="80" t="s">
+    <row r="115" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="78" t="s">
         <v>70</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -15291,10 +15291,10 @@
       <c r="C115" s="62">
         <v>1.5</v>
       </c>
-      <c r="D115" s="82">
+      <c r="D115" s="80">
         <v>6.04</v>
       </c>
-      <c r="E115" s="79">
+      <c r="E115" s="84">
         <v>4.05</v>
       </c>
       <c r="F115" s="19"/>
@@ -15400,16 +15400,16 @@
       <c r="CX115" s="21"/>
       <c r="CY115" s="17"/>
     </row>
-    <row r="116" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="81"/>
+    <row r="116" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="79"/>
       <c r="B116" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="62">
         <v>2</v>
       </c>
-      <c r="D116" s="83"/>
-      <c r="E116" s="79"/>
+      <c r="D116" s="88"/>
+      <c r="E116" s="84"/>
       <c r="F116" s="19"/>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
@@ -15513,7 +15513,7 @@
       <c r="CX116" s="21"/>
       <c r="CY116" s="17"/>
     </row>
-    <row r="117" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>24</v>
       </c>
@@ -15630,8 +15630,8 @@
       <c r="CX117" s="30"/>
       <c r="CY117" s="17"/>
     </row>
-    <row r="118" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="80" t="s">
+    <row r="118" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="78" t="s">
         <v>57</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -15640,10 +15640,10 @@
       <c r="C118" s="62">
         <v>6</v>
       </c>
-      <c r="D118" s="82">
+      <c r="D118" s="80">
         <v>6.04</v>
       </c>
-      <c r="E118" s="79">
+      <c r="E118" s="84">
         <v>4.05</v>
       </c>
       <c r="F118" s="19"/>
@@ -15747,16 +15747,16 @@
       <c r="CX118" s="21"/>
       <c r="CY118" s="17"/>
     </row>
-    <row r="119" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="81"/>
+    <row r="119" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="79"/>
       <c r="B119" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="62">
         <v>5</v>
       </c>
-      <c r="D119" s="83"/>
-      <c r="E119" s="79"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="84"/>
       <c r="F119" s="19"/>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
@@ -15858,8 +15858,8 @@
       <c r="CX119" s="21"/>
       <c r="CY119" s="17"/>
     </row>
-    <row r="120" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="80" t="s">
+    <row r="120" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="78" t="s">
         <v>56</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -15868,10 +15868,10 @@
       <c r="C120" s="62">
         <v>1</v>
       </c>
-      <c r="D120" s="82">
+      <c r="D120" s="80">
         <v>6.04</v>
       </c>
-      <c r="E120" s="79">
+      <c r="E120" s="84">
         <v>4.05</v>
       </c>
       <c r="F120" s="19"/>
@@ -15975,16 +15975,16 @@
       <c r="CX120" s="21"/>
       <c r="CY120" s="17"/>
     </row>
-    <row r="121" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="81"/>
+    <row r="121" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="79"/>
       <c r="B121" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="62">
         <v>3</v>
       </c>
-      <c r="D121" s="83"/>
-      <c r="E121" s="79"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="84"/>
       <c r="F121" s="19"/>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
@@ -16086,8 +16086,8 @@
       <c r="CX121" s="21"/>
       <c r="CY121" s="17"/>
     </row>
-    <row r="122" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="80" t="s">
+    <row r="122" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="78" t="s">
         <v>58</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -16096,10 +16096,10 @@
       <c r="C122" s="62">
         <v>1.5</v>
       </c>
-      <c r="D122" s="82">
+      <c r="D122" s="80">
         <v>6.04</v>
       </c>
-      <c r="E122" s="79">
+      <c r="E122" s="84">
         <v>4.05</v>
       </c>
       <c r="F122" s="19"/>
@@ -16204,16 +16204,16 @@
       <c r="CX122" s="21"/>
       <c r="CY122" s="17"/>
     </row>
-    <row r="123" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="81"/>
+    <row r="123" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="79"/>
       <c r="B123" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="62">
         <v>1.5</v>
       </c>
-      <c r="D123" s="83"/>
-      <c r="E123" s="79"/>
+      <c r="D123" s="88"/>
+      <c r="E123" s="84"/>
       <c r="F123" s="19"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
@@ -16319,8 +16319,8 @@
       <c r="CX123" s="21"/>
       <c r="CY123" s="17"/>
     </row>
-    <row r="124" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A124" s="80" t="s">
+    <row r="124" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A124" s="78" t="s">
         <v>59</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -16329,10 +16329,10 @@
       <c r="C124" s="62">
         <v>2</v>
       </c>
-      <c r="D124" s="82">
+      <c r="D124" s="80">
         <v>6.04</v>
       </c>
-      <c r="E124" s="79">
+      <c r="E124" s="84">
         <v>4.05</v>
       </c>
       <c r="F124" s="19"/>
@@ -16438,16 +16438,16 @@
       <c r="CX124" s="21"/>
       <c r="CY124" s="17"/>
     </row>
-    <row r="125" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A125" s="81"/>
+    <row r="125" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A125" s="79"/>
       <c r="B125" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="62">
         <v>2.5</v>
       </c>
-      <c r="D125" s="78"/>
-      <c r="E125" s="79"/>
+      <c r="D125" s="81"/>
+      <c r="E125" s="84"/>
       <c r="F125" s="19"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
@@ -16549,8 +16549,8 @@
       <c r="CX125" s="21"/>
       <c r="CY125" s="17"/>
     </row>
-    <row r="126" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="80" t="s">
+    <row r="126" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="78" t="s">
         <v>68</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -16559,10 +16559,10 @@
       <c r="C126" s="62">
         <v>0.5</v>
       </c>
-      <c r="D126" s="82">
+      <c r="D126" s="80">
         <v>6.04</v>
       </c>
-      <c r="E126" s="79">
+      <c r="E126" s="84">
         <v>4.05</v>
       </c>
       <c r="F126" s="19"/>
@@ -16665,16 +16665,16 @@
       <c r="CX126" s="21"/>
       <c r="CY126" s="17"/>
     </row>
-    <row r="127" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="81"/>
+    <row r="127" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="79"/>
       <c r="B127" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="62">
         <v>3</v>
       </c>
-      <c r="D127" s="78"/>
-      <c r="E127" s="79"/>
+      <c r="D127" s="81"/>
+      <c r="E127" s="84"/>
       <c r="F127" s="19"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
@@ -16775,16 +16775,16 @@
       <c r="CX127" s="21"/>
       <c r="CY127" s="17"/>
     </row>
-    <row r="128" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="62"/>
-      <c r="D128" s="99">
+      <c r="D128" s="90">
         <v>44320</v>
       </c>
-      <c r="E128" s="101"/>
+      <c r="E128" s="91"/>
       <c r="F128" s="19"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
@@ -16883,7 +16883,7 @@
       <c r="CX128" s="21"/>
       <c r="CY128" s="17"/>
     </row>
-    <row r="129" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>67</v>
       </c>
@@ -16998,7 +16998,7 @@
       <c r="CX129" s="34"/>
       <c r="CY129" s="17"/>
     </row>
-    <row r="130" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>20</v>
       </c>
@@ -17113,18 +17113,18 @@
       <c r="CX130" s="30"/>
       <c r="CY130" s="17"/>
     </row>
-    <row r="131" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A131" s="80"/>
+    <row r="131" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A131" s="78"/>
       <c r="B131" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="78">
+      <c r="D131" s="81">
         <v>4.05</v>
       </c>
-      <c r="E131" s="79">
+      <c r="E131" s="84">
         <v>18.05</v>
       </c>
       <c r="F131" s="19"/>
@@ -17226,16 +17226,16 @@
       <c r="CX131" s="21"/>
       <c r="CY131" s="17"/>
     </row>
-    <row r="132" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A132" s="81"/>
+    <row r="132" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A132" s="79"/>
       <c r="B132" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="78"/>
-      <c r="E132" s="79"/>
+      <c r="D132" s="81"/>
+      <c r="E132" s="84"/>
       <c r="F132" s="19"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
@@ -17335,7 +17335,7 @@
       <c r="CX132" s="21"/>
       <c r="CY132" s="17"/>
     </row>
-    <row r="133" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>21</v>
       </c>
@@ -17450,18 +17450,18 @@
       <c r="CX133" s="30"/>
       <c r="CY133" s="17"/>
     </row>
-    <row r="134" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A134" s="80"/>
+    <row r="134" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A134" s="78"/>
       <c r="B134" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C134" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="78">
+      <c r="D134" s="81">
         <v>4.05</v>
       </c>
-      <c r="E134" s="79">
+      <c r="E134" s="84">
         <v>18.05</v>
       </c>
       <c r="F134" s="19"/>
@@ -17563,16 +17563,16 @@
       <c r="CX134" s="21"/>
       <c r="CY134" s="17"/>
     </row>
-    <row r="135" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A135" s="81"/>
+    <row r="135" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A135" s="79"/>
       <c r="B135" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="78"/>
-      <c r="E135" s="79"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="84"/>
       <c r="F135" s="19"/>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
@@ -17672,7 +17672,7 @@
       <c r="CX135" s="21"/>
       <c r="CY135" s="17"/>
     </row>
-    <row r="136" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>22</v>
       </c>
@@ -17787,8 +17787,8 @@
       <c r="CX136" s="30"/>
       <c r="CY136" s="17"/>
     </row>
-    <row r="137" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A137" s="80" t="s">
+    <row r="137" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A137" s="78" t="s">
         <v>78</v>
       </c>
       <c r="B137" s="6" t="s">
@@ -17797,10 +17797,10 @@
       <c r="C137" s="62">
         <v>3</v>
       </c>
-      <c r="D137" s="78">
+      <c r="D137" s="81">
         <v>4.05</v>
       </c>
-      <c r="E137" s="79">
+      <c r="E137" s="84">
         <v>18.05</v>
       </c>
       <c r="F137" s="19"/>
@@ -17910,16 +17910,16 @@
       <c r="CX137" s="21"/>
       <c r="CY137" s="17"/>
     </row>
-    <row r="138" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A138" s="81"/>
+    <row r="138" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A138" s="79"/>
       <c r="B138" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="62">
         <v>4</v>
       </c>
-      <c r="D138" s="78"/>
-      <c r="E138" s="79"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="84"/>
       <c r="F138" s="19"/>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -18027,8 +18027,8 @@
       <c r="CX138" s="21"/>
       <c r="CY138" s="17"/>
     </row>
-    <row r="139" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="80" t="s">
+    <row r="139" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="78" t="s">
         <v>79</v>
       </c>
       <c r="B139" s="6" t="s">
@@ -18037,10 +18037,10 @@
       <c r="C139" s="62">
         <v>2</v>
       </c>
-      <c r="D139" s="78">
+      <c r="D139" s="81">
         <v>4.05</v>
       </c>
-      <c r="E139" s="79">
+      <c r="E139" s="84">
         <v>18.05</v>
       </c>
       <c r="F139" s="19"/>
@@ -18146,16 +18146,16 @@
       <c r="CX139" s="21"/>
       <c r="CY139" s="17"/>
     </row>
-    <row r="140" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="81"/>
+    <row r="140" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="79"/>
       <c r="B140" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="62">
         <v>2</v>
       </c>
-      <c r="D140" s="78"/>
-      <c r="E140" s="79"/>
+      <c r="D140" s="81"/>
+      <c r="E140" s="84"/>
       <c r="F140" s="19"/>
       <c r="G140" s="20"/>
       <c r="H140" s="20"/>
@@ -18259,7 +18259,7 @@
       <c r="CX140" s="21"/>
       <c r="CY140" s="17"/>
     </row>
-    <row r="141" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>23</v>
       </c>
@@ -18374,8 +18374,8 @@
       <c r="CX141" s="30"/>
       <c r="CY141" s="17"/>
     </row>
-    <row r="142" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A142" s="80" t="s">
+    <row r="142" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A142" s="78" t="s">
         <v>76</v>
       </c>
       <c r="B142" s="6" t="s">
@@ -18384,10 +18384,10 @@
       <c r="C142" s="62">
         <v>2</v>
       </c>
-      <c r="D142" s="78">
+      <c r="D142" s="81">
         <v>4.05</v>
       </c>
-      <c r="E142" s="79">
+      <c r="E142" s="84">
         <v>18.05</v>
       </c>
       <c r="F142" s="19"/>
@@ -18495,16 +18495,16 @@
       <c r="CX142" s="21"/>
       <c r="CY142" s="17"/>
     </row>
-    <row r="143" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A143" s="81"/>
+    <row r="143" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A143" s="79"/>
       <c r="B143" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="62">
         <v>4</v>
       </c>
-      <c r="D143" s="78"/>
-      <c r="E143" s="79"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="84"/>
       <c r="F143" s="19"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -18610,8 +18610,8 @@
       <c r="CX143" s="21"/>
       <c r="CY143" s="17"/>
     </row>
-    <row r="144" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="80" t="s">
+    <row r="144" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="78" t="s">
         <v>75</v>
       </c>
       <c r="B144" s="6" t="s">
@@ -18620,10 +18620,10 @@
       <c r="C144" s="62">
         <v>5</v>
       </c>
-      <c r="D144" s="78">
+      <c r="D144" s="81">
         <v>4.05</v>
       </c>
-      <c r="E144" s="79">
+      <c r="E144" s="84">
         <v>18.05</v>
       </c>
       <c r="F144" s="19"/>
@@ -18735,16 +18735,16 @@
       <c r="CX144" s="21"/>
       <c r="CY144" s="17"/>
     </row>
-    <row r="145" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="81"/>
+    <row r="145" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="79"/>
       <c r="B145" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="62">
         <v>4.5</v>
       </c>
-      <c r="D145" s="78"/>
-      <c r="E145" s="79"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="84"/>
       <c r="F145" s="19"/>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
@@ -18854,8 +18854,8 @@
       <c r="CX145" s="21"/>
       <c r="CY145" s="17"/>
     </row>
-    <row r="146" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="80" t="s">
+    <row r="146" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="78" t="s">
         <v>77</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -18864,10 +18864,10 @@
       <c r="C146" s="62">
         <v>1</v>
       </c>
-      <c r="D146" s="78">
+      <c r="D146" s="81">
         <v>4.05</v>
       </c>
-      <c r="E146" s="79">
+      <c r="E146" s="84">
         <v>18.05</v>
       </c>
       <c r="F146" s="19"/>
@@ -18971,16 +18971,16 @@
       <c r="CX146" s="21"/>
       <c r="CY146" s="17"/>
     </row>
-    <row r="147" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="81"/>
+    <row r="147" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="79"/>
       <c r="B147" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="62">
         <v>1</v>
       </c>
-      <c r="D147" s="78"/>
-      <c r="E147" s="79"/>
+      <c r="D147" s="81"/>
+      <c r="E147" s="84"/>
       <c r="F147" s="19"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
@@ -19082,7 +19082,7 @@
       <c r="CX147" s="21"/>
       <c r="CY147" s="17"/>
     </row>
-    <row r="148" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>24</v>
       </c>
@@ -19197,18 +19197,18 @@
       <c r="CX148" s="30"/>
       <c r="CY148" s="17"/>
     </row>
-    <row r="149" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A149" s="80"/>
+    <row r="149" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A149" s="78"/>
       <c r="B149" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C149" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="78">
+      <c r="D149" s="81">
         <v>4.05</v>
       </c>
-      <c r="E149" s="79">
+      <c r="E149" s="84">
         <v>18.05</v>
       </c>
       <c r="F149" s="19"/>
@@ -19310,16 +19310,16 @@
       <c r="CX149" s="21"/>
       <c r="CY149" s="17"/>
     </row>
-    <row r="150" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A150" s="81"/>
+    <row r="150" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A150" s="79"/>
       <c r="B150" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="78"/>
-      <c r="E150" s="79"/>
+      <c r="D150" s="81"/>
+      <c r="E150" s="84"/>
       <c r="F150" s="19"/>
       <c r="G150" s="20"/>
       <c r="H150" s="20"/>
@@ -19419,16 +19419,16 @@
       <c r="CX150" s="21"/>
       <c r="CY150" s="17"/>
     </row>
-    <row r="151" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="62"/>
-      <c r="D151" s="87">
+      <c r="D151" s="92">
         <v>44334</v>
       </c>
-      <c r="E151" s="88"/>
+      <c r="E151" s="93"/>
       <c r="F151" s="19"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
@@ -19528,7 +19528,7 @@
       <c r="CX151" s="21"/>
       <c r="CY151" s="17"/>
     </row>
-    <row r="152" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>18</v>
       </c>
@@ -19643,7 +19643,7 @@
       <c r="CX152" s="34"/>
       <c r="CY152" s="17"/>
     </row>
-    <row r="153" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>20</v>
       </c>
@@ -19758,19 +19758,19 @@
       <c r="CX153" s="30"/>
       <c r="CY153" s="17"/>
     </row>
-    <row r="154" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A154" s="80"/>
+    <row r="154" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A154" s="78"/>
       <c r="B154" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C154" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="78">
-        <v>18.04</v>
-      </c>
-      <c r="E154" s="79">
-        <v>25.04</v>
+      <c r="D154" s="80">
+        <v>18.05</v>
+      </c>
+      <c r="E154" s="84">
+        <v>25.05</v>
       </c>
       <c r="F154" s="19"/>
       <c r="G154" s="20"/>
@@ -19871,16 +19871,16 @@
       <c r="CX154" s="21"/>
       <c r="CY154" s="17"/>
     </row>
-    <row r="155" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A155" s="81"/>
+    <row r="155" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A155" s="79"/>
       <c r="B155" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="78"/>
-      <c r="E155" s="79"/>
+      <c r="D155" s="81"/>
+      <c r="E155" s="84"/>
       <c r="F155" s="19"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
@@ -19980,7 +19980,7 @@
       <c r="CX155" s="21"/>
       <c r="CY155" s="17"/>
     </row>
-    <row r="156" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>21</v>
       </c>
@@ -20095,19 +20095,19 @@
       <c r="CX156" s="30"/>
       <c r="CY156" s="17"/>
     </row>
-    <row r="157" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A157" s="80"/>
+    <row r="157" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A157" s="78"/>
       <c r="B157" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C157" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="78">
-        <v>18.04</v>
-      </c>
-      <c r="E157" s="79">
-        <v>25.04</v>
+      <c r="D157" s="80">
+        <v>18.05</v>
+      </c>
+      <c r="E157" s="84">
+        <v>25.05</v>
       </c>
       <c r="F157" s="19"/>
       <c r="G157" s="20"/>
@@ -20208,16 +20208,16 @@
       <c r="CX157" s="21"/>
       <c r="CY157" s="17"/>
     </row>
-    <row r="158" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A158" s="81"/>
+    <row r="158" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A158" s="79"/>
       <c r="B158" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="78"/>
-      <c r="E158" s="79"/>
+      <c r="D158" s="81"/>
+      <c r="E158" s="84"/>
       <c r="F158" s="19"/>
       <c r="G158" s="20"/>
       <c r="H158" s="20"/>
@@ -20317,7 +20317,7 @@
       <c r="CX158" s="21"/>
       <c r="CY158" s="17"/>
     </row>
-    <row r="159" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>22</v>
       </c>
@@ -20432,8 +20432,8 @@
       <c r="CX159" s="30"/>
       <c r="CY159" s="17"/>
     </row>
-    <row r="160" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A160" s="80" t="s">
+    <row r="160" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A160" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B160" s="6" t="s">
@@ -20442,11 +20442,11 @@
       <c r="C160" s="62">
         <v>3</v>
       </c>
-      <c r="D160" s="82">
-        <v>18.04</v>
-      </c>
-      <c r="E160" s="86">
-        <v>25.04</v>
+      <c r="D160" s="80">
+        <v>18.05</v>
+      </c>
+      <c r="E160" s="84">
+        <v>25.05</v>
       </c>
       <c r="F160" s="19"/>
       <c r="G160" s="20"/>
@@ -20553,15 +20553,15 @@
       <c r="CX160" s="21"/>
       <c r="CY160" s="17"/>
     </row>
-    <row r="161" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A161" s="81"/>
+    <row r="161" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A161" s="79"/>
       <c r="B161" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="62">
         <v>3</v>
       </c>
-      <c r="D161" s="78"/>
+      <c r="D161" s="81"/>
       <c r="E161" s="84"/>
       <c r="F161" s="19"/>
       <c r="G161" s="20"/>
@@ -20668,8 +20668,8 @@
       <c r="CX161" s="21"/>
       <c r="CY161" s="10"/>
     </row>
-    <row r="162" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="80" t="s">
+    <row r="162" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="78" t="s">
         <v>80</v>
       </c>
       <c r="B162" s="6" t="s">
@@ -20678,11 +20678,11 @@
       <c r="C162" s="62">
         <v>1</v>
       </c>
-      <c r="D162" s="82">
-        <v>18.04</v>
-      </c>
-      <c r="E162" s="86">
-        <v>25.04</v>
+      <c r="D162" s="80">
+        <v>18.05</v>
+      </c>
+      <c r="E162" s="84">
+        <v>25.05</v>
       </c>
       <c r="F162" s="19"/>
       <c r="G162" s="20"/>
@@ -20785,15 +20785,15 @@
       <c r="CX162" s="21"/>
       <c r="CY162" s="10"/>
     </row>
-    <row r="163" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="81"/>
+    <row r="163" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="79"/>
       <c r="B163" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="62">
         <v>1.5</v>
       </c>
-      <c r="D163" s="78"/>
+      <c r="D163" s="81"/>
       <c r="E163" s="84"/>
       <c r="F163" s="19"/>
       <c r="G163" s="20"/>
@@ -20896,7 +20896,7 @@
       <c r="CX163" s="21"/>
       <c r="CY163" s="10"/>
     </row>
-    <row r="164" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>23</v>
       </c>
@@ -21010,19 +21010,21 @@
       <c r="CW164" s="29"/>
       <c r="CX164" s="30"/>
     </row>
-    <row r="165" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A165" s="80"/>
+    <row r="165" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A165" s="78" t="s">
+        <v>80</v>
+      </c>
       <c r="B165" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="78">
-        <v>18.04</v>
-      </c>
-      <c r="E165" s="79">
-        <v>25.04</v>
+      <c r="C165" s="62">
+        <v>1</v>
+      </c>
+      <c r="D165" s="80">
+        <v>18.05</v>
+      </c>
+      <c r="E165" s="84">
+        <v>25.05</v>
       </c>
       <c r="F165" s="19"/>
       <c r="G165" s="20"/>
@@ -21114,7 +21116,9 @@
       <c r="CO165" s="20"/>
       <c r="CP165" s="20"/>
       <c r="CQ165" s="20"/>
-      <c r="CR165" s="20"/>
+      <c r="CR165" s="42">
+        <v>1</v>
+      </c>
       <c r="CS165" s="20"/>
       <c r="CT165" s="20"/>
       <c r="CU165" s="20"/>
@@ -21122,16 +21126,16 @@
       <c r="CW165" s="20"/>
       <c r="CX165" s="21"/>
     </row>
-    <row r="166" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A166" s="81"/>
+    <row r="166" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A166" s="79"/>
       <c r="B166" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="78"/>
-      <c r="E166" s="79"/>
+      <c r="C166" s="62">
+        <v>1</v>
+      </c>
+      <c r="D166" s="81"/>
+      <c r="E166" s="84"/>
       <c r="F166" s="19"/>
       <c r="G166" s="20"/>
       <c r="H166" s="20"/>
@@ -21222,7 +21226,9 @@
       <c r="CO166" s="20"/>
       <c r="CP166" s="20"/>
       <c r="CQ166" s="20"/>
-      <c r="CR166" s="20"/>
+      <c r="CR166" s="41">
+        <v>1</v>
+      </c>
       <c r="CS166" s="20"/>
       <c r="CT166" s="20"/>
       <c r="CU166" s="20"/>
@@ -21230,7 +21236,7 @@
       <c r="CW166" s="20"/>
       <c r="CX166" s="21"/>
     </row>
-    <row r="167" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>24</v>
       </c>
@@ -21344,19 +21350,19 @@
       <c r="CW167" s="29"/>
       <c r="CX167" s="30"/>
     </row>
-    <row r="168" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A168" s="80"/>
+    <row r="168" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A168" s="78"/>
       <c r="B168" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C168" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="78">
-        <v>18.04</v>
-      </c>
-      <c r="E168" s="79">
-        <v>25.04</v>
+      <c r="D168" s="80">
+        <v>18.05</v>
+      </c>
+      <c r="E168" s="84">
+        <v>25.05</v>
       </c>
       <c r="F168" s="19"/>
       <c r="G168" s="20"/>
@@ -21456,16 +21462,16 @@
       <c r="CW168" s="20"/>
       <c r="CX168" s="21"/>
     </row>
-    <row r="169" spans="1:103" x14ac:dyDescent="0.3">
-      <c r="A169" s="81"/>
+    <row r="169" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A169" s="79"/>
       <c r="B169" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C169" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D169" s="78"/>
-      <c r="E169" s="79"/>
+      <c r="D169" s="81"/>
+      <c r="E169" s="84"/>
       <c r="F169" s="19"/>
       <c r="G169" s="20"/>
       <c r="H169" s="20"/>
@@ -21564,16 +21570,16 @@
       <c r="CW169" s="20"/>
       <c r="CX169" s="21"/>
     </row>
-    <row r="170" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="64"/>
-      <c r="D170" s="87">
+      <c r="D170" s="92">
         <v>44348</v>
       </c>
-      <c r="E170" s="88"/>
+      <c r="E170" s="93"/>
       <c r="F170" s="19"/>
       <c r="G170" s="20"/>
       <c r="H170" s="20"/>
@@ -21672,7 +21678,7 @@
       <c r="CW170" s="20"/>
       <c r="CX170" s="21"/>
     </row>
-    <row r="171" spans="1:103" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="65"/>
@@ -21776,27 +21782,27 @@
       <c r="CW171" s="35"/>
       <c r="CX171" s="35"/>
     </row>
-    <row r="173" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="174" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="174" spans="1:103" x14ac:dyDescent="0.25">
       <c r="D174" s="74"/>
       <c r="E174" s="68"/>
       <c r="F174" s="37"/>
     </row>
-    <row r="175" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:103" x14ac:dyDescent="0.25">
       <c r="D175" s="75"/>
       <c r="E175" s="55" t="s">
         <v>25</v>
       </c>
       <c r="F175" s="38"/>
     </row>
-    <row r="176" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:103" x14ac:dyDescent="0.25">
       <c r="D176" s="76"/>
       <c r="E176" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F176" s="38"/>
     </row>
-    <row r="177" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D177" s="77"/>
       <c r="E177" s="69" t="s">
         <v>27</v>
@@ -21805,83 +21811,99 @@
     </row>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="D75:D76"/>
     <mergeCell ref="D170:E170"/>
     <mergeCell ref="A142:A143"/>
     <mergeCell ref="D142:D143"/>
@@ -21906,6 +21928,41 @@
     <mergeCell ref="E154:E155"/>
     <mergeCell ref="A149:A150"/>
     <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D89:D90"/>
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="A84:A85"/>
@@ -21917,99 +21974,48 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="D80:D81"/>
     <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A104:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitsplan/Iteration_Arbeitsplan.xlsx
+++ b/Arbeitsplan/Iteration_Arbeitsplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Eonum\PSE_DELIVERABLES\Arbeitsplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kevin\Documents\PSE_DELIVERABLES\Arbeitsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C540B-6D9C-4162-B6B2-05F86BE245D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524FD26-9F05-44F2-AAF1-B8E730812414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="83">
   <si>
     <t>Zeitplan PSE eonum AG</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Bugs suchen und Code durchgehen</t>
+  </si>
+  <si>
+    <t>Refactoring</t>
   </si>
 </sst>
 </file>
@@ -1005,6 +1008,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1014,50 +1023,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1080,9 +1062,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1103,13 +1106,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1335,13 +1338,13 @@
     <xdr:from>
       <xdr:col>89</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1393,13 +1396,13 @@
     <xdr:from>
       <xdr:col>101</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>101</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1451,7 +1454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1747,14 +1750,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD384E66-6977-4A33-945E-14F730629694}">
-  <dimension ref="A1:CY177"/>
+  <dimension ref="A1:CY179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CR166" sqref="CR166"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -1764,15 +1767,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="98" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="99"/>
+      <c r="E1" s="92"/>
       <c r="F1" s="18">
         <v>44615</v>
       </c>
@@ -2516,7 +2519,7 @@
       <c r="CY5" s="17"/>
     </row>
     <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="80" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2525,10 +2528,10 @@
       <c r="C6" s="62">
         <v>5</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="82">
         <v>23.02</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="86">
         <v>16.03</v>
       </c>
       <c r="F6" s="45"/>
@@ -2637,15 +2640,15 @@
       <c r="CY6" s="17"/>
     </row>
     <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="62">
         <v>4</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="45"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
@@ -2752,7 +2755,7 @@
       <c r="CY7" s="17"/>
     </row>
     <row r="8" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="80" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2761,10 +2764,10 @@
       <c r="C8" s="62">
         <v>2</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="82">
         <v>23.02</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="86">
         <v>16.03</v>
       </c>
       <c r="F8" s="19"/>
@@ -2869,15 +2872,15 @@
       <c r="CY8" s="17"/>
     </row>
     <row r="9" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="62">
         <v>2</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -3097,7 +3100,7 @@
       <c r="CY10" s="17"/>
     </row>
     <row r="11" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="80" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3107,10 +3110,10 @@
         <f>SUM(F11:CX11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="82">
         <v>23.02</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="86">
         <v>16.03</v>
       </c>
       <c r="F11" s="19"/>
@@ -3215,7 +3218,7 @@
       <c r="CY11" s="17"/>
     </row>
     <row r="12" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -3223,8 +3226,8 @@
         <f>SUM(F12:CX12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -3327,7 +3330,7 @@
       <c r="CY12" s="17"/>
     </row>
     <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="80" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -3337,10 +3340,10 @@
         <f>SUM(F13:CX13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="82">
         <v>23.02</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="86">
         <v>16.03</v>
       </c>
       <c r="F13" s="19"/>
@@ -3447,7 +3450,7 @@
       <c r="CY13" s="17"/>
     </row>
     <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="43" t="s">
         <v>8</v>
       </c>
@@ -3455,8 +3458,8 @@
         <f>SUM(F14:CX14)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="85"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -3681,7 +3684,7 @@
       <c r="CY15" s="17"/>
     </row>
     <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="80" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3690,10 +3693,10 @@
       <c r="C16" s="62">
         <v>3</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="82">
         <v>23.02</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="86">
         <v>16.03</v>
       </c>
       <c r="F16" s="19"/>
@@ -3798,15 +3801,15 @@
       <c r="CY16" s="17"/>
     </row>
     <row r="17" spans="1:103" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="62">
         <v>3</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="83"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -3909,7 +3912,7 @@
       <c r="CY17" s="49"/>
     </row>
     <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="96" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3918,10 +3921,10 @@
       <c r="C18" s="62">
         <v>4</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="78">
         <v>23.02</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="84">
         <v>16.03</v>
       </c>
       <c r="F18" s="19"/>
@@ -4028,15 +4031,15 @@
       <c r="CY18" s="17"/>
     </row>
     <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="62">
         <v>3</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -4258,7 +4261,7 @@
       <c r="CY20" s="17"/>
     </row>
     <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="80" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -4267,10 +4270,10 @@
       <c r="C21" s="62">
         <v>1</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="82">
         <v>23.02</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="86">
         <v>16.03</v>
       </c>
       <c r="F21" s="19"/>
@@ -4375,15 +4378,15 @@
       <c r="CY21" s="17"/>
     </row>
     <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="62">
         <v>1</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="85"/>
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -4486,7 +4489,7 @@
       <c r="CY22" s="17"/>
     </row>
     <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="80" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4496,10 +4499,10 @@
         <f>SUM(F23:CX23)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="82">
         <v>23.02</v>
       </c>
-      <c r="E23" s="82">
+      <c r="E23" s="86">
         <v>16.03</v>
       </c>
       <c r="F23" s="19"/>
@@ -4610,7 +4613,7 @@
       <c r="CY23" s="17"/>
     </row>
     <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
@@ -4618,8 +4621,8 @@
         <f>SUM(F24:CX24)</f>
         <v>5</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="85"/>
       <c r="F24" s="19"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -4843,7 +4846,7 @@
       <c r="CY25" s="17"/>
     </row>
     <row r="26" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="80" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4852,10 +4855,10 @@
       <c r="C26" s="62">
         <v>4.5</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="82">
         <v>23.02</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="86">
         <v>16.03</v>
       </c>
       <c r="F26" s="19"/>
@@ -4966,15 +4969,15 @@
       <c r="CY26" s="17"/>
     </row>
     <row r="27" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="62">
         <v>4.5</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="85"/>
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -5083,7 +5086,7 @@
       <c r="CY27" s="17"/>
     </row>
     <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="80" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -5092,10 +5095,10 @@
       <c r="C28" s="62">
         <v>1</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="82">
         <v>23.02</v>
       </c>
-      <c r="E28" s="82">
+      <c r="E28" s="86">
         <v>16.03</v>
       </c>
       <c r="F28" s="19"/>
@@ -5202,15 +5205,15 @@
       <c r="CY28" s="17"/>
     </row>
     <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="62">
         <v>1</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="85"/>
       <c r="F29" s="19"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -5315,7 +5318,7 @@
       <c r="CY29" s="17"/>
     </row>
     <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="80" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -5324,10 +5327,10 @@
       <c r="C30" s="62">
         <v>4</v>
       </c>
-      <c r="D30" s="80">
+      <c r="D30" s="82">
         <v>23.02</v>
       </c>
-      <c r="E30" s="82">
+      <c r="E30" s="86">
         <v>16.03</v>
       </c>
       <c r="F30" s="19"/>
@@ -5436,15 +5439,15 @@
       <c r="CY30" s="17"/>
     </row>
     <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="62">
         <v>3</v>
       </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -5556,10 +5559,10 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="62"/>
-      <c r="D32" s="92">
+      <c r="D32" s="87">
         <v>44636</v>
       </c>
-      <c r="E32" s="93"/>
+      <c r="E32" s="88"/>
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -5892,7 +5895,7 @@
       <c r="CY34" s="17"/>
     </row>
     <row r="35" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="80" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -5901,10 +5904,10 @@
       <c r="C35" s="62">
         <v>3</v>
       </c>
-      <c r="D35" s="81">
+      <c r="D35" s="78">
         <v>23.03</v>
       </c>
-      <c r="E35" s="84">
+      <c r="E35" s="79">
         <v>6.04</v>
       </c>
       <c r="F35" s="19"/>
@@ -6013,15 +6016,15 @@
       <c r="CY35" s="17"/>
     </row>
     <row r="36" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="62">
         <v>6</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="84"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="19"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
@@ -6128,7 +6131,7 @@
       <c r="CY36" s="17"/>
     </row>
     <row r="37" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="80" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -6137,10 +6140,10 @@
       <c r="C37" s="62">
         <v>2</v>
       </c>
-      <c r="D37" s="81">
+      <c r="D37" s="78">
         <v>23.03</v>
       </c>
-      <c r="E37" s="84">
+      <c r="E37" s="79">
         <v>6.04</v>
       </c>
       <c r="F37" s="19"/>
@@ -6245,15 +6248,15 @@
       <c r="CY37" s="17"/>
     </row>
     <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="62">
         <v>3</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="84"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="19"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -6356,7 +6359,7 @@
       <c r="CY38" s="17"/>
     </row>
     <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="80" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -6365,10 +6368,10 @@
       <c r="C39" s="62">
         <v>2</v>
       </c>
-      <c r="D39" s="81">
+      <c r="D39" s="78">
         <v>23.03</v>
       </c>
-      <c r="E39" s="84">
+      <c r="E39" s="79">
         <v>6.04</v>
       </c>
       <c r="F39" s="19"/>
@@ -6475,15 +6478,15 @@
       <c r="CY39" s="17"/>
     </row>
     <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="62">
         <v>2</v>
       </c>
-      <c r="D40" s="81"/>
-      <c r="E40" s="84"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
@@ -6705,7 +6708,7 @@
       <c r="CY41" s="17"/>
     </row>
     <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="80" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6715,10 +6718,10 @@
         <f>SUM(F42:AX42)</f>
         <v>11</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="82">
+      <c r="E42" s="86">
         <v>6.04</v>
       </c>
       <c r="F42" s="19"/>
@@ -6839,7 +6842,7 @@
       <c r="CY42" s="10"/>
     </row>
     <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="6" t="s">
         <v>8</v>
       </c>
@@ -6847,8 +6850,8 @@
         <f t="shared" ref="C43:C49" si="0">SUM(F43:AX43)</f>
         <v>13.5</v>
       </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="89"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="85"/>
       <c r="F43" s="19"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -6966,7 +6969,7 @@
       <c r="CY43" s="10"/>
     </row>
     <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="80" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -6976,10 +6979,10 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D44" s="80" t="s">
+      <c r="D44" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="82">
+      <c r="E44" s="86">
         <v>6.04</v>
       </c>
       <c r="F44" s="19"/>
@@ -7094,7 +7097,7 @@
       <c r="CY44" s="10"/>
     </row>
     <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
+      <c r="A45" s="81"/>
       <c r="B45" s="6" t="s">
         <v>8</v>
       </c>
@@ -7102,8 +7105,8 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="D45" s="88"/>
-      <c r="E45" s="89"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="85"/>
       <c r="F45" s="19"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -7216,7 +7219,7 @@
       <c r="CY45" s="10"/>
     </row>
     <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="80" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -7226,10 +7229,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D46" s="80" t="s">
+      <c r="D46" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="82">
+      <c r="E46" s="86">
         <v>6.04</v>
       </c>
       <c r="F46" s="19"/>
@@ -7334,7 +7337,7 @@
       <c r="CY46" s="10"/>
     </row>
     <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="6" t="s">
         <v>8</v>
       </c>
@@ -7342,8 +7345,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D47" s="88"/>
-      <c r="E47" s="89"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="85"/>
       <c r="F47" s="19"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
@@ -7446,7 +7449,7 @@
       <c r="CY47" s="10"/>
     </row>
     <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="78" t="s">
+      <c r="A48" s="80" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -7456,10 +7459,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="D48" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="82">
+      <c r="E48" s="86">
         <v>6.04</v>
       </c>
       <c r="F48" s="19"/>
@@ -7564,7 +7567,7 @@
       <c r="CY48" s="10"/>
     </row>
     <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="6" t="s">
         <v>8</v>
       </c>
@@ -7572,8 +7575,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D49" s="88"/>
-      <c r="E49" s="89"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="85"/>
       <c r="F49" s="19"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
@@ -7793,7 +7796,7 @@
       <c r="CY50" s="10"/>
     </row>
     <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="80" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7802,10 +7805,10 @@
       <c r="C51" s="62">
         <v>3</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D51" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="82">
+      <c r="E51" s="86">
         <v>6.04</v>
       </c>
       <c r="F51" s="19"/>
@@ -7912,15 +7915,15 @@
       <c r="CY51" s="10"/>
     </row>
     <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
+      <c r="A52" s="81"/>
       <c r="B52" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="62">
         <v>3</v>
       </c>
-      <c r="D52" s="88"/>
-      <c r="E52" s="89"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="85"/>
       <c r="F52" s="19"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -8025,7 +8028,7 @@
       <c r="CY52" s="10"/>
     </row>
     <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="80" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -8034,10 +8037,10 @@
       <c r="C53" s="62">
         <v>6</v>
       </c>
-      <c r="D53" s="80" t="s">
+      <c r="D53" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="82">
+      <c r="E53" s="86">
         <v>6.04</v>
       </c>
       <c r="F53" s="19"/>
@@ -8149,15 +8152,15 @@
       <c r="CX53" s="21"/>
     </row>
     <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
+      <c r="A54" s="81"/>
       <c r="B54" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="62">
         <v>7</v>
       </c>
-      <c r="D54" s="88"/>
-      <c r="E54" s="89"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="85"/>
       <c r="F54" s="19"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
@@ -8268,7 +8271,7 @@
       <c r="CY54" s="10"/>
     </row>
     <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="80" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -8277,10 +8280,10 @@
       <c r="C55" s="62">
         <v>1</v>
       </c>
-      <c r="D55" s="80" t="s">
+      <c r="D55" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="82">
+      <c r="E55" s="86">
         <v>6.04</v>
       </c>
       <c r="F55" s="19"/>
@@ -8385,15 +8388,15 @@
       <c r="CY55" s="10"/>
     </row>
     <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
+      <c r="A56" s="81"/>
       <c r="B56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="62">
         <v>1</v>
       </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="89"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="85"/>
       <c r="F56" s="19"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
@@ -8612,7 +8615,7 @@
       <c r="CY57" s="17"/>
     </row>
     <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="96" t="s">
+      <c r="A58" s="89" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -8621,10 +8624,10 @@
       <c r="C58" s="62">
         <v>4</v>
       </c>
-      <c r="D58" s="80" t="s">
+      <c r="D58" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="84">
+      <c r="E58" s="79">
         <v>6.04</v>
       </c>
       <c r="F58" s="19"/>
@@ -8735,15 +8738,15 @@
       <c r="CY58" s="17"/>
     </row>
     <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="97"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="62">
         <v>10</v>
       </c>
-      <c r="D59" s="88"/>
-      <c r="E59" s="84"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="79"/>
       <c r="F59" s="19"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
@@ -8852,7 +8855,7 @@
       <c r="CY59" s="17"/>
     </row>
     <row r="60" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A60" s="96" t="s">
+      <c r="A60" s="89" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -8861,10 +8864,10 @@
       <c r="C60" s="62">
         <v>2</v>
       </c>
-      <c r="D60" s="80" t="s">
+      <c r="D60" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="84">
+      <c r="E60" s="79">
         <v>6.04</v>
       </c>
       <c r="F60" s="19"/>
@@ -8971,15 +8974,15 @@
       <c r="CY60" s="17"/>
     </row>
     <row r="61" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A61" s="97"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="62">
         <v>2</v>
       </c>
-      <c r="D61" s="88"/>
-      <c r="E61" s="84"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="79"/>
       <c r="F61" s="19"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -9084,7 +9087,7 @@
       <c r="CY61" s="17"/>
     </row>
     <row r="62" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="89" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -9093,10 +9096,10 @@
       <c r="C62" s="62">
         <v>2</v>
       </c>
-      <c r="D62" s="80" t="s">
+      <c r="D62" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="84">
+      <c r="E62" s="79">
         <v>6.04</v>
       </c>
       <c r="F62" s="19"/>
@@ -9203,15 +9206,15 @@
       <c r="CY62" s="17"/>
     </row>
     <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="97"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="62">
         <v>2</v>
       </c>
-      <c r="D63" s="88"/>
-      <c r="E63" s="84"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="79"/>
       <c r="F63" s="19"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
@@ -9316,7 +9319,7 @@
       <c r="CY63" s="17"/>
     </row>
     <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="78" t="s">
+      <c r="A64" s="80" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -9325,10 +9328,10 @@
       <c r="C64" s="62">
         <v>4</v>
       </c>
-      <c r="D64" s="80" t="s">
+      <c r="D64" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="84">
+      <c r="E64" s="79">
         <v>6.04</v>
       </c>
       <c r="F64" s="19"/>
@@ -9439,15 +9442,15 @@
       <c r="CY64" s="17"/>
     </row>
     <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
+      <c r="A65" s="81"/>
       <c r="B65" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="62">
         <v>4</v>
       </c>
-      <c r="D65" s="88"/>
-      <c r="E65" s="84"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="79"/>
       <c r="F65" s="19"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
@@ -9673,7 +9676,7 @@
       <c r="CY66" s="17"/>
     </row>
     <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="78" t="s">
+      <c r="A67" s="80" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -9682,10 +9685,10 @@
       <c r="C67" s="62">
         <v>4</v>
       </c>
-      <c r="D67" s="81">
+      <c r="D67" s="78">
         <v>23.03</v>
       </c>
-      <c r="E67" s="84">
+      <c r="E67" s="79">
         <v>6.04</v>
       </c>
       <c r="F67" s="19"/>
@@ -9794,15 +9797,15 @@
       <c r="CY67" s="17"/>
     </row>
     <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="79"/>
+      <c r="A68" s="81"/>
       <c r="B68" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="62">
         <v>5</v>
       </c>
-      <c r="D68" s="81"/>
-      <c r="E68" s="84"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="79"/>
       <c r="F68" s="19"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
@@ -9909,7 +9912,7 @@
       <c r="CY68" s="17"/>
     </row>
     <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="78" t="s">
+      <c r="A69" s="80" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -9918,10 +9921,10 @@
       <c r="C69" s="62">
         <v>2</v>
       </c>
-      <c r="D69" s="81">
+      <c r="D69" s="78">
         <v>23.03</v>
       </c>
-      <c r="E69" s="84">
+      <c r="E69" s="79">
         <v>6.04</v>
       </c>
       <c r="F69" s="19"/>
@@ -10026,15 +10029,15 @@
       <c r="CY69" s="17"/>
     </row>
     <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="79"/>
+      <c r="A70" s="81"/>
       <c r="B70" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="62">
         <v>1</v>
       </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="84"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="79"/>
       <c r="F70" s="19"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -10137,7 +10140,7 @@
       <c r="CY70" s="17"/>
     </row>
     <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="80" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -10146,10 +10149,10 @@
       <c r="C71" s="62">
         <v>2</v>
       </c>
-      <c r="D71" s="81">
+      <c r="D71" s="78">
         <v>23.03</v>
       </c>
-      <c r="E71" s="84">
+      <c r="E71" s="79">
         <v>6.04</v>
       </c>
       <c r="F71" s="19"/>
@@ -10254,15 +10257,15 @@
       <c r="CY71" s="17"/>
     </row>
     <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="79"/>
+      <c r="A72" s="81"/>
       <c r="B72" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="62">
         <v>2</v>
       </c>
-      <c r="D72" s="81"/>
-      <c r="E72" s="84"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="79"/>
       <c r="F72" s="19"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -10365,7 +10368,7 @@
       <c r="CY72" s="17"/>
     </row>
     <row r="73" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A73" s="78" t="s">
+      <c r="A73" s="80" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -10374,10 +10377,10 @@
       <c r="C73" s="62">
         <v>3</v>
       </c>
-      <c r="D73" s="81">
+      <c r="D73" s="78">
         <v>23.03</v>
       </c>
-      <c r="E73" s="84">
+      <c r="E73" s="79">
         <v>6.04</v>
       </c>
       <c r="F73" s="19"/>
@@ -10482,15 +10485,15 @@
       <c r="CY73" s="17"/>
     </row>
     <row r="74" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A74" s="79"/>
+      <c r="A74" s="81"/>
       <c r="B74" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="62">
         <v>3</v>
       </c>
-      <c r="D74" s="81"/>
-      <c r="E74" s="84"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="79"/>
       <c r="F74" s="19"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
@@ -10593,7 +10596,7 @@
       <c r="CY74" s="17"/>
     </row>
     <row r="75" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A75" s="78" t="s">
+      <c r="A75" s="80" t="s">
         <v>45</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -10602,10 +10605,10 @@
       <c r="C75" s="62">
         <v>1</v>
       </c>
-      <c r="D75" s="81">
+      <c r="D75" s="78">
         <v>23.03</v>
       </c>
-      <c r="E75" s="84">
+      <c r="E75" s="79">
         <v>6.04</v>
       </c>
       <c r="F75" s="19"/>
@@ -10708,15 +10711,15 @@
       <c r="CY75" s="17"/>
     </row>
     <row r="76" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A76" s="79"/>
+      <c r="A76" s="81"/>
       <c r="B76" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="62">
         <v>3</v>
       </c>
-      <c r="D76" s="81"/>
-      <c r="E76" s="84"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="79"/>
       <c r="F76" s="19"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
@@ -10824,10 +10827,10 @@
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="62"/>
-      <c r="D77" s="90">
+      <c r="D77" s="99">
         <v>44292</v>
       </c>
-      <c r="E77" s="94"/>
+      <c r="E77" s="101"/>
       <c r="F77" s="19"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
@@ -11164,7 +11167,7 @@
       <c r="CY79" s="17"/>
     </row>
     <row r="80" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A80" s="78" t="s">
+      <c r="A80" s="80" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -11173,10 +11176,10 @@
       <c r="C80" s="62">
         <v>3</v>
       </c>
-      <c r="D80" s="80">
+      <c r="D80" s="82">
         <v>6.04</v>
       </c>
-      <c r="E80" s="83">
+      <c r="E80" s="84">
         <v>4.05</v>
       </c>
       <c r="F80" s="19"/>
@@ -11285,15 +11288,15 @@
       <c r="CY80" s="17"/>
     </row>
     <row r="81" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A81" s="79"/>
+      <c r="A81" s="81"/>
       <c r="B81" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="62">
         <v>4</v>
       </c>
-      <c r="D81" s="88"/>
-      <c r="E81" s="89"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="85"/>
       <c r="F81" s="19"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
@@ -11400,7 +11403,7 @@
       <c r="CY81" s="17"/>
     </row>
     <row r="82" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A82" s="78" t="s">
+      <c r="A82" s="80" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -11409,10 +11412,10 @@
       <c r="C82" s="62">
         <v>1</v>
       </c>
-      <c r="D82" s="80">
+      <c r="D82" s="82">
         <v>6.04</v>
       </c>
-      <c r="E82" s="84">
+      <c r="E82" s="79">
         <v>4.05</v>
       </c>
       <c r="F82" s="19"/>
@@ -11517,15 +11520,15 @@
       <c r="CY82" s="17"/>
     </row>
     <row r="83" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A83" s="79"/>
+      <c r="A83" s="81"/>
       <c r="B83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="62">
         <v>1</v>
       </c>
-      <c r="D83" s="88"/>
-      <c r="E83" s="84"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="79"/>
       <c r="F83" s="19"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
@@ -11628,7 +11631,7 @@
       <c r="CY83" s="17"/>
     </row>
     <row r="84" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A84" s="78" t="s">
+      <c r="A84" s="80" t="s">
         <v>60</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -11637,10 +11640,10 @@
       <c r="C84" s="62">
         <v>2</v>
       </c>
-      <c r="D84" s="80">
+      <c r="D84" s="82">
         <v>6.04</v>
       </c>
-      <c r="E84" s="83">
+      <c r="E84" s="84">
         <v>4.05</v>
       </c>
       <c r="F84" s="19"/>
@@ -11745,15 +11748,15 @@
       <c r="CY84" s="17"/>
     </row>
     <row r="85" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
+      <c r="A85" s="81"/>
       <c r="B85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="62">
         <v>1</v>
       </c>
-      <c r="D85" s="88"/>
-      <c r="E85" s="89"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="85"/>
       <c r="F85" s="19"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
@@ -11973,7 +11976,7 @@
       <c r="CY86" s="17"/>
     </row>
     <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="78" t="s">
+      <c r="A87" s="80" t="s">
         <v>54</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -11983,10 +11986,10 @@
         <f t="shared" ref="C87:C94" si="1">SUM(F87:CX87)</f>
         <v>9</v>
       </c>
-      <c r="D87" s="86">
+      <c r="D87" s="97">
         <v>6.04</v>
       </c>
-      <c r="E87" s="85">
+      <c r="E87" s="98">
         <v>4.05</v>
       </c>
       <c r="F87" s="54"/>
@@ -12105,7 +12108,7 @@
       <c r="CY87" s="17"/>
     </row>
     <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
+      <c r="A88" s="81"/>
       <c r="B88" s="6" t="s">
         <v>8</v>
       </c>
@@ -12113,8 +12116,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D88" s="86"/>
-      <c r="E88" s="85"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="98"/>
       <c r="F88" s="54"/>
       <c r="G88" s="52"/>
       <c r="H88" s="52"/>
@@ -12231,7 +12234,7 @@
       <c r="CY88" s="17"/>
     </row>
     <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="80" t="s">
         <v>63</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -12241,10 +12244,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D89" s="86">
+      <c r="D89" s="97">
         <v>6.04</v>
       </c>
-      <c r="E89" s="85">
+      <c r="E89" s="98">
         <v>4.05</v>
       </c>
       <c r="F89" s="54"/>
@@ -12357,7 +12360,7 @@
       <c r="CY89" s="17"/>
     </row>
     <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="79"/>
+      <c r="A90" s="81"/>
       <c r="B90" s="6" t="s">
         <v>8</v>
       </c>
@@ -12365,8 +12368,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D90" s="86"/>
-      <c r="E90" s="85"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="98"/>
       <c r="F90" s="54"/>
       <c r="G90" s="52"/>
       <c r="H90" s="52"/>
@@ -12477,7 +12480,7 @@
       <c r="CY90" s="17"/>
     </row>
     <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="80" t="s">
         <v>64</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -12487,10 +12490,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D91" s="86">
+      <c r="D91" s="97">
         <v>6.04</v>
       </c>
-      <c r="E91" s="85">
+      <c r="E91" s="98">
         <v>4.05</v>
       </c>
       <c r="F91" s="54"/>
@@ -12595,7 +12598,7 @@
       <c r="CY91" s="17"/>
     </row>
     <row r="92" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A92" s="79"/>
+      <c r="A92" s="81"/>
       <c r="B92" s="6" t="s">
         <v>8</v>
       </c>
@@ -12603,8 +12606,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D92" s="86"/>
-      <c r="E92" s="85"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="98"/>
       <c r="F92" s="54"/>
       <c r="G92" s="52"/>
       <c r="H92" s="52"/>
@@ -12707,7 +12710,7 @@
       <c r="CY92" s="17"/>
     </row>
     <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="78" t="s">
+      <c r="A93" s="80" t="s">
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -12717,10 +12720,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D93" s="86">
+      <c r="D93" s="97">
         <v>6.04</v>
       </c>
-      <c r="E93" s="85">
+      <c r="E93" s="98">
         <v>4.05</v>
       </c>
       <c r="F93" s="54"/>
@@ -12825,7 +12828,7 @@
       <c r="CY93" s="17"/>
     </row>
     <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="79"/>
+      <c r="A94" s="81"/>
       <c r="B94" s="6" t="s">
         <v>8</v>
       </c>
@@ -12833,8 +12836,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D94" s="86"/>
-      <c r="E94" s="85"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="98"/>
       <c r="F94" s="54"/>
       <c r="G94" s="52"/>
       <c r="H94" s="52"/>
@@ -13052,7 +13055,7 @@
       <c r="CY95" s="17"/>
     </row>
     <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="78" t="s">
+      <c r="A96" s="80" t="s">
         <v>71</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -13061,10 +13064,10 @@
       <c r="C96" s="62">
         <v>4</v>
       </c>
-      <c r="D96" s="80">
+      <c r="D96" s="82">
         <v>6.04</v>
       </c>
-      <c r="E96" s="82">
+      <c r="E96" s="86">
         <v>4.05</v>
       </c>
       <c r="F96" s="19"/>
@@ -13171,15 +13174,15 @@
       <c r="CY96" s="10"/>
     </row>
     <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="79"/>
+      <c r="A97" s="81"/>
       <c r="B97" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="62">
         <v>5</v>
       </c>
-      <c r="D97" s="88"/>
-      <c r="E97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="84"/>
       <c r="F97" s="19"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
@@ -13284,7 +13287,7 @@
       <c r="CY97" s="10"/>
     </row>
     <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="78" t="s">
+      <c r="A98" s="80" t="s">
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -13293,10 +13296,10 @@
       <c r="C98" s="62">
         <v>5</v>
       </c>
-      <c r="D98" s="80">
+      <c r="D98" s="82">
         <v>6.04</v>
       </c>
-      <c r="E98" s="83">
+      <c r="E98" s="84">
         <v>4.05</v>
       </c>
       <c r="F98" s="19"/>
@@ -13407,15 +13410,15 @@
       <c r="CY98" s="10"/>
     </row>
     <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="79"/>
+      <c r="A99" s="81"/>
       <c r="B99" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="62">
         <v>7</v>
       </c>
-      <c r="D99" s="88"/>
-      <c r="E99" s="83"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="84"/>
       <c r="F99" s="19"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
@@ -13524,7 +13527,7 @@
       <c r="CY99" s="10"/>
     </row>
     <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="78" t="s">
+      <c r="A100" s="80" t="s">
         <v>72</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -13533,10 +13536,10 @@
       <c r="C100" s="62">
         <v>2</v>
       </c>
-      <c r="D100" s="80">
+      <c r="D100" s="82">
         <v>6.04</v>
       </c>
-      <c r="E100" s="83">
+      <c r="E100" s="84">
         <v>4.05</v>
       </c>
       <c r="F100" s="19"/>
@@ -13645,15 +13648,15 @@
       <c r="CY100" s="10"/>
     </row>
     <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="79"/>
+      <c r="A101" s="81"/>
       <c r="B101" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="62">
         <v>2</v>
       </c>
-      <c r="D101" s="88"/>
-      <c r="E101" s="83"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="84"/>
       <c r="F101" s="19"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
@@ -13760,7 +13763,7 @@
       <c r="CY101" s="10"/>
     </row>
     <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="78" t="s">
+      <c r="A102" s="80" t="s">
         <v>73</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -13769,10 +13772,10 @@
       <c r="C102" s="62">
         <v>6</v>
       </c>
-      <c r="D102" s="80">
+      <c r="D102" s="82">
         <v>6.04</v>
       </c>
-      <c r="E102" s="83">
+      <c r="E102" s="84">
         <v>4.05</v>
       </c>
       <c r="F102" s="19"/>
@@ -13881,15 +13884,15 @@
       <c r="CY102" s="10"/>
     </row>
     <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="79"/>
+      <c r="A103" s="81"/>
       <c r="B103" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="62">
         <v>7.5</v>
       </c>
-      <c r="D103" s="88"/>
-      <c r="E103" s="89"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="85"/>
       <c r="F103" s="19"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
@@ -13996,7 +13999,7 @@
       <c r="CY103" s="10"/>
     </row>
     <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="78" t="s">
+      <c r="A104" s="80" t="s">
         <v>74</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -14005,10 +14008,10 @@
       <c r="C104" s="62">
         <v>0.5</v>
       </c>
-      <c r="D104" s="80">
+      <c r="D104" s="82">
         <v>6.04</v>
       </c>
-      <c r="E104" s="82">
+      <c r="E104" s="86">
         <v>4.05</v>
       </c>
       <c r="F104" s="19"/>
@@ -14113,15 +14116,15 @@
       <c r="CY104" s="17"/>
     </row>
     <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="79"/>
+      <c r="A105" s="81"/>
       <c r="B105" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="62">
         <v>0.5</v>
       </c>
-      <c r="D105" s="88"/>
-      <c r="E105" s="89"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="85"/>
       <c r="F105" s="19"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
@@ -14341,7 +14344,7 @@
       <c r="CY106" s="17"/>
     </row>
     <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="78" t="s">
+      <c r="A107" s="80" t="s">
         <v>55</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -14350,10 +14353,10 @@
       <c r="C107" s="62">
         <v>2</v>
       </c>
-      <c r="D107" s="80">
+      <c r="D107" s="82">
         <v>6.04</v>
       </c>
-      <c r="E107" s="82">
+      <c r="E107" s="86">
         <v>4.05</v>
       </c>
       <c r="F107" s="19"/>
@@ -14458,7 +14461,7 @@
       <c r="CY107" s="17"/>
     </row>
     <row r="108" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="79"/>
+      <c r="A108" s="81"/>
       <c r="B108" s="6" t="s">
         <v>8</v>
       </c>
@@ -14466,8 +14469,8 @@
         <f>SUM(F108:BX108)</f>
         <v>2</v>
       </c>
-      <c r="D108" s="88"/>
-      <c r="E108" s="83"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="84"/>
       <c r="F108" s="19"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
@@ -14570,7 +14573,7 @@
       <c r="CY108" s="17"/>
     </row>
     <row r="109" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="78" t="s">
+      <c r="A109" s="80" t="s">
         <v>69</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -14579,10 +14582,10 @@
       <c r="C109" s="62">
         <v>3</v>
       </c>
-      <c r="D109" s="80">
+      <c r="D109" s="82">
         <v>6.04</v>
       </c>
-      <c r="E109" s="83">
+      <c r="E109" s="84">
         <v>4.05</v>
       </c>
       <c r="F109" s="19"/>
@@ -14691,15 +14694,15 @@
       <c r="CY109" s="10"/>
     </row>
     <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="79"/>
+      <c r="A110" s="81"/>
       <c r="B110" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="62">
         <v>4.5</v>
       </c>
-      <c r="D110" s="88"/>
-      <c r="E110" s="83"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="84"/>
       <c r="F110" s="19"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
@@ -14806,7 +14809,7 @@
       <c r="CY110" s="10"/>
     </row>
     <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="78" t="s">
+      <c r="A111" s="80" t="s">
         <v>56</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -14815,10 +14818,10 @@
       <c r="C111" s="62">
         <v>2</v>
       </c>
-      <c r="D111" s="80">
+      <c r="D111" s="82">
         <v>6.04</v>
       </c>
-      <c r="E111" s="87">
+      <c r="E111" s="102">
         <v>4.05</v>
       </c>
       <c r="F111" s="19"/>
@@ -14927,15 +14930,15 @@
       <c r="CY111" s="10"/>
     </row>
     <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="79"/>
+      <c r="A112" s="81"/>
       <c r="B112" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="62">
         <v>2</v>
       </c>
-      <c r="D112" s="88"/>
-      <c r="E112" s="87"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="102"/>
       <c r="F112" s="19"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
@@ -15042,7 +15045,7 @@
       <c r="CY112" s="10"/>
     </row>
     <row r="113" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="78" t="s">
+      <c r="A113" s="80" t="s">
         <v>62</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -15051,10 +15054,10 @@
       <c r="C113" s="62">
         <v>3</v>
       </c>
-      <c r="D113" s="80">
+      <c r="D113" s="82">
         <v>6.04</v>
       </c>
-      <c r="E113" s="87">
+      <c r="E113" s="102">
         <v>4.05</v>
       </c>
       <c r="F113" s="19"/>
@@ -15165,15 +15168,15 @@
       <c r="CY113" s="10"/>
     </row>
     <row r="114" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="79"/>
+      <c r="A114" s="81"/>
       <c r="B114" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="62">
         <v>3.5</v>
       </c>
-      <c r="D114" s="88"/>
-      <c r="E114" s="87"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="102"/>
       <c r="F114" s="19"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
@@ -15282,7 +15285,7 @@
       <c r="CY114" s="10"/>
     </row>
     <row r="115" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="78" t="s">
+      <c r="A115" s="80" t="s">
         <v>70</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -15291,10 +15294,10 @@
       <c r="C115" s="62">
         <v>1.5</v>
       </c>
-      <c r="D115" s="80">
+      <c r="D115" s="82">
         <v>6.04</v>
       </c>
-      <c r="E115" s="84">
+      <c r="E115" s="79">
         <v>4.05</v>
       </c>
       <c r="F115" s="19"/>
@@ -15401,15 +15404,15 @@
       <c r="CY115" s="17"/>
     </row>
     <row r="116" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="79"/>
+      <c r="A116" s="81"/>
       <c r="B116" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="62">
         <v>2</v>
       </c>
-      <c r="D116" s="88"/>
-      <c r="E116" s="84"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="79"/>
       <c r="F116" s="19"/>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
@@ -15631,7 +15634,7 @@
       <c r="CY117" s="17"/>
     </row>
     <row r="118" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="78" t="s">
+      <c r="A118" s="80" t="s">
         <v>57</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -15640,10 +15643,10 @@
       <c r="C118" s="62">
         <v>6</v>
       </c>
-      <c r="D118" s="80">
+      <c r="D118" s="82">
         <v>6.04</v>
       </c>
-      <c r="E118" s="84">
+      <c r="E118" s="79">
         <v>4.05</v>
       </c>
       <c r="F118" s="19"/>
@@ -15748,15 +15751,15 @@
       <c r="CY118" s="17"/>
     </row>
     <row r="119" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="79"/>
+      <c r="A119" s="81"/>
       <c r="B119" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="62">
         <v>5</v>
       </c>
-      <c r="D119" s="88"/>
-      <c r="E119" s="84"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="79"/>
       <c r="F119" s="19"/>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
@@ -15859,7 +15862,7 @@
       <c r="CY119" s="17"/>
     </row>
     <row r="120" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="78" t="s">
+      <c r="A120" s="80" t="s">
         <v>56</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -15868,10 +15871,10 @@
       <c r="C120" s="62">
         <v>1</v>
       </c>
-      <c r="D120" s="80">
+      <c r="D120" s="82">
         <v>6.04</v>
       </c>
-      <c r="E120" s="84">
+      <c r="E120" s="79">
         <v>4.05</v>
       </c>
       <c r="F120" s="19"/>
@@ -15976,15 +15979,15 @@
       <c r="CY120" s="17"/>
     </row>
     <row r="121" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="79"/>
+      <c r="A121" s="81"/>
       <c r="B121" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="62">
         <v>3</v>
       </c>
-      <c r="D121" s="88"/>
-      <c r="E121" s="84"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="79"/>
       <c r="F121" s="19"/>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
@@ -16087,7 +16090,7 @@
       <c r="CY121" s="17"/>
     </row>
     <row r="122" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="78" t="s">
+      <c r="A122" s="80" t="s">
         <v>58</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -16096,10 +16099,10 @@
       <c r="C122" s="62">
         <v>1.5</v>
       </c>
-      <c r="D122" s="80">
+      <c r="D122" s="82">
         <v>6.04</v>
       </c>
-      <c r="E122" s="84">
+      <c r="E122" s="79">
         <v>4.05</v>
       </c>
       <c r="F122" s="19"/>
@@ -16205,15 +16208,15 @@
       <c r="CY122" s="17"/>
     </row>
     <row r="123" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="79"/>
+      <c r="A123" s="81"/>
       <c r="B123" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="62">
         <v>1.5</v>
       </c>
-      <c r="D123" s="88"/>
-      <c r="E123" s="84"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="79"/>
       <c r="F123" s="19"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
@@ -16320,7 +16323,7 @@
       <c r="CY123" s="17"/>
     </row>
     <row r="124" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A124" s="78" t="s">
+      <c r="A124" s="80" t="s">
         <v>59</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -16329,10 +16332,10 @@
       <c r="C124" s="62">
         <v>2</v>
       </c>
-      <c r="D124" s="80">
+      <c r="D124" s="82">
         <v>6.04</v>
       </c>
-      <c r="E124" s="84">
+      <c r="E124" s="79">
         <v>4.05</v>
       </c>
       <c r="F124" s="19"/>
@@ -16439,15 +16442,15 @@
       <c r="CY124" s="17"/>
     </row>
     <row r="125" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A125" s="79"/>
+      <c r="A125" s="81"/>
       <c r="B125" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="62">
         <v>2.5</v>
       </c>
-      <c r="D125" s="81"/>
-      <c r="E125" s="84"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="79"/>
       <c r="F125" s="19"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
@@ -16550,7 +16553,7 @@
       <c r="CY125" s="17"/>
     </row>
     <row r="126" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="78" t="s">
+      <c r="A126" s="80" t="s">
         <v>68</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -16559,10 +16562,10 @@
       <c r="C126" s="62">
         <v>0.5</v>
       </c>
-      <c r="D126" s="80">
+      <c r="D126" s="82">
         <v>6.04</v>
       </c>
-      <c r="E126" s="84">
+      <c r="E126" s="79">
         <v>4.05</v>
       </c>
       <c r="F126" s="19"/>
@@ -16666,15 +16669,15 @@
       <c r="CY126" s="17"/>
     </row>
     <row r="127" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="79"/>
+      <c r="A127" s="81"/>
       <c r="B127" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="62">
         <v>3</v>
       </c>
-      <c r="D127" s="81"/>
-      <c r="E127" s="84"/>
+      <c r="D127" s="78"/>
+      <c r="E127" s="79"/>
       <c r="F127" s="19"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
@@ -16781,10 +16784,10 @@
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="62"/>
-      <c r="D128" s="90">
+      <c r="D128" s="99">
         <v>44320</v>
       </c>
-      <c r="E128" s="91"/>
+      <c r="E128" s="100"/>
       <c r="F128" s="19"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
@@ -17114,17 +17117,17 @@
       <c r="CY130" s="17"/>
     </row>
     <row r="131" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A131" s="78"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="81">
+      <c r="D131" s="78">
         <v>4.05</v>
       </c>
-      <c r="E131" s="84">
+      <c r="E131" s="79">
         <v>18.05</v>
       </c>
       <c r="F131" s="19"/>
@@ -17227,15 +17230,15 @@
       <c r="CY131" s="17"/>
     </row>
     <row r="132" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A132" s="79"/>
+      <c r="A132" s="81"/>
       <c r="B132" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="81"/>
-      <c r="E132" s="84"/>
+      <c r="D132" s="78"/>
+      <c r="E132" s="79"/>
       <c r="F132" s="19"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
@@ -17335,21 +17338,21 @@
       <c r="CX132" s="21"/>
       <c r="CY132" s="17"/>
     </row>
-    <row r="133" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:103" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="61" t="s">
-        <v>10</v>
+      <c r="C133" s="61">
+        <v>12</v>
       </c>
       <c r="D133" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E133" s="67" t="s">
-        <v>10</v>
+      <c r="E133" s="67">
+        <v>12</v>
       </c>
       <c r="F133" s="28"/>
       <c r="G133" s="29"/>
@@ -17450,18 +17453,20 @@
       <c r="CX133" s="30"/>
       <c r="CY133" s="17"/>
     </row>
-    <row r="134" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A134" s="78"/>
+    <row r="134" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="80" t="s">
+        <v>78</v>
+      </c>
       <c r="B134" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C134" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="81">
+      <c r="C134" s="62">
+        <v>8</v>
+      </c>
+      <c r="D134" s="78">
         <v>4.05</v>
       </c>
-      <c r="E134" s="84">
+      <c r="E134" s="79">
         <v>18.05</v>
       </c>
       <c r="F134" s="19"/>
@@ -17535,21 +17540,31 @@
       <c r="BV134" s="20"/>
       <c r="BW134" s="20"/>
       <c r="BX134" s="20"/>
-      <c r="BY134" s="20"/>
-      <c r="BZ134" s="20"/>
-      <c r="CA134" s="20"/>
-      <c r="CB134" s="20"/>
-      <c r="CC134" s="20"/>
-      <c r="CD134" s="20"/>
-      <c r="CE134" s="20"/>
-      <c r="CF134" s="20"/>
-      <c r="CG134" s="20"/>
-      <c r="CH134" s="20"/>
-      <c r="CI134" s="20"/>
-      <c r="CJ134" s="20"/>
-      <c r="CK134" s="20"/>
-      <c r="CL134" s="20"/>
-      <c r="CM134" s="20"/>
+      <c r="BY134" s="42">
+        <v>2</v>
+      </c>
+      <c r="BZ134" s="52"/>
+      <c r="CA134" s="52"/>
+      <c r="CB134" s="42">
+        <v>2</v>
+      </c>
+      <c r="CC134" s="52"/>
+      <c r="CD134" s="52"/>
+      <c r="CE134" s="52"/>
+      <c r="CF134" s="52"/>
+      <c r="CG134" s="42">
+        <v>1</v>
+      </c>
+      <c r="CH134" s="52"/>
+      <c r="CI134" s="42">
+        <v>2</v>
+      </c>
+      <c r="CJ134" s="52"/>
+      <c r="CK134" s="42">
+        <v>1</v>
+      </c>
+      <c r="CL134" s="52"/>
+      <c r="CM134" s="52"/>
       <c r="CN134" s="20"/>
       <c r="CO134" s="20"/>
       <c r="CP134" s="20"/>
@@ -17563,16 +17578,16 @@
       <c r="CX134" s="21"/>
       <c r="CY134" s="17"/>
     </row>
-    <row r="135" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A135" s="79"/>
+    <row r="135" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="81"/>
       <c r="B135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" s="81"/>
-      <c r="E135" s="84"/>
+      <c r="C135" s="62">
+        <v>8</v>
+      </c>
+      <c r="D135" s="78"/>
+      <c r="E135" s="79"/>
       <c r="F135" s="19"/>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
@@ -17644,21 +17659,31 @@
       <c r="BV135" s="20"/>
       <c r="BW135" s="20"/>
       <c r="BX135" s="20"/>
-      <c r="BY135" s="20"/>
-      <c r="BZ135" s="20"/>
-      <c r="CA135" s="20"/>
-      <c r="CB135" s="20"/>
-      <c r="CC135" s="20"/>
-      <c r="CD135" s="20"/>
-      <c r="CE135" s="20"/>
-      <c r="CF135" s="20"/>
-      <c r="CG135" s="20"/>
-      <c r="CH135" s="20"/>
-      <c r="CI135" s="20"/>
-      <c r="CJ135" s="20"/>
-      <c r="CK135" s="20"/>
-      <c r="CL135" s="20"/>
-      <c r="CM135" s="20"/>
+      <c r="BY135" s="41">
+        <v>2</v>
+      </c>
+      <c r="BZ135" s="52"/>
+      <c r="CA135" s="52"/>
+      <c r="CB135" s="41">
+        <v>2</v>
+      </c>
+      <c r="CC135" s="52"/>
+      <c r="CD135" s="52"/>
+      <c r="CE135" s="52"/>
+      <c r="CF135" s="52"/>
+      <c r="CG135" s="41">
+        <v>1</v>
+      </c>
+      <c r="CH135" s="52"/>
+      <c r="CI135" s="41">
+        <v>2</v>
+      </c>
+      <c r="CJ135" s="52"/>
+      <c r="CK135" s="41">
+        <v>1</v>
+      </c>
+      <c r="CL135" s="52"/>
+      <c r="CM135" s="52"/>
       <c r="CN135" s="20"/>
       <c r="CO135" s="20"/>
       <c r="CP135" s="20"/>
@@ -17672,137 +17697,135 @@
       <c r="CX135" s="21"/>
       <c r="CY135" s="17"/>
     </row>
-    <row r="136" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="61">
-        <v>5</v>
-      </c>
-      <c r="D136" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="67">
+    <row r="136" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F136" s="28"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
-      <c r="I136" s="29"/>
-      <c r="J136" s="29"/>
-      <c r="K136" s="29"/>
-      <c r="L136" s="29"/>
-      <c r="M136" s="29"/>
-      <c r="N136" s="29"/>
-      <c r="O136" s="29"/>
-      <c r="P136" s="29"/>
-      <c r="Q136" s="29"/>
-      <c r="R136" s="29"/>
-      <c r="S136" s="29"/>
-      <c r="T136" s="29"/>
-      <c r="U136" s="29"/>
-      <c r="V136" s="29"/>
-      <c r="W136" s="29"/>
-      <c r="X136" s="29"/>
-      <c r="Y136" s="29"/>
-      <c r="Z136" s="29"/>
-      <c r="AA136" s="29"/>
-      <c r="AB136" s="29"/>
-      <c r="AC136" s="29"/>
-      <c r="AD136" s="29"/>
-      <c r="AE136" s="29"/>
-      <c r="AF136" s="29"/>
-      <c r="AG136" s="29"/>
-      <c r="AH136" s="29"/>
-      <c r="AI136" s="29"/>
-      <c r="AJ136" s="29"/>
-      <c r="AK136" s="29"/>
-      <c r="AL136" s="29"/>
-      <c r="AM136" s="29"/>
-      <c r="AN136" s="29"/>
-      <c r="AO136" s="29"/>
-      <c r="AP136" s="29"/>
-      <c r="AQ136" s="29"/>
-      <c r="AR136" s="29"/>
-      <c r="AS136" s="29"/>
-      <c r="AT136" s="29"/>
-      <c r="AU136" s="29"/>
-      <c r="AV136" s="29"/>
-      <c r="AW136" s="29"/>
-      <c r="AX136" s="29"/>
-      <c r="AY136" s="29"/>
-      <c r="AZ136" s="29"/>
-      <c r="BA136" s="29"/>
-      <c r="BB136" s="29"/>
-      <c r="BC136" s="29"/>
-      <c r="BD136" s="29"/>
-      <c r="BE136" s="29"/>
-      <c r="BF136" s="29"/>
-      <c r="BG136" s="29"/>
-      <c r="BH136" s="29"/>
-      <c r="BI136" s="29"/>
-      <c r="BJ136" s="29"/>
-      <c r="BK136" s="29"/>
-      <c r="BL136" s="29"/>
-      <c r="BM136" s="29"/>
-      <c r="BN136" s="29"/>
-      <c r="BO136" s="29"/>
-      <c r="BP136" s="29"/>
-      <c r="BQ136" s="29"/>
-      <c r="BR136" s="29"/>
-      <c r="BS136" s="29"/>
-      <c r="BT136" s="29"/>
-      <c r="BU136" s="29"/>
-      <c r="BV136" s="29"/>
-      <c r="BW136" s="29"/>
-      <c r="BX136" s="29"/>
-      <c r="BY136" s="29"/>
-      <c r="BZ136" s="29"/>
-      <c r="CA136" s="29"/>
-      <c r="CB136" s="29"/>
-      <c r="CC136" s="29"/>
-      <c r="CD136" s="29"/>
-      <c r="CE136" s="29"/>
-      <c r="CF136" s="29"/>
-      <c r="CG136" s="29"/>
-      <c r="CH136" s="29"/>
-      <c r="CI136" s="29"/>
-      <c r="CJ136" s="29"/>
-      <c r="CK136" s="29"/>
-      <c r="CL136" s="29"/>
-      <c r="CM136" s="29"/>
-      <c r="CN136" s="29"/>
-      <c r="CO136" s="29"/>
-      <c r="CP136" s="29"/>
-      <c r="CQ136" s="29"/>
-      <c r="CR136" s="29"/>
-      <c r="CS136" s="29"/>
-      <c r="CT136" s="29"/>
-      <c r="CU136" s="29"/>
-      <c r="CV136" s="29"/>
-      <c r="CW136" s="29"/>
-      <c r="CX136" s="30"/>
+      <c r="C136" s="62">
+        <v>4</v>
+      </c>
+      <c r="D136" s="78">
+        <v>4.05</v>
+      </c>
+      <c r="E136" s="79">
+        <v>18.05</v>
+      </c>
+      <c r="F136" s="19"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="20"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="20"/>
+      <c r="N136" s="20"/>
+      <c r="O136" s="20"/>
+      <c r="P136" s="20"/>
+      <c r="Q136" s="20"/>
+      <c r="R136" s="20"/>
+      <c r="S136" s="20"/>
+      <c r="T136" s="20"/>
+      <c r="U136" s="20"/>
+      <c r="V136" s="20"/>
+      <c r="W136" s="20"/>
+      <c r="X136" s="20"/>
+      <c r="Y136" s="20"/>
+      <c r="Z136" s="20"/>
+      <c r="AA136" s="20"/>
+      <c r="AB136" s="20"/>
+      <c r="AC136" s="20"/>
+      <c r="AD136" s="20"/>
+      <c r="AE136" s="20"/>
+      <c r="AF136" s="20"/>
+      <c r="AG136" s="20"/>
+      <c r="AH136" s="20"/>
+      <c r="AI136" s="20"/>
+      <c r="AJ136" s="20"/>
+      <c r="AK136" s="20"/>
+      <c r="AL136" s="20"/>
+      <c r="AM136" s="20"/>
+      <c r="AN136" s="20"/>
+      <c r="AO136" s="20"/>
+      <c r="AP136" s="20"/>
+      <c r="AQ136" s="20"/>
+      <c r="AR136" s="20"/>
+      <c r="AS136" s="20"/>
+      <c r="AT136" s="20"/>
+      <c r="AU136" s="20"/>
+      <c r="AV136" s="20"/>
+      <c r="AW136" s="20"/>
+      <c r="AX136" s="20"/>
+      <c r="AY136" s="20"/>
+      <c r="AZ136" s="20"/>
+      <c r="BA136" s="20"/>
+      <c r="BB136" s="20"/>
+      <c r="BC136" s="20"/>
+      <c r="BD136" s="20"/>
+      <c r="BE136" s="20"/>
+      <c r="BF136" s="20"/>
+      <c r="BG136" s="20"/>
+      <c r="BH136" s="20"/>
+      <c r="BI136" s="20"/>
+      <c r="BJ136" s="20"/>
+      <c r="BK136" s="20"/>
+      <c r="BL136" s="20"/>
+      <c r="BM136" s="20"/>
+      <c r="BN136" s="20"/>
+      <c r="BO136" s="20"/>
+      <c r="BP136" s="20"/>
+      <c r="BQ136" s="20"/>
+      <c r="BR136" s="20"/>
+      <c r="BS136" s="20"/>
+      <c r="BT136" s="20"/>
+      <c r="BU136" s="20"/>
+      <c r="BV136" s="20"/>
+      <c r="BW136" s="20"/>
+      <c r="BX136" s="20"/>
+      <c r="BY136" s="52"/>
+      <c r="BZ136" s="52"/>
+      <c r="CA136" s="52"/>
+      <c r="CB136" s="52"/>
+      <c r="CC136" s="52"/>
+      <c r="CD136" s="42">
+        <v>3</v>
+      </c>
+      <c r="CE136" s="52"/>
+      <c r="CF136" s="52"/>
+      <c r="CG136" s="52"/>
+      <c r="CH136" s="52"/>
+      <c r="CI136" s="52"/>
+      <c r="CJ136" s="52"/>
+      <c r="CK136" s="52"/>
+      <c r="CL136" s="42">
+        <v>1</v>
+      </c>
+      <c r="CM136" s="52"/>
+      <c r="CN136" s="20"/>
+      <c r="CO136" s="20"/>
+      <c r="CP136" s="20"/>
+      <c r="CQ136" s="20"/>
+      <c r="CR136" s="20"/>
+      <c r="CS136" s="20"/>
+      <c r="CT136" s="20"/>
+      <c r="CU136" s="20"/>
+      <c r="CV136" s="20"/>
+      <c r="CW136" s="20"/>
+      <c r="CX136" s="21"/>
       <c r="CY136" s="17"/>
     </row>
-    <row r="137" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A137" s="78" t="s">
-        <v>78</v>
-      </c>
+    <row r="137" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="81"/>
       <c r="B137" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" s="62">
-        <v>3</v>
-      </c>
-      <c r="D137" s="81">
-        <v>4.05</v>
-      </c>
-      <c r="E137" s="84">
-        <v>18.05</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D137" s="78"/>
+      <c r="E137" s="79"/>
       <c r="F137" s="19"/>
       <c r="G137" s="20"/>
       <c r="H137" s="20"/>
@@ -17874,29 +17897,25 @@
       <c r="BV137" s="20"/>
       <c r="BW137" s="20"/>
       <c r="BX137" s="20"/>
-      <c r="BY137" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="BZ137" s="20"/>
-      <c r="CA137" s="20"/>
-      <c r="CB137" s="20"/>
-      <c r="CC137" s="42">
+      <c r="BY137" s="52"/>
+      <c r="BZ137" s="52"/>
+      <c r="CA137" s="52"/>
+      <c r="CB137" s="52"/>
+      <c r="CC137" s="52"/>
+      <c r="CD137" s="41">
+        <v>3</v>
+      </c>
+      <c r="CE137" s="58"/>
+      <c r="CF137" s="52"/>
+      <c r="CG137" s="52"/>
+      <c r="CH137" s="52"/>
+      <c r="CI137" s="52"/>
+      <c r="CJ137" s="52"/>
+      <c r="CK137" s="52"/>
+      <c r="CL137" s="41">
         <v>1</v>
       </c>
-      <c r="CD137" s="42">
-        <v>1</v>
-      </c>
-      <c r="CE137" s="20"/>
-      <c r="CF137" s="20"/>
-      <c r="CG137" s="20"/>
-      <c r="CH137" s="20"/>
-      <c r="CI137" s="20"/>
-      <c r="CJ137" s="20"/>
-      <c r="CK137" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="CL137" s="20"/>
-      <c r="CM137" s="20"/>
+      <c r="CM137" s="52"/>
       <c r="CN137" s="20"/>
       <c r="CO137" s="20"/>
       <c r="CP137" s="20"/>
@@ -17911,136 +17930,134 @@
       <c r="CY137" s="17"/>
     </row>
     <row r="138" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A138" s="79"/>
-      <c r="B138" s="6" t="s">
+      <c r="A138" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="61">
+        <v>5</v>
+      </c>
+      <c r="D138" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="62">
-        <v>4</v>
-      </c>
-      <c r="D138" s="81"/>
-      <c r="E138" s="84"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="20"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="20"/>
-      <c r="N138" s="20"/>
-      <c r="O138" s="20"/>
-      <c r="P138" s="20"/>
-      <c r="Q138" s="20"/>
-      <c r="R138" s="20"/>
-      <c r="S138" s="20"/>
-      <c r="T138" s="20"/>
-      <c r="U138" s="20"/>
-      <c r="V138" s="20"/>
-      <c r="W138" s="20"/>
-      <c r="X138" s="20"/>
-      <c r="Y138" s="20"/>
-      <c r="Z138" s="20"/>
-      <c r="AA138" s="20"/>
-      <c r="AB138" s="20"/>
-      <c r="AC138" s="20"/>
-      <c r="AD138" s="20"/>
-      <c r="AE138" s="20"/>
-      <c r="AF138" s="20"/>
-      <c r="AG138" s="20"/>
-      <c r="AH138" s="20"/>
-      <c r="AI138" s="20"/>
-      <c r="AJ138" s="20"/>
-      <c r="AK138" s="20"/>
-      <c r="AL138" s="20"/>
-      <c r="AM138" s="20"/>
-      <c r="AN138" s="20"/>
-      <c r="AO138" s="20"/>
-      <c r="AP138" s="20"/>
-      <c r="AQ138" s="20"/>
-      <c r="AR138" s="20"/>
-      <c r="AS138" s="20"/>
-      <c r="AT138" s="20"/>
-      <c r="AU138" s="20"/>
-      <c r="AV138" s="20"/>
-      <c r="AW138" s="20"/>
-      <c r="AX138" s="20"/>
-      <c r="AY138" s="20"/>
-      <c r="AZ138" s="20"/>
-      <c r="BA138" s="20"/>
-      <c r="BB138" s="20"/>
-      <c r="BC138" s="20"/>
-      <c r="BD138" s="20"/>
-      <c r="BE138" s="20"/>
-      <c r="BF138" s="20"/>
-      <c r="BG138" s="20"/>
-      <c r="BH138" s="20"/>
-      <c r="BI138" s="20"/>
-      <c r="BJ138" s="20"/>
-      <c r="BK138" s="20"/>
-      <c r="BL138" s="20"/>
-      <c r="BM138" s="20"/>
-      <c r="BN138" s="20"/>
-      <c r="BO138" s="20"/>
-      <c r="BP138" s="20"/>
-      <c r="BQ138" s="20"/>
-      <c r="BR138" s="20"/>
-      <c r="BS138" s="20"/>
-      <c r="BT138" s="20"/>
-      <c r="BU138" s="20"/>
-      <c r="BV138" s="20"/>
-      <c r="BW138" s="20"/>
-      <c r="BX138" s="20"/>
-      <c r="BY138" s="41">
-        <v>1</v>
-      </c>
-      <c r="BZ138" s="20"/>
-      <c r="CA138" s="20"/>
-      <c r="CB138" s="20"/>
-      <c r="CC138" s="41">
-        <v>1</v>
-      </c>
-      <c r="CD138" s="41">
-        <v>1</v>
-      </c>
-      <c r="CE138" s="20"/>
-      <c r="CF138" s="20"/>
-      <c r="CG138" s="20"/>
-      <c r="CH138" s="20"/>
-      <c r="CI138" s="20"/>
-      <c r="CJ138" s="20"/>
-      <c r="CK138" s="41">
-        <v>1</v>
-      </c>
-      <c r="CL138" s="20"/>
-      <c r="CM138" s="20"/>
-      <c r="CN138" s="20"/>
-      <c r="CO138" s="20"/>
-      <c r="CP138" s="20"/>
-      <c r="CQ138" s="20"/>
-      <c r="CR138" s="20"/>
-      <c r="CS138" s="20"/>
-      <c r="CT138" s="20"/>
-      <c r="CU138" s="20"/>
-      <c r="CV138" s="20"/>
-      <c r="CW138" s="20"/>
-      <c r="CX138" s="21"/>
+      <c r="E138" s="67">
+        <v>6</v>
+      </c>
+      <c r="F138" s="28"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29"/>
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="29"/>
+      <c r="P138" s="29"/>
+      <c r="Q138" s="29"/>
+      <c r="R138" s="29"/>
+      <c r="S138" s="29"/>
+      <c r="T138" s="29"/>
+      <c r="U138" s="29"/>
+      <c r="V138" s="29"/>
+      <c r="W138" s="29"/>
+      <c r="X138" s="29"/>
+      <c r="Y138" s="29"/>
+      <c r="Z138" s="29"/>
+      <c r="AA138" s="29"/>
+      <c r="AB138" s="29"/>
+      <c r="AC138" s="29"/>
+      <c r="AD138" s="29"/>
+      <c r="AE138" s="29"/>
+      <c r="AF138" s="29"/>
+      <c r="AG138" s="29"/>
+      <c r="AH138" s="29"/>
+      <c r="AI138" s="29"/>
+      <c r="AJ138" s="29"/>
+      <c r="AK138" s="29"/>
+      <c r="AL138" s="29"/>
+      <c r="AM138" s="29"/>
+      <c r="AN138" s="29"/>
+      <c r="AO138" s="29"/>
+      <c r="AP138" s="29"/>
+      <c r="AQ138" s="29"/>
+      <c r="AR138" s="29"/>
+      <c r="AS138" s="29"/>
+      <c r="AT138" s="29"/>
+      <c r="AU138" s="29"/>
+      <c r="AV138" s="29"/>
+      <c r="AW138" s="29"/>
+      <c r="AX138" s="29"/>
+      <c r="AY138" s="29"/>
+      <c r="AZ138" s="29"/>
+      <c r="BA138" s="29"/>
+      <c r="BB138" s="29"/>
+      <c r="BC138" s="29"/>
+      <c r="BD138" s="29"/>
+      <c r="BE138" s="29"/>
+      <c r="BF138" s="29"/>
+      <c r="BG138" s="29"/>
+      <c r="BH138" s="29"/>
+      <c r="BI138" s="29"/>
+      <c r="BJ138" s="29"/>
+      <c r="BK138" s="29"/>
+      <c r="BL138" s="29"/>
+      <c r="BM138" s="29"/>
+      <c r="BN138" s="29"/>
+      <c r="BO138" s="29"/>
+      <c r="BP138" s="29"/>
+      <c r="BQ138" s="29"/>
+      <c r="BR138" s="29"/>
+      <c r="BS138" s="29"/>
+      <c r="BT138" s="29"/>
+      <c r="BU138" s="29"/>
+      <c r="BV138" s="29"/>
+      <c r="BW138" s="29"/>
+      <c r="BX138" s="29"/>
+      <c r="BY138" s="29"/>
+      <c r="BZ138" s="29"/>
+      <c r="CA138" s="29"/>
+      <c r="CB138" s="29"/>
+      <c r="CC138" s="29"/>
+      <c r="CD138" s="29"/>
+      <c r="CE138" s="29"/>
+      <c r="CF138" s="29"/>
+      <c r="CG138" s="29"/>
+      <c r="CH138" s="29"/>
+      <c r="CI138" s="29"/>
+      <c r="CJ138" s="29"/>
+      <c r="CK138" s="29"/>
+      <c r="CL138" s="29"/>
+      <c r="CM138" s="29"/>
+      <c r="CN138" s="29"/>
+      <c r="CO138" s="29"/>
+      <c r="CP138" s="29"/>
+      <c r="CQ138" s="29"/>
+      <c r="CR138" s="29"/>
+      <c r="CS138" s="29"/>
+      <c r="CT138" s="29"/>
+      <c r="CU138" s="29"/>
+      <c r="CV138" s="29"/>
+      <c r="CW138" s="29"/>
+      <c r="CX138" s="30"/>
       <c r="CY138" s="17"/>
     </row>
-    <row r="139" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="78" t="s">
-        <v>79</v>
+    <row r="139" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A139" s="80" t="s">
+        <v>78</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="62">
-        <v>2</v>
-      </c>
-      <c r="D139" s="81">
+        <v>3</v>
+      </c>
+      <c r="D139" s="78">
         <v>4.05</v>
       </c>
-      <c r="E139" s="84">
+      <c r="E139" s="79">
         <v>18.05</v>
       </c>
       <c r="F139" s="19"/>
@@ -18114,11 +18131,15 @@
       <c r="BV139" s="20"/>
       <c r="BW139" s="20"/>
       <c r="BX139" s="20"/>
-      <c r="BY139" s="20"/>
+      <c r="BY139" s="42">
+        <v>0.5</v>
+      </c>
       <c r="BZ139" s="20"/>
       <c r="CA139" s="20"/>
       <c r="CB139" s="20"/>
-      <c r="CC139" s="20"/>
+      <c r="CC139" s="42">
+        <v>1</v>
+      </c>
       <c r="CD139" s="42">
         <v>1</v>
       </c>
@@ -18128,10 +18149,10 @@
       <c r="CH139" s="20"/>
       <c r="CI139" s="20"/>
       <c r="CJ139" s="20"/>
-      <c r="CK139" s="20"/>
-      <c r="CL139" s="42">
-        <v>1</v>
-      </c>
+      <c r="CK139" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="CL139" s="20"/>
       <c r="CM139" s="20"/>
       <c r="CN139" s="20"/>
       <c r="CO139" s="20"/>
@@ -18146,16 +18167,16 @@
       <c r="CX139" s="21"/>
       <c r="CY139" s="17"/>
     </row>
-    <row r="140" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="79"/>
+    <row r="140" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A140" s="81"/>
       <c r="B140" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="62">
-        <v>2</v>
-      </c>
-      <c r="D140" s="81"/>
-      <c r="E140" s="84"/>
+        <v>4</v>
+      </c>
+      <c r="D140" s="78"/>
+      <c r="E140" s="79"/>
       <c r="F140" s="19"/>
       <c r="G140" s="20"/>
       <c r="H140" s="20"/>
@@ -18227,11 +18248,15 @@
       <c r="BV140" s="20"/>
       <c r="BW140" s="20"/>
       <c r="BX140" s="20"/>
-      <c r="BY140" s="20"/>
+      <c r="BY140" s="41">
+        <v>1</v>
+      </c>
       <c r="BZ140" s="20"/>
       <c r="CA140" s="20"/>
       <c r="CB140" s="20"/>
-      <c r="CC140" s="20"/>
+      <c r="CC140" s="41">
+        <v>1</v>
+      </c>
       <c r="CD140" s="41">
         <v>1</v>
       </c>
@@ -18241,10 +18266,10 @@
       <c r="CH140" s="20"/>
       <c r="CI140" s="20"/>
       <c r="CJ140" s="20"/>
-      <c r="CK140" s="20"/>
-      <c r="CL140" s="41">
+      <c r="CK140" s="41">
         <v>1</v>
       </c>
+      <c r="CL140" s="20"/>
       <c r="CM140" s="20"/>
       <c r="CN140" s="20"/>
       <c r="CO140" s="20"/>
@@ -18259,137 +18284,135 @@
       <c r="CX140" s="21"/>
       <c r="CY140" s="17"/>
     </row>
-    <row r="141" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="28"/>
-      <c r="G141" s="29"/>
-      <c r="H141" s="29"/>
-      <c r="I141" s="29"/>
-      <c r="J141" s="29"/>
-      <c r="K141" s="29"/>
-      <c r="L141" s="29"/>
-      <c r="M141" s="29"/>
-      <c r="N141" s="29"/>
-      <c r="O141" s="29"/>
-      <c r="P141" s="29"/>
-      <c r="Q141" s="29"/>
-      <c r="R141" s="29"/>
-      <c r="S141" s="29"/>
-      <c r="T141" s="29"/>
-      <c r="U141" s="29"/>
-      <c r="V141" s="29"/>
-      <c r="W141" s="29"/>
-      <c r="X141" s="29"/>
-      <c r="Y141" s="29"/>
-      <c r="Z141" s="29"/>
-      <c r="AA141" s="29"/>
-      <c r="AB141" s="29"/>
-      <c r="AC141" s="29"/>
-      <c r="AD141" s="29"/>
-      <c r="AE141" s="29"/>
-      <c r="AF141" s="29"/>
-      <c r="AG141" s="29"/>
-      <c r="AH141" s="29"/>
-      <c r="AI141" s="29"/>
-      <c r="AJ141" s="29"/>
-      <c r="AK141" s="29"/>
-      <c r="AL141" s="29"/>
-      <c r="AM141" s="29"/>
-      <c r="AN141" s="29"/>
-      <c r="AO141" s="29"/>
-      <c r="AP141" s="29"/>
-      <c r="AQ141" s="29"/>
-      <c r="AR141" s="29"/>
-      <c r="AS141" s="29"/>
-      <c r="AT141" s="29"/>
-      <c r="AU141" s="29"/>
-      <c r="AV141" s="29"/>
-      <c r="AW141" s="29"/>
-      <c r="AX141" s="29"/>
-      <c r="AY141" s="29"/>
-      <c r="AZ141" s="29"/>
-      <c r="BA141" s="29"/>
-      <c r="BB141" s="29"/>
-      <c r="BC141" s="29"/>
-      <c r="BD141" s="29"/>
-      <c r="BE141" s="29"/>
-      <c r="BF141" s="29"/>
-      <c r="BG141" s="29"/>
-      <c r="BH141" s="29"/>
-      <c r="BI141" s="29"/>
-      <c r="BJ141" s="29"/>
-      <c r="BK141" s="29"/>
-      <c r="BL141" s="29"/>
-      <c r="BM141" s="29"/>
-      <c r="BN141" s="29"/>
-      <c r="BO141" s="29"/>
-      <c r="BP141" s="29"/>
-      <c r="BQ141" s="29"/>
-      <c r="BR141" s="29"/>
-      <c r="BS141" s="29"/>
-      <c r="BT141" s="29"/>
-      <c r="BU141" s="29"/>
-      <c r="BV141" s="29"/>
-      <c r="BW141" s="29"/>
-      <c r="BX141" s="29"/>
-      <c r="BY141" s="29"/>
-      <c r="BZ141" s="29"/>
-      <c r="CA141" s="29"/>
-      <c r="CB141" s="29"/>
-      <c r="CC141" s="29"/>
-      <c r="CD141" s="29"/>
-      <c r="CE141" s="29"/>
-      <c r="CF141" s="29"/>
-      <c r="CG141" s="29"/>
-      <c r="CH141" s="29"/>
-      <c r="CI141" s="29"/>
-      <c r="CJ141" s="29"/>
-      <c r="CK141" s="29"/>
-      <c r="CL141" s="29"/>
-      <c r="CM141" s="29"/>
-      <c r="CN141" s="29"/>
-      <c r="CO141" s="29"/>
-      <c r="CP141" s="29"/>
-      <c r="CQ141" s="29"/>
-      <c r="CR141" s="29"/>
-      <c r="CS141" s="29"/>
-      <c r="CT141" s="29"/>
-      <c r="CU141" s="29"/>
-      <c r="CV141" s="29"/>
-      <c r="CW141" s="29"/>
-      <c r="CX141" s="30"/>
+    <row r="141" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="62">
+        <v>2</v>
+      </c>
+      <c r="D141" s="78">
+        <v>4.05</v>
+      </c>
+      <c r="E141" s="79">
+        <v>18.05</v>
+      </c>
+      <c r="F141" s="19"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="20"/>
+      <c r="O141" s="20"/>
+      <c r="P141" s="20"/>
+      <c r="Q141" s="20"/>
+      <c r="R141" s="20"/>
+      <c r="S141" s="20"/>
+      <c r="T141" s="20"/>
+      <c r="U141" s="20"/>
+      <c r="V141" s="20"/>
+      <c r="W141" s="20"/>
+      <c r="X141" s="20"/>
+      <c r="Y141" s="20"/>
+      <c r="Z141" s="20"/>
+      <c r="AA141" s="20"/>
+      <c r="AB141" s="20"/>
+      <c r="AC141" s="20"/>
+      <c r="AD141" s="20"/>
+      <c r="AE141" s="20"/>
+      <c r="AF141" s="20"/>
+      <c r="AG141" s="20"/>
+      <c r="AH141" s="20"/>
+      <c r="AI141" s="20"/>
+      <c r="AJ141" s="20"/>
+      <c r="AK141" s="20"/>
+      <c r="AL141" s="20"/>
+      <c r="AM141" s="20"/>
+      <c r="AN141" s="20"/>
+      <c r="AO141" s="20"/>
+      <c r="AP141" s="20"/>
+      <c r="AQ141" s="20"/>
+      <c r="AR141" s="20"/>
+      <c r="AS141" s="20"/>
+      <c r="AT141" s="20"/>
+      <c r="AU141" s="20"/>
+      <c r="AV141" s="20"/>
+      <c r="AW141" s="20"/>
+      <c r="AX141" s="20"/>
+      <c r="AY141" s="20"/>
+      <c r="AZ141" s="20"/>
+      <c r="BA141" s="20"/>
+      <c r="BB141" s="20"/>
+      <c r="BC141" s="20"/>
+      <c r="BD141" s="20"/>
+      <c r="BE141" s="20"/>
+      <c r="BF141" s="20"/>
+      <c r="BG141" s="20"/>
+      <c r="BH141" s="20"/>
+      <c r="BI141" s="20"/>
+      <c r="BJ141" s="20"/>
+      <c r="BK141" s="20"/>
+      <c r="BL141" s="20"/>
+      <c r="BM141" s="20"/>
+      <c r="BN141" s="20"/>
+      <c r="BO141" s="20"/>
+      <c r="BP141" s="20"/>
+      <c r="BQ141" s="20"/>
+      <c r="BR141" s="20"/>
+      <c r="BS141" s="20"/>
+      <c r="BT141" s="20"/>
+      <c r="BU141" s="20"/>
+      <c r="BV141" s="20"/>
+      <c r="BW141" s="20"/>
+      <c r="BX141" s="20"/>
+      <c r="BY141" s="20"/>
+      <c r="BZ141" s="20"/>
+      <c r="CA141" s="20"/>
+      <c r="CB141" s="20"/>
+      <c r="CC141" s="20"/>
+      <c r="CD141" s="42">
+        <v>1</v>
+      </c>
+      <c r="CE141" s="20"/>
+      <c r="CF141" s="20"/>
+      <c r="CG141" s="20"/>
+      <c r="CH141" s="20"/>
+      <c r="CI141" s="20"/>
+      <c r="CJ141" s="20"/>
+      <c r="CK141" s="20"/>
+      <c r="CL141" s="42">
+        <v>1</v>
+      </c>
+      <c r="CM141" s="20"/>
+      <c r="CN141" s="20"/>
+      <c r="CO141" s="20"/>
+      <c r="CP141" s="20"/>
+      <c r="CQ141" s="20"/>
+      <c r="CR141" s="20"/>
+      <c r="CS141" s="20"/>
+      <c r="CT141" s="20"/>
+      <c r="CU141" s="20"/>
+      <c r="CV141" s="20"/>
+      <c r="CW141" s="20"/>
+      <c r="CX141" s="21"/>
       <c r="CY141" s="17"/>
     </row>
-    <row r="142" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A142" s="78" t="s">
-        <v>76</v>
-      </c>
+    <row r="142" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="81"/>
       <c r="B142" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142" s="62">
         <v>2</v>
       </c>
-      <c r="D142" s="81">
-        <v>4.05</v>
-      </c>
-      <c r="E142" s="84">
-        <v>18.05</v>
-      </c>
+      <c r="D142" s="78"/>
+      <c r="E142" s="79"/>
       <c r="F142" s="19"/>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
@@ -18463,24 +18486,22 @@
       <c r="BX142" s="20"/>
       <c r="BY142" s="20"/>
       <c r="BZ142" s="20"/>
-      <c r="CA142" s="42">
+      <c r="CA142" s="20"/>
+      <c r="CB142" s="20"/>
+      <c r="CC142" s="20"/>
+      <c r="CD142" s="41">
         <v>1</v>
       </c>
-      <c r="CB142" s="42">
-        <v>1</v>
-      </c>
-      <c r="CC142" s="20"/>
-      <c r="CD142" s="20"/>
       <c r="CE142" s="20"/>
       <c r="CF142" s="20"/>
-      <c r="CG142" s="42">
-        <v>2</v>
-      </c>
+      <c r="CG142" s="20"/>
       <c r="CH142" s="20"/>
       <c r="CI142" s="20"/>
       <c r="CJ142" s="20"/>
       <c r="CK142" s="20"/>
-      <c r="CL142" s="20"/>
+      <c r="CL142" s="41">
+        <v>1</v>
+      </c>
       <c r="CM142" s="20"/>
       <c r="CN142" s="20"/>
       <c r="CO142" s="20"/>
@@ -18496,134 +18517,134 @@
       <c r="CY142" s="17"/>
     </row>
     <row r="143" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A143" s="79"/>
-      <c r="B143" s="6" t="s">
+      <c r="A143" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="62">
-        <v>4</v>
-      </c>
-      <c r="D143" s="81"/>
-      <c r="E143" s="84"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="20"/>
-      <c r="L143" s="20"/>
-      <c r="M143" s="20"/>
-      <c r="N143" s="20"/>
-      <c r="O143" s="20"/>
-      <c r="P143" s="20"/>
-      <c r="Q143" s="20"/>
-      <c r="R143" s="20"/>
-      <c r="S143" s="20"/>
-      <c r="T143" s="20"/>
-      <c r="U143" s="20"/>
-      <c r="V143" s="20"/>
-      <c r="W143" s="20"/>
-      <c r="X143" s="20"/>
-      <c r="Y143" s="20"/>
-      <c r="Z143" s="20"/>
-      <c r="AA143" s="20"/>
-      <c r="AB143" s="20"/>
-      <c r="AC143" s="20"/>
-      <c r="AD143" s="20"/>
-      <c r="AE143" s="20"/>
-      <c r="AF143" s="20"/>
-      <c r="AG143" s="20"/>
-      <c r="AH143" s="20"/>
-      <c r="AI143" s="20"/>
-      <c r="AJ143" s="20"/>
-      <c r="AK143" s="20"/>
-      <c r="AL143" s="20"/>
-      <c r="AM143" s="20"/>
-      <c r="AN143" s="20"/>
-      <c r="AO143" s="20"/>
-      <c r="AP143" s="20"/>
-      <c r="AQ143" s="20"/>
-      <c r="AR143" s="20"/>
-      <c r="AS143" s="20"/>
-      <c r="AT143" s="20"/>
-      <c r="AU143" s="20"/>
-      <c r="AV143" s="20"/>
-      <c r="AW143" s="20"/>
-      <c r="AX143" s="20"/>
-      <c r="AY143" s="20"/>
-      <c r="AZ143" s="20"/>
-      <c r="BA143" s="20"/>
-      <c r="BB143" s="20"/>
-      <c r="BC143" s="20"/>
-      <c r="BD143" s="20"/>
-      <c r="BE143" s="20"/>
-      <c r="BF143" s="20"/>
-      <c r="BG143" s="20"/>
-      <c r="BH143" s="20"/>
-      <c r="BI143" s="20"/>
-      <c r="BJ143" s="20"/>
-      <c r="BK143" s="20"/>
-      <c r="BL143" s="20"/>
-      <c r="BM143" s="20"/>
-      <c r="BN143" s="20"/>
-      <c r="BO143" s="20"/>
-      <c r="BP143" s="20"/>
-      <c r="BQ143" s="20"/>
-      <c r="BR143" s="20"/>
-      <c r="BS143" s="20"/>
-      <c r="BT143" s="20"/>
-      <c r="BU143" s="20"/>
-      <c r="BV143" s="20"/>
-      <c r="BW143" s="20"/>
-      <c r="BX143" s="20"/>
-      <c r="BY143" s="20"/>
-      <c r="BZ143" s="20"/>
-      <c r="CA143" s="41">
-        <v>1</v>
-      </c>
-      <c r="CB143" s="41">
-        <v>1</v>
-      </c>
-      <c r="CC143" s="20"/>
-      <c r="CD143" s="20"/>
-      <c r="CE143" s="20"/>
-      <c r="CF143" s="20"/>
-      <c r="CG143" s="41">
-        <v>2</v>
-      </c>
-      <c r="CH143" s="20"/>
-      <c r="CI143" s="20"/>
-      <c r="CJ143" s="20"/>
-      <c r="CK143" s="20"/>
-      <c r="CL143" s="20"/>
-      <c r="CM143" s="20"/>
-      <c r="CN143" s="20"/>
-      <c r="CO143" s="20"/>
-      <c r="CP143" s="20"/>
-      <c r="CQ143" s="20"/>
-      <c r="CR143" s="20"/>
-      <c r="CS143" s="20"/>
-      <c r="CT143" s="20"/>
-      <c r="CU143" s="20"/>
-      <c r="CV143" s="20"/>
-      <c r="CW143" s="20"/>
-      <c r="CX143" s="21"/>
+      <c r="E143" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="28"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="29"/>
+      <c r="M143" s="29"/>
+      <c r="N143" s="29"/>
+      <c r="O143" s="29"/>
+      <c r="P143" s="29"/>
+      <c r="Q143" s="29"/>
+      <c r="R143" s="29"/>
+      <c r="S143" s="29"/>
+      <c r="T143" s="29"/>
+      <c r="U143" s="29"/>
+      <c r="V143" s="29"/>
+      <c r="W143" s="29"/>
+      <c r="X143" s="29"/>
+      <c r="Y143" s="29"/>
+      <c r="Z143" s="29"/>
+      <c r="AA143" s="29"/>
+      <c r="AB143" s="29"/>
+      <c r="AC143" s="29"/>
+      <c r="AD143" s="29"/>
+      <c r="AE143" s="29"/>
+      <c r="AF143" s="29"/>
+      <c r="AG143" s="29"/>
+      <c r="AH143" s="29"/>
+      <c r="AI143" s="29"/>
+      <c r="AJ143" s="29"/>
+      <c r="AK143" s="29"/>
+      <c r="AL143" s="29"/>
+      <c r="AM143" s="29"/>
+      <c r="AN143" s="29"/>
+      <c r="AO143" s="29"/>
+      <c r="AP143" s="29"/>
+      <c r="AQ143" s="29"/>
+      <c r="AR143" s="29"/>
+      <c r="AS143" s="29"/>
+      <c r="AT143" s="29"/>
+      <c r="AU143" s="29"/>
+      <c r="AV143" s="29"/>
+      <c r="AW143" s="29"/>
+      <c r="AX143" s="29"/>
+      <c r="AY143" s="29"/>
+      <c r="AZ143" s="29"/>
+      <c r="BA143" s="29"/>
+      <c r="BB143" s="29"/>
+      <c r="BC143" s="29"/>
+      <c r="BD143" s="29"/>
+      <c r="BE143" s="29"/>
+      <c r="BF143" s="29"/>
+      <c r="BG143" s="29"/>
+      <c r="BH143" s="29"/>
+      <c r="BI143" s="29"/>
+      <c r="BJ143" s="29"/>
+      <c r="BK143" s="29"/>
+      <c r="BL143" s="29"/>
+      <c r="BM143" s="29"/>
+      <c r="BN143" s="29"/>
+      <c r="BO143" s="29"/>
+      <c r="BP143" s="29"/>
+      <c r="BQ143" s="29"/>
+      <c r="BR143" s="29"/>
+      <c r="BS143" s="29"/>
+      <c r="BT143" s="29"/>
+      <c r="BU143" s="29"/>
+      <c r="BV143" s="29"/>
+      <c r="BW143" s="29"/>
+      <c r="BX143" s="29"/>
+      <c r="BY143" s="29"/>
+      <c r="BZ143" s="29"/>
+      <c r="CA143" s="29"/>
+      <c r="CB143" s="29"/>
+      <c r="CC143" s="29"/>
+      <c r="CD143" s="29"/>
+      <c r="CE143" s="29"/>
+      <c r="CF143" s="29"/>
+      <c r="CG143" s="29"/>
+      <c r="CH143" s="29"/>
+      <c r="CI143" s="29"/>
+      <c r="CJ143" s="29"/>
+      <c r="CK143" s="29"/>
+      <c r="CL143" s="29"/>
+      <c r="CM143" s="29"/>
+      <c r="CN143" s="29"/>
+      <c r="CO143" s="29"/>
+      <c r="CP143" s="29"/>
+      <c r="CQ143" s="29"/>
+      <c r="CR143" s="29"/>
+      <c r="CS143" s="29"/>
+      <c r="CT143" s="29"/>
+      <c r="CU143" s="29"/>
+      <c r="CV143" s="29"/>
+      <c r="CW143" s="29"/>
+      <c r="CX143" s="30"/>
       <c r="CY143" s="17"/>
     </row>
-    <row r="144" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="78" t="s">
-        <v>75</v>
+    <row r="144" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A144" s="80" t="s">
+        <v>76</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="62">
-        <v>5</v>
-      </c>
-      <c r="D144" s="81">
+        <v>2</v>
+      </c>
+      <c r="D144" s="78">
         <v>4.05</v>
       </c>
-      <c r="E144" s="84">
+      <c r="E144" s="79">
         <v>18.05</v>
       </c>
       <c r="F144" s="19"/>
@@ -18699,7 +18720,9 @@
       <c r="BX144" s="20"/>
       <c r="BY144" s="20"/>
       <c r="BZ144" s="20"/>
-      <c r="CA144" s="20"/>
+      <c r="CA144" s="42">
+        <v>1</v>
+      </c>
       <c r="CB144" s="42">
         <v>1</v>
       </c>
@@ -18708,18 +18731,12 @@
       <c r="CE144" s="20"/>
       <c r="CF144" s="20"/>
       <c r="CG144" s="42">
-        <v>1</v>
-      </c>
-      <c r="CH144" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="CI144" s="42">
-        <v>0.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="CH144" s="20"/>
+      <c r="CI144" s="20"/>
       <c r="CJ144" s="20"/>
-      <c r="CK144" s="42">
-        <v>1</v>
-      </c>
+      <c r="CK144" s="20"/>
       <c r="CL144" s="20"/>
       <c r="CM144" s="20"/>
       <c r="CN144" s="20"/>
@@ -18735,16 +18752,16 @@
       <c r="CX144" s="21"/>
       <c r="CY144" s="17"/>
     </row>
-    <row r="145" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="79"/>
+    <row r="145" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A145" s="81"/>
       <c r="B145" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="62">
-        <v>4.5</v>
-      </c>
-      <c r="D145" s="81"/>
-      <c r="E145" s="84"/>
+        <v>4</v>
+      </c>
+      <c r="D145" s="78"/>
+      <c r="E145" s="79"/>
       <c r="F145" s="19"/>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
@@ -18818,7 +18835,9 @@
       <c r="BX145" s="20"/>
       <c r="BY145" s="20"/>
       <c r="BZ145" s="20"/>
-      <c r="CA145" s="20"/>
+      <c r="CA145" s="41">
+        <v>1</v>
+      </c>
       <c r="CB145" s="41">
         <v>1</v>
       </c>
@@ -18827,18 +18846,12 @@
       <c r="CE145" s="20"/>
       <c r="CF145" s="20"/>
       <c r="CG145" s="41">
-        <v>1</v>
-      </c>
-      <c r="CH145" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="CI145" s="41">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="CH145" s="20"/>
+      <c r="CI145" s="20"/>
       <c r="CJ145" s="20"/>
-      <c r="CK145" s="41">
-        <v>1</v>
-      </c>
+      <c r="CK145" s="20"/>
       <c r="CL145" s="20"/>
       <c r="CM145" s="20"/>
       <c r="CN145" s="20"/>
@@ -18855,19 +18868,19 @@
       <c r="CY145" s="17"/>
     </row>
     <row r="146" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="78" t="s">
-        <v>77</v>
+      <c r="A146" s="80" t="s">
+        <v>75</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C146" s="62">
-        <v>1</v>
-      </c>
-      <c r="D146" s="81">
+        <v>5</v>
+      </c>
+      <c r="D146" s="78">
         <v>4.05</v>
       </c>
-      <c r="E146" s="84">
+      <c r="E146" s="79">
         <v>18.05</v>
       </c>
       <c r="F146" s="19"/>
@@ -18944,19 +18957,27 @@
       <c r="BY146" s="20"/>
       <c r="BZ146" s="20"/>
       <c r="CA146" s="20"/>
-      <c r="CB146" s="20"/>
+      <c r="CB146" s="42">
+        <v>1</v>
+      </c>
       <c r="CC146" s="20"/>
       <c r="CD146" s="20"/>
       <c r="CE146" s="20"/>
       <c r="CF146" s="20"/>
-      <c r="CG146" s="20"/>
-      <c r="CH146" s="20"/>
-      <c r="CI146" s="20"/>
+      <c r="CG146" s="42">
+        <v>1</v>
+      </c>
+      <c r="CH146" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="CI146" s="42">
+        <v>0.5</v>
+      </c>
       <c r="CJ146" s="20"/>
-      <c r="CK146" s="20"/>
-      <c r="CL146" s="42">
+      <c r="CK146" s="42">
         <v>1</v>
       </c>
+      <c r="CL146" s="20"/>
       <c r="CM146" s="20"/>
       <c r="CN146" s="20"/>
       <c r="CO146" s="20"/>
@@ -18972,15 +18993,15 @@
       <c r="CY146" s="17"/>
     </row>
     <row r="147" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="79"/>
+      <c r="A147" s="81"/>
       <c r="B147" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="62">
-        <v>1</v>
-      </c>
-      <c r="D147" s="81"/>
-      <c r="E147" s="84"/>
+        <v>4.5</v>
+      </c>
+      <c r="D147" s="78"/>
+      <c r="E147" s="79"/>
       <c r="F147" s="19"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
@@ -19055,19 +19076,27 @@
       <c r="BY147" s="20"/>
       <c r="BZ147" s="20"/>
       <c r="CA147" s="20"/>
-      <c r="CB147" s="20"/>
+      <c r="CB147" s="41">
+        <v>1</v>
+      </c>
       <c r="CC147" s="20"/>
       <c r="CD147" s="20"/>
       <c r="CE147" s="20"/>
       <c r="CF147" s="20"/>
-      <c r="CG147" s="20"/>
-      <c r="CH147" s="20"/>
-      <c r="CI147" s="20"/>
+      <c r="CG147" s="41">
+        <v>1</v>
+      </c>
+      <c r="CH147" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="CI147" s="41">
+        <v>1</v>
+      </c>
       <c r="CJ147" s="20"/>
-      <c r="CK147" s="20"/>
-      <c r="CL147" s="41">
+      <c r="CK147" s="41">
         <v>1</v>
       </c>
+      <c r="CL147" s="20"/>
       <c r="CM147" s="20"/>
       <c r="CN147" s="20"/>
       <c r="CO147" s="20"/>
@@ -19082,135 +19111,133 @@
       <c r="CX147" s="21"/>
       <c r="CY147" s="17"/>
     </row>
-    <row r="148" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" s="28"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="29"/>
-      <c r="I148" s="29"/>
-      <c r="J148" s="29"/>
-      <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
-      <c r="M148" s="29"/>
-      <c r="N148" s="29"/>
-      <c r="O148" s="29"/>
-      <c r="P148" s="29"/>
-      <c r="Q148" s="29"/>
-      <c r="R148" s="29"/>
-      <c r="S148" s="29"/>
-      <c r="T148" s="29"/>
-      <c r="U148" s="29"/>
-      <c r="V148" s="29"/>
-      <c r="W148" s="29"/>
-      <c r="X148" s="29"/>
-      <c r="Y148" s="29"/>
-      <c r="Z148" s="29"/>
-      <c r="AA148" s="29"/>
-      <c r="AB148" s="29"/>
-      <c r="AC148" s="29"/>
-      <c r="AD148" s="29"/>
-      <c r="AE148" s="29"/>
-      <c r="AF148" s="29"/>
-      <c r="AG148" s="29"/>
-      <c r="AH148" s="29"/>
-      <c r="AI148" s="29"/>
-      <c r="AJ148" s="29"/>
-      <c r="AK148" s="29"/>
-      <c r="AL148" s="29"/>
-      <c r="AM148" s="29"/>
-      <c r="AN148" s="29"/>
-      <c r="AO148" s="29"/>
-      <c r="AP148" s="29"/>
-      <c r="AQ148" s="29"/>
-      <c r="AR148" s="29"/>
-      <c r="AS148" s="29"/>
-      <c r="AT148" s="29"/>
-      <c r="AU148" s="29"/>
-      <c r="AV148" s="29"/>
-      <c r="AW148" s="29"/>
-      <c r="AX148" s="29"/>
-      <c r="AY148" s="29"/>
-      <c r="AZ148" s="29"/>
-      <c r="BA148" s="29"/>
-      <c r="BB148" s="29"/>
-      <c r="BC148" s="29"/>
-      <c r="BD148" s="29"/>
-      <c r="BE148" s="29"/>
-      <c r="BF148" s="29"/>
-      <c r="BG148" s="29"/>
-      <c r="BH148" s="29"/>
-      <c r="BI148" s="29"/>
-      <c r="BJ148" s="29"/>
-      <c r="BK148" s="29"/>
-      <c r="BL148" s="29"/>
-      <c r="BM148" s="29"/>
-      <c r="BN148" s="29"/>
-      <c r="BO148" s="29"/>
-      <c r="BP148" s="29"/>
-      <c r="BQ148" s="29"/>
-      <c r="BR148" s="29"/>
-      <c r="BS148" s="29"/>
-      <c r="BT148" s="29"/>
-      <c r="BU148" s="29"/>
-      <c r="BV148" s="29"/>
-      <c r="BW148" s="29"/>
-      <c r="BX148" s="29"/>
-      <c r="BY148" s="29"/>
-      <c r="BZ148" s="29"/>
-      <c r="CA148" s="29"/>
-      <c r="CB148" s="29"/>
-      <c r="CC148" s="29"/>
-      <c r="CD148" s="29"/>
-      <c r="CE148" s="29"/>
-      <c r="CF148" s="29"/>
-      <c r="CG148" s="29"/>
-      <c r="CH148" s="29"/>
-      <c r="CI148" s="29"/>
-      <c r="CJ148" s="29"/>
-      <c r="CK148" s="29"/>
-      <c r="CL148" s="29"/>
-      <c r="CM148" s="29"/>
-      <c r="CN148" s="29"/>
-      <c r="CO148" s="29"/>
-      <c r="CP148" s="29"/>
-      <c r="CQ148" s="29"/>
-      <c r="CR148" s="29"/>
-      <c r="CS148" s="29"/>
-      <c r="CT148" s="29"/>
-      <c r="CU148" s="29"/>
-      <c r="CV148" s="29"/>
-      <c r="CW148" s="29"/>
-      <c r="CX148" s="30"/>
+    <row r="148" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="62">
+        <v>1</v>
+      </c>
+      <c r="D148" s="78">
+        <v>4.05</v>
+      </c>
+      <c r="E148" s="79">
+        <v>18.05</v>
+      </c>
+      <c r="F148" s="19"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="20"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="20"/>
+      <c r="M148" s="20"/>
+      <c r="N148" s="20"/>
+      <c r="O148" s="20"/>
+      <c r="P148" s="20"/>
+      <c r="Q148" s="20"/>
+      <c r="R148" s="20"/>
+      <c r="S148" s="20"/>
+      <c r="T148" s="20"/>
+      <c r="U148" s="20"/>
+      <c r="V148" s="20"/>
+      <c r="W148" s="20"/>
+      <c r="X148" s="20"/>
+      <c r="Y148" s="20"/>
+      <c r="Z148" s="20"/>
+      <c r="AA148" s="20"/>
+      <c r="AB148" s="20"/>
+      <c r="AC148" s="20"/>
+      <c r="AD148" s="20"/>
+      <c r="AE148" s="20"/>
+      <c r="AF148" s="20"/>
+      <c r="AG148" s="20"/>
+      <c r="AH148" s="20"/>
+      <c r="AI148" s="20"/>
+      <c r="AJ148" s="20"/>
+      <c r="AK148" s="20"/>
+      <c r="AL148" s="20"/>
+      <c r="AM148" s="20"/>
+      <c r="AN148" s="20"/>
+      <c r="AO148" s="20"/>
+      <c r="AP148" s="20"/>
+      <c r="AQ148" s="20"/>
+      <c r="AR148" s="20"/>
+      <c r="AS148" s="20"/>
+      <c r="AT148" s="20"/>
+      <c r="AU148" s="20"/>
+      <c r="AV148" s="20"/>
+      <c r="AW148" s="20"/>
+      <c r="AX148" s="20"/>
+      <c r="AY148" s="20"/>
+      <c r="AZ148" s="20"/>
+      <c r="BA148" s="20"/>
+      <c r="BB148" s="20"/>
+      <c r="BC148" s="20"/>
+      <c r="BD148" s="20"/>
+      <c r="BE148" s="20"/>
+      <c r="BF148" s="20"/>
+      <c r="BG148" s="20"/>
+      <c r="BH148" s="20"/>
+      <c r="BI148" s="20"/>
+      <c r="BJ148" s="20"/>
+      <c r="BK148" s="20"/>
+      <c r="BL148" s="20"/>
+      <c r="BM148" s="20"/>
+      <c r="BN148" s="20"/>
+      <c r="BO148" s="20"/>
+      <c r="BP148" s="20"/>
+      <c r="BQ148" s="20"/>
+      <c r="BR148" s="20"/>
+      <c r="BS148" s="20"/>
+      <c r="BT148" s="20"/>
+      <c r="BU148" s="20"/>
+      <c r="BV148" s="20"/>
+      <c r="BW148" s="20"/>
+      <c r="BX148" s="20"/>
+      <c r="BY148" s="20"/>
+      <c r="BZ148" s="20"/>
+      <c r="CA148" s="20"/>
+      <c r="CB148" s="20"/>
+      <c r="CC148" s="20"/>
+      <c r="CD148" s="20"/>
+      <c r="CE148" s="20"/>
+      <c r="CF148" s="20"/>
+      <c r="CG148" s="20"/>
+      <c r="CH148" s="20"/>
+      <c r="CI148" s="20"/>
+      <c r="CJ148" s="20"/>
+      <c r="CK148" s="20"/>
+      <c r="CL148" s="42">
+        <v>1</v>
+      </c>
+      <c r="CM148" s="20"/>
+      <c r="CN148" s="20"/>
+      <c r="CO148" s="20"/>
+      <c r="CP148" s="20"/>
+      <c r="CQ148" s="20"/>
+      <c r="CR148" s="20"/>
+      <c r="CS148" s="20"/>
+      <c r="CT148" s="20"/>
+      <c r="CU148" s="20"/>
+      <c r="CV148" s="20"/>
+      <c r="CW148" s="20"/>
+      <c r="CX148" s="21"/>
       <c r="CY148" s="17"/>
     </row>
-    <row r="149" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A149" s="78"/>
+    <row r="149" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="81"/>
       <c r="B149" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" s="81">
-        <v>4.05</v>
-      </c>
-      <c r="E149" s="84">
-        <v>18.05</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C149" s="62">
+        <v>1</v>
+      </c>
+      <c r="D149" s="78"/>
+      <c r="E149" s="79"/>
       <c r="F149" s="19"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
@@ -19295,7 +19322,9 @@
       <c r="CI149" s="20"/>
       <c r="CJ149" s="20"/>
       <c r="CK149" s="20"/>
-      <c r="CL149" s="20"/>
+      <c r="CL149" s="41">
+        <v>1</v>
+      </c>
       <c r="CM149" s="20"/>
       <c r="CN149" s="20"/>
       <c r="CO149" s="20"/>
@@ -19311,124 +19340,134 @@
       <c r="CY149" s="17"/>
     </row>
     <row r="150" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A150" s="79"/>
-      <c r="B150" s="6" t="s">
+      <c r="A150" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" s="81"/>
-      <c r="E150" s="84"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="20"/>
-      <c r="N150" s="20"/>
-      <c r="O150" s="20"/>
-      <c r="P150" s="20"/>
-      <c r="Q150" s="20"/>
-      <c r="R150" s="20"/>
-      <c r="S150" s="20"/>
-      <c r="T150" s="20"/>
-      <c r="U150" s="20"/>
-      <c r="V150" s="20"/>
-      <c r="W150" s="20"/>
-      <c r="X150" s="20"/>
-      <c r="Y150" s="20"/>
-      <c r="Z150" s="20"/>
-      <c r="AA150" s="20"/>
-      <c r="AB150" s="20"/>
-      <c r="AC150" s="20"/>
-      <c r="AD150" s="20"/>
-      <c r="AE150" s="20"/>
-      <c r="AF150" s="20"/>
-      <c r="AG150" s="20"/>
-      <c r="AH150" s="20"/>
-      <c r="AI150" s="20"/>
-      <c r="AJ150" s="20"/>
-      <c r="AK150" s="20"/>
-      <c r="AL150" s="20"/>
-      <c r="AM150" s="20"/>
-      <c r="AN150" s="20"/>
-      <c r="AO150" s="20"/>
-      <c r="AP150" s="20"/>
-      <c r="AQ150" s="20"/>
-      <c r="AR150" s="20"/>
-      <c r="AS150" s="20"/>
-      <c r="AT150" s="20"/>
-      <c r="AU150" s="20"/>
-      <c r="AV150" s="20"/>
-      <c r="AW150" s="20"/>
-      <c r="AX150" s="20"/>
-      <c r="AY150" s="20"/>
-      <c r="AZ150" s="20"/>
-      <c r="BA150" s="20"/>
-      <c r="BB150" s="20"/>
-      <c r="BC150" s="20"/>
-      <c r="BD150" s="20"/>
-      <c r="BE150" s="20"/>
-      <c r="BF150" s="20"/>
-      <c r="BG150" s="20"/>
-      <c r="BH150" s="20"/>
-      <c r="BI150" s="20"/>
-      <c r="BJ150" s="20"/>
-      <c r="BK150" s="20"/>
-      <c r="BL150" s="20"/>
-      <c r="BM150" s="20"/>
-      <c r="BN150" s="20"/>
-      <c r="BO150" s="20"/>
-      <c r="BP150" s="20"/>
-      <c r="BQ150" s="20"/>
-      <c r="BR150" s="20"/>
-      <c r="BS150" s="20"/>
-      <c r="BT150" s="20"/>
-      <c r="BU150" s="20"/>
-      <c r="BV150" s="20"/>
-      <c r="BW150" s="20"/>
-      <c r="BX150" s="20"/>
-      <c r="BY150" s="20"/>
-      <c r="BZ150" s="20"/>
-      <c r="CA150" s="20"/>
-      <c r="CB150" s="20"/>
-      <c r="CC150" s="20"/>
-      <c r="CD150" s="20"/>
-      <c r="CE150" s="20"/>
-      <c r="CF150" s="20"/>
-      <c r="CG150" s="20"/>
-      <c r="CH150" s="20"/>
-      <c r="CI150" s="20"/>
-      <c r="CJ150" s="20"/>
-      <c r="CK150" s="20"/>
-      <c r="CL150" s="20"/>
-      <c r="CM150" s="20"/>
-      <c r="CN150" s="20"/>
-      <c r="CO150" s="20"/>
-      <c r="CP150" s="20"/>
-      <c r="CQ150" s="20"/>
-      <c r="CR150" s="20"/>
-      <c r="CS150" s="20"/>
-      <c r="CT150" s="20"/>
-      <c r="CU150" s="20"/>
-      <c r="CV150" s="20"/>
-      <c r="CW150" s="20"/>
-      <c r="CX150" s="21"/>
+      <c r="E150" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="28"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="29"/>
+      <c r="M150" s="29"/>
+      <c r="N150" s="29"/>
+      <c r="O150" s="29"/>
+      <c r="P150" s="29"/>
+      <c r="Q150" s="29"/>
+      <c r="R150" s="29"/>
+      <c r="S150" s="29"/>
+      <c r="T150" s="29"/>
+      <c r="U150" s="29"/>
+      <c r="V150" s="29"/>
+      <c r="W150" s="29"/>
+      <c r="X150" s="29"/>
+      <c r="Y150" s="29"/>
+      <c r="Z150" s="29"/>
+      <c r="AA150" s="29"/>
+      <c r="AB150" s="29"/>
+      <c r="AC150" s="29"/>
+      <c r="AD150" s="29"/>
+      <c r="AE150" s="29"/>
+      <c r="AF150" s="29"/>
+      <c r="AG150" s="29"/>
+      <c r="AH150" s="29"/>
+      <c r="AI150" s="29"/>
+      <c r="AJ150" s="29"/>
+      <c r="AK150" s="29"/>
+      <c r="AL150" s="29"/>
+      <c r="AM150" s="29"/>
+      <c r="AN150" s="29"/>
+      <c r="AO150" s="29"/>
+      <c r="AP150" s="29"/>
+      <c r="AQ150" s="29"/>
+      <c r="AR150" s="29"/>
+      <c r="AS150" s="29"/>
+      <c r="AT150" s="29"/>
+      <c r="AU150" s="29"/>
+      <c r="AV150" s="29"/>
+      <c r="AW150" s="29"/>
+      <c r="AX150" s="29"/>
+      <c r="AY150" s="29"/>
+      <c r="AZ150" s="29"/>
+      <c r="BA150" s="29"/>
+      <c r="BB150" s="29"/>
+      <c r="BC150" s="29"/>
+      <c r="BD150" s="29"/>
+      <c r="BE150" s="29"/>
+      <c r="BF150" s="29"/>
+      <c r="BG150" s="29"/>
+      <c r="BH150" s="29"/>
+      <c r="BI150" s="29"/>
+      <c r="BJ150" s="29"/>
+      <c r="BK150" s="29"/>
+      <c r="BL150" s="29"/>
+      <c r="BM150" s="29"/>
+      <c r="BN150" s="29"/>
+      <c r="BO150" s="29"/>
+      <c r="BP150" s="29"/>
+      <c r="BQ150" s="29"/>
+      <c r="BR150" s="29"/>
+      <c r="BS150" s="29"/>
+      <c r="BT150" s="29"/>
+      <c r="BU150" s="29"/>
+      <c r="BV150" s="29"/>
+      <c r="BW150" s="29"/>
+      <c r="BX150" s="29"/>
+      <c r="BY150" s="29"/>
+      <c r="BZ150" s="29"/>
+      <c r="CA150" s="29"/>
+      <c r="CB150" s="29"/>
+      <c r="CC150" s="29"/>
+      <c r="CD150" s="29"/>
+      <c r="CE150" s="29"/>
+      <c r="CF150" s="29"/>
+      <c r="CG150" s="29"/>
+      <c r="CH150" s="29"/>
+      <c r="CI150" s="29"/>
+      <c r="CJ150" s="29"/>
+      <c r="CK150" s="29"/>
+      <c r="CL150" s="29"/>
+      <c r="CM150" s="29"/>
+      <c r="CN150" s="29"/>
+      <c r="CO150" s="29"/>
+      <c r="CP150" s="29"/>
+      <c r="CQ150" s="29"/>
+      <c r="CR150" s="29"/>
+      <c r="CS150" s="29"/>
+      <c r="CT150" s="29"/>
+      <c r="CU150" s="29"/>
+      <c r="CV150" s="29"/>
+      <c r="CW150" s="29"/>
+      <c r="CX150" s="30"/>
       <c r="CY150" s="17"/>
     </row>
     <row r="151" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A151" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="62"/>
-      <c r="D151" s="92">
-        <v>44334</v>
-      </c>
-      <c r="E151" s="93"/>
+      <c r="A151" s="80"/>
+      <c r="B151" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="78">
+        <v>4.05</v>
+      </c>
+      <c r="E151" s="79">
+        <v>18.05</v>
+      </c>
       <c r="F151" s="19"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
@@ -19529,586 +19568,576 @@
       <c r="CY151" s="17"/>
     </row>
     <row r="152" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D152" s="70" t="s">
+      <c r="A152" s="81"/>
+      <c r="B152" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F152" s="32"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
-      <c r="I152" s="33"/>
-      <c r="J152" s="33"/>
-      <c r="K152" s="33"/>
-      <c r="L152" s="33"/>
-      <c r="M152" s="33"/>
-      <c r="N152" s="33"/>
-      <c r="O152" s="33"/>
-      <c r="P152" s="33"/>
-      <c r="Q152" s="33"/>
-      <c r="R152" s="33"/>
-      <c r="S152" s="33"/>
-      <c r="T152" s="33"/>
-      <c r="U152" s="33"/>
-      <c r="V152" s="33"/>
-      <c r="W152" s="33"/>
-      <c r="X152" s="33"/>
-      <c r="Y152" s="33"/>
-      <c r="Z152" s="33"/>
-      <c r="AA152" s="33"/>
-      <c r="AB152" s="33"/>
-      <c r="AC152" s="33"/>
-      <c r="AD152" s="33"/>
-      <c r="AE152" s="33"/>
-      <c r="AF152" s="33"/>
-      <c r="AG152" s="33"/>
-      <c r="AH152" s="33"/>
-      <c r="AI152" s="33"/>
-      <c r="AJ152" s="33"/>
-      <c r="AK152" s="33"/>
-      <c r="AL152" s="33"/>
-      <c r="AM152" s="33"/>
-      <c r="AN152" s="33"/>
-      <c r="AO152" s="33"/>
-      <c r="AP152" s="33"/>
-      <c r="AQ152" s="33"/>
-      <c r="AR152" s="33"/>
-      <c r="AS152" s="33"/>
-      <c r="AT152" s="33"/>
-      <c r="AU152" s="33"/>
-      <c r="AV152" s="33"/>
-      <c r="AW152" s="33"/>
-      <c r="AX152" s="33"/>
-      <c r="AY152" s="33"/>
-      <c r="AZ152" s="33"/>
-      <c r="BA152" s="33"/>
-      <c r="BB152" s="33"/>
-      <c r="BC152" s="33"/>
-      <c r="BD152" s="33"/>
-      <c r="BE152" s="33"/>
-      <c r="BF152" s="33"/>
-      <c r="BG152" s="33"/>
-      <c r="BH152" s="33"/>
-      <c r="BI152" s="33"/>
-      <c r="BJ152" s="33"/>
-      <c r="BK152" s="33"/>
-      <c r="BL152" s="33"/>
-      <c r="BM152" s="33"/>
-      <c r="BN152" s="33"/>
-      <c r="BO152" s="33"/>
-      <c r="BP152" s="33"/>
-      <c r="BQ152" s="33"/>
-      <c r="BR152" s="33"/>
-      <c r="BS152" s="33"/>
-      <c r="BT152" s="33"/>
-      <c r="BU152" s="33"/>
-      <c r="BV152" s="33"/>
-      <c r="BW152" s="33"/>
-      <c r="BX152" s="33"/>
-      <c r="BY152" s="33"/>
-      <c r="BZ152" s="33"/>
-      <c r="CA152" s="33"/>
-      <c r="CB152" s="33"/>
-      <c r="CC152" s="33"/>
-      <c r="CD152" s="33"/>
-      <c r="CE152" s="33"/>
-      <c r="CF152" s="33"/>
-      <c r="CG152" s="33"/>
-      <c r="CH152" s="33"/>
-      <c r="CI152" s="33"/>
-      <c r="CJ152" s="33"/>
-      <c r="CK152" s="33"/>
-      <c r="CL152" s="33"/>
-      <c r="CM152" s="33"/>
-      <c r="CN152" s="33"/>
-      <c r="CO152" s="33"/>
-      <c r="CP152" s="33"/>
-      <c r="CQ152" s="33"/>
-      <c r="CR152" s="33"/>
-      <c r="CS152" s="33"/>
-      <c r="CT152" s="33"/>
-      <c r="CU152" s="33"/>
-      <c r="CV152" s="33"/>
-      <c r="CW152" s="33"/>
-      <c r="CX152" s="34"/>
+      <c r="C152" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="78"/>
+      <c r="E152" s="79"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="20"/>
+      <c r="N152" s="20"/>
+      <c r="O152" s="20"/>
+      <c r="P152" s="20"/>
+      <c r="Q152" s="20"/>
+      <c r="R152" s="20"/>
+      <c r="S152" s="20"/>
+      <c r="T152" s="20"/>
+      <c r="U152" s="20"/>
+      <c r="V152" s="20"/>
+      <c r="W152" s="20"/>
+      <c r="X152" s="20"/>
+      <c r="Y152" s="20"/>
+      <c r="Z152" s="20"/>
+      <c r="AA152" s="20"/>
+      <c r="AB152" s="20"/>
+      <c r="AC152" s="20"/>
+      <c r="AD152" s="20"/>
+      <c r="AE152" s="20"/>
+      <c r="AF152" s="20"/>
+      <c r="AG152" s="20"/>
+      <c r="AH152" s="20"/>
+      <c r="AI152" s="20"/>
+      <c r="AJ152" s="20"/>
+      <c r="AK152" s="20"/>
+      <c r="AL152" s="20"/>
+      <c r="AM152" s="20"/>
+      <c r="AN152" s="20"/>
+      <c r="AO152" s="20"/>
+      <c r="AP152" s="20"/>
+      <c r="AQ152" s="20"/>
+      <c r="AR152" s="20"/>
+      <c r="AS152" s="20"/>
+      <c r="AT152" s="20"/>
+      <c r="AU152" s="20"/>
+      <c r="AV152" s="20"/>
+      <c r="AW152" s="20"/>
+      <c r="AX152" s="20"/>
+      <c r="AY152" s="20"/>
+      <c r="AZ152" s="20"/>
+      <c r="BA152" s="20"/>
+      <c r="BB152" s="20"/>
+      <c r="BC152" s="20"/>
+      <c r="BD152" s="20"/>
+      <c r="BE152" s="20"/>
+      <c r="BF152" s="20"/>
+      <c r="BG152" s="20"/>
+      <c r="BH152" s="20"/>
+      <c r="BI152" s="20"/>
+      <c r="BJ152" s="20"/>
+      <c r="BK152" s="20"/>
+      <c r="BL152" s="20"/>
+      <c r="BM152" s="20"/>
+      <c r="BN152" s="20"/>
+      <c r="BO152" s="20"/>
+      <c r="BP152" s="20"/>
+      <c r="BQ152" s="20"/>
+      <c r="BR152" s="20"/>
+      <c r="BS152" s="20"/>
+      <c r="BT152" s="20"/>
+      <c r="BU152" s="20"/>
+      <c r="BV152" s="20"/>
+      <c r="BW152" s="20"/>
+      <c r="BX152" s="20"/>
+      <c r="BY152" s="20"/>
+      <c r="BZ152" s="20"/>
+      <c r="CA152" s="20"/>
+      <c r="CB152" s="20"/>
+      <c r="CC152" s="20"/>
+      <c r="CD152" s="20"/>
+      <c r="CE152" s="20"/>
+      <c r="CF152" s="20"/>
+      <c r="CG152" s="20"/>
+      <c r="CH152" s="20"/>
+      <c r="CI152" s="20"/>
+      <c r="CJ152" s="20"/>
+      <c r="CK152" s="20"/>
+      <c r="CL152" s="20"/>
+      <c r="CM152" s="20"/>
+      <c r="CN152" s="20"/>
+      <c r="CO152" s="20"/>
+      <c r="CP152" s="20"/>
+      <c r="CQ152" s="20"/>
+      <c r="CR152" s="20"/>
+      <c r="CS152" s="20"/>
+      <c r="CT152" s="20"/>
+      <c r="CU152" s="20"/>
+      <c r="CV152" s="20"/>
+      <c r="CW152" s="20"/>
+      <c r="CX152" s="21"/>
       <c r="CY152" s="17"/>
     </row>
     <row r="153" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C153" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" s="28"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
-      <c r="M153" s="29"/>
-      <c r="N153" s="29"/>
-      <c r="O153" s="29"/>
-      <c r="P153" s="29"/>
-      <c r="Q153" s="29"/>
-      <c r="R153" s="29"/>
-      <c r="S153" s="29"/>
-      <c r="T153" s="29"/>
-      <c r="U153" s="29"/>
-      <c r="V153" s="29"/>
-      <c r="W153" s="29"/>
-      <c r="X153" s="29"/>
-      <c r="Y153" s="29"/>
-      <c r="Z153" s="29"/>
-      <c r="AA153" s="29"/>
-      <c r="AB153" s="29"/>
-      <c r="AC153" s="29"/>
-      <c r="AD153" s="29"/>
-      <c r="AE153" s="29"/>
-      <c r="AF153" s="29"/>
-      <c r="AG153" s="29"/>
-      <c r="AH153" s="29"/>
-      <c r="AI153" s="29"/>
-      <c r="AJ153" s="29"/>
-      <c r="AK153" s="29"/>
-      <c r="AL153" s="29"/>
-      <c r="AM153" s="29"/>
-      <c r="AN153" s="29"/>
-      <c r="AO153" s="29"/>
-      <c r="AP153" s="29"/>
-      <c r="AQ153" s="29"/>
-      <c r="AR153" s="29"/>
-      <c r="AS153" s="29"/>
-      <c r="AT153" s="29"/>
-      <c r="AU153" s="29"/>
-      <c r="AV153" s="29"/>
-      <c r="AW153" s="29"/>
-      <c r="AX153" s="29"/>
-      <c r="AY153" s="29"/>
-      <c r="AZ153" s="29"/>
-      <c r="BA153" s="29"/>
-      <c r="BB153" s="29"/>
-      <c r="BC153" s="29"/>
-      <c r="BD153" s="29"/>
-      <c r="BE153" s="29"/>
-      <c r="BF153" s="29"/>
-      <c r="BG153" s="29"/>
-      <c r="BH153" s="29"/>
-      <c r="BI153" s="29"/>
-      <c r="BJ153" s="29"/>
-      <c r="BK153" s="29"/>
-      <c r="BL153" s="29"/>
-      <c r="BM153" s="29"/>
-      <c r="BN153" s="29"/>
-      <c r="BO153" s="29"/>
-      <c r="BP153" s="29"/>
-      <c r="BQ153" s="29"/>
-      <c r="BR153" s="29"/>
-      <c r="BS153" s="29"/>
-      <c r="BT153" s="29"/>
-      <c r="BU153" s="29"/>
-      <c r="BV153" s="29"/>
-      <c r="BW153" s="29"/>
-      <c r="BX153" s="29"/>
-      <c r="BY153" s="29"/>
-      <c r="BZ153" s="29"/>
-      <c r="CA153" s="29"/>
-      <c r="CB153" s="29"/>
-      <c r="CC153" s="29"/>
-      <c r="CD153" s="29"/>
-      <c r="CE153" s="29"/>
-      <c r="CF153" s="29"/>
-      <c r="CG153" s="29"/>
-      <c r="CH153" s="29"/>
-      <c r="CI153" s="29"/>
-      <c r="CJ153" s="29"/>
-      <c r="CK153" s="29"/>
-      <c r="CL153" s="29"/>
-      <c r="CM153" s="29"/>
-      <c r="CN153" s="29"/>
-      <c r="CO153" s="29"/>
-      <c r="CP153" s="29"/>
-      <c r="CQ153" s="29"/>
-      <c r="CR153" s="29"/>
-      <c r="CS153" s="29"/>
-      <c r="CT153" s="29"/>
-      <c r="CU153" s="29"/>
-      <c r="CV153" s="29"/>
-      <c r="CW153" s="29"/>
-      <c r="CX153" s="30"/>
+      <c r="A153" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="8"/>
+      <c r="C153" s="62"/>
+      <c r="D153" s="87">
+        <v>44334</v>
+      </c>
+      <c r="E153" s="88"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="20"/>
+      <c r="O153" s="20"/>
+      <c r="P153" s="20"/>
+      <c r="Q153" s="20"/>
+      <c r="R153" s="20"/>
+      <c r="S153" s="20"/>
+      <c r="T153" s="20"/>
+      <c r="U153" s="20"/>
+      <c r="V153" s="20"/>
+      <c r="W153" s="20"/>
+      <c r="X153" s="20"/>
+      <c r="Y153" s="20"/>
+      <c r="Z153" s="20"/>
+      <c r="AA153" s="20"/>
+      <c r="AB153" s="20"/>
+      <c r="AC153" s="20"/>
+      <c r="AD153" s="20"/>
+      <c r="AE153" s="20"/>
+      <c r="AF153" s="20"/>
+      <c r="AG153" s="20"/>
+      <c r="AH153" s="20"/>
+      <c r="AI153" s="20"/>
+      <c r="AJ153" s="20"/>
+      <c r="AK153" s="20"/>
+      <c r="AL153" s="20"/>
+      <c r="AM153" s="20"/>
+      <c r="AN153" s="20"/>
+      <c r="AO153" s="20"/>
+      <c r="AP153" s="20"/>
+      <c r="AQ153" s="20"/>
+      <c r="AR153" s="20"/>
+      <c r="AS153" s="20"/>
+      <c r="AT153" s="20"/>
+      <c r="AU153" s="20"/>
+      <c r="AV153" s="20"/>
+      <c r="AW153" s="20"/>
+      <c r="AX153" s="20"/>
+      <c r="AY153" s="20"/>
+      <c r="AZ153" s="20"/>
+      <c r="BA153" s="20"/>
+      <c r="BB153" s="20"/>
+      <c r="BC153" s="20"/>
+      <c r="BD153" s="20"/>
+      <c r="BE153" s="20"/>
+      <c r="BF153" s="20"/>
+      <c r="BG153" s="20"/>
+      <c r="BH153" s="20"/>
+      <c r="BI153" s="20"/>
+      <c r="BJ153" s="20"/>
+      <c r="BK153" s="20"/>
+      <c r="BL153" s="20"/>
+      <c r="BM153" s="20"/>
+      <c r="BN153" s="20"/>
+      <c r="BO153" s="20"/>
+      <c r="BP153" s="20"/>
+      <c r="BQ153" s="20"/>
+      <c r="BR153" s="20"/>
+      <c r="BS153" s="20"/>
+      <c r="BT153" s="20"/>
+      <c r="BU153" s="20"/>
+      <c r="BV153" s="20"/>
+      <c r="BW153" s="20"/>
+      <c r="BX153" s="20"/>
+      <c r="BY153" s="20"/>
+      <c r="BZ153" s="20"/>
+      <c r="CA153" s="20"/>
+      <c r="CB153" s="20"/>
+      <c r="CC153" s="20"/>
+      <c r="CD153" s="20"/>
+      <c r="CE153" s="20"/>
+      <c r="CF153" s="20"/>
+      <c r="CG153" s="20"/>
+      <c r="CH153" s="20"/>
+      <c r="CI153" s="20"/>
+      <c r="CJ153" s="20"/>
+      <c r="CK153" s="20"/>
+      <c r="CL153" s="20"/>
+      <c r="CM153" s="20"/>
+      <c r="CN153" s="20"/>
+      <c r="CO153" s="20"/>
+      <c r="CP153" s="20"/>
+      <c r="CQ153" s="20"/>
+      <c r="CR153" s="20"/>
+      <c r="CS153" s="20"/>
+      <c r="CT153" s="20"/>
+      <c r="CU153" s="20"/>
+      <c r="CV153" s="20"/>
+      <c r="CW153" s="20"/>
+      <c r="CX153" s="21"/>
       <c r="CY153" s="17"/>
     </row>
     <row r="154" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A154" s="78"/>
-      <c r="B154" s="6" t="s">
+      <c r="A154" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="80">
-        <v>18.05</v>
-      </c>
-      <c r="E154" s="84">
-        <v>25.05</v>
-      </c>
-      <c r="F154" s="19"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
-      <c r="M154" s="20"/>
-      <c r="N154" s="20"/>
-      <c r="O154" s="20"/>
-      <c r="P154" s="20"/>
-      <c r="Q154" s="20"/>
-      <c r="R154" s="20"/>
-      <c r="S154" s="20"/>
-      <c r="T154" s="20"/>
-      <c r="U154" s="20"/>
-      <c r="V154" s="20"/>
-      <c r="W154" s="20"/>
-      <c r="X154" s="20"/>
-      <c r="Y154" s="20"/>
-      <c r="Z154" s="20"/>
-      <c r="AA154" s="20"/>
-      <c r="AB154" s="20"/>
-      <c r="AC154" s="20"/>
-      <c r="AD154" s="20"/>
-      <c r="AE154" s="20"/>
-      <c r="AF154" s="20"/>
-      <c r="AG154" s="20"/>
-      <c r="AH154" s="20"/>
-      <c r="AI154" s="20"/>
-      <c r="AJ154" s="20"/>
-      <c r="AK154" s="20"/>
-      <c r="AL154" s="20"/>
-      <c r="AM154" s="20"/>
-      <c r="AN154" s="20"/>
-      <c r="AO154" s="20"/>
-      <c r="AP154" s="20"/>
-      <c r="AQ154" s="20"/>
-      <c r="AR154" s="20"/>
-      <c r="AS154" s="20"/>
-      <c r="AT154" s="20"/>
-      <c r="AU154" s="20"/>
-      <c r="AV154" s="20"/>
-      <c r="AW154" s="20"/>
-      <c r="AX154" s="20"/>
-      <c r="AY154" s="20"/>
-      <c r="AZ154" s="20"/>
-      <c r="BA154" s="20"/>
-      <c r="BB154" s="20"/>
-      <c r="BC154" s="20"/>
-      <c r="BD154" s="20"/>
-      <c r="BE154" s="20"/>
-      <c r="BF154" s="20"/>
-      <c r="BG154" s="20"/>
-      <c r="BH154" s="20"/>
-      <c r="BI154" s="20"/>
-      <c r="BJ154" s="20"/>
-      <c r="BK154" s="20"/>
-      <c r="BL154" s="20"/>
-      <c r="BM154" s="20"/>
-      <c r="BN154" s="20"/>
-      <c r="BO154" s="20"/>
-      <c r="BP154" s="20"/>
-      <c r="BQ154" s="20"/>
-      <c r="BR154" s="20"/>
-      <c r="BS154" s="20"/>
-      <c r="BT154" s="20"/>
-      <c r="BU154" s="20"/>
-      <c r="BV154" s="20"/>
-      <c r="BW154" s="20"/>
-      <c r="BX154" s="20"/>
-      <c r="BY154" s="20"/>
-      <c r="BZ154" s="20"/>
-      <c r="CA154" s="20"/>
-      <c r="CB154" s="20"/>
-      <c r="CC154" s="20"/>
-      <c r="CD154" s="20"/>
-      <c r="CE154" s="20"/>
-      <c r="CF154" s="20"/>
-      <c r="CG154" s="20"/>
-      <c r="CH154" s="20"/>
-      <c r="CI154" s="20"/>
-      <c r="CJ154" s="20"/>
-      <c r="CK154" s="20"/>
-      <c r="CL154" s="20"/>
-      <c r="CM154" s="20"/>
-      <c r="CN154" s="20"/>
-      <c r="CO154" s="20"/>
-      <c r="CP154" s="20"/>
-      <c r="CQ154" s="20"/>
-      <c r="CR154" s="20"/>
-      <c r="CS154" s="20"/>
-      <c r="CT154" s="20"/>
-      <c r="CU154" s="20"/>
-      <c r="CV154" s="20"/>
-      <c r="CW154" s="20"/>
-      <c r="CX154" s="21"/>
+      <c r="C154" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="32"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="33"/>
+      <c r="I154" s="33"/>
+      <c r="J154" s="33"/>
+      <c r="K154" s="33"/>
+      <c r="L154" s="33"/>
+      <c r="M154" s="33"/>
+      <c r="N154" s="33"/>
+      <c r="O154" s="33"/>
+      <c r="P154" s="33"/>
+      <c r="Q154" s="33"/>
+      <c r="R154" s="33"/>
+      <c r="S154" s="33"/>
+      <c r="T154" s="33"/>
+      <c r="U154" s="33"/>
+      <c r="V154" s="33"/>
+      <c r="W154" s="33"/>
+      <c r="X154" s="33"/>
+      <c r="Y154" s="33"/>
+      <c r="Z154" s="33"/>
+      <c r="AA154" s="33"/>
+      <c r="AB154" s="33"/>
+      <c r="AC154" s="33"/>
+      <c r="AD154" s="33"/>
+      <c r="AE154" s="33"/>
+      <c r="AF154" s="33"/>
+      <c r="AG154" s="33"/>
+      <c r="AH154" s="33"/>
+      <c r="AI154" s="33"/>
+      <c r="AJ154" s="33"/>
+      <c r="AK154" s="33"/>
+      <c r="AL154" s="33"/>
+      <c r="AM154" s="33"/>
+      <c r="AN154" s="33"/>
+      <c r="AO154" s="33"/>
+      <c r="AP154" s="33"/>
+      <c r="AQ154" s="33"/>
+      <c r="AR154" s="33"/>
+      <c r="AS154" s="33"/>
+      <c r="AT154" s="33"/>
+      <c r="AU154" s="33"/>
+      <c r="AV154" s="33"/>
+      <c r="AW154" s="33"/>
+      <c r="AX154" s="33"/>
+      <c r="AY154" s="33"/>
+      <c r="AZ154" s="33"/>
+      <c r="BA154" s="33"/>
+      <c r="BB154" s="33"/>
+      <c r="BC154" s="33"/>
+      <c r="BD154" s="33"/>
+      <c r="BE154" s="33"/>
+      <c r="BF154" s="33"/>
+      <c r="BG154" s="33"/>
+      <c r="BH154" s="33"/>
+      <c r="BI154" s="33"/>
+      <c r="BJ154" s="33"/>
+      <c r="BK154" s="33"/>
+      <c r="BL154" s="33"/>
+      <c r="BM154" s="33"/>
+      <c r="BN154" s="33"/>
+      <c r="BO154" s="33"/>
+      <c r="BP154" s="33"/>
+      <c r="BQ154" s="33"/>
+      <c r="BR154" s="33"/>
+      <c r="BS154" s="33"/>
+      <c r="BT154" s="33"/>
+      <c r="BU154" s="33"/>
+      <c r="BV154" s="33"/>
+      <c r="BW154" s="33"/>
+      <c r="BX154" s="33"/>
+      <c r="BY154" s="33"/>
+      <c r="BZ154" s="33"/>
+      <c r="CA154" s="33"/>
+      <c r="CB154" s="33"/>
+      <c r="CC154" s="33"/>
+      <c r="CD154" s="33"/>
+      <c r="CE154" s="33"/>
+      <c r="CF154" s="33"/>
+      <c r="CG154" s="33"/>
+      <c r="CH154" s="33"/>
+      <c r="CI154" s="33"/>
+      <c r="CJ154" s="33"/>
+      <c r="CK154" s="33"/>
+      <c r="CL154" s="33"/>
+      <c r="CM154" s="33"/>
+      <c r="CN154" s="33"/>
+      <c r="CO154" s="33"/>
+      <c r="CP154" s="33"/>
+      <c r="CQ154" s="33"/>
+      <c r="CR154" s="33"/>
+      <c r="CS154" s="33"/>
+      <c r="CT154" s="33"/>
+      <c r="CU154" s="33"/>
+      <c r="CV154" s="33"/>
+      <c r="CW154" s="33"/>
+      <c r="CX154" s="34"/>
       <c r="CY154" s="17"/>
     </row>
     <row r="155" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A155" s="79"/>
-      <c r="B155" s="6" t="s">
+      <c r="A155" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="81"/>
-      <c r="E155" s="84"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
-      <c r="J155" s="20"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
-      <c r="M155" s="20"/>
-      <c r="N155" s="20"/>
-      <c r="O155" s="20"/>
-      <c r="P155" s="20"/>
-      <c r="Q155" s="20"/>
-      <c r="R155" s="20"/>
-      <c r="S155" s="20"/>
-      <c r="T155" s="20"/>
-      <c r="U155" s="20"/>
-      <c r="V155" s="20"/>
-      <c r="W155" s="20"/>
-      <c r="X155" s="20"/>
-      <c r="Y155" s="20"/>
-      <c r="Z155" s="20"/>
-      <c r="AA155" s="20"/>
-      <c r="AB155" s="20"/>
-      <c r="AC155" s="20"/>
-      <c r="AD155" s="20"/>
-      <c r="AE155" s="20"/>
-      <c r="AF155" s="20"/>
-      <c r="AG155" s="20"/>
-      <c r="AH155" s="20"/>
-      <c r="AI155" s="20"/>
-      <c r="AJ155" s="20"/>
-      <c r="AK155" s="20"/>
-      <c r="AL155" s="20"/>
-      <c r="AM155" s="20"/>
-      <c r="AN155" s="20"/>
-      <c r="AO155" s="20"/>
-      <c r="AP155" s="20"/>
-      <c r="AQ155" s="20"/>
-      <c r="AR155" s="20"/>
-      <c r="AS155" s="20"/>
-      <c r="AT155" s="20"/>
-      <c r="AU155" s="20"/>
-      <c r="AV155" s="20"/>
-      <c r="AW155" s="20"/>
-      <c r="AX155" s="20"/>
-      <c r="AY155" s="20"/>
-      <c r="AZ155" s="20"/>
-      <c r="BA155" s="20"/>
-      <c r="BB155" s="20"/>
-      <c r="BC155" s="20"/>
-      <c r="BD155" s="20"/>
-      <c r="BE155" s="20"/>
-      <c r="BF155" s="20"/>
-      <c r="BG155" s="20"/>
-      <c r="BH155" s="20"/>
-      <c r="BI155" s="20"/>
-      <c r="BJ155" s="20"/>
-      <c r="BK155" s="20"/>
-      <c r="BL155" s="20"/>
-      <c r="BM155" s="20"/>
-      <c r="BN155" s="20"/>
-      <c r="BO155" s="20"/>
-      <c r="BP155" s="20"/>
-      <c r="BQ155" s="20"/>
-      <c r="BR155" s="20"/>
-      <c r="BS155" s="20"/>
-      <c r="BT155" s="20"/>
-      <c r="BU155" s="20"/>
-      <c r="BV155" s="20"/>
-      <c r="BW155" s="20"/>
-      <c r="BX155" s="20"/>
-      <c r="BY155" s="20"/>
-      <c r="BZ155" s="20"/>
-      <c r="CA155" s="20"/>
-      <c r="CB155" s="20"/>
-      <c r="CC155" s="20"/>
-      <c r="CD155" s="20"/>
-      <c r="CE155" s="20"/>
-      <c r="CF155" s="20"/>
-      <c r="CG155" s="20"/>
-      <c r="CH155" s="20"/>
-      <c r="CI155" s="20"/>
-      <c r="CJ155" s="20"/>
-      <c r="CK155" s="20"/>
-      <c r="CL155" s="20"/>
-      <c r="CM155" s="20"/>
-      <c r="CN155" s="20"/>
-      <c r="CO155" s="20"/>
-      <c r="CP155" s="20"/>
-      <c r="CQ155" s="20"/>
-      <c r="CR155" s="20"/>
-      <c r="CS155" s="20"/>
-      <c r="CT155" s="20"/>
-      <c r="CU155" s="20"/>
-      <c r="CV155" s="20"/>
-      <c r="CW155" s="20"/>
-      <c r="CX155" s="21"/>
+      <c r="E155" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="28"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
+      <c r="M155" s="29"/>
+      <c r="N155" s="29"/>
+      <c r="O155" s="29"/>
+      <c r="P155" s="29"/>
+      <c r="Q155" s="29"/>
+      <c r="R155" s="29"/>
+      <c r="S155" s="29"/>
+      <c r="T155" s="29"/>
+      <c r="U155" s="29"/>
+      <c r="V155" s="29"/>
+      <c r="W155" s="29"/>
+      <c r="X155" s="29"/>
+      <c r="Y155" s="29"/>
+      <c r="Z155" s="29"/>
+      <c r="AA155" s="29"/>
+      <c r="AB155" s="29"/>
+      <c r="AC155" s="29"/>
+      <c r="AD155" s="29"/>
+      <c r="AE155" s="29"/>
+      <c r="AF155" s="29"/>
+      <c r="AG155" s="29"/>
+      <c r="AH155" s="29"/>
+      <c r="AI155" s="29"/>
+      <c r="AJ155" s="29"/>
+      <c r="AK155" s="29"/>
+      <c r="AL155" s="29"/>
+      <c r="AM155" s="29"/>
+      <c r="AN155" s="29"/>
+      <c r="AO155" s="29"/>
+      <c r="AP155" s="29"/>
+      <c r="AQ155" s="29"/>
+      <c r="AR155" s="29"/>
+      <c r="AS155" s="29"/>
+      <c r="AT155" s="29"/>
+      <c r="AU155" s="29"/>
+      <c r="AV155" s="29"/>
+      <c r="AW155" s="29"/>
+      <c r="AX155" s="29"/>
+      <c r="AY155" s="29"/>
+      <c r="AZ155" s="29"/>
+      <c r="BA155" s="29"/>
+      <c r="BB155" s="29"/>
+      <c r="BC155" s="29"/>
+      <c r="BD155" s="29"/>
+      <c r="BE155" s="29"/>
+      <c r="BF155" s="29"/>
+      <c r="BG155" s="29"/>
+      <c r="BH155" s="29"/>
+      <c r="BI155" s="29"/>
+      <c r="BJ155" s="29"/>
+      <c r="BK155" s="29"/>
+      <c r="BL155" s="29"/>
+      <c r="BM155" s="29"/>
+      <c r="BN155" s="29"/>
+      <c r="BO155" s="29"/>
+      <c r="BP155" s="29"/>
+      <c r="BQ155" s="29"/>
+      <c r="BR155" s="29"/>
+      <c r="BS155" s="29"/>
+      <c r="BT155" s="29"/>
+      <c r="BU155" s="29"/>
+      <c r="BV155" s="29"/>
+      <c r="BW155" s="29"/>
+      <c r="BX155" s="29"/>
+      <c r="BY155" s="29"/>
+      <c r="BZ155" s="29"/>
+      <c r="CA155" s="29"/>
+      <c r="CB155" s="29"/>
+      <c r="CC155" s="29"/>
+      <c r="CD155" s="29"/>
+      <c r="CE155" s="29"/>
+      <c r="CF155" s="29"/>
+      <c r="CG155" s="29"/>
+      <c r="CH155" s="29"/>
+      <c r="CI155" s="29"/>
+      <c r="CJ155" s="29"/>
+      <c r="CK155" s="29"/>
+      <c r="CL155" s="29"/>
+      <c r="CM155" s="29"/>
+      <c r="CN155" s="29"/>
+      <c r="CO155" s="29"/>
+      <c r="CP155" s="29"/>
+      <c r="CQ155" s="29"/>
+      <c r="CR155" s="29"/>
+      <c r="CS155" s="29"/>
+      <c r="CT155" s="29"/>
+      <c r="CU155" s="29"/>
+      <c r="CV155" s="29"/>
+      <c r="CW155" s="29"/>
+      <c r="CX155" s="30"/>
       <c r="CY155" s="17"/>
     </row>
     <row r="156" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C156" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D156" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="28"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-      <c r="N156" s="29"/>
-      <c r="O156" s="29"/>
-      <c r="P156" s="29"/>
-      <c r="Q156" s="29"/>
-      <c r="R156" s="29"/>
-      <c r="S156" s="29"/>
-      <c r="T156" s="29"/>
-      <c r="U156" s="29"/>
-      <c r="V156" s="29"/>
-      <c r="W156" s="29"/>
-      <c r="X156" s="29"/>
-      <c r="Y156" s="29"/>
-      <c r="Z156" s="29"/>
-      <c r="AA156" s="29"/>
-      <c r="AB156" s="29"/>
-      <c r="AC156" s="29"/>
-      <c r="AD156" s="29"/>
-      <c r="AE156" s="29"/>
-      <c r="AF156" s="29"/>
-      <c r="AG156" s="29"/>
-      <c r="AH156" s="29"/>
-      <c r="AI156" s="29"/>
-      <c r="AJ156" s="29"/>
-      <c r="AK156" s="29"/>
-      <c r="AL156" s="29"/>
-      <c r="AM156" s="29"/>
-      <c r="AN156" s="29"/>
-      <c r="AO156" s="29"/>
-      <c r="AP156" s="29"/>
-      <c r="AQ156" s="29"/>
-      <c r="AR156" s="29"/>
-      <c r="AS156" s="29"/>
-      <c r="AT156" s="29"/>
-      <c r="AU156" s="29"/>
-      <c r="AV156" s="29"/>
-      <c r="AW156" s="29"/>
-      <c r="AX156" s="29"/>
-      <c r="AY156" s="29"/>
-      <c r="AZ156" s="29"/>
-      <c r="BA156" s="29"/>
-      <c r="BB156" s="29"/>
-      <c r="BC156" s="29"/>
-      <c r="BD156" s="29"/>
-      <c r="BE156" s="29"/>
-      <c r="BF156" s="29"/>
-      <c r="BG156" s="29"/>
-      <c r="BH156" s="29"/>
-      <c r="BI156" s="29"/>
-      <c r="BJ156" s="29"/>
-      <c r="BK156" s="29"/>
-      <c r="BL156" s="29"/>
-      <c r="BM156" s="29"/>
-      <c r="BN156" s="29"/>
-      <c r="BO156" s="29"/>
-      <c r="BP156" s="29"/>
-      <c r="BQ156" s="29"/>
-      <c r="BR156" s="29"/>
-      <c r="BS156" s="29"/>
-      <c r="BT156" s="29"/>
-      <c r="BU156" s="29"/>
-      <c r="BV156" s="29"/>
-      <c r="BW156" s="29"/>
-      <c r="BX156" s="29"/>
-      <c r="BY156" s="29"/>
-      <c r="BZ156" s="29"/>
-      <c r="CA156" s="29"/>
-      <c r="CB156" s="29"/>
-      <c r="CC156" s="29"/>
-      <c r="CD156" s="29"/>
-      <c r="CE156" s="29"/>
-      <c r="CF156" s="29"/>
-      <c r="CG156" s="29"/>
-      <c r="CH156" s="29"/>
-      <c r="CI156" s="29"/>
-      <c r="CJ156" s="29"/>
-      <c r="CK156" s="29"/>
-      <c r="CL156" s="29"/>
-      <c r="CM156" s="29"/>
-      <c r="CN156" s="29"/>
-      <c r="CO156" s="29"/>
-      <c r="CP156" s="29"/>
-      <c r="CQ156" s="29"/>
-      <c r="CR156" s="29"/>
-      <c r="CS156" s="29"/>
-      <c r="CT156" s="29"/>
-      <c r="CU156" s="29"/>
-      <c r="CV156" s="29"/>
-      <c r="CW156" s="29"/>
-      <c r="CX156" s="30"/>
+      <c r="A156" s="80"/>
+      <c r="B156" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="82">
+        <v>18.05</v>
+      </c>
+      <c r="E156" s="79">
+        <v>25.05</v>
+      </c>
+      <c r="F156" s="19"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="20"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="20"/>
+      <c r="R156" s="20"/>
+      <c r="S156" s="20"/>
+      <c r="T156" s="20"/>
+      <c r="U156" s="20"/>
+      <c r="V156" s="20"/>
+      <c r="W156" s="20"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="20"/>
+      <c r="Z156" s="20"/>
+      <c r="AA156" s="20"/>
+      <c r="AB156" s="20"/>
+      <c r="AC156" s="20"/>
+      <c r="AD156" s="20"/>
+      <c r="AE156" s="20"/>
+      <c r="AF156" s="20"/>
+      <c r="AG156" s="20"/>
+      <c r="AH156" s="20"/>
+      <c r="AI156" s="20"/>
+      <c r="AJ156" s="20"/>
+      <c r="AK156" s="20"/>
+      <c r="AL156" s="20"/>
+      <c r="AM156" s="20"/>
+      <c r="AN156" s="20"/>
+      <c r="AO156" s="20"/>
+      <c r="AP156" s="20"/>
+      <c r="AQ156" s="20"/>
+      <c r="AR156" s="20"/>
+      <c r="AS156" s="20"/>
+      <c r="AT156" s="20"/>
+      <c r="AU156" s="20"/>
+      <c r="AV156" s="20"/>
+      <c r="AW156" s="20"/>
+      <c r="AX156" s="20"/>
+      <c r="AY156" s="20"/>
+      <c r="AZ156" s="20"/>
+      <c r="BA156" s="20"/>
+      <c r="BB156" s="20"/>
+      <c r="BC156" s="20"/>
+      <c r="BD156" s="20"/>
+      <c r="BE156" s="20"/>
+      <c r="BF156" s="20"/>
+      <c r="BG156" s="20"/>
+      <c r="BH156" s="20"/>
+      <c r="BI156" s="20"/>
+      <c r="BJ156" s="20"/>
+      <c r="BK156" s="20"/>
+      <c r="BL156" s="20"/>
+      <c r="BM156" s="20"/>
+      <c r="BN156" s="20"/>
+      <c r="BO156" s="20"/>
+      <c r="BP156" s="20"/>
+      <c r="BQ156" s="20"/>
+      <c r="BR156" s="20"/>
+      <c r="BS156" s="20"/>
+      <c r="BT156" s="20"/>
+      <c r="BU156" s="20"/>
+      <c r="BV156" s="20"/>
+      <c r="BW156" s="20"/>
+      <c r="BX156" s="20"/>
+      <c r="BY156" s="20"/>
+      <c r="BZ156" s="20"/>
+      <c r="CA156" s="20"/>
+      <c r="CB156" s="20"/>
+      <c r="CC156" s="20"/>
+      <c r="CD156" s="20"/>
+      <c r="CE156" s="20"/>
+      <c r="CF156" s="20"/>
+      <c r="CG156" s="20"/>
+      <c r="CH156" s="20"/>
+      <c r="CI156" s="20"/>
+      <c r="CJ156" s="20"/>
+      <c r="CK156" s="20"/>
+      <c r="CL156" s="20"/>
+      <c r="CM156" s="20"/>
+      <c r="CN156" s="20"/>
+      <c r="CO156" s="20"/>
+      <c r="CP156" s="20"/>
+      <c r="CQ156" s="20"/>
+      <c r="CR156" s="20"/>
+      <c r="CS156" s="20"/>
+      <c r="CT156" s="20"/>
+      <c r="CU156" s="20"/>
+      <c r="CV156" s="20"/>
+      <c r="CW156" s="20"/>
+      <c r="CX156" s="21"/>
       <c r="CY156" s="17"/>
     </row>
     <row r="157" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A157" s="78"/>
+      <c r="A157" s="81"/>
       <c r="B157" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="80">
-        <v>18.05</v>
-      </c>
-      <c r="E157" s="84">
-        <v>25.05</v>
-      </c>
+      <c r="D157" s="78"/>
+      <c r="E157" s="79"/>
       <c r="F157" s="19"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
@@ -20209,245 +20238,243 @@
       <c r="CY157" s="17"/>
     </row>
     <row r="158" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A158" s="79"/>
-      <c r="B158" s="6" t="s">
+      <c r="A158" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="81"/>
-      <c r="E158" s="84"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
-      <c r="J158" s="20"/>
-      <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
-      <c r="M158" s="20"/>
-      <c r="N158" s="20"/>
-      <c r="O158" s="20"/>
-      <c r="P158" s="20"/>
-      <c r="Q158" s="20"/>
-      <c r="R158" s="20"/>
-      <c r="S158" s="20"/>
-      <c r="T158" s="20"/>
-      <c r="U158" s="20"/>
-      <c r="V158" s="20"/>
-      <c r="W158" s="20"/>
-      <c r="X158" s="20"/>
-      <c r="Y158" s="20"/>
-      <c r="Z158" s="20"/>
-      <c r="AA158" s="20"/>
-      <c r="AB158" s="20"/>
-      <c r="AC158" s="20"/>
-      <c r="AD158" s="20"/>
-      <c r="AE158" s="20"/>
-      <c r="AF158" s="20"/>
-      <c r="AG158" s="20"/>
-      <c r="AH158" s="20"/>
-      <c r="AI158" s="20"/>
-      <c r="AJ158" s="20"/>
-      <c r="AK158" s="20"/>
-      <c r="AL158" s="20"/>
-      <c r="AM158" s="20"/>
-      <c r="AN158" s="20"/>
-      <c r="AO158" s="20"/>
-      <c r="AP158" s="20"/>
-      <c r="AQ158" s="20"/>
-      <c r="AR158" s="20"/>
-      <c r="AS158" s="20"/>
-      <c r="AT158" s="20"/>
-      <c r="AU158" s="20"/>
-      <c r="AV158" s="20"/>
-      <c r="AW158" s="20"/>
-      <c r="AX158" s="20"/>
-      <c r="AY158" s="20"/>
-      <c r="AZ158" s="20"/>
-      <c r="BA158" s="20"/>
-      <c r="BB158" s="20"/>
-      <c r="BC158" s="20"/>
-      <c r="BD158" s="20"/>
-      <c r="BE158" s="20"/>
-      <c r="BF158" s="20"/>
-      <c r="BG158" s="20"/>
-      <c r="BH158" s="20"/>
-      <c r="BI158" s="20"/>
-      <c r="BJ158" s="20"/>
-      <c r="BK158" s="20"/>
-      <c r="BL158" s="20"/>
-      <c r="BM158" s="20"/>
-      <c r="BN158" s="20"/>
-      <c r="BO158" s="20"/>
-      <c r="BP158" s="20"/>
-      <c r="BQ158" s="20"/>
-      <c r="BR158" s="20"/>
-      <c r="BS158" s="20"/>
-      <c r="BT158" s="20"/>
-      <c r="BU158" s="20"/>
-      <c r="BV158" s="20"/>
-      <c r="BW158" s="20"/>
-      <c r="BX158" s="20"/>
-      <c r="BY158" s="20"/>
-      <c r="BZ158" s="20"/>
-      <c r="CA158" s="20"/>
-      <c r="CB158" s="20"/>
-      <c r="CC158" s="20"/>
-      <c r="CD158" s="20"/>
-      <c r="CE158" s="20"/>
-      <c r="CF158" s="20"/>
-      <c r="CG158" s="20"/>
-      <c r="CH158" s="20"/>
-      <c r="CI158" s="20"/>
-      <c r="CJ158" s="20"/>
-      <c r="CK158" s="20"/>
-      <c r="CL158" s="20"/>
-      <c r="CM158" s="20"/>
-      <c r="CN158" s="20"/>
-      <c r="CO158" s="20"/>
-      <c r="CP158" s="20"/>
-      <c r="CQ158" s="20"/>
-      <c r="CR158" s="20"/>
-      <c r="CS158" s="20"/>
-      <c r="CT158" s="20"/>
-      <c r="CU158" s="20"/>
-      <c r="CV158" s="20"/>
-      <c r="CW158" s="20"/>
-      <c r="CX158" s="21"/>
+      <c r="E158" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="28"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="29"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="29"/>
+      <c r="M158" s="29"/>
+      <c r="N158" s="29"/>
+      <c r="O158" s="29"/>
+      <c r="P158" s="29"/>
+      <c r="Q158" s="29"/>
+      <c r="R158" s="29"/>
+      <c r="S158" s="29"/>
+      <c r="T158" s="29"/>
+      <c r="U158" s="29"/>
+      <c r="V158" s="29"/>
+      <c r="W158" s="29"/>
+      <c r="X158" s="29"/>
+      <c r="Y158" s="29"/>
+      <c r="Z158" s="29"/>
+      <c r="AA158" s="29"/>
+      <c r="AB158" s="29"/>
+      <c r="AC158" s="29"/>
+      <c r="AD158" s="29"/>
+      <c r="AE158" s="29"/>
+      <c r="AF158" s="29"/>
+      <c r="AG158" s="29"/>
+      <c r="AH158" s="29"/>
+      <c r="AI158" s="29"/>
+      <c r="AJ158" s="29"/>
+      <c r="AK158" s="29"/>
+      <c r="AL158" s="29"/>
+      <c r="AM158" s="29"/>
+      <c r="AN158" s="29"/>
+      <c r="AO158" s="29"/>
+      <c r="AP158" s="29"/>
+      <c r="AQ158" s="29"/>
+      <c r="AR158" s="29"/>
+      <c r="AS158" s="29"/>
+      <c r="AT158" s="29"/>
+      <c r="AU158" s="29"/>
+      <c r="AV158" s="29"/>
+      <c r="AW158" s="29"/>
+      <c r="AX158" s="29"/>
+      <c r="AY158" s="29"/>
+      <c r="AZ158" s="29"/>
+      <c r="BA158" s="29"/>
+      <c r="BB158" s="29"/>
+      <c r="BC158" s="29"/>
+      <c r="BD158" s="29"/>
+      <c r="BE158" s="29"/>
+      <c r="BF158" s="29"/>
+      <c r="BG158" s="29"/>
+      <c r="BH158" s="29"/>
+      <c r="BI158" s="29"/>
+      <c r="BJ158" s="29"/>
+      <c r="BK158" s="29"/>
+      <c r="BL158" s="29"/>
+      <c r="BM158" s="29"/>
+      <c r="BN158" s="29"/>
+      <c r="BO158" s="29"/>
+      <c r="BP158" s="29"/>
+      <c r="BQ158" s="29"/>
+      <c r="BR158" s="29"/>
+      <c r="BS158" s="29"/>
+      <c r="BT158" s="29"/>
+      <c r="BU158" s="29"/>
+      <c r="BV158" s="29"/>
+      <c r="BW158" s="29"/>
+      <c r="BX158" s="29"/>
+      <c r="BY158" s="29"/>
+      <c r="BZ158" s="29"/>
+      <c r="CA158" s="29"/>
+      <c r="CB158" s="29"/>
+      <c r="CC158" s="29"/>
+      <c r="CD158" s="29"/>
+      <c r="CE158" s="29"/>
+      <c r="CF158" s="29"/>
+      <c r="CG158" s="29"/>
+      <c r="CH158" s="29"/>
+      <c r="CI158" s="29"/>
+      <c r="CJ158" s="29"/>
+      <c r="CK158" s="29"/>
+      <c r="CL158" s="29"/>
+      <c r="CM158" s="29"/>
+      <c r="CN158" s="29"/>
+      <c r="CO158" s="29"/>
+      <c r="CP158" s="29"/>
+      <c r="CQ158" s="29"/>
+      <c r="CR158" s="29"/>
+      <c r="CS158" s="29"/>
+      <c r="CT158" s="29"/>
+      <c r="CU158" s="29"/>
+      <c r="CV158" s="29"/>
+      <c r="CW158" s="29"/>
+      <c r="CX158" s="30"/>
       <c r="CY158" s="17"/>
     </row>
     <row r="159" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C159" s="61">
-        <v>4</v>
-      </c>
-      <c r="D159" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="67">
-        <v>4.5</v>
-      </c>
-      <c r="F159" s="28"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
-      <c r="J159" s="29"/>
-      <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
-      <c r="M159" s="29"/>
-      <c r="N159" s="29"/>
-      <c r="O159" s="29"/>
-      <c r="P159" s="29"/>
-      <c r="Q159" s="29"/>
-      <c r="R159" s="29"/>
-      <c r="S159" s="29"/>
-      <c r="T159" s="29"/>
-      <c r="U159" s="29"/>
-      <c r="V159" s="29"/>
-      <c r="W159" s="29"/>
-      <c r="X159" s="29"/>
-      <c r="Y159" s="29"/>
-      <c r="Z159" s="29"/>
-      <c r="AA159" s="29"/>
-      <c r="AB159" s="29"/>
-      <c r="AC159" s="29"/>
-      <c r="AD159" s="29"/>
-      <c r="AE159" s="29"/>
-      <c r="AF159" s="29"/>
-      <c r="AG159" s="29"/>
-      <c r="AH159" s="29"/>
-      <c r="AI159" s="29"/>
-      <c r="AJ159" s="29"/>
-      <c r="AK159" s="29"/>
-      <c r="AL159" s="29"/>
-      <c r="AM159" s="29"/>
-      <c r="AN159" s="29"/>
-      <c r="AO159" s="29"/>
-      <c r="AP159" s="29"/>
-      <c r="AQ159" s="29"/>
-      <c r="AR159" s="29"/>
-      <c r="AS159" s="29"/>
-      <c r="AT159" s="29"/>
-      <c r="AU159" s="29"/>
-      <c r="AV159" s="29"/>
-      <c r="AW159" s="29"/>
-      <c r="AX159" s="29"/>
-      <c r="AY159" s="29"/>
-      <c r="AZ159" s="29"/>
-      <c r="BA159" s="29"/>
-      <c r="BB159" s="29"/>
-      <c r="BC159" s="29"/>
-      <c r="BD159" s="29"/>
-      <c r="BE159" s="29"/>
-      <c r="BF159" s="29"/>
-      <c r="BG159" s="29"/>
-      <c r="BH159" s="29"/>
-      <c r="BI159" s="29"/>
-      <c r="BJ159" s="29"/>
-      <c r="BK159" s="29"/>
-      <c r="BL159" s="29"/>
-      <c r="BM159" s="29"/>
-      <c r="BN159" s="29"/>
-      <c r="BO159" s="29"/>
-      <c r="BP159" s="29"/>
-      <c r="BQ159" s="29"/>
-      <c r="BR159" s="29"/>
-      <c r="BS159" s="29"/>
-      <c r="BT159" s="29"/>
-      <c r="BU159" s="29"/>
-      <c r="BV159" s="29"/>
-      <c r="BW159" s="29"/>
-      <c r="BX159" s="29"/>
-      <c r="BY159" s="29"/>
-      <c r="BZ159" s="29"/>
-      <c r="CA159" s="29"/>
-      <c r="CB159" s="29"/>
-      <c r="CC159" s="29"/>
-      <c r="CD159" s="29"/>
-      <c r="CE159" s="29"/>
-      <c r="CF159" s="29"/>
-      <c r="CG159" s="29"/>
-      <c r="CH159" s="29"/>
-      <c r="CI159" s="29"/>
-      <c r="CJ159" s="29"/>
-      <c r="CK159" s="29"/>
-      <c r="CL159" s="29"/>
-      <c r="CM159" s="29"/>
-      <c r="CN159" s="29"/>
-      <c r="CO159" s="29"/>
-      <c r="CP159" s="29"/>
-      <c r="CQ159" s="29"/>
-      <c r="CR159" s="29"/>
-      <c r="CS159" s="29"/>
-      <c r="CT159" s="29"/>
-      <c r="CU159" s="29"/>
-      <c r="CV159" s="29"/>
-      <c r="CW159" s="29"/>
-      <c r="CX159" s="30"/>
+      <c r="A159" s="80"/>
+      <c r="B159" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="82">
+        <v>18.05</v>
+      </c>
+      <c r="E159" s="79">
+        <v>25.05</v>
+      </c>
+      <c r="F159" s="19"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="20"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="20"/>
+      <c r="O159" s="20"/>
+      <c r="P159" s="20"/>
+      <c r="Q159" s="20"/>
+      <c r="R159" s="20"/>
+      <c r="S159" s="20"/>
+      <c r="T159" s="20"/>
+      <c r="U159" s="20"/>
+      <c r="V159" s="20"/>
+      <c r="W159" s="20"/>
+      <c r="X159" s="20"/>
+      <c r="Y159" s="20"/>
+      <c r="Z159" s="20"/>
+      <c r="AA159" s="20"/>
+      <c r="AB159" s="20"/>
+      <c r="AC159" s="20"/>
+      <c r="AD159" s="20"/>
+      <c r="AE159" s="20"/>
+      <c r="AF159" s="20"/>
+      <c r="AG159" s="20"/>
+      <c r="AH159" s="20"/>
+      <c r="AI159" s="20"/>
+      <c r="AJ159" s="20"/>
+      <c r="AK159" s="20"/>
+      <c r="AL159" s="20"/>
+      <c r="AM159" s="20"/>
+      <c r="AN159" s="20"/>
+      <c r="AO159" s="20"/>
+      <c r="AP159" s="20"/>
+      <c r="AQ159" s="20"/>
+      <c r="AR159" s="20"/>
+      <c r="AS159" s="20"/>
+      <c r="AT159" s="20"/>
+      <c r="AU159" s="20"/>
+      <c r="AV159" s="20"/>
+      <c r="AW159" s="20"/>
+      <c r="AX159" s="20"/>
+      <c r="AY159" s="20"/>
+      <c r="AZ159" s="20"/>
+      <c r="BA159" s="20"/>
+      <c r="BB159" s="20"/>
+      <c r="BC159" s="20"/>
+      <c r="BD159" s="20"/>
+      <c r="BE159" s="20"/>
+      <c r="BF159" s="20"/>
+      <c r="BG159" s="20"/>
+      <c r="BH159" s="20"/>
+      <c r="BI159" s="20"/>
+      <c r="BJ159" s="20"/>
+      <c r="BK159" s="20"/>
+      <c r="BL159" s="20"/>
+      <c r="BM159" s="20"/>
+      <c r="BN159" s="20"/>
+      <c r="BO159" s="20"/>
+      <c r="BP159" s="20"/>
+      <c r="BQ159" s="20"/>
+      <c r="BR159" s="20"/>
+      <c r="BS159" s="20"/>
+      <c r="BT159" s="20"/>
+      <c r="BU159" s="20"/>
+      <c r="BV159" s="20"/>
+      <c r="BW159" s="20"/>
+      <c r="BX159" s="20"/>
+      <c r="BY159" s="20"/>
+      <c r="BZ159" s="20"/>
+      <c r="CA159" s="20"/>
+      <c r="CB159" s="20"/>
+      <c r="CC159" s="20"/>
+      <c r="CD159" s="20"/>
+      <c r="CE159" s="20"/>
+      <c r="CF159" s="20"/>
+      <c r="CG159" s="20"/>
+      <c r="CH159" s="20"/>
+      <c r="CI159" s="20"/>
+      <c r="CJ159" s="20"/>
+      <c r="CK159" s="20"/>
+      <c r="CL159" s="20"/>
+      <c r="CM159" s="20"/>
+      <c r="CN159" s="20"/>
+      <c r="CO159" s="20"/>
+      <c r="CP159" s="20"/>
+      <c r="CQ159" s="20"/>
+      <c r="CR159" s="20"/>
+      <c r="CS159" s="20"/>
+      <c r="CT159" s="20"/>
+      <c r="CU159" s="20"/>
+      <c r="CV159" s="20"/>
+      <c r="CW159" s="20"/>
+      <c r="CX159" s="21"/>
       <c r="CY159" s="17"/>
     </row>
     <row r="160" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A160" s="78" t="s">
-        <v>81</v>
-      </c>
+      <c r="A160" s="81"/>
       <c r="B160" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C160" s="62">
-        <v>3</v>
-      </c>
-      <c r="D160" s="80">
-        <v>18.05</v>
-      </c>
-      <c r="E160" s="84">
-        <v>25.05</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C160" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="78"/>
+      <c r="E160" s="79"/>
       <c r="F160" s="19"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
@@ -20533,17 +20560,11 @@
       <c r="CJ160" s="20"/>
       <c r="CK160" s="20"/>
       <c r="CL160" s="20"/>
-      <c r="CM160" s="42">
-        <v>0.5</v>
-      </c>
+      <c r="CM160" s="20"/>
       <c r="CN160" s="20"/>
       <c r="CO160" s="20"/>
-      <c r="CP160" s="42">
-        <v>1.5</v>
-      </c>
-      <c r="CQ160" s="42">
-        <v>1</v>
-      </c>
+      <c r="CP160" s="20"/>
+      <c r="CQ160" s="20"/>
       <c r="CR160" s="20"/>
       <c r="CS160" s="20"/>
       <c r="CT160" s="20"/>
@@ -20554,134 +20575,134 @@
       <c r="CY160" s="17"/>
     </row>
     <row r="161" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A161" s="79"/>
-      <c r="B161" s="6" t="s">
+      <c r="A161" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="61">
+        <v>4</v>
+      </c>
+      <c r="D161" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="62">
-        <v>3</v>
-      </c>
-      <c r="D161" s="81"/>
-      <c r="E161" s="84"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="20"/>
-      <c r="J161" s="20"/>
-      <c r="K161" s="20"/>
-      <c r="L161" s="20"/>
-      <c r="M161" s="20"/>
-      <c r="N161" s="20"/>
-      <c r="O161" s="20"/>
-      <c r="P161" s="20"/>
-      <c r="Q161" s="20"/>
-      <c r="R161" s="20"/>
-      <c r="S161" s="20"/>
-      <c r="T161" s="20"/>
-      <c r="U161" s="20"/>
-      <c r="V161" s="20"/>
-      <c r="W161" s="20"/>
-      <c r="X161" s="20"/>
-      <c r="Y161" s="20"/>
-      <c r="Z161" s="20"/>
-      <c r="AA161" s="20"/>
-      <c r="AB161" s="20"/>
-      <c r="AC161" s="20"/>
-      <c r="AD161" s="20"/>
-      <c r="AE161" s="20"/>
-      <c r="AF161" s="20"/>
-      <c r="AG161" s="20"/>
-      <c r="AH161" s="20"/>
-      <c r="AI161" s="20"/>
-      <c r="AJ161" s="20"/>
-      <c r="AK161" s="20"/>
-      <c r="AL161" s="20"/>
-      <c r="AM161" s="20"/>
-      <c r="AN161" s="20"/>
-      <c r="AO161" s="20"/>
-      <c r="AP161" s="20"/>
-      <c r="AQ161" s="20"/>
-      <c r="AR161" s="20"/>
-      <c r="AS161" s="20"/>
-      <c r="AT161" s="20"/>
-      <c r="AU161" s="20"/>
-      <c r="AV161" s="20"/>
-      <c r="AW161" s="20"/>
-      <c r="AX161" s="20"/>
-      <c r="AY161" s="20"/>
-      <c r="AZ161" s="20"/>
-      <c r="BA161" s="20"/>
-      <c r="BB161" s="20"/>
-      <c r="BC161" s="20"/>
-      <c r="BD161" s="20"/>
-      <c r="BE161" s="20"/>
-      <c r="BF161" s="20"/>
-      <c r="BG161" s="20"/>
-      <c r="BH161" s="20"/>
-      <c r="BI161" s="20"/>
-      <c r="BJ161" s="20"/>
-      <c r="BK161" s="20"/>
-      <c r="BL161" s="20"/>
-      <c r="BM161" s="20"/>
-      <c r="BN161" s="20"/>
-      <c r="BO161" s="20"/>
-      <c r="BP161" s="20"/>
-      <c r="BQ161" s="20"/>
-      <c r="BR161" s="20"/>
-      <c r="BS161" s="20"/>
-      <c r="BT161" s="20"/>
-      <c r="BU161" s="20"/>
-      <c r="BV161" s="20"/>
-      <c r="BW161" s="20"/>
-      <c r="BX161" s="20"/>
-      <c r="BY161" s="20"/>
-      <c r="BZ161" s="20"/>
-      <c r="CA161" s="20"/>
-      <c r="CB161" s="20"/>
-      <c r="CC161" s="20"/>
-      <c r="CD161" s="20"/>
-      <c r="CE161" s="20"/>
-      <c r="CF161" s="20"/>
-      <c r="CG161" s="20"/>
-      <c r="CH161" s="20"/>
-      <c r="CI161" s="20"/>
-      <c r="CJ161" s="20"/>
-      <c r="CK161" s="20"/>
-      <c r="CL161" s="20"/>
-      <c r="CM161" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="CN161" s="20"/>
-      <c r="CO161" s="20"/>
-      <c r="CP161" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="CQ161" s="41">
-        <v>1</v>
-      </c>
-      <c r="CR161" s="20"/>
-      <c r="CS161" s="20"/>
-      <c r="CT161" s="20"/>
-      <c r="CU161" s="20"/>
-      <c r="CV161" s="20"/>
-      <c r="CW161" s="20"/>
-      <c r="CX161" s="21"/>
-      <c r="CY161" s="10"/>
+      <c r="E161" s="67">
+        <v>4.5</v>
+      </c>
+      <c r="F161" s="28"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="29"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="29"/>
+      <c r="O161" s="29"/>
+      <c r="P161" s="29"/>
+      <c r="Q161" s="29"/>
+      <c r="R161" s="29"/>
+      <c r="S161" s="29"/>
+      <c r="T161" s="29"/>
+      <c r="U161" s="29"/>
+      <c r="V161" s="29"/>
+      <c r="W161" s="29"/>
+      <c r="X161" s="29"/>
+      <c r="Y161" s="29"/>
+      <c r="Z161" s="29"/>
+      <c r="AA161" s="29"/>
+      <c r="AB161" s="29"/>
+      <c r="AC161" s="29"/>
+      <c r="AD161" s="29"/>
+      <c r="AE161" s="29"/>
+      <c r="AF161" s="29"/>
+      <c r="AG161" s="29"/>
+      <c r="AH161" s="29"/>
+      <c r="AI161" s="29"/>
+      <c r="AJ161" s="29"/>
+      <c r="AK161" s="29"/>
+      <c r="AL161" s="29"/>
+      <c r="AM161" s="29"/>
+      <c r="AN161" s="29"/>
+      <c r="AO161" s="29"/>
+      <c r="AP161" s="29"/>
+      <c r="AQ161" s="29"/>
+      <c r="AR161" s="29"/>
+      <c r="AS161" s="29"/>
+      <c r="AT161" s="29"/>
+      <c r="AU161" s="29"/>
+      <c r="AV161" s="29"/>
+      <c r="AW161" s="29"/>
+      <c r="AX161" s="29"/>
+      <c r="AY161" s="29"/>
+      <c r="AZ161" s="29"/>
+      <c r="BA161" s="29"/>
+      <c r="BB161" s="29"/>
+      <c r="BC161" s="29"/>
+      <c r="BD161" s="29"/>
+      <c r="BE161" s="29"/>
+      <c r="BF161" s="29"/>
+      <c r="BG161" s="29"/>
+      <c r="BH161" s="29"/>
+      <c r="BI161" s="29"/>
+      <c r="BJ161" s="29"/>
+      <c r="BK161" s="29"/>
+      <c r="BL161" s="29"/>
+      <c r="BM161" s="29"/>
+      <c r="BN161" s="29"/>
+      <c r="BO161" s="29"/>
+      <c r="BP161" s="29"/>
+      <c r="BQ161" s="29"/>
+      <c r="BR161" s="29"/>
+      <c r="BS161" s="29"/>
+      <c r="BT161" s="29"/>
+      <c r="BU161" s="29"/>
+      <c r="BV161" s="29"/>
+      <c r="BW161" s="29"/>
+      <c r="BX161" s="29"/>
+      <c r="BY161" s="29"/>
+      <c r="BZ161" s="29"/>
+      <c r="CA161" s="29"/>
+      <c r="CB161" s="29"/>
+      <c r="CC161" s="29"/>
+      <c r="CD161" s="29"/>
+      <c r="CE161" s="29"/>
+      <c r="CF161" s="29"/>
+      <c r="CG161" s="29"/>
+      <c r="CH161" s="29"/>
+      <c r="CI161" s="29"/>
+      <c r="CJ161" s="29"/>
+      <c r="CK161" s="29"/>
+      <c r="CL161" s="29"/>
+      <c r="CM161" s="29"/>
+      <c r="CN161" s="29"/>
+      <c r="CO161" s="29"/>
+      <c r="CP161" s="29"/>
+      <c r="CQ161" s="29"/>
+      <c r="CR161" s="29"/>
+      <c r="CS161" s="29"/>
+      <c r="CT161" s="29"/>
+      <c r="CU161" s="29"/>
+      <c r="CV161" s="29"/>
+      <c r="CW161" s="29"/>
+      <c r="CX161" s="30"/>
+      <c r="CY161" s="17"/>
     </row>
-    <row r="162" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="78" t="s">
-        <v>80</v>
+    <row r="162" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A162" s="80" t="s">
+        <v>81</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C162" s="62">
-        <v>1</v>
-      </c>
-      <c r="D162" s="80">
+        <v>3</v>
+      </c>
+      <c r="D162" s="82">
         <v>18.05</v>
       </c>
-      <c r="E162" s="84">
+      <c r="E162" s="79">
         <v>25.05</v>
       </c>
       <c r="F162" s="19"/>
@@ -20769,32 +20790,36 @@
       <c r="CJ162" s="20"/>
       <c r="CK162" s="20"/>
       <c r="CL162" s="20"/>
-      <c r="CM162" s="20"/>
+      <c r="CM162" s="42">
+        <v>0.5</v>
+      </c>
       <c r="CN162" s="20"/>
       <c r="CO162" s="20"/>
-      <c r="CP162" s="20"/>
-      <c r="CQ162" s="20"/>
-      <c r="CR162" s="42">
+      <c r="CP162" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="CQ162" s="42">
         <v>1</v>
       </c>
+      <c r="CR162" s="20"/>
       <c r="CS162" s="20"/>
       <c r="CT162" s="20"/>
       <c r="CU162" s="20"/>
       <c r="CV162" s="20"/>
       <c r="CW162" s="20"/>
       <c r="CX162" s="21"/>
-      <c r="CY162" s="10"/>
+      <c r="CY162" s="17"/>
     </row>
-    <row r="163" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="79"/>
+    <row r="163" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A163" s="81"/>
       <c r="B163" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="62">
-        <v>1.5</v>
-      </c>
-      <c r="D163" s="81"/>
-      <c r="E163" s="84"/>
+        <v>3</v>
+      </c>
+      <c r="D163" s="78"/>
+      <c r="E163" s="79"/>
       <c r="F163" s="19"/>
       <c r="G163" s="20"/>
       <c r="H163" s="20"/>
@@ -20880,14 +20905,18 @@
       <c r="CJ163" s="20"/>
       <c r="CK163" s="20"/>
       <c r="CL163" s="20"/>
-      <c r="CM163" s="20"/>
+      <c r="CM163" s="41">
+        <v>0.5</v>
+      </c>
       <c r="CN163" s="20"/>
       <c r="CO163" s="20"/>
-      <c r="CP163" s="20"/>
-      <c r="CQ163" s="20"/>
-      <c r="CR163" s="41">
+      <c r="CP163" s="41">
         <v>1.5</v>
       </c>
+      <c r="CQ163" s="41">
+        <v>1</v>
+      </c>
+      <c r="CR163" s="20"/>
       <c r="CS163" s="20"/>
       <c r="CT163" s="20"/>
       <c r="CU163" s="20"/>
@@ -20896,136 +20925,133 @@
       <c r="CX163" s="21"/>
       <c r="CY163" s="10"/>
     </row>
-    <row r="164" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C164" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D164" s="71" t="s">
+    <row r="164" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="62">
+        <v>1</v>
+      </c>
+      <c r="D164" s="82">
+        <v>18.05</v>
+      </c>
+      <c r="E164" s="79">
+        <v>25.05</v>
+      </c>
+      <c r="F164" s="19"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="20"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="20"/>
+      <c r="O164" s="20"/>
+      <c r="P164" s="20"/>
+      <c r="Q164" s="20"/>
+      <c r="R164" s="20"/>
+      <c r="S164" s="20"/>
+      <c r="T164" s="20"/>
+      <c r="U164" s="20"/>
+      <c r="V164" s="20"/>
+      <c r="W164" s="20"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+      <c r="Z164" s="20"/>
+      <c r="AA164" s="20"/>
+      <c r="AB164" s="20"/>
+      <c r="AC164" s="20"/>
+      <c r="AD164" s="20"/>
+      <c r="AE164" s="20"/>
+      <c r="AF164" s="20"/>
+      <c r="AG164" s="20"/>
+      <c r="AH164" s="20"/>
+      <c r="AI164" s="20"/>
+      <c r="AJ164" s="20"/>
+      <c r="AK164" s="20"/>
+      <c r="AL164" s="20"/>
+      <c r="AM164" s="20"/>
+      <c r="AN164" s="20"/>
+      <c r="AO164" s="20"/>
+      <c r="AP164" s="20"/>
+      <c r="AQ164" s="20"/>
+      <c r="AR164" s="20"/>
+      <c r="AS164" s="20"/>
+      <c r="AT164" s="20"/>
+      <c r="AU164" s="20"/>
+      <c r="AV164" s="20"/>
+      <c r="AW164" s="20"/>
+      <c r="AX164" s="20"/>
+      <c r="AY164" s="20"/>
+      <c r="AZ164" s="20"/>
+      <c r="BA164" s="20"/>
+      <c r="BB164" s="20"/>
+      <c r="BC164" s="20"/>
+      <c r="BD164" s="20"/>
+      <c r="BE164" s="20"/>
+      <c r="BF164" s="20"/>
+      <c r="BG164" s="20"/>
+      <c r="BH164" s="20"/>
+      <c r="BI164" s="20"/>
+      <c r="BJ164" s="20"/>
+      <c r="BK164" s="20"/>
+      <c r="BL164" s="20"/>
+      <c r="BM164" s="20"/>
+      <c r="BN164" s="20"/>
+      <c r="BO164" s="20"/>
+      <c r="BP164" s="20"/>
+      <c r="BQ164" s="20"/>
+      <c r="BR164" s="20"/>
+      <c r="BS164" s="20"/>
+      <c r="BT164" s="20"/>
+      <c r="BU164" s="20"/>
+      <c r="BV164" s="20"/>
+      <c r="BW164" s="20"/>
+      <c r="BX164" s="20"/>
+      <c r="BY164" s="20"/>
+      <c r="BZ164" s="20"/>
+      <c r="CA164" s="20"/>
+      <c r="CB164" s="20"/>
+      <c r="CC164" s="20"/>
+      <c r="CD164" s="20"/>
+      <c r="CE164" s="20"/>
+      <c r="CF164" s="20"/>
+      <c r="CG164" s="20"/>
+      <c r="CH164" s="20"/>
+      <c r="CI164" s="20"/>
+      <c r="CJ164" s="20"/>
+      <c r="CK164" s="20"/>
+      <c r="CL164" s="20"/>
+      <c r="CM164" s="20"/>
+      <c r="CN164" s="20"/>
+      <c r="CO164" s="20"/>
+      <c r="CP164" s="20"/>
+      <c r="CQ164" s="20"/>
+      <c r="CR164" s="42">
+        <v>1</v>
+      </c>
+      <c r="CS164" s="20"/>
+      <c r="CT164" s="20"/>
+      <c r="CU164" s="20"/>
+      <c r="CV164" s="20"/>
+      <c r="CW164" s="20"/>
+      <c r="CX164" s="21"/>
+      <c r="CY164" s="10"/>
+    </row>
+    <row r="165" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="81"/>
+      <c r="B165" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E164" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" s="28"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="29"/>
-      <c r="I164" s="29"/>
-      <c r="J164" s="29"/>
-      <c r="K164" s="29"/>
-      <c r="L164" s="29"/>
-      <c r="M164" s="29"/>
-      <c r="N164" s="29"/>
-      <c r="O164" s="29"/>
-      <c r="P164" s="29"/>
-      <c r="Q164" s="29"/>
-      <c r="R164" s="29"/>
-      <c r="S164" s="29"/>
-      <c r="T164" s="29"/>
-      <c r="U164" s="29"/>
-      <c r="V164" s="29"/>
-      <c r="W164" s="29"/>
-      <c r="X164" s="29"/>
-      <c r="Y164" s="29"/>
-      <c r="Z164" s="29"/>
-      <c r="AA164" s="29"/>
-      <c r="AB164" s="29"/>
-      <c r="AC164" s="29"/>
-      <c r="AD164" s="29"/>
-      <c r="AE164" s="29"/>
-      <c r="AF164" s="29"/>
-      <c r="AG164" s="29"/>
-      <c r="AH164" s="29"/>
-      <c r="AI164" s="29"/>
-      <c r="AJ164" s="29"/>
-      <c r="AK164" s="29"/>
-      <c r="AL164" s="29"/>
-      <c r="AM164" s="29"/>
-      <c r="AN164" s="29"/>
-      <c r="AO164" s="29"/>
-      <c r="AP164" s="29"/>
-      <c r="AQ164" s="29"/>
-      <c r="AR164" s="29"/>
-      <c r="AS164" s="29"/>
-      <c r="AT164" s="29"/>
-      <c r="AU164" s="29"/>
-      <c r="AV164" s="29"/>
-      <c r="AW164" s="29"/>
-      <c r="AX164" s="29"/>
-      <c r="AY164" s="29"/>
-      <c r="AZ164" s="29"/>
-      <c r="BA164" s="29"/>
-      <c r="BB164" s="29"/>
-      <c r="BC164" s="29"/>
-      <c r="BD164" s="29"/>
-      <c r="BE164" s="29"/>
-      <c r="BF164" s="29"/>
-      <c r="BG164" s="29"/>
-      <c r="BH164" s="29"/>
-      <c r="BI164" s="29"/>
-      <c r="BJ164" s="29"/>
-      <c r="BK164" s="29"/>
-      <c r="BL164" s="29"/>
-      <c r="BM164" s="29"/>
-      <c r="BN164" s="29"/>
-      <c r="BO164" s="29"/>
-      <c r="BP164" s="29"/>
-      <c r="BQ164" s="29"/>
-      <c r="BR164" s="29"/>
-      <c r="BS164" s="29"/>
-      <c r="BT164" s="29"/>
-      <c r="BU164" s="29"/>
-      <c r="BV164" s="29"/>
-      <c r="BW164" s="29"/>
-      <c r="BX164" s="29"/>
-      <c r="BY164" s="29"/>
-      <c r="BZ164" s="29"/>
-      <c r="CA164" s="29"/>
-      <c r="CB164" s="29"/>
-      <c r="CC164" s="29"/>
-      <c r="CD164" s="29"/>
-      <c r="CE164" s="29"/>
-      <c r="CF164" s="29"/>
-      <c r="CG164" s="29"/>
-      <c r="CH164" s="29"/>
-      <c r="CI164" s="29"/>
-      <c r="CJ164" s="29"/>
-      <c r="CK164" s="29"/>
-      <c r="CL164" s="29"/>
-      <c r="CM164" s="29"/>
-      <c r="CN164" s="29"/>
-      <c r="CO164" s="29"/>
-      <c r="CP164" s="29"/>
-      <c r="CQ164" s="29"/>
-      <c r="CR164" s="29"/>
-      <c r="CS164" s="29"/>
-      <c r="CT164" s="29"/>
-      <c r="CU164" s="29"/>
-      <c r="CV164" s="29"/>
-      <c r="CW164" s="29"/>
-      <c r="CX164" s="30"/>
-    </row>
-    <row r="165" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A165" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C165" s="62">
-        <v>1</v>
-      </c>
-      <c r="D165" s="80">
-        <v>18.05</v>
-      </c>
-      <c r="E165" s="84">
-        <v>25.05</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="D165" s="78"/>
+      <c r="E165" s="79"/>
       <c r="F165" s="19"/>
       <c r="G165" s="20"/>
       <c r="H165" s="20"/>
@@ -21116,8 +21142,8 @@
       <c r="CO165" s="20"/>
       <c r="CP165" s="20"/>
       <c r="CQ165" s="20"/>
-      <c r="CR165" s="42">
-        <v>1</v>
+      <c r="CR165" s="41">
+        <v>1.5</v>
       </c>
       <c r="CS165" s="20"/>
       <c r="CT165" s="20"/>
@@ -21125,245 +21151,248 @@
       <c r="CV165" s="20"/>
       <c r="CW165" s="20"/>
       <c r="CX165" s="21"/>
+      <c r="CY165" s="10"/>
     </row>
     <row r="166" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A166" s="79"/>
-      <c r="B166" s="6" t="s">
+      <c r="A166" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="62">
-        <v>1</v>
-      </c>
-      <c r="D166" s="81"/>
-      <c r="E166" s="84"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="20"/>
-      <c r="J166" s="20"/>
-      <c r="K166" s="20"/>
-      <c r="L166" s="20"/>
-      <c r="M166" s="20"/>
-      <c r="N166" s="20"/>
-      <c r="O166" s="20"/>
-      <c r="P166" s="20"/>
-      <c r="Q166" s="20"/>
-      <c r="R166" s="20"/>
-      <c r="S166" s="20"/>
-      <c r="T166" s="20"/>
-      <c r="U166" s="20"/>
-      <c r="V166" s="20"/>
-      <c r="W166" s="20"/>
-      <c r="X166" s="20"/>
-      <c r="Y166" s="20"/>
-      <c r="Z166" s="20"/>
-      <c r="AA166" s="20"/>
-      <c r="AB166" s="20"/>
-      <c r="AC166" s="20"/>
-      <c r="AD166" s="20"/>
-      <c r="AE166" s="20"/>
-      <c r="AF166" s="20"/>
-      <c r="AG166" s="20"/>
-      <c r="AH166" s="20"/>
-      <c r="AI166" s="20"/>
-      <c r="AJ166" s="20"/>
-      <c r="AK166" s="20"/>
-      <c r="AL166" s="20"/>
-      <c r="AM166" s="20"/>
-      <c r="AN166" s="20"/>
-      <c r="AO166" s="20"/>
-      <c r="AP166" s="20"/>
-      <c r="AQ166" s="20"/>
-      <c r="AR166" s="20"/>
-      <c r="AS166" s="20"/>
-      <c r="AT166" s="20"/>
-      <c r="AU166" s="20"/>
-      <c r="AV166" s="20"/>
-      <c r="AW166" s="20"/>
-      <c r="AX166" s="20"/>
-      <c r="AY166" s="20"/>
-      <c r="AZ166" s="20"/>
-      <c r="BA166" s="20"/>
-      <c r="BB166" s="20"/>
-      <c r="BC166" s="20"/>
-      <c r="BD166" s="20"/>
-      <c r="BE166" s="20"/>
-      <c r="BF166" s="20"/>
-      <c r="BG166" s="20"/>
-      <c r="BH166" s="20"/>
-      <c r="BI166" s="20"/>
-      <c r="BJ166" s="20"/>
-      <c r="BK166" s="20"/>
-      <c r="BL166" s="20"/>
-      <c r="BM166" s="20"/>
-      <c r="BN166" s="20"/>
-      <c r="BO166" s="20"/>
-      <c r="BP166" s="20"/>
-      <c r="BQ166" s="20"/>
-      <c r="BR166" s="20"/>
-      <c r="BS166" s="20"/>
-      <c r="BT166" s="20"/>
-      <c r="BU166" s="20"/>
-      <c r="BV166" s="20"/>
-      <c r="BW166" s="20"/>
-      <c r="BX166" s="20"/>
-      <c r="BY166" s="20"/>
-      <c r="BZ166" s="20"/>
-      <c r="CA166" s="20"/>
-      <c r="CB166" s="20"/>
-      <c r="CC166" s="20"/>
-      <c r="CD166" s="20"/>
-      <c r="CE166" s="20"/>
-      <c r="CF166" s="20"/>
-      <c r="CG166" s="20"/>
-      <c r="CH166" s="20"/>
-      <c r="CI166" s="20"/>
-      <c r="CJ166" s="20"/>
-      <c r="CK166" s="20"/>
-      <c r="CL166" s="20"/>
-      <c r="CM166" s="20"/>
-      <c r="CN166" s="20"/>
-      <c r="CO166" s="20"/>
-      <c r="CP166" s="20"/>
-      <c r="CQ166" s="20"/>
-      <c r="CR166" s="41">
-        <v>1</v>
-      </c>
-      <c r="CS166" s="20"/>
-      <c r="CT166" s="20"/>
-      <c r="CU166" s="20"/>
-      <c r="CV166" s="20"/>
-      <c r="CW166" s="20"/>
-      <c r="CX166" s="21"/>
+      <c r="E166" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="28"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
+      <c r="I166" s="29"/>
+      <c r="J166" s="29"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="29"/>
+      <c r="M166" s="29"/>
+      <c r="N166" s="29"/>
+      <c r="O166" s="29"/>
+      <c r="P166" s="29"/>
+      <c r="Q166" s="29"/>
+      <c r="R166" s="29"/>
+      <c r="S166" s="29"/>
+      <c r="T166" s="29"/>
+      <c r="U166" s="29"/>
+      <c r="V166" s="29"/>
+      <c r="W166" s="29"/>
+      <c r="X166" s="29"/>
+      <c r="Y166" s="29"/>
+      <c r="Z166" s="29"/>
+      <c r="AA166" s="29"/>
+      <c r="AB166" s="29"/>
+      <c r="AC166" s="29"/>
+      <c r="AD166" s="29"/>
+      <c r="AE166" s="29"/>
+      <c r="AF166" s="29"/>
+      <c r="AG166" s="29"/>
+      <c r="AH166" s="29"/>
+      <c r="AI166" s="29"/>
+      <c r="AJ166" s="29"/>
+      <c r="AK166" s="29"/>
+      <c r="AL166" s="29"/>
+      <c r="AM166" s="29"/>
+      <c r="AN166" s="29"/>
+      <c r="AO166" s="29"/>
+      <c r="AP166" s="29"/>
+      <c r="AQ166" s="29"/>
+      <c r="AR166" s="29"/>
+      <c r="AS166" s="29"/>
+      <c r="AT166" s="29"/>
+      <c r="AU166" s="29"/>
+      <c r="AV166" s="29"/>
+      <c r="AW166" s="29"/>
+      <c r="AX166" s="29"/>
+      <c r="AY166" s="29"/>
+      <c r="AZ166" s="29"/>
+      <c r="BA166" s="29"/>
+      <c r="BB166" s="29"/>
+      <c r="BC166" s="29"/>
+      <c r="BD166" s="29"/>
+      <c r="BE166" s="29"/>
+      <c r="BF166" s="29"/>
+      <c r="BG166" s="29"/>
+      <c r="BH166" s="29"/>
+      <c r="BI166" s="29"/>
+      <c r="BJ166" s="29"/>
+      <c r="BK166" s="29"/>
+      <c r="BL166" s="29"/>
+      <c r="BM166" s="29"/>
+      <c r="BN166" s="29"/>
+      <c r="BO166" s="29"/>
+      <c r="BP166" s="29"/>
+      <c r="BQ166" s="29"/>
+      <c r="BR166" s="29"/>
+      <c r="BS166" s="29"/>
+      <c r="BT166" s="29"/>
+      <c r="BU166" s="29"/>
+      <c r="BV166" s="29"/>
+      <c r="BW166" s="29"/>
+      <c r="BX166" s="29"/>
+      <c r="BY166" s="29"/>
+      <c r="BZ166" s="29"/>
+      <c r="CA166" s="29"/>
+      <c r="CB166" s="29"/>
+      <c r="CC166" s="29"/>
+      <c r="CD166" s="29"/>
+      <c r="CE166" s="29"/>
+      <c r="CF166" s="29"/>
+      <c r="CG166" s="29"/>
+      <c r="CH166" s="29"/>
+      <c r="CI166" s="29"/>
+      <c r="CJ166" s="29"/>
+      <c r="CK166" s="29"/>
+      <c r="CL166" s="29"/>
+      <c r="CM166" s="29"/>
+      <c r="CN166" s="29"/>
+      <c r="CO166" s="29"/>
+      <c r="CP166" s="29"/>
+      <c r="CQ166" s="29"/>
+      <c r="CR166" s="29"/>
+      <c r="CS166" s="29"/>
+      <c r="CT166" s="29"/>
+      <c r="CU166" s="29"/>
+      <c r="CV166" s="29"/>
+      <c r="CW166" s="29"/>
+      <c r="CX166" s="30"/>
     </row>
     <row r="167" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C167" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D167" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" s="28"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="29"/>
-      <c r="I167" s="29"/>
-      <c r="J167" s="29"/>
-      <c r="K167" s="29"/>
-      <c r="L167" s="29"/>
-      <c r="M167" s="29"/>
-      <c r="N167" s="29"/>
-      <c r="O167" s="29"/>
-      <c r="P167" s="29"/>
-      <c r="Q167" s="29"/>
-      <c r="R167" s="29"/>
-      <c r="S167" s="29"/>
-      <c r="T167" s="29"/>
-      <c r="U167" s="29"/>
-      <c r="V167" s="29"/>
-      <c r="W167" s="29"/>
-      <c r="X167" s="29"/>
-      <c r="Y167" s="29"/>
-      <c r="Z167" s="29"/>
-      <c r="AA167" s="29"/>
-      <c r="AB167" s="29"/>
-      <c r="AC167" s="29"/>
-      <c r="AD167" s="29"/>
-      <c r="AE167" s="29"/>
-      <c r="AF167" s="29"/>
-      <c r="AG167" s="29"/>
-      <c r="AH167" s="29"/>
-      <c r="AI167" s="29"/>
-      <c r="AJ167" s="29"/>
-      <c r="AK167" s="29"/>
-      <c r="AL167" s="29"/>
-      <c r="AM167" s="29"/>
-      <c r="AN167" s="29"/>
-      <c r="AO167" s="29"/>
-      <c r="AP167" s="29"/>
-      <c r="AQ167" s="29"/>
-      <c r="AR167" s="29"/>
-      <c r="AS167" s="29"/>
-      <c r="AT167" s="29"/>
-      <c r="AU167" s="29"/>
-      <c r="AV167" s="29"/>
-      <c r="AW167" s="29"/>
-      <c r="AX167" s="29"/>
-      <c r="AY167" s="29"/>
-      <c r="AZ167" s="29"/>
-      <c r="BA167" s="29"/>
-      <c r="BB167" s="29"/>
-      <c r="BC167" s="29"/>
-      <c r="BD167" s="29"/>
-      <c r="BE167" s="29"/>
-      <c r="BF167" s="29"/>
-      <c r="BG167" s="29"/>
-      <c r="BH167" s="29"/>
-      <c r="BI167" s="29"/>
-      <c r="BJ167" s="29"/>
-      <c r="BK167" s="29"/>
-      <c r="BL167" s="29"/>
-      <c r="BM167" s="29"/>
-      <c r="BN167" s="29"/>
-      <c r="BO167" s="29"/>
-      <c r="BP167" s="29"/>
-      <c r="BQ167" s="29"/>
-      <c r="BR167" s="29"/>
-      <c r="BS167" s="29"/>
-      <c r="BT167" s="29"/>
-      <c r="BU167" s="29"/>
-      <c r="BV167" s="29"/>
-      <c r="BW167" s="29"/>
-      <c r="BX167" s="29"/>
-      <c r="BY167" s="29"/>
-      <c r="BZ167" s="29"/>
-      <c r="CA167" s="29"/>
-      <c r="CB167" s="29"/>
-      <c r="CC167" s="29"/>
-      <c r="CD167" s="29"/>
-      <c r="CE167" s="29"/>
-      <c r="CF167" s="29"/>
-      <c r="CG167" s="29"/>
-      <c r="CH167" s="29"/>
-      <c r="CI167" s="29"/>
-      <c r="CJ167" s="29"/>
-      <c r="CK167" s="29"/>
-      <c r="CL167" s="29"/>
-      <c r="CM167" s="29"/>
-      <c r="CN167" s="29"/>
-      <c r="CO167" s="29"/>
-      <c r="CP167" s="29"/>
-      <c r="CQ167" s="29"/>
-      <c r="CR167" s="29"/>
-      <c r="CS167" s="29"/>
-      <c r="CT167" s="29"/>
-      <c r="CU167" s="29"/>
-      <c r="CV167" s="29"/>
-      <c r="CW167" s="29"/>
-      <c r="CX167" s="30"/>
+      <c r="A167" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="62">
+        <v>1</v>
+      </c>
+      <c r="D167" s="82">
+        <v>18.05</v>
+      </c>
+      <c r="E167" s="79">
+        <v>25.05</v>
+      </c>
+      <c r="F167" s="19"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="20"/>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="20"/>
+      <c r="O167" s="20"/>
+      <c r="P167" s="20"/>
+      <c r="Q167" s="20"/>
+      <c r="R167" s="20"/>
+      <c r="S167" s="20"/>
+      <c r="T167" s="20"/>
+      <c r="U167" s="20"/>
+      <c r="V167" s="20"/>
+      <c r="W167" s="20"/>
+      <c r="X167" s="20"/>
+      <c r="Y167" s="20"/>
+      <c r="Z167" s="20"/>
+      <c r="AA167" s="20"/>
+      <c r="AB167" s="20"/>
+      <c r="AC167" s="20"/>
+      <c r="AD167" s="20"/>
+      <c r="AE167" s="20"/>
+      <c r="AF167" s="20"/>
+      <c r="AG167" s="20"/>
+      <c r="AH167" s="20"/>
+      <c r="AI167" s="20"/>
+      <c r="AJ167" s="20"/>
+      <c r="AK167" s="20"/>
+      <c r="AL167" s="20"/>
+      <c r="AM167" s="20"/>
+      <c r="AN167" s="20"/>
+      <c r="AO167" s="20"/>
+      <c r="AP167" s="20"/>
+      <c r="AQ167" s="20"/>
+      <c r="AR167" s="20"/>
+      <c r="AS167" s="20"/>
+      <c r="AT167" s="20"/>
+      <c r="AU167" s="20"/>
+      <c r="AV167" s="20"/>
+      <c r="AW167" s="20"/>
+      <c r="AX167" s="20"/>
+      <c r="AY167" s="20"/>
+      <c r="AZ167" s="20"/>
+      <c r="BA167" s="20"/>
+      <c r="BB167" s="20"/>
+      <c r="BC167" s="20"/>
+      <c r="BD167" s="20"/>
+      <c r="BE167" s="20"/>
+      <c r="BF167" s="20"/>
+      <c r="BG167" s="20"/>
+      <c r="BH167" s="20"/>
+      <c r="BI167" s="20"/>
+      <c r="BJ167" s="20"/>
+      <c r="BK167" s="20"/>
+      <c r="BL167" s="20"/>
+      <c r="BM167" s="20"/>
+      <c r="BN167" s="20"/>
+      <c r="BO167" s="20"/>
+      <c r="BP167" s="20"/>
+      <c r="BQ167" s="20"/>
+      <c r="BR167" s="20"/>
+      <c r="BS167" s="20"/>
+      <c r="BT167" s="20"/>
+      <c r="BU167" s="20"/>
+      <c r="BV167" s="20"/>
+      <c r="BW167" s="20"/>
+      <c r="BX167" s="20"/>
+      <c r="BY167" s="20"/>
+      <c r="BZ167" s="20"/>
+      <c r="CA167" s="20"/>
+      <c r="CB167" s="20"/>
+      <c r="CC167" s="20"/>
+      <c r="CD167" s="20"/>
+      <c r="CE167" s="20"/>
+      <c r="CF167" s="20"/>
+      <c r="CG167" s="20"/>
+      <c r="CH167" s="20"/>
+      <c r="CI167" s="20"/>
+      <c r="CJ167" s="20"/>
+      <c r="CK167" s="20"/>
+      <c r="CL167" s="20"/>
+      <c r="CM167" s="20"/>
+      <c r="CN167" s="20"/>
+      <c r="CO167" s="20"/>
+      <c r="CP167" s="20"/>
+      <c r="CQ167" s="20"/>
+      <c r="CR167" s="42">
+        <v>1</v>
+      </c>
+      <c r="CS167" s="20"/>
+      <c r="CT167" s="20"/>
+      <c r="CU167" s="20"/>
+      <c r="CV167" s="20"/>
+      <c r="CW167" s="20"/>
+      <c r="CX167" s="21"/>
     </row>
     <row r="168" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A168" s="78"/>
+      <c r="A168" s="81"/>
       <c r="B168" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="80">
-        <v>18.05</v>
-      </c>
-      <c r="E168" s="84">
-        <v>25.05</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C168" s="62">
+        <v>1</v>
+      </c>
+      <c r="D168" s="78"/>
+      <c r="E168" s="79"/>
       <c r="F168" s="19"/>
       <c r="G168" s="20"/>
       <c r="H168" s="20"/>
@@ -21454,7 +21483,9 @@
       <c r="CO168" s="20"/>
       <c r="CP168" s="20"/>
       <c r="CQ168" s="20"/>
-      <c r="CR168" s="20"/>
+      <c r="CR168" s="41">
+        <v>1</v>
+      </c>
       <c r="CS168" s="20"/>
       <c r="CT168" s="20"/>
       <c r="CU168" s="20"/>
@@ -21463,123 +21494,133 @@
       <c r="CX168" s="21"/>
     </row>
     <row r="169" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A169" s="79"/>
-      <c r="B169" s="6" t="s">
+      <c r="A169" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C169" s="62" t="s">
+      <c r="E169" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="28"/>
+      <c r="G169" s="29"/>
+      <c r="H169" s="29"/>
+      <c r="I169" s="29"/>
+      <c r="J169" s="29"/>
+      <c r="K169" s="29"/>
+      <c r="L169" s="29"/>
+      <c r="M169" s="29"/>
+      <c r="N169" s="29"/>
+      <c r="O169" s="29"/>
+      <c r="P169" s="29"/>
+      <c r="Q169" s="29"/>
+      <c r="R169" s="29"/>
+      <c r="S169" s="29"/>
+      <c r="T169" s="29"/>
+      <c r="U169" s="29"/>
+      <c r="V169" s="29"/>
+      <c r="W169" s="29"/>
+      <c r="X169" s="29"/>
+      <c r="Y169" s="29"/>
+      <c r="Z169" s="29"/>
+      <c r="AA169" s="29"/>
+      <c r="AB169" s="29"/>
+      <c r="AC169" s="29"/>
+      <c r="AD169" s="29"/>
+      <c r="AE169" s="29"/>
+      <c r="AF169" s="29"/>
+      <c r="AG169" s="29"/>
+      <c r="AH169" s="29"/>
+      <c r="AI169" s="29"/>
+      <c r="AJ169" s="29"/>
+      <c r="AK169" s="29"/>
+      <c r="AL169" s="29"/>
+      <c r="AM169" s="29"/>
+      <c r="AN169" s="29"/>
+      <c r="AO169" s="29"/>
+      <c r="AP169" s="29"/>
+      <c r="AQ169" s="29"/>
+      <c r="AR169" s="29"/>
+      <c r="AS169" s="29"/>
+      <c r="AT169" s="29"/>
+      <c r="AU169" s="29"/>
+      <c r="AV169" s="29"/>
+      <c r="AW169" s="29"/>
+      <c r="AX169" s="29"/>
+      <c r="AY169" s="29"/>
+      <c r="AZ169" s="29"/>
+      <c r="BA169" s="29"/>
+      <c r="BB169" s="29"/>
+      <c r="BC169" s="29"/>
+      <c r="BD169" s="29"/>
+      <c r="BE169" s="29"/>
+      <c r="BF169" s="29"/>
+      <c r="BG169" s="29"/>
+      <c r="BH169" s="29"/>
+      <c r="BI169" s="29"/>
+      <c r="BJ169" s="29"/>
+      <c r="BK169" s="29"/>
+      <c r="BL169" s="29"/>
+      <c r="BM169" s="29"/>
+      <c r="BN169" s="29"/>
+      <c r="BO169" s="29"/>
+      <c r="BP169" s="29"/>
+      <c r="BQ169" s="29"/>
+      <c r="BR169" s="29"/>
+      <c r="BS169" s="29"/>
+      <c r="BT169" s="29"/>
+      <c r="BU169" s="29"/>
+      <c r="BV169" s="29"/>
+      <c r="BW169" s="29"/>
+      <c r="BX169" s="29"/>
+      <c r="BY169" s="29"/>
+      <c r="BZ169" s="29"/>
+      <c r="CA169" s="29"/>
+      <c r="CB169" s="29"/>
+      <c r="CC169" s="29"/>
+      <c r="CD169" s="29"/>
+      <c r="CE169" s="29"/>
+      <c r="CF169" s="29"/>
+      <c r="CG169" s="29"/>
+      <c r="CH169" s="29"/>
+      <c r="CI169" s="29"/>
+      <c r="CJ169" s="29"/>
+      <c r="CK169" s="29"/>
+      <c r="CL169" s="29"/>
+      <c r="CM169" s="29"/>
+      <c r="CN169" s="29"/>
+      <c r="CO169" s="29"/>
+      <c r="CP169" s="29"/>
+      <c r="CQ169" s="29"/>
+      <c r="CR169" s="29"/>
+      <c r="CS169" s="29"/>
+      <c r="CT169" s="29"/>
+      <c r="CU169" s="29"/>
+      <c r="CV169" s="29"/>
+      <c r="CW169" s="29"/>
+      <c r="CX169" s="30"/>
+    </row>
+    <row r="170" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A170" s="80"/>
+      <c r="B170" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D169" s="81"/>
-      <c r="E169" s="84"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
-      <c r="J169" s="20"/>
-      <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
-      <c r="M169" s="20"/>
-      <c r="N169" s="20"/>
-      <c r="O169" s="20"/>
-      <c r="P169" s="20"/>
-      <c r="Q169" s="20"/>
-      <c r="R169" s="20"/>
-      <c r="S169" s="20"/>
-      <c r="T169" s="20"/>
-      <c r="U169" s="20"/>
-      <c r="V169" s="20"/>
-      <c r="W169" s="20"/>
-      <c r="X169" s="20"/>
-      <c r="Y169" s="20"/>
-      <c r="Z169" s="20"/>
-      <c r="AA169" s="20"/>
-      <c r="AB169" s="20"/>
-      <c r="AC169" s="20"/>
-      <c r="AD169" s="20"/>
-      <c r="AE169" s="20"/>
-      <c r="AF169" s="20"/>
-      <c r="AG169" s="20"/>
-      <c r="AH169" s="20"/>
-      <c r="AI169" s="20"/>
-      <c r="AJ169" s="20"/>
-      <c r="AK169" s="20"/>
-      <c r="AL169" s="20"/>
-      <c r="AM169" s="20"/>
-      <c r="AN169" s="20"/>
-      <c r="AO169" s="20"/>
-      <c r="AP169" s="20"/>
-      <c r="AQ169" s="20"/>
-      <c r="AR169" s="20"/>
-      <c r="AS169" s="20"/>
-      <c r="AT169" s="20"/>
-      <c r="AU169" s="20"/>
-      <c r="AV169" s="20"/>
-      <c r="AW169" s="20"/>
-      <c r="AX169" s="20"/>
-      <c r="AY169" s="20"/>
-      <c r="AZ169" s="20"/>
-      <c r="BA169" s="20"/>
-      <c r="BB169" s="20"/>
-      <c r="BC169" s="20"/>
-      <c r="BD169" s="20"/>
-      <c r="BE169" s="20"/>
-      <c r="BF169" s="20"/>
-      <c r="BG169" s="20"/>
-      <c r="BH169" s="20"/>
-      <c r="BI169" s="20"/>
-      <c r="BJ169" s="20"/>
-      <c r="BK169" s="20"/>
-      <c r="BL169" s="20"/>
-      <c r="BM169" s="20"/>
-      <c r="BN169" s="20"/>
-      <c r="BO169" s="20"/>
-      <c r="BP169" s="20"/>
-      <c r="BQ169" s="20"/>
-      <c r="BR169" s="20"/>
-      <c r="BS169" s="20"/>
-      <c r="BT169" s="20"/>
-      <c r="BU169" s="20"/>
-      <c r="BV169" s="20"/>
-      <c r="BW169" s="20"/>
-      <c r="BX169" s="20"/>
-      <c r="BY169" s="20"/>
-      <c r="BZ169" s="20"/>
-      <c r="CA169" s="20"/>
-      <c r="CB169" s="20"/>
-      <c r="CC169" s="20"/>
-      <c r="CD169" s="20"/>
-      <c r="CE169" s="20"/>
-      <c r="CF169" s="20"/>
-      <c r="CG169" s="20"/>
-      <c r="CH169" s="20"/>
-      <c r="CI169" s="20"/>
-      <c r="CJ169" s="20"/>
-      <c r="CK169" s="20"/>
-      <c r="CL169" s="20"/>
-      <c r="CM169" s="20"/>
-      <c r="CN169" s="20"/>
-      <c r="CO169" s="20"/>
-      <c r="CP169" s="20"/>
-      <c r="CQ169" s="20"/>
-      <c r="CR169" s="20"/>
-      <c r="CS169" s="20"/>
-      <c r="CT169" s="20"/>
-      <c r="CU169" s="20"/>
-      <c r="CV169" s="20"/>
-      <c r="CW169" s="20"/>
-      <c r="CX169" s="21"/>
-    </row>
-    <row r="170" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B170" s="11"/>
-      <c r="C170" s="64"/>
-      <c r="D170" s="92">
-        <v>44348</v>
-      </c>
-      <c r="E170" s="93"/>
+      <c r="D170" s="82">
+        <v>18.05</v>
+      </c>
+      <c r="E170" s="79">
+        <v>25.05</v>
+      </c>
       <c r="F170" s="19"/>
       <c r="G170" s="20"/>
       <c r="H170" s="20"/>
@@ -21678,163 +21719,517 @@
       <c r="CW170" s="20"/>
       <c r="CX170" s="21"/>
     </row>
-    <row r="171" spans="1:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="65"/>
-      <c r="D171" s="65"/>
-      <c r="E171" s="65"/>
-      <c r="F171" s="35"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="35"/>
-      <c r="I171" s="35"/>
-      <c r="J171" s="35"/>
-      <c r="K171" s="35"/>
-      <c r="L171" s="35"/>
-      <c r="M171" s="35"/>
-      <c r="N171" s="35"/>
-      <c r="O171" s="35"/>
-      <c r="P171" s="35"/>
-      <c r="Q171" s="35"/>
-      <c r="R171" s="35"/>
-      <c r="S171" s="35"/>
-      <c r="T171" s="35"/>
-      <c r="U171" s="35"/>
-      <c r="V171" s="35"/>
-      <c r="W171" s="35"/>
-      <c r="X171" s="35"/>
-      <c r="Y171" s="35"/>
-      <c r="Z171" s="35"/>
-      <c r="AA171" s="35"/>
-      <c r="AB171" s="35"/>
-      <c r="AC171" s="35"/>
-      <c r="AD171" s="35"/>
-      <c r="AE171" s="35"/>
-      <c r="AF171" s="35"/>
-      <c r="AG171" s="35"/>
-      <c r="AH171" s="35"/>
-      <c r="AI171" s="35"/>
-      <c r="AJ171" s="35"/>
-      <c r="AK171" s="35"/>
-      <c r="AL171" s="35"/>
-      <c r="AM171" s="35"/>
-      <c r="AN171" s="35"/>
-      <c r="AO171" s="35"/>
-      <c r="AP171" s="35"/>
-      <c r="AQ171" s="35"/>
-      <c r="AR171" s="35"/>
-      <c r="AS171" s="35"/>
-      <c r="AT171" s="35"/>
-      <c r="AU171" s="35"/>
-      <c r="AV171" s="35"/>
-      <c r="AW171" s="35"/>
-      <c r="AX171" s="35"/>
-      <c r="AY171" s="35"/>
-      <c r="AZ171" s="35"/>
-      <c r="BA171" s="35"/>
-      <c r="BB171" s="35"/>
-      <c r="BC171" s="35"/>
-      <c r="BD171" s="35"/>
-      <c r="BE171" s="35"/>
-      <c r="BF171" s="35"/>
-      <c r="BG171" s="35"/>
-      <c r="BH171" s="35"/>
-      <c r="BI171" s="35"/>
-      <c r="BJ171" s="35"/>
-      <c r="BK171" s="35"/>
-      <c r="BL171" s="35"/>
-      <c r="BM171" s="35"/>
-      <c r="BN171" s="35"/>
-      <c r="BO171" s="35"/>
-      <c r="BP171" s="35"/>
-      <c r="BQ171" s="35"/>
-      <c r="BR171" s="35"/>
-      <c r="BS171" s="35"/>
-      <c r="BT171" s="35"/>
-      <c r="BU171" s="35"/>
-      <c r="BV171" s="35"/>
-      <c r="BW171" s="35"/>
-      <c r="BX171" s="35"/>
-      <c r="BY171" s="35"/>
-      <c r="BZ171" s="35"/>
-      <c r="CA171" s="35"/>
-      <c r="CB171" s="35"/>
-      <c r="CC171" s="35"/>
-      <c r="CD171" s="35"/>
-      <c r="CE171" s="35"/>
-      <c r="CF171" s="35"/>
-      <c r="CG171" s="35"/>
-      <c r="CH171" s="35"/>
-      <c r="CI171" s="35"/>
-      <c r="CJ171" s="35"/>
-      <c r="CK171" s="35"/>
-      <c r="CL171" s="35"/>
-      <c r="CM171" s="35"/>
-      <c r="CN171" s="35"/>
-      <c r="CO171" s="35"/>
-      <c r="CP171" s="35"/>
-      <c r="CQ171" s="35"/>
-      <c r="CR171" s="35"/>
-      <c r="CS171" s="35"/>
-      <c r="CT171" s="35"/>
-      <c r="CU171" s="35"/>
-      <c r="CV171" s="35"/>
-      <c r="CW171" s="35"/>
-      <c r="CX171" s="35"/>
+    <row r="171" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A171" s="81"/>
+      <c r="B171" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="78"/>
+      <c r="E171" s="79"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="20"/>
+      <c r="L171" s="20"/>
+      <c r="M171" s="20"/>
+      <c r="N171" s="20"/>
+      <c r="O171" s="20"/>
+      <c r="P171" s="20"/>
+      <c r="Q171" s="20"/>
+      <c r="R171" s="20"/>
+      <c r="S171" s="20"/>
+      <c r="T171" s="20"/>
+      <c r="U171" s="20"/>
+      <c r="V171" s="20"/>
+      <c r="W171" s="20"/>
+      <c r="X171" s="20"/>
+      <c r="Y171" s="20"/>
+      <c r="Z171" s="20"/>
+      <c r="AA171" s="20"/>
+      <c r="AB171" s="20"/>
+      <c r="AC171" s="20"/>
+      <c r="AD171" s="20"/>
+      <c r="AE171" s="20"/>
+      <c r="AF171" s="20"/>
+      <c r="AG171" s="20"/>
+      <c r="AH171" s="20"/>
+      <c r="AI171" s="20"/>
+      <c r="AJ171" s="20"/>
+      <c r="AK171" s="20"/>
+      <c r="AL171" s="20"/>
+      <c r="AM171" s="20"/>
+      <c r="AN171" s="20"/>
+      <c r="AO171" s="20"/>
+      <c r="AP171" s="20"/>
+      <c r="AQ171" s="20"/>
+      <c r="AR171" s="20"/>
+      <c r="AS171" s="20"/>
+      <c r="AT171" s="20"/>
+      <c r="AU171" s="20"/>
+      <c r="AV171" s="20"/>
+      <c r="AW171" s="20"/>
+      <c r="AX171" s="20"/>
+      <c r="AY171" s="20"/>
+      <c r="AZ171" s="20"/>
+      <c r="BA171" s="20"/>
+      <c r="BB171" s="20"/>
+      <c r="BC171" s="20"/>
+      <c r="BD171" s="20"/>
+      <c r="BE171" s="20"/>
+      <c r="BF171" s="20"/>
+      <c r="BG171" s="20"/>
+      <c r="BH171" s="20"/>
+      <c r="BI171" s="20"/>
+      <c r="BJ171" s="20"/>
+      <c r="BK171" s="20"/>
+      <c r="BL171" s="20"/>
+      <c r="BM171" s="20"/>
+      <c r="BN171" s="20"/>
+      <c r="BO171" s="20"/>
+      <c r="BP171" s="20"/>
+      <c r="BQ171" s="20"/>
+      <c r="BR171" s="20"/>
+      <c r="BS171" s="20"/>
+      <c r="BT171" s="20"/>
+      <c r="BU171" s="20"/>
+      <c r="BV171" s="20"/>
+      <c r="BW171" s="20"/>
+      <c r="BX171" s="20"/>
+      <c r="BY171" s="20"/>
+      <c r="BZ171" s="20"/>
+      <c r="CA171" s="20"/>
+      <c r="CB171" s="20"/>
+      <c r="CC171" s="20"/>
+      <c r="CD171" s="20"/>
+      <c r="CE171" s="20"/>
+      <c r="CF171" s="20"/>
+      <c r="CG171" s="20"/>
+      <c r="CH171" s="20"/>
+      <c r="CI171" s="20"/>
+      <c r="CJ171" s="20"/>
+      <c r="CK171" s="20"/>
+      <c r="CL171" s="20"/>
+      <c r="CM171" s="20"/>
+      <c r="CN171" s="20"/>
+      <c r="CO171" s="20"/>
+      <c r="CP171" s="20"/>
+      <c r="CQ171" s="20"/>
+      <c r="CR171" s="20"/>
+      <c r="CS171" s="20"/>
+      <c r="CT171" s="20"/>
+      <c r="CU171" s="20"/>
+      <c r="CV171" s="20"/>
+      <c r="CW171" s="20"/>
+      <c r="CX171" s="21"/>
     </row>
-    <row r="173" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="174" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="D174" s="74"/>
-      <c r="E174" s="68"/>
-      <c r="F174" s="37"/>
+    <row r="172" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" s="11"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="87">
+        <v>44348</v>
+      </c>
+      <c r="E172" s="88"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="20"/>
+      <c r="K172" s="20"/>
+      <c r="L172" s="20"/>
+      <c r="M172" s="20"/>
+      <c r="N172" s="20"/>
+      <c r="O172" s="20"/>
+      <c r="P172" s="20"/>
+      <c r="Q172" s="20"/>
+      <c r="R172" s="20"/>
+      <c r="S172" s="20"/>
+      <c r="T172" s="20"/>
+      <c r="U172" s="20"/>
+      <c r="V172" s="20"/>
+      <c r="W172" s="20"/>
+      <c r="X172" s="20"/>
+      <c r="Y172" s="20"/>
+      <c r="Z172" s="20"/>
+      <c r="AA172" s="20"/>
+      <c r="AB172" s="20"/>
+      <c r="AC172" s="20"/>
+      <c r="AD172" s="20"/>
+      <c r="AE172" s="20"/>
+      <c r="AF172" s="20"/>
+      <c r="AG172" s="20"/>
+      <c r="AH172" s="20"/>
+      <c r="AI172" s="20"/>
+      <c r="AJ172" s="20"/>
+      <c r="AK172" s="20"/>
+      <c r="AL172" s="20"/>
+      <c r="AM172" s="20"/>
+      <c r="AN172" s="20"/>
+      <c r="AO172" s="20"/>
+      <c r="AP172" s="20"/>
+      <c r="AQ172" s="20"/>
+      <c r="AR172" s="20"/>
+      <c r="AS172" s="20"/>
+      <c r="AT172" s="20"/>
+      <c r="AU172" s="20"/>
+      <c r="AV172" s="20"/>
+      <c r="AW172" s="20"/>
+      <c r="AX172" s="20"/>
+      <c r="AY172" s="20"/>
+      <c r="AZ172" s="20"/>
+      <c r="BA172" s="20"/>
+      <c r="BB172" s="20"/>
+      <c r="BC172" s="20"/>
+      <c r="BD172" s="20"/>
+      <c r="BE172" s="20"/>
+      <c r="BF172" s="20"/>
+      <c r="BG172" s="20"/>
+      <c r="BH172" s="20"/>
+      <c r="BI172" s="20"/>
+      <c r="BJ172" s="20"/>
+      <c r="BK172" s="20"/>
+      <c r="BL172" s="20"/>
+      <c r="BM172" s="20"/>
+      <c r="BN172" s="20"/>
+      <c r="BO172" s="20"/>
+      <c r="BP172" s="20"/>
+      <c r="BQ172" s="20"/>
+      <c r="BR172" s="20"/>
+      <c r="BS172" s="20"/>
+      <c r="BT172" s="20"/>
+      <c r="BU172" s="20"/>
+      <c r="BV172" s="20"/>
+      <c r="BW172" s="20"/>
+      <c r="BX172" s="20"/>
+      <c r="BY172" s="20"/>
+      <c r="BZ172" s="20"/>
+      <c r="CA172" s="20"/>
+      <c r="CB172" s="20"/>
+      <c r="CC172" s="20"/>
+      <c r="CD172" s="20"/>
+      <c r="CE172" s="20"/>
+      <c r="CF172" s="20"/>
+      <c r="CG172" s="20"/>
+      <c r="CH172" s="20"/>
+      <c r="CI172" s="20"/>
+      <c r="CJ172" s="20"/>
+      <c r="CK172" s="20"/>
+      <c r="CL172" s="20"/>
+      <c r="CM172" s="20"/>
+      <c r="CN172" s="20"/>
+      <c r="CO172" s="20"/>
+      <c r="CP172" s="20"/>
+      <c r="CQ172" s="20"/>
+      <c r="CR172" s="20"/>
+      <c r="CS172" s="20"/>
+      <c r="CT172" s="20"/>
+      <c r="CU172" s="20"/>
+      <c r="CV172" s="20"/>
+      <c r="CW172" s="20"/>
+      <c r="CX172" s="21"/>
     </row>
-    <row r="175" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="D175" s="75"/>
-      <c r="E175" s="55" t="s">
+    <row r="173" spans="1:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="65"/>
+      <c r="D173" s="65"/>
+      <c r="E173" s="65"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="35"/>
+      <c r="I173" s="35"/>
+      <c r="J173" s="35"/>
+      <c r="K173" s="35"/>
+      <c r="L173" s="35"/>
+      <c r="M173" s="35"/>
+      <c r="N173" s="35"/>
+      <c r="O173" s="35"/>
+      <c r="P173" s="35"/>
+      <c r="Q173" s="35"/>
+      <c r="R173" s="35"/>
+      <c r="S173" s="35"/>
+      <c r="T173" s="35"/>
+      <c r="U173" s="35"/>
+      <c r="V173" s="35"/>
+      <c r="W173" s="35"/>
+      <c r="X173" s="35"/>
+      <c r="Y173" s="35"/>
+      <c r="Z173" s="35"/>
+      <c r="AA173" s="35"/>
+      <c r="AB173" s="35"/>
+      <c r="AC173" s="35"/>
+      <c r="AD173" s="35"/>
+      <c r="AE173" s="35"/>
+      <c r="AF173" s="35"/>
+      <c r="AG173" s="35"/>
+      <c r="AH173" s="35"/>
+      <c r="AI173" s="35"/>
+      <c r="AJ173" s="35"/>
+      <c r="AK173" s="35"/>
+      <c r="AL173" s="35"/>
+      <c r="AM173" s="35"/>
+      <c r="AN173" s="35"/>
+      <c r="AO173" s="35"/>
+      <c r="AP173" s="35"/>
+      <c r="AQ173" s="35"/>
+      <c r="AR173" s="35"/>
+      <c r="AS173" s="35"/>
+      <c r="AT173" s="35"/>
+      <c r="AU173" s="35"/>
+      <c r="AV173" s="35"/>
+      <c r="AW173" s="35"/>
+      <c r="AX173" s="35"/>
+      <c r="AY173" s="35"/>
+      <c r="AZ173" s="35"/>
+      <c r="BA173" s="35"/>
+      <c r="BB173" s="35"/>
+      <c r="BC173" s="35"/>
+      <c r="BD173" s="35"/>
+      <c r="BE173" s="35"/>
+      <c r="BF173" s="35"/>
+      <c r="BG173" s="35"/>
+      <c r="BH173" s="35"/>
+      <c r="BI173" s="35"/>
+      <c r="BJ173" s="35"/>
+      <c r="BK173" s="35"/>
+      <c r="BL173" s="35"/>
+      <c r="BM173" s="35"/>
+      <c r="BN173" s="35"/>
+      <c r="BO173" s="35"/>
+      <c r="BP173" s="35"/>
+      <c r="BQ173" s="35"/>
+      <c r="BR173" s="35"/>
+      <c r="BS173" s="35"/>
+      <c r="BT173" s="35"/>
+      <c r="BU173" s="35"/>
+      <c r="BV173" s="35"/>
+      <c r="BW173" s="35"/>
+      <c r="BX173" s="35"/>
+      <c r="BY173" s="35"/>
+      <c r="BZ173" s="35"/>
+      <c r="CA173" s="35"/>
+      <c r="CB173" s="35"/>
+      <c r="CC173" s="35"/>
+      <c r="CD173" s="35"/>
+      <c r="CE173" s="35"/>
+      <c r="CF173" s="35"/>
+      <c r="CG173" s="35"/>
+      <c r="CH173" s="35"/>
+      <c r="CI173" s="35"/>
+      <c r="CJ173" s="35"/>
+      <c r="CK173" s="35"/>
+      <c r="CL173" s="35"/>
+      <c r="CM173" s="35"/>
+      <c r="CN173" s="35"/>
+      <c r="CO173" s="35"/>
+      <c r="CP173" s="35"/>
+      <c r="CQ173" s="35"/>
+      <c r="CR173" s="35"/>
+      <c r="CS173" s="35"/>
+      <c r="CT173" s="35"/>
+      <c r="CU173" s="35"/>
+      <c r="CV173" s="35"/>
+      <c r="CW173" s="35"/>
+      <c r="CX173" s="35"/>
+    </row>
+    <row r="175" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="D176" s="74"/>
+      <c r="E176" s="68"/>
+      <c r="F176" s="37"/>
+    </row>
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D177" s="75"/>
+      <c r="E177" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F175" s="38"/>
+      <c r="F177" s="38"/>
     </row>
-    <row r="176" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="D176" s="76"/>
-      <c r="E176" s="55" t="s">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D178" s="76"/>
+      <c r="E178" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F176" s="38"/>
+      <c r="F178" s="38"/>
     </row>
-    <row r="177" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D177" s="77"/>
-      <c r="E177" s="69" t="s">
+    <row r="179" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D179" s="77"/>
+      <c r="E179" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F177" s="39"/>
+      <c r="F179" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="205">
+  <mergeCells count="208">
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="A144:A145"/>
     <mergeCell ref="D144:D145"/>
     <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="A151:A152"/>
     <mergeCell ref="A146:A147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="D96:D97"/>
     <mergeCell ref="E96:E97"/>
@@ -21859,163 +22254,28 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="A131:A132"/>
     <mergeCell ref="A139:A140"/>
     <mergeCell ref="D139:D140"/>
     <mergeCell ref="E139:E140"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitsplan/Iteration_Arbeitsplan.xlsx
+++ b/Arbeitsplan/Iteration_Arbeitsplan.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kevin\Documents\PSE_DELIVERABLES\Arbeitsplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolicfilip/Documents/GitHub/PSE_DELIVERABLES/Arbeitsplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524FD26-9F05-44F2-AAF1-B8E730812414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF53E8-8249-684C-BC9B-7373F87558E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="85">
   <si>
     <t>Zeitplan PSE eonum AG</t>
   </si>
@@ -283,6 +274,12 @@
   </si>
   <si>
     <t>Refactoring</t>
+  </si>
+  <si>
+    <t>Code durchsuchen nach bugs</t>
+  </si>
+  <si>
+    <t>Mobile Design anpassen (Pfeil Button + Ein-/Auslappen)</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1005,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1020,26 +1023,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1061,27 +1079,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1753,29 +1750,29 @@
   <dimension ref="A1:CY179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="36" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="36"/>
-    <col min="6" max="102" width="5.5703125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="36" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="36"/>
+    <col min="6" max="102" width="5.5" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="91" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="92"/>
+      <c r="E1" s="99"/>
       <c r="F1" s="18">
         <v>44615</v>
       </c>
@@ -2069,7 +2066,7 @@
       </c>
       <c r="CY1" s="16"/>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="59"/>
@@ -2174,7 +2171,7 @@
       <c r="CX2" s="21"/>
       <c r="CY2" s="17"/>
     </row>
-    <row r="3" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2284,7 +2281,7 @@
       <c r="CX3" s="24"/>
       <c r="CY3" s="17"/>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -2401,7 +2398,7 @@
       <c r="CX4" s="27"/>
       <c r="CY4" s="17"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2518,8 +2515,8 @@
       <c r="CX5" s="30"/>
       <c r="CY5" s="17"/>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="82" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2528,7 +2525,7 @@
       <c r="C6" s="62">
         <v>5</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="80">
         <v>23.02</v>
       </c>
       <c r="E6" s="86">
@@ -2639,16 +2636,16 @@
       <c r="CX6" s="47"/>
       <c r="CY6" s="17"/>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="83"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="62">
         <v>4</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="85"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="45"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
@@ -2754,8 +2751,8 @@
       <c r="CX7" s="47"/>
       <c r="CY7" s="17"/>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A8" s="82" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2764,7 +2761,7 @@
       <c r="C8" s="62">
         <v>2</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>23.02</v>
       </c>
       <c r="E8" s="86">
@@ -2871,16 +2868,16 @@
       <c r="CX8" s="21"/>
       <c r="CY8" s="17"/>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
+    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A9" s="83"/>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="62">
         <v>2</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="85"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -2982,7 +2979,7 @@
       <c r="CX9" s="21"/>
       <c r="CY9" s="17"/>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -3099,8 +3096,8 @@
       <c r="CX10" s="30"/>
       <c r="CY10" s="17"/>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A11" s="82" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3110,7 +3107,7 @@
         <f>SUM(F11:CX11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>23.02</v>
       </c>
       <c r="E11" s="86">
@@ -3217,8 +3214,8 @@
       <c r="CX11" s="21"/>
       <c r="CY11" s="17"/>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
+    <row r="12" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A12" s="83"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -3226,8 +3223,8 @@
         <f>SUM(F12:CX12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="85"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -3329,8 +3326,8 @@
       <c r="CX12" s="21"/>
       <c r="CY12" s="17"/>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="82" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -3340,7 +3337,7 @@
         <f>SUM(F13:CX13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>23.02</v>
       </c>
       <c r="E13" s="86">
@@ -3449,8 +3446,8 @@
       <c r="CX13" s="21"/>
       <c r="CY13" s="17"/>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="95"/>
       <c r="B14" s="43" t="s">
         <v>8</v>
       </c>
@@ -3458,8 +3455,8 @@
         <f>SUM(F14:CX14)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="85"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -3566,7 +3563,7 @@
       <c r="CX14" s="21"/>
       <c r="CY14" s="17"/>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
         <v>22</v>
       </c>
@@ -3683,8 +3680,8 @@
       <c r="CX15" s="30"/>
       <c r="CY15" s="17"/>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="82" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3693,7 +3690,7 @@
       <c r="C16" s="62">
         <v>3</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>23.02</v>
       </c>
       <c r="E16" s="86">
@@ -3800,16 +3797,16 @@
       <c r="CX16" s="21"/>
       <c r="CY16" s="17"/>
     </row>
-    <row r="17" spans="1:103" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
+    <row r="17" spans="1:103" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="95"/>
       <c r="B17" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="62">
         <v>3</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -3911,8 +3908,8 @@
       <c r="CX17" s="21"/>
       <c r="CY17" s="49"/>
     </row>
-    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
+    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="95" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3921,10 +3918,10 @@
       <c r="C18" s="62">
         <v>4</v>
       </c>
-      <c r="D18" s="78">
+      <c r="D18" s="84">
         <v>23.02</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="89">
         <v>16.03</v>
       </c>
       <c r="F18" s="19"/>
@@ -4030,16 +4027,16 @@
       <c r="CX18" s="21"/>
       <c r="CY18" s="17"/>
     </row>
-    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="83"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="62">
         <v>3</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="85"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -4143,7 +4140,7 @@
       <c r="CX19" s="21"/>
       <c r="CY19" s="17"/>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -4260,8 +4257,8 @@
       <c r="CX20" s="30"/>
       <c r="CY20" s="17"/>
     </row>
-    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -4270,7 +4267,7 @@
       <c r="C21" s="62">
         <v>1</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>23.02</v>
       </c>
       <c r="E21" s="86">
@@ -4377,16 +4374,16 @@
       <c r="CX21" s="21"/>
       <c r="CY21" s="17"/>
     </row>
-    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="83"/>
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="62">
         <v>1</v>
       </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="85"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -4488,8 +4485,8 @@
       <c r="CX22" s="21"/>
       <c r="CY22" s="17"/>
     </row>
-    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="80" t="s">
+    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="82" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4499,7 +4496,7 @@
         <f>SUM(F23:CX23)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>23.02</v>
       </c>
       <c r="E23" s="86">
@@ -4612,8 +4609,8 @@
       <c r="CX23" s="21"/>
       <c r="CY23" s="17"/>
     </row>
-    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
+    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="83"/>
       <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
@@ -4621,8 +4618,8 @@
         <f>SUM(F24:CX24)</f>
         <v>5</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="85"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="19"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -4730,7 +4727,7 @@
       <c r="CX24" s="21"/>
       <c r="CY24" s="17"/>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -4845,8 +4842,8 @@
       <c r="CX25" s="30"/>
       <c r="CY25" s="17"/>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A26" s="82" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4855,7 +4852,7 @@
       <c r="C26" s="62">
         <v>4.5</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <v>23.02</v>
       </c>
       <c r="E26" s="86">
@@ -4968,16 +4965,16 @@
       <c r="CX26" s="21"/>
       <c r="CY26" s="17"/>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
+    <row r="27" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A27" s="83"/>
       <c r="B27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="62">
         <v>4.5</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="85"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -5085,8 +5082,8 @@
       <c r="CX27" s="21"/>
       <c r="CY27" s="17"/>
     </row>
-    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
+    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="82" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -5095,7 +5092,7 @@
       <c r="C28" s="62">
         <v>1</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <v>23.02</v>
       </c>
       <c r="E28" s="86">
@@ -5204,16 +5201,16 @@
       <c r="CX28" s="21"/>
       <c r="CY28" s="17"/>
     </row>
-    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
+    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="83"/>
       <c r="B29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="62">
         <v>1</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="85"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="87"/>
       <c r="F29" s="19"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -5317,8 +5314,8 @@
       <c r="CX29" s="21"/>
       <c r="CY29" s="17"/>
     </row>
-    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="82" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -5327,7 +5324,7 @@
       <c r="C30" s="62">
         <v>4</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="80">
         <v>23.02</v>
       </c>
       <c r="E30" s="86">
@@ -5438,16 +5435,16 @@
       <c r="CX30" s="21"/>
       <c r="CY30" s="17"/>
     </row>
-    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
+    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="83"/>
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="62">
         <v>3</v>
       </c>
-      <c r="D31" s="83"/>
-      <c r="E31" s="85"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -5553,16 +5550,16 @@
       <c r="CX31" s="21"/>
       <c r="CY31" s="17"/>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="62"/>
-      <c r="D32" s="87">
+      <c r="D32" s="93">
         <v>44636</v>
       </c>
-      <c r="E32" s="88"/>
+      <c r="E32" s="94"/>
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -5662,7 +5659,7 @@
       <c r="CX32" s="21"/>
       <c r="CY32" s="17"/>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>13</v>
       </c>
@@ -5779,7 +5776,7 @@
       <c r="CX33" s="34"/>
       <c r="CY33" s="17"/>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
@@ -5894,8 +5891,8 @@
       <c r="CX34" s="30"/>
       <c r="CY34" s="17"/>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A35" s="82" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -5904,10 +5901,10 @@
       <c r="C35" s="62">
         <v>3</v>
       </c>
-      <c r="D35" s="78">
+      <c r="D35" s="84">
         <v>23.03</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="85">
         <v>6.04</v>
       </c>
       <c r="F35" s="19"/>
@@ -6015,16 +6012,16 @@
       <c r="CX35" s="21"/>
       <c r="CY35" s="17"/>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
+    <row r="36" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A36" s="83"/>
       <c r="B36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="62">
         <v>6</v>
       </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="85"/>
       <c r="F36" s="19"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
@@ -6130,8 +6127,8 @@
       <c r="CX36" s="21"/>
       <c r="CY36" s="17"/>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+    <row r="37" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A37" s="82" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -6140,10 +6137,10 @@
       <c r="C37" s="62">
         <v>2</v>
       </c>
-      <c r="D37" s="78">
+      <c r="D37" s="84">
         <v>23.03</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="85">
         <v>6.04</v>
       </c>
       <c r="F37" s="19"/>
@@ -6247,16 +6244,16 @@
       <c r="CX37" s="21"/>
       <c r="CY37" s="17"/>
     </row>
-    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
+    <row r="38" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="83"/>
       <c r="B38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="62">
         <v>3</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="85"/>
       <c r="F38" s="19"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -6358,8 +6355,8 @@
       <c r="CX38" s="21"/>
       <c r="CY38" s="17"/>
     </row>
-    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
+    <row r="39" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="82" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -6368,10 +6365,10 @@
       <c r="C39" s="62">
         <v>2</v>
       </c>
-      <c r="D39" s="78">
+      <c r="D39" s="84">
         <v>23.03</v>
       </c>
-      <c r="E39" s="79">
+      <c r="E39" s="85">
         <v>6.04</v>
       </c>
       <c r="F39" s="19"/>
@@ -6477,16 +6474,16 @@
       <c r="CX39" s="21"/>
       <c r="CY39" s="17"/>
     </row>
-    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
+    <row r="40" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="83"/>
       <c r="B40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="62">
         <v>2</v>
       </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="85"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
@@ -6590,7 +6587,7 @@
       <c r="CX40" s="21"/>
       <c r="CY40" s="17"/>
     </row>
-    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -6707,8 +6704,8 @@
       <c r="CX41" s="30"/>
       <c r="CY41" s="17"/>
     </row>
-    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="80" t="s">
+    <row r="42" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="82" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6718,7 +6715,7 @@
         <f>SUM(F42:AX42)</f>
         <v>11</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="86">
@@ -6841,8 +6838,8 @@
       <c r="CX42" s="21"/>
       <c r="CY42" s="10"/>
     </row>
-    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
+    <row r="43" spans="1:103" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="83"/>
       <c r="B43" s="6" t="s">
         <v>8</v>
       </c>
@@ -6850,8 +6847,8 @@
         <f t="shared" ref="C43:C49" si="0">SUM(F43:AX43)</f>
         <v>13.5</v>
       </c>
-      <c r="D43" s="83"/>
-      <c r="E43" s="85"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="87"/>
       <c r="F43" s="19"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -6968,8 +6965,8 @@
       <c r="CX43" s="21"/>
       <c r="CY43" s="10"/>
     </row>
-    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="80" t="s">
+    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="82" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -6979,7 +6976,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E44" s="86">
@@ -7096,8 +7093,8 @@
       <c r="CX44" s="21"/>
       <c r="CY44" s="10"/>
     </row>
-    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
+    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="83"/>
       <c r="B45" s="6" t="s">
         <v>8</v>
       </c>
@@ -7105,8 +7102,8 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="85"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="19"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -7218,8 +7215,8 @@
       <c r="CX45" s="21"/>
       <c r="CY45" s="10"/>
     </row>
-    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="80" t="s">
+    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="82" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -7229,7 +7226,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="86">
@@ -7336,8 +7333,8 @@
       <c r="CX46" s="21"/>
       <c r="CY46" s="10"/>
     </row>
-    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
+    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="83"/>
       <c r="B47" s="6" t="s">
         <v>8</v>
       </c>
@@ -7345,8 +7342,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="85"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="87"/>
       <c r="F47" s="19"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
@@ -7448,8 +7445,8 @@
       <c r="CX47" s="21"/>
       <c r="CY47" s="10"/>
     </row>
-    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="80" t="s">
+    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="82" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -7459,7 +7456,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D48" s="82" t="s">
+      <c r="D48" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E48" s="86">
@@ -7566,8 +7563,8 @@
       <c r="CX48" s="21"/>
       <c r="CY48" s="10"/>
     </row>
-    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
+    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="83"/>
       <c r="B49" s="6" t="s">
         <v>8</v>
       </c>
@@ -7575,8 +7572,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="85"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="87"/>
       <c r="F49" s="19"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
@@ -7678,7 +7675,7 @@
       <c r="CX49" s="21"/>
       <c r="CY49" s="10"/>
     </row>
-    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -7795,8 +7792,8 @@
       <c r="CX50" s="30"/>
       <c r="CY50" s="10"/>
     </row>
-    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="80" t="s">
+    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="82" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7805,7 +7802,7 @@
       <c r="C51" s="62">
         <v>3</v>
       </c>
-      <c r="D51" s="82" t="s">
+      <c r="D51" s="80" t="s">
         <v>51</v>
       </c>
       <c r="E51" s="86">
@@ -7914,16 +7911,16 @@
       <c r="CX51" s="21"/>
       <c r="CY51" s="10"/>
     </row>
-    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="81"/>
+    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="83"/>
       <c r="B52" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="62">
         <v>3</v>
       </c>
-      <c r="D52" s="83"/>
-      <c r="E52" s="85"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="87"/>
       <c r="F52" s="19"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -8027,8 +8024,8 @@
       <c r="CX52" s="21"/>
       <c r="CY52" s="10"/>
     </row>
-    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="80" t="s">
+    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="82" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -8037,7 +8034,7 @@
       <c r="C53" s="62">
         <v>6</v>
       </c>
-      <c r="D53" s="82" t="s">
+      <c r="D53" s="80" t="s">
         <v>51</v>
       </c>
       <c r="E53" s="86">
@@ -8151,16 +8148,16 @@
       <c r="CW53" s="20"/>
       <c r="CX53" s="21"/>
     </row>
-    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
+    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="83"/>
       <c r="B54" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="62">
         <v>7</v>
       </c>
-      <c r="D54" s="83"/>
-      <c r="E54" s="85"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="87"/>
       <c r="F54" s="19"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
@@ -8270,8 +8267,8 @@
       <c r="CX54" s="21"/>
       <c r="CY54" s="10"/>
     </row>
-    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="82" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -8280,7 +8277,7 @@
       <c r="C55" s="62">
         <v>1</v>
       </c>
-      <c r="D55" s="82" t="s">
+      <c r="D55" s="80" t="s">
         <v>51</v>
       </c>
       <c r="E55" s="86">
@@ -8387,16 +8384,16 @@
       <c r="CX55" s="21"/>
       <c r="CY55" s="10"/>
     </row>
-    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="81"/>
+    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="83"/>
       <c r="B56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="62">
         <v>1</v>
       </c>
-      <c r="D56" s="83"/>
-      <c r="E56" s="85"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="87"/>
       <c r="F56" s="19"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
@@ -8497,7 +8494,7 @@
       <c r="CW56" s="20"/>
       <c r="CX56" s="21"/>
     </row>
-    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>23</v>
       </c>
@@ -8614,8 +8611,8 @@
       <c r="CX57" s="30"/>
       <c r="CY57" s="17"/>
     </row>
-    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="89" t="s">
+    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -8624,10 +8621,10 @@
       <c r="C58" s="62">
         <v>4</v>
       </c>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="79">
+      <c r="E58" s="85">
         <v>6.04</v>
       </c>
       <c r="F58" s="19"/>
@@ -8737,16 +8734,16 @@
       <c r="CX58" s="21"/>
       <c r="CY58" s="17"/>
     </row>
-    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="90"/>
+    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="97"/>
       <c r="B59" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="62">
         <v>10</v>
       </c>
-      <c r="D59" s="83"/>
-      <c r="E59" s="79"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="85"/>
       <c r="F59" s="19"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
@@ -8854,8 +8851,8 @@
       <c r="CX59" s="21"/>
       <c r="CY59" s="17"/>
     </row>
-    <row r="60" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A60" s="89" t="s">
+    <row r="60" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A60" s="96" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -8864,10 +8861,10 @@
       <c r="C60" s="62">
         <v>2</v>
       </c>
-      <c r="D60" s="82" t="s">
+      <c r="D60" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="79">
+      <c r="E60" s="85">
         <v>6.04</v>
       </c>
       <c r="F60" s="19"/>
@@ -8973,16 +8970,16 @@
       <c r="CX60" s="21"/>
       <c r="CY60" s="17"/>
     </row>
-    <row r="61" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A61" s="90"/>
+    <row r="61" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A61" s="97"/>
       <c r="B61" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="62">
         <v>2</v>
       </c>
-      <c r="D61" s="83"/>
-      <c r="E61" s="79"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="85"/>
       <c r="F61" s="19"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -9086,8 +9083,8 @@
       <c r="CX61" s="21"/>
       <c r="CY61" s="17"/>
     </row>
-    <row r="62" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A62" s="89" t="s">
+    <row r="62" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A62" s="96" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -9096,10 +9093,10 @@
       <c r="C62" s="62">
         <v>2</v>
       </c>
-      <c r="D62" s="82" t="s">
+      <c r="D62" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="79">
+      <c r="E62" s="85">
         <v>6.04</v>
       </c>
       <c r="F62" s="19"/>
@@ -9205,16 +9202,16 @@
       <c r="CX62" s="21"/>
       <c r="CY62" s="17"/>
     </row>
-    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="90"/>
+    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="97"/>
       <c r="B63" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="62">
         <v>2</v>
       </c>
-      <c r="D63" s="83"/>
-      <c r="E63" s="79"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="85"/>
       <c r="F63" s="19"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
@@ -9318,8 +9315,8 @@
       <c r="CX63" s="21"/>
       <c r="CY63" s="17"/>
     </row>
-    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="80" t="s">
+    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="82" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -9328,10 +9325,10 @@
       <c r="C64" s="62">
         <v>4</v>
       </c>
-      <c r="D64" s="82" t="s">
+      <c r="D64" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="79">
+      <c r="E64" s="85">
         <v>6.04</v>
       </c>
       <c r="F64" s="19"/>
@@ -9441,16 +9438,16 @@
       <c r="CX64" s="21"/>
       <c r="CY64" s="17"/>
     </row>
-    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="81"/>
+    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="83"/>
       <c r="B65" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="62">
         <v>4</v>
       </c>
-      <c r="D65" s="83"/>
-      <c r="E65" s="79"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="85"/>
       <c r="F65" s="19"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
@@ -9558,7 +9555,7 @@
       <c r="CX65" s="21"/>
       <c r="CY65" s="17"/>
     </row>
-    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>24</v>
       </c>
@@ -9675,8 +9672,8 @@
       <c r="CX66" s="30"/>
       <c r="CY66" s="17"/>
     </row>
-    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="80" t="s">
+    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="82" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -9685,10 +9682,10 @@
       <c r="C67" s="62">
         <v>4</v>
       </c>
-      <c r="D67" s="78">
+      <c r="D67" s="84">
         <v>23.03</v>
       </c>
-      <c r="E67" s="79">
+      <c r="E67" s="85">
         <v>6.04</v>
       </c>
       <c r="F67" s="19"/>
@@ -9796,16 +9793,16 @@
       <c r="CX67" s="21"/>
       <c r="CY67" s="17"/>
     </row>
-    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="81"/>
+    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="83"/>
       <c r="B68" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="62">
         <v>5</v>
       </c>
-      <c r="D68" s="78"/>
-      <c r="E68" s="79"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="85"/>
       <c r="F68" s="19"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
@@ -9911,8 +9908,8 @@
       <c r="CX68" s="21"/>
       <c r="CY68" s="17"/>
     </row>
-    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="80" t="s">
+    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="82" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -9921,10 +9918,10 @@
       <c r="C69" s="62">
         <v>2</v>
       </c>
-      <c r="D69" s="78">
+      <c r="D69" s="84">
         <v>23.03</v>
       </c>
-      <c r="E69" s="79">
+      <c r="E69" s="85">
         <v>6.04</v>
       </c>
       <c r="F69" s="19"/>
@@ -10028,16 +10025,16 @@
       <c r="CX69" s="21"/>
       <c r="CY69" s="17"/>
     </row>
-    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="81"/>
+    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="83"/>
       <c r="B70" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="62">
         <v>1</v>
       </c>
-      <c r="D70" s="78"/>
-      <c r="E70" s="79"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="85"/>
       <c r="F70" s="19"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -10139,8 +10136,8 @@
       <c r="CX70" s="21"/>
       <c r="CY70" s="17"/>
     </row>
-    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="80" t="s">
+    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="82" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -10149,10 +10146,10 @@
       <c r="C71" s="62">
         <v>2</v>
       </c>
-      <c r="D71" s="78">
+      <c r="D71" s="84">
         <v>23.03</v>
       </c>
-      <c r="E71" s="79">
+      <c r="E71" s="85">
         <v>6.04</v>
       </c>
       <c r="F71" s="19"/>
@@ -10256,16 +10253,16 @@
       <c r="CX71" s="21"/>
       <c r="CY71" s="17"/>
     </row>
-    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="81"/>
+    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="83"/>
       <c r="B72" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="62">
         <v>2</v>
       </c>
-      <c r="D72" s="78"/>
-      <c r="E72" s="79"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="85"/>
       <c r="F72" s="19"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
@@ -10367,8 +10364,8 @@
       <c r="CX72" s="21"/>
       <c r="CY72" s="17"/>
     </row>
-    <row r="73" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A73" s="80" t="s">
+    <row r="73" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A73" s="82" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -10377,10 +10374,10 @@
       <c r="C73" s="62">
         <v>3</v>
       </c>
-      <c r="D73" s="78">
+      <c r="D73" s="84">
         <v>23.03</v>
       </c>
-      <c r="E73" s="79">
+      <c r="E73" s="85">
         <v>6.04</v>
       </c>
       <c r="F73" s="19"/>
@@ -10484,16 +10481,16 @@
       <c r="CX73" s="21"/>
       <c r="CY73" s="17"/>
     </row>
-    <row r="74" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A74" s="81"/>
+    <row r="74" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A74" s="83"/>
       <c r="B74" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="62">
         <v>3</v>
       </c>
-      <c r="D74" s="78"/>
-      <c r="E74" s="79"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="85"/>
       <c r="F74" s="19"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
@@ -10595,8 +10592,8 @@
       <c r="CX74" s="21"/>
       <c r="CY74" s="17"/>
     </row>
-    <row r="75" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A75" s="80" t="s">
+    <row r="75" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A75" s="82" t="s">
         <v>45</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -10605,10 +10602,10 @@
       <c r="C75" s="62">
         <v>1</v>
       </c>
-      <c r="D75" s="78">
+      <c r="D75" s="84">
         <v>23.03</v>
       </c>
-      <c r="E75" s="79">
+      <c r="E75" s="85">
         <v>6.04</v>
       </c>
       <c r="F75" s="19"/>
@@ -10710,16 +10707,16 @@
       <c r="CX75" s="21"/>
       <c r="CY75" s="17"/>
     </row>
-    <row r="76" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A76" s="81"/>
+    <row r="76" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A76" s="83"/>
       <c r="B76" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="62">
         <v>3</v>
       </c>
-      <c r="D76" s="78"/>
-      <c r="E76" s="79"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="85"/>
       <c r="F76" s="19"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
@@ -10821,16 +10818,16 @@
       <c r="CX76" s="21"/>
       <c r="CY76" s="17"/>
     </row>
-    <row r="77" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="62"/>
-      <c r="D77" s="99">
+      <c r="D77" s="90">
         <v>44292</v>
       </c>
-      <c r="E77" s="101"/>
+      <c r="E77" s="91"/>
       <c r="F77" s="19"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
@@ -10932,7 +10929,7 @@
       <c r="CX77" s="21"/>
       <c r="CY77" s="17"/>
     </row>
-    <row r="78" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>15</v>
       </c>
@@ -11049,7 +11046,7 @@
       <c r="CX78" s="34"/>
       <c r="CY78" s="17"/>
     </row>
-    <row r="79" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>20</v>
       </c>
@@ -11166,8 +11163,8 @@
       <c r="CX79" s="30"/>
       <c r="CY79" s="17"/>
     </row>
-    <row r="80" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A80" s="80" t="s">
+    <row r="80" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A80" s="82" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -11176,10 +11173,10 @@
       <c r="C80" s="62">
         <v>3</v>
       </c>
-      <c r="D80" s="82">
+      <c r="D80" s="80">
         <v>6.04</v>
       </c>
-      <c r="E80" s="84">
+      <c r="E80" s="89">
         <v>4.05</v>
       </c>
       <c r="F80" s="19"/>
@@ -11287,16 +11284,16 @@
       <c r="CX80" s="21"/>
       <c r="CY80" s="17"/>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A81" s="81"/>
+    <row r="81" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A81" s="83"/>
       <c r="B81" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="62">
         <v>4</v>
       </c>
-      <c r="D81" s="83"/>
-      <c r="E81" s="85"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="87"/>
       <c r="F81" s="19"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
@@ -11402,8 +11399,8 @@
       <c r="CX81" s="21"/>
       <c r="CY81" s="17"/>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A82" s="80" t="s">
+    <row r="82" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A82" s="82" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -11412,10 +11409,10 @@
       <c r="C82" s="62">
         <v>1</v>
       </c>
-      <c r="D82" s="82">
+      <c r="D82" s="80">
         <v>6.04</v>
       </c>
-      <c r="E82" s="79">
+      <c r="E82" s="85">
         <v>4.05</v>
       </c>
       <c r="F82" s="19"/>
@@ -11519,16 +11516,16 @@
       <c r="CX82" s="21"/>
       <c r="CY82" s="17"/>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A83" s="81"/>
+    <row r="83" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A83" s="83"/>
       <c r="B83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="62">
         <v>1</v>
       </c>
-      <c r="D83" s="83"/>
-      <c r="E83" s="79"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="85"/>
       <c r="F83" s="19"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
@@ -11630,8 +11627,8 @@
       <c r="CX83" s="21"/>
       <c r="CY83" s="17"/>
     </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A84" s="80" t="s">
+    <row r="84" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A84" s="82" t="s">
         <v>60</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -11640,10 +11637,10 @@
       <c r="C84" s="62">
         <v>2</v>
       </c>
-      <c r="D84" s="82">
+      <c r="D84" s="80">
         <v>6.04</v>
       </c>
-      <c r="E84" s="84">
+      <c r="E84" s="89">
         <v>4.05</v>
       </c>
       <c r="F84" s="19"/>
@@ -11747,16 +11744,16 @@
       <c r="CX84" s="21"/>
       <c r="CY84" s="17"/>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A85" s="81"/>
+    <row r="85" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A85" s="83"/>
       <c r="B85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="62">
         <v>1</v>
       </c>
-      <c r="D85" s="83"/>
-      <c r="E85" s="85"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="87"/>
       <c r="F85" s="19"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
@@ -11858,7 +11855,7 @@
       <c r="CX85" s="21"/>
       <c r="CY85" s="17"/>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>21</v>
       </c>
@@ -11975,8 +11972,8 @@
       <c r="CX86" s="30"/>
       <c r="CY86" s="17"/>
     </row>
-    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="80" t="s">
+    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="82" t="s">
         <v>54</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -11986,10 +11983,10 @@
         <f t="shared" ref="C87:C94" si="1">SUM(F87:CX87)</f>
         <v>9</v>
       </c>
-      <c r="D87" s="97">
+      <c r="D87" s="78">
         <v>6.04</v>
       </c>
-      <c r="E87" s="98">
+      <c r="E87" s="79">
         <v>4.05</v>
       </c>
       <c r="F87" s="54"/>
@@ -12107,8 +12104,8 @@
       <c r="CX87" s="53"/>
       <c r="CY87" s="17"/>
     </row>
-    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="81"/>
+    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="83"/>
       <c r="B88" s="6" t="s">
         <v>8</v>
       </c>
@@ -12116,8 +12113,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D88" s="97"/>
-      <c r="E88" s="98"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="79"/>
       <c r="F88" s="54"/>
       <c r="G88" s="52"/>
       <c r="H88" s="52"/>
@@ -12233,8 +12230,8 @@
       <c r="CX88" s="53"/>
       <c r="CY88" s="17"/>
     </row>
-    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="80" t="s">
+    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="82" t="s">
         <v>63</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -12244,10 +12241,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D89" s="97">
+      <c r="D89" s="78">
         <v>6.04</v>
       </c>
-      <c r="E89" s="98">
+      <c r="E89" s="79">
         <v>4.05</v>
       </c>
       <c r="F89" s="54"/>
@@ -12359,8 +12356,8 @@
       <c r="CX89" s="53"/>
       <c r="CY89" s="17"/>
     </row>
-    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="81"/>
+    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="83"/>
       <c r="B90" s="6" t="s">
         <v>8</v>
       </c>
@@ -12368,8 +12365,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D90" s="97"/>
-      <c r="E90" s="98"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="79"/>
       <c r="F90" s="54"/>
       <c r="G90" s="52"/>
       <c r="H90" s="52"/>
@@ -12479,8 +12476,8 @@
       <c r="CX90" s="53"/>
       <c r="CY90" s="17"/>
     </row>
-    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="80" t="s">
+    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="82" t="s">
         <v>64</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -12490,10 +12487,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D91" s="97">
+      <c r="D91" s="78">
         <v>6.04</v>
       </c>
-      <c r="E91" s="98">
+      <c r="E91" s="79">
         <v>4.05</v>
       </c>
       <c r="F91" s="54"/>
@@ -12597,8 +12594,8 @@
       <c r="CX91" s="53"/>
       <c r="CY91" s="17"/>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A92" s="81"/>
+    <row r="92" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A92" s="83"/>
       <c r="B92" s="6" t="s">
         <v>8</v>
       </c>
@@ -12606,8 +12603,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D92" s="97"/>
-      <c r="E92" s="98"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="79"/>
       <c r="F92" s="54"/>
       <c r="G92" s="52"/>
       <c r="H92" s="52"/>
@@ -12709,8 +12706,8 @@
       <c r="CX92" s="53"/>
       <c r="CY92" s="17"/>
     </row>
-    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="80" t="s">
+    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="82" t="s">
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -12720,10 +12717,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D93" s="97">
+      <c r="D93" s="78">
         <v>6.04</v>
       </c>
-      <c r="E93" s="98">
+      <c r="E93" s="79">
         <v>4.05</v>
       </c>
       <c r="F93" s="54"/>
@@ -12827,8 +12824,8 @@
       <c r="CX93" s="53"/>
       <c r="CY93" s="17"/>
     </row>
-    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="81"/>
+    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="83"/>
       <c r="B94" s="6" t="s">
         <v>8</v>
       </c>
@@ -12836,8 +12833,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D94" s="97"/>
-      <c r="E94" s="98"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="79"/>
       <c r="F94" s="54"/>
       <c r="G94" s="52"/>
       <c r="H94" s="52"/>
@@ -12939,7 +12936,7 @@
       <c r="CX94" s="53"/>
       <c r="CY94" s="17"/>
     </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>22</v>
       </c>
@@ -13054,8 +13051,8 @@
       <c r="CX95" s="30"/>
       <c r="CY95" s="17"/>
     </row>
-    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="80" t="s">
+    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="82" t="s">
         <v>71</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -13064,7 +13061,7 @@
       <c r="C96" s="62">
         <v>4</v>
       </c>
-      <c r="D96" s="82">
+      <c r="D96" s="80">
         <v>6.04</v>
       </c>
       <c r="E96" s="86">
@@ -13173,16 +13170,16 @@
       <c r="CX96" s="21"/>
       <c r="CY96" s="10"/>
     </row>
-    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="81"/>
+    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="83"/>
       <c r="B97" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="62">
         <v>5</v>
       </c>
-      <c r="D97" s="83"/>
-      <c r="E97" s="84"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="89"/>
       <c r="F97" s="19"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
@@ -13286,8 +13283,8 @@
       <c r="CX97" s="21"/>
       <c r="CY97" s="10"/>
     </row>
-    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="80" t="s">
+    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="82" t="s">
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -13296,10 +13293,10 @@
       <c r="C98" s="62">
         <v>5</v>
       </c>
-      <c r="D98" s="82">
+      <c r="D98" s="80">
         <v>6.04</v>
       </c>
-      <c r="E98" s="84">
+      <c r="E98" s="89">
         <v>4.05</v>
       </c>
       <c r="F98" s="19"/>
@@ -13409,16 +13406,16 @@
       <c r="CX98" s="21"/>
       <c r="CY98" s="10"/>
     </row>
-    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="81"/>
+    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="83"/>
       <c r="B99" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="62">
         <v>7</v>
       </c>
-      <c r="D99" s="83"/>
-      <c r="E99" s="84"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="89"/>
       <c r="F99" s="19"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
@@ -13526,8 +13523,8 @@
       <c r="CX99" s="21"/>
       <c r="CY99" s="10"/>
     </row>
-    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="80" t="s">
+    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="82" t="s">
         <v>72</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -13536,10 +13533,10 @@
       <c r="C100" s="62">
         <v>2</v>
       </c>
-      <c r="D100" s="82">
+      <c r="D100" s="80">
         <v>6.04</v>
       </c>
-      <c r="E100" s="84">
+      <c r="E100" s="89">
         <v>4.05</v>
       </c>
       <c r="F100" s="19"/>
@@ -13647,16 +13644,16 @@
       <c r="CX100" s="21"/>
       <c r="CY100" s="10"/>
     </row>
-    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="81"/>
+    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="83"/>
       <c r="B101" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="62">
         <v>2</v>
       </c>
-      <c r="D101" s="83"/>
-      <c r="E101" s="84"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="89"/>
       <c r="F101" s="19"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
@@ -13762,8 +13759,8 @@
       <c r="CX101" s="21"/>
       <c r="CY101" s="10"/>
     </row>
-    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="80" t="s">
+    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="82" t="s">
         <v>73</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -13772,10 +13769,10 @@
       <c r="C102" s="62">
         <v>6</v>
       </c>
-      <c r="D102" s="82">
+      <c r="D102" s="80">
         <v>6.04</v>
       </c>
-      <c r="E102" s="84">
+      <c r="E102" s="89">
         <v>4.05</v>
       </c>
       <c r="F102" s="19"/>
@@ -13883,16 +13880,16 @@
       <c r="CX102" s="21"/>
       <c r="CY102" s="10"/>
     </row>
-    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="81"/>
+    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="83"/>
       <c r="B103" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="62">
         <v>7.5</v>
       </c>
-      <c r="D103" s="83"/>
-      <c r="E103" s="85"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="87"/>
       <c r="F103" s="19"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
@@ -13998,8 +13995,8 @@
       <c r="CX103" s="21"/>
       <c r="CY103" s="10"/>
     </row>
-    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="80" t="s">
+    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="82" t="s">
         <v>74</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -14008,7 +14005,7 @@
       <c r="C104" s="62">
         <v>0.5</v>
       </c>
-      <c r="D104" s="82">
+      <c r="D104" s="80">
         <v>6.04</v>
       </c>
  